--- a/lod_analysis/excels/artists_full_evaluation.xlsx
+++ b/lod_analysis/excels/artists_full_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="433">
   <si>
     <t>artist_id</t>
   </si>
@@ -49,1408 +49,1270 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>7I95CM75shzCjHuTzrepjM</t>
-  </si>
-  <si>
-    <t>6kNKUYGn6VNGsRoXmyoDPK</t>
-  </si>
-  <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>3LkSiHbjqOHCKCqBfEZOTv</t>
-  </si>
-  <si>
-    <t>2CmaKO2zEGJ1NWpS1yfVGz</t>
-  </si>
-  <si>
-    <t>3Uobr6LgQpBbk6k4QGAb3V</t>
-  </si>
-  <si>
-    <t>1caBfBEapzw8z2Qz9q0OaQ</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>39VNwvlQTqE9SvgPjjnMpc</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>7FBcuc1gsnv6Y1nwFtNRCb</t>
-  </si>
-  <si>
-    <t>6GfiCQDFYANz5wUkSmb3Dr</t>
-  </si>
-  <si>
-    <t>1d5wNTZ8WZYE5WuXXjug9w</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>7qAcXJgt1PWnxwUgxMdyuk</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
-  </si>
-  <si>
-    <t>3886aFez2HDLkio5tUzmP6</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>6Fwq3TDWpMhcL1KTKVQiI8</t>
-  </si>
-  <si>
-    <t>4olk2DDoPvzAJlJBonZFHk</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>4HrkLxQHZ5mgCtIVpiH5QX</t>
+    <t>01WjpKiWVNurV5hjIadB8C</t>
+  </si>
+  <si>
+    <t>6J7biCazzYhU3gM9j1wfid</t>
+  </si>
+  <si>
+    <t>6TZdvF1kFzwnQLgHQynzsO</t>
+  </si>
+  <si>
+    <t>5svDnd8joFhbpbA3Ar0CfN</t>
+  </si>
+  <si>
+    <t>2AsusXITU8P25dlRNhcAbG</t>
+  </si>
+  <si>
+    <t>0Xf8oDAJYd2D0k3NLI19OV</t>
+  </si>
+  <si>
+    <t>1u7kkVrr14iBvrpYnZILJR</t>
+  </si>
+  <si>
+    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
+  </si>
+  <si>
+    <t>4y5wqoJUmlvr9xV6l5lO4b</t>
+  </si>
+  <si>
+    <t>31TPClRtHm23RisEBtV3X7</t>
+  </si>
+  <si>
+    <t>5EvFsr3kj42KNv97ZEnqij</t>
+  </si>
+  <si>
+    <t>2gsggkzM5R49q6jpPvazou</t>
+  </si>
+  <si>
+    <t>7KBkgunlONG7LPxs93pgpp</t>
+  </si>
+  <si>
+    <t>3X0tJzVYoWlfjLYI0Ridsw</t>
+  </si>
+  <si>
+    <t>3bhu7P5PfngueRHiB9hjcx</t>
+  </si>
+  <si>
+    <t>1gR0gsQYfi6joyO1dlp76N</t>
+  </si>
+  <si>
+    <t>3SYGWAHCe31oykdeUPpoJp</t>
+  </si>
+  <si>
+    <t>1bdytLV3FPjyhfrb6BhMej</t>
+  </si>
+  <si>
+    <t>4npEfmQ6YuiwW1GpUmaq3F</t>
+  </si>
+  <si>
+    <t>7KMqksf0UMdyA0UCf4R3ux</t>
+  </si>
+  <si>
+    <t>1yjAx9cww4f1QuAaN3dUI2</t>
+  </si>
+  <si>
+    <t>5ndkK3dpZLKtBklKjxNQwT</t>
+  </si>
+  <si>
+    <t>0qT79UgT5tY4yudH9VfsdT</t>
+  </si>
+  <si>
+    <t>2MqhkhX4npxDZ62ObR5ELO</t>
+  </si>
+  <si>
+    <t>4Eqd24yS5YcxI8b6Xfuwr8</t>
+  </si>
+  <si>
+    <t>0Suv0tRrNrUlRzAy8aXjma</t>
+  </si>
+  <si>
+    <t>2hl0xAkS2AIRAu23TVMBG1</t>
+  </si>
+  <si>
+    <t>1TqQi97nqeiuOJrIFv5Sw0</t>
+  </si>
+  <si>
+    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
+  </si>
+  <si>
+    <t>5PTDGbHPxxXf81RrubpIOO</t>
+  </si>
+  <si>
+    <t>2siHvYaxjaW5rKVRiIrMYH</t>
+  </si>
+  <si>
+    <t>2iEvnFsWxR0Syqu2JNopAd</t>
+  </si>
+  <si>
+    <t>5OfhOoKunSnuubxxRML8J3</t>
+  </si>
+  <si>
+    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
+  </si>
+  <si>
+    <t>0q8J3Yj810t5cpAYEJ7gxt</t>
+  </si>
+  <si>
+    <t>00FQb4jTyendYWaN8pK0wa</t>
+  </si>
+  <si>
+    <t>6w7fc6IZlo5zwBaKT5jU1X</t>
+  </si>
+  <si>
+    <t>5BcAKTbp20cv7tC5VqPFoC</t>
+  </si>
+  <si>
+    <t>7HqEmV7FeCi16bQyHMpIrF</t>
+  </si>
+  <si>
+    <t>4Wjf8diP59VmPG7fi4y724</t>
+  </si>
+  <si>
+    <t>5ZsFI1h6hIdQRw2ti0hz81</t>
+  </si>
+  <si>
+    <t>4M1FpEWs2PeYfJe7xxJfhH</t>
+  </si>
+  <si>
+    <t>4eQJIXFEujzhTVVS1gIfu5</t>
+  </si>
+  <si>
+    <t>0jgAONnsHxrwAlhkMUVS78</t>
+  </si>
+  <si>
+    <t>7dxF7y4hlGFazdArMsxbEx</t>
+  </si>
+  <si>
+    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
+  </si>
+  <si>
+    <t>1Yyag4BRejtPxsKTrSkKDz</t>
+  </si>
+  <si>
+    <t>545idYhdloaSlLGBY8E9u2</t>
+  </si>
+  <si>
+    <t>6xHUXzrfhFgnIv86EBR3Ml</t>
+  </si>
+  <si>
+    <t>1tqZaCwM57UFKjWoYwMLrw</t>
+  </si>
+  <si>
+    <t>32ckuKo8LrZhQMyCehYKkt</t>
+  </si>
+  <si>
+    <t>4hqDqHtBlgxXpLXVYf7c8L</t>
+  </si>
+  <si>
+    <t>0rvjqX7ttXeg3mTy8Xscbt</t>
+  </si>
+  <si>
+    <t>23zg3TcAtWQy7J6upgbUnj</t>
+  </si>
+  <si>
+    <t>3KEb1kbIZN5jumsjFEWgSW</t>
+  </si>
+  <si>
+    <t>07lbidCU8ZwtNCUrmaO0QU</t>
+  </si>
+  <si>
+    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
+  </si>
+  <si>
+    <t>2cNCyL3WSlAatld5duatyD</t>
+  </si>
+  <si>
+    <t>4bthk9UfsYUYdcFyqxmSUU</t>
+  </si>
+  <si>
+    <t>09l3QuYe7ExcyAZYosgVJx</t>
+  </si>
+  <si>
+    <t>5P5FTygHyx2G57oszR3Wot</t>
+  </si>
+  <si>
+    <t>5LtL2B9LC31DesMx7ihMFc</t>
+  </si>
+  <si>
+    <t>3Nrfpe0tUJi4K4DXYWgMUX</t>
+  </si>
+  <si>
+    <t>7jVv8c5Fj3E9VhNjxT4snq</t>
+  </si>
+  <si>
+    <t>0fA0VVWsXO9YnASrzqfmYu</t>
+  </si>
+  <si>
+    <t>6oMuImdp5ZcFhWP0ESe6mG</t>
+  </si>
+  <si>
+    <t>4yiQZ8tQPux8cPriYMWUFP</t>
+  </si>
+  <si>
+    <t>4opTS86dN9uO313J9CE8xg</t>
+  </si>
+  <si>
+    <t>14ZxDAK6ITtZZqPdiWrvSn</t>
+  </si>
+  <si>
+    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>2jw70GZXlAI8QzWeY2bgRc</t>
+  </si>
+  <si>
+    <t>03ilIKH0i08IxmjKcn63ne</t>
+  </si>
+  <si>
+    <t>1KCSPY1glIKqW2TotWuXOR</t>
+  </si>
+  <si>
+    <t>0sHeX8oQ6o7xic3wMf4NBU</t>
+  </si>
+  <si>
+    <t>0Chxmm4XMM87mJOHvyiUzL</t>
+  </si>
+  <si>
+    <t>3MZsBdqDrRTJihTHQrO6Dq</t>
+  </si>
+  <si>
+    <t>4GLJPBj5Cdr9AgLKvLWM4n</t>
+  </si>
+  <si>
+    <t>6KImCVD70vtIoJWnq6nGn3</t>
+  </si>
+  <si>
+    <t>450iujbtN6XgiA9pv6fVZz</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
+  </si>
+  <si>
+    <t>3Y3xIwWyq5wnNHPp5gPjOW</t>
+  </si>
+  <si>
+    <t>5mqguTgtaoCMNMZD6txCh6</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>0epOFNiUfyON9EYx7Tpr6V</t>
+  </si>
+  <si>
+    <t>694QW15WkebjcrWgQHzRYF</t>
   </si>
   <si>
     <t>3TOqt5oJwL9BE2NG9MEwDa</t>
   </si>
   <si>
-    <t>1pRaG81GsVtaTBuVSpldt2</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>0kD8IT1CzF7js2XKM9lLLa</t>
-  </si>
-  <si>
-    <t>2pqd3HsfsvcBGtHvPOg6eg</t>
-  </si>
-  <si>
-    <t>01ZtptlLUxoAbJDrS9fTqX</t>
-  </si>
-  <si>
-    <t>4hxDvVq5t8ebPYPdBl1F9f</t>
-  </si>
-  <si>
-    <t>6Wr3hh341P84m3EI8qdn9O</t>
-  </si>
-  <si>
-    <t>4jpaXieuls7LVzG1uma5Rs</t>
-  </si>
-  <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>2zgG1GPDvjaBgxeQaVXI14</t>
-  </si>
-  <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>4tususHNaR68xdgLstlGBA</t>
-  </si>
-  <si>
-    <t>01crEa9G3pNpXZ5m7wuHOk</t>
-  </si>
-  <si>
-    <t>64g59lHsc4g2jMFokrKDGW</t>
-  </si>
-  <si>
-    <t>1AeC9AuzqGc3IXMC2T5xny</t>
-  </si>
-  <si>
-    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
-  </si>
-  <si>
-    <t>5S6hjAxgxjsLylsTtMIimO</t>
-  </si>
-  <si>
-    <t>0RqtSIYZmd4fiBKVFqyIqD</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>5KDIH2gF0VpelTqyQS7udb</t>
-  </si>
-  <si>
-    <t>0REMf7H0VP6DwfZ9MbuWph</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>0niJkG4tKkne3zwr7I8n9n</t>
-  </si>
-  <si>
-    <t>2RTUTCvo6onsAnheUk3aL9</t>
-  </si>
-  <si>
-    <t>6deZN1bslXzeGvOLaLMOIF</t>
-  </si>
-  <si>
-    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
-  </si>
-  <si>
-    <t>2Tkg8omOIsTL617yXVt26e</t>
-  </si>
-  <si>
-    <t>6BMhCQJYHxxKAeqYS1p5rY</t>
-  </si>
-  <si>
-    <t>43sZBwHjahUvgbx1WNIkIz</t>
-  </si>
-  <si>
-    <t>0EyuKHE1AeE9lWUF8mzKVp</t>
-  </si>
-  <si>
-    <t>3YcBF2ttyueytpXtEzn1Za</t>
-  </si>
-  <si>
-    <t>0lVlNsuGaOr9vMHCZIAKMt</t>
-  </si>
-  <si>
-    <t>0CEFCo8288kQU7mJi25s6E</t>
-  </si>
-  <si>
-    <t>6Hizgjo92FnMp8wGaRUNTn</t>
-  </si>
-  <si>
-    <t>6qXwLwTLdA44HYsA26vaNU</t>
-  </si>
-  <si>
-    <t>7AQzXO3NPNQsI7oNu5rC3r</t>
-  </si>
-  <si>
-    <t>0EdvGhlC1FkGItLOWQzG4J</t>
-  </si>
-  <si>
-    <t>6FBDaR13swtiWwGhX1WQsP</t>
-  </si>
-  <si>
-    <t>0L8ExT028jH3ddEcZwqJJ5</t>
-  </si>
-  <si>
-    <t>1w5Kfo2jwwIPruYS2UWh56</t>
-  </si>
-  <si>
-    <t>2zsLaQhHFdQPdFXqG1nRmM</t>
-  </si>
-  <si>
-    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
-  </si>
-  <si>
-    <t>1OVyBGCKn7vObVIVPXcmLa</t>
-  </si>
-  <si>
-    <t>0L5fC7Ogm2YwgqVCRcF1bT</t>
-  </si>
-  <si>
-    <t>6TZdvF1kFzwnQLgHQynzsO</t>
-  </si>
-  <si>
-    <t>2MqhkhX4npxDZ62ObR5ELO</t>
-  </si>
-  <si>
-    <t>6vwjIs0tbIiseJMR3pqwiL</t>
-  </si>
-  <si>
-    <t>2vKiJjsgjgqIECUyYeIVvO</t>
-  </si>
-  <si>
-    <t>4Ri061lbxtCwNoqDnprznA</t>
-  </si>
-  <si>
-    <t>0fkTQEEyEyH71i9tDhS7CO</t>
-  </si>
-  <si>
-    <t>1KEUVZo7CMTSJoM8doulOT</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>1ZjAT2nTrzDIXFfsQ2hWJk</t>
-  </si>
-  <si>
-    <t>5aYyPjAsLj7UzANzdupwnS</t>
-  </si>
-  <si>
-    <t>3ZQEU2arcWXSv3oz8hwWBK</t>
-  </si>
-  <si>
-    <t>4IR8ZkpbyyKrqsIzchF3NB</t>
-  </si>
-  <si>
-    <t>2AVVj8ezW2mJ0v8u7XydiF</t>
-  </si>
-  <si>
-    <t>5ojhEavq6altxW8fWIlLum</t>
-  </si>
-  <si>
-    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
-  </si>
-  <si>
-    <t>4PoYwGOztIrPpBfRIlMSxP</t>
-  </si>
-  <si>
-    <t>3aBkeBhwadnWMWoVJ2CxJC</t>
-  </si>
-  <si>
-    <t>0fGVuq5ed21pM7iWwTcMyk</t>
-  </si>
-  <si>
-    <t>3iYvxketuV7AAPCJuWSDH2</t>
-  </si>
-  <si>
-    <t>7CGoviGsNXYmGOBkXk8dtW</t>
-  </si>
-  <si>
-    <t>74eX4C98E4FCrAMl39qRsJ</t>
-  </si>
-  <si>
-    <t>0eI3X5rAzHRZVe5FPk4MN1</t>
-  </si>
-  <si>
-    <t>4NpFxQe2UvRCAjto3JqlSl</t>
-  </si>
-  <si>
-    <t>1VW5tZ9pmSb2rG0GmSELwW</t>
-  </si>
-  <si>
-    <t>35Uu85Pq33mK8x1jYqsHY2</t>
-  </si>
-  <si>
-    <t>159qqlGwzE04xyqpfAwRLo</t>
-  </si>
-  <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>Nova Twins</t>
-  </si>
-  <si>
-    <t>The Amity Affliction</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Atreyu</t>
-  </si>
-  <si>
-    <t>Falling In Reverse</t>
-  </si>
-  <si>
-    <t>I Prevail</t>
-  </si>
-  <si>
-    <t>Asking Alexandria</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>NOTHING MORE</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>My Chemical Romance</t>
-  </si>
-  <si>
-    <t>Thousand Foot Krutch</t>
-  </si>
-  <si>
-    <t>Egypt Central</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Sick Puppies</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
-  </si>
-  <si>
-    <t>Sixx:A.M.</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>Saint Asonia</t>
-  </si>
-  <si>
-    <t>Devour the Day</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>From Ashes to New</t>
+    <t>3nRifdQMP5925XSkIN07oC</t>
+  </si>
+  <si>
+    <t>11wRdbnoYqRddKBrpHt4Ue</t>
+  </si>
+  <si>
+    <t>39oSLGo3HkaeYXzUEGgAGQ</t>
+  </si>
+  <si>
+    <t>5A8UenAZRv51yZVv13nFQo</t>
+  </si>
+  <si>
+    <t>26VFTg2z8YR0cCuwLzESi2</t>
+  </si>
+  <si>
+    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
+  </si>
+  <si>
+    <t>1ruutHJcECI7cos2n5TqpO</t>
+  </si>
+  <si>
+    <t>2wY79sveU1sp5g7SokKOiI</t>
+  </si>
+  <si>
+    <t>6m30rs1IQqnWqV5nKMpU7U</t>
+  </si>
+  <si>
+    <t>2eogQKWWoohI3BSnoG7E2U</t>
+  </si>
+  <si>
+    <t>0LbLWjaweRbO4FDKYlbfNt</t>
+  </si>
+  <si>
+    <t>0DxeaLnv6SyYk2DOqkLO8c</t>
+  </si>
+  <si>
+    <t>07QEuhtrNmmZ0zEcqE9SF6</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Jamiroquai</t>
+  </si>
+  <si>
+    <t>Alien Ant Farm</t>
+  </si>
+  <si>
+    <t>Junkie XL</t>
+  </si>
+  <si>
+    <t>Gotye</t>
+  </si>
+  <si>
+    <t>CHIC</t>
+  </si>
+  <si>
+    <t>Sex Pistols</t>
+  </si>
+  <si>
+    <t>Katrina &amp; The Waves</t>
+  </si>
+  <si>
+    <t>Carl Ward</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>Jessie J</t>
+  </si>
+  <si>
+    <t>Mr. President</t>
+  </si>
+  <si>
+    <t>Suzanne Vega</t>
+  </si>
+  <si>
+    <t>Elle King</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Miranda Cosgrove</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Ava Max</t>
+  </si>
+  <si>
+    <t>James Blunt</t>
+  </si>
+  <si>
+    <t>Desireless</t>
+  </si>
+  <si>
+    <t>B.o.B</t>
+  </si>
+  <si>
+    <t>Sum 41</t>
+  </si>
+  <si>
+    <t>Hoobastank</t>
+  </si>
+  <si>
+    <t>Eve 6</t>
+  </si>
+  <si>
+    <t>Haddaway</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Semisonic</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Cutee B.</t>
+  </si>
+  <si>
+    <t>Anastacia</t>
+  </si>
+  <si>
+    <t>Smash Mouth</t>
+  </si>
+  <si>
+    <t>Mr. Big</t>
+  </si>
+  <si>
+    <t>Audioslave</t>
+  </si>
+  <si>
+    <t>Duck Sauce</t>
+  </si>
+  <si>
+    <t>Lana Del Rey</t>
+  </si>
+  <si>
+    <t>The Lemonheads</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis</t>
+  </si>
+  <si>
+    <t>VASSY</t>
+  </si>
+  <si>
+    <t>Cedric Gervais</t>
+  </si>
+  <si>
+    <t>ZAYN</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t>Deee-Lite</t>
+  </si>
+  <si>
+    <t>Eddie Rabbitt</t>
+  </si>
+  <si>
+    <t>Joey Ramone</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>The Greg Kihn Band</t>
+  </si>
+  <si>
+    <t>Cameo</t>
+  </si>
+  <si>
+    <t>kai</t>
+  </si>
+  <si>
+    <t>The Cardigans</t>
+  </si>
+  <si>
+    <t>Tom Lord-Alge</t>
+  </si>
+  <si>
+    <t>Ashlee Simpson</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Usher</t>
+  </si>
+  <si>
+    <t>Tal Bachman</t>
+  </si>
+  <si>
+    <t>Bizarre Inc</t>
+  </si>
+  <si>
+    <t>Irene Cara</t>
+  </si>
+  <si>
+    <t>Rahsaan</t>
+  </si>
+  <si>
+    <t>Tears For Fears</t>
+  </si>
+  <si>
+    <t>Jonezetta</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>That Poppy</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>Lil Nas X</t>
+  </si>
+  <si>
+    <t>Kid Cudi</t>
+  </si>
+  <si>
+    <t>Migos</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>Skid Row</t>
+  </si>
+  <si>
+    <t>Everlast</t>
+  </si>
+  <si>
+    <t>Huey Lewis &amp; The News</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Nelly Furtado</t>
+  </si>
+  <si>
+    <t>Drake Bell</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Supergrass</t>
+  </si>
+  <si>
+    <t>Kevin Rudolf</t>
+  </si>
+  <si>
+    <t>Joji</t>
+  </si>
+  <si>
+    <t>Dragonette</t>
+  </si>
+  <si>
+    <t>Harry Styles</t>
+  </si>
+  <si>
+    <t>Razorlight</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Kenny Loggins</t>
+  </si>
+  <si>
+    <t>Phum Viphurit</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>The Strokes</t>
+  </si>
+  <si>
+    <t>Everclear</t>
   </si>
   <si>
     <t>Disturbed</t>
   </si>
   <si>
-    <t>Pop Evil</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>STARSET</t>
-  </si>
-  <si>
-    <t>Highly Suspect</t>
-  </si>
-  <si>
-    <t>Red Sun Rising</t>
-  </si>
-  <si>
-    <t>HELLYEAH</t>
-  </si>
-  <si>
-    <t>Rise Against</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>All That Remains</t>
-  </si>
-  <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Of Mice &amp; Men</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>My Darkest Days</t>
-  </si>
-  <si>
-    <t>Zakk Wylde</t>
-  </si>
-  <si>
-    <t>The Offspring</t>
-  </si>
-  <si>
-    <t>Saliva</t>
-  </si>
-  <si>
-    <t>Thirty Seconds To Mars</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Staind</t>
-  </si>
-  <si>
-    <t>10 Years</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
-    <t>3 Doors Down</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
-  </si>
-  <si>
-    <t>Foo Fighters</t>
-  </si>
-  <si>
-    <t>Pillar</t>
-  </si>
-  <si>
-    <t>Hinder</t>
-  </si>
-  <si>
-    <t>Creed</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Incubus</t>
-  </si>
-  <si>
-    <t>Machine Head</t>
-  </si>
-  <si>
-    <t>Hollywood Undead</t>
-  </si>
-  <si>
-    <t>Vertical Horizon</t>
-  </si>
-  <si>
-    <t>Tonic</t>
-  </si>
-  <si>
-    <t>Marcy Playground</t>
-  </si>
-  <si>
-    <t>Sublime</t>
-  </si>
-  <si>
-    <t>blink-182</t>
-  </si>
-  <si>
-    <t>Red Hot Chili Peppers</t>
-  </si>
-  <si>
-    <t>Pearl Jam</t>
-  </si>
-  <si>
-    <t>Seven Mary Three</t>
-  </si>
-  <si>
-    <t>Rage Against The Machine</t>
-  </si>
-  <si>
-    <t>Otherwise</t>
-  </si>
-  <si>
-    <t>Volbeat</t>
-  </si>
-  <si>
-    <t>Alien Ant Farm</t>
-  </si>
-  <si>
-    <t>Hoobastank</t>
-  </si>
-  <si>
-    <t>Beartooth</t>
-  </si>
-  <si>
-    <t>Crown The Empire</t>
-  </si>
-  <si>
-    <t>Bobaflex</t>
-  </si>
-  <si>
-    <t>Ashes Remain</t>
-  </si>
-  <si>
-    <t>Smile Empty Soul</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Adelitas Way</t>
-  </si>
-  <si>
-    <t>Good Charlotte</t>
-  </si>
-  <si>
-    <t>CKY</t>
-  </si>
-  <si>
-    <t>Crossfade</t>
-  </si>
-  <si>
-    <t>Saving Abel</t>
-  </si>
-  <si>
-    <t>Escape the Fate</t>
-  </si>
-  <si>
-    <t>Audioslave</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>Rob Thomas</t>
-  </si>
-  <si>
-    <t>Amy Lee</t>
-  </si>
-  <si>
-    <t>Johan Olsen</t>
-  </si>
-  <si>
-    <t>Danko Jones</t>
-  </si>
-  <si>
-    <t>Theory of a Deadman</t>
-  </si>
-  <si>
-    <t>Bad Wolves</t>
-  </si>
-  <si>
-    <t>Greta Van Fleet</t>
-  </si>
-  <si>
-    <t>Jonathan Davis</t>
-  </si>
-  <si>
-    <t>Sevendust</t>
-  </si>
-  <si>
-    <t>Parkway Drive</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bring-me-the-horizon', 'annotations': {'description': '&lt;p&gt;Bring Me The Horizon are a British &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; band from Sheffield, Yorkshire—often stylised as simply “BMTH” or shortened to “Bring Me.” Formed in 2003, the group currently consists of lead vocalist &lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes,&lt;/a&gt; lead guitarist &lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia,&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean,&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls,&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c642295d139a03e53746037448f49329.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The name of the band was taken from &lt;a href="https://www.imdb.com/title/tt0325980/characters/nm0000136" rel="noopener nofollow"&gt;Captain Jack Sparrow’s&lt;/a&gt; line in the first &lt;a href="https://www.imdb.com/title/tt0325980/" rel="noopener nofollow"&gt;&lt;em&gt;Pirates of the Caribbean&lt;/em&gt;&lt;/a&gt; which he says: &lt;a href="https://youtu.be/eZ69WdGN9Ys?t=18" rel="noopener nofollow"&gt;“Bring me that horizon.”&lt;/a&gt; Oli stated in an &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;interview with &lt;em&gt;Spin&lt;/em&gt;&lt;/a&gt; how the name connects with his vision of the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Right at the end of the film—it might even be the very last line—&lt;a href="https://www.imdb.com/name/nm0000136/" rel="noopener nofollow"&gt;Johnny Depp&lt;/a&gt; says, “Bring me that horizon.” That was really inspiring. I was still living with my parents in Sheffield, England, when the movie came out [in 2003]. For me and the band, playing music was always wrapped up with the idea of touring and traveling and seeing the rest of England and the rest of the world. We never thought doing that was possible, but that’s what we wanted to do. So that quote sort of stands in for our feeling of wanting to see what the planet had to offer.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a3eb78e16fb419fb99e064b798c430da.500x210x14.gif" alt="" width="500" height="210" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;BMTH’s sound has changed dramatically over the years. In their original incarnation, they were known for fast blast beats and &lt;a href="https://genius.com/tags/deathcore" rel="noopener"&gt;deathcore&lt;/a&gt; influences. With the official addition of Jordan Fish on 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;,&lt;/a&gt; the group has steered towards a more stadium-friendly &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; sound. This was a conscious decision for the band to embrace melody and reach a wider audience.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.independent.co.uk/arts-entertainment/music/oli-sykes-interview-bring-me-the-horizon-tour-o2-arena-royal-albert-hall-a7388161.html" rel="noopener nofollow"&gt;Oli explained the shift&lt;/a&gt; as due to maturing in age and shifting interests, as well as a desire to take the band further than ever before:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We were just a metal band at one point. We were doing alright and playing some shows and now… now we’re one of the biggest heavy rock bands in the world. We want more now. It’s no longer just a fantasy; people know who we are. This can go as far as we want it to go. The only limit is us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Two years after &lt;em&gt;Sempiternal&lt;/em&gt;, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/That-s-the-spirit" rel="noopener" data-api_path="/albums/127993"&gt;&lt;em&gt;That’s The Spirit&lt;/em&gt;&lt;/a&gt; was released with even more approach to &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock,&lt;/a&gt; becoming the band’s best selling album to date, with hits like &lt;a href="https://genius.com/Bring-me-the-horizon-drown-lyrics" rel="noopener" data-api_path="/songs/548384"&gt;“Drown,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-happy-song-lyrics" rel="noopener" data-api_path="/songs/2174634"&gt;“Happy Song,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-throne-lyrics" rel="noopener" data-api_path="/songs/2261403"&gt;“Throne”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-follow-you-lyrics" rel="noopener" data-api_path="/songs/2291901"&gt;“Follow You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 25th, 2019, their sixth studio album &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Amo" rel="noopener" data-api_path="/albums/415250"&gt;&lt;em&gt;amo&lt;/em&gt;&lt;/a&gt; was released. The record is very experimental and mixes pop and electronic elements, inspired also by &lt;a href="https://genius.com/tags/trap" rel="noopener"&gt;trap music&lt;/a&gt; on &lt;a href="https://genius.com/Bring-me-the-horizon-why-you-gotta-kick-me-when-im-down-lyrics" rel="noopener" data-api_path="/songs/4034879"&gt;“why you gotta kick me when i’m down.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 2020 COVID-19 pandemic, Bring Me started teasing videos of music prodution. At October 30, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Post-human-survival-horror" rel="noopener" data-api_path="/albums/614710"&gt;&lt;em&gt;POST HUMAN: SURVIVAL HORROR&lt;/em&gt;&lt;/a&gt; was released as a callback to the band’s old style. It features four singles, &lt;a href="https://genius.com/Bring-me-the-horizon-ludens-lyrics" rel="noopener" data-api_path="/songs/4912244"&gt;“Ludens,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-parasite-eve-lyrics" rel="noopener" data-api_path="/songs/5405239"&gt;“Parasite Eve,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-obey-lyrics" rel="noopener" data-api_path="/songs/5904555"&gt;“Obey”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-teardrops-lyrics" rel="noopener" data-api_path="/songs/6058777"&gt;“Teardrops.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band’s logo is called “Antivist Symbol” and it’s  an &lt;a href="https://en.wikipedia.org/wiki/Unicursal_hexagram" rel="noopener nofollow"&gt;unicursal hexagram,&lt;/a&gt; used since 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt; release, because of the song &lt;a href="https://genius.com/Bring-me-the-horizon-antivist-lyrics" rel="noopener" data-api_path="/songs/124028"&gt;“Antivist.”&lt;/a&gt; In Aleister Crowley’s &lt;a href="https://en.wikipedia.org/wiki/Thelema" rel="noopener nofollow"&gt;Thelema,&lt;/a&gt; it means that everybody has one true goal in life.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/151384cf60ce8791a1e2c06ad36d2e5a.878x1000x1.png" alt="" width="878" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(First version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5fbd85da18e95ecf67085e285dac11bc.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Actual version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Current Lineup:&lt;/h3&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes:&lt;/a&gt; lead vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish:&lt;/a&gt; electronics, percussion, vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia:&lt;/a&gt; lead guitar&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean:&lt;/a&gt; bass&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls:&lt;/a&gt; drums&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6613c20b24031bece922ae1e86da30cf.800x450x1.jpg" alt="" width="800" height="450" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(BMTH’s current lineup)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BMTH']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nova-twins', 'annotations': {'description': '&lt;p&gt;Nova Twins are an English rock duo formed in London in 2014, consisting of vocalist/guitarist Amy Love and bassist Georgia South. Nova Twins have been described by The Guardian as a “bass-heavy duo fusing grime and punk,” and by themselves as “urban punk.” PRS for Music called them “a genre bending amalgamation of raw punk energy, illegal rave electronics and unapologetic grimey attitude.”&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-amity-affliction', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/The_Amity_Affliction" rel="noopener nofollow"&gt;The Amity Affliction&lt;/a&gt; is a melodic hardcore/post-hardcore and metalcore band from Gympie, Queensland, Australia.  The band has enjoyed a great deal of &lt;a href="https://en.wikipedia.org/wiki/The_Amity_Affliction_discography" rel="noopener nofollow"&gt;success&lt;/a&gt; in Australia, having two gold and one platinum album under their belts. Their 2014 and 2016 offerings charted in the USA as well.&lt;/p&gt;\n\n&lt;p&gt;The Amity Affliction was formed in 2003 by &lt;a href="https://genius.com/artists/Ahren-stringer" rel="noopener" data-api_path="/artists/90109"&gt;Ahren Stringer&lt;/a&gt; and &lt;a href="https://genius.com/artists/Troy-brady" rel="noopener" data-api_path="/artists/1002214"&gt;Troy Brady&lt;/a&gt; while they were still in high school. The name of the band reflected their amity toward their friend who had died in a car accident, and the pain his death caused.  The line-up on their demo included Garth Buchanan and Lachlan Faulkner; singer &lt;a href="https://genius.com/artists/Joel-birch" rel="noopener" data-api_path="/artists/347115"&gt;Joel Birch&lt;/a&gt; joined before the release of their first EP in 2005. Since then the band has gone through additional changes; the current line-up retains just one original member, Ahren Stringer (vocals, bass guitar), and also includes Joel Birch (vocals), &lt;a href="https://genius.com/artists/Dan-brown%20%28Amity" rel="noopener" data-api_path="/artists/1016619"&gt;Dan Brown&lt;/a&gt; (guitar) and Joe Longobardi. The Amity Affliction has released a total of five studio LPs and &lt;a href="https://genius.com/albums/The-amity-affliction/glory-days" rel="noopener" data-api_path="/albums/305457"&gt;&lt;em&gt;Glory Days&lt;/em&gt;&lt;/a&gt;, a compilation of their early EPs and demos. Their albums, &lt;a href="https://genius.com/albums/The-amity-affliction/youngbloods" rel="noopener" data-api_path="/albums/127767"&gt;&lt;em&gt;Youngbloods&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/The-amity-affliction/chasing-ghosts" rel="noopener" data-api_path="/albums/88476"&gt;Chasing Ghosts&lt;/a&gt; both got gold sales certifications in Australia, while &lt;a href="https://genius.com/albums/The-amity-affliction/Let-the-ocean-take-me" rel="noopener" data-api_path="/albums/105459"&gt;&lt;em&gt;Let The Ocean Take Me&lt;/em&gt;&lt;/a&gt; got platinum.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/The-amity-affliction/This-could-be-heartbreak" rel="noopener" data-api_path="/albums/152805"&gt;&lt;em&gt;This Could Be Heartbreak&lt;/em&gt;&lt;/a&gt;, (released in August 2016) reached number one on the ARIA’s and UK Rock charts, number 12 in the USA and number 29 in Germany.&lt;/p&gt;\n\n&lt;p&gt;Their sixth album &lt;a href="https://genius.com/albums/The-amity-affliction/Misery" rel="noopener" data-api_path="/albums/438853"&gt;&lt;em&gt;Misery&lt;/em&gt;&lt;/a&gt; was released on August 24 2018.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Slipknot', 'annotations': {'description': '&lt;p&gt;Slipknot is a metal group based in Des Moines, Iowa. They were formed in 1995, and are well known for their live shows and their image of nine masked performers. They are one of the most important bands of the NWOAHM (New Wave of American Heavy Metal).&lt;/p&gt;\n\n&lt;p&gt;The band released their demo album &lt;em&gt;Mate, Feed, Kill, Repeat&lt;/em&gt; on October 31st, 1996. Slipknot went through several lineup changes before settling with their most known line-up: Sid Wilson, Joey Jordison, Paul Gray, Chris Fehn, Jim Root, Craig Jones, Shawn “Clown” Crahan, Mick Thompson, and Corey Taylor.&lt;/p&gt;\n\n&lt;p&gt;This core line-up rose to the spotlight after their self-titled debut in 1999 which contained the breakout singles &lt;a href="https://genius.com/Slipknot-wait-and-bleed-lyrics" rel="noopener" data-api_path="/songs/73691"&gt;“Wait and Bleed”&lt;/a&gt; and &lt;a href="https://genius.com/Slipknot-spit-it-out-lyrics" rel="noopener" data-api_path="/songs/73693"&gt;“Spit it Out.”&lt;/a&gt; They would go on to release &lt;em&gt;Iowa&lt;/em&gt; (2001), &lt;em&gt;Vol.3: The Subliminal Verses&lt;/em&gt; (2004), and &lt;em&gt;All Hope Is Gone&lt;/em&gt; (2008), and &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; (2014) and &lt;em&gt;We Are Not Your Kind&lt;/em&gt; (2019). The band has sold millions of records worldwide.&lt;/p&gt;\n\n&lt;p&gt;On May 24th, 2010, bassist and founding member Paul Gray died. Although Slipknot continued to tour, Gray’s death called into the question the possibility of new material. However, in 2013, Slipknot went into the studio to write and record what would be their fifth album. On December 12th of the same year, the band parted ways with drummer and founding member Joey Jordison. It was later revealed in 2016 that Jordison suffered from a rare disease called transverse myelitis (which affected his nerves and left him unable to play the drums).&lt;/p&gt;\n\n&lt;p&gt;During the recording process, Slipknot recruited two new members whose identities were, at the time, kept secret. They released &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; on October 21st, 2014. After a year of touring, it has been confirmed that Alessandro Venturella and Jay Weinberg were the new bassist and drummer of Slipknot.&lt;/p&gt;\n\n&lt;p&gt;On March 14, 2019, Chris Fehn filed a lawsuit against the band citing withheld payments. Fehn specifically accused Corey Taylor and Shawn Crahan of setting up several band-related business entities, in different states, that collect money from the band. Fehn called for full forensic accounting to be done on all of the band’s companies and assets in order to collect any profits and damages he may be owed. On March 17, 2019, the band officially announced, via their website, that Chris Fehn was no longer a member of the band, stating:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Slipknot’s focus is on making album #6, and our upcoming shows around the world, our best ever. Chris knows why he is no longer a part of Slipknot. We are disappointed that he chose to point fingers and manufacture claims, rather than doing what was necessary to continue to be a part of Slipknot. We would have preferred he not take the path that he has, but evolution in all things is a necessary part of this life. Long Live The Knot.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Meld']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Atreyu', 'annotations': {'description': '&lt;p&gt;Atreyu is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band founded in Orange County, California in 1998. The band’s name originated from the book/movie The Neverending Story. They have seven full-length albums, the most recent from 2018.&lt;/p&gt;\n\n&lt;p&gt;Vocals: &lt;a href="https://genius.com/artists/Alex-varkatzas" rel="noopener" data-api_path="/artists/1319804"&gt;Alex Varkatzas&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Dan-jacobs" rel="noopener" data-api_path="/artists/1415910"&gt;Dan Jacobs&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Travis-miguel" rel="noopener" data-api_path="/artists/1415909"&gt;Travis Miguel&lt;/a&gt;&lt;br&gt;\nBass: &lt;a href="https://genius.com/artists/Marc-mcknight" rel="noopener" data-api_path="/artists/1415911"&gt;Marc “Porter” McKnight&lt;/a&gt;&lt;br&gt;\nDrummer/vocals: &lt;a href="https://genius.com/artists/Brandon-saller" rel="noopener" data-api_path="/artists/458806"&gt;Brandon Saller&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Falling-in-reverse', 'annotations': {'description': '&lt;p&gt;Falling in Reverse is an American &lt;a href="https://genius.com/tags/post-hardcore" rel="noopener"&gt;post-hardcore&lt;/a&gt; band based in Las Vegas, Nevada and formed in 2008, signed to &lt;a href="https://genius.com/tags/epitaph-records" rel="noopener"&gt;Epitaph Records&lt;/a&gt;. The band’s name is &lt;a href="https://q1057.com/lead-singer-falling-in-reverse-says-wikipedia-liar/" rel="noopener nofollow"&gt;a reference to&lt;/a&gt; drugs, and &lt;a href="https://archive.is/20130119110322/http://www.chinashopmag.com/2011/11/jail-redemption-and-falling-in-reverse/#selection-1591.286-1591.427" rel="noopener nofollow"&gt;the consequences&lt;/a&gt; of using them:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I just wanted a positive name … I want to influence the nation to quit bad habits like that instead of influencing them to do it because they think that it’s the cool thing.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Vocalist Ronnie Radke &lt;a href="https://archive.is/20130119110322/http://www.chinashopmag.com/2011/11/jail-redemption-and-falling-in-reverse/" rel="noopener nofollow"&gt;began writing&lt;/a&gt; music while serving a 2 ½ year prison sentence, reflecting on his past mistakes, pondering his future goals, and unloading his feelings about being kicked out of his previous band Escape The Fate. His new group began recording its debut album after his release. &lt;em&gt;&lt;a href="https://genius.com/albums/Falling-in-reverse/The-drug-in-me-is-you" rel="noopener" data-api_path="/albums/18899"&gt;The Drug In Me Is You&lt;/a&gt;&lt;/em&gt; arrived on July 26, 2011, and peaked at No. 19 on the Billboard 200, selling 18,000 copies in its first week.&lt;/p&gt;\n\n&lt;p&gt;The band’s second studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/falling-in-reverse/Fashionably-late" rel="noopener" data-api_path="/albums/33539"&gt;Fashionably Late&lt;/a&gt;&lt;/em&gt;, was released on June 18, 2013, which peaked at No. 17 on the Billboard 200. The band released its third album &lt;em&gt;&lt;a href="https://genius.com/albums/falling-in-reverse/just-like-you" rel="noopener" data-api_path="/albums/117913"&gt;Just like You&lt;/a&gt;&lt;/em&gt; on February 24, 2015. The band released its fourth album &lt;em&gt;&lt;a href="https://genius.com/albums/falling-in-reverse/coming-home" rel="noopener" data-api_path="/albums/326332"&gt;Coming Home&lt;/a&gt;&lt;/em&gt; on April 7, 2017.&lt;/p&gt;\n\n&lt;p&gt;On April 21, 2020, Ronnie Radke posted on his Instagram that unfortunately rhythm guitarist and founding member Derek Jones passed away. The band’s current lineup is vocalist &lt;a href="https://genius.com/artists/Ronnie-radke" rel="noopener" data-api_path="/artists/21277"&gt;Ronnie Radke&lt;/a&gt;, guitarist Max Georgiev, bassist Tyler Burgess and drummer Johnny Mele.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/I-prevail', 'annotations': {'description': '&lt;p&gt;Since their formation in 2013, the post-hardcore Detroit-based band has quickly garnered a global fan base with their potent mixture of aggressive rock, electronic arrangements, and seamless melodic elements. Their current lineup consists of clean vocalist &lt;a href="https://genius.com/artists/Brian-burkheiser" rel="noopener" data-api_path="/artists/1137411"&gt;Brian Burkheiser&lt;/a&gt;, unclean vocalist &lt;a href="https://genius.com/artists/Eric-vanlerberghe" rel="noopener" data-api_path="/artists/1137412"&gt;Eric Vanlerberghe&lt;/a&gt;, lead guitarist and studio bassist &lt;a href="https://genius.com/artists/Steve-menoian" rel="noopener" data-api_path="/artists/1137413"&gt;Steve Menoian&lt;/a&gt;, and rhythm guitarist &lt;a href="https://genius.com/artists/Dylan-bowman" rel="noopener" data-api_path="/artists/1138618"&gt;Dylan Bowman&lt;/a&gt;, and Gabe Helguera on the drums.&lt;/p&gt;\n\n&lt;p&gt;I Prevail first gained popularity after &lt;a href="https://www.youtube.com/watch?v=czb_CZfWko8" rel="noopener nofollow"&gt;posting a cover&lt;/a&gt; of &lt;a href="https://genius.com/I-prevail-blank-space-lyrics" rel="noopener" data-api_path="/songs/731773"&gt;“Blank Space”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; on YouTube the first of December in 2014. It was later added as a bonus track to Fearless Records\' &lt;a href="https://genius.com/albums/Fearless-records/Punk-goes-pop-volume-6" rel="noopener" data-api_path="/albums/113789"&gt;&lt;em&gt;Punk Goes Pop Vol. 6.&lt;/em&gt;&lt;/a&gt; Ten days later, two singles for their debut EP were released, &lt;a href="https://genius.com/I-prevail-love-lust-and-liars-lyrics" rel="noopener" data-api_path="/songs/731763"&gt;“Love, Lust, and Liars”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-the-enemy-lyrics" rel="noopener" data-api_path="/songs/731770"&gt;“The Enemy”&lt;/a&gt; Shortly after in January 2015, I Prevail released the EP &lt;a href="https://genius.com/albums/I-prevail/Heart-vs-mind" rel="noopener" data-api_path="/albums/122120"&gt;&lt;em&gt;Heart vs. Mind.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In June of 2016, I Prevail announced their debut album &lt;a href="https://genius.com/albums/I-prevail/Lifelines" rel="noopener" data-api_path="/albums/158244"&gt;&lt;em&gt;Lifelines&lt;/em&gt;&lt;/a&gt; would be released in October. &lt;a href="https://genius.com/I-prevail-scars-lyrics" rel="noopener" data-api_path="/songs/2800405"&gt;“Scars”&lt;/a&gt; was the first single, released July 1st, followed by &lt;a href="https://genius.com/I-prevail-stuck-in-your-head-lyrics" rel="noopener" data-api_path="/songs/2837208"&gt;“Stuck in Your Head”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-come-and-get-it-lyrics" rel="noopener" data-api_path="/songs/2870351"&gt;“Come and Get It”&lt;/a&gt; released August 14 and September 28, respectively.&lt;/p&gt;\n\n&lt;p&gt;I Prevail toured all summer long on the Vans Warped Tour in 2017. At the Loudwire Music Awards, their song &lt;a href="https://genius.com/I-prevail-alone-lyrics" rel="noopener" data-api_path="/songs/2886622"&gt;“Alone”&lt;/a&gt; won Hard Rock Song of the Year.&lt;/p&gt;\n\n&lt;p&gt;In 2019, I Prevail released a series of singles before their second LP &lt;a href="https://genius.com/albums/I-prevail/Trauma" rel="noopener" data-api_path="/albums/506060"&gt;&lt;em&gt;Trauma&lt;/em&gt;&lt;/a&gt; was released on March 29. The first single released on February 18 was &lt;a href="https://genius.com/I-prevail-bow-down-lyrics" rel="noopener" data-api_path="/songs/4328458"&gt;“Bow Down,”&lt;/a&gt; immediately followed by &lt;a href="https://genius.com/I-prevail-breaking-down-lyrics" rel="noopener" data-api_path="/songs/4337810"&gt;“Breaking Down”&lt;/a&gt; a couple hours later. &lt;a href="https://genius.com/I-prevail-paranoid-lyrics" rel="noopener" data-api_path="/songs/4337807"&gt;“Paranoid”&lt;/a&gt; was released on March 18.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Asking-alexandria', 'annotations': {'description': '&lt;p&gt;Asking Alexandria are an English metalcore band from York, North Yorkshire formed in 2008 by lead guitarist &lt;a href="https://genius.com/artists/Ben-bruce" rel="noopener" data-api_path="/artists/480011"&gt;Ben Bruce&lt;/a&gt; along with lead singer &lt;a href="https://genius.com/artists/Danny-worsnop" rel="noopener" data-api_path="/artists/66091"&gt;Danny Worsnop&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Joe-Lancaster" rel="noopener" data-api_path="/artists/1428800"&gt;Joe Lancaster&lt;/a&gt;, keyboardist and synth player &lt;a href="https://genius.com/artists/Ryan-binns" rel="noopener" data-api_path="/artists/1428802"&gt;Ryan Binns&lt;/a&gt;, and current members drummer &lt;a href="https://genius.com/artists/James-cassells" rel="noopener" data-api_path="/artists/1010476"&gt;James Cassells&lt;/a&gt; and rhythm guitarist &lt;a href="https://genius.com/artists/Cameron-liddell" rel="noopener" data-api_path="/artists/1231719"&gt;Cameron Liddell&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f050f75ea67009475b246e25d6c44c71.770x532x1.jpg" alt="" width="770" height="532" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Band’s formation line-up)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;Lancaster and Binns later departed from the band in 2009 with Lancaster joining heavy metal band &lt;a href="https://genius.com/artists/With-one-last-breath" rel="noopener" data-api_path="/artists/348634"&gt;With One Last Breath&lt;/a&gt;. Bassist &lt;a href="https://genius.com/artists/Sam-bettley" rel="noopener" data-api_path="/artists/1231718"&gt;Sam Bettley&lt;/a&gt; joined the band that same year, and in January 2015 Worsnop departed to focus on his new band &lt;a href="https://genius.com/artists/We-are-harlot" rel="noopener" data-api_path="/artists/182095"&gt;We Are Harlot&lt;/a&gt; and was later replaced by &lt;a href="https://genius.com/artists/Denis-shaforostov" rel="noopener" data-api_path="/artists/324788"&gt;Denis Stoff&lt;/a&gt;. On October 2016, it was confirmed after many speculations and rumors that Stoff has been kicked out from the band, and Danny Worsnop has returned to the band.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band’s music has mostly been described as metalcore, but has also been labelled heavy metal and hard rock. Additionally, it was also sometimes described as electronicore on their early work.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;All of the band’s members have expressed their passion for 1980s rock music, and demonstrated it with releases such as the &lt;a href="https://genius.com/albums/Asking-alexandria/Life-gone-wild" rel="noopener" data-api_path="/albums/225726"&gt;&lt;em&gt;Life Gone Wild EP&lt;/em&gt;&lt;/a&gt; featuring covers of two &lt;a href="https://genius.com/artists/Skid-row" rel="noopener" data-api_path="/artists/38337"&gt;Skid Row&lt;/a&gt; songs or the &lt;a href="https://genius.com/albums/Asking-alexandria/Under-the-influence-a-tribute-to-the-legends-of-hard-rock" rel="noopener" data-api_path="/albums/222903"&gt;&lt;em&gt;Under the Influence: A Tribute to the Legends of Hard Rock EP&lt;/em&gt;&lt;/a&gt; featuring covers of songs by bands such as &lt;a href="https://genius.com/artists/Journey" rel="noopener" data-api_path="/artists/13184"&gt;Journey&lt;/a&gt;, &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Mötley Crüe&lt;/a&gt;, &lt;a href="https://genius.com/artists/Whitesnake" rel="noopener" data-api_path="/artists/36682"&gt;Whitesnake&lt;/a&gt; and &lt;a href="https://genius.com/artists/Def-leppard" rel="noopener" data-api_path="/artists/38335"&gt;Def Leppard&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/8fe544d19df8ad2ba6bff48498baa346.1000x525x1.png" alt="" width="1000" height="525" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Under The Influence&lt;/em&gt; artwork)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;Their third studio album &lt;a href="https://genius.com/albums/Asking-alexandria/From-death-to-destiny" rel="noopener" data-api_path="/albums/42951"&gt;&lt;em&gt;From Death to Destiny&lt;/em&gt;&lt;/a&gt; is heavily influenced by such bands. Some of their favorite artists include &lt;a href="https://genius.com/artists/Guns-n-roses" rel="noopener" data-api_path="/artists/637"&gt;Guns N\' Roses&lt;/a&gt;, &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt;, &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Mötley Crüe&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sebastian-bach" rel="noopener" data-api_path="/artists/267336"&gt;Sebastian Bach&lt;/a&gt;, &lt;a href="https://genius.com/artists/Skid-row" rel="noopener" data-api_path="/artists/38337"&gt;Skid Row&lt;/a&gt; and &lt;a href="https://genius.com/artists/Van-halen" rel="noopener" data-api_path="/artists/38215"&gt;Van Halen&lt;/a&gt;, but they also take influence from modern bands such as &lt;a href="https://genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt; and &lt;a href="https://genius.com/artists/Avenged-sevenfold" rel="noopener" data-api_path="/artists/20710"&gt;Avenged Sevenfold&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;When asked why he chose that particular name, Ben Bruce explained that:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Most bands have a pretty shit band name, so I just came up with something. I came up with Alexandria as a human name, because people relate to humans.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;PRESENT LINEUP:&lt;/strong&gt;&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Danny-worsnop" rel="noopener" data-api_path="/artists/66091"&gt;Danny Worsnop&lt;/a&gt;:&lt;/strong&gt; lead vocals&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Ben-bruce" rel="noopener" data-api_path="/artists/480011"&gt;Ben Bruce&lt;/a&gt;:&lt;/strong&gt; lead guitar, vocals&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Cameron-liddell" rel="noopener" data-api_path="/artists/1231719"&gt;Cameron Liddell&lt;/a&gt;:&lt;/strong&gt; rhythm guitar&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Sam-bettley" rel="noopener" data-api_path="/artists/1231718"&gt;Sam Bettley&lt;/a&gt;:&lt;/strong&gt; bass&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/James-cassells" rel="noopener" data-api_path="/artists/1010476"&gt;James Cassells&lt;/a&gt;:&lt;/strong&gt; drums&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/d6269401cbcd0783368c5f5f2dea1d66.620x330x1.jpg" alt="" width="620" height="330" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Band’s actual formation)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avenged-sevenfold', 'annotations': {'description': '&lt;p&gt;Avenged Sevenfold (sometimes abbreviated as A7X) are an American heavy metal band from Huntington Beach, California, formed in 1999. To date, the band have released seven studio albums, one DVD, and one live album. Two of their studio albums, &lt;em&gt;Nightmare&lt;/em&gt; and &lt;em&gt;Hail to the King&lt;/em&gt;, have debuted at #1 on the Billboard charts.&lt;/p&gt;\n\n&lt;p&gt;Until December 2009, the band’s lineup consisted of vocalist M. Shadows, lead guitarist Synyster Gates, rhythm guitarist Zacky Vengeance, bassist Johnny Christ, and drummer Jimmy “The Rev” Sullivan, who died of an accidental drug overdose while the band was making their fifth album, &lt;em&gt;Nightmare&lt;/em&gt;. For &lt;em&gt;Nightmare&lt;/em&gt;, The Rev was temporarily replaced by ex-&lt;a href="https://genius.com/artists/Dream-theater" rel="noopener" data-api_path="/artists/19712"&gt;Dream Theater&lt;/a&gt; drummer Mike Portnoy, before the band found a permanent replacement with Arin Ilejay. In July 2015, however, it was announced that the band would be moving forward without Ilejay. He was replaced by &lt;a href="https://genius.com/artists/Brooks-wackerman" rel="noopener" data-api_path="/artists/1016534"&gt;Brooks Wackerman&lt;/a&gt; of &lt;a href="https://genius.com/artists/Bad-religion" rel="noopener" data-api_path="/artists/27995"&gt;Bad Religion&lt;/a&gt;, who made his first contribution in Call of Duty: Black Ops III’s score “Jade Helm” (2015). In October 2016, the band have released their seventh studio album, “The Stage.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/314bfa844f3dd9e91f8c63711f6132f7.700x394x1.jpg" alt="" width="700" height="394" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['A7X']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nothing-more', 'annotations': {'description': '&lt;p&gt;Nothing More is an American rock band from San Antonio, Texas. The band was formed in 2003 by longtime friends &lt;a href="https://genius.com/artists/Jonny-hawkins" rel="noopener" data-api_path="/artists/1046517"&gt;Jonny Hawkins&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mark-vollelunga" rel="noopener" data-api_path="/artists/1151031"&gt;Mark Vollelunga&lt;/a&gt; after meeting and playing together throughout their school years.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;a href="https://genius.com/albums/Nothing-more/Shelter" rel="noopener" data-api_path="/albums/306950"&gt;&lt;em&gt;Shelter&lt;/em&gt;&lt;/a&gt;, was released in 2004 with a lineup consisting of vocalist Josh Klaus, guitarists Mark Vollelunga and &lt;a href="https://genius.com/artists/Josh-kercheville" rel="noopener" data-api_path="/artists/1151033"&gt;Josh Kercheville&lt;/a&gt;, bassist Matt Reynolds, and drummer Jonny Hawkins. Nothing More had a hard time keeping a consistent lineup, going through several members but still failing to gain traction and secure a record label. Klaus and Reynolds were replaced by Travis Cox and &lt;a href="https://genius.com/artists/Daniel-oliver" rel="noopener" data-api_path="/artists/1151030"&gt;Daniel Oliver&lt;/a&gt; shortly after the release of Shelter, however, Cox was later swapped for &lt;a href="https://genius.com/artists/Trey-graham" rel="noopener" data-api_path="/artists/1151044"&gt;Trey Graham&lt;/a&gt; in 2006.&lt;/p&gt;\n\n&lt;p&gt;With Graham as their vocalist, they released their second album, &lt;a href="https://genius.com/albums/Nothing-more/Save-you-save-me" rel="noopener" data-api_path="/albums/177566"&gt;&lt;em&gt;Save You/Save Me&lt;/em&gt;&lt;/a&gt;, in 2007. However, despite finding some touring success with the album, the band found that they didn’t appreciate the direction that they were heading with Graham’s mainstream pop influence, which consequently leads to the band firing Graham.  After the departure of Graham in 2007 and Kercheville in 2008, the band was settled with core members Hawkins, Vollelunga, and Oliver. They continued in the pursuit of finding their preferred style and creative process, despite the hardships the band faced. Hawkins began to suffer from depression from a number of personal issues, most notably his mother’s fight with cancer and eventual passing.&lt;/p&gt;\n\n&lt;p&gt;It wasn’t long after that Hawkins opted to become the band’s vocalist and frontman, the band deciding that a major change was needed to move forward. This resulted in the first album, &lt;a href="https://genius.com/albums/Nothing-more/The-few-not-fleeting" rel="noopener" data-api_path="/albums/251732"&gt;&lt;em&gt;The Few Not Fleeting&lt;/em&gt;&lt;/a&gt;, to feature Hawkins as the vocalist in 2009. With the main members now largely responsible for the creative control of the band, the album took on more of a progressive/alternative rock sound, delving into the genres that would later define their future albums and mainstream success. This new approach was ultimately the first step in the right direction as they were finally able to find a sound they resonated with, untouched by outside influences. The album’s lyrics took a lot from Hawkins\' struggles, including the first track of the album, “&lt;a href="https://genius.com/Nothing-more-gone-lyrics" rel="noopener" data-api_path="/songs/2162909"&gt;Gone&lt;/a&gt;”, which speaks about his mother’s battle against cancer.&lt;/p&gt;\n\n&lt;p&gt;After years of being unable to find a record label, the band struck gold with their fifth and self-titled album, &lt;a href="https://genius.com/albums/Nothing-more/Nothing-more" rel="noopener" data-api_path="/albums/181520"&gt;&lt;em&gt;Nothing More&lt;/em&gt;&lt;/a&gt;, which was released independently in 2013. Only a day after playing for a second time at the &lt;a href="https://aftershockfestival.com/" rel="noopener nofollow"&gt;Aftershock Festival&lt;/a&gt; in September of the very same year, the long period of searching for a record contract was over. They finally entered a five-album deal with &lt;a href="https://genius.com/artists/Eleven-seven-music" rel="noopener" data-api_path="/artists/1114170"&gt;Eleven Seven Music&lt;/a&gt; and re-released the album in 2014. The album was highly received the second time around, earning them a breakthrough into the mainstream and the #33 spot on the &lt;a href="https://www.billboard.com/charts/billboard-200/2014-07-11" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;. They had found success with rock radio and found a handful of their songs surfacing onto the &lt;a href="https://www.billboard.com/music/nothing-more/chart-history/RTT" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. “&lt;a href="https://genius.com/Nothing-more-this-is-the-time-ballast-lyrics" rel="noopener" data-api_path="/songs/716375"&gt;This is the Time (Ballast)&lt;/a&gt;” hit #2, followed closely by “&lt;a href="https://genius.com/Nothing-more-heres-to-the-heartache-lyrics" rel="noopener" data-api_path="/songs/610542"&gt;Here’s To The Heartache&lt;/a&gt;” which charted at #4, “&lt;a href="https://genius.com/Nothing-more-jenny-lyrics" rel="noopener" data-api_path="/songs/610548"&gt;Jenny&lt;/a&gt;” at # 6, and “&lt;a href="https://genius.com/Nothing-more-mr-mtv-lyrics" rel="noopener" data-api_path="/songs/599289"&gt;Mr. MTV&lt;/a&gt;” at #12.&lt;/p&gt;\n\n&lt;p&gt;The fifth and latest album, &lt;a href="https://genius.com/albums/Nothing-more/The-stories-we-tell-ourselves" rel="noopener" data-api_path="/albums/348614"&gt;&lt;em&gt;The Stories We Tell Ourselves&lt;/em&gt;&lt;/a&gt;, was released in 2017. “&lt;a href="https://genius.com/Nothing-more-go-to-war-lyrics" rel="noopener" data-api_path="/songs/3130998"&gt;Go To War&lt;/a&gt;” was the first of five promotional singles made public prior to the album. Debuting at #15 on the &lt;a href="https://www.billboard.com/charts/billboard-200/2017-10-06" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;, the album was nominated for &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Album" rel="noopener nofollow"&gt;Best Rock Album&lt;/a&gt; at the 2018 Grammy Awards, with “Go To War” nominated for Best Rock Performance and &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Song" rel="noopener nofollow"&gt;Best Rock Song&lt;/a&gt; as well. Later in the very same month, the single topped the &lt;a href="https://www.billboard.com/charts/hot-mainstream-rock-tracks/2017-12-01" rel="noopener nofollow"&gt;Billboard Mainstream Rock&lt;/a&gt; chart at #1.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Five-finger-death-punch', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Five Finger Death Punch&lt;/strong&gt;, often shortened to Death Punch and abbreviated as &lt;strong&gt;5FDP&lt;/strong&gt; or &lt;strong&gt;FFDP,&lt;/strong&gt; is an American heavy metal band from Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Formed in 2005, the band’s name is derived from a fictional martial arts maneuver in the 2003 film Kill Bill. The band originally consisted of vocalist Ivan Moody, guitarist Zoltan Bathory, guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by Chris Kael in 2011. Drummer Jeremy Spencer was replaced by Charlie Engen in 2018 due to re-occurring back issues. They are one of the most successful groove metal bands, and are known for their raw aesthetic voices.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/624d64cd46fb90d0e8bf51039b3142ca.735x400x1.jpg" alt="" width="735" height="400" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['5 Finger Death Punch', 'FFDP', '5FDP']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/My-chemical-romance', 'annotations': {'description': '&lt;p&gt;My Chemical Romance is an alt/punk/hardcore rock band that produced four studio albums and a compilation album over their initial twelve-year lifespan from 2001-2013. They then went on a six-year hiatus, until Halloween of 2019, when they announced a long-awaited revival of the band. They have touched the hearts of millions through their honest, raw lyrics and inspirational stories.&lt;/p&gt;\n\n&lt;p&gt;The band started after front-man and founder &lt;a href="https://genius.com/artists/Gerard-way" rel="noopener" data-api_path="/artists/24398"&gt;Gerard Way&lt;/a&gt; witnessed the 9/11 terror attacks in New York City. He felt compelled to empower people and make a difference in the world. As a result, he wrote the band’s first song, &lt;a href="https://genius.com/my-chemical-romance-skylines-and-turnstiles-lyrics" rel="noopener" data-api_path="/songs/91304"&gt;“Skylines And Turnstiles.”&lt;/a&gt; He shared the lyrics with his friend Matt Pelissier, who agreed to be the then-unnamed band’s drummer. Gerard then recruited Ray Toro, whom he used to be in a band with as the lead guitarist, and eventually invited his brother Mikey Way to be the bassist, and &lt;a href="https://genius.com/artists/Frank-iero" rel="noopener" data-api_path="/artists/212008"&gt;Frank Iero&lt;/a&gt; to be the rhythm guitarist.&lt;/p&gt;\n\n&lt;p&gt;Their first album, &lt;a href="https://genius.com/albums/My-chemical-romance/I-brought-you-my-bullets-you-brought-me-your-love" rel="noopener" data-api_path="/albums/22274"&gt;&lt;em&gt;I Brought You My Bullets, You Brought Me Your Love,&lt;/em&gt;&lt;/a&gt; was released in 2002. Some of the demos for the album were recorded in Matt Pelissier’s attic. Because of this, the demos are lovingly referred to as the “attic demos.” The album’s copyright warning reads:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Unauthorized duplication is a violation of applicable laws and will result in Gerard coming to your house and sucking your blood.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band shot to stardom with their second album, &lt;a href="https://genius.com/albums/My-chemical-romance/Three-cheers-for-sweet-revenge" rel="noopener" data-api_path="/albums/15523"&gt;&lt;em&gt;Three Cheers For Sweet Revenge,&lt;/em&gt;&lt;/a&gt; which was released on Reprise Records. Songs like &lt;a href="https://genius.com/my-chemical-romance-Im-not-okay-lyrics" rel="noopener" data-api_path="/songs/1650241"&gt;“I’m Not Okay,”&lt;/a&gt; &lt;a href="https://genius.com/my-chemical-romance-helena-lyrics" rel="noopener" data-api_path="/songs/133414"&gt;“Helena,”&lt;/a&gt; and &lt;a href="https://genius.com/my-chemical-romance-the-ghost-of-you-lyrics" rel="noopener" data-api_path="/songs/133427"&gt;“The Ghost Of You”&lt;/a&gt; captivated listeners and expanded their fan-base. Following its release, the band played on the 2005 Vans Warped Tour, along with bands like &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Avenged-sevenfold" rel="noopener" data-api_path="/artists/20710"&gt;Avenged Sevenfold&lt;/a&gt;. Drummer Matt Pelissier decided to leave the band and was replaced by Bob Bryar.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/my-chemical-romance/the-black-parade" rel="noopener" data-api_path="/albums/26560"&gt;&lt;em&gt;The Black Parade&lt;/em&gt;,&lt;/a&gt; arguably the band’s most popular effort, was released in 2006, and was a concept album detailing the death of a character called The Patient. It was again released on Reprise Records, and was the last MCR album with Bob Bryar as drummer. Years after the album dropped, Gerard Way revealed that the band &lt;a href="http://altpress.com/news/entry/gerard_way_says_the_black_parade_was_supposed_to_be_the_end_of_my_chemical" rel="noopener nofollow"&gt;planned on calling it a day and splitting up:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When the tour basically ended with us conquering the world, we were supposed to ride off into the sunset. I can’t think of a better ending than that. [It didn’t end there] because you get into careers, mortgages, families, crews, people, the machine itself – not to mention expectations of a record label that invested quite a bit in you, that would like more out of you, a fanbase that wants more out of you.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Luckily for fans, &lt;em&gt;TBP&lt;/em&gt; wasn’t the last of My Chem – they followed up the smash hit in 2010 with their final studio album, &lt;a href="https://genius.com/albums/my-chemical-romance/danger-days" rel="noopener"&gt;&lt;em&gt;Danger Days&lt;/em&gt;.&lt;/a&gt; The album acted as a rebirth from the depressing concepts of their previous releases and involved more upbeat tracks and messages.&lt;/p&gt;\n\n&lt;p&gt;Following &lt;a href="https://genius.com/albums/my-chemical-romance/danger-days" rel="noopener"&gt;&lt;em&gt;Danger Days&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/My-chemical-romance/Conventional-weapons" rel="noopener" data-api_path="/albums/31343"&gt;&lt;em&gt;Conventional Weapons&lt;/em&gt;&lt;/a&gt;, a compilation album featuring ten previously unreleased songs, was gradually released: these tracks feature Bob Bryar, as they were recorded in 2009, prior to his departure from the band. The album was never released due to dissatisfaction from the band’s previous producer.&lt;/p&gt;\n\n&lt;p&gt;On March 22nd, 2013, &lt;a href="http://www.mychemicalromance.com/node/2842611" rel="noopener nofollow"&gt;the band announced that they were breaking up.&lt;/a&gt; A compilation album titled &lt;em&gt;May Death Never Stop You&lt;/em&gt; was released, featuring a new song, &lt;em&gt;Fake Your Death&lt;/em&gt;. Despite the upset fans\' pleas, no definite answer has been given as to why they split. Some claim they had trouble with their record label, while others believe Gerard had relapsed into alcohol dependence. In the end, it was simply left at “personal reasons.”&lt;/p&gt;\n\n&lt;p&gt;The band took a six-year hiatus, assumed by most to be a permanent departure of the group. However, this wasn’t the case. On October 31, 2019, the band suddenly sprung their return to the music scene upon their fans, with &lt;a href="https://twitter.com/MCRofficial/status/1189980367677083648" rel="noopener nofollow"&gt;a tweet advertising an upcoming reunion performance. &lt;/a&gt; Tour dates followed soon after, but news of a new album has yet to come.&lt;/p&gt;', 'alternate_names': ['MCR']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thousand-foot-krutch', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/3962028e132c86f93fa8c9f6dca791c8.225x94x1.png" alt="" width="225" height="94" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Thousand Foot Krutch is a Canadian Christian rock band formed in 1995. Thousand Foot Krutch’s music has always been enveloped with heat and energy. The interplay between the pulsing bass, courtesy of Joel Bruyere, and pounding drums of Steve Augustine are the backbone over which Trevor spits out some of the most rapid fire and melodic lyrics in rock and roll. While musically “heavy,”they’ve always veered more towards the funk of Rage Against the Machine while simultaneously incorporating the fast-paced, rhythmic singing of Michael Jackson circa the Bad days. Bending genres and styles, their songs have been featured prominently in numerous commercials, sports promos, and film trailers.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Egypt-central', 'annotations': {'description': '&lt;p&gt;Egypt Central is an American alternative metal band from Memphis, Tennessee. Egypt Central was formed on October 2, 2002. They wrote and recorded for one year until generating a buzz in their hometown of Memphis, Tennessee.[citation needed] After eight shows, they caught the attention of former Lava Records CEO Jason Flom. Flom offered the band a record deal after seeing their live performances. Egypt Central’s self-titled debut album was recorded with producer Josh Abraham in Los Angeles. It experienced many delays, eventually being released by Fat Lady Music on January 15, 2008. Two singles were released to promote the album: “You Make Me Sick” and “Taking You Down”. These two tracks also ended up being on the soundtrack of the video game WWE SmackDown vs. Raw 2009. They have performed with bands like Disturbed, Seether, Sevendust, Hurt, Red, In This Moment, and many others.&lt;/p&gt;\n\n&lt;p&gt;There is rumored to be an entire second album which never got released due to legal issues with their record label. Two songs meant for this album, “Hate” and “California Dreams” (later reworked as “Citizen Radio” and released on the Murder in the French Quarter: Rare &amp;amp; Unreleased EP), were performed live while on tour in 2008.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Breaking-benjamin', 'annotations': {'description': '&lt;p&gt;Breaking Benjamin is a rock band from Wilkes-Barre, Pennsylvania. The band was formed in 1999 by lead singer &lt;a href="https://genius.com/artists/Benjamin-burnley" rel="noopener" data-api_path="/artists/502352"&gt;Ben Burnley&lt;/a&gt; and former drummer &lt;a href="https://genius.com/artists/Jeremy-hummel" rel="noopener" data-api_path="/artists/1087832"&gt;Jeremy Hummel&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was originally named Plan 9, which is a reference to the 1959 film &lt;a href="https://www.imdb.com/title/tt0052077/" rel="noopener nofollow"&gt;&lt;em&gt;Plan 9 from Outer Space&lt;/em&gt;&lt;/a&gt;. The band continuously was misnamed as Planet 9 and drove them to change their name to Breaking Benjamin (Which was the name of Ben’s previous band.) The name originates from  an incident in which Ben accidentally dropped the mic, and the sound man yelled&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Thanks to Benjamin for breaking my fucking mic!”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2004, their sophomore album &lt;a href="https://genius.com/albums/Breaking-benjamin/We-are-not-alone" rel="noopener" data-api_path="/albums/76017"&gt;&lt;em&gt;We Are Not Alone&lt;/em&gt;&lt;/a&gt; was released. They collaborated with &lt;a href="https://genius.com/artists/Smashing-pumpkins" rel="noopener" data-api_path="/artists/12025"&gt;Smashing Pumpkins&lt;/a&gt; vocalist &lt;a href="https://genius.com/artists/Billy-corgan" rel="noopener" data-api_path="/artists/42637"&gt;Billy Corgan&lt;/a&gt; on writing their songs &lt;a href="https://genius.com/Breaking-benjamin-rain-lyrics" rel="noopener" data-api_path="/songs/424617"&gt;“Rain”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-forget-it-lyrics" rel="noopener" data-api_path="/songs/399168"&gt;“Forget It”&lt;/a&gt;, and &lt;a href="https://genius.com/Breaking-benjamin-follow-radio-edit-lyrics" rel="noopener" data-api_path="/songs/424537"&gt;“Follow”&lt;/a&gt;. The album peaked at #20 on the &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/billboard-200/song/457115" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and has been certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=WE+ARE+NOT+ALONE" rel="noopener nofollow"&gt;platinum&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2005, they released their second platinum album &lt;a href="https://genius.com/albums/Breaking-benjamin/Phobia" rel="noopener" data-api_path="/albums/18447"&gt;&lt;em&gt;Phobia&lt;/em&gt;&lt;/a&gt;. The albums lead single &lt;a href="https://genius.com/Breaking-benjamin-the-diary-of-jane-lyrics" rel="noopener" data-api_path="/songs/79054"&gt;“Diary of Jane”&lt;/a&gt; peaked at #2 on the Billboard &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/hot-mainstream-rock-tracks/song/502058" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. It received a double-platinum certification and was the fastest single added to radio stations in Hollywood Records history.&lt;/p&gt;\n\n&lt;p&gt;The band began their hiatus in 2010 after a dispute between band members about the release of the &lt;a href="https://genius.com/Breaking-benjamin-blow-me-away-feat-valora-lyrics" rel="noopener" data-api_path="/songs/1513040"&gt;“Blow Me Away”&lt;/a&gt; remix with Syndee Duran.&lt;/p&gt;\n\n&lt;p&gt;Ben returned in 2014 with a whole new lineup. Their first album together &lt;a href="https://genius.com/albums/Breaking-benjamin/Dark-before-dawn" rel="noopener" data-api_path="/albums/126578"&gt;&lt;em&gt;Dark Before Dawn&lt;/em&gt;&lt;/a&gt; made its way up the charts very quickly and peaked at #1 on the Billboard 200. It was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=DARK+BEFORE+DAWN" rel="noopener nofollow"&gt;gold&lt;/a&gt; in 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alice-in-chains', 'annotations': {'description': '&lt;p&gt;Alice in Chains are a Seattle-based rock band. They rose to international fame in the early 1990s as part of the ‘grunge’ movement. They are one of the most critically and commercially acclaimed acts of the 90s. Their first 3 studio albums all went multi-platinum and they have received 8 Grammy nominations for Best Hard Rock performance (sadly, never winning once).&lt;/p&gt;\n\n&lt;p&gt;Their unique sound comes from the harmonized vocals of co-founders &lt;a href="https://genius.com/artists/layne-staley" rel="noopener" data-api_path="/artists/461445"&gt;Layne Staley&lt;/a&gt; and &lt;a href="https://genius.com/artists/jerry-cantrell" rel="noopener" data-api_path="/artists/159296"&gt;Jerry Cantrell&lt;/a&gt;, as showcased in some of their biggest songs like &lt;a href="https://genius.com/Alice-in-chains-no-excuses-lyrics" rel="noopener" data-api_path="/songs/339309"&gt;“No Excuses”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/jar-of-flies" rel="noopener" data-api_path="/albums/38745"&gt;&lt;em&gt;Jar of Flies&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Alice-in-chains-angry-chair-lyrics" rel="noopener" data-api_path="/songs/391256"&gt;“Angry Chair”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/dirt" rel="noopener" data-api_path="/albums/38159"&gt;&lt;em&gt;Dirt&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-again-lyrics" rel="noopener" data-api_path="/songs/113953"&gt;“Again”&lt;/a&gt; from the &lt;a href="https://genius.com/albums/alice-in-chains/alice-in-chains" rel="noopener" data-api_path="/albums/27730"&gt;self-titled&lt;/a&gt; album. Cantrell also serves as the primary songwriter and guitarist of the band.&lt;/p&gt;\n\n&lt;p&gt;The band was never restricted to grunge. Cantrell believes it to be heavy metal; and indeed a lot of modern heavy metal bands &lt;a href="https://en.wikipedia.org/wiki/Alice_in_Chains#Legacy" rel="noopener nofollow"&gt;cite Alice in Chains as an influence&lt;/a&gt;, including &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; for &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;Death Magnetic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s frontman, Layne Staley, suffered throughout his life from depression and substance abuse, which eventually took his life in 2002. It was a huge blow to the industry and many prominent bands recorded &lt;a href="https://genius.com/Staind-layne-lyrics" rel="noopener" data-api_path="/songs/2303320"&gt;songs&lt;/a&gt; as odes to Staley.&lt;/p&gt;\n\n&lt;p&gt;After extended inactivity, the band recruited &lt;a href="https://genius.com/artists/william-duvall" rel="noopener" data-api_path="/artists/574582"&gt;William DuVall&lt;/a&gt; and have released three successful studio albums since his inclusion.&lt;/p&gt;', 'alternate_names': ['AIC']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sick-puppies', 'annotations': {'description': '&lt;p&gt;Sick Puppies is a hard rock band from Australia that formed in 1997. The band currently consists of:&lt;/p&gt;\n\n&lt;p&gt;Bryan Scott – lead vocals, guitar&lt;br&gt;\nEmma Anzai – bass, vocals&lt;br&gt;\nMark Goodwin – drums, backing vocals&lt;/p&gt;\n\n&lt;p&gt;They initially rose to fame from their song All The Same being posted on YouTube in a music video.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shinedown', 'annotations': {'description': '&lt;p&gt;Shinedown is an American hard rock band from Jacksonville, Florida, formed in 2001 and founded by members Brent Smith (vocals), Brad Stewart (bass), Jasin Todd (guitar), and Barry Kerch (drums).&lt;/p&gt;\n\n&lt;p&gt;Smith originally performed as the frontman and lead singer of a band titled &lt;a href="https://genius.com/artists/Dreve" rel="noopener" data-api_path="/artists/1192441"&gt;Dreve&lt;/a&gt; in the mid-1990’s. The only member to be signed to a label was Brent Smith, as the record label was unhappy with Dreve and were dropped prior to releasing an album.&lt;/p&gt;\n\n&lt;p&gt;During the span of their first five albums, a few lineup changes followed, making the band’s only two remaining original members Smith and Kerch.&lt;/p&gt;\n\n&lt;p&gt;Since their inception, the group has released &lt;em&gt;Leave a Whisper&lt;/em&gt;, &lt;em&gt;Us and Them&lt;/em&gt;, &lt;em&gt;The Sound of Madness&lt;/em&gt;, &lt;em&gt;Amaryllis&lt;/em&gt;, and &lt;em&gt;Threat to Survival&lt;/em&gt;, along with &lt;em&gt;Attention Attention&lt;/em&gt;. Over their 18 year span, they have sold more than six million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Godsmack', 'annotations': {'description': '&lt;p&gt;Godsmack is an American alternative metal band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill, and drummer Shannon Larkin. Since its formation, Godsmack has released six studio albums, one EP, four DVDs, one compilation album, and one live album.&lt;/p&gt;\n\n&lt;p&gt;The band has had three consecutive number-one albums (Faceless, IV, and The Oracle) on the Billboard 200. The band also has 20 top ten rock radio hits, including 15 songs in the top five, a record number of top ten singles by a rock artist.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/System-of-a-down', 'annotations': {'description': '&lt;p&gt;System of a Down, also known by the acronym ‘SOAD’ and often shortened to ‘System,’ are an Armenian four-piece rock band from Southern California, formed in 1994.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band achieved commercial success with the release of five studio albums, and &lt;a href="https://genius.com/albums/System-of-a-down/Toxicity" rel="noopener" data-api_path="/albums/18852"&gt;&lt;em&gt;Toxicity&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;&lt;em&gt;Mezmerize&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt; have all debuted at number one on the Billboard 200. System of a Down has been nominated for four Grammy Awards, and their song &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.”&lt;/a&gt; won the Best Hard Rock Performance of 2006.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6721d312ac721b756f51a7f55359521a.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Toxicity&lt;/em&gt;’s album art)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The group briefly disbanded in August 2006 and reunited in November 2010, embarking on a tour for the following three years. They had two subsequent worldwide tours in 2015 and 2017.&lt;br&gt;\nThey returned with two singles, &lt;a href="https://genius.com/System-of-a-down-protect-the-land-lyrics" rel="noopener" data-api_path="/songs/6139655"&gt;“Protect the Land”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-genocidal-humanoidz-lyrics" rel="noopener" data-api_path="/songs/6139659"&gt;“Genocidal Humanoidz”&lt;/a&gt; in November 2020, after fifteen years since their last studio album.&lt;/p&gt;\n\n&lt;p&gt;System of a Down has sold over 40 million records worldwide, and two of their singles, &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-hypnotize-lyrics" rel="noopener" data-api_path="/songs/105732"&gt;“Hypnotize,”&lt;/a&gt; reached number one on Billboard’s Alternative Songs chart.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band currently consists of four Armenian Americans:&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;a href="https://genius.com/artists/Serj-tankian" rel="noopener" data-api_path="/artists/11189"&gt;Serj Tankian&lt;/a&gt;:&lt;/strong&gt; lead vocals, keyboards, guitar on occasion.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daron-malakian" rel="noopener" data-api_path="/artists/126460"&gt;Daron Malakian&lt;/a&gt;:&lt;/strong&gt; vocals, guitar.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Shavo-odadijan" rel="noopener"&gt;Shavo Odadjian&lt;/a&gt;:&lt;/strong&gt; bass, backing vocals.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/John-dolmayan" rel="noopener" data-api_path="/artists/646522"&gt;John Dolmayan&lt;/a&gt;:&lt;/strong&gt; drums.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ee9fd1183055081763eedde0c6953a99.620x400x1.jpg" alt="" width="620" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;center&gt;&lt;small&gt;(SOAD’s actual formation)\n&lt;/small&gt;&lt;/center&gt;', 'alternate_names': ['SOAD']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sixx-am', 'annotations': {'description': '&lt;p&gt;Sixx:A.M. is a side project of &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Motley Crue&lt;/a&gt;’s bassist &lt;a href="https://genius.com/artists/Nikki-sixx" rel="noopener" data-api_path="/artists/663569"&gt;Nikki Sixx&lt;/a&gt;.&lt;br&gt;\nThe name of the hard rock band is a clever word play of the members\' last names (Nikki &lt;strong&gt;Sixx&lt;/strong&gt; – the bassist; DJ &lt;strong&gt;A&lt;/strong&gt;shba – the lead guitarist, James &lt;strong&gt;M&lt;/strong&gt;ichael – the vocalist, the lead guitarist and the drum programmer).&lt;/p&gt;\n\n&lt;p&gt;The band has released 3 studio albums. &lt;em&gt;The Heroin Diaries Soundtracks&lt;/em&gt; and &lt;em&gt;This Is Gonna Hurt&lt;/em&gt; were both concept albums accompanied by Nikki Sixx’s books. The debut was based on &lt;em&gt;The Heroin Diaries: A Year in the Life of a Shattered Rock Star&lt;/em&gt;, a collection of Nikki Sixx’s diaries entries which chronicles his struggle with drug dependency between the two Christmas in 1986 and 1987. &lt;em&gt;This is Gonna Hurt&lt;/em&gt; was released as a companion to Nikki Sixx’s photograph album with the same title, with the songs and the photographs inspiring each other.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/b159be719c06247bf18848b3d5f79c7e.826x778x1.jpg" alt="" width="826" height="778" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Marilyn-manson', 'annotations': {'description': '&lt;p&gt;Brian Hugh Warner who is better known under his stage name of &lt;strong&gt;Marilyn Manson&lt;/strong&gt; is a musician, painter, actor, multimedia artist, and former music journalist. His stage name is a combination of the names of two American icons, actress &lt;a href="https://genius.com/artists/Marilyn-monroe" rel="noopener" data-api_path="/artists/1949"&gt;Marilyn Monroe&lt;/a&gt; and multiple murder conspiracy convict &lt;a href="https://genius.com/artists/Charles-manson" rel="noopener" data-api_path="/artists/25277"&gt;Charles Manson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I picked that (Marilyn Manson) as the fakest stage name of all to say that this is what show business is, fake. Marilyn Monroe wasn’t even her real name, Charles Manson isn’t his real name, and now, I’m taking that to be my real name. But what’s real? You can’t find the truth, you just pick the lie you like the best. As long as you know everything’s a lie, you can’t hurt yourself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="http://hollywoodlife.com/celeb/marilyn-manson/" rel="noopener nofollow"&gt;Marylin Manson&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Marilyn Manson is also the name of his rock band, originally “Marilyn Manson and the Spooky Kids”, where everyone had the same naming convention as the singer:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Twiggy-ramirez" rel="noopener" data-api_path="/artists/1099065"&gt;Twiggy Ramirez&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Twiggy" rel="noopener" data-api_path="/artists/19553"&gt;Twiggy&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Richard_Ramirez" rel="noopener nofollow"&gt;Richard Ramirez&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Madonna-wayne-gacy" rel="noopener" data-api_path="/artists/649881"&gt;Madonna Wayne Gacy&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/John_Wayne_Gacy" rel="noopener nofollow"&gt;John Wayne Gacy&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Ginger-fish" rel="noopener" data-api_path="/artists/649880"&gt;Ginger Fish&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Fred-astaire-and-ginger-rogers" rel="noopener" data-api_path="/artists/382665"&gt;Ginger Roberts&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Albert_Fish" rel="noopener nofollow"&gt;Albert FIsh&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daisy-berkowitz" rel="noopener" data-api_path="/artists/404173"&gt;Daisy Berkowitz&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Daisy_Duke" rel="noopener nofollow"&gt;Daisy Duke&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/David_Berkowitz" rel="noopener nofollow"&gt;David “Son of Sam” Berkowitz&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Gidget-gein" rel="noopener" data-api_path="/artists/526358"&gt;Gidget Gein&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Gidget" rel="noopener nofollow"&gt;Gidget&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Ed_Gein" rel="noopener nofollow"&gt;Ed Gein&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Sara-lee-lucas" rel="noopener" data-api_path="/artists/491172"&gt;Sara Lee Lucas&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Sara_Lee_Corporation" rel="noopener nofollow"&gt;Sara Lee&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Henry_Lee_Lucas" rel="noopener nofollow"&gt;Henry Lee Lucas&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Plus &lt;a href="https://genius.com/artists/Olivia-newton-john" rel="noopener" data-api_path="/artists/281740"&gt;Olivia Newton&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Ted_Bundy" rel="noopener nofollow"&gt;Bundy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Zsa-zsa-gabor" rel="noopener" data-api_path="/artists/14183"&gt;Zsa Zsa&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/Richard_Speck" rel="noopener nofollow"&gt;Speck&lt;/a&gt;, who left early in the band.&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['Brian H. Warner', 'Brian Hugh Warner', 'Brian Warner']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saint-asonia', 'annotations': {'description': '&lt;p&gt;A Canadian rock/post-grunge “supergroup” featuring ex-Three Days Grace vocalist/guitarist Adam Gontier, Staind guitarist Mike Mushok, Eye Empire bassist Corey Lowery, and former Finger Eleven drummer Rich Beddoe, Saint Asonia came into being after Mushok and Gontier began writing together just after the latter’s split with his flagship band. Impressed with what they had managed to conjure up, the duo enlisted the rest of the crew and headed into the studio with producer Johnny K (Disturbed, Megadeth, Sevendust) to begin work on a debut long-player. “Better Place,” the first single from the record, was issued in May 2015, followed by the release of the eponymous full-length Saint Asonia later that summer. In 2017, Rich Beddoe left the band and was replaced by Mike Mushok’s Former Staind bandmate Sal Giancarelli. then in 2018, Corey Lowery left the band to join seether and was replaced by Adam Gontier’s cousin and former Art Of Dying bassist, Cale Gontier.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Devour-the-day', 'annotations': {'description': '&lt;p&gt;Once former members of the alternative metal band &lt;a href="https://genius.com/artists/Egypt-central" rel="noopener" data-api_path="/artists/63069"&gt;Egypt Central&lt;/a&gt;,  Blake Allison (drummer) and Joey “Chicago” Walser (lead vocalist) formed their own musical group, Devour the Day.&lt;/p&gt;\n\n&lt;p&gt;According to &lt;a href="http://www.live-metal.net/keepingrealmusicalive/interview-blake-allison-of-devour-the-day/" rel="noopener nofollow"&gt;an interview&lt;/a&gt; with &lt;em&gt;Live Metal&lt;/em&gt;, without disrespecting the history they have had with their previous group, Blake Allison spoke about how much more in-depth their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Devour-the-day/Time-pressure" rel="noopener" data-api_path="/albums/280704"&gt;Time &amp;amp; Pressure&lt;/a&gt;&lt;/em&gt; was than their previous work with Egypt Central.&lt;/p&gt;\n\n&lt;p&gt;The duo has definitely reflected more on the uncertainty that surrounded their future after their previous band’s fall out, resulting in songs that are sonically appealing with more depth than anything they did before.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Three-days-grace', 'annotations': {'description': '&lt;p&gt;Three Days Grace is a Canadian alternative rock band formed in 1997 and now based in Toronto. Consisting of lead vocalist &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;, the band is best known for their metal-influenced, hard rock sound and clever songwriting.&lt;/p&gt;\n\n&lt;p&gt;TDG grew out of &lt;a href="https://genius.com/artists/Groundswell" rel="noopener" data-api_path="/artists/62823"&gt;Groundswell&lt;/a&gt;, a five-member high-school band founded in 1992. With &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; as lead vocalist, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt; as drummer, &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; as bassist, &lt;a href="https://genius.com/artists/Phil-crowe" rel="noopener" data-api_path="/artists/2060493"&gt;Phil Crowe&lt;/a&gt; as lead guitarist, and &lt;a href="https://genius.com/artists/Joe-grant" rel="noopener" data-api_path="/artists/1216873"&gt;Joe Grant&lt;/a&gt; as rhythm guitarist, Groundswell released one album, &lt;a href="https://genius.com/albums/Groundswell/Wave-of-popular-feeling" rel="noopener" data-api_path="/albums/235662"&gt;&lt;em&gt;Wave of Popular Feeling&lt;/em&gt;&lt;/a&gt; in 1995. That same year, the band broke up, and it was not until 1997 that &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt;, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; got together as “Three Days Grace”.&lt;/p&gt;\n\n&lt;p&gt;Working with local producer &lt;a href="https://genius.com/artists/Gavin-brown" rel="noopener" data-api_path="/artists/128850"&gt;Gavin Brown&lt;/a&gt;, the trio re-worked a number of their past songs and compiled a demo album. After handing it to &lt;a href="https://genius.com/artists/Emi-music-publishing" rel="noopener" data-api_path="/artists/648041"&gt;EMI Music Publishing Canada&lt;/a&gt;, TDG produced their smash single &lt;a href="https://genius.com/Three-days-grace-i-hate-everything-about-you-lyrics" rel="noopener" data-api_path="/songs/107580"&gt;“I Hate Everything About You”&lt;/a&gt;, which would be released in 2003 alongside their eponymous debut album &lt;a href="https://genius.com/albums/Three-days-grace/Three-days-grace" rel="noopener" data-api_path="/albums/26399"&gt;&lt;em&gt;Three Days Grace&lt;/em&gt;&lt;/a&gt; through American label &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2003, the band welcomed lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, and released two additional singles, &lt;a href="https://genius.com/Three-days-grace-just-like-you-lyrics" rel="noopener" data-api_path="/songs/424351"&gt;Just Like You&lt;/a&gt; and &lt;a href="https://genius.com/Three-days-grace-home-lyrics" rel="noopener" data-api_path="/songs/383357"&gt;“Home”&lt;/a&gt;. Going on tour for TDG’s debut album, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; developed a prescription drug addiction, and with the support of his friends and family, checked into rehab in 2005.&lt;/p&gt;\n\n&lt;p&gt;While undergoing treatment, Gontier wrote songs about his journey to recovery, which would become tracks on TDG’s second album. After leaving the center, Gontier continued producing music with the band, culminating in 2006’s &lt;a href="https://genius.com/albums/Three-days-grace/One-x-special-edition" rel="noopener" data-api_path="/albums/18897"&gt;&lt;em&gt;One-X&lt;/em&gt;&lt;/a&gt;. The album was positively received: TDG catapulted to the top of Billboard’s 2007 charts, the single &lt;a href="https://genius.com/Three-days-grace-animal-i-have-become-lyrics" rel="noopener" data-api_path="/songs/80495"&gt;“Animal I Have Become”&lt;/a&gt; became the band’s most successful track, and &lt;em&gt;One-X&lt;/em&gt; was certified double platinum July 2007 in Canada. Later in 2016, the album would earn triple platinum in the US.&lt;/p&gt;\n\n&lt;p&gt;In 2009, TDG released their third album, &lt;a href="https://genius.com/albums/Three-days-grace/Life-starts-now" rel="noopener" data-api_path="/albums/82833"&gt;&lt;em&gt;Life Starts Now&lt;/em&gt;&lt;/a&gt;, transitioning from the dark lyrics of their previous records into a lighter and more mature era.&lt;/p&gt;\n\n&lt;p&gt;In 2011, following the disbanding of &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;, TDG signed on to &lt;a href="https://genius.com/artists/Rca-records-ltd" rel="noopener" data-api_path="/artists/2538696"&gt;RCA Records&lt;/a&gt;. On June 5, 2012, TDG announced their fourth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Transit-of-venus" rel="noopener" data-api_path="/albums/82577"&gt;Transit of Venus&lt;/a&gt;, inspired by the rare astrological phenomenon that had occurred that day and released later in October.&lt;/p&gt;\n\n&lt;p&gt;In a surprise announcement on January 9, 2013, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; revealed that he was leaving TDG. He was replaced by bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;’s brother &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, who remains the band’s lead singer today.&lt;/p&gt;\n\n&lt;p&gt;In April 2014, the band released their first single of the year, &lt;a href="https://genius.com/Three-days-grace-painkiller-lyrics" rel="noopener" data-api_path="/songs/393555"&gt;“Painkiller”&lt;/a&gt;, which shot to No. 1 on Billboard’s Mainstream Rock Chart in August. The following month, TDG released their next single, &lt;a href="https://genius.com/Three-days-grace-i-am-machine-lyrics" rel="noopener" data-api_path="/songs/528054"&gt;“I Am Machine”&lt;/a&gt;, and on January 26, 2015, the band confirmed that the title of their next album. In March 2015, TDG released the third single &lt;a href="https://genius.com/Three-days-grace-human-race-lyrics" rel="noopener" data-api_path="/songs/729619"&gt;“Human Race”&lt;/a&gt;, and a week later, they released their fifth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Human" rel="noopener" data-api_path="/albums/122280"&gt;&lt;em&gt;Human&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Throughout 2015, TDG went on tour, performing in US and Canada, and in early 2016, Europe and Russia. In November 2016, they released a cover single of &lt;a href="https://genius.com/artists/Phantogram" rel="noopener" data-api_path="/artists/12520"&gt;Phantogram&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-you-dont-get-me-high-anymore-lyrics" rel="noopener" data-api_path="/songs/2911417"&gt;“You Don’t Get Me High Anymore”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Over the summer of 2017, TDG began working on their sixth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Outsider" rel="noopener" data-api_path="/albums/396513"&gt;“Outsider”&lt;/a&gt;, which was released in March 2018. The first single of the album, &lt;a href="https://genius.com/Three-days-grace-the-mountain-lyrics" rel="noopener" data-api_path="/songs/3461381"&gt;“The Mountain”&lt;/a&gt;, was released January 2018, and followed by &lt;a href="https://genius.com/Three-days-grace-infra-red-lyrics" rel="noopener" data-api_path="/songs/3522134"&gt;“Infra-Red”&lt;/a&gt; in June and &lt;a href="https://genius.com/Three-days-grace-right-left-wrong-lyrics" rel="noopener" data-api_path="/songs/3522132"&gt;“Right Left Wrong”&lt;/a&gt; in November. All three singles made a No. 1 debut on Billboard’s Mainstream Rock Chart, setting the band a record of 15 smash-hit singles. In 2019, the TDG won iHeart Radio’s Rock Artist of the Year.&lt;/p&gt;\n\n&lt;p&gt;In July of 2020, TDG released a cover of &lt;a href="https://genius.com/artists/Gotye" rel="noopener" data-api_path="/artists/17395"&gt;Gotye&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-somebody-that-i-used-to-know-lyrics" rel="noopener" data-api_path="/songs/5788123"&gt;“Somebody That I Used To Know”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Papa-roach', 'annotations': {'description': '&lt;p&gt;Papa Roach is an American rock band  from Vacaville, California. Formed in 1993, they would release two EPs (&lt;em&gt;Potatoes for Christmas&lt;/em&gt; and &lt;em&gt;Caca Bonita&lt;/em&gt;) and a self-produced album (&lt;a href="https://genius.com/albums/Papa-roach/Old-friends-from-young-years" rel="noopener" data-api_path="/albums/76384"&gt;&lt;em&gt;Old Friends from Young Years&lt;/em&gt;&lt;/a&gt;) before getting signed to a major label. Their first major-label release was the triple-platinum album &lt;a href="https://genius.com/albums/Papa-roach/Infest" rel="noopener" data-api_path="/albums/36538"&gt;&lt;em&gt;Infest&lt;/em&gt;&lt;/a&gt; in 2000.&lt;/p&gt;\n\n&lt;p&gt;Papa Roach has sold more than 20 million album copies worldwide and are known for their songs “Last Resort”, &lt;a href="https://genius.com/Papa-roach-last-resort-lyrics" rel="noopener" data-api_path="/songs/170534"&gt;&lt;em&gt;Between Angels and Insects&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-she-loves-me-not-lyrics" rel="noopener" data-api_path="/songs/338428"&gt;&lt;em&gt;She Loves Me Not&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-scars-lyrics" rel="noopener" data-api_path="/songs/67321"&gt;&lt;em&gt;Scars&lt;/em&gt;&lt;/a&gt;, and “ &lt;a href="https://genius.com/Papa-roach-born-for-greatness-lyrics" rel="noopener" data-api_path="/songs/3040558"&gt;&lt;em&gt;Born for Greatness&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/From-ashes-to-new', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>Ryan Paris</t>
+  </si>
+  <si>
+    <t>Kasabian</t>
+  </si>
+  <si>
+    <t>EMF</t>
+  </si>
+  <si>
+    <t>Gerard Presencer</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Nayer</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>Ohio Players</t>
+  </si>
+  <si>
+    <t>Donna Summer</t>
+  </si>
+  <si>
+    <t>Kaiser Chiefs</t>
+  </si>
+  <si>
+    <t>MAGIC!</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Filter', 'annotations': {'description': '&lt;p&gt;Filter is an American industrial rock band, led by lead singer &lt;a href="https://genius.com/artists/Richard-patrick" rel="noopener" data-api_path="/artists/78435"&gt;Richard Patrick&lt;/a&gt; (former guitarist for &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;) and guitarist &lt;a href="https://genius.com/artists/Brian-liesegang" rel="noopener" data-api_path="/artists/78434"&gt;Brian Liesegang&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/957619c5fe724ca0712a7ed966d44a97.500x300x1.jpg" alt="" width="500" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Their first studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Filter/Short-bus" rel="noopener" data-api_path="/albums/48178"&gt;Short Bus&lt;/a&gt;,&lt;/em&gt; (1995) went platinum, sold over 1 million copies, and boasted the band’s first hit single, &lt;a href="https://genius.com/Filter-hey-man-nice-shot-lyrics" rel="noopener" data-api_path="/songs/238443"&gt;“Hey Man Nice Shot”.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After Liesegang’s departure from the band in 1997, Patrick and the remaining members released their second platinum record, &lt;a href="https://genius.com/albums/Filter/Title-of-record" rel="noopener" data-api_path="/albums/64997"&gt;&lt;em&gt;Title of Record,&lt;/em&gt;&lt;/a&gt; which provided fans in early 2000 with both a second hit single, &lt;a href="https://genius.com/Filter-take-a-picture-lyrics" rel="noopener" data-api_path="/songs/297604"&gt;“Take a Picture,”&lt;/a&gt; and a new sound unlike the industrial rock of the past.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jamiroquai', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jamiroquai&lt;/strong&gt; is an acid-jazz band formed in London in 1992. It’s led by frontman &lt;a href="https://genius.com/artists/Jason-kay" rel="noopener" data-api_path="/artists/2521215"&gt;Jay Kay&lt;/a&gt;, the band’s best-known and only remaining original member. Early Jamiroquai records were known for the use of a didgeridoo, played by &lt;a href="https://genius.com/artists/Wallis-buchanan" rel="noopener" data-api_path="/artists/989947"&gt;Wallis Buchanan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The name “Jamiroquai” is a portmanteau of “jam session” and the Native American “Iroquoi” tribe. Jay Kay’s interest in Native Americans can be seen clearly in the video for &lt;a href="https://genius.com/Jamiroquai-too-young-to-die-lyrics" rel="noopener" data-api_path="/songs/2165125"&gt;“Too Young To Die.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;As of January 2017, Jamiroquai is:&lt;br&gt;\n– Jay Kay&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Derrick-mckenzie" rel="noopener" data-api_path="/artists/514811"&gt;Derrick McKenzie&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Sola-akingbola" rel="noopener" data-api_path="/artists/989949"&gt;Sola Akingbola&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Rob-harris" rel="noopener" data-api_path="/artists/430309"&gt;Rob Harris&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Matthew-johnson" rel="noopener" data-api_path="/artists/669257"&gt;Matthew Johnson&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Paul-turner" rel="noopener" data-api_path="/artists/531823"&gt;Paul Turner&lt;/a&gt;&lt;br&gt;\n– Jim Corry&lt;br&gt;\n– Malcolm Strachan&lt;/p&gt;\n\n&lt;p&gt;The group’s 7th album titled &lt;a href="https://genius.com/albums/Jamiroquai/Automaton" rel="noopener" data-api_path="/albums/327380"&gt;&lt;em&gt;Automaton&lt;/em&gt;&lt;/a&gt; was released on 31 March, 2017, nearly 6,5 years after the release of &lt;a href="https://genius.com/albums/Jamiroquai/Rock-dust-light-star" rel="noopener" data-api_path="/albums/125040"&gt;&lt;em&gt;Rock Dust Light Star.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alien-ant-farm', 'annotations': {'description': '&lt;p&gt;Alien Ant Farm is an American rock band &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;of childhood friends&lt;/a&gt; formed in Riverside, California, in 1995. Their name comes &lt;a href="https://www.fredericksburg.com/calendar/charity_fundraisers/alien-ant-farm-at-hard-times/event_262095da-7025-11e4-9677-c392b372c9ea.html" rel="noopener nofollow"&gt;from an idea&lt;/a&gt; original guitarist Terry Corso had about aliens and the Earth:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was just my daydream about our planet being seeded by entities from other dimensions.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After self-releasing two EPs, AAF released their first &lt;a href="https://www.discogs.com/Alien-Ant-Farm-Greatest-Hits/release/3402074" rel="noopener nofollow"&gt;full album&lt;/a&gt; &lt;em&gt;Greatest Hits&lt;/em&gt; on Chick Music Records, featuring the original recordings of two future hits “Movies” and a cover of Michael Jackson’s “Smooth Criminal” (listed as “Slick Thief”). The &lt;a href="http://archives.starbulletin.com/2005/08/19/features/index3.html" rel="noopener nofollow"&gt;album won&lt;/a&gt; Best Independent Album at that year’s LA Music Awards and, through a friendship with Papa Roach, AAF was signed to DreamWorks Records.&lt;/p&gt;\n\n&lt;p&gt;In 2001 AAF released &lt;em&gt;ANThology&lt;/em&gt; with “Movies” as the band’s first single. It originally reached #53 in the UK and #18 on the &lt;a href="https://www.billboard.com/music/alien-ant-farm/chart-history/alternative-songs" rel="noopener nofollow"&gt;US Alternative Chart&lt;/a&gt; in the first half of 2001. Next “Smooth Criminal” was released and it became an international smash hit, reaching the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Smooth+Criminal&amp;amp;cat=s" rel="noopener nofollow"&gt;in fifteen countries&lt;/a&gt;. While “Criminal” was gaining steam, AAF toured with Linkin Park and Papa Roach, traveled with The Warped Tour, and headlined an MTV Fall Tour.&lt;/p&gt;\n\n&lt;p&gt;The success of “Criminal” shot “Movies” up to #5 in the UK and the top 30 in &lt;a href="https://australian-charts.com/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Movies&amp;amp;cat=s" rel="noopener nofollow"&gt;Australia &amp;amp; New Zealand&lt;/a&gt; in early 2002. The band appeared at several European festivals that year, Australia’s Big Day Out and headlined in Japan.  On the way to a festival in Spain, the band’s tour bus &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;collided with&lt;/a&gt; a parked truck, killing the bus driver and injuring several members of the band and their crew, one ending up in a coma.&lt;/p&gt;\n\n&lt;p&gt;In 2003, AAF released &lt;em&gt;Truant&lt;/em&gt; and &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;toured Europe&lt;/a&gt; with Metallica. The album’s lead single “These Days” was a minor Alternative and Rock hit in the US. The follow-up single “Glow” reached #5 &lt;a href="https://charts.nz/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Glow&amp;amp;cat=s" rel="noopener nofollow"&gt;in New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;DreamWorks Records was soon after sold to Universal and the band was placed under Universal’s Geffen Records, who shelved the band’s fourth album. AAF &lt;a href="http://www.popentertainment.com/alienantfarm.htm" rel="noopener nofollow"&gt;responded by&lt;/a&gt; bootlegging it and selling ‘a few thousand’ copies to fans.&lt;/p&gt;\n\n&lt;p&gt;Eventually Geffen relented and allowed the release of the album on a different label owned by Universal. The song “Forgive And Forget” was added and it was released as &lt;em&gt;Up In The Attic&lt;/em&gt; in 2006. None of the album’s singles charted. Its lack of success led to an &lt;a href="https://answerstoall.com/language/why-did-alien-ant-farm-break-up/" rel="noopener nofollow"&gt;unannounced 2007 breakup&lt;/a&gt;, that would only last until 2008. The band then toured for a few years before beginning work on their fifth album &lt;em&gt;Always And Forever&lt;/em&gt; in 2012, which found little success upon release in 2015.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band continues to tour, taking part in 2016’s Make America Rock Again tour with Saliva, Saving Abel, Tantric, Trapt, Crazy Town and 12 Stones, as well as 2018’s Gen-X Summer Tour with Buckcherry, Lit and POD. As of summer 2018, the band had &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;sold over 5 million units&lt;/a&gt; worldwide.  In 2020, during their Covid-19 quarantine, AAF released another 80s cover, this time Wham’s “Everything She Wants”. Its  &lt;a href="https://www.youtube.com/watch?v=Kfg4t-PAcBg" rel="noopener nofollow"&gt;music video&lt;/a&gt; features cameos by several famous musicians.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Junkie-xl', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Thomas Holkenborg']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gotye', 'annotations': {'description': '&lt;p&gt;Wauter De Backer, better known as Gotye, is an Australian musician. As well as performing numerous instruments, he writes and performs his own lyrics. He was born in Belguim but he moved to Australia at the age of two.&lt;/p&gt;\n\n&lt;p&gt;To date, Gotye has released three studio albums and one remix album, the most popular being &lt;a href="https://genius.com/albums/Gotye/Making-mirrors" rel="noopener" data-api_path="/albums/14938"&gt;&lt;em&gt;Making Mirrors&lt;/em&gt;&lt;/a&gt; which delivered the smash hit single &lt;a href="https://genius.com/Gotye-somebody-that-i-used-to-know-lyrics" rel="noopener" data-api_path="/songs/65848"&gt;“Somebody That I Used To Know,”&lt;/a&gt; which hit number one in over twenty countries. He is also a founding member of the band &lt;a href="https://genius.com/artists/The-basics" rel="noopener" data-api_path="/artists/260112"&gt;The Basics&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Wally De Backer', 'Wauter Andre E. De Backer', 'Wauter De Backer']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sex-pistols', 'annotations': {'description': '&lt;p&gt;Short-lived, yet long-influencing, the Sex Pistols were an English punk band formed in London in 1975. They initiated the punk movement in the UK and subsequently inspired a plethora of groups. Their original line-up consisted of singer &lt;a href="https://genius.com/artists/John-lydon" rel="noopener" data-api_path="/artists/221228"&gt;John “Johnny Rotten” Lydon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Steve-jones" rel="noopener" data-api_path="/artists/374884"&gt;Steve “Jonesy” Jones&lt;/a&gt;, bassist Glen Matlock (replaced by trainwreck and subsequent punk icon &lt;a href="https://genius.com/artists/Sid-vicious" rel="noopener" data-api_path="/artists/346731"&gt;Sid Vicious&lt;/a&gt;), and drummer Paul Cook. Under the management of Malcolm McLaren, the Pistols created a ton of controversy, scoring even more publicity as a result.&lt;/p&gt;\n\n&lt;p&gt;Their first and only studio album, &lt;a href="https://genius.com/albums/Sex-pistols/Never-mind-the-bollocks-here-s-the-sex-pistols" rel="noopener" data-api_path="/albums/17469"&gt;&lt;em&gt;Never Mind the Bollocks, Here’s the Sex Pistols&lt;/em&gt;&lt;/a&gt;, was released in 1977. During a promotional tour in the United States the following year, the group decided to disband. The original four reunited in the 90s with the adequately titled “Never Mind The Pistols… Here`s the Filthy Lucre” Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Katrina-and-the-waves', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Carl-ward', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Justin-timberlake', 'annotations': {'description': '&lt;p&gt;Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, and actor. Born in Memphis, Tennessee, he appeared on the television shows &lt;em&gt;Star Search&lt;/em&gt; and &lt;em&gt;The All-New Mickey Mouse Club&lt;/em&gt; as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of the boy band &lt;a href="https://genius.com/artists/N-sync" rel="noopener" data-api_path="/artists/8625"&gt;NSYNC&lt;/a&gt;, which eventually became one of the best-selling boy bands of all time.&lt;/p&gt;\n\n&lt;p&gt;In 2002, Timberlake released his solo debut, &lt;em&gt;Justified,&lt;/em&gt; with some help from The Neptunes and Timbaland on production. Timbaland and Timberlake would continue their collaboration on 2006’s &lt;em&gt;FutueSex/LoveSounds&lt;/em&gt;, on which Timbaland produced all but two tracks.&lt;/p&gt;', 'alternate_names': ['Justin Randall', 'Justin R. Timberlake', 'Justin Randall Timberlake']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Shaggy', 'annotations': {'description': '&lt;p&gt;Orville Richard Burrell CD (born October 22, 1968), known mostly by his stage name Shaggy, is a Jamaican reggae fusion singer and deejay. He took his nickname from Shaggy Rogers, from the cartoon Scooby Doo.&lt;/p&gt;\n\n&lt;p&gt;He was born on October 22, 1968 in Kingston, Jamaica. In 1975 he and his family moved to Brooklyn, New York.&lt;/p&gt;\n\n&lt;p&gt;The singer released his first hit “Oh Carolina” in 1993, which was a dancehall re-make of a ska hit by the Folkes Brothers.&lt;br&gt;\nIn 1995 he published his most famous hit “Boombastic”.&lt;br&gt;\nIn 2000, Shaggy released the album Hot Shot, which was certified 6x Platinum in the U.S. The album featured the singles “It Wasn’t Me” and “Angel”.&lt;/p&gt;', 'alternate_names': ['Mr. Boombastic', 'Orville Burrell', 'Orville Richard Burrell', 'Orville R. Burrell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jessie-j', 'annotations': {'description': '&lt;p&gt;Jessie J is a British singer. Born in 1988, she first came to fame when her single, &lt;a href="https://genius.com/Jessie-j-do-it-like-a-ude-lyrics" rel="noopener"&gt;“Do It Like A Dude”&lt;/a&gt; hit #2 in the UK. Singles &lt;a href="https://genius.com/Jessie-j-laserlight-lyrics" rel="noopener" data-api_path="/songs/248955"&gt;“LaserLight”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-nobodys-perfect-lyrics" rel="noopener" data-api_path="/songs/62391"&gt;“Nobody’s Perfect”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-who-you-are-lyrics" rel="noopener" data-api_path="/songs/81908"&gt;“Who You Are”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-domino-lyrics" rel="noopener" data-api_path="/songs/67446"&gt;“Domino”&lt;/a&gt;, and &lt;a href="https://genius.com/Jessie-j-price-tag-lyrics" rel="noopener" data-api_path="/songs/6125"&gt;“Price Tag”&lt;/a&gt; all hit the Top 10 in the UK, making her the first British female artist to achieve 6 Top 10 singles in the UK. The latter two became Top 25 hits in the US, with &lt;a href="https://genius.com/Jessie-j-domino-lyrics" rel="noopener" data-api_path="/songs/67446"&gt;“Domino”&lt;/a&gt; peaking at #6 and &lt;a href="https://genius.com/Jessie-j-price-tag-lyrics" rel="noopener" data-api_path="/songs/6125"&gt;“Price Tag”&lt;/a&gt; hitting #23.&lt;/p&gt;\n\n&lt;p&gt;Jessie J’s second album, &lt;a href="https://genius.com/albums/Jessie-j/Alive" rel="noopener" data-api_path="/albums/42826"&gt;&lt;em&gt;Alive&lt;/em&gt;&lt;/a&gt;, became a UK-only release. The three singles, &lt;a href="https://genius.com/Jessie-j-wild-lyrics" rel="noopener" data-api_path="/songs/155565"&gt;“Wild”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-its-my-party-lyrics" rel="noopener" data-api_path="/songs/207003"&gt;“It’s My Party”&lt;/a&gt;, and &lt;a href="https://genius.com/Jessie-j-thunder-lyrics" rel="noopener" data-api_path="/songs/221197"&gt;“Thunder”&lt;/a&gt; all hit the Top 20 in the UK, with the first two making Top 5. On the album charts, it hit #3 and went gold.&lt;/p&gt;\n\n&lt;p&gt;Her third album, &lt;a href="https://genius.com/albums/Jessie-j/Sweet-talker" rel="noopener" data-api_path="/albums/111122"&gt;&lt;em&gt;Sweet Talker&lt;/em&gt;&lt;/a&gt;, was released internationally and preceded by the smash single &lt;a href="https://genius.com/Jessie-j-ariana-grande-and-nicki-minaj-bang-bang-lyrics" rel="noopener" data-api_path="/songs/486355"&gt;“Bang Bang”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nicki-minaj" rel="noopener" data-api_path="/artists/92"&gt;Nicki Minaj&lt;/a&gt;. In the UK, it went straight to the top of the charts, while in the US, it debuted at #6, tying her highest peak. Eventually, it hit #3, becoming Jessie’s highest peak, Grande’s second-highest, and Minaj’s tied-for-highest. (Minaj later surpassed her peak with her number two single, &lt;a href="https://genius.com/Nicki-minaj-anaconda-lyrics" rel="noopener" data-api_path="/songs/483960"&gt;“Anaconda”&lt;/a&gt;.) “Bang Bang” also hit the Top 10 in Australia, Canada, Denmark, and New Zealand and went Platinum X6 according to RIIA. The next single, &lt;a href="https://genius.com/Jessie-j-burnin-up-lyrics" rel="noopener" data-api_path="/songs/510163"&gt;“Burnin\' Up”&lt;/a&gt; was less successful, although it cracked the Top 100 in both the US and UK. Third single &lt;a href="https://genius.com/Jessie-j-sweet-talker-lyrics" rel="noopener" data-api_path="/songs/458228"&gt;“Sweet Talker”&lt;/a&gt; was released in only the UK/Ireland, and fourth single &lt;a href="https://genius.com/Jessie-j-masterpiece-lyrics" rel="noopener" data-api_path="/songs/538461"&gt;“Masterpiece”&lt;/a&gt; hit the US Hot 100, but only managed a 159 peak in the UK.&lt;/p&gt;\n\n&lt;p&gt;After 3 years away from the music scene, Jessie came back with a fourth LP, &lt;a href="https://genius.com/albums/Jessie-j/R-o-s-e" rel="noopener" data-api_path="/albums/368378"&gt;&lt;em&gt;R.O.S.E.&lt;/em&gt;&lt;/a&gt; (2018). The official single from the album is &lt;a href="https://genius.com/Jessie-j-queen-lyrics" rel="noopener" data-api_path="/songs/3237259"&gt;“Queen”&lt;/a&gt; along with two promo singles &lt;a href="https://genius.com/Jessie-j-think-about-that-lyrics" rel="noopener" data-api_path="/songs/3226086"&gt;“Think About That”&lt;/a&gt; and &lt;a href="https://genius.com/Jessie-j-not-my-ex-lyrics" rel="noopener" data-api_path="/songs/3237257"&gt;“Not My Ex”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Jessie E. Cornish', 'Jessica Cornish', 'Jessica Ellen Cornish']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mr-president', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Suzanne-vega', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Elle-king', 'annotations': {'description': '&lt;p&gt;Elle King is an American singer-songwriter and actress. She was born Tanner Elle Schneider on July 3rd, 1989, to actor Rob Schneider and model London King. Despite the fact that she has famous parents, Elle became well-known by showcasing her own talent and drive.&lt;/p&gt;\n\n&lt;p&gt;Elle got her start by performing in bars as a teenager. In an &lt;a href="http://nypost.com/2015/02/28/rob-Schneiders-daughter-elle-king-debuts-first-rock-album" rel="noopener nofollow"&gt;interview with &lt;em&gt;The Post,&lt;/em&gt;&lt;/a&gt; she says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I played my first show in New York when I was sixteen. [My mom] found my fake IDs and would cut them up, but I would get another one. Finally, she just said ‘Fine, I’m coming with you,’ to make sure I didn’t drink!"&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Elle released her first studio album, &lt;a href="https://genius.com/albums/Elle-king/love-stuff" rel="noopener" data-api_path="/albums/120148"&gt;&lt;em&gt;Love Stuff&lt;/em&gt;,&lt;/a&gt; on February 13th, 2015. Its lead single, &lt;a href="https://genius.com/Elle-king-exs-and-ohs-lyrics" rel="noopener" data-api_path="/songs/720473"&gt;“Ex’s and Oh’s,”&lt;/a&gt; was released in September 2014, and became a smash hit, &lt;a href="http://billboard.com/artist/6415177/Elle+King/chart?f=902" rel="noopener nofollow"&gt;peaking at #10&lt;/a&gt; on the US &lt;em&gt;Billboard&lt;/em&gt; Hot 100 and being &lt;a href="http://riaa.com/goldandplatinum.php?artist=Elle+King" rel="noopener nofollow"&gt;certified Platinum&lt;/a&gt; in the US by RIAA.&lt;/p&gt;', 'alternate_names': ['Tanner Schneider', 'Tanner Elle Schneider']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Victoria-justice', 'annotations': {'description': '&lt;p&gt;Victoria Justice (born February 19, 1993) is an American actress, singer-songwriter, and dancer. She debuted as an actress at the age of 10 and has since appeared in several films and television series including the Nickelodeon series &lt;a href="https://en.wikipedia.org/wiki/Zoey_101" rel="noopener nofollow"&gt;Zoey 101&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Victorious" rel="noopener nofollow"&gt;Victorious&lt;/a&gt;. When not filming or recording music, Victoria is participating in several charity events.&lt;/p&gt;', 'alternate_names': ['Victoria Dawn Justice']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Miranda-cosgrove', 'annotations': {'description': '&lt;p&gt;Miranda Cosgrove is an American actress and singer. Her career began at the age of three, when she appeared in television commercials. Her film debut came in 2003, when she played Summer Hathaway in School of Rock. She appeared in a number of minor television roles over several years before coming to prominence as Megan Parker on the Nickelodeon TV series Drake &amp;amp; Josh. A few years later, she landed the role of Carly Shay, the lead character in the Nickelodeon TV series iCarly.&lt;/p&gt;\n\n&lt;p&gt;As of May 2010, Cosgrove earned $180,000 per episode of iCarly, making her the second-highest-paid child star on television. Following the success of iCarly, a &lt;a href="https://genius.com/albums/Various-artists/Icarly-soundtrack" rel="noopener" data-api_path="/albums/122122"&gt;soundtrack album&lt;/a&gt; was released in June 2008, in which she performed four songs. Her debut album, &lt;em&gt;Sparks Fly&lt;/em&gt;, was released on April 27, 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Asia', 'annotations': {'description': '&lt;p&gt;Asia are a British progressive art rock supergroup formed by John Wetton of King Crimson with the help of his manager Brian Lane. The two recruited Yes guitarist Steve Howe, Geoff Downes of Yes/The Buggles, and Carl Palmer of ELP to complete the lineup.&lt;/p&gt;\n\n&lt;p&gt;The band signed to Geffen Records in the summer of 1981 and their eponymous debut album was released in March of 1982. Asia embarked on a 30-stop US tour beginning in April as their debut single “Heat Of The Moment” topped the US Rock Chart. &lt;em&gt;Asia&lt;/em&gt; quickly reached #11 in the UK and topped the US albums chart. By June, “Heat Of The Moment” had crossed over to the pop charts, &lt;a href="https://www.billboard.com/music/asia/chart-history" rel="noopener nofollow"&gt;reaching the top 10&lt;/a&gt; in the US, Germany and Switzerland, and becoming a &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Asia&amp;amp;titel=Heat+Of+The+Moment&amp;amp;cat=s" rel="noopener nofollow"&gt;minor hit in&lt;/a&gt; New Zealand, The UK and The Netherlands. The album racked up six total Rock Chart entries in the US, including another pop crossover hit with “Only Time Will Tell” and the album topped the US albums chart for nine non-consecutive weeks and was quickly certified multi-platinum. The group’s music videos were also in &lt;a href="https://originalasia.com/about/" rel="noopener nofollow"&gt;heavy rotation&lt;/a&gt; throughout 1982 on MTV and they were nominated for a Grammy for Best New Artist.&lt;/p&gt;\n\n&lt;p&gt;The band’s sophomore album &lt;em&gt;Alpha&lt;/em&gt; was almost as successful commercially, reaching #6 in the US. Its first single “Don’t Cry” gave the band its second and final Rock Chart #1 and pop crossover top 10 hit in the US. It also remains their highest charter in the UK at #33. “The Smile Has Left Your Eyes” became the band’s last US top 40 and was also a minor hit in the UK and Germany. Five songs from &lt;em&gt;Alpha&lt;/em&gt; reached the US Rock Chart top 30 that year. However, tensions had been growing in the band before the release of &lt;em&gt;Alpha&lt;/em&gt;. Geffen was &lt;a href="https://originalasia.com/about/" rel="noopener nofollow"&gt;pressuring the band&lt;/a&gt; to follow up their radio-friendly hits with more of the same. Also, personal conflicts began tearing the band apart. Cracks began to show when Wetton left the band weeks before a sold-out December 1983 show in Tokyo, forcing the band to replace him quickly with Palmer’s ex-bandmate Greg Lake.&lt;/p&gt;\n\n&lt;p&gt;Wetton returned in 1984, but soon after starting work on a third album, Howe left to form GTR with Steve Hackett of Genesis. Krokus guitarist Mandy Meyer replaced him and &lt;em&gt;Astra&lt;/em&gt; came out in late 1985, but its success paled in comparison to the two previous albums. Its lead single “Go” was a #7 US Rock Chart hit and almost made the pop top 40. Two further singles would find little success on rock radio. Soon after, the members of Asia all moved on to other projects.&lt;/p&gt;\n\n&lt;p&gt;After a failed 1987 attempt to reunite by Wetton and Downes (the demos of which were &lt;a href="https://www.discogs.com/John-Wetton-And-Geoffrey-Downes-John-WettonGeoffrey-Downes/master/560534" rel="noopener nofollow"&gt;later released&lt;/a&gt; in 2001), Wetton, Palmer and Downes officially reunited in 1989, adding guitarist Pat Thrall, and recorded four new songs that made up most of the ‘Now’ section of the 1990 compilation &lt;em&gt;Then &amp;amp; Now&lt;/em&gt; – their final album for Geffen. “Days Like These”, a new track, became a #2 US Rock Chart hit and reached #64 on the pop chart, becoming their final single to chart worldwide. Asia followed the release up with a tour, notably performing &lt;a href="https://www.allmusic.com/artist/asia-mn0000623254/biography" rel="noopener nofollow"&gt;two sold-out dates&lt;/a&gt; in Moscow for 20,000 fans.&lt;/p&gt;\n\n&lt;p&gt;When Wetton left the band again, Downes invited John Payne to replace him in 1991. Over the next thirteen years, Asia saw ever-changing membership during the release of eight studio albums that found moderate success in Germany and Japan, and occasional minor chart success in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;In 2005, the original Asia lineup reunited and released three studio albums which all found varied chart success in the US, UK, Germany and Japan. Meanwhile, Payne formed ‘Asia featuring John Payne’, released &lt;a href="https://www.discogs.com/Asia-Featuring-John-Payne-Scandinavia/release/3210169" rel="noopener nofollow"&gt;a live album&lt;/a&gt; in 2007 and &lt;a href="https://web.archive.org/web/20080828084926/http://www.theasiaband.com/2008/06/03/scranton-pocono-500-fanfest-interview-with-john/" rel="noopener nofollow"&gt;began touring&lt;/a&gt; in 2008.&lt;/p&gt;\n\n&lt;p&gt;Howe again retired from Asia in 2013 and was replaced by Sam Coulson. &lt;em&gt;Gravitas&lt;/em&gt; was released in 2014 – the band’s final album before Wetton’s death in 2017. In 2022, the band (with original members Palmer &amp;amp; Downes) &lt;a href="https://www.prnewswire.com/news-releases/asia-with-original-members-carl-palmer--geoff-downes-announces-40th-anniversary-celebration-301470029.html?fbclid=IwAR26RFupiCtkNxqeoYrcR9mRTJ3cgeVuJCWsmG-k5cKhDQ9ITS2Pw8j2IIY" rel="noopener nofollow"&gt;announced&lt;/a&gt; a 40th anniversary tour with new frontman Marc Bonilla.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ava-max', 'annotations': {'description': '&lt;p&gt;Coupling powerhouse vocals with simultaneously catchy and powerful songwriting, Ava Max is one of the fastest rising pop singers. Born Amanda Ava Koci on February 16, 1994, in Milwaukee, Wisconsin to &lt;a href="https://www.broadwayworld.com/bwwmusic/article/Ava-Max-Takes-Control-With-New-Single-My-Way-20180501" rel="noopener nofollow"&gt;Albanian immigrants&lt;/a&gt;, Max didn’t get her start in the music industry until 2017 with her feature on “&lt;a href="https://genius.com/Le-youth-clap-your-hands-lyrics" rel="noopener" data-api_path="/songs/3183877"&gt;Clap Your Hands&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Before long, she scored her breakout hit through &lt;a href="https://genius.com/Ava-max-sweet-but-psycho-lyrics" rel="noopener" data-api_path="/songs/3905115"&gt;“Sweet but Psycho”&lt;/a&gt;, which reached number one on several music charts around the world before climbing into the top 10 of the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;On September 18th 2020, her debut album was released, containing the songs “Sweet But Psycho”, &lt;a href="https://genius.com/Ava-max-salt-lyrics" rel="noopener" data-api_path="/songs/3905214"&gt;“Salt”&lt;/a&gt; and &lt;a href="https://genius.com/Ava-max-kings-and-queens-lyrics" rel="noopener" data-api_path="/songs/5183065"&gt;“Kings &amp;amp; Queens”&lt;/a&gt;. She managed to get the number one spot in the UK album charts.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Ava-max-my-head-and-my-heart-lyrics" rel="noopener" data-api_path="/songs/6014343"&gt;“My Head &amp;amp; My Heart”&lt;/a&gt;, the promotional single for the deluxe version of the album, reached 1st place in America in the iTunes charts.&lt;/p&gt;', 'alternate_names': ['Amanda Koci', 'Amanda Kay', 'Amanda Ava Koci']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/James-blunt', 'annotations': {'description': '&lt;p&gt;A former British Army officer, singer/songwriter James Blunt is a thoughtful performer with a knack for crafting melodic contemporary soft rock tunes.&lt;/p&gt;\n\n&lt;p&gt;Born in Tidworth, Wiltshire, England in 1974 to a family with a long military history, Blunt entered the Army after graduating from the Royal Military Academy Sandhurst. Ultimately achieving the rank of captain, Blunt served with the NATO peacekeeping force in Kosovo and finished out his time in the military as a member of the Life Guard Regiment in the British Household Cavalry. Having long been interested in music, Blunt wasted no time in pursuing a pop career after leaving the Army.&lt;/p&gt;\n\n&lt;p&gt;A subsequent performance at the South by Southwest festival in Austin, Texas brought Blunt to the attention of 4 Non Blondes singer/producer Linda Perry, who signed Blunt to her Custard Records label.&lt;/p&gt;\n\n&lt;p&gt;Released in 2005, Blunt’s debut album, &lt;a href="https://genius.com/albums/James-blunt/Back-to-bedlam" rel="noopener" data-api_path="/albums/48390"&gt;&lt;em&gt;Back to Bedlam&lt;/em&gt;&lt;/a&gt;, and its hit single, &lt;a href="https://genius.com/James-blunt-youre-beautiful-lyrics" rel="noopener" data-api_path="/songs/95061"&gt;“You’re Beautiful”&lt;/a&gt;, were hugely successful – the single hit number one in over a dozen countries, and sold over ten million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;Blunt toured for much of 2005 and 2006, then released the two-disc “odds and sods” CD/DVD &lt;a href="https://genius.com/albums/James-blunt/Chasing-time-the-bedlam-sessions" rel="noopener" data-api_path="/albums/354560"&gt;&lt;em&gt;Chasing Time: The Bedlam Sessions&lt;/em&gt;&lt;/a&gt; in 2006. He had been writing songs while on the road, and brought Back to Bedlam producer Tom Rothrock in again to record. (The songs featured writing collaborations with Mark Batson, Jimmy Hogarth, Steve McEwan, and Max Martin, while the recordings featured Blunt’s live backing band.)&lt;/p&gt;\n\n&lt;p&gt;His sophomore effort, &lt;a href="https://genius.com/albums/James-blunt/All-the-lost-souls" rel="noopener" data-api_path="/albums/113071"&gt;&lt;em&gt;All the Lost Souls&lt;/em&gt;&lt;/a&gt;, featuring the leadoff single &lt;a href="https://genius.com/James-blunt-1973-lyrics" rel="noopener" data-api_path="/songs/531200"&gt;“1973”&lt;/a&gt;, finally dropped in September 2007.&lt;/p&gt;\n\n&lt;p&gt;Disillusioned by success and what he felt as a perceived loss of artistic credibility, Blunt took a break from music before coming back in 2010 with his third full-length effort, &lt;a href="https://genius.com/albums/James-blunt/Some-kind-of-trouble" rel="noopener" data-api_path="/albums/18815"&gt;&lt;em&gt;Some Kind of Trouble&lt;/em&gt;&lt;/a&gt;, a more optimistic, spontaneous album influenced by ‘70s U.S. pop/rock, which sold well despite not being critically well-received.&lt;/p&gt;\n\n&lt;p&gt;In 2012 he returned to the studio with Tom Rothrock to track his fourth album, &lt;a href="https://genius.com/albums/James-blunt/Moon-landing" rel="noopener" data-api_path="/albums/110213"&gt;&lt;em&gt;Moon Landing&lt;/em&gt;&lt;/a&gt;. Featuring &lt;a href="https://genius.com/James-blunt-miss-america-lyrics" rel="noopener" data-api_path="/songs/493595"&gt;“Miss America,”&lt;/a&gt; Blunt’s tribute to the late Whitney Houston, and the country-folk-influenced single &lt;a href="https://genius.com/James-blunt-bonfire-heart-lyrics" rel="noopener" data-api_path="/songs/197282"&gt;“Bonfire Heart,”&lt;/a&gt; the record was released in October 2013.&lt;/p&gt;\n\n&lt;p&gt;Roughly four years passed before Blunt would release another album. He returned in early 2017 with his fifth studio album, &lt;a href="https://genius.com/albums/James-blunt/The-afterlove" rel="noopener" data-api_path="/albums/327366"&gt;&lt;em&gt;The Afterlove&lt;/em&gt;&lt;/a&gt;, which featured songwriting assistance from Blunt’s friend &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran&lt;/a&gt; and OneRepublic’s &lt;a href="https://genius.com/artists/Ryan-tedder" rel="noopener" data-api_path="/artists/1653"&gt;Ryan Tedder&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['James Hillier Blount']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Desireless', 'annotations': {'description': '&lt;p&gt;Claudie Fritsch-Mentrop, known by her stage name Desireless (born 25 December 1952, Paris, France), is a French singer. Between 1986 and 1988, her hit single “Voyage, voyage” made it to number one in many European and Asian single charts and sold over five million copies.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bob', 'annotations': {'description': '&lt;p&gt;Bobby Ray Simmons, Jr. has released over &lt;strong&gt;21&lt;/strong&gt; bodies of work, that along with countless features, chart-toppers, and production-credits highlights just how hardworking this southeastern artist truly is.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;His musical output began in 2007, releasing 3 projects that year, as well as the following year. Then, in 2009, B.o.B released &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/B-o-b-vs-bobby-ray" rel="noopener" data-api_path="/albums/1016"&gt;B.o.B Vs. Bobby Ray&lt;/a&gt;&lt;/em&gt;, and was made an &lt;a href="http://www.xxlmag.com/news/2011/03/where-are-they-now-2009-freshman-recap/" rel="noopener nofollow"&gt;XXL Freshman&lt;/a&gt;, however he’d not even started to see success. That is, until the &lt;a href="https://genius.com/artists/Bruno-mars" rel="noopener" data-api_path="/artists/500"&gt;Bruno Mars&lt;/a&gt; assisted #1 single &lt;a href="https://genius.com/Bob-nothin-on-you-lyrics" rel="noopener" data-api_path="/songs/1411"&gt;“Nothin\' On You”&lt;/a&gt; was released – one of the many successful singles from his debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/B-o-b-presents-the-adventures-of-bobby-ray" rel="noopener" data-api_path="/albums/1010"&gt;B.o.B Presents The Adventures of Bobby Ray&lt;/a&gt;&lt;/em&gt;, which peaked at &lt;a href="http://www.billboard.com/artist/275499/bob/chart?f=305" rel="noopener nofollow"&gt;#1 on the Billboard Charts.&lt;/a&gt; The album also received favourable reviews and 5 Grammy nominations (one for &lt;a href="https://genius.com/Bob-airplanes-pt-2-lyrics" rel="noopener" data-api_path="/songs/722"&gt;“Airplanes, Pt 2 (feat. Eminem &amp;amp; Hayley Williams)”&lt;/a&gt; – Best Pop Collaboration with Vocals).&lt;/p&gt;\n\n&lt;p&gt;After this amount of success many would take a well-earned hiatus, but not B.o.B. Before 2010’s end he released his beloved mixtape &lt;em&gt;&lt;a href="https://genius.com/artists/No-genre" rel="noopener" data-api_path="/artists/515387"&gt;No Genre&lt;/a&gt;&lt;/em&gt;. Less than a year later he released another well received mixtape, &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/E-p-i-c-every-play-is-crucial" rel="noopener" data-api_path="/albums/13180"&gt;E.P.I.C. (Every Play is Crucial)&lt;/a&gt;&lt;/em&gt;, which was composed of songs of the excess songs he couldn’t fit on his sophomore album, &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/Strange-clouds" rel="noopener" data-api_path="/albums/12465"&gt;Strange Clouds.&lt;/a&gt;&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, his incredible run of mainstream success couldn’t last, with his following album,  &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/Underground-luxury" rel="noopener" data-api_path="/albums/35052"&gt;Underground Luxury&lt;/a&gt;&lt;/em&gt;, receiving little attention from radio. Since however, his output hasn’t diminished, with 5 mixtapes released since his 3rd studio album – this output may’ve even been greater if it hadn’t been for him founding his label ‘No Genre’ (after his mixtape), and helping to establish his roster.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Whatever anyone may have to say about B.o.B, no one can deny he is one of the hardest working in the industry.&lt;/p&gt;', 'alternate_names': ['Bobby Ray Simmons Jr.', 'Bobby Ray']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sum-41', 'annotations': {'description': '&lt;p&gt;Sum 41 is a Canadian rock band from Ajax, Ontario. They formed in 1996 as a five-piece consisting of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Deryck-whibley" rel="noopener" data-api_path="/artists/124140"&gt;Deryck Whibley&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Dave-baksh" rel="noopener" data-api_path="/artists/341905"&gt;Dave Baksh&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Tom-thacker" rel="noopener" data-api_path="/artists/1098961"&gt;Tom Thacker&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Jason-mccaslin" rel="noopener" data-api_path="/artists/244346"&gt;Jason McCaslin&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Stevo32" rel="noopener" data-api_path="/artists/649671"&gt;Frank Zummo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Though they were originally called Kaspir, the group members decided to change the band’s name for a Supernova show on September 28, 1996, which happened to be the &lt;strong&gt;41&lt;/strong&gt;&lt;sup&gt;st&lt;/sup&gt; day of their &lt;strong&gt;sum&lt;/strong&gt;mer vacation. The band released their debut record as Sum 41 called &lt;a href="https://genius.com/albums/Sum-41/Half-hour-of-power" rel="noopener" data-api_path="/albums/89972"&gt;&lt;em&gt;Half Hour of Power&lt;/em&gt;&lt;/a&gt; in 2000. They followed it with the breakout sophomore record &lt;a href="https://genius.com/albums/Sum-41/All-killer-no-filler" rel="noopener" data-api_path="/albums/23564"&gt;&lt;em&gt;All Killer No Filler&lt;/em&gt;&lt;/a&gt; in 2001 and it contained several charting songs such as &lt;a href="https://genius.com/Sum-41-fat-lip-lyrics" rel="noopener" data-api_path="/songs/96082"&gt;“Fat Lip”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-in-too-deep-lyrics" rel="noopener" data-api_path="/songs/96086"&gt;“In Too Deep.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2002, the band released &lt;a href="https://genius.com/albums/Sum-41/Does-this-look-infected" rel="noopener" data-api_path="/albums/78047"&gt;&lt;em&gt;Does This Look Infected?&lt;/em&gt;&lt;/a&gt; which was also a commercial and critical success. The singles &lt;a href="https://genius.com/Sum-41-the-hell-song-lyrics" rel="noopener" data-api_path="/songs/381815"&gt;“The Hell Song”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-still-waiting-lyrics" rel="noopener" data-api_path="/songs/389921"&gt;“Still Waiting”&lt;/a&gt; drove the band to stardom, and with their 2004 record &lt;a href="https://genius.com/albums/Sum-41/Chuck" rel="noopener" data-api_path="/albums/28847"&gt;&lt;em&gt;Chuck&lt;/em&gt;&lt;/a&gt;, they planted themselves as giants in the punk rock scene.&lt;/p&gt;\n\n&lt;p&gt;Though it was received with mixed reviews, their 2007 album &lt;a href="https://genius.com/albums/Sum-41/Underclass-hero" rel="noopener" data-api_path="/albums/42860"&gt;&lt;em&gt;Underclass Hero&lt;/em&gt;&lt;/a&gt; became the highest grossing album of the band to date. It was then followed by &lt;a href="https://genius.com/albums/Sum-41/Screaming-bloody-murder" rel="noopener" data-api_path="/albums/21310"&gt;&lt;em&gt;Screaming Bloody Murder&lt;/em&gt;&lt;/a&gt; in 2011, &lt;a href="https://genius.com/albums/Sum-41/13-voices" rel="noopener" data-api_path="/albums/157898"&gt;&lt;em&gt;13 Voices&lt;/em&gt;&lt;/a&gt; in 2016 and &lt;a href="https://genius.com/albums/Sum-41/Order-in-decline" rel="noopener" data-api_path="/albums/523533"&gt;&lt;em&gt;Order in Decline&lt;/em&gt;&lt;/a&gt; in 2019. While none of these albums have been able to reach the commercial success as their predecessors, they have nevertheless received praise from fans and critics alike.&lt;/p&gt;\n\n&lt;p&gt;Sum 41 occasionally played as an alter-ego 1980s heavy metal band called Pain for Pleasure during shows.&lt;/p&gt;\n\n&lt;p&gt;It is also hypothesized by many fans that the band’s name comes from the fact that if you take the word “fuck” and add all its letters (“F” being the 6th letter of the alphabet, “U” being number 21, etc) you get 41.&lt;/p&gt;', 'alternate_names': ['Pain for pleasure', 'Kaspir']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hoobastank', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Hoobustank']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eve-6', 'annotations': {'description': '&lt;p&gt;Eve 6 are an American rock band from Southern California, who are most well known for their hit singles “Inside Out”, “Here’s to the Night”, and “Victoria”. They disbanded in 2004, returned for numerous tours in 2007 with a new lineup, and finally reunited with all three original members in early 2011. They signed to Fearless Records in the spring of that year, and released their long-awaited fourth album Speak in Code, containing the singles “Victoria” and “Curtain”, in April 2012, It’s a Great band with 2 hit songs&lt;br&gt;\n“Inside Out”&lt;br&gt;\nPeaked at #28 on 12.19.1998&lt;br&gt;\n“Here’s To The Night”&lt;br&gt;\nPeaked at #30 on 7.28.2001&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/99e53bfbd299a981fa5f8b3354609834.305x225x1.jpg" alt="" width="305" height="225" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Haddaway', 'annotations': {'description': '&lt;p&gt;Nestor Alexander Haddaway (born 9 January 1965) is a Trinidadian-born German vocalist and musician  best known for his 1993 hit single “What Is Love”, which reached number 1 in 13 countries.&lt;/p&gt;', 'alternate_names': ['Nestor Haddaway', 'Nestor Alexander Haddaway']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kansas', 'annotations': {'description': '&lt;p&gt;Kansas is an American rock band that became popular in the 1970s initially on album-oriented rock charts and later with hit singles such as &lt;a href="https://genius.com/Kansas-carry-on-wayward-son-lyrics" rel="noopener" data-api_path="/songs/94674"&gt;“Carry On Wayward Son”&lt;/a&gt; and &lt;a href="https://genius.com/Kansas-dust-in-the-wind-lyrics" rel="noopener" data-api_path="/songs/161567"&gt;“Dust in the Wind”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band has produced nine gold albums, three multi-platinum albums, one platinum studio album, one platinum live double album, and a million-selling single, “Dust in the Wind”.&lt;/p&gt;\n\n&lt;p&gt;Kansas appeared on the Billboard charts for over 200 weeks throughout the 1970s and 1980s and played to sold-out arenas and stadiums throughout North America, Europe and Japan. “Carry On Wayward Son” was the second-most-played track on US classic rock radio in 1995 and No. 1 in 1997&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Semisonic', 'annotations': {'description': '&lt;p&gt;Semisonic is an alternative rock band from Minneapolis, Minnesota, formed by Dan Wilson, Jon Munson, and Jacob Slichter in 1995. Their 1998 album &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Feeling-strangely-fine" rel="noopener" data-api_path="/albums/152225"&gt;Feeling Strangely Fine&lt;/a&gt;&lt;/em&gt; contained the hit song “&lt;a href="https://genius.com/Semisonic-closing-time-lyrics" rel="noopener" data-api_path="/songs/71637"&gt;Closing Time&lt;/a&gt;”, and they are often considered a one-hit wonder. After the release of their third album, &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/All-about-chemistry" rel="noopener" data-api_path="/albums/160158"&gt;All About Chemistry&lt;/a&gt;&lt;/em&gt;, in 2001, the band went on hiatus for 16 years. They reformed in 2017 to commemorate the twentieth anniversary of their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Great-divide" rel="noopener" data-api_path="/albums/107581"&gt;Great Divide&lt;/a&gt;&lt;/em&gt;. In 2020, they released the EP &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Youre-not-alone-ep" rel="noopener" data-api_path="/albums/650719"&gt;You’re Not Alone&lt;/a&gt;&lt;/em&gt;, their first release of new material in 19 years.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Beck', 'annotations': {'description': '&lt;p&gt;Beck took the lo-fi sound of DIY indie rock to the &lt;a href="https://www.billboard.com/music/beck/chart-history/alternative-songs/song/23942" rel="noopener nofollow"&gt;Billboard charts&lt;/a&gt; in 1994 with his slacker anthem &lt;a href="https://genius.com/Beck-loser-lyrics" rel="noopener" data-api_path="/songs/4905"&gt;“Loser,”&lt;/a&gt; but his avant-pop palette extends well beyond the folk-rap beats and samples of that hit; encompassing everything from funk, soul, and psychedelia to wild experiments with feedback, toy instruments, and found sounds. Plus, his disjointed, surreal lyrics (which were often compared to &lt;a href="https://genius.com/albums/Bob-dylan/Highway-61-revisited" rel="noopener" data-api_path="/albums/13573"&gt;&lt;em&gt;Highway 61 Revisited&lt;/em&gt;&lt;/a&gt;-era &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;) made for an alt-pop sound that helped define the ‘90s and made Beck one of the most interesting musicians of his era.&lt;/p&gt;', 'alternate_names': ['Bek Campbell', 'Bek D. Campbell', 'Bek David Campbell', 'Beck D. Hansen', 'Beck David Hansen', 'Beck Hansen']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cutee-b', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Anastacia', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Anastacia Lyn Newkirk&lt;/strong&gt; (born September 17, 1968), known simply as &lt;strong&gt;Anastacia&lt;/strong&gt;, is an American singer-songwriter, producer and former dancer. She is best known for her eclectic pop music of the early 2000s which had a significant impact in Europe and Oceania. Her first two albums &lt;a href="https://genius.com/albums/Anastacia/Not-that-kind" rel="noopener" data-api_path="/albums/170859"&gt;&lt;em&gt;“Not That Kind”&lt;/em&gt;&lt;/a&gt; (2000) and &lt;a href="https://genius.com/albums/Anastacia/Freak-of-nature" rel="noopener" data-api_path="/albums/138358"&gt;&lt;em&gt;“Freak of Nature”&lt;/em&gt;&lt;/a&gt; (2001) were released in quick succession to major success. Known for her powerful mezzo-soprano voice and her small stature of 5 feet 2 inches (157 cm), she has been dubbed “the little lady with the big voice”.&lt;/p&gt;\n\n&lt;p&gt;She has sold over 52 million records worldwide and has topped the U.S. dance chart on two separate occasions.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Smash-mouth', 'annotations': {'description': "&lt;p&gt;Smash Mouth is an American rock band from San Jose, California. The band was formed in 1994, and was originally composed of Steve Harwell (vocals), Kevin Coleman (drums), Greg Camp (guitar), and Paul De Lisle (bass). They are known for such songs as “Walkin' on the Sun” (1997) and “All Star” (1999).&lt;/p&gt;\n\n&lt;p&gt;The band has adopted retro styles covering several decades of popular music. They have also performed numerous covers of popular songs, including The Monkees' “I’m a Believer”, War’s “Why Can’t We Be Friends?”, Simple Minds' “Don’t You (Forget About Me)”, ? &amp;amp; the Mysterians’s “Can’t Get Enough of You Baby”, The Beatles' “Getting Better” and Disney’s “I Wan'na Be Like You”.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mr-bigg', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Mr. Bigg Time', 'Donald Pears II']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Audioslave', 'annotations': {'description': '&lt;p&gt;Audioslave was an American rock supergroup that formed in Los Angeles, California in 2001 and disbanded in 2007. Its members consisted of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; (who at the time broke away from the band &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;), lead guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; (all three of which were members of the then-broken-up band &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;). Thus, they were initially described as a combination of both bands, but by the time their 2005 album &lt;em&gt;Out of Exile&lt;/em&gt; came out, they became noted as being their own band.&lt;/p&gt;\n\n&lt;p&gt;They produced three studio albums and received just as many Grammy nominations over their six years of existence, and were the first American rock band to perform an open-air concert in Cuba. Their biggest hit was &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like A Stone”&lt;/a&gt; from their 2002 self-titled debut album.&lt;/p&gt;\n\n&lt;p&gt;They broke up in 2007 due to “irresolvable personality conflicts as well as musical differences”, according to Cornell, which was later solidified by the reunion tour of Rage and solo album releases by Morello and Cornell in the same year.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Duck-sauce', 'annotations': {'description': '&lt;p&gt;Duck Sauce is the producer duo comprised of A-Trak and Armand Van Helden, who have taken the world by storm with tracks like “aNYway” and “Barbra Streisand,” which joyously mash classic disco house with forward-thinking dancefloor energy and expert production. A-Trak and AVH are bona fide DJ heroes whose team-ups are fueled by anything-goes samples, an almost childlike sense of fun, and 100% NYC attitude. This approach has made Duck Sauce fans-for-life out of partygoers around the globe.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lana-del-rey', 'annotations': {'description': '&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;Lana Del Rey has one of the most enigmatic personalities of modern pop, and it’s won her one of the most devoted audiences of the 2010s.&lt;/em&gt;&lt;br&gt;\n— &lt;a href="http://www.billboard.com/articles/columns/pop/7710162/lana-del-rey-lyrics-songs-prove-step-ahead-haters" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Elizabeth Woolridge Grant (b. June 21, 1985), best known by her stage name Lana Del Rey, is an icon of modern alternative singing and songwriting.&lt;/p&gt;\n\n&lt;hr&gt;  \n\n\n&lt;p&gt;At age 18, Lana began performing in clubs around Brooklyn, NY under various monikers including Lizzy Grant, May Jailer, and Sparkle Rope Jump Queen. Around the same time, she began attending &lt;a href="https://www.fordham.edu/" rel="noopener nofollow"&gt;Fordham University&lt;/a&gt; in &lt;a href="https://en.wikipedia.org/wiki/The_Bronx" rel="noopener nofollow"&gt;The Bronx&lt;/a&gt;, where she majored in philosophy with a specific focus on metaphysics.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was interested in God and how technology could bring us closer to finding out where we came from and why,&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;she said about her degree. The theme of God and science remains persistent in all of her music, as well as the effects of attending a Christian high school.&lt;/p&gt;\n\n&lt;p&gt;She signed her first recording contract with 5 Points Records in 2007 and her first digital album, &lt;a href="https://genius.com/albums/Lana-del-rey/Lana-del-ray" rel="noopener" data-api_path="/albums/23389"&gt;&lt;em&gt;Lana Del Ray a.k.a. Lizzy Grant&lt;/em&gt;&lt;/a&gt;, was released in January 2010.&lt;/p&gt;\n\n&lt;p&gt;Traces of this era can still be found online but this commercially unsuccessful epoch was ultimately abandoned to make way for the rebrand of Lana Del Rey.&lt;/p&gt;\n\n&lt;p&gt;In 2011, &lt;a href="https://www.youtube.com/watch?v=cE6wxDqdOV0" rel="noopener nofollow"&gt;a homemade music video&lt;/a&gt; for &lt;a href="https://genius.com/Lana-del-rey-video-games-lyrics" rel="noopener" data-api_path="/songs/64755"&gt;“Video Games”&lt;/a&gt; was uploaded to Lana’s YouTube channel. The track became a viral sensation, sparking widespread interest in the artist, and she signed with Interscope/Polydor in the October of that year. On the acknowledgements for her fifth studio album, &lt;a href="https://genius.com/albums/Lana-del-rey/Lust-for-life" rel="noopener" data-api_path="/albums/331260"&gt;&lt;em&gt;Lust for Life&lt;/em&gt;&lt;/a&gt; she wrote&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Abel, I still think of the day u posted video games on your Tumblr. Grateful for u.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Here, she is referring the R&amp;amp;B-Hip-Hop singer and frequent collaborator, &lt;a href="https://genius.com/artists/The-weeknd" rel="noopener" data-api_path="/artists/2358"&gt;The Weeknd&lt;/a&gt;. Their friendship eventually blossomed into a collaboration on the title track for said album as well as &lt;a href="https://genius.com/The-weeknd-stargirl-interlude-lyrics" rel="noopener" data-api_path="/songs/2911566"&gt;“Stargirl Interlude”&lt;/a&gt; on The Weeknd’s album &lt;a href="https://genius.com/albums/The-weeknd/Starboy" rel="noopener" data-api_path="/albums/221906"&gt;&lt;em&gt;Starboy&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Since then, Lana has since delivered a flair unlike any other artist of her generation, praised for its cinematic sound and references to various aspects of pop culture, particularly that of the 1950s and 1960s Americana.&lt;/p&gt;\n\n&lt;p&gt;After many studio releases that were removed from streaming platforms to make way for her rebrand, &lt;a href="https://www.vogue.co.uk/article/lana-del-rey-interview" rel="noopener nofollow"&gt;Lana explained the meaning of her stage name&lt;/a&gt; and how it was influenced by her time in Florida while in college.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanted a name I could shape the music towards. I was going to Miami quite a lot at the time, speaking a lot of Spanish with my friends from Cuba – Lana Del Rey reminded us of the glamour of the seaside. It sounded gorgeous coming off the tip of the tongue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Before using &lt;em&gt;Del Rey&lt;/em&gt;, she initially chose the alternate spelling &lt;em&gt;Lana Del Ray&lt;/em&gt; and released an album under that name, but ultimately chose the latter moving forward.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2012, Lana’s first major-label project, &lt;a href="https://genius.com/albums/Lana-del-rey/Born-to-die" rel="noopener" data-api_path="/albums/14533"&gt;&lt;em&gt;Born to Die&lt;/em&gt;&lt;/a&gt;, was released. Despite mixed reviews from critics, it is the second-longest charting album on the Billboard 200 by a female artist, and gave Lana her best-known smash hit &lt;a href="https://genius.com/Lana-del-rey-summertime-sadness-lyrics" rel="noopener" data-api_path="/songs/64764"&gt;“Summertime Sadness”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Later that year, the Grammy-nominated EP &lt;a href="https://genius.com/albums/Lana-del-rey/Paradise" rel="noopener" data-api_path="/albums/23755"&gt;&lt;em&gt;Paradise&lt;/em&gt;&lt;/a&gt; was released, and was packaged alongside the &lt;a href="https://genius.com/albums/Lana-del-rey/Born-to-die-the-paradise-edition" rel="noopener" data-api_path="/albums/696755"&gt;reissue&lt;/a&gt; of &lt;em&gt;Born to Die&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Two years later, the atmospheric album &lt;a href="https://genius.com/albums/Lana-del-rey/Ultraviolence" rel="noopener" data-api_path="/albums/93816"&gt;&lt;em&gt;Ultraviolence&lt;/em&gt;&lt;/a&gt; was released, showcasing a slightly darker sound and theme. The term comes from the Anthony Burgess novel, &lt;em&gt;A Clockwork Orange&lt;/em&gt;, and refers to excessive or unjustified violence.&lt;/p&gt;\n\n&lt;p&gt;2015 saw the arrival of &lt;a href="https://genius.com/albums/Lana-del-rey/Honeymoon" rel="noopener" data-api_path="/albums/126114"&gt;&lt;em&gt;Honeymoon&lt;/em&gt;&lt;/a&gt; which Lana &lt;a href="https://youtu.be/QBrApmX2QfQ?t=184" rel="noopener nofollow"&gt;described&lt;/a&gt; as being “a tribute to Los Angeles”. The album became the subject of much critical acclaim, garnering the most praise of all of her projects before it, with some even calling it her best work yet.&lt;/p&gt;\n\n&lt;p&gt;Her fifth studio album &lt;a href="https://genius.com/albums/Lana-del-rey/Lust-for-life" rel="noopener" data-api_path="/albums/331260"&gt;&lt;em&gt;Lust For Life&lt;/em&gt;&lt;/a&gt; followed in 2017, packing some high-profile features with artists including &lt;a href="https://genius.com/artists/The-weeknd" rel="noopener" data-api_path="/artists/2358"&gt;The Weeknd&lt;/a&gt;, &lt;a href="https://genius.com/artists/A-ap-rocky" rel="noopener" data-api_path="/artists/12417"&gt;A$AP Rocky&lt;/a&gt;, &lt;a href="https://genius.com/artists/Playboi-carti" rel="noopener" data-api_path="/artists/289976"&gt;Playboi Carti&lt;/a&gt; and &lt;a href="https://genius.com/artists/Stevie-nicks" rel="noopener" data-api_path="/artists/21747"&gt;Stevie Nicks&lt;/a&gt;. &lt;em&gt;Billboard&lt;/em&gt; &lt;a href="https://www.billboard.com/articles/columns/pop/8527901/lana-del-rey-billboard-cover-story-2019" rel="noopener nofollow"&gt;called it&lt;/a&gt; a “new-age folk” record and it was named in the Top 50 Best Album of the Year lists by several high-profile music publications.&lt;/p&gt;\n\n&lt;p&gt;After much anticipation, teasing and at least one deferred release date, on August 30, 2019, &lt;a href="https://genius.com/albums/Lana-del-rey/Norman-fucking-rockwell" rel="noopener" data-api_path="/albums/459810"&gt;&lt;em&gt;Norman Fucking Rockwell!&lt;/em&gt;&lt;/a&gt; was debuted to the world. This album earned her Grammy nominations and places on year-end lists, launching her further than ever into the limelight.&lt;/p&gt;\n\n&lt;p&gt;Only days after &lt;em&gt;NFR!&lt;/em&gt;’s release, in &lt;a href="https://www.thetimes.co.uk/article/lana-del-rey-interview-trump-is-hurting-people-and-encouraging-violence-h5q9cxzsd" rel="noopener nofollow"&gt;an interview with &lt;em&gt;The Times&lt;/em&gt;&lt;/a&gt;, Lana confirmed that a new project entitled &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails Over the Country Club&lt;/em&gt;&lt;/a&gt; (originally called as &lt;em&gt;White Hot Forever&lt;/em&gt;) was in the works with a potential release in 2020. Nearing the end of 2019, Lana also &lt;a href="https://www.instagram.com/p/B6RioLjJl4P/" rel="noopener nofollow"&gt;announced&lt;/a&gt; she would be releasing a spoken word poetry album on January 4th, 2020, as the book itself was taking long to hand-bind.&lt;/p&gt;\n\n&lt;p&gt;Similar to the way &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails Over The Country Club&lt;/em&gt;&lt;/a&gt; was announced, Lana took to &lt;a href="https://www.instagram.com/p/CMqBcHah785/" rel="noopener nofollow"&gt;Instagram&lt;/a&gt;  after the release of &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails&lt;/em&gt;&lt;/a&gt; to announce a follow-up eighth studio album called &lt;a href="https://genius.com/albums/Lana-del-rey/Blue-banisters" rel="noopener" data-api_path="/albums/749828"&gt;&lt;em&gt;Blue Banisters&lt;/em&gt;&lt;/a&gt; that is expected to be released on July 4th, 2021. Three singles from &lt;em&gt;Blue Banisters&lt;/em&gt; were released on May 20th, 2021.&lt;/p&gt;\n\n&lt;hr&gt;  \n\n\n&lt;p&gt;A visual artist as well as performer, Del Rey has released a number of music videos, including a short music film that she wrote, directed and starred in, titled &lt;a href="https://genius.com/albums/Lana-del-rey/Tropico-ep" rel="noopener" data-api_path="/albums/249618"&gt;&lt;em&gt;Tropico&lt;/em&gt;&lt;/a&gt;. The piece features dark undertones and haunting scenes of vintage technicolor.&lt;/p&gt;\n\n&lt;p&gt;Lana’s lyrics explore a broad range of intricate topics such as love and relationships, famous icons and her idols, her own experiences with fame, pop culture, religion, patriotism and nostalgia.&lt;br&gt;\nShe uniquely encapsulates a mix of magic, glamour and beauty, intertwined with grit, destruction and sadness. &lt;em&gt;Vogue UK&lt;/em&gt; &lt;a href="https://www.vogue.co.uk/article/lana-del-rey-interview" rel="noopener nofollow"&gt;published an interview&lt;/a&gt; with Lana in late 2011 where it was revealed that she refers to her musical artistry as “Hollywood sadcore”.&lt;/p&gt;\n\n&lt;p&gt;Lana’s catalog of work is not made up of a constant stream of mainstream radio hits, and she continues to remain singular in her style of writing and singing, showing no similarity to any artist in modern pop or alternative music.&lt;/p&gt;', 'alternate_names': ['Lana Del Ray', 'Elizabeth Grant', 'Sparkle Jump Rope Queen', 'Lizzy Grant', 'May Jailer', 'Elizabeth Woolridge Grant']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-lemonheads', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Macklemore-and-ryan-lewis', 'annotations': {'description': '&lt;p&gt;Macklemore &amp;amp; Ryan Lewis are a hip-hop duo from Seattle, Washington, comprised of rapper &lt;a href="https://genius.com/artists/Macklemore" rel="noopener" data-api_path="/artists/2026"&gt;&lt;strong&gt;Macklemore&lt;/strong&gt;&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Ryan-lewis" rel="noopener" data-api_path="/artists/2025"&gt;&lt;strong&gt;Ryan Lewis&lt;/strong&gt;&lt;/a&gt; which formed in 2008. Together they have made two studio albums &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt;, in 2012, and &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt; spawned two number one singles &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-cant-hold-us-lyrics" rel="noopener" data-api_path="/songs/57234"&gt;“Can’t Hold Us”&lt;/a&gt; and &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-thrift-shop-lyrics" rel="noopener" data-api_path="/songs/86538"&gt;“Thrift Shop”&lt;/a&gt; by mixing poppy, likeable beats with catchy hooks. They also had a hit with the gay rights song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-same-love-lyrics" rel="noopener" data-api_path="/songs/81672"&gt;“Same Love”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Mary-lambert" rel="noopener" data-api_path="/artists/22717"&gt;Mary Lambert&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their second album &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt; was released in February\u200b 2016, preceded by the single &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-downtown-lyrics" rel="noopener" data-api_path="/songs/2291611"&gt;“Downtown”&lt;/a&gt; featuring hip-hop legends &lt;a href="https://genius.com/artists/Grandmaster-melle-mel" rel="noopener" data-api_path="/artists/9911"&gt;Grandmaster Melle Mell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Grandmaster-caz" rel="noopener" data-api_path="/artists/5137"&gt;Grandmaster Caz&lt;/a&gt;.  They also released the &lt;a href="http://pitchfork.com/thepitch/1003-macklemores-white-privilege-ii-is-a-mess-but-we-should-talk-about-it/" rel="noopener nofollow"&gt;controversial&lt;/a&gt; song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-white-privilege-ii-lyrics" rel="noopener" data-api_path="/songs/2411196"&gt;“White Privilege II”&lt;/a&gt; as a promotional single, which explored the ideas of white privilege and the Black Lives Matter movement.&lt;/p&gt;\n\n&lt;p&gt;In 2016, Macklemore and Ryan Lewis amicably split for the time being and Macklemore has since released &lt;a href="https://genius.com/albums/Macklemore/Gemini" rel="noopener" data-api_path="/albums/358991"&gt;a solo album&lt;/a&gt;. However, one cannot rule out the possibility that there will be more Macklemore &amp;amp; Ryan Lewis music in the future.&lt;/p&gt;', 'alternate_names': ['Ryan Lewis &amp; Macklemore']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vassy', 'annotations': {'description': '&lt;p&gt;One of the most highly sought-after vocalists around the world in dance music, VASSY, the Australian powerhouse has quite an impressive track record of massive collaborations under her belt.  Her discography includes a myriad of chart-topping multi platinum records with prolific acts including Tiesto, David Guetta, Afrojack, KSHMR, &amp;amp; many more.&lt;br&gt;\nHere to prove she has no intention of slowing down, VASSY is maintaining her momentum with a brand-new summer anthem “Doomsday” with award-winning producer &amp;amp; remixer of the year Lodato.  The hypnotic record is now available via SONY Red’s KMV Music, an imprint spearheaded by VASSY herself.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c67fbbef0a552835dd7e35108c09a5d7.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cedric-gervais', 'annotations': {'description': '&lt;p&gt;Cédric Gervais is a Grammy Award-winning French DJ and producer of house music. He released the electro-house song “Molly” in 2012, which was heavily sampled in the song of the same name by rapper Tyga.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Zayn', 'annotations': {'description': '&lt;p&gt;Zain Javadd “Zayn” Malik is an English/Pakistani singer and songwriter, and a former member of the boy band &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Malik auditioned for the British television series &lt;em&gt;The X Factor&lt;/em&gt;. After being eliminated as a solo performer, Malik was brought back into the competition, along with four other contestants, to form the group that would later be known as One Direction. During Zayn’s time in the band, they released four commercially successful albums, performed on a worldwide tour, and won several awards.&lt;/p&gt;\n\n&lt;p&gt;In March 2015, Malik’s representative announced the singer’s departure from the band, and Malik signed a solo recording contract with RCA Records. On November 17th, 2015, through an interview for &lt;em&gt;The Fader&lt;/em&gt;, Malik teased the release of a new song, &lt;a href="https://genius.com/Zayn-malik-befour-lyrics" rel="noopener" data-api_path="/songs/2372597"&gt;“Befour”&lt;/a&gt;, from his debut album &lt;a href="https://genius.com/albums/Zayn/Mind-of-mine" rel="noopener" data-api_path="/albums/142850"&gt;&lt;em&gt;Mind Of Mine&lt;/em&gt;&lt;/a&gt;. Lead single &lt;a href="https://genius.com/Zayn-pillowtalk-lyrics" rel="noopener" data-api_path="/songs/2414425"&gt;“PILLOWTALK”&lt;/a&gt; debuted at #1 on the Hot 100, becoming Zayn’s first number one single. By reaching #1 in the US, it achieved something that One Direction never did—their best ranking was #2 with &lt;a href="https://genius.com/One-direction-best-song-ever-lyrics" rel="noopener" data-api_path="/songs/194065"&gt;“Best Song Ever.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Zain Malik', 'Zayn J. Malik', 'Zain Javadd "Zayn" Malik', 'Zain Javadd Malik', 'Zayn Malik']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Freddie-mercury', 'annotations': {'description': '&lt;p&gt;Farrokh Bulsara, of Parsi heritage (Zoroastrian)/ethnicity, was born in 1946 in the British protectorate/sultanate Zanzibar (now part of Tanzania).  In 1964 the Bulsara family moved to England, fleeing the Zanzibar Revolution.&lt;/p&gt;\n\n&lt;p&gt;In 1970 the aspiring and ambitious artist changed his name to Freddie Mercury and formed the band &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt; with guitarist &lt;a href="https://genius.com/artists/Brian-may" rel="noopener" data-api_path="/artists/16631"&gt;Brian May&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Roger-taylor" rel="noopener" data-api_path="/artists/359481"&gt;Roger Taylor&lt;/a&gt;.  Bassist &lt;a href="https://genius.com/artists/John-deacon" rel="noopener" data-api_path="/artists/384923"&gt;John Deacon&lt;/a&gt; joined in 1971.&lt;/p&gt;\n\n&lt;p&gt;Mercury died at the age of 45 and has since become regarded as one of the greatest singers and frontmen in rock music history.  His dynamic, powerful voice and theatricality mesmerized audiences; his ability to connect and engage with stadium-sized crowds – no matter what language – became legendary.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s songwriting, musically eclectic and complex, became uncannily accessible when he penned “&lt;a href="https://genius.com/Queen-Killer-queen-lyrics" rel="noopener" data-api_path="/songs/75244"&gt;Killer Queen&lt;/a&gt;”, the hit single which drove the popularity of Queen’s 3rd album, turning the struggling-4-year-old band into bonafide rock stars by late 1974. However, financially they were bankrupt; Freddie’s ability to obtain [Elton John]’s manager, [John Reed] was a masterstroke in driving the next album’s success, in every respect.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s tour-de-force chart-busting “&lt;a href="https://genius.com/Queen-bohemian-rhapsody-lyrics" rel="noopener" data-api_path="/songs/1063"&gt;Bohemian Rhapsody&lt;/a&gt;” marked Queen’s rise to mega-stardom in very late 1975.  It was the first hit from &lt;a href="https://genius.com/albums/Queen/A-night-at-the-opera" rel="noopener" data-api_path="/albums/35169"&gt;&lt;em&gt;A Night At The Opera&lt;/em&gt;&lt;/a&gt;, Queen’s 4th LP, the musical (and commercial) force brought on by all four of &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt;’s men (all of whom were songwriters), from studio to stadium.&lt;/p&gt;\n\n&lt;p&gt;Queen toured relentlessly for each album, mastering the art of “spectacle”, offering OTP showmanship and theatrics, an ever-present element to the band upon inception, thanks to Freddie’s insistence.  Queen became a unique brand of stadium rock,  transcending borders and music charts from country-to-country, and by 1981, those in Latin America, risky territory at the time for a band so popular.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s solo work (contrary to the 2018 blockbuster biopic’s dramatic license, Queen’s frontman never desired to “go solo”)  is limited to various singles and two studio albums-proper, 1985’s &lt;a href="https://genius.com/albums/Freddie-mercury/Mr-bad-guy" rel="noopener" data-api_path="/albums/113564"&gt;&lt;em&gt;Mr. Bad Guy&lt;/em&gt;&lt;/a&gt;, and 1988’s &lt;a href="https://genius.com/albums-Freddie-mercury/Barcelona-special-edition" rel="noopener"&gt;&lt;em&gt;Barcelona&lt;/em&gt;&lt;/a&gt;, his opera-meets-rock LP featuring his opera idol’s chops, the legendary soprano &lt;a href="https://genius.com/artists/Montserrat-caballe" rel="noopener" data-api_path="/artists/361801"&gt;Montserrat Caballé&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Just over two decades since John Deacon had completed Queen’s classic lineup in 1971, Mercury died, in November 24, 1991.&lt;/p&gt;', 'alternate_names': ['Frederick Mercury', 'Farrokh Bulsara']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Deee-lite', 'annotations': {'description': '&lt;p&gt;Deee-Lite was comprised of three members. Lady Miss Kier, the lead singer, met Super DJ Dmitry Brill in New York. They started dating and got swept up in the New York dance music scene. They met DJ Towa Tei at a club and thus the group was formed. The group was known for its positive world-unifying message and ‘70s-inspired fashion aesthetic.&lt;/p&gt;\n\n&lt;p&gt;Dee-Lite dropped three albums in quick succession—&lt;em&gt;World Clique&lt;/em&gt; (1990), &lt;em&gt;Infinity Within&lt;/em&gt; (1992), and &lt;em&gt;Dewdrops in the Garden&lt;/em&gt; (1994). Their biggest hit came at the beginning however—&lt;a href="https://genius.com/Deee-lite-groove-is-in-the-heart-lyrics" rel="noopener" data-api_path="/songs/32351"&gt;“Groove Is In The Heart”&lt;/a&gt; from their debut album was a major hit worldwide.&lt;/p&gt;\n\n&lt;p&gt;The group dissolved in 1996 due to creative differences.  All three now mainly work as headlining club DJs, with Lady Miss Kier also doing side work as a fashion consultant and public speaker.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eddie-rabbitt', 'annotations': {'description': '&lt;p&gt;Edward Thomas Rabbitt was born November 27, 1941 in Brooklyn, New York to Irish immigrant parents.  He was raised in East Orange, New Jersey.  On his 35th birthday, he married Janine Girardi.  They had three children.  One daughter, Demelza, and two sons, Timmy &amp;amp; Tommy.  Timmy was born with biliary atresia and died in childhood after a failed liver transplant intended to save his life.  In March 1997, Eddie learned that he had lung cancer.  He passed away on May 7, 1998.  Rabbitt received several awards over the years.  The Academy of Country Music Awards Top New Male Vocalist in 1977.  Music City News Country Songwriter of the Year and BMI’s Robert J. Burton Award for &lt;a href="https://genius.com/Eddie-rabbitt-suspicions-lyrics" rel="noopener" data-api_path="/songs/2278080"&gt;“Suspicions”&lt;/a&gt; in 1979. 1980 brought BMI’s Song of the Year for “Suspicions.”  In 1996 he pulled in BMI’s Three Million-Air Award and Two Million-Air Awards for &lt;a href="https://genius.com/Eddie-rabbitt-i-love-a-rainy-night-lyrics" rel="noopener" data-api_path="/songs/146840"&gt;“I Love a Rainy Night”&lt;/a&gt; and &lt;a href="https://genius.com/Eddie-rabbitt-kentucky-rain-lyrics" rel="noopener" data-api_path="/songs/1030438"&gt;“Kentucky Rain”&lt;/a&gt;, respectively.  He was inducted into the Nashville Songwriters Hall of Fame the year of his death, 1998.  Eddie’s final #1 hit came in 1989 with &lt;a href="https://genius.com/Eddie-rabbitt-on-second-thought-lyrics" rel="noopener" data-api_path="/songs/2263489"&gt;“On Second Thought”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Edward Rabbitt', 'Edward Thomas Rabbitt']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joey-ramone', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Jeff Hyman', 'Jeffrey Hyman', 'Jeffrey Ross Hyman']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billie-eilish', 'annotations': {'description': '&lt;p&gt;Billie Eilish Pirate Baird O\'Connell (b. December 18, 2001), known professionally as Billie Eilish, is an American singer and songwriter born and raised in Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Working alongside her older brother &lt;a href="https://genius.com/artists/Finneas" rel="noopener" data-api_path="/artists/615565"&gt;Finneas&lt;/a&gt;, her co-writer and producer, she’s taken the internet by storm with her haunting vocals and eerily beautiful lyrics and genre-defying production that was poised to breakout.&lt;/p&gt;\n\n&lt;p&gt;For Billie, creating music wasn’t always her niche—dancing was. Born and raised in the entertainment mecca of Los Angeles, from a family comprised of musicians and actors, Billie was enthralled in the spotlight of dance. However, amid a &lt;a href="https://www.interviewmagazine.com/music/discovery-billie-eilish" rel="noopener nofollow"&gt;growth plate injury in 2015&lt;/a&gt;, she was in practice for a recital dancing eleven hours a week for, she became an underground pop sensation.&lt;/p&gt;\n\n&lt;p&gt;Singing and songwriting had never been unknown to Billie, having &lt;a href="http://www.bbc.com/news/entertainment-arts-40580489" rel="noopener nofollow"&gt;written her first song at four and joined the Los Angeles Children’s Choir at eight&lt;/a&gt;. &lt;a href="https://www.harpersbazaar.com/culture/art-books-music/a13040159/billie-eilish-interview/" rel="noopener nofollow"&gt;So when her dance instructor was looking for a song to choreograph&lt;/a&gt;, Billie, with help from Finneas, created &lt;a href="https://genius.com/Billie-eilish-ocean-eyes-lyrics" rel="noopener" data-api_path="/songs/2403346"&gt;“ocean eyes.”&lt;/a&gt; The two also agreed to upload it to SoundCloud, where it went viral with over two million streams, landing her a record deal with Interscope.&lt;/p&gt;\n\n&lt;p&gt;From there, &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;several remixes spawned and a follow-up single&lt;/a&gt; &lt;a href="https://genius.com/Billie-eilish-six-feet-under-lyrics" rel="noopener" data-api_path="/songs/2800298"&gt;“Six Feet Under”&lt;/a&gt; &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;was released the following year.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2017, she released her debut EP, &lt;a href="https://genius.com/albums/Billie-eilish/Dont-smile-at-me-ep" rel="noopener" data-api_path="/albums/353310"&gt;&lt;i&gt;dont smile at me&lt;/i&gt;&lt;/a&gt;, which received mainstream applause and landed her a spot on Apple Music’s showcase for upcoming artists, &lt;a href="https://itunes.apple.com/us/show/up-next-billie-eilish/1271486673" rel="noopener nofollow"&gt;&lt;i&gt;UpNext&lt;/i&gt;.&lt;/a&gt; The EP also hit the top 40 on the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8467303/billboard-200-chart-moves-billie-eilishs-dont-smile-at-me-top-40" rel="noopener nofollow"&gt;&lt;i&gt;Billboard 200&lt;/i&gt;&lt;/a&gt; on July 19th.&lt;/p&gt;\n\n&lt;p&gt;On March 29th, 2019, Billie Eilish released her highly anticipated debut album, &lt;a href="https://genius.com/albums/Billie-eilish/When-we-all-fall-asleep-where-do-we-go" rel="noopener" data-api_path="/albums/418893"&gt;&lt;em&gt;WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?&lt;/em&gt;&lt;/a&gt; — a record centered around Eilish’s fascination with dreams and nightmares. Two weeks before its release, the album was officially &lt;a href="https://www.macrumors.com/2019/03/22/billie-eilish-breaks-record-pre-adding/" rel="noopener nofollow"&gt;given the title&lt;/a&gt; of “most pre-saved album of all time on Apple Music,” with over 800,000 to its name.&lt;/p&gt;\n\n&lt;p&gt;In 2020, Billie Eilish was nominated for 6 categories for the &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;62nd Grammy Awards&lt;/a&gt; ceremony, alongside with her brother Finneas. She was nominated in the five main categories (“Album of the Year”, “Best New Artist”, “Best Pop Solo Performance”, “Song of the Year”, Record of the Year") and “Best Pop Vocal Album”. Finneas was nominated in “Producer of the Year – non classical” and he won. Eilish won 5 Grammys in the 62nd ceremony: Album of the Year (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?”), Song of the Year (“bad guy”), Record of the Year (“bad guy”), Best New Artist and Best Pop Vocal Album (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?).&lt;/p&gt;\n\n&lt;p&gt;In 2021, Billie and Finneas also won in the &lt;a href="https://www.grammy.com/grammys/news/2021-grammys-complete-winners-nominees-list" rel="noopener nofollow"&gt;63rd Grammy Awards&lt;/a&gt; with two categories: Best Song Written for a Visual Media (“&lt;a href="https://genius.com/Billie-eilish-no-time-to-die-lyrics" rel="noopener" data-api_path="/songs/5173169"&gt;No Time To Die&lt;/a&gt;”, for the last James Bond movie) and Record of the Year (“&lt;a href="https://genius.com/Billie-eilish-everything-i-wanted-lyrics" rel="noopener" data-api_path="/songs/5013279"&gt;everything i wanted&lt;/a&gt;”, released in 2019).&lt;/p&gt;\n\n&lt;p&gt;On April 26, 2021, Billie Eilish &lt;a href="https://twitter.com/billieeilish/status/1386711797906898946" rel="noopener nofollow"&gt;teased&lt;/a&gt; the album’s title track, &lt;a href="https://genius.com/Billie-eilish-happier-than-ever-lyrics" rel="noopener" data-api_path="/songs/6533253"&gt;&lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/a&gt; Shortly after, &lt;a href="https://twitter.com/kelsucker/status/1387018534337843200" rel="noopener nofollow"&gt;billboards&lt;/a&gt; appeared in different locations that revealed the album’s title and release date of July 30, 2021, and an &lt;a href="https://www.instagram.com/p/COLIii2FB_R/?utm_source=ig_web_copy_link" rel="noopener nofollow"&gt;Instagram post&lt;/a&gt; from April 27 revealed the album’s cover artwork and announced the release of a new single on April 29, 2021. Eilish &lt;a href="https://www.musictimes.com/articles/82556/20210730/billie-eilish-breaks-record-happier-listen.htm" rel="noopener nofollow"&gt;broke her previous record&lt;/a&gt; for the most pre-saved album with a whopping 1,028,000 pre-saves for &lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ["Billie Eilish O'Connell", "Billie O'Connell", "Billie Eilish Pirate Baird O'Connell"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cameo', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-cardigans', 'annotations': {'description': '&lt;p&gt;One of the most pleasing pop groups of the ‘90s, the Cardigans specialized in sugary confections that would grow annoying very quickly if they weren’t backed by solid musicianship and clever arrangements. The band’s 1995 breakout album, Life, reflected the Cardigans at their most saccharine – the sunny disposition of vocalist Nina Persson being the major argument in favor – and critics inserted the group into the space age pop revivalist camp. the Cardigans later proved that they were more difficult to pigeonhole, however.&lt;br&gt;\nEven the band’s origins showed that their later appearance was quite misleading; two heavy metal fanatics formed the group in October 1992 in Jonkoping, Sweden. Guitarist Peter Svensson met bassist Magnus Sveningsson in a hardcore group, though he had previously trained in music theory and jazz arranging. The two later grew tired of metal and decided to form a pop band with vocalist Nina Persson – an art-school friend who had never sung professionally – plus keyboard player Lars-Olof Johansson and drummer Bengt Lagerberg.&lt;/p&gt;\n\n&lt;p&gt;All five Cardigans moved into a small apartment in 1993 and began recording a demo tape that entered the hands of producer Tore Johansson later that year. He liked what he heard and invited the group to record at his Malmö studio. Signed to the dance-oriented Stockholm label, the Cardigans released Emmerdale in May 1994. The single “Rise &amp;amp; Shine” became a hit on Swedish radio soon after the release of the LP, and a readers poll in Sweden’s Slitz magazine voted Emmerdale the best album of 1994.&lt;br&gt;\nThe Cardigans spent the last half of 1994 touring Europe and recording their second album. A satirical response to their moody debut, Life showed the band at their most upbeat, including an angelic picture of Persson in an ice-skating outfit for the cover. Released in March 1995 – with several re-recordings of songs from Emmerdale – the album eventually sold one and a half million copies worldwide and became especially popular in Japan, where it achieved platinum status.&lt;/p&gt;\n\n&lt;p&gt;A deal with Minty Fresh gave the Cardigans an American release of Life in spring 1996, and the group played eight sold-out shows in the U.S. that summer. The American major labels began to notice the attention, and Mercury signed them soon after. First Band on the Moon, released in September 1996, de-emphasized the pure pop in favor of abstract arrangements and some rather violent themes. Nevertheless, the infectious single “Lovefool” became a radio hit by early 1997, and First Band on the Moon eventually reached gold status in America, as well as platinum certification in Japan (just three weeks after its release).&lt;br&gt;\nGran Turismo followed in 1998, though it lacked an obvious hit and led to a long hiatus for the band. Finally, the Cardigans returned in 2003 with Long Gone Before Daylight, marking a clear transition with confessional material closer to the singer/songwriter tradition. Super Extra Gravity followed in 2005.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tom-lordalge', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ashlee-simpson', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Ashlee Simpson&lt;/strong&gt; (born October 3, 1984) is an American singer-songwriter and actress. The younger sister of pop singer &lt;a href="https://genius.com/artists/Jessica-simpson" rel="noopener" data-api_path="/artists/8535"&gt;Jessica Simpson&lt;/a&gt;, she rose to prominence in the latter’s MTV reality show, and starred in her own spin-off &lt;em&gt;The Ashlee Simpson Show&lt;/em&gt; which followed her creating her debut album, &lt;a href="https://genius.com/albums/Ashlee-simpson/Autobiography" rel="noopener" data-api_path="/albums/36719"&gt;&lt;em&gt;Autobiography&lt;/em&gt;&lt;/a&gt;, with the media noting her “punk-rock” image as a contrast to her sister. The album was released after the show’s first season in 2004 and became a big success, debuting at number one on the US albums chart being certified Triple Platinum. Following a North American concert tour and a film appearance, Ashlee released her second Platinum number-one album, &lt;a href="https://genius.com/albums/Ashlee-simpson/I-am-me" rel="noopener" data-api_path="/albums/42890"&gt;&lt;em&gt;I Am Me&lt;/em&gt;&lt;/a&gt; (2005). Ashlee assumed creative control over her less successful but well-received third album, &lt;a href="https://genius.com/albums/Ashlee-simpson/Bittersweet-world" rel="noopener" data-api_path="/albums/42865"&gt;&lt;em&gt;Bittersweet World&lt;/em&gt;&lt;/a&gt; (2008), which differed from the pop-rock music of her previous efforts and featured a dance-pop, 1980s themed sound. In following years, she focused more on her acting career, scoring television and theatre roles while also starting her own family. In 2016, Simpson revealed she was working on new music with her husband &lt;a href="https://genius.com/artists/Evan-ross" rel="noopener" data-api_path="/artists/649521"&gt;Evan Ross&lt;/a&gt; and, in late 2018, they begun releasing music as a duo and called the project &lt;a href="https://genius.com/artists/Ashlee-evan" rel="noopener" data-api_path="/artists/1571688"&gt;ASHLEE + EVAN&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Ashley Nicolle Simpson', 'Ashlee Simpson Ross']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Journey', 'annotations': {'description': "&lt;p&gt;Journey is an American rock band that formed in San Francisco in 1973, composed of former members of Santana and Frumious Bandersnatch. The band has gone through several phases; its strongest commercial success occurred while fronted by vocalist Steve Perry, from 1978 until the group’s disbandment in 1987. During that period, the band released a series of hit songs, including 1981’s “Don’t Stop Believin'”, which in 2009 became the top-selling track in iTunes history amongst songs not released in the 21st century. Its parent studio album, Escape, the band’s eighth and most successful, reached No. 1 on the Billboard 200 and yielded another of their most popular singles, “Open Arms”. Its 1983 follow-up album, Frontiers, was almost as successful in the United States, reaching No. 2 and spawning several successful singles; it broadened the band’s appeal in the United Kingdom, where it reached No. 6 on the UK Albums Chart. Journey enjoyed a successful reunion with Perry in the mid-1990s and later regrouped with a series of lead singers.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Usher', 'annotations': {'description': '&lt;p&gt;With a career spanning over twenty-five years, Usher Raymond has become one of the most influential voices in contemporary R&amp;amp;B. Having sold over 75 million records worldwide, also attaining nine number-one records on the Billboard 100 charts, he is one of the most accomplished R&amp;amp;B singers in the world.&lt;/p&gt;\n\n&lt;p&gt;Coming into the scene in 90’s under the guidance of a young Puff Daddy finding his way. It wasn’t until he connected with the up-and-coming producer Jermaine Dupri did Usher begin having his success with his second and third albums, &lt;em&gt;My Way&lt;/em&gt; and &lt;em&gt;8701&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;He made an impact with his fourth studio album Confessions that sold 1.1 million copies in the first week and produced four consecutive Billboard Hot 100 number one singles —"Yeah!“, "Burn”, “Confessions Part II”, and “My Boo”.  Confessions went on to sell over 20 million copies worldwide and is the last album certified diamond by a black artist.&lt;/p&gt;\n\n&lt;p&gt;His fifth studio album Here I Stand sold over half a million copies in the first week and spawned the number one single “Love In This Club”. In 2010, his album Raymond v. Raymond was his third consecutive number one album on the Billboard 200 and launched the nearly sold-out OMG Tour, one of the highest grossing tours of the 2010s. The album also produced his ninth Billboard Hot 100 number one single “OMG”.  With “OMG” Usher became only the fourth artist to have number one hits across three consecutive decades.&lt;/p&gt;\n\n&lt;p&gt;Usher has continued success into the 2010s decade with his sixth studio album Lookin\' 4 Myself which produced the top 10, Grammy award-winning single “Climax”.  In 2015, his single “I Don’t Mind” reached number eleven on the Billboard Hot 100 and was his thirteenth number one hit on the Billboard Hot R&amp;amp;B/Hip-hop songs chart.  This feat was achieved with no promotion or music video, showing just how much star power Usher still holds in his hands.&lt;/p&gt;\n\n&lt;p&gt;He’s also received numerous awards and accolades including 18 Billboard Music Awards, 8 Grammy awards and a star on the Hollywood Walk of Fame.&lt;/p&gt;\n\n&lt;p&gt;As music evolves so does Usher. He goes by the saying “Evolve or Evaporate” and that’s what he does.   Whether it’s the singles “I Don’t Mind” or “No Limit” he knows how to stay on top of the game.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://usherworld.com/" rel="noopener nofollow"&gt;Website&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['U. Raymond', 'Usher Raymond IV', 'Usher Raymond']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tal-bachman', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Talmage Charles Robert Bachman', 'Talmage Bachman']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bizarre-inc', 'annotations': {'description': "&lt;p&gt;Bizarre Inc. were an English electronic music group. Originally formed in 1989 as a duo between English DJs Dean Meredith and Mark ‘'Aaron’‘ Archer, they later re-formed as a trio consisting of Andrew Meecham, Dean Meredith and Carl Turner in 1990.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Irene-cara', 'annotations': {'description': '&lt;p&gt;An 80s pop star. Most famous for her work on the Flashdance soundtrack and her role in Fame.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rahsaan-patterson', 'annotations': {'description': '&lt;p&gt;Soul vocalist and songwriter Rahsaan Patterson is another in the line of new-school R&amp;amp;B singers, such as &lt;a href="https://genius.com/artists/Maxwell" rel="noopener" data-api_path="/artists/3056"&gt;Maxwell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Erykah-badu" rel="noopener" data-api_path="/artists/909"&gt;Erykah Badu&lt;/a&gt;, who displayed a bit more integrity than most of the chart-toppers during the 1990s.&lt;/p&gt;\n\n&lt;p&gt;After singing in church since he was six years old, Patterson moved with his family from New York to California to star in the children’s show &lt;a href="https://www.imdb.com/title/tt0086744/" rel="noopener nofollow"&gt;&lt;em&gt;KIDS Incorporated&lt;/em&gt;&lt;/a&gt;, which also starred other future music stars like &lt;a href="https://genius.com/artists/Fergie" rel="noopener" data-api_path="/artists/950"&gt;Fergie&lt;/a&gt; and &lt;a href="https://genius.com/artists/Martika" rel="noopener" data-api_path="/artists/339866"&gt;Martika&lt;/a&gt;. He later moved back to the East Coast, resuming his career with small TV roles and assorted commercials, but eventually returned to Los Angeles in the early ‘90s, in order to taking his passion for music seriously: he started recording demos and contributing backing vocals to albums by Martika and &lt;a href="https://genius.com/artists/Brandy" rel="noopener" data-api_path="/artists/1425"&gt;Brandy&lt;/a&gt;, among others.&lt;/p&gt;\n\n&lt;p&gt;Throughout the years, Patterson proved himself to be a skilled songwriter, as well, by penning hits like &lt;a href="https://genius.com/artists/Tevin-campbell" rel="noopener" data-api_path="/artists/8544"&gt;Tevin Campbell&lt;/a&gt;’s &lt;a href="https://genius.com/Tevin-campbell-back-to-the-world-lyrics" rel="noopener" data-api_path="/songs/717614"&gt;“Back to the World”&lt;/a&gt; and Brandy’s &lt;a href="https://genius.com/Brandy-baby-lyrics" rel="noopener" data-api_path="/songs/171617"&gt;“Baby.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Those successes finally earned him a recording contract with MCA, which issued his &lt;a href="https://genius.com/albums/Rahsaan-patterson/Rahsaan-patterson" rel="noopener" data-api_path="/albums/289464"&gt;self-titled&lt;/a&gt; debut album in early 1997, with &lt;a href="https://genius.com/albums/Rahsaan-patterson/Love-in-stereo" rel="noopener" data-api_path="/albums/188453"&gt;&lt;em&gt;Love in Stereo&lt;/em&gt;&lt;/a&gt; following two years later. After a hiatus from the performance spotlight, he released &lt;a href="https://genius.com/albums/Rahsaan-patterson/After-hours" rel="noopener" data-api_path="/albums/116750"&gt;&lt;em&gt;After Hours&lt;/em&gt;&lt;/a&gt; in August 2005 and &lt;a href="https://genius.com/albums/Rahsaan-patterson/Wines-spirits" rel="noopener" data-api_path="/albums/284856"&gt;&lt;em&gt;Wines &amp;amp; Spirits&lt;/em&gt;&lt;/a&gt; in September 2007. These two albums made him one of the most appreciated artist in the underground R&amp;amp;B scene. The sprawling &lt;a href="https://genius.com/albums/Rahsaan-patterson/Bleuphoria" rel="noopener" data-api_path="/albums/289410"&gt;&lt;em&gt;Bleuphoria&lt;/em&gt;&lt;/a&gt;, issued nearly four years after &lt;em&gt;Wines &amp;amp; Spirits&lt;/em&gt;, was his most eclectic and creatively ambitious album, while his 2019 effort &lt;a href="https://genius.com/albums/Rahsaan-patterson/Heroes-gods" rel="noopener" data-api_path="/albums/530126"&gt;&lt;em&gt;Heroes &amp;amp; Gods&lt;/em&gt;&lt;/a&gt; saw him coming back to his roots.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tears-for-fears', 'annotations': {'description': '&lt;p&gt;Tears for Fears are an English pop band formed in 1981 by Roland Orzabal and Curt Smith.&lt;/p&gt;\n\n&lt;p&gt;The group rose to fame in 1982 with single &lt;a href="https://genius.com/Tears-for-fears-mad-world-lyrics" rel="noopener" data-api_path="/songs/506924"&gt;“Mad World”&lt;/a&gt;, which made it to number 3 in the UK charts and paved the way for the huge success of debut album &lt;a href="https://genius.com/albums/tears-for-fears/the-hurting" rel="noopener" data-api_path="/albums/125257"&gt;&lt;em&gt;The Hurting&lt;/em&gt;&lt;/a&gt;, released in 1983. However, it wasn’t until &lt;a href="https://genius.com/albums/tears-for-fears/songs-from-the-big-chair" rel="noopener" data-api_path="/albums/22239"&gt;&lt;em&gt;Songs from the Big Chair&lt;/em&gt;&lt;/a&gt; in 1985, a change in musical direction towards pop, that the band made it internationally. The record proved to be hit, reaching #2 in the UK and #1 in the US charts, and contains their most well-known singles, &lt;a href="https://genius.com/Tears-for-fears-shout-lyrics" rel="noopener" data-api_path="/songs/304899"&gt;“Shout”&lt;/a&gt; and &lt;a href="https://genius.com/Tears-for-fears-everybody-wants-to-rule-the-world-lyrics" rel="noopener" data-api_path="/songs/91174"&gt;“Everybody Wants to Rule the World”&lt;/a&gt;. Third album &lt;a href="https://genius.com/albums/tears-for-fears/the-seeds-of-love" rel="noopener" data-api_path="/albums/120772"&gt;&lt;em&gt;The Seeds of Love&lt;/em&gt;&lt;/a&gt;, released in 1989, performed similarly, entering the UK Albums charts at #1.&lt;/p&gt;\n\n&lt;p&gt;In 1991, the band broke up. Curt Smith went on as a solo artist while Roland Orzabal continued as Tears for Fears, releasing &lt;a href="https://genius.com/albums/tears-for-fears/elemental" rel="noopener" data-api_path="/albums/147271"&gt;&lt;em&gt;Elemental&lt;/em&gt;&lt;/a&gt; in 1993 to much success in the UK (though significantly less in the US) and &lt;a href="https://genius.com/albums/tears-for-fears/raoul-and-the-kings-of-spain" rel="noopener" data-api_path="/albums/147272"&gt;&lt;em&gt;Raoul and the Kings of Spain&lt;/em&gt;&lt;/a&gt; in 1995, which did poorly in the charts, only reaching #41 in the UK but with some acclaim in continental Europe. In 2000, Curt and Roland reunited and recorded what became &lt;a href="https://genius.com/albums/tears-for-fears/everybody-loves-a-happy-ending" rel="noopener" data-api_path="/albums/147275"&gt;&lt;em&gt;Everybody Loves a Happy Ending&lt;/em&gt;&lt;/a&gt;, released in 2004 to positive reviews and moderate success. The band currently continues to tour.&lt;/p&gt;\n\n&lt;p&gt;Curt and Roland are &lt;a href="http://www.billboard.com/articles/columns/rock/7408801/tears-for-fears-announce-tour-new-studio-record" rel="noopener nofollow"&gt;slated to release their fifth studio album in 2017&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jonezetta', 'annotations': {'description': '&lt;p&gt;Jonezetta was a five-piece rock band hailing from Mississippi. Their first album, Popularity, is filled with fun, upbeat music, and was released in 2006. It was recorded shortly after the death of their close friend, Timothy Jordan II, and it is dedicated to his memory.&lt;br&gt;\nTheir second album, Cruel to be Young, was released in 2008, and is a very different sound than that of Popularity, being much more somber in tone, and deals with darker themes, such as death and how to deal with the fallout of a broken relationship.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daughtry', 'annotations': {'description': '&lt;p&gt;Daughtry is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006. The album reached number one on the Billboard 200, went on to sell more than four million copies in the United States, and has been certified quadruple platinum by the RIAA. Daughtry was also named the best-selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Soundscan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits “It’s Not Over” and “Home”.&lt;/p&gt;\n\n&lt;p&gt;The band’s second album, Leave This Town, was released in July 2009. It debuted at number one on the Billboard 200 chart, becoming Daughtry’s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album’s lead single, “No Surprise,” became the band’s fifth top-20 hit on the Hot 100. Their third studio album, Break the Spell was released in November 2011. It debuted inside the top ten on the Billboard 200 chart and has been certified Gold by the RIAA. Daughtry’s fourth studio album, Baptized was released on November 19, 2013 and it debuted at number six on the 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 8 million albums and over 22.6 million digital tracks in the U.S.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Clarkoh-got-that-sauce', 'annotations': {'description': '&lt;p&gt;Emerging onto the scene from Boston, MA, Clarkoh (formerly “Clark Sage”) began his career as a result of a 9th grade science project. Now, he creates music that derives from experiences and moments of his life. Any set of circumstances may inspire different feelings in his music such as chill or jumpy or moving. The final product, however, is music that’s original and memorable.&lt;/p&gt;', 'alternate_names': ['Clark Sage', 'Clarkoh Poppa Zeus']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bts', 'annotations': {'description': '&lt;p&gt;BTS is a South Korean pop (hip-hop influenced) group consisting of &lt;a href="https://genius.com/artists/Rm" rel="noopener" data-api_path="/artists/70110"&gt;RM&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jin-bts" rel="noopener" data-api_path="/artists/520162"&gt;Jin&lt;/a&gt;, &lt;a href="https://genius.com/artists/Suga-bts" rel="noopener" data-api_path="/artists/520160"&gt;SUGA&lt;/a&gt;, &lt;a href="https://genius.com/artists/j-hope" rel="noopener" data-api_path="/artists/70112"&gt;j-hope&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jimin-bts" rel="noopener" data-api_path="/artists/1016911"&gt;Jimin&lt;/a&gt;, &lt;a href="https://genius.com/artists/V-bts" rel="noopener" data-api_path="/artists/520161"&gt;V&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jungkook-bts" rel="noopener" data-api_path="/artists/1016907"&gt;Jung Kook&lt;/a&gt;. The group’s name is an acronym for ‘Bangtan Sonyeondan’ (방탄소년단) which translates into ‘Bulletproof Boy Scouts.’&lt;/p&gt;\n\n&lt;p&gt;The group is currently one of the most recognized music acts worldwide, holds over 20 &lt;a href="https://www.guinnessworldrecords.com/search?term=BTS&amp;amp;page=1&amp;amp;type=record&amp;amp;max=20&amp;amp;partial=_Results&amp;amp;" rel="noopener nofollow"&gt;Guinness World Records&lt;/a&gt;, and won over 350 main &lt;a href="https://allforarmy.com/more/about-bts/awards-achievements/#" rel="noopener nofollow"&gt;music awards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The members are heavily involved in their music production, &lt;a href="https://www.ibtimes.sg/producer-talks-about-why-bts-became-successful-k-pop-10615" rel="noopener nofollow"&gt;90 percent of their lyrics are penned by them&lt;/a&gt; and some of them also act as producers.&lt;/p&gt;\n\n&lt;p&gt;BTS combines various genres of music, ranging from pop sounds like on &lt;a href="https://genius.com/Bts-i-need-u-lyrics" rel="noopener" data-api_path="/songs/2016756"&gt;“I Need U,”&lt;/a&gt; hip-hop (&lt;a href="https://genius.com/Bts-ugh-lyrics" rel="noopener" data-api_path="/songs/5268364"&gt;“욱 (UGH!)”&lt;/a&gt;) or  &lt;a href="https://themusicmind.com/blog/2016/what-is-moombahton-what-does-it-have-to-do-with-kpop" rel="noopener nofollow"&gt;moombahton&lt;/a&gt; (&lt;a href="https://genius.com/Bts-blood-sweat-and-tears-lyrics" rel="noopener" data-api_path="/songs/2877866"&gt;“피 땀 눈물 (Blood Sweat &amp;amp; Tears)”&lt;/a&gt;), to British rock in &lt;a href="https://genius.com/Bts-springtime-lyrics" rel="noopener" data-api_path="/songs/764417"&gt;“봄날 (Spring Day).”&lt;/a&gt; Lyrically, they lean heavily on the struggles and excitement of youth, but &lt;a href="https://www.billboard.com/articles/columns/k-town/8098832/bts-lyrics-social-commentary-political" rel="noopener nofollow"&gt;they also criticize social issues&lt;/a&gt; through songs like &lt;a href="https://genius.com/Bts-crow-tit-try-hard-lyrics" rel="noopener" data-api_path="/songs/2923868"&gt;“뱁새 (Silver Spoon)”&lt;/a&gt; and &lt;a href="https://genius.com/Bts-am-i-wrong-lyrics" rel="noopener" data-api_path="/songs/2883218"&gt;“Am I Wrong,”&lt;/a&gt; causing them to be &lt;a href="http://www.billboard.com/articles/columns/k-town/7752412/bts-bang-hitman-conscious-k-pop-cross-over-interview" rel="noopener nofollow"&gt;perceived as one of the more socially conscious k-pop artists&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The combination of their musical storytelling and &lt;a href="https://youtu.be/7OX7dIRReSA?list=PL_Cqw69_m_yzbMVGvQA8QWrL_HdVXJQX7" rel="noopener nofollow"&gt;aesthetic&lt;/a&gt;, &lt;a href="https://youtu.be/cbSy36fu6Pk" rel="noopener nofollow"&gt;powerful and heavily choreographed stage performances&lt;/a&gt;, and &lt;a href="https://www.youtube.com/user/BANGTANTV" rel="noopener nofollow"&gt;sneak peeks into their daily life&lt;/a&gt; through social media has &lt;a href="https://www.quora.com/Why-do-you-like-BTS" rel="noopener nofollow"&gt;earned them&lt;/a&gt; a loyal fanbase called ARMY.&lt;/p&gt;\n\n&lt;p&gt;The septet debuted on June 13, 2013 with &lt;a href="https://genius.com/Bts-no-more-dream-lyrics" rel="noopener" data-api_path="/songs/215358"&gt;“No More Dream,”&lt;/a&gt; of their debut single album &lt;a href="https://genius.com/albums/Bts/2-cool-4-skool" rel="noopener" data-api_path="/albums/127649"&gt;&lt;em&gt;2 Cool 4 Skool&lt;/em&gt;&lt;/a&gt;, which encourages their listeners to achieve their dreams. Throughout their various mini albums and a first studio album, &lt;a href="https://genius.com/albums/Bts/Dark-and-wild" rel="noopener" data-api_path="/albums/134257"&gt;&lt;em&gt;Dark &amp;amp; Wild&lt;/em&gt;&lt;/a&gt;, BTS continued to display a rebellious concept with the addition of a newfound romance. The studio album also marked the end of the ‘school era.’&lt;/p&gt;\n\n&lt;p&gt;In 2015, they wholly evolved through ‘HYYH (The Most Beautiful Moment In Life) era,’ releasing three mini albums and defining themselves through referencing youth-related struggles and mental health in their lyrics.&lt;/p&gt;\n\n&lt;p&gt;In 2016 they released their second studio album, &lt;a href="https://genius.com/albums/Bts/Wings" rel="noopener" data-api_path="/albums/229995"&gt;&lt;em&gt;Wings&lt;/em&gt;&lt;/a&gt;. The album thematically deals with temptation and growth and is heavily &lt;a href="https://channel-korea.com/bts-wings-teaser-novel-demian/" rel="noopener nofollow"&gt;inspired&lt;/a&gt; by the Hermann Hesse’s novel, &lt;a href="https://www.amazon.com/Demian-Story-Sinclairs-Penguin-Classics/dp/0143106783/ref=pd_lpo_14_t_1/138-3097738-1356301" rel="noopener nofollow"&gt;&lt;em&gt;Demian&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2017 the group revealed a new brand identity—the &lt;a href="https://www.billboard.com/articles/columns/k-town/7857156/bts-beyond-the-scene-name-change" rel="noopener nofollow"&gt;new logo&lt;/a&gt; and they &lt;a href="https://www.billboard.com/articles/columns/k-town/7857156/bts-beyond-the-scene-name-change" rel="noopener nofollow"&gt;extended their name&lt;/a&gt; with ‘Beyond the Scene’ as the additional acronym for BTS. The group also began their ‘Love Yourself’ era, with two mini albums and their third studio album, &lt;a href="https://genius.com/albums/Bts/Love-yourself-tear" rel="noopener" data-api_path="/albums/417118"&gt;&lt;em&gt;Love Yourself: Tear&lt;/em&gt;&lt;/a&gt;. Following this, BTS became &lt;a href="https://www.soompi.com/2017/05/21/bts-becomes-first-k-pop-group-win-billboard-music-awards/" rel="noopener nofollow"&gt;the first-ever K-pop group&lt;/a&gt; to win the &lt;a href="https://www.billboardmusicawards.com/2017/05/bts-wins-top-social-artist-bbmas/" rel="noopener nofollow"&gt;Billboard Music Award&lt;/a&gt;. They went on to &lt;a href="https://www.billboard.com/articles/news/bbma/8456936/bts-wins-top-social-artist-2018-billboard-music-awards" rel="noopener nofollow"&gt;win this award for the second time in 2018&lt;/a&gt;, overtaking other international superstars, and they debuted their song, &lt;a href="https://genius.com/Bts-fake-love-lyrics" rel="noopener" data-api_path="/songs/3690426"&gt;“FAKE LOVE”&lt;/a&gt; on television at the BBMAs, another feat never seen before in the K-pop industry.&lt;/p&gt;\n\n&lt;p&gt;Also in 2017, as the first Korean artist, BTS &lt;a href="https://www.etonline.com/bts-partners-unicef-love-myself-anti-violence-campaign-90286" rel="noopener nofollow"&gt;joined the United Nations Children’s Fund (UNICEF) to stage campaigns against violence toward children and teens around the world&lt;/a&gt;. One year later, BTS made history being the &lt;a href="https://www.forbes.com/sites/caitlinkelley/2018/09/25/bts-deliver-speech-at-united-nations-urging-young-people-to-find-your-voice/#48de9957142d" rel="noopener nofollow"&gt;first K-pop group to speak at the United Nations (UN) General Assembly&lt;/a&gt; and were &lt;a href="https://www.koreatimes.co.kr/www/art/2018/10/732_256678.html" rel="noopener nofollow"&gt;awarded the fifth-class Hwagwan Order of Cultural Merit&lt;/a&gt; by the President of South Korea for the contribution to Korean culture.&lt;/p&gt;\n\n&lt;p&gt;In 2019 with a &lt;a href="https://genius.com/albums/Bts/Map-of-the-soul-persona" rel="noopener" data-api_path="/albums/515340"&gt;mini album&lt;/a&gt; they’ve started ‘Map of the Soul’ era. Following this, they were nominated for and earned two Billboard Music Awards—&lt;a href="https://www.billboard.com/articles/news/awards/8509652/bts-2019-bbmas-red-carpet-top-social-artist" rel="noopener nofollow"&gt;Top Social Artist&lt;/a&gt; and &lt;a href="https://www.billboard.com/articles/news/awards/8509655/billboard-music-awards-2019-winners-list" rel="noopener nofollow"&gt;Top Duo/Group&lt;/a&gt;, becoming the first K-pop group to achieve the latter.&lt;/p&gt;\n\n&lt;p&gt;Their fourth studio album, &lt;a href="https://genius.com/albums/Bts/Map-of-the-soul-7" rel="noopener" data-api_path="/albums/592290"&gt;&lt;em&gt;Map of The Soul: 7&lt;/em&gt;&lt;/a&gt;, was released in 2020, and become &lt;a href="https://variety.com/2021/music/news/bts-map-of-the-soul-7-wins-ifpis-global-album-chart-award-1234927226" rel="noopener nofollow"&gt;#1 Album of 2020 Worldwide&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In September 2020, BTS became the first Korean act to hit #1 on Billboard Hot 100 with their first English language song as a lead artist, &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;“Dynamite.”&lt;/a&gt; The song &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;broke numerous worldwide records&lt;/a&gt;, including &lt;a href="https://www.guinnessworldrecords.com/news/2020/9/bts-smash-youtube-viewing-records-once-again-with-single-dynamite-628998" rel="noopener nofollow"&gt;three Guinness World Records&lt;/a&gt;. The group &lt;a href="https://mobile.twitter.com/charts_k/status/1310762545674936320" rel="noopener nofollow"&gt;held #1 simultaneously on seven Billboard charts&lt;/a&gt;. Just few weeks later, BTS scored &lt;a href="https://twitter.com/BigHitEnt/status/1315717984615186433" rel="noopener nofollow"&gt;#1 on Billboard Hot 100 with the second song&lt;/a&gt;—&lt;a href="https://genius.com/Jawsh-685-jason-derulo-and-bts-savage-love-laxed-siren-beat-bts-remix-lyrics" rel="noopener" data-api_path="/songs/6003613"&gt;“Savage Love (Laxed – Siren Beat) [BTS Remix].”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The fifth Korean studio album, &lt;a href="https://genius.com/albums/Bts/Be" rel="noopener" data-api_path="/albums/693732"&gt;&lt;em&gt;BE&lt;/em&gt;&lt;/a&gt;, was released on November 20, 2020 with the lead single &lt;a href="https://genius.com/Bts-life-goes-on-lyrics" rel="noopener" data-api_path="/songs/6116502"&gt;“Life Goes On.”&lt;/a&gt; The single debuted at &lt;a href="https://www.billboard.com/articles/business/chart-beat/9491302/bts-life-goes-on-number-one-hot-100/" rel="noopener nofollow"&gt;# 1 on Billboard Hot 100&lt;/a&gt;, the first predominantly non-English-language song to do so. They later became the first Korean pop artist to be &lt;a href="https://twitter.com/recordingacad/status/1331297419326210049?s=21" rel="noopener nofollow"&gt;nominated for the &lt;em&gt;GRAMMY Awards&lt;/em&gt;&lt;/a&gt; (for Best Pop Duo/Group Performance with “Dynamite”).&lt;/p&gt;\n\n&lt;p&gt;Following that, in May, the group released their second English language song as a lead artist, &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;“Butter.”&lt;/a&gt; The song &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;debuted simultaneously at #1 on four main Billboard US charts&lt;/a&gt;, and broke &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;numerous records&lt;/a&gt;, including these set previously by &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;“Dynamite.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After seven weeks on #1 with &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;“Butter,”&lt;/a&gt; BTS replaced themselves on top and debuted on it their next single, &lt;a href="https://genius.com/Bts-permission-to-dance-lyrics" rel="noopener" data-api_path="/songs/6913616"&gt;“Permission to Dance,”&lt;/a&gt; making them &lt;a href="https://www.billboard.com/articles/news/9603058/bts-permission-to-dance-number-one-hot-100/" rel="noopener nofollow"&gt;the first group in history to earn four #1 debuts&lt;/a&gt; on the Billboard Hot 100, and &lt;a href="https://www.billboard.com/articles/news/9603058/bts-permission-to-dance-number-one-hot-100/" rel="noopener nofollow"&gt;the first group in history to replace their #1 debut song with another #1 debut song&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['防弾少年団 (Bodan Shonendan)', '방탄소년단 (Bangtan Sonyeondan)', 'Beyond the Scene', 'Bulletproof Boy Scouts', 'Bangtan Boys']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lil-nas-x', 'annotations': {'description': '&lt;p&gt;Montero Lamar Hill (b. April 9, 1999), better known by his stage name Lil Nas X, is a hip-hop artist from Atlanta. In 2018, he dropped out of college during his freshman year to pursue music full-time. Regarding this, &lt;a href="https://www.instagram.com/p/Bu_x3DQldcm/?utm_source=ig_embed&amp;amp;utm_medium=loading" rel="noopener nofollow"&gt;he said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Everybody thought I was crazy, I knew what I was doing. Thank you everyone, this just the mf beginning!&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;His stage name was originally meant to be a joke. In a January 2021 &lt;a href="https://youtu.be/xxg_HapJ3u4?t=56" rel="noopener nofollow"&gt;Jimmy Fallon interview&lt;/a&gt;, Nas revealed the origin of his stage name:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nas was like my internet alias and then when I started doing music, I was like, “I want to have fun with this,” and every new rapper’s named Lil, Lil, Lil. What if I was Lil Nas? That’d be funny. So I was like, “Alright, bet. I’ll be Lil Nas.” And I added the X later on.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Lil Nas X’s debut mixtape came in the form of &lt;a href="https://genius.com/albums/Lil-nas-x/Nasarati" rel="noopener" data-api_path="/albums/460024"&gt;&lt;em&gt;NASARATI&lt;/em&gt;&lt;/a&gt;, released in July 2018. The mixtape was released on Youtube and Soundcloud, but after a &lt;a href="https://www.worldipreview.com/news/lil-nas-x-sued-for-25m-over-carry-on-sample-18411" rel="noopener nofollow"&gt;lawsuit&lt;/a&gt; over its title track, &lt;a href="https://genius.com/Lil-nas-x-carry-on-lyrics" rel="noopener" data-api_path="/songs/3843778"&gt;“CARRY ON,”&lt;/a&gt; it was taken off the platforms. Following the mixtape’s release, Nas\' breakthrough would come in the form of the December 2018 smash hit, &lt;a href="https://genius.com/Lil-nas-x-old-town-road-lyrics" rel="noopener" data-api_path="/songs/4133841"&gt;“Old Town Road,”&lt;/a&gt; which blew up through &lt;a href="https://www.youtube.com/watch?v=LxwpKKK3P4s" rel="noopener nofollow"&gt;TikTok memes&lt;/a&gt; and its April 2019 &lt;a href="https://genius.com/Lil-nas-x-old-town-road-remix-lyrics" rel="noopener" data-api_path="/songs/4445394"&gt;remix&lt;/a&gt; featuring country singer &lt;a href="https://genius.com/artists/billy-ray-cyrus" rel="noopener" data-api_path="/artists/60166"&gt;Billy Ray Cyrus&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song &lt;a href="https://hypebeast.com/2019/3/lil-nas-xs-old-town-road-billboard-100-tiktok-charting" rel="noopener nofollow"&gt;entered the &lt;em&gt;Billboard&lt;/em&gt; Hot 100&lt;/a&gt; in March 2019, over a year after its original release. “Old Town Road” reached #1 on Spotify, iTunes and Apple Music, as well as becoming the first song to simultaneously chart on the Billboard country and hip-hop/R&amp;amp;B charts before it was disqualified from the country charts. The move by Billboard &lt;a href="https://www.vulture.com/2019/04/lil-nas-x-old-town-road-controversy-explained.html" rel="noopener nofollow"&gt;received a lot of backlash&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;June 21, 2019 marked the release of his debut EP, &lt;a href="https://genius.com/albums/Lil-nas-x/7" rel="noopener" data-api_path="/albums/530418"&gt;&lt;em&gt;7&lt;/em&gt;&lt;/a&gt;. The EP received acclaim, including a &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;GRAMMY nomination&lt;/a&gt; for “Album of the Year.” It debuted at &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8518137/the-raconteurs-first-no-1-album-billboard-200" rel="noopener nofollow"&gt;#2 on the Billboard 200&lt;/a&gt; selling 77,000 copies.&lt;/p&gt;\n\n&lt;p&gt;“Old Town Road (Remix)” became the most certified song ever in January 2021, with a &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=OLD+TOWN+ROAD#search_section" rel="noopener nofollow"&gt;14x Platinum&lt;/a&gt; certification, representing 14 million equivalent song units sold. The same month, Lil Nas X released a children’s picture book, &lt;a href="https://www.amazon.com/C-Country-Lil-Nas-X/dp/0593300785" rel="noopener nofollow"&gt;“C is For Country,”&lt;/a&gt; which became a &lt;a href="https://www.soundslikenashville.com/news/lil-nas-x-c-is-for-country-childrens-book/" rel="noopener nofollow"&gt;New York Times Bestseller&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lil Nas X released &lt;a href="https://genius.com/Lil-nas-x-montero-call-me-by-your-name-lyrics" rel="noopener" data-api_path="/songs/5751286"&gt;“MONTERO (Call Me By Your Name”&lt;/a&gt; in March 2021, following it with the announcement of his first studio album, &lt;a href="https://genius.com/albums/Lil-nas-x/Montero" rel="noopener" data-api_path="/albums/558945"&gt;&lt;em&gt;MONTERO&lt;/em&gt;&lt;/a&gt;, which was released on September 17 of the same year. The song took the world by the storm, with the &lt;a href="https://www.youtube.com/watch?time_continue=14&amp;amp;v=6swmTBVI83k&amp;amp;feature=emb_title" rel="noopener nofollow"&gt;music video&lt;/a&gt; receiving &lt;a href="https://www.newuniversity.org/2021/04/06/lil-nas-xs-montero-call-me-by-your-name-sparks-a-hell-of-a-controversy/" rel="noopener nofollow"&gt;mixed receptions&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Atlanta native would follow up the single with  May 2021 &lt;a href="https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics" rel="noopener" data-api_path="/songs/6083409"&gt;“SUN GOES DOWN”&lt;/a&gt; and July 2021’s collaboration with &lt;a href="https://genius.com/artists/Jack-harlow" rel="noopener" data-api_path="/artists/615747"&gt;Jack Harlow&lt;/a&gt;, &lt;a href="https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics" rel="noopener" data-api_path="/songs/6083409"&gt;“INDUSTRY BABY.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Lil Nas', 'Montero L. Hill', 'Montero Hill', 'Montero Lamar Hill', 'Nas X']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kid-cudi', 'annotations': {'description': '&lt;p&gt;Kid Cudi, born Scott Ramon Seguro Mescudi on January 30, 1984, is an American recording artist from Cleveland, Ohio.&lt;/p&gt;\n\n&lt;p&gt;His debut single &lt;a href="https://genius.com/Kid-cudi-day-n-nite-nightmare-lyrics" rel="noopener" data-api_path="/songs/131"&gt;“Day ‘n’ Nite”&lt;/a&gt; became an online favorite in 2008. Based in Brooklyn, he first became affiliated with &lt;a href="https://en.wikipedia.org/wiki/Fool%27s_Gold_Records" rel="noopener nofollow"&gt;Fool’s Gold&lt;/a&gt;, the label of DJs &lt;a href="https://genius.com/artists/A-trak" rel="noopener" data-api_path="/artists/2906"&gt;A-Trak&lt;/a&gt; and &lt;a href="https://genius.com/artists/nick-catchdubs" rel="noopener" data-api_path="/artists/49829"&gt;Nick Catchdubs&lt;/a&gt;. After releasing his popular mixtape &lt;a href="https://genius.com/albums/Kid-cudi/A-kid-named-cudi" rel="noopener" data-api_path="/albums/4424"&gt;&lt;em&gt;A Kid Named Cudi&lt;/em&gt;&lt;/a&gt;, Cudi’s career took off as he got associated with &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; and joined his label &lt;a href="http://en.wikipedia.org/wiki/GOOD_Music" rel="noopener nofollow"&gt;G.O.O.D Music&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His catalog currently counts 7 solo studio albums, entitled: &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-the-end-of-day" rel="noopener" data-api_path="/albums/4427"&gt;&lt;em&gt;Man on the Moon: The End of Day&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-ii-the-legend-of-mr-rager" rel="noopener" data-api_path="/albums/4428"&gt;&lt;em&gt;Man on the Moon II: The Legend of Mr. Rager&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Indicud" rel="noopener" data-api_path="/albums/20193"&gt;&lt;em&gt;Indicud&lt;/em&gt;&lt;/a&gt; which was released after Cudi &lt;a href="http://hypetrak.com/2013/04/kid-cudi-leaves-good-music/" rel="noopener nofollow"&gt;famously departed from GOOD Music&lt;/a&gt; and the latest ones &lt;a href="https://genius.com/albums/Kid-cudi/Satellite-flight-the-journey-to-mother-moon" rel="noopener" data-api_path="/albums/67138"&gt;&lt;em&gt;Satellite Flight: The Journey To Mother Moon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Speedin-bullet-2-heaven" rel="noopener" data-api_path="/albums/128397"&gt;&lt;em&gt;Speedin\' Bullet To Heaven&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Passion-pain-demon-slayin" rel="noopener" data-api_path="/albums/152011"&gt;&lt;em&gt;Passion, Pain &amp;amp; Demon Slayin\'&lt;/em&gt;&lt;/a&gt;, and the long anticipated &lt;a href="https://genius.com/albums/Kid-cudi/man-on-the-moon-iii-the-chosen" rel="noopener" data-api_path="/albums/692902"&gt;&lt;em&gt;Man on the Moon III: The Chosen&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In addition, Cudi released an alternative rock album with long-time friend and collaborator &lt;a href="https://genius.com/artists/dot-da-genius" rel="noopener" data-api_path="/artists/11845"&gt;Dot Da Genius&lt;/a&gt; in duo group &lt;a href="https://genius.com/artists/Wzrd" rel="noopener" data-api_path="/artists/15049"&gt;WZRD&lt;/a&gt;, as well as a &lt;a href="https://genius.com/albums/Kids-see-ghosts/Kids-see-ghosts" rel="noopener" data-api_path="/albums/425948"&gt;collaborative album&lt;/a&gt; with on-again-off-again friend &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; as duo group &lt;a href="https://genius.com/artists/kids-see-ghosts" rel="noopener" data-api_path="/artists/1464821"&gt;Kids See Ghosts&lt;/a&gt;. Cudi has also been featured on the G.O.O.D Music projects: &lt;a href="https://genius.com/albums/Good-music-group/Cruel-summer" rel="noopener"&gt;&lt;em&gt;Cruel Summer&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kanye-west/G-o-o-d-fridays" rel="noopener" data-api_path="/albums/14775"&gt;&lt;em&gt;G.O.O.D. Fridays&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['King WZRD', 'S. R. S. Mescudi', 'Scott R. S. Mescudi', 'Scott S. Mescudi', 'Scott R. Mescudi', 'Scott Ramon Mescudi', 'Scott Seguro Mescudi', 'Cud Life', 'King Cudi', 'Scott Mescudi', 'The Man on the Moon', 'Mr. Solo Dolo', 'Scott Ramon Seguro Mescudi', 'Cudi', 'Cudder', 'Mr. Rager', 'King Wizard']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Migos', 'annotations': {'description': '&lt;p&gt;Migos is a rap group from Lawrenceville, Georgia, formed in 2008. The trio consists of &lt;a href="https://genius.com/artists/Quavo" rel="noopener" data-api_path="/artists/61600"&gt;Quavo&lt;/a&gt; (real name Quavious Marshall), &lt;a href="https://genius.com/artists/Takeoff" rel="noopener" data-api_path="/artists/148761"&gt;Takeoff&lt;/a&gt; (real name Kirshnik Ball) and &lt;a href="https://genius.com/artists/Offset" rel="noopener" data-api_path="/artists/88813"&gt;Offset&lt;/a&gt; (real name Kiari Cephus). The Migos are relatives: members Quavo and Takeoff are uncle and nephew, and members Quavo and Offset are cousins.&lt;/p&gt;\n\n&lt;p&gt;They are most known for their hit songs &lt;a href="https://genius.com/Migos-versace-original-version-lyrics" rel="noopener" data-api_path="/songs/176951"&gt;“Versace”&lt;/a&gt;, that became even more successful after &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt; released a &lt;a href="https://genius.com/Migos-versace-remix-lyrics" rel="noopener" data-api_path="/songs/176872"&gt;remix&lt;/a&gt; of it, and &lt;a href="https://genius.com/Migos-bad-and-boujee-lyrics" rel="noopener" data-api_path="/songs/2845980"&gt;“Bad and Boujee.”&lt;/a&gt; Despite this, &lt;a href="https://genius.com/Migos-bando-lyrics" rel="noopener" data-api_path="/songs/168255"&gt;“Bando”&lt;/a&gt; was their first hit song.&lt;/p&gt;\n\n&lt;p&gt;They have released numerous mixtapes since 2011, most notably &lt;a href="https://genius.com/albums/Migos/Young-rich-niggas" rel="noopener" data-api_path="/albums/36011"&gt;&lt;em&gt;Young Rich Niggas&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://genius.com/albums/Migos/No-label-ii" rel="noopener" data-api_path="/albums/104703"&gt;&lt;em&gt;No Label 2&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://genius.com/albums/Migos/Rich-nigga-timeline" rel="noopener" data-api_path="/albums/113969"&gt;&lt;em&gt;Rich Nigga Timeline&lt;/em&gt;&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/albums/Migos/Young-rich-niggas-2" rel="noopener" data-api_path="/albums/53796"&gt;&lt;em&gt;Young Rich Niggas 2.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;They released their debut album &lt;a href="https://genius.com/albums/Migos/Yung-rich-nation" rel="noopener" data-api_path="/albums/119474"&gt;&lt;em&gt;Yung Rich Nation&lt;/em&gt;&lt;/a&gt; on July 31st, 2015, their second studio album, &lt;a href="https://genius.com/albums/Migos/Culture" rel="noopener" data-api_path="/albums/168545"&gt;&lt;em&gt;Culture&lt;/em&gt;&lt;/a&gt;, was released on January 27th, 2017. The group’s 3rd album, &lt;a href="https://genius.com/albums/migos/culture-ii" rel="noopener" data-api_path="/albums/369295"&gt;&lt;em&gt;Culture II&lt;/em&gt;&lt;/a&gt;, was released on January 26th, 2018.&lt;/p&gt;\n\n&lt;p&gt;With the release of &lt;em&gt;Culture II,&lt;/em&gt; Migos tied &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; for most simultaneous Hot 100 songs by a group on the Billboard chart with 14.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gwen-stefani', 'annotations': {'description': '&lt;p&gt;Gwen Renée Stefani, known simply as Gwen Stefani, is an American singer and songwriter, born on October 3, 1969 in Fullerton, California. She started her musical career as the lead singer in the American pop-rock band, &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;, in the early ‘90s. The band has achieved major success with their 1995 album &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;, which spawned the hit singles &lt;a href="https://genius.com/No-doubt-just-a-girl-lyrics" rel="noopener" data-api_path="/songs/210348"&gt;“Just a Girl”&lt;/a&gt; and &lt;a href="https://genius.com/No-doubt-dont-speak-lyrics" rel="noopener" data-api_path="/songs/208107"&gt;“Don’t Speak”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2004, Stefani released her first solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/Love-angel-music-baby" rel="noopener" data-api_path="/albums/6076"&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt;&lt;/a&gt;, which spawned the hit songs &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt;, and &lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt;; all three songs went number one on the Billboard Hot 100 chart, and also became the first US music download to sell one million copies.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Stefani released her second solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/The-sweet-escape" rel="noopener" data-api_path="/albums/22036"&gt;&lt;em&gt;The Sweet Escape&lt;/em&gt;&lt;/a&gt;, which spawned singles &lt;a href="https://genius.com/Gwen-stefani-the-sweet-escape-lyrics" rel="noopener" data-api_path="/songs/90487"&gt;“The Sweet Escape”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-wind-it-up-lyrics" rel="noopener" data-api_path="/songs/423090"&gt;“Wind It Up”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2016, she released her third solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/This-is-what-the-truth-feels-like" rel="noopener" data-api_path="/albums/113812"&gt;&lt;em&gt;This Is What the Truth Feels Like&lt;/em&gt;&lt;/a&gt;, which became her first solo number-one album to chart on the Billboard 200. The album had hit songs such as, &lt;a href="https://genius.com/Gwen-stefani-make-me-like-you-lyrics" rel="noopener" data-api_path="/songs/2417511"&gt;“Make Me Like You”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-used-to-love-you-lyrics" rel="noopener" data-api_path="/songs/2332048"&gt;“Used to Love You”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Gwen Renée Stefani Shelton', 'Gwen Renée Stefani']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Skid-row', 'annotations': {'description': '&lt;p&gt;Skid Row is a rock band from New Jersey, USA. The band was formed in 1986 by bassist Rachel Bolan and guitarist Dave Sabo. Sabo and Bolan went to the same high school and met at a guitar store where Sabo worked. These two would play in Bolan’s garage and they soon recruited more band members via newspapers ads and performed in local clubs.&lt;/p&gt;\n\n&lt;p&gt;The band then released its debut album titled &lt;a href="https://genius.com/albums/Skid-row/Skid-row" rel="noopener" data-api_path="/albums/28408"&gt;&lt;em&gt;Skid Row&lt;/em&gt;&lt;/a&gt; in 1989 and the album was an immediate success and went 5x platinum. Skid Row’s &lt;a href="https://genius.com/albums/Skid-row/Slave-to-the-grind" rel="noopener" data-api_path="/albums/189045"&gt;second album&lt;/a&gt; went 2x platinum&lt;/p&gt;\n\n&lt;p&gt;Skid Row released a &lt;a href="https://genius.com/albums/Skid-row/Subhuman-race" rel="noopener" data-api_path="/albums/209337"&gt;third album&lt;/a&gt; in 1994 after a one year hiatus. The album charted on the top 40. The rest of Skid Row’s releases were not as successful as the first few.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Current Members&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dave-the-snake-sabo" rel="noopener" data-api_path="/artists/1033447"&gt;Dave “The Snake” Sabo&lt;/a&gt; – Guitar, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rachel-bolan" rel="noopener" data-api_path="/artists/1004507"&gt;Rachel Bolan&lt;/a&gt; – Bass, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scotti-hill" rel="noopener" data-api_path="/artists/2479393"&gt;Scotti Hill&lt;/a&gt; – guitar, Backing Vocals&lt;br&gt;\nRob Hammersmith – Drums, Backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Zp-theart" rel="noopener" data-api_path="/artists/1188919"&gt;ZP Theart&lt;/a&gt; – Lead Vocals&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Everlast', 'annotations': {'description': '&lt;p&gt;Everlast was barely of legal drinking age when he released his major label rap debut, Forever Everlasting, as part of Ice-T’s Rhyme Syndicate.&lt;/p&gt;\n\n&lt;p&gt;Next he teamed with his high school pal &lt;a href="https://genius.com/artists/danny-boy" rel="noopener" data-api_path="/artists/429"&gt;Danny “Danny Boy” O\'Connor&lt;/a&gt; to form the Irish American-centric &lt;a href="https://genius.com/artists/house-of-pain" rel="noopener" data-api_path="/artists/942"&gt;House Of Pain&lt;/a&gt;, backed by Everlast’s longtime DJ, DJ Lethal. “Jump Around” pushed House Of Pain’s debut to multiplatinum status. Their sophomore album went gold, but the group disbanded on the eve of their third album’s release.&lt;/p&gt;\n\n&lt;p&gt;After suffering a heart attack, Everlast went multiplatinum yet again, this time as a solo artist with the acoustic/rap hybrid, &lt;em&gt;Whitey Ford Sings The Blues&lt;/em&gt;. His collaboration with Carlos Santana was massive and he’s continued to record and tour with a mixture of acoustic rock, blues, country, and hip-hop. He was a member of &lt;a href="https://genius.com/artists/la-coka-nostra" rel="noopener" data-api_path="/artists/11346"&gt;La Coka Nostra&lt;/a&gt; for a time and occasionally reunites with House Of Pain for festivals and club shows.&lt;/p&gt;', 'alternate_names': ['Eric Schrody', 'Erik F. Schrody', 'Erik Francis Schrody', 'Erik Schrody']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nelly-furtado', 'annotations': {'description': '&lt;p&gt;Nelly Kim Furtado (born December 2, 1978) is a Portuguese-Canadian singer and songwriter. The songstress is well-known for hits such as “I’m Like a Bird”, “Turn Off the Light”, and “Promiscuous”.&lt;/p&gt;\n\n&lt;p&gt;She began her career in &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#1996%E2%80%931999:_Career_beginnings" rel="noopener nofollow"&gt;1996&lt;/a&gt; contributing vocals to Plains of Fascination’s “Walkin\' 4 The Streets” and forming Nelstar. After leaving the group, Furtado &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#1996%E2%80%931999:_Career_beginnings" rel="noopener nofollow"&gt;released&lt;/a&gt; her debut single “Party’s Just Begun (Again)”.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;em&gt;Whoa! Nelly&lt;/em&gt; was released in 2000 to worldwide success with hits such as “I’m Like a Bird”, “Turn Off the Light”, and “…On the Radio (Remember the Days)”. It received &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2000%E2%80%932005:_Whoa,_Nelly!_and_Folklore" rel="noopener nofollow"&gt;four&lt;/a&gt; Grammy nominations and one of the singles won for Best Female Pop Vocal Performance. It’s sold nine-million copies worldwide to date. &lt;em&gt;Folklore&lt;/em&gt; is Furtado’s second album released in 2003. The album was not as successful as the previous one due to change in sound. “Try” and “Powerless (Say What You Want)” were the only top-ten &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2000%E2%80%932005:_Whoa,_Nelly!_and_Folklore" rel="noopener nofollow"&gt;hits&lt;/a&gt; from the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Loose&lt;/em&gt; is the sexually-ambitious third album by Furtado. The album was handled by Timbaland and became Furtado’s best-selling album. It reached the top of multiple countries, including the Billboard 200. The record spawned hits such as “Promiscuous”, “Maneater”, “Say It Right”, and “All Good Things (Come to an End)”. It’s sold twelve-million copies worldwide. &lt;em&gt;Mi Plan&lt;/em&gt; is Furtado’s first Spanish and fourth studio album. It achieved &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2009%E2%80%932011:_Mi_Plan_and_The_Best_of_Nelly_Furtado" rel="noopener nofollow"&gt;moderate&lt;/a&gt; success in European countries and received a Latin Grammy for the record, becoming the first Portuguese-Canadian to achieve this.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Furtado released &lt;em&gt;The Spirit Indestructible&lt;/em&gt;, which peaked at number eighteen on the Billboard 200. She released her sixth album &lt;em&gt;The Ride&lt;/em&gt; in 2017.&lt;/p&gt;', 'alternate_names': ['Nelly K. Furtado', 'Nelly Kim Furtado']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Drake-bell', 'annotations': {'description': '&lt;p&gt;Drake Bell born June 27, 1986, is an American actor, voice actor, comedian, singer-songwriter, and multi-instrumentalist. In 2005 he independently released his debut album, Telegraph, released under Bell’s own name. His second album, It’s Only Time, was released in 2006 after signing with Universal Motown Records and debuted at #81 on the Billboard 200, selling over 23,000 copies its first week of release. It’s Only Time has sold 178,000 copies in the United States as of 2012.Bell released an EP in 2011 called A Reminder independently. In 2014, Bell released his third album, Ready Steady Go! under indie label Surfdog Records. Ready Steady Go! debuted at #182 on the Billboard 200, and sold 2,000 copies in its first week of release.&lt;/p&gt;', 'alternate_names': ['Jared Drake Bell', 'Drake Campana']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/P-nk', 'annotations': {'description': "&lt;p&gt;Alecia Beth Moore (born September 8, 1979), better known by her stage name Pink (stylized as P!nk), is an American singer-songwriter and actress. Originally a member of the girl group Choice, she began her solo career with the 2000 single “There You Go” from her debut album, Can’t Take Me Home; the R&amp;amp;B album was certified double-platinum in the United States. She gained further recognition alongside Lil' Kim, Christina Aguilera, and Mýa covering “Lady Marmalade” for the Moulin Rouge! soundtrack; the collaboration earned Pink both her first Grammy Award and first number-one single on the Billboard Hot 100.&lt;/p&gt;", 'alternate_names': ['Alecia B. Moore', 'Alecia Beth Moore', 'Pink']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Supergrass', 'annotations': {'description': '&lt;p&gt;Supergrass were an English rock band, formed in 1993 in Oxford. The band consisted of brothers Gaz (guitar and lead vocals) and Rob Coombes (keyboards and backing vocals), Mick Quinn (bass and backing vocals) and Danny Goffey (drums and backing vocals).&lt;/p&gt;\n\n&lt;p&gt;The band was active from 1993-2010.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kevin-rudolf', 'annotations': {'description': '&lt;p&gt;Kevin Rudolf is an American singer, record producer, guitarist, and drummer from New York City, New York. He was originally signed to Madonna’s vanity label, going under the name &lt;strong&gt;Binocular&lt;/strong&gt;. He released his first album under the name, however his career wouldnt invigorate his signing with Cash Money Records in 2006. Being the first rock artist signed to the label, 2 years later his debut chart-topping single “Let It Rock,” featuring Lil Wayne. It peaked at #5 on the Billboard charts, and #32 on the Year-End Charts. His follow-up singles were “I Made It (Cash Money Heroes)” in 2009, and “You Make The Rain Fall” featuring Flo Rida in 2010. He is also a noted record producer, producing singles such as “Round &amp;amp; Round” by Selena Gomez, “Ghost” by Fefe Dobson, and “Good Girls Go Bad” by Cobra Spaceship, among others.&lt;/p&gt;', 'alternate_names': ['Kevin "Phantom" Rudolf', 'Kevin Winston Rudolf']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joji', 'annotations': {'description': '&lt;p&gt;George Kusunoki Miller (Japanese: ジョージ・ミラー, born September 18th, 1992), commonly known as Joji, is a New York based producer and singer signed to &lt;a href="https://genius.com/artists/88rising" rel="noopener" data-api_path="/artists/995039"&gt;88rising&lt;/a&gt;. His artist name comes from the Japanese pronunciation of “George,” as he is half Australian/Japanese.&lt;/p&gt;\n\n&lt;p&gt;Originally producing comedy skits on YouTube under the name &lt;a href="https://www.youtube.com/user/DizastaMusic" rel="noopener nofollow"&gt;DizastaMusic&lt;/a&gt;, his first break came &lt;a href="https://www.youtube.com/watch?v=GH9JfE6Kq7Q" rel="noopener nofollow"&gt;when he uploaded this video in 2011.&lt;/a&gt; This was the origin of his bizarre, inappropriate, YouTube community guideline-bending persona known as &lt;a href="https://www.youtube.com/user/TVFilthyFrank" rel="noopener nofollow"&gt;Filthy Frank&lt;/a&gt;, through which he gained internet prominence and millions of YouTube subscribers.&lt;/p&gt;\n\n&lt;p&gt;His more serious venture into music was compromised as a side-project to his comedy skits, and so he started releasing music under Joji in 2015 on his private &lt;a href="http://soundcloud.com/chloeburbank" rel="noopener nofollow"&gt;SoundCloud page.&lt;/a&gt; He explained in a &lt;a href="https://www.instagram.com/p/BAeMSDqtL99/?hl=en" rel="noopener nofollow"&gt;January 2016 Instagram post&lt;/a&gt;, he then decided to make his account public and released two singles from his then-upcoming project &lt;a href="https://genius.com/albums/Joji/Chloe-burbank-volume-1" rel="noopener" data-api_path="/albums/142155"&gt;&lt;em&gt;Chloe Burbank Volume 1:&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/Joji-you-suck-charlie-lyrics" rel="noopener" data-api_path="/songs/2407150"&gt;“you suck charlie”&lt;/a&gt; and &lt;a href="https://genius.com/Joji-thom-lyrics" rel="noopener" data-api_path="/songs/2407146"&gt;“thom.”&lt;/a&gt; While he kept releasing material on his SoundCloud page.&lt;/p&gt;\n\n&lt;p&gt;In April 2017, Joji released &lt;a href="https://genius.com/Joji-i-dont-wanna-waste-my-time-lyrics" rel="noopener" data-api_path="/songs/3067226"&gt;“i don’t wanna waste my time,”&lt;/a&gt; which was presumed to be the lead single from an upcoming project. However, in October 2017, he released &lt;a href="https://genius.com/Joji-will-he-lyrics" rel="noopener" data-api_path="/songs/3138313"&gt;“will he,”&lt;/a&gt; and soon after confirmed that song to be the lead single off his debut EP, &lt;a href="https://genius.com/albums/Joji/In-tongues" rel="noopener" data-api_path="/albums/374847"&gt;&lt;em&gt;In Tongues&lt;/em&gt;&lt;/a&gt;. The EP was released on November 3, 2017. To accompany the EP, he released three previously unreleased songs called &lt;a href="https://genius.com/albums/Joji/Lost-instruments" rel="noopener" data-api_path="/albums/377381"&gt;&lt;em&gt;Lost Instruments&lt;/em&gt;&lt;/a&gt; a week before &lt;em&gt;In Tongues&lt;/em&gt; came out.&lt;/p&gt;\n\n&lt;p&gt;On December 29th, 2017, he officially stated that he would retire from comedy and would no longer be making Filthy Frank videos due to mental and physical health concerns. However, he will still be working on other projects.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a5f720cb8a997468d298725982db203d.638x585x1.png" alt="" width="638" height="585" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Afterwards in 2018, he collaborated with various artists and released &lt;a href="https://genius.com/88rising-midsummer-madness-lyrics" rel="noopener" data-api_path="/songs/3730894"&gt;“Midsummer Madness”&lt;/a&gt; and &lt;a href="https://genius.com/88rising-peach-jam-lyrics" rel="noopener" data-api_path="/songs/3841895"&gt;“Peach Jam”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Blocboy-jb" rel="noopener" data-api_path="/artists/1254513"&gt;BlocBoy JB&lt;/a&gt;. Subsequently, on 26 October 2018, Joji released his debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Joji/Ballads-1" rel="noopener" data-api_path="/albums/429215"&gt;BALLADS 1&lt;/a&gt;&lt;/em&gt;. Its second single &lt;a href="https://genius.com/Joji-slow-dancing-in-the-dark-lyrics" rel="noopener" data-api_path="/songs/3716416"&gt;“SLOW DANCING IN THE DARK”&lt;/a&gt; became one of Joji’s most successful songs to date.&lt;/p&gt;\n\n&lt;p&gt;On September 25, 2020, he released his second studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Joji/Nectar" rel="noopener" data-api_path="/albums/537421"&gt;Nectar&lt;/a&gt;&lt;/em&gt;, the album includes previous singles such as &lt;a href="https://genius.com/Joji-sanctuary-lyrics" rel="noopener" data-api_path="/songs/4606292"&gt;“Sanctuary,”&lt;/a&gt; &lt;a href="https://genius.com/Joji-run-lyrics" rel="noopener" data-api_path="/songs/5209088"&gt;“Run,”&lt;/a&gt; and many more.&lt;/p&gt;\n\n&lt;p&gt;Joji has also released two comedic albums and various other less serious songs under the name &lt;a href="https://genius.com/artists/Pink-guy" rel="noopener" data-api_path="/artists/44083"&gt;Pink Guy.&lt;/a&gt; Pink Guy’s music is separated from Joji’s page and can be found &lt;a href="https://genius.com/artists/Pink-guy" rel="noopener" data-api_path="/artists/44083"&gt;here&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['George Kusunoki Miller', 'Joji Kusunoki', 'George Miller']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dragonette', 'annotations': {'description': '&lt;p&gt;Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal) and drummer Joel Stouffer.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Harry-styles', 'annotations': {'description': '&lt;p&gt;Harry Edward Styles (born February 1st, 1994) is a widely-recognized English singer, songwriter and up-and-coming actor. He rose to fame during his time with &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt;—a platinum-selling, world-renowned boy band. Since the band went on an indefinite hiatus in 2015, Styles has produced two chart-topping studio albums and launched his acting career. He is credited with writing music for &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt;, the 2018 rom-com &lt;a href="https://www.imdb.com/title/tt5164432/" rel="noopener nofollow"&gt;&lt;em&gt;Love, Simon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor&lt;/a&gt;, One Direction, himself and more.&lt;/p&gt;\n\n&lt;p&gt;Styles was born and raised in Holmes Chapel, Cheshire, with his sister, supported by their loving mother and step-father. Growing up, Styles always had a passion for singing; he would record covers on his karaoke machine as a kid and went on to be the lead singer of Manchester band &lt;a href="https://genius.com/artists/White-eskimo" rel="noopener" data-api_path="/artists/631564"&gt;White Eskimo&lt;/a&gt;. In 2010, 16-year-old Styles &lt;a href="https://www.youtube.com/watch?v=irKluYOMkI0" rel="noopener nofollow"&gt;auditioned&lt;/a&gt; as a solo artist on &lt;a href="http://www.imdb.com/title/tt0423776/" rel="noopener nofollow"&gt;&lt;em&gt;The X Factor&lt;/em&gt;&lt;/a&gt; before judge Simon Cowell grouped him with four other boys to form English-Irish pop boy band, One Direction.&lt;/p&gt;\n\n&lt;p&gt;In April 2017, two years after One Direction announced their hiatus, Styles dropped his debut solo single &lt;a href="https://genius.com/Harry-styles-sign-of-the-times-lyrics" rel="noopener" data-api_path="/songs/3040789"&gt;“Sign Of The Times”&lt;/a&gt; which was greeted with enormous praise as the song landed the number one spot on the charts in over twenty countries. Influenced by rock bands such as &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fleetwood-mac" rel="noopener" data-api_path="/artists/2579"&gt;Fleetwood Mac&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;The Rolling Stones&lt;/a&gt;, Harry Styles’s &lt;a href="https://genius.com/albums/Harry-styles/Harry-styles" rel="noopener" data-api_path="/albums/339829"&gt;self-titled debut album&lt;/a&gt; immediately shot to the top of the charts upon its release in May 2017, landing the number one position in 84 different countries along with selling a historic, record-breaking 230,000 album units. He now holds the title for the &lt;a href="https://www.rollingstone.com/music/music-news/on-the-charts-harry-styles-breaks-record-with-number-one-debut-196714/" rel="noopener nofollow"&gt;biggest debut sales week for a British male musician in the United States&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Two weeks before the release of his album, Styles took to &lt;a href="https://twitter.com/Harry_Styles/status/857928900839587840" rel="noopener nofollow"&gt;Twitter&lt;/a&gt; the announcement of his first solo world tour. A week before the world even heard the entirety of his album, &lt;a href="https://time.com/4769079/harry-styles-tour-sold-out/" rel="noopener nofollow"&gt;Styles’ world tour had sold out in under two minutes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In October 2019, &lt;a href="https://genius.com/Harry-styles-lights-up-lyrics" rel="noopener" data-api_path="/songs/4935579"&gt;“Lights Up”&lt;/a&gt; was released which &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;debuted at number three in the U.K.&lt;/a&gt; and served as the lead single for Styles\' second studio album, &lt;a href="https://genius.com/albums/Harry-styles/Fine-line" rel="noopener" data-api_path="/albums/568792"&gt;&lt;em&gt;Fine Line&lt;/em&gt;&lt;/a&gt;. “Lights Up” was followed by his second single &lt;a href="https://genius.com/Harry-styles-watermelon-sugar-lyrics" rel="noopener" data-api_path="/songs/5007939"&gt;“Watermelon Sugar,”&lt;/a&gt;, which became his &lt;a href="https://www.billboard.com/articles/business/chart-beat/9431815/harry-styles-watermelon-sugar-hot-100" rel="noopener nofollow"&gt;first No. 1 on Billboard Hot 100&lt;/a&gt;, and then his third single &lt;a href="https://genius.com/Harry-styles-adore-you-lyrics" rel="noopener" data-api_path="/songs/5037350"&gt;“Adore You,”&lt;/a&gt; went to &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;peak at number seven in the U.K. charts&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On December 13th 2019, Styles shared his highly-anticipated second album &lt;a href="https://genius.com/albums/Harry-styles/Fine-line" rel="noopener" data-api_path="/albums/568792"&gt;&lt;em&gt;Fine Line&lt;/em&gt;&lt;/a&gt;. It &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;topped the U.K.&lt;/a&gt; and U.S. charts. This made him the &lt;a href="https://www.iheart.com/content/2019-12-30-harry-styles-fine-line-reigns-with-second-week-at-no-1/" rel="noopener nofollow"&gt;first British male artist to have his first two albums debut at number one&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In between making music, Styles is sought after by award-winning directors. He appeared on the big screen as a WWII soldier in &lt;a href="http://www.imdb.com/name/nm0634240/" rel="noopener nofollow"&gt;Christopher Nolan&lt;/a&gt;’s &lt;a href="http://www.imdb.com/title/tt5013056/" rel="noopener nofollow"&gt;&lt;em&gt;Dunkirk&lt;/em&gt;&lt;/a&gt; (2017) within the same year he debuted as a solo artist. He is set to star as the male lead in &lt;a href="https://www.imdb.com/name/nm1312575/" rel="noopener nofollow"&gt;Olivia Wilde&lt;/a&gt;’s &lt;a href="https://www.imdb.com/title/tt10731256/" rel="noopener nofollow"&gt;&lt;em&gt;Don’t Worry Darling&lt;/em&gt;&lt;/a&gt;, as well as one of the male leads in [Michael Grandage’s] [&lt;em&gt;My Policeman&lt;/em&gt;], based on the novel of the same name by Bethan Roberts.&lt;/p&gt;', 'alternate_names': ['Harry Edward Styles', 'Harry E. Styles']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Razorlight', 'annotations': {'description': '&lt;p&gt;Razorlight are an English indie rock band formed in 2002 by lead singer and rhythm guitarist &lt;a href="https://genius.com/artists/johnny-borrell" rel="noopener" data-api_path="/artists/998952"&gt;Johnny Borrell&lt;/a&gt;. The band are primarily known in the UK, having topped the charts with the 2006 single &lt;a href="https://genius.com/razorlight-america-lyrics" rel="noopener" data-api_path="/songs/421323"&gt;“America.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ellie-goulding', 'annotations': {'description': '&lt;p&gt;Elena Jane “Ellie” Goulding (born 30 December 1986) – is an English singer-songwriter. In 2010, she became the second artist to both &lt;a href="http://news.bbc.co.uk/1/hi/entertainment/8442389.stm" rel="noopener nofollow"&gt;top the BBC’s annual Sound of… poll&lt;/a&gt; and win &lt;a href="http://www.brits.co.uk/britstv/2010-critics-choice-ellie-goulding" rel="noopener nofollow"&gt;the Critics\' Choice Award at the Brit Awards&lt;/a&gt; in the same year, following &lt;a href="https://genius.com/artists/Adele" rel="noopener" data-api_path="/artists/2300"&gt;Adele’s&lt;/a&gt; win of both in 2008. Originally her music incorporated elements of folk, pop, electronica, and folktronica.&lt;/p&gt;\n\n&lt;p&gt;In July 2009, Goulding signed with Polydor Records, and released her debut EP &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/An-introduction-to-ellie-goulding" rel="noopener" data-api_path="/albums/177255"&gt;An Introduction to Ellie Goulding&lt;/a&gt;&lt;/em&gt;, later that year. Her debut single, &lt;a href="https://genius.com/Ellie-goulding-under-the-sheets-lyrics" rel="noopener" data-api_path="/songs/157218"&gt;“Under The Sheets”&lt;/a&gt; was then released in November.&lt;/p&gt;\n\n&lt;p&gt;In 2010 Goulding recorded and released her debut record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Lights" rel="noopener" data-api_path="/albums/34852"&gt;Lights&lt;/a&gt;&lt;/em&gt;, which spawned four charting singles in the UK, the biggest of which “&lt;a href="https://genius.com/Ellie-goulding-starry-eyed-lyrics" rel="noopener" data-api_path="/songs/52959"&gt;Starry Eyes&lt;/a&gt;” peaked at #4 in the UK and charted in many European countries and Australia.&lt;/p&gt;\n\n&lt;p&gt;At the end of the year the album’s reissue &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Bright-lights" rel="noopener" data-api_path="/albums/18640"&gt;Bright Lights&lt;/a&gt;&lt;/em&gt; was released, and spawned two singles: &lt;a href="https://genius.com/Ellie-goulding-lights-lyrics" rel="noopener" data-api_path="/songs/79697"&gt;“Lights”&lt;/a&gt; and a cover of &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John’s&lt;/a&gt; “&lt;a href="https://genius.com/Ellie-goulding-your-song-lyrics" rel="noopener" data-api_path="/songs/198880"&gt;Your Song&lt;/a&gt;.” The former of which propelled Goulding into international stardom after becoming a sleeper hit in the United States, eventually peaking at #2 after almost a year of the song charting.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Goulding’s sophomore record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon" rel="noopener" data-api_path="/albums/20565"&gt;Halcyon&lt;/a&gt;&lt;/em&gt; was released, featuring lead single “&lt;a href="https://genius.com/Ellie-goulding-anything-could-happen-lyrics" rel="noopener" data-api_path="/songs/85737"&gt;“Anything Could Happen”&lt;/a&gt;, which was another U.S. hit.&lt;/p&gt;\n\n&lt;p&gt;It’s re-issue, &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon-days" rel="noopener" data-api_path="/albums/42358"&gt;Halcyon Days&lt;/a&gt;&lt;/em&gt; saw critical acclaim for Goulding’s happier lyrical content and musical exploration into EDM. Its lead single, &lt;a href="https://genius.com/Ellie-goulding-burn-lyrics" rel="noopener" data-api_path="/songs/183325"&gt;“Burn”&lt;/a&gt; was a top 20 hit in the United States, becoming a mega-success worldwide.&lt;/p&gt;\n\n&lt;p&gt;Goulding’s vocal connection with EDM has been explored through collaborations with &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;, on hits “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;,” and “&lt;a href="https://genius.com/Calvin-harris-outside-lyrics" rel="noopener" data-api_path="/songs/546962"&gt;Outside&lt;/a&gt;”, as well as songs with &lt;a href="https://genius.com/Major-lazer-powerful-lyrics" rel="noopener" data-api_path="/songs/1363351"&gt;Major Lazer&lt;/a&gt;, &lt;a href="https://genius.com/Clean-bandit-mama-lyrics" rel="noopener" data-api_path="/songs/3983995"&gt;Clean Bandit&lt;/a&gt;, &lt;a href="https://genius.com/Zedd-and-lucky-date-fall-into-the-sky-lyrics" rel="noopener" data-api_path="/songs/342832"&gt;Zedd&lt;/a&gt;, &lt;a href="https://genius.com/Ellie-goulding-stay-awake-lyrics" rel="noopener" data-api_path="/songs/198928"&gt;Madeon&lt;/a&gt;, and &lt;a href="https://genius.com/Kygo-and-ellie-goulding-first-time-lyrics" rel="noopener" data-api_path="/songs/3066143"&gt;Kygo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The beginning of 2015 began with Goulding releasing her biggest hit to date, &lt;a href="https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics/" rel="noopener" data-api_path="/songs/665379"&gt;“Love Me Like You Do”&lt;/a&gt;“ for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-of-grey-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/118063"&gt;50 Shades of Grey Soundtrack&lt;/a&gt;. The song was acclaimed by critics and peaked at #1 around the world and #3 in the United States. The song garnered her a Best Pop Solo Performance Grammy Nomination.&lt;/p&gt;\n\n&lt;p&gt;Goulding later re-upped on her pop game with 2015’s &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Delirium" rel="noopener" data-api_path="/albums/131217"&gt;Delirium&lt;/a&gt;&lt;/em&gt;. The album incorporated Goulding’s affiliation with club bangers and explored a poppier sound than her original albums. The album’s lead single &lt;a href="https://genius.com/Ellie-goulding-on-my-mind-lyrics/" rel="noopener" data-api_path="/songs/2308425"&gt;“On My Mind”&lt;/a&gt; became an international success, and received media attention as speculated to be an answer song to &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; “&lt;a href="https://genius.com/Ed-sheeran-dont-lyrics" rel="noopener" data-api_path="/songs/403031"&gt;Don’t.&lt;/a&gt;” The album’s third single, &lt;a href="https://genius.com/%28/Ellie-goulding-something-in-the-way-you-move-lyrics/" rel="noopener"&gt;“Something In The Way You Move”&lt;/a&gt; was another hit, peaking at #43 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2018 saw Goulding prepare for her fourth record. “&lt;a href="https://genius.com/Ellie-goulding-and-diplo-close-to-me-lyrics" rel="noopener" data-api_path="/songs/4037296"&gt;Close To Me&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and featuring &lt;a href="https://genius.com/artists/Swae-lee" rel="noopener" data-api_path="/artists/209139"&gt;Swae Lee&lt;/a&gt; saw success, peaking at #24 in the U.S, and she followed these up with 2019’s “&lt;a href="https://genius.com/Ellie-goulding-flux-lyrics" rel="noopener" data-api_path="/songs/4202475"&gt;Flux&lt;/a&gt;” and “&lt;a href="https://genius.com/Ellie-goulding-sixteen-lyrics" rel="noopener" data-api_path="/songs/4427896"&gt;Sixteen&lt;/a&gt;” which are assumed to be album singles.&lt;/p&gt;', 'alternate_names': ['Elena Jane Goulding']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kenny-loggins', 'annotations': {'description': '&lt;p&gt;Singer, songwriter, and guitarist Kenny Loggins has enjoyed more than three decades of success in the music business, as a songwriter and performer, mostly in a soft rock vein. He was born Kenneth Clarke Loggins in Everett, WA in early 1948, and the family later moved to Detroit, and finally to Alhambra, CA when he was in his teens. He initially turned to music as a way of compensating for his extreme shyness, and found that he was, indeed, a talented guitarist and had a voice. For a time in the late ‘60s he was based in Pasadena, studying at Pasadena City College. At the end of the decade, Loggins passed through the lineup of a band called Gator Creek, who were good enough to get signed to Mercury Records. The group recorded one self-titled album, which was issued in 1970 and included an early version of “Danny’s Song,” a track that he later recorded again as part of Loggins &amp;amp; Messina. He also spent time with a short-lived group called Second Helping, and was a member of the stage incarnation of the Electric Prunes during a later phase of that group’s history.&lt;br&gt;\nLoggins was proficient on the guitar and piano, but it was his songwriting that allowed him to make his first lasting impression on the music industry. He took a job as a staff writer for Wingate Music, for $100.00 a week, and later that year four of his songs ended up on the Nitty Gritty Dirt Band album Uncle Charlie &amp;amp; His Dog Teddy. This event was particularly fortuitous, as that album was the first release by the newly reconstituted version of the group, and included what proved to be their biggest hit, “Mr. Bojangles.” The presence of the latter helped make Uncle Charlie one of the group’s biggest selling long-players; and the exposure generated a second hit in the form of Loggins’ own “House at Pooh Corner.”&lt;br&gt;\nThe success of the Nitty Gritty Dirt Band’s recordings brought Loggins to the attention of former Poco member Jim Messina, who was working as a staff producer at CBS. It was Messina’s intention to produce Loggins\' debut album, but he also ended up playing and singing on the record, and it worked out so well that the two ended up in a duo. Loggins &amp;amp; Messina were among the most popular folk-based soft rock acts of the first half of the ‘70s and enjoyed a four-year string of successful albums.&lt;br&gt;\nLoggins &amp;amp; Messina broke up in 1976, and Loggins retained a strong following in the years immediately after. He went on to solo stardom with such million-selling albums as Celebrate Me Home, Nightwatch (which included the hit “Whenever I Call You Friend”), and Keep the Fire, all in the cheerful, sensitive style he had displayed in Loggins &amp;amp; Messina. Loggins also became known as the king of the movie soundtrack song, scoring Top Ten hits with “I’m Alright” (from Caddyshack), “Footloose” (from Footloose), “Danger Zone” (from Top Gun), and “Nobody’s Fool” (from Caddyshack II). During this period, he was also one of the participants in USA for Africa on the benefit recording “We Are the World.” His own albums sold less well (and came less frequently) throughout the \'80s, with later efforts like 1991’s Leap of Faith, 1997’s The Unimaginable Life, and 1998’s December finding favor primarily in adult contemporary circles; in 1994, he also issued a children’s album, Return to Pooh Corner, and released its sequel, More Songs from Pooh Corner, in early 2000. He reunited with Messina in 2005 for a successful tour, album, and concert video, and in 2007, Loggins released How About Now, his first new solo album in four years. It was followed by All Join In in 2009. ~ William Ruhlmann &amp;amp; Bruce Eder, Rovi&lt;/p&gt;\n\n&lt;p&gt;(Retrieved 12/21/15 from &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="http://www.billboard.com/artist/305726/kenny-loggins/biography"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://i.genius.com/c2d069d55c90776f5b2646d3adb0b14c5f8f2bf0?url=http%3A%2F%2Fwww.billboard.com%2Ffiles%2Fstyles%2Fmagazine_cover%2Fpublic%2Fmedia%2Fbb10-nicky-jam-j-balvin-2017-billboard-225.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Kenny Loggins - Biography | Billboard&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Billboard&lt;/span&gt;\n      \n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;)', 'alternate_names': ['Kenneth Loggins', 'Kenneth C. Loggins', 'Kenneth Clark Loggins']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Phum-viphurit', 'annotations': {'description': '&lt;p&gt;Phum Viphurit is a Thai born, New Zealand raised, Bangkok resident singer-songwriter.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lady-gaga', 'annotations': {'description': '&lt;p&gt;Stefani Joanne Angelina Germanotta, better known by her stage name Lady Gaga, is an American singer, songwriter and actress. She is known for her flamboyant fashion statements and live performances. Although her music is easily mistaken as vapid, it often has a self-empowering message.&lt;/p&gt;\n\n&lt;p&gt;She started working for Interscope Records when she was 20 years old, writing songs for &lt;a href="https://genius.com/artists/The-pussycat-dolls" rel="noopener" data-api_path="/artists/8390"&gt;The Pussycat Dolls&lt;/a&gt;, among others. From there, she became one of the biggest pop stars in the world, ranking in numerous #1 albums and singles along with a variety of awards.&lt;/p&gt;\n\n&lt;p&gt;She has acted in several movies and TV shows. In 2016, she won a Golden Globe Award for Best Actress in a Miniseries or Television Film for her portrayal of Elizabeth, a lead character in the fifth season of &lt;a href="http://www.imdb.com/title/tt1844624/" rel="noopener nofollow"&gt;&lt;em&gt;American Horror Story&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;em&gt;Fun Fact:&lt;/em&gt;&lt;/strong&gt; The &lt;a href="http://www.billboard.com/articles/news/958922/lady-gaga-sued-by-producer-rob-fusari" rel="noopener nofollow"&gt;“Lady Gaga” moniker&lt;/a&gt; was created by her former boyfriend and producer &lt;a href="https://genius.com/artists/Rob-fusari" rel="noopener" data-api_path="/artists/51436"&gt;Rob Fusari&lt;/a&gt;—he sent a text message with an autocorrected version of &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt;’s song &lt;a href="https://genius.com/Queen-radio-ga-ga-lyrics" rel="noopener" data-api_path="/songs/309595"&gt;“Radio Ga Ga”&lt;/a&gt; (a song he sang every time she entered the studio).&lt;/p&gt;', 'alternate_names': ['Mother Monster', 'Stefani Germanotta Band', 'Stefani Germanotta', 'Stefani Joanne Angelina Germanotta', 'Gaga']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-strokes', 'annotations': {'description': '&lt;p&gt;The Strokes burst onto the scene at a time when rock fans were desperate for an alternative to the rap-rock that was dominating the airwaves. That the band lived up to expectations after being hailed ‘saviors of guitar rock’ solely based on the strength of a &lt;a href="https://genius.com/albums/The-strokes/The-modern-age" rel="noopener" data-api_path="/albums/117472"&gt;three song EP&lt;/a&gt; is a testament to the quality of their flawless debut, July 2001’s &lt;a href="https://genius.com/albums/The-strokes/Is-this-it" rel="noopener" data-api_path="/albums/14191"&gt;&lt;em&gt;Is This It&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Ultimately, they are a band that truly relies on the strength of the entire group: lead singer &lt;a href="https://genius.com/artists/Julian-casablancas" rel="noopener" data-api_path="/artists/34880"&gt;Julian Casablancas&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Nick-valensi" rel="noopener" data-api_path="/artists/391343"&gt;Nick Valensi&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Fabrizio-moretti" rel="noopener" data-api_path="/artists/154667"&gt;Fabrizio Moretti&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Albert-hammond-jr" rel="noopener" data-api_path="/artists/108780"&gt;Albert Hammond Jr.&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Nikolai-fraiture" rel="noopener" data-api_path="/artists/977801"&gt;Nikolai Fraiture&lt;/a&gt;. However, much of The Strokes\' output has been influenced by the domineering vision of Casablancas\' songwriting.&lt;/p&gt;\n\n&lt;p&gt;Before he took a small step back on their third album, January 2006’s &lt;a href="https://genius.com/albums/The-strokes/First-impressions-of-earth" rel="noopener" data-api_path="/albums/17768"&gt;&lt;em&gt;First Impressions of Earth&lt;/em&gt;&lt;/a&gt;, and then &lt;a href="http://www.vulture.com/2011/03/the_strokes_didnt_have_a_ton_o.html" rel="noopener nofollow"&gt;isolated himself&lt;/a&gt; to record March 2011’s &lt;a href="https://genius.com/albums/The-strokes/Angles" rel="noopener" data-api_path="/albums/19858"&gt;&lt;em&gt;Angles&lt;/em&gt;&lt;/a&gt;, Casablancas was involved in almost every step of The Strokes\' recording process. He wrote all of the lyrics and the music on their first two albums and was constantly involved in the mixing of the records.&lt;/p&gt;\n\n&lt;p&gt;While they may have a reputation as a group who started to fizzle out after a knock-out debut, the real story is one of evolution and reinvention. After their sophomore album, October 2003’s &lt;a href="https://genius.com/albums/The-strokes/Room-on-fire" rel="noopener" data-api_path="/albums/14617"&gt;&lt;em&gt;Room on Fire&lt;/em&gt;&lt;/a&gt;, was generally praised for the band’s technical improvements but treated as an imitation of their debut, the band pushed in a new direction on each of their following releases. &lt;em&gt;First Impressions of Earth&lt;/em&gt; and &lt;em&gt;Angles&lt;/em&gt; isolated some of the darkness and light that coexisted on the first two records, while March 2013’s &lt;a href="https://genius.com/albums/The-strokes/Comedown-machine" rel="noopener" data-api_path="/albums/28335"&gt;&lt;em&gt;Comedown Machine&lt;/em&gt;&lt;/a&gt; retained the energy of the group’s earlier days, yet also featured a more chilled-out, lo-fi atmosphere. Even the group’s June 2016 four-song EP, &lt;a href="https://genius.com/albums/The-strokes/Future-present-past" rel="noopener" data-api_path="/albums/153765"&gt;&lt;em&gt;Future Present Past&lt;/em&gt;&lt;/a&gt;, conveyed a group that would rather make bold shifts in sound than recycle the music that endeared them to so many.&lt;/p&gt;\n\n&lt;p&gt;On April 10 2020, The Strokes\' released their 6th studio album, &lt;em&gt;The New Abnormal&lt;/em&gt;, produced by Rick Rubin. The album received &lt;a href="https://www.metacritic.com/music/the-new-abnormal/the-strokes/critic-reviews" rel="noopener nofollow"&gt;generally positive reviews&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Everclear', 'annotations': {'description': '&lt;p&gt;Everclear is an alternative rock band formed in Portland, Oregan in 1995 by (lead vocalist, guitarist, and songwriter)  &lt;a href="https://genius.com/Art-Alexis" rel="noopener"&gt;Art Alexkis&lt;/a&gt;. With nine studio albums from 1995 to 2015, Art used many combinations of band members throughout the years (even performing solo briefly).&lt;/p&gt;\n\n&lt;p&gt;During the height of their popularity; Alexkis, &lt;a href="https://genius.com/Craig-Montoya" rel="noopener"&gt;Craig Montoya&lt;/a&gt; (bass guitar) and &lt;a href="https://genius.com/Greg-Eklund" rel="noopener"&gt;Greg Eklund&lt;/a&gt; (drums) independantly released the band’s debut album, &lt;em&gt;White Noise&lt;/em&gt; before signing with Capital Records. The first three albums all went certified platinum: &lt;em&gt;Sparkle and Fade&lt;/em&gt;, &lt;em&gt;So Much for the Afterglow&lt;/em&gt;, and &lt;em&gt;Songs from an American Movie Vol. One: Learning How to Smile&lt;/em&gt;.&lt;a href="http://www.wikipedia.com/Everclear" rel="noopener nofollow"&gt;1&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;However, the following two albums, &lt;em&gt;Songs from an American Movie Vol. Two: Good Time for a Bad Attitude&lt;/em&gt; and &lt;em&gt;Slow Motion Daydream&lt;/em&gt;, were not as popular, and sales suffered, prompting Montoya and Eklund to leave the band shortly after in 2003.&lt;/p&gt;\n\n&lt;p&gt;After a short time of performing solo, Alexkis got new bandmates, and Everclear released two more studio albums, &lt;em&gt;Welcome to the Drama Club&lt;/em&gt; and &lt;em&gt;Invisible Stars&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Alexakis started the Summerland Tour. Every summer,  Everclear, along with other 1990s alternative rock bands, to playing to loyal fans who love the genre.&lt;/p&gt;\n\n&lt;p&gt;In April 2015, &lt;em&gt;Black is the New Black&lt;/em&gt; was released; the ninth studio album.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Disturbed', 'annotations': {'description': '&lt;p&gt;Disturbed is an American heavy metal band formed in 1994 (named Brawl at this time) from Chicago, Illinois. In 1996 singer Erich Awalt was replaced by David Draiman and the band was renamed “Disturbed”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed is most famously known for their songs “&lt;a href="https://genius.com/Disturbed-down-with-the-sickness-lyrics" rel="noopener" data-api_path="/songs/97449"&gt;Down With The Sickness&lt;/a&gt;” and their cover of “&lt;a href="https://genius.com/Disturbed-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/2282530"&gt;The Sound of Silence&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed went on hiatus in July 2011, to get a break from touring, but started to miss it and engaged in some side projects; &lt;a href="https://genius.com/artists/Device" rel="noopener" data-api_path="/artists/170170"&gt;Device&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fight-or-flight" rel="noopener" data-api_path="/artists/343727"&gt;Fight Or Flight&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adrenaline-mob" rel="noopener" data-api_path="/artists/329908"&gt;Adrenaline Mob&lt;/a&gt; and &lt;a href="https://genius.com/artists/Art-of-anarchy" rel="noopener" data-api_path="/artists/1019795"&gt;Art Of Anarchy&lt;/a&gt;.&lt;br&gt;\nDisturbed returned in 2015 announcing their return with their new album – &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Immortalized" rel="noopener" data-api_path="/albums/126740"&gt;Immortalized&lt;/a&gt;&lt;/em&gt;, which was recorded in secret and releasing the first single from the album, “&lt;a href="https://genius.com/Disturbed-the-vengeful-one-lyrics" rel="noopener" data-api_path="/songs/2149822"&gt;The Vengeful One&lt;/a&gt;,” in advance.&lt;br&gt;\n&lt;em&gt;Immortalized&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6678673/disturbed-scores-fifth-no-1-album-on-billboard-200-chart" rel="noopener nofollow"&gt;Disturbed’s fifth straight No. 1-debuting studio album on Billboard 200&lt;/a&gt;, making them the third group in history to have achieved five consecutive studio albums at No. 1. The other two being &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/David-draiman" rel="noopener" data-api_path="/artists/71550"&gt;David Draiman&lt;/a&gt; – vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dan-donegan" rel="noopener" data-api_path="/artists/177598"&gt;Dan Donegan&lt;/a&gt; – guitar, keyboards&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-moyer" rel="noopener" data-api_path="/artists/684586"&gt;John Moyer&lt;/a&gt; – bass, backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-wengren" rel="noopener" data-api_path="/artists/177599"&gt;Mike Wengren&lt;/a&gt; – drums&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Pop-evil', 'annotations': {'description': '&lt;p&gt;Pop Evil is an American rock band that was formed in North Muskegon, Michigan in 2001 by Leigh Kakaty. He then added Dave Grahs, Dylan Allison, and Jamie Nummer.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Seether', 'annotations': {'description': '&lt;p&gt;Seether is a rock band founded in Pretoria, South Africa, 1999.&lt;/p&gt;\n\n&lt;p&gt;The band originally performed under the name Saron Gas until 2002, when they moved to the United States and changed it to Seether, after the &lt;a href="https://genius.com/artists/Veruca-salt" rel="noopener" data-api_path="/artists/356519"&gt;Veruca Salt&lt;/a&gt; song, to avoid confusion with the deadly chemical known as &lt;a href="https://emergency.cdc.gov/agent/sarin/basics/facts.asp" rel="noopener nofollow"&gt;sarin gas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They gained mainstream popularity in 2002 with their single &lt;a href="https://genius.com/Seether-fine-again-lyrics" rel="noopener" data-api_path="/songs/99710"&gt;“Fine Again,”&lt;/a&gt; and their success was sustained in 2004 with the single &lt;a href="https://genius.com/Seether-broken-lyrics" rel="noopener" data-api_path="/songs/2422300"&gt;“Broken”&lt;/a&gt; which peaked at #20 on the &lt;a href="https://www.billboard.com/music/seether/chart-history/hot-100/song/431934" rel="noopener nofollow"&gt;Billboard Hot 100&lt;/a&gt;. They have experienced continued success with hits such as &lt;a href="https://genius.com/Seether-remedy-lyrics" rel="noopener" data-api_path="/songs/741588"&gt;“Remedy,”&lt;/a&gt; &lt;a href="https://genius.com/Seether-fake-it-lyrics" rel="noopener" data-api_path="/songs/192151"&gt;“Fake It,”&lt;/a&gt; and &lt;a href="https://genius.com/Seether-words-as-weapons-lyrics" rel="noopener" data-api_path="/songs/419632"&gt;“Words as Weapons”&lt;/a&gt; to name a few.&lt;/p&gt;\n\n&lt;p&gt;They won ‘Artist of the Year’ and ‘Best Alternative Artist’ at the 2008 &lt;a href="http://www.mtv.com/vma" rel="noopener nofollow"&gt;MTV Africa Music Awards&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Saron Gas']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Starset', 'annotations': {'description': '&lt;p&gt;Starset is an American-based concept band, passing on the stories of the Starset Society.&lt;/p&gt;\n\n&lt;p&gt;They released their debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Starset/Transmissions" rel="noopener" data-api_path="/albums/115025"&gt;Transmissions&lt;/a&gt;&lt;/em&gt; on July 8, 2014 along with its biggest single &lt;a href="https://genius.com/Starset-my-demons-lyrics" rel="noopener" data-api_path="/songs/562640"&gt;“My Demons”&lt;/a&gt;. Their second studio album &lt;em&gt;&lt;a href="https://genius.com/Starset-my-demons-lyrics" rel="noopener" data-api_path="/songs/562640"&gt;Vessels&lt;/a&gt;&lt;/em&gt; came on January 20, 2017 and it featured their most popular song to date &lt;a href="https://genius.com/Starset-monster-lyrics" rel="noopener" data-api_path="/songs/2894841"&gt;“Monster”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their third studio album called “DIVISIONS” was released on September 13, 2019, including songs like “MANIFEST”.&lt;/p&gt;\n\n&lt;p&gt;The band’s current members are:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;Dustin Bates on rhythm guitar, keyboard and lead vocals&lt;/li&gt;\n&lt;li&gt;Ron DeChant on bass, keyboard, and backup vocals&lt;/li&gt;\n&lt;li&gt;Brock Richards on lead guitar and backup vocals&lt;/li&gt;\n&lt;li&gt;Adam Gilbert on drums&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Highly-suspect', 'annotations': {'description': '&lt;p&gt;Highly Suspect is a rock music quartet from Massachusetts.  Forming in 2009 as a cover band, playing music from bands such as &lt;a href="https://genius.com/artists/Sublime" rel="noopener" data-api_path="/artists/659"&gt;Sublime&lt;/a&gt; and &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;, they soon began releasing their own music.&lt;/p&gt;\n\n&lt;p&gt;In 2019, as a prelude to the release of their fourth album titled ‘MCID’, the original three members – Johnny Stevens (Vocals, Electric Guitar), Rich Meyer (Bass) and Ryan Meyer (Drums) – were joined by their best friend Matt Kofos who became their second guitarist. Matt had previously been the band’s drum tech, and was the 2nd guitarist on tour.&lt;/p&gt;\n\n&lt;p&gt;After four EPs and three albums, the band has evolved yet kept an original style of music, making it difficult to find any specific influences. Taking a break from their focus on rock in the previous albums, the fourth album, ‘MCID’, also features prominent Hip-Hop and Rap influences. Frontman Johnny Stevens &lt;a href="http://rockrevoltmagazine.com/interview-and-show-review-highly-suspect/" rel="noopener nofollow"&gt;described&lt;/a&gt; their musical influences as:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Every type of music you can think of! We listened to everything from Hip Hop to Reggae to Electronic to Rock to Jazz to Classical – just music in general. We try to take the best parts of things that we like and incorporate it into what we’re doing.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red-sun-rising', 'annotations': {'description': '&lt;p&gt;Red Sun Rising, stylized as RED SUN RISING,is an American rock band from Akron, Ohio. The band often uses the hashtag #WeAreThread, which is said to be the name of the genre of music they would like to represent.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hellyeah', 'annotations': {'description': '&lt;p&gt;Hellyeah is an American heavy metal supergroup, consisting of &lt;a href="https://genius.com/artists/Mudvayne" rel="noopener" data-api_path="/artists/67442"&gt;Mudvayne&lt;/a&gt; vocalist Chad Gray, former &lt;a href="https://genius.com/artists/Nothingface" rel="noopener" data-api_path="/artists/359401"&gt;Nothingface&lt;/a&gt; guitarist Tom Maxwell, bass player Kyle Sanders, guitarist Christian Brady and &lt;a href="https://genius.com/artists/stone-sour" rel="noopener" data-api_path="/artists/59680"&gt;Stone Sour&lt;/a&gt; drummer Roy Mayorga. The idea to form a supergroup originated in 2000 on the Tattoo the Earth tour, although plans were constantly put on hold due to scheduling conflicts. The summer of 2006 allowed the band to take the project seriously and record its first album. Recorded at Chasin\' Jason studio in Dimebag Darrell’s backyard, a self-titled album was completed in roughly one month. Released on April 10, 2007, the album entered the Billboard 200 at number 9, selling 45,000 copies.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rise-against', 'annotations': {'description': '&lt;p&gt;Rise Against is an American punk rock band from Chicago, Illinois, formed in December 1999. The band currently consists of &lt;a href="https://genius.com/artists/Tim-mcilrath" rel="noopener" data-api_path="/artists/2421"&gt;Tim McIlrath&lt;/a&gt; (lead vocals, rhythm guitar), &lt;a href="https://genius.com/artists/Zach-blair" rel="noopener" data-api_path="/artists/1232435"&gt;Zach Blair&lt;/a&gt; (lead guitar, backing vocals), &lt;a href="https://genius.com/artists/Joe-principe" rel="noopener" data-api_path="/artists/1033459"&gt;Joe Principe&lt;/a&gt; (bass guitar, backing vocals) and &lt;a href="https://genius.com/artists/Brandon-barnes" rel="noopener" data-api_path="/artists/205662"&gt;Brandon Barnes&lt;/a&gt; (drums, percussion).&lt;/p&gt;\n\n&lt;p&gt;The band is known for its advocacy of progressive organizations such as Amnesty International and It Gets Better Project. The band actively promotes animal rights and all members are straight edge (excluding Barnes), PETA supporters, and vegetarians.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avatar-the-last-airbender', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is an American animated television series that aired for three seasons (referred to as “books” in each episode’s title card) on &lt;a href="http://www.nick.com/" rel="noopener nofollow"&gt;Nickelodeon&lt;/a&gt; from 2005 to 2008.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is set in an Asiatic world in which some people are able to manipulate the classical elements by use of psychokinetic variants of Chinese martial arts, known as “bending”. The show combines the styles of anime and American cartoons, and relies on the imagery of various East Asian, Inuit, Southeast Asian, South Asian, and New World societies.&lt;/p&gt;\n\n&lt;p&gt;The series follows the adventures of protagonist twelve-year-old &lt;a href="http://avatar.wikia.com/wiki/Aang" rel="noopener nofollow"&gt;Aang&lt;/a&gt;, the Avatar, and his friends, who must bring peace and unity to the world by ending the &lt;a href="http://avatar.wikia.com/wiki/Ozai" rel="noopener nofollow"&gt;Fire Lord&lt;/a&gt;’s war against the other three nations.&lt;/p&gt;\n\n&lt;p&gt;In 2012, a sequel, &lt;em&gt;&lt;a href="https://genius.com/artists/The-legend-of-korra" rel="noopener" data-api_path="/artists/986116"&gt;The Legend of Korra&lt;/a&gt;&lt;/em&gt;, aired in Nickelodeon, set 70 years after the end of the series.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bullet-for-my-valentine', 'annotations': {'description': '&lt;p&gt;Bullet For My Valentine are a Welsh heavy metal band, formed in 1998 under the name &lt;a href="https://genius.com/artists/Jeff-killed-john" rel="noopener" data-api_path="/artists/1493923"&gt;‘Jeff Killed John’&lt;/a&gt;. The band changed their name in 2003 in addition to reworking their musical style and image.&lt;/p&gt;\n\n&lt;p&gt;Bullet For My Valentine’s music has often been labelled as heavy metal, metalcore and hard rock although it is difficult to place them in a specific genre. For example, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; is a mix of heavy metal and metalcore with lots of thrash metal influences. On the other hand, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; sees the band stepping out of their comfort zone by infusing electronical elements with their instruments, resulting in a new and unique sound, yet still recognisable.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet for My Valentine&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Hand-of-blood" rel="noopener" data-api_path="/albums/240662"&gt;&lt;em&gt;Hand of Blood&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/The-poison" rel="noopener" data-api_path="/albums/28088"&gt;&lt;em&gt;The Poison&lt;/em&gt;&lt;/a&gt; (2005)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Rare-cuts" rel="noopener" data-api_path="/albums/234956"&gt;&lt;em&gt;Rare Cuts&lt;/em&gt; EP&lt;/a&gt; (2007)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Fever" rel="noopener" data-api_path="/albums/40634"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Temper-temper" rel="noopener" data-api_path="/albums/86401"&gt;&lt;em&gt;Temper Temper&lt;/em&gt;&lt;/a&gt; (2013)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Venom" rel="noopener" data-api_path="/albums/124763"&gt;&lt;em&gt;Venom&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; (2018)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet For My Valentine&lt;/em&gt;&lt;/a&gt; (2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-tuck" rel="noopener" data-api_path="/artists/1221735"&gt;&lt;strong&gt;Matt Tuck&lt;/strong&gt;&lt;/a&gt;: Lead Vocals, Rhythm Guitar (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Michael-padge-paget" rel="noopener" data-api_path="/artists/1493991"&gt;&lt;strong&gt;Michael “Padge” Paget&lt;/strong&gt;&lt;/a&gt;: Lead Guitar, Backing Vocals (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jamie-mathias" rel="noopener" data-api_path="/artists/1506712"&gt;&lt;strong&gt;Jamie Mathias&lt;/strong&gt;&lt;/a&gt;: Bass, Vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-bowld" rel="noopener" data-api_path="/artists/1492103"&gt;&lt;strong&gt;Jason Bowld&lt;/strong&gt;&lt;/a&gt;: Drums (2017–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Michael-moose-thomas" rel="noopener" data-api_path="/artists/1493992"&gt;Michael “Moose” Thomas&lt;/a&gt;: Drums (1998–2016)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-jay-james" rel="noopener" data-api_path="/artists/1494007"&gt;Jason “Jay” James&lt;/a&gt;: Bass, Backing Vocals (2003–2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/7ff6c48f799e64087701a832831942a5.1000x760x1.png" alt="" width="1000" height="760" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;Padge, Matt, Jason &amp;amp; Jamie&lt;/center&gt;\n&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BFMV']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/All-that-remains', 'annotations': {'description': '&lt;p&gt;All That Remains is an American metal band that was formed in 1998 by frontman &lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;Phil Labonte&lt;/a&gt;. The band initially started off as a side project for Labonte whilst he was the vocalist for &lt;a href="https://genius.com/artists/Shadows-fall" rel="noopener" data-api_path="/artists/186967"&gt;Shadows Fall&lt;/a&gt;, another metal band from Massachusetts, but became his full time focus after leaving in 1999.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Behind-silence-and-solitude" rel="noopener" data-api_path="/albums/245604"&gt;&lt;em&gt;Behind Silence and Solitude&lt;/em&gt;&lt;/a&gt; (2002)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/This-darkened-heart" rel="noopener" data-api_path="/albums/245953"&gt;&lt;em&gt;This Darkened Heart&lt;/em&gt;&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-fall-of-ideals" rel="noopener" data-api_path="/albums/160837"&gt;&lt;em&gt;The Fall of Ideals&lt;/em&gt;&lt;/a&gt; (2006)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Overcome" rel="noopener" data-api_path="/albums/87449"&gt;&lt;em&gt;Overcome&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/For-we-are-many" rel="noopener" data-api_path="/albums/122296"&gt;&lt;em&gt;For We Are Many&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/A-war-you-cannot-win" rel="noopener" data-api_path="/albums/79877"&gt;&lt;em&gt;A War You Cannot Win&lt;/em&gt;&lt;/a&gt; (2012)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-order-of-things" rel="noopener" data-api_path="/albums/229242"&gt;&lt;em&gt;The Order of Things&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Madness" rel="noopener" data-api_path="/albums/336822"&gt;&lt;em&gt;Madness&lt;/em&gt;&lt;/a&gt; (2017)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Victim-of-the-new-disease" rel="noopener" data-api_path="/albums/462333"&gt;&lt;em&gt;Victim of the New Disease&lt;/em&gt;&lt;/a&gt; (2018)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members&lt;/strong&gt;:&lt;br&gt;\n&lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;&lt;strong&gt;Phil Labonte&lt;/strong&gt;&lt;/a&gt; – Lead vocals (1998–present), Piano (2003–2004)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-martin-all-that-remains" rel="noopener" data-api_path="/artists/1002171"&gt;&lt;strong&gt;Mike Martin&lt;/strong&gt;&lt;/a&gt; – Rhythm Guitar (2004–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-costa" rel="noopener" data-api_path="/artists/1002168"&gt;&lt;strong&gt;Jason Costa&lt;/strong&gt;&lt;/a&gt; – Drums (2007–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Aaron-patrick" rel="noopener" data-api_path="/artists/1494706"&gt;&lt;strong&gt;Aaron Patrick&lt;/strong&gt;&lt;/a&gt; – Bass, Backing vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-richardson" rel="noopener" data-api_path="/artists/977977"&gt;&lt;strong&gt;Jason Richardson&lt;/strong&gt;&lt;/a&gt; – Lead Guitar (2018–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oli-herbert" rel="noopener" data-api_path="/artists/1002169"&gt;Oli Herbert&lt;/a&gt; – Lead Guitar (1998–2018)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jeanne-sagan" rel="noopener" data-api_path="/artists/1493860"&gt;Jeanne Sagan&lt;/a&gt; – Bass, Backing vocals (2006–2015)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Shannon-lucas" rel="noopener" data-api_path="/artists/656082"&gt;Shannon Lucas&lt;/a&gt; – Drums (2006)&lt;br&gt;\nMichael Bartlett – Drums (1998–2006)&lt;br&gt;\nMatt Deis – Bass (2003–2005)&lt;br&gt;\nChris Bartlett – Rhythm Guitar (1998–2004)&lt;br&gt;\nDan Egan – Bass (1998–2003)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4cab701c551fd2f3faf3013f57ab7bf5.700x400x1.jpg" alt="" width="700" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;center&gt;&lt;small&gt;Jason R, Mike, Phil, Jason C and Aaron&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/center&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Killswitch-engage', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.allmusic.com/artist/killswitch-engage-mn0000771792/biography" rel="noopener nofollow"&gt;Killswitch Engage&lt;/a&gt; formed in 1999, in Westfield, Massachusetts, after the disbanding of the two bands &lt;a href="https://genius.com/artists/Overcast" rel="noopener" data-api_path="/artists/368028"&gt;Overcast&lt;/a&gt; and &lt;a href="https://genius.com/artists/Aftershock" rel="noopener" data-api_path="/artists/349564"&gt;Aftershock&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1998 when Overcast split, D\'Antonio started his search to find the right people to fuse hardcore and metal with melody.&lt;br&gt;\nD\'Antonio got in contact with Adam Dutkiewicz, and Joel Stroetzel, the drummer respectively guitarist for Aftershock. The band was completed when Jesse Leach, vocalist for Corrin and Nothing Stays Gold joined.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://m.axs.com/5-interesting-facts-about-killswitch-engage-46963" rel="noopener nofollow"&gt;The band’s name&lt;/a&gt; comes from an episode of the television series &lt;em&gt;The X-Files&lt;/em&gt; entitled “Kill Switch”.&lt;/p&gt;\n\n&lt;p&gt;After the release of their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Killswitch-engage/Alive-or-just-breathing" rel="noopener" data-api_path="/albums/54976"&gt;Alive Or Just Breathing&lt;/a&gt;&lt;/em&gt; and the following tour, in 2002 – &lt;a href="https://web.archive.org/web/20071225194310/http://www.roadrunnerrecords.com/blabbermouth.net/news.aspx?mode=Article&amp;amp;newsitemID=4557" rel="noopener nofollow"&gt;Jesse Leach quit Killswitch Engage&lt;/a&gt; due to struggles with straining his voice combined with being a newly-wed, with his wife missing him.&lt;br&gt;\nLeach was soon replaced by &lt;a href="https://genius.com/artists/Howard-jones-rock" rel="noopener" data-api_path="/artists/1157271"&gt;Howard Jones&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After nine years of service and taking the band to fame, &lt;a href="https://web.archive.org/web/20120108163920/http://www.metalhammer.co.uk/top-posts/howard-jones-leaves-killswitch-engage" rel="noopener nofollow"&gt;Howard quit the band in 2012&lt;/a&gt;. &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/howard_jones_explains_killswitch_engage_departure.html?no_takeover" rel="noopener nofollow"&gt;He later stated&lt;/a&gt; it was due to the heretic lifestyle in combination with his diabetes.&lt;/p&gt;\n\n&lt;p&gt;To replace Howard, the band held auditions for a new vocalist. They had a lot of applicants at try-outs, &lt;a href="http://www.radiometal.com/article/killswitch-engage-jesse-leachs-return-as-seen-by-adam-dutkiewicz,103989" rel="noopener nofollow"&gt;but they wound choosing their former vocalist – Jesse Leach&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skillet', 'annotations': {'description': '&lt;p&gt;Skillet is a heavy rock band from Memphis, TN that has been a voice in both the mainstream and Christian music industries. The band has been led by John Cooper since the band’s start in 1996. Later on in 2000, the year the band’s third album &lt;em&gt;Invincible&lt;/em&gt; came out, Cooper’s wife Korey joined the band as rhythm guitarist and pianist.&lt;/p&gt;\n\n&lt;p&gt;The band started gaining mainstream attention when moving from Ardent Records to Atlantic Records in 2003. The band’s first breakthrough album, &lt;em&gt;Comatose&lt;/em&gt;, making it to No. 55 on the Billboard 200 and certified Gold by the RIAA. Skillet continued to rise up on the charts with their 8&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Awake&lt;/em&gt;, charting at No. 2 on the Billboard 200. The album featured a new addition to the band, Jen Ledger, who provided both drums and vocals.&lt;/p&gt;\n\n&lt;p&gt;Since then, Skillet has continued to see mainstream success with their 9&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Unleashed&lt;/em&gt;, with their lead single “Feel Invincible” becoming one of the theme songs for WWE’s Battleground (2016).&lt;/p&gt;\n\n&lt;p&gt;In 2018, both Jen Ledger and John Cooper released their own side projects &lt;a href="https://genius.com/artists/ledger" rel="noopener" data-api_path="/artists/656529"&gt;LEDGER&lt;/a&gt; and &lt;a href="https://genius.com/artists/fight-the-fury" rel="noopener" data-api_path="/artists/1582744"&gt;Fight the Fury&lt;/a&gt;, respectively. The intention behind the projects was not to disband Skillet, but instead to explore each artist’s own creative sides.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Of-mice-and-men', 'annotations': {'description': '&lt;p&gt;Of Mice &amp;amp; Men is an American &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band from Costa Mesa, California.&lt;/p&gt;\n\n&lt;p&gt;The group was founded by &lt;a href="https://genius.com/artists/Austin-carlile" rel="noopener" data-api_path="/artists/933001"&gt;Austin Carlile&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jaxin-hall" rel="noopener" data-api_path="/artists/1046926"&gt;Jaxin Hall&lt;/a&gt; in mid-2009 after Carlile’s departure from &lt;a href="https://genius.com/artists/Attack-attack" rel="noopener" data-api_path="/artists/169123"&gt;Attack Attack!&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band takes its name from the eponymous John Steinbeck novella of the same title.&lt;/p&gt;\n\n&lt;p&gt;In an interview Austin said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The book &lt;em&gt;Of Mice and Men&lt;/em&gt; says ‘the well-laid plans of mice and men often falter.’ You make plans, and they get screwed up. Jaxin and I both had plans for life, and they both got screwed up, so now we’re making the most of what we can.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['OM&amp;M']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red', 'annotations': {'description': '&lt;p&gt;RED is an American Christian alternative rock/metal band from Pennsylvania. The band’s name &lt;a href="https://www.newreleasetoday.com/article.php?article_id=22" rel="noopener nofollow"&gt;represents&lt;/a&gt; the blood of Christ. The band was formed by twin brothers Anthony (lead guitar) and Randy (bass) Armstrong, Michael Barnes (lead vocals), and Andrew Hendrix (drums) in 2002. The band started out as a CCM cover band for local youth groups, until they grew tired of the genre, wanting to make more personal music with a nu-metal/post-grunge sound.&lt;/p&gt;\n\n&lt;p&gt;Later in 2004, &lt;a href="https://genius.com/artists/jasen-rauch" rel="noopener" data-api_path="/artists/338260"&gt;Jasen Rauch&lt;/a&gt; joined the band as an additional guitarist, eventually becoming one of the main songwriters. The band started recording demos with the help of Grammy-nominated rock producer &lt;a href="https://genius.com/artists/rob-graves" rel="noopener" data-api_path="/artists/91665"&gt;Rob Graves&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not long after, the band was signed to Essential Records, a subdivision of Provident Label Group, owned by Sony Music Entertainment. Around the same time, Hendrix decided to leave his role as drummer, later being replaced by Hayden Lamb (twin brother of Hunter Lamb, the ex-guitarist of &lt;a href="https://genius.com/artists/paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;). This led to the release of the debut album &lt;a href="https://genius.com/albums/red/end-of-silence" rel="noopener" data-api_path="/albums/119280"&gt;&lt;em&gt;End of Silence&lt;/em&gt;&lt;/a&gt;. The album was most known for it’s singles &lt;a href="https://genius.com/Red-breathe-into-me-lyrics" rel="noopener" data-api_path="/songs/428086"&gt;Breathe Into Me&lt;/a&gt; and &lt;a href="https://genius.com/Red-already-over-lyrics" rel="noopener" data-api_path="/songs/65832"&gt;Already Over&lt;/a&gt; and was eventually nominated for a Grammy for Best Rock Gospel Album in 2007.&lt;br&gt;\nAs the band prepared for their sophomore album, &lt;a href="https://genius.com/albums/Red/Innocence-instinct" rel="noopener" data-api_path="/albums/119282"&gt;&lt;em&gt;Innocence &amp;amp; Instinct&lt;/em&gt;&lt;/a&gt;, the band was involved in a car-crash on the highway damaging their van and gear. From this, Hayden Lamb was injured, leading Joe Rickard to take over for him as the drummer.&lt;/p&gt;\n\n&lt;p&gt;Shortly after the release of the album in 2009, Jasen Rauch decided to leave the band, to pursue producing and songwriting, which eventually led to him becoming the lead guitarist for &lt;a href="https://genius.com/artists/breaking-benjamin" rel="noopener" data-api_path="/artists/21856"&gt;Breaking Benjamin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The third album, &lt;a href="https://genius.com/albums/Red/Until-we-have-faces" rel="noopener" data-api_path="/albums/119281"&gt;&lt;em&gt;Until We Have Faces&lt;/em&gt;&lt;/a&gt;, led to the band’s first television performance appearing on Conan, then The Tonight Show Starring Jay Leno a week later. Rickard later departed from the band after finishing the “&lt;a href="https://genius.com/albums/Red/Release-the-panic-recalibrated" rel="noopener" data-api_path="/albums/127681"&gt;recalibrated&lt;/a&gt;” version of the fourth album &lt;a href="https://genius.com/albums/Red/Release-the-panic" rel="noopener" data-api_path="/albums/119283"&gt;&lt;em&gt;Release the Panic&lt;/em&gt;&lt;/a&gt;, joining the Swedish heavy metal band &lt;a href="https://genius.com/artists/in-flames" rel="noopener" data-api_path="/artists/17320"&gt;In Flames&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2015, the band released &lt;a href="https://genius.com/albums/Red/Of-beauty-and-rage" rel="noopener" data-api_path="/albums/119379"&gt;&lt;em&gt;of Beauty and Rage&lt;/em&gt;&lt;/a&gt;, an album funded by PledgeMusic, having Dan Johnson of &lt;a href="https://genius.com/artists/love-and-death" rel="noopener" data-api_path="/artists/106178"&gt;Love &amp;amp; Death&lt;/a&gt; as the studio and touring drummer. In the Fall of 2017, Red released &lt;a href="https://genius.com/albums/red/gone" rel="noopener" data-api_path="/albums/369504"&gt;&lt;em&gt;Gone&lt;/em&gt;&lt;/a&gt;, another PledgeMusic funded album, having Rickard return as the studio drummer.&lt;/p&gt;\n\n&lt;p&gt;2019 saw Red go independent for the first time being funded solely by the fans via PledgeMusic. It also saw the official membership of Dan Johnson as the drummer for the band. They released their single &lt;a href="https://genius.com/red-the-evening-hate-lyrics" rel="noopener" data-api_path="/songs/4577772"&gt;The Evening Hate&lt;/a&gt; that June along with a 13+ minute music video created by the band.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/My-darkest-days', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Zakk-wylde', 'annotations': {'description': '&lt;p&gt;Brother Zakk, the leader &lt;a href="http://bravewords.com/news/black-label-society-chapters-and-patches-explained" rel="noopener nofollow"&gt;“Doom Crew Inc.”&lt;/a&gt; was born January 14, 1967. The Guitar God is the founder of the band &lt;a href="https://genius.com/artists/Black-label-society" rel="noopener" data-api_path="/artists/140180"&gt;Black Label Society&lt;/a&gt; and is best known for playing guitar with &lt;a href="https://genius.com/artists/Ozzy-osbourne" rel="noopener" data-api_path="/artists/3347"&gt;Ozzy Osbourne.&lt;/a&gt; Although not really serious about guitar until his teenage years, Jeffrey Phillip Wielandt started playing around 8. From then on he mastered his craft with many hours of practice. Sometimes 12 hours a day!&lt;/p&gt;\n\n&lt;p&gt;The Godfather of the guitar “squeal” sound plays mostly Gibson Les Paul’s. The most famous being the black and white bullseye model dubbed “The Grail”. Being a prolific song writer, singer, musician (playing piano, harmonica, bass and guitar!) producer and even actor (most notably Ghode in &lt;em&gt;RockStar&lt;/em&gt;) earned him a spot on the Hollywood Walk of Fame in 2006. Not too bad for a boy from Jersey!&lt;/p&gt;\n\n&lt;p&gt;The “Berserker” is touring with Black Label Society and also Zakk Sabbath. A band made up of Zakk(vocals and guitar), “Blasko” (bass) and Joey Castillo (Danzig). After being hospitalized for blood clots in 2009, Zakk has been alcohol free since. I guess no more Black Tooth Grins! Shout out to Dimebag Darrell (“In This River” is dedicated to him) and his brother Vinnie Paul! Both good friends, more like brothers, of Zakk and all the Doom Crew!&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f6d648414e6c36cb3f2f4790ba404a29.460x292x1.jpg" alt="" width="460" height="292" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-offspring', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;The Offspring&lt;/strong&gt; is an American punk rock band from &lt;a href="http://en.wikipedia.org/wiki/Huntington_Beach,_California" rel="noopener nofollow"&gt;Huntington Beach, California&lt;/a&gt;, formed in 1984. The current line-up of the band includes: Brian Keith “Dexter” Holland (vocals, guitar), Kevin “Noodles” Wasserman (lead guitar), Todd Morse (bass), and Pete Parada (drums).&lt;/p&gt;\n\n&lt;p&gt;The Offspring is currently one of the biggest punk rock acts, along with the likes of &lt;a href="http://https.genius.com/artists/green-day" rel="noopener" data-api_path="/artists/632"&gt;Green Day,&lt;/a&gt; &lt;a href="http://https.genius.com/artists/rancid" rel="noopener" data-api_path="/artists/30419"&gt;Rancid,&lt;/a&gt; and &lt;a href="http://https.genius.com/artists/sublime" rel="noopener" data-api_path="/artists/659"&gt;Sublime,&lt;/a&gt; all of which come from California. The Offspring and other groups are credited for reviving main-stream punk rock, though it isn’t as popular as it was in the ‘80s.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saliva', 'annotations': {'description': '&lt;p&gt;Saliva is an American rock band formed in Memphis, Tennessee in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a record label owned and operated by Mark Yoshida, who recorded and produced the release at his studio, Rockingchair Studios.&lt;/p&gt;\n\n&lt;p&gt;They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002 which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva’s most successful songs, “Always”, reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System’s chart performance at No. 19 on the Billboard 200. Its first single, “Ladies and Gentlemen”, peaked at No. 2 on the Mainstream Rock Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thirty-seconds-to-mars', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Thirty Seconds to Mars&lt;/strong&gt; is an alternative rock band from Los Angeles, CA formed in 1998. The band is led by award-winning actor, songwriter, and producer &lt;a href="https://genius.com/artists/jared-leto" rel="noopener" data-api_path="/artists/670096"&gt;Jared Leto&lt;/a&gt;. Along with him is his brother Shannon on drums and Tomo Miličević on guitar, who in 2018 took a break from the band for personal reasons. Since 2002, the band has released five albums and set the record for most shows performed during a single album cycle for their album &lt;em&gt;This is War&lt;/em&gt;. During the process of making the same album, Leto and his bandmates underwent a lawsuit with EMI. The band documented the whole lawsuit plus the making of the album in the documentary &lt;em&gt;Artifact&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': ['30STM', '30 Seconds to Mars']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Stone-sour', 'annotations': {'description': '&lt;p&gt;Stone Sour is an American rock band formed in Des Moines, Iowa in 1992.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles “Get Inside”, in 2003, and “Inhale”, in 2004. The album went on to become RIAA certified Gold.&lt;/p&gt;\n\n&lt;p&gt;In 2006, following the release of &lt;em&gt;Come What(ever) May&lt;/em&gt;, the group received another Grammy Award nomination for Best Metal Performance for the single “30/30-150”.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour has sold over four million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Staind', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Staind" rel="noopener nofollow"&gt;Staind&lt;/a&gt; was an American rock band, formed in 1995 in Springfield, Massachusetts. For years, the band consisted of lead vocalist and rhythm guitarist &lt;a href="https://genius.com/artists/Aaron-lewis" rel="noopener" data-api_path="/artists/347635"&gt;Aaron Lewis&lt;/a&gt;, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki (who left in May 2011). To date, the band has recorded seven studio albums: &lt;a href="https://genius.com/albums/Staind/Tormented" rel="noopener" data-api_path="/albums/243184"&gt;&lt;em&gt;Tormented&lt;/em&gt;&lt;/a&gt; (1996), &lt;a href="https://genius.com/albums/Staind/Dysfunction" rel="noopener" data-api_path="/albums/160795"&gt;&lt;em&gt;Dysfunction&lt;/em&gt;&lt;/a&gt; (1999), &lt;a href="https://genius.com/albums/Staind/Break-the-cycle" rel="noopener" data-api_path="/albums/42347"&gt;&lt;em&gt;Break the Cycle&lt;/em&gt;&lt;/a&gt; (2001), &lt;a href="https://genius.com/albums/Staind/14-shades-of-grey" rel="noopener" data-api_path="/albums/80503"&gt;&lt;em&gt;14 Shades of Grey&lt;/em&gt;&lt;/a&gt; (2003), &lt;a href="https://genius.com/albums/Staind/Chapter-v" rel="noopener" data-api_path="/albums/492820"&gt;&lt;em&gt;Chapter V&lt;/em&gt;&lt;/a&gt; (2005), &lt;a href="https://genius.com/albums/Staind/The-illusion-of-progress" rel="noopener" data-api_path="/albums/149841"&gt;&lt;em&gt;The Illusion of Progress&lt;/em&gt;&lt;/a&gt; (2008), and their self-titled album &lt;a href="https://genius.com/albums/Staind/Staind" rel="noopener" data-api_path="/albums/91487"&gt;&lt;em&gt;Staind&lt;/em&gt;&lt;/a&gt;(2011).&lt;/p&gt;\n\n&lt;p&gt;On May 20, 2011, Staind announced that the band and long-time drummer Jon Wysocki had parted ways. In November 2011 Sam Giancarelli was announced as the new drummer.&lt;/p&gt;\n\n&lt;p&gt;In July 2012 the band announced it was taking a hiatus after releasing 7 albums over 14 years. The band did not perform again until April 27, 2014 at the &lt;em&gt;Welcome To Rockville Festival&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2014 the band went back on hiatus while Aaron Lewis played solo shows and began work on his second studio album &lt;a href="https://genius.com/albums/Aaron-lewis/Sinner" rel="noopener" data-api_path="/albums/157423"&gt;&lt;em&gt;Sinner&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview in September 2016 Aaron Lewis stated that the band will likely stay in hiatus for the “foreseeable future”.&lt;/p&gt;\n\n&lt;p&gt;In September 2019, Staind made their return to touring after the release of Lewis\' 2019 album &lt;a href="https://genius.com/albums/Aaron-lewis/State%20I\'m%20In" rel="noopener"&gt;&lt;em&gt;State I’m In&lt;/em&gt;&lt;/a&gt; at the &lt;em&gt;Louder than Life Festival&lt;/em&gt; with Aaron Lewis commenting earlier &lt;a href="https://www.altpress.com/news/aaron-lewis-stained-new-album/" rel="noopener nofollow"&gt;what he thinks a new Staind album would sound like&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/10-years', 'annotations': {'description': '&lt;p&gt;Alternative rock band 10 Years began in Knoxville, Tennessee in 1999 with original members Mike Underdown, Brian Vodinh, Lewis Cosby and Ryan Johnson. After releasing their first album &lt;em&gt;Into the Half Moon&lt;/em&gt; in 2001 Cosby was replaced by Andy Parks on bass and Jesse Hasek replaced Underdown as vocalist. Their second studio album &lt;em&gt;Killing All That Holds You&lt;/em&gt; attracted the attention of Republic Records.&lt;/p&gt;\n\n&lt;p&gt;In 2005, the band released &lt;em&gt;The Autumn Effect&lt;/em&gt; featuring a new recording of what would become their breakthrough hit “Wasteland”. It topped the Active Rock and Alternative Songs charts and became a minor &lt;a href="https://www.billboard.com/music/10-years" rel="noopener nofollow"&gt;pop crossover hit&lt;/a&gt;. The album and single were &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=10+YEARS&amp;amp;ti=WASTELAND" rel="noopener nofollow"&gt;both&lt;/a&gt; eventually &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=10+YEARS&amp;amp;ti=AUTUMN+EFFECT" rel="noopener nofollow"&gt;certified gold&lt;/a&gt;. In support of the album, the band spent two years touring the world with with Disturbed, Breaking Benjamin, Korn and several others.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Division&lt;/em&gt; was released in 2008 and peaked at #12 on the Billboard 200, helped by its lead single “Beautiful” which reached the top 10 on the Rock Chart. The band toured with Linkin Park, then Mudvayne to support the album. &lt;em&gt;Feeding The Wolves&lt;/em&gt; would be their last for Republic Records. It peaked at #17 and spawned two more Rock Chart top tens: “Shoot It Out” and “Fix Me”. In the summer of 2010, the band had the &lt;a href="http://noisecreep.com/shinedown-carnival-of-madness-tour-dates-with-chevelle-sevendus/" rel="noopener nofollow"&gt;opening slot&lt;/a&gt; on Shinedown’s &lt;em&gt;Carnival Of Madness&lt;/em&gt; tour alongside Sevendust, Puddle Of Mudd &amp;amp; Chevelle. Another &lt;a href="http://www.blabbermouth.net/news/sevendust-10-years-more-harddrive-live-tour-details-revealed/" rel="noopener nofollow"&gt;tour with&lt;/a&gt; Sevendust soon followed.&lt;/p&gt;\n\n&lt;p&gt;10 Years\' next two albums were independently released after a disagreement with Universal Music on the direction of the band. Hasek &lt;a href="https://backstageaxxess.com/2012/09/jesse-hasek-10-years-interview/" rel="noopener nofollow"&gt;explained&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt; They wanted something different out of us than we wanted to be and just kind of trying to keep up with the mainstream junk per se. Our last album was called &lt;em&gt;Feeding the Wolves&lt;/em&gt; because it was the first time we really felt like that we had to compromise more than we wanted to … It got to a point where I just told myself I couldn’t do that anymore.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Minus The Machine&lt;/em&gt; spawned three moderately successful Rock Chart hits in 2012 and &lt;em&gt;From Birth to Burial&lt;/em&gt; provided one more in 2015. In 2016, Hasek contacted Vodinh (who had left three years earlier) saying that &lt;a href="https://www.knoxnews.com/story/entertainment/music/2017/10/05/10-years-band-return-knoxville-after-lineup-change/708494001/" rel="noopener nofollow"&gt;the band’s lineup&lt;/a&gt; was ‘toxic’ and it wouldn’t be ‘healthy for him to stay in the band’ as it was. Vodinh and original rhythm guitarist Matt Wantland rejoined, and founding member Ryan Johnson was ousted.&lt;/p&gt;\n\n&lt;p&gt;The band signed with Mascot Records and released &lt;em&gt;(How to Live) as Ghosts&lt;/em&gt; in 2017, featuring their fourth Rock Chart top five “Novacaine”. 2020’s &lt;em&gt;Violent Allies&lt;/em&gt; is their first album in fifteen years to not appear on the Billboard 200 despite both singles reaching the top 30 on the Rock Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Evanescence', 'annotations': {'description': '&lt;p&gt;Evanescence is an American rock band founded in Little Rock, Arkansas in 1995 by singer/pianist Amy Lee and guitarist Ben Moody. Evanescence was originally promoted in Christian stores. Later, the band made it clear they did not want to be considered part of the Christian rock genre, like fellow Wind-up Records artists Creed. Some of their most popular hits include: “&lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me to Life&lt;/a&gt;,” “&lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;My Immortal&lt;/a&gt;,” and “&lt;a href="https://genius.com/Evanescence-what-you-want-lyrics" rel="noopener" data-api_path="/songs/218592"&gt;What You Want&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band &lt;a href="https://twitter.com/AmyLeeEV/status/446110328418349056" rel="noopener nofollow"&gt;parted ways&lt;/a&gt; with their long-term record label Wind-Up and became independent artists. In late 2016, they released a &lt;em&gt;Ultimate Collection&lt;/em&gt; box set featuring all their albums along with the 2000 demo album &lt;a href="https://genius.com/albums/Evanescence/Origin" rel="noopener" data-api_path="/albums/45335"&gt;&lt;em&gt;Origin&lt;/em&gt;&lt;/a&gt; and a B-sides compilation &lt;a href="https://genius.com/albums/Evanescence/Lost-whispers" rel="noopener" data-api_path="/albums/332896"&gt;&lt;em&gt;Lost Whispers&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, they released their fourth album, &lt;a href="https://genius.com/albums/Evanescence/Synthesis" rel="noopener" data-api_path="/albums/363298"&gt;&lt;em&gt;Synthesis&lt;/em&gt;&lt;/a&gt;, featuring a reimagining of some of their past songs plus two new original songs with the spotlight on full orchestra and electronics.&lt;/p&gt;\n\n&lt;p&gt;Their fifth album, &lt;a href="https://genius.com/albums/Evanescence/The-bitter-truth" rel="noopener" data-api_path="/albums/624604"&gt;&lt;em&gt;The Bitter Truth&lt;/em&gt;&lt;/a&gt;, was released in March 2021.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Finger-eleven', 'annotations': {'description': '&lt;p&gt;Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven total studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. The 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single “One Thing”, which marked the band’s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me, launched the single “Paralyzer”, which went on to top numerous charts including the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/3-doors-down', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;3 Doors Down&lt;/strong&gt; is an American rock band. The band was formed in 1996 in Mississippi. The band consists of front-man Brad Arnold, guitarist Chris Henderson, drummer Greg Upchurch, guitarist Chet Roberts, and bassist Justin Biltonen.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;The name 3 Doors Down came while the band was tour&lt;/a&gt; and they saw a building that had a sign with most of its letters fallen off, leaving it to read “Doors Down”. At the time, there were only three members in the band and so decided for the name 3 Doors Down.&lt;/p&gt;\n\n&lt;p&gt;The group enjoyed mainstream success in the mid-to-late nineties and the early 2000’s, with “Here Without You”, “Kryptonite”, and “When I’m Gone”.&lt;/p&gt;\n\n&lt;p&gt;Recently, the group received a large amount of media attention over their decision to perform at the inauguration of President Donald J. Trump in early 2017.&lt;/p&gt;', 'alternate_names': ['Three Doors Down']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nickelback', 'annotations': {'description': '&lt;p&gt;Nickelback is a Canadian rock band formed in 1995 in Hanna, Alberta. The band is composed of lead guitarist and lead vocalist &lt;a href="https://genius.com/artists/Chad-kroeger" rel="noopener" data-api_path="/artists/7804"&gt;Chad Kroeger&lt;/a&gt;, rhythm guitarist, keyboardist and backing vocalist Ryan Peake, bassist Mike Kroeger, and drummer Daniel Adair.&lt;/p&gt;\n\n&lt;p&gt;They formed in the early 1990’s as a cover band called “The Village Idiots”. They eventually changed its name to Nickelback, which originates from the change Mike Kroeger usually gave back when he worked at Starbucks. Because everything was changed at $X.95, he would usually say, &lt;a href="http://www.rollingstone.com/music/artists/nickelback/biography" rel="noopener nofollow"&gt;“Here’s your nickel back.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Nickelback is one of the most commercially successful Canadian groups, having sold more than 50 million albums worldwide and ranking as the eleventh best-selling music act, and the second best-selling foreign act in the U.S. behind &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;, of the 2000’s.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Billboard&lt;/em&gt; ranks them the &lt;a href="http://www.billboard.com/articles/news/266420/artists-of-the-decade" rel="noopener nofollow"&gt;top rock group of the decade&lt;/a&gt;, and they listed their hit &lt;a href="https://genius.com/Nickelback-how-you-remind-me-lyrics" rel="noopener" data-api_path="/songs/196442"&gt;“How You Remind Me”&lt;/a&gt;  as the &lt;a href="https://books.google.ae/books?id=EgHgDgiLzqMC&amp;amp;pg=PA17" rel="noopener nofollow"&gt;top rock song of the decade&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['The Village Idiots']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Foo-fighters', 'annotations': {'description': '&lt;p&gt;Foo Fighters are an American rock band formed in 1995 by former &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Dave-grohl" rel="noopener" data-api_path="/artists/110465"&gt;Dave Grohl.&lt;/a&gt; Originally a solo project by him to overcome the grief of &lt;a href="https://genius.com/artists/Kurt-cobain" rel="noopener" data-api_path="/artists/23665"&gt;Kurt Cobain’s&lt;/a&gt; death, Grohl attracted label interest with his inaugural demo tape.&lt;/p&gt;\n\n&lt;p&gt;According to Dave Grohl, the band is &lt;a href="http://www.clashmusic.com/news/foo-fighters-on-their-band-name" rel="noopener nofollow"&gt;named after the UFOs&lt;/a&gt; that were reported by Allied aircraft pilots in World War II.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was reading a lot of books on UFOs. Not only is it a fascinating subject, but there’s a treasure trove of band names in those UFO books! So, since I had recorded the first record by myself, playing all the instruments, but I wanted people to think that it was a group, I figured that FOO FIGHTERS might lead people to believe that it was more than just one guy. Silly, huh?&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Following the recording and release of the band’s &lt;a href="https://genius.com/albums/Foo-fighters/Foo-fighters" rel="noopener" data-api_path="/albums/31145"&gt;self-titled debut album,&lt;/a&gt; Grohl recruited a full band to perform the songs live.&lt;/p&gt;\n\n&lt;p&gt;Foo Fighters have since achieved mainstream critical and commercial success, with nine studio albums (two of which reached #1 on the Billboard charts), &lt;a href="https://www.grammy.com/grammys/artists/foo-fighters/14694" rel="noopener nofollow"&gt;twelve Grammy awards,&lt;/a&gt; and no signs of slowing down.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pillar', 'annotations': {'description': '&lt;p&gt;Pillar is a Grammy-nominated Christian rock band. Known for their Spirit-filled lyrics, Pillar’s sound has evolved with each album, starting with a rapcore/nu metal sound early in their career (&lt;em&gt;Metamorphosis&lt;/em&gt;, &lt;em&gt;Original Superman&lt;/em&gt;, &lt;em&gt;Above&lt;/em&gt;, &lt;em&gt;Fireproof&lt;/em&gt;) and transitioning to metal (&lt;em&gt;Where Do We Go From Here&lt;/em&gt;, &lt;em&gt;The Reckoning&lt;/em&gt;, &lt;em&gt;For the Love of the Game&lt;/em&gt;), and finally post-grunge with their two most recent albums, &lt;em&gt;Confessions&lt;/em&gt; (2009) and the independently crowdfunded &lt;em&gt;One Love Revolution&lt;/em&gt; (2015).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hinder', 'annotations': {'description': '&lt;p&gt;Hinder is an American rock band hailing from the state of Oklahoma. Formed in 2001 by the drummer, &lt;a href="https://genius.com/artists/Cody-hanson" rel="noopener" data-api_path="/artists/59530"&gt;Cody Hanson&lt;/a&gt;, guitarist Joe “Blower” Garvey and the then lead singer, &lt;a href="https://genius.com/artists/Austin-winkler" rel="noopener" data-api_path="/artists/977945"&gt;Austin Winkler&lt;/a&gt;. The band’s style consists of a combination of elements from alt-rock, post-grunge, hard rock and southern rock.&lt;/p&gt;\n\n&lt;p&gt;The band released 4 studio albums with Winkler; &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Extreme-behavior" rel="noopener" data-api_path="/albums/38743"&gt;Extreme Behavior&lt;/a&gt;&lt;/em&gt; (2006), &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Take-it-to-the-limit" rel="noopener" data-api_path="/albums/39246"&gt;Take it to the Limit&lt;/a&gt;&lt;/em&gt; (2008), &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/All-american-nightmare" rel="noopener" data-api_path="/albums/38738"&gt;All American Nightmare&lt;/a&gt;&lt;/em&gt; (2010), and &lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Welcome-to-the-freakshow" rel="noopener" data-api_path="/albums/159487"&gt;Welcome to the Freakshow&lt;/a&gt;&lt;/em&gt; (2012).&lt;/p&gt;\n\n&lt;p&gt;Since the band got its new (and current) lead singer &lt;a href="https://genius.com/artists/Marshal-dutton" rel="noopener" data-api_path="/artists/59531"&gt;Marshal Dutton&lt;/a&gt; they have released one album (&lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/When-the-smoke-clears" rel="noopener" data-api_path="/albums/127389"&gt;When the Smoke Clears&lt;/a&gt;&lt;/em&gt;, 2015) and one EP (&lt;em&gt;&lt;a href="https://genius.com/albums/Hinder/Stripped" rel="noopener" data-api_path="/albums/159490"&gt;Stripped&lt;/a&gt;&lt;/em&gt;, 2016).&lt;/p&gt;\n\n&lt;p&gt;The band was inducted into the Oklahoma Music Hall of Fame in 2007.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Creed', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Creed&lt;/strong&gt; is an American rock band, formed in 1993 in Tallahassee, Florida. The band’s original line-up consists of lead vocalist Scott Stapp, guitarist and vocalist Mark Tremonti, bassist Brian Marshall, and drummer Scott Phillips.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fuel', 'annotations': {'description': '&lt;p&gt;Fuel is an American rock band formed by guitarist/songwriter Carl Bell and bassist Jeff Abercrombie in 1994. They are known for their hit songs “Shimmer” from Sunburn, “Hemorrhage (In My Hands)” and “Bad Day” from Something Like Human, and “Falls on Me” from Natural Selection. The band has sold nearly four million records worldwide.&lt;/p&gt;\n\n&lt;p&gt;Fuel has many times changed its members. Since 2006 original singer Brett Scallions and guitarist Carl Bell have not been a part of the band during the same time, due to unsolved differences. And in 2020, Brett announced on his Facebook page that he would never return to Fuel again. Which happened at the same time Bell decided to come back.&lt;/p&gt;\n\n&lt;p&gt;Their song “&lt;a href="https://genius.com/Fuel-quarter-lyrics" rel="noopener" data-api_path="/songs/1749622"&gt;Quarter&lt;/a&gt;” was featured in the games “Need for Speed: Underground”, “NFL Street” and “NASCAR Thunder 2004”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Incubus', 'annotations': {'description': '&lt;p&gt;Incubus is an American alternative rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer Jose Pasillas while enrolled in Calabasas High School. Incubus later expanded to include bassist Alex “Dirk Lance” Katunich, and Gavin “DJ Lyfe” Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore respectively.&lt;/p&gt;\n\n&lt;p&gt;Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles, &lt;a href="https://genius.com/Incubus-dig-lyrics" rel="noopener" data-api_path="/songs/313626"&gt;Dig&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Incubus-drive-lyrics" rel="noopener" data-api_path="/songs/108451"&gt;Drive&lt;/a&gt; especially.&lt;/p&gt;\n\n&lt;p&gt; The band have undergone many style changes over their long careers. Their early work, &lt;i&gt;Fungus Amongus&lt;/i&gt; (1995) and &lt;i&gt;S.C.I.E.N.C.E.&lt;/i&gt; (1997) were aggressive and clunky Funk Metal inspired by 80’s bands, such as the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; As the band earned mainstream recognition in the late 90’s and early 00’s their style matured significantly. Their albums &lt;a href="https://genius.com/albums/Incubus/Make-yourself" rel="noopener" data-api_path="/albums/26607"&gt;&lt;i&gt;Make Yourself&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Incubus/Morning-view" rel="noopener" data-api_path="/albums/80202"&gt;&lt;i&gt;Morning View&lt;/i&gt;&lt;/a&gt; evolved into a more Post-Grunge sound.&lt;/p&gt;\n\n&lt;p&gt; The Band’s success continued with the album &lt;i&gt;A Crow Left of the Murder…&lt;/i&gt; (2004). Their sixth studio album, &lt;a href="https://www.billboard.com/music/Incubus/chart-history/TLP" rel="noopener nofollow"&gt;Light Grenades, debuted at #1&lt;/a&gt;, their first and only #1 album.&lt;/p&gt;\n\n&lt;p&gt;Incubus\' first greatest hits album &lt;i&gt;Monuments and Melodies&lt;/i&gt; came out in June 2009. With their 2011 album &lt;i&gt;If Not Now, When?&lt;/i&gt; the band developed a more Pop-Rock style. The band released their eighth studio album, titled 8, on April 21, 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Machine-head', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hollywood-undead', 'annotations': {'description': '&lt;p&gt;Hollywood Undead was formed in June/July 2005 by J-Dog and Deuce (past member). All of the members have grown up in LA, California. Nowadays there are five members; J-Dog (vocals, guitar, bass guitar, keyboards, synthesizer), Charlie Scene (vocals, lead guitar), Johnny 3 Tears (vocals, bass guitar), Funny Man (vocals) and Danny (vocals, keyboards, guitar). There are also three past members; Da Kurlzz (vocals, drums, percussion, left in June 2017) Deuce (vocals, left in 2009 for an unconfirmed reason) and Shady Jeff (vocals, left in 2007 because of disagreement with other members). All members wear masks and use nicknames. They are well known for their sarcastic and accurate lyrics. Some of their songs are about partying, drinking, taking drugs, girls but also about love, feelings, being heartless, having a broken heart and similar things.&lt;/p&gt;\n\n&lt;p&gt;The name &lt;em&gt;“Hollywood Undead”&lt;/em&gt; was introduced by J-Dog when he and Deuce wrote a song called “Hollywood,” and at the time called the band “Undead” (this designation comes from the times when they used to call people who lived in Hollywood  “undead” because they were partying all the time and that is why they thought they looked like zombies). J-Dog wrote the band name and name of the song on a small CD and showed it to his neighbor. The neighbor didn’t read it correctly, and thought that both of those words were the name of the band. J-Dog liked the way it sounded, and the name stuck.&lt;/p&gt;\n\n&lt;p&gt;Their first album was released on September 2nd, 2008. It was called &lt;em&gt;Swan Songs&lt;/em&gt; and includes songs like “City”, “Black Dahlia” and “Everywhere I Go”.&lt;br&gt;\nSecond studio album was called &lt;em&gt;American Tragedy&lt;/em&gt; and was released in 2011. On this album, the main vocals are sung by Danny rather than Deuce. American Tragedy features songs such as “Been to Hell”, “S.C.A.V.A.”, “Bullet”.&lt;br&gt;\nThird album was titled &lt;em&gt;Notes From The Underground&lt;/em&gt;. It was released in 2013. Songs from this album included “We Are”, “From the Ground”, “Outside” and many others.&lt;br&gt;\nIn 2015 they released their fourth album entitled &lt;em&gt;Day of the Dead&lt;/em&gt; where you can find songs like “Day of the Dead”, “Disease” or “Fuck the World”.&lt;br&gt;\nOn October 27th, 2017 the album &lt;em&gt;Five&lt;/em&gt; was released. The band states that it is “ their best album so far”. Some tracks on this album include “California Dreaming”, “Whatever It Takes”, “Renegade” or “We Own The Night”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Vertical-horizon', 'annotations': {'description': '&lt;p&gt;Vertical Horizon is an American alternative rock band formed at Georgetown University in Washington, D.C. in 1991. &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://en.wikipedia.org/wiki/Vertical_Horizon"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://upload.wikimedia.org/wikipedia/commons/thumb/4/48/Vertical_Horizon_in_2010.jpg/300px-Vertical_Horizon_in_2010.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Vertical Horizon - Wikipedia&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Wikipedia&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Vertical Horizon was formed in 1991 by Georgetown University undergrads Matthew Scannell and Keith Kane. Early performances included cover sets of artists such as Simon &amp;amp; Garfunkel in the campus\' Leavey Center food court.&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tonic', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Marcy-playground', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sublime', 'annotations': {'description': '&lt;p&gt;Sublime was an American ska punk and alternative rock band from Long Beach, California, formed in 1988. The band’s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass) and Bud Gaugh (drums). Lou Dog, Nowell’s dalmatian, was the mascot of the band. Michael ‘Miguel’ Happoldt and Marshall Goodman “Ras MG” contributed to and co-wrote several Sublime songs. Nowell died of a heroin overdose in 1996. In 1997, posthumous songs such as “Santeria”, “Wrong Way”, “Doin\' Time”, and “April 29, 1992 (Miami)” were released to U.S. radio.&lt;/p&gt;\n\n&lt;p&gt;Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs and one box set. Although their first two albums (40oz. to Freedom [1992] and Robbin\' the Hood [1994]) were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album. Released two months after Nowell’s death, it peaked at number 13 on the Billboard 200 and spawned the single “What I Got”, which remains the band’s only number one hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone.&lt;/p&gt;\n\n&lt;p&gt;See also &lt;a href="https://genius.com/artists/Sublime-with-rome" rel="noopener" data-api_path="/artists/21304"&gt;Sublime With Rome&lt;/a&gt;, a collaboration between Eric Wilson and vocalist/guitarist &lt;a href="https://genius.com/artists/Rome-ramirez" rel="noopener" data-api_path="/artists/44898"&gt;Rome Ramirez&lt;/a&gt; who managed to release a few albums of their own.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Blink-182', 'annotations': {'description': '&lt;p&gt;blink-182 set off the 1990s storm of pop-punk, blazing a trail in the genre with electrifying riffs and memorable lines—&lt;a href="https://genius.com/Blink-182-fuck-a-dog-lyrics" rel="noopener" data-api_path="/songs/232912"&gt;“Fuck a Dog,”&lt;/a&gt; anyone? The band has seen some lineup changes over the years, but its core trio (&lt;a href="https://genius.com/artists/Tom-delonge" rel="noopener" data-api_path="/artists/50626"&gt;Tom DeLonge&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-hoppus" rel="noopener" data-api_path="/artists/23941"&gt;Mark Hoppus&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt;) has mostly stood the test of time. As of 2015, DeLonge left the band to pursue other projects.&lt;/p&gt;\n\n&lt;p&gt;Founded in 1992 in Poway, California (a suburb in San Diego), DeLonge, Hoppus, and former drummer Scott Raynor formed the band in Raynor’s bedroom, writing songs for their demos, and playing practical jokes along the way. Initially, under the name Blink, the trio was forced to change the name to avoid a lawsuit with the Irish pop-rock group of the same name, so they added “182” at random (fans continue to speculate what “182” means to this day).&lt;/p&gt;\n\n&lt;p&gt;After releasing their demo album &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Buddha" rel="noopener" data-api_path="/albums/80025"&gt;Buddha&lt;/a&gt;&lt;/em&gt;, blink-182 released &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Cheshire-cat" rel="noopener" data-api_path="/albums/40902"&gt;Cheshire Cat&lt;/a&gt;&lt;/em&gt; in 1995 under Cargo Records. While not a major success at the time, the album generated buzz from the Southern California punk scene and major labels alike. After being signed to MCA Records, the band released &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Dude-ranch" rel="noopener" data-api_path="/albums/17882"&gt;Dude Ranch&lt;/a&gt;&lt;/em&gt; in 1997 with the hit singles &lt;a href="https://genius.com/Blink-182-dammit-lyrics" rel="noopener" data-api_path="/songs/153143"&gt;“Dammit”&lt;/a&gt; and &lt;a href="https://genius.com/Blink-182-josie-lyrics" rel="noopener" data-api_path="/songs/77200"&gt;“Josie”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1998, Scott Raynor was removed for his drinking addiction, which affected the band’s performance and created tensions for the trio. Travis Barker, formerly of &lt;a href="https://genius.com/artists/The-aquabats" rel="noopener" data-api_path="/artists/311271"&gt;The Aquabats&lt;/a&gt;, filled in for Raynor during the West Coast mini-tour, and was quickly welcomed as a permanent drummer. His drumming technique heavily influenced the band, causing a sonic shift in their songwriting. With the aid of their new producer Jerry Finn, blink-182 went on to record their next album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Enema-of-the-state" rel="noopener" data-api_path="/albums/13545"&gt;Enema of the State&lt;/a&gt;&lt;/em&gt; (1999) was the band’s first enormous commercial success, selling over 15 million copies worldwide on the strength of singles &lt;a href="https://genius.com/Blink-182-whats-my-age-again-lyrics" rel="noopener" data-api_path="/songs/60702"&gt;“What’s My Age Again?”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-all-the-small-things-lyrics" rel="noopener" data-api_path="/songs/62154"&gt;“All the Small Things,”&lt;/a&gt; and &lt;a href="https://genius.com/Blink-182-adams-song-lyrics" rel="noopener" data-api_path="/songs/73324"&gt;“Adam’s Song.”&lt;/a&gt; Their 2001 release, &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Take-off-your-pants-and-jacket" rel="noopener" data-api_path="/albums/14072"&gt;Take Off Your Pants and Jacket,&lt;/a&gt;&lt;/em&gt; peaked at #1 on U.S. &lt;em&gt;Billboard&lt;/em&gt; and introduced the world to the catchy &lt;a href="https://genius.com/Blink-182-first-date-lyrics" rel="noopener" data-api_path="/songs/217244"&gt;“First Date.”&lt;/a&gt; A 2003 &lt;a href="https://genius.com/albums/Blink-182/Blink-182" rel="noopener" data-api_path="/albums/13901"&gt;self-titled album&lt;/a&gt; saw a stylistic shift in the band’s music, marked by fatherhood and maturity in songs like &lt;a href="https://genius.com/Blink-182-i-miss-you-lyrics" rel="noopener" data-api_path="/songs/61981"&gt;“I Miss You”&lt;/a&gt; and &lt;a href="https://genius.com/Blink-182-down-lyrics" rel="noopener" data-api_path="/songs/210822"&gt;“Down”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band went on a four-year hiatus from 2005 to 2009. DeLonge focused on &lt;a href="https://genius.com/artists/Angels-and-airwaves" rel="noopener" data-api_path="/artists/70500"&gt;Angels &amp;amp; Airwaves&lt;/a&gt; (with elements taken from &lt;a href="https://genius.com/artists/Box-car-racer" rel="noopener" data-api_path="/artists/62212"&gt;Box Car Racer&lt;/a&gt;), Hoppus fronted &lt;a href="https://genius.com/artists/44" rel="noopener" data-api_path="/artists/136713"&gt;+44&lt;/a&gt; with Barker, who also worked on solo drum work and collaborated with the late &lt;a href="https://genius.com/artists/Dj-am" rel="noopener" data-api_path="/artists/35824"&gt;DJ AM&lt;/a&gt;. After the band’s reunion in 2009 following &lt;a href="https://www.youtube.com/watch?v=LZ0slwm4K4M" rel="noopener nofollow"&gt;Barker’s plane crash&lt;/a&gt;, they released &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/Neighborhoods" rel="noopener" data-api_path="/albums/14664"&gt;Neighborhoods&lt;/a&gt;&lt;/em&gt; to critical acclaim in 2011, although the album left mixed feelings in the divided fanbase.&lt;/p&gt;\n\n&lt;p&gt;Upon DeLonge’s departure from the band in 2015, &lt;a href="https://genius.com/artists/Alkaline-trio" rel="noopener" data-api_path="/artists/2055"&gt;Alkaline Trio&lt;/a&gt; frontman Matt Skiba was announced as his replacement. The new lineup returned to the studio in August of 2015 to record their long-awaited seventh album, &lt;em&gt;&lt;a href="https://genius.com/albums/Blink-182/California" rel="noopener" data-api_path="/albums/150529"&gt;California&lt;/a&gt;&lt;/em&gt;, which released on July 1, 2016.&lt;/p&gt;\n\n&lt;p&gt;Their eighth album, titled &lt;a href="https://genius.com/albums/Blink-182/Nine" rel="noopener" data-api_path="/albums/527823"&gt;&lt;em&gt;NINE&lt;/em&gt;&lt;/a&gt; hit the world with the singles, &lt;a href="https://genius.com/Blink-182-blame-it-on-my-youth-lyrics" rel="noopener" data-api_path="/songs/4535831"&gt;“Blame It On My Youth”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-generational-divide-lyrics" rel="noopener" data-api_path="/songs/4640238"&gt;“Generational Divide”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-happy-days-lyrics" rel="noopener" data-api_path="/songs/4666218"&gt;“Happy Days”&lt;/a&gt;, &lt;a href="https://genius.com/Blink-182-darkside-lyrics" rel="noopener" data-api_path="/songs/4712585"&gt;“Darkside”&lt;/a&gt;, and &lt;a href="https://genius.com/Blink-182-i-really-wish-i-hated-you-lyrics" rel="noopener" data-api_path="/songs/4726613"&gt;“I Really Wish I Hated You”&lt;/a&gt; in 2019.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red-hot-chili-peppers', 'annotations': {'description': '&lt;p&gt;The Red Hot Chili Peppers are a rock band based in Los Angeles, CA that incorporates elements of rap, funk, punk, and rock into their work, mainly classified as an alternative rock band. They made it mainstream off the success of their 1991’s fifth studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magik&lt;/a&gt;&lt;/em&gt;, led by singles &lt;a href="https://genius.com/Red-hot-chili-peppers-give-it-away-lyrics" rel="noopener" data-api_path="/songs/70268"&gt;“Give it Away”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-under-the-bridge-lyrics" rel="noopener" data-api_path="/songs/3226"&gt;“Under the Bridge.”&lt;/a&gt; After losing guitarist &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; and losing popularity following the release of the less successful &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute" rel="noopener" data-api_path="/albums/19418"&gt;One Hot Minute&lt;/a&gt;&lt;/em&gt;, the band reunited for 1999’s &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt;. The &lt;a href="https://genius.com/Red-hot-chili-peppers-californication-lyrics" rel="noopener" data-api_path="/songs/3227"&gt;title track&lt;/a&gt; and hit singles &lt;a href="https://genius.com/Red-hot-chili-peppers-around-the-world-lyrics" rel="noopener" data-api_path="/songs/54310"&gt;“Around the World,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-scar-tissue-lyrics" rel="noopener" data-api_path="/songs/73315"&gt;“Scar Tissue”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-otherside-lyrics" rel="noopener" data-api_path="/songs/54316"&gt;“Otherside”&lt;/a&gt; propelled them back to the fame. After 2002’s solid release &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/By-the-way" rel="noopener" data-api_path="/albums/20513"&gt;By the Way&lt;/a&gt;&lt;/em&gt; and 2006’s double-disc &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Stadium-arcadium" rel="noopener" data-api_path="/albums/11881"&gt;Stadium Arcadium&lt;/a&gt;&lt;/em&gt;, Frusciante once again left the band to further pursue his solo career. The band added &lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt; to help fill his void, and released &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/I-m-with-you" rel="noopener" data-api_path="/albums/14516"&gt;I’m With You&lt;/a&gt;&lt;/em&gt; in 2011.&lt;/p&gt;\n\n&lt;p&gt;In December 2019, the band announced &lt;a href="https://www.instagram.com/p/B6G0L3OHVe8/" rel="noopener nofollow"&gt;via Instagram&lt;/a&gt; that Klinghoffer had left after 10 years, and Frusciante would be rejoining.&lt;/p&gt;\n\n&lt;p&gt;Their lyrical content was mostly centered around sex, drugs, and the Los Angeles lifestyle, and lead singer &lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt; mostly rapped them as he wasn’t confident as vocalist. Most members of the band also suffered from drug addiction, as Kiedis and Frusciante had to check themselves into rehab for heroin addiction at various points in their lives. But &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt; marked a change in the band’s content matter and lifestyle. The band was sober for the most part, and the lyrics had shifted to songs about love and the pains of addiction, the title even criticized the city they loved so much. In addition, Kiedis had started to sing his lyrics much more often as he finally felt comfortable with his voice. That change has allowed the band to stick around for over 20 years despite multiple changes to their lineup and is part of why they remain relevant.&lt;/p&gt;\n\n&lt;h3&gt;List of band members:&lt;/h3&gt;\n\n&lt;p&gt;&lt;strong&gt;Current:&lt;/strong&gt;&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt; (lead vocals) 1983–1986, 1986–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Flea" rel="noopener" data-api_path="/artists/61532"&gt;Flea&lt;/a&gt; (bass, backing vocals) 1983–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Chad-smith" rel="noopener" data-api_path="/artists/387527"&gt;Chad Smith&lt;/a&gt; (drums) 1988–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; (lead guitars, backing vocals) 1988–1992, 1998–2009, 2019–present&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;strong&gt;Former:&lt;/strong&gt;&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Hillel-slovak" rel="noopener" data-api_path="/artists/992756"&gt;Hillel Slovak&lt;/a&gt; (guitars, backing vocals) 1983, 1985–1988&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jack-irons" rel="noopener" data-api_path="/artists/678033"&gt;Jack Irons&lt;/a&gt; (drums, backing vocals) 1983, 1986–1988&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Cliff-martinez" rel="noopener" data-api_path="/artists/531678"&gt;Cliff Martinez&lt;/a&gt; (drums) 1983–1986&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jack-sherman" rel="noopener" data-api_path="/artists/146214"&gt;Jack Sherman&lt;/a&gt; (guitars, backing vocals) 1983–1984&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt; (guitars, backing vocals) 1993–1998&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt; (guitars, backing vocals) 2009–2019&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['RHCP', 'Red Hot', 'Chili Peppers']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pearl-jam', 'annotations': {'description': '&lt;p&gt;Founded in 1990 in Seattle, Pearl Jam is one of the most successful bands out of the grunge movement, if not of the whole alternative rock scene from the early 90s. The group started with &lt;a href="https://genius.com/artists/Stone-gossard" rel="noopener" data-api_path="/artists/378232"&gt;Stone Gossard&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Jeff-ament" rel="noopener" data-api_path="/artists/349346"&gt;Jeff Ament&lt;/a&gt; (bass), veterans of the proto-grunge scene, recording a demo along with local guitarist &lt;a href="https://genius.com/artists/Mike-mccready" rel="noopener" data-api_path="/artists/372621"&gt;Mike McCready&lt;/a&gt;. Once the tape passed along, it attracted a San Diego-based singer, &lt;a href="https://genius.com/artists/Eddie-vedder" rel="noopener" data-api_path="/artists/48352"&gt;Eddie Vedder&lt;/a&gt;. Along with drummer Dave Krusen, they signed with Epic Records and released &lt;em&gt;Ten&lt;/em&gt; in 1991, which by the following year was becoming one of the most successful debut albums ever.&lt;/p&gt;\n\n&lt;p&gt;Growing uncomfortable with success, the following albums went for a more anguished and experimental sound, and the band’s notorious activism had its most prominent case once they boycotted Ticketmaster, accusing them of price-gouging fans. In the meantime, various drummers passed through the band, with percussion only settling once &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s  &lt;a href="https://genius.com/artists/Matt-cameron" rel="noopener" data-api_path="/artists/564462"&gt;Matt Cameron&lt;/a&gt; joined them in the tour for 1998’s &lt;em&gt;Yield&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;With 10 studio albums and various live recordings (including “Official Bootlegs” of basically every concert the band performed since 2000), Pearl Jam has sold nearly 32 million records in the U.S. and an estimated 60 million worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Seven-mary-three', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rage-against-the-machine', 'annotations': {'description': '&lt;p&gt;Formed in Los Angeles in 1991, Rage Against the Machine are critically acclaimed for their aggressive, politically charged rhymes. During the 1990s, they found huge success with their politicised image, broad array of influences and punk attitudes. The band represents an important intersection in 90s culture – between the musical expression of urban black rebels (hip-hop, funk) and their white counterpart (metal, punk rock).&lt;/p&gt;\n\n&lt;p&gt;Accompanying a musical fusion of punk, hip-hop and metal, the lyricism of frontman &lt;a href="https://genius.com/artists/Zack-de-la-rocha" rel="noopener" data-api_path="/artists/9775"&gt;Zack de la Rocha&lt;/a&gt; provides a fiery critique of corporate America, government oppression, and cultural imperialism. Both de la Rocha and guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt; were &lt;a href="http://www.rollingstone.com/music/artists/rage-against-the-machine/biography" rel="noopener nofollow"&gt;born into activist families&lt;/a&gt;, influential to shaping the band’s political views and activism. De la Rocha’s father devoted his artistic work to Chicano causes, and Morello was raised by a civil rights activist mother and a Kenyan rebel-turned-diplomat father.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine view their music as a &lt;a href="http://www.musicfanclubs.org/rage/articles/juice00.htm" rel="noopener nofollow"&gt;vehicle for social activism&lt;/a&gt;, and de la Rocha has explained this by saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m interested in spreading those ideas through art, because music has the power to cross borders, to break military sieges and to establish real dialogue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Over their career, Rage Against the Machine have &lt;a href="http://www.rollingstone.com/music/news/the-battle-of-rage-against-the-machine-19991125" rel="noopener nofollow"&gt;championed numerous causes&lt;/a&gt;, including death-row inmate Mumia Abu-Jamal’s fight for a new trial, the Zapatista freedom fighters in Mexico, and the treatment of sweatshop workers. The band’s leftist and revolutionary political views are further represented in almost all of their songs, and this politically fuelled commentary is key to their identity. Notable examples of these beliefs are discussed in &lt;a href="https://genius.com/Rage-against-the-machine-killing-in-the-name-lyrics" rel="noopener" data-api_path="/songs/4569"&gt;“Killing in the Name”&lt;/a&gt; (addressing racism and police corruption), &lt;a href="https://genius.com/Rage-against-the-machine-wake-up-lyrics" rel="noopener" data-api_path="/songs/39712"&gt;“Wake Up”&lt;/a&gt; (addressing racism in the American government), and &lt;a href="https://genius.com/Rage-against-the-machine-freedom-lyrics" rel="noopener" data-api_path="/songs/39703"&gt;“Freedom”&lt;/a&gt; (supporting imprisoned American-Indian activist Leonard Peltier).&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine split up in 2000, with three of the band members joining &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; to form rock supergroup &lt;a href="https://genius.com/artists/Audioslave" rel="noopener" data-api_path="/artists/39547"&gt;Audioslave&lt;/a&gt;. They reunited in 2007, and since then have sporadically performed major live events, but are yet to record any new material. In May 2016, it was revealed that &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, &lt;a href="https://genius.com/artists/Brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt; had united with &lt;a href="https://genius.com/artists/Chuck-d" rel="noopener" data-api_path="/artists/1884"&gt;Chuck D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Public-enemy" rel="noopener" data-api_path="/artists/203"&gt;Public Enemy&lt;/a&gt; and &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt; of &lt;a href="https://genius.com/artists/Cypress-hill" rel="noopener" data-api_path="/artists/1317"&gt;Cypress Hill&lt;/a&gt; to form the supergroup, &lt;a href="https://genius.com/artists/Prophets-of-rage" rel="noopener" data-api_path="/artists/980209"&gt;Prophets of Rage&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Otherwise', 'annotations': {'description': '&lt;p&gt;OTHERWISE is a hard rock/alternative/metal band from Las Vegas, Nevada signed to Century Media. Their hit single, “Soldiers” sold over 75,000 copies and was the first song by an unsigned on Sirius XM Octane to be at #1. The band consists of lead vocalist Adrian Patrick, lead guitarist Ryan Patrick, drummer Brian Medieros, and bassist Tony “The Beast” Carboney.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Volbeat', 'annotations': {'description': '&lt;p&gt;Volbeat is a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal, and rockabilly. Their current line-up consists of vocalist and guitarist &lt;a href="https://genius.com/artists/Michael-poulsen" rel="noopener" data-api_path="/artists/664303"&gt;Michael Poulsen&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Rob-caggiano" rel="noopener" data-api_path="/artists/214690"&gt;Rob Caggiano&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Jon-larsen" rel="noopener" data-api_path="/artists/1104130"&gt;Jon Larsen&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kaspar-boye-larsen" rel="noopener" data-api_path="/artists/1824690"&gt;Kaspar Boye Larsen&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Singer Michael Poulsen’s first band was death metal act &lt;a href="https://genius.com/artists/Dominus" rel="noopener" data-api_path="/artists/354240"&gt;Dominus&lt;/a&gt;. In 2000, Poulsen became fed up with the death metal music scene, causing Dominus to break up. In 2001, Poulsen went on to form a new band with some friends and other former Dominus members. This was the beginning of Volbeat.&lt;/p&gt;\n\n&lt;p&gt;The band name “Volbeat” was derived from Dominus’s third album name, which was called &lt;a href="https://genius.com/albums/Dominus/Vol-beat" rel="noopener" data-api_path="/albums/226124"&gt;&lt;em&gt;Vol.Beat&lt;/em&gt;&lt;/a&gt; (read as: Volume Beat). After selling 1,000 copies of their &lt;a href="https://genius.com/albums/Volbeat/Beat-the-meat" rel="noopener" data-api_path="/albums/213919"&gt;&lt;em&gt;Beat the Meat&lt;/em&gt;&lt;/a&gt; demo tape, Volbeat was signed to a record deal by &lt;a href="https://genius.com/artists/Rebel-monster-records" rel="noopener" data-api_path="/artists/1108254"&gt;Rebel Monster Records&lt;/a&gt;, a sub-label of &lt;a href="https://genius.com/artists/Mascot-records" rel="noopener" data-api_path="/artists/1108255"&gt;Mascot Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band is currently signed to Dutch label Mascot Records and has released six studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album &lt;a href="https://genius.com/albums/Volbeat/Rock-the-rebel-metal-the-devil" rel="noopener" data-api_path="/albums/41582"&gt;&lt;em&gt;Rock the Rebel/Metal the Devil&lt;/em&gt;&lt;/a&gt; received platinum status, and their 2010-release &lt;a href="https://genius.com/albums/Volbeat/Beyond-heaven-above-hell" rel="noopener" data-api_path="/albums/56985"&gt;&lt;em&gt;Beyond Hell/Above Heaven&lt;/em&gt;&lt;/a&gt; was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden, and Austria.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alien-ant-farm', 'annotations': {'description': '&lt;p&gt;Alien Ant Farm is an American rock band &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;of childhood friends&lt;/a&gt; formed in Riverside, California, in 1995. Their name comes &lt;a href="https://www.fredericksburg.com/calendar/charity_fundraisers/alien-ant-farm-at-hard-times/event_262095da-7025-11e4-9677-c392b372c9ea.html" rel="noopener nofollow"&gt;from an idea&lt;/a&gt; original guitarist Terry Corso had about aliens and the Earth:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was just my daydream about our planet being seeded by entities from other dimensions.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After self-releasing two EPs, AAF released their first &lt;a href="https://www.discogs.com/Alien-Ant-Farm-Greatest-Hits/release/3402074" rel="noopener nofollow"&gt;full album&lt;/a&gt; &lt;em&gt;Greatest Hits&lt;/em&gt; on Chick Music Records, featuring the original recordings of two future hits “Movies” and a cover of Michael Jackson’s “Smooth Criminal” (listed as “Slick Thief”). The &lt;a href="http://archives.starbulletin.com/2005/08/19/features/index3.html" rel="noopener nofollow"&gt;album won&lt;/a&gt; Best Independent Album at that year’s LA Music Awards and, through a friendship with Papa Roach, AAF was signed to DreamWorks Records.&lt;/p&gt;\n\n&lt;p&gt;In 2001 AAF released &lt;em&gt;ANThology&lt;/em&gt; with “Movies” as the band’s first single. It originally reached #53 in the UK and #18 on the &lt;a href="https://www.billboard.com/music/alien-ant-farm/chart-history/alternative-songs" rel="noopener nofollow"&gt;US Alternative Chart&lt;/a&gt; in the first half of 2001. Next “Smooth Criminal” was released and it became an international smash hit, reaching the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Smooth+Criminal&amp;amp;cat=s" rel="noopener nofollow"&gt;in fifteen countries&lt;/a&gt;. While “Criminal” was gaining steam, AAF toured with Linkin Park and Papa Roach, traveled with The Warped Tour, and headlined an MTV Fall Tour.&lt;/p&gt;\n\n&lt;p&gt;The success of “Criminal” shot “Movies” up to #5 in the UK and the top 30 in &lt;a href="https://australian-charts.com/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Movies&amp;amp;cat=s" rel="noopener nofollow"&gt;Australia &amp;amp; New Zealand&lt;/a&gt; in early 2002. The band appeared at several European festivals that year, Australia’s Big Day Out and headlined in Japan.  On the way to a festival in Spain, the band’s tour bus &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;collided with&lt;/a&gt; a parked truck, killing the bus driver and injuring several members of the band and their crew, one ending up in a coma.&lt;/p&gt;\n\n&lt;p&gt;In 2003, AAF released &lt;em&gt;Truant&lt;/em&gt; and &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;toured Europe&lt;/a&gt; with Metallica. The album’s lead single “These Days” was a minor Alternative and Rock hit in the US. The follow-up single “Glow” reached #5 &lt;a href="https://charts.nz/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Glow&amp;amp;cat=s" rel="noopener nofollow"&gt;in New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;DreamWorks Records was soon after sold to Universal and the band was placed under Universal’s Geffen Records, who shelved the band’s fourth album. AAF &lt;a href="http://www.popentertainment.com/alienantfarm.htm" rel="noopener nofollow"&gt;responded by&lt;/a&gt; bootlegging it and selling ‘a few thousand’ copies to fans.&lt;/p&gt;\n\n&lt;p&gt;Eventually Geffen relented and allowed the release of the album on a different label owned by Universal. The song “Forgive And Forget” was added and it was released as &lt;em&gt;Up In The Attic&lt;/em&gt; in 2006. None of the album’s singles charted. Its lack of success led to an &lt;a href="https://answerstoall.com/language/why-did-alien-ant-farm-break-up/" rel="noopener nofollow"&gt;unannounced 2007 breakup&lt;/a&gt;, that would only last until 2008. The band then toured for a few years before beginning work on their fifth album &lt;em&gt;Always And Forever&lt;/em&gt; in 2012, which found little success upon release in 2015.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band continues to tour, taking part in 2016’s Make America Rock Again tour with Saliva, Saving Abel, Tantric, Trapt, Crazy Town and 12 Stones, as well as 2018’s Gen-X Summer Tour with Buckcherry, Lit and POD. As of summer 2018, the band had &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;sold over 5 million units&lt;/a&gt; worldwide.  In 2020, during their Covid-19 quarantine, AAF released another 80s cover, this time Wham’s “Everything She Wants”. Its  &lt;a href="https://www.youtube.com/watch?v=Kfg4t-PAcBg" rel="noopener nofollow"&gt;music video&lt;/a&gt; features cameos by several famous musicians.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hoobastank', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Hoobustank']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Beartooth', 'annotations': {'description': '&lt;p&gt;Beartooth is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band that originated in Columbus, Ohio back in 2012 after &lt;a href="https://genius.com/artists/Caleb-shomo" rel="noopener" data-api_path="/artists/66490"&gt;Caleb Shomo&lt;/a&gt; left his old band &lt;a href="https://genius.com/artists/Attack-attack" rel="noopener" data-api_path="/artists/169123"&gt;Attack Attack!&lt;/a&gt; earlier that year. Caleb started writing Beartooth songs while he was still in Attack Attack!. Later in 2012, Caleb Shomo (Vocals) formed Beartooth with the original members Brandon Mullins (Drums), Nick Reed (Bass), Taylor Lumley (Guitar), and himself. Nick Reed and Brandon Mullins have left Beartooth since the band started. Beartooth released their debut EP &lt;a href="https://genius.com/albums/Beartooth/Sick-ep" rel="noopener" data-api_path="/albums/46694"&gt;&lt;em&gt;Sick&lt;/em&gt;&lt;/a&gt; on July 26, 2013 and the next year,(2014) they released their debut album &lt;a href="https://genius.com/albums/Beartooth/Disgusting" rel="noopener" data-api_path="/albums/107205"&gt;&lt;em&gt;Disgusting&lt;/em&gt;&lt;/a&gt; on June 10, 2014. Their sophomore album &lt;a href="https://genius.com/albums/Beartooth/Aggressive" rel="noopener" data-api_path="/albums/149955"&gt;&lt;em&gt;Aggressive&lt;/em&gt;&lt;/a&gt; was released on June 3, 2016. Their third album, &lt;a href="https://genius.com/albums/Beartooth/Disease" rel="noopener" data-api_path="/albums/443008"&gt;&lt;em&gt;Disease&lt;/em&gt;&lt;/a&gt;, was released on September 28, 2018.&lt;/p&gt;\n\n&lt;p&gt;Since the band started, Caleb has also ‘taken in’ 2 members, Oshie Bichar (Bass) and Kamron Bradbury (Guitar). The members of the group today (2018) are Caleb, Kamron, Oshie, Zach, and Connor.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Crown-the-empire', 'annotations': {'description': '&lt;p&gt;Crown The Empire is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; and &lt;a href="https://genius.com/tags/post-hardcore" rel="noopener"&gt;post-hardcore&lt;/a&gt; band from &lt;a href="https://www.tripadvisor.com/Tourism-g55711-Dallas_Texas-Vacations.html" rel="noopener nofollow"&gt;Dallas, Texas&lt;/a&gt;. They released their debut EP, &lt;em&gt;Limitless&lt;/em&gt;, in 2011, and have released two full-length concept albums: &lt;a href="https://genius.com/albums/Crown-the-empire/The-fallout-deluxe-reissue" rel="noopener" data-api_path="/albums/86878"&gt;&lt;em&gt;The Fallout&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Crown-the-empire/The-resistance-rise-of-the-runaways" rel="noopener" data-api_path="/albums/107115"&gt;&lt;em&gt;The Resistance: Rise of the Runaways&lt;/em&gt;&lt;/a&gt; in 2012 and 2014 respectively. These records encapsulated the band’s ability to write albums with sophisticated and intriguing post-apocalyptic themes.&lt;/p&gt;\n\n&lt;p&gt;Their album, &lt;a href="https://genius.com/albums/Crown-the-empire/Retrograde" rel="noopener" data-api_path="/albums/155523"&gt;&lt;em&gt;Retrograde&lt;/em&gt;&lt;/a&gt;, was released on 22nd July, 2016 via &lt;a href="https://riserecords.com/" rel="noopener nofollow"&gt;Rise Records&lt;/a&gt; and moved away from their prior post-apocaplytic themes towards a more emotional and personal theme.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bobaflex', 'annotations': {'description': '&lt;p&gt;BOBAFLEX is known as one of the hardest working bands in the country. Renowned for their high energy, live shows and relentless touring the band was formed in 1998 by brothers Shaun and Marty McCoy. The brothers are known for their ancestral ties to the most infamous family feud in American history between the Hatfield and McCoy.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ashes-remain', 'annotations': {'description': '&lt;p&gt;Ashes Remain is an American Christian Rock band formed in Baltimore, Maryland in 2001&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Smile-empty-soul', 'annotations': {'description': '&lt;p&gt;Smile Empty Soul is an American hard rock band from Santa Clarita, California, United States.&lt;br&gt;\nFormed in 1998, while its original members were attending different high schools in the Santa Clarita area. The band, originally a three-piece group, consisted of vocalist and guitarist Sean Danielsen, bassist Ryan Martin and drummer Derek Gledhill.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Korn', 'annotations': {'description': '&lt;p&gt;Bakersfield friends James “Munky” Shaffer, Reginald “Fieldy” Arvizu and David Silveria &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;formed the funk-rock band LAPD&lt;/a&gt; in 1989 and moved to Los Angeles with another friend Brian “Head” Welch as their roadie. Later, with Welch as second guitarist, the band named themselves Creep and recorded a demo with pal Ross Robinson.&lt;/p&gt;\n\n&lt;p&gt;However, when Shaffer and Welch visited family in Bakersfield, they met Jonathan Davis who added a darker, goth-tinged edge to the band’s heavy groove. &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;Robinson recalled&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The band wasn’t dark yet; it had, like, killer grooves and good riffs, but there was some happy edge to it. And when (Davis) walked into the room, it went dark and goth. Basically, during the first song, to audition in the rehearsal room, he started freaking the hell out [laughs]. You couldn’t hear his voice, but you felt chills all over your body, and it was instantly like, “Oh my God, yeah – he’s the one.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;They chose the name Korn (based on &lt;a href="https://www.youtube.com/watch?v=ZYnk4layQqs" rel="noopener nofollow"&gt;a gross story&lt;/a&gt; Davis once overheard) and recorded four songs &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;inspired by acts like&lt;/a&gt; Pantera, Ice Cube, Duran Duran, Cypress Hill, The Cure, Primus and potentially anything in between. That demo attracted Immortal Records. Their debut album only peaked at #72 in the US, but over time became the seed that sprouted into a whole new style of heavy music most commonly called nu-metal. &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis explained&lt;/a&gt; in 2015:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;At the time in rock, there was nothing new or different, and it felt so stagnant. And here come these guys from Bakersfield with this bouncing sound, and I’m screaming my throat out, being super emotional and bringing up all this weird shit … It changed everything, man. And I’m not saying that because I was in the band, but I started seeing kids in baggy clothes and metal kids in Adidas.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Korn’s second album &lt;em&gt;Life Is Peachy&lt;/em&gt; began to expand the band’s sound from just dark and serious into frivolity, with a light-hearted cover of “Low Rider” and the band’s first almost-hit in the US “ADIDAS”. The formula worked in the UK where all three singles reached the top 30.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s third album &lt;em&gt;Follow The Leader&lt;/em&gt;, another collection of dark songs mixed in with some silly ones, that broke the band in the US. Despite two of its singles only reaching the top 20 on two rock charts (but not crossing over to mainstream success), Korn became &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;what Noisey called&lt;/a&gt; “the biggest band in the fucking world”.&lt;/p&gt;\n\n&lt;p&gt;With an established sound, the band continued releasing successful albums and playing to packed arenas through the 2000s. But aside from their experimental tenth album &lt;em&gt;The Path Of Totality&lt;/em&gt; – a mixing of metal and dubstep – their albums remained formulaic and predictable. They are still best remembered for their self-titled debut and third album &lt;em&gt;Follow The Leader&lt;/em&gt;. In 2005, it was common to refer to Korn as a band whose best albums are &lt;a href="https://www.nme.com/reviews/album/reviews-nme-6437" rel="noopener nofollow"&gt;their odd-numbered ones&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The received wisdom about Korn is that they deliver on the odd numbers. Album one, ‘Korn’, revitalised metal, dragging it out of the middle ages into the modern era. Album three, ‘Follow The Leader’, took the form into the mainstream, blowing boundaries and preconceptions. Album four, ‘Issues’, was dense and impenetrable.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Welch quit in 2005 after having “Revelation of Christ” and Silveria left silently in 2006, but years later &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/jonathan_davis_on_david_silveria_reunion_never_never_again.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; one reason for leaving was that he “was being asked to be a puppet and dumb down my playing” while producers made “cookie cutter Korn songs”. Welch later rejoined in 2013.&lt;/p&gt;\n\n&lt;p&gt;The band’s lifestyles have changed drastically over the band’s three-decade career, moving away from the spoils of excess to inspiring others to overcome their addictions and depression. In 2016, Davis &lt;a href="https://www.theguardian.com/music/2016/oct/21/korn-serenity-of-suffering-jonathan-davis-interview" rel="noopener nofollow"&gt;told The Guardian&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nothing brings more joy into my fucking heart than seeing our music help a kid who is depressed, or suicidal, or going through an episode. That’s the payoff to me, that’s why we keep coming out here, that’s why we keep making records. Because we like to see people smile.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of 2020, the band has released 13 albums. The first seven are certified platinum and the band is &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;widely recognized as&lt;/a&gt; a pioneer of “one of heavy music’s biggest paradigm shifts”. They’re credited with creating the genre ‘nu-metal’ – a label &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis originally rejected&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to find that fucking writer that coined that term, nu-metal … Yeah, we’re heavy and downtuned, but metal, to me, is like Judas Priest and Iron Maiden. That’s metal, man. I always thought of us as a funk band, that funky groovy shit.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Adelitas-way', 'annotations': {'description': '&lt;p&gt;Adelitas Way is an American hard rock band from Las Vegas, Nevada, United States, formed in 2006 by lead singer and writer &lt;a href="https://genius.com/artists/Rick-dejesus" rel="noopener" data-api_path="/artists/1044899"&gt;Rick DeJesus&lt;/a&gt; &lt;a href="https://www.ticketfly.com/event/1041537-adelitas-way-lancaster/" rel="noopener nofollow"&gt;after he&lt;/a&gt; moved there from Philadelphia on a dare to audition for a show on VH1. The band name was &lt;a href="https://www.ticketfly.com/event/1526924-adelitas-way-lancaster/" rel="noopener nofollow"&gt;inspired by&lt;/a&gt; a visit to a bar in Tijuana, Mexico that turned out to be a brothel, and the sad stories told by the girls who worked there at the time.&lt;/p&gt;\n\n&lt;p&gt;Early shows with Chris Cornell, Hinder and Tantric helped generate enough industry buzz to get the band signed to Virgin Records. The band rose to fame when their debut single “Invincible” was featured on &lt;em&gt;CSI Miami&lt;/em&gt; and used as the theme song for the weekly &lt;em&gt;WWE Superstars&lt;/em&gt; show in 2009. It became their first of their seven top 10 US Active Rock Chart songs over a span of ten years.&lt;/p&gt;\n\n&lt;p&gt;Tours with Guns N Roses, Shinedown, Creed, Alter Bridge, Three Days Grace, Halestorm, Theory of a Deadman, Breaking Benjamin, The Pretty Reckless, and Godsmack have kept the band in the active rock spotlight over the years. As of 2020, the band has released six studio LP’s, &lt;em&gt;Shine On&lt;/em&gt; being their most recent, and one EP titled &lt;em&gt;Live, Love, Life&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Good-charlotte', 'annotations': {'description': '&lt;p&gt;First formed in 1996 by brothers Joel and Benji Madden, Maryland’s GOOD CHARLOTTE soundtracked the turn-of-the-century and empowered a generation with one cleverly catchy anthem after another. 2000’s landmark self-titled debut earned a gold plaque and quietly set the stage for worldwide superstardom. In 2002, they unleashed the now-classic The Young and the Hopeless, which eventually went RIAA triple-platinum and would be lauded in the Top 20 of Rolling Stone’s “50 Greatest Pop-Punk Albums” and BuzzFeed’s “36 Pop Punk Albums You Need to Hear Before You F——ing Die.” 2004’s The Chronicles of Life and Death bowed at #3 on the Billboard Top 200 and reached platinum status as Good Morning Revival [2007] and Cardiology [2010] repeated that Top 10 success and brought the band around the world multiple times in front of countless screaming fans. Along the way, everyone from N.E.R.D. and Three 6 Mafia to Avenged Sevenfold and Tonight Alive jumped at the chance to collaborate. By 2018, cumulative sales exceeded 11 million worldwide, while accolades encompassed everything from KERRANG! Awards to an MTV VMA. Following a six-year hiatus, they made a much-lauded return with their first independent offering Youth Authority during 2016. However, their music and message prove as potent as ever on 2018’s Generation Rx—the first album to be released under their partnership with BMG. Generation Rx needed a voice, and there’s no one better to provide it than GOOD CHARLOTTE.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Cky', 'annotations': {'description': '&lt;p&gt;CKY is an American rock band from West Chester, Pennsylvania. CKY was formed in 1998 by lead vocalist and guitarist Deron Miller, guitarist and backing vocalist Chad I Ginsburg, and drummer Jess Margera. Originally known by the full name Camp Kill Yourself, and later as Camp, CKY got recognition through its musical contributions to the CKY video series and the TV series Jackass, both of which featured Jess Margera’s brother Bam Margera.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Crossfade', 'annotations': {'description': '&lt;p&gt;Crossfade is an American rock/metal band originating from Columbia, South Carolina. Their current members are Ed Sloan on lead vocals and guitar, Les Hall on lead guitar, keyboard, and backing vocals, and Mitch James on backing vocals and bass. Since their formation, Crossfade has released three studio albums – their platinum selling self-titled debut album in 2004, Falling Away in 2006, and We All Bleed in 2011.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saving-abel', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/fc94fb0c3ed8a8f909dbc7630a0987ff.1x1x1.gif" alt="" width="1" height="1" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; Saving Abel is an American rock band from Corinth, Mississippi, who started in 2004 by Jared Weeks and Jason Null. The band title is from the ancient biblical story of Cain and Abel, that is about a brother who killed his own brother. Band member Jason Null thought up the band title saying “I Googled the story of Cain and Abel and found a line about ‘there was no saving Abel,’ which just jumped out at me.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Escape-the-fate', 'annotations': {'description': '&lt;p&gt;Escape the Fate is an American rock band from Las Vegas, Nevada, formed in 2005 and originally from Pahrump, Nevada. They are signed to Eleven Seven Music. The group consists of &lt;a href="https://genius.com/artists/Robert-ortiz" rel="noopener" data-api_path="/artists/1434165"&gt;Robert Ortiz&lt;/a&gt; (drummer), &lt;a href="https://genius.com/artists/Craig-mabbitt" rel="noopener" data-api_path="/artists/346335"&gt;Craig Mabbitt&lt;/a&gt; (lead vocalist), &lt;a href="https://genius.com/artists/Tj-bell" rel="noopener" data-api_path="/artists/1063414"&gt;TJ Bell&lt;/a&gt; (rhythm guitarist and vocalist), &lt;a href="https://genius.com/artists/Kevin-gruft" rel="noopener" data-api_path="/artists/1125960"&gt;Kevin “Thrasher” Gruft&lt;/a&gt; (lead guitarist) and touring musician &lt;a href="https://genius.com/artists/Max-georgiev" rel="noopener"&gt;Max Georgiev&lt;/a&gt; (bassist). As of 2013, Ortiz is the last founding member in the current lineup of the group.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Audioslave', 'annotations': {'description': '&lt;p&gt;Audioslave was an American rock supergroup that formed in Los Angeles, California in 2001 and disbanded in 2007. Its members consisted of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; (who at the time broke away from the band &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;), lead guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; (all three of which were members of the then-broken-up band &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;). Thus, they were initially described as a combination of both bands, but by the time their 2005 album &lt;em&gt;Out of Exile&lt;/em&gt; came out, they became noted as being their own band.&lt;/p&gt;\n\n&lt;p&gt;They produced three studio albums and received just as many Grammy nominations over their six years of existence, and were the first American rock band to perform an open-air concert in Cuba. Their biggest hit was &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like A Stone”&lt;/a&gt; from their 2002 self-titled debut album.&lt;/p&gt;\n\n&lt;p&gt;They broke up in 2007 due to “irresolvable personality conflicts as well as musical differences”, according to Cornell, which was later solidified by the reunion tour of Rage and solo album releases by Morello and Cornell in the same year.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Soil', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://www.soiltheband.com/bio/" rel="noopener nofollow"&gt;SOiL&lt;/a&gt;, is an American rock band that was formed in Chicago, Illinois in 1997. Most known for their songs “Halo”, “Unreal” and “Redefine”.&lt;/p&gt;\n\n&lt;p&gt;When the song “Halo” was released it got a lot of attention and a lot of labels wanted to sign the band. They decided to sign with &lt;a href="https://www.jayrecords.com/" rel="noopener nofollow"&gt;J Records&lt;/a&gt; and achieved mainstream success with their major label debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Scars" rel="noopener" data-api_path="/albums/274484"&gt;Scars&lt;/a&gt;&lt;/em&gt;, in 2001. The songs “Halo” and “Unreal” got the band exposure on MTV.&lt;br&gt;\nThey even won Metal Edge magazine’s 2001 Readers’ Choice Award for “Next Big Thing”.&lt;/p&gt;\n\n&lt;p&gt;In 2004 they released their second album &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Redefine" rel="noopener" data-api_path="/albums/224050"&gt;Re*de*fi*ne&lt;/a&gt;&lt;/em&gt; through J Records,  and embarked on a worldwide tour. In late 2004 frontman Ryan McCombs &lt;a href="http://www.blabbermouth.net/news/soil-confirm-singer-s-departure/" rel="noopener nofollow"&gt;left the group&lt;/a&gt;. He would go on to become the new vocalist of &lt;a href="https://genius.com/artists/Drowning-pool" rel="noopener" data-api_path="/artists/15619"&gt;Drowning Pool&lt;/a&gt; the following year.&lt;/p&gt;\n\n&lt;p&gt;After McCombs departure the band recruited AJ Cavalier as its new singer and released two more studio albums &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/True-self" rel="noopener" data-api_path="/albums/252125"&gt;True Self&lt;/a&gt;&lt;/em&gt; in 2006 and &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Picture-perfect" rel="noopener" data-api_path="/albums/172278"&gt;Picture Perfect&lt;/a&gt;&lt;/em&gt; in 2009.&lt;/p&gt;\n\n&lt;p&gt;In 2011, SOiL reunited with Ryan McCombs for a 10th anniversairy tour of their debut album, Scars. He stayed with the band and they released a new album in 2013, entitled “&lt;a href="https://genius.com/albums/Soil/Whole" rel="noopener" data-api_path="/albums/211905"&gt;Whole&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rob-thomas', 'annotations': {'description': '&lt;p&gt;The lead singer of Alt-Rock band &lt;a href="https://genius.com/artists/Matchbox-twenty" rel="noopener" data-api_path="/artists/71892"&gt;Matchbox Twenty&lt;/a&gt;, best known for the 1999 hit &lt;a href="https://genius.com/Santana-smooth-lyrics" rel="noopener" data-api_path="/songs/114915"&gt;‘Smooth’&lt;/a&gt;, his collaboration with &lt;a href="https://genius.com/artists/Santana" rel="noopener" data-api_path="/artists/8439"&gt;Santana&lt;/a&gt;, has won a total of 3 Grammy Awards, provided vocals for 8 albums total and written songs for artists such as Mick Jagger and Pat Green.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Rob-thomas/Chip-tooth-smile" rel="noopener" data-api_path="/albums/505362"&gt;‘Chip Tooth Smile’&lt;/a&gt;, released April 2019, has been compared to Bruce Springsteen’s work in both sound and design, and peaked at 13 on Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;Thomas has also founded the charity &lt;a href="https://www.sidewalkangelsfoundation.org/" rel="noopener nofollow"&gt;Sidewalk Angels&lt;/a&gt; with his wife Marisol, which provides funds for no-kill animal shelters and rescue organizations.&lt;/p&gt;', 'alternate_names': ['Robert K. Thomas', 'Robert Kelly Thomas']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Amy-lee', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Amy Lee&lt;/strong&gt; is an U.S. singer, songwriter, record producer, and multi-instrumentalist, famous as the lead singer and co-founder of &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Johan-olsen', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Danko-jones', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Theory', 'annotations': {'description': '&lt;p&gt;Theory is a Canadian rock band formed in Delta, British Columbia, in 2001.&lt;/p&gt;\n\n&lt;p&gt;Originally named Theory of a Deadman, their name comes from their song &lt;a href="https://genius.com/Theory-of-a-deadman-the-last-song-lyrics" rel="noopener" data-api_path="/songs/517134"&gt;“The Last Song”&lt;/a&gt; (Originally titled “Theory of a Deadman”) which describes a man about to commit suicide.&lt;/p&gt;\n\n&lt;p&gt;In 2008, they released their third album &lt;a href="https://genius.com/albums/Theory-of-a-deadman/Scars-and-souvenirs" rel="noopener" data-api_path="/albums/20339"&gt;&lt;em&gt;Scars &amp;amp; Souvenirs&lt;/em&gt;&lt;/a&gt;, which features vocals from &lt;a href="https://genius.com/artists/Chris-daughtry" rel="noopener" data-api_path="/artists/152338"&gt;Chris Daughtry&lt;/a&gt; and &lt;a href="https://genius.com/artists/Robin-diaz" rel="noopener" data-api_path="/artists/648354"&gt;Robin Diaz&lt;/a&gt;. The album was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=THEORY+OF+A+DEADMAN&amp;amp;ti=SCARS+%26amp%3B+SOUVENIRS" rel="noopener nofollow"&gt;platinum&lt;/a&gt; in 2011. The album’s singles &lt;a href="https://genius.com/Theory-of-a-deadman-bad-girlfriend-lyrics" rel="noopener" data-api_path="/songs/245138"&gt;“Bad Girlfriend”&lt;/a&gt;, &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“All or Nothing”&lt;/a&gt;, and &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“Not Meant to Be”&lt;/a&gt; all made their way onto the &lt;a href="https://www.billboard.com/music/theory-of-a-deadman/chart-history" rel="noopener nofollow"&gt;Billboard Hot 100 Chart&lt;/a&gt;. The band shortened their name to Theory in 2017.&lt;/p&gt;\n\n&lt;p&gt;They’ve been nominated for a handful of &lt;a href="https://junoawards.ca/" rel="noopener nofollow"&gt;Juno Awards&lt;/a&gt; and have won the ‘New Group of the Year’ award in 2003.&lt;/p&gt;', 'alternate_names': ['Theory of a Deadman']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bad-wolves', 'annotations': {'description': '&lt;p&gt;Bad Wolves is an American metal band formed in 2017 led by Tommy Vext as lead vocals followed by John Boecklin on drums, Doc Coyle as lead guitar, Chris Cain on the rhythm guitar, and Kyle Konkiel on the bass guitar. In May 2017, Bad Wolves released their debut single, “Learn to Live”, in November 2017, Bad Wolves released their second single, “Toast to the Ghost”, and on January 18, 2018, they released a third single, which was a cover of “Zombie” (originally by &lt;a href="https://genius.com/artists/The-cranberries" rel="noopener" data-api_path="/artists/31849"&gt;The Cranberries&lt;/a&gt;). Bad Wolves then finally released their debut studio album, “Disobey”, on May 11, 2018.&lt;br&gt;\nBad Wolves is managed by the Zoltan Bathory of Five Finger Death Punch.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Greta-van-fleet', 'annotations': {'description': '&lt;p&gt;Greta Van Fleet is four young musicians – twin brothers &lt;a href="https://genius.com/artists/Josh-kiszka" rel="noopener" data-api_path="/artists/1171460"&gt;Josh&lt;/a&gt; (vocals) and &lt;a href="https://genius.com/artists/Jake-kiszka" rel="noopener" data-api_path="/artists/1171459"&gt;Jake&lt;/a&gt; (guitar), younger brother &lt;a href="https://genius.com/artists/Sam-kiszka" rel="noopener" data-api_path="/artists/1171461"&gt;Sam&lt;/a&gt; (bass/keys), and longtime family friend &lt;a href="https://genius.com/artists/Danny-wagner" rel="noopener" data-api_path="/artists/1171462"&gt;Danny Wagner&lt;/a&gt; (drums). All are from the tiny Michigan hamlet of Frankenmuth known for its family-style chicken dinners and the world’s largest Christmas store. All four were raised on their parents’ extensive vinyl collections which helped give birth to the music they make today:  a high-energy hybrid of rock’n’roll, blues, and soul.&lt;/p&gt;\n\n&lt;p&gt;2017, Greta Van Fleet’s first year as a professional band, was a wild ride of sold-out concerts in North America and Europe, glowing press, accolades from a slew of fellow artists from &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt; to &lt;a href="https://genius.com/artists/Nikki-sixx" rel="noopener" data-api_path="/artists/663569"&gt;Nikki Sixx&lt;/a&gt; to &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt;, millions of YouTube video plays and Spotify streams, two #1 singles at Rock Radio and two #1 EPs, and most importantly, the genesis of an extraordinary connection with their fans. With their debut album &lt;a href="https://genius.com/albums/Greta-van-fleet/Anthem-of-the-peaceful-army" rel="noopener" data-api_path="/albums/448142"&gt;&lt;em&gt;Anthem of the Peaceful Army&lt;/em&gt;&lt;/a&gt; released in October of 2018 and the single from that, &lt;a href="https://genius.com/Greta-van-fleet-when-the-curtain-falls-lyrics" rel="noopener" data-api_path="/songs/3841510"&gt;“When the Curtain Falls”&lt;/a&gt; peaking at number 3 on the Billboard Mainstream Rock Songs chart.&lt;/p&gt;\n\n&lt;p&gt;Greta Van Fleet’s shared message with their music is to spread “peace, love and unity,” and their collective goal is to have people walk out of their live shows feeling invigorated, energized and exhilarated, and to take that feeling out into the world.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jonathan-davis', 'annotations': {'description': '&lt;p&gt;Jonathan Davis is best known for being the vocalist and frontman of the popular nu-metal band Korn. While he still works with Korn, Davis has worked solo on multiple projects: he wrote and produced songs for the feature films Queen of the Damned and American Satan, he toured with his band The SFA, and he released his first solo album “Black Labyrinth.” Davis also has an EDM alter ego named J-Devil, and has been DJing since 1987.&lt;br&gt;\n    Davis discovered his love for music when he was 3 years old and saw his parents rehearsing for a local production of “Jesus Christ the Superstar.” He joined Korn in 1993. Davis began writing songs for “Black Labyrinth” in 2007, but due to multiple setback the album wasn’t released until May 25, 2018 through Sumerian Records.&lt;/p&gt;', 'alternate_names': ['J. H. Davis', 'J Devil', 'Jonathan "JD" Davis', 'Jonathan H. Davis', 'Jonathan Howsman Davis']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sevendust', 'annotations': {'description': '&lt;p&gt;Sevendust was officially formed in April 1997 after attempting to name themselves “Rumblefish” and later “Crawlspace,” both of which were names already taken by other bands. The name refers to the popular insecticide “Sevin Dust” which Hornsby saw in his grandmother’s garage&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Parkway-drive', 'annotations': {'description': "&lt;p&gt;Parkway Drive is an Australian metalcore band from Byron Bay, New South Wales, formed in 2003. As of 2015, Parkway Drive has released five full-length albums (Killing with a Smile, Horizons, Deep Blue, Atlas and Ire), one EP, two DVDs, a split album and one book, Ten Years of Parkway Drive. The band’s latest four albums have reached the top 10 of the Australian ARIA Charts, with Ire reaching number 1 in October 2015.&lt;/p&gt;\n\n&lt;p&gt;The band’s line-up has remained consistent for most of their career, with the only exceptions being the departure of Brett Versteeg in 2004, followed by Shaun Cash in 2006; since the addition of bassist Jia O'Connor in 2006, no members have left the group.&lt;/p&gt;", 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Bring_Me_the_Horizon', 'hometown': 'http://dbpedia.org/resource/South_Yorkshire', 'start_year': '2004', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Earache_Records', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Shock_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Visible_Noise'], 'plays_in': ['http://dbpedia.org/resource/Pyewacket_(film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Deathcore', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['http://dbpedia.org/resource/Oliver_Sykes', 'Jordan Fish', 'Lee Malia', 'Matt Nicholls', 'Matt Kean'], 'old_members': ['http://dbpedia.org/resource/Jona_Weinhofen', 'Curtis Ward'], 'related_artists': ['http://dbpedia.org/resource/Dan_Lancaster', 'http://dbpedia.org/resource/I_Killed_the_Prom_Queen', 'http://dbpedia.org/resource/Jona_Weinhofen', 'http://dbpedia.org/resource/Proxies_(band)', 'http://dbpedia.org/resource/Ted_Jensen', 'http://dbpedia.org/resource/Zakk_Cervini'], 'abstract': "Bring Me the Horizon (often abbreviated as BMTH) are a British rock band formed in Sheffield in 2004. The group consists of lead vocalist Oliver Sykes, guitarist Lee Malia, bassist Matt Kean, drummer Matt Nicholls and keyboardist Jordan Fish. They are signed to RCA Records globally and Columbia Records exclusively in the United States. The band released their debut album Count Your Blessings in 2006. Upon release, the album's sound polarised listeners, and was met with critical disdain. The band began to break away from their controversial sound with Suicide Season (2008), which was a creative, critical and commercial turning point for the band. Bring Me the Horizon released their third album, There Is a Hell Believe Me I've Seen It. There Is a Heaven Let's Keep It a Secret., in 2010, propelling them to greater international fame, whilst incorporating influences from classical music, electronica and pop. Their major label debut, Sempiternal (2013) achieved Gold certification in Australia (35,000) and Silver in the United Kingdom (60,000). That's the Spirit (2015) debuted at number two in the UK Albums Chart and the US Billboard 200. Their sixth studio album Amo (2019) became their first UK chart topper. As well as these six studio albums, they have also released two extended plays and two live albums. They have received four Kerrang! Awards, including two for Best British Band and one for Best Live Band, and have been nominated for two Grammy Awards. The style of their early work, including their debut album Count Your Blessings, has been described primarily as deathcore, but they started to adopt a more eclectic style of metalcore on later albums. Furthermore, That's the Spirit marked a shift in their sound to less aggressive rock music styles. Amo saw a shift into different genres, such as electronica, pop and hip hop."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nova_Twins', 'artist_name': 'Nova Twins', 'wiki': 'http://en.wikipedia.org/wiki/Nova_Twins', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '2014', 'labels': ['http://dbpedia.org/resource/Jason_Aalon_Butler'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['Amy Love', 'Georgia South'], 'abstract': 'Nova Twins are an English rock duo formed in London, England, in 2014, consisting of vocalist/guitarist Amy Love and bassist Georgia South.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Amity_Affliction', 'artist_name': 'The Amity Affliction', 'wiki': 'http://en.wikipedia.org/wiki/The_Amity_Affliction', 'hometown': 'http://dbpedia.org/resource/Gympie', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/Boomtown_Records', 'http://dbpedia.org/resource/Pure_Noise_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/UNFD'], 'genres': ['http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Melodic_metalcore', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore'], 'actual_members': ['Ahren Stringer', 'Dan Brown', 'Joe Longobardi', 'Joel Birch'], 'old_members': ['Chris Burt', 'Clint Owen Ellis', 'Garth Buchanan', 'Imran Siddiqi', 'Lachlan Faulkner', 'Ryan Burt', 'Trad Nathan', 'Troels Thomasen', 'Troy Brady'], 'related_artists': ['http://dbpedia.org/resource/Confession_(band)', 'http://dbpedia.org/resource/The_Getaway_Plan', 'http://dbpedia.org/resource/Windwaker_(band)'], 'abstract': "The Amity Affliction is an Australian metalcore band from Gympie, Queensland, formed in 2003. The band's current line-up consists of Ahren Stringer (bass, clean vocals), Joel Birch (lead vocals), Dan Brown (guitar) and Joe Longobardi (drums). The Amity Affliction has released seven studio albums including Severed Ties (2008), Youngbloods (2010), Chasing Ghosts (2012), Let the Ocean Take Me (2014), This Could Be Heartbreak (2016) and Misery (2018), the latter four debuting at number one on the ARIA charts. They are known for their highly personal songs, often dealing with depression, anxiety, death, substance abuse, and suicide, many lyrics stemming from vocalist Joel Birch's past struggles. The Amity Affliction released their latest album, Everyone Loves You... Once You Leave Them, on 21 February 2020."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Slipknot_(band)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1995', 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Roadrunner_United'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Alessandro_Venturella', 'http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Craig_Jones_(musician)', 'http://dbpedia.org/resource/Dirty_Little_Rabbits', 'http://dbpedia.org/resource/Jay_Weinberg', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Mick_Thomson', 'http://dbpedia.org/resource/Shawn_Crahan', 'http://dbpedia.org/resource/Sid_Wilson', 'Michael Pfaff'], 'old_members': ['http://dbpedia.org/resource/Brandon_Darner', 'http://dbpedia.org/resource/Chris_Fehn', 'http://dbpedia.org/resource/Donnie_Steele', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Paul_Gray_(American_musician)', 'http://dbpedia.org/resource/Slipknot_(band)', 'Greg Welts', 'Josh Brainard', 'Anders Colsefni'], 'related_artists': ['http://dbpedia.org/resource/Stone_Sour'], 'abstract': 'Slipknot is an American heavy metal band formed in Des Moines, Iowa, in 1995 by percussionist Shawn Crahan, drummer Joey Jordison and bassist Paul Gray. After several lineup changes in its early years, the band settled on nine members for more than a decade: Crahan, Jordison, Gray, Craig Jones, Mick Thomson, Corey Taylor, Sid Wilson, Chris Fehn, and Jim Root. Gray died on May 24, 2010, and was replaced during 2011–2014 by guitarist Donnie Steele. Jordison was dismissed from the band on December 12, 2013. Steele left during the recording sessions for .5: The Gray Chapter. The band found replacements in Alessandro Venturella on bass and Jay Weinberg on drums. After the departure of Jordison, as of December 2013 the only founding member in the current lineup is percussionist Crahan. Fehn was also dismissed from the band in March 2019 prior to the writing of We Are Not Your Kind. Slipknot is well known for its attention-grabbing image, aggressive style of music, and energetic and chaotic live shows. The band rapidly rose to fame following the release of their eponymous debut album in 1999. The 2001 follow-up album, Iowa, although darker in tone, made the band more popular. After a brief hiatus, Slipknot returned in 2004 with Vol. 3: (The Subliminal Verses), before going on another hiatus and returning in 2008 with its fourth album, All Hope Is Gone, which debuted at number one on the Billboard 200 chart. After another long hiatus, Slipknot released its fifth studio album, .5: The Gray Chapter, in 2014. Their sixth studio album, We Are Not Your Kind, was released on August 9, 2019. The band has released two live albums titled 9.0: Live and Day of the Gusano: Live in Mexico, a compilation album titled Antennas to Hell, and five live DVDs. The band has sold 30 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Atreyu', 'artist_name': 'Atreyu', 'wiki': 'http://en.wikipedia.org/wiki/Atreyu', 'hometown': 'http://dbpedia.org/resource/Yorba_Linda,_California', 'start_year': '1998', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Hollywood_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/Victory_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore'], 'actual_members': ['http://dbpedia.org/resource/Brandon_Saller', 'Dan Jacobs', 'Kyle Rosa', 'Marc McKnight', 'Travis Miguel'], 'old_members': ['http://dbpedia.org/resource/Alex_Varkatzas', 'Kyle Stanley', 'Chris Thomson', "Brian O'Donnell"], 'related_artists': ['http://dbpedia.org/resource/Alex_Varkatzas', 'http://dbpedia.org/resource/Brandon_Saller'], 'abstract': 'Atreyu is an American metalcore band from Yorba Linda, California, formed in 1998. The band currently consists of clean vocalist Brandon Saller, guitarists Dan Jacobs and Travis Miguel, bassist and unclean vocalist Marc "Porter" McKnight, and drummer Kyle Rosa. The band have released eight studio albums: Suicide Notes and Butterfly Kisses (2002), The Curse (2004), A Death-Grip on Yesterday (2006), Lead Sails Paper Anchor (2007), Congregation of the Damned (2009), Long Live (2015), In Our Wake (2018) and Baptize (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Falling_in_Reverse', 'artist_name': 'Falling in Reverse', 'wiki': 'http://en.wikipedia.org/wiki/Falling_in_Reverse', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2008', 'labels': ['http://dbpedia.org/resource/Epitaph_Records'], 'genres': ['http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'pop punk', 'hip hop'], 'actual_members': ['http://dbpedia.org/resource/Ronnie_Radke', 'Christian Thompson', 'Max Georgiev', 'Wes Horton III'], 'old_members': ['See [[#Band_members'], 'related_artists': ['http://dbpedia.org/resource/Charles_Kallaghan_Massabo', 'http://dbpedia.org/resource/Derek_Jones_(musician)', 'http://dbpedia.org/resource/Escape_the_Fate', 'http://dbpedia.org/resource/I_Am_Ghost', 'http://dbpedia.org/resource/Jacky_Vincent', 'http://dbpedia.org/resource/LoveHateHero', 'http://dbpedia.org/resource/Luke_Holland', 'http://dbpedia.org/resource/Max_Green_(musician)', 'http://dbpedia.org/resource/Mika_Horiuchi', 'http://dbpedia.org/resource/Nason_Schoeffler', 'http://dbpedia.org/resource/Omar_Espinosa', 'http://dbpedia.org/resource/Ryan_Seaman'], 'abstract': "Falling in Reverse is an American rock band based in Las Vegas, Nevada that formed in 2008 by lead vocalist Ronnie Radke while he was incarcerated. The band's original name was 'From Behind These Walls,' but was quickly renamed to Falling in Reverse shortly after formation. They are currently signed to Epitaph Records. The band is currently led by lead vocalist Radke, alongside guitarists Max Georgiev and Christian Thompson and bassist Wes Horton III. The group released its debut album, The Drug in Me Is You, on July 26, 2011, which peaked at No. 19 on the Billboard 200, selling 18,000 copies in its first week. On December 17, 2019 the album was certified gold by RIAA equivalent to 500,000 copies sold. The band's second studio album, Fashionably Late, was released on June 18, 2013, which peaked at No. 17 on the Billboard 200. The band released their third album Just Like You on February 24, 2015. Coming Home, their latest album, was released on April 7, 2017."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/I_Prevail', 'artist_name': 'I Prevail', 'wiki': 'http://en.wikipedia.org/wiki/I_Prevail', 'hometown': 'http://dbpedia.org/resource/Southfield,_Michigan', 'start_year': '2013', 'labels': ['http://dbpedia.org/resource/Fearless_Records'], 'genres': ['http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'pop punk'], 'actual_members': ['Brian Burkheiser', 'Eric Vanlerberghe', 'Steve Menoian', 'Dylan Bowman', 'Gabe Helguera'], 'old_members': ['Jordan Berger', 'Lee Runestad', 'Tony Camposeo'], 'related_artists': ['http://dbpedia.org/resource/Windwaker_(band)'], 'abstract': 'I Prevail is an American metalcore band formed in Southfield, Michigan, in 2013. They released their debut EP Heart vs. Mind (2014) and rose to popularity from releasing a metal cover of Taylor Swift\'s "Blank Space" as a single, which eventually was certified platinum in the US. The band has since released two studio albums, Lifelines (2016) and Trauma (2019). The band found success with their original material as well, with the singles "Breaking Down" and "Hurricane" performing well on rock radio, the single "Bow Down" being nominated for the Grammy Award for Best Metal Performance in 2019, and Trauma being nominated for the Grammy Award for Best Rock Album the same year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Asking_Alexandria', 'artist_name': 'Asking Alexandria', 'wiki': 'http://en.wikipedia.org/wiki/Asking_Alexandria', 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/Monstercat', 'http://dbpedia.org/resource/Sumerian_Records'], 'genres': ['http://dbpedia.org/resource/Electronicore', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Ben_Bruce', 'http://dbpedia.org/resource/Danny_Worsnop', 'Cameron Liddell', 'James Cassells', 'Sam Bettley'], 'old_members': ['http://dbpedia.org/resource/Denis_Stoff', 'http://dbpedia.org/resource/Joe_Lancaster_(musician)', 'Ryan Binns'], 'related_artists': ['http://dbpedia.org/resource/Danny_Worsnop', 'http://dbpedia.org/resource/Denis_Stoff', 'http://dbpedia.org/resource/Joe_Lancaster_(musician)', 'http://dbpedia.org/resource/Matt_Good', 'http://dbpedia.org/resource/We_Are_Harlot'], 'abstract': "Asking Alexandria are a British rock band from York, North Yorkshire, consisting of guitarists Ben Bruce and Cameron Liddell, drummer James Cassells, lead vocalist Danny Worsnop, and bassist Sam Bettley. Initially formed in 2006 by Ben Bruce, the band officially established as a six-piece in 2008 with the founding line-up consisting of Bruce, Worsnop, Cassells, Liddell, Joe Lancaster and Ryan Binns. After the departure of Lancaster and Binns, as well as the recruitment of bassist Sam Bettley in 2009, the band released their debut album Stand Up and Scream (2009). The band released two studio albums Reckless &amp; Relentless (2011) and From Death to Destiny (2013), before the departure of Worsnop in January 2015. He was replaced by Denis Stoff and the band released The Black (2016). Stoff departed from the band in October that year, and Worsnop subsequently returned to the band. The band released their self-titled fifth album in late 2017, which was a marked stylistic departure from their previous works. Their sixth studio album, Like a House on Fire, which was released on 15 May 2020, shows the group's continuity of a more straightforward and melodic hard rock sound, while also shift into different genres. Its follow-up and their seventh studio album, See What's on the Inside, was released on 1 October 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Avenged_Sevenfold', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'start_year': '1999', 'aliases': ['A7X'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Good_Life_Recordings', 'http://dbpedia.org/resource/Hopeless_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Metalcore', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/M._Shadows', 'http://dbpedia.org/resource/Synyster_Gates', 'Johnny Christ', 'Zacky Vengeance'], 'old_members': ['http://dbpedia.org/resource/The_Rev', 'Arin Ilejay', 'Dameon Ash', 'Justin Sane', 'Matt Wendt'], 'related_artists': ['http://dbpedia.org/resource/Brian_Haner', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Cowboy_Troy', 'http://dbpedia.org/resource/Fozzy', 'http://dbpedia.org/resource/M._Shadows', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Suburban_Legends', 'http://dbpedia.org/resource/Suicidal_Tendencies', 'http://dbpedia.org/resource/Synyster_Gates', 'http://dbpedia.org/resource/The_Confession_(band)__The_Confession__1', 'http://dbpedia.org/resource/The_Rev'], 'abstract': 'Avenged Sevenfold (sometimes abbreviated as A7X) is an American heavy metal band from Huntington Beach, California, formed in 1999. The band\'s current lineup consists of lead vocalist M. Shadows, rhythm guitarist and backing vocalist Zacky Vengeance, lead guitarist and backing vocalist Synyster Gates, bassist and backing vocalist Johnny Christ, and drummer Brooks Wackerman. Avenged Sevenfold is known for its diverse rock sound and dramatic imagery in album covers and merchandise. The band emerged with a metalcore sound on their debut album Sounding the Seventh Trumpet and continued this sound through their second album Waking the Fallen. However, the band\'s style had evolved by the group\'s third album and first major label release, City of Evil, into a heavy metal and hard rock style. The band continued to explore new sounds with its self-titled release and enjoyed continued mainstream success before their drummer, James "The Rev" Sullivan, died in 2009. Despite his death, Avenged Sevenfold continued on with the help of drummer Mike Portnoy (Dream Theater), and released and toured in support of their fifth album Nightmare in 2010, which debuted on the top spot of the Billboard 200, their first number one debut. In 2011 drummer Arin Ilejay joined the band on tours and recording. The band\'s sixth studio album Hail to the King, which was released in 2013, marked the only Avenged Sevenfold album featuring Ilejay. Hail to the King charted as number 1 on the Billboard 200, the UK Albums chart, as well as the Finnish, Brazilian, Canadian, and Irish charts. In late 2014, Ilejay left the band, and was replaced by former Bad Religion drummer Brooks Wackerman, but the lineup change was not announced to the public until 2015. The band then surprise-released their seventh studio album titled The Stage on October 28, 2016, which debuted as number 4 on the Billboard 200 chart in the US. The Stage is their first conceptual album and it marked another stylistic change for the band, moving towards a progressive metal sound. To date, Avenged Sevenfold has released seven studio albums, one live album/DVD, two compilation albums and eighteen singles and have sold over 8 million albums worldwide, and their records have received numerous certification awards, including five platinum album awards from their home country\'s institution (RIAA). They have also created four original songs for the Call of Duty: Black Ops series, all of which were compiled together in the 2018 EP Black Reign. The band were ranked No. 47 on Loudwire\'s list of Top 50 Metal Bands of All Time.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nothing_More', 'artist_name': 'Nothing More', 'wiki': 'http://en.wikipedia.org/wiki/Nothing_More', 'hometown': 'http://dbpedia.org/resource/San_Antonio', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Progressive_metal', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['Jonny Hawkins', 'Mark Vollelunga', 'Daniel Oliver', 'Ben Anderson'], 'old_members': ['Josh Kercheville', 'Josh Klaus', 'Matt Reynolds', 'Travis Cox', 'Trey Graham', 'Devin Travieso', "Paul O'Brien"], 'abstract': 'Nothing More is an American rock band from San Antonio, Texas. Formed in 2003, the band spent much of the 2000s recording independent albums and struggling to maintain a steady lineup or attract record label interest. Towards the end of the decade, the band\'s long-time drummer, Jonny Hawkins, decided to switch to being the band\'s frontman and lead vocalist, stabilizing the band\'s core lineup along with other long-time members Mark Vollelunga (guitar) and Daniel Oliver (bass). The band self-funded and recorded their fourth studio album, Nothing More, over the course of three years and used it to gain the attention of Eleven Seven Music record label, who signed the band to a five album record contract upon hearing it. The album became the band\'s breakthrough release in 2014, with multiple charting singles, including "This is the Time (Ballast)", which hit number 1 on the Mediabase Active Rock chart and number 2 on the Billboard Mainstream Rock chart, and "Mr. MTV", "Jenny" and "Here\'s to the Heartache" all charting in the top 15 of both charts. The band began working on a follow-up in 2016 while continuing to tour in support of their self-titled release, and in September 2017, released their fifth studio album - their second on a major record label - The Stories We Tell Ourselves. The lead single, "Go to War", outperformed the prior singles, topping the Mainstream Rock chart, and the release earned the band three Grammy Award nominations; Best Rock Album for the album, and Best Rock Song and Best Rock Performance for "Go to War". The band continued to promote the release moving into 2018, releasing singles, "Do You Really Want It?" and "Just Say When", and embarking on multiple North American tours into 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Five_Finger_Death_Punch', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2005', 'aliases': ['5FDP', 'Death Punch', 'FFDP', 'Five Finger'], 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Prospect_Park_(production_company)', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/The_Firm,_Inc.', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Thrash_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Zoltan_Bathory', 'Chris Kael', 'Charlie Engen', 'Andy James'], 'old_members': ['http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'Caleb Bingham', 'Matt Snell'], 'related_artists': ['http://dbpedia.org/resource/Bad_Wolves', 'http://dbpedia.org/resource/Darrell_Roberts', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/Ghost_Machine', 'http://dbpedia.org/resource/Invidia_(band)', 'http://dbpedia.org/resource/Ivan_Moody', 'http://dbpedia.org/resource/Jason_Hook', 'http://dbpedia.org/resource/Jeremy_Spencer_(drummer)', 'http://dbpedia.org/resource/Kevin_Churko', 'http://dbpedia.org/resource/Scale_the_Summit', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/Zoltan_Bathory'], 'abstract': 'Five Finger Death Punch, also abbreviated as 5FDP or FFDP, is an American heavy metal band from Las Vegas, Nevada, formed in 2005. The band originally consisted of vocalist Ivan Moody, rhythm guitarist Zoltan Bathory, lead guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by in 2011. Spencer then departed the band in 2018 due to recurring back issues, and was replaced by Charlie Engen, making rhythm guitarist Bathory the only remaining founding member of the band. In October 2020, British guitarist Andy James became the band\'s lead guitarist, replacing Jason Hook. Five Finger Death Punch\'s debut album The Way of the Fist was released in 2007, which began achieving rapid success and selling over 500,000 copies in the United States. The 2009 follow-up album War Is the Answer further increased their popularity, selling over 1,000,000 copies and got certified Platinum by the RIAA, the band\'s third album, American Capitalist, was released on October 11, 2011, and achieved Platinum status. The following four albums—The Wrong Side of Heaven and the Righteous Side of Hell, Volume 1 (2013), The Wrong Side of Heaven and the Righteous Side of Hell, Volume 2 (2013), Got Your Six (2015), and And Justice for None (2018)—have all been certified Platinum and Gold, making Five Finger Death Punch one of the most successful heavy metal bands of the decade. The band has played international music festivals including Mayhem Festival in 2008, 2010 and 2013, and Download Festival in 2009, 2010, 2013, 2015, and 2017. The band released their eighth studio album, F8, in 2020. Five Finger Death Punch are the recipients of the RadioContraband Rock Radio Awards for "Indie Artist of the Year" in 2011, 2012, 2013, and 2014. They were also honored with the Radio Contraband Rock Radio Award for Album (American Capitalist) and Song of the Year ("Coming Down") in 2012 and "Video of the Year" for "Wrong Side of Heaven" in 2014. To date, Five Finger Death Punch has released eight studio albums, one live album, two compilation albums, one extended play (EP) and 32 singles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/My_Chemical_Romance', 'artist_name': 'My Chemical Romance', 'wiki': 'http://en.wikipedia.org/wiki/My_Chemical_Romance', 'hometown': 'http://dbpedia.org/resource/Newark,_New_Jersey', 'start_year': '2001', 'end_year': '2013', 'aliases': ['MCR', 'My Chem'], 'labels': ['http://dbpedia.org/resource/Eyeball_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/Frank_Iero', 'http://dbpedia.org/resource/Gerard_Way', 'http://dbpedia.org/resource/Mikey_Way', 'http://dbpedia.org/resource/Ray_Toro'], 'old_members': ['http://dbpedia.org/resource/Bob_Bryar', 'http://dbpedia.org/resource/James_Dewees', 'Matt Pelissier'], 'related_artists': ['http://dbpedia.org/resource/American_Nightmare_(band)', 'http://dbpedia.org/resource/Bert_McCracken', 'http://dbpedia.org/resource/Bob_Bryar', 'http://dbpedia.org/resource/Death_Spells', 'http://dbpedia.org/resource/Frank_Iero', 'http://dbpedia.org/resource/Geoff_Rickly', 'http://dbpedia.org/resource/James_Dewees', 'http://dbpedia.org/resource/Jarrod_Alexander', 'http://dbpedia.org/resource/John_Miceli', 'http://dbpedia.org/resource/Leathermouth', 'http://dbpedia.org/resource/Mikey_Way', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Pencey_Prep', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Pop_Shuvit', 'http://dbpedia.org/resource/Quinn_Allman', 'http://dbpedia.org/resource/Ray_Toro', 'http://dbpedia.org/resource/Reggie_and_the_Full_Effect'], 'abstract': 'My Chemical Romance (commonly abbreviated to MCR or My Chem) is an American rock band from Newark, New Jersey. The band\'s current lineup consists of lead vocalist Gerard Way, lead guitarist Ray Toro, rhythm guitarist Frank Iero, and bassist Mikey Way. Founded by Gerard, Mikey, Toro, and Matt Pelissier (and later joined by Iero), the band signed with Eyeball Records and released their debut album, I Brought You My Bullets, You Brought Me Your Love, in 2002. They signed with Reprise Records the next year and released their major-label debut, Three Cheers for Sweet Revenge, in 2004. Shortly after the album\'s release, Pelissier was replaced by Bob Bryar. The album was a commercial success, and it attained platinum status over a year later. The success of the band’s previous albums was eclipsed by that of their 2006 concept album, The Black Parade, which generally received favorable reviews from music critics and was certified triple platinum in the United States and the United Kingdom. The band’s long-time drummer, Bob Bryar, left in March 2010, and they released their fourth studio album, Danger Days: The True Lives of the Fabulous Killjoys, in November of the same year, to positive reviews. On tour, the band replaced Bryar with drummers including Michael Pedicone and Jarrod Alexander, and, in 2012, added touring keyboardist James Dewees. Also in 2012, and the early part of 2013, over the course of five months, the band released a series of singles they had recorded in 2009, under the collective title Conventional Weapons. Then, on March 22, 2013, one month after the release of the final single in the series, the band announced its breakup. In March 2014, a greatest hits album, titled May Death Never Stop You, was released. On September 23, 2016, a tenth-anniversary reissue of The Black Parade, including demos and live versions of the B-sides from the album and an early version of "Welcome to the Black Parade", titled "The Five of Us Are Dying", was released, titled The Black Parade/Living with Ghosts. In 2017, the band reunited out of the public eye. On October 31, 2019, they announced a reunion show, which took place in Los Angeles on December 20, 2019. This was extended to a small tour consisting of appearances in Australia, New Zealand and Japan a week later. In January 2020, they announced North American and European tours, but these were later postponed to 2022 because of the COVID-19 pandemic.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thousand_Foot_Krutch', 'artist_name': 'Thousand Foot Krutch', 'wiki': 'http://en.wikipedia.org/wiki/Thousand_Foot_Krutch', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'start_year': '1995', 'end_year': '2017', 'aliases': ['Oddball (1995–1996)'], 'labels': ['http://dbpedia.org/resource/Tooth_&amp;_Nail_Records'], 'genres': ['http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal'], 'actual_members': ['http://dbpedia.org/resource/Trevor_McNevan', 'Steve Augustine', 'Joel Bruyere'], 'old_members': ['http://dbpedia.org/resource/Neil_Sanderson', 'Dave Smith', 'Geoff Laforet', 'Tim Baxter', 'Christian Harvey'], 'related_artists': ['http://dbpedia.org/resource/FM_Static', 'http://dbpedia.org/resource/Hawk_Nelson', 'http://dbpedia.org/resource/Manafest', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Randy_Torres', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris', 'http://dbpedia.org/resource/The_Class_of_98', 'http://dbpedia.org/resource/Trevor_McNevan'], 'abstract': 'Thousand Foot Krutch (often abbreviated TFK) is a Canadian Christian rock band formed in Peterborough, Ontario, in 1997. The band has released eight studio albums, two live albums, and three remix albums. The band currently consists of founding member Trevor McNevan (vocals, guitar), Steve Augustine (drums), and Joel Bruyere (bass, backing vocals). Since forming, Thousand Foot Krutch has sold over 1.1 million albums and reached No. 1 on the Billboard Hard Rock Albums Chart twice.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Egypt_Central', 'artist_name': 'Egypt Central', 'wiki': 'http://en.wikipedia.org/wiki/Egypt_Central', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '2001', 'end_year': '2012', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Bieler_Bros._Records', 'http://dbpedia.org/resource/Lava'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Blake Allison', 'Joey Chicago', 'John Falls'], 'old_members': ["Chris D'Abaldo", 'Don Wray', 'Heath Hindman', 'Jeff James', 'Josie Cummings', 'Michael Spann', 'Stephen “Worm” Williams'], 'related_artists': ['http://dbpedia.org/resource/Devour_the_Day', 'http://dbpedia.org/resource/Saliva_(band)'], 'abstract': 'Egypt Central is an American alternative metal band from Memphis, Tennessee.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Breaking_Benjamin', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'start_year': '1999', 'end_year': '2010', 'aliases': ['Plan 9'], 'labels': ['http://dbpedia.org/resource/Hollywood_Records'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack', 'http://dbpedia.org/resource/Tongan_Ninja'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Benjamin_Burnley', 'http://dbpedia.org/resource/Jasen_Rauch', 'http://dbpedia.org/resource/Keith_Wallen', 'Aaron Bruch', 'Shaun Foist'], 'old_members': ['http://dbpedia.org/resource/Chad_Szeliga', 'Jason Davoli', 'Mark Klepaski', 'Jonathan "Bug" Price', 'Jeremy Hummel', 'Aaron Fink'], 'related_artists': ['http://dbpedia.org/resource/Chad_Szeliga', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Keith_Wallen', 'http://dbpedia.org/resource/Leo_(band)', 'http://dbpedia.org/resource/Lifer_(band)', 'http://dbpedia.org/resource/Scooter_Ward', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Spencer_Chamberlain', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Breaking Benjamin is an American rock band from Wilkes-Barre, Pennsylvania, formed in 1999 by lead singer and guitarist Benjamin Burnley and drummer Jeremy Hummel. The first lineup of the band also included guitarist Aaron Fink and bassist Mark Klepaski. This lineup released two albums, Saturate (2002) and We Are Not Alone (2004), before Hummel was replaced by Chad Szeliga in 2005. The band released two more studio albums, Phobia (2006) and Dear Agony (2009), before entering an extended hiatus in early 2010 due to Burnley\'s recurring illnesses. Amid the hiatus, the release of a compilation album, Shallow Bay: The Best of Breaking Benjamin (2011), unauthorized by Burnley, brought about legal trouble within the band resulting in the dismissal of Fink and Klepaski. Szeliga later announced his departure in 2013 citing creative differences. Burnley remained the sole member of the band until late 2014, when the current lineup was announced, including bassist and backing vocalist Aaron Bruch, guitarist and backing vocalist Keith Wallen, guitarist Jasen Rauch, and drummer Shaun Foist. The band afterward released Dark Before Dawn (2015) and Ember (2018), which debuted at number one and three on the Billboard 200, respectively. Following these albums, the band released another compilation, Aurora (2020), featuring reworked acoustic versions of past songs along with one original new song. Despite significant lineup changes, the band\'s musical style and lyrical content have remained consistent, with Burnley serving as the primary composer and lead vocalist since the band\'s inception. The band has commonly been noted for its formulaic hard rock tendencies with angst-heavy lyrics, swelling choruses, and "crunching" guitars. In the United States alone, the band has sold more than 7 million units and yielded three RIAA-certified platinum records, two gold records, and several certified singles, including two multi-platinum, two platinum, and five gold. The band has also produced one number one record on the Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Alice_in_Chains', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1987', 'end_year': '2002', 'aliases': ['AIC'], 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/Black_Antenna'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Sludge_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Mike_Inez', 'http://dbpedia.org/resource/Sean_Kinney', 'http://dbpedia.org/resource/William_DuVall'], 'old_members': ['http://dbpedia.org/resource/Layne_Staley', 'http://dbpedia.org/resource/Mike_Starr_(musician)'], 'related_artists': ["http://dbpedia.org/resource/Alice_N'_Chains", 'http://dbpedia.org/resource/Mad_Season_(band)', 'http://dbpedia.org/resource/Sleze', 'http://dbpedia.org/resource/Spys4Darwin'], 'abstract': "Alice in Chains (often abbreviated as AIC) is an American rock band from Seattle, Washington, formed in 1987 by guitarist and vocalist Jerry Cantrell and drummer Sean Kinney, who later recruited bassist Mike Starr and lead vocalist Layne Staley. Starr was replaced by Mike Inez in 1993. William DuVall joined the band in 2006 as co-lead vocalist and rhythm guitarist, replacing Staley, who died in 2002. The band took its name from Staley's previous group, the glam metal band Alice N' Chains. Often associated with grunge music, Alice in Chains' sound incorporates heavy metal elements. The band is known for its distinctive vocal style, which often included the harmonized vocals between Staley and Cantrell (and later Cantrell and DuVall). Cantrell started to sing lead vocals on the 1992 acoustic EP Sap, and his role continued to grow in the following albums, making Alice in Chains a two-vocal band. Alice in Chains rose to international fame as part of the grunge movement of the early 1990s, along with other Seattle bands such as Nirvana, Pearl Jam, and Soundgarden. They achieved success during the era with the albums Facelift (1990), Dirt (1992), Alice in Chains (1995), as well as the EP Jar of Flies (1994). Although never officially disbanding, Alice in Chains was plagued by extended inactivity from 1996 onward, due to Staley's substance abuse, which resulted in his death in 2002. The band regrouped in 2006, with DuVall taking over as lead vocalist full-time, and they have since released three more albums: Black Gives Way to Blue (2009), The Devil Put Dinosaurs Here (2013), and Rainier Fog (2018). Alice in Chains have sold over 30 million records worldwide, and over 14 million records in the US alone. The band has had 18 Top 10 songs on Billboard's Mainstream Rock Tracks chart, 5 No. 1 hits, and received 11 Grammy Award nominations. The band was ranked number 34 on VH1's 100 Greatest Artists of Hard Rock and was ranked as the 15th greatest live band by Hit Parader. Since its formation, Alice in Chains has released six studio albums, three EPs, three live albums, four compilations, two DVDs, 43 music videos, and 32 singles."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sick_Puppies', 'artist_name': 'Sick Puppies', 'wiki': 'http://en.wikipedia.org/wiki/Sick_Puppies', 'hometown': 'http://dbpedia.org/resource/Sydney', 'start_year': '1997', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Mark_Goodwin_(musician)', 'Bryan Scott', 'Emma Anzai'], 'old_members': ['http://dbpedia.org/resource/Shimon_Moore', 'Chris Mileski'], 'related_artists': ['http://dbpedia.org/resource/Blue_Stahli', 'http://dbpedia.org/resource/Mark_Goodwin_(musician)', 'http://dbpedia.org/resource/Shim_(band)'], 'abstract': 'Sick Puppies are an Australian rock band formed in Sydney in 1997. After releasing their debut album, Welcome to the Real World in 2001, the band rose to prominence in 2006 when their song "All the Same" was uploaded, along with a video, to YouTube. The video supported the Free Hugs Campaign, which was launched in Sydney, and has since received over 78 million views on the website. This success was followed up with their second studio album, Dressed Up as Life in 2007, which entered the Billboard 200 at number 181. Their third studio album, Tri-Polar, came out on 14 July 2009. The band\'s fourth studio album, Connect was released on 16 July 2013. They released their fifth studio album, Fury on 20 May 2016 with new vocalist Bryan Scott after Shimon Moore was kicked out of the band in October 2014.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Shinedown', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Brent_Smith', 'http://dbpedia.org/resource/Zach_Myers', 'Eric Bass', 'Barry Kerch '], 'old_members': ['http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Nick_Perri', 'Jasin Todd'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/Deepfield', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Nick_Perri', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': "Shinedown is an American rock band from Jacksonville, Florida, formed by singer Brent Smith in 2001 after the dissolution of Dreve, his previous band. Smith, still under contract with record label Atlantic Records, recruited the band's original lineup of Jasin Todd as guitarist, Brad Stewart on bass, and Barry Kerch on drums. Consistent for the first two album cycles, a few lineup changes followed in the late 2000s, eventually stabilizing with Smith and Kerch alongside Zach Myers on guitar and Eric Bass on bass. The group has released six studio albums: Leave a Whisper (2003), Us and Them (2005), The Sound of Madness (2008), Amaryllis (2012), Threat to Survival (2015), and Attention Attention (2018). Shinedown has the most number one singles on the Billboard Mainstream Rock charts out of any band, with 16, and all of their released singles have reached the top 5 on the chart. Additionally, on June 3, 2021 Shinedown was ranked #1 by Billboard on the Greatest of All Time Mainstreams Rock Artists chart released to celebrate the Mainstream Rock Chart's 40th Anniversary. To date, the band has sold more than 10 million records."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/Godsmack', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'start_year': '1995', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Robbie_Merrill', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Sully_Erna', 'http://dbpedia.org/resource/Tony_Rombola'], 'old_members': ['http://dbpedia.org/resource/Tommy_Stewart', "Joe D'Arco", 'Lee Richards'], 'related_artists': ['http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Another_Animal', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Candlebox', 'http://dbpedia.org/resource/Dave_Fortman', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Robbie_Merrill', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Snot_(band)', 'http://dbpedia.org/resource/Souls_at_Zero_(band)', 'http://dbpedia.org/resource/Sully_Erna', 'http://dbpedia.org/resource/The_Apocalypse_Blues_Revival', 'http://dbpedia.org/resource/Tommy_Stewart', 'http://dbpedia.org/resource/Tony_Rombola', 'http://dbpedia.org/resource/Ugly_Kid_Joe', 'http://dbpedia.org/resource/Wrathchild_America'], 'abstract': 'Godsmack is an American rock band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill and drummer Shannon Larkin. Since its formation, Godsmack has released seven studio albums, one EP (The Other Side), four DVDs, one compilation album (Good Times, Bad Times... Ten Years of Godsmack), and one live album (Live &amp; Inspired). The band has released three consecutive number-one albums (Faceless, IV and The Oracle) on the Billboard 200. The band also has 25 top ten rock radio hits, including 18 songs in the top five. The band\'s seventh album, When Legends Rise was released on April 27, 2018. Since its inception, Godsmack has toured with Ozzfest on more than one occasion and has toured with many other large tours and festivals, including supporting its albums with its own arena tours. In honor of the band\'s success and the release of their sixth studio album, 1000hp, Mayor Marty Walsh declared August 6 as "Godsmack Day" in the city of Boston.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/System_of_a_Down', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '1994', 'end_year': '2006', 'aliases': ['SoaD', 'System'], 'labels': ['http://dbpedia.org/resource/American_Recordings_(record_label)', 'http://dbpedia.org/resource/Columbia_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Screamers_(2006_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Progressive_metal', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian'], 'old_members': ['http://dbpedia.org/resource/Ontronik_Khachaturian', 'Andy Khachaturian'], 'related_artists': ['http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Arto_Tunçboyacıyan', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Acid_Trip', 'http://dbpedia.org/resource/Ben_Weinman', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Daron_Malakian_and_Scars_on_Broadway', 'http://dbpedia.org/resource/Flying_Cunts_of_Chaos', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/Mower_(band)', 'http://dbpedia.org/resource/Mt._Helium', 'http://dbpedia.org/resource/Onesidezero', 'http://dbpedia.org/resource/Ontronik_Khachaturian', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Viza'], 'abstract': 'System of a Down (also known as SoaD or simply System) is an Armenian-American heavy metal band formed in Glendale, California, in 1994. It currently consists of members Serj Tankian (lead vocals, keyboards), Daron Malakian (guitar, vocals), Shavo Odadjian (bass, backing vocals), and John Dolmayan (drums), who replaced original drummer Andy Khachaturian in 1997. The band achieved commercial success with the release of five studio albums, three of which debuted at number one on the US Billboard 200. System of a Down has been nominated for four Grammy Awards and their song "B.Y.O.B." won a Grammy Award for Best Hard Rock Performance in 2006. The band went on hiatus in 2006 and reunited in 2010. Other than two new songs in 2020 ("Protect the Land" and "Genocidal Humanoidz"), System of a Down has not released a full-length record since the Mezmerize and Hypnotize albums in 2005. The band has sold over 40 million records worldwide, while two of their singles "Aerials" and "Hypnotize" reached number one on Billboard\'s Alternative Songs chart. All members of System of a Down are of Armenian descent, being born to Armenian immigrants or immigrating from Armenia themselves.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sixx:A.M.', 'artist_name': 'Sixx:A.M.', 'wiki': 'http://en.wikipedia.org/wiki/Sixx:A.M.', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2007', 'end_year': '2021', 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/DJ_Ashba', 'http://dbpedia.org/resource/James_Michael', 'http://dbpedia.org/resource/Nikki_Sixx', 'Dustin Steinke'], 'related_artists': ['http://dbpedia.org/resource/Beautiful_Creatures_(band)', 'http://dbpedia.org/resource/Brides_of_Destruction', 'http://dbpedia.org/resource/DJ_Ashba', "http://dbpedia.org/resource/Guns_N'_Roses", 'http://dbpedia.org/resource/Halestorm', 'http://dbpedia.org/resource/James_Michael', 'http://dbpedia.org/resource/Mötley_Crüe', 'http://dbpedia.org/resource/Nikki_Sixx', 'http://dbpedia.org/resource/Pyromantic', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': 'Sixx:A.M. is an American hard rock band from Los Angeles, California, formed in 2007 by Nikki Sixx, DJ Ashba, and James Michael, and was a side project of Sixx, who was also at the time bass guitarist for Mötley Crüe. The group is best known for their songs "Life Is Beautiful" and "Lies of the Beautiful People". The name Sixx:A.M. is a combination of all of the members\' last names (Sixx, Ashba, Michael). To date, Sixx:A.M. have released five studio albums: The Heroin Diaries Soundtrack (2007), This Is Gonna Hurt (2011), Modern Vintage (2014) Prayers for the Damned and Blessed (2016), and three EPs; X-Mas In Hell (2008); Live Is Beautiful (2008) and 7 (2011).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Marilyn_Manson_(band)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'start_year': '1989', 'aliases': ['Marilyn Manson &amp; the Spooky Kids (1989–1993)'], 'labels': ['http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Hell,_etc._(label)', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Nothing_Records', 'http://dbpedia.org/resource/Virgin_Music_Label_&amp;_Artist_Services'], 'plays_in': ['http://dbpedia.org/resource/Private_Parts_(1997_film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Industrial_metal', 'http://dbpedia.org/resource/Industrial_rock', 'http://dbpedia.org/resource/Shock_rock'], 'actual_members': ['http://dbpedia.org/resource/Juan_Alderete', 'http://dbpedia.org/resource/Marilyn_Manson', 'http://dbpedia.org/resource/Tim_Skold', 'Brandon Pertzborn', 'Paul Wiley', 'Tim Sköld'], 'old_members': ['http://dbpedia.org/resource/Chris_Vrenna', 'http://dbpedia.org/resource/Fred_Sablan', 'http://dbpedia.org/resource/Gidget_Gein', 'http://dbpedia.org/resource/Gil_Sharone', 'http://dbpedia.org/resource/Ginger_Fish', 'http://dbpedia.org/resource/John_5_(guitarist)', 'http://dbpedia.org/resource/Madonna_Wayne_Gacy', 'http://dbpedia.org/resource/Olivia_Newton_Bundy', 'http://dbpedia.org/resource/Sara_Lee_Lucas', 'http://dbpedia.org/resource/Scott_Putesky', 'http://dbpedia.org/resource/Twiggy_Ramirez', 'http://dbpedia.org/resource/Tyler_Bates', 'http://dbpedia.org/resource/Zim_Zum', 'Zsa Zsa Speck', 'Daisy Berkowitz'], 'related_artists': ['http://dbpedia.org/resource/Godhead_(band)', 'http://dbpedia.org/resource/Jack_Off_Jill', 'http://dbpedia.org/resource/Nine_Inch_Nails', 'http://dbpedia.org/resource/Rasputina_(band)', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Shooter_Jennings'], 'abstract': 'Marilyn Manson is an American rock band formed by namesake lead singer Marilyn Manson and guitarist Daisy Berkowitz in Fort Lauderdale, Florida, in 1989. Originally named Marilyn Manson &amp; the Spooky Kids, they gained a local cult following in South Florida in the early 1990s with their theatrical live performances. In 1993, they were the first act signed to Trent Reznor\'s Nothing Records label. Until 1996, the name of each member was created by combining the first name of a female sex symbol and the last name of a serial killer, for example Marilyn Monroe and Charles Manson. Their lineup has changed between many of their album releases; the eponymous lead singer is the only remaining original member. In the past, band members dressed in outlandish makeup and costumes, and engaged in intentionally shocking behavior both onstage and off. Their lyrics often received criticism for their anti-religious sentiment and references to sex, violence and drugs, while their live performances were frequently called offensive and obscene. On several occasions, protests and petitions led to the group being blocked from performing, with at least three US states passing legislation banning the group from performing at state-owned venues. They released a number of platinum-selling albums, including Antichrist Superstar (1996) and Mechanical Animals (1998). These albums, along with their highly stylized music videos and worldwide touring, brought public recognition to Marilyn Manson. In 1999, news media, infamously, falsely blamed the band for influencing the perpetrators of the Columbine High School massacre. As this controversy began to wane throughout the 2000s, so did the band\'s mainstream popularity. Despite this, Jon Wiederhorn of MTV, in June 2003, referred to Marilyn Manson as "the only true artist today". Marilyn Manson is widely regarded as being one of the most iconic and controversial figures in rock music, with the band and its lead singer influencing numerous other groups and musicians, both in metal-associated acts and also in wider popular culture. VH1 ranked Marilyn Manson as the seventy-eighth best rock band on their 100 Great Artists of Hard Rock. They were inducted into the Kerrang! Hall of Fame in 2000, and have been nominated for four Grammy Awards. In the U.S., the band has seen ten of its releases debut in the top ten, including two number-one albums. Marilyn Manson have sold in excess of 50 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saint_Asonia', 'artist_name': 'Saint Asonia', 'wiki': 'http://en.wikipedia.org/wiki/Saint_Asonia', 'hometown': 'http://dbpedia.org/resource/Toronto', 'start_year': '2015', 'aliases': ['SΔINT ΔSONIΔ'], 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Spinefarm_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Adam_Gontier', 'http://dbpedia.org/resource/Mike_Mushok', 'Cale Gontier', 'Cody Watkins'], 'old_members': ['http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Finger_Eleven', 'http://dbpedia.org/resource/Staind', 'Rich Beddoe', 'Sal Giancarelli'], 'related_artists': ['http://dbpedia.org/resource/Art_of_Dying_(band)', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Finger_Eleven', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Seether', 'http://dbpedia.org/resource/Sharon_den_Adel', 'http://dbpedia.org/resource/Staind', 'http://dbpedia.org/resource/Stuck_Mojo', 'http://dbpedia.org/resource/Three_Days_Grace'], 'abstract': "Saint Asonia (stylized as SΔINT ΔSONIΔ) is a Canadian-American rock supergroup consisting of lead vocalist and rhythm guitarist Adam Gontier, lead guitarist Mike Mushok, bassist and backing vocalist Cale Gontier, and drummer Cody Watkins. In 2017, the band's original drummer, Rich Beddoe, left the band and was replaced by Mushok's Staind bandmate Sal Giancarelli, and one year later bassist and backing vocalist Corey Lowery left the band to join Seether and his place was taken by Gontier's cousin Cale Gontier. The band formed in Toronto, Canada in 2015 after Gontier's departure from Three Days Grace in 2013. Their second studio album, titled Flawed Design, was released on October 25, 2019. On January 26, 2020, Art of Dying drummer Cody Watkins became the new drummer for Saint Asonia replacing Sal Giancarelli."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Devour_the_Day', 'artist_name': 'Devour the Day', 'wiki': 'http://en.wikipedia.org/wiki/Devour_the_Day', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '2012', 'labels': ['http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Experimental_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Blake Allison', 'Joey "Chicago" Walser', 'Ronnie Farris'], 'old_members': ['David Hoffman'], 'related_artists': ['http://dbpedia.org/resource/Egypt_Central'], 'abstract': 'Devour the Day is an American hard rock band founded in 2012 by singer/guitarist Blake Allison and bassist Joey "Chicago" Walser after the breakup of their previous band Egypt Central.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Three_Days_Grace', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'start_year': '1997', 'labels': ['http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Neil_Sanderson', 'Matt Walst', 'Brad Walst'], 'old_members': ['http://dbpedia.org/resource/Adam_Gontier'], 'related_artists': ['http://dbpedia.org/resource/Barry_Stock', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Neil_Sanderson', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': 'Three Days Grace is a Canadian rock band formed in Norwood, Ontario in 1997. The band\'s original iteration was called "Groundswell" and played in various local Norwood back-yard parties and area establishments from 1993 to 1996. Based in Toronto, the band\'s original line-up consisted of guitarist and lead vocalist Adam Gontier, drummer and backing vocalist Neil Sanderson, and bassist Brad Walst. In 2003, Barry Stock was recruited as the band\'s lead guitarist, making them a four-member band. In 2013, Gontier left the band and was replaced by My Darkest Days\' vocalist Matt Walst, who is also the younger brother of Brad Walst. Currently signed to RCA Records, they have released six studio albums, each at three-year intervals: Three Days Grace in 2003, One-X in 2006, Life Starts Now in 2009, Transit of Venus in 2012, Human in 2015, and Outsider in 2018. Their upcoming seventh studio album Explosions is due to be released on May 6, 2022. The first three albums have been RIAA certified 2x platinum, 3x platinum, and platinum, respectively, in the United States. In Canada, they have been certified by Music Canada as platinum, triple platinum, and double platinum, respectively. The band has had 15 No. 1 songs on the Billboard Hot Mainstream Rock Tracks chart, and three No. 1 hits on Alternative Songs.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Papa_Roach', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'start_year': '1993', 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/DreamWorks_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal'], 'actual_members': ['http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Tony_Palermo', 'Tobin Esperance'], 'old_members': ['Dave Buckner', 'Ben Luther', 'Will James', 'Ryan Brown', 'Anne Mikolajcik'], 'related_artists': ['http://dbpedia.org/resource/Bleeker_(band)', 'http://dbpedia.org/resource/Coldrain', 'http://dbpedia.org/resource/Colin_Brittain', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Fight_the_Sky', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/Skindred', 'http://dbpedia.org/resource/The_Halo_Method', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': 'Papa Roach is an American rock band from Vacaville, California, formed in 1993. The original lineup consisted of lead vocalist Jacoby Shaddix, guitarist Jerry Horton, drummer Dave Buckner, bassist Will James, and trombonist Ben Luther. After two EPs, James left and was replaced by Tobin Esperance. The band independently released two more EPs before signing with DreamWorks Records in 1999, subsequently releasing the triple-platinum Infest in 2000, the gold album Lovehatetragedy in 2002 and the platinum album Getting Away with Murder in 2004. A year after The Paramour Sessions, Buckner left in 2007, and was replaced by Tony Palermo. Papa Roach then made Metamorphosis (2009), Time for Annihilation (2010), The Connection (2012), F.E.A.R. (2015), and Crooked Teeth (2017). Their tenth studio album, Who Do You Trust?, was released on January 18, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/From_Ashes_to_New', 'artist_name': 'From Ashes to New', 'wiki': 'http://en.wikipedia.org/wiki/From_Ashes_to_New', 'hometown': 'http://dbpedia.org/resource/Lancaster,_Pennsylvania', 'start_year': '2013', 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['http://dbpedia.org/resource/Mat_Madiro', 'Danny Case', 'Matt Brandyberry', 'Lance Dowdle'], 'old_members': ['Branden "Boo" Kreider', 'Chris Musser', "Tim D'onofrio", 'Dan Kecki', 'Garrett Russell', 'Jon-Mikel Valudes'], 'related_artists': ['http://dbpedia.org/resource/Mat_Madiro'], 'abstract': 'From Ashes to New is an American rock band from Lancaster, Pennsylvania. The band\'s lineup frequently shifted in it\'s early years, musician Matt Brandyberry being the founding and sole constant member of the group. The band has released three studio albums, Day One (2016), The Future (2018), and Panic (2020). They have found moderate success with some of their singles, including "Through It All", "Crazy", and "Panic", which reached peaks of 6, 3, and 11, respectively, on the Billboard Mainstream Rock chart.'}</t>
+    <t>{'url': 'https://genius.com/artists/Ryan-paris', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kasabian', 'annotations': {'description': '&lt;p&gt;Kasabian are a British rock band, formed in Leicester, England in 1997. It consists of singer Tom Meighan, guitarist and singer Sergio Pizzorno, bassist Chris Edwards, drummer Ian Matthews and guitarist Tim Carter, plus touring members Ben Kealey and Gary Alesbrook. Kasabian have released six studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Emf', 'annotations': {'description': '&lt;p&gt;EMF are a British alternative rock band from Cinderford, Gloucestershire, who came to prominence at the beginning of the 1990s. Their name is the acronym for Epsom Mad Funkers, a fan club of the band &lt;a href="https://genius.com/artists/New-order" rel="noopener" data-api_path="/artists/37694"&gt;New Order&lt;/a&gt;. They are most well-known for their hit “Unbelievable.” Since then, the band has had 2 hiatuses and 3 reunions.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gerard-presencer', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Halsey', 'annotations': {'description': '&lt;p&gt;Halsey is the stage name of New Jersey singer &lt;a href="https://genius.com/artists/Ashley-frangipane" rel="noopener" data-api_path="/artists/228636"&gt;Ashley Nicolette Frangipane&lt;/a&gt;. It is an anagram of her first name and taken from the &lt;a href="http://www.yelp.com/biz/halsey-street-subway-station-new-york" rel="noopener nofollow"&gt;Halsey Street subway stop&lt;/a&gt; and street in Brooklyn&amp;lt; New York where she used to live. &lt;a href="http://iamhalsey.com/aboutme" rel="noopener nofollow"&gt;The bio on her website&lt;/a&gt; reads:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I am Halsey. I will never be anything but honest. I write songs about sex and being sad.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Halsey was diagnosed with bipolar disorder when she was 17. This has greatly influenced her creative process from the start of her career. Songs like &lt;a href="https://genius.com/Halsey-control-lyrics" rel="noopener" data-api_path="/songs/726676"&gt;“Control”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-gasoline-lyrics" rel="noopener" data-api_path="/songs/2286804"&gt;“Gasoline”&lt;/a&gt; explicitly delve into her psychological and emotional battles. &lt;em&gt;Manic&lt;/em&gt;, Halsey’s third album and arguably her rawest and most emotionally vulnerable, &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;was written in a fully manic state&lt;/a&gt; rather than a depressive one.&lt;/p&gt;\n\n&lt;p&gt;When Halsey was a teen with over 14,000 friends on MySpace, she posted covers of songs on YouTube. In 2012, she recorded &lt;a href="https://genius.com/ashley-frangipane-the-haylor-song-lyrics" rel="noopener" data-api_path="/songs/2320385"&gt;“The Haylor Song,”&lt;/a&gt; &lt;a href="https://www.youtube.com/watch?v=ehnEkmUTqyI" rel="noopener nofollow"&gt;a parody&lt;/a&gt; of &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt;’s hit song &lt;a href="https://genius.com/taylor-swift-i-knew-you-were-trouble-lyrics" rel="noopener" data-api_path="/songs/92224"&gt;“I Knew You Were Trouble”&lt;/a&gt; that created controversy over the nature of the lyrics. Nevertheless, she had accumulated a respectable amount of online attention, reaching 16,000 subscribers on YouTube at the age of 18.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Halsey posted her first single &lt;a href="https://genius.com/halsey-ghost-lyrics" rel="noopener" data-api_path="/songs/519309"&gt;“Ghost”&lt;/a&gt; on Soundcloud, which turned heads in her direction. Her close friend Anthony &lt;a href="http://www.bbc.co.uk/newsbeat/article/34061249/how-halsey-ruled-the-world-before-releasing-debut-badlands" rel="noopener nofollow"&gt;pretended to be her manager&lt;/a&gt;, accompanying her in various meetings with different record labels. After being signed to &lt;a href="http://twitter.com/Astralwerks" rel="noopener nofollow"&gt;Astralwerks&lt;/a&gt;, she released her EP &lt;a href="https://genius.com/albums/Halsey/Room-93" rel="noopener" data-api_path="/albums/117562"&gt;&lt;em&gt;Room 93&lt;/em&gt;&lt;/a&gt; in late 2014, with four of the five tracks carrying accompanying music videos, giving the EP a “visual” feel. She was the most mentioned artist online at &lt;a href="http://www.billboard.com/articles/events/festivals/6509472/sxsw-twitter-stats-miley-cyrus-run-the-jewels" rel="noopener nofollow"&gt;SXSW 2015&lt;/a&gt;, which was evident by her ever-increasing fanbase. She reached over half a million followers on Twitter at the age of 20.&lt;/p&gt;\n\n&lt;p&gt;In anticipation of her debut effort, &lt;a href="https://genius.com/albums/Halsey/Badlands" rel="noopener" data-api_path="/albums/530224"&gt;&lt;em&gt;Badlands&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/halsey-hold-me-down" rel="noopener"&gt;“Hold Me Down”&lt;/a&gt; was released as a pre-order single, followed by &lt;a href="https://genius.com/halsey-new-americana-lyrics" rel="noopener" data-api_path="/songs/733666"&gt;“New Americana,”&lt;/a&gt; the anthem of today’s diversified generation. &lt;em&gt;Badlands&lt;/em&gt; was officially released on August 28, 2015, described by Halsey as &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;“an angry female record”&lt;/a&gt;. It also represents her &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;mental state&lt;/a&gt;. At Firefly Music Festival 2015, she told an &lt;a href="https://www.youtube.com/watch?v=DIdyEDFf4dA" rel="noopener nofollow"&gt;interviewer&lt;/a&gt;, “For me, it was about creating a universe and making it so that people felt like they were actually being transported somewhere.”&lt;/p&gt;\n\n&lt;p&gt;Halsey and &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; got together on the Skrillex-produced track &lt;a href="https://genius.com/justin-bieber-the-feeling-lyrics" rel="noopener" data-api_path="/songs/2342330"&gt;“The Feeling,”&lt;/a&gt; which they performed together on the TODAY Show in promotion for Bieber’s fourth album &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;. In 2016, she collaborated &lt;a href="https://genius.com/artists/The-chainsmokers" rel="noopener" data-api_path="/artists/150934"&gt;The Chainsmokers&lt;/a&gt; on the song of the summer, &lt;a href="https://genius.com/the-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer,”&lt;/a&gt; which would go onto become her biggest hit. The Grammy-nominated earworm maintained its reign at the top of the &lt;a href="https://www.billboard.com/music/halsey/chart-history/hot-100/song/987759" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Hot 100 for 12 consecutive weeks.&lt;/a&gt; Halsey later dropped &lt;a href="https://genius.com/Halsey-not-afraid-anymore-lyrics" rel="noopener" data-api_path="/songs/2953972"&gt;“Not Afraid Anymore”&lt;/a&gt; for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-darker-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/313068"&gt;soundtrack&lt;/a&gt; of the 2017 film &lt;em&gt;Fifty Shades Darker.&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s sophomore album &lt;a href="https://genius.com/albums/Halsey/Hopeless-fountain-kingdom" rel="noopener" data-api_path="/albums/334524"&gt;&lt;em&gt;hopeless fountain kingdom&lt;/em&gt;&lt;/a&gt; was released June 2, 2017. The record’s title fulfills the long-debated acronym “HFK” that she continuously hinted at through the years. The album is &lt;a href="http://www.mtv.com/news/3001539/halsey-romeo-and-juliet-hopeless-fountain-kingdom-symbolism/" rel="noopener nofollow"&gt;inspired by the story of &lt;i&gt;Romeo and Juliet&lt;/i&gt;&lt;/a&gt;. That same year, Halsey and her then-boyfriend &lt;a href="https://genius.com/artists/G-eazy" rel="noopener" data-api_path="/artists/11395"&gt;G-Eazy&lt;/a&gt; released &lt;a href="https://genius.com/G-eazy-and-halsey-him-and-i-lyrics." rel="noopener"&gt;“Him &amp;amp; I.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s first track of 2018 was a feature on &lt;a href="https://genius.com/artists/Thirty-seconds-to-mars" rel="noopener" data-api_path="/artists/60945"&gt;Thirty Seconds to Mars\'&lt;/a&gt; &lt;a href="https://genius.com/Thirty-seconds-to-mars-love-is-madness-lyrics" rel="noopener" data-api_path="/songs/3596894"&gt;“Love Is Madness.”&lt;/a&gt; The collabo track &lt;a href="https://genius.com/Benny-blanco-halsey-and-khalid-eastside-lyrics" rel="noopener" data-api_path="/songs/3828011"&gt;“Eastside”&lt;/a&gt; saw her teaming up with &lt;a href="https://genius.com/artists/Khalid" rel="noopener" data-api_path="/artists/9932"&gt;Khalid&lt;/a&gt; and &lt;a href="https://genius.com/artists/Benny-blanco" rel="noopener" data-api_path="/artists/28906"&gt;benny blanco.&lt;/a&gt; Soon after Halsey dropped &lt;a href="https://genius.com/Halsey-without-me-lyrics" rel="noopener" data-api_path="/songs/3977187"&gt;“Without Me,”&lt;/a&gt; the first single from her then-unannounced 2020 album, she and G-Eazy &lt;a href="https://people.com/music/halsey-talks-g-eazy-split-suicide-attempt-glamour-interview/" rel="noopener nofollow"&gt;ended their on-again-off-again relationship,&lt;/a&gt; leading fans to speculate and later confirm that “Without Me” was &lt;a href="https://genius.com/15518820" rel="noopener" data-api_path="/referents/15518820"&gt;about their very public relationship.&lt;/a&gt; “Without Me” hit #1 on the Billboard Hot 100, and in honor of its charting success, she dropped a &lt;a href="https://genius.com/Halsey-without-me-remix-lyrics" rel="noopener" data-api_path="/songs/4215971"&gt;remix&lt;/a&gt; with &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;the now-deceased rapper Juice WRLD&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Halsey’s 2019 began with a collaboration with English rocker &lt;a href="https://genius.com/artists/Yungblud" rel="noopener" data-api_path="/artists/1120585"&gt;YUNGBLUD&lt;/a&gt; titled &lt;a href="https://genius.com/Yungblud-and-halsey-11-minutes-lyrics" rel="noopener" data-api_path="/songs/4284170"&gt;“11 Minutes,”&lt;/a&gt; Soon after, the pair &lt;a href="https://www.kiss1027.fm/2019/02/24/halsey-addresses-dating-rumours-in-new-interview/" rel="noopener nofollow"&gt;confirmed they were dating&lt;/a&gt; The duo went on to record a cover of &lt;a href="https://genius.com/artists/Death-cab-for-cutie" rel="noopener" data-api_path="/artists/22559"&gt;Death Cab for Cutie’s&lt;/a&gt; &lt;a href="https://genius.com/Death-cab-for-cutie-i-will-follow-you-into-the-dark-lyrics" rel="noopener" data-api_path="/songs/145060"&gt;“I Will Follow You into the Dark”&lt;/a&gt; for &lt;a href="https://www.abc.net.au/triplej/" rel="noopener nofollow"&gt;triple J.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After years of friendship, Korean-pop group &lt;a href="https://genius.com/artists/Bts" rel="noopener" data-api_path="/artists/70113"&gt;BTS&lt;/a&gt; featured Halsey in &lt;a href="https://genius.com/Bts-boy-with-luv-lyrics" rel="noopener" data-api_path="/songs/4453270"&gt;“Boy With Luv,”&lt;/a&gt; which &lt;a href="https://variety.com/2019/digital/news/bts-youtube-record-boy-with-luv-halsey-1203188877/" rel="noopener nofollow"&gt;broke YouTube’s record for most views on a music video in 24 hours, with 78 million views&lt;/a&gt;. As of October 2020, the video now has over 990 million views.&lt;/p&gt;\n\n&lt;p&gt;On May 17, 2019, Halsey released the stand-alone single, &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; initially intended to be the first single of her third album &lt;a href="https://genius.com/albums/Halsey/Manic" rel="noopener" data-api_path="/albums/488527"&gt;&lt;em&gt;Manic.&lt;/em&gt;&lt;/a&gt; Following this, &lt;a href="https://genius.com/Halsey-graveyard-lyrics" rel="noopener" data-api_path="/songs/4838396"&gt;“Graveyard”&lt;/a&gt; was released, with Halsey announcing that &lt;em&gt;Manic&lt;/em&gt; would drop in January 2020. Singles &lt;a href="https://genius.com/Halsey-finally-beautiful-stranger-lyrics" rel="noopener" data-api_path="/songs/5072613"&gt;“Finally // beautiful stranger,”&lt;/a&gt; &lt;a href="https://genius.com/Halsey-suga-and-bts-sugas-interlude-lyrics" rel="noopener" data-api_path="/songs/5072616"&gt;“SUGA’s Interlude,”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-you-should-be-sad-lyrics" rel="noopener" data-api_path="/songs/5009294"&gt;“You should be sad”&lt;/a&gt; dropped in anticipation for the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Manic&lt;/em&gt; is Halsey’s first album that does not “hide behind a concept"—it’s fully raw nature brings forward her most vulnerable self. She told &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that mania is "that thing in the back of our minds that drives us to outrageous thoughts. Like when you’re driving a car and you’re like [she mimes suddenly cutting over the wheel], or you’re on top of a building, and you’re like, ‘What if I just jump?’ … You are controlled by those impulses rather than logic and reason.”&lt;/p&gt;\n\n&lt;p&gt;Since releasing their third studio album, Manic, on Jan. 17, 2020, Halsey has delved into her artistic side in more ways than one. On November 10, 2020, Halsey released a book of poems titled I Would Leave Me If I Could, which explores topics such as mental health, sexuality, relationships, longing, and love. The book debuted on The New York Times Best Sellers list, and the cover features an original piece of artwork by Halsey called “American Woman.”&lt;/p&gt;\n\n&lt;p&gt;Alongside her recent poetry book, Halsey also revealed her makeup line, About-Face, on January 25, 2021. This line was described by Halsey as a “multi-dimension makeup brand for everyone,” promoting inclusivity, diversity, and beauty of all forms.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2021, over a year after the release of &lt;em&gt;Manic&lt;/em&gt;, Halsey announced their pregnancy, alongside a set of photos on Instagram. In the photos, she tagged boyfriend Alev Aydin’s Instagram account right over her belly.&lt;/p&gt;\n\n&lt;p&gt;In March of 2021, Halsey quietly announced their pronouns, putting “she/they” in her Instagram bio. They later spoke more on the subject in their Instagram story, saying “For those asking RE: my updated IG bio, I am happy with either pronouns.” … “The inclusion of ‘they’ in addition to ‘she’ feels most authentic to me. If you know me at all, you know what it means to me to express this outwardly. Thanks for being the best.” Halsey also said this when speaking on her gender identity and pregnancy: “I thought pregnancy would give me very strong, binary feelings about ‘womanhood,’” they wrote. “But truly, it has leveled my perception of gender entirely. My sensitivity to my body has made me hyper aware of my humanness and that’s all.”&lt;/p&gt;\n\n&lt;p&gt;On June 28, Halsey announced their fourth studio album “If I Can’t Have Love, I Want Power”. Produced by Trent Reznor and Atticus Ross, this full-length album is assumed to include their stand-alone single &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; from 2019. On July 7, 2021, the album art was revealed along with a brief Instagram caption from Halsey, where they described it as a “concept album about the joys and horrors of pregnancy and childbirth.” Halsey continued in this caption by saying, “It was very important to me that the cover art conveyed the sentiment of my journey over the past few months. The dichotomy of the Madonna and the Whore. The idea that me as a sexual being and my body as a vessel and gift to my child are two concepts that can co-exist peacefully and powerfully. My body has belonged to the world in many different ways the past few years, and this image is my means of reclaiming my autonomy and establishing my pride and strength as a life force for my human being.” The album’s release date is set to be August 27, 2021.&lt;/p&gt;', 'alternate_names': ['Ashley Frangipane', 'Ashley N. Frangipane', 'Ashley Nicolette Frangipane']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pink-floyd', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.pinkfloyd.com/home.php" rel="noopener nofollow"&gt;Pink Floyd&lt;/a&gt; was a British rock band who managed to carve a path for progressive and psychedelic music in a way that was uniquely fascinating at the time and has remained equally momentous in the modern age. The name “Pink Floyd” came from two blues musicians that founding member Syd Barrett idolized—&lt;a href="https://genius.com/artists/Pink-anderson" rel="noopener" data-api_path="/artists/350877"&gt;Pink Anderson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Floyd-council" rel="noopener" data-api_path="/artists/380346"&gt;Floyd Council&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was formed in 1965 London by &lt;a href="https://genius.com/artists/Syd-barrett" rel="noopener" data-api_path="/artists/62540"&gt;Barrett&lt;/a&gt; (guitars, vocals), &lt;a href="https://genius.com/artists/Nick-mason" rel="noopener" data-api_path="/artists/174898"&gt;Nick Mason&lt;/a&gt; (drums), &lt;a href="https://genius.com/artists/Roger-waters" rel="noopener" data-api_path="/artists/33624"&gt;Roger Waters&lt;/a&gt; (bass), and &lt;a href="https://genius.com/artists/Richard-wright-musician" rel="noopener" data-api_path="/artists/41626"&gt;Richard Wright&lt;/a&gt; (keyboards). Sometime after releasing their debut album, 1967’s &lt;a href="https://genius.com/albums/Pink-floyd/The-piper-at-the-gates-of-dawn" rel="noopener" data-api_path="/albums/31179"&gt;&lt;em&gt;The Piper at the Gates of Dawn&lt;/em&gt;&lt;/a&gt;, the group saw the addition of a second singer-guitarist, &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt;. This acted largely as a means of replacing Barrett, who was forced to leave in 1968 &lt;a href="http://sydbarrett.net/subpages/articles/syd_barrett_story_by_syd_and_tho.htm" rel="noopener nofollow"&gt;for mental health reasons&lt;/a&gt;, resulting in Waters taking over as the main vocalist.&lt;/p&gt;\n\n&lt;p&gt;The band broke into the mainstream with 1973’s &lt;a href="https://genius.com/albums/Pink-floyd/The-dark-side-of-the-moon" rel="noopener" data-api_path="/albums/14530"&gt;&lt;em&gt;Dark Side of the Moon&lt;/em&gt;&lt;/a&gt;, an album that became one of the &lt;a href="http://www.rollingstone.com/music/news/erykah-badu-billy-corgan-and-more-on-legacy-of-dark-side-of-the-moon-20110928" rel="noopener nofollow"&gt;best-selling and most influential&lt;/a&gt; records in music history. Their follow-up efforts, 1975’s &lt;a href="https://genius.com/albums/Pink-floyd/Wish-you-were-here" rel="noopener" data-api_path="/albums/22136"&gt;&lt;em&gt;Wish You Were Here&lt;/em&gt;&lt;/a&gt; and 1977’s &lt;a href="https://genius.com/albums/Pink-floyd/Animals" rel="noopener" data-api_path="/albums/15067"&gt;&lt;em&gt;Animals&lt;/em&gt;&lt;/a&gt;, also sold well. However, the band started to see some &lt;a href="http://www.rollingstone.com/music/news/roger-waters-david-gilmour-is-uninterested-in-touring-the-wall-20100505" rel="noopener nofollow"&gt;in-fighting&lt;/a&gt; while making their next album, a rock opera about how Waters felt frustrated and detached from his audience. Waters seemingly became extremely controlling, firing Wright over disputes about touring and his contributions to the album. The result, 1979’s &lt;a href="https://genius.com/albums/Pink-floyd/The-wall" rel="noopener" data-api_path="/albums/14831"&gt;&lt;em&gt;The Wall&lt;/em&gt;&lt;/a&gt;, became the best-selling double album of all time. It spawned iconic songs such as the #1 hit, &lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-part-ii-lyrics" rel="noopener" data-api_path="/songs/106641"&gt;“Another Brick in the Wall, Pt. 2,”&lt;/a&gt; and the melodic &lt;a href="https://genius.com/Pink-floyd-comfortably-numb-lyrics" rel="noopener" data-api_path="/songs/65489"&gt;“Comfortably Numb.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After the not-so-well-received &lt;a href="https://genius.com/albums/Pink-floyd/The-final-cut" rel="noopener" data-api_path="/albums/32739"&gt;&lt;em&gt;Final Cut&lt;/em&gt;&lt;/a&gt;, released in 1983, Waters decided to call it quits and attempted to dissolve the band. However, Gilmour, Mason, and Wright opted to make more albums with the band’s name despite a lawsuit by Waters, keeping Floyd alive until their collective hiatus in 1996, following the 1994 &lt;a href="https://genius.com/albums/pink-floyd/the-division-bell" rel="noopener" data-api_path="/albums/32748"&gt;&lt;em&gt;The Division Bell&lt;/em&gt;&lt;/a&gt; tour.&lt;/p&gt;\n\n&lt;p&gt;The quartet managed to make amends and reunite for a final gig in 2005, performing five songs for the Live 8 concert at Hyde Park. Barrett died in 2006 and Wright died in 2008, but Pink Floyd’s legacy remains alive through their extensive &lt;a href="https://genius.com/Pink-floyd-pink-floyd-discography-annotated" rel="noopener" data-api_path="/songs/1226330"&gt;discography&lt;/a&gt;, as well as Gilmour and Waters\' many solo projects, re-releases of the group’s catalog, and the band’s final album, November 2014’s &lt;a href="https://genius.com/albums/Pink-floyd/The-endless-river" rel="noopener" data-api_path="/albums/112608"&gt;&lt;em&gt;The Endless River&lt;/em&gt;&lt;/a&gt;—a record composed of leftover &lt;em&gt;Division Bell&lt;/em&gt;-era recordings.&lt;/p&gt;\n\n&lt;p&gt;In September of 2019, the band launched a &lt;a href="https://pinkfloydexhibition.de/eng/exhibition.html" rel="noopener nofollow"&gt;five-month-long multimedia tour&lt;/a&gt; in Germany. “The Pink Floyd Exhibition: Their Mortal Remains” seeks to reveal to visitors experiences that they would not get anywhere else. For example, the exhibition features unreleased recordings from gigs, tokens from band members, and more.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nayer', 'annotations': {'description': '&lt;p&gt;Latin pop singer known for being a featured artist along with Ne-Yo for Pitbull’s 2011 hit single “Give Me Everything”, produced by Afrojack. She is also known for her hit single in 2012 titled “Suave (Kiss Me)” featuring Pitbull and Swedish-Congolese singer-songwriter Mohombi. She also was featured by Enrique Iglesias in the Remix of his single “Dirty Dancer” along with other artists, such as Lil Wayne and Usher.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sam-smith', 'annotations': {'description': '&lt;p&gt;Sam Smith was born on 19th May 1992 and grew up in a rural village on the border of Hertfordshire and Cambridgeshire, the nearest town being Bishops Stortford. They’re the oldest of three siblings and are said to be close to their younger sisters. Their mother is a successful City of London trader and their father a stay-at-home dad who brought up the children.&lt;/p&gt;\n\n&lt;p&gt;Smith showed an early talent for singing, and their parents responded by arranging singing lessons from the age of eight with professional jazz singer and songwriter, Joanna Eden. At the early age of seventeen, they left school to pursue their dream, living in a small one-bed flat and working in a London pub, but ended up isolated and beset by loneliness.&lt;/p&gt;\n\n&lt;p&gt;Sam knew they were gay, they said, for as long as they could remember. They suffered bullying at school and were shocked to find that even in London—close to gay communities—they were subjected to homophobic attacks. These negative experiences, combined with an inherently emotional nature, inform their songwriting and delivery. The soulful, beautifully rich tone of their voice and the subject of the lyrics ‘speak’ to many people and have led to their success.&lt;/p&gt;\n\n&lt;p&gt; It was through collaboration with &lt;a href="https://genius.com/artists/Disclosure" rel="noopener" data-api_path="/artists/43384"&gt;Disclosure&lt;/a&gt;’s “&lt;a href="https://genius.com/Disclosure-latch-lyrics" rel="noopener" data-api_path="/songs/133531"&gt;Latch&lt;/a&gt;” and &lt;a href="https://genius.com/artists/Naughty-boy" rel="noopener" data-api_path="/artists/31376"&gt;Naughty Boy&lt;/a&gt;’s “&lt;a href="https://genius.com/Naughty-boy-la-la-la-lyrics" rel="noopener" data-api_path="/songs/153223"&gt;La La La&lt;/a&gt;”, Smith found themselves more and more in-demand throughout 2012 and 2013. They &lt;a href="http://www.huffingtonpost.com/2014/05/28/sam-smith-gay_n_5404783.html" rel="noopener nofollow"&gt;publicly came out as gay&lt;/a&gt; shortly before releasing their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Sam-smith/In-the-lonely-hour" rel="noopener" data-api_path="/albums/75786"&gt;In the Lonely Hour&lt;/a&gt;&lt;/em&gt; on 26 May 2014, which they wrote because they were in love with a man who “didn’t love [them] back”.&lt;/p&gt;\n\n&lt;p&gt;In 2015 Sam won the Grammys for Best New Artist, Record of the Year and Best Pop Vocal Album. Their popular single &lt;a href="https://genius.com/Sam-smith-stay-with-me-lyrics" rel="noopener" data-api_path="/songs/387414"&gt;“Stay With Me”&lt;/a&gt; won the 2015 Grammy for Song of the Year.&lt;/p&gt;\n\n&lt;p&gt;In 2017 Sam came out as non-binary stating &lt;a href="http://www.news.com.au/entertainment/celebrity-life/sam-smith-i-feel-just-as-much-a-woman-as-i-am-man/news-story/1ffc1d95c5d053b246c89d80bd3887b5" rel="noopener nofollow"&gt;“I feel as much a woman as I am a man”&lt;/a&gt;, and in 2019 announced on Instagram that they were changing their pronouns to the gender neutral they/them.  In subsequent &lt;a href="https://www.independent.co.uk/life-style/sam-smith-non-binary-gender-bullying-b1758928.html" rel="noopener nofollow"&gt;interviews&lt;/a&gt; Sam confessed that “… gender, for me, has been nothing but traumatising” and that they weren’t prepared for the “ridicule” that was directed at them.&lt;/p&gt;\n\n&lt;p&gt;In terms of professional life, Sam’s career has been nothing but successful. In September 2017 Sam’s single &lt;a href="https://genius.com/Sam-smith-too-good-at-goodbyes-lyrics" rel="noopener" data-api_path="/songs/3219597"&gt;‘Too Good at Goodbyes’&lt;/a&gt;, the lead single of their sophomore album, was released. It &lt;a href="https://www.officialcharts.com/chart-news/sam-smiths-too-good-at-goodbyes-scores-a-second-week-at-number-1__20498/" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in their home country and &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8039394/sam-smith-too-good-at-goodbye-streaming-songs-top-five" rel="noopener nofollow"&gt;reached the top five&lt;/a&gt; in the U.S. It has accumulated over &lt;a href="https://www.youtube.com/watch?v=J_ub7Etch2U" rel="noopener nofollow"&gt;a billion views&lt;/a&gt; on the streaming service, YouTube. In early November, their album &lt;a href="https://genius.com/albums/Sam-smith/The-thrill-of-it-all" rel="noopener" data-api_path="/albums/366486"&gt;‘The Thrill Of It All’&lt;/a&gt; managed to top the official charts of eleven countries.&lt;/p&gt;\n\n&lt;p&gt;On March 20, 2018, Sam began their &lt;a href="https://genius.com/albums/Sam-smith/The-thrill-of-it-all" rel="noopener" data-api_path="/albums/366486"&gt;“The Thrill of It All World Tour”&lt;/a&gt; in Sheffield, England. It visited Europe, North America, Asia, New Zealand and Australia. The South Africa leg of the tour began in Cape Town, but was cut short by what at the time was said to be voice strain and Sam’s fear that they would damage their voice further if the tour continued. However, they subsequently admitted to panic and stress following the grief of their &lt;a href="https://www.youtube.com/watch?v=WKGbUiQdi2M" rel="noopener nofollow"&gt;break-up with ex-boyfriend, Brandon Flynn&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On 27 March 2018, they released &lt;a href="https://genius.com/Sam-smith-pray-remix-lyrics" rel="noopener" data-api_path="/songs/3608789"&gt;“Pray”&lt;/a&gt; featuring American rapper &lt;a href="https://genius.com/artists/Logic" rel="noopener" data-api_path="/artists/7922"&gt;Logic&lt;/a&gt;. On 17 August 2018, the singer collaborated as the main vocalist on &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;’s new track &lt;a href="https://genius.com/Calvin-harris-and-sam-smith-promises-lyrics" rel="noopener" data-api_path="/songs/3897728"&gt;“Promises”&lt;/a&gt;. The song became Smith’s &lt;a href="https://www.officialcharts.com/chart-news/calvin-harris-and-sam-smith-score-a-record-breaking-number-1-with-promises-i-am-overwhelmed__23886/" rel="noopener nofollow"&gt;seventh number one hit on the UK Singles Chart&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In January 2019, Sam Smith released the R&amp;amp;B-tinged, somewhat autobiographical &lt;a href="https://genius.com/Sam-smith-and-normani-dancing-with-a-stranger-lyrics" rel="noopener" data-api_path="/songs/4172650"&gt;‘\'Dancing with a Stranger"&lt;/a&gt;, a timely collaboration with &lt;a href="https://genius.com/artists/Fifth-harmony" rel="noopener" data-api_path="/artists/60437"&gt;Fifth Harmony&lt;/a&gt;’s starlet &lt;a href="https://genius.com/artists/Normani" rel="noopener" data-api_path="/artists/636165"&gt;Normani&lt;/a&gt; – a girl group that Sam has been a huge fan of.&lt;/p&gt;\n\n&lt;p&gt;In July 2019 “&lt;a href="https://genius.com/Sam-smith-how-do-you-sleep-lyrics" rel="noopener" data-api_path="/songs/4690095"&gt;How Do You Sleep"&lt;/a&gt; was released, accompanied by a &lt;a href="https://www.youtube.com/watch?v=PmYypVozQb4" rel="noopener nofollow"&gt;music video&lt;/a&gt; that garnered a hundred million views in less than two months. Sam has said in an interview with Kiss Radio that the story behind the song is broadly autobiographical.&lt;/p&gt;\n\n&lt;p&gt;In October 2019 Sam received the &lt;a href="https://attitude.co.uk/article/attitude-person-of-the-year-award-supported-by-virgin-atlantic-sam-smith/21993/" rel="noopener nofollow"&gt;Person of the Year&lt;/a&gt; award from &lt;em&gt;Attitude&lt;/em&gt; Magazine for their campaigning on behalf of the non-binary community.&lt;/p&gt;\n\n&lt;p&gt;On 1st November 2019 Sam released a cover, to positive reviews, of &lt;a href="https://genius.com/Sam-smith-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/4967470"&gt;I Feel Love&lt;/a&gt;, originally released by &lt;a href="https://genius.com/Donna-summer-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/579882"&gt;Donna Summer&lt;/a&gt; in 1977.&lt;/p&gt;\n\n&lt;p&gt;Sam’s prolific output didn’t end in 2019. In 2020 Sam’s single &lt;a href="https://genius.com/Sam-smith-to-die-for-lyrics" rel="noopener" data-api_path="/songs/5171420"&gt;To Die For&lt;/a&gt; was released in February 2020. Intended as the title track of their album, planned initially for release in May, this was deferred because of the global Coronavirus pandemic. The title and content were deemed inappropriate have been revised.&lt;/p&gt;\n\n&lt;p&gt;On 18th September 2020 the second single &lt;a href="https://genius.com/Sam-smith-diamonds-lyrics" rel="noopener" data-api_path="/songs/5926981"&gt;Diamonds&lt;/a&gt; from Sam’s third album, re-titled &lt;a href="https://genius.com/Sam-smith-love-goes-lyrics" rel="noopener" data-api_path="/songs/5267538"&gt;Love Goes&lt;/a&gt; was released.  The full album dropped on 30th October 2020.  A significant proportion of the tracks have been attributed by Sam himself to their relationship and &lt;a href="https://genius.com/Sam-smith-dance-til-you-love-someone-else-lyrics" rel="noopener" data-api_path="/songs/5973500"&gt;break-up with Brandon Flynn&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Samuel F. Smith', 'Samuel Frederick Smith']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ohio-players', 'annotations': {'description': '&lt;p&gt;The Ohio Players were an American funk and R&amp;amp;B band best known for their songs “Fire” and “Love Rollercoaster”. They hit their peak popularity in the 1970s.&lt;/p&gt;\n\n&lt;p&gt;Their songs “Funky Worm”, “Skin Tight”, “Fire”, and “Love Rollercoaster” were all awarded gold certifications along with their albums “Skin Tight,” “Fire,” and “Honey.”&lt;/p&gt;', 'alternate_names': ['Ohio Untouchables']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Donna-summer', 'annotations': {'description': '&lt;p&gt;As the unquestioned queen of disco, the one and only Donna Summer lit up the late 70s and 80s with flashy, exuberant vocals and automatic earworms. Born LaDonna Adrian Gaines on Dec. 31, 1948, Summer moved to Germany after being cast in a Munich production of &lt;em&gt;Hair&lt;/em&gt;. There, she happened to meet &lt;a href="https://genius.com/artists/Giorgio-moroder" rel="noopener" data-api_path="/artists/50122"&gt;Giorgio Moroder&lt;/a&gt; and &lt;a href="https://genius.com/artists/Pete-bellotte" rel="noopener" data-api_path="/artists/225679"&gt;Pete Bellotte&lt;/a&gt;, and the trio conglomerated to form a dynamic music team. With Moroder, Summer forged together her first album, &lt;em&gt;The Hostage&lt;/em&gt;, which reached moderate success in Northern Europe. Summer’s big break, however, would come later with the release of 1975’s sexual &lt;a href="https://genius.com/Donna-summer-love-to-love-you-baby-lyrics" rel="noopener" data-api_path="/songs/579877"&gt;“Love to Love You Baby”&lt;/a&gt;, which became one of disco’s first mainstream hits and reached #2 on the Billboard Charts.&lt;/p&gt;\n\n&lt;p&gt;1977 came around with the concept album &lt;a href="https://genius.com/albums/Donna-summer/I-remember-yesterday" rel="noopener" data-api_path="/albums/114971"&gt;&lt;em&gt;I Remember Yesterday&lt;/em&gt;&lt;/a&gt;, which featured the Top 10 single &lt;a href="https://genius.com/Donna-summer-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/579882"&gt;“I Feel Love”&lt;/a&gt;. The next year, Summer hit the silver screen with the movie &lt;em&gt;Thank God It’s Friday&lt;/em&gt;, whose &lt;a href="https://genius.com/albums/Donna-summer/thank-god-its-friday" rel="noopener"&gt;soundtrack&lt;/a&gt; featured one of her own songs: the iconic &lt;a href="https://genius.com/Donna-summer-last-dance-lyrics" rel="noopener" data-api_path="/songs/579885"&gt;“Last Dance.”&lt;/a&gt; This would later become one of the disco legends\' signature songs. “Dance” would take home an Academy Award for Best Original Song, a Grammy, and a Golden Globe, and it jumped to a peak of #3 on the charts.&lt;/p&gt;\n\n&lt;p&gt;Yet Summer’s illustrious career was far from finished – Summer’s first live album &lt;a href="https://genius.com/albums/Donna-summer/Live-and-more" rel="noopener" data-api_path="/albums/114973"&gt;&lt;em&gt;Live and More&lt;/em&gt;&lt;/a&gt; featured the single &lt;a href="https://genius.com/Donna-summer-macarthur-park-lyrics" rel="noopener" data-api_path="/songs/579888"&gt;“MacArthur Park”&lt;/a&gt;, a melting ballad that was a cover of the &lt;a href="https://genius.com/artists/Jimmy-webb" rel="noopener" data-api_path="/artists/343497"&gt;Jimmy Webb&lt;/a&gt; ballad of the same name. “Park” became Summer’s first – and perhaps most memorable – No. 1 hit, and cemented her status as a vocalist as well as a performer. With the track, she became the first female in modern rock history to hold the top spot in both the Hot 100 and the Billboard 200. 1979, though, would really be the peak of her career.&lt;/p&gt;\n\n&lt;p&gt;Her seventh studio album, &lt;a href="https://genius.com/albums/Donna-summer/Bad-girls" rel="noopener" data-api_path="/albums/111546"&gt;&lt;em&gt;Bad Girls&lt;/em&gt;&lt;/a&gt;, became arguably Summer’s most signature record. Equipped with three number ones (&lt;a href="https://genius.com/Donna-summer-bad-girls-lyrics" rel="noopener" data-api_path="/songs/513277"&gt;“Bad Girls”&lt;/a&gt;, &lt;a href="https://genius.com/Donna-summer-hot-stuff-lyrics" rel="noopener" data-api_path="/songs/509097"&gt;“Hot Stuff”&lt;/a&gt;, the &lt;a href="https://genius.com/artists/Barbra-streisand" rel="noopener" data-api_path="/artists/65306"&gt;Barbra Streisand&lt;/a&gt; duet &lt;a href="https://genius.com/Donna-summer-no-more-tears-enough-is-enough-lyrics" rel="noopener" data-api_path="/songs/972328"&gt;“No More Tears (Enough is Enough)”&lt;/a&gt;) and a number two (&lt;a href="https://genius.com/Donna-summer-dim-all-the-lights-lyrics" rel="noopener" data-api_path="/songs/515101"&gt;“Dim All The Lights”&lt;/a&gt;), &lt;em&gt;Bad Girls&lt;/em&gt; roared to triple-platinum. Summer set a host of Billboard records – one of them being the first woman to have three number-ones in a calendar year – and also took home a Grammy for “Stuff”.&lt;/p&gt;\n\n&lt;p&gt;Throughout the rest of her career, Summer continued to clock Top 40 hit after top 40 hit, eventually racking up 12 tracks that went gold, along with a multitude of commercially and chartwise successful albums. Summer passed away on May 17th, 2012 due to her battle with lung cancer, but her legacy for women in the music industry and for disco are unforgettable.&lt;/p&gt;\n\n&lt;p&gt;Donna’s daughter, Amanda, sings for the folk duo &lt;a href="https://genius.com/artists/JOHNNYSWIM" rel="noopener" data-api_path="/artists/357528"&gt;JOHNNYSWIM&lt;/a&gt;. Amanda sings with her husband, Abner, as well.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kaiser-chiefs', 'annotations': {'description': '&lt;p&gt;Kaiser Chiefs emerged in the mid-2000s as one of the major players in the Post-Punk Revival movement. After a slight false start with their first album, &lt;a href="https://genius.com/albums/Parva/22" rel="noopener" data-api_path="/albums/193898"&gt;&lt;em&gt;22&lt;/em&gt;&lt;/a&gt; (released under the name “Parva”), the band achieved considerable commercial success with their first two major-label studio albums, &lt;a href="https://genius.com/albums/Kaiser-chiefs/Employment" rel="noopener" data-api_path="/albums/43933"&gt;&lt;em&gt;Employment&lt;/em&gt;&lt;/a&gt; (2005) and &lt;a href="https://genius.com/albums/Kaiser-chiefs/Yours-truly-angry-mob" rel="noopener" data-api_path="/albums/80470"&gt;&lt;em&gt;Yours Truly, Angry Mob&lt;/em&gt;&lt;/a&gt; (2007). The latter also spawned the single, &lt;a href="https://genius.com/Kaiser-chiefs-ruby-lyrics" rel="noopener" data-api_path="/songs/220610"&gt;“Ruby”&lt;/a&gt;, which scored the band their first UK #1 in 2007. The group gained recognition for their Britpop and Punk-influenced sound, which made them stand out among their contemporaries.&lt;/p&gt;\n\n&lt;p&gt;Their next album, &lt;a href="https://genius.com/albums/Kaiser-chiefs/Off-with-their-heads" rel="noopener" data-api_path="/albums/164847"&gt;&lt;em&gt;Off With Their Heads&lt;/em&gt;&lt;/a&gt;, was also a commercial hit, but 2011’s &lt;a href="https://genius.com/albums/Kaiser-chiefs/The-future-is-medieval-start-the-revolution-without-me" rel="noopener" data-api_path="/albums/43934"&gt;&lt;em&gt;The Future is Medieval&lt;/em&gt;&lt;/a&gt;, was less successful, and the band only returned to the limelight three years later, following the departure of drummer &lt;a href="https://genius.com/artists/Nick-hodgson" rel="noopener" data-api_path="/artists/143730"&gt;Nick Hodgson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ricky-wilson" rel="noopener" data-api_path="/artists/52329"&gt;Ricky Wilson’s&lt;/a&gt; appearance as a judge on &lt;em&gt;The Voice UK&lt;/em&gt;, when &lt;a href="https://genius.com/albums/Kaiser-chiefs/Education-education-education-war" rel="noopener" data-api_path="/albums/73523"&gt;&lt;em&gt;Education, Education, Education &amp;amp; War&lt;/em&gt;&lt;/a&gt; became their second album to top the UK charts.&lt;/p&gt;\n\n&lt;p&gt;After this, the band stepped away from their trademark punk sound and moved into a more commercial, poppy direction with 2016’s &lt;a href="https://genius.com/albums/Kaiser-chiefs/Stay-together" rel="noopener" data-api_path="/albums/156158"&gt;&lt;em&gt;Stay Together&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Parva (2000-03)']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Magic', 'annotations': {'description': '&lt;p&gt;MAGIC! is a Canadian reggae-pop band, composed of songwriter and record producer &lt;a href="https://genius.com/artists/Nasri-atweh" rel="noopener" data-api_path="/artists/204998"&gt;Nasri Atweh&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-pellizzer" rel="noopener" data-api_path="/artists/204999"&gt;Mark Pellizzer&lt;/a&gt;, &lt;a href="https://genius.com/artists/Alex-tanas" rel="noopener" data-api_path="/artists/205000"&gt;Alex Tanas&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Ben-spivak" rel="noopener" data-api_path="/artists/676957"&gt;Ben Spivak&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2014, they released their debut single, &lt;a href="https://genius.com/Magic-rude-lyrics" rel="noopener" data-api_path="/songs/380162"&gt;“Rude”&lt;/a&gt;. It topped charts worldwide including the US and UK, and peaked at number six in Canada. Their &lt;a href="https://genius.com/albums/Magic/Don-t-kill-the-magic" rel="noopener" data-api_path="/albums/108042"&gt;debut album&lt;/a&gt; was released on June 30, 2014, and peaked at six in the US and five in Canada.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Owl-city', 'annotations': {'description': '&lt;p&gt;Originally making songs in his basement for his friends as &lt;a href="https://genius.com/artists/Sky-sailing" rel="noopener" data-api_path="/artists/360480"&gt;Sky Sailing&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adam-young" rel="noopener" data-api_path="/artists/39521"&gt;Adam Young&lt;/a&gt; then discovered synth music and became Owl City, releasing two relatively unpopular albums &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Maybe-i-m-dreaming" rel="noopener" data-api_path="/albums/40282"&gt;Maybe I’m Dreaming&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Of-june" rel="noopener" data-api_path="/albums/100523"&gt;Of June&lt;/a&gt;&lt;/em&gt; before making his hit single “&lt;a href="https://genius.com/Owl-city-fireflies-lyrics" rel="noopener" data-api_path="/songs/54831"&gt;Fireflies&lt;/a&gt;” which made his third album as Owl City, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ocean-eyes" rel="noopener" data-api_path="/albums/12041"&gt;Ocean Eyes&lt;/a&gt;&lt;/em&gt; a hit.&lt;/p&gt;\n\n&lt;p&gt;After this worldwide success he put on two more albums, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/All-things-bright-and-beautiful" rel="noopener" data-api_path="/albums/12197"&gt;All Things Bright and Beautiful&lt;/a&gt;&lt;/em&gt; in 2011, and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/The-midsummer-station" rel="noopener" data-api_path="/albums/20412"&gt;The Midsummer Station&lt;/a&gt;&lt;/em&gt; in 2012. In 2014 he released an EP, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ultraviolet-ep" rel="noopener" data-api_path="/albums/105845"&gt;Ultraviolet&lt;/a&gt;&lt;/em&gt;, composed of 4 songs &lt;a href="https://genius.com/Owl-city-this-isnt-the-end-lyrics" rel="noopener" data-api_path="/songs/461949"&gt;whom one&lt;/a&gt; would appear on his following album, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Mobile-orchestra" rel="noopener" data-api_path="/albums/124470"&gt;Mobile Orchestra&lt;/a&gt;&lt;/em&gt;. Retiring from Owl City in 2016 to focus on &lt;a href="https://www.ayoungscores.com/" rel="noopener nofollow"&gt;Adam Young Scores&lt;/a&gt;, a new project made of orchestral soundtracks about historic events, he reappeared in 2017 to tease his upcoming new album &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Cinematic" rel="noopener" data-api_path="/albums/377687"&gt;Cinematic&lt;/a&gt;&lt;/em&gt;, with the release of a series of three EPs, called &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-1-ep" rel="noopener" data-api_path="/albums/377817"&gt;Reel 1&lt;/a&gt;&lt;/em&gt; , &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-2-ep" rel="noopener" data-api_path="/albums/399481"&gt;2&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-3-ep" rel="noopener" data-api_path="/albums/417372"&gt;3&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Starcrawler', 'artist_name': 'Filter', 'wiki': 'http://en.wikipedia.org/wiki/Starcrawler', 'start_year': '2015', 'labels': ['http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['Arrow de Wilde', 'Henri Cash', 'Seth Carolina', 'Tim Franco'], 'old_members': ['Austin Smith'], 'abstract': "Starcrawler is an American rock band from Los Angeles, formed in 2015. The band consists of lead singer Arrow de Wilde, guitarist Henri Cash, bassist Tim Franco and drummer Seth Carolina. They have released two studio albums, Starcrawler (2018) and Devour You (2019). Starcrawler lead singer Arrow de Wilde and guitarist Henri Cash both attended Los Angeles' Grand Arts High School. De Wilde is the child of photographer Autumn de Wilde and drummer Aaron Sperske."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jamiroquai', 'artist_name': 'Jamiroquai', 'wiki': 'http://en.wikipedia.org/wiki/Jamiroquai', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/Acid_Jazz_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/S2_Records', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Work_Group'], 'plays_in': ['http://dbpedia.org/resource/About_Last_Night_(2014_film)', 'http://dbpedia.org/resource/Grammy_Nominees', "http://dbpedia.org/resource/Guru's_Jazzmatazz,_Vol._2:_The_New_Reality", 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jay_Kay', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'Sola Akingbola', 'Rob Harris', 'Derrick McKenzie'], 'related_artists': ['http://dbpedia.org/resource/Anastacia', 'http://dbpedia.org/resource/Jay_Kay__Jay_Kay__1', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Linda_Lewis', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Nick_Fyffe', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Shuffler', 'http://dbpedia.org/resource/Simon_Hale', 'http://dbpedia.org/resource/Simon_Katz', 'http://dbpedia.org/resource/Stuart_Zender', 'http://dbpedia.org/resource/The_Temperance_Movement_(band)', 'http://dbpedia.org/resource/Toby_Smith'], 'abstract': 'Jamiroquai (/dʒəˈmɪrəkwaɪ/) are an English funk and acid jazz band from London. Formed in 1992, they are fronted by vocalist Jay Kay, and were prominent in the London-based funk and acid jazz movement of the 1990s. They built on their acid jazz sound in their early releases and later drew from rock, disco, electronic and Latin music genres. Lyrically, the group have addressed social and environmental justice. Kay has remained as the only original member through several line-up changes. The band made their debut under Acid Jazz Records, but they subsequently found mainstream success under Sony. While under this label, three of their albums have charted at number one in the UK, including Emergency on Planet Earth (1993), Synkronized (1999) and A Funk Odyssey (2001). The band\'s 1998 single, "Deeper Underground", was also number one in their native country. Jamiroquai has sold more than 26 million albums worldwide as of 2017. Their third album, Travelling Without Moving (1996), received a Guinness World Record for the best-selling funk album in history. The music video for its lead single, "Virtual Insanity", also contributed to the band\'s success. The song was named Video of the Year at the 1997 MTV Video Music Awards and earned the band a Grammy Award in 1998.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Alien_Ant_Farm', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/DreamWorks_Records', 'http://dbpedia.org/resource/Executive_Music_Group', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'pop punk'], 'actual_members': ['Dryden Mitchell', 'Terry Corso', 'Tim Peugh', 'Mike Cosgrove'], 'old_members': ['Tye Zamora', 'Joe Hill'], 'related_artists': ['http://dbpedia.org/resource/Chain_of_Strength', 'http://dbpedia.org/resource/Excel_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jay_Baumgardner'], 'abstract': 'Alien Ant Farm is an American rock band that formed in Riverside, California in 1996. They have released five studio albums and sold over 5 million units worldwide. The band\'s cover of Michael Jackson\'s "Smooth Criminal" topped the Billboard Alternative songs charts in 2001, and was featured in the film American Pie 2. They released their debut album Greatest Hits independently in 1999, then signed to DreamWorks Records in 2000. Their second album ANThology was released in 2001 and has been certified platinum by the RIAA, selling over one million copies and reaching number 11 on the Billboard 200. Following up that was their third album, TruANT, released in 2003. The album was produced by brothers Robert and Dean DeLeo of Stone Temple Pilots, and made it to number 42 on the Billboard 200. In 2005 the band recorded their next album 3rd Draft, however its release was denied by the label after Geffen bought out DreamWorks. It was eventually released in 2006 as Up in the Attic, charting at number 114 on the Billboard 200. After several years of sporadic touring, the band\'s fifth studio album Always and Forever was released in February 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Junkie_XL', 'artist_name': 'Junkie XL', 'wiki': 'http://en.wikipedia.org/wiki/Junkie_XL', 'birth_date': '08 December 1967', 'start_year': '1988', 'aliases': ['JXL', 'Junkie XL'], 'labels': ['http://dbpedia.org/resource/Nettwerk', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Ultra_Music'], 'plays_in': ['http://dbpedia.org/resource/300:_Rise_of_an_Empire', 'http://dbpedia.org/resource/Alita:_Battle_Angel', 'http://dbpedia.org/resource/Alita:_Battle_Angel__Alita:_Battle_Angel__1', 'http://dbpedia.org/resource/Army_of_the_Dead', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Black_Mass_(film)', 'http://dbpedia.org/resource/Blind_(2007_film)', 'http://dbpedia.org/resource/Brimstone_(2016_film)', 'http://dbpedia.org/resource/Bringing_Up_Bobby_(2011_film)', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive__DOA:_Dead_or_Alive__1', 'http://dbpedia.org/resource/Deadpool_(film)', 'http://dbpedia.org/resource/Deadpool_(film)__Deadpool__1', 'http://dbpedia.org/resource/Divergent_(film)', 'http://dbpedia.org/resource/God_of_War_II', 'http://dbpedia.org/resource/Godzilla_vs._Kong', 'http://dbpedia.org/resource/Kill_Your_Friends_(film)', 'http://dbpedia.org/resource/Mad_Max:_Fury_Road', 'http://dbpedia.org/resource/Mortal_Engines_(film)', 'http://dbpedia.org/resource/New_Kids_Turbo', 'http://dbpedia.org/resource/Paranoia_(2013_film)', 'http://dbpedia.org/resource/Point_Break_(2015_film)', 'http://dbpedia.org/resource/Run_All_Night_(film)', 'http://dbpedia.org/resource/Scoob!', 'http://dbpedia.org/resource/Siberia_(1998_film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_(film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_2_(film)', 'http://dbpedia.org/resource/Spectral', 'http://dbpedia.org/resource/Terminator:_Dark_Fate', 'http://dbpedia.org/resource/The_355', 'http://dbpedia.org/resource/The_Amazing_Spider-Man_2', 'http://dbpedia.org/resource/The_Animatrix', 'http://dbpedia.org/resource/The_Dark_Tower_(2017_film)', 'http://dbpedia.org/resource/The_Happy_Housewife', 'http://dbpedia.org/resource/The_Heineken_Kidnapping', 'http://dbpedia.org/resource/Three_Thousand_Years_of_Longing', 'http://dbpedia.org/resource/Tomb_Raider_(film)', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League"], 'genres': ['http://dbpedia.org/resource/Big_beat', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Film_score', 'http://dbpedia.org/resource/Trance_music', 'trance', 'electronic'], 'related_artists': ['http://dbpedia.org/resource/Hans_Zimmer', 'http://dbpedia.org/resource/Kēvens', 'http://dbpedia.org/resource/Man_with_a_Mission', 'http://dbpedia.org/resource/Remote_Control_Productions_(American_company)'], 'abstract': 'Tom Holkenborg (born 8 December 1967), also known by his stage name Junkie XL or occasionally JXL, is a Dutch composer, multi-instrumentalist, DJ, producer, and engineer. Originally known for his trance productions, he has moved to producing electronica and big beat music and film scores. His remix of Elvis Presley\'s "A Little Less Conversation" became a worldwide hit in 2002. In film scores, he has worked with Hans Zimmer and his company Remote Control Productions on Man of Steel and Batman v Superman: Dawn of Justice, as well as composing the scores for Zack Snyder\'s Justice League, Divergent, Mad Max: Fury Road, Deadpool, Tomb Raider, Alita: Battle Angel, Terminator: Dark Fate, Sonic the Hedgehog, Scoob!, Godzilla vs. Kong and Army of the Dead.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gotye', 'artist_name': 'Gotye', 'wiki': 'http://en.wikipedia.org/wiki/Gotye', 'hometown': 'http://dbpedia.org/resource/Victoria_(Australia)', 'birth_date': '21 May 1980', 'start_year': '2001', 'aliases': ['Wally De Backer'], 'labels': ['http://dbpedia.org/resource/Creative_Vibes', 'http://dbpedia.org/resource/Eleven:_A_Music_Company', 'http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Trip_hop'], 'related_artists': ['http://dbpedia.org/resource/François_Tétaz', 'http://dbpedia.org/resource/Jean-Jacques_Perrey', 'http://dbpedia.org/resource/Kimbra', 'http://dbpedia.org/resource/The_Basics', 'http://dbpedia.org/resource/The_Night_Game'], 'abstract': 'Wouter "Wally" De Backer (born 21 May 1980), better known by his stage name Gotye (/ˈɡɒtieɪ/ GOT-ee-ay), is a Belgian-Australian multi-instrumentalist and singer-songwriter. The name "Gotye" is a pronunciation respelling of "Gauthier", the French cognate of his Dutch given name "Wouter". Gotye has released three studio albums independently and one album featuring remixes of tracks from his first two albums. He is a founding member of the Melbourne indie-pop trio The Basics, who have independently released four studio albums and numerous other titles since 2002. His voice has been compared to those of Peter Gabriel and Sting. Gotye achieved breakout success with his 2011 single "Somebody That I Used to Know", reaching number one on the Billboard Hot 100 and becoming the best-selling song of 2012. This made him the fifth Australian-based artist to top the chart and the second born in Belgium (after The Singing Nun in 1963). He has won five ARIA Awards and received a nomination for an MTV EMA for Best Asia and Pacific Act. On 10 February 2013, he won three Grammy Awards at the 55th Annual Grammy Awards Show: Record of the Year and Best Pop Duo/Group Performance for "Somebody That I Used to Know" and Best Alternative Music Album for Making Mirrors. Gotye has said he sometimes feels "less of a musician, more of a tinkerer."'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Chic_(band)', 'artist_name': 'Chic', 'wiki': 'http://en.wikipedia.org/wiki/Chic_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1972', 'end_year': '1983', 'aliases': ['The Big Apple Band (1972–1977)'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Buddah_Records', 'http://dbpedia.org/resource/Sumthing_Distribution', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Rhythm_and_blues'], 'actual_members': ['http://dbpedia.org/resource/Bill_Holloman', 'http://dbpedia.org/resource/Nile_Rodgers', 'Curt Ramm', 'Folami', 'Russell Graham', 'Kimberly Davis', 'Jerry Barnes', 'Ralph Rolle', 'Richard Hilton'], 'related_artists': ['http://dbpedia.org/resource/Al_Jarreau', 'http://dbpedia.org/resource/Bernard_Edwards', 'http://dbpedia.org/resource/Bloom_Twins', 'http://dbpedia.org/resource/Carly_Simon', 'http://dbpedia.org/resource/David_Bowie', 'http://dbpedia.org/resource/David_Lasley', 'http://dbpedia.org/resource/Debbie_Harry', 'http://dbpedia.org/resource/Diana_Ross', 'http://dbpedia.org/resource/Distance_(band)', 'http://dbpedia.org/resource/Duran_Duran', 'http://dbpedia.org/resource/Fonzi_Thornton', 'http://dbpedia.org/resource/Gerardo_Velez', 'http://dbpedia.org/resource/Johnny_Kemp', 'http://dbpedia.org/resource/Johnny_Mathis', 'http://dbpedia.org/resource/Kool_&amp;_the_Gang', 'http://dbpedia.org/resource/Luther_Vandross', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Madonna', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Norma_Jean_Wright', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Robert_Palmer_(singer)', 'http://dbpedia.org/resource/Robin_Beck', 'http://dbpedia.org/resource/Sheila_and_B._Devotion', 'http://dbpedia.org/resource/Sister_Sledge', 'http://dbpedia.org/resource/Sylver_Logan_Sharp', 'http://dbpedia.org/resource/The_Honeydrippers', 'http://dbpedia.org/resource/The_Power_Station_(band)', 'http://dbpedia.org/resource/Tony_Thompson_(drummer)'], 'abstract': 'Chic (/ʃiːk/ SHEEK), currently called Nile Rodgers &amp; Chic, is an American band that was organized in 1972 by guitarist Nile Rodgers and bassist Bernard Edwards. It recorded many commercially successful disco songs, including "Dance, Dance, Dance (Yowsah, Yowsah, Yowsah)" (1977), "Everybody Dance" (1977), "Le Freak" (1978), "I Want Your Love" (1978), "Good Times" (1979), and "My Forbidden Lover" (1979). The group regarded themselves as a rock band for the disco movement "that made good on hippie peace, love and freedom". In 2017, Chic was nominated for induction into the Rock and Roll Hall of Fame for the eleventh time.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sex_Pistols', 'artist_name': 'Sex Pistols', 'wiki': 'http://en.wikipedia.org/wiki/Sex_Pistols', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1975', 'end_year': '1978', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/D.O.A.:_A_Rite_of_Passage', 'http://dbpedia.org/resource/The_Filth_and_the_Fury', "http://dbpedia.org/resource/The_Great_Rock_'n'_Roll_Swindle"], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'old_members': ['http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'Johnny Rotten'], 'related_artists': ['http://dbpedia.org/resource/Bill_Price_(record_producer)', 'http://dbpedia.org/resource/Chequered_Past', 'http://dbpedia.org/resource/Chiefs_of_Relief', 'http://dbpedia.org/resource/Dave_Goodman_(record_producer)', 'http://dbpedia.org/resource/False_Alarm_(band)', 'http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Lightning_Raiders', 'http://dbpedia.org/resource/Malcolm_McLaren', 'http://dbpedia.org/resource/Man_Raze', 'http://dbpedia.org/resource/Neurotic_Outsiders', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Public_Image_Ltd', 'http://dbpedia.org/resource/Rich_Kids', 'http://dbpedia.org/resource/Sham_Pistols', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Siouxsie_and_the_Banshees', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'http://dbpedia.org/resource/Steve_New', 'http://dbpedia.org/resource/Subway_Sect', 'http://dbpedia.org/resource/The_Fallen_Leaves', 'http://dbpedia.org/resource/The_Flowers_of_Romance_(British_band)', 'http://dbpedia.org/resource/The_International_Swingers', 'http://dbpedia.org/resource/The_London_Cowboys', 'http://dbpedia.org/resource/The_Professionals_(band)', 'http://dbpedia.org/resource/Vicious_White_Kids', 'http://dbpedia.org/resource/Wally_Nightingale'], 'abstract': 'The Sex Pistols were an English punk rock band that formed in London in 1975. Although their initial career lasted just two and a half years, they are regarded as one of the most groundbreaking acts in the history of popular music. They were responsible for initiating the punk movement in the United Kingdom and inspiring many later punk and alternative rock musicians. Their fashion and hairstyles have been credited as a significant influence on punk image, and they are often associated with anarchism within music. The Sex Pistols originally comprised vocalist John Lydon (known at the time by his stage name "Johnny Rotten"), guitarist Steve Jones, drummer Paul Cook and bassist Glen Matlock. Matlock was replaced by Sid Vicious in early 1977. Under the management of Malcolm McLaren, the band attracted controversies that both captivated and appalled Britain. Through an obscenity-laced television interview in December 1976 and their May 1977 single "God Save the Queen", attacking Britons\' social conformity and deference to the Crown, they popularised punk rock in the UK. It was banned not only by the BBC but also by nearly every independent radio station, making it the "most heavily censored record in British history". The band\'s only album Never Mind the Bollocks, Here\'s the Sex Pistols (1977)—a UK number one album—is a staple record of punk rock. In January 1978, at the end of their over-hyped and turbulent tour of the United States, Rotten announced the band\'s break-up. Over the next few months, the three remaining band members recorded songs for McLaren\'s film version of the Sex Pistols\' story, The Great Rock \'n\' Roll Swindle. Vicious died of a heroin overdose in February 1979, following his arrest for the alleged murder of his girlfriend, Nancy Spungen. Rotten, Jones, Cook and Matlock reunited for a highly successful concert tour in 1996. Further one-off performances and short tours followed over the next decade. The Sex Pistols have been recognised as an influential band. In 2004, Rolling Stone placed them No. 58 on its list of the "100 Greatest Artists of All Time". On 24 February 2006, the Sex Pistols—the four original members plus Vicious—were inducted into the Rock and Roll Hall of Fame, but they refused to attend the ceremony, calling the museum "a piss stain".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Katrina_and_the_Waves', 'artist_name': 'Katrina &amp; the Waves', 'wiki': 'http://en.wikipedia.org/wiki/Katrina_and_the_Waves', 'hometown': 'http://dbpedia.org/resource/Cambridgeshire', 'start_year': '1981', 'end_year': '1999', 'labels': ['http://dbpedia.org/resource/Attic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/SBK_Records', 'http://dbpedia.org/resource/Virgin_Schallplatten', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Rock_music', 'Rock', 'new wave'], 'old_members': ['http://dbpedia.org/resource/Katrina_Leskanich', 'http://dbpedia.org/resource/Kimberley_Rew', 'Alex Cooper', 'Vince de la Cruz'], 'related_artists': ['http://dbpedia.org/resource/Katrina_Leskanich', 'http://dbpedia.org/resource/Kimberley_Rew', 'http://dbpedia.org/resource/The_Soft_Boys'], 'abstract': 'Katrina and the Waves were a British-American rock band best known for the 1985 hit "Walking on Sunshine". They also won the 1997 Eurovision Song Contest with the song "Love Shine a Light".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justin_Timberlake', 'artist_name': 'Justin Timberlake', 'wiki': 'http://en.wikipedia.org/wiki/Justin_Timberlake', 'birth_date': '31 January 1981', 'start_year': '1992', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/New_Breed_(Jay_Park_album)', 'http://dbpedia.org/resource/The_Book_of_Love_(film)'], 'related_artists': ['http://dbpedia.org/resource/Bravo_All_Stars', 'http://dbpedia.org/resource/Common_Kings', 'http://dbpedia.org/resource/Craig_Bauer', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Danja_(record_producer)', 'http://dbpedia.org/resource/David_Elitch', 'http://dbpedia.org/resource/Esmée_Denters', 'http://dbpedia.org/resource/Ethan_Farmer', 'http://dbpedia.org/resource/Francesco_Yates', 'http://dbpedia.org/resource/Greg_Howe', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/James_Fauntleroy', 'http://dbpedia.org/resource/Jawbreakers_(duo)', 'http://dbpedia.org/resource/Jay_E', 'http://dbpedia.org/resource/Jimmy_Douglass', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kovas_(musician)', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Ram_Sampath', 'http://dbpedia.org/resource/The_Lonely_Island', 'http://dbpedia.org/resource/The_Neptunes', 'http://dbpedia.org/resource/Tye_Tribbett'], 'abstract': 'Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, record producer and actor. He is one of the world\'s best-selling music artists, with sales of over 88 million records worldwide. Timberlake is the recipient of numerous awards and accolades, including ten Grammy Awards, four Primetime Emmy Awards, three Brit Awards, nine Billboard Music Awards, the Contemporary Icon Award by the Songwriters Hall of Fame, and the Michael Jackson Video Vanguard Award. According to Billboard, he is the best performing male soloist in the history of the Mainstream Top 40. Born and raised in Tennessee, he appeared on the television shows Star Search and The All-New Mickey Mouse Club as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of NSYNC, which eventually became one of the best-selling boy bands of all time. Timberlake won two Grammy Awards for his R&amp;B-focused debut solo album Justified (2002) and its single "Cry Me a River". Another single from the album, "Rock Your Body", was also successful. His critically acclaimed second album FutureSex/LoveSounds (2006), characterized by its diversity in music genres, debuted atop the U.S. Billboard 200 and spawned the Hot 100 consecutive number-one singles with "SexyBack" (featuring Timbaland), "My Love" (featuring T.I.), and "What Goes Around... Comes Around". Established as a solo artist worldwide, his first two albums both exceeded sales of 10 million copies, as he continued producing records and collaborating with other artists. From 2008 through 2012, Timberlake focused on his acting career, effectively putting his music career on hiatus. He held starring roles in the films The Social Network, Bad Teacher, Friends with Benefits, and In Time. Timberlake resumed his music career in 2013 with his third and fourth albums The 20/20 Experience and The 20/20 Experience – 2 of 2, exploring neo soul styles, partly inspired by the expansive song structures of 1960s and 1970s rock. The former became the best-selling album of the year and spawned the top three singles "Suit &amp; Tie" (featuring Jay-Z) and "Mirrors". Timberlake voiced Branch in DreamWorks Animation\'s Trolls (2016), whose soundtrack includes his fifth Billboard Hot 100 chart-topping single, "Can\'t Stop the Feeling!", which earned him a Academy Award nomination. His fifth studio album Man of the Woods (2018) became his fourth number-one album in the US. Supported by the two top ten singles, "Filthy" and "Say Something" (featuring Chris Stapleton), it concluded 2018 as the sixth best-selling album of the year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Shaggy_(musician)', 'artist_name': 'Shaggy', 'wiki': 'http://en.wikipedia.org/wiki/Shaggy_(musician)', 'birth_date': '22 October 1968', 'start_year': '1992', 'related_artists': ['http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Brian_and_Tony_Gold', "http://dbpedia.org/resource/Che'Nelle", 'http://dbpedia.org/resource/Costi_Ioniță', 'http://dbpedia.org/resource/E-Dee', 'http://dbpedia.org/resource/Faydee', 'http://dbpedia.org/resource/Gabry_Ponte', 'http://dbpedia.org/resource/Iakopo', 'http://dbpedia.org/resource/Ida_Corr', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Jimmy_Cozier', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Kat_DeLuna', 'http://dbpedia.org/resource/Keith_Hetrick', 'http://dbpedia.org/resource/Kreesha_Turner', 'http://dbpedia.org/resource/Kylie_and_Garibay', 'http://dbpedia.org/resource/Leo_Aberer', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Olaf_Blackwood', 'http://dbpedia.org/resource/Rayvon', 'http://dbpedia.org/resource/Ricky_Blaze', 'http://dbpedia.org/resource/Rupee_(musician)', 'http://dbpedia.org/resource/Shaun_Pizzonia', 'http://dbpedia.org/resource/Stonebwoy', 'http://dbpedia.org/resource/Tessanne_Chin'], 'abstract': 'Orville Richard Burrell CD (born October 22, 1968), better known by his stage name Shaggy, is a Jamaican-American reggae musician, singer, DJ, and actor who scored hits with the songs "It Wasn\'t Me", "Boombastic", "In The Summertime", "Oh Carolina", and "Angel". He has been nominated for seven Grammy Awards, winning twice for Best Reggae Album with Boombastic in 1996 and 44/876 with Sting in 2019, and has won the Brit Award for International Male Solo Artist in 2002. In 2007, he was awarded the Jamaican Order of Distinction with the rank of Commander.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jessie_J', 'artist_name': 'Jessie J', 'wiki': 'http://en.wikipedia.org/wiki/Jessie_J', 'plays_in': ['http://dbpedia.org/resource/Easy_A', 'http://dbpedia.org/resource/Pitch_Perfect_2', 'http://dbpedia.org/resource/Pitch_Perfect_2_(soundtrack)', 'http://dbpedia.org/resource/Summer_of_Love_(album)', 'http://dbpedia.org/resource/The_Mortal_Instruments:_City_of_Bones'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tennant', 'http://dbpedia.org/resource/Cassius_Henry', 'http://dbpedia.org/resource/Claude_Kelly', 'http://dbpedia.org/resource/Cory_Rooney', 'http://dbpedia.org/resource/DJ_Cassidy', 'http://dbpedia.org/resource/Emily_Warren', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/Livvia', 'http://dbpedia.org/resource/Rickard_Göransson', 'http://dbpedia.org/resource/Steve_Booker_(producer)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'abstract': 'Jessica Ellen Cornish (born 27 March 1988), known professionally as Jessie J, is an English singer-songwriter. Born and raised in London, she began her career on stage, aged 11, with a role in the West End musical Whistle Down the Wind. She studied at the BRIT School before signing with Gut Records and striking a songwriting deal with Sony/ATV Music Publishing. After signing with Republic Records, Jessie J came to prominence following the release of her debut single "Do It Like a Dude". Her following single "Price Tag" topped the charts in nineteen countries including the UK and was followed by the release of her debut album, Who You Are (2011), which peaked at number two in the UK. Other singles from the album included "Nobody\'s Perfect", "Who You Are", "Domino" and "Laserlight", all of which peaked within the top ten on the UK Singles Chart, making Jessie J the first British female artist to have six top-ten singles from a sole studio album. "Domino" also attained further international success, peaking at number six on the US Billboard Hot 100 and becoming her second number-one single in the UK. In 2012, Jessie J performed at the Queen\'s Diamond Jubilee Concert outside Buckingham Palace in June, as well as the closing ceremony of the 2012 Olympic Games in London on 12 August. Her second album Alive (2013) peaked within the top five on the UK Albums Chart and also included the top-five singles "Wild" and "It\'s My Party". The release of her third album Sweet Talker (2014) was preceded by the single "Bang Bang" which debuted at number one in the UK and went multi-platinum worldwide. The album made the top five in the UK and peaked at number ten on the US Billboard 200, her highest-charting album in the US. As of January 2015, Jessie J had sold over 20 million singles and 3 million albums worldwide. Citing various influences, Jessie J is recognised for an unconventional musical and performance style that mixes soul vocals with contemporary R&amp;B, pop, electropop, and hip-hop beats. She has received various accolades throughout her career, including the 2011 Critics\' Choice Brit Award and the BBC\'s Sound of 2011. Jessie J has supported various charitable causes, and has appeared on the UK charity telethons BBC Children in Need and Comic Relief. She has served as a coach on the competition series The Voice UK, The Voice Australia and The Voice Kids UK. In 2018, Jessie J received widespread recognition in China following her appearance in the Hunan TV reality program Singer (previously called I Am a Singer).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mr._President_(band)', 'artist_name': 'Mr. President', 'wiki': 'http://en.wikipedia.org/wiki/Mr._President_(band)', 'hometown': 'http://dbpedia.org/resource/Bremen', 'start_year': '1991', 'end_year': '1991', 'aliases': ['Satellite One'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae_fusion'], 'old_members': ['Daniela Haak', 'Delroy Rennalls', 'Franziska Frank', 'George Jones', 'Judith Hinkelmann', 'Myriam Beckmann', 'Nadia Ayche'], 'related_artists': ['http://dbpedia.org/resource/Bravo_All_Stars'], 'abstract': 'Mr. President was a German Eurodance project best known for the crossover world hit "Coco Jamboo" released in 1996. The group is also famous in Europe for the dance hits "Up\'n Away", "I\'ll Follow the Sun", "I Give You My Heart", "4 on the Floor", "Jojo Action" and the hit albums Up\'n Away – The Album and We See the Same Sun. Mr. President was originally formed in 1991 in Bremen, Germany, by producers Jens Neumann and Kai Matthiesen. In the beginning, the group consisted of the German singers Judith Hinkelmann (T-Seven), Daniela Haak (Lady Danii) and American rapper George Jones (Sir Prophet). In 1994, Jones was replaced by British rapper Delroy Rennalls (Layzee Dee). When Hinklemann departed the act in 2000 to begin a solo career, singer Nadia Ayche joined the group as her replacement. Ayche, however, was quickly replaced by singer Myra Beckmann in 2001. When Beckmann also departed the act in 2003, singer Franziska Frank (Franzi) joined the act. By 2008, Mr. President had officially disbanded. Since 2008, Rennalls has continued to tour across Europe as LayZee formerly of Mr. President in addition to releasing his own solo material. In 2014, he recruited Hungarian-born singer Erika Kovács into his live act. Today, Rennalls and Kovács perform the Mr. President hits as a live duo act worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Suzanne_Vega', 'artist_name': 'Suzanne Vega', 'wiki': 'http://en.wikipedia.org/wiki/Suzanne_Vega', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'birth_date': '11 July 1959', 'start_year': '1982', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Blue_Note_Records', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Suzanne_Vega'], 'plays_in': ['http://dbpedia.org/resource/Women_&amp;_Men_2'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Folk_rock'], 'related_artists': ['http://dbpedia.org/resource/Cameron_Craig', 'http://dbpedia.org/resource/DNA_(duo)', 'http://dbpedia.org/resource/Danger_Mouse_(musician)', 'http://dbpedia.org/resource/Duncan_Sheik', 'http://dbpedia.org/resource/Gerry_Leonard', 'http://dbpedia.org/resource/Joe_Jackson_(musician)', 'http://dbpedia.org/resource/Jonathan_Coulton', 'http://dbpedia.org/resource/Robin_Danar', 'http://dbpedia.org/resource/Shawn_Colvin', 'http://dbpedia.org/resource/Sparklehorse'], 'abstract': 'Suzanne Nadine Vega (born July 11, 1959) is an American singer-songwriter best known for her folk-inspired music. Vega\'s music career spans almost 40 years. She came to prominence in the mid-1980s, releasing four singles that entered the Top 40 charts in the UK during the 1980s and 1990s, including "Marlene on the Wall", "Left of Center", "Luka" and "No Cheap Thrill". "Tom\'s Diner", which was originally released as an a cappella recording on Vega\'s second album, Solitude Standing (1987), was remixed in 1990 as a dance track by English electronic duo DNA with Vega as featured artist, and it became a Top 10 hit in over five countries. The original a capella recording of the song was used as a test during the creation of the MP3 format. The role of her song in the development of the MP3 compression prompted Vega to be given the title of "The Mother of the MP3". Vega has released nine studio albums to date, the latest of which is Lover, Beloved: Songs from an Evening with Carson McCullers, released in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Elle_King', 'artist_name': 'Elle King', 'wiki': 'http://en.wikipedia.org/wiki/Elle_King', 'birth_date': '03 July 1989', 'related_artists': ['http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Sterling_Fox'], 'abstract': 'Tanner Elle Schneider (born July 3, 1989), known professionally as Elle King, is an American singer, songwriter, multi-instrumentalist, television personality, and actress. Her musical style encompasses country, soul, rock and blues. In 2012, King released her debut EP, The Elle King EP, on RCA; one track from that EP, "Playing for Keeps", is the theme song for VH1\'s Mob Wives Chicago series. She released her debut album, Love Stuff on February 17, 2015. The album produced the US top 10 single "Ex\'s &amp; Oh\'s", which earned her two Grammy Award nominations. King has also toured with acts such as Of Monsters and Men, Train, James Bay, The Chicks, Heart, Joan Jett, Michael Kiwanuka and Miranda Lambert. She is the daughter of actor and comedian Rob Schneider and former model London King. She resides in Los Angeles.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justice_(singer)', 'artist_name': 'Justice', 'wiki': 'http://en.wikipedia.org/wiki/Justice_(singer)', 'start_year': '2011', 'genres': ['http://dbpedia.org/resource/Soul_music', 'Pop, soul, dance'], 'related_artists': ['http://dbpedia.org/resource/Jean-Michel_Soupraya'], 'abstract': 'Justice, born Lauren Justice, is an American female pop recording artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Asia_(band)', 'artist_name': 'Asia', 'wiki': 'http://en.wikipedia.org/wiki/Asia_(band)', 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Sherwood', 'http://dbpedia.org/resource/Carl_Palmer', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Ron_%22Bumblefoot%22_Thal'], 'old_members': ['http://dbpedia.org/resource/John_Wetton', 'http://dbpedia.org/resource/Steve_Howe', 'others'], 'related_artists': ['http://dbpedia.org/resource/Al_Pitrelli', 'http://dbpedia.org/resource/Asia_featuring_John_Payne__Asia_featuring_John_Payne__1', 'http://dbpedia.org/resource/Aziz_Ibrahim', 'http://dbpedia.org/resource/Billy_Sherwood', 'http://dbpedia.org/resource/Brian_Lane_(manager)', 'http://dbpedia.org/resource/Carl_Palmer', 'http://dbpedia.org/resource/Chris_Slade', 'http://dbpedia.org/resource/Circa_(band)', 'http://dbpedia.org/resource/Danger_Danger', 'http://dbpedia.org/resource/Emerson,_Lake_&amp;_Palmer', 'http://dbpedia.org/resource/GTR_(band)', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Greg_Lake', 'http://dbpedia.org/resource/Guthrie_Govan', 'http://dbpedia.org/resource/Jay_Schellen', 'http://dbpedia.org/resource/John_Payne_(singer)', 'http://dbpedia.org/resource/John_Young_(British_musician)', 'http://dbpedia.org/resource/Kim_Nielsen_(guitarist)', 'http://dbpedia.org/resource/King_Crimson__King_Crimson__1', 'http://dbpedia.org/resource/Mandy_Meyer', 'http://dbpedia.org/resource/Mike_Sturgis', 'http://dbpedia.org/resource/Pat_Thrall', 'http://dbpedia.org/resource/Qango_(band)', 'http://dbpedia.org/resource/Ron_%22Bumblefoot%22_Thal', 'http://dbpedia.org/resource/Saga_(band)', 'http://dbpedia.org/resource/Sam_Coulson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Steve_Howe', 'http://dbpedia.org/resource/U.K._(band)', 'http://dbpedia.org/resource/Unisonic_(band)', 'http://dbpedia.org/resource/Vinny_Burns', 'http://dbpedia.org/resource/Yes_(band)'], 'abstract': 'Asia are an English rock supergroup formed in London in 1981. The most commercially successful line-up was its original, which consisted of four members of different progressive rock bands that had enjoyed great success in the 1970s: lead vocalist and bassist John Wetton of King Crimson and U.K., guitarist Steve Howe of Yes, keyboardist Geoff Downes of Yes and The Buggles, and drummer Carl Palmer of Emerson, Lake &amp; Palmer. Their debut album, Asia, released in 1982, remains their best selling album and went to number one in several countries. The lead single from the album, "Heat of the Moment", remains their top charting and best-known song, reaching the top 40 in over a dozen markets and peaking in the U.S. at #4 on the Billboard Hot 100 and #1 on the Billboard Mainstream Rock chart. The band underwent multiple line-up changes before the original four members reunited in 2006. As a result, a band called Asia Featuring John Payne exists as a continuation of John Payne\'s career as Asia\'s frontman from 1991 until Wetton\'s return in 2006. In 2013, the original line-up was broken once again when Howe retired from the band and was replaced by guitarist Sam Coulson. After a few years of inactivity, Billy Sherwood (of Yes, World Trade and Circa:) replaced an ailing Wetton (who died shortly thereafter) in Asia for a summer 2017 tour with Journey. Following the end of the tour, the band went on hiatus again, re-emerging in 2019 with Ron "Bumblefoot" Thal replacing both Sherwood on vocals and Coulson on guitar.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ava_Max', 'artist_name': 'Ava Max', 'wiki': 'http://en.wikipedia.org/wiki/Ava_Max', 'birth_date': '16 February 1994', 'start_year': '2013', 'aliases': ['Amanda Kay', 'Ava', 'Ava Koci'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Autumn_Rowe', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Hitimpulse', 'http://dbpedia.org/resource/Kastra_(musical_artist)'], 'abstract': 'Amanda Ava Koci (born Amanda Koci; February 16, 1994), known professionally as Ava Max, is an American singer and songwriter. After moving from several states in the United States to pursue a music career since her childhood, Max signed with Atlantic Records in 2016, where she released the song "Sweet but Psycho" in August 2018. It became her breakthrough single after peaking at number one in 22 countries, including the United Kingdom, Germany, Austria, Switzerland, Sweden, and New Zealand. The song also peaked at number two in Australia, and at number 10 on the US Billboard Hot 100. In March 2020, Max released the song "Kings &amp; Queens", which peaked at number 13 on the Billboard Hot 100 and at number 19 on the UK Singles Chart. It was followed by the release of her debut studio album, Heaven &amp; Hell, in September 2020, which charted at number two on the UK Albums Chart and at number 27 on the US Billboard 200. In November 2020, the song "My Head &amp; My Heart" was released, which peaked at number 45 on the Billboard Hot 100 and at number 18 on the UK Singles Chart.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/James_Blunt', 'artist_name': 'James Blunt', 'wiki': 'http://en.wikipedia.org/wiki/James_Blunt', 'birth_date': '22 February 1974', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ["http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Dewain_Whitmore_Jr.', 'http://dbpedia.org/resource/Glen_Scott', 'http://dbpedia.org/resource/John_Garrison_(musician)', 'http://dbpedia.org/resource/Robin_Schulz', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Sinik', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Tom_Rothrock'], 'abstract': 'James Hillier Blount (born 22 February 1974), better known as James Blunt, is an English singer, songwriter, multi-instrumentalist, and record producer. A former reconnaissance officer in the Life Guards regiment of the British Army, he served under NATO during the 1999 Kosovo War. After leaving the military, he rose to fame in 2004 with the release of his debut album Back to Bedlam, achieving worldwide fame with the singles "You\'re Beautiful" and "Goodbye My Lover". Blunt\'s first album has sold over 11 million copies worldwide, topping the UK Albums Chart and peaking at number two in the US. "You\'re Beautiful" was number one in the UK, the US and a dozen other countries. Back to Bedlam was the best-selling album of the 2000s in the UK, and is one of the best-selling albums in UK chart history. Blunt has since sold over 20 million records worldwide. He has received several awards, including two Brit Awards—winning Best British Male in 2006—two MTV Video Music Awards, and two Ivor Novello Awards, as well as receiving five Grammy Award nominations and an Honorary Doctorate for Music in 2016 by the University of Bristol.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/Desireless', 'birth_date': '25 December 1952', 'start_year': '1986', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/Choice_Of_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Sony_Music_Latin', 'http://dbpedia.org/resource/Urgence_Disk'], 'plays_in': ["http://dbpedia.org/resource/Moscow_Pride_'06"], 'genres': ['http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'Claudie Fritsch-Mentrop (born 25 December 1952), known by her stage name Desireless (French pronunciation: \u200b[deziʁlɛs]), is a French singer. Between 1986 and 1988, her hit single "Voyage, voyage" made it to number one on many European and Asian single charts. According to her official website, Desireless still releases new albums and performs live, and she released a new album with Operation of the Sun (Antoine Aureche) accompanied by a worldwide tour from 2012 onward.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/B.o.B', 'artist_name': 'B.o.B', 'wiki': 'http://en.wikipedia.org/wiki/B.o.B', 'hometown': 'http://dbpedia.org/resource/Decatur,_Georgia', 'birth_date': '15 November 1988', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Grand_Hustle_Records', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Label_No_Genre'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Southern_hip_hop', 'dirty south'], 'related_artists': ['http://dbpedia.org/resource/B.o.B', 'http://dbpedia.org/resource/Big_Boi', 'http://dbpedia.org/resource/Big_Boi__Big_Boi__1', 'http://dbpedia.org/resource/Bun_B', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Classified_(rapper)', 'http://dbpedia.org/resource/Cobra_Starship', "http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Divinity_Roxx', 'http://dbpedia.org/resource/Giggs_(rapper)', 'http://dbpedia.org/resource/Grand_Hustle_Records', 'http://dbpedia.org/resource/Ilan_Kidron', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Ki_Fitzgerald', 'http://dbpedia.org/resource/Lauriana_Mae', 'http://dbpedia.org/resource/Lupe_Fiasco', 'http://dbpedia.org/resource/Melanie_Fiona', 'http://dbpedia.org/resource/Mila_J', 'http://dbpedia.org/resource/Scotty_ATL', 'http://dbpedia.org/resource/Sevyn_Streeter', 'http://dbpedia.org/resource/Skatterman', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/T.I.', 'http://dbpedia.org/resource/Tommy_Brown_(record_producer)', 'http://dbpedia.org/resource/Wurld_(musician)', 'http://dbpedia.org/resource/Young_Dro', 'http://dbpedia.org/resource/Zaytoven'], 'abstract': 'Bobby Ray Simmons Jr. (born November 15, 1988), known professionally as B.o.B, is an American rapper and record producer from Decatur, Georgia. In 2006, B.o.B was discovered by Brian Richardson, who then introduced him to TJ Chapman, who subsequently brought him to American record producer Jim Jonsin. After hearing his music, Jonsin signed B.o.B to his Rebel Rock Entertainment imprint. Two years later, Jonsin and B.o.B signed a joint venture deal, with Atlantic Records and American rapper T.I.\'s Grand Hustle Records. B.o.B quickly rose to fame after his commercial debut single "Nothin\' on You" (featuring Bruno Mars), reached number one in both the United States and the United Kingdom in 2009. He would later release his third single "Airplanes" (featuring Hayley Williams of Paramore), which also topped several major music charts. His fifth single "Magic", became his 3rd top 10 hit on the US Billboard Hot 100. B.o.B\'s debut studio album The Adventures of Bobby Ray, which was preceded by two extended plays (EPs) and several mixtapes, was released in April 2010. The album reached number one on the US Billboard 200 and was eventually certified 2× platinum by the Recording Industry Association of America (RIAA) in 2016. B.o.B was named the ninth "Hottest MC in the Game of 2010" by MTV, on their annual list. B.o.B released his second studio album Strange Clouds, in May 2012. The album spawned six singles, four of which charted exceptionally well internationally. The album\'s eponymous lead single (featuring Lil Wayne) became his fourth top 10 hit on the Billboard Hot 100. The singles "So Good", "Both of Us" (featuring Taylor Swift) and "Out of My Mind" (featuring Nicki Minaj), followed behind, with the former two being certified platinum by the RIAA. The album itself debuted at number five on the Billboard 200. His third album Underground Luxury, was released in December 2013 and supported by the lead single "HeadBand" (featuring 2 Chainz). In August 2015, B.o.B released the commercial mixtape Psycadelik Thoughtz, via digital distribution, with little-to-no promotion. B.o.B is an outspoken believer that the earth is flat.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sum_41', 'artist_name': 'Sum 41', 'wiki': 'http://en.wikipedia.org/wiki/Sum_41', 'hometown': 'http://dbpedia.org/resource/Ajax,_Ontario', 'start_year': '1996', 'aliases': ['Kaspir (1996)', 'Pain for Pleasure'], 'labels': ['http://dbpedia.org/resource/Aquarius_Records_(Canada)', 'http://dbpedia.org/resource/Hopeless_Records', 'http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Skate_punk', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Deryck_Whibley', 'http://dbpedia.org/resource/Frank_Zummo', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Tom_Thacker_(musician)'], 'old_members': ['http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Steve_Jocz', 'Richard Roy', 'Jon Marshall'], 'related_artists': ['http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brown_Brigade', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Darrin_Pfeiffer', 'http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Fonzie_(band)__Fonzie__1', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greig_Nori', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Marc_Costanzo', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Hyde', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Organ_Thieves', 'http://dbpedia.org/resource/Permanent_Me', 'http://dbpedia.org/resource/Street_Drum_Corps', 'http://dbpedia.org/resource/The_Operation_M.D.', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Treble_Charger'], 'abstract': 'Sum 41 is a Canadian rock band from Ajax, Ontario. Originally called Kaspir, the band was formed in 1996 and currently consists of Deryck Whibley (lead vocals, guitars, keyboards), Dave Baksh (lead guitar, backing vocals), Jason "Cone" McCaslin (bass, backing vocals), Tom Thacker (guitars, keyboards, backing vocals), and Frank Zummo (drums, occasional backing vocals). In 1999, Sum 41 signed an international record deal with Island Records and released its first EP, Half Hour of Power, in 2000. The band released its debut album, All Killer No Filler, in 2001. The album achieved mainstream success with its first single, "Fat Lip", which reached number one on the Billboard Modern Rock Tracks chart and remains the band\'s most successful single to date. The album\'s next singles "In Too Deep" and "Motivation" also achieved commercial success. All Killer No Filler was certified platinum in both the United States and the United Kingdom and triple platinum in Canada. In 2002, the band released Does This Look Infected?, which was also a commercial and critical success. The singles "The Hell Song" and "Still Waiting" both charted highly on the modern rock charts. The band released its next album, Chuck, in 2004, led by singles "We\'re All to Blame" and "Pieces". The album proved successful, peaking at number 10 on the Billboard 200. In 2007, the band released Underclass Hero, which was met with a mixed reception, but gained some commercial success, becoming the band\'s highest charting album to date. It was also the band\'s last album on Aquarius Records. The band released the album Screaming Bloody Murder, on Island Records in 2011 to a generally positive reception, though it fell short of its predecessors\' commercial success. The band\'s sixth studio album, 13 Voices was released in 2016. IMPALA awarded the album with a double gold award for 150,000 sold copies across Europe. The band\'s seventh studio album Order in Decline was released on July 19, 2019. The band often performs more than 300 times each year and holds long global tours, most of which last more than a year. The group have been nominated for seven Juno Awards and won twice – Group of the Year in 2002, and Rock Album of the Year for Chuck in 2005. Sum 41 was nominated for a Grammy Award for Best Hard Rock/Metal Performance for the song "Blood in My Eyes". From their formation to 2016, Sum 41 were the 31st best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hoobastank', 'artist_name': 'Hoobastank', 'wiki': 'http://en.wikipedia.org/wiki/Hoobastank', 'hometown': 'http://dbpedia.org/resource/Agoura_Hills,_California', 'start_year': '1994', 'aliases': ['Hoobustank (1994–2001)'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Napalm_Records'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Ska_punk'], 'actual_members': ['Doug Robb', 'Dan Estrin', 'Chris Hesse', 'Jesse Charland'], 'old_members': ['Markku Lappalainen', 'Jeremy Wasser', 'Derek Kwan', 'Matt McKenzie', 'Josh Moreau', 'David Amezcua', 'Kevin Antreassian'], 'related_artists': ['http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Vanessa_Amorosi'], 'abstract': 'Hoobastank (sometimes stylized as h∞bastank, and originally known as Hoobustank) is an American rock band formed in 1994 in Agoura Hills, California by lead vocalist Doug Robb, guitarist Dan Estrin, drummer Chris Hesse, and original bassist Markku Lappalainen. They were signed to Island Records from 2001 to 2012 and have released six albums and one extended play to date. Their most recent album, Push Pull, was released on May 25, 2018. They have sold 10 million albums worldwide. The band is best known for their biggest hit single "The Reason".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Eve_6', 'artist_name': 'Eve 6', 'wiki': 'http://en.wikipedia.org/wiki/Eve_6', 'hometown': 'http://dbpedia.org/resource/La_Crescenta-Montrose,_California', 'start_year': '2007', 'aliases': ['Eleventeen (1996–1997)', 'Yakoo (1995–1996)'], 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Fearless_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop-punk'], 'actual_members': ['http://dbpedia.org/resource/Jon_Siebels', 'http://dbpedia.org/resource/Max_Collins_(musician)', 'Ben Hilzinger'], 'old_members': ['http://dbpedia.org/resource/Matthew_Koma', 'http://dbpedia.org/resource/Tony_Fagenson', 'Nick Meyers'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Johnson_(musician)', 'http://dbpedia.org/resource/Fitness_(band)', 'http://dbpedia.org/resource/Fitness_(band)__Fitness__1', 'http://dbpedia.org/resource/Jon_Siebels', 'http://dbpedia.org/resource/Max_Collins_(musician)', 'http://dbpedia.org/resource/Tony_Fagenson'], 'abstract': 'Eve 6 is an American rock band formed in 1995 in Southern California, best known for their hit singles "Inside Out", "Leech", "Here\'s to the Night", and "Promise". They disbanded in 2004, returned for numerous tours in 2007 with a new lineup, and finally reunited with all three original members in early 2011. They signed to Fearless Records in the spring of that year, and released their fourth album Speak in Code, containing the singles "Victoria" and "Curtain", in April 2012.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Haddaway', 'artist_name': 'Haddaway', 'wiki': 'http://en.wikipedia.org/wiki/Haddaway', 'hometown': 'http://dbpedia.org/resource/Cologne', 'birth_date': '09 January 1965', 'start_year': '1987', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Coconut_Records', 'http://dbpedia.org/resource/Razor_&amp;_Tie', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Eurodance'], 'related_artists': ['http://dbpedia.org/resource/Dr._Alban', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Tony_Hendrik'], 'abstract': 'Nestor Alexander Haddaway (born 9 January 1965) is a Trinidadian-German singer best known for his 1993 hit single "What Is Love", which reached number 1 in 13 countries.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kansas_(band)', 'artist_name': 'Kansas', 'wiki': 'http://en.wikipedia.org/wiki/Kansas_(band)', 'hometown': 'http://dbpedia.org/resource/Topeka,_Kansas', 'start_year': '1973', 'end_year': '1984', 'labels': ['http://dbpedia.org/resource/Don_Kirshner', 'http://dbpedia.org/resource/Inside_Out_Music', 'http://dbpedia.org/resource/MCA_Records', 'http://dbpedia.org/resource/Magna_Carta_Records'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Greer', 'http://dbpedia.org/resource/David_Ragsdale', 'http://dbpedia.org/resource/Phil_Ehart', 'http://dbpedia.org/resource/Rich_Williams', 'http://dbpedia.org/resource/Tom_Brislin', 'Ronnie Platt'], 'old_members': ['http://dbpedia.org/resource/Dave_Hope', 'http://dbpedia.org/resource/John_Elefante', 'http://dbpedia.org/resource/Kerry_Livgren', 'http://dbpedia.org/resource/Lynn_Meredith', 'http://dbpedia.org/resource/Robby_Steinhardt', 'http://dbpedia.org/resource/Steve_Morse', 'http://dbpedia.org/resource/Steve_Walsh_(musician)', 'David Manion', 'Greg Allen', 'Larry Baker', 'Brad Schulz', 'Don Montre', 'Zeke Lowe', 'Greg Robert', 'Zak Rizvi', 'Dan Wright', 'Rod Mikinski', 'John Bolton'], 'related_artists': ['http://dbpedia.org/resource/AD_(band)', 'http://dbpedia.org/resource/Billy_Greer', 'http://dbpedia.org/resource/Dave_Hope', 'http://dbpedia.org/resource/David_Ragsdale', 'http://dbpedia.org/resource/Deep_Purple', 'http://dbpedia.org/resource/Dixie_Dregs', 'http://dbpedia.org/resource/Explorers_Club_(band)__Explorers_Club__1', 'http://dbpedia.org/resource/Hedras_Ramos', 'http://dbpedia.org/resource/John_Elefante', 'http://dbpedia.org/resource/Kerry_Livgren', 'http://dbpedia.org/resource/Lynn_Meredith', 'http://dbpedia.org/resource/Mastedon', 'http://dbpedia.org/resource/Michael_Gleason_(musician)', 'http://dbpedia.org/resource/Native_Window', 'http://dbpedia.org/resource/Phil_Ehart', 'http://dbpedia.org/resource/Proto-Kaw', 'http://dbpedia.org/resource/Rich_Williams', 'http://dbpedia.org/resource/Robby_Steinhardt', 'http://dbpedia.org/resource/Seventh_Key', 'http://dbpedia.org/resource/Shooting_Star_(band)', 'http://dbpedia.org/resource/Steve_Morse', 'http://dbpedia.org/resource/Steve_Walsh_(musician)', 'http://dbpedia.org/resource/Streets_(band)', 'http://dbpedia.org/resource/Tom_Brislin', 'http://dbpedia.org/resource/Warren_Ham'], 'abstract': 'Kansas is an American rock band that became popular in the 1970s initially on album-oriented rock charts and later with hit singles such as "Carry On Wayward Son" and "Dust in the Wind". The band has produced nine gold albums, three multi-platinum albums (Leftoverture 4×, Point of Know Return 4×, and The Best of Kansas 4×), one other platinum studio album (Monolith), one platinum live double album (Two for the Show), and a million-selling single, "Dust in the Wind". Kansas appeared on the Billboard charts for over 200 weeks throughout the 1970s and 1980s and played to sold-out arenas and stadiums throughout North America, Europe and Japan. "Carry On Wayward Son" was the second-most-played track on US classic rock radio in 1995 and No. 1 in 1997.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Semisonic', 'artist_name': 'Semisonic', 'wiki': 'http://en.wikipedia.org/wiki/Semisonic', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1995', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/MCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_country', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Roots_rock'], 'actual_members': ['http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Jacob_Slichter', 'http://dbpedia.org/resource/John_Munson'], 'related_artists': ['http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Jacob_Slichter', 'http://dbpedia.org/resource/John_Munson', 'http://dbpedia.org/resource/L.E.O._(band)', 'http://dbpedia.org/resource/The_Twilight_Hours', 'http://dbpedia.org/resource/Trip_Shakespeare'], 'abstract': 'Semisonic is an American rock band formed in Minneapolis, Minnesota, in 1995. The band has three members: Dan Wilson (lead vocals, guitar, keyboards), John Munson (bass guitar, keyboards, backing vocals, guitar), and Jacob Slichter (drums, percussion, keyboards, backing vocals). They are best known in the U.S. for their 1998 single "Closing Time".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Beck', 'birth_date': '08 July 1970', 'start_year': '1988', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Trouble_with_Being_Myself'], 'related_artists': ['http://dbpedia.org/resource/Alex_Lilly', 'http://dbpedia.org/resource/Badly_Drawn_Boy', 'http://dbpedia.org/resource/Bloodthirsty_Butchers', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Brian_LeBarton', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Calvin_Johnson_(musician)', 'http://dbpedia.org/resource/DJ_Swamp', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elliott_Smith', 'http://dbpedia.org/resource/Forest_for_the_Trees_(band)', 'http://dbpedia.org/resource/Gothic_Tropic', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Jakob_Dylan', 'http://dbpedia.org/resource/James_Gadson', 'http://dbpedia.org/resource/Jessica_Dobson', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Justin_Meldal-Johnsen', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/MC_Lord_Magrão', 'http://dbpedia.org/resource/Matt_Sherrod', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Mike_D', 'http://dbpedia.org/resource/Natalie_Bergman', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nicolas_Godin', 'http://dbpedia.org/resource/Nigel_Godrich', 'http://dbpedia.org/resource/Paleface_(musician)', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Rachel_Haden', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roger_Joseph_Manning_Jr.', 'http://dbpedia.org/resource/Smokey_Hormel', 'http://dbpedia.org/resource/Steven_Shane_McDonald', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/The_Blue_News', 'http://dbpedia.org/resource/The_Chemical_Brothers', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/The_White_Stripes', 'http://dbpedia.org/resource/Tobacco_(musician)', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tortoise_(band)'], 'abstract': 'Beck David Hansen (born Bek David Campbell; July 8, 1970) is an American musician, singer, songwriter, and record producer. He rose to fame in the early 1990s with his experimental and lo-fi style, and became known for creating musical collages of wide-ranging genres. He has musically encompassed folk, funk, soul, hip hop, electronic, alternative rock, country, and psychedelia. He has released 14 studio albums (three of which were released on indie labels), as well as several non-album singles and a book of sheet music. Born and raised in Los Angeles, Beck grew towards hip-hop and folk in his teens and began to perform locally at coffeehouses and clubs. He moved to New York City in 1989 and became involved in the city\'s small but fiery anti-folk movement. Returning to Los Angeles in the early 1990s, he cut his breakthrough single "Loser", which became a worldwide hit in 1994, and released his first major album, Mellow Gold, the same year. Odelay, released in 1996, topped critic polls and won several awards. He released the country-influenced, twangy Mutations in 1998, and the funk-infused Midnite Vultures in 1999. The soft-acoustic Sea Change in 2002 showcased a more serious Beck, and 2005\'s Guero returned to Odelay\'s sample-based production. The Information in 2006 was inspired by electro-funk, hip hop, and psychedelia; 2008\'s Modern Guilt was inspired by \'60s pop music; and 2014\'s folk-infused Morning Phase won Album of the Year at the 57th Grammy Awards. His 2017 album, Colors, won awards for Best Alternative Album and Best Engineered Album at the 61st Annual Grammy Awards. His fourteenth studio album, Hyperspace, was released on November 22, 2019. With a pop art collage of musical styles, oblique and ironic lyrics, and postmodern arrangements incorporating samples, drum machines, live instrumentation and sound effects, Beck has been hailed by critics and the public throughout his musical career as being among the most idiosyncratically creative musicians of 1990s and 2000s alternative rock. Two of Beck\'s most popular and acclaimed recordings are Odelay and Sea Change, both of which were ranked on Rolling Stone\'s list of the 500 greatest albums of all time. The four-time platinum artist has collaborated with several artists and has made several contributions to soundtracks.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Anastacia', 'artist_name': 'Anastacia', 'wiki': 'http://en.wikipedia.org/wiki/Anastacia', 'birth_date': '17 September 1968', 'start_year': '1990', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Auryn', "http://dbpedia.org/resource/Ben's_Brother", 'http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Canela_Cox', 'http://dbpedia.org/resource/Celine_Dion', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Dallas_Austin', 'http://dbpedia.org/resource/David_Morales', 'http://dbpedia.org/resource/Dima_Bilan', 'http://dbpedia.org/resource/Elton_John', 'http://dbpedia.org/resource/Eros_Ramazzotti', 'http://dbpedia.org/resource/Faith_Evans', 'http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jive_Jones', 'http://dbpedia.org/resource/Jon_Bon_Jovi', 'http://dbpedia.org/resource/Kurt_Carr', 'http://dbpedia.org/resource/Lisa_Lopes', 'http://dbpedia.org/resource/Luciano_Pavarotti', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Natalia_(Belgian_singer)', 'http://dbpedia.org/resource/Tommy_Organ', 'http://dbpedia.org/resource/Will_Wheaton'], 'abstract': 'Anastacia Lyn Newkirk (/ˌænəˈsteɪʒə/ AN-ə-STAY-zhə; born September 17, 1968) is an American singer-songwriter, producer and former dancer. Her first two albums Not That Kind (2000) and Freak of Nature (2001) were released in quick succession to major success. Spurred on by the multi-platinum, global smash "I\'m Outta Love", Anastacia was awarded as the \'World\'s Best-Selling New Female Pop Artist\' in 2001. Her commercial success continued with international hits such as "Paid My Dues", "One Day In Your Life" and the official song of the 2002 FIFA World Cup, "Boom". After recovering from cancer, she returned with 2004\'s Anastacia which deviated from previous albums into pop-rock. Peaking at number one in 11 countries, it became Europe\'s second-biggest-selling album of the year. Its lead single "Left Outside Alone" remained at number one on the European Billboard chart for 15 weeks and helped Anastacia launch the most successful European tour by a solo artist that same year. The album also provided another three singles: "Sick and Tired", "Welcome to My Truth", and "Heavy on My Heart". In 2005, the multi-platinum compilation project Pieces of a Dream was released, which spawned the chart-topping duet with Eros Ramazzotti, "I Belong to You (Il Ritmo della Passione)". Her fourth studio album Heavy Rotation (2008) produced the songs "Absolutely Positively", "Defeated", and "I Can Feel You". Her cover album It\'s a Man\'s World (2012) was followed by a sixth studio album Resurrection (2014), which reached the top ten of several European charts. Her Ultimate Collection was released in 2015 and peaked in the top ten of the UK charts, giving the singer her sixth top-ten album in Britain. In 2017, Anastacia released the studio album Evolution and its lead single "Caught in the Middle". Anastacia has established herself as one of the best-selling international female singers of the 2000s and 2010s. As of 2016, she has reported worldwide sales of more than 50 million. She has had five top ten singles on U.S. Billboard\'s Dance Club chart and three albums on its Top Album Sales chart. Known for her powerful mezzo-soprano voice and her small stature of 5 feet 2 inches (157 cm), she has been dubbed "the little lady with the big voice". She underwent corrective LASIK surgery in August 2005, although she still frequently wears the glasses for which she became noted when she first became famous. During her life Anastacia has battled many health problems. She was diagnosed with Crohn\'s disease when she was 13, breast cancer at the age of 34, and supraventricular tachycardia aged 39. In 2013, Anastacia was diagnosed with breast cancer for a second time. In recognition of her decade-long charitable efforts in breast cancer awareness, Anastacia became the second woman ever to be presented with the Humanitarian Award at the GQ Men of the Year Awards in 2013.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': 'http://en.wikipedia.org/wiki/Smash_Mouth', 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'start_year': '1994', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Ska_punk', 'http://dbpedia.org/resource/Surf_music', 'surf rock', 'new wave'], 'actual_members': ['http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Randy_Cooke', 'http://dbpedia.org/resource/Sean_Hurwitz', 'Michael Klooster'], 'old_members': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Jason_Sutter', 'http://dbpedia.org/resource/Leroy_(musician)', 'http://dbpedia.org/resource/Michael_Urbano', 'http://dbpedia.org/resource/Steve_Harwell', 'Mike Krompass', 'Mark Cervantes', 'Charlie Paxson', 'Kevin Coleman', 'Mitch Marine', 'Sam Eigen'], 'related_artists': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Sean_Hurwitz', 'http://dbpedia.org/resource/Steve_Harwell', 'http://dbpedia.org/resource/Tripping_Daisy'], 'abstract': 'Smash Mouth is an American rock band from San Jose, California. The band was formed in 1994, and was originally composed of Steve Harwell (lead vocals), Kevin Coleman (drums), Greg Camp (guitar), and Paul De Lisle (bass). They are known for their songs "Walkin\' on the Sun" (1997), "All Star" (1999), and "Then The Morning Comes" (1999), as well as a cover of The Monkees\' "I\'m a Believer" (2001). The band adopted retro styles covering several decades of popular music. They have also performed numerous covers of popular songs, including War\'s "Why Can\'t We Be Friends?", Simple Minds\' "Don\'t You (Forget About Me)", ? &amp; the Mysterians\' "Can\'t Get Enough of You Baby", the Beatles\' "Getting Better", and "I Wan\'na Be Like You" from The Jungle Book. They also composed two songs for the South Korean animated film Pororo, The Racing Adventure: "Beside Myself" and "Everything Just Crazy".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'artist_name': 'Mr. Big', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Big_(American_band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'end_year': '2018', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Soft_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/Paul_Gilbert'], 'old_members': ['http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Richie_Kotzen'], 'related_artists': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/G3_(tour)', 'http://dbpedia.org/resource/Impellitteri', 'http://dbpedia.org/resource/Matt_Starr', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Paul_Gilbert', 'http://dbpedia.org/resource/Racer_X_(band)', 'http://dbpedia.org/resource/Richie_Kotzen', 'http://dbpedia.org/resource/Sons_of_Apollo', 'http://dbpedia.org/resource/Tak_Matsumoto_Group', 'http://dbpedia.org/resource/The_Winery_Dogs', 'http://dbpedia.org/resource/Willie_Basse'], 'abstract': 'Mr. Big is an American glam metal band formed in Los Angeles, California, in 1988. The band was originally composed of Eric Martin (lead vocals), Paul Gilbert (guitar, backing vocals), Billy Sheehan (bass guitar, backing vocals), and Pat Torpey (drums, percussion, backing vocals). Though primarily a metal band, they are most known for scoring softer hits. Their songs are often marked by strong vocals and vocal harmonies. Their hits include "To Be with You" (a number-one single in 15 countries in 1992) and "Just Take My Heart". The band takes its name from a song by Free which it covered on the 1993 album Bump Ahead. Mr. Big remained active and popular for over a decade despite internal conflicts and changing music trends, releasing four studio albums: Mr. Big (1989), Lean into It (1991), Bump Ahead (1993) and Hey Man (1996). Guitarist Paul Gilbert departed the band in 1999, and Richie Kotzen was brought as a guitarist and vocalist. The band released two more albums with this line-up: Get Over It (1999) and Actual Size (2001). Mr. Big broke up in 2002. Following requests from fans, Mr. Big reunited with its original line-up in 2009. The band\'s first post-reunion tour was in Japan. In 2010, Mr. Big released its first album in 15 years with the same line-up: What If.... During the recording of the follow-up album ...The Stories We Could Tell (2014), Pat Torpey was diagnosed with Parkinson\'s disease and participated only marginally as a touring support. The band\'s ninth album, Defying Gravity (2017), was its last record involving Torpey as drum producer; he died the following year. Not wanting to continue without Torpey, the band intended to release a final studio album, conduct a farewell tour and disband. However, since then they have been on hiatus, they still exist as musical entity, but with no concrete plans to continue with a different drummer and haven\'t discussed their future, as affirmed by Billy Sheehan. Mr. Big is frequently cited as an example of the "Big in Japan" phenomenon, where a musical act is disproportionately more popular in Japan compared to similar groups. Some consider Mr. Big as one-hit wonder for "To Be with You", but they maintained consistent popularity in the Japanese market for years.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '2001', 'end_year': '2007', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'old_members': ['http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chris_Cornell', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello'], 'related_artists': ['http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'http://dbpedia.org/resource/Rage_Against_the_Machine__Rage_Against_the_Machine__1', 'http://dbpedia.org/resource/Soundgarden', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat'], 'abstract': "Audioslave was an American rock supergroup formed in Glendale, California, in 2001. The four-piece band consisted of Soundgarden's lead singer and rhythm guitarist Chris Cornell with Rage Against the Machine members Tom Morello (lead guitar), Tim Commerford (bass/backing vocals), and Brad Wilk (drums). Critics first described Audioslave as a combination of Soundgarden and Rage Against the Machine, but by the band's second album, Out of Exile, it was noted that they had established a separate identity. Their unique sound was created by blending 1970s hard rock and 1990s alternative rock, with musical influences that included 1960s funk, soul and R&amp;B. As with Rage Against the Machine, the band prided themselves on the fact that all sounds on their albums were produced using only guitars, bass, drums, and vocals, with emphasis on Cornell's wide vocal range and Morello's unconventional guitar solos. In their six years together, Audioslave released three albums, received three Grammy nominations, sold more than eight million records worldwide and became the first American rock band to perform an open-air concert in Cuba. They disbanded in February 2007 after Cornell issued a statement announcing that he was leaving the band. Later that year, Cornell and Morello released solo albums, and Morello, Commerford, and Wilk reunited with Zack de la Rocha for the Rage Against the Machine Reunion Tour. Audioslave reunited to perform at Prophets of Rage's Anti-Inaugural Ball, which took place on January 20, 2017. Cornell's death later that year precluded any chance of further reunions."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Duck_Sauce', 'artist_name': 'Duck Sauce', 'wiki': 'http://en.wikipedia.org/wiki/Duck_Sauce', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/All_Around_the_World_Productions', 'http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Casablanca_Records', "http://dbpedia.org/resource/Fool's_Gold_Records", 'http://dbpedia.org/resource/Ministry_of_Sound', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Funky_house', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Nu-disco'], 'actual_members': ['http://dbpedia.org/resource/A-Trak', 'http://dbpedia.org/resource/Armand_van_Helden'], 'related_artists': ['http://dbpedia.org/resource/A-Trak', 'http://dbpedia.org/resource/Armand_van_Helden__Armand_van_Helden__1', 'http://dbpedia.org/resource/Pascal_&amp;_Pearce'], 'abstract': 'Duck Sauce is an electronic music duo, formed in 2009 in New York City. The duo consists of American DJ Armand van Helden and Canadian DJ A-Trak. They are best known for their 2010 single "Barbra Streisand".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Lana_Del_Rey', 'artist_name': 'Lana Del Rey', 'wiki': 'http://en.wikipedia.org/wiki/Lana_Del_Rey', 'birth_date': '21 June 1985', 'start_year': '2005', 'plays_in': ['http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Norman_Fucking_Rockwell_(film)', 'http://dbpedia.org/resource/Tropico_(film)'], 'related_artists': ['http://dbpedia.org/resource/Aaron_A._Brooks', 'http://dbpedia.org/resource/Al_Shux', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Bobby_Womack', 'http://dbpedia.org/resource/Bristeil', 'http://dbpedia.org/resource/Børns', 'http://dbpedia.org/resource/Cat_Power', 'http://dbpedia.org/resource/Cedric_Gervais', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Clara_Luciani', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Jimmy_Gnecco', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/Leon_Michels', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Mike_Daly', 'http://dbpedia.org/resource/Miles_Kane', 'http://dbpedia.org/resource/Pearl_Charles', 'http://dbpedia.org/resource/Photek', 'http://dbpedia.org/resource/Princess_Superstar', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Robopop', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Sean_Lennon', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Sterling_Fox', 'http://dbpedia.org/resource/Weyes_Blood', 'http://dbpedia.org/resource/Zac_Rae', 'http://dbpedia.org/resource/Zach_Dawes', 'http://dbpedia.org/resource/Zella_Day'], 'abstract': 'Elizabeth Woolridge Grant (born June 21, 1985), known professionally as Lana Del Rey, is an American singer-songwriter. Her music is noted for its cinematic quality and exploration of tragic romance, glamour, and melancholia, containing references to contemporary pop culture, as well as 1950s and 1960s Americana. She is the recipient of various accolades, including two Brit Awards, two MTV Europe Music Awards, a Satellite Award, and has been nominated for six Grammy Awards and one Golden Globe Award. She also has been recognized with the Variety\'s Decade Award at the Variety Hitmakers Awards for being ″regarded as one of the most influential singer-songwriters of the 21st century″. Raised in upstate New York, Del Rey moved to New York City in 2005 to pursue a music career. After numerous projects, including her self-titled debut studio album, Del Rey\'s breakthrough came in 2011 with the viral success of her single "Video Games"; she subsequently signed a recording contract with Polydor and Interscope. She achieved critical and commercial success with her second album, Born to Die (2012), which contained the sleeper hit "Summertime Sadness". Del Rey\'s third album, Ultraviolence (2014), featured greater use of guitar-driven instrumentation and debuted atop the U.S. Billboard 200. Her fourth and fifth albums, Honeymoon (2015) and Lust for Life (2017), saw a return to the stylistic traditions of her earlier releases, while her critically acclaimed sixth album, Norman Fucking Rockwell! (2019), explored soft rock. Del Rey followed this with the albums Chemtrails over the Country Club and Blue Banisters, both in 2021. Del Rey has collaborated on soundtracks for visual media; in 2013, she wrote and starred in the critically acclaimed musical short Tropico, and performed "Young and Beautiful" for the romantic drama The Great Gatsby. In 2014, she recorded "Once Upon a Dream" for the dark fantasy adventure film Maleficent and the self-titled theme song for the biopic Big Eyes. Del Rey collaborated with Ariana Grande and Miley Cyrus on "Don\'t Call Me Angel" for the action comedy Charlie\'s Angels (2019), which peaked at number 13 on the U.S. Billboard Hot 100, becoming her highest charting song. Outside of music, Del Rey published the poetry and photography collection Violet Bent Backwards over the Grass (2020).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Lemonheads', 'artist_name': 'The Lemonheads', 'wiki': 'http://en.wikipedia.org/wiki/The_Lemonheads', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '1986', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Fire_Records_(UK)', 'http://dbpedia.org/resource/Taang!_Records', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Vagrant_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/College_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/Evan_Dando'], 'old_members': ['http://dbpedia.org/resource/Angel_Rot', 'http://dbpedia.org/resource/Ben_Deily', 'http://dbpedia.org/resource/Bill_Stevenson_(musician)', 'http://dbpedia.org/resource/Jesse_Peretz', 'http://dbpedia.org/resource/John_Strohm_(musician)', 'http://dbpedia.org/resource/Josh_Lattanzi', 'http://dbpedia.org/resource/Juliana_Hatfield', 'http://dbpedia.org/resource/Kenny_Lyon', 'http://dbpedia.org/resource/Murph_(drummer)', 'http://dbpedia.org/resource/Nic_Dalton', 'http://dbpedia.org/resource/T._Corey_Brennan', 'http://dbpedia.org/resource/Vess_Ruhtenberg', 'Mark "Budola" NewmanKarl Alvarez', 'Doug Trachten', 'Mark Cutsinger', 'John Kent', 'David Ryan', 'P. David Hazel', 'Ben Daughtry', 'Devon Ashley', 'Byron Hoagland'], 'related_artists': ['http://dbpedia.org/resource/All_(band)', 'http://dbpedia.org/resource/Black_Flag_(band)', 'http://dbpedia.org/resource/Blake_Babies', 'http://dbpedia.org/resource/Bullet_LaVolta', 'http://dbpedia.org/resource/Descendents', 'http://dbpedia.org/resource/Dinosaur_Jr.', 'http://dbpedia.org/resource/Juliana_Hatfield', 'http://dbpedia.org/resource/Smudge_(band)', 'http://dbpedia.org/resource/Sneeze_(band)', 'http://dbpedia.org/resource/The_Plunderers_(band)'], 'abstract': 'The Lemonheads are an American alternative rock band formed in Boston, Massachusetts, in 1986 by Evan Dando, Ben Deily, and Jesse Peretz. Dando has remained the band\'s only constant member.After their initial punk-influenced releases and tours as an independent/college rock band in the late 1980s, the Lemonheads\' popularity with a mass audience grew in 1992 with the major label album It\'s a Shame about Ray, which was produced, engineered, and mixed by The Robb Brothers (Bruce Robb, Dee, and Joe). This was followed by a cover of Simon and Garfunkel\'s "Mrs. Robinson", which eventually became one of the band\'s most successful singles. Then Lemonheads were active until 1997 before going on hiatus, but reformed with a new lineup in 2005 and released The Lemonheads the following year. The band released its latest album, Varshons 2, in February 2019. Since its formation, recording and touring lineups of the band have included co-founders Deily and Peretz, John Strohm (Blake Babies), Doug Trachten, Corey Loog Brennan, Byron Hoagland (Folks On Fire), Ben Daughtrey (Squirrel Bait), Juliana Hatfield (Blake Babies), Nic Dalton (Godstar, Sneeze, The Plunderers), David Ryan (Fuzzy), Patrick "Murph" Murphy (Dinosaur Jr), George Berz (Dinosaur Jr, Gobblehoof), Josh Lattanzi, Bill Gibson (The Eastern Dark), Mark \'Budola\' Newman, Kenny Lyon, Vess Ruhtenberg, Devon Ashley, Karl Alvarez and Bill Stevenson (Descendents), P. David Hazel and various others.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Macklemore_&amp;_Ryan_Lewis', 'artist_name': 'Macklemore &amp; Ryan Lewis', 'wiki': 'http://en.wikipedia.org/wiki/Macklemore_&amp;_Ryan_Lewis', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '2008', 'end_year': '2017', 'labels': ['http://dbpedia.org/resource/Macklemore'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Pop_rap', 'http://dbpedia.org/resource/Progressive_rap'], 'old_members': ['http://dbpedia.org/resource/Macklemore', 'http://dbpedia.org/resource/Ryan_Lewis'], 'related_artists': ['http://dbpedia.org/resource/Fences_(band)', 'http://dbpedia.org/resource/Hollis_(singer)', 'http://dbpedia.org/resource/Ryan_Lewis', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Macklemore &amp; Ryan Lewis are an American hip hop duo, formed in 2008, from Seattle, Washington. The duo is composed of Ben Haggerty, a rapper who goes by the stage name of Macklemore, and Ryan Lewis, a record producer, DJ, and professional photographer, who met the former at a photo shoot. In 2009, they released their first collaborative effort, an EP titled VS. EP. They later followed up with VS. Redux (2010), the Grammy Award-winning album The Heist (2012) and This Unruly Mess I\'ve Made (2016). Macklemore and Lewis\' single "Thrift Shop" reached number one on the US Billboard Hot 100 in 2013. The single was soon dubbed the first song since 1994 to top the Hot 100 chart without the support of a major record label by Billboard, although Macklemore, in a slightly unusual recording contract, pays a nominal percentage of sales to use Warner Bros. Records\' radio promotion department to push his singles. Their second single, "Can\'t Hold Us", also peaked at number one on the Hot 100 Chart, making Macklemore and Lewis the first duo in the chart\'s history to have their first two singles both reach the peak position. Macklemore and Lewis released their debut studio album, The Heist, on October 9, 2012, which charted at number 2 on the US Billboard 200. The pair won four Grammy Awards at the 2014 ceremony, including Best New Artist, Best Rap Album (The Heist), Best Rap Song and Best Rap Performance ("Thrift Shop"). Their second album, This Unruly Mess I\'ve Made, was released on February 26, 2016. As of 2021, the band has sold 2 million records worldwide. On June 15, 2017, Macklemore announced that the duo were on hiatus. On October 26, 2021, Macklemore and Ryan Lewis announced that a new track, titled "Next Year", featuring pop musician Windser is set to be released on October 29, on their respective Instagram pages.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Vassy_(singer)', 'artist_name': 'Vassy', 'wiki': 'http://en.wikipedia.org/wiki/Vassy_(singer)', 'birth_date': '18 February 1983', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/ABC_Music', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Ultra_Music', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Pop_music', 'Pop', 'dance', 'EDM'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Benny_Benassi', 'http://dbpedia.org/resource/Crystal_Waters', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Florian_Picasso', 'http://dbpedia.org/resource/Kshmr', 'http://dbpedia.org/resource/Pitbull_(rapper)', 'http://dbpedia.org/resource/Salvatore_Lodato', 'http://dbpedia.org/resource/Scooter_(band)', 'http://dbpedia.org/resource/Showtek', 'http://dbpedia.org/resource/The_Cataracs', 'http://dbpedia.org/resource/Tim_Myers', 'http://dbpedia.org/resource/Tiësto'], 'abstract': 'Vassy Karagiorgos, known mononymously as Vassy (frequently stylised as VASSY, born 18 February 1983) is an Australian singer, songwriter and record producer.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cedric_Gervais', 'artist_name': 'Cedric Gervais', 'wiki': 'http://en.wikipedia.org/wiki/Cedric_Gervais', 'birth_date': '07 June 1979', 'labels': ['http://dbpedia.org/resource/Armada_Music', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Polydor_Records', "http://dbpedia.org/resource/Spinnin'_Records", 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Big_room_house', 'http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Progressive_house', 'http://dbpedia.org/resource/Tech_house', 'Dance'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tamposi', 'http://dbpedia.org/resource/Borgore', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Deep_Dish_(duo)', 'http://dbpedia.org/resource/Howard_Jones_(British_musician)', 'http://dbpedia.org/resource/Lana_Del_Rey', 'http://dbpedia.org/resource/Lenny_Kravitz'], 'abstract': 'Cédric DePasquale (French pronunciation: \u200b[sedʁik dəpaskal], born 7 June 1979), better known by his stage name Cedric Gervais (French pronunciation: \u200b[sedʁik ʒɛʁvɛ]), is a French DJ, record producer and actor residing in Miami Beach, Florida. In 2013, he produced a remix of Lana Del Rey\'s "Summertime Sadness", for which he won a Grammy Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Zayn_Malik', 'artist_name': 'Zayn', 'wiki': 'http://en.wikipedia.org/wiki/Zayn_Malik', 'birth_date': '12 January 1993', 'start_year': '2010', 'related_artists': ['http://dbpedia.org/resource/Malay_(record_producer)', 'http://dbpedia.org/resource/Melissa_Steel', 'http://dbpedia.org/resource/Snakehips_(duo)', 'http://dbpedia.org/resource/The_Invisible_Men', 'http://dbpedia.org/resource/Tushar_Apte', 'http://dbpedia.org/resource/Zhavia_Ward'], 'abstract': 'Zain Javadd Malik (/ˈmælɪk/; born 12 January 1993), known mononymously as Zayn, is a British singer. Born and raised in Bradford, Malik auditioned as a solo contestant for the British music competition The X Factor in 2010. After being eliminated as a solo performer, Malik was brought back into the competition, along with four other contestants, to form the boy band One Direction, which went on to become one of the best-selling boy bands of all time. Malik left the group in March 2015 and subsequently signed a solo recording contract with RCA Records. Adopting a more alternative R&amp;B music style with his debut studio album, Mind of Mine (2016), and its lead single, "Pillowtalk", Malik became the first British male artist to debut at number one in both the UK and US, with his debut single and debut album. His collaborative singles, "I Don\'t Wanna Live Forever" with Taylor Swift and "Dusk Till Dawn" featuring Sia, were met with international success. Malik released his second studio album, Icarus Falls, in 2018. His third album, Nobody Is Listening, was released in January 2021. Malik is the recipient of several accolades, including an American Music Award and a MTV Video Music Award. He is also the only artist to have won the Billboard Music Award for New Artist of the Year twice, receiving it once as a member of One Direction in 2013 and then again in 2017 as a solo artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Freddie_Mercury', 'artist_name': 'Freddie Mercury', 'wiki': 'http://en.wikipedia.org/wiki/Freddie_Mercury', 'birth_date': '05 September 1946', 'death_date': '24 November 1991', 'start_year': '1969', 'end_year': '1991', 'aliases': ['Freddie Bulsara', 'Larry Lurex'], 'plays_in': ["http://dbpedia.org/resource/Hunter's_Moon_(Delain_EP)", 'http://dbpedia.org/resource/II_(Lords_of_Black_album)'], 'related_artists': ['http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Jo_Burt', 'http://dbpedia.org/resource/Sour_Milk_Sea_(band)'], 'abstract': 'Freddie Mercury (born Farrokh Bulsara; 5 September 1946 – 24 November 1991) was a British singer, songwriter, record producer, and lead vocalist of the rock band Queen. Regarded as one of the greatest singers in the history of rock music, he was known for his flamboyant stage persona and four-octave vocal range. Mercury defied the conventions of a rock frontman, with his highly theatrical style influencing the artistic direction of Queen. Born in 1946 in Zanzibar to Parsi-Indian parents, he attended English-style boarding schools in India from the age of eight and returned to Zanzibar after secondary school. In 1964, his family fled the Zanzibar Revolution, moving to Middlesex, England. Having studied and written music for years, he formed Queen in 1970 with guitarist Brian May and drummer Roger Taylor. Mercury wrote numerous hits for Queen, including "Killer Queen", "Bohemian Rhapsody", "Somebody to Love", "We Are the Champions", "Don\'t Stop Me Now", and "Crazy Little Thing Called Love". His charismatic stage performances often saw him interact with the audience, as displayed at the 1985 Live Aid concert. He also led a solo career and served as a producer and guest musician for other artists. Mercury died in 1991 at age 45 due to complications from AIDS. He confirmed the day before his death that he had contracted the disease, having been diagnosed in 1987. Mercury had continued to record with Queen following his diagnosis, and he was posthumously featured on the band\'s final album, Made in Heaven (1995). In 1992, his tribute concert was held at Wembley Stadium. As a member of Queen, Mercury was posthumously inducted into the Rock and Roll Hall of Fame in 2001, the Songwriters Hall of Fame in 2003, and the UK Music Hall of Fame in 2004. In 1990, he and the other Queen members were awarded the Brit Award for Outstanding Contribution to British Music, and one year after his death Mercury was awarded it individually. In 2005, Queen were awarded an Ivor Novello Award for Outstanding Song Collection from the British Academy of Songwriters, Composers, and Authors. In 2002, Mercury ranked number 58 in the BBC\'s poll of the 100 Greatest Britons. His career with Queen was dramatised in the 2018 biopic Bohemian Rhapsody.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Eddie_Rabbitt', 'artist_name': 'Eddie Rabbitt', 'wiki': 'http://en.wikipedia.org/wiki/Eddie_Rabbitt', 'birth_date': '27 November 1941', 'death_date': '07 May 1998', 'start_year': '1964', 'end_year': '1998', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Liberty_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Country_pop', 'http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Truck-driving_country'], 'related_artists': ['http://dbpedia.org/resource/David_Malloy', 'http://dbpedia.org/resource/Juice_Newton', 'http://dbpedia.org/resource/Richard_Landis', 'http://dbpedia.org/resource/Ronnie_Milsap', 'http://dbpedia.org/resource/T._G._Sheppard'], 'abstract': 'Edward Thomas Rabbitt (November 27, 1941 – May 7, 1998) was an American country music singer and songwriter. His career began as a songwriter in the late 1960s, springboarding to a recording career after composing hits such as "Kentucky Rain" for Elvis Presley in 1970 and "Pure Love" for Ronnie Milsap in 1974. Later in the 1970s, Rabbitt helped to develop the crossover-influenced sound of country music prevalent in the 1980s with such hits as "Suspicions", "I Love a Rainy Night" (a number-one hit single on the Billboard Hot 100), and "Every Which Way but Loose" (the theme from the film of the same title). His duets "Both to Each Other (Friends and Lovers)" with Juice Newton and "You and I" with Crystal Gayle later appeared on the soap operas Days of Our Lives and All My Children.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Joey_Ramone', 'artist_name': 'Joey Ramone', 'wiki': 'http://en.wikipedia.org/wiki/Joey_Ramone', 'birth_date': '19 May 1951', 'death_date': '15 April 2001', 'start_year': '1972', 'end_year': '2001', 'aliases': ['Jeff Starship', 'Joey Ramone'], 'labels': ['http://dbpedia.org/resource/Radioactive_Records', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'related_artists': ["http://dbpedia.org/resource/Dr._Chud's_X-Ward", 'http://dbpedia.org/resource/Ramones', 'http://dbpedia.org/resource/Ronnie_Spector', 'http://dbpedia.org/resource/Sniper_(American_band)', 'http://dbpedia.org/resource/Steven_Van_Zandt'], 'abstract': "Jeffrey Ross Hyman (May 19, 1951 – April 15, 2001), known professionally as Joey Ramone, was an American musician, singer, composer, and lead vocalist of the punk rock band the Ramones. Ramone's image, voice, and tenure as frontman of the Ramones made him a countercultural icon."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Greg_Kihn_Band', 'artist_name': 'The Greg Kihn Band', 'wiki': 'http://en.wikipedia.org/wiki/The_Greg_Kihn_Band', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1976', 'labels': ['http://dbpedia.org/resource/Beserkley_Records'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Rock_music', 'Rock'], 'actual_members': ['http://dbpedia.org/resource/Greg_Kihn', 'http://dbpedia.org/resource/Robert_Berry', 'Ry Kihn', 'Dave "Bro" Lauser', 'Dave Danza'], 'old_members': ['http://dbpedia.org/resource/Dave_Carpender', 'http://dbpedia.org/resource/Gary_Phillips_(keyboardist)', 'http://dbpedia.org/resource/Greg_Douglass', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Larry_Lynch', 'http://dbpedia.org/resource/Steve_Wright_(bassist)', '*Craig Kirchoff', '*Dennis Murphy', 'Jimmy Lyon', 'Robbie Dunbar', 'Tyler Eng', 'Pat Mosca'], 'related_artists': ['http://dbpedia.org/resource/Dave_Carpender', 'http://dbpedia.org/resource/Gary_Phillips_(keyboardist)', 'http://dbpedia.org/resource/Greg_Douglass', 'http://dbpedia.org/resource/Greg_Kihn', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Robert_Berry', 'http://dbpedia.org/resource/Steve_Wright_(bassist)'], 'abstract': 'The Greg Kihn Band is an American band that was started by frontman Greg Kihn and bassist Steve Wright. Their most successful singles include "The Breakup Song (They Don\'t Write \'Em)" (Billboard Hot 100 #15) and "Jeopardy" (Billboard Hot 100 #2). The band\'s musical style and genres comprise rock, pop rock and power pop.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cameo_(band)', 'artist_name': 'Cameo', 'wiki': 'http://en.wikipedia.org/wiki/Cameo_(band)', 'start_year': '1974', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/Atlanta_Artists', 'http://dbpedia.org/resource/Chocolate_City_Records', 'http://dbpedia.org/resource/Reprise_Records'], 'genres': ['http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Larry_Blackmon', 'Anthony Lockett', 'Aaron Mills', 'Jeff Nelson'], 'old_members': ['http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Tomi_Jenkins', 'Stephen Moore', 'Greg Johnson', 'Gary Dow', 'Kenni Hairston', 'Dominic Christie', 'Harold Gander ', 'Robert L. Smith', 'Kurt Jeter', 'John Kellogg', 'Melvin Wells', 'William Revis', 'Charlie Singleton', 'Michael Burnett', 'Robert Branch', 'Charles Sampson', 'Nathan Leftenant', 'Eric Nelson', 'Merve de Peyer', 'William Morris', 'Arnett Leftenant', 'Kevin Kendrick', 'Damon Mendes', 'Thomas Campbell', 'Paul Andrews', 'Gregory Johnson', 'Azza Meah', 'Arnold Ramsey', 'Eric Durham', 'Wayne Cooper', 'Jeryl Bright'], 'related_artists': ['http://dbpedia.org/resource/Bernard_Wright', 'http://dbpedia.org/resource/Flow_Tribe', 'http://dbpedia.org/resource/Haras_Fyre__East_CoastfeaturingGwen_Guthrie__1', 'http://dbpedia.org/resource/Jean_Beauvoir', 'http://dbpedia.org/resource/John_Blackwell_(musician)', 'http://dbpedia.org/resource/Larry_Blackmon', 'http://dbpedia.org/resource/Louis_A._McCall_Sr.', 'http://dbpedia.org/resource/Outkast', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Tomi_Jenkins', 'http://dbpedia.org/resource/Yarbrough_and_Peoples'], 'abstract': 'Cameo is an American funk band that formed in 1974. Cameo was initially a 14-member group known as the New York City Players; this name was later changed to Cameo. As of the first half of 2009, some of the original members continue to perform together. Two other original members were hired by the hip hop group Outkast. In 2015, Cameo announced a new residency show at the Westgate Las Vegas Resort &amp; Casino, opening in March 2016. On February 20, 2019, Larry Blackmon of Cameo announced "El Passo", the first new single from the band in 19 years. Cameo topped the R&amp;B charts for more than a decade, has sold more than 18 million albums and is considered one of the most popular funk/soul bands of its era.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kai_(Canadian_singer)', 'artist_name': 'Kai', 'wiki': 'http://en.wikipedia.org/wiki/Kai_(Canadian_singer)', 'birth_date': '17 March 1990', 'start_year': '2008', 'aliases': ['Kai (and Alessia De Gasperis)'], 'labels': ['http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Adventure_Club', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Donald_Glover', 'http://dbpedia.org/resource/Flume_(musician)', 'http://dbpedia.org/resource/Hunter_Siegel', 'http://dbpedia.org/resource/Jack_Ü', 'http://dbpedia.org/resource/Skrillex'], 'abstract': 'Alessia De Gasperis (born 17 March 1990), formerly known as Kai (also stylized as kai), is a Canadian singer-songwriter from Toronto, Ontario. Best known for her collaborations, she co-wrote and was featured on Flume\'s Grammy-nominated "Never Be like You", Diplo\'s "Revolution", and "Mind" from by Jack Ü\'s Grammy award-winning 2015 album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Cardigans', 'artist_name': 'The Cardigans', 'wiki': 'http://en.wikipedia.org/wiki/The_Cardigans', 'hometown': 'http://dbpedia.org/resource/Jönköping', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/MCA_Inc.', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Minty_Fresh', 'http://dbpedia.org/resource/Stockholm_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['http://dbpedia.org/resource/Lars-Olof_Johansson', 'http://dbpedia.org/resource/Magnus_Sveningsson', 'http://dbpedia.org/resource/Nina_Persson', 'http://dbpedia.org/resource/Peter_Svensson', 'http://dbpedia.org/resource/The_Cardigans'], 'related_artists': ['http://dbpedia.org/resource/A_Camp', 'http://dbpedia.org/resource/Nina_Persson', 'http://dbpedia.org/resource/Paus_(band)', 'http://dbpedia.org/resource/Peter_Svensson', 'http://dbpedia.org/resource/Righteous_Boy'], 'abstract': 'The Cardigans is a Swedish rock band formed in Jönköping, Sweden, in 1992 by guitarist Peter Svensson, bassist Magnus Sveningsson, drummer Bengt Lagerberg, keyboardist Lars-Olof Johansson and lead singer Nina Persson. Post-hiatus shows since 2012 have been with Oskar Humlebo on guitar instead of Svensson. With their debut album Emmerdale (1994) they gained a solid base in their home country and enjoyed some success abroad, especially in Japan. Their second album Life (1995) secured them an international reputation. Their popularity rose when their single "Lovefool", from the album First Band on the Moon (1996), was included in the soundtrack to the 1996 film Romeo + Juliet. Other singles included "Erase/Rewind" and "My Favourite Game" from the album Gran Turismo (1998). After a two-year hiatus, the band returned recording and releasing their fifth album Long Gone Before Daylight (2003), a mellower country-flavoured record. Their last album Super Extra Gravity (2005) displays a continuation of the country influence, infused by pop sensibility and a further maturing of their sound. After a 2006 tour, the band embarked on a five-year break from musical activities before reuniting in 2012 to play several concerts. They have sold over 15 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Journey_(band)', 'artist_name': 'Journey', 'wiki': 'http://en.wikipedia.org/wiki/Journey_(band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1973', 'end_year': '1987', 'aliases': ['Golden Gate Rhythm Section (1973)'], 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Sanctuary_Records'], 'plays_in': ['http://dbpedia.org/resource/Made_in_America_(The_Sopranos)'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Jazz_fusion', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Soft_rock', 'jazz-rock'], 'actual_members': ['Arnel Pineda', 'Deen Castronovo', 'Jason Derlatka', 'Jonathan Cain', 'Narada Michael Walden', 'Neal Schon', 'Randy Jackson'], 'old_members': ['Aynsley Dunbar', 'George Tickner', 'Jeff Scott Soto', 'Omar Hakim', 'Prairie Prince', 'Robert Fleischman', 'Steve Augeri', 'Steve Smith'], 'related_artists': ['http://dbpedia.org/resource/Abraxas_Pool', 'http://dbpedia.org/resource/Bad_English', 'http://dbpedia.org/resource/Frumious_Bandersnatch', 'http://dbpedia.org/resource/Hardline_(band)', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Schon_&amp;_Hammer', 'http://dbpedia.org/resource/Soul_SirkUS', 'http://dbpedia.org/resource/The_Storm_(American_band)', 'http://dbpedia.org/resource/Vital_Information'], 'abstract': 'Journey is an American rock band formed in San Francisco in 1973 by former members of Santana, Steve Miller Band, and Frumious Bandersnatch. Journey had their biggest commercial success between 1978 and 1987, when Steve Perry was lead vocalist; they released a series of hit songs, including "Don\'t Stop Believin\'" (1981), which in 2009 became the top-selling track in iTunes history among songs not released in the 21st century. Escape, Journey\'s seventh and most successful album, reached No. 1 on the Billboard 200 and yielded another of their most popular singles, "Open Arms". The 1983 follow-up album, Frontiers, was almost as successful in the United States, reaching No. 2 and spawning several successful singles; it broadened the band\'s appeal in the United Kingdom, where it reached No. 6 on the UK Albums Chart. Journey enjoyed a successful reunion in the mid-1990s and have since regrouped twice; first with Steve Augeri from 1998-2006, then with Arnel Pineda from 2007 to the present. Sales have resulted in twenty five gold and platinum albums, in addition to the fifteen-time platinum RIAA Diamond Certified, 1988\'s Greatest Hits album. They have had nineteen Top 40 singles in the U.S. (the second most without a Billboard Hot 100 number one single behind Electric Light Orchestra with 20), six of which reached the Top 10 of the US chart and two of which reached No. 1 on other Billboard charts, and a No. 6 hit on the UK Singles Chart in "Don\'t Stop Believin\'". In 2005, "Don\'t Stop Believin\'" reached No. 3 on iTunes downloads. Originally a progressive rock band, Journey was described by AllMusic as having cemented a reputation as "one of America\'s most beloved (and sometimes hated) commercial rock/pop bands" by 1978, when they redefined their sound by embracing pop arrangements on their fourth album, Infinity. According to the Recording Industry Association of America, Journey has sold 48 million albums in the U.S., making them the 25th best-selling band. Their worldwide sales have reached over 80 million records globally, making them one of the world\'s best-selling bands of all time. A 2005 USA Today opinion poll named Journey the fifth-best U.S. rock band in history. Their songs have become arena rock staples and are still played on rock radio stations across the world. Journey ranks No. 96 on VH1\'s 100 Greatest Artists of All Time. Journey was inducted into the Rock and Roll Hall of Fame with the class of 2017. Inductees included lead singer Steve Perry, guitarist Neal Schon, keyboardists Jonathan Cain and Gregg Rolie, bassist Ross Valory, and drummers Aynsley Dunbar and Steve Smith.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tal_Bachman', 'artist_name': 'Tal Bachman', 'wiki': 'http://en.wikipedia.org/wiki/Tal_Bachman', 'hometown': 'http://dbpedia.org/resource/Manitoba', 'birth_date': '13 August 1968', 'start_year': '1992', 'aliases': ['Ian Starglow'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Daylight_Records'], 'genres': ['http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Ben_Carey', 'http://dbpedia.org/resource/Chris_Wyse', 'http://dbpedia.org/resource/Randy_Bachman'], 'abstract': 'Talmage Charles Robert Bachman (born August 13, 1968) is a Canadian singer-songwriter and guitarist. He is best known for his late 1998 hit, "She\'s So High", a pop rock tune from his self-titled 1999 album that led to a BMI award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bizarre_Inc', 'artist_name': 'Bizarre Inc', 'wiki': 'http://en.wikipedia.org/wiki/Bizarre_Inc', 'hometown': 'http://dbpedia.org/resource/Stafford', 'start_year': '1989', 'end_year': '1996', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Some_Bizzare_Records', 'http://dbpedia.org/resource/Sony_Records', 'http://dbpedia.org/resource/Vinyl_Solution'], 'genres': ['http://dbpedia.org/resource/Breakbeat_hardcore', 'http://dbpedia.org/resource/Techno'], 'actual_members': ['Andrew Meecham', 'Dean Meredith'], 'old_members': ['Carl Turner', 'Mark Archer'], 'related_artists': ['http://dbpedia.org/resource/Angie_Brown', 'http://dbpedia.org/resource/Stevo_Pearce'], 'abstract': 'Bizarre Inc were an English techno group. Originally formed in 1989 as a duo between English DJs Dean Meredith and Mark "Aaron" Archer (not to be confused with the film producer of same name), they later re-formed as a trio consisting of Meredith, Andrew Meecham, and Carl Turner in 1990.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Irene_Cara', 'birth_date': '18 March 1959', 'related_artists': ['http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Danny_Sembello', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': 'Irene Cara Escalera (born March 18, 1959) known professionally as Irene Cara, is an American singer, songwriter, dancer, and actress. Cara sang and co-wrote the song "Flashdance... What a Feeling" (from the film Flashdance), for which she won an Academy Award for Best Original Song and a Grammy Award for Best Female Pop Vocal Performance in 1984. Cara is also known for playing the role of Coco Hernandez in the 1980 film Fame, and for recording the film\'s title song "Fame". Prior to her success with Fame, Cara portrayed the title character Sparkle Williams in the original 1976 musical drama film Sparkle.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tears_for_Fears', 'artist_name': 'Tears for Fears', 'wiki': 'http://en.wikipedia.org/wiki/Tears_for_Fears', 'hometown': 'http://dbpedia.org/resource/Bath,_Somerset', 'start_year': '1981', 'labels': ['http://dbpedia.org/resource/Concord_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Fontana_Records', 'http://dbpedia.org/resource/Gut_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Phonogram_Inc.', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Carina_Round', 'http://dbpedia.org/resource/Curt_Smith', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/Graduate_(band)', 'http://dbpedia.org/resource/Ian_Stanley', 'http://dbpedia.org/resource/Interview_(band)', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Manny_Elias', 'http://dbpedia.org/resource/Neil_Taylor_(guitarist)', 'http://dbpedia.org/resource/Neon_(British_band)', "http://dbpedia.org/resource/Nick_D'Virgilio", 'http://dbpedia.org/resource/Nicky_Holland', 'http://dbpedia.org/resource/Oleta_Adams', 'http://dbpedia.org/resource/Roland_Orzabal', 'http://dbpedia.org/resource/Steven_Wilson', 'http://dbpedia.org/resource/The_Escape_(band)', 'http://dbpedia.org/resource/Will_Gregory'], 'abstract': 'Tears for Fears are an English pop rock band formed in Bath, England, in 1981 by Roland Orzabal and Curt Smith. Founded after the dissolution of their first band, the mod-influenced Graduate, Tears for Fears were associated with the new wave synthesizer bands of the early 1980s, and attained international chart success. Tears for Fears were part of the MTV-driven Second British Invasion of the US. The band\'s debut album, The Hurting (1983), reached number one on the UK Albums Chart. Their second album, Songs from the Big Chair (1985), reached number one on the US Billboard 200, achieving multi-platinum status in both the UK and the US. Songs from the Big Chair contained two Billboard Hot 100 number one hits: "Shout" and "Everybody Wants to Rule the World". The latter song won the Brit Award for Best British Single in 1986. After the release of their platinum-selling third album, The Seeds of Love (1989), Smith and Orzabal had an acrimonious split in 1991. Orzabal retained the Tears for Fears name as a solo project, releasing the albums Elemental (1993) and Raoul and the Kings of Spain (1995). Orzabal and Smith reconciled in 2000 and released an album of new material, Everybody Loves a Happy Ending, in 2004. The duo have toured on a semi-regular basis since then. After spending almost a decade in development, the band\'s seventh album, The Tipping Point, has been announced for release in February 2022.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jonezetta', 'artist_name': 'Jonezetta', 'wiki': 'http://en.wikipedia.org/wiki/Jonezetta', 'hometown': 'http://dbpedia.org/resource/United_States', 'start_year': '2002', 'end_year': '2009', 'labels': ['http://dbpedia.org/resource/Tooth_&amp;_Nail_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_rock'], 'actual_members': ['Alex Warren', 'Kyle Howe', 'Robert Chisolm', 'Ty Garvey', 'Tyler Kemp'], 'old_members': ['http://dbpedia.org/resource/Timothy_Jordan_II', 'Mick Parsons', 'Tony Abercrombie'], 'related_artists': ['http://dbpedia.org/resource/Action_Action', 'http://dbpedia.org/resource/Timothy_Jordan_II'], 'abstract': 'Jonezetta was an American rock band from Clinton, Mississippi, which released two full-length albums on Tooth and Nail Records in the 2000s.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Daughtry_(band)', 'artist_name': 'Daughtry', 'wiki': 'http://en.wikipedia.org/wiki/Daughtry_(band)', 'hometown': 'http://dbpedia.org/resource/McLeansville,_North_Carolina', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/19_Recordings', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Chris_Daughtry', 'http://dbpedia.org/resource/Josh_Paul_(musician)', 'Brian Craddock', 'Elvio Fernandes', 'Josh Steely', 'Brandon Maclin'], 'old_members': ['Jeremy Brady', 'Joey Barnes', 'Robin Diaz'], 'related_artists': ['http://dbpedia.org/resource/Chris_Daughtry', 'http://dbpedia.org/resource/Day_of_Fire', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Josh_Paul_(musician)', 'http://dbpedia.org/resource/Julian_Emery', 'http://dbpedia.org/resource/Lifehouse_(band)', 'http://dbpedia.org/resource/Sarah_Burgess_(singer)'], 'abstract': 'Daughtry /ˈdɔːtri/ is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006 and reached number one on the Billboard 200. The album went on to sell more than six million copies in the United States, and has been certified six times platinum by the RIAA. Daughtry was also named the best selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Nielsen SoundScan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits "It\'s Not Over" and "Home". The band\'s second album, Leave This Town, was released in July 2009 and debuted at number one on the Billboard 200 chart, becoming Daughtry\'s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album\'s lead single, "No Surprise", became the band\'s fifth top 20 hit on the Hot 100. Their third studio album, Break the Spell, was released in November 2011 and debuted within the top 10 on the Billboard 200 chart. The album has been certified Gold by the RIAA. Daughtry\'s fourth studio album, Baptized, was released on November 19, 2013, and debuted at number six on the Billboard 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 9 million albums and over 25.6 million digital tracks in the U.S.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/BTS', 'artist_name': 'BTS', 'wiki': 'http://en.wikipedia.org/wiki/BTS', 'hometown': 'http://dbpedia.org/resource/Seoul', 'start_year': '2013', 'aliases': ['Bangtan Boys', 'Bangtan Sonyeondan', 'Beyond the Scene', 'Bulletproof Boy Scouts'], 'labels': ['http://dbpedia.org/resource/Big_Hit_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Def_Jam_Recordings', 'http://dbpedia.org/resource/Pony_Canyon', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Break_the_Silence:_The_Movie', 'http://dbpedia.org/resource/Bring_the_Soul:_The_Movie', 'http://dbpedia.org/resource/Burn_the_Stage:_The_Movie', 'http://dbpedia.org/resource/Love_Yourself_in_Seoul'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/K-pop', 'http://dbpedia.org/resource/Pop_music', 'pop', 'hip hop', 'R&amp;B', 'EDM'], 'actual_members': ['http://dbpedia.org/resource/J-Hope', 'http://dbpedia.org/resource/Jimin_(singer,_born_1995)', 'http://dbpedia.org/resource/Jungkook', 'http://dbpedia.org/resource/Kim_Seok-jin', 'http://dbpedia.org/resource/RM_(rapper)', 'http://dbpedia.org/resource/Suga_(rapper)', 'http://dbpedia.org/resource/V_(singer)', 'Jin'], 'related_artists': ['http://dbpedia.org/resource/Annika_Wells__Annika_Wells__1', 'http://dbpedia.org/resource/Arcades_(band)', 'http://dbpedia.org/resource/Brian_Puspos', 'http://dbpedia.org/resource/Brother_Su', 'http://dbpedia.org/resource/Coyle_Girelli', 'http://dbpedia.org/resource/Kanata_Okajima', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Matthew_Tishler', 'http://dbpedia.org/resource/Melanie_Fontana', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Tushar_Apte'], 'abstract': 'BTS (Korean: 방탄소년단; RR: Bangtan Sonyeondan), also known as the Bangtan Boys, is a South Korean boy band that was formed in 2010 and debuted in 2013 under Big Hit Entertainment. The septet—consisting of members Jin, Suga, J-Hope, RM, Jimin, V, and Jungkook—co-writes and co-produces much of their own output. Originally a hip hop group, their musical style has evolved to include a wide range of genres. Their lyrics, often focused on personal and social commentary, touch on the themes of mental health, troubles of school-age youth and coming of age, loss, the journey towards loving oneself, and individualism. Their work also often references literature and psychological concepts and includes an alternative universe storyline. After debuting in 2013 with their single album 2 Cool 4 Skool, BTS released their first Korean-language studio album, Dark &amp; Wild, and Japanese-language studio album, Wake Up, in 2014. The group\'s second Korean studio album, Wings (2016), was their first to sell one million copies in South Korea. By 2017, BTS crossed into the global music market, leading the Korean Wave into the United States and breaking numerous sales records. They became the first Korean group to receive a certification from the Recording Industry Association of America (RIAA) for their single "Mic Drop", as well as the first Korean act to top the US Billboard 200 with their studio album Love Yourself: Tear (2018). BTS became one of the few groups since the Beatles to earn four US number-one albums in less than two years, and Love Yourself: Answer (2018) was the first Korean album certified platinum by the RIAA. In 2020, BTS became the first all-South Korean act to reach number one on the Billboard Global 200 and US Billboard Hot 100 with their Grammy-nominated single "Dynamite". Their follow-up releases "Savage Love", "Life Goes On", "Butter", and "Permission to Dance" made BTS the fastest act to accumulate five US number-one singles since Michael Jackson. Having sold over 20 million albums on the Gaon Music Chart, BTS is the best-selling artist in South Korean history and holds the best-selling album in South Korea with Map of the Soul: 7. They are the first Asian and non-English speaking act to be named International Federation of the Phonographic Industry (IFPI) Global Recording Artist of the Year (2020), to chart on Billboard\'s Top Touring Artists of the 2010s (placing at number 45), and to headline and sell out Wembley Stadium and Rose Bowl Stadium (Love Yourself World Tour in 2019). Featured on Time\'s international cover as "Next Generation Leaders" and dubbed "Princes of Pop", BTS has also appeared on the magazine\'s lists of the 25 most influential people on the internet (2017–2019) and the 100 most influential people in the world (2019). The group\'s numerous accolades include six American Music Awards, nine Billboard Music Awards, 24 Golden Disk Awards, and nominations for two Grammy Awards and a Brit Award. Outside of music, they partnered with UNICEF to establish the Love Myself anti-violence campaign, addressed three United Nations General Assemblies, and became the youngest ever recipients of the Order of Cultural Merit from the President of South Korea due to their contributions in spreading Korean culture and language.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kid_Cudi', 'artist_name': 'Kid Cudi', 'wiki': 'http://en.wikipedia.org/wiki/Kid_Cudi', 'birth_date': '30 January 1984', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/James_White_(film)', 'http://dbpedia.org/resource/Maniac_(2011_film)'], 'related_artists': ['http://dbpedia.org/resource/Choo_Jackson', 'http://dbpedia.org/resource/Crada_(producer)', 'http://dbpedia.org/resource/Dan_Black', 'http://dbpedia.org/resource/Dot_da_Genius', 'http://dbpedia.org/resource/E*vax', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Johnny_Polygon', 'http://dbpedia.org/resource/K._Sparks', 'http://dbpedia.org/resource/King_Chip', 'http://dbpedia.org/resource/Plain_Pat', 'http://dbpedia.org/resource/Raphael_Saadiq', 'http://dbpedia.org/resource/Ratatat', 'http://dbpedia.org/resource/Take_a_Daytrip', 'http://dbpedia.org/resource/Teddy_Walton'], 'abstract': 'Scott Ramon Seguro Mescudi (born January 30, 1984), better known by his stage name Kid Cudi (/ˈkʌdi/ KUDD-ee; often stylized as KiD CuDi), is an American rapper, singer, songwriter, record producer and actor. He has widely been recognized as an influence on several contemporary hip hop and alternative acts. His music is often autobiographical, telling of his childhood hardships dealing with depression, loneliness and alienation, his struggle with alcohol and drugs into adulthood, as well as themes of heartbreak, dissipation and celebration. Cudi began to gain major recognition following the release of his first official full-length project, a mixtape titled A Kid Named Cudi (2008), which caught the attention of American musician Kanye West, who subsequently signed Cudi to his GOOD Music label imprint by late 2008. In early 2008, Cudi had risen to prominence with the release of his commercial debut single "Day \'n\' Nite", which became a worldwide hit. The song was later featured on Cudi\'s seminal debut studio album, Man on the Moon: The End of Day (2009), which was eventually certified double platinum by the Recording Industry Association of America (RIAA) in 2017. The album also included the singles "Make Her Say" and "Pursuit of Happiness", both of which achieved significant chart success. In 2010, Cudi released his second album Man on the Moon II: The Legend of Mr. Rager, which features the singles "Erase Me" and "Mr. Rager". Later that year he formed WZRD, a rock band, with his long-time collaborator Dot da Genius. Their eponymous debut album (2012) debuted at number one on the Billboard Top Rock Albums chart. Cudi has since released the solo albums Indicud (2013), Satellite Flight: The Journey to Mother Moon (2014), Speedin\' Bullet 2 Heaven (2015), Passion, Pain &amp; Demon Slayin\' (2016), and Man on the Moon III: The Chosen (2020). Cudi\'s joint album with Kanye West, under the eponymous name Kids See Ghosts (2018), was met with widespread critical acclaim and was named among the best albums of 2018. In 2020, Cudi earned his first number-one song on the US Billboard Hot 100 chart with "The Scotts", a collaboration with Houston rapper Travis Scott. Cudi has sold 22 million certified records in the United States and has won two Grammy Awards from five nominations. He has worked with numerous prominent artists spanning several different genres in the music industry, such as Jay-Z, Eminem, Kendrick Lamar, David Guetta, Steve Aoki, MGMT, Mary J. Blige, Shakira, Ariana Grande and Michael Bolton, among others. After signing to GOOD Music, Cudi has since gone on to launch his own vanity labels, the now-dissolved Dream On and current label imprint Wicked Awesome Records. Cudi also ventured into acting when he was cast in the HBO series How to Make It in America. He has since appeared in several feature films, including Goodbye World (2013), Need for Speed (2014), Entourage (2015) and Bill &amp; Ted Face the Music (2020). In addition, he has made appearances on television shows such as One Tree Hill, The Cleveland Show, Brooklyn Nine-Nine, and Westworld. In 2015, he was the bandleader on the IFC series Comedy Bang! Bang! and in 2020 was added as a cast member for the HBO mini-series We Are Who We Are.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Migos', 'artist_name': 'Migos', 'wiki': 'http://en.wikipedia.org/wiki/Migos', 'hometown': 'http://dbpedia.org/resource/Lawrenceville,_Georgia', 'start_year': '2008', 'labels': ['http://dbpedia.org/resource/300_Entertainment', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Motown', 'http://dbpedia.org/resource/Quality_Control_Music'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Trap_music'], 'actual_members': ['http://dbpedia.org/resource/Offset_(rapper)', 'http://dbpedia.org/resource/Quavo', 'http://dbpedia.org/resource/Takeoff_(rapper)'], 'related_artists': ['http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Buddah_Bless', 'http://dbpedia.org/resource/Carnage_(DJ)', 'http://dbpedia.org/resource/DJ_Durel', 'http://dbpedia.org/resource/Deko', 'http://dbpedia.org/resource/Doughboy_(record_producer)', 'http://dbpedia.org/resource/Gradur', 'http://dbpedia.org/resource/Gucci_Mane', 'http://dbpedia.org/resource/Honorable_C.N.O.T.E.', 'http://dbpedia.org/resource/Marty_Baller', 'http://dbpedia.org/resource/Murda_Beatz', 'http://dbpedia.org/resource/OG_Parker', 'http://dbpedia.org/resource/Offset_(rapper)', 'http://dbpedia.org/resource/Quavo', 'http://dbpedia.org/resource/Rayven_Justice', 'http://dbpedia.org/resource/Rich_the_Kid', 'http://dbpedia.org/resource/Ricky_Racks', 'http://dbpedia.org/resource/Section_8_(record_producer)', 'http://dbpedia.org/resource/Takeoff_(rapper)', 'http://dbpedia.org/resource/Taylor_Girlz', 'http://dbpedia.org/resource/Tommee_Profitt', 'http://dbpedia.org/resource/Young_Thug', 'http://dbpedia.org/resource/Zaytoven'], 'abstract': 'Migos (/ˈmiːɡoʊs/) are an American hip hop trio from Lawrenceville, Georgia, founded in 2008. The group is composed of three rappers known by their stage names Quavo, Offset, and Takeoff. They are managed by Coach K, the former manager of Atlanta-based rappers Gucci Mane and Young Jeezy, and frequently collaborate with producers such as Zaytoven, DJ Durel, Murda Beatz, and Buddah Bless. Migos released their commercial debut single "Versace" in 2013, taken from their mixtape Y.R.N. (Young Rich Niggas). They have gone on to release several more singles, including "Fight Night" (2014), "Look at My Dab" (2015), and their four Billboard Hot 100 top 10 entries "Bad and Boujee" (featuring Lil Uzi Vert) (2016), peaking at number one, "MotorSport" (with Nicki Minaj and Cardi B) (2017), peaking at six, "Stir Fry" (2018), peaking at eight, and "Walk It Talk It" (featuring Drake) (2018), peaking at ten. Migos released their debut album Yung Rich Nation in July 2015, through Quality Control Music and 300 Entertainment. Their second album, Culture, was released in January 2017 also through both record labels, and debuted atop the US Billboard 200 chart. The group later signed a deal with Motown and Capitol Records in February 2017, and followed up the latter album with Culture II in January 2018, giving the group their second number one album in the United States. In 2021, the trio released their long-awaited fourth album Culture III, the third and final installment of their Culture trilogy.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gwen_Stefani', 'artist_name': 'Gwen Stefani', 'wiki': 'http://en.wikipedia.org/wiki/Gwen_Stefani', 'birth_date': '03 October 1969', 'start_year': '1986', 'aliases': ['Gwen Shelton'], 'related_artists': ['http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Anita_Antoinette', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Elan_Atias', 'http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eva_Gardner', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Kristopher_Pooley', 'http://dbpedia.org/resource/MC_Kinky', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Makoto_Izumitani', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Piers_Baron', 'http://dbpedia.org/resource/Raja_Kumari', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Sublime_(band)', 'http://dbpedia.org/resource/Taylor_John_Williams', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Viktor_Király'], 'abstract': 'Gwen Renée Stefani (/stəˈfɑːni/; born October 3, 1969) is an American singer and songwriter. She is a co-founder, lead vocalist, and the primary songwriter of the band No Doubt, whose singles include "Just a Girl", "Spiderwebs", and "Don\'t Speak", from their 1995 breakthrough studio album Tragic Kingdom, as well as "Hey Baby" and "It\'s My Life" from later albums. During the band\'s hiatus, Stefani embarked on a solo pop career in 2004 by releasing her debut studio album Love. Angel. Music. Baby. Inspired by pop music from the 1980s, the album was a critical and commercial success. It spawned six singles, including "What You Waiting For?", "Rich Girl", "Hollaback Girl", and "Cool". "Hollaback Girl" reached number one on the Billboard Hot 100 chart while also becoming the first US download to sell one million copies. In 2006, Stefani released her second studio album, The Sweet Escape. Among the singles were "Wind It Up" and "The Sweet Escape", the latter of which was number three on the Billboard Hot 100 year-end chart of 2007. Her third solo album, This Is What the Truth Feels Like (2016), was her first solo album to reach number one on the Billboard 200 chart. Her fourth solo album and first full-length Christmas-themed album, You Make It Feel Like Christmas, was released in 2017 and charted 19 tracks on Billboard\'s Holiday Digital Song Sales component chart in the United States. Stefani has released several singles with Blake Shelton, including "Nobody but You" (2020), which reached number 18 in the US. Stefani has won three Grammy Awards. As a solo artist, she has received an American Music Award, Brit Award, World Music Award, and two Billboard Music Awards. In 2003, she debuted her clothing line L.A.M.B. and expanded her collection with the 2005 Harajuku Lovers line, inspired by Japanese culture and fashion. Billboard magazine ranked Stefani the 54th most successful artist and 37th most successful Hot 100 artist of the 2000–2009 decade. VH1 ranked her 13th on their "100 Greatest Women in Music" list in 2012. Including her work with No Doubt, Stefani has sold more than 30 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Skid_Row_(Irish_band)', 'artist_name': 'Skid Row', 'wiki': 'http://en.wikipedia.org/wiki/Skid_Row_(Irish_band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1967', 'end_year': '1972', 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Psychedelic_rock'], 'old_members': ['http://dbpedia.org/resource/Brush_Shiels', 'http://dbpedia.org/resource/Ed_Deane', 'http://dbpedia.org/resource/Gary_Moore', 'http://dbpedia.org/resource/John_Wilson_(drummer)', 'http://dbpedia.org/resource/Kevin_McAlea', 'http://dbpedia.org/resource/Noel_Bridgeman', 'http://dbpedia.org/resource/Paul_Chapman_(musician)', 'http://dbpedia.org/resource/Phil_Lynott', 'http://dbpedia.org/resource/Robbie_Brennan', 'Eamonn Gibney', 'Bernard "Bernie" Cheevers', 'Noel "Nollaig" Bridgeman'], 'related_artists': ['http://dbpedia.org/resource/Brush_Shiels', 'http://dbpedia.org/resource/Eric_Bell', 'http://dbpedia.org/resource/Gary_Moore', 'http://dbpedia.org/resource/Gerry_McAvoy', 'http://dbpedia.org/resource/Noel_Bridgeman', 'http://dbpedia.org/resource/Paul_Chapman_(musician)', 'http://dbpedia.org/resource/Phil_Lynott', 'http://dbpedia.org/resource/Thin_Lizzy'], 'abstract': 'Skid Row were an Irish blues rock band of the late 1960s and early 1970s, based in Dublin and fronted by bass guitarist Brendan "Brush" Shiels. It was the first band in which future Thin Lizzy members Phil Lynott and Gary Moore played professionally.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Everlast', 'artist_name': 'Everlast', 'wiki': 'http://en.wikipedia.org/wiki/Everlast', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'birth_date': '18 August 1969', 'start_year': '1989', 'aliases': ['Whitey Ford'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/PIAS_Recordings', 'http://dbpedia.org/resource/The_Island_Def_Jam_Music_Group', 'http://dbpedia.org/resource/Tommy_Boy_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Blues', 'http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Bronx_Style_Bob', 'http://dbpedia.org/resource/Cypress_Hill', 'http://dbpedia.org/resource/DJ_Muggs', 'http://dbpedia.org/resource/Darius_Holbert', 'http://dbpedia.org/resource/Divine_Styler', 'http://dbpedia.org/resource/House_of_Pain', 'http://dbpedia.org/resource/Ice-T', 'http://dbpedia.org/resource/Ill_Bill', 'http://dbpedia.org/resource/Kurupt', 'http://dbpedia.org/resource/La_Coka_Nostra', 'http://dbpedia.org/resource/Sadat_X', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Siba_Giba', 'http://dbpedia.org/resource/Soul_Assassins', 'http://dbpedia.org/resource/The_Alchemist_(musician)', 'http://dbpedia.org/resource/The_Soul_of_John_Black', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Erik Francis Schrody (born August 18, 1969), known by his stage name Everlast, is an American musician, singer, rapper, and songwriter, known for his solo work and as the frontman for hip hop group House of Pain. He was also part of the hip hop supergroup La Coka Nostra, which consists of members of House of Pain and other rappers. In 2000, he received a Grammy Award for Best Rock Performance by a Duo or Group with Vocal with Latin rock band Santana for "Put Your Lights On".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/Elektra_Records'], 'plays_in': ['http://dbpedia.org/resource/Animal_Crackers_(2017_film)'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['http://dbpedia.org/resource/Huey_Lewis', 'http://dbpedia.org/resource/Johnny_Colla', 'John Pierce', 'James Harrah', 'Bill Gibson', 'Stef Burns', 'Sean Hopper'], 'old_members': ['http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'Mario Cipollina', 'Chris Hayes'], 'related_artists': ['http://dbpedia.org/resource/Bill_Schnee', 'http://dbpedia.org/resource/Clover_(band)', 'http://dbpedia.org/resource/Joel_Jaffe', 'http://dbpedia.org/resource/John_McFee__John_McFee__1', 'http://dbpedia.org/resource/Johnny_Colla', 'http://dbpedia.org/resource/Nick_Lowe', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rubicon_(American_band)', 'http://dbpedia.org/resource/Tower_of_Power'], 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'plays_in': ['http://dbpedia.org/resource/Inside_Living_Things'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Electronic_rock', 'rap rock', 'Alternative rock', 'pop rock', 'nu metal'], 'actual_members': ['Rob Bourdon', 'Brad Delson', 'Mike Shinoda', 'Dave Farrell', 'Joe Hahn'], 'old_members': ['Mark Wakefield', 'Chester Bennington'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Nelly_Furtado', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Alex_Cuba', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Brian_West_(musician)', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Dima_Bilan', 'http://dbpedia.org/resource/Gabriel_Coss', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jelleestone', 'http://dbpedia.org/resource/Jon_Levine', 'http://dbpedia.org/resource/Juanes', 'http://dbpedia.org/resource/Jurassic_5', "http://dbpedia.org/resource/K'naan", 'http://dbpedia.org/resource/Kim_Bingham', 'http://dbpedia.org/resource/Mala_Rodríguez', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Rea_Garvey', 'http://dbpedia.org/resource/Russ_Miller', 'http://dbpedia.org/resource/Saukrates', 'http://dbpedia.org/resource/Sean_Kelly_(Canadian_musician)', 'http://dbpedia.org/resource/SoShy', 'http://dbpedia.org/resource/StayBent_Krunk-a-Delic'], 'abstract': 'Nelly Kim Furtado ComIH (/fɜːrˈtɑːdoʊ/; Portuguese: [fuɾˈtaðu]; born December 2, 1978) is a Canadian singer and songwriter. She first gained fame with her trip hop-inspired debut album, Whoa, Nelly! (2000), which was a critical and commercial success that spawned two top-10 singles on the Billboard Hot 100, "I\'m Like a Bird" and "Turn Off the Light". The first of the two singles won her a Grammy Award for Best Female Pop Vocal Performance. Furtado\'s introspective folk-heavy 2003 second album, Folklore, explored her Portuguese roots. Its singles received moderate success in Europe, but the album\'s underperformance compared to her debut was regarded as a sophomore slump. Furtado\'s third album, Loose (2006), was a smash hit and became her bestselling album, with more than 12 million copies sold worldwide, also making it one of the bestselling albums of the 2000s. Considered a radical image reinvention, Furtado continued to explore her Portuguese heritage while leaning heavier into hip hop. The album spawned four successful number-one singles worldwide; "Promiscuous", "Maneater", "Say It Right", and "All Good Things (Come to an End)". Her Timbaland collaboration "Give It to Me" (2007) in the same era also topped the charts in the US and overseas. Furtado\'s critically acclaimed duet with James Morrison, "Broken Strings", also topped the charts in Europe in 2008. She released her first Spanish-language album, Mi Plan, in 2009, which won her a Latin Grammy Award for Best Female Pop Vocal Album. In 2012, Furtado released her nostalgia-inspired fifth album The Spirit Indestructible. Furtado split with her management and went independent thereafter, releasing her indie-pop sixth album, The Ride, in 2017 under her own label Nelstar Entertainment. Furtado has sold over 40 million records worldwide, making her one of the most successful Canadian artists. She has won several awards throughout her career, including one Grammy Award from seven nominations, one Latin Grammy Award, ten Juno Awards, one BRIT Award, one Billboard Music Award, one MTV Europe Music Award, one World Music Award, and three Much Music Video Awards. Furtado has a star on Canada\'s Walk of Fame, and was awarded Commander of the Order of Prince Henry on February 28, 2014, in Toronto by Aníbal Cavaco Silva, the then-President of Portugal.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pink_(singer)', 'artist_name': 'P!nk', 'wiki': 'http://en.wikipedia.org/wiki/Pink_(singer)', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Pink:_All_I_Know_So_Far'], 'related_artists': ['http://dbpedia.org/resource/Barb_Morrison', 'http://dbpedia.org/resource/Belén_Arjona', 'http://dbpedia.org/resource/Beth_Cohen_(musician)', 'http://dbpedia.org/resource/Bibi_McGill', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Chin_Injeti', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Dave_Carlock', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Eva_Gardner', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Henrik_Janson', 'http://dbpedia.org/resource/Indigo_Girls', 'http://dbpedia.org/resource/Janis_Tanaka', 'http://dbpedia.org/resource/Joi_(singer)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Leah_Randi', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Peter_Thomas_(musician)', "http://dbpedia.org/resource/Rag'n'Bone_Man__Rag'n'Bone_Man__1", 'http://dbpedia.org/resource/Rob_Chiarelli', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Screechy_Peach', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/The_New_Royales', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': 'Alecia Beth Moore (born September 8, 1979), known professionally as Pink (stylized as P!nk), is an American singer and songwriter. She was originally a member of the girl group Choice. In 1995, LaFace Records saw potential in Pink and offered her a solo recording contract. Her R&amp;B-influenced debut studio album Can\'t Take Me Home (2000) was certified double-platinum in the United States and spawned two Billboard Hot 100 top-ten songs: "There You Go" and "Most Girls". She gained further recognition with the collaborative single "Lady Marmalade" from the Moulin Rouge! soundtrack, which topped many charts worldwide. Refocusing her sound to pop rock with her second studio album Missundaztood (2001), the album sold more than 13 million copies worldwide and yielded the international number-one songs "Get the Party Started", "Don\'t Let Me Get Me", and "Just Like a Pill". While Pink\'s third studio album, Try This (2003), sold significantly less than her previous work, it earned her the Grammy Award for Best Female Rock Vocal Performance. She returned to the top of record charts with her fourth and fifth studio albums, I\'m Not Dead (2006) and Funhouse (2008), which spawned the top-ten entries "Who Knew" and "U + Ur Hand", as well as the number-one single "So What". Pink\'s sixth studio album, The Truth About Love (2012), was her first Billboard 200 number-one album and spawned her fourth US number-one single, "Just Give Me a Reason". In 2014, Pink recorded a collaborative album, Rose Ave., with Canadian musician Dallas Green under a folk music duo named You+Me. Her next studio albums, Beautiful Trauma (2017) and Hurts 2B Human (2019), both debuted at atop the Billboard 200 chart, with the former becoming the world\'s third best-selling album of the year. Noted for her distinctive raspy voice and acrobatic stage presence, Pink has sold over 100 million records worldwide, making her one of the world\'s best-selling music artists. Her career accolades include three Grammy Awards, two Brit Awards, a Daytime Emmy Award and seven MTV Video Music Awards, including the Michael Jackson Video Vanguard Award. In 2009, Billboard named Pink the Pop Songs Artist of the Decade. Pink was also the second most-played female solo artist in the United Kingdom during the 2000s decade, behind only Madonna. VH1 ranked her at number ten on their list of the 100 Greatest Women in Music, while Billboard awarded her the Woman of the Year award in 2013. At the 63rd annual BMI Pop Awards, she received the BMI President\'s Award for "her outstanding achievement in songwriting and global impact on pop culture and the entertainment industry."'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Supergrass', 'artist_name': 'Supergrass', 'wiki': 'http://en.wikipedia.org/wiki/Supergrass', 'hometown': 'http://dbpedia.org/resource/Oxford', 'start_year': '1993', 'end_year': '1993', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Sub_Pop', 'http://dbpedia.org/resource/Supergrass_(album)', 'http://dbpedia.org/resource/The_Echo_Label', 'http://dbpedia.org/resource/The_Island_Def_Jam_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Britpop'], 'actual_members': ['http://dbpedia.org/resource/Danny_Goffey', 'http://dbpedia.org/resource/Gaz_Coombes', 'http://dbpedia.org/resource/Mick_Quinn', 'http://dbpedia.org/resource/Rob_Coombes'], 'old_members': ['http://dbpedia.org/resource/Dom_and_Nic', 'Danny Goffey', 'Dan Fox', 'Gaz Coombes', 'Andy Davies'], 'related_artists': ['http://dbpedia.org/resource/22-20s', 'http://dbpedia.org/resource/Charly_Coombes', 'http://dbpedia.org/resource/Danny_Goffey', 'http://dbpedia.org/resource/Gaz_Coombes', 'http://dbpedia.org/resource/Laurence_Colbert', 'http://dbpedia.org/resource/Lodger_(British_band)', 'http://dbpedia.org/resource/Mick_Quinn', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Sam_Williams_(record_producer)', 'http://dbpedia.org/resource/Supergrass', 'http://dbpedia.org/resource/Swervedriver', 'http://dbpedia.org/resource/The_Hotrats'], 'abstract': 'Supergrass are an English rock band formed in 1993 in Oxford. The band consists of brothers Gaz (guitar and lead vocals) and Rob Coombes (keyboards), Mick Quinn (bass and backing vocals) and Danny Goffey (drums and backing vocals). Originally a 3-piece, Gaz\'s brother Rob Coombes officially joined the band in 2002. The band signed to Parlophone Records in 1994 and produced I Should Coco (1995), the best-selling debut album for the label since The Beatles\' Please Please Me. Their first album\'s fourth single "Alright" was a huge international hit that established the band\'s reputation. Since then the band have released five albums: In It for the Money (1997), Supergrass (1999), Life on Other Planets (2002), Road to Rouen (2005) and Diamond Hoo Ha (2008), as well as a decade-ending compilation called Supergrass Is 10 (2004). In August 2009 the band signed to Cooking Vinyl and began work on their seventh studio album Release the Drones. The album remained unreleased and unfinished as, on 12 April 2010, the band announced that they were splitting up due to musical and creative differences. The group disbanded after four farewell gigs, the final one at La Cigale, Paris on 11 June 2010. The band reformed in 2019, initially to perform at Pilton Party followed by a ‘secret’ gig at Oslo in Hackney, London.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kevin_Rudolf', 'artist_name': 'Kevin Rudolf', 'wiki': 'http://en.wikipedia.org/wiki/Kevin_Rudolf', 'hometown': 'http://dbpedia.org/resource/Pulaski,_Mississippi', 'birth_date': '17 February 1983', 'start_year': '2000', 'aliases': ['Binocular'], 'labels': ['http://dbpedia.org/resource/Cash_Money_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Maverick_(company)', 'http://dbpedia.org/resource/Primary_Wave_(company)', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Rap_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Southern_hip_hop', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/David_Banner', 'http://dbpedia.org/resource/David_Rush_(rapper)', 'http://dbpedia.org/resource/Kevin_Lyttle', 'http://dbpedia.org/resource/Lifehouse_(band)', 'http://dbpedia.org/resource/Lil_Wayne', 'http://dbpedia.org/resource/T_Lopez'], 'abstract': 'Kevin Winston Rudolf (born February 17, 1983) is an American singer, songwriter, record producer, rapper, and multi-instrumentalist from New York City, New York. He is best known for his 2008 single "Let It Rock".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dragonette', 'artist_name': 'Dragonette', 'wiki': 'http://en.wikipedia.org/wiki/Dragonette', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '2005', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/G.B.F._(film)'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'actual_members': ['http://dbpedia.org/resource/Martina_Sorbara'], 'old_members': ['Dan Kurtz', 'Joel Stouffer', 'Simon Craig', 'Will Stapleton', 'Chris Huggett'], 'related_artists': ['http://dbpedia.org/resource/Idoling!!!', 'http://dbpedia.org/resource/Joey_Stylez__Joey_Stylez__1', 'http://dbpedia.org/resource/Kaskade', 'http://dbpedia.org/resource/Martin_Solveig', 'http://dbpedia.org/resource/Martina_Sorbara', 'http://dbpedia.org/resource/Mike_Mago', 'http://dbpedia.org/resource/The_New_Deal_(band)'], 'abstract': "Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal), and drummer Joel Stouffer. Dragonette released a self-titled EP in 2005 before being signed to Mercury Records and relocating to London, where they recorded and released their debut studio album, Galore, in August 2007 to moderate critical appreciation. A second studio album, Fixin to Thrill, was released in September 2009. The group's third studio album, Bodyparts, was released in September 2012 and their fourth, Royal Blues, followed in November 2016. Following the relationship split of founding members Martina Sorbara and Dan Kurtz in 2016, Kurtz also left the group. He elected to rejoin his previous band The New Deal. Sorbara has since announced she will be continuing the Dragonette name as a solo artist henceforth."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Harry_Styles', 'artist_name': 'Harry Styles', 'wiki': 'http://en.wikipedia.org/wiki/Harry_Styles', 'birth_date': '01 February 1994', 'start_year': '2010', 'related_artists': ['http://dbpedia.org/resource/Muna_(band)', 'http://dbpedia.org/resource/Pauli_Lovejoy', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Sarah_Jones_(drummer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)'], 'abstract': 'Harry Edward Styles (born 1 February 1994) is an English singer, songwriter, and actor. His musical career began in 2010 as a solo contestant on the British music competition series The X Factor. Following his elimination early on, he was brought back to join the boy band One Direction, which went on to become one of the best-selling boy bands of all time. Styles released his self-titled debut solo album through Columbia Records in 2017. It debuted at number one in the UK and the US, and became one of the world\'s top-ten best-selling albums of the year. Its lead single, "Sign of the Times", topped the UK Singles Chart. Styles made his acting debut in Christopher Nolan\'s 2017 war film Dunkirk. His second album, Fine Line (2019), debuted atop the US Billboard 200 with the biggest first-week sales by an English male artist in history, and was listed among Rolling Stone\'s "500 Greatest Albums of All Time" in 2020. Its fourth single, "Watermelon Sugar", topped the US Billboard Hot 100. Throughout his career, Styles has earned several accolades, including two Brit Awards, a Grammy Award, an Ivor Novello Award, and an American Music Award. Aside from music, he is also known for his flamboyant fashion, and is the first man to appear solo on the cover of Vogue magazine.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Razorlight', 'artist_name': 'Razorlight', 'wiki': 'http://en.wikipedia.org/wiki/Razorlight', 'start_year': '2002', 'end_year': '2014', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Vertigo_Records'], 'genres': ['http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Andy_Burrows', 'http://dbpedia.org/resource/Johnny_Borrell', 'http://dbpedia.org/resource/Reni_Lane', 'Carl Dalemo', 'Björn Ågren'], 'old_members': ['Ben Ellis', 'David Ellis', 'David Sullivan Kaplan', 'Freddie Stitz', 'Gus Robertson', 'Harry Deacon', 'João Mello', 'Mat Hector', 'Shïan Smith-Pancorvo'], 'related_artists': ['http://dbpedia.org/resource/Andy_Burrows', 'http://dbpedia.org/resource/I_Am_Arrows', 'http://dbpedia.org/resource/Johnny_Borrell', 'http://dbpedia.org/resource/The_Chavs', 'http://dbpedia.org/resource/The_Libertines'], 'abstract': 'Razorlight are an English indie rock band, formed in 2002 in London by lead singer and guitarist Johnny Borrell. Along with Borrell, the current line-up of the band is composed of founding members Björn Ågren on guitar and bassist Carl Delemo, as well as drummer Andy Burrows. This lineup is a reunion of the lineup from the band\'s second and third albums. The band have gone through several line-up changes, with Borrell remaining the sole permanent member. They released three studio albums before splitting up in 2014. The band reformed in 2017 and released the album Olympus Sleeping in 2018. They are best known for the singles "Golden Touch" and "America", the latter of which was a number-one single on the UK Singles Chart in 2006.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Ellie_Goulding', 'birth_date': '30 December 1986', 'start_year': '2009', 'related_artists': ['http://dbpedia.org/resource/Active_Child', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Arcades_(band)', 'http://dbpedia.org/resource/Carl_Falk', 'http://dbpedia.org/resource/Chris_Ketley', 'http://dbpedia.org/resource/Clean_Bandit', 'http://dbpedia.org/resource/Erik_Hassle', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Hitimpulse', 'http://dbpedia.org/resource/Jakwob', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Lissie', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Openside', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Shy_Martin', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Steven_Malcolmson', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/Tarrus_Riley', 'http://dbpedia.org/resource/Tinie_Tempah'], 'abstract': 'Elena Jane Goulding (/ˈɡoʊldɪŋ/ GOHL-ding; born 30 December 1986) is an English singer and songwriter. Her career began when she met record producers Starsmith and Frankmusik, and she was later spotted by Jamie Lillywhite, who later became her manager and A&amp;R. After signing to Polydor Records in July 2009, Goulding released her debut extended play, An Introduction to Ellie Goulding later that year. In 2010, she became the second artist to top the BBC\'s annual Sound of... poll and win the Critics\' Choice Award at the Brit Awards in the same year. She released her debut studio album, Lights, in 2010; it debuted at No.\u20091 on the UK Albums Chart and has sold over 850,000 copies in the United Kingdom. In November 2010, the album was reissued as Bright Lights, which spawned two singles: a cover of Elton John\'s "Your Song" which was selected for the first John Lewis Christmas advert, reached No.\u20092 on the UK Singles Chart, and "Lights", which became Goulding\'s highest-charting single on the US Billboard Hot 100 to date, peaking at No.\u20092. Goulding\'s second studio album, Halcyon, was released in October 2012. "Anything Could Happen" preceded the album as the lead single. The album debuted at No.\u20092 on the UK Albums Chart, and after 65 weeks, it reached No.\u20091. Halcyon debuted at No.\u20099 on the US Billboard 200. Halcyon Days, a repackaged edition of Halcyon, was released in August 2013, generating singles, such as "Burn", which became her first No.\u20091 single in the UK. At the 2014 Brit Awards, she received the award for British Female Solo Artist. Goulding released her third studio album, titled Delirium, on 6 November 2015, with "On My Mind" as the album\'s lead single. In December 2015, she received her first Grammy Award nomination for Best Pop Solo Performance for her single "Love Me Like You Do". Her fourth studio album Brightest Blue was released on 17 July 2020, becoming her third to top the UK Albums Chart, and her fourth consecutive RIAA certified album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kenny_Loggins', 'artist_name': 'Kenny Loggins', 'wiki': 'http://en.wikipedia.org/wiki/Kenny_Loggins', 'birth_date': '07 January 1948', 'start_year': '1968', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Walt_Disney_Records'], 'plays_in': ['http://dbpedia.org/resource/Crack_a_Smile..._and_More!', "http://dbpedia.org/resource/Donald_Trump's_The_Art_of_the_Deal:_The_Movie", 'http://dbpedia.org/resource/Footloose_(1984_film)'], 'related_artists': ['http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Carolyn_Dennis', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Doug_Jackson_(musician)', 'http://dbpedia.org/resource/Loren_Gold', 'http://dbpedia.org/resource/Max_Carl', 'http://dbpedia.org/resource/Michael_McDonald_(musician)', 'http://dbpedia.org/resource/Neil_Giraldo', 'http://dbpedia.org/resource/Pamela_Polland', 'http://dbpedia.org/resource/Paul_Peterson', 'http://dbpedia.org/resource/Steve_DiStanislao', 'http://dbpedia.org/resource/Tris_Imboden'], 'abstract': 'Kenneth Clark Loggins (born January 7, 1948) is an American musician, singer and songwriter. His early songs were recorded with the Nitty Gritty Dirt Band in 1970, which led to seven albums recorded as Loggins and Messina from 1972 to 1977. His early soundtrack contributions date back to A Star Is Born in 1976, and he is known as the King of the Movie Soundtrack. As a solo artist, Loggins experienced a string of soundtrack successes, including an Academy Award nomination for "Footloose" in 1985. Finally Home was released in 2013, shortly after Loggins formed the group Blue Sky Riders with Gary Burr and Georgia Middleman. He won a Daytime Emmy Award, two Grammy Awards, and was nominated for an Academy Award, a Tony Award, and a Golden Globe Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Phum_Viphurit', 'artist_name': 'Phum Viphurit', 'wiki': 'http://en.wikipedia.org/wiki/Phum_Viphurit', 'birth_date': '16 August 1995', 'start_year': '2014', 'aliases': ['Phum'], 'genres': ['http://dbpedia.org/resource/Indie_folk', 'http://dbpedia.org/resource/Neo_soul'], 'related_artists': ['http://dbpedia.org/resource/Higher_Brothers', 'http://dbpedia.org/resource/Niki_(singer)'], 'abstract': 'Viphurit Siritip (Thai: วิภูริศ ศิริทิพย์, born 1995), known by his nickname Phum (ภูมิ), is a Thai singer-songwriter. He achieved international fame in 2018 from his single "Lover Boy". His music demonstrates influences of various genres, especially neo soul.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Lady_Gaga', 'birth_date': '28 March 1986', 'start_year': '2001', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Percy_Jackson_&amp;_the_Olympians:_The_Lightning_Thief'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Bree_Runway', 'http://dbpedia.org/resource/Cazwell', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Clinton_Sparks', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Hyper_Crush', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Kalenna_Harper', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Melle_Mel', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Nico_Constantine', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Rafa_Sardina', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Salem_Al_Fakir', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Space_Cowboy_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Vincent_Herbert', 'http://dbpedia.org/resource/Water_(producer)'], 'abstract': 'Stefani Joanne Angelina Germanotta (/ˈstɛfəni ˌdʒɜːrməˈnɒtə/ STEF-ən-ee JUR-mə-NOT-ə; born March 28, 1986), known professionally as Lady Gaga, is an American singer, songwriter, and actress. She is known for her image reinventions and musical versatility. Gaga began performing as a teenager, singing at open mic nights, and acting in school plays. She studied at Collaborative Arts Project 21, through New York University\'s Tisch School of the Arts, before dropping out to pursue a career in music. After Def Jam Recordings canceled her contract, she worked as a songwriter for Sony/ATV Music Publishing, where she signed a joint deal with Interscope Records and Akon\'s label, KonLive Distribution, in 2007. Gaga rose to prominence the following year with her debut studio album, The Fame, and its chart-topping singles "Just Dance" and "Poker Face". The album was later reissued to include the EP The Fame Monster (2009), which yielded the successful singles "Bad Romance", "Telephone", and "Alejandro". Gaga\'s five succeeding studio albums all debuted atop the US Billboard 200. Her second full-length album, Born This Way (2011), explored electronic rock and techno-pop and sold more than one million copies in its first week. The title track became the fastest-selling song on the iTunes Store, with over one million downloads in less than a week. Following her EDM-influenced third album, Artpop (2013), and its lead single "Applause", Gaga released the jazz album Cheek to Cheek (2014) with Tony Bennett, and the soft rock album Joanne (2016). She also ventured into acting, playing leading roles in the miniseries American Horror Story: Hotel (2015–2016), for which she received a Golden Globe Award for Best Actress, and the critically acclaimed musical drama film A Star Is Born (2018). Her contributions to the latter\'s soundtrack, which spawned the chart-topping single "Shallow", made her the first woman to win an Academy, BAFTA, Golden Globe, and Grammy Award in one year. Gaga returned to her dance-pop roots with her sixth studio album, Chromatica (2020), which yielded the number-one single "Rain on Me". She followed this with her second collaborative album with Bennett, Love for Sale, and a starring role in the biographical crime film House of Gucci, both in 2021. Having sold 124 million records as of 2014, Gaga is one of the world\'s best-selling music artists and the fourth highest-earning female musician of the 2010s. Her accolades include 12 Grammy Awards, 18 MTV Video Music Awards, 16 Guinness World Records, awards from the Songwriters Hall of Fame and the Council of Fashion Designers of America, and recognition as Billboard\'s Artist of the Year (2010) and Woman of the Year (2015). She has also been included in several Forbes\' power rankings and ranked fourth on VH1\'s Greatest Women in Music (2012). Time magazine named her one of the 100 most influential people in the world in 2010 and 2019 and placed her on their All-Time 100 Fashion Icons list. Her philanthropy and activism focus on mental health awareness and LGBT rights; in 2012, she founded the Born This Way Foundation, a non-profit organization aiming to empower youth, improve mental health, and prevent bullying. Gaga\'s business ventures include Haus Laboratories, a vegan cosmetics brand that launched in 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Strokes', 'artist_name': 'The Strokes', 'wiki': 'http://en.wikipedia.org/wiki/The_Strokes', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/Cult_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Albert_Hammond_Jr.', 'http://dbpedia.org/resource/Fabrizio_Moretti', 'http://dbpedia.org/resource/Julian_Casablancas', 'http://dbpedia.org/resource/Nick_Valensi', 'http://dbpedia.org/resource/Nikolai_Fraiture'], 'related_artists': ['http://dbpedia.org/resource/CRX_(band)', 'http://dbpedia.org/resource/Chris_Tabron', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elvis_Costello', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Gordon_Raphael', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Gus_Oberg', 'http://dbpedia.org/resource/Little_Joy', 'http://dbpedia.org/resource/Nikolai_Fraiture', 'http://dbpedia.org/resource/Noah_Georgeson', 'http://dbpedia.org/resource/Richie_Follin', 'http://dbpedia.org/resource/Ryan_Gentles', 'http://dbpedia.org/resource/The_Postelles', 'http://dbpedia.org/resource/The_Voidz', 'http://dbpedia.org/resource/Zerobridge'], 'abstract': 'The Strokes are an American rock band from New York City. Formed in 1998, the band is composed of singer Julian Casablancas, guitarists Nick Valensi and Albert Hammond Jr., bassist Nikolai Fraiture, and drummer Fabrizio Moretti. They were a leading group of the early-2000s indie rock revival. The release of their EP The Modern Age in early 2001 sparked a bidding war among major labels, with the band eventually signing to RCA Records. That summer, they released their debut album, Is This It, to critical acclaim and strong sales. It has since appeared on numerous "best album" lists. It was followed by Room on Fire (2003) and First Impressions of Earth (2006), both of which sold well but failed to match Is This It in critical success. Following a five-year hiatus, they released Angles (2011) and Comedown Machine (2013) to lukewarm critical reception and dwindling sales. Following the end of their initial contract with RCA, they released the Future Present Past EP (2016) through Casablancas\' label Cult. The band were relatively inactive throughout the decade, making infrequent live appearances and directing most media attention to individual projects. In 2020, they released their first studio album in seven years, The New Abnormal, produced by Rick Rubin and released through Cult and RCA. Critics considered the album a return to form. It went on to win Best Rock Album at the 63rd Annual Grammy Awards. As of 2020, the band has sold 5 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Everclear_(band)', 'artist_name': 'Everclear', 'wiki': 'http://en.wikipedia.org/wiki/Everclear_(band)', 'hometown': 'http://dbpedia.org/resource/Portland,_Oregon', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Cleopatra_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Tim/Kerr'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Art_Alexakis', 'Dave French', 'Freddy Herrera', 'Brian Nolan'], 'old_members': ['[[#Former members'], 'related_artists': ['http://dbpedia.org/resource/Art_Alexakis', 'http://dbpedia.org/resource/Audio_Learning_Center', 'http://dbpedia.org/resource/Brynn_Arens', 'http://dbpedia.org/resource/Craig_Montoya', 'http://dbpedia.org/resource/Greg_Eklund', 'http://dbpedia.org/resource/Josh_Todd_and_the_Conflict', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/Stacy_Jones', 'http://dbpedia.org/resource/The_Exies', 'http://dbpedia.org/resource/Tommy_Stewart'], 'abstract': "Everclear is an American rock band formed in Portland, Oregon, in 1991. The band was formed by Art Alexakis, the band's lead songwriter, vocalist, and guitarist; and for most of the band's height of popularity, consisted of Craig Montoya on bass guitar and Greg Eklund on drums. After the limited release of their independently released debut album, World of Noise, the band found success with their first three albums on Capitol Records: Sparkle and Fade, So Much for the Afterglow, and Songs from an American Movie Vol. One: Learning How to Smile, which were all certified platinum in sales. However, the following two albums Songs from an American Movie Vol. Two: Good Time for a Bad Attitude and Slow Motion Daydream, were not as well received, and as sales suffered, Montoya and Eklund left the band shortly after in 2003. After a brief stint of solo performances, Alexakis decided to push forward with the Everclear name, finding new musicians to perform with and releasing two more albums, Welcome to the Drama Club and Invisible Stars. In 2012, Alexakis started a 1990s nostalgia tour, named the Summerland Tour, which occurs every summer with Everclear and other 1990s alternative rock bands. In April 2015, the band released a ninth studio album, entitled Black is the New Black."}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Disturbed_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1994', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Giant_Records_(Warner)', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/John_Moyer', 'http://dbpedia.org/resource/Mike_Wengren'], 'old_members': ['Erich Awalt', 'Steve Kmak'], 'related_artists': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Fight_or_Flight_(band)', 'http://dbpedia.org/resource/Heaven_Below', 'http://dbpedia.org/resource/John_Moyer__John_Moyer__1', 'http://dbpedia.org/resource/Kevin_Churko', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Mike_Wengren', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/The_Union_Underground'], 'abstract': 'Disturbed is an American heavy metal band from Chicago, formed in 1994. The band includes vocalist David Draiman, guitarist/keyboardist Dan Donegan, bassist John Moyer and drummer Mike Wengren. Donegan and Wengren have been involved in the band since its inception, with Moyer replacing former bassist Steve "Fuzz" Kmak and Draiman replacing original lead vocalist Erich Awalt. The band has released seven studio albums, five of which have consecutively debuted at number one on the Billboard 200. Disturbed went into hiatus in October 2011, during which the band\'s members focused on various side projects, and returned in June 2015, releasing their first album in four years, Immortalized in August 2015. They also released two live albums, Music as a Weapon II in February 2004 and Disturbed: Live at Red Rocks in November 2016. Disturbed has sold over 17 million records worldwide, making them one of the most successful rock bands in the modern era alongside Slipknot and Godsmack, among others.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pop_Evil', 'artist_name': 'Pop Evil', 'wiki': 'http://en.wikipedia.org/wiki/Pop_Evil', 'hometown': 'http://dbpedia.org/resource/Muskegon,_Michigan', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/MNRK_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Dave Grahs ', 'Leigh Kakaty', 'Nick Fuelling', 'Hayley Cramer'], 'old_members': ['Jamie Nummer', 'Dylan Allison', 'Tony Greve', 'Chachi Riot', 'Jay Taylor', 'Aaron Antoon ', 'Matt DiRito'], 'related_artists': ['http://dbpedia.org/resource/Jason_Hartless'], 'abstract': 'Pop Evil is an American rock band that was formed in North Muskegon, Michigan, in 2001 by Leigh Kakaty. The band\'s roots reside in TenFive, a group formed in the late-1990s by Kakaty and guitarist Jason Reed. Pop Evil won the Radio Contraband Rock Radio Award for "Song of the Year" for "Trenches" in 2013.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Seether', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'start_year': '1999', 'aliases': ['Saron Gas (1999–2002)'], 'labels': ['http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Fantasy_Records', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Shaun_Morgan', 'John Humphrey'], 'old_members': ['http://dbpedia.org/resource/Patrick_Callahan', 'http://dbpedia.org/resource/Troy_McLawhorn', 'Johan Greyling', 'Tyronne Morris', 'Nick Oshiro', 'David "Dave" Cohoe', 'Pat Callahan'], 'related_artists': ['http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dale_Stewart', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/Edgewater_(band)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Memento_(band)', 'http://dbpedia.org/resource/Patrick_Callahan', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Shaun_Morgan', 'http://dbpedia.org/resource/Troy_McLawhorn', 'http://dbpedia.org/resource/Van_Coke_Kartel'], 'abstract': 'Seether are a South African rock band founded in 1999 in Pretoria, Gauteng. The band originally performed under the name "Saron Gas" until 2002, when they moved to the United States and changed it to Seether to avoid confusion with the deadly chemical known as sarin gas. Lead vocalist and guitarist Shaun Morgan is the band\'s longest serving member, bassist Dale Stewart joined shortly after formation while drummer John Humphrey joined them for the band\'s second album. Since 2018, the band has been employing second guitarist Corey Lowery. Several notable guitarists like Corey\'s brother Clint and Troy McLawhorn have toured or recorded with the band, however, Shaun has recorded most guitar parts for the band\'s records. Seether gained mainstream popularity in 2002 with their US Active Rock number one single "Fine Again". Their success was sustained in 2004 with the single "Broken", which peaked at number 20 on the Billboard Hot 100. They have experienced continued success with many number one hits on the Hot Mainstream Rock Tracks chart, such as "Remedy", "Fake It", "Country Song", "Words as Weapons", "Let You Down" and "Dangerous". The band has released eight studio albums; their most recent, Si Vis Pacem, Para Bellum, was released on 28 August 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Starset', 'artist_name': 'Starset', 'wiki': 'http://en.wikipedia.org/wiki/Starset', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'start_year': '2013', 'labels': ['http://dbpedia.org/resource/Fearless_Records', 'http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['Dustin Bates', 'Ron DeChant', 'Brock Richards', 'Adam Gilbert'], 'related_artists': ['http://dbpedia.org/resource/Downplay', 'http://dbpedia.org/resource/Joe_Rickard', 'http://dbpedia.org/resource/Live_My_Last', 'http://dbpedia.org/resource/Luke_Holland'], 'abstract': 'Starset is an American rock band from Columbus, Ohio, formed by Dustin Bates in 2013. They released their debut album, Transmissions, in 2014 and their second album, Vessels, on January 20, 2017. The band has found success in expanding the ideas of their concept albums through social media and YouTube, with the band generating over $230,000 in revenue from views from the latter as of November 2016. Their single "My Demons" had accumulated over 280 million YouTube views in the same time period. Their most commercially successful song, "Monster", peaked at number 2 on the Billboard US Mainstream Rock chart in May 2017. A third studio album, Divisions, was released on September 13, 2019, with their fourth studio album, Horizons, released on October 22, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Highly_Suspect', 'artist_name': 'Highly Suspect', 'wiki': 'http://en.wikipedia.org/wiki/Highly_Suspect', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/300_Entertainment', 'http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['Johnny Stevens ', 'Rich Meyer', 'Ryan Meyer', 'Matt Kofos'], 'related_artists': ['http://dbpedia.org/resource/Fairy_Bones'], 'abstract': 'Highly Suspect is an American rock band from Cape Cod, Massachusetts. The band consists of twin brothers Rich (bass guitar, backing vocals) and Ryan Meyer (drums, backing vocals), Johnny Stevens (guitar, lead vocals), and Matt Kofos (guitar, synthesizer, backing vocals). After starting as a bar cover band, they relocated to Brooklyn, New York, where they recorded The Worst Humans EP with producer Joel Hamilton. The band\'s first studio album, Mister Asylum, was released on July 17, 2015, earning Highly Suspect a nomination for Best Rock Album at the 58th Annual Grammy Awards. The song "Lydia" was also nominated for Best Rock Song. Their second studio album, The Boy Who Died Wolf, was released on November 18, 2016. Two singles have been released from the album, "My Name Is Human", which topped the Billboard US Mainstream Rock Songs chart, and "Little One", which peaked at number 2 on the same chart. Highly Suspect\'s third studio album, MCID, was released on November 1, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Red_Sun_Rising', 'artist_name': 'Red Sun Rising', 'wiki': 'http://en.wikipedia.org/wiki/Red_Sun_Rising', 'hometown': 'http://dbpedia.org/resource/Ohio', 'start_year': '2007', 'end_year': '2020', 'labels': ['http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['Dave McGarry', 'Mike Protich', 'Pat Gerasia', 'Ricky Miller', 'Ryan Williams'], 'old_members': ['Adam Mercer', 'Bobby Consiglio', 'Hayes Hornish', 'Mark Jendrisak', 'Mark Matthews', 'Mitch Bandel', 'Tyler Valendza'], 'abstract': 'Red Sun Rising is an American rock band from Akron, Ohio that is currently on hiatus. The band has released two studio albums through the Razor &amp; Tie record label; their first, Polyester Zeal, in 2015, and their second, Thread, on March 30, 2018. The band also released an EP titled Peel on March 22, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hellyeah', 'artist_name': 'Hellyeah', 'wiki': 'http://en.wikipedia.org/wiki/Hellyeah', 'hometown': 'http://dbpedia.org/resource/Dallas', 'start_year': '2006', 'end_year': '2021', 'labels': ['http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'Heavy metal'], 'old_members': ['http://dbpedia.org/resource/Bob_Kakaha', 'http://dbpedia.org/resource/Chad_Gray', 'http://dbpedia.org/resource/Greg_Tribbett', 'http://dbpedia.org/resource/Nothingface_(band)', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Tom_Maxwell_(guitarist)', 'http://dbpedia.org/resource/Vinnie_Paul', 'Jerry Montano', 'Bob Zilla', 'Christian Brady', 'Kyle Sanders'], 'related_artists': ['http://dbpedia.org/resource/Audiotopsy_(band)', 'http://dbpedia.org/resource/Bob_Kakaha', 'http://dbpedia.org/resource/Chad_Gray', 'http://dbpedia.org/resource/Damageplan', 'http://dbpedia.org/resource/Deadlights_(American_band)', 'http://dbpedia.org/resource/Gasoline_(band)', 'http://dbpedia.org/resource/Greg_Tribbett', 'http://dbpedia.org/resource/MonstrO_(band)', 'http://dbpedia.org/resource/Mudvayne', 'http://dbpedia.org/resource/Nothingface_(band)', 'http://dbpedia.org/resource/Pantera', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Stone_Sour', 'http://dbpedia.org/resource/Tom_Maxwell_(guitarist)__Tom_Maxwell__1', 'http://dbpedia.org/resource/Vinnie_Paul'], 'abstract': "Hellyeah, stylized as HELLYEAH, was an American heavy metal supergroup formed in Dallas, Texas, in 2006. The band's last lineup consisted of lead vocalist Chad Gray, guitarists Christian Brady and Tom Maxwell, bassist Kyle Sanders, and drummer Roy Mayorga. The idea to form a supergroup originated in 2000 on the Tattoo the Earth tour, although plans were constantly put on hold due to scheduling conflicts. The summer of 2006 allowed the band to take the project seriously and record its first album. Recorded at Chasin' Jason studio in Dimebag Darrell's backyard, their self-titled album entered the Billboard 200 at number 9, selling 45,000 copies. They went on to release five more studio albums between 2010 and 2019. As of 2021, the band is on hiatus."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rise_Against', 'artist_name': 'Rise Against', 'wiki': 'http://en.wikipedia.org/wiki/Rise_Against', 'hometown': 'http://dbpedia.org/resource/Illinois', 'start_year': '1999', 'aliases': ['Transistor Revolt'], 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/Fat_Wreck_Chords', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Hardcore_punk', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/Brandon_Barnes', 'http://dbpedia.org/resource/Joe_Principe', 'http://dbpedia.org/resource/Tim_McIlrath', 'http://dbpedia.org/resource/Zach_Blair'], 'old_members': ['Dan Wleklinski', 'Kevin White', 'Todd Mohney', 'Chris Chasse', 'Tony Tintari'], 'related_artists': ['http://dbpedia.org/resource/88_Fingers_Louie', 'http://dbpedia.org/resource/Alexisonfire', 'http://dbpedia.org/resource/Arma_Angelus', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Waitress', 'http://dbpedia.org/resource/Baxter_(punk_band)', 'http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brandon_Barnes', 'http://dbpedia.org/resource/Cancer_Bats', 'http://dbpedia.org/resource/Gwar', 'http://dbpedia.org/resource/Hagfish_(band)', 'http://dbpedia.org/resource/Joe_Principe', 'http://dbpedia.org/resource/Jon_Snodgrass_(musician)', 'http://dbpedia.org/resource/Only_Crime', 'http://dbpedia.org/resource/Squirtgun', 'http://dbpedia.org/resource/The_Honor_System_(band)', 'http://dbpedia.org/resource/The_Killing_Tree', 'http://dbpedia.org/resource/The_Methadones', 'http://dbpedia.org/resource/Tim_McIlrath', 'http://dbpedia.org/resource/Zach_Blair'], 'abstract': 'Rise Against is an American punk rock band from Chicago, formed in 1999. The group\'s current line-up comprises vocalist/rhythm guitarist Tim McIlrath, lead guitarist Zach Blair, bassist Joe Principe and drummer Brandon Barnes. Rooted in hardcore punk and melodic hardcore, Rise Against\'s music emphasizes melody, catchy hooks, an aggressive sound and playstyle, and rapid tempos. Lyrically, the band is known for their outspoken social commentary, covering a wide range of topics such as political injustice, animal rights, humanitarianism, and environmentalism. The band spent its first four years signed to the independent record label Fat Wreck Chords, on which they released two studio albums, The Unraveling (2001) and Revolutions per Minute (2003). Both the albums were met with underground success, and in 2003 the band signed with the major label Dreamworks, which was absorbed by Geffen. Rise Against\'s major label debut Siren Song of the Counter Culture (2004) brought the band mainstream success, largely in part to the popularity of the singles "Give It All" and "Swing Life Away". The band\'s next album, The Sufferer &amp; the Witness (2006), peaked at number ten on the Billboard 200 in the United States, and was Rise Against\'s first album to chart in countries outside of North America. With the release of Appeal to Reason (2008), Rise Against\'s music shifted toward a more accessible and radio-friendly sound, with greater emphasis on production value. The album\'s third single, "Savior", broke the record for the most consecutive weeks spent on both the Hot Rock Songs and Alternative Songs charts. Rise Against\'s popularity grew with the release of Endgame (2011), which peaked at number two on the Billboard 200, and charted highly worldwide. The band\'s 7th and 8th albums, The Black Market (2014) and Wolves (2017) continued the trend of commercial success, and both peaked with the top ten on the Billboard 200. Rise Against is also known for their advocacy of progressivism, supporting organizations such as Amnesty International and the It Gets Better Project. The band actively promotes animal rights and most of the members are straight edge, PETA supporters and vegetarians.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/All_That_Remains_(band)', 'artist_name': 'All That Remains', 'wiki': 'http://en.wikipedia.org/wiki/All_That_Remains_(band)', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/Prosthetic_Records', 'http://dbpedia.org/resource/Razor_&amp;_Tie'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Melodic_death_metal', 'http://dbpedia.org/resource/Metalcore'], 'actual_members': ['http://dbpedia.org/resource/Jason_Costa', 'http://dbpedia.org/resource/Jason_Richardson_(musician)', 'http://dbpedia.org/resource/Philip_Labonte', 'Mike Martin'], 'old_members': ['http://dbpedia.org/resource/Jeanne_Sagan', 'http://dbpedia.org/resource/Matt_Deis', 'http://dbpedia.org/resource/Shannon_Lucas', 'Chris Bartlett', 'Michael Bartlett', 'Dan Egan', 'Aaron Patrick', 'Oli Herbert'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Bury_Your_Dead', 'http://dbpedia.org/resource/Diecast_(band)', 'http://dbpedia.org/resource/Divine_Heresy', 'http://dbpedia.org/resource/Jason_Costa', 'http://dbpedia.org/resource/Jason_Richardson_(musician)', 'http://dbpedia.org/resource/Jason_Suecof', 'http://dbpedia.org/resource/Jeanne_Sagan', 'http://dbpedia.org/resource/Matt_Deis', 'http://dbpedia.org/resource/Philip_Labonte', 'http://dbpedia.org/resource/Shadows_Fall', 'http://dbpedia.org/resource/Shannon_Lucas', 'http://dbpedia.org/resource/The_Acacia_Strain', 'http://dbpedia.org/resource/The_Black_Dahlia_Murder_(band)', 'http://dbpedia.org/resource/The_Empire_Shall_Fall', 'http://dbpedia.org/resource/Tim_Yeung', 'http://dbpedia.org/resource/Tony_Laureano', 'http://dbpedia.org/resource/Zeuss'], 'abstract': "All That Remains is an American heavy metal band from Springfield, Massachusetts, formed in 1998. They have released nine studio albums, a live CD and DVD, and have sold over a million records worldwide. The group currently consists of vocalist Philip Labonte, rhythm guitarist Mike Martin, former Diecast drummer Jason Costa, and lead guitarist Jason Richardson, with Labonte being the last remaining original member. In spite of this, the band's line-up had remained consistent from the release of 2008's Overcome until 2015's The Order of Things, spanning four albums. This line-up changed, however, in September 2015, when long-time bassist Jeanne Sagan left the band, with Patrick taking her place and then again on February 5, 2019, when the band confirmed that Jason Richardson would be joining the band to replace the deceased lead guitarist and original member, Oli Herbert. In 2021, Aaron Patrick parted ways with All That Remains to focus on his other band, Bury Your Dead."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/Killswitch_Engage', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'start_year': '1999', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Ferret_Music', 'http://dbpedia.org/resource/Metal_Blade_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Sony_Music'], 'plays_in': ['http://dbpedia.org/resource/Catch_the_Throne', 'http://dbpedia.org/resource/Roadrunner_United'], 'genres': ['http://dbpedia.org/resource/Metalcore'], 'actual_members': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Jesse_Leach', 'http://dbpedia.org/resource/Joel_Stroetzel', 'http://dbpedia.org/resource/Justin_Foley', "http://dbpedia.org/resource/Mike_D'Antonio"], 'old_members': ['http://dbpedia.org/resource/Howard_Jones_(American_musician)', 'Tom Gomes', 'Pete Cortese'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Affiance_(band)', 'http://dbpedia.org/resource/Blood_Has_Been_Shed', 'http://dbpedia.org/resource/Death_Ray_Vision', 'http://dbpedia.org/resource/Howard_Jones_(American_musician)', 'http://dbpedia.org/resource/Jesse_Leach', 'http://dbpedia.org/resource/Joel_Stroetzel', 'http://dbpedia.org/resource/Jordan_Mancino', 'http://dbpedia.org/resource/Justin_Foley', "http://dbpedia.org/resource/Mike_D'Antonio", 'http://dbpedia.org/resource/Overcast_(band)', 'http://dbpedia.org/resource/Serpentine_Dominion', 'http://dbpedia.org/resource/Shadows_Fall', 'http://dbpedia.org/resource/The_Empire_Shall_Fall', 'http://dbpedia.org/resource/Times_of_Grace', 'http://dbpedia.org/resource/Unearth'], 'abstract': 'Killswitch Engage is an American metalcore band from Westfield, Massachusetts, formed in 1999 after the disbanding of Overcast and Aftershock. Killswitch Engage\'s current lineup consists of vocalist Jesse Leach, guitarists Joel Stroetzel and Adam Dutkiewicz, bassist Mike D\'Antonio, and drummer Justin Foley. The band has released eight studio albums and two live performance albums. Their eighth studio album, Atonement, was released on August 16, 2019. Killswitch Engage rose to fame with its 2004 release The End of Heartache, which peaked at number 21 on the Billboard 200, and was certified gold by the RIAA in December 2007 for over 500,000 shipments in the United States. The title track, "The End of Heartache", was nominated for a Grammy Award in 2005 for Best Metal Performance, and a live DVD titled (Set This) World Ablaze was released in 2005. Killswitch Engage has performed at festivals such as Soundwave Festival, Wacken Open Air, Reading and Leeds Festivals, Ozzfest, Download Festival, Rock on the Range, Rock am Ring, Mayhem Festival, Monsters of Rock, Pointfest, Knotfest and Heavy MTL. The band has sold over four million records in the U.S. and has been considered notable within the New Wave of American Heavy Metal, and has also been considered one of the earliest leading forces of the metalcore genre.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Skillet_(band)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Ardent_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Fair_Trade_Services', 'http://dbpedia.org/resource/ForeFront_Records', 'http://dbpedia.org/resource/Lava_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Christian_metal', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Symphonic_metal'], 'actual_members': ['http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'Korey Cooper', 'Seth Morrison'], 'old_members': ['http://dbpedia.org/resource/Ken_Steorts', 'Kevin Haaland', 'Trey McClurkin', 'Jonathan Salas', 'Ben Kasica', 'Lori Peters'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Skillet is an American Christian rock band formed in Memphis, Tennessee, in 1996. The band currently consists of husband John Cooper (lead vocals, bass) and wife Korey Cooper (rhythm guitar, keyboards, backing vocals) along with Jen Ledger (drums, vocals) and Seth Morrison (lead guitar). The band has released ten albums, two of which, Collide and Comatose, received Grammy nominations. Two of their albums, Comatose and Awake, are certified Platinum and Double Platinum respectively by the RIAA, while Rise and Unleashed are certified Gold as of June 29, 2020. Five of their songs, "Whispers in the Dark", "Hero", "Monster", "Awake and Alive", and "Feel Invincible", are certified Platinum, while another four, "Rebirthing", "Comatose", "Not Gonna Die", and "The Resistance" are certified Gold. Skillet went through several line-up changes early in their career, leaving founder John Cooper as the only original member remaining in the band. They are known for a relentless touring schedule, which garnered them a top five ranking in the Hardest Working Bands of 2010 by Songkick.com.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Of_Mice_&amp;_Men_(band)', 'artist_name': 'Of Mice &amp; Men', 'wiki': 'http://en.wikipedia.org/wiki/Of_Mice_&amp;_Men_(band)', 'hometown': 'http://dbpedia.org/resource/Costa_Mesa,_California', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/Rise_Records', 'http://dbpedia.org/resource/SharpTone_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-hardcore'], 'actual_members': ['http://dbpedia.org/resource/Aaron_Pauley', 'Valentino Arteaga', 'Alan Ashby', 'Phil Manansala'], 'old_members': ['http://dbpedia.org/resource/Austin_Carlile', 'http://dbpedia.org/resource/Jerry_Roush', 'Shayley Bourget', 'Jaxin Hall', 'Jon Kintz'], 'related_artists': ['http://dbpedia.org/resource/A_Static_Lullaby', 'http://dbpedia.org/resource/Aaron_Pauley', 'http://dbpedia.org/resource/Austin_Carlile', 'http://dbpedia.org/resource/Dayshell', 'http://dbpedia.org/resource/Glass_Cloud', "http://dbpedia.org/resource/Jamie's_Elsewhere", 'http://dbpedia.org/resource/Jerry_Roush', 'http://dbpedia.org/resource/Lower_Definition', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Sky_Eats_Airplane'], 'abstract': "Of Mice &amp; Men (often abbreviated OM&amp;M) is an American rock band formed in Costa Mesa, California, in 2009. The band's line-up currently consists of drummer Valentino Arteaga, guitarists Phil Manansala and Alan Ashby, and bassist and lead vocalist Aaron Pauley. The group was founded by former lead vocalist Austin Carlile and former bassist Jaxin Hall in mid-2009 after Carlile's departure from Attack Attack!. Carlile departed from the band in December 2016 citing that a long-term health condition prompted his exit. After Carlile's departure, the band continued to pursue creating music with Pauley as the band's bassist and lead vocalist. Since 2009, the band has released six studio albums: Of Mice &amp; Men (2010), The Flood (2011), Restoring Force (2014), Cold World (2016), Defy (2018), and Earthandsky (2019). Of Mice &amp; Men's earlier music has been described as metalcore and post-hardcore. Their later material, however, has been considered to be more melodic and shifted over to genres such as nu metal, alternative metal, and hard rock, while retaining their original sound. The band has played international music festivals including the Vans Warped Tour in 2010, 2011, 2012, and 2014 and Soundwave Music Festival in 2013 and 2015."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Uisce_Beatha_(band)', 'artist_name': 'Red', 'wiki': 'http://en.wikipedia.org/wiki/Uisce_Beatha_(band)', 'hometown': 'http://dbpedia.org/resource/London,_Ontario', 'start_year': '1990', 'end_year': '1990', 'genres': ['http://dbpedia.org/resource/Folk_rock'], 'old_members': ['*Alan Glen', '*John Glen', '*Paul Meadows', '*Damian Morrissy', '*Doug Watt', '*Marty Coles', '*Patrick McLaughlin'], 'abstract': 'Uisce Beatha was a 1990s Canadian folk rock band based initially in London, Ontario and after 1993 in Halifax, Nova Scotia. The band took its name from the Irish name for whisky, meaning water of life. Their music ranged from Celtic to punk.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/My_Darkest_Days', 'artist_name': 'My Darkest Days', 'wiki': 'http://en.wikipedia.org/wiki/My_Darkest_Days', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'start_year': '2005', 'end_year': '2013', 'aliases': ['MDD'], 'labels': ['http://dbpedia.org/resource/604_Records', 'http://dbpedia.org/resource/Mercury_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Matt Walst', 'Reid Henry', 'Brendan McMillan', 'Doug Oliver', '', 'Past members ', 'Chris McMillan', 'Paulo Neta', 'Sal Costa'], 'related_artists': ['http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Cold_Creek_County', 'http://dbpedia.org/resource/Jessie_James_Decker', 'http://dbpedia.org/resource/Ludacris', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Smashing_Satellites', 'http://dbpedia.org/resource/Three_Days_Grace', 'http://dbpedia.org/resource/Zakk_Wylde'], 'abstract': 'My Darkest Days was a Canadian rock band based in Peterborough, Ontario, consisting of lead singer Matt Walst, bassist Brendan McMillan, drummer Doug Oliver, and keyboardist Reid Henry. They were discovered by Chad Kroeger of Nickelback, who signed them to his record label, 604 Records. They are best known for their 2010 single "Porn Star Dancing". In June 2010 the band went on tour with Sick Puppies, Janus, and It\'s Alive, and shot the video for "Porn Star Dancing" in Las Vegas. In August 2010, they toured with Trapt, Skillet, and Papa Roach. Chad Kroeger appears and sings in the "Porn Star Dancing" video, as does American rapper Ludacris (in the extended version only) and Black Label Society frontman Zakk Wylde, playing lead guitar for the single. Matt Walst is currently the lead vocalist of his brother Brad\'s band Three Days Grace.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Zakk_Wylde', 'artist_name': 'Zakk Wylde', 'wiki': 'http://en.wikipedia.org/wiki/Zakk_Wylde', 'hometown': 'http://dbpedia.org/resource/Jackson_Township,_New_Jersey', 'birth_date': '14 January 1967', 'start_year': '1987', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Inside_Out_Music', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Spitfire_Records'], 'genres': ['http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Southern_rock', 'Heavy metal'], 'related_artists': ['http://dbpedia.org/resource/Black_Label_Society', "http://dbpedia.org/resource/Greg_D'Angelo", 'http://dbpedia.org/resource/Joey_Castillo', 'http://dbpedia.org/resource/My_Darkest_Days', 'http://dbpedia.org/resource/Ozzy_Osbourne', 'http://dbpedia.org/resource/Pride_&amp;_Glory_(band)', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Thomas_McRocklin', 'http://dbpedia.org/resource/White_Lion'], 'abstract': 'Zachary Phillip Wylde (born Jeffrey Phillip Wielandt; January 14, 1967) is an American guitarist, singer and songwriter. He is best known for his tenure as the lead guitarist for Ozzy Osbourne and as the founder, lead guitarist, and lead singer of the heavy metal band Black Label Society. His signature bulls-eye design appears on many of his guitars and is widely recognized. He was also the lead guitarist and vocalist of Pride &amp; Glory, who released one self-titled album in 1994 before disbanding. As a solo artist, he released the albums Book of Shadows and Book of Shadows II.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Offspring', 'artist_name': 'The Offspring', 'wiki': 'http://en.wikipedia.org/wiki/The_Offspring', 'hometown': 'http://dbpedia.org/resource/Garden_Grove,_California', 'start_year': '1984', 'aliases': ['(1984–1986)', 'Manic Subsidal'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Concord_Records', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/Nemesis_Records', 'http://dbpedia.org/resource/Nitro_Records', 'http://dbpedia.org/resource/Time_Bomb_Recordings'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Skate_punk', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Dexter_Holland', 'http://dbpedia.org/resource/Noodles_(musician)'], 'old_members': ['http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Greg_K.', 'http://dbpedia.org/resource/James_Lilja', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Ron_Welty'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Andrew_Freeman_(musician)', 'http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Chris_Higgins_(musician)', 'http://dbpedia.org/resource/Dexter_Holland', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greg_K.', 'http://dbpedia.org/resource/H2O_(American_band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/James_Lilja', 'http://dbpedia.org/resource/Jamie_Miller_(American_musician)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Noodles_(musician)', 'http://dbpedia.org/resource/Pete_Parada', 'http://dbpedia.org/resource/Rocket_from_the_Crypt', 'http://dbpedia.org/resource/Ron_Welty', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Steady_Ground', 'http://dbpedia.org/resource/The_Didjits', 'http://dbpedia.org/resource/The_Special_Goodness', 'http://dbpedia.org/resource/Thom_Wilson', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': 'The Offspring is an American rock band from Garden Grove, California, formed in 1984. Originally formed under the name Manic Subsidal, the band\'s lineup consists of lead vocalist and rhythm guitarist Bryan "Dexter" Holland, bassist Todd Morse and lead guitarist Kevin "Noodles" Wasserman. Over the course of their 37-year career, they have released ten studio albums and experienced multiple lineup changes, most noticeably with their drummers. Their longest-serving drummer was Ron Welty, who replaced original drummer James Lilja in 1987, and stayed with the band for 16 years; he was replaced by Atom Willard in 2003, and then four years later by former drummer Pete Parada. Gregory "Greg K." Kriesel, one of the co-founders of the Offspring, was their bassist until 2018 when he parted ways due to business disputes with the band, leaving Holland as the sole remaining original member. Kriesel was replaced by Todd Morse of H2O, who had been the Offspring\'s touring guitarist since 2009. The Offspring is often credited—alongside fellow California punk bands Green Day and Rancid—for reviving mainstream interest in punk rock in the 1990s. They have sold over 40 million records worldwide, making them one of the best-selling punk rock bands in history. After achieving a local following with their early releases, including their 1989 self-titled debut album and the vinyl-only EP Baghdad (1991), The Offspring signed with Epitaph Records and released two albums for the independent label, Ignition (1992) and Smash (1994). Smash, which contained the band\'s first major hit "Come Out and Play", propelled punk rock into the mainstream and holds the distinction as one of the best-selling albums released on an independent record label, selling over eleven million copies worldwide. The success of Smash attracted attention from major labels, including Columbia Records, with whom The Offspring signed in 1996; their first album for the label, Ixnay on the Hombre (1997), did not match the success of its predecessor, but received critical acclaim and gold and platinum awards. The band\'s fifth album, Americana (1998), regained their previous level of popularity, obtaining support from MTV and radio, and selling over five million units in the US. The Offspring has since released five more albums: Conspiracy of One (2000), Splinter (2003), Rise and Fall, Rage and Grace (2008), Days Go By (2012) and Let the Bad Times Roll (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saliva_(band)', 'artist_name': 'Saliva', 'wiki': 'http://en.wikipedia.org/wiki/Saliva_(band)', 'hometown': 'http://dbpedia.org/resource/Bartlett,_Tennessee', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Megaforce_Records'], 'plays_in': ['http://dbpedia.org/resource/Swimfan'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Rap_metal'], 'actual_members': ['http://dbpedia.org/resource/Brad_Stewart', 'Paul Crosby ', 'Wayne Swinny ', 'Bobby Amaru'], 'old_members': ['http://dbpedia.org/resource/Josey_Scott', "Chris D'Abaldo", 'Dave Novotny', 'Jonathan Montoya', 'Todd Poole '], 'related_artists': ['http://dbpedia.org/resource/Brad_Arnold', 'http://dbpedia.org/resource/Brad_Stewart', 'http://dbpedia.org/resource/Burn_Season', 'http://dbpedia.org/resource/Egypt_Central', 'http://dbpedia.org/resource/Fuel_(band)', 'http://dbpedia.org/resource/Full_Devil_Jacket', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Roxy_Blue', 'http://dbpedia.org/resource/Zach_Myers'], 'abstract': 'Saliva is an American rock band, formed in Memphis, Tennessee, in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a label owned and operated by Mark Yoshida. The release was recorded and produced by Bill Pappas at Rockingchair Studios. They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002, which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva\'s most successful songs, "Always", reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System\'s chart performance at No. 19 on the Billboard 200. Its first single, "Ladies and Gentlemen", peaked at No. 2 on the Mainstream Rock Chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thirty_Seconds_to_Mars', 'artist_name': 'Thirty Seconds to Mars', 'wiki': 'http://en.wikipedia.org/wiki/Thirty_Seconds_to_Mars', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/A_Day_in_the_Life_of_America', 'http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Artifact_(film)', 'http://dbpedia.org/resource/The_Vision_of_Paolo_Soleri:_Prophet_in_the_Desert'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'actual_members': ['http://dbpedia.org/resource/Jared_Leto', 'http://dbpedia.org/resource/Shannon_Leto'], 'old_members': ['http://dbpedia.org/resource/Matt_Wachter', 'http://dbpedia.org/resource/Solon_Bixler', 'http://dbpedia.org/resource/Tomo_Miličević'], 'related_artists': ['http://dbpedia.org/resource/Brian_Gardner', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Great_Northern_(indie_band)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Matt_Frey', 'http://dbpedia.org/resource/Matt_McJunkins', 'http://dbpedia.org/resource/Matt_Wachter', 'http://dbpedia.org/resource/Sam_de_Jong', 'http://dbpedia.org/resource/Solon_Bixler', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Tim_Kelleher_(musician)'], 'abstract': "Thirty Seconds to Mars (commonly stylized as 30 Seconds to Mars) is an American rock band from Los Angeles, California, formed in 1998. The band consists of brothers Jared Leto (lead vocals, guitar, bass, keyboards) and Shannon Leto (drums, percussion). During the course of its existence, it has undergone various line-up changes. The band's debut album, 30 Seconds to Mars (2002), was produced by Bob Ezrin and released to positive reviews but only to limited commercial success. The band achieved worldwide fame with the release of its second album A Beautiful Lie (2005), which received multiple certifications all over the world. Its next release, This Is War (2009), showed a dramatic evolution in the band's musical style, as it incorporated experimental music as well as eclectic influences. The recording process of the album was marked by a legal dispute with record label EMI that eventually became the subject of the documentary film Artifact (2012). Thirty Seconds to Mars then moved to Universal Music and released the fourth album, Love, Lust, Faith and Dreams (2013), to critical and commercial success. It was followed by America (2018), which polarized critics upon release. As of September 2014, the band had sold over 15 million albums worldwide. Thirty Seconds to Mars has consistently enjoyed sold out tours and numerous headlining festival slots. The band is noted for its energetic live performances and for fusing elements from a wide variety of genres, through its use of philosophical and spiritual lyrics, concept albums, and experimental music. Thirty Seconds to Mars has received several awards and accolades throughout its career, including a Guinness World Record, and has been included in the Kerrang! list of best artists of the 2000s."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Stone_Sour', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1992', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/Roadrunner_United'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Christian_Martucci', 'http://dbpedia.org/resource/Corey_Taylor', 'http://dbpedia.org/resource/Johny_Chow', 'http://dbpedia.org/resource/Josh_Rand', 'http://dbpedia.org/resource/Roy_Mayorga'], 'old_members': ['http://dbpedia.org/resource/Jim_Root', 'Shawn Economaki', 'Joel Ekman'], 'related_artists': ['http://dbpedia.org/resource/Amebix', 'http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Black_President_(band)', 'http://dbpedia.org/resource/Cavalera_Conspiracy', 'http://dbpedia.org/resource/Christian_Martucci', 'http://dbpedia.org/resource/Fireball_Ministry', 'http://dbpedia.org/resource/Hellyeah', 'http://dbpedia.org/resource/Isaac_James', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Johny_Chow', 'http://dbpedia.org/resource/Josh_Rand', 'http://dbpedia.org/resource/Junk_Beer_Kidnap_Band', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Ministry_(band)', 'http://dbpedia.org/resource/Nausea_(band)', 'http://dbpedia.org/resource/Rachel_Bolan', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Slipknot_(band)', 'http://dbpedia.org/resource/Souls_of_We', 'http://dbpedia.org/resource/Sound_City_Players'], 'abstract': 'Stone Sour is an American rock band formed in Des Moines, Iowa, in 1992. The band performed for five years before disbanding in 1997. They reunited in 2000 and since 2015, the group has consisted of Corey Taylor (lead vocals, guitar), Josh Rand (guitar), Christian Martucci (guitar), Johny Chow (bass) and Roy Mayorga (drums). Longtime members Joel Ekman (drums, percussion) and Shawn Economaki (bass guitar) left the band in 2006 and 2011, respectively. Former lead guitarist Jim Root left in 2014. To date, Stone Sour has released six studio albums: Stone Sour (2002); Come What(ever) May (2006); Audio Secrecy (2010); House of Gold &amp; Bones – Part 1 (2012); House of Gold &amp; Bones – Part 2 (2013) and Hydrograd (2017). They also released a digital live album, Live in Moscow, in 2007. Their album, Hydrograd was released in June 2017 and is their first album to feature guitarist Christian Martucci and bassist Johny Chow. Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles "Get Inside", in 2003, and "Inhale", in 2004. From their album Come What(ever) May, the group received another Grammy Award nomination for Best Metal Performance for the single "30/30-150", in 2007. The band has sold 2.1 million albums in the United States as of April 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/Staind', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1995', 'end_year': '2012', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Flip_Records_(1994)', 'http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Mike_Mushok', 'Johnny April', 'Sal Giancarelli'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Soil_(American_band)', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': 'Staind (/steɪnd/ STAYND) is an American rock band formed in Springfield, Massachusetts, in 1995. The original lineup consisted of lead vocalist and rhythm guitarist Aaron Lewis, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki. The lineup has been stable outside of the 2011 departure of Wysocki, who was replaced by Sal Giancarelli. Staind has recorded seven studio albums: Tormented (1996), Dysfunction (1999), Break the Cycle (2001), 14 Shades of Grey (2003), Chapter V (2005), The Illusion of Progress (2008), and Staind (2011). The band\'s activity became more sporadic after their self-titled release, with Lewis pursuing a solo country music career and Mushok subsequently joining the band Saint Asonia, but they have continued to tour on and off in the following years. In 2016, Lewis reiterated that the band had not broken up, and would possibly create another album, but that his then-current focus was on his solo career. The band reunited more permanently in 2019 for several shows, continuing with live appearances in 2020. Many of their singles have reached high positions on US rock and all-format charts as well, including "It\'s Been Awhile", "Fade", "Price to Play", "So Far Away", and "Right Here".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/10_Years_(band)', 'artist_name': '10 Years', 'wiki': 'http://en.wikipedia.org/wiki/10_Years_(band)', 'hometown': 'http://dbpedia.org/resource/Tennessee', 'start_year': '1999', 'labels': ['http://dbpedia.org/resource/Mascot_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Progressive_metal'], 'actual_members': ['Brian Vodinh', 'Chad Grennor', 'Jesse Hasek', 'Luke Narey', 'Matt Wantland'], 'old_members': ['Andy Parks', 'Chad Huff', 'Kyle Mayer', 'Lewis "Big Lew" Cosby', 'Mike Underdown', 'Ryan "Tater" Johnson', 'Ryan Collier'], 'related_artists': ['http://dbpedia.org/resource/The_American_Plague'], 'abstract': '10 Years is an American alternative metal band formed in Knoxville, Tennessee in 1999. The band consists of lead vocalist Jesse Hasek, lead guitarist Brian Vodinh, rhythm guitarist Matt Wantland, bassist Chad Grennor, and drummer Luke Narey. The group has gone through multiple line-up changes since their inception, with Vodinh and Wantland being the only remaining founding members. To date, they have released nine studio albums, their most recent being Violent Allies, released on September 18, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Evanescence', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'start_year': '1995', 'end_year': '1995', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Concord_Music_Group', 'http://dbpedia.org/resource/Wind-up_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Gothic_metal', 'http://dbpedia.org/resource/Gothic_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Amy_Lee', 'http://dbpedia.org/resource/Jen_Majura', 'http://dbpedia.org/resource/Tim_McCord', 'http://dbpedia.org/resource/Troy_McLawhorn', 'http://dbpedia.org/resource/Will_Hunt'], 'old_members': ['http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/David_Hodges', 'http://dbpedia.org/resource/John_LeCompt', 'http://dbpedia.org/resource/Rocky_Gray', 'http://dbpedia.org/resource/Terry_Balsamo', 'Will Boyd'], 'related_artists': ['http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/Lindsey_Stirling', 'http://dbpedia.org/resource/Within_Temptation'], 'abstract': 'Evanescence is an American rock band founded in Little Rock, Arkansas, in 1995 by singer, pianist, and keyboardist Amy Lee and guitarist Ben Moody. After recording independent albums, the band released their first full-length album, Fallen, on Wind-up Records in 2003. On the strength of hit singles "Bring Me to Life" and "My Immortal", Fallen sold more than 17 million copies worldwide and helped the band win two Grammy Awards out of six nominations. A year later, Evanescence released their first live album, Anywhere but Home, which sold more than one million copies worldwide. In 2006, the band released their second studio album, The Open Door, which sold more than five million copies. The band reconvened in June 2009 with a new lineup; their next studio album, Evanescence, was released in 2011. It debuted at the top of the Billboard 200 chart with 127,000 copies in sales. The album also debuted at number one on four other different Billboard charts; the Rock Albums, Digital Albums, Alternative Albums, and the Hard Rock Albums charts. The band spent 2012 on tour in promotion of their latest album with other bands including The Pretty Reckless and Fair to Midland. Troy McLawhorn also became a full-time band member during this time. Following the end of the album\'s tour cycle in 2012, the band entered another hiatus. In 2015, Evanescence emerged from hiatus and announced they would resume touring; however, they stated that new Evanescence material was not being produced, as Lee was focusing on a solo project instead. In addition, Balsamo left the band and was replaced by Jen Majura. In March 2017, Lee stated Evanescence was working on a fourth album for release later in 2017; Synthesis was released worldwide on November 10, 2017, and marked a stylistic change in the band\'s sound. On March 26, 2021, the band released their fifth studio album, The Bitter Truth. The lineup of the group changed several times over the course of the first two studio albums\' productions and promotions: David Hodges left in 2002, co-founder Moody left in 2003 (mid-tour), followed by guitarist John LeCompt and drummer Rocky Gray in 2007, and Terry Balsamo in 2015. As a result, none of the band\'s five studio albums feature the same lineup. The latter two changes led to a hiatus, with temporary band members contributing to tour performances.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'plays_in': ['http://dbpedia.org/resource/Inside_Living_Things'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Electronic_rock', 'rap rock', 'pop rock', 'nu metal', 'Alternative rock'], 'actual_members': ['Rob Bourdon', 'Brad Delson', 'Mike Shinoda', 'Dave Farrell', 'Joe Hahn'], 'old_members': ['Mark Wakefield', 'Chester Bennington'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Finger_Eleven', 'artist_name': 'Finger Eleven', 'wiki': 'http://en.wikipedia.org/wiki/Finger_Eleven', 'hometown': 'http://dbpedia.org/resource/Burlington,_Ontario', 'start_year': '1990', 'aliases': ['Rainbow Butt Monkeys (1990–1996', '2018)'], 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/James_Black_(guitarist)', 'Scott Anderson', 'Steve Molella', 'Rick Jackett', 'Sean Anderson'], 'old_members': ['Rich Beddoe', 'Rob Gommerman'], 'related_artists': ['http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/James_Black_(guitarist)', 'http://dbpedia.org/resource/Kev_Gray_&amp;_The_Gravy_Train', 'http://dbpedia.org/resource/Saint_Asonia'], 'abstract': 'Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. Their 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single "One Thing", which marked the band\'s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me launched the single "Paralyzer", which went on to top the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart. They won the Juno Award for Rock Album of the Year in 2008. The same album was later certified gold in the US and multi-platinum in Canada. They released their sixth studio album, Life Turns Electric, on October 5, 2010; it was nominated as Best Rock Album of the Year at the Juno Awards of 2011. Five Crooked Lines, their 7th studio album, was released in 2015. Between 1995 and 2016, Finger Eleven was among the top 75 best-selling Canadian artists in Canada and among the top 25 best-selling Canadian bands in Canada.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/3_Doors_Down', 'artist_name': '3 Doors Down', 'wiki': 'http://en.wikipedia.org/wiki/3_Doors_Down', 'hometown': 'http://dbpedia.org/resource/Escatawpa,_Mississippi', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Brad_Arnold', 'Chet Roberts', 'Chris Henderson', 'Justin Biltonen', 'Greg Upchurch'], 'old_members': ['http://dbpedia.org/resource/Daniel_Adair', 'Todd Harrell', 'Matt Roberts', 'Richard Liles'], 'related_artists': ['http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Brad_Arnold', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Nickelback', 'http://dbpedia.org/resource/Puddle_of_Mudd', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Scott_Logan_(musician)', 'http://dbpedia.org/resource/Shinedown'], 'abstract': '3 Doors Down is an American rock band from Escatawpa, Mississippi, that formed in 1996. The band originally consisted of Brad Arnold (lead vocals, drums), Matt Roberts (lead guitar, backing vocals), and Todd Harrell (bass guitar). The band rose to international fame with their first single, "Kryptonite", which placed in the top three on the Billboard Hot 100 chart. The band then signed with Republic Records and released their debut album, The Better Life, in 2000. The album was the 11th-best-selling album of the year and was certified 6x platinum in the United States. The group was later joined by drummer Richard Liles, who played during the tour for their first album. The band\'s second album, Away from the Sun (2002), continued the band\'s success; it debuted at No. 8 on the Billboard 200 chart, went multi-platinum in the U.S. like its predecessor, and spawned the hits "When I\'m Gone" and "Here Without You". The band toured extensively for two years. Daniel Adair played drums on tour from 2002 to 2006. This configuration played nearly 1,000 shows across the world following the release of Away from the Sun. In 2005, Greg Upchurch (Puddle of Mudd) joined to play drums to replace Adair. 3 Doors Down released their third album, Seventeen Days, in 2005. The album debuted at No. 1 on the Billboard 200 chart and was certified platinum within one month of release. The band continued their success with their next two albums, 3 Doors Down (2008) and Time of My Life (2011), debuting at No. 1 and No. 3 respectively on the Billboard 200 chart. Their latest album, Us and the Night, was released in 2016; they were working on new material for a seventh studio album as of 2019. The band has been primarily described as post-grunge and alternative rock, while occasionally crossing into hard rock, and Southern rock. Their lyrical content contains overarching themes of angst, rebellion, revenge, yearning, and abandonment. 3 Doors Down has sold 30 million copies worldwide. Original guitarist Matt Roberts departed in 2012, owing to health issues. He was replaced by Chet Roberts, who was formerly Chris Henderson\'s guitar tech. Harrell was fired from the band in 2013 after being charged with vehicular homicide, and was replaced by bassist Justin Biltonen.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nickelback', 'artist_name': 'Nickelback', 'wiki': 'http://en.wikipedia.org/wiki/Nickelback', 'hometown': 'http://dbpedia.org/resource/Hanna,_Alberta', 'start_year': '1995', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Live_Nation_Entertainment', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Chad Kroeger', 'Daniel Adair', 'Mike Kroeger', 'Ryan Peake'], 'old_members': ['Brandon Kroeger', 'Mitch Guindon', 'Ryan Vikedal'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Josh_Ramsay', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Ryan_Peake', 'http://dbpedia.org/resource/Theory_of_a_Deadman'], 'abstract': 'Nickelback is a Canadian rock band formed in 1995 in Hanna, Alberta. It is composed of guitarist and lead vocalist Chad Kroeger, guitarist, keyboardist and backing vocalist Ryan Peake, bassist Mike Kroeger, and drummer Daniel Adair. It went through several drummer changes between 1995 and 2005, achieving its current lineup when Adair replaced Ryan Vikedal. Nickelback is one of the most commercially successful Canadian rock bands, having sold more than 50 million albums worldwide. In 2009, Billboard ranked it the most successful rock group of that decade; "How You Remind Me" was the best-selling rock song and the fourth-best overall. The band ranked at No. 7 on the Billboard top artist of the decade list, with four albums among the publication\'s top albums of the decade. The band signed with Roadrunner Records in 1999 and re-released its once-independent album The State. This album was commercially successful, as was its follow-up, Silver Side Up, in 2001. The band then released its biggest hit, "How You Remind Me", a No. 1 on the Billboard and Canadian Singles Charts. The fourth album, The Long Road, was released in 2003 and spawned five singles, including Canadian No. 1 "Someday", which also reached No. 7 on the Billboard Hot 100. In 2005, the band\'s best-selling album to date, All the Right Reasons, produced three top-ten and five top-twenty singles on the Billboard Hot 100, including "Photograph", "Far Away", and "Rockstar". Dark Horse sold well in 2008, producing eight singles, one cracking the top ten on the Billboard Hot 100 and two in the top twenty. In 2011, the seventh album, Here and Now, topped the charts. The eighth, No Fixed Address, was released in 2014, followed by Feed the Machine in 2017. Nickelback is based in Vancouver, British Columbia. It originally published through EMI Canada before signing a global distribution deal with Roadrunner Records. For Here and Now, it left EMI Canada for Universal Music Canada.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Foo_Fighters', 'artist_name': 'Foo Fighters', 'wiki': 'http://en.wikipedia.org/wiki/Foo_Fighters', 'hometown': 'http://dbpedia.org/resource/Washington_(state)', 'start_year': '1994', 'aliases': ['Dee Gees', 'The Holy Shits'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Roswell_Records'], 'plays_in': ['http://dbpedia.org/resource/Dreamer_(Emmerson_Nogueira_album)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Real_Steel'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Chris_Shiflett', 'http://dbpedia.org/resource/Dave_Grohl', 'http://dbpedia.org/resource/Nate_Mendel', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Taylor_Hawkins'], 'old_members': ['http://dbpedia.org/resource/Franz_Stahl', 'William Goldsmith'], 'related_artists': ['http://dbpedia.org/resource/Nirvana_(band)', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Sunny_Day_Real_Estate', 'http://dbpedia.org/resource/The_Fire_Theft'], 'abstract': "Foo Fighters are an American rock band formed in Seattle, Washington, in 1994. The band was founded by former Nirvana drummer Dave Grohl as a one-man project following the dissolution of Nirvana after the suicide of Kurt Cobain. The group took its name from foo fighter, a nickname coined by Allied aircraft pilots for UFOs and other aerial phenomena. Over the course of their career, Foo Fighters have won 12 Grammy Awards, including Best Rock Album four times. They were inducted into the Rock and Roll Hall of Fame in 2021, their first year of eligibility. Prior to the release of Foo Fighters' 1995 debut album Foo Fighters, which featured Grohl as the only official member, Grohl recruited bassist Nate Mendel and drummer William Goldsmith, both formerly of Sunny Day Real Estate, as well as Nirvana touring guitarist Pat Smear. The band began with performances in Portland, Oregon. Goldsmith quit during the recording of their second album The Colour and the Shape (1997); most of the drum parts were re-recorded by Grohl. Smear departed soon afterward but appeared as a guest with the band frequently from 2005; he rejoined in 2010. Smear and Goldsmith were replaced by Franz Stahl and Taylor Hawkins; Stahl was fired before the recording of the group's third album, There Is Nothing Left to Lose (1999). The band briefly continued as a trio until Chris Shiflett joined on guitar after the completion of There Is Nothing Left to Lose. Foo Fighters released their fourth album, One by One, in 2002. It was followed with the two-disc In Your Honor (2005), which was split between acoustic songs and heavier material. Foo Fighters released their sixth album, Echoes, Silence, Patience &amp; Grace, in 2007. For Foo Fighters' seventh studio album, Wasting Light (2011), produced by Butch Vig, Smear returned as a full member. Sonic Highways (2014) was released as the soundtrack to the television miniseries directed by Grohl. Concrete and Gold (2017) was the second Foo Fighters album to reach number one in the United States and their first studio album to feature longtime session and touring keyboardist Rami Jaffee as a full member. In 2021, the band released their tenth album, Medicine at Midnight."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pillar_(band)', 'artist_name': 'Pillar', 'wiki': 'http://en.wikipedia.org/wiki/Pillar_(band)', 'hometown': 'http://dbpedia.org/resource/Tulsa,_Oklahoma', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/Essential_Records_(Christian)', 'http://dbpedia.org/resource/Flicker_Records', 'http://dbpedia.org/resource/Sony_BMG'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Christian_metal', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['http://dbpedia.org/resource/Lester_Estelle_II', 'http://dbpedia.org/resource/Michael_Wittig', 'http://dbpedia.org/resource/Noah_Henson', 'http://dbpedia.org/resource/Rob_Beckley', 'Lester Estelle', 'Michael "Kalel" Wittig'], 'old_members': ['Brad Noone', 'Travis Jenkins', 'Dustin Adams', 'Joey Avalos', 'Chase Lovelace', 'Rich Gilliland', 'Taylor Carroll'], 'related_artists': ['http://dbpedia.org/resource/Lester_Estelle_II', 'http://dbpedia.org/resource/Michael_Wittig', 'http://dbpedia.org/resource/Noah_Henson', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/Stars_Go_Dim', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Pillar is an American Christian rock band from Tulsa, consisting of members Rob Beckley, Noah Henson, Michael "Kalel" Wittig, and Lester Estelle II. The band has released nine studio albums, three EPs, and 24 singles since its formation in 1998.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hinder', 'artist_name': 'Hinder', 'wiki': 'http://en.wikipedia.org/wiki/Hinder', 'hometown': 'http://dbpedia.org/resource/Oklahoma_City', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/The_End_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Cody_Hanson', 'http://dbpedia.org/resource/Marshal_Dutton', 'Joe "Blower" Garvey', 'Mike Rodden', 'Mark King'], 'old_members': ['http://dbpedia.org/resource/Austin_John', 'Cole Parker', 'Austin Winkler'], 'related_artists': ['http://dbpedia.org/resource/Austin_John', 'http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Cody_Hanson', 'http://dbpedia.org/resource/Marshal_Dutton', 'http://dbpedia.org/resource/Mick_Mars', 'http://dbpedia.org/resource/Nine_Shrines', 'http://dbpedia.org/resource/Smashing_Satellites'], 'abstract': 'Hinder is an American rock band from Oklahoma City, Oklahoma, formed in 2001 by lead singer Austin Winkler, guitarist Joe "Blower" Garvey, and drummer Cody Hanson with bassist Mike Roden and guitarist Mark King joining in 2003, solidifying the line-up. The band released four studio albums with Winkler; Extreme Behavior (2005), Take It to the Limit (2008), All American Nightmare (2010) and Welcome to the Freakshow (2012). Cody Hanson, along with former lead singer Austin Winkler, wrote the majority of the band\'s music on their first four albums. After Winkler left the band in 2013, they looked for a new lead vocalist, and added Marshal Dutton. They have since released: When The Smoke Clears (2015) and The Reign (2017) with their new vocalist. Their seventh studio album is currently in the works. The band was inducted into the Oklahoma Music Hall of Fame in 2007.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Creed_(band)', 'artist_name': 'Creed', 'wiki': 'http://en.wikipedia.org/wiki/Creed_(band)', 'hometown': 'http://dbpedia.org/resource/Tallahassee,_Florida', 'start_year': '1994', 'end_year': '2004', 'labels': ['http://dbpedia.org/resource/Wind-up_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Brian_Marshall', 'http://dbpedia.org/resource/Mark_Tremonti', 'http://dbpedia.org/resource/Scott_Phillips_(musician)', 'http://dbpedia.org/resource/Scott_Stapp'], 'old_members': ['Brian Brasher'], 'related_artists': ['http://dbpedia.org/resource/Alter_Bridge', 'http://dbpedia.org/resource/Brett_Hestla', 'http://dbpedia.org/resource/Brian_Marshall', 'http://dbpedia.org/resource/Diana_Meltzer', 'http://dbpedia.org/resource/Eric_Friedman', 'http://dbpedia.org/resource/Mark_Tremonti', 'http://dbpedia.org/resource/Mile_(band)', 'http://dbpedia.org/resource/Scott_Phillips_(musician)', 'http://dbpedia.org/resource/Scott_Stapp', 'http://dbpedia.org/resource/Souleye_(hip_hop_artist)', 'http://dbpedia.org/resource/Virgos_Merlot'], 'abstract': "Creed is an American rock band from Tallahassee, Florida, formed in 1994. For most of its existence, the band consisted of lead vocalist Scott Stapp, guitarist and vocalist Mark Tremonti, bassist Brian Marshall, and drummer Scott Phillips. Creed released two studio albums, My Own Prison in 1997 and Human Clay in 1999, before Marshall left the band in 2000. The band's third album, Weathered, was released in 2001, with Tremonti on bass guitar. Creed disbanded in 2004; Stapp pursued a solo career while Tremonti, Marshall, and Phillips founded the band Alter Bridge with Myles Kennedy. In 2009, Creed reunited for a fourth album, Full Circle, then toured until 2012. Since then, Creed has been on hiatus while the instrumental members have remained active with Alter Bridge; Stapp has continued his solo career and joined the band Art of Anarchy in 2016. Tremonti also formed his own band, Tremonti, in 2011. Creed is one of the prominent acts of the post-grunge movement that began in the mid-1990s. Becoming popular in the late 1990s and early 2000s, Creed released three consecutive multi-platinum albums, with their album Human Clay being certified diamond. Creed has sold over 28 million records in the United States, has sold over 53 million albums worldwide, and was the ninth best-selling artist of the 2000s. However, Creed has been negatively received by some critics and listeners; readers of Rolling Stone magazine ranked the band the worst artist of the 1990s."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fuel_(hardcore_band)', 'artist_name': 'Fuel', 'wiki': 'http://en.wikipedia.org/wiki/Fuel_(hardcore_band)', 'hometown': 'http://dbpedia.org/resource/San_Francisco_Bay_Area', 'start_year': '1989', 'end_year': '1991', 'labels': ['http://dbpedia.org/resource/Cargo_Music', 'http://dbpedia.org/resource/Ebullition_Records', 'http://dbpedia.org/resource/Lookout_Records', 'http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Punk_rock'], 'old_members': ['Mike Kirsch', 'Jim Allison', 'Aaron Arroyo', 'Jeff Stofan'], 'related_artists': ['http://dbpedia.org/resource/Monsula', 'http://dbpedia.org/resource/Pinhead_Gunpowder'], 'abstract': 'Fuel was a short-lived Bay Area post-hardcore musical act that created both personal and political songs, something that was unique during the "first wave" of emo in the 1990s. Fuel had a sound akin to the mostly East Coast bands on Dischord Records, especially Fugazi, with twin guitars and dueling rough post-hardcore vocals. In fact, it is noted that Fuel was often jokingly referred to as "Fuelgazi." Fuel\'s style resembled the D.C. sound of many Dischord bands. Fuel featured Mike Kirsch (later Sarah Kirsch; of early Pinhead Gunpowder and a number of other punk rock bands) on guitar/vocals, Jim Allison on guitar/vocals, Aaron Arroyo on bass, and Jeff Stofan (also of Monsula and the White Trash Debutantes at one time) on drums. Fuel released one LP in 1990, first on Cargo Records then repressed by . The album was produced by Kevin Army. Army audio engineered the albums of punk bands such as Operation Ivy, Green Day, and The Mr. T Experience. In addition, Fuel put out an EP "Take Effect" on Lookout Records, also in 1990. In the fall of 1991 the band also released a split 7-inch with Canadian band Phleg Camp on Allied Records. The CD release Monuments to Excess collected the LP, the Take Effect EP, the band\'s portion of a split EP, and some tracks that had appeared on compilations. In 2008, Alternative Press named Fuel as a group of significant interest in its profile of "23 Bands who Shaped Punk." Jason Black of Hot Water Music and The Draft contributed a testimony for the article citing musical influence.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Incubus_(band)', 'artist_name': 'Incubus', 'wiki': 'http://en.wikipedia.org/wiki/Incubus_(band)', 'hometown': 'http://dbpedia.org/resource/Calabasas,_California', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack', 'http://dbpedia.org/resource/Life_Is_Peachy', 'http://dbpedia.org/resource/MTV_The_Return_of_the_Rock'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Ben_Kenney', 'http://dbpedia.org/resource/Brandon_Boyd', 'http://dbpedia.org/resource/Chris_Kilmore', 'http://dbpedia.org/resource/José_Pasillas', 'http://dbpedia.org/resource/Mike_Einziger'], 'old_members': ['http://dbpedia.org/resource/Alex_Katunich', 'http://dbpedia.org/resource/Gavin_Koppel'], 'related_artists': ['http://dbpedia.org/resource/Alex_Katunich', 'http://dbpedia.org/resource/Ann_Marie_Calhoun', 'http://dbpedia.org/resource/Audiovent', 'http://dbpedia.org/resource/Ben_Kenney', 'http://dbpedia.org/resource/Brandon_Boyd', 'http://dbpedia.org/resource/Chris_Kilmore', 'http://dbpedia.org/resource/Gavin_Koppel', 'http://dbpedia.org/resource/José_Pasillas', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Mike_Einziger', 'http://dbpedia.org/resource/Skrillex'], 'abstract': 'Incubus is an American rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer José Pasillas while enrolled in Calabasas High School and later expanded to include bassist Alex "Dirk Lance" Katunich, and Gavin "DJ Lyfe" Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore, respectively. Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles. After their first two albums, Fungus Amongus (1995) and S.C.I.E.N.C.E. (1997), the band earned mainstream recognition with the release of their 1999 album Make Yourself which spawned several hits, including the band\'s highest charting song "Drive." Success continued with the albums Morning View (2001) and A Crow Left of the Murder... (2004). Their sixth studio album, Light Grenades, debuted at No. 1 in 2006 and was followed by Incubus\'s first greatest hits album Monuments and Melodies in June 2009 and the band\'s 2011 album, If Not Now, When?. Incubus also released an EP, Trust Fall (Side A), in early 2015, and two years later, the band released their eighth studio album, titled 8, on April 21, 2017. A second EP, Trust Fall (Side B), was released on April 17, 2020. Worldwide, Incubus has sold over 19 million albums.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Machine_Head_(band)', 'artist_name': 'Machine Head', 'wiki': 'http://en.wikipedia.org/wiki/Machine_Head_(band)', 'hometown': 'http://dbpedia.org/resource/Oakland,_California', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/Nuclear_Blast', 'http://dbpedia.org/resource/Roadrunner_Records'], 'plays_in': ['http://dbpedia.org/resource/51_Birch_Street', 'http://dbpedia.org/resource/Blind_Horizon', 'http://dbpedia.org/resource/Edison_(film)', 'http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Raise_Your_Voice', 'http://dbpedia.org/resource/Roadrunner_United', 'http://dbpedia.org/resource/Shooting_Gallery_(film)', 'http://dbpedia.org/resource/The_Animatrix'], 'genres': ['http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Thrash_metal'], 'actual_members': ['http://dbpedia.org/resource/Jared_MacEachern', 'http://dbpedia.org/resource/Robb_Flynn', 'http://dbpedia.org/resource/Wacław_Kiełtyka', 'Matt Alston'], 'old_members': ['http://dbpedia.org/resource/Adam_Duce', 'http://dbpedia.org/resource/Ahrue_Luster', 'http://dbpedia.org/resource/Chris_Kontos_(musician)', 'http://dbpedia.org/resource/Dave_McClain_(musician)', 'http://dbpedia.org/resource/Logan_Mader', 'http://dbpedia.org/resource/Phil_Demmel', 'http://dbpedia.org/resource/Tony_Costanza'], 'related_artists': ['http://dbpedia.org/resource/Adam_Duce', 'http://dbpedia.org/resource/Biohazard_(band)', 'http://dbpedia.org/resource/Cristian_Machado', 'http://dbpedia.org/resource/Dave_McClain_(musician)', 'http://dbpedia.org/resource/Dublin_Death_Patrol', 'http://dbpedia.org/resource/Forbidden_(band)', 'http://dbpedia.org/resource/Jared_MacEachern', 'http://dbpedia.org/resource/Joel_Wanasek', 'http://dbpedia.org/resource/Juggernaut_(band)', 'http://dbpedia.org/resource/Logan_Mader', 'http://dbpedia.org/resource/Matt_Hyde_(British_producer)', 'http://dbpedia.org/resource/Medication_(band)', 'http://dbpedia.org/resource/PCN_(band)', 'http://dbpedia.org/resource/Phil_Demmel', 'http://dbpedia.org/resource/Robb_Flynn', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/S.A.Slayer', 'http://dbpedia.org/resource/Sintanic', 'http://dbpedia.org/resource/The_New_Dominion', 'http://dbpedia.org/resource/Tony_Costanza', 'http://dbpedia.org/resource/Vio-lence'], 'abstract': 'Machine Head is an American heavy metal band from Oakland, California. The band was formed in 1991 by vocalist/guitarist Robb Flynn, who remains the only original member of the band. Machine Head\'s aggressive musicianship made it one of the pioneering bands in the new wave of American heavy metal. Its current lineup comprises Flynn, bassist Jared MacEachern, guitarist Wacław Kiełtyka and drummer Matt Alston. Bassist Adam Duce, guitarists Logan Mader, Ahrue Luster and Phil Demmel, and drummers Tony Costanza, Chris Kontos and Dave McClain are former members of the band; Mader and Kontos toured with the band in 2019 and 2020 as part of the 25th anniversary tour for its first album, Burn My Eyes (1994). Machine Head\'s first four albums earned the band a growing fan base in Europe, however the band would not have success in the United States until later releases. The band drew controversy with its fourth album, Supercharger (2001), which was released three weeks after the September 11 attacks; its only single, "Crashing Around You", and its music video (which featured burning buildings) was pulled from all media outlets. The band nearly disbanded in 2002 after negotiating off its label Roadrunner Records as a result of the controversy, however the band would eventually re-sign with the label. Having experimented with elements of groove metal and nu metal in its early releases, Machine Head changed to a more traditional thrash metal sound and longer songs with its sixth album, The Blackening (2007), which drew critical acclaim and was chosen as Album of the Decade by Metal Hammer in 2010; the album\'s first single, "Aesthetics of Hate", also earned the band a Grammy Award nomination. The band achieved similar success with its following two albums, Unto the Locust (2011) and Bloodstone &amp; Diamonds (2014), before returning to its nu metal roots with the band\'s ninth album, Catharsis (2018). Machine Head has released nine studio albums, two live albums, one video album, 13 singles and 15 music videos. Four of the band\'s studio albums have been certified silver in the United Kingdom, and the band\'s highest peak on the Billboard 200 came with Bloodstone &amp; Diamonds at number 21. As of 2013, the band has sold over three million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hollywood_Undead', 'artist_name': 'Hollywood Undead', 'wiki': 'http://en.wikipedia.org/wiki/Hollywood_Undead', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2005', 'labels': ['http://dbpedia.org/resource/A&amp;M_Octone_Records', 'http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Polydor_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Rap_metal', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['J-Dog', 'Funny Man', 'Johnny 3 Tears', 'Charlie Scene', 'Danny'], 'old_members': ['http://dbpedia.org/resource/Deuce_(musician)', 'Shady Jeff', 'Da Kurlzz'], 'related_artists': ['http://dbpedia.org/resource/A_Static_Lullaby', 'http://dbpedia.org/resource/Danny_Lohner', 'http://dbpedia.org/resource/Deuce_(musician)__Deuce__1', 'http://dbpedia.org/resource/Elias_Mallin', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Luke_Holland', 'http://dbpedia.org/resource/Xombie_(band)'], 'abstract': 'Hollywood Undead is an American rap rock band from Los Angeles, California, formed in 2005. They released their debut album, Swan Songs, on September 2, 2008, and their live CD/DVD Desperate Measures, on November 10, 2009. Their second studio album, American Tragedy, was released April 5, 2011. All of the band members use pseudonyms and previously wore their own unique mask, most of which were based on the common hockey goaltender design. The band members currently consist of Charlie Scene, Danny, Funny Man, J-Dog, and Johnny 3 Tears. Their third studio album, titled Notes from the Underground, was released on January 8, 2013. Their fourth studio album, Day of the Dead, was released on March 31, 2015.Hollywood Undead\'s fifth record is titled Five (or V), and was released on October 27, 2017. The first single from the album, called "California Dreaming", was made available July 24, 2017. Their sixth studio album, New Empire, Vol. 1, was released on February 14, 2020. Its follow-up and their most recent album, New Empire, Vol. 2, was released on December 4, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Vertical_Horizon', 'artist_name': 'Vertical Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Vertical_Horizon', 'hometown': 'http://dbpedia.org/resource/Washington,_D.C.', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Acoustic_music', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/John_Wesley_(guitarist)', 'http://dbpedia.org/resource/Matt_Scannell', 'Ron LaVella', 'Donovan White', 'Mark Pacificar'], 'old_members': ['http://dbpedia.org/resource/Ed_Toth', 'http://dbpedia.org/resource/Vertical_Horizon', 'Craig McIntyre ', 'Steve Fekete', 'Eric Holden ', 'Richie Noble', 'Jason Sutter ', 'Jeffrey Jarvis', 'Ryan "Chopper" Fisher', 'Corey McCormick', 'Jenn Oberle', 'Keith Kane', 'Sean Hurley', 'Seth Horan'], 'related_artists': ['http://dbpedia.org/resource/Carter_Beauford', 'http://dbpedia.org/resource/Ed_Toth', 'http://dbpedia.org/resource/John_Wesley_(guitarist)', 'http://dbpedia.org/resource/Matt_Scannell', 'http://dbpedia.org/resource/Neil_Peart', 'http://dbpedia.org/resource/Stroke_9'], 'abstract': 'Vertical Horizon is an American alternative rock band. Vocalist Matt Scannell and guitarist Keith Kane started the band in 1991 when they were students at Georgetown University. The band is best known for its 1999 number one single "Everything You Want"; other hit singles include "You\'re a God", "Best I Ever Had (Grey Sky Morning)", and "I\'m Still Here".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tonic_(band)', 'artist_name': 'Tonic', 'wiki': 'http://en.wikipedia.org/wiki/Tonic_(band)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1993', 'end_year': '2004', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Dan_Lavery', 'http://dbpedia.org/resource/Emerson_Hart', 'http://dbpedia.org/resource/Jeff_Russo'], 'old_members': ['Dan Rothchild', 'Kevin Shepard'], 'related_artists': ['http://dbpedia.org/resource/Dan_Lavery', 'http://dbpedia.org/resource/Emerson_Hart', 'http://dbpedia.org/resource/Ingram_Hill', 'http://dbpedia.org/resource/Jeff_Russo'], 'abstract': 'Tonic is an American rock band, formed in 1993 by Emerson Hart and Jeff Russo. Later members have included Dan Lavery, Kevin Shepard, and Dan Rothchild. Signed to a recording contract in 1995, the band released its debut album Lemon Parade in 1996. The single "If You Could Only See" reached No. 11 on the Billboard Airplay Hot 100 in 1997, and Lemon Parade itself reached platinum status. Tonic spent much of the next two years touring, adding to its reputation as a relentlessly gigging band. In addition to extensive touring Tonic produced other work, including songs for feature film soundtracks. After self-producing its 1999 album Sugar, Tonic released its third album Head on Straight in 2002. Tonic received two Grammy nominations from Head on Straight, including one for Best Rock Performance by a Duo or Group with Vocal for "Take Me As I Am", and one for Best Rock Album. The band then went on hiatus beginning in 2004 while its members pursued other musical endeavors. It wasn\'t until late 2008 Tonic became active again, embarking on a tour and releasing a greatest-hits compilation, all of which served as a prelude to their fourth studio album, 2010\'s Tonic. After the release of that album, Tonic has continued to tour and remain active, utilizing direct funding from fans to make an all-acoustic version of Lemon Parade titled Lemon Parade Revisited in 2016, and debuting their first non-album single with 2021\'s "To Be Loved".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marcy_Playground', 'artist_name': 'Marcy Playground', 'wiki': 'http://en.wikipedia.org/wiki/Marcy_Playground', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1994', 'labels': ['http://dbpedia.org/resource/Capitol_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Dylan_Keefe', 'http://dbpedia.org/resource/John_Wozniak', 'http://dbpedia.org/resource/Shlomi_Lavie'], 'old_members': ['Conor Levis', 'Dan Rieser', 'Glenn Braver', 'Gonzalo Martinez de la Cotera', 'Jared Kotler'], 'related_artists': ['http://dbpedia.org/resource/Dylan_Keefe', 'http://dbpedia.org/resource/John_Wozniak', 'http://dbpedia.org/resource/Shlomi_Lavie'], 'abstract': 'Marcy Playground is an American alternative rock band consisting of three members: John Wozniak (lead vocals, guitar), Dylan Keefe (bass), and Shlomi Lavie (drums). The band is best known for their 1997 hit "Sex and Candy".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sublime_(band)', 'artist_name': 'Sublime', 'wiki': 'http://en.wikipedia.org/wiki/Sublime_(band)', 'hometown': 'http://dbpedia.org/resource/Long_Beach,_California', 'start_year': '1988', 'end_year': '1996', 'labels': ['http://dbpedia.org/resource/MCA_Records', 'http://dbpedia.org/resource/Skunk_Records'], 'genres': ['http://dbpedia.org/resource/Reggae_rock', 'http://dbpedia.org/resource/Ska_punk'], 'old_members': ['http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)'], 'related_artists': ['http://dbpedia.org/resource/3rd_Alley', 'http://dbpedia.org/resource/Bad_Brains', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eyes_Adrift', 'http://dbpedia.org/resource/Gwen_Stefani', 'http://dbpedia.org/resource/Long_Beach_Dub_Allstars', 'http://dbpedia.org/resource/Long_Beach_Shortbus', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Marshall_Goodman', 'http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Notch_(musician)', 'http://dbpedia.org/resource/Slightly_Stoopid', 'http://dbpedia.org/resource/Steve_Chadie', 'http://dbpedia.org/resource/Sublime_with_Rome', 'http://dbpedia.org/resource/The_Specials', 'http://dbpedia.org/resource/The_Toyes__The_Toyes__1', 'http://dbpedia.org/resource/The_Ziggens', 'http://dbpedia.org/resource/Tribo_de_Jah', 'http://dbpedia.org/resource/Volcano_(supergroup)'], 'abstract': 'Sublime was an American reggae rock and ska punk band from Long Beach, California, formed in 1988. The band\'s line-up, unchanged until their breakup, consisted of Bradley Nowell (vocals and guitar), Eric Wilson (bass), and Bud Gaugh (drums). Lou Dog, Nowell\'s dalmatian, was the mascot of the band. Nowell died of a heroin overdose in 1996, resulting in Sublime\'s breakup. In 1997, songs such as "What I Got", "Santeria", "Wrong Way", "Doin\' Time", and "April 29, 1992 (Miami)" were released to U.S. radio. Sublime released three studio albums, one live album, five compilation albums (one of which also contains never-before released material), three EPs, and one box set. Although their first two albums—40oz. to Freedom (1992) and Robbin\' the Hood (1994)—were quite popular in the United States, Sublime did not experience major commercial success until 1996 with their self-titled third album, released two months after Nowell\'s death, which peaked at No. 13 on the Billboard 200, and spawned the single "What I Got", which remains the band\'s only No. 1 hit single (on the Billboard Alternative Songs chart) in their musical career. As of 2009, the band has sold over 17 million albums worldwide, including about 10 million in the U.S. alone. Michael "Miguel" Happoldt and Marshall "Ras MG" Goodman contributed to several Sublime songs. In 2009, the surviving members attempted to reform the band with Rome Ramirez, a young guitarist and admitted Sublime fan from California. However, not long after performing at Cypress Hill\'s Smokeout Festival, a Los Angeles judge banned the new lineup from using the Sublime name as they needed permission from Nowell\'s estate, which owns the rights to the Sublime name. This prompted the lineup of Wilson, Gaugh and Ramirez to change their name to Sublime with Rome, which has since released three albums, although Gaugh left the group shortly after the release of their 2011 debut Yours Truly.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Blink_(band)', 'artist_name': 'Blink', 'wiki': 'http://en.wikipedia.org/wiki/Blink_(band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1991', 'end_year': '2004', 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dream_pop', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['Barry Campbell', 'Brian McLoughlin', 'Dermot Lambert', 'Robbie Sexton'], 'abstract': 'Blink are a pop rock band from Ireland. Noted for their melancholy humour, they have released four albums since their inception in the early 1990s. Their 1994 debut album, A Map of the Universe by Blink, was a Top Ten in the Irish album charts and their second album, 1998\'s The End is High, was a Billboard album of the week. Their most recent release, 2004\'s Deep inside the Sound of Sadness, was nominated for Irish Album of the Year at the 2005 Meteor Music Awards, losing out to Snow Patrol for their album Final Straw. The band are also notable for being the first band pictured on a telephone card. A run of 202,000 were produced in 1993. This included a smaller limited run of 2000 cards, which were used as membership cards for the band\'s fan club. All the cards read \'Limited Edition\' despite being produced in great quantities. The band\'s name comes from the song "Iceblink Luck" by the Cocteau Twins, a favourite song of drummer Barry Campbell. San Diego–based pop punk band Blink-182 originally also performed under the name Blink, even releasing several demos and their debut studio album, Cheshire Cat, under this name, but the threat of a legal dispute with the Irish band resulted in their name change to Blink-182. After the name change, Blink-182 re-released Cheshire Cat under their current moniker.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/Red_Hot_Chili_Peppers', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1983', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI_America_Records', 'http://dbpedia.org/resource/Enigma_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['http://dbpedia.org/resource/Anthony_Kiedis', 'http://dbpedia.org/resource/Chad_Smith', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/John_Frusciante'], 'old_members': ['http://dbpedia.org/resource/Arik_Marshall', 'http://dbpedia.org/resource/Cliff_Martinez', 'http://dbpedia.org/resource/D._H._Peligro', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/DeWayne_McKnight', 'http://dbpedia.org/resource/Hillel_Slovak', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Jack_Sherman', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Josh_Klinghoffer'], 'related_artists': ['http://dbpedia.org/resource/Ataxia_(band)', "http://dbpedia.org/resource/Jane's_Addiction", 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/What_Is_This%3F'], 'abstract': "The Red Hot Chili Peppers are an American rock band formed in Los Angeles in 1983. Their music incorporates elements of alternative rock, funk, punk rock and psychedelic rock. The band consists of vocalist Anthony Kiedis, bassist Flea, drummer Chad Smith, and guitarist John Frusciante. With over 100 million records sold worldwide, the Red Hot Chili Peppers are one of the best-selling bands of all time. They are the most successful band in the history of alternative rock, with the records for most number-one singles (13), most cumulative weeks at number one (85) and most top-ten songs (25) on the Billboard Alternative Songs chart. They have won six Grammy Awards, and in 2012 were inducted into the Rock and Roll Hall of Fame. The Red Hot Chili Peppers were formed in Los Angeles by Kiedis, Flea, guitarist Hillel Slovak and drummer Jack Irons. Due to commitments to other bands, Slovak and Irons did not play on the band's 1984 self-titled debut album, which instead featured guitarist Jack Sherman and drummer Cliff Martinez. Slovak rejoined for their second album, Freaky Styley (1985), and Irons for their third, The Uplift Mofo Party Plan (1987). Slovak died of a drug overdose on June 25, 1988; Irons, devastated, left the band. With new recruits Frusciante and Smith, the Red Hot Chili Peppers recorded Mother's Milk (1989) and their first major commercial success, Blood Sugar Sex Magik (1991). Frusciante was uncomfortable with their newfound popularity and left abruptly on tour in 1992. After a series of temporary guitarists, he was replaced by Dave Navarro, who appeared on the group's sixth album, One Hot Minute (1995). Although successful, the album failed to match the critical or popular acclaim of Blood Sugar Sex Magik. Frusciante and Kiedis struggled with drug addiction throughout the 1990s. In 1998, following Navarro's departure, Frusciante rejoined the band. Their seventh album, Californication (1999), became their biggest commercial success, with 16 million copies sold worldwide. By the Way (2002) and Stadium Arcadium (2006) were also successful; Stadium Arcadium was their first album to reach number one on the Billboard 200 chart. Frusciante left again in 2009 to focus on his solo career; he was replaced by Josh Klinghoffer, who appeared on I'm with You (2011) and The Getaway (2016), before Frusciante rejoined in 2019."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pearl_Jam', 'artist_name': 'Pearl Jam', 'wiki': 'http://en.wikipedia.org/wiki/Pearl_Jam', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1990', 'aliases': ['Mookie Blaylock (early)'], 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/J_Records', 'http://dbpedia.org/resource/Monkeywrench_Records', 'http://dbpedia.org/resource/Third_Man_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Vote_for_Change%3F_2004'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'actual_members': ['http://dbpedia.org/resource/Eddie_Vedder', 'http://dbpedia.org/resource/Jeff_Ament', 'http://dbpedia.org/resource/Matt_Cameron', 'http://dbpedia.org/resource/Mike_McCready', 'http://dbpedia.org/resource/Stone_Gossard'], 'old_members': ['http://dbpedia.org/resource/Dave_Abbruzzese', 'http://dbpedia.org/resource/Dave_Krusen', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Matt_Chamberlain'], 'related_artists': ['http://dbpedia.org/resource/Green_River_(band)', 'http://dbpedia.org/resource/Hovercraft_(band)', 'http://dbpedia.org/resource/Mother_Love_Bone', 'http://dbpedia.org/resource/Neil_Young', 'http://dbpedia.org/resource/Temple_of_the_Dog'], 'abstract': 'Pearl Jam is an American rock band formed in Seattle, Washington, in 1990. The band\'s lineup consists of founding members Jeff Ament (bass guitar), Stone Gossard (rhythm guitar), Mike McCready (lead guitar), and Eddie Vedder (lead vocals, guitar), as well as Matt Cameron (drums), who joined in 1998. Keyboardist Boom Gaspar has also been a touring/session member with the band since 2002. Drummers Jack Irons, Dave Krusen, Matt Chamberlain, and Dave Abbruzzese are former members of the band. Pearl Jam outsold many of their contemporaries from the early 1990s, and are considered one of the most influential bands of the decade, being dubbed as "the most popular American rock &amp; roll band of the \'90s". Formed after the demise of Gossard and Ament\'s previous band, Mother Love Bone, Pearl Jam broke into the mainstream with their debut album, Ten, in 1991. Ten stayed on the Billboard 200 chart for nearly five years, and has gone on to become one of the highest-selling rock records ever, going 13x platinum in the United States. Released in 1993, Pearl Jam\'s second album, Vs., sold over 950,000 copies in its first week of release, setting the record for most copies of an album sold in its first week of release at the time. Their third album, Vitalogy (1994), became the second-fastest-selling CD in history at the time, with more than 877,000 units sold in its first week. One of the key bands in the grunge movement of the early 1990s, Pearl Jam\'s members often shunned popular music industry practices such as making music videos or participating in interviews. The band also sued Ticketmaster, claiming it had monopolized the concert-ticket market. In 2006, Rolling Stone described the band as having "spent much of the past decade deliberately tearing apart their own fame." Pearl Jam had sold more than 85 million albums worldwide by 2018, including nearly 32 million albums in the United States by 2012, making them one of the best-selling bands of all time. Pearl Jam was inducted into the Rock and Roll Hall of Fame in 2017 in its first year of eligibility. They were ranked at No. 8 in a reader poll by Rolling Stone magazine in its "Top Ten Live Acts of All Time" issue. Throughout its career, the band has also promoted wider social and political issues, from pro-choice sentiments to opposition to George W. Bush\'s presidency. Vedder acts as the band\'s spokesman on these issues.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Seven_Mary_Three', 'artist_name': 'Seven Mary Three', 'wiki': 'http://en.wikipedia.org/wiki/Seven_Mary_Three', 'hometown': 'http://dbpedia.org/resource/Williamsburg,_Virginia', 'start_year': '1992', 'end_year': '1992', 'aliases': ['7 Mary 3', '7M3'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/DRT_Entertainment', 'http://dbpedia.org/resource/Mammoth_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge'], 'old_members': ['Casey Daniel', 'Giti Khalsa', 'Jason Pollock', 'Jason Ross', 'Mike Levesque', 'Thomas Juliano'], 'abstract': 'Seven Mary Three (occasionally abbreviated to 7 Mary 3 or 7M3) was an American rock band. They released seven studio albums and one live album, and are best known for their hit single "Cumbersome".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Rage_Against_the_Machine', 'plays_in': ['http://dbpedia.org/resource/Live_at_Finsbury_Park', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Funk_metal', 'rap rock', 'alternative metal', 'Rap metal'], 'actual_members': ['Tim Commerford', 'Zack de la Rocha', 'Tom Morello', 'Brad Wilk'], 'related_artists': ['http://dbpedia.org/resource/Audioslave', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chuck_D', "http://dbpedia.org/resource/Class_of_'99", 'http://dbpedia.org/resource/Greta_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Justin_Goldberg', 'http://dbpedia.org/resource/Las_Manos_de_Filippi', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/No_For_An_Answer', 'http://dbpedia.org/resource/One_Day_as_a_Lion__One_Day_As_A_Lion__1', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rodney_Mills', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Coup', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Zack_de_la_Rocha'], 'abstract': "Rage Against the Machine (often abbreviated as RATM or shortened to Rage) is an American rock band from Los Angeles, California. Formed in 1991, the group consists of vocalist Zack de la Rocha, bassist and backing vocalist Tim Commerford, guitarist Tom Morello, and drummer Brad Wilk. Their songs express revolutionary political views. As of 2010, they have sold over 16 million records worldwide. The band was nominated for induction into the Rock &amp; Roll Hall of Fame in their first year of eligibility in 2017, then again in 2018, 2019, and 2021, though the bids failed. Rage Against the Machine released its self-titled debut album in 1992 to commercial and critical success, leading to a slot in the 1993 Lollapalooza festival; in 2003, the album was ranked number 368 on Rolling Stone's list of the 500 greatest albums of all time. The follow-up albums, Evil Empire (1996) and The Battle of Los Angeles (1999), were also successful; both albums topped the Billboard 200 chart. During their initial nine-year run, Rage Against the Machine became a popular and influential band, and had a large influence on the nu metal genre which came to prominence during the second half of the 1990s. They were also ranked No. 33 on VH1's 100 Greatest Artists of Hard Rock. In 2000, Rage Against the Machine released the cover album Renegades and disbanded after growing creative differences led to De la Rocha's departure. De la Rocha started a low-profile solo career, while the rest of the band formed the rock supergroup Audioslave with Chris Cornell, the former frontman of Soundgarden; Audioslave recorded three albums before disbanding in 2007. The same year, Rage Against the Machine announced a reunion and performed together for the first time in seven years at the Coachella Valley Music and Arts Festival in April 2007. Within the next four years, minus a sabbatical in 2009, the band continued to perform at more live venues and festivals around the world before going on hiatus once again in 2011. In 2016, Morello, Commerford and Wilk formed a new band, Prophets of Rage, with B-Real, Chuck D, and DJ Lord; that band released one EP and one full-length studio album before disbanding in 2019. After an eight-year hiatus, Rage Against the Machine announced in November 2019 that they were reuniting for a world tour, which was initially scheduled to start in 2020 but was ultimately postponed to 2021 and again to 2022, due to the COVID-19 pandemic."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Otherwise_(band)', 'artist_name': 'Otherwise', 'wiki': 'http://en.wikipedia.org/wiki/Otherwise_(band)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas_Valley', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/Century_Media_Records', 'http://dbpedia.org/resource/Mascot_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Adrian Patrick', 'Joe Conner', 'Nick Bedrosian', 'Ryan Patrick'], 'old_members': ['Alan Doucette', 'Andrew Pugh', 'Brian Medeiros', 'Corky Gainsford', 'Dave McMahan', 'Don DW King', 'Flavio Ivan Mendoza', 'Jason Juadines', 'Ray Kemple', 'Ted Carrasco', 'Tony "The Beast" Carboney', 'Vassilios Metropoulos'], 'abstract': 'Otherwise is an American hard rock band from Las Vegas, Nevada. They have released four full-length albums on the Sony Music-owned label Century Media Records, titled True Love Never Dies (2012), Peace at All Costs (2014) Sleeping Lions (2017) and Defy (2019). Prior to signing their record deal with Century Media, as an unsigned band they released one self-titled full-length album (2006) and one EP titled Some Kind of Alchemy (2009). The band was discovered by music industry executive Clay Busch and the bands hit song “Soldiers” was debuted on Sirius XM Octane by Jose Mangin. The band is the first unsigned artist to chart #1 on Sirius XM Octane with the song “Soldiers”. In 2018, it was announced that the band had signed to Mascot Records, with a new studio album released on the label on November 8, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Volbeat', 'artist_name': 'Volbeat', 'wiki': 'http://en.wikipedia.org/wiki/Volbeat', 'hometown': 'http://dbpedia.org/resource/Copenhagen', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Mascot_Records', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Vertigo_Records'], 'genres': ['http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Psychobilly', 'http://dbpedia.org/resource/Rock_and_roll', 'http://dbpedia.org/resource/Rockabilly', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Jon_Larsen_(Danish_musician)', 'http://dbpedia.org/resource/Michael_Poulsen', 'http://dbpedia.org/resource/Rob_Caggiano', 'Kaspar Boye Larsen'], 'old_members': ['http://dbpedia.org/resource/Anders_Kjølholm', 'http://dbpedia.org/resource/Franz_Gottschalk', 'http://dbpedia.org/resource/Thomas_Bredahl', 'Teddy Vang'], 'related_artists': ['http://dbpedia.org/resource/Anders_Kjølholm', 'http://dbpedia.org/resource/Dominus_(band)', 'http://dbpedia.org/resource/Franz_Gottschalk', 'http://dbpedia.org/resource/Jon_Larsen_(Danish_musician)', 'http://dbpedia.org/resource/Michael_Poulsen__Michael_Poulsen__1', 'http://dbpedia.org/resource/Napalm_Death', 'http://dbpedia.org/resource/Rob_Caggiano', 'http://dbpedia.org/resource/Thomas_Bredahl'], 'abstract': "Volbeat are a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal and rockabilly. Their current line-up consists of vocalist and guitarist Michael Poulsen, guitarist Rob Caggiano, drummer Jon Larsen and bassist Kaspar Boye Larsen. The band is signed to Dutch label Mascot Records and has released seven studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album Rock the Rebel/Metal the Devil received platinum status, and their 2010 release Beyond Hell/Above Heaven was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden and Austria. Volbeat's seventh album, Rewind, Replay, Rebound, was released on 2 August 2019. Their eighth album, Servant of the Mind, was released on 3 December 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Alien_Ant_Farm', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/DreamWorks_Records', 'http://dbpedia.org/resource/Executive_Music_Group', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'pop punk'], 'actual_members': ['Dryden Mitchell', 'Terry Corso', 'Tim Peugh', 'Mike Cosgrove'], 'old_members': ['Tye Zamora', 'Joe Hill'], 'related_artists': ['http://dbpedia.org/resource/Chain_of_Strength', 'http://dbpedia.org/resource/Excel_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jay_Baumgardner'], 'abstract': 'Alien Ant Farm is an American rock band that formed in Riverside, California in 1996. They have released five studio albums and sold over 5 million units worldwide. The band\'s cover of Michael Jackson\'s "Smooth Criminal" topped the Billboard Alternative songs charts in 2001, and was featured in the film American Pie 2. They released their debut album Greatest Hits independently in 1999, then signed to DreamWorks Records in 2000. Their second album ANThology was released in 2001 and has been certified platinum by the RIAA, selling over one million copies and reaching number 11 on the Billboard 200. Following up that was their third album, TruANT, released in 2003. The album was produced by brothers Robert and Dean DeLeo of Stone Temple Pilots, and made it to number 42 on the Billboard 200. In 2005 the band recorded their next album 3rd Draft, however its release was denied by the label after Geffen bought out DreamWorks. It was eventually released in 2006 as Up in the Attic, charting at number 114 on the Billboard 200. After several years of sporadic touring, the band\'s fifth studio album Always and Forever was released in February 2015.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hoobastank', 'artist_name': 'Hoobastank', 'wiki': 'http://en.wikipedia.org/wiki/Hoobastank', 'hometown': 'http://dbpedia.org/resource/Agoura_Hills,_California', 'start_year': '1994', 'aliases': ['Hoobustank (1994–2001)'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Napalm_Records'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Ska_punk'], 'actual_members': ['Doug Robb', 'Dan Estrin', 'Chris Hesse', 'Jesse Charland'], 'old_members': ['Markku Lappalainen', 'Jeremy Wasser', 'Derek Kwan', 'Matt McKenzie', 'Josh Moreau', 'David Amezcua', 'Kevin Antreassian'], 'related_artists': ['http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Vanessa_Amorosi'], 'abstract': 'Hoobastank (sometimes stylized as h∞bastank, and originally known as Hoobustank) is an American rock band formed in 1994 in Agoura Hills, California by lead vocalist Doug Robb, guitarist Dan Estrin, drummer Chris Hesse, and original bassist Markku Lappalainen. They were signed to Island Records from 2001 to 2012 and have released six albums and one extended play to date. Their most recent album, Push Pull, was released on May 25, 2018. They have sold 10 million albums worldwide. The band is best known for their biggest hit single "The Reason".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Beartooth_(band)', 'artist_name': 'Beartooth', 'wiki': 'http://en.wikipedia.org/wiki/Beartooth_(band)', 'hometown': 'http://dbpedia.org/resource/Columbus,_Ohio', 'start_year': '2012', 'aliases': ['Noise (2012)'], 'labels': ['http://dbpedia.org/resource/Red_Bull_Records', 'http://dbpedia.org/resource/UNFD'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Hardcore_punk', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Metalcore'], 'actual_members': ['http://dbpedia.org/resource/Caleb_Shomo', 'Zach Huston', 'Will Deely', 'Connor Denis', 'Oshie Bichar'], 'old_members': ['Nick Reed', 'Brandon Mullins', 'Taylor Lumley', 'Kamron Bradbury'], 'related_artists': ['http://dbpedia.org/resource/Attack_Attack!_(American_band)', 'http://dbpedia.org/resource/Caleb_Shomo', 'http://dbpedia.org/resource/City_Lights_(band)', 'http://dbpedia.org/resource/Crossfaith', 'http://dbpedia.org/resource/Dragged_Under', 'http://dbpedia.org/resource/My_Ticket_Home', 'http://dbpedia.org/resource/Sylar_(band)', 'http://dbpedia.org/resource/Windwaker_(band)'], 'abstract': 'Beartooth is an American hardcore punk band formed by Caleb Shomo in Columbus, Ohio, in 2012. They have been signed to Red Bull Records since 2013. Their debut EP Sick was released on July 26, 2013, followed by their debut full-length album Disgusting on June 10, 2014. Their second album Aggressive was released on June 3, 2016. Their third album Disease was released on September 28, 2018. Their fourth album Below was released on June 25, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Crown_the_Empire', 'artist_name': 'Crown the Empire', 'wiki': 'http://en.wikipedia.org/wiki/Crown_the_Empire', 'hometown': 'http://dbpedia.org/resource/Texas', 'start_year': '2010', 'labels': ['http://dbpedia.org/resource/Rise_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['Andrew "Andy Leo" Rockhold', 'Brandon Hoover', 'Hayden Tree', 'Brent Taddie'], 'old_members': ['Alex Massey', 'Brandon Shroyer', 'Zac Johnson', 'Austin Duncan', 'Bennett "Benn Suede" Vogelman', 'Dave Escamilla'], 'related_artists': ['http://dbpedia.org/resource/Palisades_(band)'], 'abstract': 'Crown the Empire is an American metalcore band formed in 2010 in Dallas, Texas. They have released one EP and four full-length albums.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ashes_Remain', 'artist_name': 'Ashes Remain', 'wiki': 'http://en.wikipedia.org/wiki/Ashes_Remain', 'hometown': 'http://dbpedia.org/resource/Maryland', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/BEC_Recordings', 'http://dbpedia.org/resource/Fair_Trade_Services'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Ben Kirk', 'Jon Hively', 'Josh Smith', 'Rob Tahan', 'Ryan Nalepa'], 'old_members': ['Ben Ogden'], 'abstract': 'Ashes Remain is an American Christian rock band, formed in 2001 and based in Baltimore, Maryland. The band was founded by Josh Smith and Ryan Nalepa. While they released two albums in their first six years, the band is popularly known for its third album, What I\'ve Become, which was released in 2011. They have released four albums, Lose the Alibis (2003), Last Day Breathing (2007), What I\'ve Become (2011), and Let the Light In (2017), two EPs, Red Devotion (2009) and Christmas EP (2012) and two non-album singles, "Separated" (2004) and "Here For a Reason" (2014).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Smile_Empty_Soul', 'artist_name': 'Smile Empty Soul', 'wiki': 'http://en.wikipedia.org/wiki/Smile_Empty_Soul', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1998', 'aliases': ['Hecklers Veto (1998–2001)'], 'labels': ['http://dbpedia.org/resource/Bieler_Bros._Records', 'http://dbpedia.org/resource/Lava_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Sean_Danielsen', 'http://dbpedia.org/resource/Smile_Empty_Soul', 'Ty Del Rose'], 'old_members': ['http://dbpedia.org/resource/Hed_PE', 'http://dbpedia.org/resource/Hurt_(band)', 'Ryan Martin', 'Victor Ribas', 'Dominic Weir', 'Mike Booth', 'Derek Gledhill', 'Jake Kilmer', 'Mark Young'], 'related_artists': ['http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/Sean_Danielsen', 'http://dbpedia.org/resource/World_Fire_Brigade'], 'abstract': "Smile Empty Soul is an American rock band, originally from Santa Clarita, California, United States. It was started in 1998 by Sean Danielsen (vocals and guitar), Ryan Martin (bass), and Derek Gledhill (drums). Following the departure of Gledhill and Martin from the band in 2005 and 2017, respectively, Danielsen remains the only founding member still active as well as the band's primary songwriter, frontman, and leader."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Korn', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'start_year': '1993', 'labels': ['http://dbpedia.org/resource/Caroline_Records', 'http://dbpedia.org/resource/Concord_(entertainment_company)', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Prospect_Park_(production_company)', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Brian_Welch', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu'], 'old_members': ['http://dbpedia.org/resource/David_Silveria'], 'related_artists': ['http://dbpedia.org/resource/Adema', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Brian_Welch__Brian_Welch__1', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Datsik_(musician)', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/David_Silveria', 'http://dbpedia.org/resource/Deadly_Apples', 'http://dbpedia.org/resource/Derrick_Green', 'http://dbpedia.org/resource/Destroid', 'http://dbpedia.org/resource/Dimmu_Borgir', 'http://dbpedia.org/resource/Fashion_Bomb', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/Kill_the_Noise', 'http://dbpedia.org/resource/Killbot_(band)', 'http://dbpedia.org/resource/L.A.P.D._(band)', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Mass_Hysteria_(band)', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Michael_Jochum', 'http://dbpedia.org/resource/Mike_Bordin', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Orgy_(band)', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu', 'http://dbpedia.org/resource/Rob_Patterson', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Ryan_Martinie', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shane_Gibson_(musician)', 'http://dbpedia.org/resource/Sunflower_Dead', 'http://dbpedia.org/resource/Terry_Bozzio', 'http://dbpedia.org/resource/The_Matrix_(team)', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Wesley_Geer', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Korn (stylized as KoЯn) is an American nu metal band from Bakersfield, California, formed in 1993. The band is notable for pioneering the nu metal genre and bringing it into the mainstream. Originally formed in 1993 by three members of the band L.A.P.D., Korn\'s current lineup features founding members James "Munky" Shaffer (rhythm guitar), Reginald "Fieldy" Arvizu (bass), Brian "Head" Welch (lead guitar, backing vocals), and Jonathan Davis (lead vocals, bagpipes), with the addition of Ray Luzier (drums) in 2007, replacing the band\'s first drummer, David Silveria. Korn made a demo tape, Neidermayer\'s Mind, in 1993, which was distributed free to record companies and on request to members of the public. Their debut album, Korn, was released in 1994, followed by Life Is Peachy in 1996. The band first experienced mainstream success with Follow the Leader (1998) and Issues (1999), both of which debuted at number one on the Billboard 200. The band\'s mainstream success continued with Untouchables (2002), Take a Look in the Mirror (2003) and See You on the Other Side (2005). A compilation album, Greatest Hits Vol. 1, was released in 2004, spanning a decade of singles and concluding the band\'s recording contract with Immortal Records and Epic Records. They signed to Virgin Records, releasing See You on the Other Side in 2005, and an untitled album in 2007. Korn\'s other recent albums, Korn III: Remember Who You Are (2010) and The Path of Totality (2011), were released via Roadrunner Records, The Paradigm Shift (2013) being released via Prospect Park and Caroline Records. The Serenity of Suffering, saw their return to Roadrunner Records. Their latest album, The Nothing, was released on September 13, 2019. As of 2018, Korn had sold more than 40 million records worldwide. Twelve of the band\'s official releases have peaked in the top ten of the Billboard 200, eight of which have peaked in the top five. Seven official releases are certified platinum by the Recording Industry Association of America (RIAA), two are certified double platinum, one is certified triple platinum, one is certified five times platinum and two are certified Gold. Korn has released seven video albums and 39 music videos. The band has released 41 singles, 28 of which have charted. Korn has earned two Grammy Awards out of eight nominations and two MTV Video Music Awards out of eleven nominations.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Adelitas_Way', 'artist_name': 'Adelitas way', 'wiki': 'http://en.wikipedia.org/wiki/Adelitas_Way', 'hometown': 'http://dbpedia.org/resource/Nevada', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Rick_DeJesus', 'Trevor Stafford', 'Tavis Stanley', 'Andrew Cushing'], 'old_members': ['http://dbpedia.org/resource/Keith_Wallen', 'Creighton Taylor Bibbs', 'Derek Johnston', 'Robert Zakaryan', 'Chris Iorio'], 'related_artists': ['http://dbpedia.org/resource/Keith_Wallen', 'http://dbpedia.org/resource/Rick_DeJesus'], 'abstract': 'Adelitas Way is an independent American hard rock band formed in Las Vegas in 2006. The band\'s debut single "Invincible", broke them into the mainstream scene after the song made numerous television appearances in commercials and live sporting events. As of 2017, the band has toured with notable acts such as Guns N\' Roses, Creed, Papa Roach, Godsmack, Theory of a Deadman, Seether, Three Days Grace, Breaking Benjamin, Deftones, Puddle of Mudd, Sick Puppies, Shinedown, Staind, Alter Bridge, Skillet, Halestorm, Thousand Foot Krutch and others.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Good_Charlotte', 'artist_name': 'Good Charlotte', 'wiki': 'http://en.wikipedia.org/wiki/Good_Charlotte', 'hometown': 'http://dbpedia.org/resource/Waldorf,_Maryland', 'start_year': '1996', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Daylight_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Kobalt_Label_Services'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Punk_rock', 'Pop punk'], 'actual_members': ['http://dbpedia.org/resource/Benji_Madden', 'http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Joel_Madden', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'Dean Butterworth'], 'old_members': ['Aaron Escolopio', 'Chris Wilson'], 'related_artists': ['http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Lola_Ray__Lola_Ray__1', 'http://dbpedia.org/resource/Mest', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'http://dbpedia.org/resource/Rockie_Fresh', 'http://dbpedia.org/resource/The_Madden_Brothers', 'http://dbpedia.org/resource/This_Century', 'http://dbpedia.org/resource/Wakefield_(band)'], 'abstract': 'Good Charlotte is an American rock band from Waldorf, Maryland that formed in 1996. Since 2005, the band\'s lineup has consisted of Joel Madden (lead vocals), Benji Madden (guitar and vocals), Paul Thomas (bass), Billy Martin (guitar and keyboards), and Dean Butterworth (drums and percussion). The band released their self-titled debut album in 2000 to mostly positive reviews. In 2002, they achieved breakthrough success with their second album, The Young and the Hopeless. Featuring the hit singles "Lifestyles of the Rich and Famous", "The Anthem" and "Girls &amp; Boys", The Young and the Hopeless sold 3.5 million copies in the US and was certified triple platinum by the RIAA, for a total of almost 5 million copies sold worldwide. The band followed up with The Chronicles of Life and Death in 2004; a darker album, both musically and lyrically. Backed by the singles "Predictable" and "I Just Wanna Live", The Chronicles of Life and Death continued the band\'s success, and the album was certified platinum by the RIAA, selling over one million copies in the US alone. In 2007, they released the dance-punk inspired album Good Morning Revival before going back to their pop punk-roots with the album Cardiology in 2010. After a four-year-long hiatus, the band announced its comeback on November 3, 2015. The band released Youth Authority to positive reviews in 2016, and in 2018 they released their latest album, Generation Rx. In addition, they released two compilations: Greatest Remixes in 2008 and Greatest Hits in 2010.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/CKY_(band)', 'artist_name': 'CKY', 'wiki': 'http://en.wikipedia.org/wiki/CKY_(band)', 'hometown': 'http://dbpedia.org/resource/West_Chester,_Pennsylvania', 'start_year': '1998', 'aliases': ['Camp', 'Camp Kill Yourself'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/MNRK_Music_Group', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/SPV_GmbH', 'http://dbpedia.org/resource/Volcom_Entertainment'], 'plays_in': ['http://dbpedia.org/resource/CKY_(video_series)', 'http://dbpedia.org/resource/CKY_(video_series)__CKY2K__1', 'http://dbpedia.org/resource/CKY_(video_series)__CKY3__1', 'http://dbpedia.org/resource/CKY_(video_series)__CKY4:_The_Latest_&amp;_Greatest__1', 'http://dbpedia.org/resource/CKY_(video_series)__CKY__1', 'http://dbpedia.org/resource/The_Vision_of_Paolo_Soleri:_Prophet_in_the_Desert'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Skate_punk', 'http://dbpedia.org/resource/Stoner_rock'], 'actual_members': ['http://dbpedia.org/resource/Chad_I_Ginsburg', 'http://dbpedia.org/resource/Jess_Margera'], 'old_members': ['http://dbpedia.org/resource/Daniel_Davies_(musician)', 'http://dbpedia.org/resource/Deron_Miller', 'http://dbpedia.org/resource/Matt_Deis', 'Matt "Matty J" Janaitis'], 'related_artists': ['http://dbpedia.org/resource/96_Bitter_Beings', 'http://dbpedia.org/resource/Brent_Hinds', 'http://dbpedia.org/resource/Chad_I_Ginsburg', 'http://dbpedia.org/resource/Deron_Miller', 'http://dbpedia.org/resource/Foreign_Objects_(band)', 'http://dbpedia.org/resource/Gnarkill', 'http://dbpedia.org/resource/Jess_Margera', 'http://dbpedia.org/resource/Matt_Deis', 'http://dbpedia.org/resource/Viking_Skull', 'http://dbpedia.org/resource/World_Under_Blood', 'http://dbpedia.org/resource/Year_Long_Disaster'], 'abstract': "CKY (abbreviation of the band's original name Camp Kill Yourself) is an American rock band from West Chester, Pennsylvania. Formed in 1998 by vocalist and guitarist Deron Miller, guitarist Chad I Ginsburg and drummer Jess Margera, the group currently features Margera and Ginsburg with touring bassist Chris Weyh. CKY found initial recognition through its contributions to the CKY video series and Jackass TV series, both of which featured Margera's brother Bam. After releasing its debut album Volume 1 in 1999, CKY signed with Island/Def Jam and issued Infiltrate•Destroy•Rebuild in 2002, which gave the band its first experience of US chart success. In 2005 the album An Answer Can Be Found followed, after which the group signed with Roadrunner Records and released Carver City in 2009. Miller left the band in 2011, after which Ginsburg, Margera and bassist Matt Deis released The Phoenix on Entertainment One Music in 2017. CKY has been categorized in genres including post-grunge, hard rock, stoner rock and skate punk. The band's songwriting in the past was typically led by Miller, with production, engineering and mixing handled by Ginsburg. Since Miller's departure in 2011, Ginsburg has taken over as frontman. Miller has since reformed pre-CKY group Foreign Objects (which originally included Margera) and founded 96 Bitter Beings, his own continuance of the material he previously played with CKY."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Crossfade_(band)', 'artist_name': 'Crossfade', 'wiki': 'http://en.wikipedia.org/wiki/Crossfade_(band)', 'hometown': 'http://dbpedia.org/resource/Columbia,_South_Carolina', 'start_year': '1993', 'aliases': ['Sugardaddy Superstar (2000–2002)', 'The Nothing (1993–2000)'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Les_Hall', 'Mitch James', 'Ryan Yerdon', 'Ed Sloan'], 'old_members': ['http://dbpedia.org/resource/Mark_Castillo', 'James Branham', 'Brian Geiger', 'Tony Byroads'], 'related_artists': ['http://dbpedia.org/resource/Les_Hall', 'http://dbpedia.org/resource/Mark_Castillo', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': 'Crossfade is an American rock band formed in Columbia, South Carolina, United States, in 1993. Before settling on the Crossfade name in 2002, the band had previously existed under the names The Nothing and Sugardaddy Superstar. As of 2019, their current lineup includes Ed Sloan on lead vocals and guitar, Les Hall on lead guitar, keyboard, and backing vocals, Mitch James on backing vocals and bass and Ryan Yerdon on drums. Since their formation, Crossfade has released three studio albums – their self-titled debut album in 2004, Falling Away in 2006, and We All Bleed in 2011.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saving_Abel', 'artist_name': 'Saving Abel', 'wiki': 'http://en.wikipedia.org/wiki/Saving_Abel', 'hometown': 'http://dbpedia.org/resource/Corinth,_Mississippi', 'start_year': '2004', 'labels': ['http://dbpedia.org/resource/MNRK_Music_Group', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Southern_rock'], 'actual_members': ['http://dbpedia.org/resource/Scott_Wilson_(musician)', 'Scott Bartlett', 'Jason Null', 'Dave Matthews', 'Jared Weeks'], 'old_members': ['Michael McManus', 'Blake Dixon', 'Eric Taylor', 'Daniel Dwight', 'Scott Austin', 'Steven Pulley'], 'related_artists': ['http://dbpedia.org/resource/Jamie_Davis_(musician)', 'http://dbpedia.org/resource/Scott_Wilson_(musician)'], 'abstract': 'Saving Abel is an American rock band from Corinth, Mississippi, founded in 2004 by Jared Weeks and Jason Null. The band is named after the biblical story of Cain and Abel, in which a man named Cain kills his brother Abel. Band member Jason Null thought up the band title saying "I Googled the story of Cain and Abel and found a line about \'there was no saving Abel,\' which just jumped out at me." Lead singer Jared Weeks left the band at the end of 2013 to pursue a solo career, but returned in 2021, replacing Scott Austin.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Escape_the_Fate', 'artist_name': 'Escape the Fate', 'wiki': 'http://en.wikipedia.org/wiki/Escape_the_Fate', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2004', 'labels': ['http://dbpedia.org/resource/DGC_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Screamo'], 'actual_members': ['http://dbpedia.org/resource/Craig_Mabbitt', 'Thomas "TJ" Bell', 'Robert Ortiz', 'Kevin "Thrasher" Gruft'], 'old_members': ['http://dbpedia.org/resource/Carson_Allen', 'http://dbpedia.org/resource/Max_Green_(musician)', 'http://dbpedia.org/resource/Monte_Money', 'http://dbpedia.org/resource/Omar_Espinosa', 'http://dbpedia.org/resource/Ronnie_Radke', 'Michael Money'], 'related_artists': ['http://dbpedia.org/resource/Alex_Torres_(musician)', 'http://dbpedia.org/resource/Beyond_Unbroken_(band)', 'http://dbpedia.org/resource/Carson_Allen', 'http://dbpedia.org/resource/Craig_Mabbitt', 'http://dbpedia.org/resource/Derek_Jones_(musician)', 'http://dbpedia.org/resource/Falling_in_Reverse', 'http://dbpedia.org/resource/Fearless_Vampire_Killers_(band)', 'http://dbpedia.org/resource/LoveHateHero', 'http://dbpedia.org/resource/Max_Green_(musician)', 'http://dbpedia.org/resource/Monte_Money', 'http://dbpedia.org/resource/Omar_Espinosa', 'http://dbpedia.org/resource/On_the_Last_Day', 'http://dbpedia.org/resource/The_Dead_Rabbitts'], 'abstract': 'Escape the Fate is an American rock band from Las Vegas, Nevada, formed in 2004 and originally from Pahrump, Nevada. They are signed to Eleven Seven Music. The group consists of Robert Ortiz (drummer), Craig Mabbitt (lead vocalist), TJ Bell (rhythm guitarist and vocalist), Kevin "Thrasher" Gruft (lead guitarist) and touring musician Erik Jensen (bassist). As of 2013, Ortiz is the last founding member in the current lineup of the group. They have released three EPs and six full-length studio albums. Dying Is Your Latest Fashion was the band\'s first album. This War Is Ours was released on October 21, 2008. The album debuted at No. 35 on the Billboard 200, selling 13,000 copies in the first week. Their third studio album, Escape the Fate, was released worldwide on November 2, 2010. The album charted at No. 25 on the Billboard 200, No. 1 on Hard Rock Albums, No. 4 on Rock Albums, No. 3 on Alternative and Independent charts and No. 18 on the Digital Albums Chart. Their fourth album, Ungrateful, was released on May 14, 2013, by Eleven Seven Music, and charted at No. 27 on the Billboard 200, with 17,000 copies sold in its first week. Their fifth album, Hate Me, was released on October 30, 2015, and charted at No. 58 on the Billboard 200. Their sixth album, I Am Human, was released on March 30, 2018. Their seventh album, Chemical Warfare, was released on April 16, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '2001', 'end_year': '2007', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'old_members': ['http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chris_Cornell', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello'], 'related_artists': ['http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'http://dbpedia.org/resource/Rage_Against_the_Machine__Rage_Against_the_Machine__1', 'http://dbpedia.org/resource/Soundgarden', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat'], 'abstract': "Audioslave was an American rock supergroup formed in Glendale, California, in 2001. The four-piece band consisted of Soundgarden's lead singer and rhythm guitarist Chris Cornell with Rage Against the Machine members Tom Morello (lead guitar), Tim Commerford (bass/backing vocals), and Brad Wilk (drums). Critics first described Audioslave as a combination of Soundgarden and Rage Against the Machine, but by the band's second album, Out of Exile, it was noted that they had established a separate identity. Their unique sound was created by blending 1970s hard rock and 1990s alternative rock, with musical influences that included 1960s funk, soul and R&amp;B. As with Rage Against the Machine, the band prided themselves on the fact that all sounds on their albums were produced using only guitars, bass, drums, and vocals, with emphasis on Cornell's wide vocal range and Morello's unconventional guitar solos. In their six years together, Audioslave released three albums, received three Grammy nominations, sold more than eight million records worldwide and became the first American rock band to perform an open-air concert in Cuba. They disbanded in February 2007 after Cornell issued a statement announcing that he was leaving the band. Later that year, Cornell and Morello released solo albums, and Morello, Commerford, and Wilk reunited with Zack de la Rocha for the Rage Against the Machine Reunion Tour. Audioslave reunited to perform at Prophets of Rage's Anti-Inaugural Ball, which took place on January 20, 2017. Cornell's death later that year precluded any chance of further reunions."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Soil_(British_band)', 'artist_name': 'Soil', 'wiki': 'http://en.wikipedia.org/wiki/Soil_(British_band)', 'hometown': 'http://dbpedia.org/resource/Manchester', 'start_year': '1984', 'end_year': '1987', 'genres': ['http://dbpedia.org/resource/Indie_pop'], 'old_members': ['Gary Farrell', "Ged O'Brien", 'Kevin Siddall', 'Lee Bennett', 'Matthew Karas', 'Phil Morris', 'Rob Kerford'], 'related_artists': ['http://dbpedia.org/resource/Glassglue'], 'abstract': 'Soil was a British indie pop group, formed in Manchester in 1984, by North Manchester school-friends, Kevin Siddall (songwriter/guitar), Lee Bennett (bass guitar) and Rob Kerford (drums), and University of Manchester student, Matthew Karas (songwriter/vocals/keyboards/harmonica). Kerford left the group, just before the first gig, and Matthew\'s neighbour, Ravi Low-Beer, stood in on drums. Low-Beer, Kerford and guitarist, Siddall, all played drums on the four song cassette, Too Ill to Close the Door, which was duplicated and distributed by the group, and reviewed in City Life and the Manchester Evening News. After auditioning a few drummers, Gary Farrell, from Stretford, joined the group. In this line-up, Soil supported The Smiths in Kilburn, on 23 October 1986, at Morrissey\'s invitation. This was the concert at which The Smiths\' live album, Rank, was recorded. Karas had given Morrissey a cassette during a chance encounter, and received a postcard shortly afterwards. In the same year, Soil played at venues around Manchester, and regularly appeared at The Boardwalk. They also supported Easterhouse on a short UK tour. Their only release was a flexi-single on the cover of Debris fanzine, edited by Dave Haslam. The track, "Front Room". was played on BBC Radio 1 by John Peel several times, as well as on the local radio stations, BBC Radio Manchester and Red Rose Radio. Karas and Kevin recorded three jingles for the BBC Radio Manchester show, Meltdown, which were played weekly for several months. Soon after the Smiths concert, both Farrell and Bennett left the group. Karas and Siddall played one concert with a backing tape, before recruiting bass guitarist, Phil Morris, and drummer, Ged O\'Brien, who played at their final performance at The Boardwalk in 1987. Karas and Siddall have written and recorded sporadically since 1987, but have not released anything or performed in public. They played a short set in 2013, at Karas\' 50th birthday party. Karas played bass guitar and harmonica with The Fallen Leaves from 2009 until 2021, and has been playing various instruments, writing and arranging with Glassglue since 2003.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'artist_name': 'Rob Thomas', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Thomas_(musician)', 'hometown': 'http://dbpedia.org/resource/Sarasota,_Florida', 'birth_date': '14 February 1972', 'start_year': '1990', 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Adult_contemporary_music', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Soft_rock', 'adult contemporary', 'pop'], 'related_artists': ['http://dbpedia.org/resource/Britton_Buchanan', 'http://dbpedia.org/resource/Chris_Trapper', 'http://dbpedia.org/resource/Itaal_Shur', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Jon_Farriss', 'http://dbpedia.org/resource/Kyle_Cook', 'http://dbpedia.org/resource/LeAnn_Rimes', 'http://dbpedia.org/resource/Matchbox_Twenty', 'http://dbpedia.org/resource/Matt_Serletic', 'http://dbpedia.org/resource/Santana_(band)', "http://dbpedia.org/resource/Tabitha's_Secret", 'http://dbpedia.org/resource/The_Break_and_Repair_Method', 'http://dbpedia.org/resource/Tim_Williams_(rock_musician)'], 'abstract': 'Robert Kelly Thomas (born February 14, 1972) is an American singer, songwriter, and multi-instrumentalist best known for being the lead singer of the rock band Matchbox Twenty. Thomas also records and performs as a solo artist, with "Lonely No More" released in 2005 becoming his biggest solo chart success. Thomas received three Grammy Awards for co-writing and singing on the 1999 hit "Smooth" by Santana and it also was his first song as a solo artist. He has also been a songwriter for artists such as Willie Nelson, Mick Jagger, Marc Anthony, Pat Green, Taylor Hicks, Travis Tritt, and Daughtry. Since 1996, his band has released a string of hit singles to radio, including "Push", "3AM", "Real World", "Back 2 Good", "Bent", "If You\'re Gone", "Mad Season", "Disease", "Unwell", "Bright Lights", "How Far We\'ve Come", and "She\'s So Mean". In 2004, the Songwriters Hall of Fame awarded Thomas its first Hal David Starlight Award, recognizing young songwriters who have already had a lasting influence in the music industry.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Amy_Lee_(saxophonist)', 'artist_name': 'Amy Lee', 'wiki': 'http://en.wikipedia.org/wiki/Amy_Lee_(saxophonist)', 'hometown': 'http://dbpedia.org/resource/North_Adams,_Massachusetts', 'genres': ['Jazz'], 'abstract': "Amy Lee is an American saxophonist, composer and arranger. She has played with a variety of musicians and singers, and is best known for being a member of Jimmy Buffett's Coral Reefer Band. Lee was born in North Adams, Massachusetts and studied music at the University of Miami. After graduating, she moved to Atlanta, Georgia. While living in Atlanta, Lee met Charles Neville of The Neville Brothers and began playing for his group Diversity at the New Orleans Jazz and Heritage Festival. Her first album performance was in 1990 on Richard Smallwood's Portrait. After playing with Diversity for six years at the Festival, Lee was introduced to Jimmy Buffett by Neville, and in 1991, she joined Buffett's Coral Reefer Band, where she recorded and toured until 2006. During her career, Lee has recorded for gospel singer Luther Barnes and rap group Y'all So Stupid. She has also acted as a performer, arranger and writer for radio and television commercials. Lee released her first solo album in 1999, a jazz record titled Inside the Outside. A second album, Use Me, was released in 2004. All of her solo music is released on her independent label Publick Ptomaine Music."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Danko_Jones', 'artist_name': 'Danko Jones', 'wiki': 'http://en.wikipedia.org/wiki/Danko_Jones', 'hometown': 'http://dbpedia.org/resource/Toronto', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/Aquarius_Records_(Canada)', 'http://dbpedia.org/resource/Bad_Taste_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Garage_punk_(fusion_genre)', 'http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Punk_blues'], 'actual_members': ['http://dbpedia.org/resource/Danko_Jones_(musician)', 'John Calabrese', 'Rich Knox'], 'old_members': ['Adam Willard', 'Damon Richardson', 'Dan Cornelius', 'Gavin Brown', 'Michael Caricari', 'Niko Quintal'], 'related_artists': ['http://dbpedia.org/resource/Atom_Willard', 'http://dbpedia.org/resource/Cold_Driven', 'http://dbpedia.org/resource/Cookie_Duster', 'http://dbpedia.org/resource/Danko_Jones_(musician)', 'http://dbpedia.org/resource/The_Special_Goodness'], 'abstract': "Danko Jones is a Canadian hard rock trio from Toronto. The band consists of Indo-Canadian Danko Jones (vocals/guitar), John 'JC' Calabrese (bass), and Rich Knox (drums). The band's music includes elements of hard rock and punk and they are known for their energetic live shows."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Theory_of_a_Deadman', 'artist_name': 'Theory of a Deadman', 'wiki': 'http://en.wikipedia.org/wiki/Theory_of_a_Deadman', 'hometown': 'http://dbpedia.org/resource/North_Delta', 'start_year': '1999', 'aliases': ['TOAD', 'Theory'], 'labels': ['http://dbpedia.org/resource/604_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Roadrunner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['Tyler Connolly', 'Dave Brenner', 'Dean Back', 'Joey Dandeneau'], 'old_members': ['http://dbpedia.org/resource/Brent_Fitz', 'Tim Hart', 'Robin Diaz'], 'related_artists': ['http://dbpedia.org/resource/Brent_Fitz', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Jocelyn_&amp;_Lisa', 'http://dbpedia.org/resource/Nickelback'], 'abstract': 'Theory of a Deadman (abbreviated as Theory or TOAD) is a Canadian rock band from North Delta, British Columbia. Formed in 1999, the band is currently signed to Roadrunner Records as well as 604 Records. The band includes traits of music styles, such as country and acoustic, in addition to their post-grunge and alternative rock foundation. Nine of their singles have entered the top ten of the US Billboard Mainstream Rock chart, including four songs that peaked at number one: "Bad Girlfriend", "Lowlife", "Rx (Medicate)" and "History of Violence".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bad_Wolves', 'artist_name': 'Bad Wolves', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Wolves', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2017', 'labels': ['http://dbpedia.org/resource/Better_Noise_Music', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group'], 'genres': ['http://dbpedia.org/resource/Djent', 'http://dbpedia.org/resource/Groove_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'Heavy metal'], 'actual_members': ['John Boecklin ', 'Doc Coyle ', 'Chris Cain ', 'Kyle Konkiel ', 'Daniel "DL" Lasckiewicz'], 'old_members': ['http://dbpedia.org/resource/Tommy_Vext'], 'related_artists': ['http://dbpedia.org/resource/Bury_Your_Dead', 'http://dbpedia.org/resource/DevilDriver', 'http://dbpedia.org/resource/Divine_Heresy', 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'http://dbpedia.org/resource/God_Forbid', 'http://dbpedia.org/resource/In_This_Moment', 'http://dbpedia.org/resource/The_Acacia_Strain', 'http://dbpedia.org/resource/Tommy_Vext', 'http://dbpedia.org/resource/Vimic'], 'abstract': 'Bad Wolves is an American heavy metal band formed in 2017. Initially finding fame from their first single, a cover of the Cranberries\' 1994 hit "Zombie", the band proceeded to find further success with a number of songs topping the Billboard Mainstream Rock songs chart, including "Remember When", "Killing Me Slowly", and "Sober". To date, the band has released three studio albums, Disobey (2018), N.A.T.I.O.N. (2019) and Dear Monsters (2021). In January 2021, Vext left the band and was replaced by Daniel "DL" Lasckiewicz. Tensions ensued between Vext and the band, resulting in legal proceedings including Better Noise Music.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Greta_Van_Fleet', 'artist_name': 'Greta Van Fleet', 'wiki': 'http://en.wikipedia.org/wiki/Greta_Van_Fleet', 'hometown': 'http://dbpedia.org/resource/Frankenmuth,_Michigan', 'start_year': '2012', 'labels': ['http://dbpedia.org/resource/Lava_Records', 'http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['Josh Kiszka', 'Jake Kiszka', 'Sam Kiszka', 'Danny Wagner'], 'old_members': ['Kyle Hauck'], 'abstract': 'Greta Van Fleet is an American rock band from Frankenmuth, Michigan, formed in 2012. It consists of Kiszka brothers Josh (vocals), Jake (guitar) and Sam (bass guitar, keyboards); and Danny Wagner (drums). They were signed to Lava Records in March 2017, and a month later they released their debut studio EP, Black Smoke Rising. Their debut single, "Highway Tune", topped the Billboard U.S. Mainstream Rock and Active Rock charts in September 2017 for four weeks in a row. Their second EP, From the Fires, containing the four songs from Black Smoke Rising and four new songs, was released on November 10, 2017, alongside a second single, "Safari Song". From the Fires went on to win the 2019 Grammy Award for Best Rock Album. Their debut full-length studio album, Anthem of the Peaceful Army, was released on October 19, 2018, and topped the Billboard Rock Album charts in the first week after its release. The album\'s first single, "When the Curtain Falls", was released ahead of it in July 2018 and became the band\'s third number-one single on the U.S. Billboard Mainstream Rock charts. Anthem of the Peaceful Army also debuted atop the Billboard Hard Rock charts and reached the number one spot on the Billboard Top Album Sales charts in the first week after its release. A second studio album, The Battle at Garden\'s Gate was released on April 16, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jonathan_Davis', 'artist_name': 'Jonathan Davis', 'wiki': 'http://en.wikipedia.org/wiki/Jonathan_Davis', 'birth_date': '18 January 1971', 'start_year': '1987', 'aliases': ['J Devil', 'JD', 'JDevil'], 'labels': ['http://dbpedia.org/resource/Dim_Mak_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/MNRK_Music_Group', 'http://dbpedia.org/resource/Prospect_Park_(production_company)', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Sumerian_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/After_the_Dark', 'http://dbpedia.org/resource/Queen_of_the_Damned'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Industrial_metal', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Amy_Lee', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/Killbot_(band)', 'http://dbpedia.org/resource/Korn', 'http://dbpedia.org/resource/Limp_Bizkit', 'http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Michael_Jochum', 'http://dbpedia.org/resource/Motionless_in_White', 'http://dbpedia.org/resource/Sexart', 'http://dbpedia.org/resource/Skynd_(band)', 'http://dbpedia.org/resource/Suicide_Silence', 'http://dbpedia.org/resource/Sunflower_Dead'], 'abstract': "Jonathan Howsmon Davis (born January 18, 1971), also known as JD, or JDevil, is an American singer, songwriter, and musician. He is best known as the lead vocalist and frontman of nu metal band Korn, who are considered a pioneering act of the nu metal genre. Davis' distinctive personality and Korn's music influenced a generation of musicians and performers who have come after them. Davis co-founded Korn in Los Angeles in 1993 with the dissolution of two bands, Sexart and L.A.P.D. He had led Sexart during his years as an assistant coroner. Davis rapidly gained notoriety for his intense and powerful live performances with Korn. Anchored by his personal, passionate lyrics and unusual tenor vocals, Davis launched a successful career which has spanned almost three decades, although his popularity declined in the middle of the 2000s. Davis' vocals, which alternate from an angry tone to a high-pitched voice, switching from sounding atmospheric to aggressively screaming, have been the trademark of Korn throughout the band's career. From 2000 to 2001, Davis and Richard Gibbs wrote and produced the score and soundtrack album of Queen of the Damned, his first work outside the band. He began his side project called Jonathan Davis and the SFA in 2007, and continued to experiment with musical styles. He released his first solo album in 2018. He has collaborated with various artists over the course of his career, ranging from metal to alternative rock, rap, world music and electronic music. Davis is a multi-instrumentalist musician who plays guitar, drums, bagpipes; piano, upright bass, violin, and the clarinet. He is also versatile in many genres, mixing tracks and performs DJ sets with his alter ego JDevil. For decades, Davis has been passionate about visual arts, horror films, comics, and video games. Fourteen of his albums reached the top 10 on the Billboard 200, including MTV Unplugged and Greatest Hits, Vol. 1. In the U.S, he was awarded fifteen platinum album certifications by the Recording Industry Association of America (RIAA). In Australia, he received eight platinum album certifications by the Australian Recording Industry Association (ARIA), and in the UK he received six gold certifications. He won two Grammy Awards out of eight nominations throughout his career. As of 2018, Davis has sold over 40 million albums worldwide."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sevendust', 'artist_name': 'Sevendust', 'wiki': 'http://en.wikipedia.org/wiki/Sevendust', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '1994', 'aliases': ['Crawlspace', 'Rumblefish'], 'labels': ['http://dbpedia.org/resource/Asylum_Records', 'http://dbpedia.org/resource/Rise_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/TVT_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Swimfan', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/John_Connolly_(musician)', 'http://dbpedia.org/resource/Lajon_Witherspoon', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Vinnie_Hornsby', 'Vince Hornsby'], 'old_members': ['http://dbpedia.org/resource/Sonny_Mayo'], 'related_artists': ['http://dbpedia.org/resource/Call_Me_No_One', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Corey_Lowery', 'http://dbpedia.org/resource/Dark_New_Day', 'http://dbpedia.org/resource/John_Connolly_(musician)__John_Connolly__1', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Projected', 'http://dbpedia.org/resource/Snot_(band)', 'http://dbpedia.org/resource/Stuck_Mojo'], 'abstract': 'Sevendust is an American rock band from Atlanta, Georgia, formed in 1994 by bassist Vince Hornsby, drummer Morgan Rose, and guitarist John Connolly. After their first demo, lead vocalist Lajon Witherspoon and guitarist Clint Lowery joined the group. Following a few name changes, the members settled on the name Sevendust and released their self-titled debut album on April 15, 1997, which sold only 310 copies in its first week but ultimately achieved gold certification through touring and support from their label, TVT Records. Since formation, Sevendust have attained success with three consecutive RIAA gold-certified albums, a Grammy nomination, and have sold millions of records worldwide. The group has released a total of thirteen studio albums, including a reissue of their debut as Sevendust: Definitive Edition, which contains five new tracks and a DVD.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Parkway_Drive', 'artist_name': 'Parkway Drive', 'wiki': 'http://en.wikipedia.org/wiki/Parkway_Drive', 'hometown': 'http://dbpedia.org/resource/Byron_Bay', 'start_year': '2003', 'aliases': ['PWD', 'Parkway'], 'labels': ['http://dbpedia.org/resource/Burning_Heart_Records', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/Resist_Records'], 'genres': ['http://dbpedia.org/resource/Deathcore', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Metalcore', 'heavy metal'], 'actual_members': ['Ben Gordon', 'Jeff Ling', "Jia O'Connor", 'Luke Kilpatrick', 'Winston McCall'], 'old_members': ['Brett Versteeg', 'Shaun Cash'], 'related_artists': ['http://dbpedia.org/resource/Adam_Dutkiewicz', 'http://dbpedia.org/resource/Confession_(band)', 'http://dbpedia.org/resource/I_Killed_the_Prom_Queen', 'http://dbpedia.org/resource/In_Hearts_Wake', 'http://dbpedia.org/resource/Northlane'], 'abstract': "Parkway Drive are an Australian metalcore band from Byron Bay, New South Wales, formed in 2003. As of 2018, Parkway Drive have released six studio albums, one EP, two DVDs, a split album and one book, titled Ten Years of Parkway Drive. The band's latest four albums have reached the top 10 of the Australian ARIA Charts, with Ire reaching number 1 in October 2015, and Reverence in May 2018. The band's line-up has been consistent since the addition of bassist Jia O'Connor in 2006, with Brett Versteeg having left in 2004 and Shaun Cash in 2006."}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'South Yorkshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/South_Yorkshire', 'place': 'http://sws.geonames.org/2637273/', 'geo_link': 'http://www.geonames.org/2637273/south-yorkshire.html', 'lat': '53.5', 'long': '-1.3333333333333333', 'population': '1292900'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Ryan_Paris', 'artist_name': 'Ryan Paris', 'wiki': 'http://en.wikipedia.org/wiki/Ryan_Paris', 'birth_date': '12 March 1953', 'start_year': '1983', 'abstract': 'Fabio Roscioli (born 12 March 1953), known by his stage name Ryan Paris, is an Italian singer, songwriter, musician and actor who gained international popularity in 1983 for the worldwide hit single "Dolce Vita", written and produced by Pierluigi Giombini. "Dolce Vita" was released in the United Kingdom on the Carrere Records label, distributed by RCA and spent ten weeks in the UK Singles Chart, peaking at Number 5. The record peaked at Number 1 in France, Belgium, Netherlands, Denmark, Norway, Spain and peaked at Number 3 in Germany. Ryan Paris continued to release records in the mid-1980s and 1990s. In 2010 he made a comeback with a new song, "I Wanna Love You Once Again", which he wrote and composed, with production by Eddy Mi Ami. At the end of that year, Paris co-produced a remix of "Dolce Vita" which peaked at number 54 in the official French club chart. In 2013, the song "Sensation of Love", written and produced by Paris, was released as a single by Bulgarian artist Miroslav Kostadinov, peaking at number 15 in the official Bulgarian CD chart. A new version of the song, with a more 1980s vibe, co-produced by Paris together with Eddy Mi Ami and sung in a duet with Valerie Flor, was released in March 2014. Paris continues to record and produce songs; his most recent releases include the songs "You Are My Life", "Buonasera Dolce Vita" and "Love on Ice". In December 2017, Paris sang "Dolce Vita" in the Catalan language for the Fundació la Marato. This version was produced by Jordi Cubino (David Lyme) and was recorded as a charity single for the benefit of the foundation, with the proceeds being utilised for the study of several human illnesses.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/Kasabian', 'hometown': 'http://dbpedia.org/resource/Leicester', 'start_year': '1997', 'aliases': ['Saracuse'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Space_rock'], 'actual_members': ['http://dbpedia.org/resource/Ian_Matthews_(drummer)', 'http://dbpedia.org/resource/Serge_Pizzorno', 'Tim Carter', 'Chris Edwards', 'Sergio Pizzorno'], 'old_members': ['http://dbpedia.org/resource/Tom_Meighan', 'Chris Karloff'], 'related_artists': ['http://dbpedia.org/resource/Beady_Eye', 'http://dbpedia.org/resource/Ian_Matthews_(drummer)', 'http://dbpedia.org/resource/Jay_Mehler', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Loose_Tapestries', 'http://dbpedia.org/resource/Nika_Boon', 'http://dbpedia.org/resource/Noel_Fielding', 'http://dbpedia.org/resource/Oasis_(band)', 'http://dbpedia.org/resource/Serge_Pizzorno', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_S.L.P.', 'http://dbpedia.org/resource/Tom_Meighan'], 'abstract': 'Kasabian (/kəˈseɪbiən/ kə-SAY-bee-ən) are an English rock band formed in Leicester in 1997 by Tom Meighan, Sergio Pizzorno, Chris Karloff, and Chris Edwards. Drummer Ian Matthews joined in 2004. Karloff left the band in 2006 and founded a new band called Black Onassis. Jay Mehler joined as touring lead guitarist in 2006, leaving for Liam Gallagher\'s Beady Eye in 2013, to be replaced by Tim Carter. Meighan left the band in July 2020. In 2010 and 2014, Kasabian won the Q Awards for "Best Act in the World Today", while they were also named "Best Live Act" at the 2014 Q Awards and the 2007 and 2018 NME Awards. The band\'s music is often described as "indie rock", but Pizzorno has said he "hates indie bands" and does not feel Kasabian fit into that category. Kasabian have released six studio albums – Kasabian (2004), Empire (2006), West Ryder Pauper Lunatic Asylum (2009), Velociraptor! (2011), 48:13 (2014), and For Crying Out Loud (2017). The band\'s music has been described as a mix between The Stone Roses and Primal Scream with the swagger of Oasis. Their music has won them several awards and recognition in the media, including a Brit Award in 2010 for Best British Group, and their live performances have received praise, the most notable of which was their appearance as headliners at the 2014 Glastonbury Festival.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/EMF_(band)', 'artist_name': 'EMF', 'wiki': 'http://en.wikipedia.org/wiki/EMF_(band)', 'hometown': 'http://dbpedia.org/resource/Cinderford', 'start_year': '1989', 'labels': ['http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Alternative_dance', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Baggy'], 'actual_members': ['http://dbpedia.org/resource/Ian_Dench', 'Derry Brownson', 'Mark Decloedt', 'Stevey Marsh', 'Jack Stephens', 'DJ Milf', 'James Atkin'], 'old_members': ['Zac Foley'], 'related_artists': ['http://dbpedia.org/resource/Grand_Theft_Audio', 'http://dbpedia.org/resource/Ian_Dench', 'http://dbpedia.org/resource/Pascal_Gabriel'], 'abstract': 'EMF are a British alternative rock band from Cinderford, Gloucestershire, who came to prominence at the beginning of the 1990s. During their initial eight-year run, from 1989 to 1997, the band released three studio albums before a hiatus. Their first single, "Unbelievable", reached number 3 on the UK Singles Chart, and was a number 1 hit on the US Billboard Hot 100 chart. Their debut album, Schubert Dip, went to number 3 on the UK Albums Chart. The band have split up and re-formed three times.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gerard_Presencer', 'artist_name': 'Gerard Presencer', 'wiki': 'http://en.wikipedia.org/wiki/Gerard_Presencer', 'birth_date': '12 September 1972', 'start_year': '1987', 'genres': ['http://dbpedia.org/resource/Contemporary_classical_music', 'http://dbpedia.org/resource/Jazz'], 'abstract': 'Gerard Presencer (born 12 September 1972) is an English jazz trumpeter.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Halsey_(singer)', 'artist_name': 'Halsey', 'wiki': 'http://en.wikipedia.org/wiki/Halsey_(singer)', 'birth_date': '29 September 1994', 'start_year': '2012', 'related_artists': ['http://dbpedia.org/resource/Aron_Forbes', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Cashmere_Cat', 'http://dbpedia.org/resource/Charlie_Hugall', 'http://dbpedia.org/resource/Dominic_Fike', 'http://dbpedia.org/resource/G-Eazy', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Lani_Renaldo', 'http://dbpedia.org/resource/Lost_Kings', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Young_Rising_Sons', 'http://dbpedia.org/resource/Yungblud'], 'abstract': 'Ashley Nicolette Frangipane (/ˌfrændʒɪˈpɑːni/; born September 29, 1994), known professionally as Halsey (IPA: /ˈhɔːlzi/, /ˈhɑːlzi/), is an American singer and songwriter. Gaining attention from self-released music on social media platforms, she was signed by Astralwerks in 2014 and released her debut EP, Room 93, later that year. Halsey released her debut studio album, Badlands, in 2015. It was certified Double Platinum by the Recording Industry Association of America (RIAA), as were its tracks "Colors" and "Gasoline". In 2016, she was featured on the Chainsmokers\' single "Closer", which topped the charts in over 10 countries. Her second studio album, Hopeless Fountain Kingdom (2017), consisted of more "radio-friendly" music than her previous releases; its singles "Now or Never" and "Bad at Love" reached the top 20 of the Billboard Hot 100, with the latter peaking in the top five. Halsey\'s third studio album, Manic (2020), became her best selling album worldwide, while its lead single "Without Me" became her most successful single as a lead artist. Her fourth studio album, If I Can\'t Have Love, I Want Power (2021), moved away from her previous sound in favor of a darker industrial sound; described by Halsey as "the album [she] always wanted to make", it was produced by Nine Inch Nails members Trent Reznor and Atticus Ross and received generally positive reviews. In 2020, Billboard reported that Halsey has sold over 1 million albums and received over 6 billion streams in the United States. She is noted for her distinctive singing voice. Her awards and nominations include four Billboard Music Awards, one American Music Award, one GLAAD Media Award, an MTV Video Music Award, two Grammy Awards, and being named Songwriter of the year by BMI Film &amp; TV Awards in 2021. She was also included on Time magazine\'s annual list of the 100 most influential people in the world in 2020. Aside from music, she has been involved in suicide prevention awareness, sexual assault victim advocacy, and racial justice protests.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/Pink_Floyd', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1964', 'end_year': '1995', 'aliases': ['Sigma 6', 'The Pink Floyd Sound', 'The Tea Set'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Columbia_Graphophone_Company', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Harvest_Records', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Tower_Records_(record_label)'], 'plays_in': ['http://dbpedia.org/resource/Crystal_Voyager', 'http://dbpedia.org/resource/Delicate_Sound_of_Thunder_(film)', 'http://dbpedia.org/resource/La_Carrera_Panamericana', 'http://dbpedia.org/resource/La_Vallée_(film)', 'http://dbpedia.org/resource/More_(1969_film)', 'http://dbpedia.org/resource/Pink_Floyd:_Live_at_Pompeii', 'http://dbpedia.org/resource/Pulse_(1995_film)', 'http://dbpedia.org/resource/The_Committee_(film)', 'http://dbpedia.org/resource/The_Story_of_Wish_You_Were_Here', 'http://dbpedia.org/resource/Zabriskie_Point_(film)'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_rock', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Psychedelic_music', 'http://dbpedia.org/resource/Space_rock', 'psychedelia'], 'old_members': ['http://dbpedia.org/resource/Bob_Klose', 'http://dbpedia.org/resource/Nick_Mason', 'http://dbpedia.org/resource/Richard_Wright_(musician)', 'Roger Waters', 'Syd Barrett', 'David Gilmour'], 'related_artists': ['http://dbpedia.org/resource/Andy_Roberts_(musician)', 'http://dbpedia.org/resource/Bobbye_Hall', 'http://dbpedia.org/resource/Nick_Mason', 'http://dbpedia.org/resource/Ron_Geesin', 'http://dbpedia.org/resource/Venetta_Fields'], 'abstract': 'Pink Floyd were an English rock band formed in London in 1964. Gaining an early following as one of the first British psychedelic groups, they were distinguished for their extended compositions, sonic experimentation, philosophical lyrics and elaborate live shows. They became a leading band of the progressive rock genre, cited by some as the greatest progressive rock band of all time. Pink Floyd were founded in 1964 by Syd Barrett (guitar, lead vocals), Nick Mason (drums), Roger Waters (bass guitar, vocals), Richard Wright (keyboards, vocals) and Bob Klose (guitars); Klose quit in 1965. Under Barrett\'s leadership, they released two charting singles and the successful debut album The Piper at the Gates of Dawn (1967). Guitarist and vocalist David Gilmour joined in December 1967; Barrett left in April 1968 due to deteriorating mental health. Waters became the primary lyricist and thematic leader, devising the concepts behind the band\'s peak success with the albums The Dark Side of the Moon (1973), Wish You Were Here (1975), Animals (1977) and The Wall (1979). The musical film based on The Wall, Pink Floyd – The Wall (1982), won two BAFTA Awards. Following personal tensions, Wright left Pink Floyd in 1979, followed by Waters in 1985. Gilmour and Mason continued as Pink Floyd, rejoined later by Wright. The band produced two more albums—A Momentary Lapse of Reason (1987) and The Division Bell (1994)—and toured in support of both albums before entering a long period of inactivity. In 2005, all but Barrett reunited for a one-off performance at the global awareness event Live 8. Barrett died in 2006, and Wright in 2008. The last Pink Floyd studio album, The Endless River (2014), was based on unreleased material from the Division Bell recording sessions. By 2013, Pink Floyd had sold more than 250 million records worldwide, making them one of the best-selling music artists of all time. Wish You Were Here, The Dark Side of the Moon, and The Wall are among the best-selling albums of all time, and the latter two have been inducted into the Grammy Hall of Fame. Four of the band\'s albums topped the US Billboard 200, and five of their albums topped the UK Album Chart. Hit singles include "See Emily Play" (1967), "Money" (1973), "Another Brick in the Wall, Part 2" (1979), "Not Now John" (1983), "On the Turning Away" (1987) and "High Hopes" (1994). The band also composed several film scores. They were inducted into the US Rock and Roll Hall of Fame in 1996 and the UK Music Hall of Fame in 2005. In 2008, King Carl XVI Gustaf of Sweden presented Pink Floyd with the Polar Music Prize for their contribution to modern music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Nayer', 'artist_name': 'Nayer', 'wiki': 'http://en.wikipedia.org/wiki/Nayer', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Independent_music'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Latin_pop'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Jean-Roch', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Pitbull_(rapper)'], 'abstract': 'Nayer Regalado known as Nayer, is a Latin-American singer and songwriter. She gained recognition in 2011 after being featured on Pitbull\'s hit single "Give Me Everything", produced by Afrojack, and releasing her single "Suave (Kiss Me)" featuring Pitbull and Swedish-Congolese singer-songwriter Mohombi which was a success in Europe and the Middle East. Her other known collaborations include songs with Ne-Yo, Enrique Iglesias, Lil Wayne, Usher, Fonseca, Juan Magan, Yomil (of the Cuban duo Yomil y el Dany), Jean-Roch and Melissa.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sam_Smith_(painter)', 'artist_name': 'Sam Smith', 'wiki': 'http://en.wikipedia.org/wiki/Sam_Smith_(painter)', 'birth_date': '11 February 1918', 'death_date': '23 May 1999', 'abstract': 'Samuel David Smith (born Thorndale, Texas on February 11, 1918 — May 23, 1999) was an American artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ohio_Players', 'artist_name': 'Ohio Players', 'wiki': 'http://en.wikipedia.org/wiki/Ohio_Players', 'hometown': 'http://dbpedia.org/resource/Ohio', 'start_year': '1959', 'aliases': ['The Ohio Untouchables'], 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Boardwalk_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Westbound_Records'], 'genres': ['http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Progressive_soul'], 'old_members': ['http://dbpedia.org/resource/Dutch_Robinson', 'http://dbpedia.org/resource/Leroy_%22Sugarfoot%22_Bonner', 'http://dbpedia.org/resource/Marshall_%22Rock%22_Jones', 'http://dbpedia.org/resource/Robert_Ward_(blues_musician)', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison', 'Clarence "Chet" Willis', 'Shaun "Shaunie Mac" Dedrick', 'Greg Webster', 'Dean Simms', 'Marvin "Merv" Pierce', 'William "Billy" Beck', 'Paul Machowsky', 'Michael "Slyde" Jennings', 'Cornelius Johnson', 'Jimmy Sampson', 'Ronald "Nooky" Nooks', 'Odeen "Deeno" Mays', 'Ralph "Pee Wee" Middlebrooks', 'Wes Boatman', 'Bruce Napier', 'Ronnie "Diamond" Hoard', 'Bobby Lee Fears', 'Andrew Noland', 'Charles Dale Allen', 'Vincent Thomas', 'Robert "Kuumba" Jones', 'Clarence "Satch" Satchell', 'James "Diamond" Williams'], 'related_artists': ['http://dbpedia.org/resource/Faze-O', 'http://dbpedia.org/resource/Leroy_%22Sugarfoot%22_Bonner', 'http://dbpedia.org/resource/Marshall_%22Rock%22_Jones', 'http://dbpedia.org/resource/Shadow_(group)', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison'], 'abstract': 'Ohio Players is an American funk band, most popular in the 1970s. They are best known for their songs "Fire" and "Love Rollercoaster"; as well as for their erotic album covers that featured nude or nearly nude women. Many of the women were models featured in Playboy. The singles "Funky Worm", "Skin Tight", "Fire", and "Love Rollercoaster"; as well as their albums Skin Tight, Fire, and Honey, were awarded Gold certifications. On August 17, 2013, Ohio Players were inducted into the inaugural class of the Rhythm and Blues Music Hall of Fame that took place at Cleveland State University in Cleveland, Ohio.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Donna_Summer', 'artist_name': 'Donna Summer', 'wiki': 'http://en.wikipedia.org/wiki/Donna_Summer', 'birth_date': '31 December 1948', 'death_date': '17 May 2012', 'start_year': '1968', 'end_year': '2012', 'aliases': ['Donna Gaines', 'Gayn Pierre', 'The First Lady of Love', 'The Queen of Disco'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Burgundy_Records', 'http://dbpedia.org/resource/Casablanca_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/United_Artists_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Picture_Perfect_(1997_film)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Post-disco'], 'related_artists': ['http://dbpedia.org/resource/Barbara_Ingram', 'http://dbpedia.org/resource/Barbra_Streisand', 'http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Brenda_Russell', 'http://dbpedia.org/resource/Brooklyn_Dreams_(group)', 'http://dbpedia.org/resource/Bruce_Roberts_(singer)', 'http://dbpedia.org/resource/Bruce_Springsteen', 'http://dbpedia.org/resource/Bruce_Sudano', 'http://dbpedia.org/resource/Carlena_Williams', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Darwin_Hobbs', 'http://dbpedia.org/resource/David_Batteau', 'http://dbpedia.org/resource/David_Foster', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Graham_Stack_(record_producer)', 'http://dbpedia.org/resource/Harold_Faltermeyer', 'http://dbpedia.org/resource/Joe_Esposito_(singer)', 'http://dbpedia.org/resource/Johnnyswim', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Liza_Minnelli', 'http://dbpedia.org/resource/Matthew_Ward_(singer)', 'http://dbpedia.org/resource/Michael_Omartian', 'http://dbpedia.org/resource/Mickey_Thomas_(singer)', 'http://dbpedia.org/resource/Mike_Stock_(musician)', 'http://dbpedia.org/resource/Musical_Youth', 'http://dbpedia.org/resource/Omega_Red_(rapper)', 'http://dbpedia.org/resource/Paul_Jabara', 'http://dbpedia.org/resource/Pete_Bellotte', 'http://dbpedia.org/resource/Quincy_Jones', 'http://dbpedia.org/resource/Rosabel', 'http://dbpedia.org/resource/Stock_Aitken_Waterman', 'http://dbpedia.org/resource/Westlife', 'http://dbpedia.org/resource/Ziggy_Marley'], 'abstract': 'LaDonna Adrian Gaines (December 31, 1948 – May 17, 2012), known professionally as Donna Summer, was an American singer, songwriter, and actress. She gained prominence during the disco era of the 1970s and became known as the "Queen of Disco", while her music gained a global following. Influenced by the counterculture of the 1960s, Summer became the lead singer of a psychedelic rock band named Crow and moved to New York City. In 1968 she joined a German adaptation of the musical Hair in Munich, where she spent several years living, acting, and singing. There, she met music producers Giorgio Moroder and Pete Bellotte, and they went on to record influential disco hits together such as "Love to Love You Baby" and "I Feel Love", marking Summer\'s breakthrough into international music markets. Summer returned to the United States in 1976, and more hits such as "Last Dance", her version of "MacArthur Park", "Heaven Knows", "Hot Stuff", "Bad Girls", "Dim All the Lights", "No More Tears (Enough Is Enough)" with Barbra Streisand, and "On the Radio" followed. Summer earned a total of 42 hit singles on the US Billboard Hot 100 in her lifetime, with 14 of those reaching the top ten. She claimed a top-40 hit every year between 1975 and 1984, and from her first top-ten hit in 1976, to the end of 1982, she had 12 top-ten hits (10 were top-five hits), more than any other act during that time period. She returned to the Hot 100\'s top five in 1983, and claimed her final top-ten hit in 1989 with "This Time I Know It\'s for Real". She was the first artist to have three consecutive double albums reach the top of the US Billboard 200 chart and charted four number-one singles in the US within a 12-month period. She also charted two number-one singles on the R&amp;B Singles chart in the US and a number-one single in the United Kingdom. Her most recent Hot 100 hit came in 1999 with "I Will Go with You (Con te partirò)". While her fortunes on the Hot 100 waned in subsequent decades, Summer remained a force on the Billboard Dance Club Songs chart throughout her entire career. Summer died on May 17, 2012, from lung cancer, at her home in Naples, Florida. She sold over 100 million records worldwide, making her one of the best-selling music artists of all time. She won five Grammy Awards. In her obituary in The Times, she was described as the "undisputed queen of the Seventies disco boom" who reached the status of "one of the world\'s leading female singers." Moroder described Summer\'s work on the song "I Feel Love" as "really the start of electronic dance" music. In 2013, Summer was inducted into the Rock and Roll Hall of Fame. In December 2016, Billboard ranked her sixth on its list of the "Greatest of All Time Top Dance Club Artists".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kaiser_Chiefs', 'artist_name': 'Kaiser Chiefs', 'wiki': 'http://en.wikipedia.org/wiki/Kaiser_Chiefs', 'hometown': 'http://dbpedia.org/resource/Leeds', 'start_year': '2000', 'labels': ['http://dbpedia.org/resource/ATO_Records', 'http://dbpedia.org/resource/B-Unique_Records', 'http://dbpedia.org/resource/Drowned_in_Sound', 'http://dbpedia.org/resource/Fiction_Records', 'http://dbpedia.org/resource/Liberation_Music', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Music_Label_&amp;_Artist_Services'], 'genres': ['http://dbpedia.org/resource/Britpop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Andrew_White_(musician)', 'http://dbpedia.org/resource/Kaiser_Chiefs', 'http://dbpedia.org/resource/Ricky_Wilson_(singer)', 'Nick Baines', 'Vijay Mistry', 'Simon Rix'], 'old_members': ['http://dbpedia.org/resource/Nick_Hodgson'], 'related_artists': ['http://dbpedia.org/resource/Andrew_White_(musician)', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Charlie_Hugall', 'http://dbpedia.org/resource/Culprit_1', 'http://dbpedia.org/resource/Nick_Hodgson', 'http://dbpedia.org/resource/Ricky_Wilson_(singer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tony_Visconti'], 'abstract': 'Kaiser Chiefs are an English indie rock band from Leeds who formed in 2000 as Parva, releasing one studio album, 22, in 2003, before renaming and establishing themselves in their current name that same year. Since their formation the band has consisted of lead vocalist Charles Richard Wilson, guitarist Andrew "Whitey" White, bassist Simon Rix, keyboardist Nick "Peanut" Baines and since 2013 drummer Vijay Mistry, who replaced founding drummer Nick Hodgson following his departure from the band in late 2012. Primarily inspired by new wave and punk rock music of the late 1970s and 1980s, the band have released seven original studio albums: Employment (2005), Yours Truly, Angry Mob (2007), Off with Their Heads (2008), The Future Is Medieval (2011), Education, Education, Education &amp; War (2014), Stay Together (2016), and Duck (2019), one EP: Lap of Honour (2005), one compilation album: Souvenir: The Singles 2004–2012 (2012) and numerous singles, including the number one hit song "Ruby". Their album Employment enjoyed critical and commercial success with over three million copies sold. It has won the band three Brit Awards, including the award for Best British Group, a NME award for Best Album, and was shortlisted for the Mercury Prize. Their UK hit singles include 2004 and 2005 number 9 hit "I Predict a Riot", 2007 UK number 1 hit "Ruby", which has sold over 461,000 copies, from their platinum album Yours Truly, Angry Mob plus a further two Top 20 singles in 2007 with "The Angry Mob" and "Everything Is Average Nowadays". Their singles "Ruby", "I Predict a Riot", "Everyday I Love You Less and Less", "Never Miss a Beat" and "Oh My God" had sold a combined total of 1.1 million up to August 2012.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Magic!', 'artist_name': 'Magic!', 'wiki': 'http://en.wikipedia.org/wiki/Magic!', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '2012', 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae_fusion', 'http://dbpedia.org/resource/Reggae_rock'], 'actual_members': ['http://dbpedia.org/resource/Alex_Tanas', 'http://dbpedia.org/resource/Ben_Spivak', 'http://dbpedia.org/resource/Mark_%22Pelli%22_Pellizzer', 'http://dbpedia.org/resource/Nasri_(musician)', 'Mark "Pelli" Pellizzer'], 'related_artists': ['http://dbpedia.org/resource/Adam_Messinger', 'http://dbpedia.org/resource/Nasri_(musician)', 'http://dbpedia.org/resource/The_Messengers_(producers)'], 'abstract': 'Magic! is a Canadian reggae fusion band based in Toronto, Ontario. The band is composed of lead vocalist, guitarist and producer Nasri Atweh (Nasri), guitarist and keyboardist Mark "Pelli" Pellizzer, bassist Ben Spivak, and drummer Alex Tanas. Active since 2012, the band is signed with Latium, Sony, and RCA Records, releasing their debut studio album Don\'t Kill the Magic in 2014, their second studio album Primary Colours in 2016, and their third studio album Expectations in 2018. They are best known for their hit single "Rude", which charted at No. 1 in several countries worldwide, including the US and UK. The band is heavily inspired by the Police and Bob Marley and the Wailers. They are known for having a signature reggae-influenced pop sound.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Owl_City', 'artist_name': 'Owl City', 'wiki': 'http://en.wikipedia.org/wiki/Owl_City', 'hometown': 'http://dbpedia.org/resource/Owatonna,_Minnesota', 'birth_date': '05 July 1986', 'start_year': '2007', 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Christian_electronic_dance_music', 'http://dbpedia.org/resource/Contemporary_Christian_music', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop', 'pop', 'CCM', 'CEDM', 'indietronica'], 'actual_members': ['Adam Young'], 'related_artists': ['http://dbpedia.org/resource/Breanne_Düren', 'http://dbpedia.org/resource/Keith_Kenniff', 'http://dbpedia.org/resource/Lights_(musician)', 'http://dbpedia.org/resource/Matt_Thiessen', 'http://dbpedia.org/resource/Sekai_no_Owari', 'http://dbpedia.org/resource/Swimming_With_Dolphins_(band)', 'http://dbpedia.org/resource/Windsor_Airlift'], 'abstract': 'Owl City is an American electronic music project created in 2007 in Owatonna, Minnesota; it is one of several projects by singer, songwriter and multi-instrumentalist Adam Young. Young created the project while experimenting with music in his parents\' basement. Owl City developed a following on the social networking site MySpace, like many musicians who achieved success in the late 2000s, before signing with Universal Republic Records, now Republic Records, in 2008. After two independent releases, Owl City gained mainstream popularity with the 2009 major label debut album Ocean Eyes, which includes the six-time Platinum single "Fireflies". The album was certified Platinum in the United States in April 2010. In June 2011, Owl City released its third studio album, All Things Bright and Beautiful, which was followed by The Midsummer Station in August 2012. Owl City has recorded songs for several animated films, including Legend of the Guardians: The Owls of Ga\'Hoole, Wreck-It Ralph, The Croods and The Smurfs 2. Owl City also has released several charting singles, most notably "Good Time" and "Fireflies".'}</t>
   </si>
   <si>
     <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Gympie', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Gympie', 'place': 'http://sws.geonames.org/2164129/', 'geo_link': 'http://www.geonames.org/2164129/gympie.html', 'lat': '26.183333333333334', 'long': '152.66666666666666', 'population': '11027'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Yorba Linda, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Yorba_Linda%2C_California', 'place': 'http://sws.geonames.org/5410902/', 'postal_code': '92886', 'geo_link': 'http://www.geonames.org/5410902/yorba-linda.html', 'lat': '33.888551', 'long': '-117.813231', 'population': '64234'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Southfield, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Southfield%2C_Michigan', 'place': 'http://sws.geonames.org/5010643/', 'geo_link': 'http://www.geonames.org/5010643/township-of-southfield.html', 'lat': '42.47972222222222', 'long': '-83.245'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Antonio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Antonio', 'place': 'http://sws.geonames.org/4726206/', 'postal_code': '78233', 'geo_link': 'http://www.geonames.org/4726206/san-antonio.html', 'lat': '29.416666666666668', 'long': '-98.5', 'population': '1327407'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Newark, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newark%2C_New_Jersey', 'place': 'http://sws.geonames.org/5101798/', 'postal_code': '07191', 'geo_link': 'http://www.geonames.org/5101798/newark.html', 'lat': '40.72422', 'long': '-74.172574', 'population': '277140'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peterborough, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Peterborough%2C_Ontario', 'place': 'http://sws.geonames.org/6101645/', 'geo_link': 'http://www.geonames.org/6101645/peterborough.html', 'lat': '44.3', 'long': '-78.31666666666666', 'population': '75877'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
+    <t>{'place_name': 'Riverside, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%B2%D0%B5%D1%80%D1%81%D0%B0%D0%B9%D0%B4_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5387877/', 'postal_code': '92501', 'geo_link': 'http://www.geonames.org/5387877/riverside.html', 'lat': '33.948055555555555', 'long': '-117.39611111111111', 'population': '303871'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Victoria (Australia)', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Victoria_(Australia)', 'place': 'http://sws.geonames.org/2145234/', 'geo_link': 'http://www.geonames.org/2145234/state-of-victoria.html', 'lat': '37.0', 'long': '145', 'population': '5354042'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bremen', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Bremen', 'place': 'http://sws.geonames.org/3220905/', 'geo_link': 'http://www.geonames.org/2944388/bremen.html', 'lat': '53.083333333333336', 'long': '8.8', 'population': '546501'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Decatur, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Decatur%2C_Georgia', 'place': 'http://sws.geonames.org/4191124/', 'postal_code': '30032', 'geo_link': 'http://www.geonames.org/4191124/decatur.html', 'lat': '33.771388888888886', 'long': '-84.29777777777778', 'population': '19335'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ajax, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ajax%2C_Ontario', 'place': 'http://sws.geonames.org/5882873/', 'geo_link': 'http://www.geonames.org/5882873/ajax.html', 'lat': '43.858333333333334', 'long': '-79.0363888888889', 'population': '90167'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Agoura Hills, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Agoura_Hills%2C_California', 'place': 'http://sws.geonames.org/5322553/', 'postal_code': '91301', 'geo_link': 'http://www.geonames.org/5322553/agoura-hills.html', 'lat': '34.153333333333336', 'long': '-118.76166666666667', 'population': '20330'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'La Crescenta-Montrose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/La_Crescenta-Montrose%2C_California', 'place': 'http://sws.geonames.org/7261553/', 'geo_link': 'http://www.geonames.org/7261553/la-crescenta-montrose.html', 'lat': '34.225', 'long': '-118.23694444444445', 'population': '19653'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Cologne', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Cologne', 'place': 'http://sws.geonames.org/6553049/', 'geo_link': 'http://www.geonames.org/6553049/koeln.html', 'lat': '50.93638888888889', 'long': '6.9527777777777775', 'population': '1024373'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Topeka, Kansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Topeka%2C_Kansas', 'place': 'http://sws.geonames.org/4280517/', 'geo_link': 'http://www.geonames.org/4280517/township-of-topeka.html', 'lat': '39.05583333333333', 'long': '-95.68944444444445'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Minneapolis', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Minneapolis', 'place': 'http://sws.geonames.org/5037649/', 'postal_code': '55484', 'geo_link': 'http://www.geonames.org/5037649/minneapolis.html', 'lat': '44.983333333333334', 'long': '-93.26666666666667', 'population': '382578'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Jose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/George_Miner_Elementary_School', 'place': 'http://sws.geonames.org/5392171/', 'postal_code': '95159', 'geo_link': 'http://www.geonames.org/5351939/george-miner-elementary-school.html', 'lat': '37.333333333333336', 'long': '-121.9', 'population': '945942'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
   </si>
   <si>
     <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Sydney', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Sydney', 'place': 'http://sws.geonames.org/2147714/', 'geo_link': 'http://www.geonames.org/2147714/sydney.html', 'lat': '33.865', 'long': '151.20944444444444', 'population': '4627345'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+    <t>{'place_name': 'Jönköping', 'country_code': 'SE', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%99%D1%91%D0%BD%D1%87%D1%91%D0%BF%D0%B8%D0%BD%D0%B3', 'place': 'http://sws.geonames.org/2702979/', 'geo_link': 'http://www.geonames.org/2702979/joenkoeping.html', 'lat': '57.78277777777778', 'long': '14.160555555555556', 'population': '83202'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Manitoba', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Manitoba', 'place': 'http://sws.geonames.org/6065171/', 'geo_link': 'http://www.geonames.org/6065171/manitoba.html', 'lat': '55.0', 'long': '-97.0', 'population': '1193566'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Stafford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Stafford', 'place': 'http://sws.geonames.org/2637142/', 'geo_link': 'http://www.geonames.org/2637142/stafford.html', 'lat': '52.8066', 'long': '-2.1171', 'population': '65290'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bath, Somerset', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bath%2C_Somerset', 'place': 'http://sws.geonames.org/2656173/', 'geo_link': 'http://www.geonames.org/2656173/bath.html', 'lat': '51.38', 'long': '-2.36', 'population': '93238'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'United States', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/United_States', 'place': 'http://sws.geonames.org/6252001/', 'geo_link': 'http://www.geonames.org/6252001/united-states.html', 'lat': '40.0', 'long': '-100.0', 'population': '310232863'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'McLeansville, North Carolina', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/McLeansville%2C_North_Carolina', 'place': 'http://sws.geonames.org/4478715/', 'geo_link': 'http://www.geonames.org/4478715/mcleansville.html', 'lat': '36.10388888888889', 'long': '-79.66027777777778', 'population': '1021'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seoul', 'country_code': 'KR', 'wiki': 'http://en.wikipedia.org/wiki/Seoul', 'place': 'http://sws.geonames.org/1835848/', 'geo_link': 'http://www.geonames.org/1835847/seoul.html', 'lat': '37.56666666666667', 'long': '127', 'population': '10349312'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Lawrenceville, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrenceville%2C_Georgia', 'place': 'http://sws.geonames.org/4205196/', 'postal_code': '30044', 'geo_link': 'http://www.geonames.org/4205196/lawrenceville.html', 'lat': '33.95305555555556', 'long': '-83.9925', 'population': '28546'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
   </si>
   <si>
     <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Toronto', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Toronto', 'place': 'http://sws.geonames.org/8133394/', 'geo_link': 'http://www.geonames.org/6167865/toronto.html', 'lat': '43.7', 'long': '-79.4', 'population': '2600000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lancaster, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lancaster%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5197079/', 'postal_code': '17622', 'geo_link': 'http://www.geonames.org/5197079/lancaster.html', 'lat': '40.039722222222224', 'long': '-76.30444444444444', 'population': '59322'}</t>
+    <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Oxford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Oxford', 'place': 'http://sws.geonames.org/7290621/', 'geo_link': 'http://www.geonames.org/7290621/oxford-district.html', 'lat': '51.75194444444445', 'long': '-1.2577777777777777'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Pulaski, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Pulaski%2C_Mississippi', 'place': 'http://sws.geonames.org/4442609/', 'postal_code': '39152', 'geo_link': 'http://www.geonames.org/4442609/pulaski.html', 'lat': '32.272222222222226', 'long': '-89.60222222222222'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ontario', 'place': 'http://sws.geonames.org/6093943/', 'geo_link': 'http://www.geonames.org/6093943/ontario.html', 'lat': '50.0', 'long': '-85.0', 'population': '12861940'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Portland, Oregon', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9F%D0%BE%D1%80%D1%82%D0%BB%D0%B5%D0%BD%D0%B4', 'place': 'http://sws.geonames.org/5746545/', 'postal_code': '97217', 'geo_link': 'http://www.geonames.org/5746545/portland.html', 'lat': '45.52', 'long': '-122.68194444444444', 'population': '583776'}</t>
   </si>
   <si>
     <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Muskegon, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Muskegon%2C_Michigan', 'place': 'http://sws.geonames.org/5003132/', 'postal_code': '49440', 'geo_link': 'http://www.geonames.org/5003132/muskegon.html', 'lat': '43.23416666666667', 'long': '-86.24833333333333', 'population': '38401'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Columbus, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%BB%D1%83%D0%BC%D0%B1%D1%83%D1%81_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/4509177/', 'postal_code': '43232', 'geo_link': 'http://www.geonames.org/4509177/columbus.html', 'lat': '39.983333333333334', 'long': '-82.98333333333333', 'population': '787033'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+    <t>{'place_name': 'Leicester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leicester', 'place': 'http://sws.geonames.org/3333165/', 'geo_link': 'http://www.geonames.org/2644668/leicester.html', 'lat': '52.63333333333333', 'long': '-1.1333333333333333', 'population': '339239'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Cinderford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Cinderford', 'place': 'http://sws.geonames.org/2652997/', 'geo_link': 'http://www.geonames.org/2652997/cinderford.html', 'lat': '51.8225', 'long': '-2.4989', 'population': '10293'}</t>
   </si>
   <si>
     <t>{'place_name': 'Ohio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ohio', 'place': 'http://sws.geonames.org/5165418/', 'geo_link': 'http://www.geonames.org/5165418/ohio.html', 'lat': '41.121999833333334', 'long': '-80.68399983333333', 'population': '11467123'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Dallas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dallas', 'place': 'http://sws.geonames.org/4684888/', 'postal_code': '75221', 'geo_link': 'http://www.geonames.org/4684888/dallas.html', 'lat': '32.77583333333333', 'long': '-96.79666666666667', 'population': '1197816'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Illinois', 'place': 'http://sws.geonames.org/4896861/', 'geo_link': 'http://www.geonames.org/4896861/illinois.html', 'lat': '41.278216', 'long': '-88.380238', 'population': '12772888'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Springfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Springfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4951788/', 'postal_code': '01111', 'geo_link': 'http://www.geonames.org/4951788/springfield.html', 'lat': '42.10138888888889', 'long': '-72.59027777777777', 'population': '153060'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Costa Mesa, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Costa_Mesa%2C_California', 'place': 'http://sws.geonames.org/5339840/', 'postal_code': '92627', 'geo_link': 'http://www.geonames.org/5339840/costa-mesa.html', 'lat': '33.665', 'long': '-117.91222222222223', 'population': '109960'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London, Ontario', 'country_code': 'CA', 'wiki': 'http://uk.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B4%D0%BE%D0%BD_(%D0%9E%D0%BD%D1%82%D0%B0%D1%80%D1%96%D0%BE)', 'place': 'http://sws.geonames.org/6058560/', 'geo_link': 'http://www.geonames.org/6058560/london.html', 'lat': '42.9837', 'long': '-81.2497', 'population': '346765'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jackson Township, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jackson_Township%2C_New_Jersey', 'place': 'http://sws.geonames.org/5099769/', 'geo_link': 'http://www.geonames.org/5099769/township-of-jackson.html', 'lat': '40.093077', 'long': '-74.35618'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Garden Grove, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Garden_Grove%2C_California', 'place': 'http://sws.geonames.org/5351515/', 'postal_code': '92844', 'geo_link': 'http://www.geonames.org/5351515/garden-grove.html', 'lat': '33.778888888888886', 'long': '-117.96027777777778', 'population': '170883'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bartlett, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bartlett%2C_Tennessee', 'place': 'http://sws.geonames.org/4604183/', 'geo_link': 'http://www.geonames.org/4604183/bartlett.html', 'lat': '35.223055555555554', 'long': '-89.8411111111111', 'population': '54613'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Tennessee', 'place': 'http://sws.geonames.org/4662168/', 'geo_link': 'http://www.geonames.org/4662168/tennessee.html', 'lat': '35.75035', 'long': '-86.25027', 'population': '5935099'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Burlington, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Burlington%2C_Ontario', 'place': 'http://sws.geonames.org/5911592/', 'geo_link': 'http://www.geonames.org/5911592/burlington.html', 'lat': '43.31666666666667', 'long': '-79.8', 'population': '164415'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Escatawpa, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Escatawpa%2C_Mississippi', 'place': 'http://sws.geonames.org/4425816/', 'postal_code': '39552', 'geo_link': 'http://www.geonames.org/4425816/escatawpa.html', 'lat': '30.489166666666666', 'long': '-88.55111111111111', 'population': '3722'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Hanna, Alberta', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Hanna%2C_Alberta', 'place': 'http://sws.geonames.org/5970234/', 'geo_link': 'http://www.geonames.org/5970234/hanna.html', 'lat': '51.638333333333335', 'long': '-111.94194444444445', 'population': '3140'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Washington (state)', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Washington_%28state%29', 'place': 'http://sws.geonames.org/5815135/', 'geo_link': 'http://www.geonames.org/5815135/washington.html', 'lat': '47.50012', 'long': '-120.50147', 'population': '6271775'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tulsa, Oklahoma', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Tulsa,_Oklahoma', 'place': 'http://sws.geonames.org/4553433/', 'postal_code': '74182', 'geo_link': 'http://www.geonames.org/4553433/tulsa.html', 'lat': '36.131388888888885', 'long': '-95.93722222222222', 'population': '391906'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Oklahoma City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oklahoma_City', 'place': 'http://sws.geonames.org/4544349/', 'postal_code': '73143', 'geo_link': 'http://www.geonames.org/4544349/oklahoma-city.html', 'lat': '35.48222222222222', 'long': '-97.535', 'population': '579999'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tallahassee, Florida', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%BB%D0%BB%D0%B0%D1%85%D0%B0%D1%81%D1%81%D0%B8', 'place': 'http://sws.geonames.org/4174715/', 'postal_code': '32314', 'geo_link': 'http://www.geonames.org/4174715/tallahassee.html', 'lat': '30.455', 'long': '-84.25333333333333', 'population': '181376'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Calabasas, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Calabasas%2C_California', 'place': 'http://sws.geonames.org/5332593/', 'postal_code': '91302', 'geo_link': 'http://www.geonames.org/5332593/calabasas.html', 'lat': '34.138333333333335', 'long': '-118.66083333333333', 'population': '23058'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Oakland, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oakland%2C_California', 'place': 'http://sws.geonames.org/5378538/', 'postal_code': '94601', 'geo_link': 'http://www.geonames.org/5378538/oakland.html', 'lat': '37.80444444444444', 'long': '-122.27083333333333', 'population': '390724'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Washington, D.C.', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Washington,_D.C.', 'place': 'http://sws.geonames.org/4140963/', 'postal_code': '20578', 'geo_link': 'http://www.geonames.org/4138106/district-of-columbia.html', 'lat': '38.90472222222222', 'long': '-77.01638888888888', 'population': '552433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Long Beach, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B3-%D0%91%D0%B8%D1%87_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5367929/', 'postal_code': '90853', 'geo_link': 'http://www.geonames.org/5367929/long-beach.html', 'lat': '33.76833333333333', 'long': '-118.19555555555556', 'population': '462257'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Williamsburg, Virginia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Williamsburg%2C_Virginia', 'place': 'http://sws.geonames.org/4793846/', 'postal_code': '23186', 'geo_link': 'http://www.geonames.org/4793846/williamsburg.html', 'lat': '37.270833333333336', 'long': '-76.70694444444445', 'population': '14068'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Copenhagen', 'country_code': 'DK', 'wiki': 'http://en.wikipedia.org/wiki/Copenhagen', 'place': 'http://sws.geonames.org/2618425/', 'geo_link': 'http://www.geonames.org/2618425/copenhagen.html', 'lat': '55.67611111111111', 'long': '12.568333333333333', 'population': '1153615'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Riverside, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%B2%D0%B5%D1%80%D1%81%D0%B0%D0%B9%D0%B4_%28%D0%9A%D0%B0%D0%BB%D0%B8%D1%84%D0%BE%D1%80%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/5387877/', 'postal_code': '92501', 'geo_link': 'http://www.geonames.org/5387877/riverside.html', 'lat': '33.948055555555555', 'long': '-117.39611111111111', 'population': '303871'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Agoura Hills, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Agoura_Hills%2C_California', 'place': 'http://sws.geonames.org/5322553/', 'postal_code': '91301', 'geo_link': 'http://www.geonames.org/5322553/agoura-hills.html', 'lat': '34.153333333333336', 'long': '-118.76166666666667', 'population': '20330'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Texas', 'place': 'http://sws.geonames.org/4736286/', 'geo_link': 'http://www.geonames.org/4736286/texas.html', 'lat': '31.0', 'long': '-100.0', 'population': '22875689'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Maryland', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Maryland', 'place': 'http://sws.geonames.org/4361885/', 'geo_link': 'http://www.geonames.org/4361885/maryland.html', 'lat': '39.00039', 'long': '-76.74997', 'population': '5624246'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Nevada', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Nevada', 'place': 'http://sws.geonames.org/5509151/', 'geo_link': 'http://www.geonames.org/5509151/nevada.html', 'lat': '39.0', 'long': '-117.0', 'population': '2399532'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Waldorf, Maryland', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Waldorf%2C_Maryland', 'place': 'http://sws.geonames.org/4372599/', 'postal_code': '20603', 'geo_link': 'http://www.geonames.org/4372599/waldorf.html', 'lat': '38.64611111111111', 'long': '-76.89833333333333', 'population': '67752'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'West Chester, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/West_Chester%2C_Pennsylvania', 'place': 'http://sws.geonames.org/4562144/', 'postal_code': '19381', 'geo_link': 'http://www.geonames.org/4562144/west-chester.html', 'lat': '39.95861111111111', 'long': '-75.605', 'population': '18461'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Columbia, South Carolina', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Columbia%2C_South_Carolina', 'place': 'http://sws.geonames.org/4575352/', 'postal_code': '29225', 'geo_link': 'http://www.geonames.org/4575352/columbia.html', 'lat': '34.00055555555556', 'long': '-81.03472222222223', 'population': '129272'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Corinth, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Corinth%2C_Mississippi', 'place': 'http://sws.geonames.org/4422713/', 'postal_code': '38834', 'geo_link': 'http://www.geonames.org/4422713/corinth.html', 'lat': '34.937222222222225', 'long': '-88.51527777777778', 'population': '14573'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Manchester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Manchester', 'place': 'http://sws.geonames.org/3333169/', 'geo_link': 'http://www.geonames.org/3333169/manchester.html', 'lat': '53.46666666666667', 'long': '-2.2333333333333334'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sarasota, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Sarasota%2C_Florida', 'place': 'http://sws.geonames.org/4172131/', 'postal_code': '34278', 'geo_link': 'http://www.geonames.org/4172131/sarasota.html', 'lat': '27.337222222222223', 'long': '-82.53527777777778', 'population': '51917'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'North Adams, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/North_Adams%2C_Massachusetts', 'place': 'http://sws.geonames.org/4945486/', 'postal_code': '01247', 'geo_link': 'http://www.geonames.org/4945486/north-adams.html', 'lat': '42.7', 'long': '-73.11666666666666', 'population': '13708'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Frankenmuth, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Frankenmuth%2C_Michigan', 'place': 'http://sws.geonames.org/4993321/', 'postal_code': '48787', 'geo_link': 'http://www.geonames.org/4993321/frankenmuth.html', 'lat': '43.33222222222222', 'long': '-83.74194444444444', 'population': '4944'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
+    <t>{'place_name': 'Leeds', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leeds', 'place': 'http://sws.geonames.org/2644688/', 'geo_link': 'http://www.geonames.org/2644688/leeds.html', 'lat': '53.79972222222222', 'long': '-1.5491666666666668', 'population': '455123'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Owatonna, Minnesota', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Owatonna%2C_Minnesota', 'place': 'http://sws.geonames.org/5040647/', 'postal_code': '55060', 'geo_link': 'http://www.geonames.org/5040647/owatonna.html', 'lat': '44.08722222222222', 'long': '-93.22444444444444', 'population': '25599'}</t>
   </si>
 </sst>
 </file>
@@ -1876,28 +1738,25 @@
         <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="G2">
-        <v>2.093254804611206</v>
+        <v>1.765207052230835</v>
       </c>
       <c r="H2">
-        <v>32.6181173324585</v>
+        <v>21.01063919067383</v>
       </c>
       <c r="I2">
-        <v>0.09373140335083008</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="L2">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1914,25 +1773,25 @@
         <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G3">
-        <v>1.296570777893066</v>
+        <v>1.296806812286377</v>
       </c>
       <c r="H3">
-        <v>10.06012654304504</v>
+        <v>0.1252157688140869</v>
       </c>
       <c r="I3">
-        <v>0.09372186660766602</v>
+        <v>0.09348273277282715</v>
       </c>
       <c r="J3">
         <v>0.6666666666666666</v>
       </c>
       <c r="K3">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="L3">
         <v>0.8888888888888888</v>
@@ -1952,19 +1811,19 @@
         <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="G4">
-        <v>1.20283842086792</v>
+        <v>1.687103748321533</v>
       </c>
       <c r="H4">
-        <v>39.55541896820068</v>
+        <v>12.02813339233398</v>
       </c>
       <c r="I4">
-        <v>0.10931396484375</v>
+        <v>0.09399151802062988</v>
       </c>
       <c r="J4">
         <v>0.6666666666666666</v>
@@ -1973,7 +1832,7 @@
         <v>0.6875</v>
       </c>
       <c r="L4">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1990,28 +1849,25 @@
         <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="G5">
-        <v>1.234078168869019</v>
+        <v>5.373493671417236</v>
       </c>
       <c r="H5">
-        <v>0.124969482421875</v>
+        <v>31.49537348747253</v>
       </c>
       <c r="I5">
-        <v>0.06249237060546875</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K5">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2028,28 +1884,28 @@
         <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G6">
-        <v>1.187222242355347</v>
+        <v>1.140577077865601</v>
       </c>
       <c r="H6">
-        <v>12.04402422904968</v>
+        <v>10.90436267852783</v>
       </c>
       <c r="I6">
-        <v>0.1093478202819824</v>
+        <v>0.2187340259552002</v>
       </c>
       <c r="J6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2062,29 +1918,26 @@
       <c r="C7" t="s">
         <v>116</v>
       </c>
-      <c r="D7" t="s">
-        <v>216</v>
-      </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G7">
-        <v>1.952663421630859</v>
+        <v>0.5779783725738525</v>
       </c>
       <c r="H7">
-        <v>11.04426622390747</v>
+        <v>30.79015159606934</v>
       </c>
       <c r="I7">
-        <v>0.1093466281890869</v>
+        <v>0.1093671321868896</v>
       </c>
       <c r="J7">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2101,31 +1954,31 @@
         <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="G8">
-        <v>1.968284845352173</v>
+        <v>1.018099069595337</v>
       </c>
       <c r="H8">
-        <v>10.45116329193115</v>
+        <v>0.1718535423278809</v>
       </c>
       <c r="I8">
-        <v>0.2346081733703613</v>
+        <v>0.06241154670715332</v>
       </c>
       <c r="J8">
         <v>0.6666666666666666</v>
       </c>
       <c r="K8">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2139,31 +1992,28 @@
         <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
-      </c>
-      <c r="F9" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="G9">
-        <v>1.780933618545532</v>
+        <v>1.202954769134521</v>
       </c>
       <c r="H9">
-        <v>24.2938084602356</v>
+        <v>13.40322852134705</v>
       </c>
       <c r="I9">
-        <v>0.2187366485595703</v>
+        <v>0.1092410087585449</v>
       </c>
       <c r="J9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K9">
         <v>0.6875</v>
       </c>
       <c r="L9">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2177,31 +2027,25 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="G10">
-        <v>1.312251329421997</v>
+        <v>1.187498569488525</v>
       </c>
       <c r="H10">
-        <v>21.18261766433716</v>
+        <v>31.930335521698</v>
       </c>
       <c r="I10">
-        <v>0.1249077320098877</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2215,31 +2059,28 @@
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="G11">
-        <v>1.327850580215454</v>
+        <v>1.749584913253784</v>
       </c>
       <c r="H11">
-        <v>9.498665809631348</v>
+        <v>32.71234726905823</v>
       </c>
       <c r="I11">
-        <v>0.09371328353881836</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2253,31 +2094,28 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" t="s">
-        <v>412</v>
+        <v>317</v>
       </c>
       <c r="G12">
-        <v>1.280932188034058</v>
+        <v>1.734176158905029</v>
       </c>
       <c r="H12">
-        <v>31.52672934532166</v>
+        <v>9.841440200805664</v>
       </c>
       <c r="I12">
-        <v>0.09374761581420898</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2291,31 +2129,28 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="G13">
-        <v>1.858941555023193</v>
+        <v>1.421586513519287</v>
       </c>
       <c r="H13">
-        <v>31.56031942367554</v>
+        <v>31.69662165641785</v>
       </c>
       <c r="I13">
-        <v>0.1093490123748779</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.375</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2329,28 +2164,28 @@
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G14">
-        <v>1.265287399291992</v>
+        <v>1.031240940093994</v>
       </c>
       <c r="H14">
-        <v>12.56003642082214</v>
+        <v>31.54243206977844</v>
       </c>
       <c r="I14">
-        <v>0.09372973442077637</v>
+        <v>0.1249833106994629</v>
       </c>
       <c r="J14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
         <v>0.8888888888888888</v>
@@ -2367,28 +2202,28 @@
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="G15">
-        <v>1.296574592590332</v>
+        <v>1.031000852584839</v>
       </c>
       <c r="H15">
-        <v>13.70015931129456</v>
+        <v>11.77939701080322</v>
       </c>
       <c r="I15">
-        <v>0.1093404293060303</v>
+        <v>0.1093497276306152</v>
       </c>
       <c r="J15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2405,31 +2240,28 @@
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>325</v>
-      </c>
-      <c r="F16" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="G16">
-        <v>1.140391111373901</v>
+        <v>1.374712467193604</v>
       </c>
       <c r="H16">
-        <v>51.41340708732605</v>
+        <v>36.33565282821655</v>
       </c>
       <c r="I16">
-        <v>0.09393811225891113</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="L16">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2443,31 +2275,28 @@
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>326</v>
-      </c>
-      <c r="F17" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="G17">
-        <v>1.437452077865601</v>
+        <v>1.296588659286499</v>
       </c>
       <c r="H17">
-        <v>21.73046207427979</v>
+        <v>16.55872821807861</v>
       </c>
       <c r="I17">
-        <v>0.1093499660491943</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2481,31 +2310,25 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" t="s">
-        <v>327</v>
-      </c>
-      <c r="F18" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="G18">
-        <v>1.005218982696533</v>
+        <v>1.249932050704956</v>
       </c>
       <c r="H18">
-        <v>12.71630454063416</v>
+        <v>12.49822044372559</v>
       </c>
       <c r="I18">
-        <v>0.1749444007873535</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0.6666666666666666</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2519,31 +2342,28 @@
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>328</v>
-      </c>
-      <c r="F19" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="G19">
-        <v>1.124699354171753</v>
+        <v>1.439258098602295</v>
       </c>
       <c r="H19">
-        <v>36.4843418598175</v>
+        <v>11.56317377090454</v>
       </c>
       <c r="I19">
-        <v>0.1247403621673584</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0.6666666666666666</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2557,31 +2377,28 @@
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="G20">
-        <v>1.234254360198975</v>
+        <v>1.520200252532959</v>
       </c>
       <c r="H20">
-        <v>29.46180725097656</v>
+        <v>10.34587526321411</v>
       </c>
       <c r="I20">
-        <v>0.1249420642852783</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2595,31 +2412,28 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="G21">
-        <v>1.406127214431763</v>
+        <v>1.335016965866089</v>
       </c>
       <c r="H21">
-        <v>0.1406886577606201</v>
+        <v>10.04754376411438</v>
       </c>
       <c r="I21">
-        <v>0.06227540969848633</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2633,31 +2447,28 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>331</v>
-      </c>
-      <c r="F22" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="G22">
-        <v>0.9170660972595215</v>
+        <v>0.9516372680664062</v>
       </c>
       <c r="H22">
-        <v>34.71290946006775</v>
+        <v>0.1561965942382812</v>
       </c>
       <c r="I22">
-        <v>0.1081118583679199</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0.6666666666666666</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2671,28 +2482,28 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F23" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="G23">
-        <v>1.282668590545654</v>
+        <v>1.577756881713867</v>
       </c>
       <c r="H23">
-        <v>31.50236511230469</v>
+        <v>14.94965195655823</v>
       </c>
       <c r="I23">
-        <v>0.1149828433990479</v>
+        <v>0.1094992160797119</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2709,25 +2520,25 @@
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="G24">
-        <v>1.242227792739868</v>
+        <v>1.14028000831604</v>
       </c>
       <c r="H24">
-        <v>19.0542778968811</v>
+        <v>31.16523432731628</v>
       </c>
       <c r="I24">
-        <v>0.1200056076049805</v>
+        <v>0.09373021125793457</v>
       </c>
       <c r="J24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0.75</v>
@@ -2747,28 +2558,28 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G25">
-        <v>1.388140439987183</v>
+        <v>1.765202283859253</v>
       </c>
       <c r="H25">
-        <v>15.38795375823975</v>
+        <v>11.75046372413635</v>
       </c>
       <c r="I25">
-        <v>0.1098873615264893</v>
+        <v>0.1093547344207764</v>
       </c>
       <c r="J25">
         <v>0.6666666666666666</v>
       </c>
       <c r="K25">
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2785,28 +2596,31 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="F26" t="s">
+        <v>403</v>
       </c>
       <c r="G26">
-        <v>1.752613544464111</v>
+        <v>0.9531450271606445</v>
       </c>
       <c r="H26">
-        <v>35.05238604545593</v>
+        <v>18.54265880584717</v>
       </c>
       <c r="I26">
-        <v>0.1243159770965576</v>
+        <v>0.1247360706329346</v>
       </c>
       <c r="J26">
         <v>0.6666666666666666</v>
       </c>
       <c r="K26">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2820,31 +2634,31 @@
         <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="G27">
-        <v>1.293233394622803</v>
+        <v>1.436932802200317</v>
       </c>
       <c r="H27">
-        <v>25.79675531387329</v>
+        <v>11.71782636642456</v>
       </c>
       <c r="I27">
-        <v>0.1050090789794922</v>
+        <v>0.1562156677246094</v>
       </c>
       <c r="J27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2858,31 +2672,31 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F28" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="G28">
-        <v>1.384778261184692</v>
+        <v>1.07892632484436</v>
       </c>
       <c r="H28">
-        <v>11.90709376335144</v>
+        <v>30.89988780021667</v>
       </c>
       <c r="I28">
-        <v>0.09373021125793457</v>
+        <v>0.1093792915344238</v>
       </c>
       <c r="J28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K28">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2896,28 +2710,28 @@
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F29" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="G29">
-        <v>1.370736598968506</v>
+        <v>1.343431949615479</v>
       </c>
       <c r="H29">
-        <v>0.2701723575592041</v>
+        <v>32.86817932128906</v>
       </c>
       <c r="I29">
-        <v>0.06763195991516113</v>
+        <v>0.09372735023498535</v>
       </c>
       <c r="J29">
         <v>0.6666666666666666</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2934,31 +2748,28 @@
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>339</v>
-      </c>
-      <c r="F30" t="s">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="G30">
-        <v>0.9556410312652588</v>
+        <v>1.047393321990967</v>
       </c>
       <c r="H30">
-        <v>13.613933801651</v>
+        <v>0.1403594017028809</v>
       </c>
       <c r="I30">
-        <v>0.1202683448791504</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2972,31 +2783,25 @@
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
-      </c>
-      <c r="E31" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" t="s">
-        <v>433</v>
+        <v>239</v>
       </c>
       <c r="G31">
-        <v>1.376882553100586</v>
+        <v>1.374667882919312</v>
       </c>
       <c r="H31">
-        <v>51.69721961021423</v>
+        <v>10.99763798713684</v>
       </c>
       <c r="I31">
-        <v>0.1005103588104248</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3010,31 +2815,28 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>341</v>
-      </c>
-      <c r="F32" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="G32">
-        <v>1.394554376602173</v>
+        <v>1.343431949615479</v>
       </c>
       <c r="H32">
-        <v>12.29987668991089</v>
+        <v>12.3252112865448</v>
       </c>
       <c r="I32">
-        <v>0.1093106269836426</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0.6666666666666666</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3048,31 +2850,31 @@
         <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F33" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="G33">
-        <v>7.017457246780396</v>
+        <v>0.9847042560577393</v>
       </c>
       <c r="H33">
-        <v>13.61778140068054</v>
+        <v>48.95995569229126</v>
       </c>
       <c r="I33">
-        <v>0.1136629581451416</v>
+        <v>0.1093161106109619</v>
       </c>
       <c r="J33">
         <v>0.6666666666666666</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L33">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3086,28 +2888,28 @@
         <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F34" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="G34">
-        <v>1.244073390960693</v>
+        <v>1.077869653701782</v>
       </c>
       <c r="H34">
-        <v>35.55896329879761</v>
+        <v>32.12048053741455</v>
       </c>
       <c r="I34">
-        <v>0.1103227138519287</v>
+        <v>0.09369802474975586</v>
       </c>
       <c r="J34">
         <v>0.6666666666666666</v>
       </c>
       <c r="K34">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
         <v>0.8888888888888888</v>
@@ -3124,22 +2926,22 @@
         <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F35" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="G35">
-        <v>1.344690799713135</v>
+        <v>1.593382835388184</v>
       </c>
       <c r="H35">
-        <v>20.24324107170105</v>
+        <v>14.8726372718811</v>
       </c>
       <c r="I35">
-        <v>0.09372901916503906</v>
+        <v>0.1093194484710693</v>
       </c>
       <c r="J35">
         <v>0.6666666666666666</v>
@@ -3162,31 +2964,31 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="G36">
-        <v>1.624898910522461</v>
+        <v>1.24975061416626</v>
       </c>
       <c r="H36">
-        <v>31.54113531112671</v>
+        <v>12.60736560821533</v>
       </c>
       <c r="I36">
-        <v>0.1090865135192871</v>
+        <v>0.1249198913574219</v>
       </c>
       <c r="J36">
         <v>0.6666666666666666</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="L36">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3200,22 +3002,25 @@
         <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="E37" t="s">
+        <v>340</v>
       </c>
       <c r="G37">
-        <v>1.493010282516479</v>
+        <v>1.843581438064575</v>
       </c>
       <c r="H37">
-        <v>73.01506567001343</v>
+        <v>10.35792279243469</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3232,25 +3037,31 @@
         <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="E38" t="s">
+        <v>341</v>
+      </c>
+      <c r="F38" t="s">
+        <v>410</v>
       </c>
       <c r="G38">
-        <v>1.57923150062561</v>
+        <v>1.155976295471191</v>
       </c>
       <c r="H38">
-        <v>2.261905670166016</v>
+        <v>30.43243432044983</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.1095035076141357</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3264,25 +3075,25 @@
         <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="G39">
-        <v>1.803250789642334</v>
+        <v>1.281213283538818</v>
       </c>
       <c r="H39">
-        <v>28.45332193374634</v>
+        <v>10.95026588439941</v>
       </c>
       <c r="I39">
-        <v>0.1092283725738525</v>
+        <v>0.09372782707214355</v>
       </c>
       <c r="J39">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0.6875</v>
@@ -3302,31 +3113,28 @@
         <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>347</v>
-      </c>
-      <c r="F40" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="G40">
-        <v>1.119688510894775</v>
+        <v>1.046714305877686</v>
       </c>
       <c r="H40">
-        <v>30.67842388153076</v>
+        <v>10.59101247787476</v>
       </c>
       <c r="I40">
-        <v>0.114586353302002</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0.6666666666666666</v>
       </c>
       <c r="K40">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3340,31 +3148,28 @@
         <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>348</v>
-      </c>
-      <c r="F41" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="G41">
-        <v>1.190550565719604</v>
+        <v>1.234118700027466</v>
       </c>
       <c r="H41">
-        <v>18.83218479156494</v>
+        <v>10.82609939575195</v>
       </c>
       <c r="I41">
-        <v>0.1249251365661621</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0.6666666666666666</v>
       </c>
       <c r="K41">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3378,31 +3183,28 @@
         <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>349</v>
-      </c>
-      <c r="F42" t="s">
-        <v>441</v>
+        <v>345</v>
       </c>
       <c r="G42">
-        <v>1.58787727355957</v>
+        <v>1.561853408813477</v>
       </c>
       <c r="H42">
-        <v>15.46010279655457</v>
+        <v>10.37279176712036</v>
       </c>
       <c r="I42">
-        <v>0.1093978881835938</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3416,31 +3218,28 @@
         <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>350</v>
-      </c>
-      <c r="F43" t="s">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="G43">
-        <v>1.912166118621826</v>
+        <v>1.562095403671265</v>
       </c>
       <c r="H43">
-        <v>11.00788640975952</v>
+        <v>11.15390849113464</v>
       </c>
       <c r="I43">
-        <v>0.09591817855834961</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="L43">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3454,31 +3253,25 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" t="s">
-        <v>351</v>
-      </c>
-      <c r="F44" t="s">
-        <v>418</v>
+        <v>252</v>
       </c>
       <c r="G44">
-        <v>1.234088182449341</v>
+        <v>1.265304565429688</v>
       </c>
       <c r="H44">
-        <v>13.79670405387878</v>
+        <v>11.85761308670044</v>
       </c>
       <c r="I44">
-        <v>0.09384727478027344</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K44">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3492,31 +3285,28 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>352</v>
-      </c>
-      <c r="F45" t="s">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="G45">
-        <v>1.566835641860962</v>
+        <v>1.046844482421875</v>
       </c>
       <c r="H45">
-        <v>14.51227450370789</v>
+        <v>12.07621908187866</v>
       </c>
       <c r="I45">
-        <v>0.1091296672821045</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L45">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3530,31 +3320,28 @@
         <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>353</v>
-      </c>
-      <c r="F46" t="s">
-        <v>444</v>
+        <v>348</v>
       </c>
       <c r="G46">
-        <v>1.268276691436768</v>
+        <v>0.9372026920318604</v>
       </c>
       <c r="H46">
-        <v>31.21272540092468</v>
+        <v>10.71605539321899</v>
       </c>
       <c r="I46">
-        <v>0.1178038120269775</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0.6666666666666666</v>
       </c>
       <c r="K46">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3568,31 +3355,25 @@
         <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
-      </c>
-      <c r="E47" t="s">
-        <v>354</v>
-      </c>
-      <c r="F47" t="s">
-        <v>445</v>
+        <v>255</v>
       </c>
       <c r="G47">
-        <v>0.9951670169830322</v>
+        <v>1.890006065368652</v>
       </c>
       <c r="H47">
-        <v>33.98902988433838</v>
+        <v>32.52561378479004</v>
       </c>
       <c r="I47">
-        <v>0.1174173355102539</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3605,29 +3386,26 @@
       <c r="C48" t="s">
         <v>157</v>
       </c>
-      <c r="D48" t="s">
-        <v>257</v>
-      </c>
       <c r="E48" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F48" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="G48">
-        <v>1.328028202056885</v>
+        <v>0.452747106552124</v>
       </c>
       <c r="H48">
-        <v>31.76982665061951</v>
+        <v>11.40423631668091</v>
       </c>
       <c r="I48">
-        <v>0.1091346740722656</v>
+        <v>0.09369516372680664</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L48">
         <v>0.8888888888888888</v>
@@ -3644,31 +3422,28 @@
         <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>356</v>
-      </c>
-      <c r="F49" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="G49">
-        <v>1.358822584152222</v>
+        <v>1.108870267868042</v>
       </c>
       <c r="H49">
-        <v>21.59738969802856</v>
+        <v>32.08939695358276</v>
       </c>
       <c r="I49">
-        <v>0.09368705749511719</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K49">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3681,32 +3456,26 @@
       <c r="C50" t="s">
         <v>159</v>
       </c>
-      <c r="D50" t="s">
-        <v>259</v>
-      </c>
       <c r="E50" t="s">
-        <v>357</v>
-      </c>
-      <c r="F50" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="G50">
-        <v>1.484805822372437</v>
+        <v>0.5779836177825928</v>
       </c>
       <c r="H50">
-        <v>14.66285610198975</v>
+        <v>11.02887487411499</v>
       </c>
       <c r="I50">
-        <v>0.10780930519104</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3720,28 +3489,28 @@
         <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E51" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F51" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="G51">
-        <v>1.128524303436279</v>
+        <v>1.093513488769531</v>
       </c>
       <c r="H51">
-        <v>15.39898943901062</v>
+        <v>40.19463443756104</v>
       </c>
       <c r="I51">
-        <v>0.09722232818603516</v>
+        <v>0.1093156337738037</v>
       </c>
       <c r="J51">
         <v>0.6666666666666666</v>
       </c>
       <c r="K51">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="L51">
         <v>0.8888888888888888</v>
@@ -3758,31 +3527,25 @@
         <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" t="s">
-        <v>359</v>
-      </c>
-      <c r="F52" t="s">
-        <v>448</v>
+        <v>258</v>
       </c>
       <c r="G52">
-        <v>1.521080017089844</v>
+        <v>1.265559434890747</v>
       </c>
       <c r="H52">
-        <v>30.62946224212646</v>
+        <v>31.9626247882843</v>
       </c>
       <c r="I52">
-        <v>0.1136956214904785</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K52">
-        <v>0.8125</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3796,16 +3559,13 @@
         <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
-      </c>
-      <c r="E53" t="s">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="G53">
-        <v>1.553706884384155</v>
+        <v>1.265320062637329</v>
       </c>
       <c r="H53">
-        <v>12.28512692451477</v>
+        <v>31.44839930534363</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3814,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3831,28 +3591,28 @@
         <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F54" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="G54">
-        <v>1.049144983291626</v>
+        <v>1.54651951789856</v>
       </c>
       <c r="H54">
-        <v>15.17168760299683</v>
+        <v>31.96217823028564</v>
       </c>
       <c r="I54">
-        <v>0.09596133232116699</v>
+        <v>0.1093704700469971</v>
       </c>
       <c r="J54">
         <v>0.6666666666666666</v>
       </c>
       <c r="K54">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="L54">
         <v>0.8888888888888888</v>
@@ -3869,31 +3629,25 @@
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" t="s">
-        <v>362</v>
-      </c>
-      <c r="F55" t="s">
-        <v>450</v>
+        <v>261</v>
       </c>
       <c r="G55">
-        <v>1.274666309356689</v>
+        <v>1.312194108963013</v>
       </c>
       <c r="H55">
-        <v>34.14464235305786</v>
+        <v>11.35886573791504</v>
       </c>
       <c r="I55">
-        <v>0.1249120235443115</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3907,28 +3661,28 @@
         <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E56" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F56" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="G56">
-        <v>2.024378538131714</v>
+        <v>1.046477556228638</v>
       </c>
       <c r="H56">
-        <v>51.63969612121582</v>
+        <v>11.5282998085022</v>
       </c>
       <c r="I56">
-        <v>0.1047904491424561</v>
+        <v>0.1251893043518066</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K56">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L56">
         <v>0.8888888888888888</v>
@@ -3945,28 +3699,28 @@
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F57" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="G57">
-        <v>1.396398067474365</v>
+        <v>1.359061241149902</v>
       </c>
       <c r="H57">
-        <v>31.55699110031128</v>
+        <v>32.39947366714478</v>
       </c>
       <c r="I57">
-        <v>0.1142544746398926</v>
+        <v>0.1093494892120361</v>
       </c>
       <c r="J57">
         <v>0.6666666666666666</v>
       </c>
       <c r="K57">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L57">
         <v>0.8888888888888888</v>
@@ -3983,31 +3737,28 @@
         <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>365</v>
-      </c>
-      <c r="F58" t="s">
-        <v>453</v>
+        <v>356</v>
       </c>
       <c r="G58">
-        <v>1.358585119247437</v>
+        <v>1.437392234802246</v>
       </c>
       <c r="H58">
-        <v>35.3053514957428</v>
+        <v>0.1559712886810303</v>
       </c>
       <c r="I58">
-        <v>0.1280360221862793</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0.6666666666666666</v>
       </c>
       <c r="K58">
-        <v>0.6875</v>
+        <v>0.375</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4021,31 +3772,25 @@
         <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
-      </c>
-      <c r="E59" t="s">
-        <v>366</v>
-      </c>
-      <c r="F59" t="s">
-        <v>454</v>
+        <v>265</v>
       </c>
       <c r="G59">
-        <v>1.593532562255859</v>
+        <v>1.905802249908447</v>
       </c>
       <c r="H59">
-        <v>11.72130846977234</v>
+        <v>11.38793134689331</v>
       </c>
       <c r="I59">
-        <v>0.09382987022399902</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0.6666666666666666</v>
       </c>
       <c r="K59">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4059,31 +3804,31 @@
         <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="G60">
-        <v>1.329698801040649</v>
+        <v>1.327579021453857</v>
       </c>
       <c r="H60">
-        <v>37.47839045524597</v>
+        <v>15.04370665550232</v>
       </c>
       <c r="I60">
-        <v>0.1078617572784424</v>
+        <v>0.1249616146087646</v>
       </c>
       <c r="J60">
         <v>0.6666666666666666</v>
       </c>
       <c r="K60">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4097,28 +3842,31 @@
         <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E61" t="s">
-        <v>368</v>
+        <v>358</v>
+      </c>
+      <c r="F61" t="s">
+        <v>416</v>
       </c>
       <c r="G61">
-        <v>1.612409830093384</v>
+        <v>1.453021287918091</v>
       </c>
       <c r="H61">
-        <v>15.89289021492004</v>
+        <v>33.08698034286499</v>
       </c>
       <c r="I61">
-        <v>0.09346127510070801</v>
+        <v>0.1247296333312988</v>
       </c>
       <c r="J61">
         <v>0.6666666666666666</v>
       </c>
       <c r="K61">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4132,22 +3880,22 @@
         <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E62" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="G62">
-        <v>1.525615692138672</v>
+        <v>1.296571493148804</v>
       </c>
       <c r="H62">
-        <v>30.47605466842651</v>
+        <v>32.22903442382812</v>
       </c>
       <c r="I62">
-        <v>0.1202104091644287</v>
+        <v>0.09399223327636719</v>
       </c>
       <c r="J62">
         <v>0.6666666666666666</v>
@@ -4156,7 +3904,7 @@
         <v>0.75</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4170,31 +3918,25 @@
         <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
-      </c>
-      <c r="E63" t="s">
-        <v>370</v>
-      </c>
-      <c r="F63" t="s">
-        <v>457</v>
+        <v>269</v>
       </c>
       <c r="G63">
-        <v>1.346520185470581</v>
+        <v>0.9685592651367188</v>
       </c>
       <c r="H63">
-        <v>30.51416516304016</v>
+        <v>11.41890716552734</v>
       </c>
       <c r="I63">
-        <v>0.09372901916503906</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4208,31 +3950,31 @@
         <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E64" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F64" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G64">
-        <v>1.387774229049683</v>
+        <v>2.23358416557312</v>
       </c>
       <c r="H64">
-        <v>13.20685243606567</v>
+        <v>53.06960964202881</v>
       </c>
       <c r="I64">
-        <v>0.108264684677124</v>
+        <v>0.124985933303833</v>
       </c>
       <c r="J64">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4246,31 +3988,25 @@
         <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
-      </c>
-      <c r="E65" t="s">
-        <v>372</v>
-      </c>
-      <c r="F65" t="s">
-        <v>458</v>
+        <v>271</v>
       </c>
       <c r="G65">
-        <v>1.371681690216064</v>
+        <v>1.593374490737915</v>
       </c>
       <c r="H65">
-        <v>11.49943017959595</v>
+        <v>11.90580487251282</v>
       </c>
       <c r="I65">
-        <v>0.09372258186340332</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4284,31 +4020,28 @@
         <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>373</v>
-      </c>
-      <c r="F66" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="G66">
-        <v>1.567551612854004</v>
+        <v>1.702548265457153</v>
       </c>
       <c r="H66">
-        <v>11.26803398132324</v>
+        <v>0.1405918598175049</v>
       </c>
       <c r="I66">
-        <v>0.1009881496429443</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4322,28 +4055,28 @@
         <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="G67">
-        <v>1.54776668548584</v>
+        <v>1.687085628509521</v>
       </c>
       <c r="H67">
-        <v>13.04003024101257</v>
+        <v>20.41907620429993</v>
       </c>
       <c r="I67">
-        <v>0.1094284057617188</v>
+        <v>0.1093559265136719</v>
       </c>
       <c r="J67">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K67">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4360,31 +4093,28 @@
         <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>375</v>
-      </c>
-      <c r="F68" t="s">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="G68">
-        <v>1.662170886993408</v>
+        <v>1.265321969985962</v>
       </c>
       <c r="H68">
-        <v>11.77002906799316</v>
+        <v>0.1718394756317139</v>
       </c>
       <c r="I68">
-        <v>0.1126570701599121</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4398,28 +4128,28 @@
         <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F69" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="G69">
-        <v>2.020787715911865</v>
+        <v>1.483984470367432</v>
       </c>
       <c r="H69">
-        <v>10.51760578155518</v>
+        <v>31.29116606712341</v>
       </c>
       <c r="I69">
-        <v>7.11480975151062</v>
+        <v>0.09377050399780273</v>
       </c>
       <c r="J69">
         <v>0.6666666666666666</v>
       </c>
       <c r="K69">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L69">
         <v>0.8888888888888888</v>
@@ -4436,22 +4166,22 @@
         <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F70" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G70">
-        <v>1.610518455505371</v>
+        <v>1.640486001968384</v>
       </c>
       <c r="H70">
-        <v>30.62441897392273</v>
+        <v>16.84322285652161</v>
       </c>
       <c r="I70">
-        <v>0.1093478202819824</v>
+        <v>0.09347963333129883</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -4474,28 +4204,28 @@
         <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F71" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G71">
-        <v>1.063032150268555</v>
+        <v>1.203100919723511</v>
       </c>
       <c r="H71">
-        <v>52.51252388954163</v>
+        <v>19.37334322929382</v>
       </c>
       <c r="I71">
-        <v>0.1093652248382568</v>
+        <v>0.109100341796875</v>
       </c>
       <c r="J71">
         <v>0.6666666666666666</v>
       </c>
       <c r="K71">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4512,31 +4242,28 @@
         <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>379</v>
-      </c>
-      <c r="F72" t="s">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="G72">
-        <v>0.9687097072601318</v>
+        <v>1.406144618988037</v>
       </c>
       <c r="H72">
-        <v>31.71832537651062</v>
+        <v>13.20173048973083</v>
       </c>
       <c r="I72">
-        <v>0.09377241134643555</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>0.6875</v>
+        <v>0.5625</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4550,25 +4277,25 @@
         <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G73">
-        <v>1.731582403182983</v>
+        <v>1.296503782272339</v>
       </c>
       <c r="H73">
-        <v>31.71676635742188</v>
+        <v>10.18488693237305</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -4585,25 +4312,22 @@
         <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
-      </c>
-      <c r="E74" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="G74">
-        <v>1.014116048812866</v>
+        <v>1.109155178070068</v>
       </c>
       <c r="H74">
-        <v>34.63803029060364</v>
+        <v>10.65400195121765</v>
       </c>
       <c r="I74">
-        <v>0.1380341053009033</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -4620,31 +4344,28 @@
         <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>382</v>
-      </c>
-      <c r="F75" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="G75">
-        <v>1.686001062393188</v>
+        <v>1.187218427658081</v>
       </c>
       <c r="H75">
-        <v>49.42706346511841</v>
+        <v>9.841382503509521</v>
       </c>
       <c r="I75">
-        <v>0.1111869812011719</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>0.6875</v>
+        <v>0.375</v>
       </c>
       <c r="L75">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4658,31 +4379,31 @@
         <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E76" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F76" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="G76">
-        <v>1.452202796936035</v>
+        <v>1.062252998352051</v>
       </c>
       <c r="H76">
-        <v>17.67366123199463</v>
+        <v>30.75917363166809</v>
       </c>
       <c r="I76">
-        <v>0.1059141159057617</v>
+        <v>0.1562013626098633</v>
       </c>
       <c r="J76">
         <v>0.6666666666666666</v>
       </c>
       <c r="K76">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4696,31 +4417,31 @@
         <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F77" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="G77">
-        <v>1.266761541366577</v>
+        <v>1.265322208404541</v>
       </c>
       <c r="H77">
-        <v>33.9345531463623</v>
+        <v>12.90535283088684</v>
       </c>
       <c r="I77">
-        <v>0.1093544960021973</v>
+        <v>0.1095774173736572</v>
       </c>
       <c r="J77">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4734,31 +4455,25 @@
         <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
-      </c>
-      <c r="E78" t="s">
-        <v>385</v>
-      </c>
-      <c r="F78" t="s">
-        <v>434</v>
+        <v>284</v>
       </c>
       <c r="G78">
-        <v>1.319576025009155</v>
+        <v>2.21844744682312</v>
       </c>
       <c r="H78">
-        <v>11.0186288356781</v>
+        <v>11.71575689315796</v>
       </c>
       <c r="I78">
-        <v>0.09376907348632812</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4772,28 +4487,28 @@
         <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F79" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="G79">
-        <v>1.347567796707153</v>
+        <v>1.077857971191406</v>
       </c>
       <c r="H79">
-        <v>11.80336022377014</v>
+        <v>12.84052515029907</v>
       </c>
       <c r="I79">
-        <v>0.09376192092895508</v>
+        <v>0.1095504760742188</v>
       </c>
       <c r="J79">
         <v>0.6666666666666666</v>
       </c>
       <c r="K79">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L79">
         <v>0.8888888888888888</v>
@@ -4810,22 +4525,25 @@
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="E80" t="s">
+        <v>373</v>
       </c>
       <c r="G80">
-        <v>1.300116777420044</v>
+        <v>1.468645811080933</v>
       </c>
       <c r="H80">
-        <v>11.3578929901123</v>
+        <v>30.88566279411316</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -4842,31 +4560,28 @@
         <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
-      </c>
-      <c r="F81" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
       <c r="G81">
-        <v>1.281841516494751</v>
+        <v>1.718343734741211</v>
       </c>
       <c r="H81">
-        <v>11.9986207485199</v>
+        <v>20.93299150466919</v>
       </c>
       <c r="I81">
-        <v>0.1099908351898193</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0.6666666666666666</v>
       </c>
       <c r="K81">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L81">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4880,31 +4595,28 @@
         <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>388</v>
-      </c>
-      <c r="F82" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="G82">
-        <v>1.196420669555664</v>
+        <v>1.702719926834106</v>
       </c>
       <c r="H82">
-        <v>17.00235819816589</v>
+        <v>12.904217004776</v>
       </c>
       <c r="I82">
-        <v>0.1108918190002441</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="L82">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4918,31 +4630,28 @@
         <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>389</v>
-      </c>
-      <c r="F83" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
       <c r="G83">
-        <v>1.762254238128662</v>
+        <v>1.282292366027832</v>
       </c>
       <c r="H83">
-        <v>30.96127247810364</v>
+        <v>0.1405923366546631</v>
       </c>
       <c r="I83">
-        <v>0.1174499988555908</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0.75</v>
+        <v>0.5625</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4956,31 +4665,28 @@
         <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E84" t="s">
-        <v>390</v>
-      </c>
-      <c r="F84" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="G84">
-        <v>1.196721076965332</v>
+        <v>0.9841475486755371</v>
       </c>
       <c r="H84">
-        <v>36.49984788894653</v>
+        <v>11.60663032531738</v>
       </c>
       <c r="I84">
-        <v>0.1090629100799561</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0.6666666666666666</v>
       </c>
       <c r="K84">
-        <v>0.6875</v>
+        <v>0.5625</v>
       </c>
       <c r="L84">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4994,31 +4700,28 @@
         <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>391</v>
-      </c>
-      <c r="F85" t="s">
-        <v>470</v>
+        <v>378</v>
       </c>
       <c r="G85">
-        <v>1.316385746002197</v>
+        <v>1.655859231948853</v>
       </c>
       <c r="H85">
-        <v>23.83874082565308</v>
+        <v>10.3413074016571</v>
       </c>
       <c r="I85">
-        <v>0.1189048290252686</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5032,28 +4735,28 @@
         <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F86" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
       <c r="G86">
-        <v>1.294800519943237</v>
+        <v>1.906070709228516</v>
       </c>
       <c r="H86">
-        <v>30.57967782020569</v>
+        <v>19.71742844581604</v>
       </c>
       <c r="I86">
-        <v>0.09385514259338379</v>
+        <v>0.1249353885650635</v>
       </c>
       <c r="J86">
         <v>0.6666666666666666</v>
       </c>
       <c r="K86">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5070,22 +4773,22 @@
         <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F87" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="G87">
-        <v>1.370093822479248</v>
+        <v>1.546573877334595</v>
       </c>
       <c r="H87">
-        <v>13.30207443237305</v>
+        <v>33.65088367462158</v>
       </c>
       <c r="I87">
-        <v>0.1057639122009277</v>
+        <v>0.1094586849212646</v>
       </c>
       <c r="J87">
         <v>0.6666666666666666</v>
@@ -5108,28 +4811,28 @@
         <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F88" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="G88">
-        <v>1.195100069046021</v>
+        <v>2.03076696395874</v>
       </c>
       <c r="H88">
-        <v>10.22328162193298</v>
+        <v>13.55973815917969</v>
       </c>
       <c r="I88">
-        <v>0.1221132278442383</v>
+        <v>0.10955810546875</v>
       </c>
       <c r="J88">
         <v>0.6666666666666666</v>
       </c>
       <c r="K88">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5146,31 +4849,28 @@
         <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>395</v>
-      </c>
-      <c r="F89" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="G89">
-        <v>1.421770095825195</v>
+        <v>1.031005382537842</v>
       </c>
       <c r="H89">
-        <v>30.20167016983032</v>
+        <v>10.3413097858429</v>
       </c>
       <c r="I89">
-        <v>0.09353399276733398</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K89">
-        <v>0.6875</v>
+        <v>0.375</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5184,31 +4884,31 @@
         <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F90" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G90">
-        <v>1.313444375991821</v>
+        <v>1.328054189682007</v>
       </c>
       <c r="H90">
-        <v>16.84708881378174</v>
+        <v>20.43345046043396</v>
       </c>
       <c r="I90">
-        <v>0.1249635219573975</v>
+        <v>0.1093237400054932</v>
       </c>
       <c r="J90">
         <v>0.6666666666666666</v>
       </c>
       <c r="K90">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5222,31 +4922,31 @@
         <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E91" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F91" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="G91">
-        <v>1.401053667068481</v>
+        <v>1.062475204467773</v>
       </c>
       <c r="H91">
-        <v>32.38118696212769</v>
+        <v>11.51515030860901</v>
       </c>
       <c r="I91">
-        <v>0.117741584777832</v>
+        <v>0.140329122543335</v>
       </c>
       <c r="J91">
         <v>0.6666666666666666</v>
       </c>
       <c r="K91">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="L91">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5260,31 +4960,28 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s">
-        <v>398</v>
-      </c>
-      <c r="F92" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="G92">
-        <v>1.41534686088562</v>
+        <v>1.390533685684204</v>
       </c>
       <c r="H92">
-        <v>11.01852560043335</v>
+        <v>32.79123473167419</v>
       </c>
       <c r="I92">
-        <v>0.0937201976776123</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K92">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5298,31 +4995,28 @@
         <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E93" t="s">
-        <v>399</v>
-      </c>
-      <c r="F93" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="G93">
-        <v>1.606808423995972</v>
+        <v>2.155740022659302</v>
       </c>
       <c r="H93">
-        <v>11.58230566978455</v>
+        <v>11.88907885551453</v>
       </c>
       <c r="I93">
-        <v>0.1191055774688721</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5336,25 +5030,31 @@
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="E94" t="s">
+        <v>387</v>
+      </c>
+      <c r="F94" t="s">
+        <v>395</v>
       </c>
       <c r="G94">
-        <v>1.324186325073242</v>
+        <v>1.984874248504639</v>
       </c>
       <c r="H94">
-        <v>10.33050990104675</v>
+        <v>31.97749710083008</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>0.1093485355377197</v>
       </c>
       <c r="J94">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5368,31 +5068,28 @@
         <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E95" t="s">
-        <v>400</v>
-      </c>
-      <c r="F95" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="G95">
-        <v>1.231201410293579</v>
+        <v>1.453007936477661</v>
       </c>
       <c r="H95">
-        <v>20.75245332717896</v>
+        <v>32.88576149940491</v>
       </c>
       <c r="I95">
-        <v>0.1141910552978516</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K95">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="L95">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5406,25 +5103,25 @@
         <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E96" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G96">
-        <v>1.50527286529541</v>
+        <v>2.342980146408081</v>
       </c>
       <c r="H96">
-        <v>32.33318853378296</v>
+        <v>12.23338532447815</v>
       </c>
       <c r="I96">
-        <v>0.1049637794494629</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -5441,25 +5138,25 @@
         <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E97" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F97" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="G97">
-        <v>1.258138418197632</v>
+        <v>1.124716997146606</v>
       </c>
       <c r="H97">
-        <v>10.74559950828552</v>
+        <v>30.99568104743958</v>
       </c>
       <c r="I97">
-        <v>0.109525203704834</v>
+        <v>0.109133243560791</v>
       </c>
       <c r="J97">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>0.6875</v>
@@ -5479,31 +5176,28 @@
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E98" t="s">
-        <v>403</v>
-      </c>
-      <c r="F98" t="s">
-        <v>477</v>
+        <v>391</v>
       </c>
       <c r="G98">
-        <v>1.363327026367188</v>
+        <v>1.593374729156494</v>
       </c>
       <c r="H98">
-        <v>10.75189971923828</v>
+        <v>30.46228909492493</v>
       </c>
       <c r="I98">
-        <v>0.1562142372131348</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0.6666666666666666</v>
       </c>
       <c r="K98">
-        <v>0.625</v>
+        <v>0.8125</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5517,19 +5211,22 @@
         <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E99" t="s">
-        <v>404</v>
+        <v>392</v>
+      </c>
+      <c r="F99" t="s">
+        <v>431</v>
       </c>
       <c r="G99">
-        <v>1.414520502090454</v>
+        <v>1.390251636505127</v>
       </c>
       <c r="H99">
-        <v>51.62481284141541</v>
+        <v>29.72831773757935</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.109410285949707</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5538,7 +5235,7 @@
         <v>0.6875</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5552,31 +5249,31 @@
         <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E100" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F100" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="G100">
-        <v>0.9113473892211914</v>
+        <v>1.155972242355347</v>
       </c>
       <c r="H100">
-        <v>31.33713984489441</v>
+        <v>17.68570113182068</v>
       </c>
       <c r="I100">
-        <v>0.124969482421875</v>
+        <v>0.09372901916503906</v>
       </c>
       <c r="J100">
         <v>0.6666666666666666</v>
       </c>
       <c r="K100">
-        <v>0.8125</v>
+        <v>0.625</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5590,28 +5287,31 @@
         <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E101" t="s">
-        <v>406</v>
+        <v>394</v>
+      </c>
+      <c r="F101" t="s">
+        <v>432</v>
       </c>
       <c r="G101">
-        <v>1.339086532592773</v>
+        <v>1.796451807022095</v>
       </c>
       <c r="H101">
-        <v>39.27577567100525</v>
+        <v>13.27811789512634</v>
       </c>
       <c r="I101">
-        <v>0.09376358985900879</v>
+        <v>0.1249656677246094</v>
       </c>
       <c r="J101">
         <v>0.6666666666666666</v>
       </c>
       <c r="K101">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lod_analysis/excels/artists_full_evaluation.xlsx
+++ b/lod_analysis/excels/artists_full_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="445">
   <si>
     <t>artist_id</t>
   </si>
@@ -49,1270 +49,1306 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>01WjpKiWVNurV5hjIadB8C</t>
-  </si>
-  <si>
-    <t>6J7biCazzYhU3gM9j1wfid</t>
-  </si>
-  <si>
-    <t>6TZdvF1kFzwnQLgHQynzsO</t>
+    <t>3YcBF2ttyueytpXtEzn1Za</t>
+  </si>
+  <si>
+    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
+  </si>
+  <si>
+    <t>3H7pODXycF821OnRyAw2VT</t>
+  </si>
+  <si>
+    <t>17lzZA2AlOHwCwFALHttmp</t>
+  </si>
+  <si>
+    <t>53A0W3U0s8diEn9RhXQhVz</t>
+  </si>
+  <si>
+    <t>6nDLku5uL3ou60kvCGZorh</t>
+  </si>
+  <si>
+    <t>4VhL8KLjVso4vLfOLVViTb</t>
+  </si>
+  <si>
+    <t>163tK9Wjr9P9DmM0AVK7lm</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
+  </si>
+  <si>
+    <t>2wpWOzQE5TpA0dVnh5YD08</t>
+  </si>
+  <si>
+    <t>1iTlOqIrZy8DlvCPJY2sjS</t>
+  </si>
+  <si>
+    <t>3bmFPbLMiLxtR9tFrTcKcP</t>
+  </si>
+  <si>
+    <t>3hozsZ9hqNq7CoBGYNlFTz</t>
+  </si>
+  <si>
+    <t>4tpUmLEVLCGFr93o8hFFIB</t>
+  </si>
+  <si>
+    <t>0gDg7FEsF4Y1jWddJJgcn4</t>
+  </si>
+  <si>
+    <t>6czfQ8MjHVmvJKA4LAnviG</t>
+  </si>
+  <si>
+    <t>0wgLwvDNCHdJ9FblyyD4Dc</t>
+  </si>
+  <si>
+    <t>0qT79UgT5tY4yudH9VfsdT</t>
+  </si>
+  <si>
+    <t>46aNfN89JrOQTCy97GoCHa</t>
+  </si>
+  <si>
+    <t>6ogn9necmbUdCppmNnGOdi</t>
+  </si>
+  <si>
+    <t>1JfnADNz5yYEq3hrzlZHLk</t>
+  </si>
+  <si>
+    <t>4qwGe91Bz9K2T8jXTZ815W</t>
   </si>
   <si>
     <t>5svDnd8joFhbpbA3Ar0CfN</t>
   </si>
   <si>
-    <t>2AsusXITU8P25dlRNhcAbG</t>
-  </si>
-  <si>
-    <t>0Xf8oDAJYd2D0k3NLI19OV</t>
-  </si>
-  <si>
-    <t>1u7kkVrr14iBvrpYnZILJR</t>
-  </si>
-  <si>
-    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
-  </si>
-  <si>
-    <t>4y5wqoJUmlvr9xV6l5lO4b</t>
-  </si>
-  <si>
-    <t>31TPClRtHm23RisEBtV3X7</t>
-  </si>
-  <si>
-    <t>5EvFsr3kj42KNv97ZEnqij</t>
-  </si>
-  <si>
-    <t>2gsggkzM5R49q6jpPvazou</t>
-  </si>
-  <si>
-    <t>7KBkgunlONG7LPxs93pgpp</t>
-  </si>
-  <si>
-    <t>3X0tJzVYoWlfjLYI0Ridsw</t>
-  </si>
-  <si>
-    <t>3bhu7P5PfngueRHiB9hjcx</t>
-  </si>
-  <si>
-    <t>1gR0gsQYfi6joyO1dlp76N</t>
-  </si>
-  <si>
-    <t>3SYGWAHCe31oykdeUPpoJp</t>
-  </si>
-  <si>
-    <t>1bdytLV3FPjyhfrb6BhMej</t>
-  </si>
-  <si>
-    <t>4npEfmQ6YuiwW1GpUmaq3F</t>
-  </si>
-  <si>
-    <t>7KMqksf0UMdyA0UCf4R3ux</t>
-  </si>
-  <si>
-    <t>1yjAx9cww4f1QuAaN3dUI2</t>
-  </si>
-  <si>
-    <t>5ndkK3dpZLKtBklKjxNQwT</t>
-  </si>
-  <si>
-    <t>0qT79UgT5tY4yudH9VfsdT</t>
-  </si>
-  <si>
-    <t>2MqhkhX4npxDZ62ObR5ELO</t>
-  </si>
-  <si>
-    <t>4Eqd24yS5YcxI8b6Xfuwr8</t>
-  </si>
-  <si>
-    <t>0Suv0tRrNrUlRzAy8aXjma</t>
+    <t>4Z8W4fKeB5YxbusRsdQVPb</t>
+  </si>
+  <si>
+    <t>1T0wRBO0CK0vK8ouUMqEl5</t>
+  </si>
+  <si>
+    <t>6UuT0BJZ9vF8Y1sxXnJl2s</t>
+  </si>
+  <si>
+    <t>1Hsdzj7Dlq2I7tHP7501T4</t>
+  </si>
+  <si>
+    <t>0djV4iaxhNfYWpH60ia85o</t>
+  </si>
+  <si>
+    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
+  </si>
+  <si>
+    <t>6kz53iCdBSqhQCZ21CoLcc</t>
+  </si>
+  <si>
+    <t>0L8ExT028jH3ddEcZwqJJ5</t>
+  </si>
+  <si>
+    <t>6HD2mo0Gz8wd8IbOXYwUfN</t>
+  </si>
+  <si>
+    <t>4BoRxUdrcgbbq1rxJvvhg9</t>
+  </si>
+  <si>
+    <t>2hO4YtXUFJiUYS2uYFvHNK</t>
+  </si>
+  <si>
+    <t>7hJcb9fa4alzcOq3EaNPoG</t>
+  </si>
+  <si>
+    <t>22bE4uQ6baNwSHPVcDxLCe</t>
+  </si>
+  <si>
+    <t>711MCceyCBcFnzjGY4Q7Un</t>
+  </si>
+  <si>
+    <t>485uL27bPomh29R4JmQehQ</t>
+  </si>
+  <si>
+    <t>0lwRI7lvmlRY5DiA5Xa6wQ</t>
+  </si>
+  <si>
+    <t>0FrpdcVlJQqibaz5HfBUrL</t>
+  </si>
+  <si>
+    <t>0jgAONnsHxrwAlhkMUVS78</t>
+  </si>
+  <si>
+    <t>6PAt558ZEZl0DmdXlnjMgD</t>
+  </si>
+  <si>
+    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
+  </si>
+  <si>
+    <t>2tRsMl4eGxwoNabM08Dm4I</t>
+  </si>
+  <si>
+    <t>6VuMaDnrHyPL1p4EHjYLi7</t>
+  </si>
+  <si>
+    <t>6bmlMHgSheBauioMgKv2tn</t>
+  </si>
+  <si>
+    <t>6BkcAbUkfIBM4XudxieMq8</t>
+  </si>
+  <si>
+    <t>3Z02hBLubJxuFJfhacLSDc</t>
+  </si>
+  <si>
+    <t>08yf5A2nS4XEeNvabDXqyg</t>
+  </si>
+  <si>
+    <t>3u2R8st1bb6zfBqNWceRXG</t>
+  </si>
+  <si>
+    <t>2YTbBGa3Tf2rRPhiJxWoUN</t>
+  </si>
+  <si>
+    <t>2DlGxzQSjYe5N6G9nkYghR</t>
+  </si>
+  <si>
+    <t>7AC976RDJzL2asmZuz7qil</t>
+  </si>
+  <si>
+    <t>3ngKsDXZAssmljeXCvEgOe</t>
+  </si>
+  <si>
+    <t>4Uc8Dsxct0oMqx0P6i60ea</t>
+  </si>
+  <si>
+    <t>2EMAnMvWE2eb56ToJVfCWs</t>
+  </si>
+  <si>
+    <t>3pFCERyEiP5xeN2EsPXhjI</t>
+  </si>
+  <si>
+    <t>1uNFoZAHBGtllmzznpCI3s</t>
+  </si>
+  <si>
+    <t>4apX9tIeHb85yPyy4F6FJG</t>
+  </si>
+  <si>
+    <t>5WWSL6rElJeUk3Uc1S2RyD</t>
+  </si>
+  <si>
+    <t>3eqjTLE0HfPfh78zjh6TqT</t>
+  </si>
+  <si>
+    <t>3nFkdlSjzX9mRTtwJOzDYB</t>
+  </si>
+  <si>
+    <t>4P0dddbxPil35MNN9G2MEX</t>
+  </si>
+  <si>
+    <t>2DaxqgrOhkeH0fpeiQq2f4</t>
+  </si>
+  <si>
+    <t>0epOFNiUfyON9EYx7Tpr6V</t>
+  </si>
+  <si>
+    <t>3TQ9JTBI2n2hfo7aRONEYV</t>
+  </si>
+  <si>
+    <t>03r4iKL2g2442PT9n2UKsx</t>
+  </si>
+  <si>
+    <t>488v7rQzthLNK22r0UvMie</t>
+  </si>
+  <si>
+    <t>7siPLyFwRFYQkKgWKJ5Sod</t>
+  </si>
+  <si>
+    <t>0hCNtLu0JehylgoiP8L4Gh</t>
+  </si>
+  <si>
+    <t>6Tz0QRoe083BcOo2YbG9lV</t>
   </si>
   <si>
     <t>2hl0xAkS2AIRAu23TVMBG1</t>
   </si>
   <si>
-    <t>1TqQi97nqeiuOJrIFv5Sw0</t>
-  </si>
-  <si>
-    <t>3vbKDsSS70ZX9D2OcvbZmS</t>
-  </si>
-  <si>
-    <t>5PTDGbHPxxXf81RrubpIOO</t>
-  </si>
-  <si>
-    <t>2siHvYaxjaW5rKVRiIrMYH</t>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>0BZ3BHzfYwpd3k5TDnvAz8</t>
+  </si>
+  <si>
+    <t>0XNa1vTidXlvJ2gHSsRi4A</t>
+  </si>
+  <si>
+    <t>0cwmNvclzPd8mQnoHuIksj</t>
+  </si>
+  <si>
+    <t>1pvibpCqTQG4mnbZ7vVSDj</t>
+  </si>
+  <si>
+    <t>53XhwfbYqKCa1cC15pYq2q</t>
+  </si>
+  <si>
+    <t>4S2yOnmsWW97dT87yVoaSZ</t>
+  </si>
+  <si>
+    <t>5MmVJVhhYKQ86izuGHzJYA</t>
+  </si>
+  <si>
+    <t>1YEGETLT2p8k97LIo3deHL</t>
+  </si>
+  <si>
+    <t>3oDbviiivRWhXwIE8hxkVV</t>
+  </si>
+  <si>
+    <t>2cSQyZg5t274Y3Nv0uuwjd</t>
+  </si>
+  <si>
+    <t>4k7Ig8eYfIKCQZGXqDg1Uh</t>
+  </si>
+  <si>
+    <t>5KDIH2gF0VpelTqyQS7udb</t>
   </si>
   <si>
     <t>2iEvnFsWxR0Syqu2JNopAd</t>
   </si>
   <si>
-    <t>5OfhOoKunSnuubxxRML8J3</t>
-  </si>
-  <si>
-    <t>2ziB7fzrXBoh1HUPS6sVFn</t>
-  </si>
-  <si>
-    <t>0q8J3Yj810t5cpAYEJ7gxt</t>
-  </si>
-  <si>
-    <t>00FQb4jTyendYWaN8pK0wa</t>
-  </si>
-  <si>
-    <t>6w7fc6IZlo5zwBaKT5jU1X</t>
-  </si>
-  <si>
-    <t>5BcAKTbp20cv7tC5VqPFoC</t>
-  </si>
-  <si>
-    <t>7HqEmV7FeCi16bQyHMpIrF</t>
-  </si>
-  <si>
-    <t>4Wjf8diP59VmPG7fi4y724</t>
-  </si>
-  <si>
-    <t>5ZsFI1h6hIdQRw2ti0hz81</t>
-  </si>
-  <si>
-    <t>4M1FpEWs2PeYfJe7xxJfhH</t>
-  </si>
-  <si>
-    <t>4eQJIXFEujzhTVVS1gIfu5</t>
-  </si>
-  <si>
-    <t>0jgAONnsHxrwAlhkMUVS78</t>
-  </si>
-  <si>
-    <t>7dxF7y4hlGFazdArMsxbEx</t>
-  </si>
-  <si>
-    <t>6qqNVTkY8uBg9cP3Jd7DAH</t>
-  </si>
-  <si>
-    <t>1Yyag4BRejtPxsKTrSkKDz</t>
-  </si>
-  <si>
-    <t>545idYhdloaSlLGBY8E9u2</t>
-  </si>
-  <si>
-    <t>6xHUXzrfhFgnIv86EBR3Ml</t>
-  </si>
-  <si>
-    <t>1tqZaCwM57UFKjWoYwMLrw</t>
-  </si>
-  <si>
-    <t>32ckuKo8LrZhQMyCehYKkt</t>
-  </si>
-  <si>
-    <t>4hqDqHtBlgxXpLXVYf7c8L</t>
-  </si>
-  <si>
-    <t>0rvjqX7ttXeg3mTy8Xscbt</t>
-  </si>
-  <si>
-    <t>23zg3TcAtWQy7J6upgbUnj</t>
-  </si>
-  <si>
-    <t>3KEb1kbIZN5jumsjFEWgSW</t>
-  </si>
-  <si>
-    <t>07lbidCU8ZwtNCUrmaO0QU</t>
-  </si>
-  <si>
-    <t>3oZa8Xs6IjlIUGLAhVyK4G</t>
-  </si>
-  <si>
-    <t>2cNCyL3WSlAatld5duatyD</t>
-  </si>
-  <si>
-    <t>4bthk9UfsYUYdcFyqxmSUU</t>
-  </si>
-  <si>
-    <t>09l3QuYe7ExcyAZYosgVJx</t>
-  </si>
-  <si>
-    <t>5P5FTygHyx2G57oszR3Wot</t>
-  </si>
-  <si>
-    <t>5LtL2B9LC31DesMx7ihMFc</t>
-  </si>
-  <si>
-    <t>3Nrfpe0tUJi4K4DXYWgMUX</t>
-  </si>
-  <si>
-    <t>7jVv8c5Fj3E9VhNjxT4snq</t>
-  </si>
-  <si>
-    <t>0fA0VVWsXO9YnASrzqfmYu</t>
-  </si>
-  <si>
-    <t>6oMuImdp5ZcFhWP0ESe6mG</t>
-  </si>
-  <si>
-    <t>4yiQZ8tQPux8cPriYMWUFP</t>
-  </si>
-  <si>
-    <t>4opTS86dN9uO313J9CE8xg</t>
-  </si>
-  <si>
-    <t>14ZxDAK6ITtZZqPdiWrvSn</t>
-  </si>
-  <si>
-    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>2jw70GZXlAI8QzWeY2bgRc</t>
-  </si>
-  <si>
-    <t>03ilIKH0i08IxmjKcn63ne</t>
-  </si>
-  <si>
-    <t>1KCSPY1glIKqW2TotWuXOR</t>
-  </si>
-  <si>
-    <t>0sHeX8oQ6o7xic3wMf4NBU</t>
-  </si>
-  <si>
-    <t>0Chxmm4XMM87mJOHvyiUzL</t>
-  </si>
-  <si>
-    <t>3MZsBdqDrRTJihTHQrO6Dq</t>
-  </si>
-  <si>
-    <t>4GLJPBj5Cdr9AgLKvLWM4n</t>
-  </si>
-  <si>
-    <t>6KImCVD70vtIoJWnq6nGn3</t>
-  </si>
-  <si>
-    <t>450iujbtN6XgiA9pv6fVZz</t>
-  </si>
-  <si>
-    <t>0X2BH1fck6amBIoJhDVmmJ</t>
-  </si>
-  <si>
-    <t>3Y3xIwWyq5wnNHPp5gPjOW</t>
-  </si>
-  <si>
-    <t>5mqguTgtaoCMNMZD6txCh6</t>
-  </si>
-  <si>
-    <t>1HY2Jd0NmPuamShAr6KMms</t>
-  </si>
-  <si>
-    <t>0epOFNiUfyON9EYx7Tpr6V</t>
-  </si>
-  <si>
-    <t>694QW15WkebjcrWgQHzRYF</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>3nRifdQMP5925XSkIN07oC</t>
-  </si>
-  <si>
-    <t>11wRdbnoYqRddKBrpHt4Ue</t>
-  </si>
-  <si>
-    <t>39oSLGo3HkaeYXzUEGgAGQ</t>
-  </si>
-  <si>
-    <t>5A8UenAZRv51yZVv13nFQo</t>
-  </si>
-  <si>
-    <t>26VFTg2z8YR0cCuwLzESi2</t>
-  </si>
-  <si>
-    <t>0k17h0D3J5VfsdmQ1iZtE9</t>
-  </si>
-  <si>
-    <t>1ruutHJcECI7cos2n5TqpO</t>
-  </si>
-  <si>
-    <t>2wY79sveU1sp5g7SokKOiI</t>
-  </si>
-  <si>
-    <t>6m30rs1IQqnWqV5nKMpU7U</t>
-  </si>
-  <si>
-    <t>2eogQKWWoohI3BSnoG7E2U</t>
-  </si>
-  <si>
-    <t>0LbLWjaweRbO4FDKYlbfNt</t>
-  </si>
-  <si>
-    <t>0DxeaLnv6SyYk2DOqkLO8c</t>
-  </si>
-  <si>
-    <t>07QEuhtrNmmZ0zEcqE9SF6</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Jamiroquai</t>
-  </si>
-  <si>
-    <t>Alien Ant Farm</t>
+    <t>3yY2gUcIsjMr8hjo51PoJ8</t>
+  </si>
+  <si>
+    <t>3JhNCzhSMTxs9WLGJJxWOY</t>
+  </si>
+  <si>
+    <t>3C4Ma6ujXcpDtisnx6RASG</t>
+  </si>
+  <si>
+    <t>2FrKQPjJe4pVMZOgm0ESOx</t>
+  </si>
+  <si>
+    <t>0lHoDF96DNKSIcIpcOfMnq</t>
+  </si>
+  <si>
+    <t>2Cd98zHVdZeOCisc6Gi2sB</t>
+  </si>
+  <si>
+    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
+  </si>
+  <si>
+    <t>110deyrdzDK0DIuHPeQgKL</t>
+  </si>
+  <si>
+    <t>5os0Ltvz8Q8BvXOPOd1frx</t>
+  </si>
+  <si>
+    <t>2vB0c3J8Y3OeMmgAv244Do</t>
+  </si>
+  <si>
+    <t>5rSXSAkZ67PYJSvpUpkOr7</t>
+  </si>
+  <si>
+    <t>4xFUf1FHVy696Q1JQZMTRj</t>
+  </si>
+  <si>
+    <t>36QJpDe2go2KgaRleHCDTp</t>
+  </si>
+  <si>
+    <t>3RGLhK1IP9jnYFH4BRFJBS</t>
+  </si>
+  <si>
+    <t>Incubus</t>
+  </si>
+  <si>
+    <t>Huey Lewis &amp; The News</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>2 Chainz</t>
+  </si>
+  <si>
+    <t>Keane</t>
+  </si>
+  <si>
+    <t>Bloodhound Gang</t>
+  </si>
+  <si>
+    <t>Bridgit Mendler</t>
+  </si>
+  <si>
+    <t>Lorde</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Bronski Beat</t>
+  </si>
+  <si>
+    <t>Golden Earring</t>
+  </si>
+  <si>
+    <t>Matthew Wilder</t>
+  </si>
+  <si>
+    <t>OK Go</t>
+  </si>
+  <si>
+    <t>Blondie</t>
+  </si>
+  <si>
+    <t>The Rembrandts</t>
+  </si>
+  <si>
+    <t>Baltimora</t>
+  </si>
+  <si>
+    <t>Liquido</t>
+  </si>
+  <si>
+    <t>Sum 41</t>
+  </si>
+  <si>
+    <t>Tokio Hotel</t>
+  </si>
+  <si>
+    <t>Alanis Morissette</t>
+  </si>
+  <si>
+    <t>Grandmaster Flash</t>
+  </si>
+  <si>
+    <t>Janet Jackson</t>
   </si>
   <si>
     <t>Junkie XL</t>
   </si>
   <si>
-    <t>Gotye</t>
-  </si>
-  <si>
-    <t>CHIC</t>
-  </si>
-  <si>
-    <t>Sex Pistols</t>
-  </si>
-  <si>
-    <t>Katrina &amp; The Waves</t>
-  </si>
-  <si>
-    <t>Carl Ward</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Shaggy</t>
-  </si>
-  <si>
-    <t>Jessie J</t>
-  </si>
-  <si>
-    <t>Mr. President</t>
-  </si>
-  <si>
-    <t>Suzanne Vega</t>
-  </si>
-  <si>
-    <t>Elle King</t>
-  </si>
-  <si>
-    <t>Justice</t>
-  </si>
-  <si>
-    <t>Miranda Cosgrove</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Ava Max</t>
-  </si>
-  <si>
-    <t>James Blunt</t>
-  </si>
-  <si>
-    <t>Desireless</t>
-  </si>
-  <si>
-    <t>B.o.B</t>
-  </si>
-  <si>
-    <t>Sum 41</t>
-  </si>
-  <si>
-    <t>Hoobastank</t>
-  </si>
-  <si>
-    <t>Eve 6</t>
-  </si>
-  <si>
-    <t>Haddaway</t>
+    <t>Radiohead</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>Bounty Killer</t>
+  </si>
+  <si>
+    <t>Niall Horan</t>
+  </si>
+  <si>
+    <t>Joan Osborne</t>
+  </si>
+  <si>
+    <t>Korn</t>
+  </si>
+  <si>
+    <t>Culture Club</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>Daniel Merriweather</t>
+  </si>
+  <si>
+    <t>Olivia Newton-John</t>
+  </si>
+  <si>
+    <t>Traveling Wilburys</t>
+  </si>
+  <si>
+    <t>Snoop Dogg</t>
+  </si>
+  <si>
+    <t>The Rolling Stones</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>Bob Seger</t>
+  </si>
+  <si>
+    <t>Lipps Inc.</t>
+  </si>
+  <si>
+    <t>Rick James</t>
+  </si>
+  <si>
+    <t>Eddie Rabbitt</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Bring Me The Horizon</t>
+  </si>
+  <si>
+    <t>Judas Priest</t>
+  </si>
+  <si>
+    <t>Charlie Puth</t>
+  </si>
+  <si>
+    <t>Powfu</t>
+  </si>
+  <si>
+    <t>Dr. Alban</t>
+  </si>
+  <si>
+    <t>Bryan Adams</t>
+  </si>
+  <si>
+    <t>Billy Talent</t>
+  </si>
+  <si>
+    <t>MOD SUN</t>
+  </si>
+  <si>
+    <t>Camouflage</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Eagle-Eye Cherry</t>
+  </si>
+  <si>
+    <t>Conan Gray</t>
+  </si>
+  <si>
+    <t>Bryson Tiller</t>
+  </si>
+  <si>
+    <t>Joe Cocker</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Wild Cherry</t>
+  </si>
+  <si>
+    <t>Dead Or Alive</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>JAY-Z</t>
+  </si>
+  <si>
+    <t>Cypress Hill</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>The Strokes</t>
+  </si>
+  <si>
+    <t>Sir Mix-A-Lot</t>
+  </si>
+  <si>
+    <t>Beastie Boys</t>
+  </si>
+  <si>
+    <t>La Bouche</t>
+  </si>
+  <si>
+    <t>The Dandy Warhols</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Nena</t>
   </si>
   <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Semisonic</t>
-  </si>
-  <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>Cutee B.</t>
-  </si>
-  <si>
-    <t>Anastacia</t>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Culture Beat</t>
+  </si>
+  <si>
+    <t>Franz Ferdinand</t>
+  </si>
+  <si>
+    <t>Vengaboys</t>
+  </si>
+  <si>
+    <t>Felly</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>NOFX</t>
+  </si>
+  <si>
+    <t>MIKA</t>
+  </si>
+  <si>
+    <t>Crash Test Dummies</t>
+  </si>
+  <si>
+    <t>The Beach Boys</t>
+  </si>
+  <si>
+    <t>Gary Pine</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>Staind</t>
   </si>
   <si>
     <t>Smash Mouth</t>
   </si>
   <si>
-    <t>Mr. Big</t>
-  </si>
-  <si>
-    <t>Audioslave</t>
-  </si>
-  <si>
-    <t>Duck Sauce</t>
-  </si>
-  <si>
-    <t>Lana Del Rey</t>
-  </si>
-  <si>
-    <t>The Lemonheads</t>
-  </si>
-  <si>
-    <t>Macklemore &amp; Ryan Lewis</t>
-  </si>
-  <si>
-    <t>VASSY</t>
-  </si>
-  <si>
-    <t>Cedric Gervais</t>
-  </si>
-  <si>
-    <t>ZAYN</t>
-  </si>
-  <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t>Deee-Lite</t>
-  </si>
-  <si>
-    <t>Eddie Rabbitt</t>
-  </si>
-  <si>
-    <t>Joey Ramone</t>
-  </si>
-  <si>
-    <t>Billie Eilish</t>
-  </si>
-  <si>
-    <t>The Greg Kihn Band</t>
-  </si>
-  <si>
-    <t>Cameo</t>
-  </si>
-  <si>
-    <t>kai</t>
-  </si>
-  <si>
-    <t>The Cardigans</t>
-  </si>
-  <si>
-    <t>Tom Lord-Alge</t>
-  </si>
-  <si>
-    <t>Ashlee Simpson</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Usher</t>
-  </si>
-  <si>
-    <t>Tal Bachman</t>
-  </si>
-  <si>
-    <t>Bizarre Inc</t>
-  </si>
-  <si>
-    <t>Irene Cara</t>
-  </si>
-  <si>
-    <t>Rahsaan</t>
-  </si>
-  <si>
-    <t>Tears For Fears</t>
-  </si>
-  <si>
-    <t>Jonezetta</t>
-  </si>
-  <si>
-    <t>Daughtry</t>
-  </si>
-  <si>
-    <t>That Poppy</t>
-  </si>
-  <si>
-    <t>BTS</t>
-  </si>
-  <si>
-    <t>Lil Nas X</t>
-  </si>
-  <si>
-    <t>Kid Cudi</t>
-  </si>
-  <si>
-    <t>Migos</t>
-  </si>
-  <si>
-    <t>Gwen Stefani</t>
-  </si>
-  <si>
-    <t>Skid Row</t>
-  </si>
-  <si>
-    <t>Everlast</t>
-  </si>
-  <si>
-    <t>Huey Lewis &amp; The News</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Nelly Furtado</t>
-  </si>
-  <si>
-    <t>Drake Bell</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
-    <t>Supergrass</t>
-  </si>
-  <si>
-    <t>Kevin Rudolf</t>
-  </si>
-  <si>
-    <t>Joji</t>
-  </si>
-  <si>
-    <t>Dragonette</t>
-  </si>
-  <si>
-    <t>Harry Styles</t>
-  </si>
-  <si>
-    <t>Razorlight</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
-    <t>Kenny Loggins</t>
-  </si>
-  <si>
-    <t>Phum Viphurit</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>The Strokes</t>
-  </si>
-  <si>
-    <t>Everclear</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Ryan Paris</t>
-  </si>
-  <si>
-    <t>Kasabian</t>
-  </si>
-  <si>
-    <t>EMF</t>
-  </si>
-  <si>
-    <t>Gerard Presencer</t>
-  </si>
-  <si>
-    <t>Halsey</t>
-  </si>
-  <si>
-    <t>Pink Floyd</t>
-  </si>
-  <si>
-    <t>Nayer</t>
-  </si>
-  <si>
-    <t>Sam Smith</t>
-  </si>
-  <si>
-    <t>Ohio Players</t>
-  </si>
-  <si>
-    <t>Donna Summer</t>
-  </si>
-  <si>
-    <t>Kaiser Chiefs</t>
-  </si>
-  <si>
-    <t>MAGIC!</t>
-  </si>
-  <si>
-    <t>Owl City</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Filter', 'annotations': {'description': '&lt;p&gt;Filter is an American industrial rock band, led by lead singer &lt;a href="https://genius.com/artists/Richard-patrick" rel="noopener" data-api_path="/artists/78435"&gt;Richard Patrick&lt;/a&gt; (former guitarist for &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;) and guitarist &lt;a href="https://genius.com/artists/Brian-liesegang" rel="noopener" data-api_path="/artists/78434"&gt;Brian Liesegang&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/957619c5fe724ca0712a7ed966d44a97.500x300x1.jpg" alt="" width="500" height="300" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Their first studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Filter/Short-bus" rel="noopener" data-api_path="/albums/48178"&gt;Short Bus&lt;/a&gt;,&lt;/em&gt; (1995) went platinum, sold over 1 million copies, and boasted the band’s first hit single, &lt;a href="https://genius.com/Filter-hey-man-nice-shot-lyrics" rel="noopener" data-api_path="/songs/238443"&gt;“Hey Man Nice Shot”.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After Liesegang’s departure from the band in 1997, Patrick and the remaining members released their second platinum record, &lt;a href="https://genius.com/albums/Filter/Title-of-record" rel="noopener" data-api_path="/albums/64997"&gt;&lt;em&gt;Title of Record,&lt;/em&gt;&lt;/a&gt; which provided fans in early 2000 with both a second hit single, &lt;a href="https://genius.com/Filter-take-a-picture-lyrics" rel="noopener" data-api_path="/songs/297604"&gt;“Take a Picture,”&lt;/a&gt; and a new sound unlike the industrial rock of the past.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jamiroquai', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jamiroquai&lt;/strong&gt; is an acid-jazz band formed in London in 1992. It’s led by frontman &lt;a href="https://genius.com/artists/Jason-kay" rel="noopener" data-api_path="/artists/2521215"&gt;Jay Kay&lt;/a&gt;, the band’s best-known and only remaining original member. Early Jamiroquai records were known for the use of a didgeridoo, played by &lt;a href="https://genius.com/artists/Wallis-buchanan" rel="noopener" data-api_path="/artists/989947"&gt;Wallis Buchanan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The name “Jamiroquai” is a portmanteau of “jam session” and the Native American “Iroquoi” tribe. Jay Kay’s interest in Native Americans can be seen clearly in the video for &lt;a href="https://genius.com/Jamiroquai-too-young-to-die-lyrics" rel="noopener" data-api_path="/songs/2165125"&gt;“Too Young To Die.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;As of January 2017, Jamiroquai is:&lt;br&gt;\n– Jay Kay&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Derrick-mckenzie" rel="noopener" data-api_path="/artists/514811"&gt;Derrick McKenzie&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Sola-akingbola" rel="noopener" data-api_path="/artists/989949"&gt;Sola Akingbola&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Rob-harris" rel="noopener" data-api_path="/artists/430309"&gt;Rob Harris&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Matthew-johnson" rel="noopener" data-api_path="/artists/669257"&gt;Matthew Johnson&lt;/a&gt;&lt;br&gt;\n– &lt;a href="https://genius.com/artists/Paul-turner" rel="noopener" data-api_path="/artists/531823"&gt;Paul Turner&lt;/a&gt;&lt;br&gt;\n– Jim Corry&lt;br&gt;\n– Malcolm Strachan&lt;/p&gt;\n\n&lt;p&gt;The group’s 7th album titled &lt;a href="https://genius.com/albums/Jamiroquai/Automaton" rel="noopener" data-api_path="/albums/327380"&gt;&lt;em&gt;Automaton&lt;/em&gt;&lt;/a&gt; was released on 31 March, 2017, nearly 6,5 years after the release of &lt;a href="https://genius.com/albums/Jamiroquai/Rock-dust-light-star" rel="noopener" data-api_path="/albums/125040"&gt;&lt;em&gt;Rock Dust Light Star.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alien-ant-farm', 'annotations': {'description': '&lt;p&gt;Alien Ant Farm is an American rock band &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;of childhood friends&lt;/a&gt; formed in Riverside, California, in 1995. Their name comes &lt;a href="https://www.fredericksburg.com/calendar/charity_fundraisers/alien-ant-farm-at-hard-times/event_262095da-7025-11e4-9677-c392b372c9ea.html" rel="noopener nofollow"&gt;from an idea&lt;/a&gt; original guitarist Terry Corso had about aliens and the Earth:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was just my daydream about our planet being seeded by entities from other dimensions.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After self-releasing two EPs, AAF released their first &lt;a href="https://www.discogs.com/Alien-Ant-Farm-Greatest-Hits/release/3402074" rel="noopener nofollow"&gt;full album&lt;/a&gt; &lt;em&gt;Greatest Hits&lt;/em&gt; on Chick Music Records, featuring the original recordings of two future hits “Movies” and a cover of Michael Jackson’s “Smooth Criminal” (listed as “Slick Thief”). The &lt;a href="http://archives.starbulletin.com/2005/08/19/features/index3.html" rel="noopener nofollow"&gt;album won&lt;/a&gt; Best Independent Album at that year’s LA Music Awards and, through a friendship with Papa Roach, AAF was signed to DreamWorks Records.&lt;/p&gt;\n\n&lt;p&gt;In 2001 AAF released &lt;em&gt;ANThology&lt;/em&gt; with “Movies” as the band’s first single. It originally reached #53 in the UK and #18 on the &lt;a href="https://www.billboard.com/music/alien-ant-farm/chart-history/alternative-songs" rel="noopener nofollow"&gt;US Alternative Chart&lt;/a&gt; in the first half of 2001. Next “Smooth Criminal” was released and it became an international smash hit, reaching the top 30 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Smooth+Criminal&amp;amp;cat=s" rel="noopener nofollow"&gt;in fifteen countries&lt;/a&gt;. While “Criminal” was gaining steam, AAF toured with Linkin Park and Papa Roach, traveled with The Warped Tour, and headlined an MTV Fall Tour.&lt;/p&gt;\n\n&lt;p&gt;The success of “Criminal” shot “Movies” up to #5 in the UK and the top 30 in &lt;a href="https://australian-charts.com/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Movies&amp;amp;cat=s" rel="noopener nofollow"&gt;Australia &amp;amp; New Zealand&lt;/a&gt; in early 2002. The band appeared at several European festivals that year, Australia’s Big Day Out and headlined in Japan.  On the way to a festival in Spain, the band’s tour bus &lt;a href="http://www.mtv.com/news/1454457/alien-ant-farm-injured-in-bus-accident/" rel="noopener nofollow"&gt;collided with&lt;/a&gt; a parked truck, killing the bus driver and injuring several members of the band and their crew, one ending up in a coma.&lt;/p&gt;\n\n&lt;p&gt;In 2003, AAF released &lt;em&gt;Truant&lt;/em&gt; and &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;toured Europe&lt;/a&gt; with Metallica. The album’s lead single “These Days” was a minor Alternative and Rock hit in the US. The follow-up single “Glow” reached #5 &lt;a href="https://charts.nz/showitem.asp?interpret=Alien+Ant+Farm&amp;amp;titel=Glow&amp;amp;cat=s" rel="noopener nofollow"&gt;in New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;DreamWorks Records was soon after sold to Universal and the band was placed under Universal’s Geffen Records, who shelved the band’s fourth album. AAF &lt;a href="http://www.popentertainment.com/alienantfarm.htm" rel="noopener nofollow"&gt;responded by&lt;/a&gt; bootlegging it and selling ‘a few thousand’ copies to fans.&lt;/p&gt;\n\n&lt;p&gt;Eventually Geffen relented and allowed the release of the album on a different label owned by Universal. The song “Forgive And Forget” was added and it was released as &lt;em&gt;Up In The Attic&lt;/em&gt; in 2006. None of the album’s singles charted. Its lack of success led to an &lt;a href="https://answerstoall.com/language/why-did-alien-ant-farm-break-up/" rel="noopener nofollow"&gt;unannounced 2007 breakup&lt;/a&gt;, that would only last until 2008. The band then toured for a few years before beginning work on their fifth album &lt;em&gt;Always And Forever&lt;/em&gt; in 2012, which found little success upon release in 2015.&lt;/p&gt;\n\n&lt;p&gt;Since then, the band continues to tour, taking part in 2016’s Make America Rock Again tour with Saliva, Saving Abel, Tantric, Trapt, Crazy Town and 12 Stones, as well as 2018’s Gen-X Summer Tour with Buckcherry, Lit and POD. As of summer 2018, the band had &lt;a href="http://genxsummer.com/alienantfarm.html" rel="noopener nofollow"&gt;sold over 5 million units&lt;/a&gt; worldwide.  In 2020, during their Covid-19 quarantine, AAF released another 80s cover, this time Wham’s “Everything She Wants”. Its  &lt;a href="https://www.youtube.com/watch?v=Kfg4t-PAcBg" rel="noopener nofollow"&gt;music video&lt;/a&gt; features cameos by several famous musicians.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>The Smiths</t>
+  </si>
+  <si>
+    <t>Macklemore</t>
+  </si>
+  <si>
+    <t>P. Lion</t>
+  </si>
+  <si>
+    <t>SNAP!</t>
+  </si>
+  <si>
+    <t>Whigfield</t>
+  </si>
+  <si>
+    <t>Technotronic</t>
+  </si>
+  <si>
+    <t>Duran Duran</t>
+  </si>
+  <si>
+    <t>Murray Elias</t>
+  </si>
+  <si>
+    <t>Inner Circle</t>
+  </si>
+  <si>
+    <t>Lee Harvey</t>
+  </si>
+  <si>
+    <t>Backstreet Boys</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Led Zeppelin</t>
+  </si>
+  <si>
+    <t>The Clash</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Incubus', 'annotations': {'description': '&lt;p&gt;Incubus is an American alternative rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer Jose Pasillas while enrolled in Calabasas High School. Incubus later expanded to include bassist Alex “Dirk Lance” Katunich, and Gavin “DJ Lyfe” Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore respectively.&lt;/p&gt;\n\n&lt;p&gt;Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles, &lt;a href="https://genius.com/Incubus-dig-lyrics" rel="noopener" data-api_path="/songs/313626"&gt;Dig&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Incubus-drive-lyrics" rel="noopener" data-api_path="/songs/108451"&gt;Drive&lt;/a&gt; especially.&lt;/p&gt;\n\n&lt;p&gt; The band have undergone many style changes over their long careers. Their early work, &lt;i&gt;Fungus Amongus&lt;/i&gt; (1995) and &lt;i&gt;S.C.I.E.N.C.E.&lt;/i&gt; (1997) were aggressive and clunky Funk Metal inspired by 80’s bands, such as the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; As the band earned mainstream recognition in the late 90’s and early 00’s their style matured significantly. Their albums &lt;a href="https://genius.com/albums/Incubus/Make-yourself" rel="noopener" data-api_path="/albums/26607"&gt;&lt;i&gt;Make Yourself&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Incubus/Morning-view" rel="noopener" data-api_path="/albums/80202"&gt;&lt;i&gt;Morning View&lt;/i&gt;&lt;/a&gt; evolved into a more Post-Grunge sound.&lt;/p&gt;\n\n&lt;p&gt; The Band’s success continued with the album &lt;i&gt;A Crow Left of the Murder…&lt;/i&gt; (2004). Their sixth studio album, &lt;a href="https://www.billboard.com/music/Incubus/chart-history/TLP" rel="noopener nofollow"&gt;Light Grenades, debuted at #1&lt;/a&gt;, their first and only #1 album.&lt;/p&gt;\n\n&lt;p&gt;Incubus\' first greatest hits album &lt;i&gt;Monuments and Melodies&lt;/i&gt; came out in June 2009. With their 2011 album &lt;i&gt;If Not Now, When?&lt;/i&gt; the band developed a more Pop-Rock style. The band released their eighth studio album, titled 8, on April 21, 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/911', 'annotations': {'description': "&lt;p&gt;911 are an English vocal group consisting of Lee Brennan, Jimmy Constable and Spike Dawbarn. They are best known for songs like “Bodyshakin'”, “More Than a Woman” and “A Little Bit More”.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/2-chainz', 'annotations': {'description': '&lt;p&gt;Tauheed Epps better known by his stage name 2 Chainz (born September 12, 1977) is an American rapper who born and raised in College Park, Georgia. He is known for his witty lyrics and unique delivery.&lt;/p&gt;\n\n&lt;p&gt;He originally went by the stage name Tity Boi but decided to &lt;a href="https://hot963.com/2016803/2-chainz-explains-his-decision-to-drop-tity-boi-as-a-stage-name/" rel="noopener nofollow"&gt;change his name to signify his growth as an artist.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;2 Chainz was originally a member of the duo Playaz Circle (under the name Tity Boi) and an artist under Ludacris\' &lt;a href="https://en.wikipedia.org/wiki/Disturbing_tha_Peace" rel="noopener nofollow"&gt;DTP label&lt;/a&gt;. Since leaving DTP in 2010, he has signed to Def Jam Records and frequently collaborates with Kanye West’s &lt;a href="https://en.wikipedia.org/wiki/GOOD_Music" rel="noopener nofollow"&gt;G.O.O.D. Music label&lt;/a&gt;, even though he is not officially a member.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/2_Chainz_discography" rel="noopener nofollow"&gt;His discography&lt;/a&gt; consists of five studio albums and ten mixtapes.&lt;/p&gt;', 'alternate_names': ['Hair Weave Killer', 'Drench God', 'Tauheed Epps', 'Tity Boi']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Keane', 'annotations': {'description': '&lt;p&gt;Keane, formed as The Lotus Eaters by Dominic Scott, Richard Hughes and Tim Rice-Oxley, who nearly became a member of &lt;a href="https://genius.com/artists/Coldplay" rel="noopener" data-api_path="/artists/8351"&gt;Coldplay&lt;/a&gt;, in 1995, and soon joined by singer Tom Chaplin in 1997, became one of the leading British bands of the 2000s alongside groups such as Coldplay, Snow Patrol, Travis and Muse. After Scott left the group in 2001, Keane had a commercial breakthrough with their first full-length studio album, &lt;em&gt;Hopes and Fears&lt;/em&gt;, scoring top 10 hits with &lt;a href="https://genius.com/Keane-somewhere-only-we-know-lyrics" rel="noopener" data-api_path="/songs/134995"&gt;“Somewhere Only We Know”&lt;/a&gt;, &lt;a href="https://genius.com/Keane-everybodys-changing-lyrics" rel="noopener" data-api_path="/songs/445234"&gt;“Everybody’s Changing”&lt;/a&gt; and &lt;a href="https://genius.com/Keane-bedshaped-lyrics" rel="noopener" data-api_path="/songs/380953"&gt;“Bedshaped”&lt;/a&gt;. The group gained recognition for their piano-based rock sound, which mostly lacked guitars after Scott’s departure.&lt;/p&gt;\n\n&lt;p&gt;Keane continued to have similar commercial success with their next three albums, &lt;em&gt;Under the Iron Sea&lt;/em&gt; (2006), &lt;em&gt;Perfect Symmetry&lt;/em&gt; (2008) and &lt;em&gt;Strangeland&lt;/em&gt; (2012), bringing bassist Jesse Quin into the lineup in 2008. The group then went on an extended hiatus after releasing a greatest hits compilation, but it was revealed in January 2019 that they had begun working on new material.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bloodhound-gang', 'annotations': {'description': '&lt;p&gt;Bloodhound Gang is a Collegeville, Pennsylvania-based American alternative rock band, beginning as a rap group but gradually changing its genre throughout the years. Their songs typically have humorous and off-beat, satirical lyrics that often deal with sexual subjects and contain many puns and innuendos.&lt;/p&gt;\n\n&lt;p&gt;They are best known for their hit singles “Fire Water Burn”, “The Bad Touch” and “Foxtrot Uniform Charlie Kilo”. Formed in 1991, Bloodhound Gang has sold more than 6 million albums.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bridgit-mendler', 'annotations': {'description': '&lt;p&gt;Bridgit Claire Mendler, known by just &lt;strong&gt;Bridgit Mendler&lt;/strong&gt; (born December 18, 1992), is an American singer-songwriter and actress.&lt;/p&gt;\n\n&lt;p&gt;She started her acting career in 2004, starring in the animated Indian film, &lt;a href="https://en.wikipedia.org/wiki/The_Legend_of_Buddha" rel="noopener nofollow"&gt;&lt;em&gt;The Legend of Buddha&lt;/em&gt;&lt;/a&gt;. In 2007, Mendler had an acting role as  Pamela in &lt;a href="https://en.wikipedia.org/wiki/Alice_Upside_Down" rel="noopener nofollow"&gt;&lt;em&gt;Alice Upside Down&lt;/em&gt;&lt;/a&gt;. Bridgit has had a lot of acting roles in TV shows and films, such as &lt;a href="https://goo.gl/exFnZw" rel="noopener nofollow"&gt;&lt;em&gt;The Clique&lt;/em&gt;&lt;/a&gt;(2008), &lt;a href="https://en.wikipedia.org/wiki/Labor_Pains" rel="noopener nofollow"&gt;&lt;em&gt;Labor Pains&lt;/em&gt;&lt;/a&gt;(2009) and &lt;a href="https://en.wikipedia.org/wiki/Wizards_of_Waverly_Place" rel="noopener nofollow"&gt;&lt;em&gt;Wizards of Waverly Place&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Mendler starred as the lead character in Disney Channel’s &lt;a href="https://en.wikipedia.org/wiki/Good_Luck_Charlie" rel="noopener nofollow"&gt;&lt;em&gt;Good Luck Charlie&lt;/em&gt;&lt;/a&gt; as Teddy Duncan. The show aired on &lt;a href="https://en.wikipedia.org/wiki/Disney_Channel" rel="noopener nofollow"&gt;&lt;em&gt;Disney Channel&lt;/em&gt;&lt;/a&gt; from April 4, 2010, to February 16, 2014.&lt;/p&gt;\n\n&lt;p&gt;In 2012, she released her debut LP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Hello-my-name-is" rel="noopener" data-api_path="/albums/22851"&gt;&lt;em&gt;Hello My Name Is…&lt;/em&gt;&lt;/a&gt;. The album debuted at number 30 on the US Billboard 200 and has sold over 200,00 copies.&lt;/p&gt;\n\n&lt;p&gt;After starring as the lead role in &lt;em&gt;Good Luck Charlie&lt;/em&gt;, Bridgit didn’t release music until mid-2016. In 2016, she released her first single featuring Kaiydo, called &lt;a href="https://genius.com/Bridgit-mendler-atlantis-lyrics" rel="noopener" data-api_path="/songs/2844293"&gt;“Atlantis”&lt;/a&gt;. After releasing her first single, she released an EP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Nemesis" rel="noopener" data-api_path="/albums/165240"&gt;&lt;em&gt;Nemesis&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In February 2017, Bridgit released (Temperamental Love ft. Devontée] (&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-temperamental-love-lyrics" data-api_path="/songs/2974122"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/655cb62f35345ec7a2ca8325c5bf17de.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Devontée) - Temperamental Love&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Temperamental Love Lyrics: Uh, uh / Girl, you ain\'t the only one that\'s all alone / Hell, I\'m only seeing you on the phone / What\'s a FaceTime? I need face-to-face time / Calls being dropped, you think it\'s&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) and in March released the collaboration with Pell called [Can’t Bring This Down] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-cant-bring-this-down-lyrics" data-api_path="/songs/2992079"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/bef7fcd513aaf3af1a7d07d647656dd3.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Pell) - Can\'t Bring This Down&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Can\'t Bring This Down Lyrics: Shake my head like this / You better stop it / Too high, too quick / You are the one / I never felt like this / If I\'m being honest / I can\'t bring this down / Yeah, yeah, yeah&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;). In late August, Mendler released [Diving ft. RKCB] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-diving-lyrics" data-api_path="/songs/3178641"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/888383edb1102bfef48a6b66cfceb6b2.939x939x1.jpg" width="939" height="939" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. RKCB) - Diving&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Diving Lyrics: There was a time that / I still felt love now I / Don\'t know you, but I got a / Trail of thoughts / That keep us connected and blue / Now I\'m at the elevation from a / Different&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) on the 5-year anniversary of Ready Or Not.\n\n&lt;p&gt;As of May 2018, Mendler is part of a graduate program at MIT and states that she will still release another album eventually.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lorde', 'annotations': {'description': '&lt;p&gt;Ella Marija Lani Yelich-O\'Connor (b. November 7, 1996), better known by her stage name Lorde, is a pop star hailing from New Zealand. While her earlier music focused on criticizing fame and the “pop star” culture, she grew into it more with her second album while keeping the superb writing she’s known for.&lt;/p&gt;\n\n&lt;p&gt;She first became a figure on the international scene with her debut EP &lt;a href="https://genius.com/albums/Lorde/The-love-club" rel="noopener" data-api_path="/albums/31466"&gt;&lt;em&gt;The Love Club&lt;/em&gt;&lt;/a&gt; but didn’t start to blow up until her song &lt;a href="https://genius.com/Lorde-royals-lyrics" rel="noopener" data-api_path="/songs/114153"&gt;“Royals”&lt;/a&gt; reached #1 on charts worldwide, including the US. Her use of apt metaphors and allegories at just sixteen made her a revered and intriguing media figure.&lt;/p&gt;\n\n&lt;p&gt;Although she was initially written off as a one-hit-wonder, her top-ten second single &lt;a href="https://genius.com/Lorde-team-lyrics" rel="noopener" data-api_path="/songs/217372"&gt;“Team,”&lt;/a&gt; curation of &lt;a href="https://genius.com/albums/Various-artists/The-hunger-games-mockingjay-pt-1" rel="noopener" data-api_path="/albums/113855"&gt;&lt;em&gt;The Hunger Games: Mockingjay&lt;/em&gt;&lt;/a&gt; soundtrack, and her friendships with other A-listers like &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; have kept her in the spotlight, as well as general intrigue about new music.&lt;/p&gt;\n\n&lt;p&gt;On February 27, 2017, a &lt;a href="https://www.youtube.com/watch?v=ONCv7_hZa2U" rel="noopener nofollow"&gt;mysterious commercial&lt;/a&gt; aired throughout New Zealand. It showed Lorde sipping soda before abruptly cutting to a date that said “3.2.17 NYC, 3.3.17 NZ.” This turned out to be the release date for &lt;a href="https://genius.com/Lorde-green-light-lyrics" rel="noopener" data-api_path="/songs/3004720"&gt;“Green Light,”&lt;/a&gt; the lead single from her long-anticipated sophomore album, &lt;a href="https://genius.com/albums/Lorde/Melodrama" rel="noopener" data-api_path="/albums/333439"&gt;&lt;em&gt;Melodrama&lt;/em&gt;&lt;/a&gt;. The single and video were further teased through her &lt;a href="http://twitter.com/lorde" rel="noopener nofollow"&gt;Twitter&lt;/a&gt;, and website &lt;a href="https://www.imwaitingforit.com/" rel="noopener nofollow"&gt;imwaitingforit.com.&lt;/a&gt; &lt;em&gt;Melodrama&lt;/em&gt; was finally released in June 2017, about four years after &lt;a href="https://genius.com/albums/Lorde/Pure-heroine" rel="noopener" data-api_path="/albums/42464"&gt;&lt;em&gt;Pure Heroine&lt;/em&gt;&lt;/a&gt;, and was critically acclaimed immediately after its release. &lt;em&gt;Melodrama&lt;/em&gt; was even nominated for a Grammy for &lt;a href="https://www.grammy.com/grammys/news/60th-grammy-awards-full-nominees-list" rel="noopener nofollow"&gt;Album of the Year.&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ["Ella Yelich-O'Connor", "Ella Marija Lani Yelich-O'Connor"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Calvin-harris', 'annotations': {'description': '&lt;p&gt;Adam Richard Wiles (born 17 January 1984), better known by his stage name &lt;strong&gt;Calvin Harris&lt;/strong&gt;, is a Scottish DJ, singer, songwriter, and record producer. He collaborated with &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt; on the international hit &lt;a href="http://rock.genius.com/Rihanna-we-found-love-lyrics" rel="noopener" data-api_path="/songs/56642"&gt;“We Found Love.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;According to Forbes, Harris &lt;a href="http://news.genius.com/Forbes-worlds-highest-paid-djs-electronic-cash-kings-lyrics" rel="noopener" data-api_path="/songs/205119"&gt;was the highest paid DJ of 2013,&lt;/a&gt; grossing an estimated $46 million.&lt;/p&gt;', 'alternate_names': ['Adam Wiles', 'Adam R. Wiles', 'Adam Richard Wiles']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bronski-beat', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Golden-earring', 'annotations': {'description': '&lt;p&gt;Golden Earring is a Dutch rock band, founded in 1961 in The Hague as The Golden Earrings (the definite article was dropped in 1967, while the “s” was dropped in 1969). They achieved worldwide fame with their international hit song “Radar Love” in 1973, “Twilight Zone” in 1982, and “When the Lady Smiles” in 1984. During their career they have had nearly 30 top-ten singles on the Dutch charts while releasing 25 studio albums.&lt;/p&gt;', 'alternate_names': ['Golden Earrings']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Matthew-wilder', 'annotations': {'description': '&lt;p&gt;Matthew Wilder is an American musician, composer and record producer. In 1983, he had a Top 5 hit titled “&lt;a href="https://genius.com/Matthew-wilder-break-my-stride-lyrics" rel="noopener" data-api_path="/songs/2019574"&gt;Break My Stride&lt;/a&gt;”. He is also known for his film and production work, producing albums such as No Doubt’s &lt;em&gt;Tragic Kingdom&lt;/em&gt; and contributing to the music in Disney’s 1998 film &lt;em&gt;Mulan&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ok-go', 'annotations': {'description': '&lt;p&gt;Formed in Chicago in 1998, OK Go; Damian Kulash, Dan Konopka, Timothy Nordwind, and Andy Ross, is an indie alternative rock band, known for their eye-catching, low-budget music videos.&lt;/p&gt;\n\n&lt;p&gt;In 2002, as Damian Kulash, Timothy Nordwind, Dan Konopka, and Andy Duncan, they released their self-titled debut, to generally positive claim, and has since attained a cult following among fans and critics alike.&lt;/p&gt;\n\n&lt;p&gt;In 2005, as Andy Duncan left, “Oh No” was released to more positive reviews, as Andy Ross joined, and “Here It Goes Again” reached #38 on the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2010’s “Of the Blue Colour of the Sky”, along with many hits, such as “White Knuckles”, “WTF?”, and “This Too Shall Pass”, was released to outstanding reviews, as praise went to conceptualization and songs. Also, with a heated debate with EMI for non-encrypted music videos, and hosting, OK Go split and formed Paracdute Recordings, and has since used that label.&lt;/p&gt;\n\n&lt;p&gt;With some time off, they returned again in 2014 with the EP “Upside Out”, which contained the hit “The Writing’s On the Wall”, which made the Billboard 100, and 3 more songs. Those songs eventually turned out to be catalogued for their most meticulous album, “Hungry Ghosts”. Taking a widely electronic route, “Hungry Ghosts” was positively praised by critics and fans alike for its electronic roots.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Blondie', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://punkturns30.blogspot.com/2007/05/blondie-is-group.html" rel="noopener nofollow"&gt;Blondie is a Group!&lt;/a&gt; hailed the merch for their April 1978 gigs, when the 5-member band (give or take 1 or 2, time-wise) had an underground following in the U.S. (especially in their hood, NYC), after two critically lauded records and hits outside their turf: the UK and Australia.&lt;/p&gt;\n\n&lt;p&gt;The captivating vocalist &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt;, a brunette raised in Jersey, had stage-presence and more visual appeal as a (bleached) blonde, sang clever songs with hooks.  Some bordered on punk, but with synths, like “&lt;a href="https://genius.com/Blondie-rip-her-to-shreds-lyrics" rel="noopener" data-api_path="/songs/192723"&gt;Rip Her to Shreds&lt;/a&gt;”; More than a few had a retro girl-group pop  1960s feel, “&lt;a href="https://genius.com/Blondie-in-the-flesh-lyrics" rel="noopener" data-api_path="/songs/192084"&gt;In The Flesh&lt;/a&gt;”.  Others delivered a cinematic flair, e.g., the fun spy-thrill ride, “&lt;a href="https://genius.com/Blondie-contact-in-red-square-lyrics" rel="noopener" data-api_path="/songs/192748"&gt;Contact in Red Square&lt;/a&gt;”, plotted in just over two minutes.  Many critics dubbed the band retro, to the shock of &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; who stated at the time they were firmly &lt;a href="https://www.rocksbackpages.com/Library/Article/blondies-debbie-harry-1978" rel="noopener nofollow"&gt;new wave&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;September 1978’s 3rd album made Blondie platinum.  Hit producer &lt;a href="https://genius.com/artists/Mike-chapman" rel="noopener" data-api_path="/artists/30909"&gt;Mike Chapman&lt;/a&gt; pushed the band to deliver their best (at least in a commercial sense).  He proposed an electronic-loop to an old song in their repertoire that never made the cut as a studio recording, dubbed “&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;”, blowing up early 1979 airwaves as the the 3rd or 4th single from the 1978 album, i.e., 4th in the UK and other countries.  In the U.S. it was the 3rd single, the first 2 (the only cover songs on the album) having failed to scratch the HOT 100.  In the UK, the 1st single, “&lt;a href="https://genius.com/artists/Picture-this" rel="noopener" data-api_path="/artists/624636"&gt;Picture This&lt;/a&gt;“, penned by Harrry/Stein/Destri got to# 12, doing almost as well in Sweden and other European countries.&lt;/p&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;“ from the 3rd record &lt;a href="https://genius.com/albums/Blondie/Parallel-lines" rel="noopener" data-api_path="/albums/28158"&gt;&lt;em&gt;Parallel Lines&lt;/em&gt;&lt;/a&gt; turned the band into a brand, despite being critically acclaimed.  It hurled out 2 more hits, ”&lt;a href="https://genius.com/artists/One-way-or-another" rel="noopener" data-api_path="/artists/455903"&gt;One way or another&lt;/a&gt;“ in North America, by Debbie Harry and &lt;a href="https://genius.com/artists/Nigel-harrison" rel="noopener" data-api_path="/artists/540398"&gt;Nigel Harrison&lt;/a&gt;, their English bassist.  ”&lt;a href="https://genius.com/artists/Sunday-girl" rel="noopener" data-api_path="/artists/390926"&gt;Sunday Girl&lt;/a&gt;“ by &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt;, became their 2nd #1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;The 4th record, served in September 1979 &lt;a href="https://genius.com/albums/Blondie/Eat-to-the-beat" rel="noopener" data-api_path="/albums/40103"&gt;&lt;em&gt;Eat to the Beat&lt;/em&gt;&lt;/a&gt; did not disappoint, despite or because of more eclectic and experimental tunes.  It moved steadily into U.S. platinum; for that it didn’t need to break out another “Heart of Glass”.  Album sales weren’t hurt when February 1980’s soon-to-be monster hit ate the beat, pimped out of the main theme of a movie, &lt;a href="https://www.imdb.com/title/tt0080365/" rel="noopener nofollow"&gt;American Gigolo&lt;/a&gt;.  &lt;a href="https://genius.com/Blondie-call-me-lyrics" rel="noopener" data-api_path="/songs/193085"&gt;“Call Me”&lt;/a&gt;“, penned and produced by &lt;a href="https://genius.com/artists/Giorgio-moroder" rel="noopener" data-api_path="/artists/50122"&gt;Giorgio Moroder&lt;/a&gt;, with lyrics by Debbie Harry, was a world-wide smash, becoming Billboard’s #1 single of 1980.&lt;/p&gt;\n\n&lt;p&gt;In November 1980 Blondie spawned a more daring album with some originals that smacked of show-tunes, closing with an actual siren-song cover, &lt;a href="https://genius.com/albums/E-girls-jp/Follow-me" rel="noopener" data-api_path="/albums/753247"&gt;Follow Me&lt;/a&gt; from the 1960 musical Camelot.  The opening (mostly) instrumental track is a dramatic, string-hued piece culminating to a space-age outro and Debbie Harry’s spoken deadpan narration of a future history; panned by critics, it has an &lt;a href="https://genius.com/artists/Ennio-morricone" rel="noopener" data-api_path="/artists/47679"&gt;Ennio Morricone&lt;/a&gt;-esqe edge.   Despite its sheer musicality, &lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; drove it through: the reggae cover-song single “&lt;a href="https://genius.com/albums/John-holt/The-tide-is-high" rel="noopener" data-api_path="/albums/255121"&gt;The Tide Is High&lt;/a&gt;”, was a worldwide tidal wave splash, #1 in the U.S., as was the next single, an about-face to the beach water of tide’s high, a song with an urban-sense, made to dance.  It bested the “Tide”, particularly in the U.S., rapping it up to #1.  “&lt;a href="https://genius.com/artists/rapture" rel="noopener" data-api_path="/artists/17012"&gt;Rapture&lt;/a&gt;“ was Blondie’s 3rd and last #1 (in the U.S., that is), and the 2nd penned by Harry/Stein.  A &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt; quote sums it up well, from &lt;a href="https://www.biography.com/news/blondie-debbie-harry-rapture-tide-is-high" rel="noopener nofollow"&gt;Biography&lt;/a&gt;,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Rapture” was the first time many Americans were exposed to this new art form. U-God and Inspectah Deck from the Wu-Tang Clan once told me that ‘Rapture’ was the first rap song they ever heard as kids,” Stein told the New York Post. “That’s mind-boggling.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; was recorded in L.A. at the insistence of their producer.  The music and painted album cover still attested to the band’s roots, musically and physically, firmly, NYC.  Along with quintessential bands such as &lt;a href="https://genius.com/artists/Ramones" rel="noopener" data-api_path="/artists/765"&gt;Ramones&lt;/a&gt;, &lt;a href="https://genius.com/artists/Talking-heads" rel="noopener" data-api_path="/artists/13347"&gt;Talking Heads&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Television" rel="noopener" data-api_path="/artists/31147"&gt;Television&lt;/a&gt;, Blondie gained underground grounding by regularly gigging at &lt;a href="https://genius.com/De-la-soul-cbgbs-lyrics" rel="noopener" data-api_path="/songs/2845157"&gt;CBGB’S&lt;/a&gt; and Live at Max’s Kansas City- the venue’s 2nd phase in 1975&lt;/p&gt;\n\n&lt;p&gt;1982 brought on the band’s sixth studio album, a commercial flop compared to its predecessors: &lt;a href="https://genius.com/albums/blondie/the-hunter" rel="noopener" data-api_path="/albums/40144"&gt;&lt;em&gt;The Hunter&lt;/em&gt;&lt;/a&gt; yielded a couple of semi-hits, primarily the Harry/Stein song “&lt;a href="https://genius.com/Blondie-island-of-lost-souls-lyrics" rel="noopener" data-api_path="/songs/192946"&gt;Island of Lost Souls&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Blondie, the band, fizzled-out afterwards.  &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; would continue putting out solo records (Chris Stein’s chops contributing when possible), the first of which was before &lt;a href="https://genius.com/Red-hot-chili-peppers-the-hunter-lyrics" rel="noopener" data-api_path="/songs/2467627"&gt;The Hunter&lt;/a&gt;, 1981’s &lt;a href="https://genius.com/artists/Kookoo" rel="noopener" data-api_path="/artists/1427490"&gt;Kookoo&lt;/a&gt;, produced and co-written by &lt;a href="https://genius.com/artists/Nile-rodgers" rel="noopener" data-api_path="/artists/34636"&gt;Nile Rodgers&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bernard-edwards" rel="noopener" data-api_path="/artists/189401"&gt;Bernard Edwards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not until 1999 did Blondie yield a  “comeback album”, sort of: &lt;a href="https://genius.com/albums/blondie/no-exit" rel="noopener" data-api_path="/albums/40159"&gt;&lt;em&gt;No Exit&lt;/em&gt;&lt;/a&gt; had one big international hit, Blondie’s sixth #1 in the UK, &lt;a href="https://genius.com/Blondie-maria-lyrics" rel="noopener" data-api_path="/songs/193016"&gt;“Maria”&lt;/a&gt;, penned by keyboardist &lt;a href="https://genius.com/artists/Jimmy-destri" rel="noopener" data-api_path="/artists/1036333"&gt;Jimmy Destri&lt;/a&gt;.  Since then the band (or variation thereof, always with “Harry/Stein”) have continued releasing albums.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Blondie was inducted into &lt;a href="https://www.rockhall.com/inductees/blondie" rel="noopener nofollow"&gt;The Rock &amp;amp; Roll Hall of Fame&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.morrisonhotelgallery.com/search/Mick--Rock" rel="noopener nofollow"&gt;Mick Rock&lt;/a&gt;, photographer, &lt;a href="https://www.morrisonhotelgallery.com/collections/JE4xhs/The-Best-Photographs-of-Debbie-Harry" rel="noopener nofollow"&gt;took the best shots of Debbie Harry, or was it Andy Warhol, who turned them into…paintings?&lt;/a&gt;.  Picture this:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/40bac203f70bccd6a20017700e646dae.411x490x1.jpg" alt="" width="411" height="490" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-rembrandts', 'annotations': {'description': '&lt;p&gt;The band fated to be remembered for the theme song from &lt;em&gt;Friends&lt;/em&gt;, &lt;a href="https://genius.com/The-rembrandts-ill-be-there-for-you-lyrics" rel="noopener" data-api_path="/songs/118120"&gt;“I’ll Be There for You”&lt;/a&gt;, was created in 1989 when music-industry veterans Phil Solem (formerly of The Quick and a solo career) and Danny Wilde (formerly of Great Buildings) recorded their self-titled album in Wilde’s home. The duo split in 1997 but have periodically reunited to write new songs and produce for other artists.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Baltimora', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Liquido', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sum-41', 'annotations': {'description': '&lt;p&gt;Sum 41 is a Canadian rock band from Ajax, Ontario. They formed in 1996 as a five-piece consisting of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Deryck-whibley" rel="noopener" data-api_path="/artists/124140"&gt;Deryck Whibley&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Dave-baksh" rel="noopener" data-api_path="/artists/341905"&gt;Dave Baksh&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Tom-thacker" rel="noopener" data-api_path="/artists/1098961"&gt;Tom Thacker&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Jason-mccaslin" rel="noopener" data-api_path="/artists/244346"&gt;Jason McCaslin&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Stevo32" rel="noopener" data-api_path="/artists/649671"&gt;Frank Zummo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Though they were originally called Kaspir, the group members decided to change the band’s name for a Supernova show on September 28, 1996, which happened to be the &lt;strong&gt;41&lt;/strong&gt;&lt;sup&gt;st&lt;/sup&gt; day of their &lt;strong&gt;sum&lt;/strong&gt;mer vacation. The band released their debut record as Sum 41 called &lt;a href="https://genius.com/albums/Sum-41/Half-hour-of-power" rel="noopener" data-api_path="/albums/89972"&gt;&lt;em&gt;Half Hour of Power&lt;/em&gt;&lt;/a&gt; in 2000. They followed it with the breakout sophomore record &lt;a href="https://genius.com/albums/Sum-41/All-killer-no-filler" rel="noopener" data-api_path="/albums/23564"&gt;&lt;em&gt;All Killer No Filler&lt;/em&gt;&lt;/a&gt; in 2001 and it contained several charting songs such as &lt;a href="https://genius.com/Sum-41-fat-lip-lyrics" rel="noopener" data-api_path="/songs/96082"&gt;“Fat Lip”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-in-too-deep-lyrics" rel="noopener" data-api_path="/songs/96086"&gt;“In Too Deep.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2002, the band released &lt;a href="https://genius.com/albums/Sum-41/Does-this-look-infected" rel="noopener" data-api_path="/albums/78047"&gt;&lt;em&gt;Does This Look Infected?&lt;/em&gt;&lt;/a&gt; which was also a commercial and critical success. The singles &lt;a href="https://genius.com/Sum-41-the-hell-song-lyrics" rel="noopener" data-api_path="/songs/381815"&gt;“The Hell Song”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-still-waiting-lyrics" rel="noopener" data-api_path="/songs/389921"&gt;“Still Waiting”&lt;/a&gt; drove the band to stardom, and with their 2004 record &lt;a href="https://genius.com/albums/Sum-41/Chuck" rel="noopener" data-api_path="/albums/28847"&gt;&lt;em&gt;Chuck&lt;/em&gt;&lt;/a&gt;, they planted themselves as giants in the punk rock scene.&lt;/p&gt;\n\n&lt;p&gt;Though it was received with mixed reviews, their 2007 album &lt;a href="https://genius.com/albums/Sum-41/Underclass-hero" rel="noopener" data-api_path="/albums/42860"&gt;&lt;em&gt;Underclass Hero&lt;/em&gt;&lt;/a&gt; became the highest grossing album of the band to date. It was then followed by &lt;a href="https://genius.com/albums/Sum-41/Screaming-bloody-murder" rel="noopener" data-api_path="/albums/21310"&gt;&lt;em&gt;Screaming Bloody Murder&lt;/em&gt;&lt;/a&gt; in 2011, &lt;a href="https://genius.com/albums/Sum-41/13-voices" rel="noopener" data-api_path="/albums/157898"&gt;&lt;em&gt;13 Voices&lt;/em&gt;&lt;/a&gt; in 2016 and &lt;a href="https://genius.com/albums/Sum-41/Order-in-decline" rel="noopener" data-api_path="/albums/523533"&gt;&lt;em&gt;Order in Decline&lt;/em&gt;&lt;/a&gt; in 2019. While none of these albums have been able to reach the commercial success as their predecessors, they have nevertheless received praise from fans and critics alike.&lt;/p&gt;\n\n&lt;p&gt;Sum 41 occasionally played as an alter-ego 1980s heavy metal band called Pain for Pleasure during shows.&lt;/p&gt;\n\n&lt;p&gt;It is also hypothesized by many fans that the band’s name comes from the fact that if you take the word “fuck” and add all its letters (“F” being the 6th letter of the alphabet, “U” being number 21, etc) you get 41.&lt;/p&gt;', 'alternate_names': ['Pain for pleasure', 'Kaspir']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tokio-hotel', 'annotations': {'description': '&lt;p&gt;Tokio Hotel is a German rock band, founded in 2001 by singer Bill Kaulitz, guitarist Tom Kaulitz, drummer Gustav Schäfer and bassist Georg Listing. The quartet have scored four number one singles and have released three number one albums in their native country, selling nearly 5 million CDs and DVDs there. After recording an unreleased demo-CD under the name “Devilish” and having their contract with Sony BMG Germany terminated, the band released their first German-language album, Schrei, as Tokio Hotel on Universal Music Germany in 2005. Schrei sold more than half a million copies worldwide and spawned four top five singles in both Germany and Austria&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alanis-morissette', 'annotations': {'description': '&lt;p&gt;Alanis Nadine Morissette was born on June 1, 1974, in Ottawa, Canada. At age 6, she began taking piano lessons, and by the time she was 9, she was writing her own songs.&lt;/p&gt;\n\n&lt;p&gt;When she was 11, Morissette joined the cast of a Nickelodeon children’s show called You Can’t Do That on Television, and saved up her earnings. In 1987, she used them to self-release her first track, &lt;a href="https://genius.com/Alanis-morissette-fate-stay-with-me-lyrics" rel="noopener" data-api_path="/songs/398506"&gt;“Fate Stay With Me.”&lt;/a&gt; The song caught the attention of record label MCA Canada; at age 14, Morissette signed a contract with the company. She released a self-titled album, &lt;a href="https://genius.com/albums/Alanis-morissette/Alanis" rel="noopener" data-api_path="/albums/92224"&gt;&lt;em&gt;Alanis&lt;/em&gt;&lt;/a&gt;, in 1991, which went platinum. Quickly following up the success of her first album, Morissette released &lt;a href="https://genius.com/albums/Alanis-morissette/Now-is-the-time" rel="noopener" data-api_path="/albums/92230"&gt;&lt;em&gt;Now Is The Time&lt;/em&gt;&lt;/a&gt; a year later, though it did not reach the same level of popularity.&lt;/p&gt;\n\n&lt;p&gt;In 1994 Morissette moved to Los Angeles teamed up with industry veteran Glen Ballard, and she began to approach songwriting more organically.&lt;br&gt;\nThe result of Morissette’s collaboration with Ballard was &lt;a href="https://genius.com/albums/Alanis-morissette/Jagged-little-pill" rel="noopener" data-api_path="/albums/26841"&gt;&lt;em&gt;Jagged Little Pill&lt;/em&gt;&lt;/a&gt;, which was released in 1995 by Maverick Records. With its edgy, alternative sound, the single &lt;a href="https://genius.com/Alanis-morissette-you-oughta-know-lyrics" rel="noopener" data-api_path="/songs/109485"&gt;“You Oughta Know”&lt;/a&gt; struck a strong chord with listeners. In 1996, the album won several Grammy Awards, including &lt;em&gt;Album of the Year&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The songwriter herself described many of Jagged Little Pill’s songs as reactionary, whereas the songs on her next album, &lt;a href="https://genius.com/albums/Alanis-morissette/Supposed-former-infatuation-junkie" rel="noopener" data-api_path="/albums/47803"&gt;&lt;em&gt;Supposed Former Infatuation Junkie&lt;/em&gt;&lt;/a&gt; (1998), were more about redemption and reconciliation than anger.&lt;/p&gt;\n\n&lt;p&gt;Despite her past success in collaborating with Ballard, Morissette decided to go it alone in 2001, writing and producing the album &lt;a href="https://genius.com/albums/Alanis-morissette/Under-rug-swept" rel="noopener" data-api_path="/albums/59404"&gt;&lt;em&gt;Under Rug Swept&lt;/em&gt;&lt;/a&gt; by herself, including the hit single &lt;a href="https://genius.com/Alanis-morissette-hands-clean-lyrics" rel="noopener" data-api_path="/songs/398428"&gt;“Hands Clean.”&lt;/a&gt;, followed by the album &lt;a href="https://genius.com/albums/Alanis-morissette/So-called-chaos" rel="noopener" data-api_path="/albums/92241"&gt;&lt;em&gt;So-Called Chaos&lt;/em&gt;&lt;/a&gt; (2004).&lt;/p&gt;\n\n&lt;p&gt;Morissette’s next album, &lt;a href="https://genius.com/albums/Alanis-morissette/Flavors-of-entanglement" rel="noopener" data-api_path="/albums/59406"&gt;&lt;em&gt;Flavors of Entanglement&lt;/em&gt;&lt;/a&gt; (2008), was recorded on the heels of her breakup with actor Ryan Reynolds, whom Morissette had been dating since 2002.&lt;/p&gt;\n\n&lt;p&gt;In May 2010, Morissette married Mario “MC Souleye” Treadway, and later that year, their son, Ever Imre Morissette-Treadway, was born. After the birth of her son, she began writing what would become her eighth studio album &lt;a href="https://genius.com/albums/Alanis-morissette/Havoc-and-bright-lights" rel="noopener" data-api_path="/albums/92246"&gt;&lt;em&gt;Havoc and Bright Lights&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2015, Morissette released a remastered version of &lt;em&gt;Jagged Little Pill&lt;/em&gt; for its 20th anniversary, bundled with a CD of &lt;a href="https://genius.com/albums/Alanis-morissette/Jagged-little-pill-disc-2" rel="noopener" data-api_path="/albums/130674"&gt;unreleased tracks&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Alanis N. Morissette', 'Alanis Nadine Morissette']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Grandmaster-flash-and-the-furious-five', 'annotations': {'description': '&lt;p&gt;Grandmaster Flash &amp;amp; The Furious Five were an American hip-hop group formed in 1976 in the South Bronx of New York City. Composed of one DJ, (&lt;a href="https://genius.com/artists/Grandmaster-flash" rel="noopener" data-api_path="/artists/6267"&gt;Grandmaster Flash&lt;/a&gt;), and five MCs (Melle Mel, The Kidd Creole, Keith Cowboy, Mr. Ness/Scorpio, and Rahiem), the group’s turntablism techniques, break-beat DJing, and conscious lyricism were significant to the early development of hip-hop music.&lt;/p&gt;\n\n&lt;p&gt;Flash &amp;amp; The Five set the standards and roots in hip-hop. Influencing countless artists in their wake, they were the first group to be inducted into the Rock and Roll Hall of Fame.&lt;/p&gt;', 'alternate_names': ['Flash &amp; The Five']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Janet-jackson', 'annotations': {'description': '&lt;p&gt;Janet Damita Jo Jackson is an iconic R&amp;amp;B/pop artist who has sold over 100 million records worldwide and has amassed a number of awards in her illustrious music career.&lt;/p&gt;\n\n&lt;p&gt;Born in Gary, Indiana on May 16, 1966, Janet is the youngest of the Jackson family, who rose to prominence a few years after her birth when they signed with Motown Records. Janet joined the family business when she appeared on The Jacksons variety show in 1976, leading to her role as Penny Gordon in Season 5 of the CBS sitcom &lt;a href="https://www.imdb.com/title/tt0070991/" rel="noopener nofollow"&gt;&lt;em&gt;Good Times&lt;/em&gt;&lt;/a&gt;. She released two overlooked albums in the early 1980s—&lt;a href="https://genius.com/albums/Janet-jackson/Janet-jackson" rel="noopener" data-api_path="/albums/125305"&gt;&lt;em&gt;Janet Jackson&lt;/em&gt;&lt;/a&gt; (1982) and &lt;a href="https://genius.com/albums/Janet-jackson/Dream-street" rel="noopener" data-api_path="/albums/125432"&gt;&lt;em&gt;Dream Street&lt;/em&gt;&lt;/a&gt; (1984)—and continued to act during this time, appearing in &lt;a href="https://www.imdb.com/title/tt0077003/" rel="noopener nofollow"&gt;&lt;em&gt;Diff\'rent Strokes&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://www.imdb.com/title/tt0083412/" rel="noopener nofollow"&gt;&lt;em&gt;Fame&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The legend of Janet was created after she connected with the legendary Minneapolis production duo &lt;a href="https://genius.com/artists/Jimmy-jam-and-terry-lewis" rel="noopener" data-api_path="/artists/987693"&gt;Jimmy Jam &amp;amp; Terry Lewis&lt;/a&gt; to work on her seminal third album, &lt;a href="https://genius.com/albums/Janet-jackson/Control" rel="noopener" data-api_path="/albums/22907"&gt;&lt;em&gt;Control&lt;/em&gt;&lt;/a&gt;. &lt;em&gt;Control&lt;/em&gt; and her following album, 1989’s &lt;a href="https://genius.com/albums/Janet-jackson/Janet-jackson-s-rhythm-nation-1814" rel="noopener" data-api_path="/albums/6025"&gt;&lt;em&gt;Rhythm Nation 1814&lt;/em&gt;&lt;/a&gt;, featured several #1 pop hits and made her a worldwide superstar. The trio would go on work on Janet’s subsequent hit albums, including &lt;a href="https://genius.com/albums/Janet-jackson/Janet" rel="noopener" data-api_path="/albums/6365"&gt;&lt;em&gt;janet.&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Janet-jackson/The-velvet-rope" rel="noopener" data-api_path="/albums/6137"&gt;&lt;em&gt;The Velvet Rope&lt;/em&gt;&lt;/a&gt;, as well as her 2015 comeback album, &lt;a href="https://genius.com/albums/Janet-jackson/Unbreakable" rel="noopener" data-api_path="/albums/129366"&gt;&lt;em&gt;Unbreakable&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;She has won five Grammy Awards, 11 American Music Awards, and holds nine Guinness World Records, including one for the most expensive video in music history at $7 million for the song &lt;a href="https://genius.com/Michael-jackson-scream-lyrics" rel="noopener" data-api_path="/songs/108127"&gt;“Scream”&lt;/a&gt;, the 1995 collaboration with her superstar brother &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Janet has influenced many pop stars, including &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lady-gaga" rel="noopener" data-api_path="/artists/447"&gt;Lady Gaga&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;. She was honored with a star on the Hollywood Walk of Fame in 1990, and she was selected for induction into the Rock &amp;amp; Roll Hall of Fame in 2019.&lt;/p&gt;', 'alternate_names': ['Janet D. J. Jackson', 'Janet Damita Jo Jackson']}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Junkie-xl', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Thomas Holkenborg']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Gotye', 'annotations': {'description': '&lt;p&gt;Wauter De Backer, better known as Gotye, is an Australian musician. As well as performing numerous instruments, he writes and performs his own lyrics. He was born in Belguim but he moved to Australia at the age of two.&lt;/p&gt;\n\n&lt;p&gt;To date, Gotye has released three studio albums and one remix album, the most popular being &lt;a href="https://genius.com/albums/Gotye/Making-mirrors" rel="noopener" data-api_path="/albums/14938"&gt;&lt;em&gt;Making Mirrors&lt;/em&gt;&lt;/a&gt; which delivered the smash hit single &lt;a href="https://genius.com/Gotye-somebody-that-i-used-to-know-lyrics" rel="noopener" data-api_path="/songs/65848"&gt;“Somebody That I Used To Know,”&lt;/a&gt; which hit number one in over twenty countries. He is also a founding member of the band &lt;a href="https://genius.com/artists/The-basics" rel="noopener" data-api_path="/artists/260112"&gt;The Basics&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Wally De Backer', 'Wauter Andre E. De Backer', 'Wauter De Backer']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sex-pistols', 'annotations': {'description': '&lt;p&gt;Short-lived, yet long-influencing, the Sex Pistols were an English punk band formed in London in 1975. They initiated the punk movement in the UK and subsequently inspired a plethora of groups. Their original line-up consisted of singer &lt;a href="https://genius.com/artists/John-lydon" rel="noopener" data-api_path="/artists/221228"&gt;John “Johnny Rotten” Lydon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Steve-jones" rel="noopener" data-api_path="/artists/374884"&gt;Steve “Jonesy” Jones&lt;/a&gt;, bassist Glen Matlock (replaced by trainwreck and subsequent punk icon &lt;a href="https://genius.com/artists/Sid-vicious" rel="noopener" data-api_path="/artists/346731"&gt;Sid Vicious&lt;/a&gt;), and drummer Paul Cook. Under the management of Malcolm McLaren, the Pistols created a ton of controversy, scoring even more publicity as a result.&lt;/p&gt;\n\n&lt;p&gt;Their first and only studio album, &lt;a href="https://genius.com/albums/Sex-pistols/Never-mind-the-bollocks-here-s-the-sex-pistols" rel="noopener" data-api_path="/albums/17469"&gt;&lt;em&gt;Never Mind the Bollocks, Here’s the Sex Pistols&lt;/em&gt;&lt;/a&gt;, was released in 1977. During a promotional tour in the United States the following year, the group decided to disband. The original four reunited in the 90s with the adequately titled “Never Mind The Pistols… Here`s the Filthy Lucre” Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Katrina-and-the-waves', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Carl-ward', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Justin-timberlake', 'annotations': {'description': '&lt;p&gt;Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, and actor. Born in Memphis, Tennessee, he appeared on the television shows &lt;em&gt;Star Search&lt;/em&gt; and &lt;em&gt;The All-New Mickey Mouse Club&lt;/em&gt; as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of the boy band &lt;a href="https://genius.com/artists/N-sync" rel="noopener" data-api_path="/artists/8625"&gt;NSYNC&lt;/a&gt;, which eventually became one of the best-selling boy bands of all time.&lt;/p&gt;\n\n&lt;p&gt;In 2002, Timberlake released his solo debut, &lt;em&gt;Justified,&lt;/em&gt; with some help from The Neptunes and Timbaland on production. Timbaland and Timberlake would continue their collaboration on 2006’s &lt;em&gt;FutueSex/LoveSounds&lt;/em&gt;, on which Timbaland produced all but two tracks.&lt;/p&gt;', 'alternate_names': ['Justin Randall', 'Justin R. Timberlake', 'Justin Randall Timberlake']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shaggy', 'annotations': {'description': '&lt;p&gt;Orville Richard Burrell CD (born October 22, 1968), known mostly by his stage name Shaggy, is a Jamaican reggae fusion singer and deejay. He took his nickname from Shaggy Rogers, from the cartoon Scooby Doo.&lt;/p&gt;\n\n&lt;p&gt;He was born on October 22, 1968 in Kingston, Jamaica. In 1975 he and his family moved to Brooklyn, New York.&lt;/p&gt;\n\n&lt;p&gt;The singer released his first hit “Oh Carolina” in 1993, which was a dancehall re-make of a ska hit by the Folkes Brothers.&lt;br&gt;\nIn 1995 he published his most famous hit “Boombastic”.&lt;br&gt;\nIn 2000, Shaggy released the album Hot Shot, which was certified 6x Platinum in the U.S. The album featured the singles “It Wasn’t Me” and “Angel”.&lt;/p&gt;', 'alternate_names': ['Mr. Boombastic', 'Orville Burrell', 'Orville Richard Burrell', 'Orville R. Burrell']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jessie-j', 'annotations': {'description': '&lt;p&gt;Jessie J is a British singer. Born in 1988, she first came to fame when her single, &lt;a href="https://genius.com/Jessie-j-do-it-like-a-ude-lyrics" rel="noopener"&gt;“Do It Like A Dude”&lt;/a&gt; hit #2 in the UK. Singles &lt;a href="https://genius.com/Jessie-j-laserlight-lyrics" rel="noopener" data-api_path="/songs/248955"&gt;“LaserLight”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-nobodys-perfect-lyrics" rel="noopener" data-api_path="/songs/62391"&gt;“Nobody’s Perfect”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-who-you-are-lyrics" rel="noopener" data-api_path="/songs/81908"&gt;“Who You Are”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-domino-lyrics" rel="noopener" data-api_path="/songs/67446"&gt;“Domino”&lt;/a&gt;, and &lt;a href="https://genius.com/Jessie-j-price-tag-lyrics" rel="noopener" data-api_path="/songs/6125"&gt;“Price Tag”&lt;/a&gt; all hit the Top 10 in the UK, making her the first British female artist to achieve 6 Top 10 singles in the UK. The latter two became Top 25 hits in the US, with &lt;a href="https://genius.com/Jessie-j-domino-lyrics" rel="noopener" data-api_path="/songs/67446"&gt;“Domino”&lt;/a&gt; peaking at #6 and &lt;a href="https://genius.com/Jessie-j-price-tag-lyrics" rel="noopener" data-api_path="/songs/6125"&gt;“Price Tag”&lt;/a&gt; hitting #23.&lt;/p&gt;\n\n&lt;p&gt;Jessie J’s second album, &lt;a href="https://genius.com/albums/Jessie-j/Alive" rel="noopener" data-api_path="/albums/42826"&gt;&lt;em&gt;Alive&lt;/em&gt;&lt;/a&gt;, became a UK-only release. The three singles, &lt;a href="https://genius.com/Jessie-j-wild-lyrics" rel="noopener" data-api_path="/songs/155565"&gt;“Wild”&lt;/a&gt;, &lt;a href="https://genius.com/Jessie-j-its-my-party-lyrics" rel="noopener" data-api_path="/songs/207003"&gt;“It’s My Party”&lt;/a&gt;, and &lt;a href="https://genius.com/Jessie-j-thunder-lyrics" rel="noopener" data-api_path="/songs/221197"&gt;“Thunder”&lt;/a&gt; all hit the Top 20 in the UK, with the first two making Top 5. On the album charts, it hit #3 and went gold.&lt;/p&gt;\n\n&lt;p&gt;Her third album, &lt;a href="https://genius.com/albums/Jessie-j/Sweet-talker" rel="noopener" data-api_path="/albums/111122"&gt;&lt;em&gt;Sweet Talker&lt;/em&gt;&lt;/a&gt;, was released internationally and preceded by the smash single &lt;a href="https://genius.com/Jessie-j-ariana-grande-and-nicki-minaj-bang-bang-lyrics" rel="noopener" data-api_path="/songs/486355"&gt;“Bang Bang”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nicki-minaj" rel="noopener" data-api_path="/artists/92"&gt;Nicki Minaj&lt;/a&gt;. In the UK, it went straight to the top of the charts, while in the US, it debuted at #6, tying her highest peak. Eventually, it hit #3, becoming Jessie’s highest peak, Grande’s second-highest, and Minaj’s tied-for-highest. (Minaj later surpassed her peak with her number two single, &lt;a href="https://genius.com/Nicki-minaj-anaconda-lyrics" rel="noopener" data-api_path="/songs/483960"&gt;“Anaconda”&lt;/a&gt;.) “Bang Bang” also hit the Top 10 in Australia, Canada, Denmark, and New Zealand and went Platinum X6 according to RIIA. The next single, &lt;a href="https://genius.com/Jessie-j-burnin-up-lyrics" rel="noopener" data-api_path="/songs/510163"&gt;“Burnin\' Up”&lt;/a&gt; was less successful, although it cracked the Top 100 in both the US and UK. Third single &lt;a href="https://genius.com/Jessie-j-sweet-talker-lyrics" rel="noopener" data-api_path="/songs/458228"&gt;“Sweet Talker”&lt;/a&gt; was released in only the UK/Ireland, and fourth single &lt;a href="https://genius.com/Jessie-j-masterpiece-lyrics" rel="noopener" data-api_path="/songs/538461"&gt;“Masterpiece”&lt;/a&gt; hit the US Hot 100, but only managed a 159 peak in the UK.&lt;/p&gt;\n\n&lt;p&gt;After 3 years away from the music scene, Jessie came back with a fourth LP, &lt;a href="https://genius.com/albums/Jessie-j/R-o-s-e" rel="noopener" data-api_path="/albums/368378"&gt;&lt;em&gt;R.O.S.E.&lt;/em&gt;&lt;/a&gt; (2018). The official single from the album is &lt;a href="https://genius.com/Jessie-j-queen-lyrics" rel="noopener" data-api_path="/songs/3237259"&gt;“Queen”&lt;/a&gt; along with two promo singles &lt;a href="https://genius.com/Jessie-j-think-about-that-lyrics" rel="noopener" data-api_path="/songs/3226086"&gt;“Think About That”&lt;/a&gt; and &lt;a href="https://genius.com/Jessie-j-not-my-ex-lyrics" rel="noopener" data-api_path="/songs/3237257"&gt;“Not My Ex”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Jessie E. Cornish', 'Jessica Cornish', 'Jessica Ellen Cornish']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mr-president', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Suzanne-vega', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Elle-king', 'annotations': {'description': '&lt;p&gt;Elle King is an American singer-songwriter and actress. She was born Tanner Elle Schneider on July 3rd, 1989, to actor Rob Schneider and model London King. Despite the fact that she has famous parents, Elle became well-known by showcasing her own talent and drive.&lt;/p&gt;\n\n&lt;p&gt;Elle got her start by performing in bars as a teenager. In an &lt;a href="http://nypost.com/2015/02/28/rob-Schneiders-daughter-elle-king-debuts-first-rock-album" rel="noopener nofollow"&gt;interview with &lt;em&gt;The Post,&lt;/em&gt;&lt;/a&gt; she says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I played my first show in New York when I was sixteen. [My mom] found my fake IDs and would cut them up, but I would get another one. Finally, she just said ‘Fine, I’m coming with you,’ to make sure I didn’t drink!"&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Elle released her first studio album, &lt;a href="https://genius.com/albums/Elle-king/love-stuff" rel="noopener" data-api_path="/albums/120148"&gt;&lt;em&gt;Love Stuff&lt;/em&gt;,&lt;/a&gt; on February 13th, 2015. Its lead single, &lt;a href="https://genius.com/Elle-king-exs-and-ohs-lyrics" rel="noopener" data-api_path="/songs/720473"&gt;“Ex’s and Oh’s,”&lt;/a&gt; was released in September 2014, and became a smash hit, &lt;a href="http://billboard.com/artist/6415177/Elle+King/chart?f=902" rel="noopener nofollow"&gt;peaking at #10&lt;/a&gt; on the US &lt;em&gt;Billboard&lt;/em&gt; Hot 100 and being &lt;a href="http://riaa.com/goldandplatinum.php?artist=Elle+King" rel="noopener nofollow"&gt;certified Platinum&lt;/a&gt; in the US by RIAA.&lt;/p&gt;', 'alternate_names': ['Tanner Schneider', 'Tanner Elle Schneider']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Victoria-justice', 'annotations': {'description': '&lt;p&gt;Victoria Justice (born February 19, 1993) is an American actress, singer-songwriter, and dancer. She debuted as an actress at the age of 10 and has since appeared in several films and television series including the Nickelodeon series &lt;a href="https://en.wikipedia.org/wiki/Zoey_101" rel="noopener nofollow"&gt;Zoey 101&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Victorious" rel="noopener nofollow"&gt;Victorious&lt;/a&gt;. When not filming or recording music, Victoria is participating in several charity events.&lt;/p&gt;', 'alternate_names': ['Victoria Dawn Justice']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Miranda-cosgrove', 'annotations': {'description': '&lt;p&gt;Miranda Cosgrove is an American actress and singer. Her career began at the age of three, when she appeared in television commercials. Her film debut came in 2003, when she played Summer Hathaway in School of Rock. She appeared in a number of minor television roles over several years before coming to prominence as Megan Parker on the Nickelodeon TV series Drake &amp;amp; Josh. A few years later, she landed the role of Carly Shay, the lead character in the Nickelodeon TV series iCarly.&lt;/p&gt;\n\n&lt;p&gt;As of May 2010, Cosgrove earned $180,000 per episode of iCarly, making her the second-highest-paid child star on television. Following the success of iCarly, a &lt;a href="https://genius.com/albums/Various-artists/Icarly-soundtrack" rel="noopener" data-api_path="/albums/122122"&gt;soundtrack album&lt;/a&gt; was released in June 2008, in which she performed four songs. Her debut album, &lt;em&gt;Sparks Fly&lt;/em&gt;, was released on April 27, 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Asia', 'annotations': {'description': '&lt;p&gt;Asia are a British progressive art rock supergroup formed by John Wetton of King Crimson with the help of his manager Brian Lane. The two recruited Yes guitarist Steve Howe, Geoff Downes of Yes/The Buggles, and Carl Palmer of ELP to complete the lineup.&lt;/p&gt;\n\n&lt;p&gt;The band signed to Geffen Records in the summer of 1981 and their eponymous debut album was released in March of 1982. Asia embarked on a 30-stop US tour beginning in April as their debut single “Heat Of The Moment” topped the US Rock Chart. &lt;em&gt;Asia&lt;/em&gt; quickly reached #11 in the UK and topped the US albums chart. By June, “Heat Of The Moment” had crossed over to the pop charts, &lt;a href="https://www.billboard.com/music/asia/chart-history" rel="noopener nofollow"&gt;reaching the top 10&lt;/a&gt; in the US, Germany and Switzerland, and becoming a &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Asia&amp;amp;titel=Heat+Of+The+Moment&amp;amp;cat=s" rel="noopener nofollow"&gt;minor hit in&lt;/a&gt; New Zealand, The UK and The Netherlands. The album racked up six total Rock Chart entries in the US, including another pop crossover hit with “Only Time Will Tell” and the album topped the US albums chart for nine non-consecutive weeks and was quickly certified multi-platinum. The group’s music videos were also in &lt;a href="https://originalasia.com/about/" rel="noopener nofollow"&gt;heavy rotation&lt;/a&gt; throughout 1982 on MTV and they were nominated for a Grammy for Best New Artist.&lt;/p&gt;\n\n&lt;p&gt;The band’s sophomore album &lt;em&gt;Alpha&lt;/em&gt; was almost as successful commercially, reaching #6 in the US. Its first single “Don’t Cry” gave the band its second and final Rock Chart #1 and pop crossover top 10 hit in the US. It also remains their highest charter in the UK at #33. “The Smile Has Left Your Eyes” became the band’s last US top 40 and was also a minor hit in the UK and Germany. Five songs from &lt;em&gt;Alpha&lt;/em&gt; reached the US Rock Chart top 30 that year. However, tensions had been growing in the band before the release of &lt;em&gt;Alpha&lt;/em&gt;. Geffen was &lt;a href="https://originalasia.com/about/" rel="noopener nofollow"&gt;pressuring the band&lt;/a&gt; to follow up their radio-friendly hits with more of the same. Also, personal conflicts began tearing the band apart. Cracks began to show when Wetton left the band weeks before a sold-out December 1983 show in Tokyo, forcing the band to replace him quickly with Palmer’s ex-bandmate Greg Lake.&lt;/p&gt;\n\n&lt;p&gt;Wetton returned in 1984, but soon after starting work on a third album, Howe left to form GTR with Steve Hackett of Genesis. Krokus guitarist Mandy Meyer replaced him and &lt;em&gt;Astra&lt;/em&gt; came out in late 1985, but its success paled in comparison to the two previous albums. Its lead single “Go” was a #7 US Rock Chart hit and almost made the pop top 40. Two further singles would find little success on rock radio. Soon after, the members of Asia all moved on to other projects.&lt;/p&gt;\n\n&lt;p&gt;After a failed 1987 attempt to reunite by Wetton and Downes (the demos of which were &lt;a href="https://www.discogs.com/John-Wetton-And-Geoffrey-Downes-John-WettonGeoffrey-Downes/master/560534" rel="noopener nofollow"&gt;later released&lt;/a&gt; in 2001), Wetton, Palmer and Downes officially reunited in 1989, adding guitarist Pat Thrall, and recorded four new songs that made up most of the ‘Now’ section of the 1990 compilation &lt;em&gt;Then &amp;amp; Now&lt;/em&gt; – their final album for Geffen. “Days Like These”, a new track, became a #2 US Rock Chart hit and reached #64 on the pop chart, becoming their final single to chart worldwide. Asia followed the release up with a tour, notably performing &lt;a href="https://www.allmusic.com/artist/asia-mn0000623254/biography" rel="noopener nofollow"&gt;two sold-out dates&lt;/a&gt; in Moscow for 20,000 fans.&lt;/p&gt;\n\n&lt;p&gt;When Wetton left the band again, Downes invited John Payne to replace him in 1991. Over the next thirteen years, Asia saw ever-changing membership during the release of eight studio albums that found moderate success in Germany and Japan, and occasional minor chart success in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;In 2005, the original Asia lineup reunited and released three studio albums which all found varied chart success in the US, UK, Germany and Japan. Meanwhile, Payne formed ‘Asia featuring John Payne’, released &lt;a href="https://www.discogs.com/Asia-Featuring-John-Payne-Scandinavia/release/3210169" rel="noopener nofollow"&gt;a live album&lt;/a&gt; in 2007 and &lt;a href="https://web.archive.org/web/20080828084926/http://www.theasiaband.com/2008/06/03/scranton-pocono-500-fanfest-interview-with-john/" rel="noopener nofollow"&gt;began touring&lt;/a&gt; in 2008.&lt;/p&gt;\n\n&lt;p&gt;Howe again retired from Asia in 2013 and was replaced by Sam Coulson. &lt;em&gt;Gravitas&lt;/em&gt; was released in 2014 – the band’s final album before Wetton’s death in 2017. In 2022, the band (with original members Palmer &amp;amp; Downes) &lt;a href="https://www.prnewswire.com/news-releases/asia-with-original-members-carl-palmer--geoff-downes-announces-40th-anniversary-celebration-301470029.html?fbclid=IwAR26RFupiCtkNxqeoYrcR9mRTJ3cgeVuJCWsmG-k5cKhDQ9ITS2Pw8j2IIY" rel="noopener nofollow"&gt;announced&lt;/a&gt; a 40th anniversary tour with new frontman Marc Bonilla.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ava-max', 'annotations': {'description': '&lt;p&gt;Coupling powerhouse vocals with simultaneously catchy and powerful songwriting, Ava Max is one of the fastest rising pop singers. Born Amanda Ava Koci on February 16, 1994, in Milwaukee, Wisconsin to &lt;a href="https://www.broadwayworld.com/bwwmusic/article/Ava-Max-Takes-Control-With-New-Single-My-Way-20180501" rel="noopener nofollow"&gt;Albanian immigrants&lt;/a&gt;, Max didn’t get her start in the music industry until 2017 with her feature on “&lt;a href="https://genius.com/Le-youth-clap-your-hands-lyrics" rel="noopener" data-api_path="/songs/3183877"&gt;Clap Your Hands&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Before long, she scored her breakout hit through &lt;a href="https://genius.com/Ava-max-sweet-but-psycho-lyrics" rel="noopener" data-api_path="/songs/3905115"&gt;“Sweet but Psycho”&lt;/a&gt;, which reached number one on several music charts around the world before climbing into the top 10 of the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;On September 18th 2020, her debut album was released, containing the songs “Sweet But Psycho”, &lt;a href="https://genius.com/Ava-max-salt-lyrics" rel="noopener" data-api_path="/songs/3905214"&gt;“Salt”&lt;/a&gt; and &lt;a href="https://genius.com/Ava-max-kings-and-queens-lyrics" rel="noopener" data-api_path="/songs/5183065"&gt;“Kings &amp;amp; Queens”&lt;/a&gt;. She managed to get the number one spot in the UK album charts.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Ava-max-my-head-and-my-heart-lyrics" rel="noopener" data-api_path="/songs/6014343"&gt;“My Head &amp;amp; My Heart”&lt;/a&gt;, the promotional single for the deluxe version of the album, reached 1st place in America in the iTunes charts.&lt;/p&gt;', 'alternate_names': ['Amanda Koci', 'Amanda Kay', 'Amanda Ava Koci']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/James-blunt', 'annotations': {'description': '&lt;p&gt;A former British Army officer, singer/songwriter James Blunt is a thoughtful performer with a knack for crafting melodic contemporary soft rock tunes.&lt;/p&gt;\n\n&lt;p&gt;Born in Tidworth, Wiltshire, England in 1974 to a family with a long military history, Blunt entered the Army after graduating from the Royal Military Academy Sandhurst. Ultimately achieving the rank of captain, Blunt served with the NATO peacekeeping force in Kosovo and finished out his time in the military as a member of the Life Guard Regiment in the British Household Cavalry. Having long been interested in music, Blunt wasted no time in pursuing a pop career after leaving the Army.&lt;/p&gt;\n\n&lt;p&gt;A subsequent performance at the South by Southwest festival in Austin, Texas brought Blunt to the attention of 4 Non Blondes singer/producer Linda Perry, who signed Blunt to her Custard Records label.&lt;/p&gt;\n\n&lt;p&gt;Released in 2005, Blunt’s debut album, &lt;a href="https://genius.com/albums/James-blunt/Back-to-bedlam" rel="noopener" data-api_path="/albums/48390"&gt;&lt;em&gt;Back to Bedlam&lt;/em&gt;&lt;/a&gt;, and its hit single, &lt;a href="https://genius.com/James-blunt-youre-beautiful-lyrics" rel="noopener" data-api_path="/songs/95061"&gt;“You’re Beautiful”&lt;/a&gt;, were hugely successful – the single hit number one in over a dozen countries, and sold over ten million copies worldwide.&lt;/p&gt;\n\n&lt;p&gt;Blunt toured for much of 2005 and 2006, then released the two-disc “odds and sods” CD/DVD &lt;a href="https://genius.com/albums/James-blunt/Chasing-time-the-bedlam-sessions" rel="noopener" data-api_path="/albums/354560"&gt;&lt;em&gt;Chasing Time: The Bedlam Sessions&lt;/em&gt;&lt;/a&gt; in 2006. He had been writing songs while on the road, and brought Back to Bedlam producer Tom Rothrock in again to record. (The songs featured writing collaborations with Mark Batson, Jimmy Hogarth, Steve McEwan, and Max Martin, while the recordings featured Blunt’s live backing band.)&lt;/p&gt;\n\n&lt;p&gt;His sophomore effort, &lt;a href="https://genius.com/albums/James-blunt/All-the-lost-souls" rel="noopener" data-api_path="/albums/113071"&gt;&lt;em&gt;All the Lost Souls&lt;/em&gt;&lt;/a&gt;, featuring the leadoff single &lt;a href="https://genius.com/James-blunt-1973-lyrics" rel="noopener" data-api_path="/songs/531200"&gt;“1973”&lt;/a&gt;, finally dropped in September 2007.&lt;/p&gt;\n\n&lt;p&gt;Disillusioned by success and what he felt as a perceived loss of artistic credibility, Blunt took a break from music before coming back in 2010 with his third full-length effort, &lt;a href="https://genius.com/albums/James-blunt/Some-kind-of-trouble" rel="noopener" data-api_path="/albums/18815"&gt;&lt;em&gt;Some Kind of Trouble&lt;/em&gt;&lt;/a&gt;, a more optimistic, spontaneous album influenced by ‘70s U.S. pop/rock, which sold well despite not being critically well-received.&lt;/p&gt;\n\n&lt;p&gt;In 2012 he returned to the studio with Tom Rothrock to track his fourth album, &lt;a href="https://genius.com/albums/James-blunt/Moon-landing" rel="noopener" data-api_path="/albums/110213"&gt;&lt;em&gt;Moon Landing&lt;/em&gt;&lt;/a&gt;. Featuring &lt;a href="https://genius.com/James-blunt-miss-america-lyrics" rel="noopener" data-api_path="/songs/493595"&gt;“Miss America,”&lt;/a&gt; Blunt’s tribute to the late Whitney Houston, and the country-folk-influenced single &lt;a href="https://genius.com/James-blunt-bonfire-heart-lyrics" rel="noopener" data-api_path="/songs/197282"&gt;“Bonfire Heart,”&lt;/a&gt; the record was released in October 2013.&lt;/p&gt;\n\n&lt;p&gt;Roughly four years passed before Blunt would release another album. He returned in early 2017 with his fifth studio album, &lt;a href="https://genius.com/albums/James-blunt/The-afterlove" rel="noopener" data-api_path="/albums/327366"&gt;&lt;em&gt;The Afterlove&lt;/em&gt;&lt;/a&gt;, which featured songwriting assistance from Blunt’s friend &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran&lt;/a&gt; and OneRepublic’s &lt;a href="https://genius.com/artists/Ryan-tedder" rel="noopener" data-api_path="/artists/1653"&gt;Ryan Tedder&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['James Hillier Blount']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Desireless', 'annotations': {'description': '&lt;p&gt;Claudie Fritsch-Mentrop, known by her stage name Desireless (born 25 December 1952, Paris, France), is a French singer. Between 1986 and 1988, her hit single “Voyage, voyage” made it to number one in many European and Asian single charts and sold over five million copies.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bob', 'annotations': {'description': '&lt;p&gt;Bobby Ray Simmons, Jr. has released over &lt;strong&gt;21&lt;/strong&gt; bodies of work, that along with countless features, chart-toppers, and production-credits highlights just how hardworking this southeastern artist truly is.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;His musical output began in 2007, releasing 3 projects that year, as well as the following year. Then, in 2009, B.o.B released &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/B-o-b-vs-bobby-ray" rel="noopener" data-api_path="/albums/1016"&gt;B.o.B Vs. Bobby Ray&lt;/a&gt;&lt;/em&gt;, and was made an &lt;a href="http://www.xxlmag.com/news/2011/03/where-are-they-now-2009-freshman-recap/" rel="noopener nofollow"&gt;XXL Freshman&lt;/a&gt;, however he’d not even started to see success. That is, until the &lt;a href="https://genius.com/artists/Bruno-mars" rel="noopener" data-api_path="/artists/500"&gt;Bruno Mars&lt;/a&gt; assisted #1 single &lt;a href="https://genius.com/Bob-nothin-on-you-lyrics" rel="noopener" data-api_path="/songs/1411"&gt;“Nothin\' On You”&lt;/a&gt; was released – one of the many successful singles from his debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/B-o-b-presents-the-adventures-of-bobby-ray" rel="noopener" data-api_path="/albums/1010"&gt;B.o.B Presents The Adventures of Bobby Ray&lt;/a&gt;&lt;/em&gt;, which peaked at &lt;a href="http://www.billboard.com/artist/275499/bob/chart?f=305" rel="noopener nofollow"&gt;#1 on the Billboard Charts.&lt;/a&gt; The album also received favourable reviews and 5 Grammy nominations (one for &lt;a href="https://genius.com/Bob-airplanes-pt-2-lyrics" rel="noopener" data-api_path="/songs/722"&gt;“Airplanes, Pt 2 (feat. Eminem &amp;amp; Hayley Williams)”&lt;/a&gt; – Best Pop Collaboration with Vocals).&lt;/p&gt;\n\n&lt;p&gt;After this amount of success many would take a well-earned hiatus, but not B.o.B. Before 2010’s end he released his beloved mixtape &lt;em&gt;&lt;a href="https://genius.com/artists/No-genre" rel="noopener" data-api_path="/artists/515387"&gt;No Genre&lt;/a&gt;&lt;/em&gt;. Less than a year later he released another well received mixtape, &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/E-p-i-c-every-play-is-crucial" rel="noopener" data-api_path="/albums/13180"&gt;E.P.I.C. (Every Play is Crucial)&lt;/a&gt;&lt;/em&gt;, which was composed of songs of the excess songs he couldn’t fit on his sophomore album, &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/Strange-clouds" rel="noopener" data-api_path="/albums/12465"&gt;Strange Clouds.&lt;/a&gt;&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, his incredible run of mainstream success couldn’t last, with his following album,  &lt;em&gt;&lt;a href="https://genius.com/albums/Bob/Underground-luxury" rel="noopener" data-api_path="/albums/35052"&gt;Underground Luxury&lt;/a&gt;&lt;/em&gt;, receiving little attention from radio. Since however, his output hasn’t diminished, with 5 mixtapes released since his 3rd studio album – this output may’ve even been greater if it hadn’t been for him founding his label ‘No Genre’ (after his mixtape), and helping to establish his roster.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Whatever anyone may have to say about B.o.B, no one can deny he is one of the hardest working in the industry.&lt;/p&gt;', 'alternate_names': ['Bobby Ray Simmons Jr.', 'Bobby Ray']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sum-41', 'annotations': {'description': '&lt;p&gt;Sum 41 is a Canadian rock band from Ajax, Ontario. They formed in 1996 as a five-piece consisting of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Deryck-whibley" rel="noopener" data-api_path="/artists/124140"&gt;Deryck Whibley&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Dave-baksh" rel="noopener" data-api_path="/artists/341905"&gt;Dave Baksh&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Tom-thacker" rel="noopener" data-api_path="/artists/1098961"&gt;Tom Thacker&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Jason-mccaslin" rel="noopener" data-api_path="/artists/244346"&gt;Jason McCaslin&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Stevo32" rel="noopener" data-api_path="/artists/649671"&gt;Frank Zummo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Though they were originally called Kaspir, the group members decided to change the band’s name for a Supernova show on September 28, 1996, which happened to be the &lt;strong&gt;41&lt;/strong&gt;&lt;sup&gt;st&lt;/sup&gt; day of their &lt;strong&gt;sum&lt;/strong&gt;mer vacation. The band released their debut record as Sum 41 called &lt;a href="https://genius.com/albums/Sum-41/Half-hour-of-power" rel="noopener" data-api_path="/albums/89972"&gt;&lt;em&gt;Half Hour of Power&lt;/em&gt;&lt;/a&gt; in 2000. They followed it with the breakout sophomore record &lt;a href="https://genius.com/albums/Sum-41/All-killer-no-filler" rel="noopener" data-api_path="/albums/23564"&gt;&lt;em&gt;All Killer No Filler&lt;/em&gt;&lt;/a&gt; in 2001 and it contained several charting songs such as &lt;a href="https://genius.com/Sum-41-fat-lip-lyrics" rel="noopener" data-api_path="/songs/96082"&gt;“Fat Lip”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-in-too-deep-lyrics" rel="noopener" data-api_path="/songs/96086"&gt;“In Too Deep.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2002, the band released &lt;a href="https://genius.com/albums/Sum-41/Does-this-look-infected" rel="noopener" data-api_path="/albums/78047"&gt;&lt;em&gt;Does This Look Infected?&lt;/em&gt;&lt;/a&gt; which was also a commercial and critical success. The singles &lt;a href="https://genius.com/Sum-41-the-hell-song-lyrics" rel="noopener" data-api_path="/songs/381815"&gt;“The Hell Song”&lt;/a&gt; and &lt;a href="https://genius.com/Sum-41-still-waiting-lyrics" rel="noopener" data-api_path="/songs/389921"&gt;“Still Waiting”&lt;/a&gt; drove the band to stardom, and with their 2004 record &lt;a href="https://genius.com/albums/Sum-41/Chuck" rel="noopener" data-api_path="/albums/28847"&gt;&lt;em&gt;Chuck&lt;/em&gt;&lt;/a&gt;, they planted themselves as giants in the punk rock scene.&lt;/p&gt;\n\n&lt;p&gt;Though it was received with mixed reviews, their 2007 album &lt;a href="https://genius.com/albums/Sum-41/Underclass-hero" rel="noopener" data-api_path="/albums/42860"&gt;&lt;em&gt;Underclass Hero&lt;/em&gt;&lt;/a&gt; became the highest grossing album of the band to date. It was then followed by &lt;a href="https://genius.com/albums/Sum-41/Screaming-bloody-murder" rel="noopener" data-api_path="/albums/21310"&gt;&lt;em&gt;Screaming Bloody Murder&lt;/em&gt;&lt;/a&gt; in 2011, &lt;a href="https://genius.com/albums/Sum-41/13-voices" rel="noopener" data-api_path="/albums/157898"&gt;&lt;em&gt;13 Voices&lt;/em&gt;&lt;/a&gt; in 2016 and &lt;a href="https://genius.com/albums/Sum-41/Order-in-decline" rel="noopener" data-api_path="/albums/523533"&gt;&lt;em&gt;Order in Decline&lt;/em&gt;&lt;/a&gt; in 2019. While none of these albums have been able to reach the commercial success as their predecessors, they have nevertheless received praise from fans and critics alike.&lt;/p&gt;\n\n&lt;p&gt;Sum 41 occasionally played as an alter-ego 1980s heavy metal band called Pain for Pleasure during shows.&lt;/p&gt;\n\n&lt;p&gt;It is also hypothesized by many fans that the band’s name comes from the fact that if you take the word “fuck” and add all its letters (“F” being the 6th letter of the alphabet, “U” being number 21, etc) you get 41.&lt;/p&gt;', 'alternate_names': ['Pain for pleasure', 'Kaspir']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hoobastank', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Hoobustank']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Eve-6', 'annotations': {'description': '&lt;p&gt;Eve 6 are an American rock band from Southern California, who are most well known for their hit singles “Inside Out”, “Here’s to the Night”, and “Victoria”. They disbanded in 2004, returned for numerous tours in 2007 with a new lineup, and finally reunited with all three original members in early 2011. They signed to Fearless Records in the spring of that year, and released their long-awaited fourth album Speak in Code, containing the singles “Victoria” and “Curtain”, in April 2012, It’s a Great band with 2 hit songs&lt;br&gt;\n“Inside Out”&lt;br&gt;\nPeaked at #28 on 12.19.1998&lt;br&gt;\n“Here’s To The Night”&lt;br&gt;\nPeaked at #30 on 7.28.2001&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/99e53bfbd299a981fa5f8b3354609834.305x225x1.jpg" alt="" width="305" height="225" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Haddaway', 'annotations': {'description': '&lt;p&gt;Nestor Alexander Haddaway (born 9 January 1965) is a Trinidadian-born German vocalist and musician  best known for his 1993 hit single “What Is Love”, which reached number 1 in 13 countries.&lt;/p&gt;', 'alternate_names': ['Nestor Haddaway', 'Nestor Alexander Haddaway']}}</t>
+    <t>{'url': 'https://genius.com/artists/Radiohead', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.radiohead.com/" rel="noopener nofollow"&gt;Radiohead&lt;/a&gt; emerged from the shadow of ‘90s Brit-pop with a sound that was moody, melodic and explosive; with roots planted firmly in both alternative culture and the art-rock legacy of such groups as &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;, &lt;a href="https://genius.com/artists/Rem" rel="noopener" data-api_path="/artists/8243"&gt;R.E.M.&lt;/a&gt;, &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Talking-heads" rel="noopener" data-api_path="/artists/13347"&gt;Talking Heads&lt;/a&gt;—from whose &lt;a href="https://genius.com/Talking-heads-radio-head-lyrics" rel="noopener" data-api_path="/songs/691833"&gt;song&lt;/a&gt; they derived their name.&lt;/p&gt;\n\n&lt;p&gt;They formed in 1985, as &lt;a href="https://genius.com/artists/On-a-friday" rel="noopener" data-api_path="/artists/231288"&gt;On A Friday&lt;/a&gt;, named after the day they’d usually rehearse. The line-up hasn’t changed since: &lt;a href="https://genius.com/artists/Thom-yorke" rel="noopener" data-api_path="/artists/49096"&gt;Thom Yorke&lt;/a&gt; (guitar/vocals), &lt;a href="https://genius.com/artists/Ed-obrien" rel="noopener" data-api_path="/artists/664806"&gt;Ed O\'Brien&lt;/a&gt; (guitar), &lt;a href="https://genius.com/artists/Philip-selway" rel="noopener" data-api_path="/artists/240814"&gt;Philip Selway&lt;/a&gt; (drums) and brothers &lt;a href="https://genius.com/artists/Colin-greenwood" rel="noopener" data-api_path="/artists/664805"&gt;Colin&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jonny-greenwood" rel="noopener" data-api_path="/artists/287476"&gt;Jonny Greenwood&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1991, they signed with &lt;a href="https://genius.com/artists/Emi-group-limited" rel="noopener" data-api_path="/artists/1681459"&gt;EMI&lt;/a&gt;, changed their name to Radiohead, and recorded their first EP, &lt;a href="https://genius.com/albums/Radiohead/Drill-ep" rel="noopener" data-api_path="/albums/152652"&gt;&lt;em&gt;Drill&lt;/em&gt;&lt;/a&gt;. They released the record in 1992, and it made little impact, debuting on the &lt;a href="https://www.theguardian.com/music/gallery/2007/oct/09/radiohead" rel="noopener nofollow"&gt;UK Charts at #101&lt;/a&gt;. It wasn’t until their catchy 1992 single &lt;a href="https://genius.com/Radiohead-creep-lyrics" rel="noopener" data-api_path="/songs/109096"&gt;“Creep”&lt;/a&gt; became a massive hit that the band was launched into the limelight.&lt;/p&gt;\n\n&lt;p&gt;When the band released &lt;a href="https://genius.com/albums/Radiohead/Pablo-honey" rel="noopener" data-api_path="/albums/21232"&gt;&lt;em&gt;Pablo Honey&lt;/em&gt;&lt;/a&gt; in 1993, however, most critics believed they would be a one-hit wonder—an opinion they proved wrong with 1995’s &lt;a href="https://genius.com/albums/Radiohead/The-bends" rel="noopener" data-api_path="/albums/16306"&gt;&lt;em&gt;The Bends&lt;/em&gt;&lt;/a&gt;; a much more complex and mature sophomore effort, which spawned several successful singles. With the release of 1997’s &lt;a href="https://genius.com/albums/Radiohead/Ok-computer" rel="noopener" data-api_path="/albums/17915"&gt;&lt;em&gt;OK Computer&lt;/em&gt;&lt;/a&gt;, their newfound status was solidified. It was widely considered to be the best record of the year and listed among the most important rock albums of the 1990s. Radiohead became one of the most closely watched and influential bands of that decade.&lt;/p&gt;\n\n&lt;p&gt;Their response to the hype was two experimental follow-ups: &lt;a href="https://genius.com/albums/Radiohead/Kid-a" rel="noopener" data-api_path="/albums/10781"&gt;&lt;em&gt;Kid A&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Radiohead/Amnesiac" rel="noopener" data-api_path="/albums/17548"&gt;&lt;em&gt;Amnesiac&lt;/em&gt;&lt;/a&gt;. Venturing into a less radio-friendly territory, Radiohead was now far from their Brit-pop beginnings, taking more influence from avant-garde composers such as &lt;a href="https://genius.com/artists/Krzysztof-penderecki" rel="noopener" data-api_path="/artists/1127117"&gt;Krzysztof Penderecki&lt;/a&gt;, &lt;a href="https://genius.com/artists/Olivier-messiaen" rel="noopener" data-api_path="/artists/1167488"&gt;Olivier Messiaen&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Scott-walker" rel="noopener" data-api_path="/artists/53293"&gt;Scott Walker&lt;/a&gt;. Their lyrics also became more politicized.&lt;/p&gt;\n\n&lt;p&gt;As of 2003, they released their sixth album, &lt;a href="https://genius.com/albums/Radiohead/Hail-to-the-thief" rel="noopener" data-api_path="/albums/19640"&gt;&lt;em&gt;Hail to the Thief&lt;/em&gt;&lt;/a&gt;, lyrically influenced by “the general sense of ignorance and intolerance and panic and stupidity” as Thom Yorke &lt;a href="https://eagleviewnews.com/2016/04/12/radiohead/" rel="noopener nofollow"&gt;suggested&lt;/a&gt;. It was also regarded as Radiohead’s most &lt;a href="https://www.rollingstone.com/music/music-news/bitter-prophet-thom-yorke-on-hail-to-the-thief-87869/" rel="noopener nofollow"&gt;political&lt;/a&gt; act to date, fueled with anger and objection, because of the themes based on the &lt;a href="https://www.rollingstone.com/music/music-news/bitter-prophet-thom-yorke-on-hail-to-the-thief-87869/" rel="noopener nofollow"&gt;US election&lt;/a&gt; and &lt;a href="https://www.rollingstone.com/music/music-news/bitter-prophet-thom-yorke-on-hail-to-the-thief-87869/" rel="noopener nofollow"&gt;George W. Bush candidacy&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;During the recording of their next album, &lt;a href="https://genius.com/albums/Radiohead/In-rainbows" rel="noopener" data-api_path="/albums/14959"&gt;&lt;em&gt;In Rainbows&lt;/em&gt;&lt;/a&gt;, Radiohead was &lt;a href="https://www.nytimes.com/2006/07/02/arts/music/02pare.html" rel="noopener nofollow"&gt;considered&lt;/a&gt; as the most popular unsigned band in the world since the band parted ways with EMI. However, they made a bold decision to &lt;a href="https://www.telegraph.co.uk/finance/markets/2816893/Radiohead-challenges-labels-with-free-album.html" rel="noopener nofollow"&gt;publish&lt;/a&gt; their album online without a distributor, and their most controversial act was to sell the album at whatever price the audience intended to pay (including 0€) and the album &lt;a href="https://www.theguardian.com/music/2008/oct/16/radiohead-album-sales" rel="noopener nofollow"&gt;sold&lt;/a&gt; more copies than their previous albums. &lt;em&gt;In Rainbows&lt;/em&gt; peaked #1 in US and UK &lt;a href="https://www.billboard.com/music/radiohead/chart-history/top-album-sales" rel="noopener nofollow"&gt;Billboard charts&lt;/a&gt;, won &lt;a href="https://www.grammy.com/grammys/artists/radiohead" rel="noopener nofollow"&gt;two Grammy Awards&lt;/a&gt;, and was placed among &lt;a href="https://www.rollingstone.com/music/music-lists/500-greatest-albums-of-all-time-156826/radiohead-in-rainbows-38107/" rel="noopener nofollow"&gt;Rolling Stone’s top 500 albums of all time&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After four years of absence, Radiohead released another disputable album, &lt;a href="https://genius.com/albums/Radiohead/The-king-of-limbs" rel="noopener" data-api_path="/albums/36451"&gt;&lt;em&gt;King of the Limbs&lt;/em&gt;&lt;/a&gt;, that was &lt;a href="https://www.stereogum.com/1786306/in-defense-of-the-king-of-limbs/franchises/sounding-board/" rel="noopener nofollow"&gt;not acclaimed&lt;/a&gt; by fans and critics as their previous works were. &lt;em&gt;King of the Limbs&lt;/em&gt; &lt;a href="https://pitchfork.com/reviews/albums/15149-the-king-of-limbs/" rel="noopener nofollow"&gt;was&lt;/a&gt; their shortest album to date that felt small but natural evolutions of previously explored directions; The album was considered to be an interaction between the technology and the natural world.&lt;/p&gt;\n\n&lt;p&gt;With &lt;a href="https://pitchfork.com/reviews/albums/21907-a-moon-shaped-pool/" rel="noopener nofollow"&gt;&lt;em&gt;A Moon Shaped Pool&lt;/em&gt;&lt;/a&gt;, Radiohead &lt;a href="https://pitchfork.com/reviews/albums/21907-a-moon-shaped-pool/" rel="noopener nofollow"&gt;took on&lt;/a&gt; a more personal journey, moving beyond their existential dreads.&lt;/p&gt;\n\n&lt;p&gt;Up to 2019, Radiohead has released nine studio albums, always experimenting with new sounds as well as alternative marketing strategies— especially since &lt;a href="https://www.nytimes.com/2007/10/23/business/media/23music.html" rel="noopener nofollow"&gt;going independent&lt;/a&gt; with the release of their acclaimed 2007 album &lt;a href="https://genius.com/albums/Radiohead/In-rainbows" rel="noopener" data-api_path="/albums/14959"&gt;&lt;em&gt;In Rainbows&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Since the mid-2000s, band members have also worked on side projects, with the bands &lt;a href="https://genius.com/artists/Atoms-for-peace" rel="noopener" data-api_path="/artists/24846"&gt;Atoms for Peace&lt;/a&gt; and &lt;a href="https://genius.com/artists/7-worlds-collide" rel="noopener" data-api_path="/artists/1525999"&gt;7 Worlds Collide&lt;/a&gt;. Thom Yorke began working on solo records, starting with 2006’s &lt;a href="https://genius.com/albums/Thom-yorke/The-eraser" rel="noopener" data-api_path="/albums/33215"&gt;&lt;em&gt;The Eraser&lt;/em&gt;&lt;/a&gt;, moving forward to publish &lt;a href="https://genius.com/albums/Thom-yorke/Tomorrows-modern-boxes" rel="noopener" data-api_path="/albums/113654"&gt;&lt;em&gt;Tomorrow’s Modern Boxes&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Thom-yorke/Anima" rel="noopener" data-api_path="/albums/495112"&gt;&lt;em&gt;ANIMA&lt;/em&gt;&lt;/a&gt;. Additionally, Jonny Greenwood collaborated with &lt;a href="https://www.stereogum.com/1983217/jonny-greenwood-and-paul-thomas-anderson-seem-to-have-a-delightful-working-relationship/news/" rel="noopener nofollow"&gt;Paul Thomas Anderson&lt;/a&gt; to compose soundtracks for the movies &lt;a href="https://genius.com/albums/Jonny-greenwood/There-will-be-blood-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/389119"&gt;&lt;em&gt;There Will Be Blood&lt;/em&gt;&lt;/a&gt; (2007), &lt;a href="https://genius.com/albums/Jonny-greenwood/The-master-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/341700"&gt;&lt;em&gt;The Master&lt;/em&gt;&lt;/a&gt; (2012), and &lt;a href="https://genius.com/albums/Jonny-greenwood/Phantom-thread-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/389126"&gt;&lt;em&gt;Phantom Thread&lt;/em&gt;&lt;/a&gt; (2017).&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tom-jones', 'annotations': {'description': '&lt;p&gt;With a career spanning over fifty years, Tom Jones is one of the mainstays of modern music. Born in 1940 in Glamorgan, South Wales, Jones rocketed to international fame after the massive success of his second single &lt;a href="https://genius.com/Tom-jones-its-not-unusual-lyrics" rel="noopener" data-api_path="/songs/64434"&gt;“It’s Not Unusual”&lt;/a&gt; in 1964. Since that time, Jones has had two series of television variety shows, recorded over forty studio albums, and been a staple act in Las Vegas. He’s famous for wearing half-open shirts and tight pants at the shows, and for receiving a hailstorm of women’s hotel room keys. Over the years, he has reinvented himself as &lt;a href="https://genius.com/albums/Tom-jones/What-s-new-pussycat" rel="noopener" data-api_path="/albums/30942"&gt;a pop singer&lt;/a&gt;, &lt;a href="https://genius.com/albums/Tom-jones/Green-green-grass-of-home" rel="noopener" data-api_path="/albums/30936"&gt;a crooner&lt;/a&gt;, &lt;a href="https://genius.com/albums/Tom-jones/Country" rel="noopener" data-api_path="/albums/260920"&gt;a country music singer&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Tom-jones/Praise-blame" rel="noopener" data-api_path="/albums/199831"&gt;a gospel-blues singer&lt;/a&gt;, and has had hit &lt;a href="https://genius.com/Art-of-noise-kiss-lyrics" rel="noopener" data-api_path="/songs/110832"&gt;funk&lt;/a&gt; and &lt;a href="https://genius.com/Tom-jones-tom-jones-international-lyrics" rel="noopener" data-api_path="/songs/947898"&gt;hip-hop&lt;/a&gt; songs.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bounty-killer', 'annotations': {'description': '&lt;p&gt;Bounty Killer (born Rodney Price; June 19, 1972; Kingston, Jamaica) is a Jamaican reggae and dancehall deejay. He is the founder of the dancehall collective’s known as &lt;a href="https://genius.com/artists/Scare-dem-crew" rel="noopener" data-api_path="/artists/1045661"&gt;Scare Dem Crew&lt;/a&gt; and The Alliance. Killer is also the father of R&amp;amp;B artist, &lt;a href="https://genius.com/artists/Major-myjah" rel="noopener" data-api_path="/artists/167240"&gt;Major Myjah&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Niall-horan', 'annotations': {'description': '&lt;p&gt;Niall James Horan (born September 13th, 1993) is an Irish singer-songwriter, musician, and founder of &lt;a href="https://www.modestgolf.com/team/niall-horan" rel="noopener nofollow"&gt;Modest! Golf Management company&lt;/a&gt;. He auditioned on &lt;em&gt;The X Factor&lt;/em&gt; at 16 years of age as a solo act and he came to worldwide prominence when he and four other boys were joined together to form pop boy band &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt;, which became one of the biggest boy bands in the world. Since the band’s hiatus in 2015, Horan has released two solo albums, has collaborated with the likes of &lt;a href="https://genius.com/artists/Maren-morris" rel="noopener" data-api_path="/artists/548314"&gt;Maren Morris&lt;/a&gt;, &lt;a href="https://genius.com/artists/Julia-michaels" rel="noopener" data-api_path="/artists/409643"&gt;Julia Michaels&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ashe" rel="noopener" data-api_path="/artists/581768"&gt;Ashe&lt;/a&gt; and has created a &lt;a href="https://genius.com/Niall-horan-finally-free-lyrics" rel="noopener" data-api_path="/songs/3818839"&gt;track&lt;/a&gt; for animated comedy film &lt;a href="https://www.imdb.com/title/tt6182908/" rel="noopener nofollow"&gt;&lt;em&gt;Smallfoot&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In September 2016, it was revealed that &lt;a href="http://hitsdailydouble.com/news&amp;amp;id=302822" rel="noopener nofollow"&gt;Niall had signed a solo contract with Capitol Records.&lt;/a&gt;&lt;br&gt;\nFollowing this news, Horan released his debut solo single &lt;a href="https://genius.com/Niall-horan-this-town-lyrics" rel="noopener" data-api_path="/songs/2869685"&gt;“This Town”&lt;/a&gt;, becoming the first One Direction member to release solo music. “This Town” showcases his songwriting skills and vocals, as Horan strips everything down to him and his guitar. In support of the single, he also &lt;a href="https://youtu.be/hNBlfyYHu80" rel="noopener nofollow"&gt;uploaded a one-take acoustic version of the single&lt;/a&gt;. The song &lt;a href="http://www.billboard.com/charts/hot-100/2017-01-14" rel="noopener nofollow"&gt;peaked at No. 20 on the Billboard Hot 100 Chart on January 14th, 2017&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In May 2017, &lt;a href="https://genius.com/Niall-horan-slow-hands-lyrics" rel="noopener" data-api_path="/songs/3070591"&gt;“Slow Hands”&lt;/a&gt;, a homage to Horan’s ‘70s and \'80s classic rock influences, was released. This track &lt;a href="https://www.billboard.com/music/Niall-Horan/chart-history/HSI" rel="noopener nofollow"&gt;peaked at No. 7 on the Billboard Hot 100 Chart on September 30th, 2017&lt;/a&gt;. Horan’s debut solo album &lt;a href="https://genius.com/albums/Niall-horan/Flicker" rel="noopener" data-api_path="/albums/344767"&gt;&lt;em&gt;Flicker&lt;/em&gt;&lt;/a&gt; was released on October 20th, 2017. It &lt;a href="http://www.billboard.com/articles/columns/chart-beat/8015056/niall-horan-flicker-debut-billboard-200-albums-chart" rel="noopener nofollow"&gt;debuted on the Billboard 200 at #1&lt;/a&gt;, selling 152,000 copies in its first official week of sales.&lt;/p&gt;\n\n&lt;p&gt;Three years later, Horan released his sophomore album &lt;a href="https://genius.com/albums/Niall-horan/Heartbreak-weather-deluxe" rel="noopener" data-api_path="/albums/611941"&gt;&lt;em&gt;Heartbreak Weather&lt;/em&gt;&lt;/a&gt;, which produced four singles: &lt;a href="https://genius.com/Niall-horan-nice-to-meet-ya-lyrics" rel="noopener" data-api_path="/songs/4764371"&gt;“Nice to Meet Ya”&lt;/a&gt;,  &lt;a href="https://genius.com/Niall-horan-put-a-little-love-on-me-lyrics" rel="noopener" data-api_path="/songs/4764373"&gt;“Put a Little Love on Me”&lt;/a&gt;, &lt;a href="https://genius.com/Niall-horan-no-judgement-lyrics" rel="noopener" data-api_path="/songs/4919970"&gt;“No Judgement”&lt;/a&gt; and &lt;a href="https://genius.com/Niall-horan-black-and-white-lyrics" rel="noopener" data-api_path="/songs/5242549"&gt;“Black and White”&lt;/a&gt;. The album debuted at the top of the &lt;a href="https://www.officialcharts.com/charts/irish-albums-chart/20200320/ie7502/" rel="noopener nofollow"&gt;Irish Albums Chart&lt;/a&gt; and &lt;a href="https://www.officialcharts.com/charts/albums-chart/20200320/7502/" rel="noopener nofollow"&gt;UK Albums Chart&lt;/a&gt;. It also &lt;a href="https://www.billboard.com/articles/business/chart-beat/9340275/lil-uzi-vert-eternal-atake-billboard-200-no-1" rel="noopener nofollow"&gt;opened at number four on the US Billboard 200&lt;/a&gt; with 59,000 album-equivalent units and 42,000 pure album sales. Niall held a show at Royal Albert Hall with Ashe for We Need Crew later that year.&lt;/p&gt;', 'alternate_names': ['Niall J. Horan', 'Niall James Horan']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joan-osborne', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Korn', 'annotations': {'description': '&lt;p&gt;Bakersfield friends James “Munky” Shaffer, Reginald “Fieldy” Arvizu and David Silveria &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;formed the funk-rock band LAPD&lt;/a&gt; in 1989 and moved to Los Angeles with another friend Brian “Head” Welch as their roadie. Later, with Welch as second guitarist, the band named themselves Creep and recorded a demo with pal Ross Robinson.&lt;/p&gt;\n\n&lt;p&gt;However, when Shaffer and Welch visited family in Bakersfield, they met Jonathan Davis who added a darker, goth-tinged edge to the band’s heavy groove. &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;Robinson recalled&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The band wasn’t dark yet; it had, like, killer grooves and good riffs, but there was some happy edge to it. And when (Davis) walked into the room, it went dark and goth. Basically, during the first song, to audition in the rehearsal room, he started freaking the hell out [laughs]. You couldn’t hear his voice, but you felt chills all over your body, and it was instantly like, “Oh my God, yeah – he’s the one.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;They chose the name Korn (based on &lt;a href="https://www.youtube.com/watch?v=ZYnk4layQqs" rel="noopener nofollow"&gt;a gross story&lt;/a&gt; Davis once overheard) and recorded four songs &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;inspired by acts like&lt;/a&gt; Pantera, Ice Cube, Duran Duran, Cypress Hill, The Cure, Primus and potentially anything in between. That demo attracted Immortal Records. Their debut album only peaked at #72 in the US, but over time became the seed that sprouted into a whole new style of heavy music most commonly called nu-metal. &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis explained&lt;/a&gt; in 2015:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;At the time in rock, there was nothing new or different, and it felt so stagnant. And here come these guys from Bakersfield with this bouncing sound, and I’m screaming my throat out, being super emotional and bringing up all this weird shit … It changed everything, man. And I’m not saying that because I was in the band, but I started seeing kids in baggy clothes and metal kids in Adidas.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Korn’s second album &lt;em&gt;Life Is Peachy&lt;/em&gt; began to expand the band’s sound from just dark and serious into frivolity, with a light-hearted cover of “Low Rider” and the band’s first almost-hit in the US “ADIDAS”. The formula worked in the UK where all three singles reached the top 30.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s third album &lt;em&gt;Follow The Leader&lt;/em&gt;, another collection of dark songs mixed in with some silly ones, that broke the band in the US. Despite two of its singles only reaching the top 20 on two rock charts (but not crossing over to mainstream success), Korn became &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;what Noisey called&lt;/a&gt; “the biggest band in the fucking world”.&lt;/p&gt;\n\n&lt;p&gt;With an established sound, the band continued releasing successful albums and playing to packed arenas through the 2000s. But aside from their experimental tenth album &lt;em&gt;The Path Of Totality&lt;/em&gt; – a mixing of metal and dubstep – their albums remained formulaic and predictable. They are still best remembered for their self-titled debut and third album &lt;em&gt;Follow The Leader&lt;/em&gt;. In 2005, it was common to refer to Korn as a band whose best albums are &lt;a href="https://www.nme.com/reviews/album/reviews-nme-6437" rel="noopener nofollow"&gt;their odd-numbered ones&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The received wisdom about Korn is that they deliver on the odd numbers. Album one, ‘Korn’, revitalised metal, dragging it out of the middle ages into the modern era. Album three, ‘Follow The Leader’, took the form into the mainstream, blowing boundaries and preconceptions. Album four, ‘Issues’, was dense and impenetrable.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Welch quit in 2005 after having “Revelation of Christ” and Silveria left silently in 2006, but years later &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/jonathan_davis_on_david_silveria_reunion_never_never_again.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; one reason for leaving was that he “was being asked to be a puppet and dumb down my playing” while producers made “cookie cutter Korn songs”. Welch later rejoined in 2013.&lt;/p&gt;\n\n&lt;p&gt;The band’s lifestyles have changed drastically over the band’s three-decade career, moving away from the spoils of excess to inspiring others to overcome their addictions and depression. In 2016, Davis &lt;a href="https://www.theguardian.com/music/2016/oct/21/korn-serenity-of-suffering-jonathan-davis-interview" rel="noopener nofollow"&gt;told The Guardian&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nothing brings more joy into my fucking heart than seeing our music help a kid who is depressed, or suicidal, or going through an episode. That’s the payoff to me, that’s why we keep coming out here, that’s why we keep making records. Because we like to see people smile.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of 2020, the band has released 13 albums. The first seven are certified platinum and the band is &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;widely recognized as&lt;/a&gt; a pioneer of “one of heavy music’s biggest paradigm shifts”. They’re credited with creating the genre ‘nu-metal’ – a label &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis originally rejected&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to find that fucking writer that coined that term, nu-metal … Yeah, we’re heavy and downtuned, but metal, to me, is like Judas Priest and Iron Maiden. That’s metal, man. I always thought of us as a funk band, that funky groovy shit.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Culture-club', 'annotations': {'description': '&lt;p&gt;Culture Club is a New Wave / Pop Band from London England who are known for a string of pop hits during the 1980s. Their second album, &lt;em&gt;Colour By Numbers&lt;/em&gt;, sold more than 10 million albums, was ranked the 96th best album of the 1980s by Rolling Stone, and contained their most famous song &lt;em&gt;Karma Chameleon&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Formed in 1981 by lead singer Boy George, bassist Mikey Craig, drummer Jon Moss and guitarist Roy Hay, Culture Club was named after the diversity in ethnicity and backgrounds of it’s members. They were soon after signed to Virgin records, but it wouldn’t be until the press realized Boy George’s androgynous style, before Culture Club would take off as pop hit masters.&lt;/p&gt;\n\n&lt;p&gt;Culture Club sold more than 50 million albums worldwide, and had international success with songs such as “Do You Really Want to Hurt Me?”, “Time (Clock of the Heart)” and “I’ll Tumble 4 Ya”.&lt;/p&gt;\n\n&lt;p&gt;The band has performed and recorded very sporadically since their breakup in 1986.&lt;/p&gt;', 'alternate_names': ['Boy George &amp; Culture Club']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Red-hot-chili-peppers', 'annotations': {'description': '&lt;p&gt;The Red Hot Chili Peppers are a rock band based in Los Angeles, CA that incorporates elements of rap, funk, punk, and rock into their work, mainly classified as an alternative rock band. They made it mainstream off the success of their 1991’s fifth studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Blood-sugar-sex-magik" rel="noopener" data-api_path="/albums/16011"&gt;Blood Sugar Sex Magik&lt;/a&gt;&lt;/em&gt;, led by singles &lt;a href="https://genius.com/Red-hot-chili-peppers-give-it-away-lyrics" rel="noopener" data-api_path="/songs/70268"&gt;“Give it Away”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-under-the-bridge-lyrics" rel="noopener" data-api_path="/songs/3226"&gt;“Under the Bridge.”&lt;/a&gt; After losing guitarist &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; and losing popularity following the release of the less successful &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/One-hot-minute" rel="noopener" data-api_path="/albums/19418"&gt;One Hot Minute&lt;/a&gt;&lt;/em&gt;, the band reunited for 1999’s &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt;. The &lt;a href="https://genius.com/Red-hot-chili-peppers-californication-lyrics" rel="noopener" data-api_path="/songs/3227"&gt;title track&lt;/a&gt; and hit singles &lt;a href="https://genius.com/Red-hot-chili-peppers-around-the-world-lyrics" rel="noopener" data-api_path="/songs/54310"&gt;“Around the World,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-scar-tissue-lyrics" rel="noopener" data-api_path="/songs/73315"&gt;“Scar Tissue”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-otherside-lyrics" rel="noopener" data-api_path="/songs/54316"&gt;“Otherside”&lt;/a&gt; propelled them back to the fame. After 2002’s solid release &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/By-the-way" rel="noopener" data-api_path="/albums/20513"&gt;By the Way&lt;/a&gt;&lt;/em&gt; and 2006’s double-disc &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Stadium-arcadium" rel="noopener" data-api_path="/albums/11881"&gt;Stadium Arcadium&lt;/a&gt;&lt;/em&gt;, Frusciante once again left the band to further pursue his solo career. The band added &lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt; to help fill his void, and released &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/I-m-with-you" rel="noopener" data-api_path="/albums/14516"&gt;I’m With You&lt;/a&gt;&lt;/em&gt; in 2011.&lt;/p&gt;\n\n&lt;p&gt;In December 2019, the band announced &lt;a href="https://www.instagram.com/p/B6G0L3OHVe8/" rel="noopener nofollow"&gt;via Instagram&lt;/a&gt; that Klinghoffer had left after 10 years, and Frusciante would be rejoining.&lt;/p&gt;\n\n&lt;p&gt;Their lyrical content was mostly centered around sex, drugs, and the Los Angeles lifestyle, and lead singer &lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt; mostly rapped them as he wasn’t confident as vocalist. Most members of the band also suffered from drug addiction, as Kiedis and Frusciante had to check themselves into rehab for heroin addiction at various points in their lives. But &lt;em&gt;&lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Californication" rel="noopener" data-api_path="/albums/11888"&gt;Californication&lt;/a&gt;&lt;/em&gt; marked a change in the band’s content matter and lifestyle. The band was sober for the most part, and the lyrics had shifted to songs about love and the pains of addiction, the title even criticized the city they loved so much. In addition, Kiedis had started to sing his lyrics much more often as he finally felt comfortable with his voice. That change has allowed the band to stick around for over 20 years despite multiple changes to their lineup and is part of why they remain relevant.&lt;/p&gt;\n\n&lt;h3&gt;List of band members:&lt;/h3&gt;\n\n&lt;p&gt;&lt;strong&gt;Current:&lt;/strong&gt;&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt; (lead vocals) 1983–1986, 1986–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Flea" rel="noopener" data-api_path="/artists/61532"&gt;Flea&lt;/a&gt; (bass, backing vocals) 1983–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Chad-smith" rel="noopener" data-api_path="/artists/387527"&gt;Chad Smith&lt;/a&gt; (drums) 1988–present&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; (lead guitars, backing vocals) 1988–1992, 1998–2009, 2019–present&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;strong&gt;Former:&lt;/strong&gt;&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Hillel-slovak" rel="noopener" data-api_path="/artists/992756"&gt;Hillel Slovak&lt;/a&gt; (guitars, backing vocals) 1983, 1985–1988&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jack-irons" rel="noopener" data-api_path="/artists/678033"&gt;Jack Irons&lt;/a&gt; (drums, backing vocals) 1983, 1986–1988&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Cliff-martinez" rel="noopener" data-api_path="/artists/531678"&gt;Cliff Martinez&lt;/a&gt; (drums) 1983–1986&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jack-sherman" rel="noopener" data-api_path="/artists/146214"&gt;Jack Sherman&lt;/a&gt; (guitars, backing vocals) 1983–1984&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Dave-navarro" rel="noopener" data-api_path="/artists/27020"&gt;Dave Navarro&lt;/a&gt; (guitars, backing vocals) 1993–1998&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt; (guitars, backing vocals) 2009–2019&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['RHCP', 'Red Hot', 'Chili Peppers']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daniel-merriweather', 'annotations': {'description': "&lt;p&gt;Australian R&amp;amp;B &amp;amp; Blue-Eyed soul singer known for his 2009 ‘'Love &amp;amp; War’‘ album and duets with Adele in ’‘Water &amp;amp; A Flame’‘ and ’‘Change’‘ with Wale.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/John-travolta-and-olivia-newton-john', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Olivia Newton-John &amp; John Travolta']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Traveling-wilburys', 'annotations': {'description': '&lt;p&gt;The Traveling Wilburys were a supergroup formed by &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;, &lt;a href="https://genius.com/artists/George-harrison" rel="noopener" data-api_path="/artists/33327"&gt;George Harrison&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, &lt;a href="https://genius.com/artists/Roy-orbison" rel="noopener" data-api_path="/artists/47372"&gt;Roy Orbison&lt;/a&gt; (who passed away between the first and second album), and Tom Petty. On the album, the members were credited as brothers in the fictional Wilbury family, though they changed their pseudonyms after their first album.&lt;/p&gt;\n\n&lt;p&gt;The name itself is an inside joke: When faced with minor recording errors during his 1987 &lt;em&gt;Cloud Nine&lt;/em&gt; sessions, Harrison would joke to co-writer/producer Lynne “we’ll bury ‘em in the mix”, soon referring to such problems as “will-bury’s”. The suggested band name “Trembling Wilburys” was changed at Lynne’s suggestion to “Traveling Wilburys”.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.cheatsheet.com/entertainment/george-harrison-named-traveling-wilburys-slang-term-used-recording-studio.html/?fbclid=IwAR1RQJqaJsnAS4NtpfkmUwg3jlisqwCpBo8w43mDRBf37UPjkTIu5JRyXcQ" rel="noopener nofollow"&gt;genesis of the band&lt;/a&gt; was Harrison’s record label asking him for an additional song to use as a bonus track on the European “This Is Love” single from &lt;em&gt;Cloud Nine&lt;/em&gt;. While Harrison and Lynne were having dinner with Orbison, he asked to join their recording session and watch. Harrison contacted Dylan to ask if they could use his home studio in Malibu, California. Then Harrison stopped by Petty’s house to get his guitar, and he joined the session as well. The outcome of that session was “Handle With Care” – a song &lt;a href="http://www.jefflynnesongs.com/popup.php?data=HandleWithCare198810_popupplus" rel="noopener nofollow"&gt;deemed&lt;/a&gt; “too good” to be used as an obscure b-side.&lt;/p&gt;\n\n&lt;p&gt;The group released two albums, Vol. 1 and Vol. 3. Vol. 1 netted them a Grammy award for the Best Rock Performance by a Duo or Group and two international hits with “Handle With Care” and “End Of Line” (though in the US, they were minor hits).&lt;/p&gt;\n\n&lt;p&gt;Documentary:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/SUQ_gj-biIc?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Snoop-dogg', 'annotations': {'description': '&lt;p&gt;Calvin Cordazar Broadus, Jr., a.k.a. Snoop Dogg (formerly Snoop Doggy Dogg as well as &lt;a href="https://genius.com/artists/Snoop-lion" rel="noopener" data-api_path="/artists/23090"&gt;Snoop Lion&lt;/a&gt;) is a rapper from Long Beach, California.&lt;/p&gt;\n\n&lt;p&gt;Snoop began his career by meeting former &lt;a href="https://genius.com/artists/Nwa" rel="noopener" data-api_path="/artists/974"&gt;N.W.A&lt;/a&gt;-member, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr. Dre&lt;/a&gt;. He was then enlisted as a collaborator for Dre’s first solo album and now hip-hop classic, &lt;a href="https://genius.com/albums/Dr-dre/The-chronic" rel="noopener" data-api_path="/albums/2597"&gt;&lt;em&gt;The Chronic&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1993 Snoop Dogg released &lt;a href="https://genius.com/albums/Snoop-dogg/Doggystyle" rel="noopener" data-api_path="/albums/9337"&gt;&lt;em&gt;Doggystyle&lt;/em&gt;&lt;/a&gt;; He was thus baptized as one of the pioneers of the G-Funk Era.&lt;/p&gt;\n\n&lt;p&gt;Watch &lt;a href="https://genius.com/artists/Ice-t" rel="noopener" data-api_path="/artists/1256"&gt;Ice-T&lt;/a&gt;’s interview with Snoop from the documentary, &lt;a href="https://www.youtube.com/watch?v=Oz8yg06xiJs" rel="noopener nofollow"&gt;&lt;em&gt;Something From Nothing: The Art of Rap&lt;/em&gt;&lt;/a&gt;:&lt;br&gt;\n&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/KR5tXrt_zG8?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'alternate_names': ['Calvin Cordozar Broadus Jr.', 'Tha Doggfather', 'Snoop', 'Calvin Broadus', 'Calvin Broadus Jr.', 'Calvin C. Broadus Jr.', 'Calvin Cordazar Broadus Jr.', 'Snoopy Collins', 'Calvin Cordozar Broadus', 'Niggarachi', 'Niggaracci', 'Bigg Snoop Dogg', 'DJ Snoopadelic', 'Snoopzilla', 'Snoop Doggy Dogg']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-rolling-stones', 'annotations': {'description': '&lt;p&gt;Formed in London in 1962, The Rolling Stones led the “British Invasion” along with &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and were so successful their influence can be seen in arguably every rock ‘n’ roll band that followed.&lt;/p&gt;\n\n&lt;p&gt;Three of the current members have been there since the band’s inception: singer &lt;a href="https://genius.com/artists/Mick-jagger" rel="noopener" data-api_path="/artists/44144"&gt;Mick Jagger&lt;/a&gt; and guitarist &lt;a href="https://genius.com/artists/Keith-richards" rel="noopener" data-api_path="/artists/52212"&gt;Keith Richards&lt;/a&gt;, who write the majority of the band’s catalogue and also produced some albums as &lt;a href="https://genius.com/artists/The-glimmer-twins" rel="noopener" data-api_path="/artists/1724584"&gt;The Glimmer Twins&lt;/a&gt;; and drummer &lt;a href="https://genius.com/artists/Charlie-watts" rel="noopener" data-api_path="/artists/348719"&gt;Charlie Watts&lt;/a&gt;. The fourth official member is guitarist &lt;a href="https://genius.com/artists/Ronnie-wood" rel="noopener" data-api_path="/artists/356344"&gt;Ronnie Wood&lt;/a&gt;, who has been there since 1975 (the keyboardist and bassist who play in studio and live are usually not listed). The Stones have released more than 20 studio albums, and even as age caught up on them, continued to be a huge attraction on the live circuit, with big stadium tours continuing through the 1990s, 2000s and into the 2010s.&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;&lt;a href="https://genius.com/The-rolling-stones-the-rolling-stones-discography-annotated" rel="noopener" data-api_path="/songs/1717493"&gt;Discography&lt;/a&gt;&lt;/b&gt;&lt;/p&gt;\n\n&lt;h3&gt;Band members&lt;/h3&gt;\n\n\n&lt;p&gt;\n&lt;a href="https://genius.com/artists/Mick-jagger" rel="noopener" data-api_path="/artists/44144"&gt;Mick Jagger&lt;/a&gt; – lead and backing vocals, harmonica, guitar (1962–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Keith-richards" rel="noopener" data-api_path="/artists/52212"&gt;Keith Richards&lt;/a&gt; – guitar, backing and lead vocals, bass guitar (1962–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Charlie-watts" rel="noopener" data-api_path="/artists/348719"&gt;Charlie Watts&lt;/a&gt; – drums, percussion (1963–2021)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Ronnie-wood" rel="noopener" data-api_path="/artists/356344"&gt;Ronnie Wood&lt;/a&gt; – guitar, lap steel guitar, pedal steel guitar, slide guitar, backing vocals, bass guitar (1975–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Brian-jones" rel="noopener" data-api_path="/artists/36432"&gt;Brian Jones&lt;/a&gt; – guitar, harmonica, miscellaneous instruments, backing vocals (1962–1969; died 1969)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Ian-stewart" rel="noopener" data-api_path="/artists/654535"&gt;Ian Stewart&lt;/a&gt; – piano, percussion (1962–1963; touring 1969, 1975–1976, 1978, 1981–1982; died 1985)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mick-taylor" rel="noopener" data-api_path="/artists/380499"&gt;Mick Taylor&lt;/a&gt; – guitar, backing vocals, bass guitar (1969–1974; guest 1981, guest 2012-2014)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Bill-wyman" rel="noopener" data-api_path="/artists/376809"&gt;Bill Wyman&lt;/a&gt; – bass guitar, backing vocals (1962–1993; guest 2012)&lt;/p&gt;\n\n&lt;h3&gt;Live musicians&lt;/h3&gt;\n\n\n&lt;p&gt;\n&lt;a href="https://genius.com/artists/Chuck-leavell" rel="noopener" data-api_path="/artists/651011"&gt;Chuck Leavell&lt;/a&gt; – keyboards, backing vocals (1982–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lisa-fischer" rel="noopener" data-api_path="/artists/272981"&gt;Lisa Fischer&lt;/a&gt; – backing vocals, co-lead vocals on “Gimme Shelter” (1989–present)&lt;br&gt;\nBernard Fowler – backing vocals (1989–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Darryl-jones" rel="noopener" data-api_path="/artists/664505"&gt;Darryl Jones&lt;/a&gt; – bass guitar, backing vocals (1993–present)&lt;br&gt;\nTim Ries – saxophone, keyboards (1999–present)&lt;br&gt;\nKarl Denson – saxophone (2014–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Bobby-keys" rel="noopener" data-api_path="/artists/663743"&gt;Bobby Keys&lt;/a&gt; – saxophone (1969–1973; 1981–2014; died 2014)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Billy-preston" rel="noopener" data-api_path="/artists/66180"&gt;Billy Preston&lt;/a&gt; – keyboards, backing vocals (1973-1977; died 2006)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Nicky-hopkins" rel="noopener" data-api_path="/artists/46092"&gt;Nicky Hopkins&lt;/a&gt; – keyboards (1971–1973; died 1994)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Ernie-watts" rel="noopener" data-api_path="/artists/381806"&gt;Ernie Watts&lt;/a&gt; – saxophone (1981)&lt;br&gt;\nIan McLagan – keyboards (1978–1981; died 2014)&lt;br&gt;\nBlondie Chaplin – backing vocals, percussion, guitar (1997–2007)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ac-dc', 'annotations': {'description': '&lt;p&gt;AC/DC is an Australian rock band, formed in 1973 by brothers &lt;a href="https://genius.com/artists/Malcolm-young" rel="noopener" data-api_path="/artists/539433"&gt;Malcolm&lt;/a&gt; and &lt;a href="https://genius.com/artists/Angus-young" rel="noopener" data-api_path="/artists/539432"&gt;Angus Young&lt;/a&gt;, who have remained the sole constant members (though Malcolm left prior to the recording of 2015’s &lt;em&gt;Rock or Bust&lt;/em&gt; due to medical issues and has since died). Commonly classified as hard rock, they are considered pioneers of heavy metal and are sometimes classified as such, though they themselves have always classified their music as simply “rock and roll”. To date, they are one of the highest grossing bands of all time.&lt;/p&gt;\n\n&lt;p&gt;But when their vocalist, Bon Scott died after a night out in London, the group wanted to disband. That didn’t happen. Instead, Scott was replaced with Brian Johnson. Their only statement to Scott’s Death was that he had “drunken himself to Death.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;Malcolm and Angus Young came up with the band name&lt;/a&gt; after their sister saw “AC/DC” on the side of an electric sewing machine, and ended up asking, “Why not AC/DC?”&lt;/p&gt;\n\n&lt;p&gt;As of 2010, AC/DC had sold more than 200 million albums worldwide, including 71 million albums in the United States alone. 1980’s &lt;em&gt;&lt;a href="https://genius.com/albums/ac-dc/back-in-black" rel="noopener" data-api_path="/albums/17546"&gt;Back in Black&lt;/a&gt;&lt;/em&gt;, the first album with singer &lt;a href="https://genius.com/artists/Brian-johnson" rel="noopener" data-api_path="/artists/158121"&gt;Brian Johnson&lt;/a&gt;, has sold an estimated 49 million units worldwide, making it the third highest-selling album by any artist, and the second highest-selling album by any band, behind &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/pink-floyd/the-dark-side-of-the-moon" rel="noopener" data-api_path="/albums/14530"&gt;Dark Side of The Moon&lt;/a&gt;&lt;/em&gt; and &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;’s &lt;em&gt;&lt;a href="https://genius.com/albums/Michael-jackson-thriller" rel="noopener"&gt;Thriller&lt;/a&gt;&lt;/em&gt;. The album has sold 22 million units in the U.S. alone, where it is the fifth-highest-selling album of all-time. AC/DC ranked fourth on VH1’s list of the “100 Greatest Artists of Hard Rock” and was named the seventh “Greatest Heavy Metal Band of All Time” by MTV. In 2004, AC/DC was ranked number 72 in the Rolling Stone list of the “100 Greatest Artists of All Time”. In 2010, AC/DC were ranked number 23 on the VH1 list of the “100 Greatest Artists of All Time”.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;br&gt;\n-&lt;a href="https://genius.com/artists/Angus-young" rel="noopener" data-api_path="/artists/539432"&gt;Angus Young&lt;/a&gt; – lead guitar (1973–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Cliff-williams" rel="noopener" data-api_path="/artists/379851"&gt;Cliff Williams&lt;/a&gt; – bass guitar, backing vocals (1977–2016[retired following the Rock or Bust Tour])&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Stevie-young" rel="noopener" data-api_path="/artists/21918"&gt;Stevie Young&lt;/a&gt; – rhythm guitar, backing vocals (1988 [touring member], 2014–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Chris-slade" rel="noopener" data-api_path="/artists/270232"&gt;Chris Slade&lt;/a&gt; – drums (1989–1994, 2015–present)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Brian-johnson" rel="noopener" data-api_path="/artists/158121"&gt;Brian Johnson&lt;/a&gt; – lead and backing vocals (1980–2016 [Indefinite Hiatus])&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Axl-rose" rel="noopener" data-api_path="/artists/101616"&gt;Axl Rose&lt;/a&gt; – lead vocals (2016 [touring member])&lt;/p&gt;\n\n&lt;p&gt;Former members&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Malcolm-young" rel="noopener" data-api_path="/artists/539433"&gt;Malcolm Young&lt;/a&gt; – rhythm guitar, backing vocals (1973–2014)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Dave-evans" rel="noopener" data-api_path="/artists/386528"&gt;Dave Evans&lt;/a&gt; – lead vocals (1973–1974)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Bon-scott" rel="noopener" data-api_path="/artists/576622"&gt;Bon Scott&lt;/a&gt; – lead vocals (1974–1980)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Mark-evans" rel="noopener" data-api_path="/artists/1001993"&gt;Mark Evans&lt;/a&gt; – bass guitar (1975–1977)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Phil-rudd" rel="noopener" data-api_path="/artists/640042"&gt;Phil Rudd&lt;/a&gt; – drums (1975–1983, 1994–2015)&lt;br&gt;\n- &lt;a href="https://genius.com/artists/Simon-wright" rel="noopener" data-api_path="/artists/459346"&gt;Simon Wright&lt;/a&gt; – drums (1983–1989)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bob-seger', 'annotations': {'description': '&lt;p&gt;Robert Clark Seger, more commonly referred to by his stage name–&lt;a href="http://www.bobseger.com/" rel="noopener nofollow"&gt;Bob Seger&lt;/a&gt;–is an American singer and songwriter. Initially &lt;a href="http://www.annarbor.com/entertainment/bob-seger-interview/" rel="noopener nofollow"&gt;born in Detroit, Michigan&lt;/a&gt;, Seger moved at the age of 5 with his close family to the neighboring city &lt;a href="https://www.google.com/maps/place/Ann+Arbor,+MI/@42.3054806,-84.2483115,9.32z/data=!4m5!3m4!1s0x883cb00dd4431f33:0xdb09f94686c8b5e2!8m2!3d42.2808256!4d-83.7430378" rel="noopener nofollow"&gt;Ann Arbor, Michigan&lt;/a&gt;. Growing up, Seger was &lt;a href="https://www.thefamouspeople.com/profiles/robert-clarke-seger-894.php" rel="noopener nofollow"&gt;introduced to music&lt;/a&gt; through his father, who was a multi-instrumentalist. However, only 5 years later, Seger’s father had left him, his brother, and his mother on their own after continuous arguing.&lt;/p&gt;\n\n&lt;p&gt;Seger &lt;a href="http://www.thenewsherald.com/news/bob-seger-day-set-for-friday-in-lincoln-park/article_749c58cf-717e-5db1-8db3-71caf5bb1f54.html" rel="noopener nofollow"&gt;attended&lt;/a&gt; both &lt;a href="https://www.a2schools.org/tappan" rel="noopener nofollow"&gt;Tappan Middle School&lt;/a&gt;, &lt;a href="https://www.lincolnparkhs.org/" rel="noopener nofollow"&gt;Lincoln Park High School&lt;/a&gt; and graduated from &lt;a href="https://www.a2schools.org/pioneer" rel="noopener nofollow"&gt;Pioneer High School&lt;/a&gt; in 1963. During his time in high school, Seger and his colleagues from Pionner formed a short-lived band known as The Decibels. The group managed to &lt;a href="https://www.detroitnews.com/story/entertainment/music/2021/03/12/first-bob-seger-song-ever-recorded-play-wcsx-monday/4664560001/" rel="noopener nofollow"&gt;record some of the material they had written&lt;/a&gt;, where it would later be played on local radio stations. One of these tracks were titled “The Lonely One”, which was the first song he had penned; largely influenced by artists like &lt;a href="https://genius.com/artists/little-richard" rel="noopener" data-api_path="/artists/37147"&gt;Little Richard&lt;/a&gt; and &lt;a href="https://genius.com/artists/elvis-presley" rel="noopener" data-api_path="/artists/1645"&gt;Elvis Presley&lt;/a&gt;.&lt;br&gt;\nFollowing The Decibels disbandment, Seger joined another local band known as The Town Criers, where he acted as the front-man. Despite mostly performing covers of songs, The Town Criers gained a following from the locals. After its release in 1963, Seger claimed that him along with the rest of The Town Criers listened to &lt;a href="https://genius.com/albums/James-brown/Live-at-the-apollo" rel="noopener" data-api_path="/albums/34412"&gt;&lt;em&gt;Live at the Apollo&lt;/em&gt;&lt;/a&gt; religiously, and as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; became more popular in the United States, Seger and The Town Criers would cite them as a major influence as well.&lt;/p&gt;\n\n&lt;p&gt;Although The Town Criers found moderate success while touring locally, Seger–after meeting the musician Doug Brown and his backing band The Omens–had left The Town Criers for another band with a larger following. Rather than being a front-man, however, Seger mainly worked on the instrumentation aspect of the group; only doing lead vocals on a handful of songs. Just like with The Town Criers, Seger along with the Omens recorded a handful of singles, including &lt;a href="https://www.discogs.com/Doug-Brown-5-Doug-Brown-And-The-Omens-TGIF-Thank-Goodness-Its-Friday-The-First-Girl/release/5167436" rel="noopener nofollow"&gt;“TGIF”&lt;/a&gt; and &lt;a href="https://www.discogs.com/The-Beach-Bums-Florida-Time-The-Ballad-Of-The-Yellow-Beret/master/1310914" rel="noopener nofollow"&gt;“The Battle of the Yellow Beret”&lt;/a&gt; (The group would then get threatened with a lawsuit over the latter, which was an uncredited parody of the song &lt;a href="https://genius.com/Barry-sadler-ballad-of-the-green-berets-lyrics" rel="noopener" data-api_path="/songs/836065"&gt;“Ballad of the Green Berets”&lt;/a&gt;). While recording with The Omens (whom would later re-title themselves as the Beach Bums), Seger met &lt;a href="https://genius.com/artists/Punch-andrews" rel="noopener" data-api_path="/artists/138511"&gt;Edward “Punch” Andrews&lt;/a&gt;, a producer that would continue to work with Seger long into his solo career.&lt;/p&gt;\n\n&lt;p&gt;After several disputes and not being able to record the single &lt;a href="https://genius.com/Bob-seger-east-side-story-lyrics" rel="noopener" data-api_path="/songs/1312191"&gt;“East Side Story”&lt;/a&gt; with the rest of the group, Seger officially left the Omens. Signing to &lt;a href="https://www.discogs.com/label/587226-Hideout-Records-Distributors-Inc" rel="noopener nofollow"&gt;Hideout Records&lt;/a&gt;, Seger formed the Last Heard and released the single where it was met with commercial success, where he was offered his first contract with &lt;a href="https://www.abkco.com/artist/cameo-parkway/" rel="noopener nofollow"&gt;Cameo-Parkway Records&lt;/a&gt;. With the Last Heard, Seger would release several more singles which contained a psychedelic sound, which was dominating the world at the time. Cameo-Parkway Records then abruptly went out of business, and caused Seger and the rest of the band to search for a new label to sign to. Ultimately, Seger went with &lt;a href="https://www.capitolrecords.com/#/" rel="noopener nofollow"&gt;Capitol Records&lt;/a&gt;, where the band would undergo some slight changes, such as their name, which was updated to “The Bob Seger System”.&lt;/p&gt;\n\n&lt;p&gt;The Bob Seger System released its first single, &lt;a href="https://genius.com/Bob-seger-2-2-lyrics" rel="noopener" data-api_path="/songs/1794350"&gt;“2 + 2 = ?”&lt;/a&gt;, an protest song advocating against the Vietnam War. The single proved to be a commercial success, making the Canadian charts &lt;a href="https://web.archive.org/web/20140808054306/http://las-solanas.com/arsa/charts_item.php?hsid=14146" rel="noopener nofollow"&gt;as well as becoming radio staples around the country&lt;/a&gt;. The Bob Seger System released several singles afterward along with several albums, but none of them were met with the same amount of acclaim, which ultimately led to the dissolution of the group and Seger dropping out of the music industry temporarily to pursue his education.&lt;/p&gt;\n\n&lt;p&gt;Seger then attempted once again to become a star in the industry in 1971, releasing an all solo and acoustic album, &lt;a href="https://genius.com/albums/Bob-seger/Brand-new-morning" rel="noopener" data-api_path="/albums/199336"&gt;&lt;em&gt;Brand New Morning&lt;/em&gt;&lt;/a&gt;, which also was commercially unsuccessful and led to him leaving Capitol Records. In search for a band, Seger met with &lt;a href="https://genius.com/artists/David-teegarden" rel="noopener" data-api_path="/artists/2550973"&gt;David Teegarden&lt;/a&gt; and &lt;a href="https://genius.com/artists/Skip-knape" rel="noopener" data-api_path="/artists/2766224"&gt;Skip Knapé&lt;/a&gt; of Teegarden &amp;amp; Van Winkle. The trio quickly got along and began working on an album together, eventually releasing &lt;a href="https://genius.com/albums/Bob-seger/Smokin-o-p-s" rel="noopener" data-api_path="/albums/192143"&gt;&lt;em&gt;Smokin\' O.P.’s&lt;/em&gt;&lt;/a&gt;. Gathering several more members, the trio now had a full band and then released &lt;a href="https://genius.com/albums/Bob-seger/Back-in-72" rel="noopener" data-api_path="/albums/179988"&gt;&lt;em&gt;Back in ‘72&lt;/em&gt;&lt;/a&gt;, which contained one of Seger’s most &lt;a href="https://genius.com/Bob-seger-turn-the-page-live-lyrics" rel="noopener" data-api_path="/songs/354203"&gt;acclaimed songs&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After the band unfortunately fell into obscurity, Seger left the group after several failed attempts of trying to make a name for themselves and later in 1974, formed The Silver Bullet Band. With The Silver Bullet Band, Seger would reach a peak in his career, creating several hit songs like &lt;a href="https://genius.com/Bob-seger-night-moves-lyrics" rel="noopener" data-api_path="/songs/387411"&gt;“Night Moves”&lt;/a&gt;, &lt;a href="https://genius.com/Bob-seger-hollywood-nights-lyrics" rel="noopener" data-api_path="/songs/486462"&gt;“Hollywood Nights”&lt;/a&gt; and &lt;a href="https://genius.com/Bob-seger-still-the-same-lyrics" rel="noopener" data-api_path="/songs/1570839"&gt;“Still the Same”&lt;/a&gt;–all of which were released over the course of several years. These songs launcehd Seger and the Silver Bullet Bands into rock and roll stars, and allowed them to connect with more musicians. In 1980, Seger and the Silver Bullet Band released &lt;a href="https://genius.com/albums/Bob-seger/Against-the-wind" rel="noopener" data-api_path="/albums/160157"&gt;&lt;em&gt;Against the Wind&lt;/em&gt;&lt;/a&gt;. While its &lt;a href="https://genius.com/Bob-seger-against-the-wind-lyrics" rel="noopener" data-api_path="/songs/1345083"&gt;titular track&lt;/a&gt; was released to critical and commercial acclaim, the album itself didn’t. Throughout the rest of the 1980s and 1990s, Seger would release a handful of solo and collaborative efforts, but none of which were ever held in such high regard like the aforementioned ones.&lt;/p&gt;\n\n&lt;p&gt;Bob Seger now is retrospectively revered as an American musicianal icon, recieving &lt;a href="http://www.walkoffame.com/bob-seger-and-the-silver-bullet-band" rel="noopener nofollow"&gt;a star on the Hollywood Walk of Fame&lt;/a&gt;, being inducted into the &lt;a href="https://www.rollingstone.com/music/news/bob-seger-gordon-lightfoot-jim-steinman-inducted-into-songwriters-hall-of-fame-20120615" rel="noopener nofollow"&gt;Songwriters Hall of Fame&lt;/a&gt;, winning &lt;a href="https://www.grammy.com/grammys/artists/bob-seger/7078" rel="noopener nofollow"&gt;1 GRAMMY award and nominated 7 additional times&lt;/a&gt;, and &lt;a href="http://www.thenewsherald.com/news/bob-seger-day-set-for-friday-in-lincoln-park/article_749c58cf-717e-5db1-8db3-71caf5bb1f54.html" rel="noopener nofollow"&gt;having a day dedicated to him&lt;/a&gt; in Lincoln Park, Michigan. Seger along with the Silver Bullet Band have also been inducted into the &lt;a href="https://www.michiganrockandrolllegends.com/mrrl-hall-of-fame/85-bob-seger-a-the-silver-bullet-band" rel="noopener nofollow"&gt;Michigan Rock and Roll Legends Hall of Fame&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lipps-inc', 'annotations': {'description': '&lt;p&gt;Lipps, Inc. was an American disco group from Minneapolis, Minnesota.&lt;/p&gt;\n\n&lt;p&gt;The group is best known for their single, “Funkytown”, released in 1980, that went double platinum, and was a number-one hit in 28 countries.&lt;/p&gt;\n\n&lt;p&gt;The original line up consisted of Cynthia Johnson and various rotating artists.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rick-james', 'annotations': {'description': '&lt;p&gt;Rick James (born James Ambrose Johnson, Jr. February 1, 1948 – August 6, 2004) was an American musician and composer.&lt;/p&gt;\n\n&lt;p&gt;Influenced by singers such as &lt;a href="https://genius.com/artists/Marvin-gaye" rel="noopener" data-api_path="/artists/944"&gt;Marvin Gaye&lt;/a&gt; and &lt;a href="https://genius.com/artists/Smokey-robinson" rel="noopener" data-api_path="/artists/1223"&gt;Smokey Robinson&lt;/a&gt;, James started singing in doo-wop and R&amp;amp;B groups as a teenager in his hometown of &lt;a href="https://en.wikipedia.org/wiki/Buffalo,_New_Yorkk" rel="noopener nofollow"&gt;Buffalo, New York&lt;/a&gt;. After entering the U.S. Navy to avoid being drafted, he deserted to Toronto, where he formed the rock and R&amp;amp;B band, The Mynah Birds, whose lineup once included Bruce Palmer, Neil Young, and Nick St. Nicholas. James\' tenure with the group was interrupted after he was discovered recording with the group in Motown in 1966. Surrendering to military authorities, he served a one-year prison term. Upon release, James moved to California to resume his duties with the Mynah Birds, although the group eventually split. James began a series of rock bands in California and worked with Motown under the assumed name “Ricky Matthews” as a songwriter.&lt;/p&gt;\n\n&lt;p&gt;In 1977, he signed with the Gordy Records imprint of Motown as a recording artist, releasing his debut, Come Get It!, in April 1978. The album sold over two million copies and launched his career into the mainstream as a funk and soul artist. His most popular album, 1981’s Street Songs, launched him into superstardom thanks to the hit singles, “Give It to Me Baby” and “Super Freak”, the latter song becoming his signature song for the rest of his life, and the basis of MC Hammer’s biggest hit, “U Can’t Touch This”; James eventually sued for back royalties. After being credited as writer of the song, James became the 1990 recipient of a Best R&amp;amp;B Song Grammy for composing the song. Due to this success, James was often called the “king of punk funk”, for his mix of funk, soul and underground-inspired rock music. In addition to his own success, James emerged as a successful songwriter and producer for other artists, such as Teena Marie, The Mary Jane Girls, The Temptations, Eddie Murphy and Smokey Robinson.&lt;/p&gt;\n\n&lt;p&gt;An addiction to freebasing crack cocaine hampered his career by the late 1980s. In the 1990s, his legal troubles, which included kidnapping and torturing two women while under the influence of crack, led him to serve a three-year sentence at California’s Folsom State Prison. James was released on parole in 1996 and resumed his musical career releasing the album, Urban Rapsody, in 1997. A mild stroke suffered during a concert in early 1998 interrupted his career for a brief time. James received new notoriety in 2004, when he appeared (as himself) in an episode of the Chappelle’s Show, in a Charlie Murphy “True Hollywood Stories” segment that satirized James\' past wild lifestyle. James died later that year from heart failure, at age 56.&lt;/p&gt;', 'alternate_names': ['James Ambrose Johnson Jr.', 'James Ambrose Johnson', 'James Johnson Jr.']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eddie-rabbitt', 'annotations': {'description': '&lt;p&gt;Edward Thomas Rabbitt was born November 27, 1941 in Brooklyn, New York to Irish immigrant parents.  He was raised in East Orange, New Jersey.  On his 35th birthday, he married Janine Girardi.  They had three children.  One daughter, Demelza, and two sons, Timmy &amp;amp; Tommy.  Timmy was born with biliary atresia and died in childhood after a failed liver transplant intended to save his life.  In March 1997, Eddie learned that he had lung cancer.  He passed away on May 7, 1998.  Rabbitt received several awards over the years.  The Academy of Country Music Awards Top New Male Vocalist in 1977.  Music City News Country Songwriter of the Year and BMI’s Robert J. Burton Award for &lt;a href="https://genius.com/Eddie-rabbitt-suspicions-lyrics" rel="noopener" data-api_path="/songs/2278080"&gt;“Suspicions”&lt;/a&gt; in 1979. 1980 brought BMI’s Song of the Year for “Suspicions.”  In 1996 he pulled in BMI’s Three Million-Air Award and Two Million-Air Awards for &lt;a href="https://genius.com/Eddie-rabbitt-i-love-a-rainy-night-lyrics" rel="noopener" data-api_path="/songs/146840"&gt;“I Love a Rainy Night”&lt;/a&gt; and &lt;a href="https://genius.com/Eddie-rabbitt-kentucky-rain-lyrics" rel="noopener" data-api_path="/songs/1030438"&gt;“Kentucky Rain”&lt;/a&gt;, respectively.  He was inducted into the Nashville Songwriters Hall of Fame the year of his death, 1998.  Eddie’s final #1 hit came in 1989 with &lt;a href="https://genius.com/Eddie-rabbitt-on-second-thought-lyrics" rel="noopener" data-api_path="/songs/2263489"&gt;“On Second Thought”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Edward Rabbitt', 'Edward Thomas Rabbitt']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eric-clapton', 'annotations': {'description': '&lt;p&gt;Eric Patrick Clapton, CBE, (born 30 March 1945) is an English musician, singer and songwriter. He is the only three-time inductee to the Rock and Roll Hall of Fame: once as a solo artist and separately as a member of the Yardbirds and Cream. Clapton has been referred to as one of the most important and influential guitarists of all time. Clapton ranked second in Rolling Stone magazine’s list of the “100 Greatest Guitarists of All Time” and fourth in Gibson’s “Top 50 Guitarists of All Time”.&lt;/p&gt;', 'alternate_names': ['Eric Patrick Clapton']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bring-me-the-horizon', 'annotations': {'description': '&lt;p&gt;Bring Me The Horizon are a British &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; band from Sheffield, Yorkshire—often stylised as simply “BMTH” or shortened to “Bring Me.” Formed in 2003, the group currently consists of lead vocalist &lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes,&lt;/a&gt; lead guitarist &lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia,&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean,&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls,&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c642295d139a03e53746037448f49329.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The name of the band was taken from &lt;a href="https://www.imdb.com/title/tt0325980/characters/nm0000136" rel="noopener nofollow"&gt;Captain Jack Sparrow’s&lt;/a&gt; line in the first &lt;a href="https://www.imdb.com/title/tt0325980/" rel="noopener nofollow"&gt;&lt;em&gt;Pirates of the Caribbean&lt;/em&gt;&lt;/a&gt; which he says: &lt;a href="https://youtu.be/eZ69WdGN9Ys?t=18" rel="noopener nofollow"&gt;“Bring me that horizon.”&lt;/a&gt; Oli stated in an &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;interview with &lt;em&gt;Spin&lt;/em&gt;&lt;/a&gt; how the name connects with his vision of the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Right at the end of the film—it might even be the very last line—&lt;a href="https://www.imdb.com/name/nm0000136/" rel="noopener nofollow"&gt;Johnny Depp&lt;/a&gt; says, “Bring me that horizon.” That was really inspiring. I was still living with my parents in Sheffield, England, when the movie came out [in 2003]. For me and the band, playing music was always wrapped up with the idea of touring and traveling and seeing the rest of England and the rest of the world. We never thought doing that was possible, but that’s what we wanted to do. So that quote sort of stands in for our feeling of wanting to see what the planet had to offer.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a3eb78e16fb419fb99e064b798c430da.500x210x14.gif" alt="" width="500" height="210" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;BMTH’s sound has changed dramatically over the years. In their original incarnation, they were known for fast blast beats and &lt;a href="https://genius.com/tags/deathcore" rel="noopener"&gt;deathcore&lt;/a&gt; influences. With the official addition of Jordan Fish on 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;,&lt;/a&gt; the group has steered towards a more stadium-friendly &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; sound. This was a conscious decision for the band to embrace melody and reach a wider audience.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.independent.co.uk/arts-entertainment/music/oli-sykes-interview-bring-me-the-horizon-tour-o2-arena-royal-albert-hall-a7388161.html" rel="noopener nofollow"&gt;Oli explained the shift&lt;/a&gt; as due to maturing in age and shifting interests, as well as a desire to take the band further than ever before:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We were just a metal band at one point. We were doing alright and playing some shows and now… now we’re one of the biggest heavy rock bands in the world. We want more now. It’s no longer just a fantasy; people know who we are. This can go as far as we want it to go. The only limit is us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Two years after &lt;em&gt;Sempiternal&lt;/em&gt;, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/That-s-the-spirit" rel="noopener" data-api_path="/albums/127993"&gt;&lt;em&gt;That’s The Spirit&lt;/em&gt;&lt;/a&gt; was released with even more approach to &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock,&lt;/a&gt; becoming the band’s best selling album to date, with hits like &lt;a href="https://genius.com/Bring-me-the-horizon-drown-lyrics" rel="noopener" data-api_path="/songs/548384"&gt;“Drown,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-happy-song-lyrics" rel="noopener" data-api_path="/songs/2174634"&gt;“Happy Song,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-throne-lyrics" rel="noopener" data-api_path="/songs/2261403"&gt;“Throne”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-follow-you-lyrics" rel="noopener" data-api_path="/songs/2291901"&gt;“Follow You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 25th, 2019, their sixth studio album &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Amo" rel="noopener" data-api_path="/albums/415250"&gt;&lt;em&gt;amo&lt;/em&gt;&lt;/a&gt; was released. The record is very experimental and mixes pop and electronic elements, inspired also by &lt;a href="https://genius.com/tags/trap" rel="noopener"&gt;trap music&lt;/a&gt; on &lt;a href="https://genius.com/Bring-me-the-horizon-why-you-gotta-kick-me-when-im-down-lyrics" rel="noopener" data-api_path="/songs/4034879"&gt;“why you gotta kick me when i’m down.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 2020 COVID-19 pandemic, Bring Me started teasing videos of music prodution. At October 30, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Post-human-survival-horror" rel="noopener" data-api_path="/albums/614710"&gt;&lt;em&gt;POST HUMAN: SURVIVAL HORROR&lt;/em&gt;&lt;/a&gt; was released as a callback to the band’s old style. It features four singles, &lt;a href="https://genius.com/Bring-me-the-horizon-ludens-lyrics" rel="noopener" data-api_path="/songs/4912244"&gt;“Ludens,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-parasite-eve-lyrics" rel="noopener" data-api_path="/songs/5405239"&gt;“Parasite Eve,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-obey-lyrics" rel="noopener" data-api_path="/songs/5904555"&gt;“Obey”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-teardrops-lyrics" rel="noopener" data-api_path="/songs/6058777"&gt;“Teardrops.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band’s logo is called “Antivist Symbol” and it’s  an &lt;a href="https://en.wikipedia.org/wiki/Unicursal_hexagram" rel="noopener nofollow"&gt;unicursal hexagram,&lt;/a&gt; used since 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt; release, because of the song &lt;a href="https://genius.com/Bring-me-the-horizon-antivist-lyrics" rel="noopener" data-api_path="/songs/124028"&gt;“Antivist.”&lt;/a&gt; In Aleister Crowley’s &lt;a href="https://en.wikipedia.org/wiki/Thelema" rel="noopener nofollow"&gt;Thelema,&lt;/a&gt; it means that everybody has one true goal in life.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/151384cf60ce8791a1e2c06ad36d2e5a.878x1000x1.png" alt="" width="878" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(First version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5fbd85da18e95ecf67085e285dac11bc.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Actual version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Current Lineup:&lt;/h3&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes:&lt;/a&gt; lead vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish:&lt;/a&gt; electronics, percussion, vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia:&lt;/a&gt; lead guitar&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean:&lt;/a&gt; bass&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls:&lt;/a&gt; drums&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6613c20b24031bece922ae1e86da30cf.800x450x1.jpg" alt="" width="800" height="450" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(BMTH’s current lineup)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BMTH']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Judas-priest', 'annotations': {'description': '&lt;p&gt;Judas Priest is a British heavy metal band from Birmingham, England. Formed in 1969, Judas Priest is one of the most influential and pioneering heavy metal bands of all time. Emerged at the beginning of the new wave of British heavy metal movement, their influence, while mainly &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt;’s operatic vocal style and the twin guitar sound, has been adopted by many bands. Their image of leather, spikes and other taboo articles of clothing were widely influential during the 1980s.&lt;/p&gt;\n\n&lt;p&gt;Despite an innovative and pioneering body of work in the latter half of the 1970s, the band struggled with indifferently-produced records, repeated changes of drummer and a lack of major commercial success or attention until 1980, when they adopted a more simplified sound on the album &lt;a href="https://genius.com/albums/Judas-priest/British-steel" rel="noopener" data-api_path="/albums/107404"&gt;&lt;em&gt;British Steel&lt;/em&gt;&lt;/a&gt;, which helped shoot them to rock superstar status.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band was originally formed under the name Freight by schoolmates &lt;a href="https://genius.com/artists/Kk-downing" rel="noopener" data-api_path="/artists/454885"&gt;Kenneth “K.K.” Downing&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ian-hill" rel="noopener" data-api_path="/artists/989418"&gt;Ian Hill&lt;/a&gt; in 1969. Joined by vocalist &lt;a href="https://genius.com/artists/Al-atkins" rel="noopener" data-api_path="/artists/348935"&gt;Al Atkins&lt;/a&gt; and drummer John Ellis, the band played their first concert in 1971. Atkins\' previous band was called Judas Priest, which was named after a &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt; song called &lt;a href="https://genius.com/Bob-dylan-the-ballad-of-frankie-lee-and-judas-priest-lyrics" rel="noopener" data-api_path="/songs/117556"&gt;“The Ballad of Frankie Lee and Judas Priest,”&lt;/a&gt; yet the members decided it was the best name for the new band. After performing numerous shows, in 1971, Ellis was replaced by &lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt;, and by the end of the year, Chris Campbell replaced Moore. Atkins and Campbell left the band in 1973 and were replaced by vocalist &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt;. The band was joined by &lt;a href="https://genius.com/artists/Glenn-tipton" rel="noopener" data-api_path="/artists/344759"&gt;Glenn Tipton&lt;/a&gt; as the second guitarist, before recording their debut album.&lt;/p&gt;\n\n&lt;p&gt;In September 1974, Judas Priest released their first studio album &lt;a href="https://genius.com/albums/Judas-priest/Rocka-rolla" rel="noopener" data-api_path="/albums/117846"&gt;&lt;em&gt;Rocka Rolla&lt;/em&gt;&lt;/a&gt;. The album was produced by  &lt;a href="https://genius.com/artists/Rodger-bain" rel="noopener" data-api_path="/artists/40465"&gt;Rodger Bain&lt;/a&gt; who also produced &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt;’s first three albums. It was the only album to feature drummer &lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt; who left the band and was replaced by &lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt;. In 1976, the band released their second full-length album, &lt;a href="https://genius.com/albums/Judas-priest/Sad-wings-of-destiny" rel="noopener" data-api_path="/albums/117851"&gt;&lt;em&gt;Sad Wings of Destiny&lt;/em&gt;&lt;/a&gt;. This is considered the album on which Judas Priest consolidated their heavy metal sound and image. &lt;em&gt;Sad Wings of Destiny&lt;/em&gt; caught the attention of &lt;a href="https://genius.com/artists/Columbia-records" rel="noopener" data-api_path="/artists/30372"&gt;CBS Records&lt;/a&gt;. The band signed with CBS and received a budget for their next album. In 1977, Judas Priest released their third studio album &lt;a href="https://genius.com/albums/Judas-priest/Sin-after-sin" rel="noopener" data-api_path="/albums/77035"&gt;&lt;em&gt;Sin After Sin&lt;/em&gt;&lt;/a&gt; which was their major-label debut. It was produced by &lt;a href="https://genius.com/artists/Deep-purple" rel="noopener" data-api_path="/artists/34310"&gt;Deep Purple&lt;/a&gt;’s bassist &lt;a href="https://genius.com/artists/Roger-glover" rel="noopener" data-api_path="/artists/103632"&gt;Roger Glover&lt;/a&gt;. After Moore’s departure, &lt;a href="https://genius.com/artists/Simon-phillips" rel="noopener" data-api_path="/artists/69710"&gt;Simon Phillips&lt;/a&gt; recorded the drum tracks for the album, but he didn’t join the band as a permanent member of Judas Priest. The band hired drummer &lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; on Glover’s recommendation.&lt;/p&gt;\n\n&lt;p&gt;Judas Priest recorded their fourth album &lt;a href="https://genius.com/albums/Judas-priest/Stained-class" rel="noopener" data-api_path="/albums/118087"&gt;&lt;em&gt;Stained Class&lt;/em&gt;&lt;/a&gt;, in 1978. This is the first album to feature the band’s now-classic logo, replacing the Gothic Script logo which appeared on the band’s previous albums. Later that year, the band released their fifth studio album &lt;a href="https://genius.com/albums/Judas-priest/Killing-machine" rel="noopener" data-api_path="/albums/118085"&gt;&lt;em&gt;Killing Machine&lt;/em&gt;&lt;/a&gt;. It was retitled &lt;em&gt;Hell Bent for Leather&lt;/em&gt; for its United States release in early 1979. The album pushed Judas Priest towards a more commercial sound. At about the same time, Judas Priest adopted their leather-and-studs image, inspired by &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt;’s interest in leather culture. In 1979, the band released their first live album &lt;a href="https://genius.com/albums/Judas-priest/Unleashed-in-the-east" rel="noopener" data-api_path="/albums/599675"&gt;&lt;em&gt;Unleashed in the East&lt;/em&gt;&lt;/a&gt;. It became the band’s best-selling album up to that point. In late 1979, drummer &lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; left the band and was replaced by &lt;a href="https://genius.com/artists/Dave-holland" rel="noopener" data-api_path="/artists/643497"&gt;Dave Holland&lt;/a&gt; of &lt;a href="https://genius.com/artists/Trapeze" rel="noopener" data-api_path="/artists/365802"&gt;Trapeze&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1980, Judas Priest released their sixth studio album, &lt;a href="https://genius.com/albums/Judas-priest/British-steel" rel="noopener" data-api_path="/albums/107404"&gt;&lt;em&gt;British Steel&lt;/em&gt;&lt;/a&gt;. The band reprised the commercial sound they had established on &lt;em&gt;Killing Machine&lt;/em&gt;. The songs on &lt;em&gt;British Steel&lt;/em&gt; had more mainstream radio hooks but retained the heavy metal feel. Following the commercial success of &lt;em&gt;British Steel&lt;/em&gt;, the band pursued a more radio-friendly direction on their seventh album, 1981’s &lt;a href="https://genius.com/albums/Judas-priest/Point-of-entry" rel="noopener" data-api_path="/albums/118215"&gt;&lt;em&gt;Point of Entry&lt;/em&gt;&lt;/a&gt;. In 1982, Judas Priest released their eighth album, &lt;a href="https://genius.com/albums/Judas-priest/Screaming-for-vengeance" rel="noopener" data-api_path="/albums/14799"&gt;&lt;em&gt;Screaming for Vengeance&lt;/em&gt;&lt;/a&gt;, which is considered the band’s commercial breakthrough. The album featured the song &lt;a href="https://genius.com/Judas-priest-youve-got-another-thing-comin-lyrics" rel="noopener" data-api_path="/songs/151447"&gt;“You’ve Got Another Thing Comin\'”&lt;/a&gt; which became a major radio hit and one of the band’s signature songs. Judas Priest continued their success through the eighties with their ninth album, 1984’s &lt;a href="https://genius.com/albums/Judas-priest/Defenders-of-the-faith" rel="noopener" data-api_path="/albums/106460"&gt;&lt;em&gt;Defenders of the Faith&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band released their tenth album, &lt;a href="https://genius.com/albums/Judas-priest/Turbo" rel="noopener" data-api_path="/albums/109849"&gt;&lt;em&gt;Turbo&lt;/em&gt;&lt;/a&gt;, in 1986. Judas Priest initially recorded a double album, but the idea was scrapped. The band used synthesizers for the first time in &lt;em&gt;Turbo&lt;/em&gt;, giving their music a more mainstream feel. The band’s second live album &lt;a href="https://genius.com/albums/Judas-priest/Priest-live" rel="noopener" data-api_path="/albums/599900"&gt;&lt;em&gt;Priest…Live!&lt;/em&gt;&lt;/a&gt; was released in 1987. &lt;a href="https://genius.com/albums/Judas-priest/Ram-it-down" rel="noopener" data-api_path="/albums/118220"&gt;&lt;em&gt;Ram It Down&lt;/em&gt;&lt;/a&gt; was released the following year. Returning to a raw metal sound, it featured reworked songs left over from the previous record. &lt;em&gt;Ram It Down&lt;/em&gt; was the last album to feature drummer &lt;a href="https://genius.com/artists/Dave-holland" rel="noopener" data-api_path="/artists/643497"&gt;Dave Holland&lt;/a&gt;, who was replaced by &lt;a href="https://genius.com/artists/Scott-travis" rel="noopener" data-api_path="/artists/1061401"&gt;Scott Travis&lt;/a&gt;. In 1990, Judas Priest released &lt;a href="https://genius.com/albums/Judas-priest/Painkiller" rel="noopener" data-api_path="/albums/89789"&gt;&lt;em&gt;Painkiller&lt;/em&gt;&lt;/a&gt;. The album is notable for its fast tempo, heavy use of double pedals, and high-pitched vocals. The title track has remained one of the band’s signature songs. In the early 1990s, &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; began his thrash metal band, &lt;a href="https://genius.com/artists/Fight" rel="noopener" data-api_path="/artists/357669"&gt;Fight&lt;/a&gt;, and soon left Judas Priest.&lt;/p&gt;\n\n&lt;p&gt;Following a solo album by &lt;a href="https://genius.com/artists/Glenn-tipton" rel="noopener" data-api_path="/artists/344759"&gt;Glenn Tipton&lt;/a&gt;, the band hired &lt;a href="https://genius.com/artists/Tim-ripper-owens" rel="noopener" data-api_path="/artists/374763"&gt;Tim “Ripper” Owens&lt;/a&gt; as the new singer in 1996. Ripper was previously a member of Winter’s Bane and a Judas Priest tribute band. In the Ripper era, the band released &lt;a href="https://genius.com/albums/Judas-priest/Jugulator" rel="noopener" data-api_path="/albums/118224"&gt;&lt;em&gt;Jugulator&lt;/em&gt;&lt;/a&gt; in 1997 and &lt;a href="https://genius.com/albums/Judas-priest/Demolition" rel="noopener" data-api_path="/albums/118267"&gt;&lt;em&gt;Demolition&lt;/em&gt;&lt;/a&gt; in 2001. The new lineup also released live albums &lt;em&gt;‘98 Live Meltdown&lt;/em&gt; in 1998 and &lt;em&gt;Live in London&lt;/em&gt; in 2003. After eleven years apart, Judas Priest and &lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; announced they would reunite in July 2003.&lt;/p&gt;\n\n&lt;p&gt;In 2005, Judas Priest released their fifteenth studio album &lt;a href="https://genius.com/albums/Judas-priest/Angel-of-retribution" rel="noopener" data-api_path="/albums/118273"&gt;&lt;em&gt;Angel of Retribution&lt;/em&gt;&lt;/a&gt;. Three years later, the band released a concept album called &lt;a href="https://genius.com/albums/Judas-priest/Nostradamus" rel="noopener" data-api_path="/albums/179451"&gt;&lt;em&gt;Nostradamus&lt;/em&gt;&lt;/a&gt;. In 2009, Judas Priest released another live album featuring 11 previously unreleased live tracks from the 2005 and 2008 world tours, &lt;a href="https://genius.com/albums/Judas-priest/A-touch-of-evil-live" rel="noopener" data-api_path="/albums/600874"&gt;&lt;em&gt;A Touch of Evil: Live&lt;/em&gt;&lt;/a&gt;. The live performance of &lt;a href="https://genius.com/Judas-priest-dissident-aggressor-lyrics" rel="noopener" data-api_path="/songs/341604"&gt;“Dissident Aggressor”&lt;/a&gt; won the &lt;a href="https://www.blabbermouth.net/news/judas-priest-wins-grammy-for-best-metal-performance-video-available/" rel="noopener nofollow"&gt;2010 Grammy Award for Best Metal Performance&lt;/a&gt;. Before the &lt;a href="https://en.wikipedia.org/wiki/Epitaph_World_Tour" rel="noopener nofollow"&gt;Epitaph World Tour&lt;/a&gt; began, &lt;a href="https://genius.com/artists/Kk-downing" rel="noopener" data-api_path="/artists/454885"&gt;K.K. Downing&lt;/a&gt; left the band over differences with the other members and their management. Downing’s retirement left bassist &lt;a href="https://genius.com/artists/Ian-hill" rel="noopener" data-api_path="/artists/989418"&gt;Ian Hill&lt;/a&gt; as the only remaining founder member of the band. &lt;a href="https://genius.com/artists/Richie-faulkner" rel="noopener" data-api_path="/artists/580538"&gt;Richie Faulkner&lt;/a&gt; was announced as Downing’s replacement for the Epitaph World Tour. Judas Priest has released 2014’s &lt;a href="https://genius.com/albums/Judas-priest/Redeemer-of-souls" rel="noopener" data-api_path="/albums/114885"&gt;&lt;em&gt;Redeemer of Souls&lt;/em&gt;&lt;/a&gt; and 2018’s &lt;a href="https://genius.com/albums/Judas-priest/Firepower" rel="noopener" data-api_path="/albums/383803"&gt;&lt;em&gt;Firepower&lt;/em&gt;&lt;/a&gt; with the new lineup.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Ian-hill" rel="noopener" data-api_path="/artists/989418"&gt;Ian Hill&lt;/a&gt; – bass (1970–1992, 1996–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rob-halford" rel="noopener" data-api_path="/artists/162143"&gt;Rob Halford&lt;/a&gt; – vocals (1973–1992, 2003–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Glenn-tipton" rel="noopener" data-api_path="/artists/344759"&gt;Glenn Tipton&lt;/a&gt; – guitars, keyboards (1974–1992, 1996–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scott-travis" rel="noopener" data-api_path="/artists/1061401"&gt;Scott Travis&lt;/a&gt; – drums (1989–1992, 1996-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Richie-faulkner" rel="noopener" data-api_path="/artists/580538"&gt;Richie Faulkner&lt;/a&gt; – guitars (2011-present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Kk-downing" rel="noopener" data-api_path="/artists/454885"&gt;K.K. Downing&lt;/a&gt; – guitars (1970–1992, 1996–2011)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Al-atkins" rel="noopener" data-api_path="/artists/348935"&gt;Al Atkins&lt;/a&gt; – vocals (1970–1973)&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-ellis-drummer" rel="noopener"&gt;John Ellis&lt;/a&gt; – drums (1970-1971)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Alan-skip-moore" rel="noopener" data-api_path="/artists/1061405"&gt;Alan “Skip” Moore&lt;/a&gt; – drums (1971, 1975–1976)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Chris-campbell" rel="noopener" data-api_path="/artists/1249723"&gt;Chris Campbell&lt;/a&gt; – drums (1971–1973)&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-hinch" rel="noopener" data-api_path="/artists/1061410"&gt;John Hinch&lt;/a&gt; – drums (1973–1975)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Les-binks" rel="noopener" data-api_path="/artists/1425882"&gt;Les Binks&lt;/a&gt; – drums (1977–1979)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-holland" rel="noopener" data-api_path="/artists/643497"&gt;Dave Holland&lt;/a&gt; – drums (1979–1989)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Tim-ripper-owens" rel="noopener" data-api_path="/artists/374763"&gt;Tim “Ripper” Owens&lt;/a&gt; – vocals (1996–2003)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Charlie-puth', 'annotations': {'description': '&lt;p&gt;Charlie Puth is an American singer-songwriter who started by making and covering songs on &lt;a href="https://www.youtube.com/user/CharliesVlogs" rel="noopener nofollow"&gt;his YouTube channel.&lt;/a&gt; His big break came when he was featured on the &lt;em&gt;Furious 7&lt;/em&gt; song &lt;a href="https://genius.com/Wiz-khalifa-see-you-again" rel="noopener"&gt;“See You Again,”&lt;/a&gt; which he had written for a friend who passed away in a similar accident. The song reached #1 on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100 and stayed there for twelve weeks, becoming the longest-running rap number one along with Eminem’s &lt;a href="https://genius.com/Eminem-lose-yourself-lyrics" rel="noopener" data-api_path="/songs/207"&gt;“Lose Yourself.”&lt;/a&gt; The song’s iconic music video was also the most viewed video on all of YouTube for a short amount of time when it passed PSY’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt; in July 2017.&lt;/p&gt;\n\n&lt;p&gt;His first project, &lt;a href="https://genius.com/albums/Charlie-puth/The-otto-tunes" rel="noopener" data-api_path="/albums/333753"&gt;&lt;em&gt;The Otto Tunes,&lt;/em&gt;&lt;/a&gt; was released in 2010, with the title being a play on his middle name, Otto, and autotune. His second release, &lt;a href="https://genius.com/albums/charlie-puth/ego" rel="noopener" data-api_path="/albums/245154"&gt;&lt;em&gt;Ego,&lt;/em&gt;&lt;/a&gt; was also self-produced and dropped in October 2013.&lt;/p&gt;\n\n&lt;p&gt;His major-label debut &lt;a href="https://genius.com/albums/Charlie-puth/Nine-track-mind" rel="noopener" data-api_path="/albums/129375"&gt;&lt;em&gt;Nine Track Mind&lt;/em&gt;&lt;/a&gt; was released January 29, 2016, and lead single &lt;a href="https://genius.com/Charlie-puth-marvin-gaye-lyrics" rel="noopener" data-api_path="/songs/706298"&gt;“Marvin Gaye”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor&lt;/a&gt; topped the charts in the UK and reached the top twenty-five in the US, peaking at #21. His next single &lt;a href="https://genius.com/Charlie-puth-one-call-away-lyrics" rel="noopener" data-api_path="/songs/2276633"&gt;“One Call Away”&lt;/a&gt; fared even better, hitting #12 in the US and establishing Puth as a full-blown star as opposed to a two-hit wonder. A deluxe edition of the record was released in November 2016.&lt;/p&gt;\n\n&lt;p&gt;The next year saw the release of &lt;a href="https://genius.com/Charlie-puth-attention-lyrics" rel="noopener" data-api_path="/songs/3060662"&gt;“Attention”&lt;/a&gt; and eventually &lt;a href="https://genius.com/albums/Charlie-puth/Voicenotes" rel="noopener" data-api_path="/albums/367901"&gt;&lt;em&gt;Voicenotes,&lt;/em&gt;&lt;/a&gt; Charlie’s second studio album.&lt;/p&gt;\n\n&lt;p&gt;Puth has what is known as &lt;a href="https://www.earmaster.com/wiki/ear-training/perfect-pitch-relative-pitch.html" rel="noopener nofollow"&gt;perfect pitch,&lt;/a&gt; the ability to identify a note by ear. This talent allowed him to &lt;a href="http://www.independent.co.uk/arts-entertainment/music/charlie-puth-interview-being-bullied-for-pitch-perfect-talent-and-selena-gomezs-advice-on-dealing-a6841501.html" rel="noopener nofollow"&gt;step in for a church organist&lt;/a&gt; and played all of the songs that were part of the service from memory.&lt;/p&gt;', 'alternate_names': ['Charlie Otto Puth', 'Charles Otto Puth Jr.']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Powfu-and-beabadoobee', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bryan-adams', 'annotations': {'description': '&lt;p&gt;Bryan Adams is a Canadian singer/songwriter and record producer.&lt;/p&gt;\n\n&lt;p&gt;He has gathered 15 &lt;a href="https://www.grammy.com/" rel="noopener nofollow"&gt;Grammy Award&lt;/a&gt; nominations, including a win for Best Song Written for a Motion Picture or Television in 1992. Additionally, Adams is known for his work on the soundtrack to the 2002 animated film, &lt;a href="https://genius.com/albums/Bryan-adams/Spirit-stallion-of-the-cimarron-soundtrack" rel="noopener" data-api_path="/albums/151695"&gt;&lt;em&gt;Spirit: Stallion of the Cimarron&lt;/em&gt;&lt;/a&gt;. He has also, along with his longtime collaborator Jim Vallance, written the music and lyrics to the Broadway show &lt;a href="https://genius.com/albums/Original-broadway-cast-of-pretty-woman/Pretty-woman-the-musical-original-broadway-cast-recording" rel="noopener" data-api_path="/albums/463468"&gt;&lt;em&gt;Pretty Woman: The Musical&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Adams\' Billboard Hot 100 number-one singles include &lt;a href="https://genius.com/Bryan-adams-heaven-lyrics" rel="noopener" data-api_path="/songs/755371"&gt;Heaven&lt;/a&gt;, &lt;a href="https://genius.com/Bryan-adams-all-for-love-lyrics" rel="noopener" data-api_path="/songs/752795"&gt;All for Love&lt;/a&gt; and &lt;a href="https://genius.com/Bryan-adams-have-you-ever-really-loved-a-woman-lyrics" rel="noopener" data-api_path="/songs/755485"&gt;Have You Ever Really Loved a Woman&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Adams currently resides in Chelsea, London with his wife, Alicia Grimaldi, and their daughters, Mirabella and Lula.&lt;/p&gt;', 'alternate_names': ['Bryan G. Adams', 'Bryan Guy Adams']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billy-talent', 'annotations': {'description': '&lt;p&gt;Billy Talent is a Canadian punk rock band from Mississauga, Ontario. They formed in 1993, under the name Pezz, with &lt;a href="https://genius.com/artists/Benjamin-kowalewicz" rel="noopener" data-api_path="/artists/1086993"&gt;Benjamin Kowalewicz&lt;/a&gt; as the lead vocalist, &lt;a href="https://genius.com/artists/Ian-dsa" rel="noopener" data-api_path="/artists/160987"&gt;Ian D\'Sa&lt;/a&gt; on guitar, bassist Jon Gallant and drummer Aaron Solowoniuk. After changing their name to Billy Talent in 2001, they achieved mainstream success with their &lt;a href="https://genius.com/albums/Billy-talent/Billy-talent" rel="noopener" data-api_path="/albums/15576"&gt;first self-titled studio album&lt;/a&gt;, and have released 5 albums to date.&lt;/p&gt;\n\n&lt;p&gt;The band members met at the &lt;a href="https://en.wikipedia.org/w/index.php?title=Our_Lady_of_Mount_Carmel_Secondary_School" rel="noopener nofollow"&gt;Our Lady of Mount Carmel Secondary School&lt;/a&gt;, which they all attended, and the lineup has stayed the same ever since, though drummer Aaron Solowoniuk could not take part in the recording of the &lt;em&gt;&lt;a href="https://genius.com/albums/Billy-talent/Afraid-of-heights" rel="noopener" data-api_path="/albums/154750"&gt;Afraid of Heights&lt;/a&gt;&lt;/em&gt; album due to &lt;a href="http://www.cbc.ca/news/entertainment/billy-talent-aaron-solowoniuk-1.3405698" rel="noopener nofollow"&gt;complications from the multiple sclerosis&lt;/a&gt; he was diagnosed with in his mid-20s, being thus replaced by friend and fellow drummer &lt;a href="https://genius.com/artists/Jordan-hastings" rel="noopener" data-api_path="/artists/31259"&gt;Jordan Hastings&lt;/a&gt; from &lt;a href="https://genius.com/artists/Alexisonfire" rel="noopener" data-api_path="/artists/31263"&gt;Alexisonfire&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Pezz']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mod-sun', 'annotations': {'description': '&lt;p&gt;Derek Smith, known professionally as MOD SUN (an acronym standing for “Movement On Dreams, Stand Under None”), is an American rapper, producer, author, rock musician and poet from Bloomington, Minnesota.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Camouflage', 'annotations': {'description': '&lt;p&gt;Camouflage is a German synth-pop trio consisting of lead singer Marcus Meyn, Heiko Maile and Oliver Kreyssig.&lt;br&gt;\nTheir only Billboard Hot 100 hit was “The Great Commandment”, which earned No. 59 place in 1988, and earned three weeks at No. 1 on the US dance chart. They also had two additional minor dance hits in 1989 out which “Love Is A Shield reached No. 9 on the German chart. They were included in the music compilation listing ‘Tucker Rock’ in December of 2018. This honor was validated by the band’s listing on the Pandora Station by the same name.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jennifer-lopez', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jennifer Lynn Lopez&lt;/strong&gt; (born July 24, 1969), also known as J.Lo, is an American singer, actress, dancer, fashion designer, author, and producer.&lt;/p&gt;\n\n&lt;p&gt;Lopez gained her first high-profile job as a Fly Girl dancer on &lt;em&gt;In Living Color&lt;/em&gt; in 1991, where she remained a regular until she decided to pursue an acting career in 1993.&lt;/p&gt;\n\n&lt;p&gt;She ventured into the music industry in 1999 with her debut studio album &lt;em&gt;On the 6&lt;/em&gt;, preceded by the No. 1 single “If You Had My Love.”&lt;/p&gt;\n\n&lt;p&gt;With the simultaneous release of her second studio album &lt;em&gt;J.Lo&lt;/em&gt; and her romantic comedy The Wedding Planner in 2001, Lopez became the first woman to have a number one album and film in the same week. Her 2002 remix album, J to tha L–O! The Remixes, became the first in history to debut at number one on the U.S. Billboard 200. Later that year, she released her third studio album This Is Me… Her fifth studio album, Como Ama una Mujer (2007), received the highest first-week sales for a debut Spanish album in the United States. Following an unsuccessful period, she returned to prominence in 2011 with her appearance as a judge on American Idol, and released her seventh studio album Love?. Since 2017, Lopez has produced and served as a judge on World of Dance.&lt;/p&gt;\n\n&lt;p&gt;With a cumulative film gross of US$3 billion and estimated global sales of 80 million records, Lopez is regarded as the most influential Latin performer in the United States. In 2012, Forbes ranked her as the most powerful celebrity in the world, as well as the 38th most powerful woman in the world. Time listed her among the 100 most influential people in the world in 2018. Her most successful singles on the US Billboard Hot 100 include: “If You Had My Love”, “Love Don’t Cost a Thing”, “I’m Real”, “Ain’t It Funny”, “Jenny from the Block”, “All I Have”, and “On the Floor”, which is one of the best-selling singles of all time.&lt;/p&gt;', 'alternate_names': ['Jennifer L. Lopez', 'Jennifer Lynn Lopez', 'JLo']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Yes', 'annotations': {'description': '&lt;p&gt;Yes are an English rock band formed in 1968 by bassist Chris Squire and singer Jon Anderson.&lt;/p&gt;\n\n&lt;p&gt;The band first achieved success in the 1970s with a progressive, art and symphonic style of rock music. They are distinguished by their use of mystical and cosmic lyrics, live stage sets, and lengthy compositions, often with complex instrumental and vocal arrangements. Nine of their twenty studio albums have reached the top ten in either the UK or US, with two reaching number one in the UK. They have sold 13.5 million certified units in the US.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/d341fc4735bb33dac07520bca1a5f0c0.640x480x36.gif" alt="" width="640" height="480" data-animated="true"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Eagle-eye-cherry', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Eagle-Eye Lanoo Cherry']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Conan-gray', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Conan Gray&lt;/strong&gt; is an Japanese-American musician and YouTuber born in San Diego, California on December 5th, 1998. At one and a half years old, Conan and his family moved to Hiroshima, Japan to care for his grandfather who was diagnosed with cancer. Shortly after the passing, Conan and his family moved back to California. To add on to the misfortune, his parents later divorced.&lt;/p&gt;\n\n&lt;p&gt;In sixth grade, he and his mother’s family moved to Texas. There, on January 20th, 2013 he started what was then called ConanxCanon.&lt;/p&gt;\n\n&lt;p&gt;His first cover on YouTube “To Make You Feel My Love” was posted nearly two years later on November 20th, 2014.&lt;/p&gt;\n\n&lt;p&gt;A lot of his music is written about situations he has gone through or that people close to him have gone through, which translates to a lot of his tunes being on a rather sad note.&lt;/p&gt;\n\n&lt;p&gt;He previously attended UCLA and he has a YouTube channel where he makes videos about his art portfolios, high school/college advice, Babble &amp;amp; Bake, Art-Tea, music covers, original songs, music videos, thrift store clothing hauls, and much more.&lt;/p&gt;\n\n&lt;p&gt;His debut EP, &lt;a href="https://genius.com/albums/Conan-gray/Sunset-season" rel="noopener" data-api_path="/albums/466832"&gt;&lt;em&gt;Sunset Season&lt;/em&gt;&lt;/a&gt; was released on November 16, 2018, under Republic Records.  &lt;em&gt;Sunset Season&lt;/em&gt; features the previously released singles &lt;a href="https://genius.com/Conan-gray-idle-town-lyrics" rel="noopener" data-api_path="/songs/3029232"&gt;“Idle Town,”&lt;/a&gt; &lt;a href="https://genius.com/Conan-gray-generation-why-lyrics" rel="noopener" data-api_path="/songs/3990960"&gt;“Generation Why,”&lt;/a&gt; and &lt;a href="https://genius.com/Conan-gray-crush-culture-lyrics" rel="noopener" data-api_path="/songs/4041711"&gt;“Crush Culture,”&lt;/a&gt;; as well as two other songs – &lt;a href="https://genius.com/Conan-gray-greek-god-lyrics" rel="noopener" data-api_path="/songs/4053187"&gt;“Greek God”&lt;/a&gt; and &lt;a href="https://genius.com/Conan-gray-lookalike-lyrics" rel="noopener" data-api_path="/songs/4053246"&gt;“Lookalike”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Conan’s debut album, &lt;a href="https://genius.com/albums/Conan-gray/Kid-krow" rel="noopener" data-api_path="/albums/520980"&gt;&lt;em&gt;Kid Krow&lt;/em&gt;&lt;/a&gt;, was released on March 20, 2020.  It included the singles &lt;a href="https://genius.com/Conan-gray-checkmate-lyrics" rel="noopener" data-api_path="/songs/4652035"&gt;“Checkmate”&lt;/a&gt;, &lt;a href="https://genius.com/Conan-gray-comfort-crowd-lyrics" rel="noopener" data-api_path="/songs/4385028"&gt;“Comfort Crowd”&lt;/a&gt;, &lt;a href="https://genius.com/Conan-gray-maniac-lyrics" rel="noopener" data-api_path="/songs/4958474"&gt;“Maniac”&lt;/a&gt;, &lt;a href="https://genius.com/Conan-gray-the-story-lyrics" rel="noopener" data-api_path="/songs/4982433"&gt;“The Story”&lt;/a&gt;,&lt;a href="https://genius.com/Conan-gray-wish-you-were-sober-lyrics" rel="noopener" data-api_path="/songs/5160922"&gt;“Wish You Were Sober”&lt;/a&gt; as well as 5 other songs and 2 interludes.  About the interludes, Conan said&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Both of the interludes I wrote just for the fans, for the people who listen to the album from top to bottom. It was another way of talking to the listener and being like, ‘Hey, thank you for listening to my album. This is everything you ever need to know about me. These are all of my deepest, darkest secrets.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bryson-tiller', 'annotations': {'description': '&lt;p&gt;Bryson Tiller is an American singer-songwriter from Louisville, Kentucky.&lt;/p&gt;\n\n&lt;p&gt;Bryson’s success didn’t happen overnight. Bryson released &lt;a href="https://genius.com/albums/Bryson-tiller/Killer-instinct" rel="noopener" data-api_path="/albums/141252"&gt;&lt;em&gt;Killer Instinct&lt;/em&gt;&lt;/a&gt; back in 2011. At the same time, he worked two jobs whilst also dealing with relationship issues. At one point, Bryson even considered applying for a third job to provide for his newborn daughter, Harley, who is featured in the &lt;a href="https://genius.com/albums/Bryson-tiller/True-to-self" rel="noopener" data-api_path="/albums/326050"&gt;&lt;em&gt;True To Self&lt;/em&gt;&lt;/a&gt; cover art.&lt;/p&gt;\n\n&lt;p&gt;Bryson’s life changed forever with the release of his breakout single &lt;a href="https://genius.com/Bryson-tiller-dont-lyrics" rel="noopener" data-api_path="/songs/579968"&gt;“Don’t,”&lt;/a&gt; which he dropped on SoundCloud in 2014 and has since been streamed over 35 million times. With the release of this track, Tiller began receiving attention from music industry insiders, receiving early co-signs from super-producer &lt;a href="https://genius.com/artists/Timbaland" rel="noopener" data-api_path="/artists/112"&gt;Timbaland&lt;/a&gt; and rapper &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt;. This led to multiple major label deals for Bryson, one of those being an &lt;a href="https://genius.com/artists/Ovo-sound" rel="noopener" data-api_path="/artists/1247315"&gt;OVO&lt;/a&gt; contract from Drizzy, but Bryson surprisingly declined the offer. Later, Bryson chose to sign a creative partnership with RCA Records on August 25, 2015.&lt;/p&gt;\n\n&lt;p&gt;Since the release of “Don’t,” Bryson has dropped three albums: his debut studio album, &lt;a href="https://genius.com/albums/Bryson-tiller/T-r-a-p-s-o-u-l" rel="noopener" data-api_path="/albums/129455"&gt;&lt;em&gt;T R A P S O U L&lt;/em&gt;&lt;/a&gt;, in 2015, &lt;em&gt;True To Self&lt;/em&gt; in 2017, and &lt;a href="https://genius.com/albums/Bryson-tiller/A-n-n-i-v-e-r-s-a-r-y" rel="noopener" data-api_path="/albums/433638"&gt;&lt;em&gt;A N N I V E R S A R Y&lt;/em&gt;&lt;/a&gt; in 2020, precisely five years after the release of his debut album.&lt;/p&gt;', 'alternate_names': ['Pen Griffey', 'Gawdtilla', 'Young Tiller', 'Bryson D. Tiller', 'Bryson Djuan Tiller', 'Bryson Dujuan Tiller']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joe-cocker', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Justin-bieber', 'annotations': {'description': '&lt;p&gt;Justin Bieber (born March 1, 1994) is a pop, R&amp;amp;B musician and recording artist, singer-songwriter and part-time actor. Since bursting onto the scene in 2008 (after being discovered on YouTube) he has taken the world by storm and divided opinion; selling 15 million albums worldwide, making two concert documentaries, winning numerous awards, amassing 100 million Twitter followers, and being the most Googled person on Earth more than once.&lt;/p&gt;\n\n&lt;p&gt;On November 17, 2009, shortly after being discovered by &lt;a href="https://genius.com/artists/Usher" rel="noopener" data-api_path="/artists/132"&gt;Usher&lt;/a&gt;, Bieber released his first EP, &lt;a href="https://genius.com/albums/Justin-bieber/My-world" rel="noopener" data-api_path="/albums/10847"&gt;&lt;em&gt;My World&lt;/em&gt;&lt;/a&gt;. The project featured his first hit &lt;a href="https://genius.com/Justin-bieber-one-time-lyrics" rel="noopener" data-api_path="/songs/80308"&gt;“One Time.”&lt;/a&gt; Bieber followed with his first album, &lt;a href="https://genius.com/albums/Justin-bieber/My-world-2-0" rel="noopener" data-api_path="/albums/6037"&gt;&lt;em&gt;My World 2.0&lt;/em&gt;&lt;/a&gt;, on March 19, 2010. The album contained the hit &lt;a href="https://genius.com/Justin-bieber-baby-lyrics" rel="noopener" data-api_path="/songs/566"&gt;“Baby,”&lt;/a&gt; which was famously &lt;a href="https://www.youtube.com/watch?v=kffacxfA7G4" rel="noopener nofollow"&gt;the most disliked video&lt;/a&gt; on YouTube until December 2017.&lt;/p&gt;\n\n&lt;p&gt;Before finishing his third studio album, Justin released &lt;a href="https://genius.com/albums/Justin-bieber/Under-the-mistletoe" rel="noopener" data-api_path="/albums/15289"&gt;a Christmas album&lt;/a&gt; on November 1, 2011.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Justin-bieber/Believe" rel="noopener" data-api_path="/albums/17970"&gt;&lt;em&gt;Believe&lt;/em&gt;&lt;/a&gt; was released on June 15, 2012, and featured elements of dance and R&amp;amp;B music, unlike the teen-pop styles found in his previous works. The album included the international hits &lt;a href="https://genius.com/Justin-bieber-boyfriend-lyrics" rel="noopener" data-api_path="/songs/68966"&gt;“Boyfriend,”&lt;/a&gt; &lt;a href="https://genius.com/Justin-bieber-as-long-as-you-love-me-lyrics" rel="noopener" data-api_path="/songs/77547"&gt;“As Long as You Love Me.”&lt;/a&gt;, and &lt;a href="https://genius.com/Justin-bieber-beauty-and-a-beat-lyrics" rel="noopener" data-api_path="/songs/77735"&gt;“Beauty and a Beat.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After his third album, and before his fourth, Bieber released the compilation album &lt;a href="https://genius.com/albums/Justin-bieber/Journals*" rel="noopener"&gt;&lt;em&gt;Journals&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His fourth full album &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt; was released on November 13, 2015, with the lead single &lt;a href="https://genius.com/Justin-bieber-what-do-you-mean-lyrics" rel="noopener" data-api_path="/songs/2286779"&gt;“What Do You Mean”&lt;/a&gt; becoming his first number one hit on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100. He later followed it up with two more number ones, &lt;a href="https://genius.com/Justin-bieber-sorry-lyrics" rel="noopener" data-api_path="/songs/2323822"&gt;“Sorry”&lt;/a&gt; and &lt;a href="https://genius.com/Justin-bieber-love-yourself-lyrics" rel="noopener" data-api_path="/songs/2342329"&gt;“Love Yourself,”&lt;/a&gt; which cemented his success in the adult pop world.&lt;/p&gt;\n\n&lt;p&gt;“Love Yourself” managed to set a record for most weeks in the top ten after debuting in the top ten, breaking out of a multiple-way tie that included the likes of &lt;a href="https://genius.com/Nicki-minaj-starships-lyrics" rel="noopener" data-api_path="/songs/65701"&gt;“Starships”&lt;/a&gt; by Nicki Minaj and his own “What Do You Mean” and “Sorry.”&lt;/p&gt;\n\n&lt;p&gt;On February 14, 2020, Bieber released &lt;a href="https://genius.com/albums/Justin-bieber/Changes" rel="noopener" data-api_path="/albums/583715"&gt;&lt;em&gt;Changes&lt;/em&gt;&lt;/a&gt;, his first project since 2015.&lt;/p&gt;\n\n&lt;p&gt;He was notably in a relationship with &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; between 2010 and 2013.  Since 2013, Justin Bieber and Selena Gomez dated on and off, before breaking up in March 2018. In July 2018, Bieber became engaged and later married to model Hailey Baldwin.&lt;/p&gt;\n\n&lt;p&gt;On March 19, 2021, Justin released his sixth studio album &lt;a href="https://genius.com/albums/Justin-bieber/Justice" rel="noopener" data-api_path="/albums/602825"&gt;&lt;em&gt;Justice&lt;/em&gt;&lt;/a&gt;, a week later Justin released a &lt;a href="https://genius.com/albums/Justin-bieber/Justice-triple-chucks-deluxe" rel="noopener" data-api_path="/albums/749179"&gt;&lt;em&gt;Triple Chucks Deluxe Edition&lt;/em&gt;&lt;/a&gt; of &lt;em&gt;Justice&lt;/em&gt; on March 26, 2021, a week and two days later on Easter Sunday, April 4, 2021, Justin Bieber surprise dropped a Gospel EP titled &lt;a href="https://genius.com/albums/Justin-bieber/Freedom-ep" rel="noopener" data-api_path="/albums/756081"&gt;&lt;em&gt;Freedom. – EP&lt;/em&gt;&lt;/a&gt;. He released the &lt;a href="https://genius.com/albums/Justin-bieber/Justice-complete-edition" rel="noopener" data-api_path="/albums/823433"&gt;complete edition of &lt;em&gt;Justice&lt;/em&gt;&lt;/a&gt; on October 8, 2021, containing three previously unreleased tracks: “&lt;a href="https://genius.com/Justin-bieber-red-eye-lyrics" rel="noopener" data-api_path="/songs/5262375"&gt;Red Eye&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Troyboi" rel="noopener" data-api_path="/artists/400356"&gt;TroyBoi&lt;/a&gt;, “&lt;a href="https://genius.com/Justin-bieber-angels-speak-lyrics" rel="noopener" data-api_path="/songs/5234705"&gt;Angels Speak&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Poo-bear" rel="noopener" data-api_path="/artists/5763"&gt;Poo Bear&lt;/a&gt;, and “&lt;a href="https://genius.com/Justin-bieber-hailey-lyrics" rel="noopener" data-api_path="/songs/6586464"&gt;Hailey&lt;/a&gt;.”&lt;/p&gt;', 'alternate_names': ['Justin Drew Bieber']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Wild-cherry', 'annotations': {'description': '&lt;p&gt;Wild Cherry was an American funk rock band best known for their song “Play That Funky Music”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dead-or-alive', 'annotations': {'description': '&lt;p&gt;Dead or Alive are a British dance-pop band, best known for their 1980s hits &lt;a href="https://genius.com/Dead-or-alive-you-spin-me-round-like-a-record-lyrics" rel="noopener" data-api_path="/songs/787799"&gt;You Spin Me Round (Like A Record)&lt;/a&gt; and &lt;a href="https://genius.com/Lou-ann-barton-brand-new-lover-lyrics" rel="noopener" data-api_path="/songs/817942"&gt;Brand New Lover&lt;/a&gt;, both produced by Stock Aitken Waterman.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bruce-springsteen', 'annotations': {'description': '&lt;p&gt;Bruce Springsteen is a rock ‘n’ roll icon from the great state of New Jersey. Nicknamed “The Boss,” he’s known for spirited sax-powered anthems about working-class people making their way in the world. Backed by the trusty E Street Band, he’s sold more than 120 million records, won numerous awards (including 20 Grammys and an Oscar), sold out stadiums around the globe, and earned a place alongside his teenage heroes in the Rock and Roll Hall of Fame.&lt;/p&gt;\n\n&lt;p&gt;Although he’s a living legend who ranks among the most important artists in rock history, Springsteen wasn’t an overnight success. Around the time of his first album, 1973’s &lt;em&gt;Greetings from Asbury Park, N.J.&lt;/em&gt;, he was dismissed as just another “new Dylan"—some scruffy folk singer with a decent vocabulary looking to follow in Bob’s footsteps. In the decade that followed, Springsteen proved himself to be much more.&lt;/p&gt;\n\n&lt;p&gt;His breakthrough came with his third album, 1975’s &lt;em&gt;Born to Run&lt;/em&gt;. The record hit No. 3 on the Billboard 200 and landed the singer-songwriter on the cover of both &lt;em&gt;Time&lt;/em&gt; and &lt;em&gt;Newsweek&lt;/em&gt;. Bruce nabbed his first chart-topping album five years later with &lt;em&gt;The River&lt;/em&gt;, and in 1984, he went global with &lt;em&gt;Born in the U.S.A.&lt;/em&gt;, a critical and commercial smash that produced seven Top 10 singles.&lt;/p&gt;\n\n&lt;p&gt;With its mix of upbeat rock ‘n’ roll and hard-hitting lyrics about unemployment, racism, and the collapse of the American dream, &lt;em&gt;Born in the U.S.A.&lt;/em&gt; captures much of what makes Springsteen such a unique artist. More than 30 years later, he remains a spokesman for baby boomers and a hero to young rock fans looking for an example of a guy who’s never sold out or phoned it in. He speaks truth to power—then jumps up on the piano and cues the sax solo.&lt;/p&gt;\n\n&lt;p&gt;To this day, the Boss gives three-hour concerts that typically end with him inviting fans onstage to groove along to “Dancing In the Dark,” one of his ‘80s favorites. Many have called on him to run for president, but don’t expect him to quit his day job.&lt;/p&gt;', 'alternate_names': ['Bruce Frederick Joseph Springsteen']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jay-z', 'annotations': {'description': '&lt;p&gt;Having sold over 100 million records worldwide, and holding the solo artist record of 14 Billboard 200 #1 albums, Shawn “&lt;strong&gt;JAY-Z&lt;/strong&gt;” Carter is possibly the most talented, accomplished and respected rapper of all-time. He has released 13 studio albums and five collaborative albums over his 30-year career.&lt;/p&gt;\n\n&lt;p&gt;Three of his albums, &lt;a href="https://genius.com/albums/Jay-z/Reasonable-doubt" rel="noopener" data-api_path="/albums/4063"&gt;&lt;em&gt;Reasonable Doubt&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Jay-z/The-blueprint" rel="noopener" data-api_path="/albums/4058"&gt;&lt;em&gt;The Blueprint&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Jay-z/The-black-album" rel="noopener" data-api_path="/albums/4097"&gt;&lt;em&gt;The Black Album&lt;/em&gt;&lt;/a&gt;, are considered landmarks in the genre, with all of them featured in &lt;em&gt;Rolling Stone&lt;/em&gt;’s list of the &lt;a href="http://www.rollingstone.com/music/lists/500-greatest-albums-of-all-time-20120531" rel="noopener nofollow"&gt;500 greatest albums of all time&lt;/a&gt;. Hov &lt;a href="https://en.wikipedia.org/wiki/List_of_awards_and_nominations_received_by_Jay-Z" rel="noopener nofollow"&gt;has won 23 Grammy Awards&lt;/a&gt; from sixty-four nominations, making him the 10th most awarded artist of all-time.&lt;/p&gt;\n\n&lt;p&gt;Legendary for never writing down his lyrics, JAY-Z’s &lt;a href="https://genius.com/1942177" rel="noopener" data-api_path="/referents/1942177"&gt;flow&lt;/a&gt; is considered one of the greatest to grace the genre, his wordplay and metaphorical ability is unmatched, and his &lt;a href="https://www.youtube.com/watch?v=bv4AF27V16I" rel="noopener nofollow"&gt;live shows&lt;/a&gt; push the envelope of what it means to be a hip hop artist. His &lt;a href="https://genius.com/albums/Jay-z/Mtv-unplugged" rel="noopener" data-api_path="/albums/4079"&gt;&lt;em&gt;MTV Unplugged&lt;/em&gt;&lt;/a&gt; appearance introduced the idea of having a full band (&lt;a href="https://genius.com/artists/The-roots" rel="noopener" data-api_path="/artists/244"&gt;The Roots&lt;/a&gt;) backing up a hip hop artist at major concerts, and during his 2004 documentary &lt;a href="http://www.imdb.com/title/tt0428518/" rel="noopener nofollow"&gt;&lt;em&gt;Fade to Black&lt;/em&gt;&lt;/a&gt; he doubled down, selling out Madison Square Garden (in mere minutes) while featuring an enormous live band performance.&lt;/p&gt;\n\n&lt;p&gt;Since slowing down his musical production, JAY has become a highly successful investor and entrepreneur. In 2016 &lt;em&gt;Forbes&lt;/em&gt; estimated his net-worth to be &lt;a href="http://www.forbes.com/sites/zackomalleygreenburg/2016/05/06/Jay-z-net-worth-610-million-in-2016/#b3f1f63665bf" rel="noopener nofollow"&gt;$610 million,&lt;/a&gt; thanks to investments in a chain of &lt;a href="http://the4040club.com/" rel="noopener nofollow"&gt;40/40 Clubs,&lt;/a&gt; champagne &lt;a href="http://www.billboard.com/articles/business/6311831/Jay-z-buys-armand-de-brignac-champagne-ace-spades-brand" rel="noopener nofollow"&gt;Armand De Brignac,&lt;/a&gt; the &lt;a href="http://www.rollingstone.com/music/news/Jay-z-selling-his-stake-in-barclays-center-20130918" rel="noopener nofollow"&gt;Barclays Center,&lt;/a&gt; the &lt;a href="http://www.forbes.com/sites/mikeozanian/2013/09/06/Jay-z-sells-piece-of-nets-for-second-highest-price-in-nba-history/" rel="noopener nofollow"&gt;Brooklyn Nets,&lt;/a&gt; and cognac &lt;a href="http://www.vibe.com/2015/10/how-Jay-z-helped-infuse-dusse-into-his-hip-hop-empire/" rel="noopener nofollow"&gt;D\'USSE,&lt;/a&gt; among &lt;a href="https://en.wikipedia.org/wiki/Jay_Z#Business_career" rel="noopener nofollow"&gt;other business and property deals.&lt;/a&gt; He also founded the sports agency &lt;em&gt;Roc Nation Sports&lt;/em&gt; and is a certified &lt;em&gt;NBA&lt;/em&gt; and &lt;em&gt;MLB&lt;/em&gt; sports agent. In 2015 he purchased and re-launched the music streaming service &lt;a href="http://listen.tidal.com/" rel="noopener nofollow"&gt;&lt;em&gt;Tidal&lt;/em&gt;&lt;/a&gt;, aiming to change the way streaming services interact with and compensate artists.&lt;/p&gt;\n\n&lt;p&gt;A &lt;em&gt;New York Times&lt;/em&gt; best-selling author, JAY-Z married legendary R&amp;amp;B singer &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt; in 2008, with whom he has had one daughter named &lt;a href="https://genius.com/Jay-z-glory-lyrics" rel="noopener" data-api_path="/songs/63171"&gt;Blue Ivy Carter&lt;/a&gt; and twins named Rumi Carter and Sir Carter.&lt;/p&gt;\n\n&lt;p&gt;Through his labels &lt;em&gt;Roc-A-Fella Records&lt;/em&gt; and &lt;em&gt;Roc Nation&lt;/em&gt;, and as the former President of &lt;em&gt;Def Jam Recordings&lt;/em&gt;, JAY has played a large role in the success of many other popular artists. &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; first gained wide recognition for his production work on &lt;a href="https://genius.com/Jay-z-the-dynasty-roc-la-familia-credits-lyrics" rel="noopener" data-api_path="/songs/201841"&gt;&lt;em&gt;The Dynasty&lt;/em&gt;&lt;/a&gt;, and JAY has been Kanye’s mentor and friend since then. Artists such as &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;, &lt;a href="https://genius.com/artists/ne-yo" rel="noopener" data-api_path="/artists/375"&gt;Ne-Yo&lt;/a&gt;, &lt;a href="https://genius.com/artists/J-cole" rel="noopener" data-api_path="/artists/69"&gt;J. Cole&lt;/a&gt;, &lt;a href="https://genius.com/artists/Just-blaze" rel="noopener" data-api_path="/artists/1954"&gt;Just Blaze&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jeezy" rel="noopener" data-api_path="/artists/67"&gt;Jeezy&lt;/a&gt;, &lt;a href="https://genius.com/artists/rick-ross%5D,%20and%20%5BJay%20Electronica%5D%28/artists/Jay-electronica" rel="noopener"&gt;Rick Ross&lt;/a&gt; also have JAY to thank in-part for their success.&lt;/p&gt;\n\n&lt;p&gt;JAY-Z has achieved pop stardom with tracks like &lt;a href="https://genius.com/Jay-z-empire-state-of-mind-lyrics" rel="noopener" data-api_path="/songs/75"&gt;“Empire State of Mind,”&lt;/a&gt; which in 2009 became his first #1 on the Billboard Hot 100. His 2013 collaboration with wife &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt;, &lt;a href="https://genius.com/Beyonce-drunk-in-love-lyrics" rel="noopener" data-api_path="/songs/299177"&gt;“Drunk In Love,”&lt;/a&gt; made it to #2 on the Billboard charts. 2004’s rap/rock crossover &lt;a href="https://genius.com/albums/Jay-z-and-linkin-park/Collision-course" rel="noopener" data-api_path="/albums/304074"&gt;&lt;em&gt;Collision Course&lt;/em&gt;&lt;/a&gt;, with &lt;a href="https://genius.com/artists/Linkin-park" rel="noopener" data-api_path="/artists/1581"&gt;Linkin Park&lt;/a&gt;, also went number one, and sold 300,000 copies in its first week.&lt;/p&gt;\n\n&lt;p&gt;Be sure to check out his &lt;a href="https://genius.com/a/jay-z-s-life-story-in-lyrics" rel="noopener" data-api_path="/articles/366"&gt;life story (in lyrics)&lt;/a&gt;, and Genius\' ranking of the &lt;a href="https://genius.com/posts/919-Bricks-to-billboard-grams-to-grammys-rap-genius-top-25-Jay-z-verses" rel="noopener"&gt;25 greatest JAY-Z verses of all time&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Shawn Corey Carter', 'Jay-Hova', 'Jiggaman', 'Young Hov', 'Shawn C. Carter', 'Hov', 'Shawn Carter', 'The Carter Administration']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cypress-hill', 'annotations': {'description': '&lt;p&gt;Cypress Hill is an West Coast – Cuban-American/Latino hip hop group originated from South Gate, California.&lt;br&gt;\nMembers of the group: &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt;, &lt;a href="https://genius.com/artists/Muggs" rel="noopener" data-api_path="/artists/5273"&gt;Muggs&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sen-dog" rel="noopener" data-api_path="/artists/5140"&gt;Sen Dog&lt;/a&gt;, &lt;a href="https://genius.com/artists/Eric-bobo" rel="noopener" data-api_path="/artists/22889"&gt;Eric Bobo&lt;/a&gt;.&lt;br&gt;\nPast member of Cypress Hill was &lt;a href="https://genius.com/artists/Mellow-man-ace" rel="noopener" data-api_path="/artists/3583"&gt;Mellow Man Ace&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Discography&lt;/h3&gt;\n\n&lt;p&gt;1991: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill" rel="noopener" data-api_path="/albums/1878"&gt;Cypress Hill&lt;/a&gt;&lt;br&gt;\n1992: &lt;a href="https://genius.com/albums/Cypress-hill/Something-for-the-blunted" rel="noopener" data-api_path="/albums/90127"&gt;Something for the Blunted&lt;/a&gt;&lt;br&gt;\n1993: &lt;a href="https://genius.com/albums/Cypress-hill/Black-sunday" rel="noopener" data-api_path="/albums/1861"&gt;Black Sunday&lt;/a&gt;&lt;br&gt;\n1995: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill-iii-temples-of-boom" rel="noopener" data-api_path="/albums/1886"&gt;Cypress Hill III: Temples of Boom&lt;/a&gt;&lt;br&gt;\n1996: &lt;a href="https://genius.com/albums/Cypress-hill/Unreleased-revamped" rel="noopener" data-api_path="/albums/1889"&gt;Unreleased &amp;amp; Revamped&lt;/a&gt;&lt;br&gt;\n1998: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill-iv" rel="noopener" data-api_path="/albums/1881"&gt;Cypress Hill IV&lt;/a&gt;&lt;br&gt;\n1999: &lt;a href="https://genius.com/albums/Cypress-hill/Los-grandes-exitos-en-espanol" rel="noopener" data-api_path="/albums/12672"&gt;Los Grandes Éxitos en Español&lt;/a&gt;&lt;br&gt;\n2000: &lt;a href="https://genius.com/albums/Cypress-hill/Skull-bones" rel="noopener" data-api_path="/albums/1862"&gt;Skull &amp;amp; Bones&lt;/a&gt;&lt;br&gt;\n2001: &lt;a href="https://genius.com/albums/Cypress-hill/Stoned-raiders" rel="noopener" data-api_path="/albums/1883"&gt;Stoned Riders&lt;/a&gt;&lt;br&gt;\n2002: Stash&lt;br&gt;\n2004: &lt;a href="https://genius.com/albums/Cypress-hill/Till-death-do-us-part" rel="noopener" data-api_path="/albums/1880"&gt;Till Death Do Us Part&lt;/a&gt;&lt;br&gt;\n2004: Smoke ‘Em If You Got \'Em&lt;br&gt;\n2010: &lt;a href="https://genius.com/albums/Cypress-hill/Rise-up" rel="noopener" data-api_path="/albums/1882"&gt;Rise Up&lt;/a&gt;&lt;br&gt;\n2012: Cypress x Rusko&lt;br&gt;\n2018: &lt;a href="https://genius.com/albums/Cypress-hill/Elephants-on-acid" rel="noopener" data-api_path="/albums/441164"&gt;Elephants On Acid&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Oasis', 'annotations': {'description': '&lt;p&gt;One of the most decorated artists of the 1990s, for the best part of two decades Oasis were an instantly recognisable part of British culture and a key cog in the all-conquering machine that was the &lt;a href="http://en.wikipedia.org/wiki/Cool_Britannia" rel="noopener nofollow"&gt;Cool Britannia&lt;/a&gt; movement.&lt;/p&gt;\n\n&lt;p&gt;The group rose to fame with the release of &lt;a href="https://genius.com/albums/oasis/definitely-maybe" rel="noopener" data-api_path="/albums/22545"&gt;&lt;em&gt;Definitely Maybe&lt;/em&gt;&lt;/a&gt; in 1994, which became an instant success, debuting at number one in the UK charts. They went on to have a much-publicised rivalry with &lt;a href="https://genius.com/artists/Blur" rel="noopener" data-api_path="/artists/723"&gt;Blur&lt;/a&gt;, and despite losing the &lt;a href="https://genius.com/Blur-country-house-lyrics" rel="noopener" data-api_path="/songs/133483"&gt;biggest singles chart battle&lt;/a&gt; in British history, they would go on to win the war, becoming global stars with &lt;a href="https://genius.com/albums/oasis/what-s-the-story-morning-glory" rel="noopener" data-api_path="/albums/17740"&gt;&lt;em&gt;(What’s the Story) Morning Glory?&lt;/em&gt;&lt;/a&gt;, which includes arguably their biggest hit, &lt;a href="https://genius.com/Oasis-wonderwall-lyrics" rel="noopener" data-api_path="/songs/76654"&gt;“Wonderwall.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The band released their third album &lt;a href="https://genius.com/albums/oasis/be-here-now" rel="noopener" data-api_path="/albums/22543"&gt;&lt;em&gt;Be Here Now&lt;/em&gt;&lt;/a&gt; in 1997, amid conflict between the Gallagher brothers. Although it went to number two in the US charts, sales were below expectations and it has since been regarded poorly. Fourth album &lt;a href="https://genius.com/albums/oasis/standing-on-the-shoulder-of-giants" rel="noopener" data-api_path="/albums/89020"&gt;&lt;em&gt;Standing on the Shoulder of Giants&lt;/em&gt;&lt;/a&gt;, released in 2000, was also received apprehensively by critics but managed to reach number one in the UK charts. It was during its recording that two members, guitarist Paul ‘Bonehead’ Arthurs and bassist Paul ‘Guigsy’ McGuigan, quit so Colin ‘Gem’ Archer and Andy Bell were brought on to replace them, respectively. &lt;a href="https://genius.com/albums/oasis/heathen-chemistry" rel="noopener" data-api_path="/albums/22542"&gt;&lt;em&gt;Heathen Chemistry&lt;/em&gt;&lt;/a&gt; was released in 2002 to similar success, and the band continued touring. In 2004, drummer Alan White left and Zac Starkey joined for sixth album &lt;a href="https://genius.com/albums/oasis/don-t-believe-the-truth" rel="noopener" data-api_path="/albums/22547"&gt;&lt;em&gt;Don’t Believe the Truth&lt;/em&gt;&lt;/a&gt;, released in 2005, but only lasted until the next album &lt;a href="https://genius.com/http//genius.com/albums/oasis/dig-out-your-soul" rel="noopener"&gt;&lt;em&gt;Dig Out Your Soul&lt;/em&gt;&lt;/a&gt; (2008), when he was unofficially replaced by Chris Sharrock.&lt;/p&gt;\n\n&lt;p&gt;Oasis split in 2009 after Liam and Noel Gallagher’s antagonistic relationship reached breaking point. Noel went on to form &lt;a href="https://genius.com/artists/noel-gallagher-s-high-flying-birds" rel="noopener" data-api_path="/artists/103633"&gt;Noel Gallagher’s High Flying Birds&lt;/a&gt; and the remainder of the band continued as &lt;a href="https://genius.com/artists/beady-eye" rel="noopener" data-api_path="/artists/59791"&gt;Beady Eye&lt;/a&gt; until 2014, when they split. In 2017 &lt;a href="https://genius.com/artists/Liam-gallagher" rel="noopener" data-api_path="/artists/56368"&gt;Liam Gallagher&lt;/a&gt; released his own solo record.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;a href="https://genius.com/Oasis-oasis-discography-annotated" rel="noopener" data-api_path="/songs/1954889"&gt;Full Discography&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;The Gallagher brothers are notoriously surly toward their fans. “I don’t have to be nice to people because they dig my music,” Noel told Rolling Stone. “I don’t live my life to have my picture taken by fans. I’m not asking them to buy records. They buy them because they like them.”&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://www.youtube.com/watch?v=-VeD27szmSE" rel="noopener nofollow"&gt;band’s name&lt;/a&gt; &lt;a href="http://whynameitthat.blogspot.dk/2013/06/oasis.html" rel="noopener nofollow"&gt;was taken&lt;/a&gt; from Swindon Oasis Leisure Centre in south west England, a clothes shop in the Manchester Arndale shopping center called Oasis, and a taxi rank round the corner from where they lived. Liam Gallagher told NME in 2013: “It meant that we were out there, because we were different. It was a s–t name.”&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Liam-gallagher" rel="noopener" data-api_path="/artists/56368"&gt;Liam Gallagher&lt;/a&gt; – lead and backing vocals, tambourine, acoustic guitar (1991–2009)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Noel-gallaghers-high-flying-birds" rel="noopener" data-api_path="/artists/103633"&gt;Noel Gallagher&lt;/a&gt; – lead and rhythm guitars, backing and lead vocals, keyboards, bass, drums (1991–2009)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Gem-archer" rel="noopener" data-api_path="/artists/411465"&gt;Gem Archer&lt;/a&gt; – rhythm and lead guitars, keyboards, harmonica, backing vocals (1999–2009)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Andrew-bell" rel="noopener" data-api_path="/artists/1009241"&gt;Andy Bell&lt;/a&gt; – bass, keyboards, rhythm and lead guitars (2000–2009)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Alan-white-oasis" rel="noopener" data-api_path="/artists/1018124"&gt;Alan White&lt;/a&gt; – drums and percussion (1995–2004)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Paul-mcguigan" rel="noopener" data-api_path="/artists/62589"&gt;Paul “Guigsy” McGuigan&lt;/a&gt; – bass (1991–1999)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Paul-bonehead-arthurs" rel="noopener" data-api_path="/artists/651080"&gt;Paul “Bonehead” Arthurs&lt;/a&gt; – rhythm and lead guitars, keyboards, bass (1991–1999)&lt;br&gt;\nTony McCarroll – drums and percussion (1991–1995)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-strokes', 'annotations': {'description': '&lt;p&gt;The Strokes burst onto the scene at a time when rock fans were desperate for an alternative to the rap-rock that was dominating the airwaves. That the band lived up to expectations after being hailed ‘saviors of guitar rock’ solely based on the strength of a &lt;a href="https://genius.com/albums/The-strokes/The-modern-age" rel="noopener" data-api_path="/albums/117472"&gt;three song EP&lt;/a&gt; is a testament to the quality of their flawless debut, July 2001’s &lt;a href="https://genius.com/albums/The-strokes/Is-this-it" rel="noopener" data-api_path="/albums/14191"&gt;&lt;em&gt;Is This It&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Ultimately, they are a band that truly relies on the strength of the entire group: lead singer &lt;a href="https://genius.com/artists/Julian-casablancas" rel="noopener" data-api_path="/artists/34880"&gt;Julian Casablancas&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Nick-valensi" rel="noopener" data-api_path="/artists/391343"&gt;Nick Valensi&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Fabrizio-moretti" rel="noopener" data-api_path="/artists/154667"&gt;Fabrizio Moretti&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Albert-hammond-jr" rel="noopener" data-api_path="/artists/108780"&gt;Albert Hammond Jr.&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Nikolai-fraiture" rel="noopener" data-api_path="/artists/977801"&gt;Nikolai Fraiture&lt;/a&gt;. However, much of The Strokes\' output has been influenced by the domineering vision of Casablancas\' songwriting.&lt;/p&gt;\n\n&lt;p&gt;Before he took a small step back on their third album, January 2006’s &lt;a href="https://genius.com/albums/The-strokes/First-impressions-of-earth" rel="noopener" data-api_path="/albums/17768"&gt;&lt;em&gt;First Impressions of Earth&lt;/em&gt;&lt;/a&gt;, and then &lt;a href="http://www.vulture.com/2011/03/the_strokes_didnt_have_a_ton_o.html" rel="noopener nofollow"&gt;isolated himself&lt;/a&gt; to record March 2011’s &lt;a href="https://genius.com/albums/The-strokes/Angles" rel="noopener" data-api_path="/albums/19858"&gt;&lt;em&gt;Angles&lt;/em&gt;&lt;/a&gt;, Casablancas was involved in almost every step of The Strokes\' recording process. He wrote all of the lyrics and the music on their first two albums and was constantly involved in the mixing of the records.&lt;/p&gt;\n\n&lt;p&gt;While they may have a reputation as a group who started to fizzle out after a knock-out debut, the real story is one of evolution and reinvention. After their sophomore album, October 2003’s &lt;a href="https://genius.com/albums/The-strokes/Room-on-fire" rel="noopener" data-api_path="/albums/14617"&gt;&lt;em&gt;Room on Fire&lt;/em&gt;&lt;/a&gt;, was generally praised for the band’s technical improvements but treated as an imitation of their debut, the band pushed in a new direction on each of their following releases. &lt;em&gt;First Impressions of Earth&lt;/em&gt; and &lt;em&gt;Angles&lt;/em&gt; isolated some of the darkness and light that coexisted on the first two records, while March 2013’s &lt;a href="https://genius.com/albums/The-strokes/Comedown-machine" rel="noopener" data-api_path="/albums/28335"&gt;&lt;em&gt;Comedown Machine&lt;/em&gt;&lt;/a&gt; retained the energy of the group’s earlier days, yet also featured a more chilled-out, lo-fi atmosphere. Even the group’s June 2016 four-song EP, &lt;a href="https://genius.com/albums/The-strokes/Future-present-past" rel="noopener" data-api_path="/albums/153765"&gt;&lt;em&gt;Future Present Past&lt;/em&gt;&lt;/a&gt;, conveyed a group that would rather make bold shifts in sound than recycle the music that endeared them to so many.&lt;/p&gt;\n\n&lt;p&gt;On April 10 2020, The Strokes\' released their 6th studio album, &lt;em&gt;The New Abnormal&lt;/em&gt;, produced by Rick Rubin. The album received &lt;a href="https://www.metacritic.com/music/the-new-abnormal/the-strokes/critic-reviews" rel="noopener nofollow"&gt;generally positive reviews&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sir-mix-a-lot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Anthony Ray', 'Anthony L. Ray']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Beastie-boys', 'annotations': {'description': '&lt;p&gt;The Beastie Boys is a groundbreaking, pioneering, Grammy award winning rap group from New York City that has sold &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index5.html" rel="noopener nofollow"&gt;over 40 million albums&lt;/a&gt; worldwide. The group has been inactive since the death of founding member Adam “MCA” Yauch in 2012. According to Bad Brains bassist Darryl Jenifer, the name &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index.html" rel="noopener nofollow"&gt;came from&lt;/a&gt; the code word ‘beast’, which was yelled to alert musicians selling drugs of the presence of a policeman outside a record shop that doubled as a rehearsal space for bands in the early 1980s.&lt;/p&gt;\n\n&lt;p&gt;Originally a punk rock band named The Young Aborigines consisting of Yauch, Kate Shellenbach, Michael “Mike D” Diamond and John Berry, the band renamed themselves Beastie Boys and released the &lt;em&gt;Polly Wog Stew&lt;/em&gt; EP shortly before Berry’s exit in 1982. Berry was replaced by Adam “Ad-rock” Horowitz and the band recorded a disco-joke parody of Malcolm McLaren’s “Buffalo Gals” titled “Cookie Puss” the following year. Producer Rick Rubin took an interest in the song, envisioning the group as ‘the first white rap group’ – but without Schellenbach. Rubin founded Def Jam Records soon after and signed the group as a trio.&lt;/p&gt;\n\n&lt;p&gt;Their first rap single, 1984’s “Rock Hard”, featured an uncleared sample of AC/DC’s “Back In Black” and was &lt;a href="https://www.kerrang.com/features/10-great-malcolm-young-moments/" rel="noopener nofollow"&gt;promptly recalled&lt;/a&gt;. However, its b-side “Beastie Revolution” was &lt;a href="https://web.archive.org/web/20110826155454/http://samplinglaw.wordpress.com/2008/01/04/the-very-first-sampling-lawsuit/" rel="noopener nofollow"&gt;used without authorization&lt;/a&gt; in a British Airways commercial, resulting in a $40,000 settlement that the band used to embark upon a full-time rap career.&lt;/p&gt;\n\n&lt;p&gt;“She’s On It” followed in 1985 on the &lt;em&gt;Krush Groove&lt;/em&gt; soundtrack. That year, the band toured as the &lt;a href="https://www.billboard.com/articles/news/6516809/watch-ad-rock-discuss-beastie-boys-opening-for-madonna-jimmy-fallon-tonight-show" rel="noopener nofollow"&gt;opening act&lt;/a&gt; of Madonna’s Virgin Tour after Russell Simmons &lt;a href="https://books.google.com/books?id=RbtMDwAAQBAJ&amp;amp;pg=PA174&amp;amp;lpg=PA174&amp;amp;dq=beastie+boys+madonna+tour+1985+rubin+%22fat+boys%22&amp;amp;source=bl&amp;amp;ots=jTj-_RYgSd&amp;amp;sig=ACfU3U3Qyo8N1S9KFym_Af3NXfStbpUIwg&amp;amp;hl=en&amp;amp;sa=X&amp;amp;ved=2ahUKEwiM5oWGwI3jAhXLm-AKHRDEAdEQ6AEwDnoECAwQAQ#v=onepage&amp;amp;q=beastie%20boys%20madonna%20tour%201985%20rubin%20%22fat%20boys%22&amp;amp;f=false" rel="noopener nofollow"&gt;told her management&lt;/a&gt; Run DMC wanted $20,000 a show, but he had another rap group that only charged $500. MCA &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index3.html" rel="noopener nofollow"&gt;later shared&lt;/a&gt; what their nightly set consisted of:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We did like three songs, and then I did the electric boogaloo for a minute, and then we fucked with the audience. They hated us. Kids literally in tears, parents wanting to kill us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the summer of 1986, “Hold It, Now Hit It” &lt;a href="https://www.billboard.com/music/beastie-boys/chart-history/r-b-hip-hop-songs" rel="noopener nofollow"&gt;reached #55&lt;/a&gt; on the US Hip Hop/R&amp;amp;B chart. &lt;em&gt;Licensed To Ill&lt;/em&gt; followed that November as two other tracks from it became minor hits on the same chart. However, it was the satirical frat-boy anthem “(You Gotta) Fight For Your Right (To Party!)” that launched the band into international stardom – reaching the top 20 in five countries in early 1987. Within weeks, four more of the album’s tracks found scattered international chart success in its wake. &lt;em&gt;Licensed To Ill&lt;/em&gt; became the first hip hop record to reach #1 in the US, topping the Billboard 200 for seven weeks and ultimately &lt;a href="https://www.billboard.com/articles/news/489107/beastie-boys-blazed-billboard-chart-history" rel="noopener nofollow"&gt;staying on the chart&lt;/a&gt; for 73 weeks as the group headlined their Licensed To Ill Tour for several months. By the end of the year, &lt;a href="https://www.theguardian.com/music/2018/oct/21/beastie-boys-book-memoir-interview" rel="noopener nofollow"&gt;they were&lt;/a&gt; “unhappy and barely speaking to one another”, with MCA and Mike D each forming their own new bands. They had also &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index5.html" rel="noopener nofollow"&gt;split with&lt;/a&gt; Rubin and Def Jam over unpaid royalties.&lt;/p&gt;\n\n&lt;p&gt;In 1988, MCA flew to LA to take a role in the film &lt;em&gt;Lost Angels&lt;/em&gt;. When Ad-rock and Mike D came to visit, they attended a party hosted by Delicious Vinyl CEO Matt Dike who hooked them up with the Dust Brothers, who were fresh off their top 10 successes with Tone Loc and Young MC. This collaboration led to a drastic change in their sound and image with 1989’s funk-infused, disco-influenced &lt;em&gt;Paul’s Boutique&lt;/em&gt; – an intentional leap away from the frat-boy image they’d gained by emulating (and ridiculing) it on &lt;em&gt;Licensed To Ill&lt;/em&gt;. Despite its lead single “Hey Ladies” achieving moderate chart success in five countries including a top 40 placement in the US, the album was labeled a flop. Years later, however, it would be named one of the best albums of all time by Rolling Stone, Spin, VH1, Pitchfork and Time Magazine, and &lt;a href="https://www.rollingstone.com/music/music-news/how-the-beastie-boys-made-their-masterpiece-186788/" rel="noopener nofollow"&gt;lauded as&lt;/a&gt; “The Sgt Pepper of hip hop”, an &lt;a href="https://www.soundonsound.com/people/dust-brothers" rel="noopener nofollow"&gt;album that&lt;/a&gt; “single-handedly redefined a whole musical generation’s approach to sampling”.&lt;/p&gt;\n\n&lt;p&gt;Another massive change in sound happened with 1992’s &lt;em&gt;Check Your Head&lt;/em&gt; when The Beasties picked instruments up again, looping pieces of organic jam sessions to rap over and creating an eclectic collection of hip hop, punk, funk and rock. The band also began to transition away from misogynistic and boisterous lyrics, tackling more mature themes like peace, love, equality and spiritual enlightenment. The album reached the top 10 in the US, but its singles found little chart success there or abroad. Tours with opening acts Rollins Band, L7 and Cypress Hill demonstrated how this diverse album appealed to rock, alternative and hip hop crowds at the same time.&lt;/p&gt;\n\n&lt;p&gt;The US chart-topping 1994 album &lt;em&gt;Ill Communication&lt;/em&gt; continued this more organic sound and mature lyrical approach. The album’s lead single “Sabotage” only charted well in the UK, Canada and The Netherlands, but nonetheless became a huge underground success in the US aided by a music video directed by Spike Jonze. The album was supported with a worldwide tour, followed by &lt;a href="https://www.rollingstone.com/music/music-news/lollapalooza-round-4-courts-nirvana-beastie-boys-and-more-87865/" rel="noopener nofollow"&gt;a spot on&lt;/a&gt; Lollapalooza ‘94. Random diverse releases followed: the compilation of previous material &lt;em&gt;Some Old Bullshit&lt;/em&gt;, the punk-rooted &lt;em&gt;Aglio e Olio&lt;/em&gt;, and the instrumental &lt;em&gt;The In Sound from Way Out!&lt;/em&gt;. During this time, the group became very active with social causes like &lt;a href="https://www.pri.org/stories/2016-07-07/remember-when-beastie-boys-played-tibet-here-s-how-it-happened" rel="noopener nofollow"&gt;the Free Tibet movement&lt;/a&gt;, largely spearheaded by MCA.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Hello Nasty&lt;/em&gt; marked another large shift in sound for the group in 1998 with the incorporation of electronic elements and the addition of master turntablist Mix Master Mike. Its lead single “Intergalactic” became the group’s third and final US top 40 hit, also charting well in ten countries overseas and &lt;a href="https://www.grammy.com/grammys/artists/beastie-boys" rel="noopener nofollow"&gt;winning a Rap Grammy&lt;/a&gt; the following year. The follow-up single “Body Movin\'” found scattered success overseas, and the album shot into the top 5 in fifteen countries and earned the Beasties another Grammy. An anthology titled &lt;em&gt;The Sounds of Science&lt;/em&gt; followed in 1999. The more straightforward hip hop &lt;em&gt;To The Five Boroughs&lt;/em&gt; appeared in 2004 with a heavy focus on the group’s political views. Its lead single “Ch-Check It Out” made the top 40 in eight countries overseas, and was a minor hit in the US.&lt;/p&gt;\n\n&lt;p&gt;Five years later, the instrumental &lt;em&gt;The Mix Up&lt;/em&gt; surfaced. The Beasties had originally planned to drop &lt;em&gt;Hot Sauce Committee Part One&lt;/em&gt; in 2009, but soon after the release of the advance single “Too Many Rappers”, the group &lt;a href="https://www.rollingstone.com/music/music-news/beastie-boys-adam-yauch-reveals-he-has-cancer-251987/" rel="noopener nofollow"&gt;announced that&lt;/a&gt; MCA was diagnosed with cancer and the album was put on hold while he began treatment. A year later, the Beasties gave a tongue-in-cheek announcement that &lt;em&gt;Part One&lt;/em&gt; was being replaced by &lt;em&gt;Hot Sauce Committee Part Two&lt;/em&gt;, and would &lt;a href="https://www.clashmusic.com/news/beastie-boys-re-jig-hot-sauce-committee" rel="noopener nofollow"&gt;consist mostly&lt;/a&gt; of the songs intended for &lt;em&gt;Part One&lt;/em&gt;. “Make Some Noise” became the official lead single for &lt;em&gt;Part Two&lt;/em&gt; in 2011, accompanied by a short film titled &lt;em&gt;Fight For Your Right (Revisited)&lt;/em&gt;. The Beasties were inducted into the Rock And Roll Hall Of Fame that December, but MCA was too sick to attend. Six months later, MCA passed away. In 2014, Mike D &lt;a href="https://www.nme.com/news/music/beastie-boys-2-24-1234190" rel="noopener nofollow"&gt;revealed&lt;/a&gt; that he and Ad-rock promised him they wouldn’t make more music as the Beastie Boys after his death.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/La-bouche', 'annotations': {'description': '&lt;p&gt;La Bouche is a duo, created in 1987. Their career started to take off when they released “Sweet Dreams” and “Be My Lover” which both were hits on the Billboard Hot 100, peaking at #13 and #6, respectively. In 2018, They came back with a new single called ‘Night After Night’.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-dandy-warhols', 'annotations': {'description': '&lt;p&gt;The Dandy Warhols are an American rock band, formed in Portland, Oregon, in 1994 by singer-guitarist Courtney Taylor-Taylor and guitarist Peter Holmström, who were joined by keyboardist Zia McCabe and drummer Eric Hedford. Hedford left in 1998 and was replaced by Taylor-Taylor’s cousin Brent DeBoer.&lt;/p&gt;\n\n&lt;p&gt;The band gained recognition after they were signed to Capitol Records and released their major label album debut, &lt;a href="https://genius.com/albums/The-dandy-warhols/Come-on-feel-the-dandy-warhols" rel="noopener" data-api_path="/albums/127512"&gt;&lt;em&gt;…The Dandy Warhols Come Down&lt;/em&gt;&lt;/a&gt;, in 1997. In 2001, the band rose to new levels of fame after their song &lt;a href="https://genius.com/The-dandy-warhols-bohemian-like-you-lyrics" rel="noopener" data-api_path="/songs/98433"&gt;“Bohemian Like You”&lt;/a&gt; enjoyed extensive exposure thanks to its being featured in a Vodafone advertisement. The Dandy Warhols have released eight studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nicki-minaj', 'annotations': {'description': '&lt;p&gt;Born December 8, 1982, Onika Tanya Maraj-Petty, better known by her stage name Nicki Minaj, is a Trinidadian-American rapper, actress, singer, songwriter, and entrepreneur.&lt;/p&gt;\n\n&lt;p&gt;Nicki was discovered by &lt;a href="https://genius.com/artists/Lil-wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt; via her mixtapes &lt;a href="https://genius.com/albums/Nicki-minaj/Sucka-free-mixtape" rel="noopener" data-api_path="/albums/12886"&gt;&lt;em&gt;Sucka Free&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Nicki-minaj/Beam-me-up-scotty-mixtape" rel="noopener" data-api_path="/albums/10981"&gt;&lt;em&gt;Beam Me Up Scotty&lt;/em&gt;&lt;/a&gt;, and broke into the mainstream as an artist signed to Wayne’s label Young Money Entertainment. Her first successful songs, &lt;a href="https://genius.com/Nicki-minaj-your-love-lyrics" rel="noopener" data-api_path="/songs/685"&gt;“Your Love,”&lt;/a&gt; &lt;a href="https://genius.com/Nicki-minaj-moment-4-life-lyrics" rel="noopener" data-api_path="/songs/2045"&gt;“Moment 4 Life”&lt;/a&gt; (with &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt;), and the smash-hit &lt;a href="https://genius.com/Nicki-minaj-super-bass-lyrics" rel="noopener" data-api_path="/songs/2110"&gt;“Super Bass,”&lt;/a&gt; are featured on her 2010 chart-topping debut album &lt;a href="https://genius.com/albums/Nicki-minaj/Pink-friday" rel="noopener" data-api_path="/albums/7158"&gt;&lt;em&gt;Pink Friday&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;She continued her run with her second studio album, &lt;a href="https://genius.com/albums/Nicki-minaj/Pink-friday-roman-reloaded" rel="noopener" data-api_path="/albums/13529"&gt;&lt;em&gt;Pink Friday: Roman Reloaded&lt;/em&gt;&lt;/a&gt;, which contained &lt;a href="https://genius.com/Nicki-minaj-starships-lyrics" rel="noopener" data-api_path="/songs/65701"&gt;“Starships,”&lt;/a&gt; a song which would further develop Nicki’s pop/rap style. “Starships” gave Nicki a &lt;em&gt;Billboard&lt;/em&gt; milestone, when it charted for 21 weeks in the top ten of the &lt;em&gt;Billboard Hot 100&lt;/em&gt;, a feat no other artist has achieved without the aid of streaming services.&lt;/p&gt;\n\n&lt;p&gt;In between the releases of her second and third albums, Nicki starred as a judge on &lt;a href="https://bit.ly/2HOKAO9" rel="noopener nofollow"&gt;&lt;em&gt;American Idol&lt;/em&gt;&lt;/a&gt;, and released a &lt;a href="https://genius.com/albums/Nicki-minaj/Pink-friday-roman-reloaded-the-re-up" rel="noopener" data-api_path="/albums/21395"&gt;reissue&lt;/a&gt; of her second album in November 2012, filling it with ten new hip-hop tracks and promoting it throughout the following year.&lt;/p&gt;\n\n&lt;p&gt;On December 12, 2014, Nicki released her third studio album &lt;a href="https://genius.com/albums/Nicki-minaj/The-pinkprint" rel="noopener" data-api_path="/albums/97218"&gt;&lt;em&gt;The Pinkprint&lt;/em&gt;&lt;/a&gt;. For this project, she abandoned her “Pop facade” and expanded not only on her ever-changing flows and thickened, denser delivery, but also on her subject matter and lyrical content. On the album, she delves into new depths with themes of vulnerability, relationship distress/abuse, betrayal, near-death experiences, motherhood, suicide attempts, drug addiction, abortion, murder, responsibility, female empowerment, sexual allegations, and entitlement. It is her longest-charting studio album to date, and housed numerous hit singles, including the pop culture phenomenon &lt;a href="https://genius.com/Nicki-minaj-anaconda-lyrics" rel="noopener" data-api_path="/songs/483960"&gt;“Anaconda.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Almost four years later, on August 10, 2018, Nicki released her fourth studio album, &lt;a href="https://genius.com/albums/Nicki-minaj/Queen" rel="noopener" data-api_path="/albums/389811"&gt;&lt;em&gt;Queen&lt;/em&gt;&lt;/a&gt;. The album became Nicki’s most rap-oriented album to date, but also managed to incorporate R&amp;amp;B and Pop elements, much like Minaj’s previous effort. On &lt;em&gt;Queen&lt;/em&gt;, Nicki defends her high position in the Hip-hop community, jabs at her top critics, reminds her listeners of her wealth and power, playfully disses her peers, and opens up about her recent love life, all in sixty-six minutes.&lt;/p&gt;\n\n&lt;p&gt;Nicki’s collaborations are also notable, particularly &lt;a href="https://genius.com/Jessie-j-bang-bang-lyrics" rel="noopener" data-api_path="/songs/486355"&gt;“Bang Bang”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Jessie-j" rel="noopener" data-api_path="/artists/2517"&gt;Jessie J&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt;, the numerous collaborations with Young Money’s “Big Three” (Nicki, Lil Wayne, and Drake), and &lt;a href="https://genius.com/Kanye-west-monster-lyrics" rel="noopener" data-api_path="/songs/1149"&gt;“Monster,”&lt;/a&gt; a collaboration with &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jay-z" rel="noopener" data-api_path="/artists/2"&gt;Jay-Z&lt;/a&gt;, and others, from Kanye West’s fifth album. Minaj’s verse on the song is praised by critics and is also known for sparking Nicki’s fan base. On May 1, 2020, &lt;a href="https://genius.com/artists/Doja-cat" rel="noopener" data-api_path="/artists/139478"&gt;Doja Cat&lt;/a&gt; recruited Nicki for their &lt;a href="https://genius.com/Doja-cat-say-so-remix-lyrics" rel="noopener" data-api_path="/songs/5521685"&gt;“Say So (Remix),”&lt;/a&gt;&lt;br&gt;\nwhich &lt;a href="https://www.billboard.com/articles/business/chart-beat/9375563/doja-cat-nicki-minaj-say-so-number-one?utm_source=twitter&amp;amp;utm_medium=social&amp;amp;__twitter_impression=true&amp;amp;__twitter_impression=true&amp;amp;__twitter_impression=true" rel="noopener nofollow"&gt;peaked at #1&lt;/a&gt; on Billboard Hot 100 chart, and became the first collaboration between two female rappers to top the chart.&lt;/p&gt;\n\n&lt;p&gt;As of 2020, Nicki has charted &lt;a href="https://www.billboard.com/music/nicki-minaj" rel="noopener nofollow"&gt;118&lt;/a&gt; songs on the Billboard Hot 100, the most for a female artist and the fourth-most out of all artists. She has garnered &lt;a href="https://www.grammy.com/grammys/artists/nicki-minaj" rel="noopener nofollow"&gt;ten&lt;/a&gt; Grammy award nominations and fourteen MTV Video Music Award nominations, winning five of the latter. She has 113 million &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=nicki+minaj#search_section" rel="noopener nofollow"&gt;RIAA&lt;/a&gt; certified units, comprised of mostly singles with 8.5 million albums sold.&lt;/p&gt;', 'alternate_names': ['Onika Tanya Maraj', 'Onika Tanya Maraj-Petty', 'Onika Maraj']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nena', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Nena&lt;/strong&gt; ist eine deutsche Musikgruppe der &lt;a href="https://de.wikipedia.org/wiki/Neue_Deutsche_Welle" rel="noopener nofollow"&gt;Neuen Deutschen Welle&lt;/a&gt;, die vor allem durch ihren im Februar 1983 veröffentlichten Song &lt;a href="https://genius.com/Nena-99-luftballons-lyrics" rel="noopener" data-api_path="/songs/1145735"&gt;„99 Luftballons“&lt;/a&gt; internationale Bekanntheit erlangte.&lt;/p&gt;\n\n&lt;p&gt;Gründungsmitglied und Frontfrau &lt;a href="https://de.wikipedia.org/wiki/Nena" rel="noopener nofollow"&gt;&lt;em&gt;Gabriele Susanne Kerner&lt;/em&gt;&lt;/a&gt; (geboren am 24. März 1960) veröffentlichte danach unter dem selben Namen weitere Musikprojekte. Mit insgesamt 25 Millionen verkauften Tonträgern weltweit gehört Kerner zu den erfolgreichsten Künstlern der deutschen Musikgeschichte.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Kansas', 'annotations': {'description': '&lt;p&gt;Kansas is an American rock band that became popular in the 1970s initially on album-oriented rock charts and later with hit singles such as &lt;a href="https://genius.com/Kansas-carry-on-wayward-son-lyrics" rel="noopener" data-api_path="/songs/94674"&gt;“Carry On Wayward Son”&lt;/a&gt; and &lt;a href="https://genius.com/Kansas-dust-in-the-wind-lyrics" rel="noopener" data-api_path="/songs/161567"&gt;“Dust in the Wind”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band has produced nine gold albums, three multi-platinum albums, one platinum studio album, one platinum live double album, and a million-selling single, “Dust in the Wind”.&lt;/p&gt;\n\n&lt;p&gt;Kansas appeared on the Billboard charts for over 200 weeks throughout the 1970s and 1980s and played to sold-out arenas and stadiums throughout North America, Europe and Japan. “Carry On Wayward Son” was the second-most-played track on US classic rock radio in 1995 and No. 1 in 1997&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Semisonic', 'annotations': {'description': '&lt;p&gt;Semisonic is an alternative rock band from Minneapolis, Minnesota, formed by Dan Wilson, Jon Munson, and Jacob Slichter in 1995. Their 1998 album &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Feeling-strangely-fine" rel="noopener" data-api_path="/albums/152225"&gt;Feeling Strangely Fine&lt;/a&gt;&lt;/em&gt; contained the hit song “&lt;a href="https://genius.com/Semisonic-closing-time-lyrics" rel="noopener" data-api_path="/songs/71637"&gt;Closing Time&lt;/a&gt;”, and they are often considered a one-hit wonder. After the release of their third album, &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/All-about-chemistry" rel="noopener" data-api_path="/albums/160158"&gt;All About Chemistry&lt;/a&gt;&lt;/em&gt;, in 2001, the band went on hiatus for 16 years. They reformed in 2017 to commemorate the twentieth anniversary of their debut album, &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Great-divide" rel="noopener" data-api_path="/albums/107581"&gt;Great Divide&lt;/a&gt;&lt;/em&gt;. In 2020, they released the EP &lt;em&gt;&lt;a href="https://genius.com/albums/Semisonic/Youre-not-alone-ep" rel="noopener" data-api_path="/albums/650719"&gt;You’re Not Alone&lt;/a&gt;&lt;/em&gt;, their first release of new material in 19 years.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Beck', 'annotations': {'description': '&lt;p&gt;Beck took the lo-fi sound of DIY indie rock to the &lt;a href="https://www.billboard.com/music/beck/chart-history/alternative-songs/song/23942" rel="noopener nofollow"&gt;Billboard charts&lt;/a&gt; in 1994 with his slacker anthem &lt;a href="https://genius.com/Beck-loser-lyrics" rel="noopener" data-api_path="/songs/4905"&gt;“Loser,”&lt;/a&gt; but his avant-pop palette extends well beyond the folk-rap beats and samples of that hit; encompassing everything from funk, soul, and psychedelia to wild experiments with feedback, toy instruments, and found sounds. Plus, his disjointed, surreal lyrics (which were often compared to &lt;a href="https://genius.com/albums/Bob-dylan/Highway-61-revisited" rel="noopener" data-api_path="/albums/13573"&gt;&lt;em&gt;Highway 61 Revisited&lt;/em&gt;&lt;/a&gt;-era &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;) made for an alt-pop sound that helped define the ‘90s and made Beck one of the most interesting musicians of his era.&lt;/p&gt;', 'alternate_names': ['Bek Campbell', 'Bek D. Campbell', 'Bek David Campbell', 'Beck D. Hansen', 'Beck David Hansen', 'Beck Hansen']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Cutee-b', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Anastacia', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Anastacia Lyn Newkirk&lt;/strong&gt; (born September 17, 1968), known simply as &lt;strong&gt;Anastacia&lt;/strong&gt;, is an American singer-songwriter, producer and former dancer. She is best known for her eclectic pop music of the early 2000s which had a significant impact in Europe and Oceania. Her first two albums &lt;a href="https://genius.com/albums/Anastacia/Not-that-kind" rel="noopener" data-api_path="/albums/170859"&gt;&lt;em&gt;“Not That Kind”&lt;/em&gt;&lt;/a&gt; (2000) and &lt;a href="https://genius.com/albums/Anastacia/Freak-of-nature" rel="noopener" data-api_path="/albums/138358"&gt;&lt;em&gt;“Freak of Nature”&lt;/em&gt;&lt;/a&gt; (2001) were released in quick succession to major success. Known for her powerful mezzo-soprano voice and her small stature of 5 feet 2 inches (157 cm), she has been dubbed “the little lady with the big voice”.&lt;/p&gt;\n\n&lt;p&gt;She has sold over 52 million records worldwide and has topped the U.S. dance chart on two separate occasions.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>{'url': 'https://genius.com/artists/Arctic-monkeys', 'annotations': {'description': '&lt;p&gt;Arctic Monkeys is an English rock band formed in 2002 in High Green, a suburb of Sheffield, England. The band consists of &lt;a href="https://genius.com/artists/Alex-turner" rel="noopener" data-api_path="/artists/26178"&gt;Alex Turner&lt;/a&gt; (lead vocals, rhythm/lead guitar), &lt;a href="https://genius.com/artists/Matt-helders" rel="noopener" data-api_path="/artists/50537"&gt;Matt Helders&lt;/a&gt; (drums, vocals), &lt;a href="https://genius.com/artists/Jamie-cook" rel="noopener" data-api_path="/artists/398363"&gt;Jamie Cook&lt;/a&gt; (lead/rhythm guitar) and &lt;a href="https://genius.com/artists/Nick-omalley" rel="noopener" data-api_path="/artists/397891"&gt;Nick O\'Malley&lt;/a&gt; (bass, backing vocals). Former band member Andy Nicholson (bass guitar, backing vocals) left the band in 2006 shortly after their debut album was released. Their sound has changed extensively from album to album, gradually evolving from raw, youthful post-punk revival music to R ‘n’ B and jazz-inspired experiments.&lt;/p&gt;\n\n&lt;p&gt;All four original members of the band were devoted fans of hip-hop when they were younger, a genre that would have an immense influence on their later work, but it was the sound of &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-libertines" rel="noopener" data-api_path="/artists/20920"&gt;The Libertines&lt;/a&gt; that would help shape their early style. The Arctic Monkeys became one of the first bands to find fame and recognition purely through internet publicity and social media; the Arctics used to sell their demos CDs at a bar where Alex Turner used to work, but due to the limited number of CDs, their fans started to upload them on the internet.&lt;/p&gt;\n\n&lt;p&gt;Initially, they refused to sign a record contract with any label through fear that they would want the band to change their songs, going as far as to refuse scouts guaranteed entry into their gigs. However, they eventually signed with Domino because of the “do it yourself” attitude of founder, Lawrence Bell, who ran the label from his own house.&lt;/p&gt;\n\n&lt;p&gt;The group released their scrappy, spirited debut &lt;a href="https://genius.com/albums/Arctic-monkeys/Whatever-people-say-i-am-that-s-what-i-m-not" rel="noopener" data-api_path="/albums/13108"&gt;&lt;em&gt;Whatever People Say I Am, That’s What I’m Not&lt;/em&gt;&lt;/a&gt; in 2006, an album that spawned their first UK No. 1 singles, &lt;a href="https://genius.com/Arctic-monkeys-i-bet-you-look-good-on-the-dancefloor-lyrics" rel="noopener" data-api_path="/songs/74885"&gt;“I Bet You Look Good on the Dancefloor”&lt;/a&gt; and &lt;a href="https://genius.com/Arctic-monkeys-when-the-sun-goes-down-lyrics" rel="noopener" data-api_path="/songs/75362"&gt;“When the Sun Goes Down”.&lt;/a&gt; They followed it up with &lt;a href="https://genius.com/albums/Arctic-monkeys/Favourite-worst-nightmare" rel="noopener" data-api_path="/albums/14401"&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt;&lt;/a&gt; in 2007, which took on a more mature lyrical direction, with tighter, more accessible hooks and melodies and more polished production. Their most accessible album to date is &lt;a href="https://genius.com/albums/Arctic-monkeys/Am" rel="noopener" data-api_path="/albums/37951"&gt;&lt;em&gt;AM&lt;/em&gt;&lt;/a&gt;, which contains some of their catchiest and most notable singles, including the indie hit &lt;a href="https://genius.com/albums/Arctic-monkeys/Do-i-wanna-know-single" rel="noopener" data-api_path="/albums/333036"&gt;“Do I Wanna Know?.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Arctic Monkeys subsequently took a five-year break from releasing albums, before returning with their polarising sixth studio album &lt;a href="https://genius.com/albums/Arctic-monkeys/Tranquility-base-hotel-casino" rel="noopener" data-api_path="/albums/398288"&gt;&lt;em&gt;Tranquility Base Hotel and Casino&lt;/em&gt;&lt;/a&gt; in 2018.&lt;/p&gt;', 'alternate_names': ['Death Ramps']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Culture-beat', 'annotations': {'description': '&lt;p&gt;German Eurodance project formed in 1989 by &lt;a href="https://genius.com/artists/Torsten-fenslau" rel="noopener" data-api_path="/artists/324799"&gt;Torsten Fenslau&lt;/a&gt;. The act has gone through a number of line-up changes over the years; they achieved the most success whilst fronted by singer Tania Evans and rapper Jay Supreme. Their 1993 single &lt;a href="https://genius.com/Culture-beat-mr-vain-lyrics" rel="noopener" data-api_path="/songs/694595"&gt;“Mr. Vain”&lt;/a&gt; was a number-one hit in 11 European countries, and the act is thought to have sold more than 10 million records worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Franz-ferdinand', 'annotations': {'description': '&lt;p&gt;Franz Ferdinand are a Scottish rock band formed in 2002 and based in Glasgow. The band was originally composed of Alex Kapranos (lead vocals and guitar), Bob Hardy (bass guitar), Nick McCarthy (rhythm guitar, keyboards and backing vocals), and Paul Thomson (drums, percussion and backing vocals). Following McCarthy’s departure in 2016 after four albums and a full-length collaboration with &lt;a href="https://genius.com/artists/Sparks" rel="noopener" data-api_path="/artists/3490"&gt;Sparks&lt;/a&gt; using the name &lt;a href="https://genius.com/artists/Ffs" rel="noopener" data-api_path="/artists/341895"&gt;FFS&lt;/a&gt;, the band brought in Julian Corrie (keyboards, synthesizers, backing vocals) before working on their fifth album, &lt;a href="https://genius.com/albums/Franz-ferdinand/Always-ascending" rel="noopener" data-api_path="/albums/376692"&gt;&lt;em&gt;Always Ascending&lt;/em&gt;&lt;/a&gt;. After the album’s recording, they added Dino Bardot (guitar and backing vocals) to the line-up.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vengaboys', 'annotations': {'description': '&lt;p&gt;Vengaboys are a very popular bubblegum pop group. The members of the group are &lt;a href="http://www.bubblegumdancer.com/project.php?id=128#ixzz5IzGQMbFa" rel="noopener nofollow"&gt;Kim Sasabone, Denise Post-Van Rijswijk, Yorick Bakker, and Donny Latupeirissa&lt;/a&gt;. They’re well-known for their cartoonish poppy songs such as “Boom, Boom, Boom, Boom!!” They’ve sold an estimated &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;25 million records worldwide&lt;/a&gt; and was named the “Best Selling Music Group” in 2003 by World Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The group has released three albums; &lt;em&gt;Up &amp;amp; Down-The Party Album&lt;/em&gt;, &lt;em&gt;The Party Album!&lt;/em&gt;, and &lt;em&gt;The Platinum Album&lt;/em&gt;; two of the albums have achieved gold and platinum status in other countries.&lt;/p&gt;\n\n&lt;p&gt;The group took a hiatus after 2000 and returned in 2006 with a new member Donny Latupeirissa, or Ma\'Donny. In 2010, the band confirmed that their &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;comeback single&lt;/a&gt; would be “Rocket to Uranus” and was released in June. In 2013, they released a new single called “Hot Hot Hot”.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The X-mas Party Album&lt;/em&gt; was released in 2014. In 2017, the band announced Party On the Dance Floor Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Felly', 'annotations': {'description': '&lt;p&gt;Felly, also known as Rob Fel or Felly the Kid, is a rapper and producer who gained fame posting videos of him producing his songs on his YouTube channel titled Felnuts. He released his first full album on SoundCloud in early 2014, Waking Up To Sirens, followed by Milk and Sugar in August of the same year. He returned in late 2015 with This Shit Comes In Waves, which was a shift from the sound of his earlier work to more of a conceptual tone. On June 22nd 2016, he released Young Fel EP on Apple Music, his newest project.&lt;/p&gt;', 'alternate_names': ['Christian Felner', 'Cfello']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Imagine-dragons', 'annotations': {'description': '&lt;p&gt;One of the defining artists of the 2010s and perhaps the biggest band of the decade, Imagine Dragons is an American alt-rock band that originated in Las Vegas and led by &lt;a href="https://genius.com/artists/Dan-reynolds" rel="noopener" data-api_path="/artists/69043"&gt;Dan Reynolds&lt;/a&gt;. While the band began in 2008, the group boasted an &lt;a href="http://i.imgur.com/4jBE4AX.jpg" rel="noopener nofollow"&gt;entirely different roster&lt;/a&gt; than most are familiar. Before releasing their debut album, &lt;a href="https://genius.com/albums/imagine-dragons/night-visions" rel="noopener" data-api_path="/albums/491287"&gt;&lt;em&gt;Night Visions&lt;/em&gt;&lt;/a&gt;, in 2012, the band released six EPs over four years, constantly shifting their sound and roster from &lt;a href="https://genius.com/albums/Imagine-dragons/Speak-to-me-ep" rel="noopener" data-api_path="/albums/276731"&gt;folk&lt;/a&gt; to the crowd-shattering anthems they’ve been known for since.&lt;/p&gt;\n\n&lt;p&gt;The band’s roster was finalized before &lt;em&gt;Night Visions&lt;/em&gt;‘ release with &lt;a href="https://genius.com/artists/Daniel-platzman" rel="noopener" data-api_path="/artists/556453"&gt;Daniel Platzman&lt;/a&gt; on the drums, &lt;a href="https://genius.com/artists/Wayne-sermon" rel="noopener" data-api_path="/artists/556454"&gt;Wayne Sermon&lt;/a&gt; on guitar, and &lt;a href="https://genius.com/artists/Ben-mckee" rel="noopener" data-api_path="/artists/556452"&gt;Ben McKee&lt;/a&gt; on bass. Their break-out single, &lt;a href="https://genius.com/Imagine-dragons-radioactive-lyrics" rel="noopener" data-api_path="/songs/98754"&gt;“Radioactive”&lt;/a&gt; was essential to putting Vegas on the map musically, citing &lt;a href="https://genius.com/artists/The-killers" rel="noopener" data-api_path="/artists/599"&gt;The Killers&lt;/a&gt; before them. The song went on to become an international success, obliterating the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6084584/imagine-dragons-radioactive-ends-record-billboard-hot-100-run" rel="noopener nofollow"&gt;record for the most weeks on the Billboard Hot 100&lt;/a&gt; at 87 straight weeks.&lt;/p&gt;\n\n&lt;p&gt;It wasn’t until 2015 the band released their sophomore album, &lt;a href="https://genius.com/albums/imagine-dragons/smoke-mirrors" rel="noopener" data-api_path="/albums/488912"&gt;&lt;em&gt;Smoke + Mirrors&lt;/em&gt;&lt;/a&gt;. The album was extremely divergent from their freshman album, characterized by an accentuation of their Rock roots and an internal struggle, later described by Reynolds as being his &lt;a href="https://www.bbc.com/news/entertainment-arts-40277696" rel="noopener nofollow"&gt;bout with severe depression&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After a &lt;a href="https://genius.com/a/imagine-dragons-end-their-hiatus-with-new-single-believer" rel="noopener" data-api_path="/articles/1510"&gt;self-imposed hiatus&lt;/a&gt; in 2016, the band &lt;a href="https://www.youtube.com/watch?v=CdWd8fUC71g" rel="noopener nofollow"&gt;premiered&lt;/a&gt; their third album, &lt;a href="https://genius.com/albums/imagine-dragons/evolve" rel="noopener" data-api_path="/albums/342168"&gt;&lt;em&gt;Evolve&lt;/em&gt;&lt;/a&gt;, during Super Bowl LI. As the title suggests, &lt;em&gt;Evolve&lt;/em&gt; was seen as another evolution of the band’s sound, with a newfound focus around Pop and EDM. It only took a year for the band to release their fourth full-length album, &lt;a href="https://genius.com/albums/imagine-dragons/origins" rel="noopener" data-api_path="/albums/488895"&gt;&lt;em&gt;Origins&lt;/em&gt;&lt;/a&gt;, characterized as a sister album to &lt;em&gt;Evolve&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Another hiatus from the band–the longest up to this point–saw them taking nearly two years off before releasing the first two singles from their fifth album: &lt;a href="https://genius.com/albums/Imagine-dragons/Id5" rel="noopener" data-api_path="/albums/745382"&gt;&lt;em&gt;Mercury&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nofx', 'annotations': {'description': '&lt;p&gt;Take the melody of &lt;a href="https://genius.com/artists/Descendents" rel="noopener" data-api_path="/artists/44950"&gt;The Descendents&lt;/a&gt;, some of &lt;a href="https://genius.com/artists/Bad-religion" rel="noopener" data-api_path="/artists/27995"&gt;Bad Religion’s&lt;/a&gt; political sense, add a handful of pills and there’s NOFX.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Nofx-backstage-passport-lyrics" rel="noopener" data-api_path="/songs/1845265"&gt;Screwing up since 1983&lt;/a&gt;, the Californian group is one of the most influential bands in the history of punk rock. Rising in popularity during the 90’s, but never signing to a major label, remaining true to punk’s DIY roots, they released most of their stuff themselves or through Epitaph Records (owned by fellow punk rocker Brett Gurewitz from Bad Religion).&lt;/p&gt;\n\n&lt;p&gt;Spreading sarcasm in every lyric, NOFX’s music range from hardcore punk to pop punk and even ska, but they’ve been doing it for so long and so characteristically that from the early days to their newest record, &lt;em&gt;First Ditch Effort&lt;/em&gt;, it’s instantly recognizable: it sounds like NOFX.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mika', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Michael Holbrook Penniman, Jr.&lt;/strong&gt;, born on August 18, 1983 in Beirut, Lebanon, better known by his stage name &lt;strong&gt;Mika&lt;/strong&gt;, stylised as &lt;strong&gt;MIKA&lt;/strong&gt;, is a British singer, songwriter and producer.&lt;/p&gt;\n\n&lt;p&gt;When Mika was a year old, his family was forced to leave war-torn Lebanon and moved to Paris where he learned to play piano. At the age of seven, he wrote his first song, a piano instrumental called “Angry”. The family moved to London when he was nine years old.&lt;/p&gt;\n\n&lt;p&gt;Mika has one younger brother and one younger sister along with two older sisters. His sister &lt;a href="https://s-media-cache-ak0.pinimg.com/originals/5e/12/17/5e121746fbb80281177549f8aba6e170.jpg" rel="noopener nofollow"&gt;Yasmine&lt;/a&gt;, who works as an artist under the name DaWack, painted the cartoon art for his two albums &lt;a href="https://genius.com/albums/Mika/Life-in-cartoon-motion" rel="noopener" data-api_path="/albums/40286"&gt;&lt;em&gt;Life in Cartoon Motion&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Mika/The-boy-who-knew-too-much" rel="noopener" data-api_path="/albums/21499"&gt;&lt;em&gt;The Boy Who Knew Too Much&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His given name was Mica but, frustrated at how often it was mispronounced, he changed the ‘c’ to a ‘k’.&lt;/p&gt;', 'alternate_names': ['Michael Penniman']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Crash-test-dummies', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-beach-boys', 'annotations': {'description': '&lt;p&gt;The Beach Boys are one of the world’s best-selling bands of all time and the first American pop band to reach the 50-year milestone. Their vocal harmonies are among the most unmistakable and enduring of the rock and roll era.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.rockhall.com/inductees/beach-boys#bio" rel="noopener nofollow"&gt;Formed&lt;/a&gt; in 1961 in Hawthorne, California, by Brian Wilson, his two brothers Carl and Dennis, their cousin Mike Love, and classmate Al Jardine, the group’s first single “Surfin\'” got them signed to Capitol Records and they quickly became one of the most popular and successful artists of the surf music craze of the 1960s. From 1962 to 1966, The Beach Boys scored over twenty top 40 hits in the US including the chart-toppers “I Get Around”, “Help Me Rhonda” &amp;amp; “Good Vibrations” along with the top 5’s “Surfin USA”, “Fun, Fun, Fun”, “California Girls”, “Barbara Ann” &amp;amp; “Sloop John B”. Several of the band’s singles also found top 40 success in Canada, Australia, Sweden and the UK. In 1965, de facto leader Brian Wilson &lt;a href="https://www.nytimes.com/1998/02/09/arts/carl-wilson-a-beach-boys-founder-51.html" rel="noopener nofollow"&gt;suffered a mental breakdown&lt;/a&gt; due to the stress of writing, producing &amp;amp; touring combined with substance abuse issues, causing him to step down and stop traveling with the band on tour.&lt;/p&gt;\n\n&lt;p&gt;Inspired by producer Phil Spector and The Beatles\' &lt;em&gt;Rubber Soul&lt;/em&gt;, Brian focused on studio work, determined to keep the group relevant as the surf music scene was fading with their 1966 album &lt;em&gt;Pet Sounds&lt;/em&gt;. Despite tension between members in the studio about this new direction, lack of faith from the record label, mixed reviews, and comparatively lukewarm reception initially in the US, the album still found massive success in the UK and earned accolades from fellow artists including The Beatles, who &lt;a href="https://www.huffpost.com/entry/beach-boys-pet-sounds_n_5730fcd5e4b096e9f09258e4" rel="noopener nofollow"&gt;acknowledged&lt;/a&gt; that the album was their inspiration to further push the boundaries of pop music with their landmark album &lt;em&gt;Sgt. Pepper’s Lonely Hearts Club Band&lt;/em&gt;. Eventually &lt;em&gt;Pet Sounds&lt;/em&gt; would be acknowledged as one of the greatest albums ever recorded by several media outlets like The Times, Mojo Magazine, The Guardian, VH1, BBC and Rolling Stone.&lt;/p&gt;\n\n&lt;p&gt;Brian’s condition continued to deteriorate in the late 1960s, so other members contributed to songwriting through the 1970s with little chart success. Only three singles would reach the US top 20 for the entire decade, two of them being collaborative efforts with popular acts of the time. However, the band soldiered on as a lucrative touring act.&lt;/p&gt;\n\n&lt;p&gt;The 1980s were also a rough time for The Beach Boys with Brian’s psychiatrist &lt;a href="https://www.nytimes.com/1988/06/26/magazine/back-from-the-bottom.html?pagewanted=all" rel="noopener nofollow"&gt;discouraging him&lt;/a&gt; to have contact with other members, and Dennis\' death in 1983 while swimming intoxicated. Their two biggest hits between 1980 and 1987 came from simply following popular trends of the time. “The Beach Boys Medley” took advantage of the Stars On 45/Hooked On Classics phenomenon of the early 80s, and a collaborative cover of “Wipe Out” with The Fat Boys was an effort to jump on the new trend of combining rock with hip-hop that had recently been established by the top 5 success of Aerosmith &amp;amp; Run DMC’s reinterpretation of “Walk This Way”.&lt;/p&gt;\n\n&lt;p&gt;It wasn’t until 1988’s Grammy-nominated “Kokomo” that The Beach Boys\' rediscovered massive chart success around the world on their own merits, reaching #1 in the US, Japan and Australia and the top 10 in Canada and Germany. That same year, the band was inducted into the Rock And Roll Hall Of Fame and &lt;a href="https://www.grammy.com/grammys/awards/lifetime-awards" rel="noopener nofollow"&gt;received&lt;/a&gt; a Lifetime Achievement Grammy Award. However, success was short-lived as “Still Cruisin\'” peaked near the bottom of the Hot 100 the following year and became the group’s last single to chart in the US. 1992’s &lt;em&gt;Summer In Paradise&lt;/em&gt; was derided by fans and critics, became the band’s only album to not appear on the Billboard 200, and would be their last studio effort of original material for twenty years.&lt;/p&gt;\n\n&lt;p&gt;After Carl’s death in 1998, Brian did not seek to use the band name so Love and Jardine &lt;a href="https://www.rockhall.com/inductees/beach-boys" rel="noopener nofollow"&gt;squabbled&lt;/a&gt; over the ownership of it. Love secured the right to tour as The Beach Boys, so Jardine formed various incarnations of a touring act without using The Beach Boys name. In 2012, Brian, Love and Jardine reunited, released their first new album of original material since 1992 with &lt;em&gt;That’s Why God Made The Radio&lt;/em&gt;, and toured together for the first time since 1965 – joined by Bruce Johnston (who’d replaced Brian for touring in 1965) and David Marks (a neighborhood friend who had performed on the group’s earliest albums) to fill Carl and Dennis’s spots. Several compilations of old recordings, including live and unreleased material, have since been released regularly.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gary-pine-and-shayon-thehitmanxx', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pink-floyd', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.pinkfloyd.com/home.php" rel="noopener nofollow"&gt;Pink Floyd&lt;/a&gt; was a British rock band who managed to carve a path for progressive and psychedelic music in a way that was uniquely fascinating at the time and has remained equally momentous in the modern age. The name “Pink Floyd” came from two blues musicians that founding member Syd Barrett idolized—&lt;a href="https://genius.com/artists/Pink-anderson" rel="noopener" data-api_path="/artists/350877"&gt;Pink Anderson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Floyd-council" rel="noopener" data-api_path="/artists/380346"&gt;Floyd Council&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was formed in 1965 London by &lt;a href="https://genius.com/artists/Syd-barrett" rel="noopener" data-api_path="/artists/62540"&gt;Barrett&lt;/a&gt; (guitars, vocals), &lt;a href="https://genius.com/artists/Nick-mason" rel="noopener" data-api_path="/artists/174898"&gt;Nick Mason&lt;/a&gt; (drums), &lt;a href="https://genius.com/artists/Roger-waters" rel="noopener" data-api_path="/artists/33624"&gt;Roger Waters&lt;/a&gt; (bass), and &lt;a href="https://genius.com/artists/Richard-wright-musician" rel="noopener" data-api_path="/artists/41626"&gt;Richard Wright&lt;/a&gt; (keyboards). Sometime after releasing their debut album, 1967’s &lt;a href="https://genius.com/albums/Pink-floyd/The-piper-at-the-gates-of-dawn" rel="noopener" data-api_path="/albums/31179"&gt;&lt;em&gt;The Piper at the Gates of Dawn&lt;/em&gt;&lt;/a&gt;, the group saw the addition of a second singer-guitarist, &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt;. This acted largely as a means of replacing Barrett, who was forced to leave in 1968 &lt;a href="http://sydbarrett.net/subpages/articles/syd_barrett_story_by_syd_and_tho.htm" rel="noopener nofollow"&gt;for mental health reasons&lt;/a&gt;, resulting in Waters taking over as the main vocalist.&lt;/p&gt;\n\n&lt;p&gt;The band broke into the mainstream with 1973’s &lt;a href="https://genius.com/albums/Pink-floyd/The-dark-side-of-the-moon" rel="noopener" data-api_path="/albums/14530"&gt;&lt;em&gt;Dark Side of the Moon&lt;/em&gt;&lt;/a&gt;, an album that became one of the &lt;a href="http://www.rollingstone.com/music/news/erykah-badu-billy-corgan-and-more-on-legacy-of-dark-side-of-the-moon-20110928" rel="noopener nofollow"&gt;best-selling and most influential&lt;/a&gt; records in music history. Their follow-up efforts, 1975’s &lt;a href="https://genius.com/albums/Pink-floyd/Wish-you-were-here" rel="noopener" data-api_path="/albums/22136"&gt;&lt;em&gt;Wish You Were Here&lt;/em&gt;&lt;/a&gt; and 1977’s &lt;a href="https://genius.com/albums/Pink-floyd/Animals" rel="noopener" data-api_path="/albums/15067"&gt;&lt;em&gt;Animals&lt;/em&gt;&lt;/a&gt;, also sold well. However, the band started to see some &lt;a href="http://www.rollingstone.com/music/news/roger-waters-david-gilmour-is-uninterested-in-touring-the-wall-20100505" rel="noopener nofollow"&gt;in-fighting&lt;/a&gt; while making their next album, a rock opera about how Waters felt frustrated and detached from his audience. Waters seemingly became extremely controlling, firing Wright over disputes about touring and his contributions to the album. The result, 1979’s &lt;a href="https://genius.com/albums/Pink-floyd/The-wall" rel="noopener" data-api_path="/albums/14831"&gt;&lt;em&gt;The Wall&lt;/em&gt;&lt;/a&gt;, became the best-selling double album of all time. It spawned iconic songs such as the #1 hit, &lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-part-ii-lyrics" rel="noopener" data-api_path="/songs/106641"&gt;“Another Brick in the Wall, Pt. 2,”&lt;/a&gt; and the melodic &lt;a href="https://genius.com/Pink-floyd-comfortably-numb-lyrics" rel="noopener" data-api_path="/songs/65489"&gt;“Comfortably Numb.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After the not-so-well-received &lt;a href="https://genius.com/albums/Pink-floyd/The-final-cut" rel="noopener" data-api_path="/albums/32739"&gt;&lt;em&gt;Final Cut&lt;/em&gt;&lt;/a&gt;, released in 1983, Waters decided to call it quits and attempted to dissolve the band. However, Gilmour, Mason, and Wright opted to make more albums with the band’s name despite a lawsuit by Waters, keeping Floyd alive until their collective hiatus in 1996, following the 1994 &lt;a href="https://genius.com/albums/pink-floyd/the-division-bell" rel="noopener" data-api_path="/albums/32748"&gt;&lt;em&gt;The Division Bell&lt;/em&gt;&lt;/a&gt; tour.&lt;/p&gt;\n\n&lt;p&gt;The quartet managed to make amends and reunite for a final gig in 2005, performing five songs for the Live 8 concert at Hyde Park. Barrett died in 2006 and Wright died in 2008, but Pink Floyd’s legacy remains alive through their extensive &lt;a href="https://genius.com/Pink-floyd-pink-floyd-discography-annotated" rel="noopener" data-api_path="/songs/1226330"&gt;discography&lt;/a&gt;, as well as Gilmour and Waters\' many solo projects, re-releases of the group’s catalog, and the band’s final album, November 2014’s &lt;a href="https://genius.com/albums/Pink-floyd/The-endless-river" rel="noopener" data-api_path="/albums/112608"&gt;&lt;em&gt;The Endless River&lt;/em&gt;&lt;/a&gt;—a record composed of leftover &lt;em&gt;Division Bell&lt;/em&gt;-era recordings.&lt;/p&gt;\n\n&lt;p&gt;In September of 2019, the band launched a &lt;a href="https://pinkfloydexhibition.de/eng/exhibition.html" rel="noopener nofollow"&gt;five-month-long multimedia tour&lt;/a&gt; in Germany. “The Pink Floyd Exhibition: Their Mortal Remains” seeks to reveal to visitors experiences that they would not get anywhere else. For example, the exhibition features unreleased recordings from gigs, tokens from band members, and more.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Staind', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Staind" rel="noopener nofollow"&gt;Staind&lt;/a&gt; was an American rock band, formed in 1995 in Springfield, Massachusetts. For years, the band consisted of lead vocalist and rhythm guitarist &lt;a href="https://genius.com/artists/Aaron-lewis" rel="noopener" data-api_path="/artists/347635"&gt;Aaron Lewis&lt;/a&gt;, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki (who left in May 2011). To date, the band has recorded seven studio albums: &lt;a href="https://genius.com/albums/Staind/Tormented" rel="noopener" data-api_path="/albums/243184"&gt;&lt;em&gt;Tormented&lt;/em&gt;&lt;/a&gt; (1996), &lt;a href="https://genius.com/albums/Staind/Dysfunction" rel="noopener" data-api_path="/albums/160795"&gt;&lt;em&gt;Dysfunction&lt;/em&gt;&lt;/a&gt; (1999), &lt;a href="https://genius.com/albums/Staind/Break-the-cycle" rel="noopener" data-api_path="/albums/42347"&gt;&lt;em&gt;Break the Cycle&lt;/em&gt;&lt;/a&gt; (2001), &lt;a href="https://genius.com/albums/Staind/14-shades-of-grey" rel="noopener" data-api_path="/albums/80503"&gt;&lt;em&gt;14 Shades of Grey&lt;/em&gt;&lt;/a&gt; (2003), &lt;a href="https://genius.com/albums/Staind/Chapter-v" rel="noopener" data-api_path="/albums/492820"&gt;&lt;em&gt;Chapter V&lt;/em&gt;&lt;/a&gt; (2005), &lt;a href="https://genius.com/albums/Staind/The-illusion-of-progress" rel="noopener" data-api_path="/albums/149841"&gt;&lt;em&gt;The Illusion of Progress&lt;/em&gt;&lt;/a&gt; (2008), and their self-titled album &lt;a href="https://genius.com/albums/Staind/Staind" rel="noopener" data-api_path="/albums/91487"&gt;&lt;em&gt;Staind&lt;/em&gt;&lt;/a&gt;(2011).&lt;/p&gt;\n\n&lt;p&gt;On May 20, 2011, Staind announced that the band and long-time drummer Jon Wysocki had parted ways. In November 2011 Sam Giancarelli was announced as the new drummer.&lt;/p&gt;\n\n&lt;p&gt;In July 2012 the band announced it was taking a hiatus after releasing 7 albums over 14 years. The band did not perform again until April 27, 2014 at the &lt;em&gt;Welcome To Rockville Festival&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2014 the band went back on hiatus while Aaron Lewis played solo shows and began work on his second studio album &lt;a href="https://genius.com/albums/Aaron-lewis/Sinner" rel="noopener" data-api_path="/albums/157423"&gt;&lt;em&gt;Sinner&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview in September 2016 Aaron Lewis stated that the band will likely stay in hiatus for the “foreseeable future”.&lt;/p&gt;\n\n&lt;p&gt;In September 2019, Staind made their return to touring after the release of Lewis\' 2019 album &lt;a href="https://genius.com/albums/Aaron-lewis/State%20I\'m%20In" rel="noopener"&gt;&lt;em&gt;State I’m In&lt;/em&gt;&lt;/a&gt; at the &lt;em&gt;Louder than Life Festival&lt;/em&gt; with Aaron Lewis commenting earlier &lt;a href="https://www.altpress.com/news/aaron-lewis-stained-new-album/" rel="noopener nofollow"&gt;what he thinks a new Staind album would sound like&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Smash-mouth', 'annotations': {'description': "&lt;p&gt;Smash Mouth is an American rock band from San Jose, California. The band was formed in 1994, and was originally composed of Steve Harwell (vocals), Kevin Coleman (drums), Greg Camp (guitar), and Paul De Lisle (bass). They are known for such songs as “Walkin' on the Sun” (1997) and “All Star” (1999).&lt;/p&gt;\n\n&lt;p&gt;The band has adopted retro styles covering several decades of popular music. They have also performed numerous covers of popular songs, including The Monkees' “I’m a Believer”, War’s “Why Can’t We Be Friends?”, Simple Minds' “Don’t You (Forget About Me)”, ? &amp;amp; the Mysterians’s “Can’t Get Enough of You Baby”, The Beatles' “Getting Better” and Disney’s “I Wan'na Be Like You”.&lt;/p&gt;", 'alternate_names': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Mr-bigg', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Mr. Bigg Time', 'Donald Pears II']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Audioslave', 'annotations': {'description': '&lt;p&gt;Audioslave was an American rock supergroup that formed in Los Angeles, California in 2001 and disbanded in 2007. Its members consisted of lead vocalist/rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; (who at the time broke away from the band &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;), lead guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; (all three of which were members of the then-broken-up band &lt;a href="https://genius.com/artists/Rage-against-the-machine" rel="noopener" data-api_path="/artists/1499"&gt;Rage Against the Machine&lt;/a&gt;). Thus, they were initially described as a combination of both bands, but by the time their 2005 album &lt;em&gt;Out of Exile&lt;/em&gt; came out, they became noted as being their own band.&lt;/p&gt;\n\n&lt;p&gt;They produced three studio albums and received just as many Grammy nominations over their six years of existence, and were the first American rock band to perform an open-air concert in Cuba. Their biggest hit was &lt;a href="https://genius.com/Audioslave-like-a-stone-lyrics" rel="noopener" data-api_path="/songs/121557"&gt;“Like A Stone”&lt;/a&gt; from their 2002 self-titled debut album.&lt;/p&gt;\n\n&lt;p&gt;They broke up in 2007 due to “irresolvable personality conflicts as well as musical differences”, according to Cornell, which was later solidified by the reunion tour of Rage and solo album releases by Morello and Cornell in the same year.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Duck-sauce', 'annotations': {'description': '&lt;p&gt;Duck Sauce is the producer duo comprised of A-Trak and Armand Van Helden, who have taken the world by storm with tracks like “aNYway” and “Barbra Streisand,” which joyously mash classic disco house with forward-thinking dancefloor energy and expert production. A-Trak and AVH are bona fide DJ heroes whose team-ups are fueled by anything-goes samples, an almost childlike sense of fun, and 100% NYC attitude. This approach has made Duck Sauce fans-for-life out of partygoers around the globe.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Lana-del-rey', 'annotations': {'description': '&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;Lana Del Rey has one of the most enigmatic personalities of modern pop, and it’s won her one of the most devoted audiences of the 2010s.&lt;/em&gt;&lt;br&gt;\n— &lt;a href="http://www.billboard.com/articles/columns/pop/7710162/lana-del-rey-lyrics-songs-prove-step-ahead-haters" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Elizabeth Woolridge Grant (b. June 21, 1985), best known by her stage name Lana Del Rey, is an icon of modern alternative singing and songwriting.&lt;/p&gt;\n\n&lt;hr&gt;  \n\n\n&lt;p&gt;At age 18, Lana began performing in clubs around Brooklyn, NY under various monikers including Lizzy Grant, May Jailer, and Sparkle Rope Jump Queen. Around the same time, she began attending &lt;a href="https://www.fordham.edu/" rel="noopener nofollow"&gt;Fordham University&lt;/a&gt; in &lt;a href="https://en.wikipedia.org/wiki/The_Bronx" rel="noopener nofollow"&gt;The Bronx&lt;/a&gt;, where she majored in philosophy with a specific focus on metaphysics.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was interested in God and how technology could bring us closer to finding out where we came from and why,&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;she said about her degree. The theme of God and science remains persistent in all of her music, as well as the effects of attending a Christian high school.&lt;/p&gt;\n\n&lt;p&gt;She signed her first recording contract with 5 Points Records in 2007 and her first digital album, &lt;a href="https://genius.com/albums/Lana-del-rey/Lana-del-ray" rel="noopener" data-api_path="/albums/23389"&gt;&lt;em&gt;Lana Del Ray a.k.a. Lizzy Grant&lt;/em&gt;&lt;/a&gt;, was released in January 2010.&lt;/p&gt;\n\n&lt;p&gt;Traces of this era can still be found online but this commercially unsuccessful epoch was ultimately abandoned to make way for the rebrand of Lana Del Rey.&lt;/p&gt;\n\n&lt;p&gt;In 2011, &lt;a href="https://www.youtube.com/watch?v=cE6wxDqdOV0" rel="noopener nofollow"&gt;a homemade music video&lt;/a&gt; for &lt;a href="https://genius.com/Lana-del-rey-video-games-lyrics" rel="noopener" data-api_path="/songs/64755"&gt;“Video Games”&lt;/a&gt; was uploaded to Lana’s YouTube channel. The track became a viral sensation, sparking widespread interest in the artist, and she signed with Interscope/Polydor in the October of that year. On the acknowledgements for her fifth studio album, &lt;a href="https://genius.com/albums/Lana-del-rey/Lust-for-life" rel="noopener" data-api_path="/albums/331260"&gt;&lt;em&gt;Lust for Life&lt;/em&gt;&lt;/a&gt; she wrote&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Abel, I still think of the day u posted video games on your Tumblr. Grateful for u.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Here, she is referring the R&amp;amp;B-Hip-Hop singer and frequent collaborator, &lt;a href="https://genius.com/artists/The-weeknd" rel="noopener" data-api_path="/artists/2358"&gt;The Weeknd&lt;/a&gt;. Their friendship eventually blossomed into a collaboration on the title track for said album as well as &lt;a href="https://genius.com/The-weeknd-stargirl-interlude-lyrics" rel="noopener" data-api_path="/songs/2911566"&gt;“Stargirl Interlude”&lt;/a&gt; on The Weeknd’s album &lt;a href="https://genius.com/albums/The-weeknd/Starboy" rel="noopener" data-api_path="/albums/221906"&gt;&lt;em&gt;Starboy&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Since then, Lana has since delivered a flair unlike any other artist of her generation, praised for its cinematic sound and references to various aspects of pop culture, particularly that of the 1950s and 1960s Americana.&lt;/p&gt;\n\n&lt;p&gt;After many studio releases that were removed from streaming platforms to make way for her rebrand, &lt;a href="https://www.vogue.co.uk/article/lana-del-rey-interview" rel="noopener nofollow"&gt;Lana explained the meaning of her stage name&lt;/a&gt; and how it was influenced by her time in Florida while in college.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanted a name I could shape the music towards. I was going to Miami quite a lot at the time, speaking a lot of Spanish with my friends from Cuba – Lana Del Rey reminded us of the glamour of the seaside. It sounded gorgeous coming off the tip of the tongue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Before using &lt;em&gt;Del Rey&lt;/em&gt;, she initially chose the alternate spelling &lt;em&gt;Lana Del Ray&lt;/em&gt; and released an album under that name, but ultimately chose the latter moving forward.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2012, Lana’s first major-label project, &lt;a href="https://genius.com/albums/Lana-del-rey/Born-to-die" rel="noopener" data-api_path="/albums/14533"&gt;&lt;em&gt;Born to Die&lt;/em&gt;&lt;/a&gt;, was released. Despite mixed reviews from critics, it is the second-longest charting album on the Billboard 200 by a female artist, and gave Lana her best-known smash hit &lt;a href="https://genius.com/Lana-del-rey-summertime-sadness-lyrics" rel="noopener" data-api_path="/songs/64764"&gt;“Summertime Sadness”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Later that year, the Grammy-nominated EP &lt;a href="https://genius.com/albums/Lana-del-rey/Paradise" rel="noopener" data-api_path="/albums/23755"&gt;&lt;em&gt;Paradise&lt;/em&gt;&lt;/a&gt; was released, and was packaged alongside the &lt;a href="https://genius.com/albums/Lana-del-rey/Born-to-die-the-paradise-edition" rel="noopener" data-api_path="/albums/696755"&gt;reissue&lt;/a&gt; of &lt;em&gt;Born to Die&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Two years later, the atmospheric album &lt;a href="https://genius.com/albums/Lana-del-rey/Ultraviolence" rel="noopener" data-api_path="/albums/93816"&gt;&lt;em&gt;Ultraviolence&lt;/em&gt;&lt;/a&gt; was released, showcasing a slightly darker sound and theme. The term comes from the Anthony Burgess novel, &lt;em&gt;A Clockwork Orange&lt;/em&gt;, and refers to excessive or unjustified violence.&lt;/p&gt;\n\n&lt;p&gt;2015 saw the arrival of &lt;a href="https://genius.com/albums/Lana-del-rey/Honeymoon" rel="noopener" data-api_path="/albums/126114"&gt;&lt;em&gt;Honeymoon&lt;/em&gt;&lt;/a&gt; which Lana &lt;a href="https://youtu.be/QBrApmX2QfQ?t=184" rel="noopener nofollow"&gt;described&lt;/a&gt; as being “a tribute to Los Angeles”. The album became the subject of much critical acclaim, garnering the most praise of all of her projects before it, with some even calling it her best work yet.&lt;/p&gt;\n\n&lt;p&gt;Her fifth studio album &lt;a href="https://genius.com/albums/Lana-del-rey/Lust-for-life" rel="noopener" data-api_path="/albums/331260"&gt;&lt;em&gt;Lust For Life&lt;/em&gt;&lt;/a&gt; followed in 2017, packing some high-profile features with artists including &lt;a href="https://genius.com/artists/The-weeknd" rel="noopener" data-api_path="/artists/2358"&gt;The Weeknd&lt;/a&gt;, &lt;a href="https://genius.com/artists/A-ap-rocky" rel="noopener" data-api_path="/artists/12417"&gt;A$AP Rocky&lt;/a&gt;, &lt;a href="https://genius.com/artists/Playboi-carti" rel="noopener" data-api_path="/artists/289976"&gt;Playboi Carti&lt;/a&gt; and &lt;a href="https://genius.com/artists/Stevie-nicks" rel="noopener" data-api_path="/artists/21747"&gt;Stevie Nicks&lt;/a&gt;. &lt;em&gt;Billboard&lt;/em&gt; &lt;a href="https://www.billboard.com/articles/columns/pop/8527901/lana-del-rey-billboard-cover-story-2019" rel="noopener nofollow"&gt;called it&lt;/a&gt; a “new-age folk” record and it was named in the Top 50 Best Album of the Year lists by several high-profile music publications.&lt;/p&gt;\n\n&lt;p&gt;After much anticipation, teasing and at least one deferred release date, on August 30, 2019, &lt;a href="https://genius.com/albums/Lana-del-rey/Norman-fucking-rockwell" rel="noopener" data-api_path="/albums/459810"&gt;&lt;em&gt;Norman Fucking Rockwell!&lt;/em&gt;&lt;/a&gt; was debuted to the world. This album earned her Grammy nominations and places on year-end lists, launching her further than ever into the limelight.&lt;/p&gt;\n\n&lt;p&gt;Only days after &lt;em&gt;NFR!&lt;/em&gt;’s release, in &lt;a href="https://www.thetimes.co.uk/article/lana-del-rey-interview-trump-is-hurting-people-and-encouraging-violence-h5q9cxzsd" rel="noopener nofollow"&gt;an interview with &lt;em&gt;The Times&lt;/em&gt;&lt;/a&gt;, Lana confirmed that a new project entitled &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails Over the Country Club&lt;/em&gt;&lt;/a&gt; (originally called as &lt;em&gt;White Hot Forever&lt;/em&gt;) was in the works with a potential release in 2020. Nearing the end of 2019, Lana also &lt;a href="https://www.instagram.com/p/B6RioLjJl4P/" rel="noopener nofollow"&gt;announced&lt;/a&gt; she would be releasing a spoken word poetry album on January 4th, 2020, as the book itself was taking long to hand-bind.&lt;/p&gt;\n\n&lt;p&gt;Similar to the way &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails Over The Country Club&lt;/em&gt;&lt;/a&gt; was announced, Lana took to &lt;a href="https://www.instagram.com/p/CMqBcHah785/" rel="noopener nofollow"&gt;Instagram&lt;/a&gt;  after the release of &lt;a href="https://genius.com/albums/Lana-del-rey/Chemtrails-over-the-country-club" rel="noopener" data-api_path="/albums/621392"&gt;&lt;em&gt;Chemtrails&lt;/em&gt;&lt;/a&gt; to announce a follow-up eighth studio album called &lt;a href="https://genius.com/albums/Lana-del-rey/Blue-banisters" rel="noopener" data-api_path="/albums/749828"&gt;&lt;em&gt;Blue Banisters&lt;/em&gt;&lt;/a&gt; that is expected to be released on July 4th, 2021. Three singles from &lt;em&gt;Blue Banisters&lt;/em&gt; were released on May 20th, 2021.&lt;/p&gt;\n\n&lt;hr&gt;  \n\n\n&lt;p&gt;A visual artist as well as performer, Del Rey has released a number of music videos, including a short music film that she wrote, directed and starred in, titled &lt;a href="https://genius.com/albums/Lana-del-rey/Tropico-ep" rel="noopener" data-api_path="/albums/249618"&gt;&lt;em&gt;Tropico&lt;/em&gt;&lt;/a&gt;. The piece features dark undertones and haunting scenes of vintage technicolor.&lt;/p&gt;\n\n&lt;p&gt;Lana’s lyrics explore a broad range of intricate topics such as love and relationships, famous icons and her idols, her own experiences with fame, pop culture, religion, patriotism and nostalgia.&lt;br&gt;\nShe uniquely encapsulates a mix of magic, glamour and beauty, intertwined with grit, destruction and sadness. &lt;em&gt;Vogue UK&lt;/em&gt; &lt;a href="https://www.vogue.co.uk/article/lana-del-rey-interview" rel="noopener nofollow"&gt;published an interview&lt;/a&gt; with Lana in late 2011 where it was revealed that she refers to her musical artistry as “Hollywood sadcore”.&lt;/p&gt;\n\n&lt;p&gt;Lana’s catalog of work is not made up of a constant stream of mainstream radio hits, and she continues to remain singular in her style of writing and singing, showing no similarity to any artist in modern pop or alternative music.&lt;/p&gt;', 'alternate_names': ['Lana Del Ray', 'Elizabeth Grant', 'Sparkle Jump Rope Queen', 'Lizzy Grant', 'May Jailer', 'Elizabeth Woolridge Grant']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-lemonheads', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>{'url': 'https://genius.com/artists/The-smiths', 'annotations': {'description': '&lt;p&gt;On August 31, 1978, while attending a &lt;a href="https://genius.com/artists/Patti-smith" rel="noopener" data-api_path="/artists/26395"&gt;Patti Smith&lt;/a&gt; concert, a fourteen-year-old &lt;a href="https://genius.com/artists/Johnny-marr" rel="noopener" data-api_path="/artists/71491"&gt;Johnny Marr&lt;/a&gt; was introduced to nineteen-year-old &lt;a href="https://genius.com/artists/Morrissey" rel="noopener" data-api_path="/artists/39064"&gt;Morrissey&lt;/a&gt;. Almost four years later, in May 1982, Marr would &lt;a href="https://books.google.com/books?id=ImK_BgAAQBAJ&amp;amp;pg=PT16" rel="noopener nofollow"&gt;appear at Morrissey’s doorstep with his friend Steve Pomfret&lt;/a&gt; and offer a position in a new band he wished to form. The two spent the next few hours discussing their love for certain bands and the next day Morrissey confirmed that he was interested in forming a group with Marr.&lt;/p&gt;\n\n&lt;p&gt;They went on to write a handful of songs together—“Don’t Blow Your Horn,” &lt;a href="https://genius.com/The-smiths-the-hand-that-rocks-the-cradle-lyrics" rel="noopener" data-api_path="/songs/156209"&gt;“The Hand That Rocks the Cradle,”&lt;/a&gt; and &lt;a href="https://genius.com/The-smiths-suffer-little-children-lyrics" rel="noopener" data-api_path="/songs/156216"&gt;“Suffer Little Children,”&lt;/a&gt; respectively. Morrissey composed lyrics while Marr provided guitar instrumentation and Stephen Pomfret provided bass. Several months later, Marr and Morrissey had a name for their band: &lt;a href="https://www.officialsmiths.co.uk/tqid/" rel="noopener nofollow"&gt;The Smiths&lt;/a&gt;. The group would continue to rehearse until Pomfret &lt;a href="https://inostalgia.co.uk/music/the-smiths/" rel="noopener nofollow"&gt;reportedly left out of frustration&lt;/a&gt;. Pomfret was quickly replaced with bassist &lt;a href="https://genius.com/artists/Dale-hibbert" rel="noopener"&gt;Dale Hibbert&lt;/a&gt;, and because of his deeper connections with the music industry, The Smiths were able to record their first set of demos with drummer &lt;a href="https://genius.com/artists/Simon-wolstencroft" rel="noopener" data-api_path="/artists/1245949"&gt;Simon Wolstencroft&lt;/a&gt;. Wolstencroft expressed his disinterest in continuing to play with the group and, after several auditions, &lt;a href="https://genius.com/artists/Mike-joyce" rel="noopener" data-api_path="/artists/648888"&gt;Mike Joyce&lt;/a&gt; was hired.&lt;/p&gt;\n\n&lt;p&gt;In October 1982, The Smiths played their first official live show at &lt;a href="https://www.academymusicgroup.com/o2ritzmanchester/" rel="noopener nofollow"&gt;The Ritz in Manchester&lt;/a&gt;. After the gig, Marr and Morrissey expressed their disappointment with Hibbert’s playing and he was &lt;a href="https://www.lancashiretelegraph.co.uk/news/14112575.founder-member-smiths-dale-hibbert-tells-side-story/" rel="noopener nofollow"&gt;forced out of the band&lt;/a&gt;, later to be replaced with Morrissey’s classmate, &lt;a href="https://genius.com/artists/Andy-rourke" rel="noopener" data-api_path="/artists/1001980"&gt;Andy Rourke&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After being rejected by several labels, Morrissey and Marr went to London to deliver a demo cassette to &lt;a href="https://genius.com/artists/Geoff-travis" rel="noopener" data-api_path="/artists/1091041"&gt;Geoff Travis&lt;/a&gt;, the founder of the independent label &lt;a href="https://podcasts.apple.com/us/podcast/geoff-travis-on-rough-trade-scritti-polittis-green/id1441099644?i=1000479125836" rel="noopener nofollow"&gt;Rough Trade Records&lt;/a&gt;. Travis agreed to release one of the songs—&lt;a href="https://genius.com/The-smiths-hand-in-glove-lyrics" rel="noopener" data-api_path="/songs/151666"&gt;“Hand in Glove”&lt;/a&gt;—and it was subsequently issued as a single &lt;a href="https://www.discogs.com/The-Smiths-Hand-In-Glove/release/13261180" rel="noopener nofollow"&gt;later in the year&lt;/a&gt;. While the band played their second official live show at the &lt;a href="https://www.studentcentral.london/" rel="noopener nofollow"&gt;University of London Union&lt;/a&gt;, broadcaster &lt;a href="https://www.theguardian.com/news/2001/aug/01/guardianobituaries2" rel="noopener nofollow"&gt;John Walters&lt;/a&gt; was in the audience—from the &lt;a href="https://www.bbc.com/historyofthebbc/100-voices/radio-reinvented/the-dj/john-peel" rel="noopener nofollow"&gt;&lt;em&gt;John Peel BBC Sessions&lt;/em&gt;&lt;/a&gt;. The group was &lt;a href="https://www.nme.com/blogs/nme-blogs/the-best-john-peel-sessions-the-smiths-pulp-queen-david-bowie-3806" rel="noopener nofollow"&gt;invited to play&lt;/a&gt; and the band’s radio exposure was enough for them to be &lt;a href="https://web.archive.org/web/20210110024753/https://books.google.com/books?id=ImK_BgAAQBAJ&amp;amp;pg=PT16" rel="noopener nofollow"&gt;signed to Rough Trade&lt;/a&gt;. Several recordings from the Peel Sessions would later be issued on their 1984 compilation, &lt;a href="https://genius.com/albums/The-smiths/Hatful-of-hollow" rel="noopener" data-api_path="/albums/45756"&gt;&lt;em&gt;Hatful of Hollow&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On February 20, 1984, The Smiths released their self-titled &lt;a href="https://genius.com/albums/The-smiths/The-smiths" rel="noopener" data-api_path="/albums/15103"&gt;debut album&lt;/a&gt;. The project was both a &lt;a href="https://www.rollingstone.com/music/music-album-reviews/the-smiths-98317/" rel="noopener nofollow"&gt;critical&lt;/a&gt; and &lt;a href="https://www.amazon.com/Great-Rock-Discography-Complete-Discographies/dp/1841956155" rel="noopener nofollow"&gt;commercial&lt;/a&gt; success, but was met with controversy over some seemingly disturbing or distasteful lyrics, as the &lt;a href="https://genius.com/The-smiths-suffer-little-children-lyrics" rel="noopener" data-api_path="/songs/156216"&gt;final song&lt;/a&gt; was a haunting tribute to &lt;a href="https://www.history.com/this-day-in-history/the-moors-murderers-begin-their-killing-spree" rel="noopener nofollow"&gt;the victims of the Moors Murders&lt;/a&gt; which took place twenty years prior to its release.&lt;/p&gt;\n\n&lt;p&gt;Less than a year later, The Smiths released &lt;a href="https://genius.com/albums/The-smiths/Meat-is-murder" rel="noopener" data-api_path="/albums/15360"&gt;&lt;em&gt;Meat Is Murder&lt;/em&gt;&lt;/a&gt;; an album that was more politically charged than their previous effort. Just like their first album, &lt;em&gt;Meat Is Murder&lt;/em&gt; was met with controversy due to Morrissey’s &lt;a href="http://www.overyourhead.co.uk/2004/11/band-aid-vs.html" rel="noopener nofollow"&gt;interviews&lt;/a&gt; that occurred during its promotional period. Despite the controversy, the band would continue to tour around the United Kingdom and the United States, eventually recording what is considered to be &lt;a href="https://consequence.net/video/masterpiece-reviews-the-smiths-the-queen-is-dead/" rel="noopener nofollow"&gt;their masterpiece&lt;/a&gt;, June 1986’s &lt;a href="https://genius.com/albums/The-smiths/The-queen-is-dead" rel="noopener" data-api_path="/albums/17321"&gt;&lt;em&gt;The Queen Is Dead&lt;/em&gt;&lt;/a&gt;. The instrumentation proved to be more diverse, as Marr would implement string-like sounds on certain tracks—namely &lt;a href="https://genius.com/The-smiths-there-is-a-light-that-never-goes-out-lyrics" rel="noopener" data-api_path="/songs/75171"&gt;“There Is a Light That Never Goes Out.”&lt;/a&gt; In the US, &lt;em&gt;The Queen Is Dead&lt;/em&gt; peaked at &lt;a href="https://www.billboard.com/music/the-smiths/chart-history/TCL/song/311090" rel="noopener nofollow"&gt;#70 and remained on the charts for 37 weeks&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After the album’s release, the band hired &lt;a href="https://genius.com/artists/Craig-cannon" rel="noopener" data-api_path="/artists/1057131"&gt;Craig Cannon&lt;/a&gt; as a secondary guitarist. Cannon would accompany the group on several singles, such as &lt;a href="https://genius.com/The-smiths-ask-lyrics" rel="noopener" data-api_path="/songs/218124"&gt;“Ask,”&lt;/a&gt; &lt;a href="https://genius.com/The-smiths-panic-lyrics" rel="noopener" data-api_path="/songs/208676"&gt;“Panic,”&lt;/a&gt; and &lt;a href="https://genius.com/The-smiths-half-a-person-lyrics" rel="noopener" data-api_path="/songs/220757"&gt;“Half a Person.”&lt;/a&gt; It was also around this time that the Smiths became upset with treatment at Rough Trades and their partnership &lt;a href="https://magnetmagazine.com/2006/10/04/the-smiths-and-rough-trade-records-how-soon-is-now/" rel="noopener nofollow"&gt;dissolved&lt;/a&gt;, leading the band to sign exclusively to &lt;a href="https://www.rollingstone.com/music/music-features/why-its-great-the-smiths-broke-up-117660/" rel="noopener nofollow"&gt;EMI&lt;/a&gt;. The Smiths’ final studio album, &lt;a href="https://genius.com/albums/The-smiths/Strangeways-here-we-come" rel="noopener" data-api_path="/albums/27835"&gt;&lt;em&gt;Strangeways, Here We Come&lt;/em&gt;&lt;/a&gt;, was released on September 28, 1987, and by then the band had already broken up due to exhaustion and tension between members. &lt;em&gt;Strangeways, Here We Come&lt;/em&gt; was met with commercial and critical success, &lt;a href="https://www.billboard.com/music/the-smiths/chart-history/" rel="noopener nofollow"&gt;charting&lt;/a&gt; in both the United States and the United Kingdom.&lt;/p&gt;\n\n&lt;p&gt;Each member of The Smiths went on to have their own successful solo career. Morrissey’s albums, in particular, have &lt;a href="https://the-earl-grey.livejournal.com/258865.html#:~:text=Cumulatively%20The%20Smiths%20have%20sold,and%20Morrissey%20has%20sold%202%2C350%2C983." rel="noopener nofollow"&gt;sold&lt;/a&gt; millions of copies, and Johnny Marr would form several bands and work with other artists—namely Modest Mouse on their March 2007 album, &lt;a href="https://genius.com/albums/Modest-mouse/We-were-dead-before-the-ship-even-sank" rel="noopener" data-api_path="/albums/23596"&gt;&lt;em&gt;We Were Dead Before the Ship Even Sank&lt;/em&gt;&lt;/a&gt;, where he provided guitar instrumentation. Rourke went on to join several other groups—some alongside Joyce—and became a &lt;a href="https://web.archive.org/web/20110623121120/http://www.eastvillageradio.com/shows/andyrourkesjetlag/" rel="noopener nofollow"&gt;radio host&lt;/a&gt;. The Smiths have notably influenced other rock bands such as &lt;a href="http://news.bbc.co.uk/1/hi/entertainment/music/3005033.stm" rel="noopener nofollow"&gt;The Stone Roses, Oasis, and more&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Macklemore-and-ryan-lewis', 'annotations': {'description': '&lt;p&gt;Macklemore &amp;amp; Ryan Lewis are a hip-hop duo from Seattle, Washington, comprised of rapper &lt;a href="https://genius.com/artists/Macklemore" rel="noopener" data-api_path="/artists/2026"&gt;&lt;strong&gt;Macklemore&lt;/strong&gt;&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Ryan-lewis" rel="noopener" data-api_path="/artists/2025"&gt;&lt;strong&gt;Ryan Lewis&lt;/strong&gt;&lt;/a&gt; which formed in 2008. Together they have made two studio albums &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt;, in 2012, and &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt; spawned two number one singles &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-cant-hold-us-lyrics" rel="noopener" data-api_path="/songs/57234"&gt;“Can’t Hold Us”&lt;/a&gt; and &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-thrift-shop-lyrics" rel="noopener" data-api_path="/songs/86538"&gt;“Thrift Shop”&lt;/a&gt; by mixing poppy, likeable beats with catchy hooks. They also had a hit with the gay rights song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-same-love-lyrics" rel="noopener" data-api_path="/songs/81672"&gt;“Same Love”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Mary-lambert" rel="noopener" data-api_path="/artists/22717"&gt;Mary Lambert&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their second album &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt; was released in February\u200b 2016, preceded by the single &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-downtown-lyrics" rel="noopener" data-api_path="/songs/2291611"&gt;“Downtown”&lt;/a&gt; featuring hip-hop legends &lt;a href="https://genius.com/artists/Grandmaster-melle-mel" rel="noopener" data-api_path="/artists/9911"&gt;Grandmaster Melle Mell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Grandmaster-caz" rel="noopener" data-api_path="/artists/5137"&gt;Grandmaster Caz&lt;/a&gt;.  They also released the &lt;a href="http://pitchfork.com/thepitch/1003-macklemores-white-privilege-ii-is-a-mess-but-we-should-talk-about-it/" rel="noopener nofollow"&gt;controversial&lt;/a&gt; song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-white-privilege-ii-lyrics" rel="noopener" data-api_path="/songs/2411196"&gt;“White Privilege II”&lt;/a&gt; as a promotional single, which explored the ideas of white privilege and the Black Lives Matter movement.&lt;/p&gt;\n\n&lt;p&gt;In 2016, Macklemore and Ryan Lewis amicably split for the time being and Macklemore has since released &lt;a href="https://genius.com/albums/Macklemore/Gemini" rel="noopener" data-api_path="/albums/358991"&gt;a solo album&lt;/a&gt;. However, one cannot rule out the possibility that there will be more Macklemore &amp;amp; Ryan Lewis music in the future.&lt;/p&gt;', 'alternate_names': ['Ryan Lewis &amp; Macklemore']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Vassy', 'annotations': {'description': '&lt;p&gt;One of the most highly sought-after vocalists around the world in dance music, VASSY, the Australian powerhouse has quite an impressive track record of massive collaborations under her belt.  Her discography includes a myriad of chart-topping multi platinum records with prolific acts including Tiesto, David Guetta, Afrojack, KSHMR, &amp;amp; many more.&lt;br&gt;\nHere to prove she has no intention of slowing down, VASSY is maintaining her momentum with a brand-new summer anthem “Doomsday” with award-winning producer &amp;amp; remixer of the year Lodato.  The hypnotic record is now available via SONY Red’s KMV Music, an imprint spearheaded by VASSY herself.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c67fbbef0a552835dd7e35108c09a5d7.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Cedric-gervais', 'annotations': {'description': '&lt;p&gt;Cédric Gervais is a Grammy Award-winning French DJ and producer of house music. He released the electro-house song “Molly” in 2012, which was heavily sampled in the song of the same name by rapper Tyga.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Zayn', 'annotations': {'description': '&lt;p&gt;Zain Javadd “Zayn” Malik is an English/Pakistani singer and songwriter, and a former member of the boy band &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Malik auditioned for the British television series &lt;em&gt;The X Factor&lt;/em&gt;. After being eliminated as a solo performer, Malik was brought back into the competition, along with four other contestants, to form the group that would later be known as One Direction. During Zayn’s time in the band, they released four commercially successful albums, performed on a worldwide tour, and won several awards.&lt;/p&gt;\n\n&lt;p&gt;In March 2015, Malik’s representative announced the singer’s departure from the band, and Malik signed a solo recording contract with RCA Records. On November 17th, 2015, through an interview for &lt;em&gt;The Fader&lt;/em&gt;, Malik teased the release of a new song, &lt;a href="https://genius.com/Zayn-malik-befour-lyrics" rel="noopener" data-api_path="/songs/2372597"&gt;“Befour”&lt;/a&gt;, from his debut album &lt;a href="https://genius.com/albums/Zayn/Mind-of-mine" rel="noopener" data-api_path="/albums/142850"&gt;&lt;em&gt;Mind Of Mine&lt;/em&gt;&lt;/a&gt;. Lead single &lt;a href="https://genius.com/Zayn-pillowtalk-lyrics" rel="noopener" data-api_path="/songs/2414425"&gt;“PILLOWTALK”&lt;/a&gt; debuted at #1 on the Hot 100, becoming Zayn’s first number one single. By reaching #1 in the US, it achieved something that One Direction never did—their best ranking was #2 with &lt;a href="https://genius.com/One-direction-best-song-ever-lyrics" rel="noopener" data-api_path="/songs/194065"&gt;“Best Song Ever.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Zain Malik', 'Zayn J. Malik', 'Zain Javadd "Zayn" Malik', 'Zain Javadd Malik', 'Zayn Malik']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Freddie-mercury', 'annotations': {'description': '&lt;p&gt;Farrokh Bulsara, of Parsi heritage (Zoroastrian)/ethnicity, was born in 1946 in the British protectorate/sultanate Zanzibar (now part of Tanzania).  In 1964 the Bulsara family moved to England, fleeing the Zanzibar Revolution.&lt;/p&gt;\n\n&lt;p&gt;In 1970 the aspiring and ambitious artist changed his name to Freddie Mercury and formed the band &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt; with guitarist &lt;a href="https://genius.com/artists/Brian-may" rel="noopener" data-api_path="/artists/16631"&gt;Brian May&lt;/a&gt; and drummer &lt;a href="https://genius.com/artists/Roger-taylor" rel="noopener" data-api_path="/artists/359481"&gt;Roger Taylor&lt;/a&gt;.  Bassist &lt;a href="https://genius.com/artists/John-deacon" rel="noopener" data-api_path="/artists/384923"&gt;John Deacon&lt;/a&gt; joined in 1971.&lt;/p&gt;\n\n&lt;p&gt;Mercury died at the age of 45 and has since become regarded as one of the greatest singers and frontmen in rock music history.  His dynamic, powerful voice and theatricality mesmerized audiences; his ability to connect and engage with stadium-sized crowds – no matter what language – became legendary.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s songwriting, musically eclectic and complex, became uncannily accessible when he penned “&lt;a href="https://genius.com/Queen-Killer-queen-lyrics" rel="noopener" data-api_path="/songs/75244"&gt;Killer Queen&lt;/a&gt;”, the hit single which drove the popularity of Queen’s 3rd album, turning the struggling-4-year-old band into bonafide rock stars by late 1974. However, financially they were bankrupt; Freddie’s ability to obtain [Elton John]’s manager, [John Reed] was a masterstroke in driving the next album’s success, in every respect.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s tour-de-force chart-busting “&lt;a href="https://genius.com/Queen-bohemian-rhapsody-lyrics" rel="noopener" data-api_path="/songs/1063"&gt;Bohemian Rhapsody&lt;/a&gt;” marked Queen’s rise to mega-stardom in very late 1975.  It was the first hit from &lt;a href="https://genius.com/albums/Queen/A-night-at-the-opera" rel="noopener" data-api_path="/albums/35169"&gt;&lt;em&gt;A Night At The Opera&lt;/em&gt;&lt;/a&gt;, Queen’s 4th LP, the musical (and commercial) force brought on by all four of &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt;’s men (all of whom were songwriters), from studio to stadium.&lt;/p&gt;\n\n&lt;p&gt;Queen toured relentlessly for each album, mastering the art of “spectacle”, offering OTP showmanship and theatrics, an ever-present element to the band upon inception, thanks to Freddie’s insistence.  Queen became a unique brand of stadium rock,  transcending borders and music charts from country-to-country, and by 1981, those in Latin America, risky territory at the time for a band so popular.&lt;/p&gt;\n\n&lt;p&gt;Mercury’s solo work (contrary to the 2018 blockbuster biopic’s dramatic license, Queen’s frontman never desired to “go solo”)  is limited to various singles and two studio albums-proper, 1985’s &lt;a href="https://genius.com/albums/Freddie-mercury/Mr-bad-guy" rel="noopener" data-api_path="/albums/113564"&gt;&lt;em&gt;Mr. Bad Guy&lt;/em&gt;&lt;/a&gt;, and 1988’s &lt;a href="https://genius.com/albums-Freddie-mercury/Barcelona-special-edition" rel="noopener"&gt;&lt;em&gt;Barcelona&lt;/em&gt;&lt;/a&gt;, his opera-meets-rock LP featuring his opera idol’s chops, the legendary soprano &lt;a href="https://genius.com/artists/Montserrat-caballe" rel="noopener" data-api_path="/artists/361801"&gt;Montserrat Caballé&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Just over two decades since John Deacon had completed Queen’s classic lineup in 1971, Mercury died, in November 24, 1991.&lt;/p&gt;', 'alternate_names': ['Frederick Mercury', 'Farrokh Bulsara']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Deee-lite', 'annotations': {'description': '&lt;p&gt;Deee-Lite was comprised of three members. Lady Miss Kier, the lead singer, met Super DJ Dmitry Brill in New York. They started dating and got swept up in the New York dance music scene. They met DJ Towa Tei at a club and thus the group was formed. The group was known for its positive world-unifying message and ‘70s-inspired fashion aesthetic.&lt;/p&gt;\n\n&lt;p&gt;Dee-Lite dropped three albums in quick succession—&lt;em&gt;World Clique&lt;/em&gt; (1990), &lt;em&gt;Infinity Within&lt;/em&gt; (1992), and &lt;em&gt;Dewdrops in the Garden&lt;/em&gt; (1994). Their biggest hit came at the beginning however—&lt;a href="https://genius.com/Deee-lite-groove-is-in-the-heart-lyrics" rel="noopener" data-api_path="/songs/32351"&gt;“Groove Is In The Heart”&lt;/a&gt; from their debut album was a major hit worldwide.&lt;/p&gt;\n\n&lt;p&gt;The group dissolved in 1996 due to creative differences.  All three now mainly work as headlining club DJs, with Lady Miss Kier also doing side work as a fashion consultant and public speaker.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Eddie-rabbitt', 'annotations': {'description': '&lt;p&gt;Edward Thomas Rabbitt was born November 27, 1941 in Brooklyn, New York to Irish immigrant parents.  He was raised in East Orange, New Jersey.  On his 35th birthday, he married Janine Girardi.  They had three children.  One daughter, Demelza, and two sons, Timmy &amp;amp; Tommy.  Timmy was born with biliary atresia and died in childhood after a failed liver transplant intended to save his life.  In March 1997, Eddie learned that he had lung cancer.  He passed away on May 7, 1998.  Rabbitt received several awards over the years.  The Academy of Country Music Awards Top New Male Vocalist in 1977.  Music City News Country Songwriter of the Year and BMI’s Robert J. Burton Award for &lt;a href="https://genius.com/Eddie-rabbitt-suspicions-lyrics" rel="noopener" data-api_path="/songs/2278080"&gt;“Suspicions”&lt;/a&gt; in 1979. 1980 brought BMI’s Song of the Year for “Suspicions.”  In 1996 he pulled in BMI’s Three Million-Air Award and Two Million-Air Awards for &lt;a href="https://genius.com/Eddie-rabbitt-i-love-a-rainy-night-lyrics" rel="noopener" data-api_path="/songs/146840"&gt;“I Love a Rainy Night”&lt;/a&gt; and &lt;a href="https://genius.com/Eddie-rabbitt-kentucky-rain-lyrics" rel="noopener" data-api_path="/songs/1030438"&gt;“Kentucky Rain”&lt;/a&gt;, respectively.  He was inducted into the Nashville Songwriters Hall of Fame the year of his death, 1998.  Eddie’s final #1 hit came in 1989 with &lt;a href="https://genius.com/Eddie-rabbitt-on-second-thought-lyrics" rel="noopener" data-api_path="/songs/2263489"&gt;“On Second Thought”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Edward Rabbitt', 'Edward Thomas Rabbitt']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Joey-ramone', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Jeff Hyman', 'Jeffrey Hyman', 'Jeffrey Ross Hyman']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Billie-eilish', 'annotations': {'description': '&lt;p&gt;Billie Eilish Pirate Baird O\'Connell (b. December 18, 2001), known professionally as Billie Eilish, is an American singer and songwriter born and raised in Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Working alongside her older brother &lt;a href="https://genius.com/artists/Finneas" rel="noopener" data-api_path="/artists/615565"&gt;Finneas&lt;/a&gt;, her co-writer and producer, she’s taken the internet by storm with her haunting vocals and eerily beautiful lyrics and genre-defying production that was poised to breakout.&lt;/p&gt;\n\n&lt;p&gt;For Billie, creating music wasn’t always her niche—dancing was. Born and raised in the entertainment mecca of Los Angeles, from a family comprised of musicians and actors, Billie was enthralled in the spotlight of dance. However, amid a &lt;a href="https://www.interviewmagazine.com/music/discovery-billie-eilish" rel="noopener nofollow"&gt;growth plate injury in 2015&lt;/a&gt;, she was in practice for a recital dancing eleven hours a week for, she became an underground pop sensation.&lt;/p&gt;\n\n&lt;p&gt;Singing and songwriting had never been unknown to Billie, having &lt;a href="http://www.bbc.com/news/entertainment-arts-40580489" rel="noopener nofollow"&gt;written her first song at four and joined the Los Angeles Children’s Choir at eight&lt;/a&gt;. &lt;a href="https://www.harpersbazaar.com/culture/art-books-music/a13040159/billie-eilish-interview/" rel="noopener nofollow"&gt;So when her dance instructor was looking for a song to choreograph&lt;/a&gt;, Billie, with help from Finneas, created &lt;a href="https://genius.com/Billie-eilish-ocean-eyes-lyrics" rel="noopener" data-api_path="/songs/2403346"&gt;“ocean eyes.”&lt;/a&gt; The two also agreed to upload it to SoundCloud, where it went viral with over two million streams, landing her a record deal with Interscope.&lt;/p&gt;\n\n&lt;p&gt;From there, &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;several remixes spawned and a follow-up single&lt;/a&gt; &lt;a href="https://genius.com/Billie-eilish-six-feet-under-lyrics" rel="noopener" data-api_path="/songs/2800298"&gt;“Six Feet Under”&lt;/a&gt; &lt;a href="https://open.spotify.com/artist/6qqNVTkY8uBg9cP3Jd7DAH" rel="noopener nofollow"&gt;was released the following year.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 2017, she released her debut EP, &lt;a href="https://genius.com/albums/Billie-eilish/Dont-smile-at-me-ep" rel="noopener" data-api_path="/albums/353310"&gt;&lt;i&gt;dont smile at me&lt;/i&gt;&lt;/a&gt;, which received mainstream applause and landed her a spot on Apple Music’s showcase for upcoming artists, &lt;a href="https://itunes.apple.com/us/show/up-next-billie-eilish/1271486673" rel="noopener nofollow"&gt;&lt;i&gt;UpNext&lt;/i&gt;.&lt;/a&gt; The EP also hit the top 40 on the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8467303/billboard-200-chart-moves-billie-eilishs-dont-smile-at-me-top-40" rel="noopener nofollow"&gt;&lt;i&gt;Billboard 200&lt;/i&gt;&lt;/a&gt; on July 19th.&lt;/p&gt;\n\n&lt;p&gt;On March 29th, 2019, Billie Eilish released her highly anticipated debut album, &lt;a href="https://genius.com/albums/Billie-eilish/When-we-all-fall-asleep-where-do-we-go" rel="noopener" data-api_path="/albums/418893"&gt;&lt;em&gt;WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?&lt;/em&gt;&lt;/a&gt; — a record centered around Eilish’s fascination with dreams and nightmares. Two weeks before its release, the album was officially &lt;a href="https://www.macrumors.com/2019/03/22/billie-eilish-breaks-record-pre-adding/" rel="noopener nofollow"&gt;given the title&lt;/a&gt; of “most pre-saved album of all time on Apple Music,” with over 800,000 to its name.&lt;/p&gt;\n\n&lt;p&gt;In 2020, Billie Eilish was nominated for 6 categories for the &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;62nd Grammy Awards&lt;/a&gt; ceremony, alongside with her brother Finneas. She was nominated in the five main categories (“Album of the Year”, “Best New Artist”, “Best Pop Solo Performance”, “Song of the Year”, Record of the Year") and “Best Pop Vocal Album”. Finneas was nominated in “Producer of the Year – non classical” and he won. Eilish won 5 Grammys in the 62nd ceremony: Album of the Year (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?”), Song of the Year (“bad guy”), Record of the Year (“bad guy”), Best New Artist and Best Pop Vocal Album (“WHEN WE ALL FALL ASLEEP, WHERE DO WE GO ?).&lt;/p&gt;\n\n&lt;p&gt;In 2021, Billie and Finneas also won in the &lt;a href="https://www.grammy.com/grammys/news/2021-grammys-complete-winners-nominees-list" rel="noopener nofollow"&gt;63rd Grammy Awards&lt;/a&gt; with two categories: Best Song Written for a Visual Media (“&lt;a href="https://genius.com/Billie-eilish-no-time-to-die-lyrics" rel="noopener" data-api_path="/songs/5173169"&gt;No Time To Die&lt;/a&gt;”, for the last James Bond movie) and Record of the Year (“&lt;a href="https://genius.com/Billie-eilish-everything-i-wanted-lyrics" rel="noopener" data-api_path="/songs/5013279"&gt;everything i wanted&lt;/a&gt;”, released in 2019).&lt;/p&gt;\n\n&lt;p&gt;On April 26, 2021, Billie Eilish &lt;a href="https://twitter.com/billieeilish/status/1386711797906898946" rel="noopener nofollow"&gt;teased&lt;/a&gt; the album’s title track, &lt;a href="https://genius.com/Billie-eilish-happier-than-ever-lyrics" rel="noopener" data-api_path="/songs/6533253"&gt;&lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/a&gt; Shortly after, &lt;a href="https://twitter.com/kelsucker/status/1387018534337843200" rel="noopener nofollow"&gt;billboards&lt;/a&gt; appeared in different locations that revealed the album’s title and release date of July 30, 2021, and an &lt;a href="https://www.instagram.com/p/COLIii2FB_R/?utm_source=ig_web_copy_link" rel="noopener nofollow"&gt;Instagram post&lt;/a&gt; from April 27 revealed the album’s cover artwork and announced the release of a new single on April 29, 2021. Eilish &lt;a href="https://www.musictimes.com/articles/82556/20210730/billie-eilish-breaks-record-happier-listen.htm" rel="noopener nofollow"&gt;broke her previous record&lt;/a&gt; for the most pre-saved album with a whopping 1,028,000 pre-saves for &lt;em&gt;Happier Than Ever.&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ["Billie Eilish O'Connell", "Billie O'Connell", "Billie Eilish Pirate Baird O'Connell"]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Cameo', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-cardigans', 'annotations': {'description': '&lt;p&gt;One of the most pleasing pop groups of the ‘90s, the Cardigans specialized in sugary confections that would grow annoying very quickly if they weren’t backed by solid musicianship and clever arrangements. The band’s 1995 breakout album, Life, reflected the Cardigans at their most saccharine – the sunny disposition of vocalist Nina Persson being the major argument in favor – and critics inserted the group into the space age pop revivalist camp. the Cardigans later proved that they were more difficult to pigeonhole, however.&lt;br&gt;\nEven the band’s origins showed that their later appearance was quite misleading; two heavy metal fanatics formed the group in October 1992 in Jonkoping, Sweden. Guitarist Peter Svensson met bassist Magnus Sveningsson in a hardcore group, though he had previously trained in music theory and jazz arranging. The two later grew tired of metal and decided to form a pop band with vocalist Nina Persson – an art-school friend who had never sung professionally – plus keyboard player Lars-Olof Johansson and drummer Bengt Lagerberg.&lt;/p&gt;\n\n&lt;p&gt;All five Cardigans moved into a small apartment in 1993 and began recording a demo tape that entered the hands of producer Tore Johansson later that year. He liked what he heard and invited the group to record at his Malmö studio. Signed to the dance-oriented Stockholm label, the Cardigans released Emmerdale in May 1994. The single “Rise &amp;amp; Shine” became a hit on Swedish radio soon after the release of the LP, and a readers poll in Sweden’s Slitz magazine voted Emmerdale the best album of 1994.&lt;br&gt;\nThe Cardigans spent the last half of 1994 touring Europe and recording their second album. A satirical response to their moody debut, Life showed the band at their most upbeat, including an angelic picture of Persson in an ice-skating outfit for the cover. Released in March 1995 – with several re-recordings of songs from Emmerdale – the album eventually sold one and a half million copies worldwide and became especially popular in Japan, where it achieved platinum status.&lt;/p&gt;\n\n&lt;p&gt;A deal with Minty Fresh gave the Cardigans an American release of Life in spring 1996, and the group played eight sold-out shows in the U.S. that summer. The American major labels began to notice the attention, and Mercury signed them soon after. First Band on the Moon, released in September 1996, de-emphasized the pure pop in favor of abstract arrangements and some rather violent themes. Nevertheless, the infectious single “Lovefool” became a radio hit by early 1997, and First Band on the Moon eventually reached gold status in America, as well as platinum certification in Japan (just three weeks after its release).&lt;br&gt;\nGran Turismo followed in 1998, though it lacked an obvious hit and led to a long hiatus for the band. Finally, the Cardigans returned in 2003 with Long Gone Before Daylight, marking a clear transition with confessional material closer to the singer/songwriter tradition. Super Extra Gravity followed in 2005.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tom-lordalge', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ashlee-simpson', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Ashlee Simpson&lt;/strong&gt; (born October 3, 1984) is an American singer-songwriter and actress. The younger sister of pop singer &lt;a href="https://genius.com/artists/Jessica-simpson" rel="noopener" data-api_path="/artists/8535"&gt;Jessica Simpson&lt;/a&gt;, she rose to prominence in the latter’s MTV reality show, and starred in her own spin-off &lt;em&gt;The Ashlee Simpson Show&lt;/em&gt; which followed her creating her debut album, &lt;a href="https://genius.com/albums/Ashlee-simpson/Autobiography" rel="noopener" data-api_path="/albums/36719"&gt;&lt;em&gt;Autobiography&lt;/em&gt;&lt;/a&gt;, with the media noting her “punk-rock” image as a contrast to her sister. The album was released after the show’s first season in 2004 and became a big success, debuting at number one on the US albums chart being certified Triple Platinum. Following a North American concert tour and a film appearance, Ashlee released her second Platinum number-one album, &lt;a href="https://genius.com/albums/Ashlee-simpson/I-am-me" rel="noopener" data-api_path="/albums/42890"&gt;&lt;em&gt;I Am Me&lt;/em&gt;&lt;/a&gt; (2005). Ashlee assumed creative control over her less successful but well-received third album, &lt;a href="https://genius.com/albums/Ashlee-simpson/Bittersweet-world" rel="noopener" data-api_path="/albums/42865"&gt;&lt;em&gt;Bittersweet World&lt;/em&gt;&lt;/a&gt; (2008), which differed from the pop-rock music of her previous efforts and featured a dance-pop, 1980s themed sound. In following years, she focused more on her acting career, scoring television and theatre roles while also starting her own family. In 2016, Simpson revealed she was working on new music with her husband &lt;a href="https://genius.com/artists/Evan-ross" rel="noopener" data-api_path="/artists/649521"&gt;Evan Ross&lt;/a&gt; and, in late 2018, they begun releasing music as a duo and called the project &lt;a href="https://genius.com/artists/Ashlee-evan" rel="noopener" data-api_path="/artists/1571688"&gt;ASHLEE + EVAN&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Ashley Nicolle Simpson', 'Ashlee Simpson Ross']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Journey', 'annotations': {'description': "&lt;p&gt;Journey is an American rock band that formed in San Francisco in 1973, composed of former members of Santana and Frumious Bandersnatch. The band has gone through several phases; its strongest commercial success occurred while fronted by vocalist Steve Perry, from 1978 until the group’s disbandment in 1987. During that period, the band released a series of hit songs, including 1981’s “Don’t Stop Believin'”, which in 2009 became the top-selling track in iTunes history amongst songs not released in the 21st century. Its parent studio album, Escape, the band’s eighth and most successful, reached No. 1 on the Billboard 200 and yielded another of their most popular singles, “Open Arms”. Its 1983 follow-up album, Frontiers, was almost as successful in the United States, reaching No. 2 and spawning several successful singles; it broadened the band’s appeal in the United Kingdom, where it reached No. 6 on the UK Albums Chart. Journey enjoyed a successful reunion with Perry in the mid-1990s and later regrouped with a series of lead singers.&lt;/p&gt;", 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Usher', 'annotations': {'description': '&lt;p&gt;With a career spanning over twenty-five years, Usher Raymond has become one of the most influential voices in contemporary R&amp;amp;B. Having sold over 75 million records worldwide, also attaining nine number-one records on the Billboard 100 charts, he is one of the most accomplished R&amp;amp;B singers in the world.&lt;/p&gt;\n\n&lt;p&gt;Coming into the scene in 90’s under the guidance of a young Puff Daddy finding his way. It wasn’t until he connected with the up-and-coming producer Jermaine Dupri did Usher begin having his success with his second and third albums, &lt;em&gt;My Way&lt;/em&gt; and &lt;em&gt;8701&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;He made an impact with his fourth studio album Confessions that sold 1.1 million copies in the first week and produced four consecutive Billboard Hot 100 number one singles —"Yeah!“, "Burn”, “Confessions Part II”, and “My Boo”.  Confessions went on to sell over 20 million copies worldwide and is the last album certified diamond by a black artist.&lt;/p&gt;\n\n&lt;p&gt;His fifth studio album Here I Stand sold over half a million copies in the first week and spawned the number one single “Love In This Club”. In 2010, his album Raymond v. Raymond was his third consecutive number one album on the Billboard 200 and launched the nearly sold-out OMG Tour, one of the highest grossing tours of the 2010s. The album also produced his ninth Billboard Hot 100 number one single “OMG”.  With “OMG” Usher became only the fourth artist to have number one hits across three consecutive decades.&lt;/p&gt;\n\n&lt;p&gt;Usher has continued success into the 2010s decade with his sixth studio album Lookin\' 4 Myself which produced the top 10, Grammy award-winning single “Climax”.  In 2015, his single “I Don’t Mind” reached number eleven on the Billboard Hot 100 and was his thirteenth number one hit on the Billboard Hot R&amp;amp;B/Hip-hop songs chart.  This feat was achieved with no promotion or music video, showing just how much star power Usher still holds in his hands.&lt;/p&gt;\n\n&lt;p&gt;He’s also received numerous awards and accolades including 18 Billboard Music Awards, 8 Grammy awards and a star on the Hollywood Walk of Fame.&lt;/p&gt;\n\n&lt;p&gt;As music evolves so does Usher. He goes by the saying “Evolve or Evaporate” and that’s what he does.   Whether it’s the singles “I Don’t Mind” or “No Limit” he knows how to stay on top of the game.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://usherworld.com/" rel="noopener nofollow"&gt;Website&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['U. Raymond', 'Usher Raymond IV', 'Usher Raymond']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tal-bachman', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Talmage Charles Robert Bachman', 'Talmage Bachman']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bizarre-inc', 'annotations': {'description': "&lt;p&gt;Bizarre Inc. were an English electronic music group. Originally formed in 1989 as a duo between English DJs Dean Meredith and Mark ‘'Aaron’‘ Archer, they later re-formed as a trio consisting of Andrew Meecham, Dean Meredith and Carl Turner in 1990.&lt;/p&gt;", 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Irene-cara', 'annotations': {'description': '&lt;p&gt;An 80s pop star. Most famous for her work on the Flashdance soundtrack and her role in Fame.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rahsaan-patterson', 'annotations': {'description': '&lt;p&gt;Soul vocalist and songwriter Rahsaan Patterson is another in the line of new-school R&amp;amp;B singers, such as &lt;a href="https://genius.com/artists/Maxwell" rel="noopener" data-api_path="/artists/3056"&gt;Maxwell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Erykah-badu" rel="noopener" data-api_path="/artists/909"&gt;Erykah Badu&lt;/a&gt;, who displayed a bit more integrity than most of the chart-toppers during the 1990s.&lt;/p&gt;\n\n&lt;p&gt;After singing in church since he was six years old, Patterson moved with his family from New York to California to star in the children’s show &lt;a href="https://www.imdb.com/title/tt0086744/" rel="noopener nofollow"&gt;&lt;em&gt;KIDS Incorporated&lt;/em&gt;&lt;/a&gt;, which also starred other future music stars like &lt;a href="https://genius.com/artists/Fergie" rel="noopener" data-api_path="/artists/950"&gt;Fergie&lt;/a&gt; and &lt;a href="https://genius.com/artists/Martika" rel="noopener" data-api_path="/artists/339866"&gt;Martika&lt;/a&gt;. He later moved back to the East Coast, resuming his career with small TV roles and assorted commercials, but eventually returned to Los Angeles in the early ‘90s, in order to taking his passion for music seriously: he started recording demos and contributing backing vocals to albums by Martika and &lt;a href="https://genius.com/artists/Brandy" rel="noopener" data-api_path="/artists/1425"&gt;Brandy&lt;/a&gt;, among others.&lt;/p&gt;\n\n&lt;p&gt;Throughout the years, Patterson proved himself to be a skilled songwriter, as well, by penning hits like &lt;a href="https://genius.com/artists/Tevin-campbell" rel="noopener" data-api_path="/artists/8544"&gt;Tevin Campbell&lt;/a&gt;’s &lt;a href="https://genius.com/Tevin-campbell-back-to-the-world-lyrics" rel="noopener" data-api_path="/songs/717614"&gt;“Back to the World”&lt;/a&gt; and Brandy’s &lt;a href="https://genius.com/Brandy-baby-lyrics" rel="noopener" data-api_path="/songs/171617"&gt;“Baby.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Those successes finally earned him a recording contract with MCA, which issued his &lt;a href="https://genius.com/albums/Rahsaan-patterson/Rahsaan-patterson" rel="noopener" data-api_path="/albums/289464"&gt;self-titled&lt;/a&gt; debut album in early 1997, with &lt;a href="https://genius.com/albums/Rahsaan-patterson/Love-in-stereo" rel="noopener" data-api_path="/albums/188453"&gt;&lt;em&gt;Love in Stereo&lt;/em&gt;&lt;/a&gt; following two years later. After a hiatus from the performance spotlight, he released &lt;a href="https://genius.com/albums/Rahsaan-patterson/After-hours" rel="noopener" data-api_path="/albums/116750"&gt;&lt;em&gt;After Hours&lt;/em&gt;&lt;/a&gt; in August 2005 and &lt;a href="https://genius.com/albums/Rahsaan-patterson/Wines-spirits" rel="noopener" data-api_path="/albums/284856"&gt;&lt;em&gt;Wines &amp;amp; Spirits&lt;/em&gt;&lt;/a&gt; in September 2007. These two albums made him one of the most appreciated artist in the underground R&amp;amp;B scene. The sprawling &lt;a href="https://genius.com/albums/Rahsaan-patterson/Bleuphoria" rel="noopener" data-api_path="/albums/289410"&gt;&lt;em&gt;Bleuphoria&lt;/em&gt;&lt;/a&gt;, issued nearly four years after &lt;em&gt;Wines &amp;amp; Spirits&lt;/em&gt;, was his most eclectic and creatively ambitious album, while his 2019 effort &lt;a href="https://genius.com/albums/Rahsaan-patterson/Heroes-gods" rel="noopener" data-api_path="/albums/530126"&gt;&lt;em&gt;Heroes &amp;amp; Gods&lt;/em&gt;&lt;/a&gt; saw him coming back to his roots.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tears-for-fears', 'annotations': {'description': '&lt;p&gt;Tears for Fears are an English pop band formed in 1981 by Roland Orzabal and Curt Smith.&lt;/p&gt;\n\n&lt;p&gt;The group rose to fame in 1982 with single &lt;a href="https://genius.com/Tears-for-fears-mad-world-lyrics" rel="noopener" data-api_path="/songs/506924"&gt;“Mad World”&lt;/a&gt;, which made it to number 3 in the UK charts and paved the way for the huge success of debut album &lt;a href="https://genius.com/albums/tears-for-fears/the-hurting" rel="noopener" data-api_path="/albums/125257"&gt;&lt;em&gt;The Hurting&lt;/em&gt;&lt;/a&gt;, released in 1983. However, it wasn’t until &lt;a href="https://genius.com/albums/tears-for-fears/songs-from-the-big-chair" rel="noopener" data-api_path="/albums/22239"&gt;&lt;em&gt;Songs from the Big Chair&lt;/em&gt;&lt;/a&gt; in 1985, a change in musical direction towards pop, that the band made it internationally. The record proved to be hit, reaching #2 in the UK and #1 in the US charts, and contains their most well-known singles, &lt;a href="https://genius.com/Tears-for-fears-shout-lyrics" rel="noopener" data-api_path="/songs/304899"&gt;“Shout”&lt;/a&gt; and &lt;a href="https://genius.com/Tears-for-fears-everybody-wants-to-rule-the-world-lyrics" rel="noopener" data-api_path="/songs/91174"&gt;“Everybody Wants to Rule the World”&lt;/a&gt;. Third album &lt;a href="https://genius.com/albums/tears-for-fears/the-seeds-of-love" rel="noopener" data-api_path="/albums/120772"&gt;&lt;em&gt;The Seeds of Love&lt;/em&gt;&lt;/a&gt;, released in 1989, performed similarly, entering the UK Albums charts at #1.&lt;/p&gt;\n\n&lt;p&gt;In 1991, the band broke up. Curt Smith went on as a solo artist while Roland Orzabal continued as Tears for Fears, releasing &lt;a href="https://genius.com/albums/tears-for-fears/elemental" rel="noopener" data-api_path="/albums/147271"&gt;&lt;em&gt;Elemental&lt;/em&gt;&lt;/a&gt; in 1993 to much success in the UK (though significantly less in the US) and &lt;a href="https://genius.com/albums/tears-for-fears/raoul-and-the-kings-of-spain" rel="noopener" data-api_path="/albums/147272"&gt;&lt;em&gt;Raoul and the Kings of Spain&lt;/em&gt;&lt;/a&gt; in 1995, which did poorly in the charts, only reaching #41 in the UK but with some acclaim in continental Europe. In 2000, Curt and Roland reunited and recorded what became &lt;a href="https://genius.com/albums/tears-for-fears/everybody-loves-a-happy-ending" rel="noopener" data-api_path="/albums/147275"&gt;&lt;em&gt;Everybody Loves a Happy Ending&lt;/em&gt;&lt;/a&gt;, released in 2004 to positive reviews and moderate success. The band currently continues to tour.&lt;/p&gt;\n\n&lt;p&gt;Curt and Roland are &lt;a href="http://www.billboard.com/articles/columns/rock/7408801/tears-for-fears-announce-tour-new-studio-record" rel="noopener nofollow"&gt;slated to release their fifth studio album in 2017&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jonezetta', 'annotations': {'description': '&lt;p&gt;Jonezetta was a five-piece rock band hailing from Mississippi. Their first album, Popularity, is filled with fun, upbeat music, and was released in 2006. It was recorded shortly after the death of their close friend, Timothy Jordan II, and it is dedicated to his memory.&lt;br&gt;\nTheir second album, Cruel to be Young, was released in 2008, and is a very different sound than that of Popularity, being much more somber in tone, and deals with darker themes, such as death and how to deal with the fallout of a broken relationship.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Daughtry', 'annotations': {'description': '&lt;p&gt;Daughtry is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006. The album reached number one on the Billboard 200, went on to sell more than four million copies in the United States, and has been certified quadruple platinum by the RIAA. Daughtry was also named the best-selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Soundscan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits “It’s Not Over” and “Home”.&lt;/p&gt;\n\n&lt;p&gt;The band’s second album, Leave This Town, was released in July 2009. It debuted at number one on the Billboard 200 chart, becoming Daughtry’s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album’s lead single, “No Surprise,” became the band’s fifth top-20 hit on the Hot 100. Their third studio album, Break the Spell was released in November 2011. It debuted inside the top ten on the Billboard 200 chart and has been certified Gold by the RIAA. Daughtry’s fourth studio album, Baptized was released on November 19, 2013 and it debuted at number six on the 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 8 million albums and over 22.6 million digital tracks in the U.S.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Clarkoh-got-that-sauce', 'annotations': {'description': '&lt;p&gt;Emerging onto the scene from Boston, MA, Clarkoh (formerly “Clark Sage”) began his career as a result of a 9th grade science project. Now, he creates music that derives from experiences and moments of his life. Any set of circumstances may inspire different feelings in his music such as chill or jumpy or moving. The final product, however, is music that’s original and memorable.&lt;/p&gt;', 'alternate_names': ['Clark Sage', 'Clarkoh Poppa Zeus']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bts', 'annotations': {'description': '&lt;p&gt;BTS is a South Korean pop (hip-hop influenced) group consisting of &lt;a href="https://genius.com/artists/Rm" rel="noopener" data-api_path="/artists/70110"&gt;RM&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jin-bts" rel="noopener" data-api_path="/artists/520162"&gt;Jin&lt;/a&gt;, &lt;a href="https://genius.com/artists/Suga-bts" rel="noopener" data-api_path="/artists/520160"&gt;SUGA&lt;/a&gt;, &lt;a href="https://genius.com/artists/j-hope" rel="noopener" data-api_path="/artists/70112"&gt;j-hope&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jimin-bts" rel="noopener" data-api_path="/artists/1016911"&gt;Jimin&lt;/a&gt;, &lt;a href="https://genius.com/artists/V-bts" rel="noopener" data-api_path="/artists/520161"&gt;V&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jungkook-bts" rel="noopener" data-api_path="/artists/1016907"&gt;Jung Kook&lt;/a&gt;. The group’s name is an acronym for ‘Bangtan Sonyeondan’ (방탄소년단) which translates into ‘Bulletproof Boy Scouts.’&lt;/p&gt;\n\n&lt;p&gt;The group is currently one of the most recognized music acts worldwide, holds over 20 &lt;a href="https://www.guinnessworldrecords.com/search?term=BTS&amp;amp;page=1&amp;amp;type=record&amp;amp;max=20&amp;amp;partial=_Results&amp;amp;" rel="noopener nofollow"&gt;Guinness World Records&lt;/a&gt;, and won over 350 main &lt;a href="https://allforarmy.com/more/about-bts/awards-achievements/#" rel="noopener nofollow"&gt;music awards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The members are heavily involved in their music production, &lt;a href="https://www.ibtimes.sg/producer-talks-about-why-bts-became-successful-k-pop-10615" rel="noopener nofollow"&gt;90 percent of their lyrics are penned by them&lt;/a&gt; and some of them also act as producers.&lt;/p&gt;\n\n&lt;p&gt;BTS combines various genres of music, ranging from pop sounds like on &lt;a href="https://genius.com/Bts-i-need-u-lyrics" rel="noopener" data-api_path="/songs/2016756"&gt;“I Need U,”&lt;/a&gt; hip-hop (&lt;a href="https://genius.com/Bts-ugh-lyrics" rel="noopener" data-api_path="/songs/5268364"&gt;“욱 (UGH!)”&lt;/a&gt;) or  &lt;a href="https://themusicmind.com/blog/2016/what-is-moombahton-what-does-it-have-to-do-with-kpop" rel="noopener nofollow"&gt;moombahton&lt;/a&gt; (&lt;a href="https://genius.com/Bts-blood-sweat-and-tears-lyrics" rel="noopener" data-api_path="/songs/2877866"&gt;“피 땀 눈물 (Blood Sweat &amp;amp; Tears)”&lt;/a&gt;), to British rock in &lt;a href="https://genius.com/Bts-springtime-lyrics" rel="noopener" data-api_path="/songs/764417"&gt;“봄날 (Spring Day).”&lt;/a&gt; Lyrically, they lean heavily on the struggles and excitement of youth, but &lt;a href="https://www.billboard.com/articles/columns/k-town/8098832/bts-lyrics-social-commentary-political" rel="noopener nofollow"&gt;they also criticize social issues&lt;/a&gt; through songs like &lt;a href="https://genius.com/Bts-crow-tit-try-hard-lyrics" rel="noopener" data-api_path="/songs/2923868"&gt;“뱁새 (Silver Spoon)”&lt;/a&gt; and &lt;a href="https://genius.com/Bts-am-i-wrong-lyrics" rel="noopener" data-api_path="/songs/2883218"&gt;“Am I Wrong,”&lt;/a&gt; causing them to be &lt;a href="http://www.billboard.com/articles/columns/k-town/7752412/bts-bang-hitman-conscious-k-pop-cross-over-interview" rel="noopener nofollow"&gt;perceived as one of the more socially conscious k-pop artists&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The combination of their musical storytelling and &lt;a href="https://youtu.be/7OX7dIRReSA?list=PL_Cqw69_m_yzbMVGvQA8QWrL_HdVXJQX7" rel="noopener nofollow"&gt;aesthetic&lt;/a&gt;, &lt;a href="https://youtu.be/cbSy36fu6Pk" rel="noopener nofollow"&gt;powerful and heavily choreographed stage performances&lt;/a&gt;, and &lt;a href="https://www.youtube.com/user/BANGTANTV" rel="noopener nofollow"&gt;sneak peeks into their daily life&lt;/a&gt; through social media has &lt;a href="https://www.quora.com/Why-do-you-like-BTS" rel="noopener nofollow"&gt;earned them&lt;/a&gt; a loyal fanbase called ARMY.&lt;/p&gt;\n\n&lt;p&gt;The septet debuted on June 13, 2013 with &lt;a href="https://genius.com/Bts-no-more-dream-lyrics" rel="noopener" data-api_path="/songs/215358"&gt;“No More Dream,”&lt;/a&gt; of their debut single album &lt;a href="https://genius.com/albums/Bts/2-cool-4-skool" rel="noopener" data-api_path="/albums/127649"&gt;&lt;em&gt;2 Cool 4 Skool&lt;/em&gt;&lt;/a&gt;, which encourages their listeners to achieve their dreams. Throughout their various mini albums and a first studio album, &lt;a href="https://genius.com/albums/Bts/Dark-and-wild" rel="noopener" data-api_path="/albums/134257"&gt;&lt;em&gt;Dark &amp;amp; Wild&lt;/em&gt;&lt;/a&gt;, BTS continued to display a rebellious concept with the addition of a newfound romance. The studio album also marked the end of the ‘school era.’&lt;/p&gt;\n\n&lt;p&gt;In 2015, they wholly evolved through ‘HYYH (The Most Beautiful Moment In Life) era,’ releasing three mini albums and defining themselves through referencing youth-related struggles and mental health in their lyrics.&lt;/p&gt;\n\n&lt;p&gt;In 2016 they released their second studio album, &lt;a href="https://genius.com/albums/Bts/Wings" rel="noopener" data-api_path="/albums/229995"&gt;&lt;em&gt;Wings&lt;/em&gt;&lt;/a&gt;. The album thematically deals with temptation and growth and is heavily &lt;a href="https://channel-korea.com/bts-wings-teaser-novel-demian/" rel="noopener nofollow"&gt;inspired&lt;/a&gt; by the Hermann Hesse’s novel, &lt;a href="https://www.amazon.com/Demian-Story-Sinclairs-Penguin-Classics/dp/0143106783/ref=pd_lpo_14_t_1/138-3097738-1356301" rel="noopener nofollow"&gt;&lt;em&gt;Demian&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2017 the group revealed a new brand identity—the &lt;a href="https://www.billboard.com/articles/columns/k-town/7857156/bts-beyond-the-scene-name-change" rel="noopener nofollow"&gt;new logo&lt;/a&gt; and they &lt;a href="https://www.billboard.com/articles/columns/k-town/7857156/bts-beyond-the-scene-name-change" rel="noopener nofollow"&gt;extended their name&lt;/a&gt; with ‘Beyond the Scene’ as the additional acronym for BTS. The group also began their ‘Love Yourself’ era, with two mini albums and their third studio album, &lt;a href="https://genius.com/albums/Bts/Love-yourself-tear" rel="noopener" data-api_path="/albums/417118"&gt;&lt;em&gt;Love Yourself: Tear&lt;/em&gt;&lt;/a&gt;. Following this, BTS became &lt;a href="https://www.soompi.com/2017/05/21/bts-becomes-first-k-pop-group-win-billboard-music-awards/" rel="noopener nofollow"&gt;the first-ever K-pop group&lt;/a&gt; to win the &lt;a href="https://www.billboardmusicawards.com/2017/05/bts-wins-top-social-artist-bbmas/" rel="noopener nofollow"&gt;Billboard Music Award&lt;/a&gt;. They went on to &lt;a href="https://www.billboard.com/articles/news/bbma/8456936/bts-wins-top-social-artist-2018-billboard-music-awards" rel="noopener nofollow"&gt;win this award for the second time in 2018&lt;/a&gt;, overtaking other international superstars, and they debuted their song, &lt;a href="https://genius.com/Bts-fake-love-lyrics" rel="noopener" data-api_path="/songs/3690426"&gt;“FAKE LOVE”&lt;/a&gt; on television at the BBMAs, another feat never seen before in the K-pop industry.&lt;/p&gt;\n\n&lt;p&gt;Also in 2017, as the first Korean artist, BTS &lt;a href="https://www.etonline.com/bts-partners-unicef-love-myself-anti-violence-campaign-90286" rel="noopener nofollow"&gt;joined the United Nations Children’s Fund (UNICEF) to stage campaigns against violence toward children and teens around the world&lt;/a&gt;. One year later, BTS made history being the &lt;a href="https://www.forbes.com/sites/caitlinkelley/2018/09/25/bts-deliver-speech-at-united-nations-urging-young-people-to-find-your-voice/#48de9957142d" rel="noopener nofollow"&gt;first K-pop group to speak at the United Nations (UN) General Assembly&lt;/a&gt; and were &lt;a href="https://www.koreatimes.co.kr/www/art/2018/10/732_256678.html" rel="noopener nofollow"&gt;awarded the fifth-class Hwagwan Order of Cultural Merit&lt;/a&gt; by the President of South Korea for the contribution to Korean culture.&lt;/p&gt;\n\n&lt;p&gt;In 2019 with a &lt;a href="https://genius.com/albums/Bts/Map-of-the-soul-persona" rel="noopener" data-api_path="/albums/515340"&gt;mini album&lt;/a&gt; they’ve started ‘Map of the Soul’ era. Following this, they were nominated for and earned two Billboard Music Awards—&lt;a href="https://www.billboard.com/articles/news/awards/8509652/bts-2019-bbmas-red-carpet-top-social-artist" rel="noopener nofollow"&gt;Top Social Artist&lt;/a&gt; and &lt;a href="https://www.billboard.com/articles/news/awards/8509655/billboard-music-awards-2019-winners-list" rel="noopener nofollow"&gt;Top Duo/Group&lt;/a&gt;, becoming the first K-pop group to achieve the latter.&lt;/p&gt;\n\n&lt;p&gt;Their fourth studio album, &lt;a href="https://genius.com/albums/Bts/Map-of-the-soul-7" rel="noopener" data-api_path="/albums/592290"&gt;&lt;em&gt;Map of The Soul: 7&lt;/em&gt;&lt;/a&gt;, was released in 2020, and become &lt;a href="https://variety.com/2021/music/news/bts-map-of-the-soul-7-wins-ifpis-global-album-chart-award-1234927226" rel="noopener nofollow"&gt;#1 Album of 2020 Worldwide&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In September 2020, BTS became the first Korean act to hit #1 on Billboard Hot 100 with their first English language song as a lead artist, &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;“Dynamite.”&lt;/a&gt; The song &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;broke numerous worldwide records&lt;/a&gt;, including &lt;a href="https://www.guinnessworldrecords.com/news/2020/9/bts-smash-youtube-viewing-records-once-again-with-single-dynamite-628998" rel="noopener nofollow"&gt;three Guinness World Records&lt;/a&gt;. The group &lt;a href="https://mobile.twitter.com/charts_k/status/1310762545674936320" rel="noopener nofollow"&gt;held #1 simultaneously on seven Billboard charts&lt;/a&gt;. Just few weeks later, BTS scored &lt;a href="https://twitter.com/BigHitEnt/status/1315717984615186433" rel="noopener nofollow"&gt;#1 on Billboard Hot 100 with the second song&lt;/a&gt;—&lt;a href="https://genius.com/Jawsh-685-jason-derulo-and-bts-savage-love-laxed-siren-beat-bts-remix-lyrics" rel="noopener" data-api_path="/songs/6003613"&gt;“Savage Love (Laxed – Siren Beat) [BTS Remix].”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The fifth Korean studio album, &lt;a href="https://genius.com/albums/Bts/Be" rel="noopener" data-api_path="/albums/693732"&gt;&lt;em&gt;BE&lt;/em&gt;&lt;/a&gt;, was released on November 20, 2020 with the lead single &lt;a href="https://genius.com/Bts-life-goes-on-lyrics" rel="noopener" data-api_path="/songs/6116502"&gt;“Life Goes On.”&lt;/a&gt; The single debuted at &lt;a href="https://www.billboard.com/articles/business/chart-beat/9491302/bts-life-goes-on-number-one-hot-100/" rel="noopener nofollow"&gt;# 1 on Billboard Hot 100&lt;/a&gt;, the first predominantly non-English-language song to do so. They later became the first Korean pop artist to be &lt;a href="https://twitter.com/recordingacad/status/1331297419326210049?s=21" rel="noopener nofollow"&gt;nominated for the &lt;em&gt;GRAMMY Awards&lt;/em&gt;&lt;/a&gt; (for Best Pop Duo/Group Performance with “Dynamite”).&lt;/p&gt;\n\n&lt;p&gt;Following that, in May, the group released their second English language song as a lead artist, &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;“Butter.”&lt;/a&gt; The song &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;debuted simultaneously at #1 on four main Billboard US charts&lt;/a&gt;, and broke &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;numerous records&lt;/a&gt;, including these set previously by &lt;a href="https://genius.com/Bts-dynamite-lyrics" rel="noopener" data-api_path="/songs/5827731"&gt;“Dynamite.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After seven weeks on #1 with &lt;a href="https://genius.com/Bts-butter-lyrics" rel="noopener" data-api_path="/songs/6746160"&gt;“Butter,”&lt;/a&gt; BTS replaced themselves on top and debuted on it their next single, &lt;a href="https://genius.com/Bts-permission-to-dance-lyrics" rel="noopener" data-api_path="/songs/6913616"&gt;“Permission to Dance,”&lt;/a&gt; making them &lt;a href="https://www.billboard.com/articles/news/9603058/bts-permission-to-dance-number-one-hot-100/" rel="noopener nofollow"&gt;the first group in history to earn four #1 debuts&lt;/a&gt; on the Billboard Hot 100, and &lt;a href="https://www.billboard.com/articles/news/9603058/bts-permission-to-dance-number-one-hot-100/" rel="noopener nofollow"&gt;the first group in history to replace their #1 debut song with another #1 debut song&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['防弾少年団 (Bodan Shonendan)', '방탄소년단 (Bangtan Sonyeondan)', 'Beyond the Scene', 'Bulletproof Boy Scouts', 'Bangtan Boys']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Lil-nas-x', 'annotations': {'description': '&lt;p&gt;Montero Lamar Hill (b. April 9, 1999), better known by his stage name Lil Nas X, is a hip-hop artist from Atlanta. In 2018, he dropped out of college during his freshman year to pursue music full-time. Regarding this, &lt;a href="https://www.instagram.com/p/Bu_x3DQldcm/?utm_source=ig_embed&amp;amp;utm_medium=loading" rel="noopener nofollow"&gt;he said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Everybody thought I was crazy, I knew what I was doing. Thank you everyone, this just the mf beginning!&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;His stage name was originally meant to be a joke. In a January 2021 &lt;a href="https://youtu.be/xxg_HapJ3u4?t=56" rel="noopener nofollow"&gt;Jimmy Fallon interview&lt;/a&gt;, Nas revealed the origin of his stage name:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nas was like my internet alias and then when I started doing music, I was like, “I want to have fun with this,” and every new rapper’s named Lil, Lil, Lil. What if I was Lil Nas? That’d be funny. So I was like, “Alright, bet. I’ll be Lil Nas.” And I added the X later on.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Lil Nas X’s debut mixtape came in the form of &lt;a href="https://genius.com/albums/Lil-nas-x/Nasarati" rel="noopener" data-api_path="/albums/460024"&gt;&lt;em&gt;NASARATI&lt;/em&gt;&lt;/a&gt;, released in July 2018. The mixtape was released on Youtube and Soundcloud, but after a &lt;a href="https://www.worldipreview.com/news/lil-nas-x-sued-for-25m-over-carry-on-sample-18411" rel="noopener nofollow"&gt;lawsuit&lt;/a&gt; over its title track, &lt;a href="https://genius.com/Lil-nas-x-carry-on-lyrics" rel="noopener" data-api_path="/songs/3843778"&gt;“CARRY ON,”&lt;/a&gt; it was taken off the platforms. Following the mixtape’s release, Nas\' breakthrough would come in the form of the December 2018 smash hit, &lt;a href="https://genius.com/Lil-nas-x-old-town-road-lyrics" rel="noopener" data-api_path="/songs/4133841"&gt;“Old Town Road,”&lt;/a&gt; which blew up through &lt;a href="https://www.youtube.com/watch?v=LxwpKKK3P4s" rel="noopener nofollow"&gt;TikTok memes&lt;/a&gt; and its April 2019 &lt;a href="https://genius.com/Lil-nas-x-old-town-road-remix-lyrics" rel="noopener" data-api_path="/songs/4445394"&gt;remix&lt;/a&gt; featuring country singer &lt;a href="https://genius.com/artists/billy-ray-cyrus" rel="noopener" data-api_path="/artists/60166"&gt;Billy Ray Cyrus&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The song &lt;a href="https://hypebeast.com/2019/3/lil-nas-xs-old-town-road-billboard-100-tiktok-charting" rel="noopener nofollow"&gt;entered the &lt;em&gt;Billboard&lt;/em&gt; Hot 100&lt;/a&gt; in March 2019, over a year after its original release. “Old Town Road” reached #1 on Spotify, iTunes and Apple Music, as well as becoming the first song to simultaneously chart on the Billboard country and hip-hop/R&amp;amp;B charts before it was disqualified from the country charts. The move by Billboard &lt;a href="https://www.vulture.com/2019/04/lil-nas-x-old-town-road-controversy-explained.html" rel="noopener nofollow"&gt;received a lot of backlash&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;June 21, 2019 marked the release of his debut EP, &lt;a href="https://genius.com/albums/Lil-nas-x/7" rel="noopener" data-api_path="/albums/530418"&gt;&lt;em&gt;7&lt;/em&gt;&lt;/a&gt;. The EP received acclaim, including a &lt;a href="https://www.grammy.com/grammys/news/2020-grammy-awards-nominations-complete-winners-list" rel="noopener nofollow"&gt;GRAMMY nomination&lt;/a&gt; for “Album of the Year.” It debuted at &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8518137/the-raconteurs-first-no-1-album-billboard-200" rel="noopener nofollow"&gt;#2 on the Billboard 200&lt;/a&gt; selling 77,000 copies.&lt;/p&gt;\n\n&lt;p&gt;“Old Town Road (Remix)” became the most certified song ever in January 2021, with a &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=OLD+TOWN+ROAD#search_section" rel="noopener nofollow"&gt;14x Platinum&lt;/a&gt; certification, representing 14 million equivalent song units sold. The same month, Lil Nas X released a children’s picture book, &lt;a href="https://www.amazon.com/C-Country-Lil-Nas-X/dp/0593300785" rel="noopener nofollow"&gt;“C is For Country,”&lt;/a&gt; which became a &lt;a href="https://www.soundslikenashville.com/news/lil-nas-x-c-is-for-country-childrens-book/" rel="noopener nofollow"&gt;New York Times Bestseller&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Lil Nas X released &lt;a href="https://genius.com/Lil-nas-x-montero-call-me-by-your-name-lyrics" rel="noopener" data-api_path="/songs/5751286"&gt;“MONTERO (Call Me By Your Name”&lt;/a&gt; in March 2021, following it with the announcement of his first studio album, &lt;a href="https://genius.com/albums/Lil-nas-x/Montero" rel="noopener" data-api_path="/albums/558945"&gt;&lt;em&gt;MONTERO&lt;/em&gt;&lt;/a&gt;, which was released on September 17 of the same year. The song took the world by the storm, with the &lt;a href="https://www.youtube.com/watch?time_continue=14&amp;amp;v=6swmTBVI83k&amp;amp;feature=emb_title" rel="noopener nofollow"&gt;music video&lt;/a&gt; receiving &lt;a href="https://www.newuniversity.org/2021/04/06/lil-nas-xs-montero-call-me-by-your-name-sparks-a-hell-of-a-controversy/" rel="noopener nofollow"&gt;mixed receptions&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The Atlanta native would follow up the single with  May 2021 &lt;a href="https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics" rel="noopener" data-api_path="/songs/6083409"&gt;“SUN GOES DOWN”&lt;/a&gt; and July 2021’s collaboration with &lt;a href="https://genius.com/artists/Jack-harlow" rel="noopener" data-api_path="/artists/615747"&gt;Jack Harlow&lt;/a&gt;, &lt;a href="https://genius.com/Lil-nas-x-and-jack-harlow-industry-baby-lyrics" rel="noopener" data-api_path="/songs/6083409"&gt;“INDUSTRY BABY.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Lil Nas', 'Montero L. Hill', 'Montero Hill', 'Montero Lamar Hill', 'Nas X']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kid-cudi', 'annotations': {'description': '&lt;p&gt;Kid Cudi, born Scott Ramon Seguro Mescudi on January 30, 1984, is an American recording artist from Cleveland, Ohio.&lt;/p&gt;\n\n&lt;p&gt;His debut single &lt;a href="https://genius.com/Kid-cudi-day-n-nite-nightmare-lyrics" rel="noopener" data-api_path="/songs/131"&gt;“Day ‘n’ Nite”&lt;/a&gt; became an online favorite in 2008. Based in Brooklyn, he first became affiliated with &lt;a href="https://en.wikipedia.org/wiki/Fool%27s_Gold_Records" rel="noopener nofollow"&gt;Fool’s Gold&lt;/a&gt;, the label of DJs &lt;a href="https://genius.com/artists/A-trak" rel="noopener" data-api_path="/artists/2906"&gt;A-Trak&lt;/a&gt; and &lt;a href="https://genius.com/artists/nick-catchdubs" rel="noopener" data-api_path="/artists/49829"&gt;Nick Catchdubs&lt;/a&gt;. After releasing his popular mixtape &lt;a href="https://genius.com/albums/Kid-cudi/A-kid-named-cudi" rel="noopener" data-api_path="/albums/4424"&gt;&lt;em&gt;A Kid Named Cudi&lt;/em&gt;&lt;/a&gt;, Cudi’s career took off as he got associated with &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; and joined his label &lt;a href="http://en.wikipedia.org/wiki/GOOD_Music" rel="noopener nofollow"&gt;G.O.O.D Music&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His catalog currently counts 7 solo studio albums, entitled: &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-the-end-of-day" rel="noopener" data-api_path="/albums/4427"&gt;&lt;em&gt;Man on the Moon: The End of Day&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Man-on-the-moon-ii-the-legend-of-mr-rager" rel="noopener" data-api_path="/albums/4428"&gt;&lt;em&gt;Man on the Moon II: The Legend of Mr. Rager&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Indicud" rel="noopener" data-api_path="/albums/20193"&gt;&lt;em&gt;Indicud&lt;/em&gt;&lt;/a&gt; which was released after Cudi &lt;a href="http://hypetrak.com/2013/04/kid-cudi-leaves-good-music/" rel="noopener nofollow"&gt;famously departed from GOOD Music&lt;/a&gt; and the latest ones &lt;a href="https://genius.com/albums/Kid-cudi/Satellite-flight-the-journey-to-mother-moon" rel="noopener" data-api_path="/albums/67138"&gt;&lt;em&gt;Satellite Flight: The Journey To Mother Moon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Speedin-bullet-2-heaven" rel="noopener" data-api_path="/albums/128397"&gt;&lt;em&gt;Speedin\' Bullet To Heaven&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kid-cudi/Passion-pain-demon-slayin" rel="noopener" data-api_path="/albums/152011"&gt;&lt;em&gt;Passion, Pain &amp;amp; Demon Slayin\'&lt;/em&gt;&lt;/a&gt;, and the long anticipated &lt;a href="https://genius.com/albums/Kid-cudi/man-on-the-moon-iii-the-chosen" rel="noopener" data-api_path="/albums/692902"&gt;&lt;em&gt;Man on the Moon III: The Chosen&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In addition, Cudi released an alternative rock album with long-time friend and collaborator &lt;a href="https://genius.com/artists/dot-da-genius" rel="noopener" data-api_path="/artists/11845"&gt;Dot Da Genius&lt;/a&gt; in duo group &lt;a href="https://genius.com/artists/Wzrd" rel="noopener" data-api_path="/artists/15049"&gt;WZRD&lt;/a&gt;, as well as a &lt;a href="https://genius.com/albums/Kids-see-ghosts/Kids-see-ghosts" rel="noopener" data-api_path="/albums/425948"&gt;collaborative album&lt;/a&gt; with on-again-off-again friend &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; as duo group &lt;a href="https://genius.com/artists/kids-see-ghosts" rel="noopener" data-api_path="/artists/1464821"&gt;Kids See Ghosts&lt;/a&gt;. Cudi has also been featured on the G.O.O.D Music projects: &lt;a href="https://genius.com/albums/Good-music-group/Cruel-summer" rel="noopener"&gt;&lt;em&gt;Cruel Summer&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kanye-west/G-o-o-d-fridays" rel="noopener" data-api_path="/albums/14775"&gt;&lt;em&gt;G.O.O.D. Fridays&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['King WZRD', 'S. R. S. Mescudi', 'Scott R. S. Mescudi', 'Scott S. Mescudi', 'Scott R. Mescudi', 'Scott Ramon Mescudi', 'Scott Seguro Mescudi', 'Cud Life', 'King Cudi', 'Scott Mescudi', 'The Man on the Moon', 'Mr. Solo Dolo', 'Scott Ramon Seguro Mescudi', 'Cudi', 'Cudder', 'Mr. Rager', 'King Wizard']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Migos', 'annotations': {'description': '&lt;p&gt;Migos is a rap group from Lawrenceville, Georgia, formed in 2008. The trio consists of &lt;a href="https://genius.com/artists/Quavo" rel="noopener" data-api_path="/artists/61600"&gt;Quavo&lt;/a&gt; (real name Quavious Marshall), &lt;a href="https://genius.com/artists/Takeoff" rel="noopener" data-api_path="/artists/148761"&gt;Takeoff&lt;/a&gt; (real name Kirshnik Ball) and &lt;a href="https://genius.com/artists/Offset" rel="noopener" data-api_path="/artists/88813"&gt;Offset&lt;/a&gt; (real name Kiari Cephus). The Migos are relatives: members Quavo and Takeoff are uncle and nephew, and members Quavo and Offset are cousins.&lt;/p&gt;\n\n&lt;p&gt;They are most known for their hit songs &lt;a href="https://genius.com/Migos-versace-original-version-lyrics" rel="noopener" data-api_path="/songs/176951"&gt;“Versace”&lt;/a&gt;, that became even more successful after &lt;a href="https://genius.com/artists/Drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt; released a &lt;a href="https://genius.com/Migos-versace-remix-lyrics" rel="noopener" data-api_path="/songs/176872"&gt;remix&lt;/a&gt; of it, and &lt;a href="https://genius.com/Migos-bad-and-boujee-lyrics" rel="noopener" data-api_path="/songs/2845980"&gt;“Bad and Boujee.”&lt;/a&gt; Despite this, &lt;a href="https://genius.com/Migos-bando-lyrics" rel="noopener" data-api_path="/songs/168255"&gt;“Bando”&lt;/a&gt; was their first hit song.&lt;/p&gt;\n\n&lt;p&gt;They have released numerous mixtapes since 2011, most notably &lt;a href="https://genius.com/albums/Migos/Young-rich-niggas" rel="noopener" data-api_path="/albums/36011"&gt;&lt;em&gt;Young Rich Niggas&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://genius.com/albums/Migos/No-label-ii" rel="noopener" data-api_path="/albums/104703"&gt;&lt;em&gt;No Label 2&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://genius.com/albums/Migos/Rich-nigga-timeline" rel="noopener" data-api_path="/albums/113969"&gt;&lt;em&gt;Rich Nigga Timeline&lt;/em&gt;&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/albums/Migos/Young-rich-niggas-2" rel="noopener" data-api_path="/albums/53796"&gt;&lt;em&gt;Young Rich Niggas 2.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;They released their debut album &lt;a href="https://genius.com/albums/Migos/Yung-rich-nation" rel="noopener" data-api_path="/albums/119474"&gt;&lt;em&gt;Yung Rich Nation&lt;/em&gt;&lt;/a&gt; on July 31st, 2015, their second studio album, &lt;a href="https://genius.com/albums/Migos/Culture" rel="noopener" data-api_path="/albums/168545"&gt;&lt;em&gt;Culture&lt;/em&gt;&lt;/a&gt;, was released on January 27th, 2017. The group’s 3rd album, &lt;a href="https://genius.com/albums/migos/culture-ii" rel="noopener" data-api_path="/albums/369295"&gt;&lt;em&gt;Culture II&lt;/em&gt;&lt;/a&gt;, was released on January 26th, 2018.&lt;/p&gt;\n\n&lt;p&gt;With the release of &lt;em&gt;Culture II,&lt;/em&gt; Migos tied &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; for most simultaneous Hot 100 songs by a group on the Billboard chart with 14.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Gwen-stefani', 'annotations': {'description': '&lt;p&gt;Gwen Renée Stefani, known simply as Gwen Stefani, is an American singer and songwriter, born on October 3, 1969 in Fullerton, California. She started her musical career as the lead singer in the American pop-rock band, &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;, in the early ‘90s. The band has achieved major success with their 1995 album &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;, which spawned the hit singles &lt;a href="https://genius.com/No-doubt-just-a-girl-lyrics" rel="noopener" data-api_path="/songs/210348"&gt;“Just a Girl”&lt;/a&gt; and &lt;a href="https://genius.com/No-doubt-dont-speak-lyrics" rel="noopener" data-api_path="/songs/208107"&gt;“Don’t Speak”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2004, Stefani released her first solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/Love-angel-music-baby" rel="noopener" data-api_path="/albums/6076"&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt;&lt;/a&gt;, which spawned the hit songs &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt;, and &lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt;; all three songs went number one on the Billboard Hot 100 chart, and also became the first US music download to sell one million copies.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Stefani released her second solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/The-sweet-escape" rel="noopener" data-api_path="/albums/22036"&gt;&lt;em&gt;The Sweet Escape&lt;/em&gt;&lt;/a&gt;, which spawned singles &lt;a href="https://genius.com/Gwen-stefani-the-sweet-escape-lyrics" rel="noopener" data-api_path="/songs/90487"&gt;“The Sweet Escape”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-wind-it-up-lyrics" rel="noopener" data-api_path="/songs/423090"&gt;“Wind It Up”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2016, she released her third solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/This-is-what-the-truth-feels-like" rel="noopener" data-api_path="/albums/113812"&gt;&lt;em&gt;This Is What the Truth Feels Like&lt;/em&gt;&lt;/a&gt;, which became her first solo number-one album to chart on the Billboard 200. The album had hit songs such as, &lt;a href="https://genius.com/Gwen-stefani-make-me-like-you-lyrics" rel="noopener" data-api_path="/songs/2417511"&gt;“Make Me Like You”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-used-to-love-you-lyrics" rel="noopener" data-api_path="/songs/2332048"&gt;“Used to Love You”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Gwen Renée Stefani Shelton', 'Gwen Renée Stefani']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skid-row', 'annotations': {'description': '&lt;p&gt;Skid Row is a rock band from New Jersey, USA. The band was formed in 1986 by bassist Rachel Bolan and guitarist Dave Sabo. Sabo and Bolan went to the same high school and met at a guitar store where Sabo worked. These two would play in Bolan’s garage and they soon recruited more band members via newspapers ads and performed in local clubs.&lt;/p&gt;\n\n&lt;p&gt;The band then released its debut album titled &lt;a href="https://genius.com/albums/Skid-row/Skid-row" rel="noopener" data-api_path="/albums/28408"&gt;&lt;em&gt;Skid Row&lt;/em&gt;&lt;/a&gt; in 1989 and the album was an immediate success and went 5x platinum. Skid Row’s &lt;a href="https://genius.com/albums/Skid-row/Slave-to-the-grind" rel="noopener" data-api_path="/albums/189045"&gt;second album&lt;/a&gt; went 2x platinum&lt;/p&gt;\n\n&lt;p&gt;Skid Row released a &lt;a href="https://genius.com/albums/Skid-row/Subhuman-race" rel="noopener" data-api_path="/albums/209337"&gt;third album&lt;/a&gt; in 1994 after a one year hiatus. The album charted on the top 40. The rest of Skid Row’s releases were not as successful as the first few.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Current Members&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dave-the-snake-sabo" rel="noopener" data-api_path="/artists/1033447"&gt;Dave “The Snake” Sabo&lt;/a&gt; – Guitar, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rachel-bolan" rel="noopener" data-api_path="/artists/1004507"&gt;Rachel Bolan&lt;/a&gt; – Bass, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scotti-hill" rel="noopener" data-api_path="/artists/2479393"&gt;Scotti Hill&lt;/a&gt; – guitar, Backing Vocals&lt;br&gt;\nRob Hammersmith – Drums, Backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Zp-theart" rel="noopener" data-api_path="/artists/1188919"&gt;ZP Theart&lt;/a&gt; – Lead Vocals&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Everlast', 'annotations': {'description': '&lt;p&gt;Everlast was barely of legal drinking age when he released his major label rap debut, Forever Everlasting, as part of Ice-T’s Rhyme Syndicate.&lt;/p&gt;\n\n&lt;p&gt;Next he teamed with his high school pal &lt;a href="https://genius.com/artists/danny-boy" rel="noopener" data-api_path="/artists/429"&gt;Danny “Danny Boy” O\'Connor&lt;/a&gt; to form the Irish American-centric &lt;a href="https://genius.com/artists/house-of-pain" rel="noopener" data-api_path="/artists/942"&gt;House Of Pain&lt;/a&gt;, backed by Everlast’s longtime DJ, DJ Lethal. “Jump Around” pushed House Of Pain’s debut to multiplatinum status. Their sophomore album went gold, but the group disbanded on the eve of their third album’s release.&lt;/p&gt;\n\n&lt;p&gt;After suffering a heart attack, Everlast went multiplatinum yet again, this time as a solo artist with the acoustic/rap hybrid, &lt;em&gt;Whitey Ford Sings The Blues&lt;/em&gt;. His collaboration with Carlos Santana was massive and he’s continued to record and tour with a mixture of acoustic rock, blues, country, and hip-hop. He was a member of &lt;a href="https://genius.com/artists/la-coka-nostra" rel="noopener" data-api_path="/artists/11346"&gt;La Coka Nostra&lt;/a&gt; for a time and occasionally reunites with House Of Pain for festivals and club shows.&lt;/p&gt;', 'alternate_names': ['Eric Schrody', 'Erik F. Schrody', 'Erik Francis Schrody', 'Erik Schrody']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nelly-furtado', 'annotations': {'description': '&lt;p&gt;Nelly Kim Furtado (born December 2, 1978) is a Portuguese-Canadian singer and songwriter. The songstress is well-known for hits such as “I’m Like a Bird”, “Turn Off the Light”, and “Promiscuous”.&lt;/p&gt;\n\n&lt;p&gt;She began her career in &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#1996%E2%80%931999:_Career_beginnings" rel="noopener nofollow"&gt;1996&lt;/a&gt; contributing vocals to Plains of Fascination’s “Walkin\' 4 The Streets” and forming Nelstar. After leaving the group, Furtado &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#1996%E2%80%931999:_Career_beginnings" rel="noopener nofollow"&gt;released&lt;/a&gt; her debut single “Party’s Just Begun (Again)”.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;em&gt;Whoa! Nelly&lt;/em&gt; was released in 2000 to worldwide success with hits such as “I’m Like a Bird”, “Turn Off the Light”, and “…On the Radio (Remember the Days)”. It received &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2000%E2%80%932005:_Whoa,_Nelly!_and_Folklore" rel="noopener nofollow"&gt;four&lt;/a&gt; Grammy nominations and one of the singles won for Best Female Pop Vocal Performance. It’s sold nine-million copies worldwide to date. &lt;em&gt;Folklore&lt;/em&gt; is Furtado’s second album released in 2003. The album was not as successful as the previous one due to change in sound. “Try” and “Powerless (Say What You Want)” were the only top-ten &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2000%E2%80%932005:_Whoa,_Nelly!_and_Folklore" rel="noopener nofollow"&gt;hits&lt;/a&gt; from the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Loose&lt;/em&gt; is the sexually-ambitious third album by Furtado. The album was handled by Timbaland and became Furtado’s best-selling album. It reached the top of multiple countries, including the Billboard 200. The record spawned hits such as “Promiscuous”, “Maneater”, “Say It Right”, and “All Good Things (Come to an End)”. It’s sold twelve-million copies worldwide. &lt;em&gt;Mi Plan&lt;/em&gt; is Furtado’s first Spanish and fourth studio album. It achieved &lt;a href="https://en.wikipedia.org/wiki/Nelly_Furtado#2009%E2%80%932011:_Mi_Plan_and_The_Best_of_Nelly_Furtado" rel="noopener nofollow"&gt;moderate&lt;/a&gt; success in European countries and received a Latin Grammy for the record, becoming the first Portuguese-Canadian to achieve this.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Furtado released &lt;em&gt;The Spirit Indestructible&lt;/em&gt;, which peaked at number eighteen on the Billboard 200. She released her sixth album &lt;em&gt;The Ride&lt;/em&gt; in 2017.&lt;/p&gt;', 'alternate_names': ['Nelly K. Furtado', 'Nelly Kim Furtado']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Drake-bell', 'annotations': {'description': '&lt;p&gt;Drake Bell born June 27, 1986, is an American actor, voice actor, comedian, singer-songwriter, and multi-instrumentalist. In 2005 he independently released his debut album, Telegraph, released under Bell’s own name. His second album, It’s Only Time, was released in 2006 after signing with Universal Motown Records and debuted at #81 on the Billboard 200, selling over 23,000 copies its first week of release. It’s Only Time has sold 178,000 copies in the United States as of 2012.Bell released an EP in 2011 called A Reminder independently. In 2014, Bell released his third album, Ready Steady Go! under indie label Surfdog Records. Ready Steady Go! debuted at #182 on the Billboard 200, and sold 2,000 copies in its first week of release.&lt;/p&gt;', 'alternate_names': ['Jared Drake Bell', 'Drake Campana']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/P-nk', 'annotations': {'description': "&lt;p&gt;Alecia Beth Moore (born September 8, 1979), better known by her stage name Pink (stylized as P!nk), is an American singer-songwriter and actress. Originally a member of the girl group Choice, she began her solo career with the 2000 single “There You Go” from her debut album, Can’t Take Me Home; the R&amp;amp;B album was certified double-platinum in the United States. She gained further recognition alongside Lil' Kim, Christina Aguilera, and Mýa covering “Lady Marmalade” for the Moulin Rouge! soundtrack; the collaboration earned Pink both her first Grammy Award and first number-one single on the Billboard Hot 100.&lt;/p&gt;", 'alternate_names': ['Alecia B. Moore', 'Alecia Beth Moore', 'Pink']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Supergrass', 'annotations': {'description': '&lt;p&gt;Supergrass were an English rock band, formed in 1993 in Oxford. The band consisted of brothers Gaz (guitar and lead vocals) and Rob Coombes (keyboards and backing vocals), Mick Quinn (bass and backing vocals) and Danny Goffey (drums and backing vocals).&lt;/p&gt;\n\n&lt;p&gt;The band was active from 1993-2010.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kevin-rudolf', 'annotations': {'description': '&lt;p&gt;Kevin Rudolf is an American singer, record producer, guitarist, and drummer from New York City, New York. He was originally signed to Madonna’s vanity label, going under the name &lt;strong&gt;Binocular&lt;/strong&gt;. He released his first album under the name, however his career wouldnt invigorate his signing with Cash Money Records in 2006. Being the first rock artist signed to the label, 2 years later his debut chart-topping single “Let It Rock,” featuring Lil Wayne. It peaked at #5 on the Billboard charts, and #32 on the Year-End Charts. His follow-up singles were “I Made It (Cash Money Heroes)” in 2009, and “You Make The Rain Fall” featuring Flo Rida in 2010. He is also a noted record producer, producing singles such as “Round &amp;amp; Round” by Selena Gomez, “Ghost” by Fefe Dobson, and “Good Girls Go Bad” by Cobra Spaceship, among others.&lt;/p&gt;', 'alternate_names': ['Kevin "Phantom" Rudolf', 'Kevin Winston Rudolf']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Joji', 'annotations': {'description': '&lt;p&gt;George Kusunoki Miller (Japanese: ジョージ・ミラー, born September 18th, 1992), commonly known as Joji, is a New York based producer and singer signed to &lt;a href="https://genius.com/artists/88rising" rel="noopener" data-api_path="/artists/995039"&gt;88rising&lt;/a&gt;. His artist name comes from the Japanese pronunciation of “George,” as he is half Australian/Japanese.&lt;/p&gt;\n\n&lt;p&gt;Originally producing comedy skits on YouTube under the name &lt;a href="https://www.youtube.com/user/DizastaMusic" rel="noopener nofollow"&gt;DizastaMusic&lt;/a&gt;, his first break came &lt;a href="https://www.youtube.com/watch?v=GH9JfE6Kq7Q" rel="noopener nofollow"&gt;when he uploaded this video in 2011.&lt;/a&gt; This was the origin of his bizarre, inappropriate, YouTube community guideline-bending persona known as &lt;a href="https://www.youtube.com/user/TVFilthyFrank" rel="noopener nofollow"&gt;Filthy Frank&lt;/a&gt;, through which he gained internet prominence and millions of YouTube subscribers.&lt;/p&gt;\n\n&lt;p&gt;His more serious venture into music was compromised as a side-project to his comedy skits, and so he started releasing music under Joji in 2015 on his private &lt;a href="http://soundcloud.com/chloeburbank" rel="noopener nofollow"&gt;SoundCloud page.&lt;/a&gt; He explained in a &lt;a href="https://www.instagram.com/p/BAeMSDqtL99/?hl=en" rel="noopener nofollow"&gt;January 2016 Instagram post&lt;/a&gt;, he then decided to make his account public and released two singles from his then-upcoming project &lt;a href="https://genius.com/albums/Joji/Chloe-burbank-volume-1" rel="noopener" data-api_path="/albums/142155"&gt;&lt;em&gt;Chloe Burbank Volume 1:&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/Joji-you-suck-charlie-lyrics" rel="noopener" data-api_path="/songs/2407150"&gt;“you suck charlie”&lt;/a&gt; and &lt;a href="https://genius.com/Joji-thom-lyrics" rel="noopener" data-api_path="/songs/2407146"&gt;“thom.”&lt;/a&gt; While he kept releasing material on his SoundCloud page.&lt;/p&gt;\n\n&lt;p&gt;In April 2017, Joji released &lt;a href="https://genius.com/Joji-i-dont-wanna-waste-my-time-lyrics" rel="noopener" data-api_path="/songs/3067226"&gt;“i don’t wanna waste my time,”&lt;/a&gt; which was presumed to be the lead single from an upcoming project. However, in October 2017, he released &lt;a href="https://genius.com/Joji-will-he-lyrics" rel="noopener" data-api_path="/songs/3138313"&gt;“will he,”&lt;/a&gt; and soon after confirmed that song to be the lead single off his debut EP, &lt;a href="https://genius.com/albums/Joji/In-tongues" rel="noopener" data-api_path="/albums/374847"&gt;&lt;em&gt;In Tongues&lt;/em&gt;&lt;/a&gt;. The EP was released on November 3, 2017. To accompany the EP, he released three previously unreleased songs called &lt;a href="https://genius.com/albums/Joji/Lost-instruments" rel="noopener" data-api_path="/albums/377381"&gt;&lt;em&gt;Lost Instruments&lt;/em&gt;&lt;/a&gt; a week before &lt;em&gt;In Tongues&lt;/em&gt; came out.&lt;/p&gt;\n\n&lt;p&gt;On December 29th, 2017, he officially stated that he would retire from comedy and would no longer be making Filthy Frank videos due to mental and physical health concerns. However, he will still be working on other projects.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a5f720cb8a997468d298725982db203d.638x585x1.png" alt="" width="638" height="585" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Afterwards in 2018, he collaborated with various artists and released &lt;a href="https://genius.com/88rising-midsummer-madness-lyrics" rel="noopener" data-api_path="/songs/3730894"&gt;“Midsummer Madness”&lt;/a&gt; and &lt;a href="https://genius.com/88rising-peach-jam-lyrics" rel="noopener" data-api_path="/songs/3841895"&gt;“Peach Jam”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Blocboy-jb" rel="noopener" data-api_path="/artists/1254513"&gt;BlocBoy JB&lt;/a&gt;. Subsequently, on 26 October 2018, Joji released his debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Joji/Ballads-1" rel="noopener" data-api_path="/albums/429215"&gt;BALLADS 1&lt;/a&gt;&lt;/em&gt;. Its second single &lt;a href="https://genius.com/Joji-slow-dancing-in-the-dark-lyrics" rel="noopener" data-api_path="/songs/3716416"&gt;“SLOW DANCING IN THE DARK”&lt;/a&gt; became one of Joji’s most successful songs to date.&lt;/p&gt;\n\n&lt;p&gt;On September 25, 2020, he released his second studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Joji/Nectar" rel="noopener" data-api_path="/albums/537421"&gt;Nectar&lt;/a&gt;&lt;/em&gt;, the album includes previous singles such as &lt;a href="https://genius.com/Joji-sanctuary-lyrics" rel="noopener" data-api_path="/songs/4606292"&gt;“Sanctuary,”&lt;/a&gt; &lt;a href="https://genius.com/Joji-run-lyrics" rel="noopener" data-api_path="/songs/5209088"&gt;“Run,”&lt;/a&gt; and many more.&lt;/p&gt;\n\n&lt;p&gt;Joji has also released two comedic albums and various other less serious songs under the name &lt;a href="https://genius.com/artists/Pink-guy" rel="noopener" data-api_path="/artists/44083"&gt;Pink Guy.&lt;/a&gt; Pink Guy’s music is separated from Joji’s page and can be found &lt;a href="https://genius.com/artists/Pink-guy" rel="noopener" data-api_path="/artists/44083"&gt;here&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['George Kusunoki Miller', 'Joji Kusunoki', 'George Miller']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dragonette', 'annotations': {'description': '&lt;p&gt;Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal) and drummer Joel Stouffer.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Harry-styles', 'annotations': {'description': '&lt;p&gt;Harry Edward Styles (born February 1st, 1994) is a widely-recognized English singer, songwriter and up-and-coming actor. He rose to fame during his time with &lt;a href="https://genius.com/artists/One-direction" rel="noopener" data-api_path="/artists/19657"&gt;One Direction&lt;/a&gt;—a platinum-selling, world-renowned boy band. Since the band went on an indefinite hiatus in 2015, Styles has produced two chart-topping studio albums and launched his acting career. He is credited with writing music for &lt;a href="https://genius.com/artists/Ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt;, the 2018 rom-com &lt;a href="https://www.imdb.com/title/tt5164432/" rel="noopener nofollow"&gt;&lt;em&gt;Love, Simon&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/artists/Meghan-trainor" rel="noopener" data-api_path="/artists/201194"&gt;Meghan Trainor&lt;/a&gt;, One Direction, himself and more.&lt;/p&gt;\n\n&lt;p&gt;Styles was born and raised in Holmes Chapel, Cheshire, with his sister, supported by their loving mother and step-father. Growing up, Styles always had a passion for singing; he would record covers on his karaoke machine as a kid and went on to be the lead singer of Manchester band &lt;a href="https://genius.com/artists/White-eskimo" rel="noopener" data-api_path="/artists/631564"&gt;White Eskimo&lt;/a&gt;. In 2010, 16-year-old Styles &lt;a href="https://www.youtube.com/watch?v=irKluYOMkI0" rel="noopener nofollow"&gt;auditioned&lt;/a&gt; as a solo artist on &lt;a href="http://www.imdb.com/title/tt0423776/" rel="noopener nofollow"&gt;&lt;em&gt;The X Factor&lt;/em&gt;&lt;/a&gt; before judge Simon Cowell grouped him with four other boys to form English-Irish pop boy band, One Direction.&lt;/p&gt;\n\n&lt;p&gt;In April 2017, two years after One Direction announced their hiatus, Styles dropped his debut solo single &lt;a href="https://genius.com/Harry-styles-sign-of-the-times-lyrics" rel="noopener" data-api_path="/songs/3040789"&gt;“Sign Of The Times”&lt;/a&gt; which was greeted with enormous praise as the song landed the number one spot on the charts in over twenty countries. Influenced by rock bands such as &lt;a href="https://genius.com/artists/Pink-floyd" rel="noopener" data-api_path="/artists/694"&gt;Pink Floyd&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fleetwood-mac" rel="noopener" data-api_path="/artists/2579"&gt;Fleetwood Mac&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;The Rolling Stones&lt;/a&gt;, Harry Styles’s &lt;a href="https://genius.com/albums/Harry-styles/Harry-styles" rel="noopener" data-api_path="/albums/339829"&gt;self-titled debut album&lt;/a&gt; immediately shot to the top of the charts upon its release in May 2017, landing the number one position in 84 different countries along with selling a historic, record-breaking 230,000 album units. He now holds the title for the &lt;a href="https://www.rollingstone.com/music/music-news/on-the-charts-harry-styles-breaks-record-with-number-one-debut-196714/" rel="noopener nofollow"&gt;biggest debut sales week for a British male musician in the United States&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Two weeks before the release of his album, Styles took to &lt;a href="https://twitter.com/Harry_Styles/status/857928900839587840" rel="noopener nofollow"&gt;Twitter&lt;/a&gt; the announcement of his first solo world tour. A week before the world even heard the entirety of his album, &lt;a href="https://time.com/4769079/harry-styles-tour-sold-out/" rel="noopener nofollow"&gt;Styles’ world tour had sold out in under two minutes&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In October 2019, &lt;a href="https://genius.com/Harry-styles-lights-up-lyrics" rel="noopener" data-api_path="/songs/4935579"&gt;“Lights Up”&lt;/a&gt; was released which &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;debuted at number three in the U.K.&lt;/a&gt; and served as the lead single for Styles\' second studio album, &lt;a href="https://genius.com/albums/Harry-styles/Fine-line" rel="noopener" data-api_path="/albums/568792"&gt;&lt;em&gt;Fine Line&lt;/em&gt;&lt;/a&gt;. “Lights Up” was followed by his second single &lt;a href="https://genius.com/Harry-styles-watermelon-sugar-lyrics" rel="noopener" data-api_path="/songs/5007939"&gt;“Watermelon Sugar,”&lt;/a&gt;, which became his &lt;a href="https://www.billboard.com/articles/business/chart-beat/9431815/harry-styles-watermelon-sugar-hot-100" rel="noopener nofollow"&gt;first No. 1 on Billboard Hot 100&lt;/a&gt;, and then his third single &lt;a href="https://genius.com/Harry-styles-adore-you-lyrics" rel="noopener" data-api_path="/songs/5037350"&gt;“Adore You,”&lt;/a&gt; went to &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;peak at number seven in the U.K. charts&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On December 13th 2019, Styles shared his highly-anticipated second album &lt;a href="https://genius.com/albums/Harry-styles/Fine-line" rel="noopener" data-api_path="/albums/568792"&gt;&lt;em&gt;Fine Line&lt;/em&gt;&lt;/a&gt;. It &lt;a href="https://www.officialcharts.com/artist/51376/harry-styles/" rel="noopener nofollow"&gt;topped the U.K.&lt;/a&gt; and U.S. charts. This made him the &lt;a href="https://www.iheart.com/content/2019-12-30-harry-styles-fine-line-reigns-with-second-week-at-no-1/" rel="noopener nofollow"&gt;first British male artist to have his first two albums debut at number one&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In between making music, Styles is sought after by award-winning directors. He appeared on the big screen as a WWII soldier in &lt;a href="http://www.imdb.com/name/nm0634240/" rel="noopener nofollow"&gt;Christopher Nolan&lt;/a&gt;’s &lt;a href="http://www.imdb.com/title/tt5013056/" rel="noopener nofollow"&gt;&lt;em&gt;Dunkirk&lt;/em&gt;&lt;/a&gt; (2017) within the same year he debuted as a solo artist. He is set to star as the male lead in &lt;a href="https://www.imdb.com/name/nm1312575/" rel="noopener nofollow"&gt;Olivia Wilde&lt;/a&gt;’s &lt;a href="https://www.imdb.com/title/tt10731256/" rel="noopener nofollow"&gt;&lt;em&gt;Don’t Worry Darling&lt;/em&gt;&lt;/a&gt;, as well as one of the male leads in [Michael Grandage’s] [&lt;em&gt;My Policeman&lt;/em&gt;], based on the novel of the same name by Bethan Roberts.&lt;/p&gt;', 'alternate_names': ['Harry Edward Styles', 'Harry E. Styles']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Razorlight', 'annotations': {'description': '&lt;p&gt;Razorlight are an English indie rock band formed in 2002 by lead singer and rhythm guitarist &lt;a href="https://genius.com/artists/johnny-borrell" rel="noopener" data-api_path="/artists/998952"&gt;Johnny Borrell&lt;/a&gt;. The band are primarily known in the UK, having topped the charts with the 2006 single &lt;a href="https://genius.com/razorlight-america-lyrics" rel="noopener" data-api_path="/songs/421323"&gt;“America.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ellie-goulding', 'annotations': {'description': '&lt;p&gt;Elena Jane “Ellie” Goulding (born 30 December 1986) – is an English singer-songwriter. In 2010, she became the second artist to both &lt;a href="http://news.bbc.co.uk/1/hi/entertainment/8442389.stm" rel="noopener nofollow"&gt;top the BBC’s annual Sound of… poll&lt;/a&gt; and win &lt;a href="http://www.brits.co.uk/britstv/2010-critics-choice-ellie-goulding" rel="noopener nofollow"&gt;the Critics\' Choice Award at the Brit Awards&lt;/a&gt; in the same year, following &lt;a href="https://genius.com/artists/Adele" rel="noopener" data-api_path="/artists/2300"&gt;Adele’s&lt;/a&gt; win of both in 2008. Originally her music incorporated elements of folk, pop, electronica, and folktronica.&lt;/p&gt;\n\n&lt;p&gt;In July 2009, Goulding signed with Polydor Records, and released her debut EP &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/An-introduction-to-ellie-goulding" rel="noopener" data-api_path="/albums/177255"&gt;An Introduction to Ellie Goulding&lt;/a&gt;&lt;/em&gt;, later that year. Her debut single, &lt;a href="https://genius.com/Ellie-goulding-under-the-sheets-lyrics" rel="noopener" data-api_path="/songs/157218"&gt;“Under The Sheets”&lt;/a&gt; was then released in November.&lt;/p&gt;\n\n&lt;p&gt;In 2010 Goulding recorded and released her debut record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Lights" rel="noopener" data-api_path="/albums/34852"&gt;Lights&lt;/a&gt;&lt;/em&gt;, which spawned four charting singles in the UK, the biggest of which “&lt;a href="https://genius.com/Ellie-goulding-starry-eyed-lyrics" rel="noopener" data-api_path="/songs/52959"&gt;Starry Eyes&lt;/a&gt;” peaked at #4 in the UK and charted in many European countries and Australia.&lt;/p&gt;\n\n&lt;p&gt;At the end of the year the album’s reissue &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Bright-lights" rel="noopener" data-api_path="/albums/18640"&gt;Bright Lights&lt;/a&gt;&lt;/em&gt; was released, and spawned two singles: &lt;a href="https://genius.com/Ellie-goulding-lights-lyrics" rel="noopener" data-api_path="/songs/79697"&gt;“Lights”&lt;/a&gt; and a cover of &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John’s&lt;/a&gt; “&lt;a href="https://genius.com/Ellie-goulding-your-song-lyrics" rel="noopener" data-api_path="/songs/198880"&gt;Your Song&lt;/a&gt;.” The former of which propelled Goulding into international stardom after becoming a sleeper hit in the United States, eventually peaking at #2 after almost a year of the song charting.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Goulding’s sophomore record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon" rel="noopener" data-api_path="/albums/20565"&gt;Halcyon&lt;/a&gt;&lt;/em&gt; was released, featuring lead single “&lt;a href="https://genius.com/Ellie-goulding-anything-could-happen-lyrics" rel="noopener" data-api_path="/songs/85737"&gt;“Anything Could Happen”&lt;/a&gt;, which was another U.S. hit.&lt;/p&gt;\n\n&lt;p&gt;It’s re-issue, &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon-days" rel="noopener" data-api_path="/albums/42358"&gt;Halcyon Days&lt;/a&gt;&lt;/em&gt; saw critical acclaim for Goulding’s happier lyrical content and musical exploration into EDM. Its lead single, &lt;a href="https://genius.com/Ellie-goulding-burn-lyrics" rel="noopener" data-api_path="/songs/183325"&gt;“Burn”&lt;/a&gt; was a top 20 hit in the United States, becoming a mega-success worldwide.&lt;/p&gt;\n\n&lt;p&gt;Goulding’s vocal connection with EDM has been explored through collaborations with &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;, on hits “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;,” and “&lt;a href="https://genius.com/Calvin-harris-outside-lyrics" rel="noopener" data-api_path="/songs/546962"&gt;Outside&lt;/a&gt;”, as well as songs with &lt;a href="https://genius.com/Major-lazer-powerful-lyrics" rel="noopener" data-api_path="/songs/1363351"&gt;Major Lazer&lt;/a&gt;, &lt;a href="https://genius.com/Clean-bandit-mama-lyrics" rel="noopener" data-api_path="/songs/3983995"&gt;Clean Bandit&lt;/a&gt;, &lt;a href="https://genius.com/Zedd-and-lucky-date-fall-into-the-sky-lyrics" rel="noopener" data-api_path="/songs/342832"&gt;Zedd&lt;/a&gt;, &lt;a href="https://genius.com/Ellie-goulding-stay-awake-lyrics" rel="noopener" data-api_path="/songs/198928"&gt;Madeon&lt;/a&gt;, and &lt;a href="https://genius.com/Kygo-and-ellie-goulding-first-time-lyrics" rel="noopener" data-api_path="/songs/3066143"&gt;Kygo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The beginning of 2015 began with Goulding releasing her biggest hit to date, &lt;a href="https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics/" rel="noopener" data-api_path="/songs/665379"&gt;“Love Me Like You Do”&lt;/a&gt;“ for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-of-grey-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/118063"&gt;50 Shades of Grey Soundtrack&lt;/a&gt;. The song was acclaimed by critics and peaked at #1 around the world and #3 in the United States. The song garnered her a Best Pop Solo Performance Grammy Nomination.&lt;/p&gt;\n\n&lt;p&gt;Goulding later re-upped on her pop game with 2015’s &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Delirium" rel="noopener" data-api_path="/albums/131217"&gt;Delirium&lt;/a&gt;&lt;/em&gt;. The album incorporated Goulding’s affiliation with club bangers and explored a poppier sound than her original albums. The album’s lead single &lt;a href="https://genius.com/Ellie-goulding-on-my-mind-lyrics/" rel="noopener" data-api_path="/songs/2308425"&gt;“On My Mind”&lt;/a&gt; became an international success, and received media attention as speculated to be an answer song to &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; “&lt;a href="https://genius.com/Ed-sheeran-dont-lyrics" rel="noopener" data-api_path="/songs/403031"&gt;Don’t.&lt;/a&gt;” The album’s third single, &lt;a href="https://genius.com/%28/Ellie-goulding-something-in-the-way-you-move-lyrics/" rel="noopener"&gt;“Something In The Way You Move”&lt;/a&gt; was another hit, peaking at #43 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2018 saw Goulding prepare for her fourth record. “&lt;a href="https://genius.com/Ellie-goulding-and-diplo-close-to-me-lyrics" rel="noopener" data-api_path="/songs/4037296"&gt;Close To Me&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and featuring &lt;a href="https://genius.com/artists/Swae-lee" rel="noopener" data-api_path="/artists/209139"&gt;Swae Lee&lt;/a&gt; saw success, peaking at #24 in the U.S, and she followed these up with 2019’s “&lt;a href="https://genius.com/Ellie-goulding-flux-lyrics" rel="noopener" data-api_path="/songs/4202475"&gt;Flux&lt;/a&gt;” and “&lt;a href="https://genius.com/Ellie-goulding-sixteen-lyrics" rel="noopener" data-api_path="/songs/4427896"&gt;Sixteen&lt;/a&gt;” which are assumed to be album singles.&lt;/p&gt;', 'alternate_names': ['Elena Jane Goulding']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kenny-loggins', 'annotations': {'description': '&lt;p&gt;Singer, songwriter, and guitarist Kenny Loggins has enjoyed more than three decades of success in the music business, as a songwriter and performer, mostly in a soft rock vein. He was born Kenneth Clarke Loggins in Everett, WA in early 1948, and the family later moved to Detroit, and finally to Alhambra, CA when he was in his teens. He initially turned to music as a way of compensating for his extreme shyness, and found that he was, indeed, a talented guitarist and had a voice. For a time in the late ‘60s he was based in Pasadena, studying at Pasadena City College. At the end of the decade, Loggins passed through the lineup of a band called Gator Creek, who were good enough to get signed to Mercury Records. The group recorded one self-titled album, which was issued in 1970 and included an early version of “Danny’s Song,” a track that he later recorded again as part of Loggins &amp;amp; Messina. He also spent time with a short-lived group called Second Helping, and was a member of the stage incarnation of the Electric Prunes during a later phase of that group’s history.&lt;br&gt;\nLoggins was proficient on the guitar and piano, but it was his songwriting that allowed him to make his first lasting impression on the music industry. He took a job as a staff writer for Wingate Music, for $100.00 a week, and later that year four of his songs ended up on the Nitty Gritty Dirt Band album Uncle Charlie &amp;amp; His Dog Teddy. This event was particularly fortuitous, as that album was the first release by the newly reconstituted version of the group, and included what proved to be their biggest hit, “Mr. Bojangles.” The presence of the latter helped make Uncle Charlie one of the group’s biggest selling long-players; and the exposure generated a second hit in the form of Loggins’ own “House at Pooh Corner.”&lt;br&gt;\nThe success of the Nitty Gritty Dirt Band’s recordings brought Loggins to the attention of former Poco member Jim Messina, who was working as a staff producer at CBS. It was Messina’s intention to produce Loggins\' debut album, but he also ended up playing and singing on the record, and it worked out so well that the two ended up in a duo. Loggins &amp;amp; Messina were among the most popular folk-based soft rock acts of the first half of the ‘70s and enjoyed a four-year string of successful albums.&lt;br&gt;\nLoggins &amp;amp; Messina broke up in 1976, and Loggins retained a strong following in the years immediately after. He went on to solo stardom with such million-selling albums as Celebrate Me Home, Nightwatch (which included the hit “Whenever I Call You Friend”), and Keep the Fire, all in the cheerful, sensitive style he had displayed in Loggins &amp;amp; Messina. Loggins also became known as the king of the movie soundtrack song, scoring Top Ten hits with “I’m Alright” (from Caddyshack), “Footloose” (from Footloose), “Danger Zone” (from Top Gun), and “Nobody’s Fool” (from Caddyshack II). During this period, he was also one of the participants in USA for Africa on the benefit recording “We Are the World.” His own albums sold less well (and came less frequently) throughout the \'80s, with later efforts like 1991’s Leap of Faith, 1997’s The Unimaginable Life, and 1998’s December finding favor primarily in adult contemporary circles; in 1994, he also issued a children’s album, Return to Pooh Corner, and released its sequel, More Songs from Pooh Corner, in early 2000. He reunited with Messina in 2005 for a successful tour, album, and concert video, and in 2007, Loggins released How About Now, his first new solo album in four years. It was followed by All Join In in 2009. ~ William Ruhlmann &amp;amp; Bruce Eder, Rovi&lt;/p&gt;\n\n&lt;p&gt;(Retrieved 12/21/15 from &lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="http://www.billboard.com/artist/305726/kenny-loggins/biography"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://i.genius.com/c2d069d55c90776f5b2646d3adb0b14c5f8f2bf0?url=http%3A%2F%2Fwww.billboard.com%2Ffiles%2Fstyles%2Fmagazine_cover%2Fpublic%2Fmedia%2Fbb10-nicky-jam-j-balvin-2017-billboard-225.jpg"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Kenny Loggins - Biography | Billboard&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Billboard&lt;/span&gt;\n      \n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;)', 'alternate_names': ['Kenneth Loggins', 'Kenneth C. Loggins', 'Kenneth Clark Loggins']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Phum-viphurit', 'annotations': {'description': '&lt;p&gt;Phum Viphurit is a Thai born, New Zealand raised, Bangkok resident singer-songwriter.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Lady-gaga', 'annotations': {'description': '&lt;p&gt;Stefani Joanne Angelina Germanotta, better known by her stage name Lady Gaga, is an American singer, songwriter and actress. She is known for her flamboyant fashion statements and live performances. Although her music is easily mistaken as vapid, it often has a self-empowering message.&lt;/p&gt;\n\n&lt;p&gt;She started working for Interscope Records when she was 20 years old, writing songs for &lt;a href="https://genius.com/artists/The-pussycat-dolls" rel="noopener" data-api_path="/artists/8390"&gt;The Pussycat Dolls&lt;/a&gt;, among others. From there, she became one of the biggest pop stars in the world, ranking in numerous #1 albums and singles along with a variety of awards.&lt;/p&gt;\n\n&lt;p&gt;She has acted in several movies and TV shows. In 2016, she won a Golden Globe Award for Best Actress in a Miniseries or Television Film for her portrayal of Elizabeth, a lead character in the fifth season of &lt;a href="http://www.imdb.com/title/tt1844624/" rel="noopener nofollow"&gt;&lt;em&gt;American Horror Story&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;em&gt;Fun Fact:&lt;/em&gt;&lt;/strong&gt; The &lt;a href="http://www.billboard.com/articles/news/958922/lady-gaga-sued-by-producer-rob-fusari" rel="noopener nofollow"&gt;“Lady Gaga” moniker&lt;/a&gt; was created by her former boyfriend and producer &lt;a href="https://genius.com/artists/Rob-fusari" rel="noopener" data-api_path="/artists/51436"&gt;Rob Fusari&lt;/a&gt;—he sent a text message with an autocorrected version of &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt;’s song &lt;a href="https://genius.com/Queen-radio-ga-ga-lyrics" rel="noopener" data-api_path="/songs/309595"&gt;“Radio Ga Ga”&lt;/a&gt; (a song he sang every time she entered the studio).&lt;/p&gt;', 'alternate_names': ['Mother Monster', 'Stefani Germanotta Band', 'Stefani Germanotta', 'Stefani Joanne Angelina Germanotta', 'Gaga']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-strokes', 'annotations': {'description': '&lt;p&gt;The Strokes burst onto the scene at a time when rock fans were desperate for an alternative to the rap-rock that was dominating the airwaves. That the band lived up to expectations after being hailed ‘saviors of guitar rock’ solely based on the strength of a &lt;a href="https://genius.com/albums/The-strokes/The-modern-age" rel="noopener" data-api_path="/albums/117472"&gt;three song EP&lt;/a&gt; is a testament to the quality of their flawless debut, July 2001’s &lt;a href="https://genius.com/albums/The-strokes/Is-this-it" rel="noopener" data-api_path="/albums/14191"&gt;&lt;em&gt;Is This It&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Ultimately, they are a band that truly relies on the strength of the entire group: lead singer &lt;a href="https://genius.com/artists/Julian-casablancas" rel="noopener" data-api_path="/artists/34880"&gt;Julian Casablancas&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Nick-valensi" rel="noopener" data-api_path="/artists/391343"&gt;Nick Valensi&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Fabrizio-moretti" rel="noopener" data-api_path="/artists/154667"&gt;Fabrizio Moretti&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Albert-hammond-jr" rel="noopener" data-api_path="/artists/108780"&gt;Albert Hammond Jr.&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Nikolai-fraiture" rel="noopener" data-api_path="/artists/977801"&gt;Nikolai Fraiture&lt;/a&gt;. However, much of The Strokes\' output has been influenced by the domineering vision of Casablancas\' songwriting.&lt;/p&gt;\n\n&lt;p&gt;Before he took a small step back on their third album, January 2006’s &lt;a href="https://genius.com/albums/The-strokes/First-impressions-of-earth" rel="noopener" data-api_path="/albums/17768"&gt;&lt;em&gt;First Impressions of Earth&lt;/em&gt;&lt;/a&gt;, and then &lt;a href="http://www.vulture.com/2011/03/the_strokes_didnt_have_a_ton_o.html" rel="noopener nofollow"&gt;isolated himself&lt;/a&gt; to record March 2011’s &lt;a href="https://genius.com/albums/The-strokes/Angles" rel="noopener" data-api_path="/albums/19858"&gt;&lt;em&gt;Angles&lt;/em&gt;&lt;/a&gt;, Casablancas was involved in almost every step of The Strokes\' recording process. He wrote all of the lyrics and the music on their first two albums and was constantly involved in the mixing of the records.&lt;/p&gt;\n\n&lt;p&gt;While they may have a reputation as a group who started to fizzle out after a knock-out debut, the real story is one of evolution and reinvention. After their sophomore album, October 2003’s &lt;a href="https://genius.com/albums/The-strokes/Room-on-fire" rel="noopener" data-api_path="/albums/14617"&gt;&lt;em&gt;Room on Fire&lt;/em&gt;&lt;/a&gt;, was generally praised for the band’s technical improvements but treated as an imitation of their debut, the band pushed in a new direction on each of their following releases. &lt;em&gt;First Impressions of Earth&lt;/em&gt; and &lt;em&gt;Angles&lt;/em&gt; isolated some of the darkness and light that coexisted on the first two records, while March 2013’s &lt;a href="https://genius.com/albums/The-strokes/Comedown-machine" rel="noopener" data-api_path="/albums/28335"&gt;&lt;em&gt;Comedown Machine&lt;/em&gt;&lt;/a&gt; retained the energy of the group’s earlier days, yet also featured a more chilled-out, lo-fi atmosphere. Even the group’s June 2016 four-song EP, &lt;a href="https://genius.com/albums/The-strokes/Future-present-past" rel="noopener" data-api_path="/albums/153765"&gt;&lt;em&gt;Future Present Past&lt;/em&gt;&lt;/a&gt;, conveyed a group that would rather make bold shifts in sound than recycle the music that endeared them to so many.&lt;/p&gt;\n\n&lt;p&gt;On April 10 2020, The Strokes\' released their 6th studio album, &lt;em&gt;The New Abnormal&lt;/em&gt;, produced by Rick Rubin. The album received &lt;a href="https://www.metacritic.com/music/the-new-abnormal/the-strokes/critic-reviews" rel="noopener nofollow"&gt;generally positive reviews&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Everclear', 'annotations': {'description': '&lt;p&gt;Everclear is an alternative rock band formed in Portland, Oregan in 1995 by (lead vocalist, guitarist, and songwriter)  &lt;a href="https://genius.com/Art-Alexis" rel="noopener"&gt;Art Alexkis&lt;/a&gt;. With nine studio albums from 1995 to 2015, Art used many combinations of band members throughout the years (even performing solo briefly).&lt;/p&gt;\n\n&lt;p&gt;During the height of their popularity; Alexkis, &lt;a href="https://genius.com/Craig-Montoya" rel="noopener"&gt;Craig Montoya&lt;/a&gt; (bass guitar) and &lt;a href="https://genius.com/Greg-Eklund" rel="noopener"&gt;Greg Eklund&lt;/a&gt; (drums) independantly released the band’s debut album, &lt;em&gt;White Noise&lt;/em&gt; before signing with Capital Records. The first three albums all went certified platinum: &lt;em&gt;Sparkle and Fade&lt;/em&gt;, &lt;em&gt;So Much for the Afterglow&lt;/em&gt;, and &lt;em&gt;Songs from an American Movie Vol. One: Learning How to Smile&lt;/em&gt;.&lt;a href="http://www.wikipedia.com/Everclear" rel="noopener nofollow"&gt;1&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;However, the following two albums, &lt;em&gt;Songs from an American Movie Vol. Two: Good Time for a Bad Attitude&lt;/em&gt; and &lt;em&gt;Slow Motion Daydream&lt;/em&gt;, were not as popular, and sales suffered, prompting Montoya and Eklund to leave the band shortly after in 2003.&lt;/p&gt;\n\n&lt;p&gt;After a short time of performing solo, Alexkis got new bandmates, and Everclear released two more studio albums, &lt;em&gt;Welcome to the Drama Club&lt;/em&gt; and &lt;em&gt;Invisible Stars&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Alexakis started the Summerland Tour. Every summer,  Everclear, along with other 1990s alternative rock bands, to playing to loyal fans who love the genre.&lt;/p&gt;\n\n&lt;p&gt;In April 2015, &lt;em&gt;Black is the New Black&lt;/em&gt; was released; the ninth studio album.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Disturbed', 'annotations': {'description': '&lt;p&gt;Disturbed is an American heavy metal band formed in 1994 (named Brawl at this time) from Chicago, Illinois. In 1996 singer Erich Awalt was replaced by David Draiman and the band was renamed “Disturbed”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed is most famously known for their songs “&lt;a href="https://genius.com/Disturbed-down-with-the-sickness-lyrics" rel="noopener" data-api_path="/songs/97449"&gt;Down With The Sickness&lt;/a&gt;” and their cover of “&lt;a href="https://genius.com/Disturbed-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/2282530"&gt;The Sound of Silence&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed went on hiatus in July 2011, to get a break from touring, but started to miss it and engaged in some side projects; &lt;a href="https://genius.com/artists/Device" rel="noopener" data-api_path="/artists/170170"&gt;Device&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fight-or-flight" rel="noopener" data-api_path="/artists/343727"&gt;Fight Or Flight&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adrenaline-mob" rel="noopener" data-api_path="/artists/329908"&gt;Adrenaline Mob&lt;/a&gt; and &lt;a href="https://genius.com/artists/Art-of-anarchy" rel="noopener" data-api_path="/artists/1019795"&gt;Art Of Anarchy&lt;/a&gt;.&lt;br&gt;\nDisturbed returned in 2015 announcing their return with their new album – &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Immortalized" rel="noopener" data-api_path="/albums/126740"&gt;Immortalized&lt;/a&gt;&lt;/em&gt;, which was recorded in secret and releasing the first single from the album, “&lt;a href="https://genius.com/Disturbed-the-vengeful-one-lyrics" rel="noopener" data-api_path="/songs/2149822"&gt;The Vengeful One&lt;/a&gt;,” in advance.&lt;br&gt;\n&lt;em&gt;Immortalized&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6678673/disturbed-scores-fifth-no-1-album-on-billboard-200-chart" rel="noopener nofollow"&gt;Disturbed’s fifth straight No. 1-debuting studio album on Billboard 200&lt;/a&gt;, making them the third group in history to have achieved five consecutive studio albums at No. 1. The other two being &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/David-draiman" rel="noopener" data-api_path="/artists/71550"&gt;David Draiman&lt;/a&gt; – vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dan-donegan" rel="noopener" data-api_path="/artists/177598"&gt;Dan Donegan&lt;/a&gt; – guitar, keyboards&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-moyer" rel="noopener" data-api_path="/artists/684586"&gt;John Moyer&lt;/a&gt; – bass, backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-wengren" rel="noopener" data-api_path="/artists/177599"&gt;Mike Wengren&lt;/a&gt; – drums&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ryan-paris', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kasabian', 'annotations': {'description': '&lt;p&gt;Kasabian are a British rock band, formed in Leicester, England in 1997. It consists of singer Tom Meighan, guitarist and singer Sergio Pizzorno, bassist Chris Edwards, drummer Ian Matthews and guitarist Tim Carter, plus touring members Ben Kealey and Gary Alesbrook. Kasabian have released six studio albums to date.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Emf', 'annotations': {'description': '&lt;p&gt;EMF are a British alternative rock band from Cinderford, Gloucestershire, who came to prominence at the beginning of the 1990s. Their name is the acronym for Epsom Mad Funkers, a fan club of the band &lt;a href="https://genius.com/artists/New-order" rel="noopener" data-api_path="/artists/37694"&gt;New Order&lt;/a&gt;. They are most well-known for their hit “Unbelievable.” Since then, the band has had 2 hiatuses and 3 reunions.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Gerard-presencer', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Halsey', 'annotations': {'description': '&lt;p&gt;Halsey is the stage name of New Jersey singer &lt;a href="https://genius.com/artists/Ashley-frangipane" rel="noopener" data-api_path="/artists/228636"&gt;Ashley Nicolette Frangipane&lt;/a&gt;. It is an anagram of her first name and taken from the &lt;a href="http://www.yelp.com/biz/halsey-street-subway-station-new-york" rel="noopener nofollow"&gt;Halsey Street subway stop&lt;/a&gt; and street in Brooklyn&amp;lt; New York where she used to live. &lt;a href="http://iamhalsey.com/aboutme" rel="noopener nofollow"&gt;The bio on her website&lt;/a&gt; reads:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I am Halsey. I will never be anything but honest. I write songs about sex and being sad.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Halsey was diagnosed with bipolar disorder when she was 17. This has greatly influenced her creative process from the start of her career. Songs like &lt;a href="https://genius.com/Halsey-control-lyrics" rel="noopener" data-api_path="/songs/726676"&gt;“Control”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-gasoline-lyrics" rel="noopener" data-api_path="/songs/2286804"&gt;“Gasoline”&lt;/a&gt; explicitly delve into her psychological and emotional battles. &lt;em&gt;Manic&lt;/em&gt;, Halsey’s third album and arguably her rawest and most emotionally vulnerable, &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;was written in a fully manic state&lt;/a&gt; rather than a depressive one.&lt;/p&gt;\n\n&lt;p&gt;When Halsey was a teen with over 14,000 friends on MySpace, she posted covers of songs on YouTube. In 2012, she recorded &lt;a href="https://genius.com/ashley-frangipane-the-haylor-song-lyrics" rel="noopener" data-api_path="/songs/2320385"&gt;“The Haylor Song,”&lt;/a&gt; &lt;a href="https://www.youtube.com/watch?v=ehnEkmUTqyI" rel="noopener nofollow"&gt;a parody&lt;/a&gt; of &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt;’s hit song &lt;a href="https://genius.com/taylor-swift-i-knew-you-were-trouble-lyrics" rel="noopener" data-api_path="/songs/92224"&gt;“I Knew You Were Trouble”&lt;/a&gt; that created controversy over the nature of the lyrics. Nevertheless, she had accumulated a respectable amount of online attention, reaching 16,000 subscribers on YouTube at the age of 18.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Halsey posted her first single &lt;a href="https://genius.com/halsey-ghost-lyrics" rel="noopener" data-api_path="/songs/519309"&gt;“Ghost”&lt;/a&gt; on Soundcloud, which turned heads in her direction. Her close friend Anthony &lt;a href="http://www.bbc.co.uk/newsbeat/article/34061249/how-halsey-ruled-the-world-before-releasing-debut-badlands" rel="noopener nofollow"&gt;pretended to be her manager&lt;/a&gt;, accompanying her in various meetings with different record labels. After being signed to &lt;a href="http://twitter.com/Astralwerks" rel="noopener nofollow"&gt;Astralwerks&lt;/a&gt;, she released her EP &lt;a href="https://genius.com/albums/Halsey/Room-93" rel="noopener" data-api_path="/albums/117562"&gt;&lt;em&gt;Room 93&lt;/em&gt;&lt;/a&gt; in late 2014, with four of the five tracks carrying accompanying music videos, giving the EP a “visual” feel. She was the most mentioned artist online at &lt;a href="http://www.billboard.com/articles/events/festivals/6509472/sxsw-twitter-stats-miley-cyrus-run-the-jewels" rel="noopener nofollow"&gt;SXSW 2015&lt;/a&gt;, which was evident by her ever-increasing fanbase. She reached over half a million followers on Twitter at the age of 20.&lt;/p&gt;\n\n&lt;p&gt;In anticipation of her debut effort, &lt;a href="https://genius.com/albums/Halsey/Badlands" rel="noopener" data-api_path="/albums/530224"&gt;&lt;em&gt;Badlands&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/halsey-hold-me-down" rel="noopener"&gt;“Hold Me Down”&lt;/a&gt; was released as a pre-order single, followed by &lt;a href="https://genius.com/halsey-new-americana-lyrics" rel="noopener" data-api_path="/songs/733666"&gt;“New Americana,”&lt;/a&gt; the anthem of today’s diversified generation. &lt;em&gt;Badlands&lt;/em&gt; was officially released on August 28, 2015, described by Halsey as &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;“an angry female record”&lt;/a&gt;. It also represents her &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;mental state&lt;/a&gt;. At Firefly Music Festival 2015, she told an &lt;a href="https://www.youtube.com/watch?v=DIdyEDFf4dA" rel="noopener nofollow"&gt;interviewer&lt;/a&gt;, “For me, it was about creating a universe and making it so that people felt like they were actually being transported somewhere.”&lt;/p&gt;\n\n&lt;p&gt;Halsey and &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; got together on the Skrillex-produced track &lt;a href="https://genius.com/justin-bieber-the-feeling-lyrics" rel="noopener" data-api_path="/songs/2342330"&gt;“The Feeling,”&lt;/a&gt; which they performed together on the TODAY Show in promotion for Bieber’s fourth album &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;. In 2016, she collaborated &lt;a href="https://genius.com/artists/The-chainsmokers" rel="noopener" data-api_path="/artists/150934"&gt;The Chainsmokers&lt;/a&gt; on the song of the summer, &lt;a href="https://genius.com/the-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer,”&lt;/a&gt; which would go onto become her biggest hit. The Grammy-nominated earworm maintained its reign at the top of the &lt;a href="https://www.billboard.com/music/halsey/chart-history/hot-100/song/987759" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Hot 100 for 12 consecutive weeks.&lt;/a&gt; Halsey later dropped &lt;a href="https://genius.com/Halsey-not-afraid-anymore-lyrics" rel="noopener" data-api_path="/songs/2953972"&gt;“Not Afraid Anymore”&lt;/a&gt; for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-darker-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/313068"&gt;soundtrack&lt;/a&gt; of the 2017 film &lt;em&gt;Fifty Shades Darker.&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s sophomore album &lt;a href="https://genius.com/albums/Halsey/Hopeless-fountain-kingdom" rel="noopener" data-api_path="/albums/334524"&gt;&lt;em&gt;hopeless fountain kingdom&lt;/em&gt;&lt;/a&gt; was released June 2, 2017. The record’s title fulfills the long-debated acronym “HFK” that she continuously hinted at through the years. The album is &lt;a href="http://www.mtv.com/news/3001539/halsey-romeo-and-juliet-hopeless-fountain-kingdom-symbolism/" rel="noopener nofollow"&gt;inspired by the story of &lt;i&gt;Romeo and Juliet&lt;/i&gt;&lt;/a&gt;. That same year, Halsey and her then-boyfriend &lt;a href="https://genius.com/artists/G-eazy" rel="noopener" data-api_path="/artists/11395"&gt;G-Eazy&lt;/a&gt; released &lt;a href="https://genius.com/G-eazy-and-halsey-him-and-i-lyrics." rel="noopener"&gt;“Him &amp;amp; I.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s first track of 2018 was a feature on &lt;a href="https://genius.com/artists/Thirty-seconds-to-mars" rel="noopener" data-api_path="/artists/60945"&gt;Thirty Seconds to Mars\'&lt;/a&gt; &lt;a href="https://genius.com/Thirty-seconds-to-mars-love-is-madness-lyrics" rel="noopener" data-api_path="/songs/3596894"&gt;“Love Is Madness.”&lt;/a&gt; The collabo track &lt;a href="https://genius.com/Benny-blanco-halsey-and-khalid-eastside-lyrics" rel="noopener" data-api_path="/songs/3828011"&gt;“Eastside”&lt;/a&gt; saw her teaming up with &lt;a href="https://genius.com/artists/Khalid" rel="noopener" data-api_path="/artists/9932"&gt;Khalid&lt;/a&gt; and &lt;a href="https://genius.com/artists/Benny-blanco" rel="noopener" data-api_path="/artists/28906"&gt;benny blanco.&lt;/a&gt; Soon after Halsey dropped &lt;a href="https://genius.com/Halsey-without-me-lyrics" rel="noopener" data-api_path="/songs/3977187"&gt;“Without Me,”&lt;/a&gt; the first single from her then-unannounced 2020 album, she and G-Eazy &lt;a href="https://people.com/music/halsey-talks-g-eazy-split-suicide-attempt-glamour-interview/" rel="noopener nofollow"&gt;ended their on-again-off-again relationship,&lt;/a&gt; leading fans to speculate and later confirm that “Without Me” was &lt;a href="https://genius.com/15518820" rel="noopener" data-api_path="/referents/15518820"&gt;about their very public relationship.&lt;/a&gt; “Without Me” hit #1 on the Billboard Hot 100, and in honor of its charting success, she dropped a &lt;a href="https://genius.com/Halsey-without-me-remix-lyrics" rel="noopener" data-api_path="/songs/4215971"&gt;remix&lt;/a&gt; with &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;the now-deceased rapper Juice WRLD&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Halsey’s 2019 began with a collaboration with English rocker &lt;a href="https://genius.com/artists/Yungblud" rel="noopener" data-api_path="/artists/1120585"&gt;YUNGBLUD&lt;/a&gt; titled &lt;a href="https://genius.com/Yungblud-and-halsey-11-minutes-lyrics" rel="noopener" data-api_path="/songs/4284170"&gt;“11 Minutes,”&lt;/a&gt; Soon after, the pair &lt;a href="https://www.kiss1027.fm/2019/02/24/halsey-addresses-dating-rumours-in-new-interview/" rel="noopener nofollow"&gt;confirmed they were dating&lt;/a&gt; The duo went on to record a cover of &lt;a href="https://genius.com/artists/Death-cab-for-cutie" rel="noopener" data-api_path="/artists/22559"&gt;Death Cab for Cutie’s&lt;/a&gt; &lt;a href="https://genius.com/Death-cab-for-cutie-i-will-follow-you-into-the-dark-lyrics" rel="noopener" data-api_path="/songs/145060"&gt;“I Will Follow You into the Dark”&lt;/a&gt; for &lt;a href="https://www.abc.net.au/triplej/" rel="noopener nofollow"&gt;triple J.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After years of friendship, Korean-pop group &lt;a href="https://genius.com/artists/Bts" rel="noopener" data-api_path="/artists/70113"&gt;BTS&lt;/a&gt; featured Halsey in &lt;a href="https://genius.com/Bts-boy-with-luv-lyrics" rel="noopener" data-api_path="/songs/4453270"&gt;“Boy With Luv,”&lt;/a&gt; which &lt;a href="https://variety.com/2019/digital/news/bts-youtube-record-boy-with-luv-halsey-1203188877/" rel="noopener nofollow"&gt;broke YouTube’s record for most views on a music video in 24 hours, with 78 million views&lt;/a&gt;. As of October 2020, the video now has over 990 million views.&lt;/p&gt;\n\n&lt;p&gt;On May 17, 2019, Halsey released the stand-alone single, &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; initially intended to be the first single of her third album &lt;a href="https://genius.com/albums/Halsey/Manic" rel="noopener" data-api_path="/albums/488527"&gt;&lt;em&gt;Manic.&lt;/em&gt;&lt;/a&gt; Following this, &lt;a href="https://genius.com/Halsey-graveyard-lyrics" rel="noopener" data-api_path="/songs/4838396"&gt;“Graveyard”&lt;/a&gt; was released, with Halsey announcing that &lt;em&gt;Manic&lt;/em&gt; would drop in January 2020. Singles &lt;a href="https://genius.com/Halsey-finally-beautiful-stranger-lyrics" rel="noopener" data-api_path="/songs/5072613"&gt;“Finally // beautiful stranger,”&lt;/a&gt; &lt;a href="https://genius.com/Halsey-suga-and-bts-sugas-interlude-lyrics" rel="noopener" data-api_path="/songs/5072616"&gt;“SUGA’s Interlude,”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-you-should-be-sad-lyrics" rel="noopener" data-api_path="/songs/5009294"&gt;“You should be sad”&lt;/a&gt; dropped in anticipation for the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Manic&lt;/em&gt; is Halsey’s first album that does not “hide behind a concept"—it’s fully raw nature brings forward her most vulnerable self. She told &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that mania is "that thing in the back of our minds that drives us to outrageous thoughts. Like when you’re driving a car and you’re like [she mimes suddenly cutting over the wheel], or you’re on top of a building, and you’re like, ‘What if I just jump?’ … You are controlled by those impulses rather than logic and reason.”&lt;/p&gt;\n\n&lt;p&gt;Since releasing their third studio album, Manic, on Jan. 17, 2020, Halsey has delved into her artistic side in more ways than one. On November 10, 2020, Halsey released a book of poems titled I Would Leave Me If I Could, which explores topics such as mental health, sexuality, relationships, longing, and love. The book debuted on The New York Times Best Sellers list, and the cover features an original piece of artwork by Halsey called “American Woman.”&lt;/p&gt;\n\n&lt;p&gt;Alongside her recent poetry book, Halsey also revealed her makeup line, About-Face, on January 25, 2021. This line was described by Halsey as a “multi-dimension makeup brand for everyone,” promoting inclusivity, diversity, and beauty of all forms.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2021, over a year after the release of &lt;em&gt;Manic&lt;/em&gt;, Halsey announced their pregnancy, alongside a set of photos on Instagram. In the photos, she tagged boyfriend Alev Aydin’s Instagram account right over her belly.&lt;/p&gt;\n\n&lt;p&gt;In March of 2021, Halsey quietly announced their pronouns, putting “she/they” in her Instagram bio. They later spoke more on the subject in their Instagram story, saying “For those asking RE: my updated IG bio, I am happy with either pronouns.” … “The inclusion of ‘they’ in addition to ‘she’ feels most authentic to me. If you know me at all, you know what it means to me to express this outwardly. Thanks for being the best.” Halsey also said this when speaking on her gender identity and pregnancy: “I thought pregnancy would give me very strong, binary feelings about ‘womanhood,’” they wrote. “But truly, it has leveled my perception of gender entirely. My sensitivity to my body has made me hyper aware of my humanness and that’s all.”&lt;/p&gt;\n\n&lt;p&gt;On June 28, Halsey announced their fourth studio album “If I Can’t Have Love, I Want Power”. Produced by Trent Reznor and Atticus Ross, this full-length album is assumed to include their stand-alone single &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; from 2019. On July 7, 2021, the album art was revealed along with a brief Instagram caption from Halsey, where they described it as a “concept album about the joys and horrors of pregnancy and childbirth.” Halsey continued in this caption by saying, “It was very important to me that the cover art conveyed the sentiment of my journey over the past few months. The dichotomy of the Madonna and the Whore. The idea that me as a sexual being and my body as a vessel and gift to my child are two concepts that can co-exist peacefully and powerfully. My body has belonged to the world in many different ways the past few years, and this image is my means of reclaiming my autonomy and establishing my pride and strength as a life force for my human being.” The album’s release date is set to be August 27, 2021.&lt;/p&gt;', 'alternate_names': ['Ashley Frangipane', 'Ashley N. Frangipane', 'Ashley Nicolette Frangipane']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pink-floyd', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.pinkfloyd.com/home.php" rel="noopener nofollow"&gt;Pink Floyd&lt;/a&gt; was a British rock band who managed to carve a path for progressive and psychedelic music in a way that was uniquely fascinating at the time and has remained equally momentous in the modern age. The name “Pink Floyd” came from two blues musicians that founding member Syd Barrett idolized—&lt;a href="https://genius.com/artists/Pink-anderson" rel="noopener" data-api_path="/artists/350877"&gt;Pink Anderson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Floyd-council" rel="noopener" data-api_path="/artists/380346"&gt;Floyd Council&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was formed in 1965 London by &lt;a href="https://genius.com/artists/Syd-barrett" rel="noopener" data-api_path="/artists/62540"&gt;Barrett&lt;/a&gt; (guitars, vocals), &lt;a href="https://genius.com/artists/Nick-mason" rel="noopener" data-api_path="/artists/174898"&gt;Nick Mason&lt;/a&gt; (drums), &lt;a href="https://genius.com/artists/Roger-waters" rel="noopener" data-api_path="/artists/33624"&gt;Roger Waters&lt;/a&gt; (bass), and &lt;a href="https://genius.com/artists/Richard-wright-musician" rel="noopener" data-api_path="/artists/41626"&gt;Richard Wright&lt;/a&gt; (keyboards). Sometime after releasing their debut album, 1967’s &lt;a href="https://genius.com/albums/Pink-floyd/The-piper-at-the-gates-of-dawn" rel="noopener" data-api_path="/albums/31179"&gt;&lt;em&gt;The Piper at the Gates of Dawn&lt;/em&gt;&lt;/a&gt;, the group saw the addition of a second singer-guitarist, &lt;a href="https://genius.com/artists/David-gilmour" rel="noopener" data-api_path="/artists/33622"&gt;David Gilmour&lt;/a&gt;. This acted largely as a means of replacing Barrett, who was forced to leave in 1968 &lt;a href="http://sydbarrett.net/subpages/articles/syd_barrett_story_by_syd_and_tho.htm" rel="noopener nofollow"&gt;for mental health reasons&lt;/a&gt;, resulting in Waters taking over as the main vocalist.&lt;/p&gt;\n\n&lt;p&gt;The band broke into the mainstream with 1973’s &lt;a href="https://genius.com/albums/Pink-floyd/The-dark-side-of-the-moon" rel="noopener" data-api_path="/albums/14530"&gt;&lt;em&gt;Dark Side of the Moon&lt;/em&gt;&lt;/a&gt;, an album that became one of the &lt;a href="http://www.rollingstone.com/music/news/erykah-badu-billy-corgan-and-more-on-legacy-of-dark-side-of-the-moon-20110928" rel="noopener nofollow"&gt;best-selling and most influential&lt;/a&gt; records in music history. Their follow-up efforts, 1975’s &lt;a href="https://genius.com/albums/Pink-floyd/Wish-you-were-here" rel="noopener" data-api_path="/albums/22136"&gt;&lt;em&gt;Wish You Were Here&lt;/em&gt;&lt;/a&gt; and 1977’s &lt;a href="https://genius.com/albums/Pink-floyd/Animals" rel="noopener" data-api_path="/albums/15067"&gt;&lt;em&gt;Animals&lt;/em&gt;&lt;/a&gt;, also sold well. However, the band started to see some &lt;a href="http://www.rollingstone.com/music/news/roger-waters-david-gilmour-is-uninterested-in-touring-the-wall-20100505" rel="noopener nofollow"&gt;in-fighting&lt;/a&gt; while making their next album, a rock opera about how Waters felt frustrated and detached from his audience. Waters seemingly became extremely controlling, firing Wright over disputes about touring and his contributions to the album. The result, 1979’s &lt;a href="https://genius.com/albums/Pink-floyd/The-wall" rel="noopener" data-api_path="/albums/14831"&gt;&lt;em&gt;The Wall&lt;/em&gt;&lt;/a&gt;, became the best-selling double album of all time. It spawned iconic songs such as the #1 hit, &lt;a href="https://genius.com/Pink-floyd-another-brick-in-the-wall-part-ii-lyrics" rel="noopener" data-api_path="/songs/106641"&gt;“Another Brick in the Wall, Pt. 2,”&lt;/a&gt; and the melodic &lt;a href="https://genius.com/Pink-floyd-comfortably-numb-lyrics" rel="noopener" data-api_path="/songs/65489"&gt;“Comfortably Numb.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After the not-so-well-received &lt;a href="https://genius.com/albums/Pink-floyd/The-final-cut" rel="noopener" data-api_path="/albums/32739"&gt;&lt;em&gt;Final Cut&lt;/em&gt;&lt;/a&gt;, released in 1983, Waters decided to call it quits and attempted to dissolve the band. However, Gilmour, Mason, and Wright opted to make more albums with the band’s name despite a lawsuit by Waters, keeping Floyd alive until their collective hiatus in 1996, following the 1994 &lt;a href="https://genius.com/albums/pink-floyd/the-division-bell" rel="noopener" data-api_path="/albums/32748"&gt;&lt;em&gt;The Division Bell&lt;/em&gt;&lt;/a&gt; tour.&lt;/p&gt;\n\n&lt;p&gt;The quartet managed to make amends and reunite for a final gig in 2005, performing five songs for the Live 8 concert at Hyde Park. Barrett died in 2006 and Wright died in 2008, but Pink Floyd’s legacy remains alive through their extensive &lt;a href="https://genius.com/Pink-floyd-pink-floyd-discography-annotated" rel="noopener" data-api_path="/songs/1226330"&gt;discography&lt;/a&gt;, as well as Gilmour and Waters\' many solo projects, re-releases of the group’s catalog, and the band’s final album, November 2014’s &lt;a href="https://genius.com/albums/Pink-floyd/The-endless-river" rel="noopener" data-api_path="/albums/112608"&gt;&lt;em&gt;The Endless River&lt;/em&gt;&lt;/a&gt;—a record composed of leftover &lt;em&gt;Division Bell&lt;/em&gt;-era recordings.&lt;/p&gt;\n\n&lt;p&gt;In September of 2019, the band launched a &lt;a href="https://pinkfloydexhibition.de/eng/exhibition.html" rel="noopener nofollow"&gt;five-month-long multimedia tour&lt;/a&gt; in Germany. “The Pink Floyd Exhibition: Their Mortal Remains” seeks to reveal to visitors experiences that they would not get anywhere else. For example, the exhibition features unreleased recordings from gigs, tokens from band members, and more.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nayer', 'annotations': {'description': '&lt;p&gt;Latin pop singer known for being a featured artist along with Ne-Yo for Pitbull’s 2011 hit single “Give Me Everything”, produced by Afrojack. She is also known for her hit single in 2012 titled “Suave (Kiss Me)” featuring Pitbull and Swedish-Congolese singer-songwriter Mohombi. She also was featured by Enrique Iglesias in the Remix of his single “Dirty Dancer” along with other artists, such as Lil Wayne and Usher.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sam-smith', 'annotations': {'description': '&lt;p&gt;Sam Smith was born on 19th May 1992 and grew up in a rural village on the border of Hertfordshire and Cambridgeshire, the nearest town being Bishops Stortford. They’re the oldest of three siblings and are said to be close to their younger sisters. Their mother is a successful City of London trader and their father a stay-at-home dad who brought up the children.&lt;/p&gt;\n\n&lt;p&gt;Smith showed an early talent for singing, and their parents responded by arranging singing lessons from the age of eight with professional jazz singer and songwriter, Joanna Eden. At the early age of seventeen, they left school to pursue their dream, living in a small one-bed flat and working in a London pub, but ended up isolated and beset by loneliness.&lt;/p&gt;\n\n&lt;p&gt;Sam knew they were gay, they said, for as long as they could remember. They suffered bullying at school and were shocked to find that even in London—close to gay communities—they were subjected to homophobic attacks. These negative experiences, combined with an inherently emotional nature, inform their songwriting and delivery. The soulful, beautifully rich tone of their voice and the subject of the lyrics ‘speak’ to many people and have led to their success.&lt;/p&gt;\n\n&lt;p&gt; It was through collaboration with &lt;a href="https://genius.com/artists/Disclosure" rel="noopener" data-api_path="/artists/43384"&gt;Disclosure&lt;/a&gt;’s “&lt;a href="https://genius.com/Disclosure-latch-lyrics" rel="noopener" data-api_path="/songs/133531"&gt;Latch&lt;/a&gt;” and &lt;a href="https://genius.com/artists/Naughty-boy" rel="noopener" data-api_path="/artists/31376"&gt;Naughty Boy&lt;/a&gt;’s “&lt;a href="https://genius.com/Naughty-boy-la-la-la-lyrics" rel="noopener" data-api_path="/songs/153223"&gt;La La La&lt;/a&gt;”, Smith found themselves more and more in-demand throughout 2012 and 2013. They &lt;a href="http://www.huffingtonpost.com/2014/05/28/sam-smith-gay_n_5404783.html" rel="noopener nofollow"&gt;publicly came out as gay&lt;/a&gt; shortly before releasing their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Sam-smith/In-the-lonely-hour" rel="noopener" data-api_path="/albums/75786"&gt;In the Lonely Hour&lt;/a&gt;&lt;/em&gt; on 26 May 2014, which they wrote because they were in love with a man who “didn’t love [them] back”.&lt;/p&gt;\n\n&lt;p&gt;In 2015 Sam won the Grammys for Best New Artist, Record of the Year and Best Pop Vocal Album. Their popular single &lt;a href="https://genius.com/Sam-smith-stay-with-me-lyrics" rel="noopener" data-api_path="/songs/387414"&gt;“Stay With Me”&lt;/a&gt; won the 2015 Grammy for Song of the Year.&lt;/p&gt;\n\n&lt;p&gt;In 2017 Sam came out as non-binary stating &lt;a href="http://www.news.com.au/entertainment/celebrity-life/sam-smith-i-feel-just-as-much-a-woman-as-i-am-man/news-story/1ffc1d95c5d053b246c89d80bd3887b5" rel="noopener nofollow"&gt;“I feel as much a woman as I am a man”&lt;/a&gt;, and in 2019 announced on Instagram that they were changing their pronouns to the gender neutral they/them.  In subsequent &lt;a href="https://www.independent.co.uk/life-style/sam-smith-non-binary-gender-bullying-b1758928.html" rel="noopener nofollow"&gt;interviews&lt;/a&gt; Sam confessed that “… gender, for me, has been nothing but traumatising” and that they weren’t prepared for the “ridicule” that was directed at them.&lt;/p&gt;\n\n&lt;p&gt;In terms of professional life, Sam’s career has been nothing but successful. In September 2017 Sam’s single &lt;a href="https://genius.com/Sam-smith-too-good-at-goodbyes-lyrics" rel="noopener" data-api_path="/songs/3219597"&gt;‘Too Good at Goodbyes’&lt;/a&gt;, the lead single of their sophomore album, was released. It &lt;a href="https://www.officialcharts.com/chart-news/sam-smiths-too-good-at-goodbyes-scores-a-second-week-at-number-1__20498/" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in their home country and &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8039394/sam-smith-too-good-at-goodbye-streaming-songs-top-five" rel="noopener nofollow"&gt;reached the top five&lt;/a&gt; in the U.S. It has accumulated over &lt;a href="https://www.youtube.com/watch?v=J_ub7Etch2U" rel="noopener nofollow"&gt;a billion views&lt;/a&gt; on the streaming service, YouTube. In early November, their album &lt;a href="https://genius.com/albums/Sam-smith/The-thrill-of-it-all" rel="noopener" data-api_path="/albums/366486"&gt;‘The Thrill Of It All’&lt;/a&gt; managed to top the official charts of eleven countries.&lt;/p&gt;\n\n&lt;p&gt;On March 20, 2018, Sam began their &lt;a href="https://genius.com/albums/Sam-smith/The-thrill-of-it-all" rel="noopener" data-api_path="/albums/366486"&gt;“The Thrill of It All World Tour”&lt;/a&gt; in Sheffield, England. It visited Europe, North America, Asia, New Zealand and Australia. The South Africa leg of the tour began in Cape Town, but was cut short by what at the time was said to be voice strain and Sam’s fear that they would damage their voice further if the tour continued. However, they subsequently admitted to panic and stress following the grief of their &lt;a href="https://www.youtube.com/watch?v=WKGbUiQdi2M" rel="noopener nofollow"&gt;break-up with ex-boyfriend, Brandon Flynn&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On 27 March 2018, they released &lt;a href="https://genius.com/Sam-smith-pray-remix-lyrics" rel="noopener" data-api_path="/songs/3608789"&gt;“Pray”&lt;/a&gt; featuring American rapper &lt;a href="https://genius.com/artists/Logic" rel="noopener" data-api_path="/artists/7922"&gt;Logic&lt;/a&gt;. On 17 August 2018, the singer collaborated as the main vocalist on &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;’s new track &lt;a href="https://genius.com/Calvin-harris-and-sam-smith-promises-lyrics" rel="noopener" data-api_path="/songs/3897728"&gt;“Promises”&lt;/a&gt;. The song became Smith’s &lt;a href="https://www.officialcharts.com/chart-news/calvin-harris-and-sam-smith-score-a-record-breaking-number-1-with-promises-i-am-overwhelmed__23886/" rel="noopener nofollow"&gt;seventh number one hit on the UK Singles Chart&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In January 2019, Sam Smith released the R&amp;amp;B-tinged, somewhat autobiographical &lt;a href="https://genius.com/Sam-smith-and-normani-dancing-with-a-stranger-lyrics" rel="noopener" data-api_path="/songs/4172650"&gt;‘\'Dancing with a Stranger"&lt;/a&gt;, a timely collaboration with &lt;a href="https://genius.com/artists/Fifth-harmony" rel="noopener" data-api_path="/artists/60437"&gt;Fifth Harmony&lt;/a&gt;’s starlet &lt;a href="https://genius.com/artists/Normani" rel="noopener" data-api_path="/artists/636165"&gt;Normani&lt;/a&gt; – a girl group that Sam has been a huge fan of.&lt;/p&gt;\n\n&lt;p&gt;In July 2019 “&lt;a href="https://genius.com/Sam-smith-how-do-you-sleep-lyrics" rel="noopener" data-api_path="/songs/4690095"&gt;How Do You Sleep"&lt;/a&gt; was released, accompanied by a &lt;a href="https://www.youtube.com/watch?v=PmYypVozQb4" rel="noopener nofollow"&gt;music video&lt;/a&gt; that garnered a hundred million views in less than two months. Sam has said in an interview with Kiss Radio that the story behind the song is broadly autobiographical.&lt;/p&gt;\n\n&lt;p&gt;In October 2019 Sam received the &lt;a href="https://attitude.co.uk/article/attitude-person-of-the-year-award-supported-by-virgin-atlantic-sam-smith/21993/" rel="noopener nofollow"&gt;Person of the Year&lt;/a&gt; award from &lt;em&gt;Attitude&lt;/em&gt; Magazine for their campaigning on behalf of the non-binary community.&lt;/p&gt;\n\n&lt;p&gt;On 1st November 2019 Sam released a cover, to positive reviews, of &lt;a href="https://genius.com/Sam-smith-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/4967470"&gt;I Feel Love&lt;/a&gt;, originally released by &lt;a href="https://genius.com/Donna-summer-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/579882"&gt;Donna Summer&lt;/a&gt; in 1977.&lt;/p&gt;\n\n&lt;p&gt;Sam’s prolific output didn’t end in 2019. In 2020 Sam’s single &lt;a href="https://genius.com/Sam-smith-to-die-for-lyrics" rel="noopener" data-api_path="/songs/5171420"&gt;To Die For&lt;/a&gt; was released in February 2020. Intended as the title track of their album, planned initially for release in May, this was deferred because of the global Coronavirus pandemic. The title and content were deemed inappropriate have been revised.&lt;/p&gt;\n\n&lt;p&gt;On 18th September 2020 the second single &lt;a href="https://genius.com/Sam-smith-diamonds-lyrics" rel="noopener" data-api_path="/songs/5926981"&gt;Diamonds&lt;/a&gt; from Sam’s third album, re-titled &lt;a href="https://genius.com/Sam-smith-love-goes-lyrics" rel="noopener" data-api_path="/songs/5267538"&gt;Love Goes&lt;/a&gt; was released.  The full album dropped on 30th October 2020.  A significant proportion of the tracks have been attributed by Sam himself to their relationship and &lt;a href="https://genius.com/Sam-smith-dance-til-you-love-someone-else-lyrics" rel="noopener" data-api_path="/songs/5973500"&gt;break-up with Brandon Flynn&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Samuel F. Smith', 'Samuel Frederick Smith']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ohio-players', 'annotations': {'description': '&lt;p&gt;The Ohio Players were an American funk and R&amp;amp;B band best known for their songs “Fire” and “Love Rollercoaster”. They hit their peak popularity in the 1970s.&lt;/p&gt;\n\n&lt;p&gt;Their songs “Funky Worm”, “Skin Tight”, “Fire”, and “Love Rollercoaster” were all awarded gold certifications along with their albums “Skin Tight,” “Fire,” and “Honey.”&lt;/p&gt;', 'alternate_names': ['Ohio Untouchables']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Donna-summer', 'annotations': {'description': '&lt;p&gt;As the unquestioned queen of disco, the one and only Donna Summer lit up the late 70s and 80s with flashy, exuberant vocals and automatic earworms. Born LaDonna Adrian Gaines on Dec. 31, 1948, Summer moved to Germany after being cast in a Munich production of &lt;em&gt;Hair&lt;/em&gt;. There, she happened to meet &lt;a href="https://genius.com/artists/Giorgio-moroder" rel="noopener" data-api_path="/artists/50122"&gt;Giorgio Moroder&lt;/a&gt; and &lt;a href="https://genius.com/artists/Pete-bellotte" rel="noopener" data-api_path="/artists/225679"&gt;Pete Bellotte&lt;/a&gt;, and the trio conglomerated to form a dynamic music team. With Moroder, Summer forged together her first album, &lt;em&gt;The Hostage&lt;/em&gt;, which reached moderate success in Northern Europe. Summer’s big break, however, would come later with the release of 1975’s sexual &lt;a href="https://genius.com/Donna-summer-love-to-love-you-baby-lyrics" rel="noopener" data-api_path="/songs/579877"&gt;“Love to Love You Baby”&lt;/a&gt;, which became one of disco’s first mainstream hits and reached #2 on the Billboard Charts.&lt;/p&gt;\n\n&lt;p&gt;1977 came around with the concept album &lt;a href="https://genius.com/albums/Donna-summer/I-remember-yesterday" rel="noopener" data-api_path="/albums/114971"&gt;&lt;em&gt;I Remember Yesterday&lt;/em&gt;&lt;/a&gt;, which featured the Top 10 single &lt;a href="https://genius.com/Donna-summer-i-feel-love-lyrics" rel="noopener" data-api_path="/songs/579882"&gt;“I Feel Love”&lt;/a&gt;. The next year, Summer hit the silver screen with the movie &lt;em&gt;Thank God It’s Friday&lt;/em&gt;, whose &lt;a href="https://genius.com/albums/Donna-summer/thank-god-its-friday" rel="noopener"&gt;soundtrack&lt;/a&gt; featured one of her own songs: the iconic &lt;a href="https://genius.com/Donna-summer-last-dance-lyrics" rel="noopener" data-api_path="/songs/579885"&gt;“Last Dance.”&lt;/a&gt; This would later become one of the disco legends\' signature songs. “Dance” would take home an Academy Award for Best Original Song, a Grammy, and a Golden Globe, and it jumped to a peak of #3 on the charts.&lt;/p&gt;\n\n&lt;p&gt;Yet Summer’s illustrious career was far from finished – Summer’s first live album &lt;a href="https://genius.com/albums/Donna-summer/Live-and-more" rel="noopener" data-api_path="/albums/114973"&gt;&lt;em&gt;Live and More&lt;/em&gt;&lt;/a&gt; featured the single &lt;a href="https://genius.com/Donna-summer-macarthur-park-lyrics" rel="noopener" data-api_path="/songs/579888"&gt;“MacArthur Park”&lt;/a&gt;, a melting ballad that was a cover of the &lt;a href="https://genius.com/artists/Jimmy-webb" rel="noopener" data-api_path="/artists/343497"&gt;Jimmy Webb&lt;/a&gt; ballad of the same name. “Park” became Summer’s first – and perhaps most memorable – No. 1 hit, and cemented her status as a vocalist as well as a performer. With the track, she became the first female in modern rock history to hold the top spot in both the Hot 100 and the Billboard 200. 1979, though, would really be the peak of her career.&lt;/p&gt;\n\n&lt;p&gt;Her seventh studio album, &lt;a href="https://genius.com/albums/Donna-summer/Bad-girls" rel="noopener" data-api_path="/albums/111546"&gt;&lt;em&gt;Bad Girls&lt;/em&gt;&lt;/a&gt;, became arguably Summer’s most signature record. Equipped with three number ones (&lt;a href="https://genius.com/Donna-summer-bad-girls-lyrics" rel="noopener" data-api_path="/songs/513277"&gt;“Bad Girls”&lt;/a&gt;, &lt;a href="https://genius.com/Donna-summer-hot-stuff-lyrics" rel="noopener" data-api_path="/songs/509097"&gt;“Hot Stuff”&lt;/a&gt;, the &lt;a href="https://genius.com/artists/Barbra-streisand" rel="noopener" data-api_path="/artists/65306"&gt;Barbra Streisand&lt;/a&gt; duet &lt;a href="https://genius.com/Donna-summer-no-more-tears-enough-is-enough-lyrics" rel="noopener" data-api_path="/songs/972328"&gt;“No More Tears (Enough is Enough)”&lt;/a&gt;) and a number two (&lt;a href="https://genius.com/Donna-summer-dim-all-the-lights-lyrics" rel="noopener" data-api_path="/songs/515101"&gt;“Dim All The Lights”&lt;/a&gt;), &lt;em&gt;Bad Girls&lt;/em&gt; roared to triple-platinum. Summer set a host of Billboard records – one of them being the first woman to have three number-ones in a calendar year – and also took home a Grammy for “Stuff”.&lt;/p&gt;\n\n&lt;p&gt;Throughout the rest of her career, Summer continued to clock Top 40 hit after top 40 hit, eventually racking up 12 tracks that went gold, along with a multitude of commercially and chartwise successful albums. Summer passed away on May 17th, 2012 due to her battle with lung cancer, but her legacy for women in the music industry and for disco are unforgettable.&lt;/p&gt;\n\n&lt;p&gt;Donna’s daughter, Amanda, sings for the folk duo &lt;a href="https://genius.com/artists/JOHNNYSWIM" rel="noopener" data-api_path="/artists/357528"&gt;JOHNNYSWIM&lt;/a&gt;. Amanda sings with her husband, Abner, as well.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kaiser-chiefs', 'annotations': {'description': '&lt;p&gt;Kaiser Chiefs emerged in the mid-2000s as one of the major players in the Post-Punk Revival movement. After a slight false start with their first album, &lt;a href="https://genius.com/albums/Parva/22" rel="noopener" data-api_path="/albums/193898"&gt;&lt;em&gt;22&lt;/em&gt;&lt;/a&gt; (released under the name “Parva”), the band achieved considerable commercial success with their first two major-label studio albums, &lt;a href="https://genius.com/albums/Kaiser-chiefs/Employment" rel="noopener" data-api_path="/albums/43933"&gt;&lt;em&gt;Employment&lt;/em&gt;&lt;/a&gt; (2005) and &lt;a href="https://genius.com/albums/Kaiser-chiefs/Yours-truly-angry-mob" rel="noopener" data-api_path="/albums/80470"&gt;&lt;em&gt;Yours Truly, Angry Mob&lt;/em&gt;&lt;/a&gt; (2007). The latter also spawned the single, &lt;a href="https://genius.com/Kaiser-chiefs-ruby-lyrics" rel="noopener" data-api_path="/songs/220610"&gt;“Ruby”&lt;/a&gt;, which scored the band their first UK #1 in 2007. The group gained recognition for their Britpop and Punk-influenced sound, which made them stand out among their contemporaries.&lt;/p&gt;\n\n&lt;p&gt;Their next album, &lt;a href="https://genius.com/albums/Kaiser-chiefs/Off-with-their-heads" rel="noopener" data-api_path="/albums/164847"&gt;&lt;em&gt;Off With Their Heads&lt;/em&gt;&lt;/a&gt;, was also a commercial hit, but 2011’s &lt;a href="https://genius.com/albums/Kaiser-chiefs/The-future-is-medieval-start-the-revolution-without-me" rel="noopener" data-api_path="/albums/43934"&gt;&lt;em&gt;The Future is Medieval&lt;/em&gt;&lt;/a&gt;, was less successful, and the band only returned to the limelight three years later, following the departure of drummer &lt;a href="https://genius.com/artists/Nick-hodgson" rel="noopener" data-api_path="/artists/143730"&gt;Nick Hodgson&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ricky-wilson" rel="noopener" data-api_path="/artists/52329"&gt;Ricky Wilson’s&lt;/a&gt; appearance as a judge on &lt;em&gt;The Voice UK&lt;/em&gt;, when &lt;a href="https://genius.com/albums/Kaiser-chiefs/Education-education-education-war" rel="noopener" data-api_path="/albums/73523"&gt;&lt;em&gt;Education, Education, Education &amp;amp; War&lt;/em&gt;&lt;/a&gt; became their second album to top the UK charts.&lt;/p&gt;\n\n&lt;p&gt;After this, the band stepped away from their trademark punk sound and moved into a more commercial, poppy direction with 2016’s &lt;a href="https://genius.com/albums/Kaiser-chiefs/Stay-together" rel="noopener" data-api_path="/albums/156158"&gt;&lt;em&gt;Stay Together&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Parva (2000-03)']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Magic', 'annotations': {'description': '&lt;p&gt;MAGIC! is a Canadian reggae-pop band, composed of songwriter and record producer &lt;a href="https://genius.com/artists/Nasri-atweh" rel="noopener" data-api_path="/artists/204998"&gt;Nasri Atweh&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-pellizzer" rel="noopener" data-api_path="/artists/204999"&gt;Mark Pellizzer&lt;/a&gt;, &lt;a href="https://genius.com/artists/Alex-tanas" rel="noopener" data-api_path="/artists/205000"&gt;Alex Tanas&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Ben-spivak" rel="noopener" data-api_path="/artists/676957"&gt;Ben Spivak&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2014, they released their debut single, &lt;a href="https://genius.com/Magic-rude-lyrics" rel="noopener" data-api_path="/songs/380162"&gt;“Rude”&lt;/a&gt;. It topped charts worldwide including the US and UK, and peaked at number six in Canada. Their &lt;a href="https://genius.com/albums/Magic/Don-t-kill-the-magic" rel="noopener" data-api_path="/albums/108042"&gt;debut album&lt;/a&gt; was released on June 30, 2014, and peaked at six in the US and five in Canada.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Owl-city', 'annotations': {'description': '&lt;p&gt;Originally making songs in his basement for his friends as &lt;a href="https://genius.com/artists/Sky-sailing" rel="noopener" data-api_path="/artists/360480"&gt;Sky Sailing&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adam-young" rel="noopener" data-api_path="/artists/39521"&gt;Adam Young&lt;/a&gt; then discovered synth music and became Owl City, releasing two relatively unpopular albums &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Maybe-i-m-dreaming" rel="noopener" data-api_path="/albums/40282"&gt;Maybe I’m Dreaming&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Of-june" rel="noopener" data-api_path="/albums/100523"&gt;Of June&lt;/a&gt;&lt;/em&gt; before making his hit single “&lt;a href="https://genius.com/Owl-city-fireflies-lyrics" rel="noopener" data-api_path="/songs/54831"&gt;Fireflies&lt;/a&gt;” which made his third album as Owl City, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ocean-eyes" rel="noopener" data-api_path="/albums/12041"&gt;Ocean Eyes&lt;/a&gt;&lt;/em&gt; a hit.&lt;/p&gt;\n\n&lt;p&gt;After this worldwide success he put on two more albums, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/All-things-bright-and-beautiful" rel="noopener" data-api_path="/albums/12197"&gt;All Things Bright and Beautiful&lt;/a&gt;&lt;/em&gt; in 2011, and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/The-midsummer-station" rel="noopener" data-api_path="/albums/20412"&gt;The Midsummer Station&lt;/a&gt;&lt;/em&gt; in 2012. In 2014 he released an EP, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ultraviolet-ep" rel="noopener" data-api_path="/albums/105845"&gt;Ultraviolet&lt;/a&gt;&lt;/em&gt;, composed of 4 songs &lt;a href="https://genius.com/Owl-city-this-isnt-the-end-lyrics" rel="noopener" data-api_path="/songs/461949"&gt;whom one&lt;/a&gt; would appear on his following album, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Mobile-orchestra" rel="noopener" data-api_path="/albums/124470"&gt;Mobile Orchestra&lt;/a&gt;&lt;/em&gt;. Retiring from Owl City in 2016 to focus on &lt;a href="https://www.ayoungscores.com/" rel="noopener nofollow"&gt;Adam Young Scores&lt;/a&gt;, a new project made of orchestral soundtracks about historic events, he reappeared in 2017 to tease his upcoming new album &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Cinematic" rel="noopener" data-api_path="/albums/377687"&gt;Cinematic&lt;/a&gt;&lt;/em&gt;, with the release of a series of three EPs, called &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-1-ep" rel="noopener" data-api_path="/albums/377817"&gt;Reel 1&lt;/a&gt;&lt;/em&gt; , &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-2-ep" rel="noopener" data-api_path="/albums/399481"&gt;2&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-3-ep" rel="noopener" data-api_path="/albums/417372"&gt;3&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Starcrawler', 'artist_name': 'Filter', 'wiki': 'http://en.wikipedia.org/wiki/Starcrawler', 'start_year': '2015', 'labels': ['http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['Arrow de Wilde', 'Henri Cash', 'Seth Carolina', 'Tim Franco'], 'old_members': ['Austin Smith'], 'abstract': "Starcrawler is an American rock band from Los Angeles, formed in 2015. The band consists of lead singer Arrow de Wilde, guitarist Henri Cash, bassist Tim Franco and drummer Seth Carolina. They have released two studio albums, Starcrawler (2018) and Devour You (2019). Starcrawler lead singer Arrow de Wilde and guitarist Henri Cash both attended Los Angeles' Grand Arts High School. De Wilde is the child of photographer Autumn de Wilde and drummer Aaron Sperske."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jamiroquai', 'artist_name': 'Jamiroquai', 'wiki': 'http://en.wikipedia.org/wiki/Jamiroquai', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/Acid_Jazz_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/S2_Records', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Work_Group'], 'plays_in': ['http://dbpedia.org/resource/About_Last_Night_(2014_film)', 'http://dbpedia.org/resource/Grammy_Nominees', "http://dbpedia.org/resource/Guru's_Jazzmatazz,_Vol._2:_The_New_Reality", 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jay_Kay', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'Sola Akingbola', 'Rob Harris', 'Derrick McKenzie'], 'related_artists': ['http://dbpedia.org/resource/Anastacia', 'http://dbpedia.org/resource/Jay_Kay__Jay_Kay__1', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Linda_Lewis', 'http://dbpedia.org/resource/Matt_Johnson_(keyboardist)', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Nick_Fyffe', 'http://dbpedia.org/resource/Paul_Turner_(bassist)', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Shuffler', 'http://dbpedia.org/resource/Simon_Hale', 'http://dbpedia.org/resource/Simon_Katz', 'http://dbpedia.org/resource/Stuart_Zender', 'http://dbpedia.org/resource/The_Temperance_Movement_(band)', 'http://dbpedia.org/resource/Toby_Smith'], 'abstract': 'Jamiroquai (/dʒəˈmɪrəkwaɪ/) are an English funk and acid jazz band from London. Formed in 1992, they are fronted by vocalist Jay Kay, and were prominent in the London-based funk and acid jazz movement of the 1990s. They built on their acid jazz sound in their early releases and later drew from rock, disco, electronic and Latin music genres. Lyrically, the group have addressed social and environmental justice. Kay has remained as the only original member through several line-up changes. The band made their debut under Acid Jazz Records, but they subsequently found mainstream success under Sony. While under this label, three of their albums have charted at number one in the UK, including Emergency on Planet Earth (1993), Synkronized (1999) and A Funk Odyssey (2001). The band\'s 1998 single, "Deeper Underground", was also number one in their native country. Jamiroquai has sold more than 26 million albums worldwide as of 2017. Their third album, Travelling Without Moving (1996), received a Guinness World Record for the best-selling funk album in history. The music video for its lead single, "Virtual Insanity", also contributed to the band\'s success. The song was named Video of the Year at the 1997 MTV Video Music Awards and earned the band a Grammy Award in 1998.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alien_Ant_Farm', 'artist_name': 'Alien Ant Farm', 'wiki': 'http://en.wikipedia.org/wiki/Alien_Ant_Farm', 'hometown': 'http://dbpedia.org/resource/Riverside,_California', 'start_year': '1996', 'labels': ['http://dbpedia.org/resource/DreamWorks_Records', 'http://dbpedia.org/resource/Executive_Music_Group', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'pop punk'], 'actual_members': ['Dryden Mitchell', 'Terry Corso', 'Tim Peugh', 'Mike Cosgrove'], 'old_members': ['Tye Zamora', 'Joe Hill'], 'related_artists': ['http://dbpedia.org/resource/Chain_of_Strength', 'http://dbpedia.org/resource/Excel_(band)', 'http://dbpedia.org/resource/Inside_Out_(band)', 'http://dbpedia.org/resource/Jay_Baumgardner'], 'abstract': 'Alien Ant Farm is an American rock band that formed in Riverside, California in 1996. They have released five studio albums and sold over 5 million units worldwide. The band\'s cover of Michael Jackson\'s "Smooth Criminal" topped the Billboard Alternative songs charts in 2001, and was featured in the film American Pie 2. They released their debut album Greatest Hits independently in 1999, then signed to DreamWorks Records in 2000. Their second album ANThology was released in 2001 and has been certified platinum by the RIAA, selling over one million copies and reaching number 11 on the Billboard 200. Following up that was their third album, TruANT, released in 2003. The album was produced by brothers Robert and Dean DeLeo of Stone Temple Pilots, and made it to number 42 on the Billboard 200. In 2005 the band recorded their next album 3rd Draft, however its release was denied by the label after Geffen bought out DreamWorks. It was eventually released in 2006 as Up in the Attic, charting at number 114 on the Billboard 200. After several years of sporadic touring, the band\'s fifth studio album Always and Forever was released in February 2015.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Junkie_XL', 'artist_name': 'Junkie XL', 'wiki': 'http://en.wikipedia.org/wiki/Junkie_XL', 'birth_date': '08 December 1967', 'start_year': '1988', 'aliases': ['JXL', 'Junkie XL'], 'labels': ['http://dbpedia.org/resource/Nettwerk', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Ultra_Music'], 'plays_in': ['http://dbpedia.org/resource/300:_Rise_of_an_Empire', 'http://dbpedia.org/resource/Alita:_Battle_Angel', 'http://dbpedia.org/resource/Alita:_Battle_Angel__Alita:_Battle_Angel__1', 'http://dbpedia.org/resource/Army_of_the_Dead', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Black_Mass_(film)', 'http://dbpedia.org/resource/Blind_(2007_film)', 'http://dbpedia.org/resource/Brimstone_(2016_film)', 'http://dbpedia.org/resource/Bringing_Up_Bobby_(2011_film)', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive__DOA:_Dead_or_Alive__1', 'http://dbpedia.org/resource/Deadpool_(film)', 'http://dbpedia.org/resource/Deadpool_(film)__Deadpool__1', 'http://dbpedia.org/resource/Divergent_(film)', 'http://dbpedia.org/resource/God_of_War_II', 'http://dbpedia.org/resource/Godzilla_vs._Kong', 'http://dbpedia.org/resource/Kill_Your_Friends_(film)', 'http://dbpedia.org/resource/Mad_Max:_Fury_Road', 'http://dbpedia.org/resource/Mortal_Engines_(film)', 'http://dbpedia.org/resource/New_Kids_Turbo', 'http://dbpedia.org/resource/Paranoia_(2013_film)', 'http://dbpedia.org/resource/Point_Break_(2015_film)', 'http://dbpedia.org/resource/Run_All_Night_(film)', 'http://dbpedia.org/resource/Scoob!', 'http://dbpedia.org/resource/Siberia_(1998_film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_(film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_2_(film)', 'http://dbpedia.org/resource/Spectral', 'http://dbpedia.org/resource/Terminator:_Dark_Fate', 'http://dbpedia.org/resource/The_355', 'http://dbpedia.org/resource/The_Amazing_Spider-Man_2', 'http://dbpedia.org/resource/The_Animatrix', 'http://dbpedia.org/resource/The_Dark_Tower_(2017_film)', 'http://dbpedia.org/resource/The_Happy_Housewife', 'http://dbpedia.org/resource/The_Heineken_Kidnapping', 'http://dbpedia.org/resource/Three_Thousand_Years_of_Longing', 'http://dbpedia.org/resource/Tomb_Raider_(film)', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League"], 'genres': ['http://dbpedia.org/resource/Big_beat', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Film_score', 'http://dbpedia.org/resource/Trance_music', 'trance', 'electronic'], 'related_artists': ['http://dbpedia.org/resource/Hans_Zimmer', 'http://dbpedia.org/resource/Kēvens', 'http://dbpedia.org/resource/Man_with_a_Mission', 'http://dbpedia.org/resource/Remote_Control_Productions_(American_company)'], 'abstract': 'Tom Holkenborg (born 8 December 1967), also known by his stage name Junkie XL or occasionally JXL, is a Dutch composer, multi-instrumentalist, DJ, producer, and engineer. Originally known for his trance productions, he has moved to producing electronica and big beat music and film scores. His remix of Elvis Presley\'s "A Little Less Conversation" became a worldwide hit in 2002. In film scores, he has worked with Hans Zimmer and his company Remote Control Productions on Man of Steel and Batman v Superman: Dawn of Justice, as well as composing the scores for Zack Snyder\'s Justice League, Divergent, Mad Max: Fury Road, Deadpool, Tomb Raider, Alita: Battle Angel, Terminator: Dark Fate, Sonic the Hedgehog, Scoob!, Godzilla vs. Kong and Army of the Dead.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gotye', 'artist_name': 'Gotye', 'wiki': 'http://en.wikipedia.org/wiki/Gotye', 'hometown': 'http://dbpedia.org/resource/Victoria_(Australia)', 'birth_date': '21 May 1980', 'start_year': '2001', 'aliases': ['Wally De Backer'], 'labels': ['http://dbpedia.org/resource/Creative_Vibes', 'http://dbpedia.org/resource/Eleven:_A_Music_Company', 'http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Trip_hop'], 'related_artists': ['http://dbpedia.org/resource/François_Tétaz', 'http://dbpedia.org/resource/Jean-Jacques_Perrey', 'http://dbpedia.org/resource/Kimbra', 'http://dbpedia.org/resource/The_Basics', 'http://dbpedia.org/resource/The_Night_Game'], 'abstract': 'Wouter "Wally" De Backer (born 21 May 1980), better known by his stage name Gotye (/ˈɡɒtieɪ/ GOT-ee-ay), is a Belgian-Australian multi-instrumentalist and singer-songwriter. The name "Gotye" is a pronunciation respelling of "Gauthier", the French cognate of his Dutch given name "Wouter". Gotye has released three studio albums independently and one album featuring remixes of tracks from his first two albums. He is a founding member of the Melbourne indie-pop trio The Basics, who have independently released four studio albums and numerous other titles since 2002. His voice has been compared to those of Peter Gabriel and Sting. Gotye achieved breakout success with his 2011 single "Somebody That I Used to Know", reaching number one on the Billboard Hot 100 and becoming the best-selling song of 2012. This made him the fifth Australian-based artist to top the chart and the second born in Belgium (after The Singing Nun in 1963). He has won five ARIA Awards and received a nomination for an MTV EMA for Best Asia and Pacific Act. On 10 February 2013, he won three Grammy Awards at the 55th Annual Grammy Awards Show: Record of the Year and Best Pop Duo/Group Performance for "Somebody That I Used to Know" and Best Alternative Music Album for Making Mirrors. Gotye has said he sometimes feels "less of a musician, more of a tinkerer."'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Chic_(band)', 'artist_name': 'Chic', 'wiki': 'http://en.wikipedia.org/wiki/Chic_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1972', 'end_year': '1983', 'aliases': ['The Big Apple Band (1972–1977)'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Buddah_Records', 'http://dbpedia.org/resource/Sumthing_Distribution', 'http://dbpedia.org/resource/Virgin_EMI_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Rhythm_and_blues'], 'actual_members': ['http://dbpedia.org/resource/Bill_Holloman', 'http://dbpedia.org/resource/Nile_Rodgers', 'Curt Ramm', 'Folami', 'Russell Graham', 'Kimberly Davis', 'Jerry Barnes', 'Ralph Rolle', 'Richard Hilton'], 'related_artists': ['http://dbpedia.org/resource/Al_Jarreau', 'http://dbpedia.org/resource/Bernard_Edwards', 'http://dbpedia.org/resource/Bloom_Twins', 'http://dbpedia.org/resource/Carly_Simon', 'http://dbpedia.org/resource/David_Bowie', 'http://dbpedia.org/resource/David_Lasley', 'http://dbpedia.org/resource/Debbie_Harry', 'http://dbpedia.org/resource/Diana_Ross', 'http://dbpedia.org/resource/Distance_(band)', 'http://dbpedia.org/resource/Duran_Duran', 'http://dbpedia.org/resource/Fonzi_Thornton', 'http://dbpedia.org/resource/Gerardo_Velez', 'http://dbpedia.org/resource/Johnny_Kemp', 'http://dbpedia.org/resource/Johnny_Mathis', 'http://dbpedia.org/resource/Kool_&amp;_the_Gang', 'http://dbpedia.org/resource/Luther_Vandross', 'http://dbpedia.org/resource/Mac_Gollehon', 'http://dbpedia.org/resource/Madonna', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Norma_Jean_Wright', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Robert_Palmer_(singer)', 'http://dbpedia.org/resource/Robin_Beck', 'http://dbpedia.org/resource/Sheila_and_B._Devotion', 'http://dbpedia.org/resource/Sister_Sledge', 'http://dbpedia.org/resource/Sylver_Logan_Sharp', 'http://dbpedia.org/resource/The_Honeydrippers', 'http://dbpedia.org/resource/The_Power_Station_(band)', 'http://dbpedia.org/resource/Tony_Thompson_(drummer)'], 'abstract': 'Chic (/ʃiːk/ SHEEK), currently called Nile Rodgers &amp; Chic, is an American band that was organized in 1972 by guitarist Nile Rodgers and bassist Bernard Edwards. It recorded many commercially successful disco songs, including "Dance, Dance, Dance (Yowsah, Yowsah, Yowsah)" (1977), "Everybody Dance" (1977), "Le Freak" (1978), "I Want Your Love" (1978), "Good Times" (1979), and "My Forbidden Lover" (1979). The group regarded themselves as a rock band for the disco movement "that made good on hippie peace, love and freedom". In 2017, Chic was nominated for induction into the Rock and Roll Hall of Fame for the eleventh time.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sex_Pistols', 'artist_name': 'Sex Pistols', 'wiki': 'http://en.wikipedia.org/wiki/Sex_Pistols', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1975', 'end_year': '1978', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/D.O.A.:_A_Rite_of_Passage', 'http://dbpedia.org/resource/The_Filth_and_the_Fury', "http://dbpedia.org/resource/The_Great_Rock_'n'_Roll_Swindle"], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'old_members': ['http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'Johnny Rotten'], 'related_artists': ['http://dbpedia.org/resource/Bill_Price_(record_producer)', 'http://dbpedia.org/resource/Chequered_Past', 'http://dbpedia.org/resource/Chiefs_of_Relief', 'http://dbpedia.org/resource/Dave_Goodman_(record_producer)', 'http://dbpedia.org/resource/False_Alarm_(band)', 'http://dbpedia.org/resource/Glen_Matlock', 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/John_Lydon', 'http://dbpedia.org/resource/Lightning_Raiders', 'http://dbpedia.org/resource/Malcolm_McLaren', 'http://dbpedia.org/resource/Man_Raze', 'http://dbpedia.org/resource/Neurotic_Outsiders', 'http://dbpedia.org/resource/Paul_Cook', 'http://dbpedia.org/resource/Public_Image_Ltd', 'http://dbpedia.org/resource/Rich_Kids', 'http://dbpedia.org/resource/Sham_Pistols', 'http://dbpedia.org/resource/Sid_Vicious', 'http://dbpedia.org/resource/Siouxsie_and_the_Banshees', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'http://dbpedia.org/resource/Steve_New', 'http://dbpedia.org/resource/Subway_Sect', 'http://dbpedia.org/resource/The_Fallen_Leaves', 'http://dbpedia.org/resource/The_Flowers_of_Romance_(British_band)', 'http://dbpedia.org/resource/The_International_Swingers', 'http://dbpedia.org/resource/The_London_Cowboys', 'http://dbpedia.org/resource/The_Professionals_(band)', 'http://dbpedia.org/resource/Vicious_White_Kids', 'http://dbpedia.org/resource/Wally_Nightingale'], 'abstract': 'The Sex Pistols were an English punk rock band that formed in London in 1975. Although their initial career lasted just two and a half years, they are regarded as one of the most groundbreaking acts in the history of popular music. They were responsible for initiating the punk movement in the United Kingdom and inspiring many later punk and alternative rock musicians. Their fashion and hairstyles have been credited as a significant influence on punk image, and they are often associated with anarchism within music. The Sex Pistols originally comprised vocalist John Lydon (known at the time by his stage name "Johnny Rotten"), guitarist Steve Jones, drummer Paul Cook and bassist Glen Matlock. Matlock was replaced by Sid Vicious in early 1977. Under the management of Malcolm McLaren, the band attracted controversies that both captivated and appalled Britain. Through an obscenity-laced television interview in December 1976 and their May 1977 single "God Save the Queen", attacking Britons\' social conformity and deference to the Crown, they popularised punk rock in the UK. It was banned not only by the BBC but also by nearly every independent radio station, making it the "most heavily censored record in British history". The band\'s only album Never Mind the Bollocks, Here\'s the Sex Pistols (1977)—a UK number one album—is a staple record of punk rock. In January 1978, at the end of their over-hyped and turbulent tour of the United States, Rotten announced the band\'s break-up. Over the next few months, the three remaining band members recorded songs for McLaren\'s film version of the Sex Pistols\' story, The Great Rock \'n\' Roll Swindle. Vicious died of a heroin overdose in February 1979, following his arrest for the alleged murder of his girlfriend, Nancy Spungen. Rotten, Jones, Cook and Matlock reunited for a highly successful concert tour in 1996. Further one-off performances and short tours followed over the next decade. The Sex Pistols have been recognised as an influential band. In 2004, Rolling Stone placed them No. 58 on its list of the "100 Greatest Artists of All Time". On 24 February 2006, the Sex Pistols—the four original members plus Vicious—were inducted into the Rock and Roll Hall of Fame, but they refused to attend the ceremony, calling the museum "a piss stain".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Katrina_and_the_Waves', 'artist_name': 'Katrina &amp; the Waves', 'wiki': 'http://en.wikipedia.org/wiki/Katrina_and_the_Waves', 'hometown': 'http://dbpedia.org/resource/Cambridgeshire', 'start_year': '1981', 'end_year': '1999', 'labels': ['http://dbpedia.org/resource/Attic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/SBK_Records', 'http://dbpedia.org/resource/Virgin_Schallplatten', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Rock_music', 'Rock', 'new wave'], 'old_members': ['http://dbpedia.org/resource/Katrina_Leskanich', 'http://dbpedia.org/resource/Kimberley_Rew', 'Alex Cooper', 'Vince de la Cruz'], 'related_artists': ['http://dbpedia.org/resource/Katrina_Leskanich', 'http://dbpedia.org/resource/Kimberley_Rew', 'http://dbpedia.org/resource/The_Soft_Boys'], 'abstract': 'Katrina and the Waves were a British-American rock band best known for the 1985 hit "Walking on Sunshine". They also won the 1997 Eurovision Song Contest with the song "Love Shine a Light".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Justin_Timberlake', 'artist_name': 'Justin Timberlake', 'wiki': 'http://en.wikipedia.org/wiki/Justin_Timberlake', 'birth_date': '31 January 1981', 'start_year': '1992', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/New_Breed_(Jay_Park_album)', 'http://dbpedia.org/resource/The_Book_of_Love_(film)'], 'related_artists': ['http://dbpedia.org/resource/Bravo_All_Stars', 'http://dbpedia.org/resource/Common_Kings', 'http://dbpedia.org/resource/Craig_Bauer', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Danja_(record_producer)', 'http://dbpedia.org/resource/David_Elitch', 'http://dbpedia.org/resource/Esmée_Denters', 'http://dbpedia.org/resource/Ethan_Farmer', 'http://dbpedia.org/resource/Francesco_Yates', 'http://dbpedia.org/resource/Greg_Howe', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/James_Fauntleroy', 'http://dbpedia.org/resource/Jawbreakers_(duo)', 'http://dbpedia.org/resource/Jay_E', 'http://dbpedia.org/resource/Jimmy_Douglass', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kovas_(musician)', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Ram_Sampath', 'http://dbpedia.org/resource/The_Lonely_Island', 'http://dbpedia.org/resource/The_Neptunes', 'http://dbpedia.org/resource/Tye_Tribbett'], 'abstract': 'Justin Randall Timberlake (born January 31, 1981) is an American singer, songwriter, record producer and actor. He is one of the world\'s best-selling music artists, with sales of over 88 million records worldwide. Timberlake is the recipient of numerous awards and accolades, including ten Grammy Awards, four Primetime Emmy Awards, three Brit Awards, nine Billboard Music Awards, the Contemporary Icon Award by the Songwriters Hall of Fame, and the Michael Jackson Video Vanguard Award. According to Billboard, he is the best performing male soloist in the history of the Mainstream Top 40. Born and raised in Tennessee, he appeared on the television shows Star Search and The All-New Mickey Mouse Club as a child. In the late 1990s, Timberlake rose to prominence as one of the two lead vocalists and youngest member of NSYNC, which eventually became one of the best-selling boy bands of all time. Timberlake won two Grammy Awards for his R&amp;B-focused debut solo album Justified (2002) and its single "Cry Me a River". Another single from the album, "Rock Your Body", was also successful. His critically acclaimed second album FutureSex/LoveSounds (2006), characterized by its diversity in music genres, debuted atop the U.S. Billboard 200 and spawned the Hot 100 consecutive number-one singles with "SexyBack" (featuring Timbaland), "My Love" (featuring T.I.), and "What Goes Around... Comes Around". Established as a solo artist worldwide, his first two albums both exceeded sales of 10 million copies, as he continued producing records and collaborating with other artists. From 2008 through 2012, Timberlake focused on his acting career, effectively putting his music career on hiatus. He held starring roles in the films The Social Network, Bad Teacher, Friends with Benefits, and In Time. Timberlake resumed his music career in 2013 with his third and fourth albums The 20/20 Experience and The 20/20 Experience – 2 of 2, exploring neo soul styles, partly inspired by the expansive song structures of 1960s and 1970s rock. The former became the best-selling album of the year and spawned the top three singles "Suit &amp; Tie" (featuring Jay-Z) and "Mirrors". Timberlake voiced Branch in DreamWorks Animation\'s Trolls (2016), whose soundtrack includes his fifth Billboard Hot 100 chart-topping single, "Can\'t Stop the Feeling!", which earned him a Academy Award nomination. His fifth studio album Man of the Woods (2018) became his fourth number-one album in the US. Supported by the two top ten singles, "Filthy" and "Say Something" (featuring Chris Stapleton), it concluded 2018 as the sixth best-selling album of the year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Shaggy_(musician)', 'artist_name': 'Shaggy', 'wiki': 'http://en.wikipedia.org/wiki/Shaggy_(musician)', 'birth_date': '22 October 1968', 'start_year': '1992', 'related_artists': ['http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Brian_and_Tony_Gold', "http://dbpedia.org/resource/Che'Nelle", 'http://dbpedia.org/resource/Costi_Ioniță', 'http://dbpedia.org/resource/E-Dee', 'http://dbpedia.org/resource/Faydee', 'http://dbpedia.org/resource/Gabry_Ponte', 'http://dbpedia.org/resource/Iakopo', 'http://dbpedia.org/resource/Ida_Corr', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Jimmy_Cozier', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Kat_DeLuna', 'http://dbpedia.org/resource/Keith_Hetrick', 'http://dbpedia.org/resource/Kreesha_Turner', 'http://dbpedia.org/resource/Kylie_and_Garibay', 'http://dbpedia.org/resource/Leo_Aberer', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Olaf_Blackwood', 'http://dbpedia.org/resource/Rayvon', 'http://dbpedia.org/resource/Ricky_Blaze', 'http://dbpedia.org/resource/Rupee_(musician)', 'http://dbpedia.org/resource/Shaun_Pizzonia', 'http://dbpedia.org/resource/Stonebwoy', 'http://dbpedia.org/resource/Tessanne_Chin'], 'abstract': 'Orville Richard Burrell CD (born October 22, 1968), better known by his stage name Shaggy, is a Jamaican-American reggae musician, singer, DJ, and actor who scored hits with the songs "It Wasn\'t Me", "Boombastic", "In The Summertime", "Oh Carolina", and "Angel". He has been nominated for seven Grammy Awards, winning twice for Best Reggae Album with Boombastic in 1996 and 44/876 with Sting in 2019, and has won the Brit Award for International Male Solo Artist in 2002. In 2007, he was awarded the Jamaican Order of Distinction with the rank of Commander.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jessie_J', 'artist_name': 'Jessie J', 'wiki': 'http://en.wikipedia.org/wiki/Jessie_J', 'plays_in': ['http://dbpedia.org/resource/Easy_A', 'http://dbpedia.org/resource/Pitch_Perfect_2', 'http://dbpedia.org/resource/Pitch_Perfect_2_(soundtrack)', 'http://dbpedia.org/resource/Summer_of_Love_(album)', 'http://dbpedia.org/resource/The_Mortal_Instruments:_City_of_Bones'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tennant', 'http://dbpedia.org/resource/Cassius_Henry', 'http://dbpedia.org/resource/Claude_Kelly', 'http://dbpedia.org/resource/Cory_Rooney', 'http://dbpedia.org/resource/DJ_Cassidy', 'http://dbpedia.org/resource/Emily_Warren', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/Livvia', 'http://dbpedia.org/resource/Rickard_Göransson', 'http://dbpedia.org/resource/Steve_Booker_(producer)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'abstract': 'Jessica Ellen Cornish (born 27 March 1988), known professionally as Jessie J, is an English singer-songwriter. Born and raised in London, she began her career on stage, aged 11, with a role in the West End musical Whistle Down the Wind. She studied at the BRIT School before signing with Gut Records and striking a songwriting deal with Sony/ATV Music Publishing. After signing with Republic Records, Jessie J came to prominence following the release of her debut single "Do It Like a Dude". Her following single "Price Tag" topped the charts in nineteen countries including the UK and was followed by the release of her debut album, Who You Are (2011), which peaked at number two in the UK. Other singles from the album included "Nobody\'s Perfect", "Who You Are", "Domino" and "Laserlight", all of which peaked within the top ten on the UK Singles Chart, making Jessie J the first British female artist to have six top-ten singles from a sole studio album. "Domino" also attained further international success, peaking at number six on the US Billboard Hot 100 and becoming her second number-one single in the UK. In 2012, Jessie J performed at the Queen\'s Diamond Jubilee Concert outside Buckingham Palace in June, as well as the closing ceremony of the 2012 Olympic Games in London on 12 August. Her second album Alive (2013) peaked within the top five on the UK Albums Chart and also included the top-five singles "Wild" and "It\'s My Party". The release of her third album Sweet Talker (2014) was preceded by the single "Bang Bang" which debuted at number one in the UK and went multi-platinum worldwide. The album made the top five in the UK and peaked at number ten on the US Billboard 200, her highest-charting album in the US. As of January 2015, Jessie J had sold over 20 million singles and 3 million albums worldwide. Citing various influences, Jessie J is recognised for an unconventional musical and performance style that mixes soul vocals with contemporary R&amp;B, pop, electropop, and hip-hop beats. She has received various accolades throughout her career, including the 2011 Critics\' Choice Brit Award and the BBC\'s Sound of 2011. Jessie J has supported various charitable causes, and has appeared on the UK charity telethons BBC Children in Need and Comic Relief. She has served as a coach on the competition series The Voice UK, The Voice Australia and The Voice Kids UK. In 2018, Jessie J received widespread recognition in China following her appearance in the Hunan TV reality program Singer (previously called I Am a Singer).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mr._President_(band)', 'artist_name': 'Mr. President', 'wiki': 'http://en.wikipedia.org/wiki/Mr._President_(band)', 'hometown': 'http://dbpedia.org/resource/Bremen', 'start_year': '1991', 'end_year': '1991', 'aliases': ['Satellite One'], 'labels': ['http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae_fusion'], 'old_members': ['Daniela Haak', 'Delroy Rennalls', 'Franziska Frank', 'George Jones', 'Judith Hinkelmann', 'Myriam Beckmann', 'Nadia Ayche'], 'related_artists': ['http://dbpedia.org/resource/Bravo_All_Stars'], 'abstract': 'Mr. President was a German Eurodance project best known for the crossover world hit "Coco Jamboo" released in 1996. The group is also famous in Europe for the dance hits "Up\'n Away", "I\'ll Follow the Sun", "I Give You My Heart", "4 on the Floor", "Jojo Action" and the hit albums Up\'n Away – The Album and We See the Same Sun. Mr. President was originally formed in 1991 in Bremen, Germany, by producers Jens Neumann and Kai Matthiesen. In the beginning, the group consisted of the German singers Judith Hinkelmann (T-Seven), Daniela Haak (Lady Danii) and American rapper George Jones (Sir Prophet). In 1994, Jones was replaced by British rapper Delroy Rennalls (Layzee Dee). When Hinklemann departed the act in 2000 to begin a solo career, singer Nadia Ayche joined the group as her replacement. Ayche, however, was quickly replaced by singer Myra Beckmann in 2001. When Beckmann also departed the act in 2003, singer Franziska Frank (Franzi) joined the act. By 2008, Mr. President had officially disbanded. Since 2008, Rennalls has continued to tour across Europe as LayZee formerly of Mr. President in addition to releasing his own solo material. In 2014, he recruited Hungarian-born singer Erika Kovács into his live act. Today, Rennalls and Kovács perform the Mr. President hits as a live duo act worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Suzanne_Vega', 'artist_name': 'Suzanne Vega', 'wiki': 'http://en.wikipedia.org/wiki/Suzanne_Vega', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'birth_date': '11 July 1959', 'start_year': '1982', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Blue_Note_Records', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Suzanne_Vega'], 'plays_in': ['http://dbpedia.org/resource/Women_&amp;_Men_2'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Folk_rock'], 'related_artists': ['http://dbpedia.org/resource/Cameron_Craig', 'http://dbpedia.org/resource/DNA_(duo)', 'http://dbpedia.org/resource/Danger_Mouse_(musician)', 'http://dbpedia.org/resource/Duncan_Sheik', 'http://dbpedia.org/resource/Gerry_Leonard', 'http://dbpedia.org/resource/Joe_Jackson_(musician)', 'http://dbpedia.org/resource/Jonathan_Coulton', 'http://dbpedia.org/resource/Robin_Danar', 'http://dbpedia.org/resource/Shawn_Colvin', 'http://dbpedia.org/resource/Sparklehorse'], 'abstract': 'Suzanne Nadine Vega (born July 11, 1959) is an American singer-songwriter best known for her folk-inspired music. Vega\'s music career spans almost 40 years. She came to prominence in the mid-1980s, releasing four singles that entered the Top 40 charts in the UK during the 1980s and 1990s, including "Marlene on the Wall", "Left of Center", "Luka" and "No Cheap Thrill". "Tom\'s Diner", which was originally released as an a cappella recording on Vega\'s second album, Solitude Standing (1987), was remixed in 1990 as a dance track by English electronic duo DNA with Vega as featured artist, and it became a Top 10 hit in over five countries. The original a capella recording of the song was used as a test during the creation of the MP3 format. The role of her song in the development of the MP3 compression prompted Vega to be given the title of "The Mother of the MP3". Vega has released nine studio albums to date, the latest of which is Lover, Beloved: Songs from an Evening with Carson McCullers, released in 2016.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Elle_King', 'artist_name': 'Elle King', 'wiki': 'http://en.wikipedia.org/wiki/Elle_King', 'birth_date': '03 July 1989', 'related_artists': ['http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Sterling_Fox'], 'abstract': 'Tanner Elle Schneider (born July 3, 1989), known professionally as Elle King, is an American singer, songwriter, multi-instrumentalist, television personality, and actress. Her musical style encompasses country, soul, rock and blues. In 2012, King released her debut EP, The Elle King EP, on RCA; one track from that EP, "Playing for Keeps", is the theme song for VH1\'s Mob Wives Chicago series. She released her debut album, Love Stuff on February 17, 2015. The album produced the US top 10 single "Ex\'s &amp; Oh\'s", which earned her two Grammy Award nominations. King has also toured with acts such as Of Monsters and Men, Train, James Bay, The Chicks, Heart, Joan Jett, Michael Kiwanuka and Miranda Lambert. She is the daughter of actor and comedian Rob Schneider and former model London King. She resides in Los Angeles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Justice_(singer)', 'artist_name': 'Justice', 'wiki': 'http://en.wikipedia.org/wiki/Justice_(singer)', 'start_year': '2011', 'genres': ['http://dbpedia.org/resource/Soul_music', 'Pop, soul, dance'], 'related_artists': ['http://dbpedia.org/resource/Jean-Michel_Soupraya'], 'abstract': 'Justice, born Lauren Justice, is an American female pop recording artist.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Asia_(band)', 'artist_name': 'Asia', 'wiki': 'http://en.wikipedia.org/wiki/Asia_(band)', 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Sherwood', 'http://dbpedia.org/resource/Carl_Palmer', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Ron_%22Bumblefoot%22_Thal'], 'old_members': ['http://dbpedia.org/resource/John_Wetton', 'http://dbpedia.org/resource/Steve_Howe', 'others'], 'related_artists': ['http://dbpedia.org/resource/Al_Pitrelli', 'http://dbpedia.org/resource/Asia_featuring_John_Payne__Asia_featuring_John_Payne__1', 'http://dbpedia.org/resource/Aziz_Ibrahim', 'http://dbpedia.org/resource/Billy_Sherwood', 'http://dbpedia.org/resource/Brian_Lane_(manager)', 'http://dbpedia.org/resource/Carl_Palmer', 'http://dbpedia.org/resource/Chris_Slade', 'http://dbpedia.org/resource/Circa_(band)', 'http://dbpedia.org/resource/Danger_Danger', 'http://dbpedia.org/resource/Emerson,_Lake_&amp;_Palmer', 'http://dbpedia.org/resource/GTR_(band)', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Greg_Lake', 'http://dbpedia.org/resource/Guthrie_Govan', 'http://dbpedia.org/resource/Jay_Schellen', 'http://dbpedia.org/resource/John_Payne_(singer)', 'http://dbpedia.org/resource/John_Young_(British_musician)', 'http://dbpedia.org/resource/Kim_Nielsen_(guitarist)', 'http://dbpedia.org/resource/King_Crimson__King_Crimson__1', 'http://dbpedia.org/resource/Mandy_Meyer', 'http://dbpedia.org/resource/Mike_Sturgis', 'http://dbpedia.org/resource/Pat_Thrall', 'http://dbpedia.org/resource/Qango_(band)', 'http://dbpedia.org/resource/Ron_%22Bumblefoot%22_Thal', 'http://dbpedia.org/resource/Saga_(band)', 'http://dbpedia.org/resource/Sam_Coulson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Steve_Howe', 'http://dbpedia.org/resource/U.K._(band)', 'http://dbpedia.org/resource/Unisonic_(band)', 'http://dbpedia.org/resource/Vinny_Burns', 'http://dbpedia.org/resource/Yes_(band)'], 'abstract': 'Asia are an English rock supergroup formed in London in 1981. The most commercially successful line-up was its original, which consisted of four members of different progressive rock bands that had enjoyed great success in the 1970s: lead vocalist and bassist John Wetton of King Crimson and U.K., guitarist Steve Howe of Yes, keyboardist Geoff Downes of Yes and The Buggles, and drummer Carl Palmer of Emerson, Lake &amp; Palmer. Their debut album, Asia, released in 1982, remains their best selling album and went to number one in several countries. The lead single from the album, "Heat of the Moment", remains their top charting and best-known song, reaching the top 40 in over a dozen markets and peaking in the U.S. at #4 on the Billboard Hot 100 and #1 on the Billboard Mainstream Rock chart. The band underwent multiple line-up changes before the original four members reunited in 2006. As a result, a band called Asia Featuring John Payne exists as a continuation of John Payne\'s career as Asia\'s frontman from 1991 until Wetton\'s return in 2006. In 2013, the original line-up was broken once again when Howe retired from the band and was replaced by guitarist Sam Coulson. After a few years of inactivity, Billy Sherwood (of Yes, World Trade and Circa:) replaced an ailing Wetton (who died shortly thereafter) in Asia for a summer 2017 tour with Journey. Following the end of the tour, the band went on hiatus again, re-emerging in 2019 with Ron "Bumblefoot" Thal replacing both Sherwood on vocals and Coulson on guitar.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ava_Max', 'artist_name': 'Ava Max', 'wiki': 'http://en.wikipedia.org/wiki/Ava_Max', 'birth_date': '16 February 1994', 'start_year': '2013', 'aliases': ['Amanda Kay', 'Ava', 'Ava Koci'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Autumn_Rowe', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Hitimpulse', 'http://dbpedia.org/resource/Kastra_(musical_artist)'], 'abstract': 'Amanda Ava Koci (born Amanda Koci; February 16, 1994), known professionally as Ava Max, is an American singer and songwriter. After moving from several states in the United States to pursue a music career since her childhood, Max signed with Atlantic Records in 2016, where she released the song "Sweet but Psycho" in August 2018. It became her breakthrough single after peaking at number one in 22 countries, including the United Kingdom, Germany, Austria, Switzerland, Sweden, and New Zealand. The song also peaked at number two in Australia, and at number 10 on the US Billboard Hot 100. In March 2020, Max released the song "Kings &amp; Queens", which peaked at number 13 on the Billboard Hot 100 and at number 19 on the UK Singles Chart. It was followed by the release of her debut studio album, Heaven &amp; Hell, in September 2020, which charted at number two on the UK Albums Chart and at number 27 on the US Billboard 200. In November 2020, the song "My Head &amp; My Heart" was released, which peaked at number 45 on the Billboard Hot 100 and at number 18 on the UK Singles Chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/James_Blunt', 'artist_name': 'James Blunt', 'wiki': 'http://en.wikipedia.org/wiki/James_Blunt', 'birth_date': '22 February 1974', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ["http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Dewain_Whitmore_Jr.', 'http://dbpedia.org/resource/Glen_Scott', 'http://dbpedia.org/resource/John_Garrison_(musician)', 'http://dbpedia.org/resource/Robin_Schulz', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Sinik', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Tom_Rothrock'], 'abstract': 'James Hillier Blount (born 22 February 1974), better known as James Blunt, is an English singer, songwriter, multi-instrumentalist, and record producer. A former reconnaissance officer in the Life Guards regiment of the British Army, he served under NATO during the 1999 Kosovo War. After leaving the military, he rose to fame in 2004 with the release of his debut album Back to Bedlam, achieving worldwide fame with the singles "You\'re Beautiful" and "Goodbye My Lover". Blunt\'s first album has sold over 11 million copies worldwide, topping the UK Albums Chart and peaking at number two in the US. "You\'re Beautiful" was number one in the UK, the US and a dozen other countries. Back to Bedlam was the best-selling album of the 2000s in the UK, and is one of the best-selling albums in UK chart history. Blunt has since sold over 20 million records worldwide. He has received several awards, including two Brit Awards—winning Best British Male in 2006—two MTV Video Music Awards, and two Ivor Novello Awards, as well as receiving five Grammy Award nominations and an Honorary Doctorate for Music in 2016 by the University of Bristol.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/Desireless', 'birth_date': '25 December 1952', 'start_year': '1986', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/Choice_Of_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Sony_Music_Latin', 'http://dbpedia.org/resource/Urgence_Disk'], 'plays_in': ["http://dbpedia.org/resource/Moscow_Pride_'06"], 'genres': ['http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'Claudie Fritsch-Mentrop (born 25 December 1952), known by her stage name Desireless (French pronunciation: \u200b[deziʁlɛs]), is a French singer. Between 1986 and 1988, her hit single "Voyage, voyage" made it to number one on many European and Asian single charts. According to her official website, Desireless still releases new albums and performs live, and she released a new album with Operation of the Sun (Antoine Aureche) accompanied by a worldwide tour from 2012 onward.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/B.o.B', 'artist_name': 'B.o.B', 'wiki': 'http://en.wikipedia.org/wiki/B.o.B', 'hometown': 'http://dbpedia.org/resource/Decatur,_Georgia', 'birth_date': '15 November 1988', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Grand_Hustle_Records', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Label_No_Genre'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Southern_hip_hop', 'dirty south'], 'related_artists': ['http://dbpedia.org/resource/B.o.B', 'http://dbpedia.org/resource/Big_Boi', 'http://dbpedia.org/resource/Big_Boi__Big_Boi__1', 'http://dbpedia.org/resource/Bun_B', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Classified_(rapper)', 'http://dbpedia.org/resource/Cobra_Starship', "http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Divinity_Roxx', 'http://dbpedia.org/resource/Giggs_(rapper)', 'http://dbpedia.org/resource/Grand_Hustle_Records', 'http://dbpedia.org/resource/Ilan_Kidron', 'http://dbpedia.org/resource/Jim_Jonsin', 'http://dbpedia.org/resource/Ki_Fitzgerald', 'http://dbpedia.org/resource/Lauriana_Mae', 'http://dbpedia.org/resource/Lupe_Fiasco', 'http://dbpedia.org/resource/Melanie_Fiona', 'http://dbpedia.org/resource/Mila_J', 'http://dbpedia.org/resource/Scotty_ATL', 'http://dbpedia.org/resource/Sevyn_Streeter', 'http://dbpedia.org/resource/Skatterman', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/T.I.', 'http://dbpedia.org/resource/Tommy_Brown_(record_producer)', 'http://dbpedia.org/resource/Wurld_(musician)', 'http://dbpedia.org/resource/Young_Dro', 'http://dbpedia.org/resource/Zaytoven'], 'abstract': 'Bobby Ray Simmons Jr. (born November 15, 1988), known professionally as B.o.B, is an American rapper and record producer from Decatur, Georgia. In 2006, B.o.B was discovered by Brian Richardson, who then introduced him to TJ Chapman, who subsequently brought him to American record producer Jim Jonsin. After hearing his music, Jonsin signed B.o.B to his Rebel Rock Entertainment imprint. Two years later, Jonsin and B.o.B signed a joint venture deal, with Atlantic Records and American rapper T.I.\'s Grand Hustle Records. B.o.B quickly rose to fame after his commercial debut single "Nothin\' on You" (featuring Bruno Mars), reached number one in both the United States and the United Kingdom in 2009. He would later release his third single "Airplanes" (featuring Hayley Williams of Paramore), which also topped several major music charts. His fifth single "Magic", became his 3rd top 10 hit on the US Billboard Hot 100. B.o.B\'s debut studio album The Adventures of Bobby Ray, which was preceded by two extended plays (EPs) and several mixtapes, was released in April 2010. The album reached number one on the US Billboard 200 and was eventually certified 2× platinum by the Recording Industry Association of America (RIAA) in 2016. B.o.B was named the ninth "Hottest MC in the Game of 2010" by MTV, on their annual list. B.o.B released his second studio album Strange Clouds, in May 2012. The album spawned six singles, four of which charted exceptionally well internationally. The album\'s eponymous lead single (featuring Lil Wayne) became his fourth top 10 hit on the Billboard Hot 100. The singles "So Good", "Both of Us" (featuring Taylor Swift) and "Out of My Mind" (featuring Nicki Minaj), followed behind, with the former two being certified platinum by the RIAA. The album itself debuted at number five on the Billboard 200. His third album Underground Luxury, was released in December 2013 and supported by the lead single "HeadBand" (featuring 2 Chainz). In August 2015, B.o.B released the commercial mixtape Psycadelik Thoughtz, via digital distribution, with little-to-no promotion. B.o.B is an outspoken believer that the earth is flat.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sum_41', 'artist_name': 'Sum 41', 'wiki': 'http://en.wikipedia.org/wiki/Sum_41', 'hometown': 'http://dbpedia.org/resource/Ajax,_Ontario', 'start_year': '1996', 'aliases': ['Kaspir (1996)', 'Pain for Pleasure'], 'labels': ['http://dbpedia.org/resource/Aquarius_Records_(Canada)', 'http://dbpedia.org/resource/Hopeless_Records', 'http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Skate_punk', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Deryck_Whibley', 'http://dbpedia.org/resource/Frank_Zummo', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Tom_Thacker_(musician)'], 'old_members': ['http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Steve_Jocz', 'Richard Roy', 'Jon Marshall'], 'related_artists': ['http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brown_Brigade', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Darrin_Pfeiffer', 'http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Fonzie_(band)__Fonzie__1', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greig_Nori', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Marc_Costanzo', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Hyde', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Organ_Thieves', 'http://dbpedia.org/resource/Permanent_Me', 'http://dbpedia.org/resource/Street_Drum_Corps', 'http://dbpedia.org/resource/The_Operation_M.D.', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Treble_Charger'], 'abstract': 'Sum 41 is a Canadian rock band from Ajax, Ontario. Originally called Kaspir, the band was formed in 1996 and currently consists of Deryck Whibley (lead vocals, guitars, keyboards), Dave Baksh (lead guitar, backing vocals), Jason "Cone" McCaslin (bass, backing vocals), Tom Thacker (guitars, keyboards, backing vocals), and Frank Zummo (drums, occasional backing vocals). In 1999, Sum 41 signed an international record deal with Island Records and released its first EP, Half Hour of Power, in 2000. The band released its debut album, All Killer No Filler, in 2001. The album achieved mainstream success with its first single, "Fat Lip", which reached number one on the Billboard Modern Rock Tracks chart and remains the band\'s most successful single to date. The album\'s next singles "In Too Deep" and "Motivation" also achieved commercial success. All Killer No Filler was certified platinum in both the United States and the United Kingdom and triple platinum in Canada. In 2002, the band released Does This Look Infected?, which was also a commercial and critical success. The singles "The Hell Song" and "Still Waiting" both charted highly on the modern rock charts. The band released its next album, Chuck, in 2004, led by singles "We\'re All to Blame" and "Pieces". The album proved successful, peaking at number 10 on the Billboard 200. In 2007, the band released Underclass Hero, which was met with a mixed reception, but gained some commercial success, becoming the band\'s highest charting album to date. It was also the band\'s last album on Aquarius Records. The band released the album Screaming Bloody Murder, on Island Records in 2011 to a generally positive reception, though it fell short of its predecessors\' commercial success. The band\'s sixth studio album, 13 Voices was released in 2016. IMPALA awarded the album with a double gold award for 150,000 sold copies across Europe. The band\'s seventh studio album Order in Decline was released on July 19, 2019. The band often performs more than 300 times each year and holds long global tours, most of which last more than a year. The group have been nominated for seven Juno Awards and won twice – Group of the Year in 2002, and Rock Album of the Year for Chuck in 2005. Sum 41 was nominated for a Grammy Award for Best Hard Rock/Metal Performance for the song "Blood in My Eyes". From their formation to 2016, Sum 41 were the 31st best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hoobastank', 'artist_name': 'Hoobastank', 'wiki': 'http://en.wikipedia.org/wiki/Hoobastank', 'hometown': 'http://dbpedia.org/resource/Agoura_Hills,_California', 'start_year': '1994', 'aliases': ['Hoobustank (1994–2001)'], 'labels': ['http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Napalm_Records'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Nu_metal', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Ska_punk'], 'actual_members': ['Doug Robb', 'Dan Estrin', 'Chris Hesse', 'Jesse Charland'], 'old_members': ['Markku Lappalainen', 'Jeremy Wasser', 'Derek Kwan', 'Matt McKenzie', 'Josh Moreau', 'David Amezcua', 'Kevin Antreassian'], 'related_artists': ['http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Vanessa_Amorosi'], 'abstract': 'Hoobastank (sometimes stylized as h∞bastank, and originally known as Hoobustank) is an American rock band formed in 1994 in Agoura Hills, California by lead vocalist Doug Robb, guitarist Dan Estrin, drummer Chris Hesse, and original bassist Markku Lappalainen. They were signed to Island Records from 2001 to 2012 and have released six albums and one extended play to date. Their most recent album, Push Pull, was released on May 25, 2018. They have sold 10 million albums worldwide. The band is best known for their biggest hit single "The Reason".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Eve_6', 'artist_name': 'Eve 6', 'wiki': 'http://en.wikipedia.org/wiki/Eve_6', 'hometown': 'http://dbpedia.org/resource/La_Crescenta-Montrose,_California', 'start_year': '2007', 'aliases': ['Eleventeen (1996–1997)', 'Yakoo (1995–1996)'], 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Fearless_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop-punk'], 'actual_members': ['http://dbpedia.org/resource/Jon_Siebels', 'http://dbpedia.org/resource/Max_Collins_(musician)', 'Ben Hilzinger'], 'old_members': ['http://dbpedia.org/resource/Matthew_Koma', 'http://dbpedia.org/resource/Tony_Fagenson', 'Nick Meyers'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Johnson_(musician)', 'http://dbpedia.org/resource/Fitness_(band)', 'http://dbpedia.org/resource/Fitness_(band)__Fitness__1', 'http://dbpedia.org/resource/Jon_Siebels', 'http://dbpedia.org/resource/Max_Collins_(musician)', 'http://dbpedia.org/resource/Tony_Fagenson'], 'abstract': 'Eve 6 is an American rock band formed in 1995 in Southern California, best known for their hit singles "Inside Out", "Leech", "Here\'s to the Night", and "Promise". They disbanded in 2004, returned for numerous tours in 2007 with a new lineup, and finally reunited with all three original members in early 2011. They signed to Fearless Records in the spring of that year, and released their fourth album Speak in Code, containing the singles "Victoria" and "Curtain", in April 2012.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Haddaway', 'artist_name': 'Haddaway', 'wiki': 'http://en.wikipedia.org/wiki/Haddaway', 'hometown': 'http://dbpedia.org/resource/Cologne', 'birth_date': '09 January 1965', 'start_year': '1987', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Coconut_Records', 'http://dbpedia.org/resource/Razor_&amp;_Tie', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Eurodance'], 'related_artists': ['http://dbpedia.org/resource/Dr._Alban', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Tony_Hendrik'], 'abstract': 'Nestor Alexander Haddaway (born 9 January 1965) is a Trinidadian-German singer best known for his 1993 hit single "What Is Love", which reached number 1 in 13 countries.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kansas_(band)', 'artist_name': 'Kansas', 'wiki': 'http://en.wikipedia.org/wiki/Kansas_(band)', 'hometown': 'http://dbpedia.org/resource/Topeka,_Kansas', 'start_year': '1973', 'end_year': '1984', 'labels': ['http://dbpedia.org/resource/Don_Kirshner', 'http://dbpedia.org/resource/Inside_Out_Music', 'http://dbpedia.org/resource/MCA_Records', 'http://dbpedia.org/resource/Magna_Carta_Records'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Greer', 'http://dbpedia.org/resource/David_Ragsdale', 'http://dbpedia.org/resource/Phil_Ehart', 'http://dbpedia.org/resource/Rich_Williams', 'http://dbpedia.org/resource/Tom_Brislin', 'Ronnie Platt'], 'old_members': ['http://dbpedia.org/resource/Dave_Hope', 'http://dbpedia.org/resource/John_Elefante', 'http://dbpedia.org/resource/Kerry_Livgren', 'http://dbpedia.org/resource/Lynn_Meredith', 'http://dbpedia.org/resource/Robby_Steinhardt', 'http://dbpedia.org/resource/Steve_Morse', 'http://dbpedia.org/resource/Steve_Walsh_(musician)', 'David Manion', 'Greg Allen', 'Larry Baker', 'Brad Schulz', 'Don Montre', 'Zeke Lowe', 'Greg Robert', 'Zak Rizvi', 'Dan Wright', 'Rod Mikinski', 'John Bolton'], 'related_artists': ['http://dbpedia.org/resource/AD_(band)', 'http://dbpedia.org/resource/Billy_Greer', 'http://dbpedia.org/resource/Dave_Hope', 'http://dbpedia.org/resource/David_Ragsdale', 'http://dbpedia.org/resource/Deep_Purple', 'http://dbpedia.org/resource/Dixie_Dregs', 'http://dbpedia.org/resource/Explorers_Club_(band)__Explorers_Club__1', 'http://dbpedia.org/resource/Hedras_Ramos', 'http://dbpedia.org/resource/John_Elefante', 'http://dbpedia.org/resource/Kerry_Livgren', 'http://dbpedia.org/resource/Lynn_Meredith', 'http://dbpedia.org/resource/Mastedon', 'http://dbpedia.org/resource/Michael_Gleason_(musician)', 'http://dbpedia.org/resource/Native_Window', 'http://dbpedia.org/resource/Phil_Ehart', 'http://dbpedia.org/resource/Proto-Kaw', 'http://dbpedia.org/resource/Rich_Williams', 'http://dbpedia.org/resource/Robby_Steinhardt', 'http://dbpedia.org/resource/Seventh_Key', 'http://dbpedia.org/resource/Shooting_Star_(band)', 'http://dbpedia.org/resource/Steve_Morse', 'http://dbpedia.org/resource/Steve_Walsh_(musician)', 'http://dbpedia.org/resource/Streets_(band)', 'http://dbpedia.org/resource/Tom_Brislin', 'http://dbpedia.org/resource/Warren_Ham'], 'abstract': 'Kansas is an American rock band that became popular in the 1970s initially on album-oriented rock charts and later with hit singles such as "Carry On Wayward Son" and "Dust in the Wind". The band has produced nine gold albums, three multi-platinum albums (Leftoverture 4×, Point of Know Return 4×, and The Best of Kansas 4×), one other platinum studio album (Monolith), one platinum live double album (Two for the Show), and a million-selling single, "Dust in the Wind". Kansas appeared on the Billboard charts for over 200 weeks throughout the 1970s and 1980s and played to sold-out arenas and stadiums throughout North America, Europe and Japan. "Carry On Wayward Son" was the second-most-played track on US classic rock radio in 1995 and No. 1 in 1997.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Semisonic', 'artist_name': 'Semisonic', 'wiki': 'http://en.wikipedia.org/wiki/Semisonic', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1995', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/MCA_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_country', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Roots_rock'], 'actual_members': ['http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Jacob_Slichter', 'http://dbpedia.org/resource/John_Munson'], 'related_artists': ['http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Jacob_Slichter', 'http://dbpedia.org/resource/John_Munson', 'http://dbpedia.org/resource/L.E.O._(band)', 'http://dbpedia.org/resource/The_Twilight_Hours', 'http://dbpedia.org/resource/Trip_Shakespeare'], 'abstract': 'Semisonic is an American rock band formed in Minneapolis, Minnesota, in 1995. The band has three members: Dan Wilson (lead vocals, guitar, keyboards), John Munson (bass guitar, keyboards, backing vocals, guitar), and Jacob Slichter (drums, percussion, keyboards, backing vocals). They are best known in the U.S. for their 1998 single "Closing Time".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Beck', 'artist_name': 'Beck', 'wiki': 'http://en.wikipedia.org/wiki/Beck', 'birth_date': '08 July 1970', 'start_year': '1988', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Trouble_with_Being_Myself'], 'related_artists': ['http://dbpedia.org/resource/Alex_Lilly', 'http://dbpedia.org/resource/Badly_Drawn_Boy', 'http://dbpedia.org/resource/Bloodthirsty_Butchers', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Brian_LeBarton', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Calvin_Johnson_(musician)', 'http://dbpedia.org/resource/DJ_Swamp', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elliott_Smith', 'http://dbpedia.org/resource/Forest_for_the_Trees_(band)', 'http://dbpedia.org/resource/Gothic_Tropic', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Jakob_Dylan', 'http://dbpedia.org/resource/James_Gadson', 'http://dbpedia.org/resource/Jessica_Dobson', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Justin_Meldal-Johnsen', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/MC_Lord_Magrão', 'http://dbpedia.org/resource/Matt_Sherrod', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Mike_D', 'http://dbpedia.org/resource/Natalie_Bergman', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nicolas_Godin', 'http://dbpedia.org/resource/Nigel_Godrich', 'http://dbpedia.org/resource/Paleface_(musician)', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Rachel_Haden', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roger_Joseph_Manning_Jr.', 'http://dbpedia.org/resource/Smokey_Hormel', 'http://dbpedia.org/resource/Steven_Shane_McDonald', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/The_Blue_News', 'http://dbpedia.org/resource/The_Chemical_Brothers', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/The_White_Stripes', 'http://dbpedia.org/resource/Tobacco_(musician)', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tortoise_(band)'], 'abstract': 'Beck David Hansen (born Bek David Campbell; July 8, 1970) is an American musician, singer, songwriter, and record producer. He rose to fame in the early 1990s with his experimental and lo-fi style, and became known for creating musical collages of wide-ranging genres. He has musically encompassed folk, funk, soul, hip hop, electronic, alternative rock, country, and psychedelia. He has released 14 studio albums (three of which were released on indie labels), as well as several non-album singles and a book of sheet music. Born and raised in Los Angeles, Beck grew towards hip-hop and folk in his teens and began to perform locally at coffeehouses and clubs. He moved to New York City in 1989 and became involved in the city\'s small but fiery anti-folk movement. Returning to Los Angeles in the early 1990s, he cut his breakthrough single "Loser", which became a worldwide hit in 1994, and released his first major album, Mellow Gold, the same year. Odelay, released in 1996, topped critic polls and won several awards. He released the country-influenced, twangy Mutations in 1998, and the funk-infused Midnite Vultures in 1999. The soft-acoustic Sea Change in 2002 showcased a more serious Beck, and 2005\'s Guero returned to Odelay\'s sample-based production. The Information in 2006 was inspired by electro-funk, hip hop, and psychedelia; 2008\'s Modern Guilt was inspired by \'60s pop music; and 2014\'s folk-infused Morning Phase won Album of the Year at the 57th Grammy Awards. His 2017 album, Colors, won awards for Best Alternative Album and Best Engineered Album at the 61st Annual Grammy Awards. His fourteenth studio album, Hyperspace, was released on November 22, 2019. With a pop art collage of musical styles, oblique and ironic lyrics, and postmodern arrangements incorporating samples, drum machines, live instrumentation and sound effects, Beck has been hailed by critics and the public throughout his musical career as being among the most idiosyncratically creative musicians of 1990s and 2000s alternative rock. Two of Beck\'s most popular and acclaimed recordings are Odelay and Sea Change, both of which were ranked on Rolling Stone\'s list of the 500 greatest albums of all time. The four-time platinum artist has collaborated with several artists and has made several contributions to soundtracks.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Anastacia', 'artist_name': 'Anastacia', 'wiki': 'http://en.wikipedia.org/wiki/Anastacia', 'birth_date': '17 September 1968', 'start_year': '1990', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Auryn', "http://dbpedia.org/resource/Ben's_Brother", 'http://dbpedia.org/resource/Ben_Moody', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Canela_Cox', 'http://dbpedia.org/resource/Celine_Dion', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Dallas_Austin', 'http://dbpedia.org/resource/David_Morales', 'http://dbpedia.org/resource/Dima_Bilan', 'http://dbpedia.org/resource/Elton_John', 'http://dbpedia.org/resource/Eros_Ramazzotti', 'http://dbpedia.org/resource/Faith_Evans', 'http://dbpedia.org/resource/Jamiroquai', 'http://dbpedia.org/resource/Jive_Jones', 'http://dbpedia.org/resource/Jon_Bon_Jovi', 'http://dbpedia.org/resource/Kurt_Carr', 'http://dbpedia.org/resource/Lisa_Lopes', 'http://dbpedia.org/resource/Luciano_Pavarotti', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Natalia_(Belgian_singer)', 'http://dbpedia.org/resource/Tommy_Organ', 'http://dbpedia.org/resource/Will_Wheaton'], 'abstract': 'Anastacia Lyn Newkirk (/ˌænəˈsteɪʒə/ AN-ə-STAY-zhə; born September 17, 1968) is an American singer-songwriter, producer and former dancer. Her first two albums Not That Kind (2000) and Freak of Nature (2001) were released in quick succession to major success. Spurred on by the multi-platinum, global smash "I\'m Outta Love", Anastacia was awarded as the \'World\'s Best-Selling New Female Pop Artist\' in 2001. Her commercial success continued with international hits such as "Paid My Dues", "One Day In Your Life" and the official song of the 2002 FIFA World Cup, "Boom". After recovering from cancer, she returned with 2004\'s Anastacia which deviated from previous albums into pop-rock. Peaking at number one in 11 countries, it became Europe\'s second-biggest-selling album of the year. Its lead single "Left Outside Alone" remained at number one on the European Billboard chart for 15 weeks and helped Anastacia launch the most successful European tour by a solo artist that same year. The album also provided another three singles: "Sick and Tired", "Welcome to My Truth", and "Heavy on My Heart". In 2005, the multi-platinum compilation project Pieces of a Dream was released, which spawned the chart-topping duet with Eros Ramazzotti, "I Belong to You (Il Ritmo della Passione)". Her fourth studio album Heavy Rotation (2008) produced the songs "Absolutely Positively", "Defeated", and "I Can Feel You". Her cover album It\'s a Man\'s World (2012) was followed by a sixth studio album Resurrection (2014), which reached the top ten of several European charts. Her Ultimate Collection was released in 2015 and peaked in the top ten of the UK charts, giving the singer her sixth top-ten album in Britain. In 2017, Anastacia released the studio album Evolution and its lead single "Caught in the Middle". Anastacia has established herself as one of the best-selling international female singers of the 2000s and 2010s. As of 2016, she has reported worldwide sales of more than 50 million. She has had five top ten singles on U.S. Billboard\'s Dance Club chart and three albums on its Top Album Sales chart. Known for her powerful mezzo-soprano voice and her small stature of 5 feet 2 inches (157 cm), she has been dubbed "the little lady with the big voice". She underwent corrective LASIK surgery in August 2005, although she still frequently wears the glasses for which she became noted when she first became famous. During her life Anastacia has battled many health problems. She was diagnosed with Crohn\'s disease when she was 13, breast cancer at the age of 34, and supraventricular tachycardia aged 39. In 2013, Anastacia was diagnosed with breast cancer for a second time. In recognition of her decade-long charitable efforts in breast cancer awareness, Anastacia became the second woman ever to be presented with the Humanitarian Award at the GQ Men of the Year Awards in 2013.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': 'http://en.wikipedia.org/wiki/Smash_Mouth', 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'start_year': '1994', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Ska_punk', 'http://dbpedia.org/resource/Surf_music', 'surf rock', 'new wave'], 'actual_members': ['http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Randy_Cooke', 'http://dbpedia.org/resource/Sean_Hurwitz', 'Michael Klooster'], 'old_members': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Jason_Sutter', 'http://dbpedia.org/resource/Leroy_(musician)', 'http://dbpedia.org/resource/Michael_Urbano', 'http://dbpedia.org/resource/Steve_Harwell', 'Mike Krompass', 'Mark Cervantes', 'Charlie Paxson', 'Kevin Coleman', 'Mitch Marine', 'Sam Eigen'], 'related_artists': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Sean_Hurwitz', 'http://dbpedia.org/resource/Steve_Harwell', 'http://dbpedia.org/resource/Tripping_Daisy'], 'abstract': 'Smash Mouth is an American rock band from San Jose, California. The band was formed in 1994, and was originally composed of Steve Harwell (lead vocals), Kevin Coleman (drums), Greg Camp (guitar), and Paul De Lisle (bass). They are known for their songs "Walkin\' on the Sun" (1997), "All Star" (1999), and "Then The Morning Comes" (1999), as well as a cover of The Monkees\' "I\'m a Believer" (2001). The band adopted retro styles covering several decades of popular music. They have also performed numerous covers of popular songs, including War\'s "Why Can\'t We Be Friends?", Simple Minds\' "Don\'t You (Forget About Me)", ? &amp; the Mysterians\' "Can\'t Get Enough of You Baby", the Beatles\' "Getting Better", and "I Wan\'na Be Like You" from The Jungle Book. They also composed two songs for the South Korean animated film Pororo, The Racing Adventure: "Beside Myself" and "Everything Just Crazy".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'artist_name': 'Mr. Big', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Big_(American_band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'end_year': '2018', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Soft_rock'], 'actual_members': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/Paul_Gilbert'], 'old_members': ['http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Richie_Kotzen'], 'related_artists': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/G3_(tour)', 'http://dbpedia.org/resource/Impellitteri', 'http://dbpedia.org/resource/Matt_Starr', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Paul_Gilbert', 'http://dbpedia.org/resource/Racer_X_(band)', 'http://dbpedia.org/resource/Richie_Kotzen', 'http://dbpedia.org/resource/Sons_of_Apollo', 'http://dbpedia.org/resource/Tak_Matsumoto_Group', 'http://dbpedia.org/resource/The_Winery_Dogs', 'http://dbpedia.org/resource/Willie_Basse'], 'abstract': 'Mr. Big is an American glam metal band formed in Los Angeles, California, in 1988. The band was originally composed of Eric Martin (lead vocals), Paul Gilbert (guitar, backing vocals), Billy Sheehan (bass guitar, backing vocals), and Pat Torpey (drums, percussion, backing vocals). Though primarily a metal band, they are most known for scoring softer hits. Their songs are often marked by strong vocals and vocal harmonies. Their hits include "To Be with You" (a number-one single in 15 countries in 1992) and "Just Take My Heart". The band takes its name from a song by Free which it covered on the 1993 album Bump Ahead. Mr. Big remained active and popular for over a decade despite internal conflicts and changing music trends, releasing four studio albums: Mr. Big (1989), Lean into It (1991), Bump Ahead (1993) and Hey Man (1996). Guitarist Paul Gilbert departed the band in 1999, and Richie Kotzen was brought as a guitarist and vocalist. The band released two more albums with this line-up: Get Over It (1999) and Actual Size (2001). Mr. Big broke up in 2002. Following requests from fans, Mr. Big reunited with its original line-up in 2009. The band\'s first post-reunion tour was in Japan. In 2010, Mr. Big released its first album in 15 years with the same line-up: What If.... During the recording of the follow-up album ...The Stories We Could Tell (2014), Pat Torpey was diagnosed with Parkinson\'s disease and participated only marginally as a touring support. The band\'s ninth album, Defying Gravity (2017), was its last record involving Torpey as drum producer; he died the following year. Not wanting to continue without Torpey, the band intended to release a final studio album, conduct a farewell tour and disband. However, since then they have been on hiatus, they still exist as musical entity, but with no concrete plans to continue with a different drummer and haven\'t discussed their future, as affirmed by Billy Sheehan. Mr. Big is frequently cited as an example of the "Big in Japan" phenomenon, where a musical act is disproportionately more popular in Japan compared to similar groups. Some consider Mr. Big as one-hit wonder for "To Be with You", but they maintained consistent popularity in the Japanese market for years.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Audioslave', 'artist_name': 'Audioslave', 'wiki': 'http://en.wikipedia.org/wiki/Audioslave', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '2001', 'end_year': '2007', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Interscope_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Post-grunge'], 'old_members': ['http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Chris_Cornell', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello'], 'related_artists': ['http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Brad_Wilk', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'http://dbpedia.org/resource/Rage_Against_the_Machine__Rage_Against_the_Machine__1', 'http://dbpedia.org/resource/Soundgarden', 'http://dbpedia.org/resource/Street_Sweeper_Social_Club', 'http://dbpedia.org/resource/The_Last_Internationale', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Commerford', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Wakrat'], 'abstract': "Audioslave was an American rock supergroup formed in Glendale, California, in 2001. The four-piece band consisted of Soundgarden's lead singer and rhythm guitarist Chris Cornell with Rage Against the Machine members Tom Morello (lead guitar), Tim Commerford (bass/backing vocals), and Brad Wilk (drums). Critics first described Audioslave as a combination of Soundgarden and Rage Against the Machine, but by the band's second album, Out of Exile, it was noted that they had established a separate identity. Their unique sound was created by blending 1970s hard rock and 1990s alternative rock, with musical influences that included 1960s funk, soul and R&amp;B. As with Rage Against the Machine, the band prided themselves on the fact that all sounds on their albums were produced using only guitars, bass, drums, and vocals, with emphasis on Cornell's wide vocal range and Morello's unconventional guitar solos. In their six years together, Audioslave released three albums, received three Grammy nominations, sold more than eight million records worldwide and became the first American rock band to perform an open-air concert in Cuba. They disbanded in February 2007 after Cornell issued a statement announcing that he was leaving the band. Later that year, Cornell and Morello released solo albums, and Morello, Commerford, and Wilk reunited with Zack de la Rocha for the Rage Against the Machine Reunion Tour. Audioslave reunited to perform at Prophets of Rage's Anti-Inaugural Ball, which took place on January 20, 2017. Cornell's death later that year precluded any chance of further reunions."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Duck_Sauce', 'artist_name': 'Duck Sauce', 'wiki': 'http://en.wikipedia.org/wiki/Duck_Sauce', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/All_Around_the_World_Productions', 'http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Casablanca_Records', "http://dbpedia.org/resource/Fool's_Gold_Records", 'http://dbpedia.org/resource/Ministry_of_Sound', 'http://dbpedia.org/resource/Republic_Records', 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Funky_house', 'http://dbpedia.org/resource/House_music', 'http://dbpedia.org/resource/Nu-disco'], 'actual_members': ['http://dbpedia.org/resource/A-Trak', 'http://dbpedia.org/resource/Armand_van_Helden'], 'related_artists': ['http://dbpedia.org/resource/A-Trak', 'http://dbpedia.org/resource/Armand_van_Helden__Armand_van_Helden__1', 'http://dbpedia.org/resource/Pascal_&amp;_Pearce'], 'abstract': 'Duck Sauce is an electronic music duo, formed in 2009 in New York City. The duo consists of American DJ Armand van Helden and Canadian DJ A-Trak. They are best known for their 2010 single "Barbra Streisand".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Lana_Del_Rey', 'artist_name': 'Lana Del Rey', 'wiki': 'http://en.wikipedia.org/wiki/Lana_Del_Rey', 'birth_date': '21 June 1985', 'start_year': '2005', 'plays_in': ['http://dbpedia.org/resource/Amor_à_Vida', 'http://dbpedia.org/resource/Avenida_Brasil_(TV_series)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Norman_Fucking_Rockwell_(film)', 'http://dbpedia.org/resource/Tropico_(film)'], 'related_artists': ['http://dbpedia.org/resource/Aaron_A._Brooks', 'http://dbpedia.org/resource/Al_Shux', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Bobby_Womack', 'http://dbpedia.org/resource/Bristeil', 'http://dbpedia.org/resource/Børns', 'http://dbpedia.org/resource/Cat_Power', 'http://dbpedia.org/resource/Cedric_Gervais', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Clara_Luciani', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Jimmy_Gnecco', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/Leon_Michels', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Mike_Daly', 'http://dbpedia.org/resource/Miles_Kane', 'http://dbpedia.org/resource/Pearl_Charles', 'http://dbpedia.org/resource/Photek', 'http://dbpedia.org/resource/Princess_Superstar', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Robopop', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/Sean_Lennon', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Sterling_Fox', 'http://dbpedia.org/resource/Weyes_Blood', 'http://dbpedia.org/resource/Zac_Rae', 'http://dbpedia.org/resource/Zach_Dawes', 'http://dbpedia.org/resource/Zella_Day'], 'abstract': 'Elizabeth Woolridge Grant (born June 21, 1985), known professionally as Lana Del Rey, is an American singer-songwriter. Her music is noted for its cinematic quality and exploration of tragic romance, glamour, and melancholia, containing references to contemporary pop culture, as well as 1950s and 1960s Americana. She is the recipient of various accolades, including two Brit Awards, two MTV Europe Music Awards, a Satellite Award, and has been nominated for six Grammy Awards and one Golden Globe Award. She also has been recognized with the Variety\'s Decade Award at the Variety Hitmakers Awards for being ″regarded as one of the most influential singer-songwriters of the 21st century″. Raised in upstate New York, Del Rey moved to New York City in 2005 to pursue a music career. After numerous projects, including her self-titled debut studio album, Del Rey\'s breakthrough came in 2011 with the viral success of her single "Video Games"; she subsequently signed a recording contract with Polydor and Interscope. She achieved critical and commercial success with her second album, Born to Die (2012), which contained the sleeper hit "Summertime Sadness". Del Rey\'s third album, Ultraviolence (2014), featured greater use of guitar-driven instrumentation and debuted atop the U.S. Billboard 200. Her fourth and fifth albums, Honeymoon (2015) and Lust for Life (2017), saw a return to the stylistic traditions of her earlier releases, while her critically acclaimed sixth album, Norman Fucking Rockwell! (2019), explored soft rock. Del Rey followed this with the albums Chemtrails over the Country Club and Blue Banisters, both in 2021. Del Rey has collaborated on soundtracks for visual media; in 2013, she wrote and starred in the critically acclaimed musical short Tropico, and performed "Young and Beautiful" for the romantic drama The Great Gatsby. In 2014, she recorded "Once Upon a Dream" for the dark fantasy adventure film Maleficent and the self-titled theme song for the biopic Big Eyes. Del Rey collaborated with Ariana Grande and Miley Cyrus on "Don\'t Call Me Angel" for the action comedy Charlie\'s Angels (2019), which peaked at number 13 on the U.S. Billboard Hot 100, becoming her highest charting song. Outside of music, Del Rey published the poetry and photography collection Violet Bent Backwards over the Grass (2020).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Lemonheads', 'artist_name': 'The Lemonheads', 'wiki': 'http://en.wikipedia.org/wiki/The_Lemonheads', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '1986', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Fire_Records_(UK)', 'http://dbpedia.org/resource/Taang!_Records', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Vagrant_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/College_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Punk_rock'], 'actual_members': ['http://dbpedia.org/resource/Evan_Dando'], 'old_members': ['http://dbpedia.org/resource/Angel_Rot', 'http://dbpedia.org/resource/Ben_Deily', 'http://dbpedia.org/resource/Bill_Stevenson_(musician)', 'http://dbpedia.org/resource/Jesse_Peretz', 'http://dbpedia.org/resource/John_Strohm_(musician)', 'http://dbpedia.org/resource/Josh_Lattanzi', 'http://dbpedia.org/resource/Juliana_Hatfield', 'http://dbpedia.org/resource/Kenny_Lyon', 'http://dbpedia.org/resource/Murph_(drummer)', 'http://dbpedia.org/resource/Nic_Dalton', 'http://dbpedia.org/resource/T._Corey_Brennan', 'http://dbpedia.org/resource/Vess_Ruhtenberg', 'Mark "Budola" NewmanKarl Alvarez', 'Doug Trachten', 'Mark Cutsinger', 'John Kent', 'David Ryan', 'P. David Hazel', 'Ben Daughtry', 'Devon Ashley', 'Byron Hoagland'], 'related_artists': ['http://dbpedia.org/resource/All_(band)', 'http://dbpedia.org/resource/Black_Flag_(band)', 'http://dbpedia.org/resource/Blake_Babies', 'http://dbpedia.org/resource/Bullet_LaVolta', 'http://dbpedia.org/resource/Descendents', 'http://dbpedia.org/resource/Dinosaur_Jr.', 'http://dbpedia.org/resource/Juliana_Hatfield', 'http://dbpedia.org/resource/Smudge_(band)', 'http://dbpedia.org/resource/Sneeze_(band)', 'http://dbpedia.org/resource/The_Plunderers_(band)'], 'abstract': 'The Lemonheads are an American alternative rock band formed in Boston, Massachusetts, in 1986 by Evan Dando, Ben Deily, and Jesse Peretz. Dando has remained the band\'s only constant member.After their initial punk-influenced releases and tours as an independent/college rock band in the late 1980s, the Lemonheads\' popularity with a mass audience grew in 1992 with the major label album It\'s a Shame about Ray, which was produced, engineered, and mixed by The Robb Brothers (Bruce Robb, Dee, and Joe). This was followed by a cover of Simon and Garfunkel\'s "Mrs. Robinson", which eventually became one of the band\'s most successful singles. Then Lemonheads were active until 1997 before going on hiatus, but reformed with a new lineup in 2005 and released The Lemonheads the following year. The band released its latest album, Varshons 2, in February 2019. Since its formation, recording and touring lineups of the band have included co-founders Deily and Peretz, John Strohm (Blake Babies), Doug Trachten, Corey Loog Brennan, Byron Hoagland (Folks On Fire), Ben Daughtrey (Squirrel Bait), Juliana Hatfield (Blake Babies), Nic Dalton (Godstar, Sneeze, The Plunderers), David Ryan (Fuzzy), Patrick "Murph" Murphy (Dinosaur Jr), George Berz (Dinosaur Jr, Gobblehoof), Josh Lattanzi, Bill Gibson (The Eastern Dark), Mark \'Budola\' Newman, Kenny Lyon, Vess Ruhtenberg, Devon Ashley, Karl Alvarez and Bill Stevenson (Descendents), P. David Hazel and various others.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Macklemore_&amp;_Ryan_Lewis', 'artist_name': 'Macklemore &amp; Ryan Lewis', 'wiki': 'http://en.wikipedia.org/wiki/Macklemore_&amp;_Ryan_Lewis', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '2008', 'end_year': '2017', 'labels': ['http://dbpedia.org/resource/Macklemore'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Pop_rap', 'http://dbpedia.org/resource/Progressive_rap'], 'old_members': ['http://dbpedia.org/resource/Macklemore', 'http://dbpedia.org/resource/Ryan_Lewis'], 'related_artists': ['http://dbpedia.org/resource/Fences_(band)', 'http://dbpedia.org/resource/Hollis_(singer)', 'http://dbpedia.org/resource/Ryan_Lewis', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Macklemore &amp; Ryan Lewis are an American hip hop duo, formed in 2008, from Seattle, Washington. The duo is composed of Ben Haggerty, a rapper who goes by the stage name of Macklemore, and Ryan Lewis, a record producer, DJ, and professional photographer, who met the former at a photo shoot. In 2009, they released their first collaborative effort, an EP titled VS. EP. They later followed up with VS. Redux (2010), the Grammy Award-winning album The Heist (2012) and This Unruly Mess I\'ve Made (2016). Macklemore and Lewis\' single "Thrift Shop" reached number one on the US Billboard Hot 100 in 2013. The single was soon dubbed the first song since 1994 to top the Hot 100 chart without the support of a major record label by Billboard, although Macklemore, in a slightly unusual recording contract, pays a nominal percentage of sales to use Warner Bros. Records\' radio promotion department to push his singles. Their second single, "Can\'t Hold Us", also peaked at number one on the Hot 100 Chart, making Macklemore and Lewis the first duo in the chart\'s history to have their first two singles both reach the peak position. Macklemore and Lewis released their debut studio album, The Heist, on October 9, 2012, which charted at number 2 on the US Billboard 200. The pair won four Grammy Awards at the 2014 ceremony, including Best New Artist, Best Rap Album (The Heist), Best Rap Song and Best Rap Performance ("Thrift Shop"). Their second album, This Unruly Mess I\'ve Made, was released on February 26, 2016. As of 2021, the band has sold 2 million records worldwide. On June 15, 2017, Macklemore announced that the duo were on hiatus. On October 26, 2021, Macklemore and Ryan Lewis announced that a new track, titled "Next Year", featuring pop musician Windser is set to be released on October 29, on their respective Instagram pages.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Vassy_(singer)', 'artist_name': 'Vassy', 'wiki': 'http://en.wikipedia.org/wiki/Vassy_(singer)', 'birth_date': '18 February 1983', 'start_year': '2003', 'labels': ['http://dbpedia.org/resource/ABC_Music', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Ultra_Music', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Pop_music', 'Pop', 'dance', 'EDM'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Benny_Benassi', 'http://dbpedia.org/resource/Crystal_Waters', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Florian_Picasso', 'http://dbpedia.org/resource/Kshmr', 'http://dbpedia.org/resource/Pitbull_(rapper)', 'http://dbpedia.org/resource/Salvatore_Lodato', 'http://dbpedia.org/resource/Scooter_(band)', 'http://dbpedia.org/resource/Showtek', 'http://dbpedia.org/resource/The_Cataracs', 'http://dbpedia.org/resource/Tim_Myers', 'http://dbpedia.org/resource/Tiësto'], 'abstract': 'Vassy Karagiorgos, known mononymously as Vassy (frequently stylised as VASSY, born 18 February 1983) is an Australian singer, songwriter and record producer.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Cedric_Gervais', 'artist_name': 'Cedric Gervais', 'wiki': 'http://en.wikipedia.org/wiki/Cedric_Gervais', 'birth_date': '07 June 1979', 'labels': ['http://dbpedia.org/resource/Armada_Music', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Polydor_Records', "http://dbpedia.org/resource/Spinnin'_Records", 'http://dbpedia.org/resource/Ultra_Music'], 'genres': ['http://dbpedia.org/resource/Big_room_house', 'http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Electro_house', 'http://dbpedia.org/resource/Progressive_house', 'http://dbpedia.org/resource/Tech_house', 'Dance'], 'related_artists': ['http://dbpedia.org/resource/Ali_Tamposi', 'http://dbpedia.org/resource/Borgore', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Deep_Dish_(duo)', 'http://dbpedia.org/resource/Howard_Jones_(British_musician)', 'http://dbpedia.org/resource/Lana_Del_Rey', 'http://dbpedia.org/resource/Lenny_Kravitz'], 'abstract': 'Cédric DePasquale (French pronunciation: \u200b[sedʁik dəpaskal], born 7 June 1979), better known by his stage name Cedric Gervais (French pronunciation: \u200b[sedʁik ʒɛʁvɛ]), is a French DJ, record producer and actor residing in Miami Beach, Florida. In 2013, he produced a remix of Lana Del Rey\'s "Summertime Sadness", for which he won a Grammy Award.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Zayn_Malik', 'artist_name': 'Zayn', 'wiki': 'http://en.wikipedia.org/wiki/Zayn_Malik', 'birth_date': '12 January 1993', 'start_year': '2010', 'related_artists': ['http://dbpedia.org/resource/Malay_(record_producer)', 'http://dbpedia.org/resource/Melissa_Steel', 'http://dbpedia.org/resource/Snakehips_(duo)', 'http://dbpedia.org/resource/The_Invisible_Men', 'http://dbpedia.org/resource/Tushar_Apte', 'http://dbpedia.org/resource/Zhavia_Ward'], 'abstract': 'Zain Javadd Malik (/ˈmælɪk/; born 12 January 1993), known mononymously as Zayn, is a British singer. Born and raised in Bradford, Malik auditioned as a solo contestant for the British music competition The X Factor in 2010. After being eliminated as a solo performer, Malik was brought back into the competition, along with four other contestants, to form the boy band One Direction, which went on to become one of the best-selling boy bands of all time. Malik left the group in March 2015 and subsequently signed a solo recording contract with RCA Records. Adopting a more alternative R&amp;B music style with his debut studio album, Mind of Mine (2016), and its lead single, "Pillowtalk", Malik became the first British male artist to debut at number one in both the UK and US, with his debut single and debut album. His collaborative singles, "I Don\'t Wanna Live Forever" with Taylor Swift and "Dusk Till Dawn" featuring Sia, were met with international success. Malik released his second studio album, Icarus Falls, in 2018. His third album, Nobody Is Listening, was released in January 2021. Malik is the recipient of several accolades, including an American Music Award and a MTV Video Music Award. He is also the only artist to have won the Billboard Music Award for New Artist of the Year twice, receiving it once as a member of One Direction in 2013 and then again in 2017 as a solo artist.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Freddie_Mercury', 'artist_name': 'Freddie Mercury', 'wiki': 'http://en.wikipedia.org/wiki/Freddie_Mercury', 'birth_date': '05 September 1946', 'death_date': '24 November 1991', 'start_year': '1969', 'end_year': '1991', 'aliases': ['Freddie Bulsara', 'Larry Lurex'], 'plays_in': ["http://dbpedia.org/resource/Hunter's_Moon_(Delain_EP)", 'http://dbpedia.org/resource/II_(Lords_of_Black_album)'], 'related_artists': ['http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Jo_Burt', 'http://dbpedia.org/resource/Sour_Milk_Sea_(band)'], 'abstract': 'Freddie Mercury (born Farrokh Bulsara; 5 September 1946 – 24 November 1991) was a British singer, songwriter, record producer, and lead vocalist of the rock band Queen. Regarded as one of the greatest singers in the history of rock music, he was known for his flamboyant stage persona and four-octave vocal range. Mercury defied the conventions of a rock frontman, with his highly theatrical style influencing the artistic direction of Queen. Born in 1946 in Zanzibar to Parsi-Indian parents, he attended English-style boarding schools in India from the age of eight and returned to Zanzibar after secondary school. In 1964, his family fled the Zanzibar Revolution, moving to Middlesex, England. Having studied and written music for years, he formed Queen in 1970 with guitarist Brian May and drummer Roger Taylor. Mercury wrote numerous hits for Queen, including "Killer Queen", "Bohemian Rhapsody", "Somebody to Love", "We Are the Champions", "Don\'t Stop Me Now", and "Crazy Little Thing Called Love". His charismatic stage performances often saw him interact with the audience, as displayed at the 1985 Live Aid concert. He also led a solo career and served as a producer and guest musician for other artists. Mercury died in 1991 at age 45 due to complications from AIDS. He confirmed the day before his death that he had contracted the disease, having been diagnosed in 1987. Mercury had continued to record with Queen following his diagnosis, and he was posthumously featured on the band\'s final album, Made in Heaven (1995). In 1992, his tribute concert was held at Wembley Stadium. As a member of Queen, Mercury was posthumously inducted into the Rock and Roll Hall of Fame in 2001, the Songwriters Hall of Fame in 2003, and the UK Music Hall of Fame in 2004. In 1990, he and the other Queen members were awarded the Brit Award for Outstanding Contribution to British Music, and one year after his death Mercury was awarded it individually. In 2005, Queen were awarded an Ivor Novello Award for Outstanding Song Collection from the British Academy of Songwriters, Composers, and Authors. In 2002, Mercury ranked number 58 in the BBC\'s poll of the 100 Greatest Britons. His career with Queen was dramatised in the 2018 biopic Bohemian Rhapsody.'}</t>
+    <t>{'url': 'https://genius.com/artists/P-lion', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Snap-capone', 'annotations': {'description': '&lt;p&gt;Snap Capone is one of the UK’s rap scenes best artists. Snap Capone started out in the Road Rap scene originally as a member of &lt;a href="https://genius.com/artists/Shoot-instant" rel="noopener" data-api_path="/artists/1649790"&gt;S.I (Shoot Instant)&lt;/a&gt;, a set of the &lt;a href="https://archive.fo/pcqC#selection-747.0-747.456" rel="noopener nofollow"&gt;Peckham Boys&lt;/a&gt; gang.&lt;/p&gt;', 'alternate_names': ['Ben Ngaman', 'Young Snap']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Whigfield', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Technotronic', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Duran-duran', 'annotations': {'description': '&lt;p&gt;DURAN DURAN has a total of over 80 million records sold, 18 American hit singles, 30 UK top 30 tunes, and a global presence which guarantees them huge concert audiences on five continents. They’ve managed to fuse pop music, art, technology and fashion with a unique sense of style and confidence. Princess Diana also admitted that Duran Duran was her favourite Band among others.&lt;/p&gt;\n\n&lt;p&gt;Bassist John Taylor has said &lt;a href="http://thequietus.com/articles/17506-coke-wet-arcadia-versus-the-power-station-by-simon-price" rel="noopener nofollow"&gt;the original vision&lt;/a&gt; for the band’s sound was ‘to fuse the Sex Pistols and Chic’ after hearing those two bands back-to-back on a pub jukebox one night.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Murray-elias', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Murry Elias', 'Murray Elias ("Jah Fish")', 'Murray "M Diddy" Elias', 'Murray "Jah Fish" Elias']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Inner-circle', 'annotations': {'description': '&lt;p&gt;Inner Circle, also known as The Inner Circle Band or The Bad Boys of Reggae, are a Jamaican reggae band formed in Kingston, Jamaica, in 1968.&lt;/p&gt;', 'alternate_names': ['The Inner Circle Band']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lee-harvey', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Backstreet-boys', 'annotations': {'description': '&lt;p&gt;The Backstreet Boys are the most successful boy band in history, having sold over 130 million records worldwide, and with their first nine albums reaching the top 10 on the Billboard 200. Florida natives A. J. McLean, Howie Dorough, and Nick Carter, along with Kentucky transplant Kevin Richardson, were joined in a band once they attended Lou Pearlman’s auditions for a vocal group in 1992, with the group being completed by Kevin’s cousin Brian Litrell. Once took under the wing of Swedish producer &lt;a href="https://genius.com/artists/Max-martin" rel="noopener" data-api_path="/artists/27835"&gt;Max Martin&lt;/a&gt; in 1995, the stage was set for global domination, attracting the lust of women and the anger of men. While the fad died down and Kevin even left for a while, the band never officially took a break or such.&lt;/p&gt;', 'alternate_names': ['BSB']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Carrie-underwood', 'annotations': {'description': '&lt;p&gt;Carrie Marie Underwood (born March 10, 1983) is an American country music singer, songwriter, and actress. She rose to fame as the winner of the fourth season of American Idol in 2005. Underwood has since become a multi-platinum selling recording artist, a winner of six Grammy Awards, sixteen Billboard Music Awards, seven American Music Awards and ten Academy of Country Music Awards, among several others. As a songwriter, she has been nominated for a Golden Globe Award for Best Original Song. Underwood is also a two-time winner of the Academy of Country Music Entertainer of the Year award and the first woman to win such an award twice (2009/10). Underwood was inducted into and became a member of the Grand Ole Opry in 2008. She was also inducted into the Oklahoma Music Hall of Fame in 2009.&lt;/p&gt;', 'alternate_names': ['Carrie Marie Underwood']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Led-zeppelin', 'annotations': {'description': '&lt;p&gt;One of the &lt;a href="http://www.rollingstone.com/music/lists/100-greatest-artists-of-all-time-19691231/led-zeppelin-20110419" rel="noopener nofollow"&gt;greatest&lt;/a&gt; rock bands of all time, Led Zeppelin was comprised of guitarist &lt;a href="https://genius.com/artists/Jimmy-page" rel="noopener" data-api_path="/artists/9536"&gt;Jimmy Page&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/John-bonham" rel="noopener" data-api_path="/artists/652853"&gt;John Bonham&lt;/a&gt;, singer &lt;a href="https://genius.com/artists/Robert-plant" rel="noopener" data-api_path="/artists/12999"&gt;Robert Plant&lt;/a&gt; and bassist\\keyboardist &lt;a href="https://genius.com/artists/John-paul-jones" rel="noopener" data-api_path="/artists/211068"&gt;John Paul Jones&lt;/a&gt;. Following the &lt;a href="http://www.rollingstone.com/music/lists/the-10-wildest-led-zeppelin-legends-fact-checked-20121121/john-bonham-drank-40-shots-of-vodka-the-night-he-died-19691231" rel="noopener nofollow"&gt;death&lt;/a&gt; of Bonham in 1980, they went on a permanent hiatus.&lt;/p&gt;\n\n&lt;p&gt;Known for Plant’s aggressive, stunning vocal performances, Page’s iconic guitar riffs and Bonham’s exuberant drumming (as well as Jones\' groovy bass lines and keyboard arrangements—the latter of which received more prominence in the band’s later albums), they’ve sold around 300 million records worldwide. Tracks such as &lt;a href="https://genius.com/Led-zeppelin-stairway-to-heaven-lyrics" rel="noopener" data-api_path="/songs/1061"&gt;“Stairway to Heaven”&lt;/a&gt; and &lt;a href="https://genius.com/Led-zeppelin-kashmir-lyrics" rel="noopener" data-api_path="/songs/106428"&gt;“Kashmir”&lt;/a&gt; frequently make ‘greatest songs of all time’ lists, and their live shows are spoken of in hushed tones. Plant’s painful, bluesy screech, Page’s innovative guitar playing (sometimes with the use of a violin bow), Jones\' precision and Bonzo’s monstrous drum sound and extensive solos made for legendary concert performances.&lt;/p&gt;\n\n&lt;p&gt;Despite contemporaries such as &lt;a href="https://genius.com/artists/The-who" rel="noopener" data-api_path="/artists/17846"&gt;The Who&lt;/a&gt; continuing to tour and &lt;a href="https://www.youtube.com/watch?v=D4CiedGbjaQ" rel="noopener nofollow"&gt;release new music&lt;/a&gt;, both &lt;a href="http://www.musictimes.com/articles/17176/20141124/robert-plant-talks-wont-reunite-led-zeppelin-jimmy-page-talks-led-zep-ellen-watch.htm" rel="noopener nofollow"&gt;Plant&lt;/a&gt; and &lt;a href="http://www.telegraph.co.uk/culture/music/music-news/11131557/Jimmy-Page-Led-Zeppelin-arent-going-to-reunite.html" rel="noopener nofollow"&gt;Page&lt;/a&gt; have assured fans that the band will not reunite. At most, the surviving members performed with an array of drummers and bassist Paul Martinez during Live Aid (1985), Page and Plant did a combined project in the mid 90s, and the band performed with John’s son Jason Bonham (a drummer himself) in both Atlantic Records\' 40th anniversary in 1989 and a 2007 concert for Atlantic’s recently deceased founder Ahmet Ertegun (released as the lauded live album\\film &lt;em&gt;&lt;a href="http://www.ledzeppelin.com/celebrationday/" rel="noopener nofollow"&gt;Celebration Day&lt;/a&gt;&lt;/em&gt; in 2012). Their legacy remains intact.&lt;/p&gt;', 'alternate_names': ['The New Yardbirds']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-clash', 'annotations': {'description': '&lt;p&gt;The Clash were a punk rock band from London, England, United Kingdom, active from 1976 to 1985. One of the most successful and iconic bands from the first wave of punk in the 1970s, they incorporated rock and roll, reggae, rockabilly, and eventually many other music styles into their repertoire. They were legendary for their intense stage performances.&lt;/p&gt;\n\n&lt;p&gt;From their earliest days as a band, The Clash stood apart from their peers; the passionate, left-wing political idealism in the lyrics by frontman Joe Strummer and guitarist Mick Jones contrasted with the nihilism of the Sex Pistols and the simplicity of the Ramones. Their 1979 album &lt;a href="http://rock.genius.com/albums/The-clash/London-calling" rel="noopener" data-api_path="/albums/23097"&gt;&lt;em&gt;London Calling&lt;/em&gt;&lt;/a&gt; is considered by critics as one of the greatest albums in the history of rock music.&lt;/p&gt;', 'alternate_names': ['The Only Band That Matters']}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Incubus_(band)', 'artist_name': 'Incubus', 'wiki': 'http://en.wikipedia.org/wiki/Incubus_(band)', 'hometown': 'http://dbpedia.org/resource/Calabasas,_California', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)'], 'plays_in': ['http://dbpedia.org/resource/Halo_2_Original_Soundtrack', 'http://dbpedia.org/resource/Life_Is_Peachy', 'http://dbpedia.org/resource/MTV_The_Return_of_the_Rock'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Ben_Kenney', 'http://dbpedia.org/resource/Brandon_Boyd', 'http://dbpedia.org/resource/Chris_Kilmore', 'http://dbpedia.org/resource/José_Pasillas', 'http://dbpedia.org/resource/Mike_Einziger'], 'old_members': ['http://dbpedia.org/resource/Alex_Katunich', 'http://dbpedia.org/resource/Gavin_Koppel'], 'related_artists': ['http://dbpedia.org/resource/Alex_Katunich', 'http://dbpedia.org/resource/Ann_Marie_Calhoun', 'http://dbpedia.org/resource/Audiovent', 'http://dbpedia.org/resource/Ben_Kenney', 'http://dbpedia.org/resource/Brandon_Boyd', 'http://dbpedia.org/resource/Chris_Kilmore', 'http://dbpedia.org/resource/Gavin_Koppel', 'http://dbpedia.org/resource/José_Pasillas', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Mike_Einziger', 'http://dbpedia.org/resource/Skrillex'], 'abstract': 'Incubus is an American rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer José Pasillas while enrolled in Calabasas High School and later expanded to include bassist Alex "Dirk Lance" Katunich, and Gavin "DJ Lyfe" Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore, respectively. Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles. After their first two albums, Fungus Amongus (1995) and S.C.I.E.N.C.E. (1997), the band earned mainstream recognition with the release of their 1999 album Make Yourself which spawned several hits, including the band\'s highest charting song "Drive." Success continued with the albums Morning View (2001) and A Crow Left of the Murder... (2004). Their sixth studio album, Light Grenades, debuted at No. 1 in 2006 and was followed by Incubus\'s first greatest hits album Monuments and Melodies in June 2009 and the band\'s 2011 album, If Not Now, When?. Incubus also released an EP, Trust Fall (Side A), in early 2015, and two years later, the band released their eighth studio album, titled 8, on April 21, 2017. A second EP, Trust Fall (Side B), was released on April 17, 2020. Worldwide, Incubus has sold over 19 million albums.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/Elektra_Records'], 'plays_in': ['http://dbpedia.org/resource/Animal_Crackers_(2017_film)'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['http://dbpedia.org/resource/Huey_Lewis', 'http://dbpedia.org/resource/Johnny_Colla', 'Bill Gibson', 'Stef Burns', 'James Harrah', 'John Pierce', 'Sean Hopper'], 'old_members': ['http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'Chris Hayes', 'Mario Cipollina'], 'related_artists': ['http://dbpedia.org/resource/Bill_Schnee', 'http://dbpedia.org/resource/Clover_(band)', 'http://dbpedia.org/resource/Joel_Jaffe', 'http://dbpedia.org/resource/John_McFee__John_McFee__1', 'http://dbpedia.org/resource/Johnny_Colla', 'http://dbpedia.org/resource/Nick_Lowe', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rubicon_(American_band)', 'http://dbpedia.org/resource/Tower_of_Power'], 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/911_(English_group)', 'artist_name': '911', 'wiki': 'http://en.wikipedia.org/wiki/911_(English_group)', 'start_year': '1995', 'end_year': '2000', 'labels': ['http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music'], 'actual_members': ['http://dbpedia.org/resource/Jimmy_Constable', 'http://dbpedia.org/resource/Lee_Brennan', 'http://dbpedia.org/resource/Spike_Dawbarn'], 'related_artists': ['http://dbpedia.org/resource/Jimmy_Constable', 'http://dbpedia.org/resource/Lee_Brennan', 'http://dbpedia.org/resource/Rob_May', 'http://dbpedia.org/resource/Spike_Dawbarn'], 'abstract': '911 (pronounced "nine one one") are an English pop group consisting of Lee Brennan, Jimmy Constable and Simon "Spike" Dawbarn. They were formed in London in 1995 and released their debut single "Night to Remember" in May 1996. This was followed by their debut album The Journey in March 1997, which was certified Gold by the BPI in November 1997. 911 released two more Silver-certified albums, Moving On and There It Is, in 1998 and 1999, respectively. There It Is also produced their only UK number-one single, a cover of "A Little Bit More", which topped the UK Singles Chart in January 1999. In their five years together, 911 scored ten UK top 10 singles. They sold 10 million singles and 6 million albums around the world, and were very popular in South East Asia, where their first two albums went to number one. They announced their split in February 2000. In October 2012, it was announced that 911 would again reunite for the ITV2 reality-documentary series The Big Reunion, along with Atomic Kitten, Liberty X, B*Witched, Five and Honeyz in January 2013. Due to the highly positive reception, the groups went on an arena tour around the UK and Ireland. Their comeback album Illuminate... (The Hits and More) was released on 8 September 2013, along with their comeback single "2 Hearts 1 Love". In early 2014, 911 headlined their own UK tour - The Illuminate: The Hits and More Tour.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/2_Chainz', 'artist_name': '2 Chainz', 'wiki': 'http://en.wikipedia.org/wiki/2_Chainz', 'birth_date': '12 September 1977', 'start_year': '1997', 'related_artists': ['http://dbpedia.org/resource/88Glam', 'http://dbpedia.org/resource/A.Chal', 'http://dbpedia.org/resource/B._Smyth', 'http://dbpedia.org/resource/Bankroll_Fresh', 'http://dbpedia.org/resource/Bobby_Kritical', 'http://dbpedia.org/resource/Booba', 'http://dbpedia.org/resource/DJ_Spinz', 'http://dbpedia.org/resource/Dunlap_Exclusive', 'http://dbpedia.org/resource/Emerson_Windy', 'http://dbpedia.org/resource/Honorable_C.N.O.T.E.', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Skooly', 'http://dbpedia.org/resource/Street_Symphony_(producer)', 'http://dbpedia.org/resource/TQ_(singer)', 'http://dbpedia.org/resource/Tomas_Costanza', 'http://dbpedia.org/resource/Track_Bangas'], 'abstract': 'Tauheed K. Epps (born September 12, 1977), known professionally as 2 Chainz, is an American rapper. Born and raised in College Park, Georgia, he initially gained recognition for being one-half of the Southern hip hop duo Playaz Circle, alongside his longtime friend and fellow rapper Earl "Dolla Boy" Conyers. The duo was signed to fellow Georgia-based rapper Ludacris\' Disturbing tha Peace label, and are best known for their debut single "Duffle Bag Boy" (featuring Lil Wayne). In February 2012, Epps signed a solo record deal with Def Jam Recordings, an imprint of Universal Music Group. The following August, he released his debut studio album Based on a T.R.U. Story on August 14, 2012, to commercial success despite mixed reviews. The album spawned three successful singles: "No Lie" (featuring Drake), "Birthday Song" (featuring Kanye West), and "I\'m Different", all of which charted in the top 50 of the Billboard Hot 100 and were certified Gold or higher by the RIAA, along with the album being certified Gold. His second studio album B.O.A.T.S. II: Me Time was released on September 11, 2013; supported by the lead single "Feds Watching" (featuring Pharrell Williams). Epps began working with TV network Viceland on a show called Most Expensivest, which debuted on November 15, 2017, and aired for three seasons.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/Keane_(band)', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['Alternative rock', 'indie rock', 'neo-psychedelia', 'pop rock', 'post-Britpop', 'soft rock'], 'actual_members': ['http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin'], 'old_members': ['http://dbpedia.org/resource/Dominic_Scott'], 'related_artists': ['http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Dominic_Scott', 'http://dbpedia.org/resource/Ian_Shepherd', 'http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Jesse_Quin_&amp;_The_Mets', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin', 'http://dbpedia.org/resource/Zulu_Winter'], 'abstract': 'Keane are an English alternative rock band from Battle, East Sussex, formed in 1995. They met whilst at Tonbridge School together. The band currently comprises Tom Chaplin (lead vocals, electric/acoustic guitar), Tim Rice-Oxley (piano, synthesisers, bass guitar, backing vocals), Richard Hughes (drums, percussion, backing vocals), and Jesse Quin (bass guitar, acoustic/electric guitar, backing vocals). Their original line-up included founder and guitarist Dominic Scott, who left in 2001. Keane achieved mainstream, international success with the release of their debut album Hopes and Fears in 2004. Topping the UK charts, the album won the 2005 Brit Award for Best British Album and was the second best-selling British album of 2004. It is one of the best-selling albums in UK chart history. Their second album, Under the Iron Sea, released in 2006, topped the UK album charts and debuted at number four on the US Billboard 200. Their third album Perfect Symmetry was released in October 2008. In May 2008, both Hopes and Fears (number 13) and Under the Iron Sea (number 8) were voted by readers of Q magazine as among the best British albums ever, with Keane, The Beatles, Oasis and Radiohead the only artists having two albums in the top 20. In 2009, Hopes and Fears was listed as the ninth best-selling album of the 2000s decade in the UK. Their EP Night Train was released in May 2010. Their fourth studio album Strangeland was released in May 2012 and peaked at number one on the UK Albums Chart. Keane are known for using keyboards as the lead instrument instead of guitar, differentiating them from most other rock bands. The inclusion of a distorted piano effect in 2006 and various synthesisers were a common feature in their music which developed on the second and third albums. Keane have sold over 13 million records worldwide. After the release of their compilation album The Best of Keane in 2013, the band took a hiatus, lasting nearly 5 years. The band returned after the hiatus with new music, announcing their fifth studio album titled Cause and Effect on 6 June 2019 and releasing the lead single from the album "The Way I Feel". A collection of the songs were written by Tim Rice-Oxley during his divorce, and after discussions with Tom who had visited Tim the previous year, decided to proceed with recording the songs for the album. Cause and Effect was released on 20 September 2019. After the release of the album, the band embarked on the Cause and Effect Tour, visiting Europe and Latin America, before the remainder of the tour was postponed due to the COVID-19 pandemic.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bloodhound_Gang', 'artist_name': 'Bloodhound Gang', 'wiki': 'http://en.wikipedia.org/wiki/Bloodhound_Gang', 'hometown': 'http://dbpedia.org/resource/Collegeville,_Pennsylvania', 'start_year': '1988', 'end_year': '2015', 'aliases': ['Bang Chamber 8 (1988–1990)'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Comedy_rock', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Rap_rock'], 'old_members': ['http://dbpedia.org/resource/Bloodhound_Gang', 'See members list article'], 'related_artists': ['http://dbpedia.org/resource/A_(band)', 'http://dbpedia.org/resource/Adam_Perry_(drummer)', 'http://dbpedia.org/resource/Brandon_DiCamillo', 'http://dbpedia.org/resource/Daddy_Long_Legs_(musician)', 'http://dbpedia.org/resource/Daniel_P._Carter', 'http://dbpedia.org/resource/Goldfinger_(band)', 'http://dbpedia.org/resource/Jared_Hasselhoff', 'http://dbpedia.org/resource/Jimmy_Pop', 'http://dbpedia.org/resource/Wolfpac'], 'abstract': 'Bloodhound Gang was an American rock band which began as a hip hop group before branching out into other genres, including punk rock, alternative hip hop, rapcore, funk metal, and electronic rock, as their career progressed. They are best known for their singles "Fire Water Burn", "The Bad Touch", "Foxtrot Uniform Charlie Kilo", "Uhn Tiss Uhn Tiss Uhn Tiss", "The Ballad of Chasey Lain" and a hard rock version of the 1960s pop hit "Along Comes Mary". Formed in 1988, the Bloodhound Gang has sold more than 6 million albums.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Lorde', 'artist_name': 'Lorde', 'wiki': 'http://en.wikipedia.org/wiki/Lorde', 'birth_date': '07 November 1996', 'start_year': '2009', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/The_Hunger_Games:_Mockingjay_–_Part_1'], 'related_artists': ['http://dbpedia.org/resource/Alex_Lilly', 'http://dbpedia.org/resource/Ben_Barter', 'http://dbpedia.org/resource/Frank_Dukes', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Lo-Fang', 'http://dbpedia.org/resource/Malay_(record_producer)', 'http://dbpedia.org/resource/Phoebe_Bridgers__Phoebe_Bridgers__1', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Ray_Suen', 'http://dbpedia.org/resource/Son_Lux', 'http://dbpedia.org/resource/Until_the_Ribbon_Breaks', 'http://dbpedia.org/resource/XOV_(musician)'], 'abstract': 'Ella Marija Lani Yelich-O\'Connor (born 7 November 1996), known professionally as Lorde (/lɔːrd/ LORD), is a New Zealand singer-songwriter. Taking inspiration from aristocracy for her stage name, she is known for employing unconventional musical styles and introspective songwriting. Lorde\'s music is primarily electropop and contains elements of subgenres such as dream pop and indie-electro. Born in the Auckland suburb of Takapuna and raised in neighbouring Devonport, Lorde expressed interest in performing at local venues in her early teens. She signed with Universal Music Group (UMG) in 2009 and collaborated with producer Joel Little in 2011 to start recording material. Initially self-released in 2012 for free download on SoundCloud, UMG commercially released the pair\'s first collaborative effort, an extended play (EP) titled The Love Club, in 2013. The EP\'s international chart-topping single "Royals" helped Lorde rise to prominence. Her debut studio album Pure Heroine was released that same year to critical and commercial success. The following year, Lorde curated the soundtrack for the 2014 film The Hunger Games: Mockingjay – Part 1 and recorded several tracks, including the single "Yellow Flicker Beat". Her second studio album Melodrama (2017) received widespread critical acclaim and debuted atop the US Billboard 200. Lorde\'s accolades include two Grammy Awards, two Brit Awards, and a Golden Globe nomination. She appeared in Time\'s list of the most influential teenagers in 2013 and 2014, and the 2014 edition of Forbes 30 Under 30. In addition to her solo work, she has co-written songs for other artists, including Broods and Bleachers. As of June 2017, Lorde has sold over five million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Calvin_Harris', 'artist_name': 'Calvin Harris', 'wiki': 'http://en.wikipedia.org/wiki/Calvin_Harris', 'birth_date': '17 January 1984', 'start_year': '2002', 'plays_in': ['http://dbpedia.org/resource/We_Found_Love_(music_video)'], 'related_artists': ['http://dbpedia.org/resource/Alana_Haim', 'http://dbpedia.org/resource/Alesso', 'http://dbpedia.org/resource/Ayah_Marar', 'http://dbpedia.org/resource/Dizzee_Rascal', 'http://dbpedia.org/resource/Erin_Beck', 'http://dbpedia.org/resource/Firebeatz', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Jessie_Reyez', 'http://dbpedia.org/resource/John_Newman_(singer)', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/Nicky_Romero', 'http://dbpedia.org/resource/Starrah', 'http://dbpedia.org/resource/Ummet_Ozcan', 'http://dbpedia.org/resource/Wizkid'], 'abstract': 'Adam Richard Wiles (born 17 January 1984), known professionally as Calvin Harris, is a Scottish DJ, record producer, singer, and songwriter. After focusing on self-sung projects, in 2012, Harris released his third album 18 Months, which involved various vocalists in its single records and gained international recognition. He has released five studio albums and at one point ran his own record label, Fly Eye Records, which he founded in 2010 (defunct in 2016). His debut studio album, I Created Disco, was released in June 2007. Its singles "Acceptable in the 80s" and "The Girls" both reached the top 10 in the UK. In 2009, he released his second studio album, Ready for the Weekend, which debuted at number one on the UK Albums Chart and whose lead single, "I\'m Not Alone", became his first song to top the UK Singles Chart. In 2012, Harris rose to international prominence with the release of his third studio album, 18 Months, which topped the UK Albums charts and became his first album to chart on the US Billboard 200, peaking at number 19. All eight of the album\'s singles reached the top 10 in the UK, breaking the record for the most top 10 songs from one studio album on the UK Singles Chart with eight entries, surpassing Michael Jackson\'s record. In 2014, he released his fourth studio album, Motion, which debuted at number two in the UK and number five in the US. In 2017, he released his fifth studio album, Funk Wav Bounces Vol. 1, which reached the top 2 in the UK and the US and became his third consecutive number one album on the US Dance/Electronic Albums chart. In October 2014, he became the first artist to place three songs simultaneously on the top 10 of Billboard\'s Dance/Electronic Songs chart. He also became the first UK solo artist to reach more than one billion streams on Spotify. Harris has received 18 Brit Award nominations–winning British Producer of the Year and British Single of the Year for "One Kiss" with Dua Lipa, both in 2019, as well as five Grammy nominations, including a win for Best Music Video in 2013. In 2013 he also received the Ivor Novello Award for Songwriter of the Year from the British Academy of Songwriters, Composers, and Authors, and was named the Top Dance/Electronic Artist at the 2015 Billboard Music Awards. He appeared on Debrett\'s 2017 list of the most influential people in the United Kingdom. He topped Forbes\' list of the world\'s highest-paid DJs for six consecutive years from 2013 to 2018.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bronski_Beat', 'artist_name': 'Bronski Beat', 'wiki': 'http://en.wikipedia.org/wiki/Bronski_Beat', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1983', 'end_year': '1995', 'labels': ['http://dbpedia.org/resource/London_Recordings'], 'genres': ['http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'actual_members': ['Steve Bronski', 'Ian Donaldson', 'Stephen Granville'], 'old_members': ['http://dbpedia.org/resource/Jimmy_Somerville', 'John Foster', 'Larry Steinbachek', 'Jonathan Hellyer'], 'related_artists': ['http://dbpedia.org/resource/Jimmy_Somerville', 'http://dbpedia.org/resource/Marc_Almond', 'http://dbpedia.org/resource/The_Communards'], 'abstract': 'Bronski Beat were a British synthpop trio which achieved success in the mid-1980s, particularly with the 1984 chart hit "Smalltown Boy", from their debut album The Age of Consent. "Smalltown Boy" was their only US Billboard Hot 100 single. All members of the band were openly gay and their songs reflected this, often containing political commentary on gay-related issues. The initial line-up, which recorded the majority of the band\'s hits, consisted of Jimmy Somerville (vocals), Steve Bronski (born Steven William Forrest, keyboards, percussion) and Larry Steinbachek (keyboards, percussion). Somerville left Bronski Beat in 1985, and went on to have success as lead singer of the Communards and as a solo artist. He was replaced by vocalist John Foster, with whom the band continued to have hits in the UK and Europe through 1986. Foster left Bronski Beat after their second album, and the band used a series of vocalists before dissolving in 1995. Steve Bronski revived the band in 2016, recording new material with 1990s member Ian Donaldson. Steinbachek died later that year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Golden_Earring', 'artist_name': 'Golden Earring', 'wiki': 'http://en.wikipedia.org/wiki/Golden_Earring', 'hometown': 'http://dbpedia.org/resource/Netherlands', 'start_year': '1961', 'end_year': '2021', 'labels': ['http://dbpedia.org/resource/Atco_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/MCA_Records', 'http://dbpedia.org/resource/PolyGram', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Track_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Psychedelic_rock'], 'related_artists': ['http://dbpedia.org/resource/Barry_Hay', 'http://dbpedia.org/resource/Cesar_Zuiderwijk', 'http://dbpedia.org/resource/Chris_Stamp', 'http://dbpedia.org/resource/Eelco_Gelling', 'http://dbpedia.org/resource/George_Kooymans', 'http://dbpedia.org/resource/Kit_Lambert', 'http://dbpedia.org/resource/Robert_Jan_Stips'], 'abstract': 'Golden Earring was a Dutch rock band, founded in 1961 in The Hague as The Golden Earrings. They achieved worldwide fame with their international hit songs "Radar Love" in 1973, which went to number one on the Dutch charts, reached the top ten in the United Kingdom, and went to number thirteen on the United States charts, "Twilight Zone" in 1982, and "When the Lady Smiles" in 1984. During their career they have had nearly 30 top-ten singles on the Dutch charts while releasing 25 studio albums. The band went through a number of early line-up changes, though the band reached a stable line-up in 1970, consisting of Rinus Gerritsen (bass and keyboards), George Kooymans (vocals and guitar), Barry Hay (vocals, guitar, flute and saxophone), and Cesar Zuiderwijk (drums and percussion), which remained unchanged until the band broke up in 2021 following the diagnosis of Kooymans with ALS. A number of other musicians also appeared in short stints with the band over its history as well.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Matthew_Wilder', 'artist_name': 'Matthew Wilder', 'wiki': 'http://en.wikipedia.org/wiki/Matthew_Wilder', 'birth_date': '24 January 1953', 'start_year': '1972', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records'], 'plays_in': ['http://dbpedia.org/resource/Harmonious_(Epcot)', 'http://dbpedia.org/resource/True_North_(2020_film)'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'Matthew Wilder (né Weiner; January 24, 1953) is an American singer, musician, and record producer. In early 1984, his single "Break My Stride" hit No. 2 on the Cash Box chart and No. 5 on the Billboard Hot 100. He also did the singing voice for Ling in the Disney animated feature film Mulan and wrote the music for the songs featured in the movie.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/OK_Go', 'artist_name': 'OK Go', 'wiki': 'http://en.wikipedia.org/wiki/OK_Go', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI', 'http://dbpedia.org/resource/Paracadute'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Andy_Ross', 'http://dbpedia.org/resource/Damian_Kulash', 'Tim Nordwind', 'Dan Konopka'], 'old_members': ['Andy Duncan'], 'related_artists': ['http://dbpedia.org/resource/Andy_Ross', 'http://dbpedia.org/resource/Damian_Kulash', 'http://dbpedia.org/resource/Debate_Team_(band)', 'http://dbpedia.org/resource/LiliAna_Rose', 'http://dbpedia.org/resource/The_Churchills_(American_band)', 'http://dbpedia.org/resource/The_Family_Crest', 'http://dbpedia.org/resource/The_Hard_Lessons'], 'abstract': 'OK Go is an American rock band originally from Chicago, Illinois, now based in Los Angeles, California. The band is composed of Damian Kulash (lead vocals, guitar), Tim Nordwind (bass guitar and vocals), Dan Konopka (drums and percussion), and Andy Ross (guitar, keyboards and vocals), who joined them in 2005, replacing Andy Duncan. The band is known for its often quirky and elaborate one-take music videos. The original members formed as OK Go in 1998 and released two studio albums before Duncan\'s departure. The band\'s video for "Here It Goes Again" won a Grammy Award for Best Music Video in 2007.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Blondie_(band)', 'artist_name': 'Blondie', 'wiki': 'http://en.wikipedia.org/wiki/Blondie_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1974', 'end_year': '1982', 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Private_Stock_Records', 'http://dbpedia.org/resource/Sanctuary_Records', 'http://dbpedia.org/resource/Sire_Records'], 'plays_in': ['http://dbpedia.org/resource/American_Gigolo'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Reggae', 'New wave'], 'actual_members': ['http://dbpedia.org/resource/Chris_Stein', 'http://dbpedia.org/resource/Clem_Burke', 'http://dbpedia.org/resource/Debbie_Harry', 'http://dbpedia.org/resource/Matt_Katz-Bohen', 'http://dbpedia.org/resource/Tommy_Kessler', 'Leigh Foxx'], 'old_members': ['http://dbpedia.org/resource/Frank_Infante', 'http://dbpedia.org/resource/Fred_Smith_(bassist)', 'http://dbpedia.org/resource/Gary_Lachman', 'http://dbpedia.org/resource/Ivan_Král', 'http://dbpedia.org/resource/Jimmy_Destri', 'http://dbpedia.org/resource/Nigel_Harrison', "http://dbpedia.org/resource/The_Billy_O'Connor_Show"], 'related_artists': ['http://dbpedia.org/resource/Chequered_Past'], 'abstract': 'Blondie is an American rock band co-founded by singer Debbie Harry and guitarist Chris Stein. The band was a pioneer in the American new wave scene of the mid-1970s in New York. Their first two albums contained strong elements of these genres, and although highly successful in the United Kingdom and Australia, Blondie was regarded as an underground band in the United States until the release of Parallel Lines in 1978. Over the next five years, the band achieved several hit singles including "Heart of Glass", "Call Me", "Atomic", "The Tide Is High", and “Rapture”. The band became noted for its eclectic mix of musical styles, incorporating elements of disco, pop, reggae, and early rap music. Blondie disbanded after the release of its sixth studio album, The Hunter, in 1982. Debbie Harry continued to pursue a solo career with varied results after taking a few years off to care for partner Chris Stein, who was diagnosed with pemphigus, a rare autoimmune disease of the skin. The band re-formed in 1997, achieving renewed success and a number one single in the United Kingdom with "Maria" in 1999, exactly 20 years after their first UK No. 1 single ("Heart of Glass"). The group toured and performed throughout the world during the following years, and was inducted into the Rock and Roll Hall of Fame in 2006. Blondie has sold around 40 million records worldwide and is still active. The band\'s eleventh studio album, Pollinator, was released on May 5, 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Rembrandts', 'artist_name': 'The Rembrandts', 'wiki': 'http://en.wikipedia.org/wiki/The_Rembrandts', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1997', 'labels': ['http://dbpedia.org/resource/Atco_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Blue_Élan_Records', 'http://dbpedia.org/resource/East_West_Records', 'http://dbpedia.org/resource/Fuel_2000'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Jangle_pop', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Danny_Wilde_(musician)', 'http://dbpedia.org/resource/Dave_Schulz_(musician)', 'http://dbpedia.org/resource/Pat_Mastelotto', "http://dbpedia.org/resource/The_Three_O'Clock"], 'abstract': 'The Rembrandts are an American pop rock duo, formed by Danny Wilde and Phil Solem in 1989. They had previously worked together as members of Great Buildings in 1981. The Rembrandts are best known for the song "I\'ll Be There for You", which was used as the main theme song for the NBC sitcom Friends.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Baltimora', 'artist_name': 'Baltimora', 'wiki': 'http://en.wikipedia.org/wiki/Baltimora', 'hometown': 'http://dbpedia.org/resource/Milan', 'start_year': '1984', 'end_year': '1987', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI'], 'genres': ['http://dbpedia.org/resource/Italo_disco', 'http://dbpedia.org/resource/New_wave_music'], 'old_members': ['http://dbpedia.org/resource/Jimmy_McShane'], 'abstract': 'Baltimora was an Italian music project from Milan, active from 1984 to 1987. They are best known for their 1985 single "Tarzan Boy" and are often considered a one-hit wonder in the United Kingdom and the United States due to the song\'s success compared to their other singles. In other European countries, including their native Italy, Baltimora enjoyed more success.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Liquido', 'artist_name': 'Liquido', 'wiki': 'http://en.wikipedia.org/wiki/Liquido', 'hometown': 'http://dbpedia.org/resource/Sinsheim', 'start_year': '1996', 'end_year': '2009', 'labels': ['http://dbpedia.org/resource/Nuclear_Blast', 'http://dbpedia.org/resource/Seven_Music', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Rock_music'], 'actual_members': ['http://dbpedia.org/resource/Stefan_Schulte-Holthaus', 'http://dbpedia.org/resource/Tim_Eiermann', 'http://dbpedia.org/resource/Wolfgang_Schrödl', 'http://dbpedia.org/resource/Wolle_Maier'], 'related_artists': ['http://dbpedia.org/resource/Gut_(band)', 'http://dbpedia.org/resource/Pyogenesis'], 'abstract': 'Liquido was a German rock band formed in Sinsheim, Germany, in 1996 by four friends: Wolle Maier (drums, programming), Wolfgang Schrödl (vocals, guitar, keyboard, piano), Stefan Schulte-Holthaus (bass) and Tim Eiermann (vocals, guitar).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sum_41', 'artist_name': 'Sum 41', 'wiki': 'http://en.wikipedia.org/wiki/Sum_41', 'hometown': 'http://dbpedia.org/resource/Ajax,_Ontario', 'start_year': '1996', 'aliases': ['Kaspir (1996)', 'Pain for Pleasure'], 'labels': ['http://dbpedia.org/resource/Aquarius_Records_(Canada)', 'http://dbpedia.org/resource/Hopeless_Records', 'http://dbpedia.org/resource/Island_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Melodic_hardcore', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Skate_punk', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Deryck_Whibley', 'http://dbpedia.org/resource/Frank_Zummo', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Tom_Thacker_(musician)'], 'old_members': ['http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Steve_Jocz', 'Jon Marshall', 'Richard Roy'], 'related_artists': ['http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brown_Brigade', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Darrin_Pfeiffer', 'http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Fonzie_(band)__Fonzie__1', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greig_Nori', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Marc_Costanzo', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Hyde', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Organ_Thieves', 'http://dbpedia.org/resource/Permanent_Me', 'http://dbpedia.org/resource/Street_Drum_Corps', 'http://dbpedia.org/resource/The_Operation_M.D.', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Treble_Charger'], 'abstract': 'Sum 41 is a Canadian rock band from Ajax, Ontario. Originally called Kaspir, the band was formed in 1996 and currently consists of Deryck Whibley (lead vocals, guitars, keyboards), Dave Baksh (lead guitar, backing vocals), Jason "Cone" McCaslin (bass, backing vocals), Tom Thacker (guitars, keyboards, backing vocals), and Frank Zummo (drums, occasional backing vocals). In 1999, Sum 41 signed an international record deal with Island Records and released its first EP, Half Hour of Power, in 2000. The band released its debut album, All Killer No Filler, in 2001. The album achieved mainstream success with its first single, "Fat Lip", which reached number one on the Billboard Modern Rock Tracks chart and remains the band\'s most successful single to date. The album\'s next singles "In Too Deep" and "Motivation" also achieved commercial success. All Killer No Filler was certified platinum in both the United States and the United Kingdom and triple platinum in Canada. In 2002, the band released Does This Look Infected?, which was also a commercial and critical success. The singles "The Hell Song" and "Still Waiting" both charted highly on the modern rock charts. The band released its next album, Chuck, in 2004, led by singles "We\'re All to Blame" and "Pieces". The album proved successful, peaking at number 10 on the Billboard 200. In 2007, the band released Underclass Hero, which was met with a mixed reception, but gained some commercial success, becoming the band\'s highest charting album to date. It was also the band\'s last album on Aquarius Records. The band released the album Screaming Bloody Murder, on Island Records in 2011 to a generally positive reception, though it fell short of its predecessors\' commercial success. The band\'s sixth studio album, 13 Voices was released in 2016. IMPALA awarded the album with a double gold award for 150,000 sold copies across Europe. The band\'s seventh studio album Order in Decline was released on July 19, 2019. The band often performs more than 300 times each year and holds long global tours, most of which last more than a year. The group have been nominated for seven Juno Awards and won twice – Group of the Year in 2002, and Rock Album of the Year for Chuck in 2005. Sum 41 was nominated for a Grammy Award for Best Hard Rock/Metal Performance for the song "Blood in My Eyes". From their formation to 2016, Sum 41 were the 31st best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tokio_Hotel', 'artist_name': 'Tokio Hotel', 'wiki': 'http://en.wikipedia.org/wiki/Tokio_Hotel', 'hometown': 'http://dbpedia.org/resource/Magdeburg', 'start_year': '2001', 'labels': ['http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Starwatch_Music', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Emo', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Pop_rock', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Bill_Kaulitz', 'Georg Listing', 'Gustav Schäfer', 'Tom Kaulitz'], 'related_artists': ['http://dbpedia.org/resource/Bill_Kaulitz', 'http://dbpedia.org/resource/Bruce_Watson_(American_guitarist)', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Joacim_Persson', 'http://dbpedia.org/resource/The_Dreams'], 'abstract': 'Tokio Hotel is a German rock band, founded in 2001 by singer Bill Kaulitz, guitarist Tom Kaulitz, drummer Gustav Schäfer, and bassist Georg Listing. Their sound encompasses multiple genres, including pop rock, alternative rock, and electronic rock. They have had four number one singles and have released three number one albums in their native country. The band has sold more than 10 million records worldwide.After recording an unreleased demo-album under the name "Devilish" and having their contract with Sony BMG Germany terminated, the band released their first German-language album, Schrei, as Tokio Hotel on Universal Music Germany in 2005. Schrei sold more than half-a-million copies worldwide and spawned four top-five singles in both Germany and Austria. In 2007, the band released their second German-language album, Zimmer 483, and their first English-language album, Scream, which have combined album sales of over 2.5 million copies worldwide and helped win the band their first MTV Europe Music Award for Best InterAct. The former, Zimmer 483, spawned three top-five singles in Germany while the latter, Scream, spawned two singles that reached the top-twenty in new territories such as France, Portugal, Spain and Italy. In September 2008, they won their first MTV Video Music Award, for Best New Artist. Tokio Hotel became the first German band ever to win an award at the MTV VMAs and to also win awards at the MTV Latin America Awards. They also picked up the Headliner award at the MTV Europe Music Awards 2008 and the award for Best Group at the MTV Europe Music Awards 2009. They won for Best World Stage Performance on 7 November 2010 at the MTV Europe Music Awards in Madrid. In July 2011, they became the first German band to win an award at the MTV Video Music Awards Japan. Their most recent work is the album Dream Machine, released in early 2017, which was received with mixed reviews.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alanis_Morissette', 'artist_name': 'Alanis Morissette', 'wiki': 'http://en.wikipedia.org/wiki/Alanis_Morissette', 'birth_date': '01 June 1974', 'start_year': '1986', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Jagged_Little_Pill_(musical)', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'related_artists': ['http://dbpedia.org/resource/Belén_Arjona', 'http://dbpedia.org/resource/Boyd_Tinsley', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Eric_Avery', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Guy_Sigsworth', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Matt_Laug', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Peter_Freeman_(musician)', 'http://dbpedia.org/resource/Remy_Zero', 'http://dbpedia.org/resource/Richard_F._W._Davis', 'http://dbpedia.org/resource/Souleye_(hip_hop_artist)', 'http://dbpedia.org/resource/Taylor_Hawkins', 'http://dbpedia.org/resource/Tim_Thorney', 'http://dbpedia.org/resource/Zac_Rae'], 'abstract': 'Alanis Nadine Morissette (/əˈlɑːnɪs ˌmɒrɪˈsɛt/ ə-LAH-niss MORR-ih-SET; born June 1, 1974) is a Canadian-American musician, singer, songwriter and actress. Known for her emotive mezzo-soprano voice, Morissette began her career in Canada in the early 1990s with two mildly successful dance-pop albums. Afterward, as part of a recording deal, she moved to Holmby Hills, Los Angeles. In 1995, she released Jagged Little Pill, a more rock-oriented album which sold more than 33 million copies globally and is her most critically acclaimed work to date. This was made into a rock musical of the same name in 2017, which earned 15 Tony Award nominations including Best Musical. Her more experimental follow-up album, electronic-infused Supposed Former Infatuation Junkie, was released in 1998. Morissette assumed creative control and producing duties for her subsequent studio albums, including Under Rug Swept (2002), So-Called Chaos (2004), Flavors of Entanglement (2008), and Havoc and Bright Lights (2012). Her ninth album, Such Pretty Forks in the Road, was released in 2020. Morissette has sold more than 75 million records worldwide and has been dubbed the "Queen of Alt-Rock Angst" by Rolling Stone.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Grandmaster_Flash', 'artist_name': 'Grandmaster Flash', 'wiki': 'http://en.wikipedia.org/wiki/Grandmaster_Flash', 'hometown': 'http://dbpedia.org/resource/The_Bronx', 'birth_date': '01 January 1958', 'start_year': '1978', 'labels': ['http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Enjoy_Records', 'http://dbpedia.org/resource/Sugar_Hill_Records_(hip_hop_label)'], 'genres': ['http://dbpedia.org/resource/Breakbeat', 'http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Old-school_hip_hop'], 'related_artists': ['http://dbpedia.org/resource/DJ_Kool_Herc', 'http://dbpedia.org/resource/Grandmaster_Flash_and_the_Furious_Five', 'http://dbpedia.org/resource/Herbert_Munkhammar', 'http://dbpedia.org/resource/Princess_Superstar', 'http://dbpedia.org/resource/The_Sugarhill_Gang'], 'abstract': 'Joseph Saddler (born January 1, 1958), popularly known by his stage name Grandmaster Flash, is a Barbadian-American DJ and rapper. He is considered to be one of the pioneers of hip hop DJing, cutting, scratching and mixing. Grandmaster Flash and the Furious Five were inducted into the Rock and Roll Hall of Fame in 2007, becoming the first hip hop act to be honored. In 2019 he won the Polar Music Prize.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Janet_Jackson', 'artist_name': 'Janet Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Janet_Jackson', 'birth_date': '16 May 1966', 'start_year': '1973', 'plays_in': ['http://dbpedia.org/resource/Rhythm_Nation_(music_video)'], 'related_artists': ['http://dbpedia.org/resource/Adam_Blackstone', 'http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Chuckii_Booker', 'http://dbpedia.org/resource/Dem_Jointz', 'http://dbpedia.org/resource/Ethan_Farmer', 'http://dbpedia.org/resource/Harmony_Samuels', 'http://dbpedia.org/resource/Herb_Alpert', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jesse_Johnson_(musician)', 'http://dbpedia.org/resource/Jimmy_Jam_and_Terry_Lewis', 'http://dbpedia.org/resource/John_Philip_Shenale', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/Kaydean', 'http://dbpedia.org/resource/Kevin_L._Evans', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Lisa_Taylor_(R&amp;B_singer)', 'http://dbpedia.org/resource/MN8', 'http://dbpedia.org/resource/Manuel_Seal', "http://dbpedia.org/resource/Meli'sa_Morgan", 'http://dbpedia.org/resource/Michaela_Shiloh', 'http://dbpedia.org/resource/Morris_Pleasure', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/René_&amp;_Angela', 'http://dbpedia.org/resource/René_Moore', 'http://dbpedia.org/resource/Rob_Chiarelli', 'http://dbpedia.org/resource/Rockwilder', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Shep_Pettibone', 'http://dbpedia.org/resource/Stokley_Williams', 'http://dbpedia.org/resource/The_Trak_Starz', 'http://dbpedia.org/resource/Tommy_Organ'], 'abstract': 'Janet Damita Jo Jackson (born May 16, 1966) is an American singer, songwriter, actress, and dancer. She is noted for her innovative, socially conscious and sexually provocative records, as well as elaborate stage shows. Her sound and choreography became a catalyst in the growth of MTV, enabling her to rise to prominence while breaking gender and racial barriers in the process. Lyrical content which focused on social issues set her reputation as a role model for youth. The tenth and youngest child of the Jackson family, she began her career with the variety television series The Jacksons in 1976 and went on to appear in other television shows throughout the 1970s and early 1980s, including Good Times, Diff\'rent Strokes, and Fame. After signing a recording contract with A&amp;M Records in 1982, she became a pop icon following the release of her third and fourth studio albums Control (1986) and Rhythm Nation 1814 (1989). Her collaborations with record producers Jimmy Jam and Terry Lewis incorporated elements of rhythm and blues, funk, disco, rap, and industrial beats, which led to crossover success in popular music. In 1991, Jackson signed the first of two record-breaking multimillion-dollar contracts with Virgin Records, establishing her as one of the highest-paid artists in the industry. Prior to her first studio project with Virgin, she appeared in her first of several lead film roles in Poetic Justice (1993). Her two studio albums which followed, Janet (1993) and The Velvet Rope (1997), saw her develop a public image as a sex symbol. These records, along with their promotional music videos and live performances in concert tours, branded Jackson as one of the world\'s most erotic performers, garnering both criticism and praise. By the end of the 1990s, she was named by Billboard magazine as the second most successful recording artist of the decade after Mariah Carey. The release of her seventh studio album All for You in 2001 coincided with a celebration of her impact on the recording industry as the subject of the inaugural MTV Icon special. The backlash from the 2004 Super Bowl XXXVIII halftime show controversy resulted in an industry blacklisting under the direction of Les Moonves, then-CEO of CBS Corporation. Jackson subsequently experienced reduced radio airplay, televised promotion and sales figures from that point forward. After parting ways with Virgin Records, she released her tenth studio album Discipline (2008), her first and only album with Island Records. In 2015, she partnered with BMG Rights Management to launch her own record label, Rhythm Nation and released her eleventh studio album Unbreakable the same year. Since then she has continued to release music as an independent artist. Having sold over 100 million records, Jackson is one of the world\'s best-selling music artists. She has amassed an extensive catalog, with singles such as "Nasty", "Rhythm Nation", "That\'s the Way Love Goes", "Together Again", and "All for You"; she holds the record for the most consecutive top-ten entries on the US Billboard Hot 100 singles chart with 18. She is also the only artist in the history of the chart to have seven commercial singles from one album (Rhythm Nation 1814) peak within the top five positions. In 2008, Billboard placed her number seven on its list of the Hot 100 All-Time Top Artists, and in 2010 ranked her fifth among the "Top 50 R&amp;B/Hip-Hop Artists of the Past 25 Years". In December 2016, the magazine named her the second most successful dance club artist after Madonna. One of the world\'s most awarded artists, her accolades include five Grammy Awards, eleven Billboard Music Awards, eleven American Music Awards, a star on the Hollywood Walk of Fame, and eight Guinness World Records entries. In 2019, she was inducted to the Rock and Roll Hall of Fame. Jackson has been cited as an inspiration among numerous performers and credited with elevating a standard of sound, showmanship and sex appeal expected of pop stars.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Junkie_XL', 'artist_name': 'Junkie XL', 'wiki': 'http://en.wikipedia.org/wiki/Junkie_XL', 'birth_date': '08 December 1967', 'start_year': '1988', 'aliases': ['JXL', 'Junkie XL'], 'labels': ['http://dbpedia.org/resource/Nettwerk', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Ultra_Music'], 'plays_in': ['http://dbpedia.org/resource/300:_Rise_of_an_Empire', 'http://dbpedia.org/resource/Alita:_Battle_Angel', 'http://dbpedia.org/resource/Alita:_Battle_Angel__Alita:_Battle_Angel__1', 'http://dbpedia.org/resource/Army_of_the_Dead', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Black_Mass_(film)', 'http://dbpedia.org/resource/Blind_(2007_film)', 'http://dbpedia.org/resource/Brimstone_(2016_film)', 'http://dbpedia.org/resource/Bringing_Up_Bobby_(2011_film)', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive', 'http://dbpedia.org/resource/DOA:_Dead_or_Alive__DOA:_Dead_or_Alive__1', 'http://dbpedia.org/resource/Deadpool_(film)', 'http://dbpedia.org/resource/Deadpool_(film)__Deadpool__1', 'http://dbpedia.org/resource/Divergent_(film)', 'http://dbpedia.org/resource/God_of_War_II', 'http://dbpedia.org/resource/Godzilla_vs._Kong', 'http://dbpedia.org/resource/Kill_Your_Friends_(film)', 'http://dbpedia.org/resource/Mad_Max:_Fury_Road', 'http://dbpedia.org/resource/Mortal_Engines_(film)', 'http://dbpedia.org/resource/New_Kids_Turbo', 'http://dbpedia.org/resource/Paranoia_(2013_film)', 'http://dbpedia.org/resource/Point_Break_(2015_film)', 'http://dbpedia.org/resource/Run_All_Night_(film)', 'http://dbpedia.org/resource/Scoob!', 'http://dbpedia.org/resource/Siberia_(1998_film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_(film)', 'http://dbpedia.org/resource/Sonic_the_Hedgehog_2_(film)', 'http://dbpedia.org/resource/Spectral', 'http://dbpedia.org/resource/Terminator:_Dark_Fate', 'http://dbpedia.org/resource/The_355', 'http://dbpedia.org/resource/The_Amazing_Spider-Man_2', 'http://dbpedia.org/resource/The_Animatrix', 'http://dbpedia.org/resource/The_Dark_Tower_(2017_film)', 'http://dbpedia.org/resource/The_Happy_Housewife', 'http://dbpedia.org/resource/The_Heineken_Kidnapping', 'http://dbpedia.org/resource/Three_Thousand_Years_of_Longing', 'http://dbpedia.org/resource/Tomb_Raider_(film)', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League"], 'genres': ['http://dbpedia.org/resource/Big_beat', 'http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Film_score', 'http://dbpedia.org/resource/Trance_music', 'electronic', 'trance'], 'related_artists': ['http://dbpedia.org/resource/Hans_Zimmer', 'http://dbpedia.org/resource/Kēvens', 'http://dbpedia.org/resource/Man_with_a_Mission', 'http://dbpedia.org/resource/Remote_Control_Productions_(American_company)'], 'abstract': 'Tom Holkenborg (born 8 December 1967), also known by his stage name Junkie XL or occasionally JXL, is a Dutch composer, multi-instrumentalist, DJ, producer, and engineer. Originally known for his trance productions, he has moved to producing electronica and big beat music and film scores. His remix of Elvis Presley\'s "A Little Less Conversation" became a worldwide hit in 2002. In film scores, he has worked with Hans Zimmer and his company Remote Control Productions on Man of Steel and Batman v Superman: Dawn of Justice, as well as composing the scores for Zack Snyder\'s Justice League, Divergent, Mad Max: Fury Road, Deadpool, Tomb Raider, Alita: Battle Angel, Terminator: Dark Fate, Sonic the Hedgehog, Scoob!, Godzilla vs. Kong and Army of the Dead.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Radiohead', 'artist_name': 'Radiohead', 'wiki': 'http://en.wikipedia.org/wiki/Radiohead', 'hometown': 'http://dbpedia.org/resource/Oxfordshire', 'start_year': '1985', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Hostess_Entertainment', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/TBD_Records', 'http://dbpedia.org/resource/XL_Recordings'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', "http://dbpedia.org/resource/How_to_Let_Go_of_the_World_and_Love_All_the_Things_Climate_Can't_Change", 'http://dbpedia.org/resource/I_Come_with_the_Rain', 'http://dbpedia.org/resource/Meeting_People_Is_Easy', 'http://dbpedia.org/resource/No_Pressure_(film)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Experimental_rock'], 'actual_members': ['http://dbpedia.org/resource/Colin_Greenwood', "http://dbpedia.org/resource/Ed_O'Brien", 'http://dbpedia.org/resource/Jonny_Greenwood', 'http://dbpedia.org/resource/Philip_Selway', 'http://dbpedia.org/resource/Thom_Yorke'], 'related_artists': ['http://dbpedia.org/resource/7_Worlds_Collide', 'http://dbpedia.org/resource/Atoms_for_Peace_(band)', 'http://dbpedia.org/resource/Blind_Mr._Jones', 'http://dbpedia.org/resource/Colin_Greenwood', "http://dbpedia.org/resource/Ed_O'Brien", 'http://dbpedia.org/resource/Humphrey_Lyttelton', 'http://dbpedia.org/resource/James_Lavelle__James_Lavelle__1', 'http://dbpedia.org/resource/Jonathan_Morali', 'http://dbpedia.org/resource/Nigel_Godrich', 'http://dbpedia.org/resource/Philip_Selway', 'http://dbpedia.org/resource/Spirits_and_the_Melchizedek_Children', 'http://dbpedia.org/resource/The_Smile_(band)', 'http://dbpedia.org/resource/Thom_Yorke', 'http://dbpedia.org/resource/Unkle'], 'abstract': 'Radiohead are an English rock band formed in Abingdon, Oxfordshire, in 1985. The band consists of Thom Yorke (vocals, guitar, piano, keyboards), brothers Jonny Greenwood (lead guitar, keyboards, other instruments) and Colin Greenwood (bass), Ed O\'Brien (guitar, backing vocals) and Philip Selway (drums, percussion). They have worked with producer Nigel Godrich and cover artist Stanley Donwood since 1994. Radiohead\'s experimental approach is credited with advancing the sound of alternative rock. After signing to EMI in 1991, Radiohead released their debut single, "Creep", in 1992. It became a worldwide hit after the release of their debut album, Pablo Honey (1993). Their popularity and critical standing rose with the release of their second album, The Bends (1995). Radiohead\'s third album, OK Computer (1997), brought them international fame; noted for its complex production and themes of modern alienation, it is acclaimed as a landmark record and one of the best albums in popular music. Kid A (2000) marked a dramatic change in style, incorporating influences from electronic music, jazz, classical music and krautrock. Though Kid A divided listeners, it later attracted wide acclaim. It was followed by Amnesiac (2001), recorded in the same sessions. Hail to the Thief (2003), with lyrics inspired by the War on Terror, was Radiohead\'s final album for EMI. Their subsequent releases have pioneered alternative release platforms such as pay-what-you-want and BitTorrent; Radiohead self-released their seventh album, In Rainbows (2007), as a download for which customers could set their own price, to critical and chart success. Their eighth album, The King of Limbs (2011), an exploration of rhythm, was developed using extensive looping and sampling. A Moon Shaped Pool (2016) prominently featured Jonny Greenwood\'s orchestral arrangements. Yorke, Jonny Greenwood, Selway and O\'Brien have released solo albums; in 2021, Yorke and Greenwood debuted a new band, the Smile. As of 2011, Radiohead have sold more than 30 million albums worldwide. Their awards include six Grammy Awards and four Ivor Novello Awards. Seven Radiohead singles have reached the top 10 on the UK Singles Chart: "Creep" (1992), "Street Spirit (Fade Out)" (1996), "Paranoid Android" (1997), "Karma Police" (1997), "No Surprises" (1998), "Pyramid Song" (2001) and "There There" (2003). "Creep" and "Nude" (2008) reached the top 40 on the US Billboard Hot 100. Rolling Stone named Radiohead one of the 100 greatest artists of all time, and Rolling Stone readers voted them the second-best artist of the 2000s. Five Radiohead albums have been included in Rolling Stone\'s 500 Greatest Albums of All Time lists, and the band are the most nominated act in Mercury Prize history, with five nominations. They were inducted into the Rock and Roll Hall of Fame in 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tom_Jones_(singer)', 'artist_name': 'Tom Jones', 'wiki': 'http://en.wikipedia.org/wiki/Tom_Jones_(singer)', 'birth_date': '07 June 1940', 'start_year': '1963', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Decca_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Jive_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/S-Curve_Records', 'http://dbpedia.org/resource/V2_Records', 'http://dbpedia.org/resource/Virgin_EMI_Records'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Gospel_music', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Soul_music', 'Pop'], 'related_artists': ['http://dbpedia.org/resource/Alberto_Naranjo', 'http://dbpedia.org/resource/Aled_Richards', 'http://dbpedia.org/resource/André_Cymone', 'http://dbpedia.org/resource/Bill_Price_(record_producer)', 'http://dbpedia.org/resource/Chris_Slade', 'http://dbpedia.org/resource/Chris_Whitten', 'http://dbpedia.org/resource/Darlene_Love', 'http://dbpedia.org/resource/Jamie_Moses', 'http://dbpedia.org/resource/Jerry_Lee_Lewis', 'http://dbpedia.org/resource/John_Farnham', 'http://dbpedia.org/resource/John_Haeny', 'http://dbpedia.org/resource/John_Rostill', 'http://dbpedia.org/resource/Johnny_Bristol', 'http://dbpedia.org/resource/Johnny_Harris_(musician)', 'http://dbpedia.org/resource/Leanne_Mitchell__Leanne_Mitchell__1', 'http://dbpedia.org/resource/Mickey_Gee', 'http://dbpedia.org/resource/Mim_Grey', 'http://dbpedia.org/resource/Mousse_T.', 'http://dbpedia.org/resource/Quiet_Elegance', 'http://dbpedia.org/resource/Ray_Weston', 'http://dbpedia.org/resource/Shelly_Clark', 'http://dbpedia.org/resource/Steve_Greenberg_(record_producer)', 'http://dbpedia.org/resource/Tommy_Vig', 'http://dbpedia.org/resource/Vic_Flick'], 'abstract': 'Sir Thomas John Woodward OBE (born 7 June 1940), known professionally as Tom Jones, is a Welsh singer. His career began with a string of top-ten hits in the mid-1960s. He has toured regularly, with appearances in Las Vegas (1967–2011). Jones\'s voice has been described by AllMusic as a "full-throated, robust baritone". His performing range has included pop, R&amp;B, show tunes, country, dance, soul and gospel. In 2008, the New York Times called Jones a musical "shape shifter", who could "slide from soulful rasp to pop croon, with a voice as husky as it was pretty". Jones has sold over 100 million records, with 36 Top 40 hits in the UK and 19 in the US, including "It\'s Not Unusual", "What\'s New Pussycat?", the theme song for the 1965 James Bond film Thunderball, "Green, Green Grass of Home", "Delilah", "She\'s a Lady", "Kiss" and "Sex Bomb". Jones has also occasionally dabbled in acting, first making his acting debut playing the lead role in the 1979 television film Pleasure Cove. He also appeared as himself in Tim Burton\'s 1996 film Mars Attacks!. In 1970 he received a Golden Globe Award for Best Actor – Television Series Musical or Comedy nomination for hosting the television series This Is Tom Jones. In 2012, he played his first dramatic acting role in an episode of Playhouse Presents. Jones received a Grammy Award for Best New Artist in 1966, an MTV Video Music Award in 1989, as well as two Brit Awards: Best British Male in 2000 and the Outstanding Contribution to Music award in 2003. Jones was appointed Officer of the Order of the British Empire (OBE) in 1998 and knighted by Queen Elizabeth II for services to music in 2005. Jones experienced a resurgence in notability in the 2010s due to his coaching role on the television talent show The Voice UK from 2012 (with the exception of 2016).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bounty_Killer', 'artist_name': 'Bounty Killer', 'wiki': 'http://en.wikipedia.org/wiki/Bounty_Killer', 'hometown': 'http://dbpedia.org/resource/Kingston,_Jamaica', 'birth_date': '12 June 1972', 'start_year': '1992', 'aliases': ['Warlord', 'Five Star General', 'Ghetto Gladiator', "Poor People's Governor"], 'labels': ['http://dbpedia.org/resource/TVT_Records', 'http://dbpedia.org/resource/VP_Records'], 'genres': ['http://dbpedia.org/resource/Dancehall', 'http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Busy_Signal', 'http://dbpedia.org/resource/Cutty_Ranks', 'http://dbpedia.org/resource/Dave_Kelly_(producer)', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Kalado', 'http://dbpedia.org/resource/Merchant_(reggae_artist)', 'http://dbpedia.org/resource/Stonebwoy', 'http://dbpedia.org/resource/Tommy_Lee_Sparta', 'http://dbpedia.org/resource/Wayne_Marshall_(deejay)'], 'abstract': 'Rodney Basil Price (born 12 June 1972), known as Bounty Killer, is a Jamaican reggae and dancehall deejay. AllMusic describes him as "one of the most aggressive dancehall stars of the \'90s, a street-tough rude boy with an unrepentant flair for gun talk". He is considered one of the best dancehall lyricists of all-time.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Niall_Horan', 'artist_name': 'Niall Horan', 'wiki': 'http://en.wikipedia.org/wiki/Niall_Horan', 'birth_date': '13 September 1993', 'start_year': '2010', 'related_artists': ['http://dbpedia.org/resource/Ashe_(singer)', 'http://dbpedia.org/resource/Dan_Bryer', 'http://dbpedia.org/resource/Eskeerdo', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Mike_Needle', 'http://dbpedia.org/resource/TMS_(production_team)', 'http://dbpedia.org/resource/Teddy_Geiger'], 'abstract': 'Niall James Horan (/ˈnaɪəl ˈhɒrən/; born 13 September 1993) is an Irish singer and songwriter. He rose to prominence as a member of the English-Irish boy band One Direction, formed in 2010 on the British singing competition The X Factor. The group released five albums and went on to become one of the best-selling boy bands of all time. Following the band\'s hiatus in 2016, Horan signed a recording deal as a solo artist with Capitol Records. Horan\'s debut solo album, Flicker (2017), debuted at number one in Ireland and the US, and reached the top three in Australia and the UK. The album\'s first two singles, "This Town" and "Slow Hands", reached the top twenty in several countries. Horan\'s second studio album, Heartbreak Weather, was released in March 2020 and debuted at number four in the US and number one in the UK, Ireland, and Mexico.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Joan_Osborne', 'artist_name': 'Joan Osborne', 'wiki': 'http://en.wikipedia.org/wiki/Joan_Osborne', 'birth_date': '08 July 1962', 'start_year': '1989', 'labels': ['http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/PolyGram', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Blues', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Folk_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Katie_Knipp', 'http://dbpedia.org/resource/Lily_Mae', 'http://dbpedia.org/resource/Phil_Lesh_and_Friends', 'http://dbpedia.org/resource/The_Dead_(band)', 'http://dbpedia.org/resource/The_Holmes_Brothers', 'http://dbpedia.org/resource/The_Hooters', 'http://dbpedia.org/resource/Trigger_Hippy'], 'abstract': 'Joan Elizabeth Osborne (born July 8, 1962) is an American singer, songwriter, and interpreter of music, having recorded and performed in various popular American musical genres including rock, pop, soul, R&amp;B, blues, and country. She is best known for her recording of the Eric Bazilian-penned song "One of Us" from her debut album, Relish (1995). Both the single and the album became worldwide hits and garnered a combined seven Grammy Award nominations. Osborne has toured with Motown sidemen the Funk Brothers and was featured in the documentary film about them, Standing in the Shadows of Motown (2002).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Korn', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'start_year': '1993', 'labels': ['http://dbpedia.org/resource/Caroline_Records', 'http://dbpedia.org/resource/Concord_(entertainment_company)', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Immortal_Records', 'http://dbpedia.org/resource/Loma_Vista_Recordings', 'http://dbpedia.org/resource/Prospect_Park_(production_company)', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/MTV_The_Return_of_the_Rock', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal'], 'actual_members': ['http://dbpedia.org/resource/Brian_Welch', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu'], 'old_members': ['http://dbpedia.org/resource/David_Silveria'], 'related_artists': ['http://dbpedia.org/resource/Adema', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Brian_Welch__Brian_Welch__1', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Datsik_(musician)', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/David_Silveria', 'http://dbpedia.org/resource/Deadly_Apples', 'http://dbpedia.org/resource/Derrick_Green', 'http://dbpedia.org/resource/Destroid', 'http://dbpedia.org/resource/Dimmu_Borgir', 'http://dbpedia.org/resource/Fashion_Bomb', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/Kill_the_Noise', 'http://dbpedia.org/resource/Killbot_(band)', 'http://dbpedia.org/resource/L.A.P.D._(band)', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Mass_Hysteria_(band)', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Michael_Jochum', 'http://dbpedia.org/resource/Mike_Bordin', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Orgy_(band)', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu', 'http://dbpedia.org/resource/Rob_Patterson', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Ryan_Martinie', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shane_Gibson_(musician)', 'http://dbpedia.org/resource/Sunflower_Dead', 'http://dbpedia.org/resource/Terry_Bozzio', 'http://dbpedia.org/resource/The_Matrix_(team)', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Wesley_Geer', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Korn (stylized as KoЯn) is an American nu metal band from Bakersfield, California, formed in 1993. The band is notable for pioneering the nu metal genre and bringing it into the mainstream. Originally formed in 1993 by three members of the band L.A.P.D., Korn\'s current lineup features founding members James "Munky" Shaffer (rhythm guitar), Reginald "Fieldy" Arvizu (bass), Brian "Head" Welch (lead guitar, backing vocals), and Jonathan Davis (lead vocals, bagpipes), with the addition of Ray Luzier (drums) in 2007, replacing the band\'s first drummer, David Silveria. Korn made a demo tape, Neidermayer\'s Mind, in 1993, which was distributed free to record companies and on request to members of the public. Their debut album, Korn, was released in 1994, followed by Life Is Peachy in 1996. The band first experienced mainstream success with Follow the Leader (1998) and Issues (1999), both of which debuted at number one on the Billboard 200. The band\'s mainstream success continued with Untouchables (2002), Take a Look in the Mirror (2003) and See You on the Other Side (2005). A compilation album, Greatest Hits Vol. 1, was released in 2004, spanning a decade of singles and concluding the band\'s recording contract with Immortal Records and Epic Records. They signed to Virgin Records, releasing See You on the Other Side in 2005, and an untitled album in 2007. Korn\'s other recent albums, Korn III: Remember Who You Are (2010) and The Path of Totality (2011), were released via Roadrunner Records, The Paradigm Shift (2013) being released via Prospect Park and Caroline Records. The Serenity of Suffering, saw their return to Roadrunner Records. Their latest album, The Nothing, was released on September 13, 2019. As of 2018, Korn had sold more than 40 million records worldwide. Twelve of the band\'s official releases have peaked in the top ten of the Billboard 200, eight of which have peaked in the top five. Seven official releases are certified platinum by the Recording Industry Association of America (RIAA), two are certified double platinum, one is certified triple platinum, one is certified five times platinum and two are certified Gold. Korn has released seven video albums and 39 music videos. The band has released 41 singles, 28 of which have charted. Korn has earned two Grammy Awards out of eight nominations and two MTV Video Music Awards out of eleven nominations.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Culture_Club', 'artist_name': 'Culture Club', 'wiki': 'http://en.wikipedia.org/wiki/Culture_Club', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1981', 'end_year': '1986', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Sophisti-pop', 'http://dbpedia.org/resource/Soul_music', 'pop', 'New wave', 'soul'], 'actual_members': ['http://dbpedia.org/resource/Boy_George', 'http://dbpedia.org/resource/Mikey_Craig', 'http://dbpedia.org/resource/Roy_Hay_(musician)'], 'old_members': ['http://dbpedia.org/resource/Jon_Moss'], 'related_artists': ['http://dbpedia.org/resource/Bow_Wow_Wow', 'http://dbpedia.org/resource/Helen_Terry', 'http://dbpedia.org/resource/Helen_Terry__Helen_Terry__1', 'http://dbpedia.org/resource/Ian_Shepherd', 'http://dbpedia.org/resource/Jermaine_Stewart', 'http://dbpedia.org/resource/John_Themis', 'http://dbpedia.org/resource/Jon_Moss', 'http://dbpedia.org/resource/Ruby_Turner'], 'abstract': 'Culture Club are an English new wave band formed in London in 1981. The band comprises Boy George (lead vocals), Roy Hay (guitar and keyboards), Mikey Craig (bass guitar) and formerly included Jon Moss (drums and percussion). Emerging in the New Romantic scene, they are considered one of the most representative and influential groups of the 1980s. Led by singer and frontman Boy George, whose androgynous style of dressing caught the attention of the public and the media in the early 1980s, the band have sold more than 50 million records including over 6 million BPI certified records sold in the UK and over 7 million RIAA certified records sold in the US. Their hits include "Do You Really Want to Hurt Me", "Time (Clock of the Heart)", "I\'ll Tumble 4 Ya", "Church of the Poison Mind", "Karma Chameleon", "Victims", "Miss Me Blind", "It\'s a Miracle", "The War Song", "Move Away", and "I Just Wanna Be Loved". In the UK they amassed twelve Top 40 hit singles between 1982 and 1999, including the number ones "Do You Really Want To Hurt Me" and "Karma Chameleon", the latter being the biggest selling single of 1983 in the UK, and hit number one on the US Hot 100 in 1984. The song "Time (Clock of the Heart)" is included on the Rock and Roll Hall of Fame\'s list of 500 songs that shaped rock and roll. Their second album, Colour by Numbers, sold more than 10 million copies worldwide. It appeared on Rolling Stone magazine\'s list of the 100 Best Albums of the 1980s and is also included in the book 1001 Albums You Must Hear Before You Die. Ten of their singles reached the US Top 40, where they are associated with the Second British Invasion of British new wave groups that became popular in the US due to the cable music channel MTV. Culture Club\'s music combines British new wave and American soul and pop. It also includes some elements of Jamaican reggae and also other styles such as calypso, salsa, and with "Karma Chameleon", elements of country music. In 1984, Culture Club won Brit Awards for Best British Group, Best British Single ("Karma Chameleon"), and the Grammy Award for Best New Artist. They were nominated the same year for the Grammy Award for Pop Vocal by Group or Duo. The band were also nominated for a Canadian Juno Award for International Album of the Year. In January 1985, Culture Club were nominated for an American Music Award for Favorite Pop/Rock Band/Duo/Group Video Artist, and in September 1985, they were nominated for two MTV Video Music Awards for Best Special Effects and Best Art Direction for their video "It\'s a Miracle". In 1987, they received another nomination for an American Music Award for Favorite Pop/Rock Band/Duo/Group Video Artist.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/Red_Hot_Chili_Peppers', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1983', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/EMI_America_Records', 'http://dbpedia.org/resource/Enigma_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_metal', 'http://dbpedia.org/resource/Funk_rock', 'http://dbpedia.org/resource/Rap_rock'], 'actual_members': ['http://dbpedia.org/resource/Anthony_Kiedis', 'http://dbpedia.org/resource/Chad_Smith', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/John_Frusciante'], 'old_members': ['http://dbpedia.org/resource/Arik_Marshall', 'http://dbpedia.org/resource/Cliff_Martinez', 'http://dbpedia.org/resource/D._H._Peligro', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/DeWayne_McKnight', 'http://dbpedia.org/resource/Hillel_Slovak', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Jack_Sherman', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Josh_Klinghoffer'], 'related_artists': ['http://dbpedia.org/resource/Ataxia_(band)', "http://dbpedia.org/resource/Jane's_Addiction", 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/What_Is_This%3F'], 'abstract': "The Red Hot Chili Peppers are an American rock band formed in Los Angeles in 1983. Their music incorporates elements of alternative rock, funk, punk rock and psychedelic rock. The band consists of vocalist Anthony Kiedis, bassist Flea, drummer Chad Smith, and guitarist John Frusciante. With over 100 million records sold worldwide, the Red Hot Chili Peppers are one of the best-selling bands of all time. They are the most successful band in the history of alternative rock, with the records for most number-one singles (13), most cumulative weeks at number one (85) and most top-ten songs (25) on the Billboard Alternative Songs chart. They have won six Grammy Awards, and in 2012 were inducted into the Rock and Roll Hall of Fame. The Red Hot Chili Peppers were formed in Los Angeles by Kiedis, Flea, guitarist Hillel Slovak and drummer Jack Irons. Due to commitments to other bands, Slovak and Irons did not play on the band's 1984 self-titled debut album, which instead featured guitarist Jack Sherman and drummer Cliff Martinez. Slovak rejoined for their second album, Freaky Styley (1985), and Irons for their third, The Uplift Mofo Party Plan (1987). Slovak died of a drug overdose on June 25, 1988; Irons, devastated, left the band. With new recruits Frusciante and Smith, the Red Hot Chili Peppers recorded Mother's Milk (1989) and their first major commercial success, Blood Sugar Sex Magik (1991). Frusciante was uncomfortable with their newfound popularity and left abruptly on tour in 1992. After a series of temporary guitarists, he was replaced by Dave Navarro, who appeared on the group's sixth album, One Hot Minute (1995). Although successful, the album failed to match the critical or popular acclaim of Blood Sugar Sex Magik. Frusciante and Kiedis struggled with drug addiction throughout the 1990s. In 1998, following Navarro's departure, Frusciante rejoined the band. Their seventh album, Californication (1999), became their biggest commercial success, with 16 million copies sold worldwide. By the Way (2002) and Stadium Arcadium (2006) were also successful; Stadium Arcadium was their first album to reach number one on the Billboard 200 chart. Frusciante left again in 2009 to focus on his solo career; he was replaced by Josh Klinghoffer, who appeared on I'm with You (2011) and The Getaway (2016), before Frusciante rejoined in 2019."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Daniel_Merriweather', 'artist_name': 'Daniel Merriweather', 'wiki': 'http://en.wikipedia.org/wiki/Daniel_Merriweather', 'birth_date': '17 February 1982', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Allido_Records', 'http://dbpedia.org/resource/J_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Acid_jazz', 'http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Neo_soul'], 'related_artists': ['http://dbpedia.org/resource/Adele', "http://dbpedia.org/resource/Cookin'_on_3_Burners", 'http://dbpedia.org/resource/Diafrix', 'http://dbpedia.org/resource/Jordan_Galland', 'http://dbpedia.org/resource/Marius_Moga', 'http://dbpedia.org/resource/Mark_Ronson', 'http://dbpedia.org/resource/Phrase_(rapper)', 'http://dbpedia.org/resource/Silk_City_(duo)', 'http://dbpedia.org/resource/SugaRush_Beat_Company', 'http://dbpedia.org/resource/Wale_(rapper)'], 'abstract': 'Daniel Paul Merriweather (born 17 February 1982) is an Australian R&amp;B recording artist. Merriweather\'s debut solo album, Love &amp; War, was released in June 2009. It entered the UK Albums Chart at number two. It was preceded by two singles, "Change" and "Red", which both made the top 10 on the related singles chart. Merriweather has won two ARIA Music Awards, Best Urban Release in 2005 for "She\'s Got Me" and Best Male Artist in 2009 for Love &amp; War. In addition to his solo career, he has worked as a featured vocalist for other well-known artists. His guest vocals are included on album tracks by Disco Montego, Mark Ronson and Phrase. His collaborations with Ronson led to working in the United Kingdom including lead vocals on 2007 Ronson\'s hit "Stop Me", a cover version of "Stop Me If You Think You\'ve Heard This One Before", a song by The Smiths. In November 2019, Daniel announced his first single for ten years titled \'Everything I Need\', followed up by an album announcement. Merriweather played a couple of sold out London gigs too. Since 2017, Merriweather has been in a relationship with lawyer Coleen Mensa.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Olivia_Newton-John', 'artist_name': 'Olivia Newton-John', 'wiki': 'http://en.wikipedia.org/wiki/Olivia_Newton-John', 'birth_date': '26 September 1948', 'start_year': '1963', 'related_artists': ['http://dbpedia.org/resource/Adam_Mitchell_(songwriter)', 'http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Bruce_Welch', 'http://dbpedia.org/resource/Chong_Lim', 'http://dbpedia.org/resource/Cliff_Richard', 'http://dbpedia.org/resource/Davitt_Sigerson', 'http://dbpedia.org/resource/Electric_Light_Orchestra', 'http://dbpedia.org/resource/Helena_Majdaniec', 'http://dbpedia.org/resource/John_Farnham', 'http://dbpedia.org/resource/John_Farrar', 'http://dbpedia.org/resource/Mark_Masri', 'http://dbpedia.org/resource/Michael_Severs', 'http://dbpedia.org/resource/Ron_Haffkine', 'http://dbpedia.org/resource/Scott_Harper_(composer)', 'http://dbpedia.org/resource/Seth_Swirsky', 'http://dbpedia.org/resource/The_Shadows', 'http://dbpedia.org/resource/Tommy_Tycho'], 'abstract': 'Dame Olivia Newton-John AC DBE (born 26 September 1948) is a British-Australian singer, songwriter, actress, entrepreneur and activist. She is a four-time Grammy Award winner whose chart career includes five US number ones and another ten Top Tens on Billboard\'s Hot 100 and two Billboard 200 number-one albums, If You Love Me, Let Me Know (1974) and Have You Never Been Mellow (1975). Eleven of her singles (including two platinum) and 14 of her albums (including two platinum and four 2× platinum) have been certified Gold by the Recording Industry Association of America (RIAA). She has sold an estimated 100 million records worldwide, making her one of the best-selling music artists of all time. In 1978, she starred in the musical film Grease, whose soundtrack remains one of the most successful in history. It features two major hit duets with co-star John Travolta: "You\'re the One That I Want" – which ranks as one of the best-selling singles of all time – and "Summer Nights". Her signature solo recordings include the Record of the Year Grammy winner "I Honestly Love You" (1974) and "Physical" (1981) – Billboard\'s top Hot 100 single of the 1980s – plus her cover of "If Not for You" (1971), "Let Me Be There" (1973), "If You Love Me (Let Me Know)" (1974), "Have You Never Been Mellow" (1975), "Sam" (1977), "Hopelessly Devoted to You" (also from Grease), "A Little More Love" (1978), "Heart Attack" (1982) and, from the 1980 film Xanadu, "Magic" and "Xanadu" (with Electric Light Orchestra). Newton-John has been a longtime activist for environmental and animal rights issues. She has been an advocate for health awareness, becoming involved with various charities, health products and fundraising efforts. Her business interests have included launching several product lines for Koala Blue and co-owning the Gaia Retreat &amp; Spa in Australia.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Traveling_Wilburys', 'artist_name': 'Traveling Wilburys', 'wiki': 'http://en.wikipedia.org/wiki/Traveling_Wilburys', 'hometown': 'http://dbpedia.org/resource/Billboard_200', 'start_year': '1988', 'end_year': '1991', 'labels': ['http://dbpedia.org/resource/Traveling_Wilburys'], 'genres': ['http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Roots_rock'], 'related_artists': ['http://dbpedia.org/resource/Dhani_Harrison', 'http://dbpedia.org/resource/Ian_Wallace_(drummer)', 'http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/Jim_Horn', 'http://dbpedia.org/resource/Jim_Keltner', 'http://dbpedia.org/resource/Mudcrutch', 'http://dbpedia.org/resource/Ray_Cooper', 'http://dbpedia.org/resource/Roy_Orbison', 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers__Tom_Petty_and_the_Heartbreakers__1'], 'abstract': 'The Traveling Wilburys (sometimes shortened to the Wilburys) were a British–American supergroup consisting of Bob Dylan, George Harrison, Jeff Lynne, Roy Orbison and Tom Petty. Originating from an idea discussed by Harrison and Lynne during the sessions for Harrison\'s 1987 album Cloud Nine, the band formed in April 1988 after the five members united to record a bonus track for Harrison\'s next European single. When this collaboration, "Handle with Care", was deemed too good for such a limited release, the group agreed to record a full album, titled Traveling Wilburys Vol. 1. Following Orbison\'s death in December 1988, the Wilburys released a second album, which they titled Traveling Wilburys Vol. 3, in 1990. The project\'s work received much anticipation given the diverse nature of the singer-songwriters. The band members adopted tongue-in-cheek pseudonyms as half-brothers from the fictional Wilbury family of travelling musicians. Vol. 1 was a critical and commercial success, helping to revitalise Dylan\'s and Petty\'s respective careers. In 1990, the album won the Grammy for Best Rock Performance by a Duo or Group. Although Harrison envisaged a series of Wilburys albums and a film about the band, produced through his company HandMade, the group\'s final release was in February 1991. After several years of unavailability, the two Wilburys albums were reissued by the Harrison estate in the 2007 box set The Traveling Wilburys Collection. The box set included a DVD containing their music videos and a documentary on the band\'s formation.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Snoop_Dogg', 'artist_name': 'Snoop Dogg', 'wiki': 'http://en.wikipedia.org/wiki/Snoop_Dogg', 'birth_date': '20 October 1971', 'start_year': '1992', 'plays_in': ["http://dbpedia.org/resource/Boss'n_Up", 'http://dbpedia.org/resource/Catch_the_Throne', 'http://dbpedia.org/resource/Da_Game_of_Life_(film)', 'http://dbpedia.org/resource/Hood_of_Horror', 'http://dbpedia.org/resource/Reincarnated_(film)', "http://dbpedia.org/resource/Snoop_Dogg's_Doggystyle", "http://dbpedia.org/resource/Snoop_Dogg's_Hustlaz:_Diary_of_a_Pimp"], 'related_artists': ["http://dbpedia.org/resource/1500_or_Nothin'", 'http://dbpedia.org/resource/3-2', 'http://dbpedia.org/resource/Alemán_(rapper)', 'http://dbpedia.org/resource/Angie_Brown', 'http://dbpedia.org/resource/Angie_Stone', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Atle_Bakken', 'http://dbpedia.org/resource/Audio_Playground', 'http://dbpedia.org/resource/Aygun_Kazimova', 'http://dbpedia.org/resource/B-Legit', 'http://dbpedia.org/resource/B-Real', 'http://dbpedia.org/resource/Bad_Azz_(rapper)', 'http://dbpedia.org/resource/Battlecat_(record_producer)', 'http://dbpedia.org/resource/Beau_Dozier', 'http://dbpedia.org/resource/Beau_Vallis_(singer)', 'http://dbpedia.org/resource/Big_Ed_(rapper)', 'http://dbpedia.org/resource/Big_Tray_Deee', 'http://dbpedia.org/resource/Bobby_Nunn_(R&amp;B_musician)', 'http://dbpedia.org/resource/Bootsy_Collins', 'http://dbpedia.org/resource/Bow_Wow_(rapper)', 'http://dbpedia.org/resource/Brotha_Lynch_Hung', 'http://dbpedia.org/resource/Bruce_Sudano', 'http://dbpedia.org/resource/Buddy_(rapper)', 'http://dbpedia.org/resource/Butch_Cassidy_(singer)', 'http://dbpedia.org/resource/C-Murder', 'http://dbpedia.org/resource/CPO_Boss_Hogg', 'http://dbpedia.org/resource/Carlos_Stephens', 'http://dbpedia.org/resource/Charlie_Wilson_(singer)', 'http://dbpedia.org/resource/Classified_(rapper)', 'http://dbpedia.org/resource/Cold_187um', 'http://dbpedia.org/resource/Count_Bass_D', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/DJ_Whoo_Kid', 'http://dbpedia.org/resource/Datsik_(musician)', 'http://dbpedia.org/resource/Daz_Dillinger', 'http://dbpedia.org/resource/De_La_Soul', 'http://dbpedia.org/resource/Djibril_Gibson_Kagni', "http://dbpedia.org/resource/Doggy's_Angels", 'http://dbpedia.org/resource/Dre_Skull', 'http://dbpedia.org/resource/Duke_Montana', 'http://dbpedia.org/resource/Dunlap_Exclusive', 'http://dbpedia.org/resource/Edward_Tony_Green', 'http://dbpedia.org/resource/Emii', 'http://dbpedia.org/resource/Emmanuel_%22Manny%22_Mijares', 'http://dbpedia.org/resource/Far_East_Movement', 'http://dbpedia.org/resource/Fatman_Scoop', 'http://dbpedia.org/resource/Fredwreck', 'http://dbpedia.org/resource/G-Unit', 'http://dbpedia.org/resource/Gambino_Family_(group)', 'http://dbpedia.org/resource/Gorillaz', 'http://dbpedia.org/resource/Hangi_Tavakoli', 'http://dbpedia.org/resource/Hi-Tek', 'http://dbpedia.org/resource/Hittman', 'http://dbpedia.org/resource/Ian_Carey', 'http://dbpedia.org/resource/Ian_Thomas_(Belgian_musician)', 'http://dbpedia.org/resource/Iliana_Eve', 'http://dbpedia.org/resource/J._Pearl', 'http://dbpedia.org/resource/J._Wells', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jayo_Felony', 'http://dbpedia.org/resource/Jazzy_B', 'http://dbpedia.org/resource/Jean-Roch', 'http://dbpedia.org/resource/Jethro_Sheeran', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/KLC', 'http://dbpedia.org/resource/Kam_(rapper)', 'http://dbpedia.org/resource/Kane_&amp;_Abel_(group)', 'http://dbpedia.org/resource/Kaye_Styles', 'http://dbpedia.org/resource/Keith_Hetrick', 'http://dbpedia.org/resource/Kid_Capri', "http://dbpedia.org/resource/Knoc-turn'al", 'http://dbpedia.org/resource/Kokane', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/L.A._Posse', 'http://dbpedia.org/resource/Layzie_Bone', 'http://dbpedia.org/resource/Likwit_Crew', 'http://dbpedia.org/resource/Lil_Italy', 'http://dbpedia.org/resource/Lonny_Bereal', 'http://dbpedia.org/resource/Mac_(rapper)', 'http://dbpedia.org/resource/Magic_(rapper)', 'http://dbpedia.org/resource/Major_Lazer', 'http://dbpedia.org/resource/Mams_Taylor', 'http://dbpedia.org/resource/Marlon_Williams_(guitarist)', 'http://dbpedia.org/resource/Max_Perry', 'http://dbpedia.org/resource/Mia_X', 'http://dbpedia.org/resource/Mibbs', 'http://dbpedia.org/resource/Mr._Capone-E', 'http://dbpedia.org/resource/Nat_Powers', 'http://dbpedia.org/resource/Neako', 'http://dbpedia.org/resource/Neil_Levine', 'http://dbpedia.org/resource/Paul_Rey__Paul_Rey__1', 'http://dbpedia.org/resource/Peter_Shukoff', 'http://dbpedia.org/resource/Prime_Suspects', 'http://dbpedia.org/resource/Ralph_Myerz_and_the_Jack_Herren_Band', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Ronnie_Hudson', 'http://dbpedia.org/resource/Sam_Martin_(singer)', 'http://dbpedia.org/resource/Sam_Sneed', 'http://dbpedia.org/resource/Scoop_DeVille', 'http://dbpedia.org/resource/Shady_Nate', 'http://dbpedia.org/resource/Shawty_Redd', 'http://dbpedia.org/resource/Shorty_from_Da_Lench_Mob', 'http://dbpedia.org/resource/Skatterman', 'http://dbpedia.org/resource/Skull_Duggery_(rapper)', 'http://dbpedia.org/resource/Slip_Capone', 'http://dbpedia.org/resource/Soopafly', 'http://dbpedia.org/resource/Soulja_Slim', "http://dbpedia.org/resource/Steady_Mobb'n", 'http://dbpedia.org/resource/Steve_Arrington', 'http://dbpedia.org/resource/Suga_Free', 'http://dbpedia.org/resource/Sylk-E._Fyne', 'http://dbpedia.org/resource/Tara_McDonald', 'http://dbpedia.org/resource/Terrace_Martin__Terrace_Martin__1', 'http://dbpedia.org/resource/Tha_Dogg_Pound', 'http://dbpedia.org/resource/The_D.O.C.', 'http://dbpedia.org/resource/The_Dove_Shack', 'http://dbpedia.org/resource/The_Dramatics', 'http://dbpedia.org/resource/The_Exclusives', 'http://dbpedia.org/resource/The_Lady_of_Rage', 'http://dbpedia.org/resource/The_Medicine_Men', 'http://dbpedia.org/resource/The_Neptunes', 'http://dbpedia.org/resource/Val_Young', 'http://dbpedia.org/resource/Yaki_Kadafi', 'http://dbpedia.org/resource/Young_Dre_the_Truth'], 'abstract': 'Calvin Cordozar Broadus Jr. (born October 20, 1971), known professionally as Snoop Dogg (previously Snoop Doggy Dogg and briefly Snoop Lion), is an American rapper, songwriter, media personality, actor, and businessman. His fame dates to 1992 when he featured on Dr. Dre\'s debut solo single, "Deep Cover", and then on Dre\'s debut solo album, The Chronic. Broadus has since sold over 23 million albums in the United States and 35 million albums worldwide. Broadus\' debut solo album, Doggystyle, produced by Dr. Dre, was released by Death Row Records in November 1993, and debuted at number one on the popular albums chart, the Billboard 200, and on Billboard\'s Top R&amp;B/Hip-Hop Albums chart. Selling 800,000 copies in its first week, Doggystyle was certified quadruple-platinum in 1994 and bore several hit singles, including "What\'s My Name?" and "Gin &amp; Juice". In 1994, Death Row Records released a soundtrack, by Broadus, for the short film Murder Was the Case, starring Snoop. In 1996, his second album, Tha Doggfather, also debuted at number one on both charts, with "Snoop\'s Upside Ya Head" as the lead single. The next year, the album was certified double-platinum. After leaving Death Row Records in January 1998, Broadus signed with No Limit Records, releasing three Snoop albums: Da Game is to Be Sold, Not to Be Told (1998), No Limit Top Dogg (1999), and Tha Last Meal (2000). In 2002, he signed with Priority/Capitol/EMI Records, releasing Paid tha Cost to Be da Boss. In 2004, he signed to Geffen Records, releasing his next three albums: R&amp;G (Rhythm &amp; Gangsta): The Masterpiece, then Tha Blue Carpet Treatment, and Ego Trippin\'. Priority Records released his album Malice \'n Wonderland during 2009, followed by Doggumentary during 2011. Snoop Dogg has starred in motion pictures and hosted several television shows, including Doggy Fizzle Televizzle, Snoop Dogg\'s Father Hood, and Dogg After Dark. He also coaches a youth football league and high-school football team. In September 2009, EMI hired him as the chairman of a reactivated Priority Records. In 2012, after a trip to Jamaica, Broadus announced a conversion to Rastafari and a new alias, Snoop Lion. As Snoop Lion he released a reggae album, Reincarnated, and a documentary film of the same name, about his Jamaican experience, in early 2013. His 13th studio album, Bush, was released in May 2015 and marked a return of the Snoop Dogg name. His 14th solo studio album, Coolaid, was released in July 2016. Snoop has had 17 Grammy nominations without a win. In March 2016, the night before WrestleMania 32 in Arlington, Texas, he was inducted into the celebrity wing of the WWE Hall of Fame, having made several appearances for the company, including as master of ceremonies during a match at WrestleMania XXIV. In 2018, Snoop announced that he was "a born-again Christian" and released his first gospel album Bible of Love. On November 19, 2018, Snoop Dogg was given a star on the Hollywood Walk of Fame. He released his seventeenth solo album, I Wanna Thank Me, in 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Rolling_Stones', 'artist_name': 'The Rolling Stones', 'wiki': 'http://en.wikipedia.org/wiki/The_Rolling_Stones', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1962', 'labels': ['http://dbpedia.org/resource/ABKCO_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Decca_Records', 'http://dbpedia.org/resource/Interscope_Records', 'http://dbpedia.org/resource/London_Recordings', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Rolling_Stones_Records', 'http://dbpedia.org/resource/Virgin_Records'], 'plays_in': ['http://dbpedia.org/resource/Cocksucker_Blues', 'http://dbpedia.org/resource/Ladies_and_Gentlemen:_The_Rolling_Stones', "http://dbpedia.org/resource/Let's_Spend_the_Night_Together_(film)", 'http://dbpedia.org/resource/Olé_Olé_Olé!:_A_Trip_Across_Latin_America', 'http://dbpedia.org/resource/Shine_a_Light_(film)', 'http://dbpedia.org/resource/Sympathy_for_the_Devil_(1968_film)', 'http://dbpedia.org/resource/The_Rolling_Stones:_Havana_Moon', 'http://dbpedia.org/resource/Video_Rewind', 'http://dbpedia.org/resource/Zabriskie_Point_(film)'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rock_and_roll', 'http://dbpedia.org/resource/Rock_music', 'blues', 'Rock', 'pop'], 'actual_members': ['http://dbpedia.org/resource/Keith_Richards', 'http://dbpedia.org/resource/Mick_Jagger', 'http://dbpedia.org/resource/Ronnie_Wood'], 'old_members': ['Bill Wyman', 'Charlie Watts', 'Mick Taylor'], 'related_artists': ["http://dbpedia.org/resource/Bill_Wyman's_Rhythm_Kings", 'http://dbpedia.org/resource/Billy_Preston', 'http://dbpedia.org/resource/Faces_(band)', 'http://dbpedia.org/resource/John_Mayall_&amp;_the_Bluesbreakers', 'http://dbpedia.org/resource/Pretty_Things', 'http://dbpedia.org/resource/The_Beatles', 'http://dbpedia.org/resource/The_New_Barbarians_(band)'], 'abstract': 'The Rolling Stones are an English rock band formed in London in 1962. Active for almost six decades, they are one of the most popular and enduring bands of the rock era. In the early 1960s, the Rolling Stones pioneered the gritty, heavier-driven sound that came to define hard rock. Their first stable line-up comprised vocalist Mick Jagger, multi-instrumentalist Brian Jones, guitarist Keith Richards, bassist Bill Wyman, and drummer Charlie Watts. During their formative years Jones was the primary leader: he assembled the band, named it, and drove their sound and image. After Andrew Loog Oldham became the group\'s manager in 1963, he encouraged them to write their own songs. Jagger and Richards became the primary creative force behind the band, alienating Jones, who developed a drug addiction that interfered with his ability to contribute meaningfully. Rooted in blues and early rock and roll, the Rolling Stones started out playing covers and were at the forefront of the British Invasion in 1964, also being identified with the youthful and rebellious counterculture of the 1960s. They then found greater success with their own material as "(I Can\'t Get No) Satisfaction" (1965), "Get Off of My Cloud" (1965) and "Paint It Black" (1966) became international No. 1 hits. Aftermath (1966) – their first entirely original album – is considered the most important of their formative records. In 1967, they had the double-sided hit "Ruby Tuesday"/"Let\'s Spend the Night Together" and experimented with psychedelic rock on Their Satanic Majesties Request. They returned to their roots with such hits as "Jumpin\' Jack Flash" (1968) and "Honky Tonk Women" (1969), and albums such as Beggars Banquet (1968), featuring "Sympathy for the Devil", and Let It Bleed (1969), featuring "You Can\'t Always Get What You Want" and "Gimme Shelter". Let It Bleed was the first of five consecutive No. 1 albums in the UK. Jones left the band shortly before his death in 1969, having been replaced by guitarist Mick Taylor. That year they were first introduced on stage as \'The Greatest Rock and Roll Band in the World\'. Sticky Fingers (1971), which yielded "Brown Sugar" and included the first usage of their tongue and lips logo, was their first of eight consecutive No. 1 studio albums in the US. Exile on Main St. (1972), featuring "Tumbling Dice", and Goats Head Soup (1973), yielding the hit ballad "Angie", were also best sellers. Taylor was replaced by Ronnie Wood in 1974. The band continued to release successful albums including their two largest sellers: Some Girls (1978), featuring "Miss You"; and Tattoo You (1981), featuring "Start Me Up". Steel Wheels (1989) was widely considered a comeback album and was followed by Voodoo Lounge (1994), a worldwide number one album. Both releases were promoted by large stadium and arena tours as the Stones continued to be a huge concert attraction; by 2007 they had four of the top five highest-grossing concert tours of all time. From Wyman\'s departure in 1993 to Watts\' death in 2021, the band continued as a four-piece core, with Darryl Jones playing bass on tour and on most studio recordings. Their latest album, Blue &amp; Lonesome (2016), became their twelfth UK number-one album. The Rolling Stones\' estimated record sales of 200 million makes them one of the best-selling music artists of all time. The band has won three Grammy Awards and a Grammy Lifetime Achievement Award. They were inducted into the Rock and Roll Hall of Fame in 1989 and the UK Music Hall of Fame in 2004. In 2019, Billboard magazine ranked the Rolling Stones second on their list of the "Greatest Artists of All Time" based on US chart success. They are ranked fourth on Rolling Stone\'s list of the Greatest Artists of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/AC/DC', 'artist_name': 'AC/DC', 'wiki': 'http://en.wikipedia.org/wiki/AC/DC', 'hometown': 'http://dbpedia.org/resource/Sydney', 'start_year': '1973', 'end_year': '1973', 'labels': ['http://dbpedia.org/resource/Albert_Productions', 'http://dbpedia.org/resource/Atco_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/East_West_Records', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Epic_Records'], 'plays_in': ['http://dbpedia.org/resource/AC/DC:_Let_There_Be_Rock', 'http://dbpedia.org/resource/AC/DC_(pinball)', 'http://dbpedia.org/resource/Maximum_Overdrive', 'http://dbpedia.org/resource/Percy_Jackson_&amp;_the_Olympians:_The_Lightning_Thief'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Rock_and_roll', 'heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Angus_Young', 'http://dbpedia.org/resource/Brian_Johnson', 'http://dbpedia.org/resource/Cliff_Williams', 'http://dbpedia.org/resource/Phil_Rudd', 'http://dbpedia.org/resource/Stevie_Young'], 'old_members': ['http://dbpedia.org/resource/Axl_Rose', 'http://dbpedia.org/resource/Bon_Scott', 'http://dbpedia.org/resource/Chris_Slade', 'http://dbpedia.org/resource/George_Young_(rock_musician)', 'http://dbpedia.org/resource/Malcolm_Young', 'http://dbpedia.org/resource/Mark_Evans_(musician)', 'http://dbpedia.org/resource/Simon_Wright_(musician)'], 'related_artists': ['http://dbpedia.org/resource/Marcus_Hook_Roll_Band'], 'abstract': 'AC/DC are an Australian rock band formed in Sydney in 1973 by Scottish-born brothers Malcolm and Angus Young. Their music has been variously described as hard rock, blues rock, and heavy metal, but the band themselves call it simply "rock and roll". AC/DC underwent several line-up changes before releasing their first album, 1975\'s High Voltage. Membership subsequently stabilised around the Young brothers, singer Bon Scott, drummer Phil Rudd, and bassist Mark Evans. Evans was fired from the band in 1977 and replaced by Cliff Williams, who has appeared on every AC/DC album since 1978\'s Powerage. In February 1980, about seven months after the release of their breakthrough album Highway to Hell, Scott died of acute alcohol poisoning after a night of heavy drinking. The group considered disbanding but elected to stay together, bringing in longtime Geordie vocalist Brian Johnson as Scott\'s replacement. Later that year, the band released their first album with Johnson, Back in Black, which was dedicated to Scott\'s memory. The album launched AC/DC to new heights of success and became one of the best selling albums of all time. The band\'s eighth studio album, For Those About to Rock We Salute You (1981), was their first album to reach number one in the United States. Prior to the release of 1983\'s Flick of the Switch, Rudd left the band and was replaced by Simon Wright, being in turn replaced by Chris Slade in 1989. The band experienced a commercial resurgence in the early nineties with the release of 1990\'s The Razors Edge. Rudd returned to the band in 1994, replacing Slade and appearing on the band\'s next five albums. Their fifteenth studio album Black Ice was the second-highest-selling album of 2008, and their biggest chart hit since For Those About to Rock, eventually reaching No.1 worldwide. The band\'s line-up remained the same for twenty years, until 2014 with Malcolm Young\'s retirement due to early-onset dementia (he died in 2017) and Rudd\'s legal troubles. Malcolm was replaced by his nephew Stevie Young, who debuted on AC/DC\'s 2014 album Rock or Bust, and on its accompanying tour, previous drummer Chris Slade filled in for Rudd. In 2016, Johnson was advised to stop touring due to worsening hearing loss. Guns N\' Roses frontman Axl Rose stepped in as the band\'s vocalist for the remainder of that year\'s dates. Long-term bass player and background vocalist Cliff Williams retired from AC/DC at the end of the Rock or Bust tour in 2016 and the group entered a four-year hiatus. A reunion of the Rock or Bust lineup was announced in September 2020 and the band\'s seventeenth studio album Power Up was released two months later. AC/DC have sold more than 200 million records worldwide, including 75 million albums in the United States, making them the ninth-highest-selling artist in the United States and the 16th-best-selling artist worldwide. Back in Black has sold an estimated 50 million units worldwide, making it the third-highest-selling album by any artist, and the highest-selling album by any band. The album has sold 22 million units in the US, where it is the sixth-highest-selling album of all time. AC/DC ranked fourth on VH1\'s list of the "100 Greatest Artists of Hard Rock" and were named the seventh "Greatest Heavy Metal Band of All Time" by MTV. In 2004, AC/DC ranked No. 72 on the Rolling Stone list of the "100 Greatest Artists of All Time". Producer Rick Rubin, who wrote an essay on the band for the Rolling Stone list, referred to AC/DC as "the greatest rock and roll band of all time". In 2010, VH1 ranked AC/DC number 23 in its list of the "100 Greatest Artists of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bob_Seger', 'artist_name': 'Bob Seger', 'wiki': 'http://en.wikipedia.org/wiki/Bob_Seger', 'birth_date': '06 May 1945', 'start_year': '1961', 'end_year': '1996', 'labels': ['http://dbpedia.org/resource/Cameo-Parkway_Records', 'http://dbpedia.org/resource/Capitol_Records'], 'plays_in': ['http://dbpedia.org/resource/About_Last_Night_(1986_film)'], 'genres': ['http://dbpedia.org/resource/Acid_rock', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heartland_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Psychedelic_rock', 'http://dbpedia.org/resource/Rock_and_roll', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Al_Coury', 'http://dbpedia.org/resource/Alto_Reed', 'http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Bobbye_Hall', 'http://dbpedia.org/resource/Craig_Frost', 'http://dbpedia.org/resource/Davey_Johnstone', 'http://dbpedia.org/resource/David_N._Cole', 'http://dbpedia.org/resource/Dawayne_Bailey', 'http://dbpedia.org/resource/Don_Brewer', 'http://dbpedia.org/resource/Dr._John', 'http://dbpedia.org/resource/Eagles_(band)', 'http://dbpedia.org/resource/Frankie_Miller', 'http://dbpedia.org/resource/Glenn_Frey', 'http://dbpedia.org/resource/Grand_Funk_Railroad', 'http://dbpedia.org/resource/Jamie_Oldaker', 'http://dbpedia.org/resource/Kid_Rock', 'http://dbpedia.org/resource/Kiss_(band)', 'http://dbpedia.org/resource/Little_Feat', 'http://dbpedia.org/resource/Marcella_Detroit', 'http://dbpedia.org/resource/Mayssa_Karaa', 'http://dbpedia.org/resource/Muscle_Shoals_Rhythm_Section', 'http://dbpedia.org/resource/Pete_Carr', 'http://dbpedia.org/resource/Pitche_Blende', 'http://dbpedia.org/resource/Rick_Vito', 'http://dbpedia.org/resource/Rod_Stewart', 'http://dbpedia.org/resource/Shaun_Murphy_(singer)', 'http://dbpedia.org/resource/Ted_Nugent', 'http://dbpedia.org/resource/The_Rockets_(Detroit_band)', 'http://dbpedia.org/resource/The_Underdogs_(American_band)'], 'abstract': 'Robert Clark Seger (/ˈsiːɡər/; born May 6, 1945) is an American singer, songwriter, and musician. As a locally successful Detroit-area artist, he performed and recorded as Bob Seger and the Last Heard and Bob Seger System throughout the 1960s, breaking through with his first album, Ramblin\' Gamblin\' Man (which contained his first national hit of the same name) in 1968. By the early 1970s, he had dropped the \'System\' from his recordings and continued to strive for broader success with various other bands. In 1973, he put together the Silver Bullet Band, with a group of Detroit-area musicians, with whom he became most successful on the national level with the album Live Bullet (1976), recorded live with the Silver Bullet Band in 1975 at Cobo Hall in Detroit, Michigan. In 1976, he achieved a national breakout with the studio album Night Moves. On his studio albums, he also worked extensively with the Alabama-based Muscle Shoals Rhythm Section, which appeared on several of Seger\'s best-selling singles and albums. A roots rocker with a classic raspy, powerful voice, Seger wrote and recorded songs that dealt with love, women, and blue-collar themes, and is one of the best-known examples of a heartland rock artist. He has recorded many hits, including "Night Moves", "Turn the Page", "Mainstreet", "Still the Same", "Hollywood Nights", "Against the Wind", "You\'ll Accomp\'ny Me", "Shame on the Moon", "Roll Me Away", "Like a Rock", and "Shakedown", the last of which was written for the 1987 film Beverly Hills Cop II and topped the Billboard Hot 100 chart. He also co-wrote the Eagles\' number-one hit "Heartache Tonight", and his recording of "Old Time Rock and Roll" was named one of the Songs of the Century in 2001. With a career spanning six decades, Seger has sold more than 75 million records worldwide, making him one of the world\'s best-selling artists of all time. Seger was inducted into the Rock and Roll Hall of Fame in 2004 and the Songwriters Hall of Fame in 2012. Seger was named Billboard\'s 2015 Legend of Live honoree at the 12th annual Billboard Touring Conference &amp; Awards, held November 18–19 at the Roosevelt Hotel in New York. He announced his farewell tour in September 2018.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Lipps_Inc.', 'artist_name': 'Lipps Inc.', 'wiki': 'http://en.wikipedia.org/wiki/Lipps_Inc.', 'hometown': 'http://dbpedia.org/resource/Minneapolis', 'start_year': '1979', 'end_year': '1985', 'labels': ['http://dbpedia.org/resource/Casablanca_Records', 'http://dbpedia.org/resource/Phonogram_Inc.', 'http://dbpedia.org/resource/PolyGram', 'http://dbpedia.org/resource/Polydor_Records'], 'plays_in': ['http://dbpedia.org/resource/Higher_(Treponem_Pal_album)'], 'genres': ['http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Funk'], 'old_members': ['http://dbpedia.org/resource/Cynthia_Johnson', 'http://dbpedia.org/resource/David_Z_(producer)', 'http://dbpedia.org/resource/Margie_Cox', 'http://dbpedia.org/resource/Steven_Greenberg_(musician)', 'Terry Grant', 'Melanie Rosales', 'Tom Riopelle'], 'related_artists': ['http://dbpedia.org/resource/Cynthia_Johnson', 'http://dbpedia.org/resource/Doctor_Fink'], 'abstract': 'Lipps Inc. (/ˈlɪpsɪŋk/ LIP-sink, like "lip sync") was an American disco and funk group from Minneapolis, Minnesota. The group was best known for the chart-topping 1980 worldwide hit single "Funkytown" which hit No. 1 in 28 countries and was certified as double-platinum in sales. The group originally consisted of lead vocalist Cynthia Johnson and a changing lineup of session musicians including guitarist David Rivkin, guitarist Tom Riopelle and bassist Terry Grant. Steven Greenberg, the creator of the act, wrote and produced most of the group\'s music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rick_James', 'artist_name': 'Rick James', 'wiki': 'http://en.wikipedia.org/wiki/Rick_James', 'birth_date': '01 February 1948', 'death_date': '06 August 2004', 'start_year': '2004', 'end_year': '2004', 'related_artists': ['http://dbpedia.org/resource/Bobby_Nunn_(R&amp;B_musician)', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Iris_Gordy', 'http://dbpedia.org/resource/Malcolm_Tomlinson', 'http://dbpedia.org/resource/Mary_Jane_Girls', 'http://dbpedia.org/resource/Skip_Miller', 'http://dbpedia.org/resource/Teena_Marie', 'http://dbpedia.org/resource/Val_Young'], 'abstract': 'James Ambrose Johnson Jr. (February 1, 1948 – August 6, 2004), better known by his stage name Rick James, was an American singer-songwriter, multi-instrumentalist and record producer. Born and raised in Buffalo, New York, James began his musical career in his teen years. He was in various bands before entering the U.S. Navy Reserve to avoid being drafted into the army. In 1964, James deserted to Toronto, Canada, where he formed the rock band the Mynah Birds, who eventually signed a recording deal with Motown Records in 1966. James\' career with the group halted after military authorities discovered his whereabouts and eventually convicted and sentenced James to a one-year prison term related to the desertion charges. After being released, James moved to California, where he started a variety of rock and funk groups in the late 1960s and early 1970s. After forming the locally popular Stone City Band in his hometown of Buffalo in 1977, James finally found success as a recording artist after signing with Motown\'s Gordy Records, releasing the album Come Get It! in 1978 which produced the hits "You &amp; I" and "Mary Jane". In 1981, James released his most successful album, Street Songs, which included career-defining hits such as "Give It to Me Baby" and "Super Freak", the latter song becoming his biggest crossover single, mixing elements of funk, disco, rock and new wave. James was also known for his soulful ballads such as "Fire &amp; Desire" and "Ebony Eyes". In addition, James also had a successful career as a songwriter and producer for other artists including Teena Marie, the Mary Jane Girls, the Temptations, Eddie Murphy and Smokey Robinson. James\' mainstream success had peaked by the release of his album Glow in 1985 and his appearance on the popular TV show, The A-Team. His subsequent album releases failed to sell as well as their predecessors. Rapper MC Hammer sampled James\' "Super Freak" for his 1990 hit, "U Can\'t Touch This" which won Best R&amp;B Song at the 1991 Grammy Awards. James received his only Grammy for composing the song. By the early 1990s, James\' career was hampered by his drug addiction and he was embroiled with legal issues. In 1993, James was convicted for two separate instances of kidnapping and assaulting two different women while under the influence of crack cocaine, resulting in a three-year sentence at Folsom State Prison. James was released on parole in 1996 and released the album Urban Rapsody in 1997. James\' health problems halted his career again after he had a mild stroke during a concert in 1998, and he announced a semi-retirement. In 2004, James\' career returned to mainstream pop culture after he appeared in an episode of Chappelle\'s Show. The segment involved a Charlie Murphy True Hollywood Stories–style skit that satirized James\' wild lifestyle in the 1980s. This resulted in renewed interest in his music and that year he returned to perform on the road. James died later that year from heart failure at age 56. In November 2020, James\' estate confirmed the sale of a 50% stake in his publishing and masters catalog to the Hipgnosis Songs Fund, founded by Canadian American music industry executive and entrepreneur Merck Mercuriadis.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Eddie_Rabbitt', 'artist_name': 'Eddie Rabbitt', 'wiki': 'http://en.wikipedia.org/wiki/Eddie_Rabbitt', 'birth_date': '27 November 1941', 'death_date': '07 May 1998', 'start_year': '1964', 'end_year': '1998', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Elektra_Records', 'http://dbpedia.org/resource/Liberty_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Country_pop', 'http://dbpedia.org/resource/Country_rock', 'http://dbpedia.org/resource/Truck-driving_country'], 'related_artists': ['http://dbpedia.org/resource/David_Malloy', 'http://dbpedia.org/resource/Juice_Newton', 'http://dbpedia.org/resource/Richard_Landis', 'http://dbpedia.org/resource/Ronnie_Milsap', 'http://dbpedia.org/resource/T._G._Sheppard'], 'abstract': 'Edward Thomas Rabbitt (November 27, 1941 – May 7, 1998) was an American country music singer and songwriter. His career began as a songwriter in the late 1960s, springboarding to a recording career after composing hits such as "Kentucky Rain" for Elvis Presley in 1970 and "Pure Love" for Ronnie Milsap in 1974. Later in the 1970s, Rabbitt helped to develop the crossover-influenced sound of country music prevalent in the 1980s with such hits as "Suspicions", "I Love a Rainy Night" (a number-one hit single on the Billboard Hot 100), and "Every Which Way but Loose" (the theme from the film of the same title). His duets "Both to Each Other (Friends and Lovers)" with Juice Newton and "You and I" with Crystal Gayle later appeared on the soap operas Days of Our Lives and All My Children.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Joey_Ramone', 'artist_name': 'Joey Ramone', 'wiki': 'http://en.wikipedia.org/wiki/Joey_Ramone', 'birth_date': '19 May 1951', 'death_date': '15 April 2001', 'start_year': '1972', 'end_year': '2001', 'aliases': ['Jeff Starship', 'Joey Ramone'], 'labels': ['http://dbpedia.org/resource/Radioactive_Records', 'http://dbpedia.org/resource/Sire_Records'], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'related_artists': ["http://dbpedia.org/resource/Dr._Chud's_X-Ward", 'http://dbpedia.org/resource/Ramones', 'http://dbpedia.org/resource/Ronnie_Spector', 'http://dbpedia.org/resource/Sniper_(American_band)', 'http://dbpedia.org/resource/Steven_Van_Zandt'], 'abstract': "Jeffrey Ross Hyman (May 19, 1951 – April 15, 2001), known professionally as Joey Ramone, was an American musician, singer, composer, and lead vocalist of the punk rock band the Ramones. Ramone's image, voice, and tenure as frontman of the Ramones made him a countercultural icon."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Greg_Kihn_Band', 'artist_name': 'The Greg Kihn Band', 'wiki': 'http://en.wikipedia.org/wiki/The_Greg_Kihn_Band', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1976', 'labels': ['http://dbpedia.org/resource/Beserkley_Records'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Rock_music', 'Rock'], 'actual_members': ['http://dbpedia.org/resource/Greg_Kihn', 'http://dbpedia.org/resource/Robert_Berry', 'Ry Kihn', 'Dave "Bro" Lauser', 'Dave Danza'], 'old_members': ['http://dbpedia.org/resource/Dave_Carpender', 'http://dbpedia.org/resource/Gary_Phillips_(keyboardist)', 'http://dbpedia.org/resource/Greg_Douglass', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Larry_Lynch', 'http://dbpedia.org/resource/Steve_Wright_(bassist)', '*Craig Kirchoff', '*Dennis Murphy', 'Jimmy Lyon', 'Robbie Dunbar', 'Tyler Eng', 'Pat Mosca'], 'related_artists': ['http://dbpedia.org/resource/Dave_Carpender', 'http://dbpedia.org/resource/Gary_Phillips_(keyboardist)', 'http://dbpedia.org/resource/Greg_Douglass', 'http://dbpedia.org/resource/Greg_Kihn', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Robert_Berry', 'http://dbpedia.org/resource/Steve_Wright_(bassist)'], 'abstract': 'The Greg Kihn Band is an American band that was started by frontman Greg Kihn and bassist Steve Wright. Their most successful singles include "The Breakup Song (They Don\'t Write \'Em)" (Billboard Hot 100 #15) and "Jeopardy" (Billboard Hot 100 #2). The band\'s musical style and genres comprise rock, pop rock and power pop.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Cameo_(band)', 'artist_name': 'Cameo', 'wiki': 'http://en.wikipedia.org/wiki/Cameo_(band)', 'start_year': '1974', 'end_year': '2001', 'labels': ['http://dbpedia.org/resource/Atlanta_Artists', 'http://dbpedia.org/resource/Chocolate_City_Records', 'http://dbpedia.org/resource/Reprise_Records'], 'genres': ['http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Soul_music'], 'actual_members': ['http://dbpedia.org/resource/Larry_Blackmon', 'Anthony Lockett', 'Aaron Mills', 'Jeff Nelson'], 'old_members': ['http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Tomi_Jenkins', 'Stephen Moore', 'Greg Johnson', 'Gary Dow', 'Kenni Hairston', 'Dominic Christie', 'Harold Gander ', 'Robert L. Smith', 'Kurt Jeter', 'John Kellogg', 'Melvin Wells', 'William Revis', 'Charlie Singleton', 'Michael Burnett', 'Robert Branch', 'Charles Sampson', 'Nathan Leftenant', 'Eric Nelson', 'Merve de Peyer', 'William Morris', 'Arnett Leftenant', 'Kevin Kendrick', 'Damon Mendes', 'Thomas Campbell', 'Paul Andrews', 'Gregory Johnson', 'Azza Meah', 'Arnold Ramsey', 'Eric Durham', 'Wayne Cooper', 'Jeryl Bright'], 'related_artists': ['http://dbpedia.org/resource/Bernard_Wright', 'http://dbpedia.org/resource/Flow_Tribe', 'http://dbpedia.org/resource/Haras_Fyre__East_CoastfeaturingGwen_Guthrie__1', 'http://dbpedia.org/resource/Jean_Beauvoir', 'http://dbpedia.org/resource/John_Blackwell_(musician)', 'http://dbpedia.org/resource/Larry_Blackmon', 'http://dbpedia.org/resource/Louis_A._McCall_Sr.', 'http://dbpedia.org/resource/Outkast', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Tomi_Jenkins', 'http://dbpedia.org/resource/Yarbrough_and_Peoples'], 'abstract': 'Cameo is an American funk band that formed in 1974. Cameo was initially a 14-member group known as the New York City Players; this name was later changed to Cameo. As of the first half of 2009, some of the original members continue to perform together. Two other original members were hired by the hip hop group Outkast. In 2015, Cameo announced a new residency show at the Westgate Las Vegas Resort &amp; Casino, opening in March 2016. On February 20, 2019, Larry Blackmon of Cameo announced "El Passo", the first new single from the band in 19 years. Cameo topped the R&amp;B charts for more than a decade, has sold more than 18 million albums and is considered one of the most popular funk/soul bands of its era.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kai_(Canadian_singer)', 'artist_name': 'Kai', 'wiki': 'http://en.wikipedia.org/wiki/Kai_(Canadian_singer)', 'birth_date': '17 March 1990', 'start_year': '2008', 'aliases': ['Kai (and Alessia De Gasperis)'], 'labels': ['http://dbpedia.org/resource/Warner_Music_Group'], 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Adventure_Club', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Donald_Glover', 'http://dbpedia.org/resource/Flume_(musician)', 'http://dbpedia.org/resource/Hunter_Siegel', 'http://dbpedia.org/resource/Jack_Ü', 'http://dbpedia.org/resource/Skrillex'], 'abstract': 'Alessia De Gasperis (born 17 March 1990), formerly known as Kai (also stylized as kai), is a Canadian singer-songwriter from Toronto, Ontario. Best known for her collaborations, she co-wrote and was featured on Flume\'s Grammy-nominated "Never Be like You", Diplo\'s "Revolution", and "Mind" from by Jack Ü\'s Grammy award-winning 2015 album.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Cardigans', 'artist_name': 'The Cardigans', 'wiki': 'http://en.wikipedia.org/wiki/The_Cardigans', 'hometown': 'http://dbpedia.org/resource/Jönköping', 'start_year': '1992', 'labels': ['http://dbpedia.org/resource/MCA_Inc.', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Minty_Fresh', 'http://dbpedia.org/resource/Stockholm_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['http://dbpedia.org/resource/Lars-Olof_Johansson', 'http://dbpedia.org/resource/Magnus_Sveningsson', 'http://dbpedia.org/resource/Nina_Persson', 'http://dbpedia.org/resource/Peter_Svensson', 'http://dbpedia.org/resource/The_Cardigans'], 'related_artists': ['http://dbpedia.org/resource/A_Camp', 'http://dbpedia.org/resource/Nina_Persson', 'http://dbpedia.org/resource/Paus_(band)', 'http://dbpedia.org/resource/Peter_Svensson', 'http://dbpedia.org/resource/Righteous_Boy'], 'abstract': 'The Cardigans is a Swedish rock band formed in Jönköping, Sweden, in 1992 by guitarist Peter Svensson, bassist Magnus Sveningsson, drummer Bengt Lagerberg, keyboardist Lars-Olof Johansson and lead singer Nina Persson. Post-hiatus shows since 2012 have been with Oskar Humlebo on guitar instead of Svensson. With their debut album Emmerdale (1994) they gained a solid base in their home country and enjoyed some success abroad, especially in Japan. Their second album Life (1995) secured them an international reputation. Their popularity rose when their single "Lovefool", from the album First Band on the Moon (1996), was included in the soundtrack to the 1996 film Romeo + Juliet. Other singles included "Erase/Rewind" and "My Favourite Game" from the album Gran Turismo (1998). After a two-year hiatus, the band returned recording and releasing their fifth album Long Gone Before Daylight (2003), a mellower country-flavoured record. Their last album Super Extra Gravity (2005) displays a continuation of the country influence, infused by pop sensibility and a further maturing of their sound. After a 2006 tour, the band embarked on a five-year break from musical activities before reuniting in 2012 to play several concerts. They have sold over 15 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Journey_(band)', 'artist_name': 'Journey', 'wiki': 'http://en.wikipedia.org/wiki/Journey_(band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1973', 'end_year': '1987', 'aliases': ['Golden Gate Rhythm Section (1973)'], 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Sanctuary_Records'], 'plays_in': ['http://dbpedia.org/resource/Made_in_America_(The_Sopranos)'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Jazz_fusion', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Soft_rock', 'jazz-rock'], 'actual_members': ['Arnel Pineda', 'Deen Castronovo', 'Jason Derlatka', 'Jonathan Cain', 'Narada Michael Walden', 'Neal Schon', 'Randy Jackson'], 'old_members': ['Aynsley Dunbar', 'George Tickner', 'Jeff Scott Soto', 'Omar Hakim', 'Prairie Prince', 'Robert Fleischman', 'Steve Augeri', 'Steve Smith'], 'related_artists': ['http://dbpedia.org/resource/Abraxas_Pool', 'http://dbpedia.org/resource/Bad_English', 'http://dbpedia.org/resource/Frumious_Bandersnatch', 'http://dbpedia.org/resource/Hardline_(band)', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Schon_&amp;_Hammer', 'http://dbpedia.org/resource/Soul_SirkUS', 'http://dbpedia.org/resource/The_Storm_(American_band)', 'http://dbpedia.org/resource/Vital_Information'], 'abstract': 'Journey is an American rock band formed in San Francisco in 1973 by former members of Santana, Steve Miller Band, and Frumious Bandersnatch. Journey had their biggest commercial success between 1978 and 1987, when Steve Perry was lead vocalist; they released a series of hit songs, including "Don\'t Stop Believin\'" (1981), which in 2009 became the top-selling track in iTunes history among songs not released in the 21st century. Escape, Journey\'s seventh and most successful album, reached No. 1 on the Billboard 200 and yielded another of their most popular singles, "Open Arms". The 1983 follow-up album, Frontiers, was almost as successful in the United States, reaching No. 2 and spawning several successful singles; it broadened the band\'s appeal in the United Kingdom, where it reached No. 6 on the UK Albums Chart. Journey enjoyed a successful reunion in the mid-1990s and have since regrouped twice; first with Steve Augeri from 1998-2006, then with Arnel Pineda from 2007 to the present. Sales have resulted in twenty five gold and platinum albums, in addition to the fifteen-time platinum RIAA Diamond Certified, 1988\'s Greatest Hits album. They have had nineteen Top 40 singles in the U.S. (the second most without a Billboard Hot 100 number one single behind Electric Light Orchestra with 20), six of which reached the Top 10 of the US chart and two of which reached No. 1 on other Billboard charts, and a No. 6 hit on the UK Singles Chart in "Don\'t Stop Believin\'". In 2005, "Don\'t Stop Believin\'" reached No. 3 on iTunes downloads. Originally a progressive rock band, Journey was described by AllMusic as having cemented a reputation as "one of America\'s most beloved (and sometimes hated) commercial rock/pop bands" by 1978, when they redefined their sound by embracing pop arrangements on their fourth album, Infinity. According to the Recording Industry Association of America, Journey has sold 48 million albums in the U.S., making them the 25th best-selling band. Their worldwide sales have reached over 80 million records globally, making them one of the world\'s best-selling bands of all time. A 2005 USA Today opinion poll named Journey the fifth-best U.S. rock band in history. Their songs have become arena rock staples and are still played on rock radio stations across the world. Journey ranks No. 96 on VH1\'s 100 Greatest Artists of All Time. Journey was inducted into the Rock and Roll Hall of Fame with the class of 2017. Inductees included lead singer Steve Perry, guitarist Neal Schon, keyboardists Jonathan Cain and Gregg Rolie, bassist Ross Valory, and drummers Aynsley Dunbar and Steve Smith.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tal_Bachman', 'artist_name': 'Tal Bachman', 'wiki': 'http://en.wikipedia.org/wiki/Tal_Bachman', 'hometown': 'http://dbpedia.org/resource/Manitoba', 'birth_date': '13 August 1968', 'start_year': '1992', 'aliases': ['Ian Starglow'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Daylight_Records'], 'genres': ['http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Ben_Carey', 'http://dbpedia.org/resource/Chris_Wyse', 'http://dbpedia.org/resource/Randy_Bachman'], 'abstract': 'Talmage Charles Robert Bachman (born August 13, 1968) is a Canadian singer-songwriter and guitarist. He is best known for his late 1998 hit, "She\'s So High", a pop rock tune from his self-titled 1999 album that led to a BMI award.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bizarre_Inc', 'artist_name': 'Bizarre Inc', 'wiki': 'http://en.wikipedia.org/wiki/Bizarre_Inc', 'hometown': 'http://dbpedia.org/resource/Stafford', 'start_year': '1989', 'end_year': '1996', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Some_Bizzare_Records', 'http://dbpedia.org/resource/Sony_Records', 'http://dbpedia.org/resource/Vinyl_Solution'], 'genres': ['http://dbpedia.org/resource/Breakbeat_hardcore', 'http://dbpedia.org/resource/Techno'], 'actual_members': ['Andrew Meecham', 'Dean Meredith'], 'old_members': ['Carl Turner', 'Mark Archer'], 'related_artists': ['http://dbpedia.org/resource/Angie_Brown', 'http://dbpedia.org/resource/Stevo_Pearce'], 'abstract': 'Bizarre Inc were an English techno group. Originally formed in 1989 as a duo between English DJs Dean Meredith and Mark "Aaron" Archer (not to be confused with the film producer of same name), they later re-formed as a trio consisting of Meredith, Andrew Meecham, and Carl Turner in 1990.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Irene_Cara', 'artist_name': 'Irene Cara', 'wiki': 'http://en.wikipedia.org/wiki/Irene_Cara', 'birth_date': '18 March 1959', 'related_artists': ['http://dbpedia.org/resource/Andrew_Lane_(record_producer)', 'http://dbpedia.org/resource/Danny_Sembello', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': 'Irene Cara Escalera (born March 18, 1959) known professionally as Irene Cara, is an American singer, songwriter, dancer, and actress. Cara sang and co-wrote the song "Flashdance... What a Feeling" (from the film Flashdance), for which she won an Academy Award for Best Original Song and a Grammy Award for Best Female Pop Vocal Performance in 1984. Cara is also known for playing the role of Coco Hernandez in the 1980 film Fame, and for recording the film\'s title song "Fame". Prior to her success with Fame, Cara portrayed the title character Sparkle Williams in the original 1976 musical drama film Sparkle.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tears_for_Fears', 'artist_name': 'Tears for Fears', 'wiki': 'http://en.wikipedia.org/wiki/Tears_for_Fears', 'hometown': 'http://dbpedia.org/resource/Bath,_Somerset', 'start_year': '1981', 'labels': ['http://dbpedia.org/resource/Concord_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Fontana_Records', 'http://dbpedia.org/resource/Gut_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Phonogram_Inc.', 'http://dbpedia.org/resource/Universal_Music_Group'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Carina_Round', 'http://dbpedia.org/resource/Curt_Smith', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/Graduate_(band)', 'http://dbpedia.org/resource/Ian_Stanley', 'http://dbpedia.org/resource/Interview_(band)', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Manny_Elias', 'http://dbpedia.org/resource/Neil_Taylor_(guitarist)', 'http://dbpedia.org/resource/Neon_(British_band)', "http://dbpedia.org/resource/Nick_D'Virgilio", 'http://dbpedia.org/resource/Nicky_Holland', 'http://dbpedia.org/resource/Oleta_Adams', 'http://dbpedia.org/resource/Roland_Orzabal', 'http://dbpedia.org/resource/Steven_Wilson', 'http://dbpedia.org/resource/The_Escape_(band)', 'http://dbpedia.org/resource/Will_Gregory'], 'abstract': 'Tears for Fears are an English pop rock band formed in Bath, England, in 1981 by Roland Orzabal and Curt Smith. Founded after the dissolution of their first band, the mod-influenced Graduate, Tears for Fears were associated with the new wave synthesizer bands of the early 1980s, and attained international chart success. Tears for Fears were part of the MTV-driven Second British Invasion of the US. The band\'s debut album, The Hurting (1983), reached number one on the UK Albums Chart. Their second album, Songs from the Big Chair (1985), reached number one on the US Billboard 200, achieving multi-platinum status in both the UK and the US. Songs from the Big Chair contained two Billboard Hot 100 number one hits: "Shout" and "Everybody Wants to Rule the World". The latter song won the Brit Award for Best British Single in 1986. After the release of their platinum-selling third album, The Seeds of Love (1989), Smith and Orzabal had an acrimonious split in 1991. Orzabal retained the Tears for Fears name as a solo project, releasing the albums Elemental (1993) and Raoul and the Kings of Spain (1995). Orzabal and Smith reconciled in 2000 and released an album of new material, Everybody Loves a Happy Ending, in 2004. The duo have toured on a semi-regular basis since then. After spending almost a decade in development, the band\'s seventh album, The Tipping Point, has been announced for release in February 2022.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jonezetta', 'artist_name': 'Jonezetta', 'wiki': 'http://en.wikipedia.org/wiki/Jonezetta', 'hometown': 'http://dbpedia.org/resource/United_States', 'start_year': '2002', 'end_year': '2009', 'labels': ['http://dbpedia.org/resource/Tooth_&amp;_Nail_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Indie_rock'], 'actual_members': ['Alex Warren', 'Kyle Howe', 'Robert Chisolm', 'Ty Garvey', 'Tyler Kemp'], 'old_members': ['http://dbpedia.org/resource/Timothy_Jordan_II', 'Mick Parsons', 'Tony Abercrombie'], 'related_artists': ['http://dbpedia.org/resource/Action_Action', 'http://dbpedia.org/resource/Timothy_Jordan_II'], 'abstract': 'Jonezetta was an American rock band from Clinton, Mississippi, which released two full-length albums on Tooth and Nail Records in the 2000s.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Daughtry_(band)', 'artist_name': 'Daughtry', 'wiki': 'http://en.wikipedia.org/wiki/Daughtry_(band)', 'hometown': 'http://dbpedia.org/resource/McLeansville,_North_Carolina', 'start_year': '2006', 'labels': ['http://dbpedia.org/resource/19_Recordings', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge'], 'actual_members': ['http://dbpedia.org/resource/Chris_Daughtry', 'http://dbpedia.org/resource/Josh_Paul_(musician)', 'Brian Craddock', 'Elvio Fernandes', 'Josh Steely', 'Brandon Maclin'], 'old_members': ['Jeremy Brady', 'Joey Barnes', 'Robin Diaz'], 'related_artists': ['http://dbpedia.org/resource/Chris_Daughtry', 'http://dbpedia.org/resource/Day_of_Fire', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Josh_Paul_(musician)', 'http://dbpedia.org/resource/Julian_Emery', 'http://dbpedia.org/resource/Lifehouse_(band)', 'http://dbpedia.org/resource/Sarah_Burgess_(singer)'], 'abstract': 'Daughtry /ˈdɔːtri/ is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006 and reached number one on the Billboard 200. The album went on to sell more than six million copies in the United States, and has been certified six times platinum by the RIAA. Daughtry was also named the best selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Nielsen SoundScan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits "It\'s Not Over" and "Home". The band\'s second album, Leave This Town, was released in July 2009 and debuted at number one on the Billboard 200 chart, becoming Daughtry\'s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album\'s lead single, "No Surprise", became the band\'s fifth top 20 hit on the Hot 100. Their third studio album, Break the Spell, was released in November 2011 and debuted within the top 10 on the Billboard 200 chart. The album has been certified Gold by the RIAA. Daughtry\'s fourth studio album, Baptized, was released on November 19, 2013, and debuted at number six on the Billboard 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 9 million albums and over 25.6 million digital tracks in the U.S.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/BTS', 'artist_name': 'BTS', 'wiki': 'http://en.wikipedia.org/wiki/BTS', 'hometown': 'http://dbpedia.org/resource/Seoul', 'start_year': '2013', 'aliases': ['Bangtan Boys', 'Bangtan Sonyeondan', 'Beyond the Scene', 'Bulletproof Boy Scouts'], 'labels': ['http://dbpedia.org/resource/Big_Hit_Music', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Def_Jam_Recordings', 'http://dbpedia.org/resource/Pony_Canyon', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Break_the_Silence:_The_Movie', 'http://dbpedia.org/resource/Bring_the_Soul:_The_Movie', 'http://dbpedia.org/resource/Burn_the_Stage:_The_Movie', 'http://dbpedia.org/resource/Love_Yourself_in_Seoul'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Electronic_dance_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/K-pop', 'http://dbpedia.org/resource/Pop_music', 'pop', 'hip hop', 'R&amp;B', 'EDM'], 'actual_members': ['http://dbpedia.org/resource/J-Hope', 'http://dbpedia.org/resource/Jimin_(singer,_born_1995)', 'http://dbpedia.org/resource/Jungkook', 'http://dbpedia.org/resource/Kim_Seok-jin', 'http://dbpedia.org/resource/RM_(rapper)', 'http://dbpedia.org/resource/Suga_(rapper)', 'http://dbpedia.org/resource/V_(singer)', 'Jin'], 'related_artists': ['http://dbpedia.org/resource/Annika_Wells__Annika_Wells__1', 'http://dbpedia.org/resource/Arcades_(band)', 'http://dbpedia.org/resource/Brian_Puspos', 'http://dbpedia.org/resource/Brother_Su', 'http://dbpedia.org/resource/Coyle_Girelli', 'http://dbpedia.org/resource/Kanata_Okajima', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Matthew_Tishler', 'http://dbpedia.org/resource/Melanie_Fontana', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Tushar_Apte'], 'abstract': 'BTS (Korean: 방탄소년단; RR: Bangtan Sonyeondan), also known as the Bangtan Boys, is a South Korean boy band that was formed in 2010 and debuted in 2013 under Big Hit Entertainment. The septet—consisting of members Jin, Suga, J-Hope, RM, Jimin, V, and Jungkook—co-writes and co-produces much of their own output. Originally a hip hop group, their musical style has evolved to include a wide range of genres. Their lyrics, often focused on personal and social commentary, touch on the themes of mental health, troubles of school-age youth and coming of age, loss, the journey towards loving oneself, and individualism. Their work also often references literature and psychological concepts and includes an alternative universe storyline. After debuting in 2013 with their single album 2 Cool 4 Skool, BTS released their first Korean-language studio album, Dark &amp; Wild, and Japanese-language studio album, Wake Up, in 2014. The group\'s second Korean studio album, Wings (2016), was their first to sell one million copies in South Korea. By 2017, BTS crossed into the global music market, leading the Korean Wave into the United States and breaking numerous sales records. They became the first Korean group to receive a certification from the Recording Industry Association of America (RIAA) for their single "Mic Drop", as well as the first Korean act to top the US Billboard 200 with their studio album Love Yourself: Tear (2018). BTS became one of the few groups since the Beatles to earn four US number-one albums in less than two years, and Love Yourself: Answer (2018) was the first Korean album certified platinum by the RIAA. In 2020, BTS became the first all-South Korean act to reach number one on the Billboard Global 200 and US Billboard Hot 100 with their Grammy-nominated single "Dynamite". Their follow-up releases "Savage Love", "Life Goes On", "Butter", and "Permission to Dance" made BTS the fastest act to accumulate five US number-one singles since Michael Jackson. Having sold over 20 million albums on the Gaon Music Chart, BTS is the best-selling artist in South Korean history and holds the best-selling album in South Korea with Map of the Soul: 7. They are the first Asian and non-English speaking act to be named International Federation of the Phonographic Industry (IFPI) Global Recording Artist of the Year (2020), to chart on Billboard\'s Top Touring Artists of the 2010s (placing at number 45), and to headline and sell out Wembley Stadium and Rose Bowl Stadium (Love Yourself World Tour in 2019). Featured on Time\'s international cover as "Next Generation Leaders" and dubbed "Princes of Pop", BTS has also appeared on the magazine\'s lists of the 25 most influential people on the internet (2017–2019) and the 100 most influential people in the world (2019). The group\'s numerous accolades include six American Music Awards, nine Billboard Music Awards, 24 Golden Disk Awards, and nominations for two Grammy Awards and a Brit Award. Outside of music, they partnered with UNICEF to establish the Love Myself anti-violence campaign, addressed three United Nations General Assemblies, and became the youngest ever recipients of the Order of Cultural Merit from the President of South Korea due to their contributions in spreading Korean culture and language.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kid_Cudi', 'artist_name': 'Kid Cudi', 'wiki': 'http://en.wikipedia.org/wiki/Kid_Cudi', 'birth_date': '30 January 1984', 'start_year': '2003', 'plays_in': ['http://dbpedia.org/resource/James_White_(film)', 'http://dbpedia.org/resource/Maniac_(2011_film)'], 'related_artists': ['http://dbpedia.org/resource/Choo_Jackson', 'http://dbpedia.org/resource/Crada_(producer)', 'http://dbpedia.org/resource/Dan_Black', 'http://dbpedia.org/resource/Dot_da_Genius', 'http://dbpedia.org/resource/E*vax', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Johnny_Polygon', 'http://dbpedia.org/resource/K._Sparks', 'http://dbpedia.org/resource/King_Chip', 'http://dbpedia.org/resource/Plain_Pat', 'http://dbpedia.org/resource/Raphael_Saadiq', 'http://dbpedia.org/resource/Ratatat', 'http://dbpedia.org/resource/Take_a_Daytrip', 'http://dbpedia.org/resource/Teddy_Walton'], 'abstract': 'Scott Ramon Seguro Mescudi (born January 30, 1984), better known by his stage name Kid Cudi (/ˈkʌdi/ KUDD-ee; often stylized as KiD CuDi), is an American rapper, singer, songwriter, record producer and actor. He has widely been recognized as an influence on several contemporary hip hop and alternative acts. His music is often autobiographical, telling of his childhood hardships dealing with depression, loneliness and alienation, his struggle with alcohol and drugs into adulthood, as well as themes of heartbreak, dissipation and celebration. Cudi began to gain major recognition following the release of his first official full-length project, a mixtape titled A Kid Named Cudi (2008), which caught the attention of American musician Kanye West, who subsequently signed Cudi to his GOOD Music label imprint by late 2008. In early 2008, Cudi had risen to prominence with the release of his commercial debut single "Day \'n\' Nite", which became a worldwide hit. The song was later featured on Cudi\'s seminal debut studio album, Man on the Moon: The End of Day (2009), which was eventually certified double platinum by the Recording Industry Association of America (RIAA) in 2017. The album also included the singles "Make Her Say" and "Pursuit of Happiness", both of which achieved significant chart success. In 2010, Cudi released his second album Man on the Moon II: The Legend of Mr. Rager, which features the singles "Erase Me" and "Mr. Rager". Later that year he formed WZRD, a rock band, with his long-time collaborator Dot da Genius. Their eponymous debut album (2012) debuted at number one on the Billboard Top Rock Albums chart. Cudi has since released the solo albums Indicud (2013), Satellite Flight: The Journey to Mother Moon (2014), Speedin\' Bullet 2 Heaven (2015), Passion, Pain &amp; Demon Slayin\' (2016), and Man on the Moon III: The Chosen (2020). Cudi\'s joint album with Kanye West, under the eponymous name Kids See Ghosts (2018), was met with widespread critical acclaim and was named among the best albums of 2018. In 2020, Cudi earned his first number-one song on the US Billboard Hot 100 chart with "The Scotts", a collaboration with Houston rapper Travis Scott. Cudi has sold 22 million certified records in the United States and has won two Grammy Awards from five nominations. He has worked with numerous prominent artists spanning several different genres in the music industry, such as Jay-Z, Eminem, Kendrick Lamar, David Guetta, Steve Aoki, MGMT, Mary J. Blige, Shakira, Ariana Grande and Michael Bolton, among others. After signing to GOOD Music, Cudi has since gone on to launch his own vanity labels, the now-dissolved Dream On and current label imprint Wicked Awesome Records. Cudi also ventured into acting when he was cast in the HBO series How to Make It in America. He has since appeared in several feature films, including Goodbye World (2013), Need for Speed (2014), Entourage (2015) and Bill &amp; Ted Face the Music (2020). In addition, he has made appearances on television shows such as One Tree Hill, The Cleveland Show, Brooklyn Nine-Nine, and Westworld. In 2015, he was the bandleader on the IFC series Comedy Bang! Bang! and in 2020 was added as a cast member for the HBO mini-series We Are Who We Are.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Migos', 'artist_name': 'Migos', 'wiki': 'http://en.wikipedia.org/wiki/Migos', 'hometown': 'http://dbpedia.org/resource/Lawrenceville,_Georgia', 'start_year': '2008', 'labels': ['http://dbpedia.org/resource/300_Entertainment', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Motown', 'http://dbpedia.org/resource/Quality_Control_Music'], 'genres': ['http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Trap_music'], 'actual_members': ['http://dbpedia.org/resource/Offset_(rapper)', 'http://dbpedia.org/resource/Quavo', 'http://dbpedia.org/resource/Takeoff_(rapper)'], 'related_artists': ['http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Buddah_Bless', 'http://dbpedia.org/resource/Carnage_(DJ)', 'http://dbpedia.org/resource/DJ_Durel', 'http://dbpedia.org/resource/Deko', 'http://dbpedia.org/resource/Doughboy_(record_producer)', 'http://dbpedia.org/resource/Gradur', 'http://dbpedia.org/resource/Gucci_Mane', 'http://dbpedia.org/resource/Honorable_C.N.O.T.E.', 'http://dbpedia.org/resource/Marty_Baller', 'http://dbpedia.org/resource/Murda_Beatz', 'http://dbpedia.org/resource/OG_Parker', 'http://dbpedia.org/resource/Offset_(rapper)', 'http://dbpedia.org/resource/Quavo', 'http://dbpedia.org/resource/Rayven_Justice', 'http://dbpedia.org/resource/Rich_the_Kid', 'http://dbpedia.org/resource/Ricky_Racks', 'http://dbpedia.org/resource/Section_8_(record_producer)', 'http://dbpedia.org/resource/Takeoff_(rapper)', 'http://dbpedia.org/resource/Taylor_Girlz', 'http://dbpedia.org/resource/Tommee_Profitt', 'http://dbpedia.org/resource/Young_Thug', 'http://dbpedia.org/resource/Zaytoven'], 'abstract': 'Migos (/ˈmiːɡoʊs/) are an American hip hop trio from Lawrenceville, Georgia, founded in 2008. The group is composed of three rappers known by their stage names Quavo, Offset, and Takeoff. They are managed by Coach K, the former manager of Atlanta-based rappers Gucci Mane and Young Jeezy, and frequently collaborate with producers such as Zaytoven, DJ Durel, Murda Beatz, and Buddah Bless. Migos released their commercial debut single "Versace" in 2013, taken from their mixtape Y.R.N. (Young Rich Niggas). They have gone on to release several more singles, including "Fight Night" (2014), "Look at My Dab" (2015), and their four Billboard Hot 100 top 10 entries "Bad and Boujee" (featuring Lil Uzi Vert) (2016), peaking at number one, "MotorSport" (with Nicki Minaj and Cardi B) (2017), peaking at six, "Stir Fry" (2018), peaking at eight, and "Walk It Talk It" (featuring Drake) (2018), peaking at ten. Migos released their debut album Yung Rich Nation in July 2015, through Quality Control Music and 300 Entertainment. Their second album, Culture, was released in January 2017 also through both record labels, and debuted atop the US Billboard 200 chart. The group later signed a deal with Motown and Capitol Records in February 2017, and followed up the latter album with Culture II in January 2018, giving the group their second number one album in the United States. In 2021, the trio released their long-awaited fourth album Culture III, the third and final installment of their Culture trilogy.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gwen_Stefani', 'artist_name': 'Gwen Stefani', 'wiki': 'http://en.wikipedia.org/wiki/Gwen_Stefani', 'birth_date': '03 October 1969', 'start_year': '1986', 'aliases': ['Gwen Shelton'], 'related_artists': ['http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Anita_Antoinette', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bradley_Nowell', 'http://dbpedia.org/resource/Bud_Gaugh', 'http://dbpedia.org/resource/Elan_Atias', 'http://dbpedia.org/resource/Eric_Stefani', 'http://dbpedia.org/resource/Eric_Wilson_(bassist)', 'http://dbpedia.org/resource/Eva_Gardner', 'http://dbpedia.org/resource/Gail_Ann_Dorsey', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Kristopher_Pooley', 'http://dbpedia.org/resource/MC_Kinky', 'http://dbpedia.org/resource/Mad_Lion', 'http://dbpedia.org/resource/Makoto_Izumitani', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Piers_Baron', 'http://dbpedia.org/resource/Raja_Kumari', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Sublime_(band)', 'http://dbpedia.org/resource/Taylor_John_Williams', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Viktor_Király'], 'abstract': 'Gwen Renée Stefani (/stəˈfɑːni/; born October 3, 1969) is an American singer and songwriter. She is a co-founder, lead vocalist, and the primary songwriter of the band No Doubt, whose singles include "Just a Girl", "Spiderwebs", and "Don\'t Speak", from their 1995 breakthrough studio album Tragic Kingdom, as well as "Hey Baby" and "It\'s My Life" from later albums. During the band\'s hiatus, Stefani embarked on a solo pop career in 2004 by releasing her debut studio album Love. Angel. Music. Baby. Inspired by pop music from the 1980s, the album was a critical and commercial success. It spawned six singles, including "What You Waiting For?", "Rich Girl", "Hollaback Girl", and "Cool". "Hollaback Girl" reached number one on the Billboard Hot 100 chart while also becoming the first US download to sell one million copies. In 2006, Stefani released her second studio album, The Sweet Escape. Among the singles were "Wind It Up" and "The Sweet Escape", the latter of which was number three on the Billboard Hot 100 year-end chart of 2007. Her third solo album, This Is What the Truth Feels Like (2016), was her first solo album to reach number one on the Billboard 200 chart. Her fourth solo album and first full-length Christmas-themed album, You Make It Feel Like Christmas, was released in 2017 and charted 19 tracks on Billboard\'s Holiday Digital Song Sales component chart in the United States. Stefani has released several singles with Blake Shelton, including "Nobody but You" (2020), which reached number 18 in the US. Stefani has won three Grammy Awards. As a solo artist, she has received an American Music Award, Brit Award, World Music Award, and two Billboard Music Awards. In 2003, she debuted her clothing line L.A.M.B. and expanded her collection with the 2005 Harajuku Lovers line, inspired by Japanese culture and fashion. Billboard magazine ranked Stefani the 54th most successful artist and 37th most successful Hot 100 artist of the 2000–2009 decade. VH1 ranked her 13th on their "100 Greatest Women in Music" list in 2012. Including her work with No Doubt, Stefani has sold more than 30 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skid_Row_(Irish_band)', 'artist_name': 'Skid Row', 'wiki': 'http://en.wikipedia.org/wiki/Skid_Row_(Irish_band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1967', 'end_year': '1972', 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Psychedelic_rock'], 'old_members': ['http://dbpedia.org/resource/Brush_Shiels', 'http://dbpedia.org/resource/Ed_Deane', 'http://dbpedia.org/resource/Gary_Moore', 'http://dbpedia.org/resource/John_Wilson_(drummer)', 'http://dbpedia.org/resource/Kevin_McAlea', 'http://dbpedia.org/resource/Noel_Bridgeman', 'http://dbpedia.org/resource/Paul_Chapman_(musician)', 'http://dbpedia.org/resource/Phil_Lynott', 'http://dbpedia.org/resource/Robbie_Brennan', 'Eamonn Gibney', 'Bernard "Bernie" Cheevers', 'Noel "Nollaig" Bridgeman'], 'related_artists': ['http://dbpedia.org/resource/Brush_Shiels', 'http://dbpedia.org/resource/Eric_Bell', 'http://dbpedia.org/resource/Gary_Moore', 'http://dbpedia.org/resource/Gerry_McAvoy', 'http://dbpedia.org/resource/Noel_Bridgeman', 'http://dbpedia.org/resource/Paul_Chapman_(musician)', 'http://dbpedia.org/resource/Phil_Lynott', 'http://dbpedia.org/resource/Thin_Lizzy'], 'abstract': 'Skid Row were an Irish blues rock band of the late 1960s and early 1970s, based in Dublin and fronted by bass guitarist Brendan "Brush" Shiels. It was the first band in which future Thin Lizzy members Phil Lynott and Gary Moore played professionally.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Everlast', 'artist_name': 'Everlast', 'wiki': 'http://en.wikipedia.org/wiki/Everlast', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'birth_date': '18 August 1969', 'start_year': '1989', 'aliases': ['Whitey Ford'], 'labels': ['http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/PIAS_Recordings', 'http://dbpedia.org/resource/The_Island_Def_Jam_Music_Group', 'http://dbpedia.org/resource/Tommy_Boy_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Blues', 'http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Bronx_Style_Bob', 'http://dbpedia.org/resource/Cypress_Hill', 'http://dbpedia.org/resource/DJ_Muggs', 'http://dbpedia.org/resource/Darius_Holbert', 'http://dbpedia.org/resource/Divine_Styler', 'http://dbpedia.org/resource/House_of_Pain', 'http://dbpedia.org/resource/Ice-T', 'http://dbpedia.org/resource/Ill_Bill', 'http://dbpedia.org/resource/Kurupt', 'http://dbpedia.org/resource/La_Coka_Nostra', 'http://dbpedia.org/resource/Sadat_X', 'http://dbpedia.org/resource/Santana_(band)', 'http://dbpedia.org/resource/Siba_Giba', 'http://dbpedia.org/resource/Soul_Assassins', 'http://dbpedia.org/resource/The_Alchemist_(musician)', 'http://dbpedia.org/resource/The_Soul_of_John_Black', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Erik Francis Schrody (born August 18, 1969), known by his stage name Everlast, is an American musician, singer, rapper, and songwriter, known for his solo work and as the frontman for hip hop group House of Pain. He was also part of the hip hop supergroup La Coka Nostra, which consists of members of House of Pain and other rappers. In 2000, he received a Grammy Award for Best Rock Performance by a Duo or Group with Vocal with Latin rock band Santana for "Put Your Lights On".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Chrysalis_Records', 'http://dbpedia.org/resource/Elektra_Records'], 'plays_in': ['http://dbpedia.org/resource/Animal_Crackers_(2017_film)'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music'], 'actual_members': ['http://dbpedia.org/resource/Huey_Lewis', 'http://dbpedia.org/resource/Johnny_Colla', 'John Pierce', 'James Harrah', 'Bill Gibson', 'Stef Burns', 'Sean Hopper'], 'old_members': ['http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'Mario Cipollina', 'Chris Hayes'], 'related_artists': ['http://dbpedia.org/resource/Bill_Schnee', 'http://dbpedia.org/resource/Clover_(band)', 'http://dbpedia.org/resource/Joel_Jaffe', 'http://dbpedia.org/resource/John_McFee__John_McFee__1', 'http://dbpedia.org/resource/Johnny_Colla', 'http://dbpedia.org/resource/Nick_Lowe', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rubicon_(American_band)', 'http://dbpedia.org/resource/Tower_of_Power'], 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'plays_in': ['http://dbpedia.org/resource/Inside_Living_Things'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Electronic_rock', 'rap rock', 'Alternative rock', 'pop rock', 'nu metal'], 'actual_members': ['Rob Bourdon', 'Brad Delson', 'Mike Shinoda', 'Dave Farrell', 'Joe Hahn'], 'old_members': ['Mark Wakefield', 'Chester Bennington'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nelly_Furtado', 'artist_name': 'Nelly Furtado', 'wiki': 'http://en.wikipedia.org/wiki/Nelly_Furtado', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Alex_Cuba', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Brian_West_(musician)', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Dima_Bilan', 'http://dbpedia.org/resource/Gabriel_Coss', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jelleestone', 'http://dbpedia.org/resource/Jon_Levine', 'http://dbpedia.org/resource/Juanes', 'http://dbpedia.org/resource/Jurassic_5', "http://dbpedia.org/resource/K'naan", 'http://dbpedia.org/resource/Kim_Bingham', 'http://dbpedia.org/resource/Mala_Rodríguez', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Rea_Garvey', 'http://dbpedia.org/resource/Russ_Miller', 'http://dbpedia.org/resource/Saukrates', 'http://dbpedia.org/resource/Sean_Kelly_(Canadian_musician)', 'http://dbpedia.org/resource/SoShy', 'http://dbpedia.org/resource/StayBent_Krunk-a-Delic'], 'abstract': 'Nelly Kim Furtado ComIH (/fɜːrˈtɑːdoʊ/; Portuguese: [fuɾˈtaðu]; born December 2, 1978) is a Canadian singer and songwriter. She first gained fame with her trip hop-inspired debut album, Whoa, Nelly! (2000), which was a critical and commercial success that spawned two top-10 singles on the Billboard Hot 100, "I\'m Like a Bird" and "Turn Off the Light". The first of the two singles won her a Grammy Award for Best Female Pop Vocal Performance. Furtado\'s introspective folk-heavy 2003 second album, Folklore, explored her Portuguese roots. Its singles received moderate success in Europe, but the album\'s underperformance compared to her debut was regarded as a sophomore slump. Furtado\'s third album, Loose (2006), was a smash hit and became her bestselling album, with more than 12 million copies sold worldwide, also making it one of the bestselling albums of the 2000s. Considered a radical image reinvention, Furtado continued to explore her Portuguese heritage while leaning heavier into hip hop. The album spawned four successful number-one singles worldwide; "Promiscuous", "Maneater", "Say It Right", and "All Good Things (Come to an End)". Her Timbaland collaboration "Give It to Me" (2007) in the same era also topped the charts in the US and overseas. Furtado\'s critically acclaimed duet with James Morrison, "Broken Strings", also topped the charts in Europe in 2008. She released her first Spanish-language album, Mi Plan, in 2009, which won her a Latin Grammy Award for Best Female Pop Vocal Album. In 2012, Furtado released her nostalgia-inspired fifth album The Spirit Indestructible. Furtado split with her management and went independent thereafter, releasing her indie-pop sixth album, The Ride, in 2017 under her own label Nelstar Entertainment. Furtado has sold over 40 million records worldwide, making her one of the most successful Canadian artists. She has won several awards throughout her career, including one Grammy Award from seven nominations, one Latin Grammy Award, ten Juno Awards, one BRIT Award, one Billboard Music Award, one MTV Europe Music Award, one World Music Award, and three Much Music Video Awards. Furtado has a star on Canada\'s Walk of Fame, and was awarded Commander of the Order of Prince Henry on February 28, 2014, in Toronto by Aníbal Cavaco Silva, the then-President of Portugal.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pink_(singer)', 'artist_name': 'P!nk', 'wiki': 'http://en.wikipedia.org/wiki/Pink_(singer)', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Pink:_All_I_Know_So_Far'], 'related_artists': ['http://dbpedia.org/resource/Barb_Morrison', 'http://dbpedia.org/resource/Belén_Arjona', 'http://dbpedia.org/resource/Beth_Cohen_(musician)', 'http://dbpedia.org/resource/Bibi_McGill', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Chin_Injeti', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Dave_Carlock', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Eva_Gardner', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Henrik_Janson', 'http://dbpedia.org/resource/Indigo_Girls', 'http://dbpedia.org/resource/Janis_Tanaka', 'http://dbpedia.org/resource/Joi_(singer)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Leah_Randi', 'http://dbpedia.org/resource/Marcella_Araica', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/No_Doubt', 'http://dbpedia.org/resource/Peter_Thomas_(musician)', "http://dbpedia.org/resource/Rag'n'Bone_Man__Rag'n'Bone_Man__1", 'http://dbpedia.org/resource/Rob_Chiarelli', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Screechy_Peach', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/The_New_Royales', 'http://dbpedia.org/resource/Tony_Kanal'], 'abstract': 'Alecia Beth Moore (born September 8, 1979), known professionally as Pink (stylized as P!nk), is an American singer and songwriter. She was originally a member of the girl group Choice. In 1995, LaFace Records saw potential in Pink and offered her a solo recording contract. Her R&amp;B-influenced debut studio album Can\'t Take Me Home (2000) was certified double-platinum in the United States and spawned two Billboard Hot 100 top-ten songs: "There You Go" and "Most Girls". She gained further recognition with the collaborative single "Lady Marmalade" from the Moulin Rouge! soundtrack, which topped many charts worldwide. Refocusing her sound to pop rock with her second studio album Missundaztood (2001), the album sold more than 13 million copies worldwide and yielded the international number-one songs "Get the Party Started", "Don\'t Let Me Get Me", and "Just Like a Pill". While Pink\'s third studio album, Try This (2003), sold significantly less than her previous work, it earned her the Grammy Award for Best Female Rock Vocal Performance. She returned to the top of record charts with her fourth and fifth studio albums, I\'m Not Dead (2006) and Funhouse (2008), which spawned the top-ten entries "Who Knew" and "U + Ur Hand", as well as the number-one single "So What". Pink\'s sixth studio album, The Truth About Love (2012), was her first Billboard 200 number-one album and spawned her fourth US number-one single, "Just Give Me a Reason". In 2014, Pink recorded a collaborative album, Rose Ave., with Canadian musician Dallas Green under a folk music duo named You+Me. Her next studio albums, Beautiful Trauma (2017) and Hurts 2B Human (2019), both debuted at atop the Billboard 200 chart, with the former becoming the world\'s third best-selling album of the year. Noted for her distinctive raspy voice and acrobatic stage presence, Pink has sold over 100 million records worldwide, making her one of the world\'s best-selling music artists. Her career accolades include three Grammy Awards, two Brit Awards, a Daytime Emmy Award and seven MTV Video Music Awards, including the Michael Jackson Video Vanguard Award. In 2009, Billboard named Pink the Pop Songs Artist of the Decade. Pink was also the second most-played female solo artist in the United Kingdom during the 2000s decade, behind only Madonna. VH1 ranked her at number ten on their list of the 100 Greatest Women in Music, while Billboard awarded her the Woman of the Year award in 2013. At the 63rd annual BMI Pop Awards, she received the BMI President\'s Award for "her outstanding achievement in songwriting and global impact on pop culture and the entertainment industry."'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Supergrass', 'artist_name': 'Supergrass', 'wiki': 'http://en.wikipedia.org/wiki/Supergrass', 'hometown': 'http://dbpedia.org/resource/Oxford', 'start_year': '1993', 'end_year': '1993', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Cooking_Vinyl', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Sub_Pop', 'http://dbpedia.org/resource/Supergrass_(album)', 'http://dbpedia.org/resource/The_Echo_Label', 'http://dbpedia.org/resource/The_Island_Def_Jam_Music_Group'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Britpop'], 'actual_members': ['http://dbpedia.org/resource/Danny_Goffey', 'http://dbpedia.org/resource/Gaz_Coombes', 'http://dbpedia.org/resource/Mick_Quinn', 'http://dbpedia.org/resource/Rob_Coombes'], 'old_members': ['http://dbpedia.org/resource/Dom_and_Nic', 'Danny Goffey', 'Dan Fox', 'Gaz Coombes', 'Andy Davies'], 'related_artists': ['http://dbpedia.org/resource/22-20s', 'http://dbpedia.org/resource/Charly_Coombes', 'http://dbpedia.org/resource/Danny_Goffey', 'http://dbpedia.org/resource/Gaz_Coombes', 'http://dbpedia.org/resource/Laurence_Colbert', 'http://dbpedia.org/resource/Lodger_(British_band)', 'http://dbpedia.org/resource/Mick_Quinn', 'http://dbpedia.org/resource/Robert_Carranza', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Sam_Williams_(record_producer)', 'http://dbpedia.org/resource/Supergrass', 'http://dbpedia.org/resource/Swervedriver', 'http://dbpedia.org/resource/The_Hotrats'], 'abstract': 'Supergrass are an English rock band formed in 1993 in Oxford. The band consists of brothers Gaz (guitar and lead vocals) and Rob Coombes (keyboards), Mick Quinn (bass and backing vocals) and Danny Goffey (drums and backing vocals). Originally a 3-piece, Gaz\'s brother Rob Coombes officially joined the band in 2002. The band signed to Parlophone Records in 1994 and produced I Should Coco (1995), the best-selling debut album for the label since The Beatles\' Please Please Me. Their first album\'s fourth single "Alright" was a huge international hit that established the band\'s reputation. Since then the band have released five albums: In It for the Money (1997), Supergrass (1999), Life on Other Planets (2002), Road to Rouen (2005) and Diamond Hoo Ha (2008), as well as a decade-ending compilation called Supergrass Is 10 (2004). In August 2009 the band signed to Cooking Vinyl and began work on their seventh studio album Release the Drones. The album remained unreleased and unfinished as, on 12 April 2010, the band announced that they were splitting up due to musical and creative differences. The group disbanded after four farewell gigs, the final one at La Cigale, Paris on 11 June 2010. The band reformed in 2019, initially to perform at Pilton Party followed by a ‘secret’ gig at Oslo in Hackney, London.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kevin_Rudolf', 'artist_name': 'Kevin Rudolf', 'wiki': 'http://en.wikipedia.org/wiki/Kevin_Rudolf', 'hometown': 'http://dbpedia.org/resource/Pulaski,_Mississippi', 'birth_date': '17 February 1983', 'start_year': '2000', 'aliases': ['Binocular'], 'labels': ['http://dbpedia.org/resource/Cash_Money_Records', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Maverick_(company)', 'http://dbpedia.org/resource/Primary_Wave_(company)', 'http://dbpedia.org/resource/Universal_Records_(1995−2005)'], 'genres': ['http://dbpedia.org/resource/Dance-punk', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Rap_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Southern_hip_hop', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/David_Banner', 'http://dbpedia.org/resource/David_Rush_(rapper)', 'http://dbpedia.org/resource/Kevin_Lyttle', 'http://dbpedia.org/resource/Lifehouse_(band)', 'http://dbpedia.org/resource/Lil_Wayne', 'http://dbpedia.org/resource/T_Lopez'], 'abstract': 'Kevin Winston Rudolf (born February 17, 1983) is an American singer, songwriter, record producer, rapper, and multi-instrumentalist from New York City, New York. He is best known for his 2008 single "Let It Rock".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Dragonette', 'artist_name': 'Dragonette', 'wiki': 'http://en.wikipedia.org/wiki/Dragonette', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '2005', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Universal_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/G.B.F._(film)'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'actual_members': ['http://dbpedia.org/resource/Martina_Sorbara'], 'old_members': ['Dan Kurtz', 'Joel Stouffer', 'Simon Craig', 'Will Stapleton', 'Chris Huggett'], 'related_artists': ['http://dbpedia.org/resource/Idoling!!!', 'http://dbpedia.org/resource/Joey_Stylez__Joey_Stylez__1', 'http://dbpedia.org/resource/Kaskade', 'http://dbpedia.org/resource/Martin_Solveig', 'http://dbpedia.org/resource/Martina_Sorbara', 'http://dbpedia.org/resource/Mike_Mago', 'http://dbpedia.org/resource/The_New_Deal_(band)'], 'abstract': "Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal), and drummer Joel Stouffer. Dragonette released a self-titled EP in 2005 before being signed to Mercury Records and relocating to London, where they recorded and released their debut studio album, Galore, in August 2007 to moderate critical appreciation. A second studio album, Fixin to Thrill, was released in September 2009. The group's third studio album, Bodyparts, was released in September 2012 and their fourth, Royal Blues, followed in November 2016. Following the relationship split of founding members Martina Sorbara and Dan Kurtz in 2016, Kurtz also left the group. He elected to rejoin his previous band The New Deal. Sorbara has since announced she will be continuing the Dragonette name as a solo artist henceforth."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Harry_Styles', 'artist_name': 'Harry Styles', 'wiki': 'http://en.wikipedia.org/wiki/Harry_Styles', 'birth_date': '01 February 1994', 'start_year': '2010', 'related_artists': ['http://dbpedia.org/resource/Muna_(band)', 'http://dbpedia.org/resource/Pauli_Lovejoy', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Sarah_Jones_(drummer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)'], 'abstract': 'Harry Edward Styles (born 1 February 1994) is an English singer, songwriter, and actor. His musical career began in 2010 as a solo contestant on the British music competition series The X Factor. Following his elimination early on, he was brought back to join the boy band One Direction, which went on to become one of the best-selling boy bands of all time. Styles released his self-titled debut solo album through Columbia Records in 2017. It debuted at number one in the UK and the US, and became one of the world\'s top-ten best-selling albums of the year. Its lead single, "Sign of the Times", topped the UK Singles Chart. Styles made his acting debut in Christopher Nolan\'s 2017 war film Dunkirk. His second album, Fine Line (2019), debuted atop the US Billboard 200 with the biggest first-week sales by an English male artist in history, and was listed among Rolling Stone\'s "500 Greatest Albums of All Time" in 2020. Its fourth single, "Watermelon Sugar", topped the US Billboard Hot 100. Throughout his career, Styles has earned several accolades, including two Brit Awards, a Grammy Award, an Ivor Novello Award, and an American Music Award. Aside from music, he is also known for his flamboyant fashion, and is the first man to appear solo on the cover of Vogue magazine.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Razorlight', 'artist_name': 'Razorlight', 'wiki': 'http://en.wikipedia.org/wiki/Razorlight', 'start_year': '2002', 'end_year': '2014', 'labels': ['http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Vertigo_Records'], 'genres': ['http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Andy_Burrows', 'http://dbpedia.org/resource/Johnny_Borrell', 'http://dbpedia.org/resource/Reni_Lane', 'Carl Dalemo', 'Björn Ågren'], 'old_members': ['Ben Ellis', 'David Ellis', 'David Sullivan Kaplan', 'Freddie Stitz', 'Gus Robertson', 'Harry Deacon', 'João Mello', 'Mat Hector', 'Shïan Smith-Pancorvo'], 'related_artists': ['http://dbpedia.org/resource/Andy_Burrows', 'http://dbpedia.org/resource/I_Am_Arrows', 'http://dbpedia.org/resource/Johnny_Borrell', 'http://dbpedia.org/resource/The_Chavs', 'http://dbpedia.org/resource/The_Libertines'], 'abstract': 'Razorlight are an English indie rock band, formed in 2002 in London by lead singer and guitarist Johnny Borrell. Along with Borrell, the current line-up of the band is composed of founding members Björn Ågren on guitar and bassist Carl Delemo, as well as drummer Andy Burrows. This lineup is a reunion of the lineup from the band\'s second and third albums. The band have gone through several line-up changes, with Borrell remaining the sole permanent member. They released three studio albums before splitting up in 2014. The band reformed in 2017 and released the album Olympus Sleeping in 2018. They are best known for the singles "Golden Touch" and "America", the latter of which was a number-one single on the UK Singles Chart in 2006.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Ellie_Goulding', 'birth_date': '30 December 1986', 'start_year': '2009', 'related_artists': ['http://dbpedia.org/resource/Active_Child', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Arcades_(band)', 'http://dbpedia.org/resource/Carl_Falk', 'http://dbpedia.org/resource/Chris_Ketley', 'http://dbpedia.org/resource/Clean_Bandit', 'http://dbpedia.org/resource/Erik_Hassle', 'http://dbpedia.org/resource/Gemini_(musician)', 'http://dbpedia.org/resource/Hitimpulse', 'http://dbpedia.org/resource/Jakwob', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Lissie', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Openside', 'http://dbpedia.org/resource/Seye_Adelekan', 'http://dbpedia.org/resource/Shy_Martin', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Steven_Malcolmson', 'http://dbpedia.org/resource/Stevie_Blacke', 'http://dbpedia.org/resource/Tarrus_Riley', 'http://dbpedia.org/resource/Tinie_Tempah'], 'abstract': 'Elena Jane Goulding (/ˈɡoʊldɪŋ/ GOHL-ding; born 30 December 1986) is an English singer and songwriter. Her career began when she met record producers Starsmith and Frankmusik, and she was later spotted by Jamie Lillywhite, who later became her manager and A&amp;R. After signing to Polydor Records in July 2009, Goulding released her debut extended play, An Introduction to Ellie Goulding later that year. In 2010, she became the second artist to top the BBC\'s annual Sound of... poll and win the Critics\' Choice Award at the Brit Awards in the same year. She released her debut studio album, Lights, in 2010; it debuted at No.\u20091 on the UK Albums Chart and has sold over 850,000 copies in the United Kingdom. In November 2010, the album was reissued as Bright Lights, which spawned two singles: a cover of Elton John\'s "Your Song" which was selected for the first John Lewis Christmas advert, reached No.\u20092 on the UK Singles Chart, and "Lights", which became Goulding\'s highest-charting single on the US Billboard Hot 100 to date, peaking at No.\u20092. Goulding\'s second studio album, Halcyon, was released in October 2012. "Anything Could Happen" preceded the album as the lead single. The album debuted at No.\u20092 on the UK Albums Chart, and after 65 weeks, it reached No.\u20091. Halcyon debuted at No.\u20099 on the US Billboard 200. Halcyon Days, a repackaged edition of Halcyon, was released in August 2013, generating singles, such as "Burn", which became her first No.\u20091 single in the UK. At the 2014 Brit Awards, she received the award for British Female Solo Artist. Goulding released her third studio album, titled Delirium, on 6 November 2015, with "On My Mind" as the album\'s lead single. In December 2015, she received her first Grammy Award nomination for Best Pop Solo Performance for her single "Love Me Like You Do". Her fourth studio album Brightest Blue was released on 17 July 2020, becoming her third to top the UK Albums Chart, and her fourth consecutive RIAA certified album.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kenny_Loggins', 'artist_name': 'Kenny Loggins', 'wiki': 'http://en.wikipedia.org/wiki/Kenny_Loggins', 'birth_date': '07 January 1948', 'start_year': '1968', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Walt_Disney_Records'], 'plays_in': ['http://dbpedia.org/resource/Crack_a_Smile..._and_More!', "http://dbpedia.org/resource/Donald_Trump's_The_Art_of_the_Deal:_The_Movie", 'http://dbpedia.org/resource/Footloose_(1984_film)'], 'related_artists': ['http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Carolyn_Dennis', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Doug_Jackson_(musician)', 'http://dbpedia.org/resource/Loren_Gold', 'http://dbpedia.org/resource/Max_Carl', 'http://dbpedia.org/resource/Michael_McDonald_(musician)', 'http://dbpedia.org/resource/Neil_Giraldo', 'http://dbpedia.org/resource/Pamela_Polland', 'http://dbpedia.org/resource/Paul_Peterson', 'http://dbpedia.org/resource/Steve_DiStanislao', 'http://dbpedia.org/resource/Tris_Imboden'], 'abstract': 'Kenneth Clark Loggins (born January 7, 1948) is an American musician, singer and songwriter. His early songs were recorded with the Nitty Gritty Dirt Band in 1970, which led to seven albums recorded as Loggins and Messina from 1972 to 1977. His early soundtrack contributions date back to A Star Is Born in 1976, and he is known as the King of the Movie Soundtrack. As a solo artist, Loggins experienced a string of soundtrack successes, including an Academy Award nomination for "Footloose" in 1985. Finally Home was released in 2013, shortly after Loggins formed the group Blue Sky Riders with Gary Burr and Georgia Middleman. He won a Daytime Emmy Award, two Grammy Awards, and was nominated for an Academy Award, a Tony Award, and a Golden Globe Award.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Phum_Viphurit', 'artist_name': 'Phum Viphurit', 'wiki': 'http://en.wikipedia.org/wiki/Phum_Viphurit', 'birth_date': '16 August 1995', 'start_year': '2014', 'aliases': ['Phum'], 'genres': ['http://dbpedia.org/resource/Indie_folk', 'http://dbpedia.org/resource/Neo_soul'], 'related_artists': ['http://dbpedia.org/resource/Higher_Brothers', 'http://dbpedia.org/resource/Niki_(singer)'], 'abstract': 'Viphurit Siritip (Thai: วิภูริศ ศิริทิพย์, born 1995), known by his nickname Phum (ภูมิ), is a Thai singer-songwriter. He achieved international fame in 2018 from his single "Lover Boy". His music demonstrates influences of various genres, especially neo soul.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Lady_Gaga', 'birth_date': '28 March 1986', 'start_year': '2001', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Percy_Jackson_&amp;_the_Olympians:_The_Lightning_Thief'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Bree_Runway', 'http://dbpedia.org/resource/Cazwell', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Clinton_Sparks', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Hyper_Crush', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Kalenna_Harper', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Melle_Mel', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Nico_Constantine', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Rafa_Sardina', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Salem_Al_Fakir', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Space_Cowboy_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Vincent_Herbert', 'http://dbpedia.org/resource/Water_(producer)'], 'abstract': 'Stefani Joanne Angelina Germanotta (/ˈstɛfəni ˌdʒɜːrməˈnɒtə/ STEF-ən-ee JUR-mə-NOT-ə; born March 28, 1986), known professionally as Lady Gaga, is an American singer, songwriter, and actress. She is known for her image reinventions and musical versatility. Gaga began performing as a teenager, singing at open mic nights, and acting in school plays. She studied at Collaborative Arts Project 21, through New York University\'s Tisch School of the Arts, before dropping out to pursue a career in music. After Def Jam Recordings canceled her contract, she worked as a songwriter for Sony/ATV Music Publishing, where she signed a joint deal with Interscope Records and Akon\'s label, KonLive Distribution, in 2007. Gaga rose to prominence the following year with her debut studio album, The Fame, and its chart-topping singles "Just Dance" and "Poker Face". The album was later reissued to include the EP The Fame Monster (2009), which yielded the successful singles "Bad Romance", "Telephone", and "Alejandro". Gaga\'s five succeeding studio albums all debuted atop the US Billboard 200. Her second full-length album, Born This Way (2011), explored electronic rock and techno-pop and sold more than one million copies in its first week. The title track became the fastest-selling song on the iTunes Store, with over one million downloads in less than a week. Following her EDM-influenced third album, Artpop (2013), and its lead single "Applause", Gaga released the jazz album Cheek to Cheek (2014) with Tony Bennett, and the soft rock album Joanne (2016). She also ventured into acting, playing leading roles in the miniseries American Horror Story: Hotel (2015–2016), for which she received a Golden Globe Award for Best Actress, and the critically acclaimed musical drama film A Star Is Born (2018). Her contributions to the latter\'s soundtrack, which spawned the chart-topping single "Shallow", made her the first woman to win an Academy, BAFTA, Golden Globe, and Grammy Award in one year. Gaga returned to her dance-pop roots with her sixth studio album, Chromatica (2020), which yielded the number-one single "Rain on Me". She followed this with her second collaborative album with Bennett, Love for Sale, and a starring role in the biographical crime film House of Gucci, both in 2021. Having sold 124 million records as of 2014, Gaga is one of the world\'s best-selling music artists and the fourth highest-earning female musician of the 2010s. Her accolades include 12 Grammy Awards, 18 MTV Video Music Awards, 16 Guinness World Records, awards from the Songwriters Hall of Fame and the Council of Fashion Designers of America, and recognition as Billboard\'s Artist of the Year (2010) and Woman of the Year (2015). She has also been included in several Forbes\' power rankings and ranked fourth on VH1\'s Greatest Women in Music (2012). Time magazine named her one of the 100 most influential people in the world in 2010 and 2019 and placed her on their All-Time 100 Fashion Icons list. Her philanthropy and activism focus on mental health awareness and LGBT rights; in 2012, she founded the Born This Way Foundation, a non-profit organization aiming to empower youth, improve mental health, and prevent bullying. Gaga\'s business ventures include Haus Laboratories, a vegan cosmetics brand that launched in 2019.'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Eric_Clapton', 'artist_name': 'Eric Clapton', 'wiki': 'http://en.wikipedia.org/wiki/Eric_Clapton', 'birth_date': '30 March 1945', 'start_year': '1962', 'plays_in': ['http://dbpedia.org/resource/Communion_(1989_film)', 'http://dbpedia.org/resource/Concert_for_George_(film)', 'http://dbpedia.org/resource/Fragile_(Junko_Onishi_album)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Lethal_Weapon', 'http://dbpedia.org/resource/Lethal_Weapon_2', 'http://dbpedia.org/resource/Lethal_Weapon_3', 'http://dbpedia.org/resource/Lethal_Weapon_4', 'http://dbpedia.org/resource/Live_from_Madison_Square_Garden_(Eric_Clapton_and_Steve_Winwood_album)', 'http://dbpedia.org/resource/Live_in_Hyde_Park_(Eric_Clapton_album)', 'http://dbpedia.org/resource/Nil_by_Mouth_(film)', 'http://dbpedia.org/resource/Planes,_Trains_and_Eric', 'http://dbpedia.org/resource/Rush_(1991_film)', 'http://dbpedia.org/resource/The_Hit_(1984_film)', 'http://dbpedia.org/resource/The_Story_of_Us_(film)', 'http://dbpedia.org/resource/The_Van_(1996_film)', 'http://dbpedia.org/resource/Wonderwall_(film)'], 'related_artists': ['http://dbpedia.org/resource/Aashish_Khan', 'http://dbpedia.org/resource/Alan_Clark_(keyboardist)', 'http://dbpedia.org/resource/Albert_Lee__Albert_Lee__1', 'http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Amory_Kane', 'http://dbpedia.org/resource/Andy_Fairweather_Low', 'http://dbpedia.org/resource/Arthur_Louis', 'http://dbpedia.org/resource/Bill_Halverson_(producer)', 'http://dbpedia.org/resource/Billy_Preston', 'http://dbpedia.org/resource/Bob_Pridden', 'http://dbpedia.org/resource/Bobby_Keys', 'http://dbpedia.org/resource/Bobby_Whitlock__Bobby_Whitlock__1', 'http://dbpedia.org/resource/Bruce_Hornsby', 'http://dbpedia.org/resource/Buddy_Guy', 'http://dbpedia.org/resource/Bugs_Henderson', 'http://dbpedia.org/resource/Carl_Perkins', 'http://dbpedia.org/resource/Carl_Radle', 'http://dbpedia.org/resource/Carmine_Rojas', 'http://dbpedia.org/resource/Chris_Mosdell', 'http://dbpedia.org/resource/Chris_Stainton', 'http://dbpedia.org/resource/Chuck_Leavell', 'http://dbpedia.org/resource/Dave_Carlock', 'http://dbpedia.org/resource/Dave_Mason', "http://dbpedia.org/resource/Dave_O'Donnell", 'http://dbpedia.org/resource/Delaney_Bramlett', 'http://dbpedia.org/resource/Dire_Straits', 'http://dbpedia.org/resource/Double_Trouble_(band)', 'http://dbpedia.org/resource/Doyle_Bramhall_II__Doyle_Bramhall_II__1', 'http://dbpedia.org/resource/Dr._John', 'http://dbpedia.org/resource/Duane_Allman', 'http://dbpedia.org/resource/Ed_Cherney', 'http://dbpedia.org/resource/Glyn_Johns__Glyn_Johns__1', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Henry_Spinetti', 'http://dbpedia.org/resource/Ian_Wallace_(drummer)', 'http://dbpedia.org/resource/J._J._Cale__J._J._Cale__1', 'http://dbpedia.org/resource/Jakob_Dylan', 'http://dbpedia.org/resource/Jamie_Oldaker', 'http://dbpedia.org/resource/Jerry_Lynn_Williams', 'http://dbpedia.org/resource/Jim_Keltner', 'http://dbpedia.org/resource/Joey_Spampinato', 'http://dbpedia.org/resource/John_Mayer_Trio', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/Kim_Wilson', 'http://dbpedia.org/resource/Luis_Conte', 'http://dbpedia.org/resource/Mac_and_Katie_Kissoon', 'http://dbpedia.org/resource/Maggie_Ryder', 'http://dbpedia.org/resource/Marc_Benno', 'http://dbpedia.org/resource/Marcella_Detroit', 'http://dbpedia.org/resource/Marcus_Miller', 'http://dbpedia.org/resource/Mark_Knopfler', 'http://dbpedia.org/resource/Mike_Vernon_(record_producer)', 'http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Paul_Carrack', 'http://dbpedia.org/resource/Paul_Wassif', 'http://dbpedia.org/resource/Phil_Palmer', 'http://dbpedia.org/resource/Ray_Cooper', 'http://dbpedia.org/resource/Reverend_Zen', 'http://dbpedia.org/resource/Richard_Cole', 'http://dbpedia.org/resource/Richard_Johnson_(pianist)', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Rita_Coolidge', 'http://dbpedia.org/resource/Rob_Fraboni', 'http://dbpedia.org/resource/Robert_Cray', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Ronnie_Wood', 'http://dbpedia.org/resource/Ryo_Okumoto', 'http://dbpedia.org/resource/Shaun_Murphy_(singer)', 'http://dbpedia.org/resource/Simon_Climie', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/Steve_Winwood', 'http://dbpedia.org/resource/Tal_Wilkenfeld', 'http://dbpedia.org/resource/Will_Jennings', 'http://dbpedia.org/resource/Yvonne_Elliman'], 'abstract': 'Eric Patrick Clapton, CBE (born 30 March 1945) is an English rock and blues guitarist, singer, and songwriter, widely regarded as one of the most important and influential guitarists of all time. Clapton ranked second in Rolling Stone\'s list of the "100 Greatest Guitarists of All Time" and fourth in Gibson\'s "Top 50 Guitarists of All Time". He was also named number five in Time magazine\'s list of "The 10 Best Electric Guitar Players" in 2009. After playing in a number of different local bands, Clapton joined the Yardbirds in 1963, replacing founding guitarist Top Topham. Dissatisfied with the change of the Yardbirds sound from blues rock to a more radio-friendly pop rock sound, Clapton left in 1965 to play with John Mayall &amp; the Bluesbreakers. On leaving Mayall in 1966, after one album, he formed the power trio Cream with drummer Ginger Baker and bassist Jack Bruce, in which Clapton played sustained blues improvisations and "arty, blues-based psychedelic pop". After Cream broke up in November 1968, he formed the blues rock band Blind Faith with Baker, Steve Winwood, and Ric Grech, recording one album and performing on one tour before they broke up. Clapton embarked on a solo career in 1970. Alongside his solo career, he also performed with Delaney &amp; Bonnie and Derek and the Dominos, with whom he recorded "Layla", one of his signature songs. He continued to record a number of successful solo albums and songs over the next several decades, including a 1974 cover of Bob Marley\'s "I Shot the Sheriff" (which helped reggae reach a mass market), the country-infused Slowhand album (1977) and the pop rock of 1986\'s August. Following the death of his son Conor in 1991, Clapton\'s grief was expressed in the song "Tears in Heaven", which appeared on his Unplugged album, and in 1996 he had another top-40 hit with the R&amp;B crossover "Change the World". In 1998 he released the Grammy award-winning "My Father\'s Eyes". Since 1999, he has recorded a number of traditional blues and blues rock albums and hosted the periodic Crossroads Guitar Festival. His most recent studio album is Happy Xmas (2018). Clapton has received 18 Grammy Awards as well as the Brit Award for Outstanding Contribution to Music. In 2004 he was awarded a CBE for services to music. He has received four Ivor Novello Awards from the British Academy of Songwriters, Composers and Authors, including the Lifetime Achievement Award. He is the only three-time inductee to the Rock and Roll Hall of Fame: once as a solo artist and separately as a member of the Yardbirds and of Cream. In his solo career, Clapton has sold more than 280 million records worldwide, making him one of the best-selling musicians of all time. In 1998, Clapton, a recovering alcoholic and drug addict, founded the Crossroads Centre on Antigua, a medical facility for recovering substance abusers.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Bring_Me_the_Horizon', 'hometown': 'http://dbpedia.org/resource/South_Yorkshire', 'start_year': '2004', 'labels': ['http://dbpedia.org/resource/BMG_Rights_Management', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Earache_Records', 'http://dbpedia.org/resource/Epitaph_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Shock_Records', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Visible_Noise'], 'plays_in': ['http://dbpedia.org/resource/Pyewacket_(film)'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Deathcore', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Metalcore', 'http://dbpedia.org/resource/Pop_rock'], 'actual_members': ['http://dbpedia.org/resource/Oliver_Sykes', 'Matt Kean', 'Matt Nicholls', 'Lee Malia', 'Jordan Fish'], 'old_members': ['http://dbpedia.org/resource/Jona_Weinhofen', 'Curtis Ward'], 'related_artists': ['http://dbpedia.org/resource/Dan_Lancaster', 'http://dbpedia.org/resource/I_Killed_the_Prom_Queen', 'http://dbpedia.org/resource/Jona_Weinhofen', 'http://dbpedia.org/resource/Proxies_(band)', 'http://dbpedia.org/resource/Ted_Jensen', 'http://dbpedia.org/resource/Zakk_Cervini'], 'abstract': "Bring Me the Horizon (often abbreviated as BMTH) are a British rock band formed in Sheffield in 2004. The group consists of lead vocalist Oliver Sykes, guitarist Lee Malia, bassist Matt Kean, drummer Matt Nicholls and keyboardist Jordan Fish. They are signed to RCA Records globally and Columbia Records exclusively in the United States. The band released their debut album Count Your Blessings in 2006. Upon release, the album's sound polarised listeners, and was met with critical disdain. The band began to break away from their controversial sound with Suicide Season (2008), which was a creative, critical and commercial turning point for the band. Bring Me the Horizon released their third album, There Is a Hell Believe Me I've Seen It. There Is a Heaven Let's Keep It a Secret., in 2010, propelling them to greater international fame, whilst incorporating influences from classical music, electronica and pop. Their major label debut, Sempiternal (2013) achieved Gold certification in Australia (35,000) and Silver in the United Kingdom (60,000). That's the Spirit (2015) debuted at number two in the UK Albums Chart and the US Billboard 200. Their sixth studio album Amo (2019) became their first UK chart topper. As well as these six studio albums, they have also released two extended plays and two live albums. They have received four Kerrang! Awards, including two for Best British Band and one for Best Live Band, and have been nominated for two Grammy Awards. The style of their early work, including their debut album Count Your Blessings, has been described primarily as deathcore, but they started to adopt a more eclectic style of metalcore on later albums. Furthermore, That's the Spirit marked a shift in their sound to less aggressive rock music styles. Amo saw a shift into different genres, such as electronica, pop and hip hop."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Judas_Priest', 'artist_name': 'Judas Priest', 'wiki': 'http://en.wikipedia.org/wiki/Judas_Priest', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1969', 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/CMC_International', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Gull_(record_label)', 'http://dbpedia.org/resource/SPV_GmbH', 'http://dbpedia.org/resource/Sony_Music'], 'plays_in': ['http://dbpedia.org/resource/Johnny_Be_Good', 'http://dbpedia.org/resource/Johnny_Be_Good__Johnny_Be_Good__1'], 'genres': ['http://dbpedia.org/resource/Heavy_metal_music'], 'actual_members': ['http://dbpedia.org/resource/Glenn_Tipton', 'http://dbpedia.org/resource/Ian_Hill', 'http://dbpedia.org/resource/Richie_Faulkner', 'http://dbpedia.org/resource/Rob_Halford', 'http://dbpedia.org/resource/Scott_Travis'], 'old_members': ['http://dbpedia.org/resource/Al_Atkins', 'http://dbpedia.org/resource/Alan_Moore_(drummer)', 'http://dbpedia.org/resource/Dave_Holland_(drummer)', 'http://dbpedia.org/resource/John_Hinch_(musician)', 'http://dbpedia.org/resource/K._K._Downing', 'http://dbpedia.org/resource/Les_Binks', 'http://dbpedia.org/resource/Simon_Phillips_(drummer)', 'http://dbpedia.org/resource/Tim_%22Ripper%22_Owens', 'Tim "Ripper" Owens'], 'related_artists': ['http://dbpedia.org/resource/Fight_(band)', 'http://dbpedia.org/resource/Halford_(band)', 'http://dbpedia.org/resource/K._K._Downing'], 'abstract': 'Judas Priest are an English heavy metal band formed in Birmingham in 1969. They have sold over 50 million copies of their albums, and are frequently ranked as one of the greatest metal bands of all time. Despite an innovative and pioneering body of work in the latter half of the 1970s, the band had struggled with indifferent record production and a lack of major commercial success until 1980, when they rose to commercial success with the album British Steel. The band\'s membership has seen much turnover, including a revolving cast of drummers in the 1970s and the departure of singer Rob Halford in 1992. Tim "Ripper" Owens, formerly of Winter\'s Bane, replaced Halford in 1996 and recorded two albums with Judas Priest, before Halford returned to the band in 2003. The current line-up consists of Halford, guitarists Glenn Tipton and Richie Faulkner, bassist Ian Hill and drummer Scott Travis. The band\'s best-selling album is 1982\'s Screaming for Vengeance, with their most commercially successful line-up featuring Hill, Halford, Tipton, guitarist K. K. Downing, and drummer Dave Holland. Tipton and Hill are the only two members of the band to appear on every album. Halford\'s operatic vocal style and the twin guitar sound of Downing and Tipton have been a major influence on heavy metal bands. Judas Priest\'s image of leather, spikes, and other taboo articles of clothing were widely influential during the glam metal era of the 1980s. The Guardian referred to British Steel as the record that defines heavy metal. Despite a decline in exposure during the mid 1990s, the band has once again seen a resurgence, including worldwide tours, being inaugural inductees into the VH1 Rock Honors in 2006, receiving a Grammy Award for Best Metal Performance in 2010, and having their songs featured in video games such as Guitar Hero and the Rock Band series. Judas Priest were nominated for the Rock and Roll Hall of Fame\'s class of 2020 but were not elected.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Charlie_Puth', 'artist_name': 'Charlie Puth', 'wiki': 'http://en.wikipedia.org/wiki/Charlie_Puth', 'birth_date': '02 December 1991', 'start_year': '2009', 'labels': ['http://dbpedia.org/resource/Artist_Partner_Group', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Eleveneleven'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'Pop'], 'related_artists': ['http://dbpedia.org/resource/Boyz_II_Men', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/Ellen_DeGeneres', 'http://dbpedia.org/resource/Eskeerdo', 'http://dbpedia.org/resource/Infamous_(producer)', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Lowell_(musician)', 'http://dbpedia.org/resource/Matt_Prime', 'http://dbpedia.org/resource/Shy_Carter', 'http://dbpedia.org/resource/Stephen_Puth'], 'abstract': 'Charles Otto Puth Jr. (/puːθ/; born December 2, 1991) is an American singer, songwriter, and record producer. His initial exposure came through the viral success of his song videos uploaded to YouTube. After initially signing with eleveneleven after performing on The Ellen DeGeneres Show, Puth began contributing to songs and albums for other artists, as well as creating lite solo material and covers of popular songs. With primary intent on a solo career, Atlantic Records and Artist Partner Group eventually sought the artist and released his debut single, "Marvin Gaye" (featuring Meghan Trainor), in 2015. His next single and first feature, "See You Again", which he co-wrote, co-produced, and performed with Atlantic label-mate Wiz Khalifa for the Furious 7 soundtrack as a tribute to actor Paul Walker. It peaked at number one on the US Billboard Hot 100 for 12 non-consecutive weeks. After the success of "See You Again", he gained worldwide recognition for multiple subsequent releases, including his next single, "One Call Away". The single reached number 12 on the Billboard Hot 100. Puth\'s debut studio album, Nine Track Mind, was released in January 2016 to moderate commercial success despite generally negative reviews from critics. The album was preceded by the singles "One Call Away" and "We Don\'t Talk Anymore" (featuring Selena Gomez), which peaked at number 12 and number 9 respectively on the Billboard Hot 100. In 2017, he released two songs, "Attention" and "How Long", with the former peaking at number 5 on the Billboard Hot 100. Both were included on his second studio album, Voicenotes (2018), with ameliorated critical reception and a peak of number 4 on the Billboard 200. In 2019, Puth released the singles "I Warned Myself", "Mother" and "Cheating on You". The following year, Puth released singles "Girlfriend" and "Hard on Yourself."'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Powfu', 'artist_name': 'Powfu', 'wiki': 'http://en.wikipedia.org/wiki/Powfu', 'birth_date': '31 March 1999', 'start_year': '2018', 'labels': ['http://dbpedia.org/resource/Columbia_Records'], 'genres': ['http://dbpedia.org/resource/Emo_rap', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Lo-fi_music', 'http://dbpedia.org/resource/Lofi_hip_hop', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Beabadoobee', 'http://dbpedia.org/resource/Blink-182', 'http://dbpedia.org/resource/Faber_Drive', 'http://dbpedia.org/resource/Ouse!', 'http://dbpedia.org/resource/Roblox'], 'abstract': 'Isaiah Faber (born March 31, 1999), known professionally as Powfu, is a Canadian rapper, songwriter, and record producer. He is the son of Dave Faber from the band Faber Drive. He amassed popularity following the release of his first charting single, "Death Bed (Coffee for Your Head)", which peaked at number 23 on the Billboard Hot 100.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/Dr._Alban', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'birth_date': '26 August 1957', 'start_year': '1980', 'labels': ['http://dbpedia.org/resource/Ariola', 'http://dbpedia.org/resource/Dr._Records'], 'genres': ['http://dbpedia.org/resource/Dancehall', 'http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Charly_Boy', 'http://dbpedia.org/resource/David_Longoria', 'http://dbpedia.org/resource/Dekumzy', 'http://dbpedia.org/resource/Denniz_Pop', 'http://dbpedia.org/resource/Haddaway', 'http://dbpedia.org/resource/Jose_Chameleone', 'http://dbpedia.org/resource/Kikki_Danielsson', 'http://dbpedia.org/resource/Leila_K', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Sash!', 'http://dbpedia.org/resource/Swingfly'], 'abstract': 'Alban Uzoma Nwapa (born 26 August 1957), better known by his stage name Dr. Alban, is a Nigerian-Swedish recording artist and producer with his own record label, Dr. Records. His music can best be described as Eurodance/hip-hop reggae in a dancehall style. He has sold an estimated 16 million records worldwide and is most famous for his worldwide 1992 hit "It\'s My Life", from the album One Love.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bryan_Adams', 'artist_name': 'Bryan Adams', 'wiki': 'http://en.wikipedia.org/wiki/Bryan_Adams', 'plays_in': ['http://dbpedia.org/resource/A_Night_in_Heaven', 'http://dbpedia.org/resource/Colour_Me_Kubrick', 'http://dbpedia.org/resource/Pretty_Woman:_The_Musical', 'http://dbpedia.org/resource/The_Guardian_(2006_film)'], 'genres': ['http://dbpedia.org/resource/Arena_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Chicane_(musician)', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Colin_Cripps', 'http://dbpedia.org/resource/Dave_Taylor_(musician)', 'http://dbpedia.org/resource/Fast_Forward_(band)', 'http://dbpedia.org/resource/Gary_Breit', 'http://dbpedia.org/resource/Jim_Vallance', 'http://dbpedia.org/resource/Keith_Scott_(musician)', 'http://dbpedia.org/resource/Mickey_Curry', 'http://dbpedia.org/resource/Norm_Fisher', 'http://dbpedia.org/resource/Paco_de_Lucía', 'http://dbpedia.org/resource/Phil_Thornalley', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Shane_Fontayne', 'http://dbpedia.org/resource/Tommy_Mandel', 'http://dbpedia.org/resource/Yoad_Nevo'], 'abstract': 'Bryan Guy Adams OC OBC (born 5 November 1959) is a Canadian singer, songwriter, composer, guitarist, record producer, and photographer. Adams has sold over 100 million records worldwide, making him one of the best-selling music artists of all-time. Adams was the most played artist on Canadian radio in the 2010s and has had 25 Top 15 singles in Canada, and a dozen or more in each of the US, UK, and Australia. Adams joined his first band at age 15, and at age 20 his eponymous debut album was released. He rose to fame in North America with the 1983 Top 10 album Cuts Like a Knife, featuring its title track and the ballad "Straight From the Heart", his first US Top 10 hit. His 1984 album, Reckless, made him a global star with tracks like "Run to You" and "Summer of \'69", both Top 10 hits in the US and Canada, and the power ballad "Heaven", a US number 1 hit. His 1987 album Into the Fire went to number 2 in Canada and the Top 10 in several other countries. In 1991, Adams\'s released "(Everything I Do) I Do It for You", which went to number 1 in at least 19 countries, including for 16 and 18 straight weeks in the UK, and Europe overall, both records. It is one of the best-selling singles of all time, having sold more than 15 million copies worldwide. The song was included on Adams\' Waking Up the Neighbours (1991), a worldwide number 1 album that sold 16 million copies, including being certified diamond in Canada. Other international hits off the album were the Canadian number 1 songs "Can\'t Stop This Thing We Started" and "Thought I\'d Died and Gone to Heaven". Beginning in 1993, Adams\' hits were mostly ballads, including the worldwide number 1 or 2 hits: "Please Forgive Me" (1993); "All for Love" (1993); and "Have You Ever Really Loved a Woman?" (1995), the latter two topping the U.S. Billboard Hot 100. In 1996, Adams\' 18 til I Die was a Top 5 album in many countries, but only reached number 31 in the US. He did duets with Barbra Streisand ("I Finally Found Someone" (1996), his last US Top 10 hit) and Melanie C ("When You\'re Gone" (1998), an international Top 5 hit). In the 1990s, Adams had six European Radio Airplay number 1 songs for 32 weeks, the fourth and third most, respectively; and three number 1 songs on the European Sales Chart for 29 weeks total, the most weeks of any artist. Since 1999, Adams released seven albums, three reaching number 1 in Canada, and most reaching the Top 10 in the UK, Germany and elsewhere. In 2008, Adams was ranked 38th on the list of all-time top artists on the Billboard Hot 100. Adams has won 20 Juno Awards and a Grammy Award for Best Song Written for a Motion Picture or Television amongst 15 Grammy nominations, and has been nominated for five Golden Globe Awards and three Academy Awards for his songwriting for films. Adams has been inducted into the Hollywood Walk of Fame, Canada\'s Walk of Fame, the Canadian Broadcast Hall of Fame, and the Canadian Music Hall of Fame. On 1 May 2010, Adams received the Governor General\'s Performing Arts Award for his 30 years of contributions to the arts.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Billy_Talent', 'artist_name': 'Billy Talent', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Talent', 'hometown': 'http://dbpedia.org/resource/Mississauga', 'start_year': '1993', 'aliases': ['Pezz (1993–1999)'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Last_Gang_Records', 'http://dbpedia.org/resource/Roadrunner_Records', 'http://dbpedia.org/resource/Spinefarm_Records', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Warner_Music_Canada'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'http://dbpedia.org/resource/Punk_rock', 'pop punk'], 'actual_members': ['http://dbpedia.org/resource/Aaron_Solowoniuk', 'http://dbpedia.org/resource/Benjamin_Kowalewicz', "http://dbpedia.org/resource/Ian_D'Sa", 'http://dbpedia.org/resource/Jordan_Hastings', 'Jonathan Gallant'], 'related_artists': ['http://dbpedia.org/resource/AFI_(band)', 'http://dbpedia.org/resource/Aaron_Solowoniuk', 'http://dbpedia.org/resource/Alexisonfire', 'http://dbpedia.org/resource/Anti-Flag', 'http://dbpedia.org/resource/Benjamin_Kowalewicz', 'http://dbpedia.org/resource/Cancer_Bats', 'http://dbpedia.org/resource/Cunter_(band)', 'http://dbpedia.org/resource/Hollerado', "http://dbpedia.org/resource/Ian_D'Sa", 'http://dbpedia.org/resource/Indian_Handcrafts', 'http://dbpedia.org/resource/Jordan_Hastings', 'http://dbpedia.org/resource/Monster_Truck_(band)', 'http://dbpedia.org/resource/Rise_Against', 'http://dbpedia.org/resource/Royal_Republic', 'http://dbpedia.org/resource/Sum_41', 'http://dbpedia.org/resource/Ten_Second_Epic', 'http://dbpedia.org/resource/The_Dirty_Nil', 'http://dbpedia.org/resource/Time_Is_a_Thief'], 'abstract': "Billy Talent is a Canadian rock band from Mississauga, Ontario. They formed in 1993 with lead vocalist Benjamin Kowalewicz, guitarist Ian D'Sa, bassist Jonathan Gallant, and drummer Aaron Solowoniuk. There have been no lineup changes, although Solowoniuk is currently taking a hiatus from the band due to a relapse of multiple sclerosis, and Jordan Hastings is currently filling in for him. In the 28 years since their inception, Billy Talent has sold over a million physical albums in Canada alone and nearly 3 million albums internationally. Between 1995 and 2016, Billy Talent were the 27th best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada. The band existed for almost a decade before mainstream success. The members met and played in Our Lady of Mount Carmel Secondary School under the name Pezz and remained underground in Toronto's indie music scene until 2001. The band renamed itself Billy Talent after running into legal trouble with the old name. It was then that Kowalewicz's connection with an employee of Warner Music Canada's A&amp;R department landed the band a record deal and launched them into mainstream success. Since then, Billy Talent has made three multi-platinum records in Canada and continues to expand their success overseas; this included touring for 20 months supporting their second album. They released their third album, Billy Talent III, on July 14, 2009, and their fourth album, Dead Silence, on September 4, 2012. Dead Silence was followed up by a full UK tour throughout October and November 2012. To commemorate the longevity since the release of their first studio album, the band has released a greatest hits album entitled Hits on November 4, 2014. In 2015, they began to prepare material for their fifth studio album. Just before entering the studio, drummer Aaron Solowoniuk decided to sit out the recording sessions while he continued his longstanding battle with multiple sclerosis. Fellow Canadian Jordan Hastings was quickly recruited to play as Solowoniuk's studio stand-in, and, in early 2016, the group completed work on Afraid of Heights, which was released in July of that year."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mod_Sun', 'artist_name': 'Mod Sun', 'wiki': 'http://en.wikipedia.org/wiki/Mod_Sun', 'birth_date': '10 March 1987', 'start_year': '2004', 'aliases': ['Dylan Smith'], 'labels': ['http://dbpedia.org/resource/Rostrum_Records'], 'plays_in': ['http://dbpedia.org/resource/Her_&amp;_Him'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Post-hardcore', 'Hip hop'], 'related_artists': ['http://dbpedia.org/resource/Blackbear_(musician)', 'http://dbpedia.org/resource/Call_Me_Karizma', 'http://dbpedia.org/resource/Four_Letter_Lie', 'http://dbpedia.org/resource/G-Eazy', 'http://dbpedia.org/resource/Machine_Gun_Kelly_(musician)', 'http://dbpedia.org/resource/Scary_Kids_Scaring_Kids', 'http://dbpedia.org/resource/Tana_Mongeau'], 'abstract': 'Derek Ryan Smith (born March 10, 1987), known professionally as Mod Sun (stylized as MOD SUN or MODSUN) is an American singer, songwriter, and rapper from Bloomington, Minnesota. He has released four solo studio albums, three EPs, six mixtapes and thirty-one singles. Beginning his musical career by playing drums in pop punk band the Semester and post-hardcore groups Four Letter Lie and Scary Kids Scaring Kids, Smith began a solo rap career in 2009 under the name Mod Sun. The release of his fourth solo studio album Internet Killed the Rockstar saw a stylistic shift back to pop punk. He is also a member of the alternative hip hop duo Hotel Motel.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Camouflage_(band)', 'artist_name': 'Camouflage', 'wiki': 'http://en.wikipedia.org/wiki/Camouflage_(band)', 'hometown': 'http://dbpedia.org/resource/Bietigheim-Bissingen', 'start_year': '1983', 'aliases': ['Licensed Technology (1983–1984)'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/SPV_GmbH'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop'], 'actual_members': ['http://dbpedia.org/resource/Heiko_Maile', 'http://dbpedia.org/resource/Marcus_Meyn', 'http://dbpedia.org/resource/Oliver_Kreyssig'], 'old_members': ['http://dbpedia.org/resource/Martin_Kähling'], 'related_artists': ['http://dbpedia.org/resource/Licensed_Technology'], 'abstract': 'Camouflage is a German synth-pop trio consisting of lead singer (b. May 2, 1966), Heiko Maile and . Their only Billboard Hot 100 hit was "The Great Commandment", which reached No. 59 in 1988, and spent three weeks at No. 1 on the Dance Club Songs chart. They also had two additional minor dance hits in 1989.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jennifer_Lopez', 'artist_name': 'Jennifer Lopez', 'wiki': 'http://en.wikipedia.org/wiki/Jennifer_Lopez', 'birth_date': '24 July 1969', 'start_year': '1986', 'plays_in': ['http://dbpedia.org/resource/El_Cantante'], 'related_artists': ['http://dbpedia.org/resource/A.Chal', 'http://dbpedia.org/resource/Andre_Deyo', 'http://dbpedia.org/resource/Beau_Dozier', 'http://dbpedia.org/resource/Canela_Cox', 'http://dbpedia.org/resource/Cory_Rooney', 'http://dbpedia.org/resource/Cover_Drive', 'http://dbpedia.org/resource/DJ_Class', 'http://dbpedia.org/resource/Deezle', 'http://dbpedia.org/resource/Diana_Gordon_(singer)', 'http://dbpedia.org/resource/Dre_Moon', 'http://dbpedia.org/resource/Eddie_F', 'http://dbpedia.org/resource/Edgar_Barrera', 'http://dbpedia.org/resource/Gabe_Rosales', 'http://dbpedia.org/resource/Guillermo_Edghill_Jr.', 'http://dbpedia.org/resource/Jack_Knight_(songwriter)', 'http://dbpedia.org/resource/Jaden_Michaels', 'http://dbpedia.org/resource/Jesse_Shatkin', 'http://dbpedia.org/resource/Jim_Annunziato', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Julio_Reyes_Copello', 'http://dbpedia.org/resource/Keith_Hetrick', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/LeRoy_Bell', 'http://dbpedia.org/resource/Lynn_&amp;_Wade_LLP', 'http://dbpedia.org/resource/Michaela_Shiloh', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Nyanda', 'http://dbpedia.org/resource/Ozzie_Melendez', 'http://dbpedia.org/resource/Pablo_Flores', 'http://dbpedia.org/resource/Paul_Pesco', 'http://dbpedia.org/resource/Rayvon_Owen', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Rich_Harrison', 'http://dbpedia.org/resource/Richie_Cannata', 'http://dbpedia.org/resource/Rosabel', 'http://dbpedia.org/resource/Sebastian_Kole', 'http://dbpedia.org/resource/Sebastian_LaMar_Jones', 'http://dbpedia.org/resource/Simon_Fuller', 'http://dbpedia.org/resource/Terence_Coles', 'http://dbpedia.org/resource/The_Platinum_Brothers', 'http://dbpedia.org/resource/Verdine_White', 'http://dbpedia.org/resource/Wisin_&amp;_Yandel', 'http://dbpedia.org/resource/Yandel', 'http://dbpedia.org/resource/Álvaro_Soler'], 'abstract': 'Jennifer Lynn Lopez (born July 24, 1969), also known by her nickname J.Lo, is an American singer, actress, and dancer. In 1991, Lopez began appearing as a Fly Girl dancer on In Living Color, where she remained a regular until she decided to pursue an acting career in 1993. For her first leading role in the 1997 Selena biopic of the same name, Lopez became the first Latin actress to earn over US$1 million for a film. She went on to star in Anaconda (1997) and Out of Sight (1998), and established herself as the highest-paid Latin actress in Hollywood. Lopez ventured into the music industry with her debut studio album On the 6 (1999), which helped propel the Latin pop movement in American music, and later starred in the psychological horror The Cell (2000). With the simultaneous release of her second studio album J.Lo and her romantic comedy The Wedding Planner in 2001, Lopez became the first woman to have a number-one album and film in the same week. Her 2002 release, J to tha L–O! The Remixes, became the first remix album in history to debut atop the US Billboard 200. Later that year, she released her third studio album This Is Me... Then and starred in the film Maid in Manhattan. After starring in Gigli (2003), a critical and commercial failure, Lopez subsequently starred in the successful romantic comedies Shall We Dance? (2004) and Monster-in-Law (2005). Her fifth studio album, Como Ama una Mujer (2007), received the highest first week sales for a debut Spanish album in the United States. Following a relatively unsuccessful period, she returned to prominence in 2011 with her appearance as a judge on American Idol and released her seventh studio album Love?. From 2016 to 2018, she starred in the police drama series Shades of Blue and performed a residency show, Jennifer Lopez: All I Have, at Planet Hollywood Las Vegas. Lopez also produced and served as a judge on World of Dance (2017–2020). In 2019, she garnered critical acclaim for her performance as a stripper in the crime drama Hustlers. Lopez is considered a pop culture icon, and is often described as a triple threat entertainer. With a cumulative film gross of US$3.1 billion and estimated global sales of 70 million records, Lopez is regarded as the most influential Latin entertainer in North America. In 2012, Forbes ranked her as the most powerful celebrity in the world, as well as the 38th most powerful woman in the world. Time listed her among the 100 most influential people in the world in 2018. Her most successful singles on the US Billboard Hot 100 include: "If You Had My Love", "I\'m Real", "Ain\'t It Funny", "All I Have", and "On the Floor". For her contributions to the recording industry, Lopez has received a landmark star on the Hollywood Walk of Fame, the Billboard Icon Award, and the Michael Jackson Video Vanguard Award among other honors. Her other ventures include beauty and clothing lines, fragrances, a production company, and a charitable foundation.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Yes_(band)', 'artist_name': 'Yes', 'wiki': 'http://en.wikipedia.org/wiki/Yes_(band)', 'start_year': '1968', 'end_year': '1981', 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Atco_Records', 'http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Eagle_Records', 'http://dbpedia.org/resource/Frontiers_Records', 'http://dbpedia.org/resource/Inside_Out_Music', 'http://dbpedia.org/resource/JVC', 'http://dbpedia.org/resource/Sanctuary_Records'], 'plays_in': ['http://dbpedia.org/resource/9012Live_(video)', 'http://dbpedia.org/resource/Mr._Deeds', 'http://dbpedia.org/resource/Yessongs_(film)', "http://dbpedia.org/resource/Yesspeak_Live:_The_Director's_Cut"], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'actual_members': ['http://dbpedia.org/resource/Alan_White_(Yes_drummer)', 'http://dbpedia.org/resource/Billy_Sherwood', 'http://dbpedia.org/resource/Geoff_Downes', 'http://dbpedia.org/resource/Jay_Schellen', 'http://dbpedia.org/resource/Jon_Davison', 'http://dbpedia.org/resource/Steve_Howe'], 'old_members': ['http://dbpedia.org/resource/Benoît_David', 'http://dbpedia.org/resource/Bill_Bruford', 'http://dbpedia.org/resource/Chris_Squire', 'http://dbpedia.org/resource/Eddie_Jobson', 'http://dbpedia.org/resource/Igor_Khoroshev', 'http://dbpedia.org/resource/Jon_Anderson', 'http://dbpedia.org/resource/Oliver_Wakeman', 'http://dbpedia.org/resource/Patrick_Moraz', 'http://dbpedia.org/resource/Peter_Banks', 'http://dbpedia.org/resource/Rick_Wakeman', 'http://dbpedia.org/resource/The_Koobas', 'http://dbpedia.org/resource/Tony_Kaye_(musician)', 'http://dbpedia.org/resource/Trevor_Horn', 'http://dbpedia.org/resource/Trevor_Rabin'], 'related_artists': ['http://dbpedia.org/resource/Anderson_Bruford_Wakeman_Howe', 'http://dbpedia.org/resource/Asia_(band)', 'http://dbpedia.org/resource/Cinema_(band)', 'http://dbpedia.org/resource/Circa_(band)', 'http://dbpedia.org/resource/Conspiracy_(band)', 'http://dbpedia.org/resource/Flash_(band)', 'http://dbpedia.org/resource/King_Crimson', "http://dbpedia.org/resource/Mabel_Greer's_Toyshop", 'http://dbpedia.org/resource/The_Buggles', 'http://dbpedia.org/resource/The_Syn', 'http://dbpedia.org/resource/XYZ_(English_band)', 'http://dbpedia.org/resource/Yes_Featuring_Jon_Anderson,_Trevor_Rabin,_Rick_Wakeman', 'http://dbpedia.org/resource/Yoso'], 'abstract': 'Yes are an English progressive rock band formed in London in 1968 by singer Jon Anderson, bassist Chris Squire, guitarist Peter Banks, keyboardist Tony Kaye and drummer Bill Bruford. The band has undergone numerous formations throughout its history; nineteen musicians have been full-time members. Since June 2015, it has consisted of guitarist Steve Howe, drummer Alan White, keyboardist Geoff Downes, singer Jon Davison and bassist Billy Sherwood. Yes have explored several musical styles over the years, and are most notably regarded as progressive rock pioneers. Yes began performing original songs and rearranged covers of rock, pop, blues and jazz songs, as evident on their first two albums. A change of direction in 1970 led to a series of successful progressive rock albums until their disbanding in 1981, their most successful being The Yes Album (1971), Fragile (1971) and Close to the Edge (1972). Yes toured as a major rock act that earned the band a reputation for their elaborate stage sets, light displays, and album covers designed by Roger Dean. The success of "Roundabout", the single from Fragile, cemented their popularity across the decade and beyond. In 1983 Yes reformed with a new line-up that included Trevor Rabin and a more commercial and pop-oriented musical direction. The result was 90125 (1983), their highest-selling album, which contained the U.S. number-one single "Owner of a Lonely Heart". From 1991 to 1992, Yes were an eight-member formation after they merged with Anderson Bruford Wakeman Howe for Union (1991) and its tour. Since 1994, Yes have released albums with varied levels of success and completed tours from 1994 to 2004. After a four-year hiatus, they resumed touring in 2008 and continue to release albums; their most recent is The Quest (2021). From 2016 to 2018, a new group of former Yes members began touring and named themselves Yes Featuring Jon Anderson, Trevor Rabin, Rick Wakeman. Yes are one of the most successful, influential, and longest-lasting progressive rock bands. They have sold 13.5 million RIAA-certified albums in the US, as well as more than 30 million albums worldwide. In 1985, they won a Grammy Award for Best Rock Instrumental Performance with "Cinema", and received five Grammy nominations between 1985 and 1992. They were ranked No. 94 on VH1\'s 100 Greatest Artists of Hard Rock. Yes have headlined annual progressive rock-themed cruises since 2013 named Cruise to the Edge. Their discography spans 22 studio albums. In April 2017, Yes were inducted into the Rock and Roll Hall of Fame, which chose to induct current and former members Anderson, Squire, Bruford, Kaye, Howe, Wakeman, White and Rabin.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Eagle-Eye_Cherry', 'artist_name': 'Eagle-Eye Cherry', 'wiki': 'http://en.wikipedia.org/wiki/Eagle-Eye_Cherry', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'birth_date': '07 May 1968', 'start_year': '1990', 'end_year': '2003', 'labels': ['http://dbpedia.org/resource/MCA_Records', 'http://dbpedia.org/resource/Sony_Music'], 'plays_in': ['http://dbpedia.org/resource/Billy_Elliot', 'http://dbpedia.org/resource/Grammy_Nominees'], 'genres': ['http://dbpedia.org/resource/Acoustic_music', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Darin_(singer)', 'http://dbpedia.org/resource/Mabel_(singer)', 'http://dbpedia.org/resource/Neneh_Cherry', 'http://dbpedia.org/resource/Titiyo'], 'abstract': 'Eagle-Eye Lanoo Cherry (born 7 May 1968) is a Swedish singer and stage performer. His 1997 single "Save Tonight" achieved commercial success in Ireland, the United States and the United Kingdom, and was voted song of the year in New Zealand. Cherry is the son of American jazz artist Don Cherry and Swedish artist and designer Moki Cherry. He pursued acting during high school, though Cherry\'s acting career was eventually set aside as his musical career took precedence in his life with his debut album Desireless (1997). He has released several other albums since his debut, and has co-written for other artists and films, and has guest-starred on reality television. Cherry\'s music is of the acoustic, rock, post-grunge and alternative rock genres. He is fluent in both English and Swedish.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Conan_Gray', 'artist_name': 'Conan Gray', 'wiki': 'http://en.wikipedia.org/wiki/Conan_Gray', 'hometown': 'http://dbpedia.org/resource/Georgetown,_Texas', 'birth_date': '05 December 1998', 'start_year': '2013', 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Acoustic_music', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Lo-fi_music', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Dan_Nigro', 'http://dbpedia.org/resource/Girl_in_Red__Girl_in_Red__1', 'http://dbpedia.org/resource/Lauv', 'http://dbpedia.org/resource/Umi_(singer)'], 'abstract': 'Conan Lee Gray (born December 5, 1998) is an American singer and songwriter. Raised in California and Georgetown, Texas, he began uploading vlogs, covers and original songs to YouTube as a teenager. Gray signed a record deal with Republic Records in 2018, where he released his debut EP Sunset Season (2018). His debut studio album Kid Krow (2020) debuted at number 5 on the US Billboard 200, making it the biggest US new artist debut of 2020. Kid Krow included the commercially successful singles "Maniac" and "Heather".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bryson_Tiller', 'artist_name': 'Bryson Tiller', 'wiki': 'http://en.wikipedia.org/wiki/Bryson_Tiller', 'birth_date': '02 January 1993', 'start_year': '2011', 'aliases': ['Pen Griffey'], 'labels': ['http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Soul_music'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Bow', 'http://dbpedia.org/resource/DJ_Khaled', 'http://dbpedia.org/resource/FrancisGotHeat', 'http://dbpedia.org/resource/H.E.R.', 'http://dbpedia.org/resource/J-Louis', 'http://dbpedia.org/resource/Jack_Harlow', 'http://dbpedia.org/resource/Keyz_(producer)', 'http://dbpedia.org/resource/Marteen', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/Sy_Ari_da_Kid', 'http://dbpedia.org/resource/THEY.', 'http://dbpedia.org/resource/Teddy_Walton', 'http://dbpedia.org/resource/Thaddeus_Dixon', 'http://dbpedia.org/resource/Vory', 'http://dbpedia.org/resource/Young_Scrap'], 'abstract': 'Bryson Djuan Tiller (born January 2, 1993) is an American singer and rapper. Born in Louisville, Kentucky, he began his career in 2011 with a mixtape entitled Killer Instinct Vol. 1. Tiller initially gained mainstream success in 2015 following the release of the single, "Don\'t", which reached the top 20 on the Billboard Hot 100. The record\'s success led to a deal with RCA Records and served as the lead single to his debut studio album, Trapsoul (2015), which reached the top ten on the Billboard 200, and included the single "Exchange", which earned him a Grammy Award nomination. In May 2017, Tiller released his second studio album, True to Self, which debuted at number-one on the Billboard 200. That same year, he was also featured alongside Rihanna on the hit single "Wild Thoughts" by DJ Khaled, which reached number-two on the Billboard Hot 100. Tiller has received multiple accolades, including two BET Awards for Best New Artist and Best Male R&amp;B/Pop Artist; and in March 2016, he received the key to the city from Louisville Mayor Greg Fischer.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Joe_Cocker', 'artist_name': 'Joe Cocker', 'wiki': 'http://en.wikipedia.org/wiki/Joe_Cocker', 'birth_date': '20 May 1944', 'death_date': '22 December 2014', 'start_year': '1961', 'end_year': '2014', 'labels': ['http://dbpedia.org/resource/A&amp;M_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Decca_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Regal_Zonophone_Records'], 'genres': ['http://dbpedia.org/resource/Blues', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rock_music', 'http://dbpedia.org/resource/Soul_music'], 'related_artists': ['http://dbpedia.org/resource/Alan_Spenner', 'http://dbpedia.org/resource/Bob_Lenox', 'http://dbpedia.org/resource/Bobby_Keys', 'http://dbpedia.org/resource/Charlie_Midnight', 'http://dbpedia.org/resource/Chris_Stainton', 'http://dbpedia.org/resource/Claudia_Lennear', 'http://dbpedia.org/resource/Daniel_Moore_(musician)', 'http://dbpedia.org/resource/Dannie_Richmond', 'http://dbpedia.org/resource/Denny_Cordell', 'http://dbpedia.org/resource/Don_Preston_(guitarist)', 'http://dbpedia.org/resource/Donna_Weiss', 'http://dbpedia.org/resource/Double_Trouble_(band)', 'http://dbpedia.org/resource/Glenn_Ross_Campbell', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/Gregg_Sutton', 'http://dbpedia.org/resource/Henry_McCullough__Henry_McCullough__1', 'http://dbpedia.org/resource/James_Hutchinson_(musician)', 'http://dbpedia.org/resource/Jeff_Pevar', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Jennifer_Warnes', 'http://dbpedia.org/resource/Jeremy_Stacey', 'http://dbpedia.org/resource/Jim_Gordon_(musician)', 'http://dbpedia.org/resource/Jim_Keltner', 'http://dbpedia.org/resource/Jim_Price_(musician)', 'http://dbpedia.org/resource/List_of_Stevie_Ray_Vaughan_concert_tours', 'http://dbpedia.org/resource/Mark_Medlock', 'http://dbpedia.org/resource/Marva_Wright', 'http://dbpedia.org/resource/Max_Carl', 'http://dbpedia.org/resource/Mick_Weaver', 'http://dbpedia.org/resource/Mike_Leander', 'http://dbpedia.org/resource/Nickey_Barclay', 'http://dbpedia.org/resource/Pamela_Polland', 'http://dbpedia.org/resource/Phil_Kaufman_(producer)', 'http://dbpedia.org/resource/Rita_Coolidge', 'http://dbpedia.org/resource/Rob_Fraboni', 'http://dbpedia.org/resource/The_Grease_Band', 'http://dbpedia.org/resource/The_Grease_Band__The_Grease_Band__1', 'http://dbpedia.org/resource/Vic_Coppersmith-Heaven', 'http://dbpedia.org/resource/Wayne_Carson'], 'abstract': 'John Robert "Joe" Cocker OBE (20 May 1944 – 22 December 2014) was an English singer known for his gritty, bluesy voice and dynamic stage performances that featured expressive body movements. Most of his best known singles were covers of songs by other artists, though he composed a number of his own songs for most of his albums as well, often in conjunction with songwriting partner Chris Stainton. His first album featured a recording of the Beatles\' "With a Little Help from My Friends", which brought him to near-instant stardom. The song reached number one in the UK in 1968, became a staple of his many live shows, including Woodstock and Isle of Wight in 1969, the Party at the Palace in 2002, and was also known as the theme song for the TV series The Wonder Years. He continued his success with his second album, which included a second Beatles cover: "She Came In Through the Bathroom Window". A hastily thrown together 1970 U.S. tour led to the live double-album Mad Dogs &amp; Englishmen, which featured an all-star band organized by Leon Russell. His 1974 cover of "You Are So Beautiful" reached number five in the U.S., and became his signature song. Cocker\'s best selling song was the U.S. number one "Up Where We Belong", a duet with Jennifer Warnes that earned a 1983 Grammy Award. He released a total of 22 studio albums over a 43-year recording career. In 1993, Cocker was nominated for the Brit Award for Best British Male. He was awarded a bronze Sheffield Legends plaque in his hometown in 2007, and received an OBE the following year for services to music. Cocker was ranked number 97 on Rolling Stone\'s 100 greatest singers list.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justin_Bieber', 'artist_name': 'Justin Bieber', 'wiki': 'http://en.wikipedia.org/wiki/Justin_Bieber', 'birth_date': '01 March 1994', 'start_year': '2007', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Justin_Bieber:_Our_World'], 'related_artists': ['http://dbpedia.org/resource/Ali_Stone', 'http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/Arden_Altino', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Brandon_Bell_(record_producer)', 'http://dbpedia.org/resource/Brayton_Bowman', 'http://dbpedia.org/resource/Brian_Puspos', 'http://dbpedia.org/resource/Carlos_Nóbrega', "http://dbpedia.org/resource/Chris_O'Ryan", 'http://dbpedia.org/resource/Christopher_Martin_(singer)', 'http://dbpedia.org/resource/Da_Internz', 'http://dbpedia.org/resource/Dan_Kanter', 'http://dbpedia.org/resource/Dapo_Torimiro', 'http://dbpedia.org/resource/Far_East_Movement', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/GoodWill_&amp;_MGI', 'http://dbpedia.org/resource/Hyuk_Shin', 'http://dbpedia.org/resource/Jack_Ü', 'http://dbpedia.org/resource/James_Abrahart', 'http://dbpedia.org/resource/Jasmine_V', 'http://dbpedia.org/resource/Jason_Pierce_(drummer)', 'http://dbpedia.org/resource/Khalil_(singer)', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Lee_Major', 'http://dbpedia.org/resource/Legaci_(band)', 'http://dbpedia.org/resource/Lil_Twist', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Maejor', 'http://dbpedia.org/resource/Melanie_Fontana', 'http://dbpedia.org/resource/Michael_Pollack_(musician)', 'http://dbpedia.org/resource/Moxie_Raia', 'http://dbpedia.org/resource/Poo_Bear__Poo_Bear__1', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Ross_Golan', 'http://dbpedia.org/resource/Sasha_Sirota', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Cohen_(audio_engineer)', 'http://dbpedia.org/resource/Sir_Nolan', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/Soundz', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/T-Minus_(record_producer)', 'http://dbpedia.org/resource/Taylor_James', 'http://dbpedia.org/resource/Tems_(singer)', 'http://dbpedia.org/resource/The_Audibles', 'http://dbpedia.org/resource/The_Jackie_Boyz', 'http://dbpedia.org/resource/The_Kid_Laroi', 'http://dbpedia.org/resource/The_Movement_(production_team)', 'http://dbpedia.org/resource/The_Stereotypes', 'http://dbpedia.org/resource/Theron_Feemster', 'http://dbpedia.org/resource/Wizkid'], 'abstract': 'Justin Drew Bieber (/biːbər/; born March 1, 1994) is a Canadian singer. He was discovered by American record executive Scooter Braun and signed with RBMG Records in 2008, gaining recognition with the release of his debut seven-track EP My World (2009) and soon establishing himself as a teen idol. Bieber achieved commercial success with his teen pop-driven debut studio album, My World 2.0 (2010), which debuted atop the US Billboard 200, making him the youngest solo male act to top the chart in 47 years. The album also contained the internationally successful single "Baby", which became one of the highest certified singles of all time in the US. His second studio album, Under the Mistletoe (2011), became the first Christmas album by a male artist to debut at number one in the US. His third studio album, Believe (2012), saw him experiment with dance-pop. In 2013, Bieber became the first and youngest act in history to have five US number-one albums at the age of 18. Following Believe, Bieber was involved in various controversies and legal issues between 2013 and 2014, which had a drastic impact on his public image. Bieber\'s fourth studio album, Purpose, was released in 2015. It was preceded by "Where Are Ü Now", a collaboration with Jack Ü, which saw Bieber explore EDM, and win the Grammy Award for Best Dance Recording. Purpose embodied a multi-genre production and produced three US number-one singles: "Love Yourself", "Sorry", and "What Do You Mean?". He became the first artist in history to occupy the entire top three of the UK Singles Chart, as the singles charted at positions 1, 2 and 3 simultaneously. Bieber diversified on numerous collaborations between 2016 and 2017 including DJ Khaled\'s "I\'m the One", which reached number one on the US Billboard Hot 100. A week later, he released his remix to Luis Fonsi and Daddy Yankee\'s "Despacito", claiming his subsequent chart-topper. It tied the then-record for most weeks atop the US Billboard Hot 100 and made Bieber the first artist in history to chart new number-one singles in consecutive weeks. He won his career-first Latin Grammy Award for Best Urban Fusion/Performance for "Despacito". Billboard ranked "Despacito" at number one on the Greatest of All Time Hot Latin Songs Chart. In 2019, he released a country collaboration with Dan + Shay, "10,000 Hours", for which he won the Grammy Award for Best Country Duo/Group Performance. In 2020, Bieber released his R&amp;B-led fifth studio album, Changes, which debuted at number one in both the UK and US, and received critical acclaim for his vocal progression and released his collaboration, "Stuck with U", with Ariana Grande, which debuted atop the US Billboard Hot 100. Bieber returned to his pop roots on his sixth studio album, Justice (2021), which debuted atop the US Billboard 200, making him the youngest soloist to have eight US number-one albums, a record held previously by Elvis Presley since 1965. It produced the number-one single "Peaches" and became a commercial success. In July 2021, Bieber released a collaboration with the Kid Laroi, "Stay", which became his eighth number-one single in the US. Bieber is one of the best-selling music artists of all time, with estimated sales of over 150 million records worldwide. He is credited with three Diamond certifications from the RIAA for "Baby", "Sorry" and "Despacito". He has received numerous accolades, including two Grammy Awards, one Latin Grammy Award, two Brit Awards, one Bambi Award, 21 Billboard Music Awards, 18 American Music Awards, a record 21 MTV Europe Music Awards (the most wins for any artist in history), six MTV Video Music Awards, 23 Teen Choice Awards (the most wins for a male individual), and 32 Guinness World Records. Time named Bieber one of the 100 most influential people in the world in 2011, and he was included on Forbes\' list of the top ten most powerful celebrities in 2011, 2012, and 2013.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Wild_Cherry_(band)', 'artist_name': 'Wild Cherry', 'wiki': 'http://en.wikipedia.org/wiki/Wild_Cherry_(band)', 'hometown': 'http://dbpedia.org/resource/Mingo_Junction,_Ohio', 'start_year': '1970', 'end_year': '1979', 'labels': ['http://dbpedia.org/resource/Epic_Records'], 'genres': ['http://dbpedia.org/resource/Blue-eyed_soul', 'http://dbpedia.org/resource/Funk_rock'], 'old_members': ['http://dbpedia.org/resource/Allen_Wentz', 'http://dbpedia.org/resource/Bryan_Bassett', 'http://dbpedia.org/resource/Donnie_Iris', 'http://dbpedia.org/resource/Mark_Avsec', 'http://dbpedia.org/resource/Rob_Parissi', 'Ron Beitle', 'Ron Vallera', 'Larry Brown', 'Joe Buchmelter', 'Bucky Lusk', 'Coogie Stoddart', 'Cooke Michalchick', 'Larry Mader', 'Louie Osso', 'Ben Difabbio'], 'related_artists': ['http://dbpedia.org/resource/Bryan_Bassett', 'http://dbpedia.org/resource/Cellarful_of_Noise', 'http://dbpedia.org/resource/Donnie_Iris', 'http://dbpedia.org/resource/Foghat', 'http://dbpedia.org/resource/Joey_Kramer', 'http://dbpedia.org/resource/Molly_Hatchet', 'http://dbpedia.org/resource/Rob_Parissi', 'http://dbpedia.org/resource/The_Jaggerz'], 'abstract': 'Wild Cherry was an American funk rock band formed in Mingo Junction, Ohio, in 1970 that was best known for its song "Play That Funky Music".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dead_or_Alive_(band)', 'artist_name': 'Dead or Alive', 'wiki': 'http://en.wikipedia.org/wiki/Dead_or_Alive_(band)', 'hometown': 'http://dbpedia.org/resource/Liverpool', 'start_year': '1980', 'end_year': '2016', 'labels': ['http://dbpedia.org/resource/Avex_Trax', 'http://dbpedia.org/resource/Cleopatra_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Sony_Music_Entertainment_Japan'], 'plays_in': ['http://dbpedia.org/resource/Born_to_Be_a_Star_(album)', 'http://dbpedia.org/resource/The_Age_of_Innocence_(album)', 'http://dbpedia.org/resource/Together_(Jolin_Tsai_album)'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Synth-pop', 'new wave', 'synthpop'], 'old_members': ['http://dbpedia.org/resource/Pete_Burns', 'http://dbpedia.org/resource/Peter_Oxendale', 'http://dbpedia.org/resource/Wayne_Hussey', 'Steve Coy ', 'Martin Healy', 'Timothy Lever', 'Mike Percy', 'Jason Alburey', 'Dean Bright'], 'related_artists': ['http://dbpedia.org/resource/Billy_Currie', 'http://dbpedia.org/resource/Mike_Stock_(musician)', 'http://dbpedia.org/resource/Modern_Eon', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Stock_Aitken_Waterman', 'http://dbpedia.org/resource/The_Invisible_Girls__The_Invisible_Girls__1', 'http://dbpedia.org/resource/The_Mission_(band)', 'http://dbpedia.org/resource/Wayne_Hussey'], 'abstract': 'Dead or Alive were an English pop band that released seven albums from 1984 to 2000. The band formed in 1980 in Liverpool and found success in the mid-1980s, releasing seven singles that made the UK Top 40 and three albums on the UK Top 30. They were the first band under the production team of Stock Aitken Waterman to have a number-one single. At the peak of their success, the lineup consisted of Pete Burns (vocals), Mike Percy (bass), Steve Coy (drums) and Tim Lever (keyboards). Two of the band\'s singles reached the U.S. Top 20 on the Billboard Hot 100: "You Spin Me Round (Like a Record)" (No. 11 in August 1985) and "Brand New Lover" (No. 15 in March 1987). "You Spin Me Round" peaked at number one for two weeks in 1985 in the UK, then charted again in 2006 following Burns\' appearance on the television reality show Celebrity Big Brother. It also became the first of two singles to top the Billboard Hot Dance Club Play chart. In December 2016, Billboard ranked them as the 96th most successful "dance artist" of all time. As of 2017 Dead or Alive had sold over 30 million albums and 28 million singles worldwide. The band was discontinued following Pete Burns\' death in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bruce_Springsteen', 'artist_name': 'Bruce Springsteen', 'wiki': 'http://en.wikipedia.org/wiki/Bruce_Springsteen', 'birth_date': '23 September 1949', 'plays_in': ['http://dbpedia.org/resource/Blood_Brothers_(1996_film)', 'http://dbpedia.org/resource/Flannery_(film)', 'http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Hunter_of_Invisible_Game', 'http://dbpedia.org/resource/Kumo_ga_Chigireru_Toki', 'http://dbpedia.org/resource/Live_in_Barcelona_(Bruce_Springsteen_video)', 'http://dbpedia.org/resource/London_Calling:_Live_in_Hyde_Park', 'http://dbpedia.org/resource/Springsteen_&amp;_I', "http://dbpedia.org/resource/The_Day's_Parade", 'http://dbpedia.org/resource/Thunder_Road_(2016_film)', 'http://dbpedia.org/resource/VH1_Storytellers_(Bruce_Springsteen_album)'], 'related_artists': ['http://dbpedia.org/resource/Alan_Fitzgerald', 'http://dbpedia.org/resource/Carolyn_Dennis', 'http://dbpedia.org/resource/Charles_Giordano', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/David_Sancious', 'http://dbpedia.org/resource/Delores_Holmes', 'http://dbpedia.org/resource/Donna_Summer', 'http://dbpedia.org/resource/E_Street_Band', 'http://dbpedia.org/resource/Ernest_Carter_(drummer)', 'http://dbpedia.org/resource/Garry_Tallent', 'http://dbpedia.org/resource/Gary_U.S._Bonds', 'http://dbpedia.org/resource/Graham_Maby', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/JT_Bowen', 'http://dbpedia.org/resource/Jake_Clemons', 'http://dbpedia.org/resource/James_Montgomery_(singer)', 'http://dbpedia.org/resource/Jay_Weinberg', 'http://dbpedia.org/resource/Jean_Beauvoir', 'http://dbpedia.org/resource/John_Mellencamp', 'http://dbpedia.org/resource/Max_Weinberg', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Neil_Dorfsman', 'http://dbpedia.org/resource/Patti_Scialfa', 'http://dbpedia.org/resource/Pete_Seeger', 'http://dbpedia.org/resource/Reverend_Zen', 'http://dbpedia.org/resource/Richie_Rosenberg', 'http://dbpedia.org/resource/Robbin_Thompson', 'http://dbpedia.org/resource/Roy_Bittan', 'http://dbpedia.org/resource/Roy_Orbison', 'http://dbpedia.org/resource/Scott_Hull_(mastering_engineer)', 'http://dbpedia.org/resource/Shane_Fontayne', 'http://dbpedia.org/resource/Soozie_Tyrell', 'http://dbpedia.org/resource/Southside_Johnny', 'http://dbpedia.org/resource/Southside_Johnny_and_the_Asbury_Jukes', 'http://dbpedia.org/resource/Steel_Mill', 'http://dbpedia.org/resource/Steven_Van_Zandt', 'http://dbpedia.org/resource/The_Castiles', 'http://dbpedia.org/resource/The_Del_Fuegos', 'http://dbpedia.org/resource/The_Miami_Horns', 'http://dbpedia.org/resource/The_Nightwatchman', 'http://dbpedia.org/resource/Tim_Scott_McConnell', 'http://dbpedia.org/resource/Tom_Morello', 'http://dbpedia.org/resource/Vini_Lopez', 'http://dbpedia.org/resource/Vinnie_Roslin', 'http://dbpedia.org/resource/Warren_Zevon', 'http://dbpedia.org/resource/Willy_DeVille'], 'abstract': 'Bruce Frederick Joseph Springsteen (born September 23, 1949) is an American singer, songwriter, and musician. He has released twenty studio albums, many of which feature his backing band the E Street Band. Originally from the Jersey Shore, he is one of the originators of the heartland rock style of music, combining mainstream rock musical style with narrative songs about working class American life. During a career that has spanned five decades, Springsteen has become known for his poetic, socially conscious lyrics and energetic stage performances, sometimes lasting up to four hours in length. He has been nicknamed "the Boss". Springsteen released his first two albums, Greetings from Asbury Park, N.J. and The Wild, the Innocent &amp; the E Street Shuffle in 1973, both of which failed to earn him a large audience. He changed his style and reached worldwide popularity with Born to Run in 1975. It was followed by Darkness on the Edge of Town (1978) and The River (1980), which topped the US Billboard 200 chart. His first album without the E Street Band was Nebraska (1982). Born in the U.S.A. (1984), which reunited Springsteen with the E Street Band, became his most commercially successful album and one of the best-selling albums of all time. Seven of its singles reached the top 10 of the Billboard Hot 100, including the well-known title track. Springsteen recorded his next three albums, Tunnel of Love (1987), Human Touch (1992), and Lucky Town (1992) using mostly session musicians. He re-assembled the E Street Band for 1995\'s Greatest Hits and The Ghost of Tom Joad. His last release of the 1990s was the EP Blood Brothers (1996). Springsteen dedicated his 2002 album The Rising to the victims of the September 11 attacks. Springsteen released two more folk albums, Devils &amp; Dust (2005) and We Shall Overcome: The Seeger Sessions (2006), followed by two more albums with the E Street Band: Magic (2007) and Working on a Dream (2009). His next two albums, Wrecking Ball (2012) and High Hopes (2014), topped album charts worldwide. His latest releases include the solo Western Stars (2019) and E Street Band-featuring Letter to You (2020). Among the album era\'s prominent acts, Springsteen has sold more than 150 million records worldwide and more than 64 million albums in the United States, making him one of the world\'s best-selling music artists. He has earned numerous awards for his work, including 20 Grammy Awards, two Golden Globes, an Academy Award, and a Special Tony Award (for Springsteen on Broadway). Springsteen was inducted into both the Songwriters Hall of Fame and the Rock and Roll Hall of Fame in 1999, received the Kennedy Center Honors in 2009, named MusiCares person of the year in 2013, and awarded the Presidential Medal of Freedom by President Barack Obama in 2016. He is ranked 23rd on Rolling Stone\'s list of the Greatest Artists of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jay-Z', 'artist_name': 'Jay-Z', 'wiki': 'http://en.wikipedia.org/wiki/Jay-Z', 'birth_date': '04 December 1969', 'start_year': '1986', 'aliases': ['El Presidente', 'Hova', 'Jigga', 'The Carter Administration'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees'], 'related_artists': ['http://dbpedia.org/resource/Adam_Blackstone', 'http://dbpedia.org/resource/Al_Shux', 'http://dbpedia.org/resource/Alexis_Jordan', 'http://dbpedia.org/resource/Amil', 'http://dbpedia.org/resource/Andrew_Dawson_(record_producer)', 'http://dbpedia.org/resource/Angela_Winbush', 'http://dbpedia.org/resource/Ann_Mincieli', 'http://dbpedia.org/resource/Aqua_(record_producer)', 'http://dbpedia.org/resource/Baauer', 'http://dbpedia.org/resource/Bankulli', 'http://dbpedia.org/resource/Beanie_Sigel', 'http://dbpedia.org/resource/Bink_(record_producer)', 'http://dbpedia.org/resource/Che_Pope', 'http://dbpedia.org/resource/Christian_Hebel', 'http://dbpedia.org/resource/Chyna_Whyte', 'http://dbpedia.org/resource/DJ_Head', 'http://dbpedia.org/resource/DJ_Scratch', 'http://dbpedia.org/resource/DJ_Speedy', 'http://dbpedia.org/resource/Dave_Tozer', 'http://dbpedia.org/resource/Dawaun_Parker', 'http://dbpedia.org/resource/Dominic_Maker', 'http://dbpedia.org/resource/Dylan_Wissing', 'http://dbpedia.org/resource/Foxy_Brown_(rapper)', 'http://dbpedia.org/resource/Frank_Ocean', 'http://dbpedia.org/resource/Fred_Ball_(producer)', 'http://dbpedia.org/resource/Freeway_(rapper)__Freeway__1', 'http://dbpedia.org/resource/GoonRock', 'http://dbpedia.org/resource/H.E.R.', 'http://dbpedia.org/resource/Infamous_(producer)', 'http://dbpedia.org/resource/Irv_Gotti', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jaguar_Wright', 'http://dbpedia.org/resource/Jahlil_Beats', 'http://dbpedia.org/resource/Jay_Electronica', 'http://dbpedia.org/resource/Jaz-O', 'http://dbpedia.org/resource/Jimmy_Douglass', 'http://dbpedia.org/resource/Jumz', 'http://dbpedia.org/resource/Just_Blaze', 'http://dbpedia.org/resource/Justine_Skye', 'http://dbpedia.org/resource/Keyon_Harrold', 'http://dbpedia.org/resource/Kid_Capri', 'http://dbpedia.org/resource/Kim_Burrell', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Lee_Major', 'http://dbpedia.org/resource/Les_Twins', 'http://dbpedia.org/resource/Lev_Zhurbin', 'http://dbpedia.org/resource/Linkin_Park__Linkin_Park__1', 'http://dbpedia.org/resource/Luke_Steele_(musician)', 'http://dbpedia.org/resource/Mark_Batson', 'http://dbpedia.org/resource/MeLo-X', 'http://dbpedia.org/resource/Meek_Mill', 'http://dbpedia.org/resource/Megahertz_(record_producer)', 'http://dbpedia.org/resource/Memphis_Bleek', 'http://dbpedia.org/resource/Mic_Geronimo', 'http://dbpedia.org/resource/Miri_Ben-Ari', 'http://dbpedia.org/resource/Nick_Raphael', 'http://dbpedia.org/resource/No_I.D.', 'http://dbpedia.org/resource/Nova_Wav', 'http://dbpedia.org/resource/O.C._(rapper)', 'http://dbpedia.org/resource/Omillio_Sparks', 'http://dbpedia.org/resource/Panjabi_MC', 'http://dbpedia.org/resource/Pittsburgh_Slim', 'http://dbpedia.org/resource/Prolyfic', 'http://dbpedia.org/resource/Ralph_Johnson_(musician)', 'http://dbpedia.org/resource/Ram_Sampath', 'http://dbpedia.org/resource/Rell_(singer)', 'http://dbpedia.org/resource/René_&amp;_Angela', 'http://dbpedia.org/resource/René_Moore', 'http://dbpedia.org/resource/Retro_(DJ)', 'http://dbpedia.org/resource/Rockwilder', 'http://dbpedia.org/resource/Ron_%22Amen-Ra%22_Lawrence', 'http://dbpedia.org/resource/Sauce_Money', 'http://dbpedia.org/resource/Stuart_White_(recording_engineer)', 'http://dbpedia.org/resource/Teairra_Marí', 'http://dbpedia.org/resource/The_57th_Dynasty', 'http://dbpedia.org/resource/The_Neptunes', 'http://dbpedia.org/resource/Tony_Dawsey', 'http://dbpedia.org/resource/Tony_Royster_Jr.', 'http://dbpedia.org/resource/Tru_Life', 'http://dbpedia.org/resource/WhoIsParadise', 'http://dbpedia.org/resource/Wyldfyer', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Young_Guru', 'http://dbpedia.org/resource/Young_Paris'], 'abstract': 'Shawn Corey Carter (born December 4, 1969 in Brooklyn, New York), known professionally as Jay-Z (stylized as JAY-Z), is an American rapper, songwriter, record executive, businessman, and media proprietor. He is widely regarded as one of the most influential hip-hop artists in history and is also well known for being the former CEO of Def Jam Recordings, cultivating major industry artists such as Kanye West, Rihanna, and J. Cole. Born and raised in New York City, Jay-Z first began his musical career in the late 1980s; he co-founded the record label Roc-A-Fella Records in 1995 and released his debut studio album Reasonable Doubt in 1996. The album was released to widespread critical success, and solidified his standing in the music industry. He went on to release twelve additional albums, including the acclaimed albums The Blueprint (2001), The Black Album (2003), American Gangster (2007), and 4:44 (2017). He also released the full-length collaborative albums Watch the Throne (2011) with Kanye West and Everything Is Love (2018) with his wife Beyoncé, respectively. A billionaire, Jay-Z has attained significant success and media attention for his career as a businessman. In 1999, he founded the clothing retailer Rocawear, and in 2003, he founded the luxury sports bar chain 40/40 Club. Both businesses have grown to become multi-million-dollar corporations, and allowed him to start-up the entertainment company Roc Nation in 2008. In 2015, he acquired the tech company Aspiro and took charge of their media streaming service Tidal. In 2020, he launched "Monogram", a line of cannabis products. One of the world\'s best-selling music artists, with over 125 million records sold, Jay-Z has won 23 Grammy Awards, the most by a rapper, and holds the record for the most number-one albums by a solo artist on the Billboard 200 (14). Ranked by Billboard and Rolling Stone as one of the 100 Greatest Artists of All Time, Jay-Z was the first rapper honored in the Songwriters Hall of Fame, and the first solo living rapper inducted in the Rock and Roll Hall of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cypress_Hill', 'artist_name': 'Cypress Hill', 'wiki': 'http://en.wikipedia.org/wiki/Cypress_Hill', 'genres': ['Hip hop', 'Latin hip hop', 'West Coast hip hop', 'rap metal'], 'actual_members': ['B-Real', 'DJ Muggs', 'Sen Dog', 'Eric Bobo'], 'old_members': ['Mellow Man Ace'], 'related_artists': ['http://dbpedia.org/resource/Adil_Omar', 'http://dbpedia.org/resource/Alfunction', 'http://dbpedia.org/resource/B-Real', 'http://dbpedia.org/resource/Bobby_Blood_(musician)', 'http://dbpedia.org/resource/Christian_Olde_Wolbers', 'http://dbpedia.org/resource/DJ_Lord', 'http://dbpedia.org/resource/DJ_Muggs', 'http://dbpedia.org/resource/Demmette_Guidry', 'http://dbpedia.org/resource/Demrick', 'http://dbpedia.org/resource/Dilated_Peoples', 'http://dbpedia.org/resource/Eric_%22Bobo%22_Correa__Eric_Bobo_Correa__1', 'http://dbpedia.org/resource/Everlast', 'http://dbpedia.org/resource/Fredwreck', 'http://dbpedia.org/resource/Funkdoobiest', 'http://dbpedia.org/resource/House_of_Pain', 'http://dbpedia.org/resource/La_Coka_Nostra', 'http://dbpedia.org/resource/Mellow_Man_Ace', 'http://dbpedia.org/resource/Method_Man_&amp;_Redman', 'http://dbpedia.org/resource/Mix_Master_Mike', 'http://dbpedia.org/resource/Pato_Machete', 'http://dbpedia.org/resource/Paul_Rosenberg_(music_manager)', 'http://dbpedia.org/resource/Powerflo', 'http://dbpedia.org/resource/Prophets_of_Rage', 'http://dbpedia.org/resource/Psycho_Realm', 'http://dbpedia.org/resource/Rusko_(musician)', 'http://dbpedia.org/resource/SX-10', 'http://dbpedia.org/resource/Sen_Dog', 'http://dbpedia.org/resource/Shorty_from_Da_Lench_Mob', 'http://dbpedia.org/resource/Tego_Calderón', 'http://dbpedia.org/resource/The_7A3', 'http://dbpedia.org/resource/The_Whooliganz'], 'abstract': 'Cypress Hill is an American hip hop group from South Gate, California. They are the first hip-hop group to have sold multi-platinum and platinum albums, having sold over 20 million albums worldwide. They are considered to be among the main progenitors of West Coast and 1990s hip hop. The group has been critically acclaimed for their first five albums. All of the group members advocate for medical and recreational use of cannabis in the United States. In 2019, Cypress Hill became the first hip hop group to have a star on the Hollywood Walk of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Oasis_(band)', 'artist_name': 'Oasis', 'wiki': 'http://en.wikipedia.org/wiki/Oasis_(band)', 'hometown': 'http://dbpedia.org/resource/Manchester', 'start_year': '1991', 'end_year': '2009', 'labels': ['http://dbpedia.org/resource/Big_Brother_Recordings', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Creation_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Sony_Music'], 'plays_in': ['http://dbpedia.org/resource/Live_by_the_Sea', "http://dbpedia.org/resource/Lord_Don't_Slow_Me_Down", 'http://dbpedia.org/resource/Oasis:_Supersonic'], 'genres': ['http://dbpedia.org/resource/Britpop', 'http://dbpedia.org/resource/Rock_music'], 'old_members': ['http://dbpedia.org/resource/Alan_White_(Oasis_drummer)', 'http://dbpedia.org/resource/Andy_Bell_(musician)', 'http://dbpedia.org/resource/Gem_Archer', 'http://dbpedia.org/resource/Liam_Gallagher', 'http://dbpedia.org/resource/Noel_Gallagher', 'http://dbpedia.org/resource/Paul_Arthurs', 'http://dbpedia.org/resource/Paul_McGuigan_(musician)', 'http://dbpedia.org/resource/Tony_McCarroll'], 'related_artists': ['http://dbpedia.org/resource/Alan_White_(Oasis_drummer)', 'http://dbpedia.org/resource/Andy_Bell_(musician)', 'http://dbpedia.org/resource/Ann_Morfee', 'http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Beady_Eye', 'http://dbpedia.org/resource/Carwyn_Ellis', 'http://dbpedia.org/resource/Chris_Sharrock', 'http://dbpedia.org/resource/Gem_Archer', 'http://dbpedia.org/resource/George_Shilling', 'http://dbpedia.org/resource/Heavy_Stereo', 'http://dbpedia.org/resource/Hurricane_No._1', 'http://dbpedia.org/resource/James_Lavelle__James_Lavelle__1', 'http://dbpedia.org/resource/Jay_Darlington', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Kasabian', 'http://dbpedia.org/resource/Little_by_Little_(band)', "http://dbpedia.org/resource/Noel_Gallagher's_High_Flying_Birds", 'http://dbpedia.org/resource/Ocean_Colour_Scene', 'http://dbpedia.org/resource/Paul_Arthurs', 'http://dbpedia.org/resource/Paul_McGuigan_(musician)', 'http://dbpedia.org/resource/Paul_Stacey', 'http://dbpedia.org/resource/Paul_Weller', 'http://dbpedia.org/resource/Proud_Mary_(band)', 'http://dbpedia.org/resource/Reverend_and_the_Makers', 'http://dbpedia.org/resource/Ride_(band)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starclub', 'http://dbpedia.org/resource/Technique_(band)', 'http://dbpedia.org/resource/The_Stone_Roses', 'http://dbpedia.org/resource/Tony_McCarroll', 'http://dbpedia.org/resource/Twiggy_Ramirez', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Zak_Starkey'], 'abstract': 'Oasis were an English rock band formed in Manchester in 1991. They were originally known as the Rain before evolving into Oasis, and initially consisted of Liam Gallagher (lead vocals, tambourine), Paul Arthurs (guitar), Paul McGuigan (bass guitar), and Tony McCarroll (drums). Upon returning to Manchester, Liam\'s older brother Noel (lead guitar, vocals) joined as a fifth member, finalising the band\'s core line-up. During the course of their existence, they had various line-up changes, though the Gallagher brothers remained as the staple members. Oasis signed to independent record label Creation Records in 1993 and released their record-setting debut album Definitely Maybe (1994). The following year they recorded (What\'s the Story) Morning Glory? (1995) with drummer Alan White, in the midst of a chart rivalry with Britpop peers Blur. Spending ten weeks at number one on the UK Albums Chart, (What\'s the Story) Morning Glory? was also an international chart success, and became one of the best-selling albums of all time. In addition, it stands as the fifth-best-selling album in the UK, and the biggest-selling album in the UK of the 1990s. The Gallagher brothers featured regularly in tabloid newspapers for their disputes and wild lifestyles. In 1996, Oasis performed two nights at Knebworth for an audience of 125,000 each night, the largest outdoor concerts in UK history at the time. In 1997, Oasis released their third album, Be Here Now; becoming the fastest-selling album in UK chart history. However, its popularity declined quickly. McGuigan and Arthurs left in 1999 as Oasis released Standing on the Shoulder of Giants (2000). They were replaced by former Heavy Stereo guitarist Gem Archer and former Ride guitarist Andy Bell. White departed in 2004, replaced by Zak Starkey and later Chris Sharrock as touring members. Oasis released three more studio albums, Heathen Chemistry (2002), Don\'t Believe the Truth (2005) and Dig Out Your Soul (2008). The group abruptly disbanded after the departure of Noel in August 2009. As of 2009, Oasis have sold over 70 million records worldwide. They are among the most successful acts on the UK Singles Chart and Albums Chart, with eight UK number-one singles and eight UK number-one albums. The band also achieved three platinum albums in the US. They won 17 NME Awards, nine Q Awards, four MTV Europe Music Awards and six Brit Awards, including one in 2007 for Outstanding Contribution to Music and one for the "Best Album of the Last 30 Years" for (What\'s the Story) Morning Glory?. They were nominated for two Grammy Awards.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/The_Strokes', 'artist_name': 'The Strokes', 'wiki': 'http://en.wikipedia.org/wiki/The_Strokes', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1998', 'labels': ['http://dbpedia.org/resource/Cult_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Rough_Trade_Records'], 'genres': ['http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'actual_members': ['http://dbpedia.org/resource/Albert_Hammond_Jr.', 'http://dbpedia.org/resource/Fabrizio_Moretti', 'http://dbpedia.org/resource/Julian_Casablancas', 'http://dbpedia.org/resource/Nick_Valensi', 'http://dbpedia.org/resource/Nikolai_Fraiture'], 'related_artists': ['http://dbpedia.org/resource/CRX_(band)', 'http://dbpedia.org/resource/Chris_Tabron', 'http://dbpedia.org/resource/David_Bason', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Elvis_Costello', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Gordon_Raphael', 'http://dbpedia.org/resource/Greg_Calbi', 'http://dbpedia.org/resource/Gus_Oberg', 'http://dbpedia.org/resource/Little_Joy', 'http://dbpedia.org/resource/Nikolai_Fraiture', 'http://dbpedia.org/resource/Noah_Georgeson', 'http://dbpedia.org/resource/Richie_Follin', 'http://dbpedia.org/resource/Ryan_Gentles', 'http://dbpedia.org/resource/The_Postelles', 'http://dbpedia.org/resource/The_Voidz', 'http://dbpedia.org/resource/Zerobridge'], 'abstract': 'The Strokes are an American rock band from New York City. Formed in 1998, the band is composed of singer Julian Casablancas, guitarists Nick Valensi and Albert Hammond Jr., bassist Nikolai Fraiture, and drummer Fabrizio Moretti. They were a leading group of the early-2000s indie rock revival. The release of their EP The Modern Age in early 2001 sparked a bidding war among major labels, with the band eventually signing to RCA Records. That summer, they released their debut album, Is This It, to critical acclaim and strong sales. It has since appeared on numerous "best album" lists. It was followed by Room on Fire (2003) and First Impressions of Earth (2006), both of which sold well but failed to match Is This It in critical success. Following a five-year hiatus, they released Angles (2011) and Comedown Machine (2013) to lukewarm critical reception and dwindling sales. Following the end of their initial contract with RCA, they released the Future Present Past EP (2016) through Casablancas\' label Cult. The band were relatively inactive throughout the decade, making infrequent live appearances and directing most media attention to individual projects. In 2020, they released their first studio album in seven years, The New Abnormal, produced by Rick Rubin and released through Cult and RCA. Critics considered the album a return to form. It went on to win Best Rock Album at the 63rd Annual Grammy Awards. As of 2020, the band has sold 5 million albums worldwide.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Everclear_(band)', 'artist_name': 'Everclear', 'wiki': 'http://en.wikipedia.org/wiki/Everclear_(band)', 'hometown': 'http://dbpedia.org/resource/Portland,_Oregon', 'start_year': '1991', 'labels': ['http://dbpedia.org/resource/429_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Cleopatra_Records', 'http://dbpedia.org/resource/Eleven_Seven_Label_Group', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Tim/Kerr'], 'plays_in': ['http://dbpedia.org/resource/Woodstock_1999_(album)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Art_Alexakis', 'Dave French', 'Freddy Herrera', 'Brian Nolan'], 'old_members': ['[[#Former members'], 'related_artists': ['http://dbpedia.org/resource/Art_Alexakis', 'http://dbpedia.org/resource/Audio_Learning_Center', 'http://dbpedia.org/resource/Brynn_Arens', 'http://dbpedia.org/resource/Craig_Montoya', 'http://dbpedia.org/resource/Greg_Eklund', 'http://dbpedia.org/resource/Josh_Todd_and_the_Conflict', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/Stacy_Jones', 'http://dbpedia.org/resource/The_Exies', 'http://dbpedia.org/resource/Tommy_Stewart'], 'abstract': "Everclear is an American rock band formed in Portland, Oregon, in 1991. The band was formed by Art Alexakis, the band's lead songwriter, vocalist, and guitarist; and for most of the band's height of popularity, consisted of Craig Montoya on bass guitar and Greg Eklund on drums. After the limited release of their independently released debut album, World of Noise, the band found success with their first three albums on Capitol Records: Sparkle and Fade, So Much for the Afterglow, and Songs from an American Movie Vol. One: Learning How to Smile, which were all certified platinum in sales. However, the following two albums Songs from an American Movie Vol. Two: Good Time for a Bad Attitude and Slow Motion Daydream, were not as well received, and as sales suffered, Montoya and Eklund left the band shortly after in 2003. After a brief stint of solo performances, Alexakis decided to push forward with the Everclear name, finding new musicians to perform with and releasing two more albums, Welcome to the Drama Club and Invisible Stars. In 2012, Alexakis started a 1990s nostalgia tour, named the Summerland Tour, which occurs every summer with Everclear and other 1990s alternative rock bands. In April 2015, the band released a ninth studio album, entitled Black is the New Black."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Disturbed_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1994', 'end_year': '2011', 'labels': ['http://dbpedia.org/resource/Giant_Records_(Warner)', 'http://dbpedia.org/resource/Reprise_Records', 'http://dbpedia.org/resource/Warner_Records'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music', 'http://dbpedia.org/resource/Nu_metal', 'Heavy metal'], 'actual_members': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/John_Moyer', 'http://dbpedia.org/resource/Mike_Wengren'], 'old_members': ['Erich Awalt', 'Steve Kmak'], 'related_artists': ['http://dbpedia.org/resource/Dan_Donegan', 'http://dbpedia.org/resource/David_Draiman', 'http://dbpedia.org/resource/Fight_or_Flight_(band)', 'http://dbpedia.org/resource/Heaven_Below', 'http://dbpedia.org/resource/John_Moyer__John_Moyer__1', 'http://dbpedia.org/resource/Kevin_Churko', "http://dbpedia.org/resource/Marty_O'Brien", 'http://dbpedia.org/resource/Mike_Wengren', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/The_Union_Underground'], 'abstract': 'Disturbed is an American heavy metal band from Chicago, formed in 1994. The band includes vocalist David Draiman, guitarist/keyboardist Dan Donegan, bassist John Moyer and drummer Mike Wengren. Donegan and Wengren have been involved in the band since its inception, with Moyer replacing former bassist Steve "Fuzz" Kmak and Draiman replacing original lead vocalist Erich Awalt. The band has released seven studio albums, five of which have consecutively debuted at number one on the Billboard 200. Disturbed went into hiatus in October 2011, during which the band\'s members focused on various side projects, and returned in June 2015, releasing their first album in four years, Immortalized in August 2015. They also released two live albums, Music as a Weapon II in February 2004 and Disturbed: Live at Red Rocks in November 2016. Disturbed has sold over 17 million records worldwide, making them one of the most successful rock bands in the modern era alongside Slipknot and Godsmack, among others.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ryan_Paris', 'artist_name': 'Ryan Paris', 'wiki': 'http://en.wikipedia.org/wiki/Ryan_Paris', 'birth_date': '12 March 1953', 'start_year': '1983', 'abstract': 'Fabio Roscioli (born 12 March 1953), known by his stage name Ryan Paris, is an Italian singer, songwriter, musician and actor who gained international popularity in 1983 for the worldwide hit single "Dolce Vita", written and produced by Pierluigi Giombini. "Dolce Vita" was released in the United Kingdom on the Carrere Records label, distributed by RCA and spent ten weeks in the UK Singles Chart, peaking at Number 5. The record peaked at Number 1 in France, Belgium, Netherlands, Denmark, Norway, Spain and peaked at Number 3 in Germany. Ryan Paris continued to release records in the mid-1980s and 1990s. In 2010 he made a comeback with a new song, "I Wanna Love You Once Again", which he wrote and composed, with production by Eddy Mi Ami. At the end of that year, Paris co-produced a remix of "Dolce Vita" which peaked at number 54 in the official French club chart. In 2013, the song "Sensation of Love", written and produced by Paris, was released as a single by Bulgarian artist Miroslav Kostadinov, peaking at number 15 in the official Bulgarian CD chart. A new version of the song, with a more 1980s vibe, co-produced by Paris together with Eddy Mi Ami and sung in a duet with Valerie Flor, was released in March 2014. Paris continues to record and produce songs; his most recent releases include the songs "You Are My Life", "Buonasera Dolce Vita" and "Love on Ice". In December 2017, Paris sang "Dolce Vita" in the Catalan language for the Fundació la Marato. This version was produced by Jordi Cubino (David Lyme) and was recorded as a charity single for the benefit of the foundation, with the proceeds being utilised for the study of several human illnesses.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/Kasabian', 'hometown': 'http://dbpedia.org/resource/Leicester', 'start_year': '1997', 'aliases': ['Saracuse'], 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Electronic_rock', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Space_rock'], 'actual_members': ['http://dbpedia.org/resource/Ian_Matthews_(drummer)', 'http://dbpedia.org/resource/Serge_Pizzorno', 'Tim Carter', 'Chris Edwards', 'Sergio Pizzorno'], 'old_members': ['http://dbpedia.org/resource/Tom_Meighan', 'Chris Karloff'], 'related_artists': ['http://dbpedia.org/resource/Beady_Eye', 'http://dbpedia.org/resource/Ian_Matthews_(drummer)', 'http://dbpedia.org/resource/Jay_Mehler', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Loose_Tapestries', 'http://dbpedia.org/resource/Nika_Boon', 'http://dbpedia.org/resource/Noel_Fielding', 'http://dbpedia.org/resource/Oasis_(band)', 'http://dbpedia.org/resource/Serge_Pizzorno', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_S.L.P.', 'http://dbpedia.org/resource/Tom_Meighan'], 'abstract': 'Kasabian (/kəˈseɪbiən/ kə-SAY-bee-ən) are an English rock band formed in Leicester in 1997 by Tom Meighan, Sergio Pizzorno, Chris Karloff, and Chris Edwards. Drummer Ian Matthews joined in 2004. Karloff left the band in 2006 and founded a new band called Black Onassis. Jay Mehler joined as touring lead guitarist in 2006, leaving for Liam Gallagher\'s Beady Eye in 2013, to be replaced by Tim Carter. Meighan left the band in July 2020. In 2010 and 2014, Kasabian won the Q Awards for "Best Act in the World Today", while they were also named "Best Live Act" at the 2014 Q Awards and the 2007 and 2018 NME Awards. The band\'s music is often described as "indie rock", but Pizzorno has said he "hates indie bands" and does not feel Kasabian fit into that category. Kasabian have released six studio albums – Kasabian (2004), Empire (2006), West Ryder Pauper Lunatic Asylum (2009), Velociraptor! (2011), 48:13 (2014), and For Crying Out Loud (2017). The band\'s music has been described as a mix between The Stone Roses and Primal Scream with the swagger of Oasis. Their music has won them several awards and recognition in the media, including a Brit Award in 2010 for Best British Group, and their live performances have received praise, the most notable of which was their appearance as headliners at the 2014 Glastonbury Festival.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/EMF_(band)', 'artist_name': 'EMF', 'wiki': 'http://en.wikipedia.org/wiki/EMF_(band)', 'hometown': 'http://dbpedia.org/resource/Cinderford', 'start_year': '1989', 'labels': ['http://dbpedia.org/resource/Parlophone'], 'genres': ['http://dbpedia.org/resource/Alternative_dance', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Baggy'], 'actual_members': ['http://dbpedia.org/resource/Ian_Dench', 'Derry Brownson', 'Mark Decloedt', 'Stevey Marsh', 'Jack Stephens', 'DJ Milf', 'James Atkin'], 'old_members': ['Zac Foley'], 'related_artists': ['http://dbpedia.org/resource/Grand_Theft_Audio', 'http://dbpedia.org/resource/Ian_Dench', 'http://dbpedia.org/resource/Pascal_Gabriel'], 'abstract': 'EMF are a British alternative rock band from Cinderford, Gloucestershire, who came to prominence at the beginning of the 1990s. During their initial eight-year run, from 1989 to 1997, the band released three studio albums before a hiatus. Their first single, "Unbelievable", reached number 3 on the UK Singles Chart, and was a number 1 hit on the US Billboard Hot 100 chart. Their debut album, Schubert Dip, went to number 3 on the UK Albums Chart. The band have split up and re-formed three times.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gerard_Presencer', 'artist_name': 'Gerard Presencer', 'wiki': 'http://en.wikipedia.org/wiki/Gerard_Presencer', 'birth_date': '12 September 1972', 'start_year': '1987', 'genres': ['http://dbpedia.org/resource/Contemporary_classical_music', 'http://dbpedia.org/resource/Jazz'], 'abstract': 'Gerard Presencer (born 12 September 1972) is an English jazz trumpeter.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Halsey_(singer)', 'artist_name': 'Halsey', 'wiki': 'http://en.wikipedia.org/wiki/Halsey_(singer)', 'birth_date': '29 September 1994', 'start_year': '2012', 'related_artists': ['http://dbpedia.org/resource/Aron_Forbes', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Cashmere_Cat', 'http://dbpedia.org/resource/Charlie_Hugall', 'http://dbpedia.org/resource/Dominic_Fike', 'http://dbpedia.org/resource/G-Eazy', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Lani_Renaldo', 'http://dbpedia.org/resource/Lost_Kings', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Matt_Schwartz', 'http://dbpedia.org/resource/Young_Rising_Sons', 'http://dbpedia.org/resource/Yungblud'], 'abstract': 'Ashley Nicolette Frangipane (/ˌfrændʒɪˈpɑːni/; born September 29, 1994), known professionally as Halsey (IPA: /ˈhɔːlzi/, /ˈhɑːlzi/), is an American singer and songwriter. Gaining attention from self-released music on social media platforms, she was signed by Astralwerks in 2014 and released her debut EP, Room 93, later that year. Halsey released her debut studio album, Badlands, in 2015. It was certified Double Platinum by the Recording Industry Association of America (RIAA), as were its tracks "Colors" and "Gasoline". In 2016, she was featured on the Chainsmokers\' single "Closer", which topped the charts in over 10 countries. Her second studio album, Hopeless Fountain Kingdom (2017), consisted of more "radio-friendly" music than her previous releases; its singles "Now or Never" and "Bad at Love" reached the top 20 of the Billboard Hot 100, with the latter peaking in the top five. Halsey\'s third studio album, Manic (2020), became her best selling album worldwide, while its lead single "Without Me" became her most successful single as a lead artist. Her fourth studio album, If I Can\'t Have Love, I Want Power (2021), moved away from her previous sound in favor of a darker industrial sound; described by Halsey as "the album [she] always wanted to make", it was produced by Nine Inch Nails members Trent Reznor and Atticus Ross and received generally positive reviews. In 2020, Billboard reported that Halsey has sold over 1 million albums and received over 6 billion streams in the United States. She is noted for her distinctive singing voice. Her awards and nominations include four Billboard Music Awards, one American Music Award, one GLAAD Media Award, an MTV Video Music Award, two Grammy Awards, and being named Songwriter of the year by BMI Film &amp; TV Awards in 2021. She was also included on Time magazine\'s annual list of the 100 most influential people in the world in 2020. Aside from music, she has been involved in suicide prevention awareness, sexual assault victim advocacy, and racial justice protests.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pink_Floyd', 'artist_name': 'Pink Floyd', 'wiki': 'http://en.wikipedia.org/wiki/Pink_Floyd', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1964', 'end_year': '1995', 'aliases': ['Sigma 6', 'The Pink Floyd Sound', 'The Tea Set'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Columbia_Graphophone_Company', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/EMI_Records', 'http://dbpedia.org/resource/Harvest_Records', 'http://dbpedia.org/resource/Parlophone', 'http://dbpedia.org/resource/Sony_Music', 'http://dbpedia.org/resource/Tower_Records_(record_label)'], 'plays_in': ['http://dbpedia.org/resource/Crystal_Voyager', 'http://dbpedia.org/resource/Delicate_Sound_of_Thunder_(film)', 'http://dbpedia.org/resource/La_Carrera_Panamericana', 'http://dbpedia.org/resource/La_Vallée_(film)', 'http://dbpedia.org/resource/More_(1969_film)', 'http://dbpedia.org/resource/Pink_Floyd:_Live_at_Pompeii', 'http://dbpedia.org/resource/Pulse_(1995_film)', 'http://dbpedia.org/resource/The_Committee_(film)', 'http://dbpedia.org/resource/The_Story_of_Wish_You_Were_Here', 'http://dbpedia.org/resource/Zabriskie_Point_(film)'], 'genres': ['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_rock', 'http://dbpedia.org/resource/Progressive_rock', 'http://dbpedia.org/resource/Psychedelic_music', 'http://dbpedia.org/resource/Space_rock', 'psychedelia'], 'old_members': ['http://dbpedia.org/resource/Bob_Klose', 'http://dbpedia.org/resource/Nick_Mason', 'http://dbpedia.org/resource/Richard_Wright_(musician)', 'Roger Waters', 'Syd Barrett', 'David Gilmour'], 'related_artists': ['http://dbpedia.org/resource/Andy_Roberts_(musician)', 'http://dbpedia.org/resource/Bobbye_Hall', 'http://dbpedia.org/resource/Nick_Mason', 'http://dbpedia.org/resource/Ron_Geesin', 'http://dbpedia.org/resource/Venetta_Fields'], 'abstract': 'Pink Floyd were an English rock band formed in London in 1964. Gaining an early following as one of the first British psychedelic groups, they were distinguished for their extended compositions, sonic experimentation, philosophical lyrics and elaborate live shows. They became a leading band of the progressive rock genre, cited by some as the greatest progressive rock band of all time. Pink Floyd were founded in 1964 by Syd Barrett (guitar, lead vocals), Nick Mason (drums), Roger Waters (bass guitar, vocals), Richard Wright (keyboards, vocals) and Bob Klose (guitars); Klose quit in 1965. Under Barrett\'s leadership, they released two charting singles and the successful debut album The Piper at the Gates of Dawn (1967). Guitarist and vocalist David Gilmour joined in December 1967; Barrett left in April 1968 due to deteriorating mental health. Waters became the primary lyricist and thematic leader, devising the concepts behind the band\'s peak success with the albums The Dark Side of the Moon (1973), Wish You Were Here (1975), Animals (1977) and The Wall (1979). The musical film based on The Wall, Pink Floyd – The Wall (1982), won two BAFTA Awards. Following personal tensions, Wright left Pink Floyd in 1979, followed by Waters in 1985. Gilmour and Mason continued as Pink Floyd, rejoined later by Wright. The band produced two more albums—A Momentary Lapse of Reason (1987) and The Division Bell (1994)—and toured in support of both albums before entering a long period of inactivity. In 2005, all but Barrett reunited for a one-off performance at the global awareness event Live 8. Barrett died in 2006, and Wright in 2008. The last Pink Floyd studio album, The Endless River (2014), was based on unreleased material from the Division Bell recording sessions. By 2013, Pink Floyd had sold more than 250 million records worldwide, making them one of the best-selling music artists of all time. Wish You Were Here, The Dark Side of the Moon, and The Wall are among the best-selling albums of all time, and the latter two have been inducted into the Grammy Hall of Fame. Four of the band\'s albums topped the US Billboard 200, and five of their albums topped the UK Album Chart. Hit singles include "See Emily Play" (1967), "Money" (1973), "Another Brick in the Wall, Part 2" (1979), "Not Now John" (1983), "On the Turning Away" (1987) and "High Hopes" (1994). The band also composed several film scores. They were inducted into the US Rock and Roll Hall of Fame in 1996 and the UK Music Hall of Fame in 2005. In 2008, King Carl XVI Gustaf of Sweden presented Pink Floyd with the Polar Music Prize for their contribution to modern music.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nayer', 'artist_name': 'Nayer', 'wiki': 'http://en.wikipedia.org/wiki/Nayer', 'start_year': '2002', 'labels': ['http://dbpedia.org/resource/Independent_music'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Latin_pop'], 'related_artists': ['http://dbpedia.org/resource/Afrojack', 'http://dbpedia.org/resource/Jean-Roch', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Pitbull_(rapper)'], 'abstract': 'Nayer Regalado known as Nayer, is a Latin-American singer and songwriter. She gained recognition in 2011 after being featured on Pitbull\'s hit single "Give Me Everything", produced by Afrojack, and releasing her single "Suave (Kiss Me)" featuring Pitbull and Swedish-Congolese singer-songwriter Mohombi which was a success in Europe and the Middle East. Her other known collaborations include songs with Ne-Yo, Enrique Iglesias, Lil Wayne, Usher, Fonseca, Juan Magan, Yomil (of the Cuban duo Yomil y el Dany), Jean-Roch and Melissa.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sam_Smith_(painter)', 'artist_name': 'Sam Smith', 'wiki': 'http://en.wikipedia.org/wiki/Sam_Smith_(painter)', 'birth_date': '11 February 1918', 'death_date': '23 May 1999', 'abstract': 'Samuel David Smith (born Thorndale, Texas on February 11, 1918 — May 23, 1999) was an American artist.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ohio_Players', 'artist_name': 'Ohio Players', 'wiki': 'http://en.wikipedia.org/wiki/Ohio_Players', 'hometown': 'http://dbpedia.org/resource/Ohio', 'start_year': '1959', 'aliases': ['The Ohio Untouchables'], 'labels': ['http://dbpedia.org/resource/Arista_Records', 'http://dbpedia.org/resource/Boardwalk_Records', 'http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/Westbound_Records'], 'genres': ['http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Progressive_soul'], 'old_members': ['http://dbpedia.org/resource/Dutch_Robinson', 'http://dbpedia.org/resource/Leroy_%22Sugarfoot%22_Bonner', 'http://dbpedia.org/resource/Marshall_%22Rock%22_Jones', 'http://dbpedia.org/resource/Robert_Ward_(blues_musician)', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison', 'Clarence "Chet" Willis', 'Shaun "Shaunie Mac" Dedrick', 'Greg Webster', 'Dean Simms', 'Marvin "Merv" Pierce', 'William "Billy" Beck', 'Paul Machowsky', 'Michael "Slyde" Jennings', 'Cornelius Johnson', 'Jimmy Sampson', 'Ronald "Nooky" Nooks', 'Odeen "Deeno" Mays', 'Ralph "Pee Wee" Middlebrooks', 'Wes Boatman', 'Bruce Napier', 'Ronnie "Diamond" Hoard', 'Bobby Lee Fears', 'Andrew Noland', 'Charles Dale Allen', 'Vincent Thomas', 'Robert "Kuumba" Jones', 'Clarence "Satch" Satchell', 'James "Diamond" Williams'], 'related_artists': ['http://dbpedia.org/resource/Faze-O', 'http://dbpedia.org/resource/Leroy_%22Sugarfoot%22_Bonner', 'http://dbpedia.org/resource/Marshall_%22Rock%22_Jones', 'http://dbpedia.org/resource/Shadow_(group)', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison'], 'abstract': 'Ohio Players is an American funk band, most popular in the 1970s. They are best known for their songs "Fire" and "Love Rollercoaster"; as well as for their erotic album covers that featured nude or nearly nude women. Many of the women were models featured in Playboy. The singles "Funky Worm", "Skin Tight", "Fire", and "Love Rollercoaster"; as well as their albums Skin Tight, Fire, and Honey, were awarded Gold certifications. On August 17, 2013, Ohio Players were inducted into the inaugural class of the Rhythm and Blues Music Hall of Fame that took place at Cleveland State University in Cleveland, Ohio.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Donna_Summer', 'artist_name': 'Donna Summer', 'wiki': 'http://en.wikipedia.org/wiki/Donna_Summer', 'birth_date': '31 December 1948', 'death_date': '17 May 2012', 'start_year': '1968', 'end_year': '2012', 'aliases': ['Donna Gaines', 'Gayn Pierre', 'The First Lady of Love', 'The Queen of Disco'], 'labels': ['http://dbpedia.org/resource/Atlantic_Records', 'http://dbpedia.org/resource/Burgundy_Records', 'http://dbpedia.org/resource/Casablanca_Records', 'http://dbpedia.org/resource/Epic_Records', 'http://dbpedia.org/resource/Geffen_Records', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Island_Records', 'http://dbpedia.org/resource/Mercury_Records', 'http://dbpedia.org/resource/United_Artists_Records', 'http://dbpedia.org/resource/Warner_Music_Group'], 'plays_in': ['http://dbpedia.org/resource/Picture_Perfect_(1997_film)'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Eurodisco', 'http://dbpedia.org/resource/Hi-NRG', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Post-disco'], 'related_artists': ['http://dbpedia.org/resource/Barbara_Ingram', 'http://dbpedia.org/resource/Barbra_Streisand', 'http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Brenda_Russell', 'http://dbpedia.org/resource/Brooklyn_Dreams_(group)', 'http://dbpedia.org/resource/Bruce_Roberts_(singer)', 'http://dbpedia.org/resource/Bruce_Springsteen', 'http://dbpedia.org/resource/Bruce_Sudano', 'http://dbpedia.org/resource/Carlena_Williams', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Darwin_Hobbs', 'http://dbpedia.org/resource/David_Batteau', 'http://dbpedia.org/resource/David_Foster', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/Graham_Stack_(record_producer)', 'http://dbpedia.org/resource/Harold_Faltermeyer', 'http://dbpedia.org/resource/Joe_Esposito_(singer)', 'http://dbpedia.org/resource/Johnnyswim', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Liza_Minnelli', 'http://dbpedia.org/resource/Matthew_Ward_(singer)', 'http://dbpedia.org/resource/Michael_Omartian', 'http://dbpedia.org/resource/Mickey_Thomas_(singer)', 'http://dbpedia.org/resource/Mike_Stock_(musician)', 'http://dbpedia.org/resource/Musical_Youth', 'http://dbpedia.org/resource/Omega_Red_(rapper)', 'http://dbpedia.org/resource/Paul_Jabara', 'http://dbpedia.org/resource/Pete_Bellotte', 'http://dbpedia.org/resource/Quincy_Jones', 'http://dbpedia.org/resource/Rosabel', 'http://dbpedia.org/resource/Stock_Aitken_Waterman', 'http://dbpedia.org/resource/Westlife', 'http://dbpedia.org/resource/Ziggy_Marley'], 'abstract': 'LaDonna Adrian Gaines (December 31, 1948 – May 17, 2012), known professionally as Donna Summer, was an American singer, songwriter, and actress. She gained prominence during the disco era of the 1970s and became known as the "Queen of Disco", while her music gained a global following. Influenced by the counterculture of the 1960s, Summer became the lead singer of a psychedelic rock band named Crow and moved to New York City. In 1968 she joined a German adaptation of the musical Hair in Munich, where she spent several years living, acting, and singing. There, she met music producers Giorgio Moroder and Pete Bellotte, and they went on to record influential disco hits together such as "Love to Love You Baby" and "I Feel Love", marking Summer\'s breakthrough into international music markets. Summer returned to the United States in 1976, and more hits such as "Last Dance", her version of "MacArthur Park", "Heaven Knows", "Hot Stuff", "Bad Girls", "Dim All the Lights", "No More Tears (Enough Is Enough)" with Barbra Streisand, and "On the Radio" followed. Summer earned a total of 42 hit singles on the US Billboard Hot 100 in her lifetime, with 14 of those reaching the top ten. She claimed a top-40 hit every year between 1975 and 1984, and from her first top-ten hit in 1976, to the end of 1982, she had 12 top-ten hits (10 were top-five hits), more than any other act during that time period. She returned to the Hot 100\'s top five in 1983, and claimed her final top-ten hit in 1989 with "This Time I Know It\'s for Real". She was the first artist to have three consecutive double albums reach the top of the US Billboard 200 chart and charted four number-one singles in the US within a 12-month period. She also charted two number-one singles on the R&amp;B Singles chart in the US and a number-one single in the United Kingdom. Her most recent Hot 100 hit came in 1999 with "I Will Go with You (Con te partirò)". While her fortunes on the Hot 100 waned in subsequent decades, Summer remained a force on the Billboard Dance Club Songs chart throughout her entire career. Summer died on May 17, 2012, from lung cancer, at her home in Naples, Florida. She sold over 100 million records worldwide, making her one of the best-selling music artists of all time. She won five Grammy Awards. In her obituary in The Times, she was described as the "undisputed queen of the Seventies disco boom" who reached the status of "one of the world\'s leading female singers." Moroder described Summer\'s work on the song "I Feel Love" as "really the start of electronic dance" music. In 2013, Summer was inducted into the Rock and Roll Hall of Fame. In December 2016, Billboard ranked her sixth on its list of the "Greatest of All Time Top Dance Club Artists".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kaiser_Chiefs', 'artist_name': 'Kaiser Chiefs', 'wiki': 'http://en.wikipedia.org/wiki/Kaiser_Chiefs', 'hometown': 'http://dbpedia.org/resource/Leeds', 'start_year': '2000', 'labels': ['http://dbpedia.org/resource/ATO_Records', 'http://dbpedia.org/resource/B-Unique_Records', 'http://dbpedia.org/resource/Drowned_in_Sound', 'http://dbpedia.org/resource/Fiction_Records', 'http://dbpedia.org/resource/Liberation_Music', 'http://dbpedia.org/resource/Polydor_Records', 'http://dbpedia.org/resource/Universal_Music_Group', 'http://dbpedia.org/resource/Virgin_Music_Label_&amp;_Artist_Services'], 'genres': ['http://dbpedia.org/resource/Britpop', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Power_pop'], 'actual_members': ['http://dbpedia.org/resource/Andrew_White_(musician)', 'http://dbpedia.org/resource/Kaiser_Chiefs', 'http://dbpedia.org/resource/Ricky_Wilson_(singer)', 'Nick Baines', 'Vijay Mistry', 'Simon Rix'], 'old_members': ['http://dbpedia.org/resource/Nick_Hodgson'], 'related_artists': ['http://dbpedia.org/resource/Andrew_White_(musician)', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Charlie_Hugall', 'http://dbpedia.org/resource/Culprit_1', 'http://dbpedia.org/resource/Nick_Hodgson', 'http://dbpedia.org/resource/Ricky_Wilson_(singer)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tony_Visconti'], 'abstract': 'Kaiser Chiefs are an English indie rock band from Leeds who formed in 2000 as Parva, releasing one studio album, 22, in 2003, before renaming and establishing themselves in their current name that same year. Since their formation the band has consisted of lead vocalist Charles Richard Wilson, guitarist Andrew "Whitey" White, bassist Simon Rix, keyboardist Nick "Peanut" Baines and since 2013 drummer Vijay Mistry, who replaced founding drummer Nick Hodgson following his departure from the band in late 2012. Primarily inspired by new wave and punk rock music of the late 1970s and 1980s, the band have released seven original studio albums: Employment (2005), Yours Truly, Angry Mob (2007), Off with Their Heads (2008), The Future Is Medieval (2011), Education, Education, Education &amp; War (2014), Stay Together (2016), and Duck (2019), one EP: Lap of Honour (2005), one compilation album: Souvenir: The Singles 2004–2012 (2012) and numerous singles, including the number one hit song "Ruby". Their album Employment enjoyed critical and commercial success with over three million copies sold. It has won the band three Brit Awards, including the award for Best British Group, a NME award for Best Album, and was shortlisted for the Mercury Prize. Their UK hit singles include 2004 and 2005 number 9 hit "I Predict a Riot", 2007 UK number 1 hit "Ruby", which has sold over 461,000 copies, from their platinum album Yours Truly, Angry Mob plus a further two Top 20 singles in 2007 with "The Angry Mob" and "Everything Is Average Nowadays". Their singles "Ruby", "I Predict a Riot", "Everyday I Love You Less and Less", "Never Miss a Beat" and "Oh My God" had sold a combined total of 1.1 million up to August 2012.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Magic!', 'artist_name': 'Magic!', 'wiki': 'http://en.wikipedia.org/wiki/Magic!', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '2012', 'labels': ['http://dbpedia.org/resource/RCA_Records', 'http://dbpedia.org/resource/Sony_Music'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae_fusion', 'http://dbpedia.org/resource/Reggae_rock'], 'actual_members': ['http://dbpedia.org/resource/Alex_Tanas', 'http://dbpedia.org/resource/Ben_Spivak', 'http://dbpedia.org/resource/Mark_%22Pelli%22_Pellizzer', 'http://dbpedia.org/resource/Nasri_(musician)', 'Mark "Pelli" Pellizzer'], 'related_artists': ['http://dbpedia.org/resource/Adam_Messinger', 'http://dbpedia.org/resource/Nasri_(musician)', 'http://dbpedia.org/resource/The_Messengers_(producers)'], 'abstract': 'Magic! is a Canadian reggae fusion band based in Toronto, Ontario. The band is composed of lead vocalist, guitarist and producer Nasri Atweh (Nasri), guitarist and keyboardist Mark "Pelli" Pellizzer, bassist Ben Spivak, and drummer Alex Tanas. Active since 2012, the band is signed with Latium, Sony, and RCA Records, releasing their debut studio album Don\'t Kill the Magic in 2014, their second studio album Primary Colours in 2016, and their third studio album Expectations in 2018. They are best known for their hit single "Rude", which charted at No. 1 in several countries worldwide, including the US and UK. The band is heavily inspired by the Police and Bob Marley and the Wailers. They are known for having a signature reggae-influenced pop sound.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Owl_City', 'artist_name': 'Owl City', 'wiki': 'http://en.wikipedia.org/wiki/Owl_City', 'hometown': 'http://dbpedia.org/resource/Owatonna,_Minnesota', 'birth_date': '05 July 1986', 'start_year': '2007', 'labels': ['http://dbpedia.org/resource/Republic_Records'], 'genres': ['http://dbpedia.org/resource/Christian_electronic_dance_music', 'http://dbpedia.org/resource/Contemporary_Christian_music', 'http://dbpedia.org/resource/Electronica', 'http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop', 'pop', 'CCM', 'CEDM', 'indietronica'], 'actual_members': ['Adam Young'], 'related_artists': ['http://dbpedia.org/resource/Breanne_Düren', 'http://dbpedia.org/resource/Keith_Kenniff', 'http://dbpedia.org/resource/Lights_(musician)', 'http://dbpedia.org/resource/Matt_Thiessen', 'http://dbpedia.org/resource/Sekai_no_Owari', 'http://dbpedia.org/resource/Swimming_With_Dolphins_(band)', 'http://dbpedia.org/resource/Windsor_Airlift'], 'abstract': 'Owl City is an American electronic music project created in 2007 in Owatonna, Minnesota; it is one of several projects by singer, songwriter and multi-instrumentalist Adam Young. Young created the project while experimenting with music in his parents\' basement. Owl City developed a following on the social networking site MySpace, like many musicians who achieved success in the late 2000s, before signing with Universal Republic Records, now Republic Records, in 2008. After two independent releases, Owl City gained mainstream popularity with the 2009 major label debut album Ocean Eyes, which includes the six-time Platinum single "Fireflies". The album was certified Platinum in the United States in April 2010. In June 2011, Owl City released its third studio album, All Things Bright and Beautiful, which was followed by The Midsummer Station in August 2012. Owl City has recorded songs for several animated films, including Legend of the Guardians: The Owls of Ga\'Hoole, Wreck-It Ralph, The Croods and The Smurfs 2. Owl City also has released several charting singles, most notably "Good Time" and "Fireflies".'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Sir_Mix-a-Lot', 'artist_name': 'Sir Mix-a-Lot', 'wiki': 'http://en.wikipedia.org/wiki/Sir_Mix-a-Lot', 'hometown': 'http://dbpedia.org/resource/Seattle', 'birth_date': '12 August 1963', 'start_year': '1979', 'labels': ['http://dbpedia.org/resource/American_Recordings_(record_label)', 'http://dbpedia.org/resource/Bertelsmann_Music_Group'], 'genres': ['http://dbpedia.org/resource/Electro_(music)', 'http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/Rick_Rubin'], 'abstract': 'Anthony L. Ray (born August 12, 1963), better known by his stage name Sir Mix-a-Lot, is an American rapper, songwriter, and record producer. He is best known for his 1992 hit song "Baby Got Back", which peaked at number one on the Billboard Hot 100.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Beastie_Boys', 'artist_name': 'Beastie Boys', 'wiki': 'http://en.wikipedia.org/wiki/Beastie_Boys', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1981', 'end_year': '2012', 'aliases': ['The Young Aborigines (1978–1981)'], 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Def_Jam_Recordings', 'http://dbpedia.org/resource/Grand_Royal', 'http://dbpedia.org/resource/Rat_Cage_Records'], 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Grammy_Rap_Nominees', 'http://dbpedia.org/resource/Real_Steel', 'http://dbpedia.org/resource/Tougher_Than_Leather_(film)'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Hardcore_punk', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Jazz-funk', 'http://dbpedia.org/resource/Rap_rock', 'Hip hop'], 'old_members': ['http://dbpedia.org/resource/Ad-Rock', 'http://dbpedia.org/resource/Adam_Yauch', 'http://dbpedia.org/resource/John_Berry_(musician)', 'http://dbpedia.org/resource/Kate_Schellenbach', 'http://dbpedia.org/resource/Mike_D', 'MCA'], 'related_artists': ['http://dbpedia.org/resource/Bad_Brains', 'http://dbpedia.org/resource/Biz_Markie', 'http://dbpedia.org/resource/DJ_Hurricane', 'http://dbpedia.org/resource/Dust_Brothers', 'http://dbpedia.org/resource/Luscious_Jackson', 'http://dbpedia.org/resource/Mario_Caldato_Jr.', 'http://dbpedia.org/resource/Mix_Master_Mike', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Public_Enemy', 'http://dbpedia.org/resource/Rick_Rubin', 'http://dbpedia.org/resource/Run-DMC', 'http://dbpedia.org/resource/The_Fat_Boys', 'http://dbpedia.org/resource/Whodini'], 'abstract': 'Beastie Boys were an American hip hop group from New York City, formed in 1981. The group was composed of Michael "Mike D" Diamond (vocals, drums), Adam "MCA" Yauch (vocals, bass), and Adam "Ad-Rock" Horovitz (vocals, guitar, programming). Beastie Boys were formed out of members of experimental hardcore punk band The Young Aborigines in 1978, with Diamond as vocalist, Jeremy Shatan on bass guitar, John Berry on guitar, and Kate Schellenbach on drums. When Shatan left in 1981, Yauch replaced him on bass and the band changed their name to Beastie Boys. Berry left shortly thereafter and was replaced by Horovitz. After achieving local success with the 1983 comedy hip hop single "Cooky Puss," Beastie Boys made a full transition to hip hop, and Schellenbach left. They toured with Madonna in 1985 and a year later released their debut album, Licensed to Ill (1986), the first rap record to top the Billboard 200 chart. Their second album, Paul\'s Boutique (1989), composed almost entirely of samples, was a commercial failure, but later received critical acclaim. Check Your Head (1992) and Ill Communication (1994) found mainstream success, followed by Hello Nasty (1998), To the 5 Boroughs (2004), The Mix-Up (2007), and Hot Sauce Committee Part Two (2011). Beastie Boys have sold 20 million records in the United States and had seven platinum-selling albums from 1986 to 2004. They are the biggest-selling rap group since Billboard began recording sales in 1991. In 2012, they became the third rap group to be inducted into the Rock and Roll Hall of Fame. In the same year, Yauch died of cancer and Beastie Boys disbanded. Since then, the remaining two members have released several retrospective works, including a book and documentary film detailing the history of the group as well as a career-spanning compilation album. Diamond has produced acts including Portugal. The Man, while Horovitz has taken small acting roles and continues to play music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/La_Bouche', 'artist_name': 'La Bouche', 'wiki': 'http://en.wikipedia.org/wiki/La_Bouche', 'hometown': 'http://dbpedia.org/resource/Frankfurt', 'start_year': '1994', 'end_year': '2002', 'labels': ['http://dbpedia.org/resource/Bertelsmann_Music_Group', 'http://dbpedia.org/resource/RCA_Records'], 'genres': ['http://dbpedia.org/resource/Eurodance', 'http://dbpedia.org/resource/House_music'], 'actual_members': ['http://dbpedia.org/resource/Lane_McCray', 'https://mystiqua.godaddysites.com', 'Tímea Kullai'], 'old_members': ['http://dbpedia.org/resource/Kayo_Shekoni', 'http://dbpedia.org/resource/Melanie_Thornton'], 'related_artists': ['http://dbpedia.org/resource/Felix_Weber_(songwriter)', 'http://dbpedia.org/resource/Frank_Farian__Frank_Farian__1', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Lane_McCray', 'http://dbpedia.org/resource/Le_Click', 'http://dbpedia.org/resource/Mary_Susan_Applegate'], 'abstract': 'La Bouche (French for "The Mouth", pronounced [la buʃ]) is a German electronic dance music duo best known for the hits "Be My Lover", "Sweet Dreams", "You Won\'t Forget Me" and "Tonight is the Night". La Bouche was founded in 1994 by record producer Frank Farian in Frankfurt am Main. He worked together with techno DJ Ulli Brenner and producer Amir Saraf to produce the music, while American singer Melanie Thornton and American rapper-singer Lane McCray fronted the act. Thornton and McCray had already worked together in music, prior to La Bouche\'s creation. Thornton departed La Bouche in 2000, continuing her career as a solo singer. On November 24, 2001, Melanie Thornton died in the Crossair Flight 3597 crash in Zürich, Switzerland. As a tribute to the singer, Farian released "In Your Life", a previously unreleased song featuring vocals recorded earlier with Thornton and McCray. Farian later decided to release a compilation album in 2002 featuring remixes of Thornton\'s biggest La Bouche hits. McCray continues to tour the world as La Bouche, keeping the brand alive. In 2015, McCray pulled Hungarian-born singer Sophie Cairo out of obscurity to be the new official singer of the act. A new official remix titled "Sweet Dreams 2017" was released featuring vocals from McCray and Cairo.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Dandy_Warhols', 'artist_name': 'The Dandy Warhols', 'wiki': 'http://en.wikipedia.org/wiki/The_Dandy_Warhols', 'hometown': 'http://dbpedia.org/resource/Oregon', 'start_year': '1994', 'labels': ['http://dbpedia.org/resource/Capitol_Records', 'http://dbpedia.org/resource/Dine_Alone_Records', 'http://dbpedia.org/resource/The_End_Records', 'http://dbpedia.org/resource/Tim/Kerr'], 'plays_in': ['http://dbpedia.org/resource/Good_Will_Hunting'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Dream_pop', 'http://dbpedia.org/resource/Garage_rock', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Power_pop', 'http://dbpedia.org/resource/Psychedelic_rock', 'http://dbpedia.org/resource/Shoegaze', 'http://dbpedia.org/resource/Synth-pop', 'synthpop'], 'old_members': ['Eric Hedford'], 'related_artists': ['http://dbpedia.org/resource/Brent_DeBoer', 'http://dbpedia.org/resource/Chris_Constantinou', 'http://dbpedia.org/resource/Courtney_Taylor-Taylor', 'http://dbpedia.org/resource/Immigrant_Union', 'http://dbpedia.org/resource/Logan_Lynn', 'http://dbpedia.org/resource/Nick_Rhodes', 'http://dbpedia.org/resource/One_Model_Nation', 'http://dbpedia.org/resource/Pete_International_Airport', 'http://dbpedia.org/resource/Peter_Holmström', 'http://dbpedia.org/resource/The_Brian_Jonestown_Massacre', 'http://dbpedia.org/resource/The_Upsidedown', 'http://dbpedia.org/resource/Warshow_Angels', 'http://dbpedia.org/resource/Yoad_Nevo', 'http://dbpedia.org/resource/Zia_McCabe'], 'abstract': 'The Dandy Warhols are an American alternative rock band, formed in Portland, Oregon in 1994 by singer-guitarist Courtney Taylor-Taylor and guitarist Peter Holmström. They were later joined by keyboardist Zia McCabe and drummer Eric Hedford. Hedford left in 1998 and was replaced by Taylor-Taylor\'s cousin Brent DeBoer. The band\'s name is a play on the name of American pop artist Andy Warhol. The band gained recognition after they were signed to Capitol Records and released their major label album debut, ...The Dandy Warhols Come Down, in 1997. In 2001, the band rose to new levels of fame after their song "Bohemian Like You" enjoyed extensive exposure due to being featured in a Vodafone advertisement. The Dandy Warhols were the subject of the 2004 documentary film Dig!, along with San Francisco psychedelic outfit The Brian Jonestown Massacre. They have released 10 studio albums, two compilation albums, six EPs, and 27 singles to date.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Nicki_Minaj', 'artist_name': 'Nicki Minaj', 'wiki': 'http://en.wikipedia.org/wiki/Nicki_Minaj', 'birth_date': '08 December 1982', 'start_year': '2004', 'plays_in': ['http://dbpedia.org/resource/Grammy_Nominees', 'http://dbpedia.org/resource/Pitch_Perfect_(soundtrack)'], 'related_artists': ['http://dbpedia.org/resource/6ix9ine', 'http://dbpedia.org/resource/Adam_Blackstone', 'http://dbpedia.org/resource/Allen_Ritter', 'http://dbpedia.org/resource/Alus_(singer)', 'http://dbpedia.org/resource/Bebe_Rexha', 'http://dbpedia.org/resource/Bia_(rapper)', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Breyan_Isaac', "http://dbpedia.org/resource/Cam'ron", 'http://dbpedia.org/resource/Carl_Falk', 'http://dbpedia.org/resource/Chris_Braide', 'http://dbpedia.org/resource/Chris_Tabron', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/D._Woods', 'http://dbpedia.org/resource/Derrick_Milano', 'http://dbpedia.org/resource/Dreamlab_(production_team)', 'http://dbpedia.org/resource/Ester_Dean', 'http://dbpedia.org/resource/Foxy_Brown_(rapper)', 'http://dbpedia.org/resource/Frank_Dukes', 'http://dbpedia.org/resource/Jackie_Sagana', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Jesy_Nelson', 'http://dbpedia.org/resource/Kane_Beatz', 'http://dbpedia.org/resource/Keith_James', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Labrinth', 'http://dbpedia.org/resource/Lasanna_%22Ace%22_Harris', 'http://dbpedia.org/resource/LunchMoney_Lewis', 'http://dbpedia.org/resource/Meek_Mill', 'http://dbpedia.org/resource/Metro_Boomin', 'http://dbpedia.org/resource/Mike_Will_Made_It', 'http://dbpedia.org/resource/Murda_Mook', 'http://dbpedia.org/resource/Nova_Wav', 'http://dbpedia.org/resource/PTAF', 'http://dbpedia.org/resource/Parker_Ighile', 'http://dbpedia.org/resource/Philly_Swain', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Sean_Garrett', 'http://dbpedia.org/resource/Shanell', 'http://dbpedia.org/resource/Starrah', 'http://dbpedia.org/resource/Stuart_White_(recording_engineer)', 'http://dbpedia.org/resource/Swae_Lee', 'http://dbpedia.org/resource/Taylor_Girlz', 'http://dbpedia.org/resource/Tha_Bizness', 'http://dbpedia.org/resource/The_Exclusives', 'http://dbpedia.org/resource/Trevor_Jackson_(performer)', 'http://dbpedia.org/resource/Trina', 'http://dbpedia.org/resource/Tushar_Apte', 'http://dbpedia.org/resource/Wayne_Hector'], 'abstract': 'Onika Tanya Maraj-Petty (born December 8, 1982), known professionally as Nicki Minaj (/mɪˈnɑːʒ/), is a Trinidadian-born rapper, singer, and songwriter. She is known for her animated flow in her rapping and versatility as a recording artist. Born in the Saint James district of Port of Spain, Trinidad and Tobago and raised in Queens of New York City, she gained public recognition after releasing the mixtapes Playtime Is Over (2007), Sucka Free (2008), and Beam Me Up Scotty (2009). Early in her career, Minaj became known for her colorful costumes and wigs, her distinct flow, and the use of alter egos and accents, primarily British cockney. In 2010, Minaj released her debut studio album, Pink Friday (2010), which was certified triple-platinum by RIAA, and peaked at number-one on the Billboard 200 chart. Minaj\'s first top-five single "Super Bass" peaked at number three on the Hot 100. At the time, it was the highest-charting solo song by a female rapper since 2002, and it was certified diamond by RIAA in 2021. Her second album, Pink Friday: Roman Reloaded (2012), saw Minaj move towards a dance-pop and pop rap sound. The album debuted at number one on the Billboard 200, with its lead single, "Starships", peaking at number five on the Hot 100. Minaj\'s third and fourth studio albums, The Pinkprint (2014) and Queen (2018), marked a departure from her previous style and a return to her hip hop roots. The former\'s second single "Anaconda" peaked at number two on the Hot 100. Her feature on the remix of Doja Cat\'s "Say So" and her collaboration with 6ix9ine, "Trollz", both released in 2020, marked her first and second number-one singles on the Hot 100, respectively, with the latter making her the second female rapper to debut at number one, following Lauryn Hill in 1998. Including features, Minaj is the female artist with the second-most entries on the Hot 100, behind singer-songwriter Taylor Swift, with each accumulating over 100. She has nineteen top 10 singles on the chart, the most for any female rapper so far, with four of those being solo songs. Her collaboration with Karol G, "Tusa", became the longest-running number-one single in Argentina, with a total of over five months. Her 2021 rerelease of her 2009 mixtape Beam Me Up Scotty debuted at number two on the Billboard 200, becoming the highest debut for a female rap mixtape on the chart. Minaj is one of the best selling female artists of all time with 100 million records sold worldwide. Her accolades include eight American Music Awards, five MTV Video Music Awards, twelve BET Awards, four Billboard Music Awards, a Brit Award, and a Guinness World Record. Billboard ranked her as the top female rapper of the 2010s, as well as seventh among the top female artists of the decade. In 2016, Time included Minaj on their annual list of the 100 most influential people in the world. Outside of music, Minaj\'s film career has included voice roles in the animated films Ice Age: Continental Drift (2012) and The Angry Birds Movie 2 (2019) as well as supporting roles in the comedy films The Other Woman (2014) and Barbershop: The Next Cut (2016). She also appeared as a judge on the twelfth season of American Idol in 2013.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Nena', 'artist_name': 'Nena', 'wiki': 'http://en.wikipedia.org/wiki/Nena', 'birth_date': '24 March 1960', 'start_year': '1979', 'labels': ['http://dbpedia.org/resource/Columbia_Records', 'http://dbpedia.org/resource/Warner_Records'], 'plays_in': ['http://dbpedia.org/resource/Gib_Gas_–_Ich_will_Spass'], 'genres': ['http://dbpedia.org/resource/Neue_Deutsche_Welle', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Carlo_Karges', 'http://dbpedia.org/resource/Jürgen_Dehmel', 'http://dbpedia.org/resource/Kim_Wilde', 'http://dbpedia.org/resource/Paul_Di_Leo', 'http://dbpedia.org/resource/Paul_Morris_(musician)', 'http://dbpedia.org/resource/Peter_Heppner', 'http://dbpedia.org/resource/Richard_Fortus', 'http://dbpedia.org/resource/The_Stripes__The_Stripes__1', 'http://dbpedia.org/resource/Uwe_Fahrenkrog-Petersen'], 'abstract': 'Gabriele Susanne Kerner (born 24 March 1960), better known as Nena, is a German singer and songwriter who rose to international f